--- a/スケジュール（2023-06）.xlsx
+++ b/スケジュール（2023-06）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/899294c6ec79a384/デスクトップ/WORK/topcloud研修用_202304/01_研修内容・宿題/03_java開発/-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{66ACF057-1916-4C6E-BBFD-D075C0C10CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F408473E-C920-4D36-8B3F-151E67934DBB}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{66ACF057-1916-4C6E-BBFD-D075C0C10CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C6A99F1-F788-485A-ABA8-E4CB1DF40A59}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="体制図" sheetId="11" r:id="rId1"/>
@@ -677,10 +677,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -689,27 +710,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -924,13 +924,39 @@
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>高　菁雨</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>安　雪鑫</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>劉　金澤</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -1453,18 +1479,18 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
               <a:solidFill>
-                <a:schemeClr val="tx1"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>劉　金澤</a:t>
+            <a:t>安　雪鑫</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:solidFill>
-              <a:schemeClr val="tx1"/>
+              <a:sysClr val="windowText" lastClr="000000"/>
             </a:solidFill>
             <a:effectLst/>
           </a:endParaRPr>
@@ -2228,6 +2254,10 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person6.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2488,8 +2518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EFD4C65-EF5B-404F-B563-8B0D34DB9F52}">
   <dimension ref="C3:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2564,7 +2594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:CZ23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
@@ -2627,381 +2657,381 @@
       </c>
     </row>
     <row r="4" spans="2:104" s="20" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39" t="s">
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="T4" s="39" t="s">
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="T4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39" t="s">
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AH4" s="39" t="s">
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
+      <c r="AH4" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="39"/>
-      <c r="AM4" s="39"/>
-      <c r="AN4" s="39" t="s">
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="40"/>
+      <c r="AK4" s="40"/>
+      <c r="AL4" s="40"/>
+      <c r="AM4" s="40"/>
+      <c r="AN4" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="AO4" s="39"/>
-      <c r="AP4" s="39"/>
-      <c r="AQ4" s="39"/>
-      <c r="AR4" s="39"/>
-      <c r="AS4" s="39"/>
-      <c r="AT4" s="40"/>
+      <c r="AO4" s="40"/>
+      <c r="AP4" s="40"/>
+      <c r="AQ4" s="40"/>
+      <c r="AR4" s="40"/>
+      <c r="AS4" s="40"/>
+      <c r="AT4" s="42"/>
       <c r="AU4" s="21"/>
-      <c r="AV4" s="39" t="s">
+      <c r="AV4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="AW4" s="39"/>
-      <c r="AX4" s="39"/>
-      <c r="AY4" s="39"/>
-      <c r="AZ4" s="39"/>
-      <c r="BA4" s="39"/>
-      <c r="BB4" s="39" t="s">
+      <c r="AW4" s="40"/>
+      <c r="AX4" s="40"/>
+      <c r="AY4" s="40"/>
+      <c r="AZ4" s="40"/>
+      <c r="BA4" s="40"/>
+      <c r="BB4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="BC4" s="39"/>
-      <c r="BD4" s="39"/>
-      <c r="BE4" s="39"/>
-      <c r="BF4" s="39"/>
-      <c r="BG4" s="39"/>
-      <c r="BH4" s="39"/>
+      <c r="BC4" s="40"/>
+      <c r="BD4" s="40"/>
+      <c r="BE4" s="40"/>
+      <c r="BF4" s="40"/>
+      <c r="BG4" s="40"/>
+      <c r="BH4" s="40"/>
       <c r="BI4" s="22"/>
-      <c r="BJ4" s="41" t="s">
+      <c r="BJ4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="BK4" s="39"/>
-      <c r="BL4" s="39"/>
-      <c r="BM4" s="39"/>
-      <c r="BN4" s="39"/>
-      <c r="BO4" s="39"/>
-      <c r="BP4" s="39" t="s">
+      <c r="BK4" s="40"/>
+      <c r="BL4" s="40"/>
+      <c r="BM4" s="40"/>
+      <c r="BN4" s="40"/>
+      <c r="BO4" s="40"/>
+      <c r="BP4" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="BQ4" s="39"/>
-      <c r="BR4" s="39"/>
-      <c r="BS4" s="39"/>
-      <c r="BT4" s="39"/>
-      <c r="BU4" s="39"/>
-      <c r="BV4" s="39"/>
-      <c r="BW4" s="39"/>
-      <c r="BY4" s="39" t="s">
+      <c r="BQ4" s="40"/>
+      <c r="BR4" s="40"/>
+      <c r="BS4" s="40"/>
+      <c r="BT4" s="40"/>
+      <c r="BU4" s="40"/>
+      <c r="BV4" s="40"/>
+      <c r="BW4" s="40"/>
+      <c r="BY4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="BZ4" s="39"/>
-      <c r="CA4" s="39"/>
-      <c r="CB4" s="39"/>
-      <c r="CC4" s="39"/>
-      <c r="CD4" s="39"/>
-      <c r="CE4" s="39" t="s">
+      <c r="BZ4" s="40"/>
+      <c r="CA4" s="40"/>
+      <c r="CB4" s="40"/>
+      <c r="CC4" s="40"/>
+      <c r="CD4" s="40"/>
+      <c r="CE4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="CF4" s="39"/>
-      <c r="CG4" s="39"/>
-      <c r="CH4" s="39"/>
-      <c r="CI4" s="39"/>
-      <c r="CJ4" s="39"/>
-      <c r="CK4" s="40"/>
+      <c r="CF4" s="40"/>
+      <c r="CG4" s="40"/>
+      <c r="CH4" s="40"/>
+      <c r="CI4" s="40"/>
+      <c r="CJ4" s="40"/>
+      <c r="CK4" s="42"/>
       <c r="CL4" s="23"/>
-      <c r="CM4" s="41" t="s">
+      <c r="CM4" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="CN4" s="39"/>
-      <c r="CO4" s="39"/>
-      <c r="CP4" s="39"/>
-      <c r="CQ4" s="39"/>
-      <c r="CR4" s="39"/>
-      <c r="CS4" s="39" t="s">
+      <c r="CN4" s="40"/>
+      <c r="CO4" s="40"/>
+      <c r="CP4" s="40"/>
+      <c r="CQ4" s="40"/>
+      <c r="CR4" s="40"/>
+      <c r="CS4" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="CT4" s="39"/>
-      <c r="CU4" s="39"/>
-      <c r="CV4" s="39"/>
-      <c r="CW4" s="39"/>
-      <c r="CX4" s="39"/>
-      <c r="CY4" s="39"/>
-      <c r="CZ4" s="39"/>
+      <c r="CT4" s="40"/>
+      <c r="CU4" s="40"/>
+      <c r="CV4" s="40"/>
+      <c r="CW4" s="40"/>
+      <c r="CX4" s="40"/>
+      <c r="CY4" s="40"/>
+      <c r="CZ4" s="40"/>
     </row>
     <row r="5" spans="2:104" ht="21.6" customHeight="1">
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="39" t="s">
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42" t="s">
+      <c r="H5" s="49"/>
+      <c r="I5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="44" t="s">
+      <c r="J5" s="49"/>
+      <c r="K5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="39" t="s">
+      <c r="L5" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="42" t="s">
+      <c r="M5" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42" t="s">
+      <c r="N5" s="49"/>
+      <c r="O5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="44" t="s">
+      <c r="P5" s="49"/>
+      <c r="Q5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="44" t="s">
+      <c r="R5" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="39" t="s">
+      <c r="T5" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="42" t="s">
+      <c r="U5" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="42"/>
-      <c r="W5" s="42" t="s">
+      <c r="V5" s="49"/>
+      <c r="W5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="44" t="s">
+      <c r="X5" s="49"/>
+      <c r="Y5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="39" t="s">
+      <c r="Z5" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="AA5" s="42" t="s">
+      <c r="AA5" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="42" t="s">
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="AD5" s="42"/>
-      <c r="AE5" s="44" t="s">
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="AF5" s="44" t="s">
+      <c r="AF5" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="AH5" s="39" t="s">
+      <c r="AH5" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="AI5" s="42" t="s">
+      <c r="AI5" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="AJ5" s="42"/>
-      <c r="AK5" s="42" t="s">
+      <c r="AJ5" s="49"/>
+      <c r="AK5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="AL5" s="42"/>
-      <c r="AM5" s="44" t="s">
+      <c r="AL5" s="49"/>
+      <c r="AM5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="AN5" s="39" t="s">
+      <c r="AN5" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="AO5" s="42" t="s">
+      <c r="AO5" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="AP5" s="42"/>
-      <c r="AQ5" s="42" t="s">
+      <c r="AP5" s="49"/>
+      <c r="AQ5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="AR5" s="42"/>
-      <c r="AS5" s="44" t="s">
+      <c r="AR5" s="49"/>
+      <c r="AS5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="AT5" s="47" t="s">
+      <c r="AT5" s="41" t="s">
         <v>23</v>
       </c>
       <c r="AU5" s="13"/>
-      <c r="AV5" s="39" t="s">
+      <c r="AV5" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="AW5" s="42" t="s">
+      <c r="AW5" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="AX5" s="42"/>
-      <c r="AY5" s="42" t="s">
+      <c r="AX5" s="49"/>
+      <c r="AY5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="AZ5" s="42"/>
-      <c r="BA5" s="44" t="s">
+      <c r="AZ5" s="49"/>
+      <c r="BA5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="BB5" s="39" t="s">
+      <c r="BB5" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="BC5" s="42" t="s">
+      <c r="BC5" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="BD5" s="42"/>
-      <c r="BE5" s="42" t="s">
+      <c r="BD5" s="49"/>
+      <c r="BE5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="BF5" s="42"/>
-      <c r="BG5" s="44" t="s">
+      <c r="BF5" s="49"/>
+      <c r="BG5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="BH5" s="44" t="s">
+      <c r="BH5" s="39" t="s">
         <v>23</v>
       </c>
       <c r="BI5" s="14"/>
-      <c r="BJ5" s="41" t="s">
+      <c r="BJ5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="BK5" s="42" t="s">
+      <c r="BK5" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="BL5" s="42"/>
-      <c r="BM5" s="42" t="s">
+      <c r="BL5" s="49"/>
+      <c r="BM5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="BN5" s="42"/>
-      <c r="BO5" s="44" t="s">
+      <c r="BN5" s="49"/>
+      <c r="BO5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="BP5" s="39" t="s">
+      <c r="BP5" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="BQ5" s="42" t="s">
+      <c r="BQ5" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="BR5" s="42"/>
-      <c r="BS5" s="42" t="s">
+      <c r="BR5" s="49"/>
+      <c r="BS5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="BT5" s="42"/>
-      <c r="BU5" s="44" t="s">
+      <c r="BT5" s="49"/>
+      <c r="BU5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="BV5" s="44" t="s">
+      <c r="BV5" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="BW5" s="44" t="s">
+      <c r="BW5" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="BY5" s="39" t="s">
+      <c r="BY5" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="BZ5" s="45" t="s">
+      <c r="BZ5" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="CA5" s="45"/>
-      <c r="CB5" s="45" t="s">
+      <c r="CA5" s="47"/>
+      <c r="CB5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="CC5" s="45"/>
-      <c r="CD5" s="44" t="s">
+      <c r="CC5" s="47"/>
+      <c r="CD5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="CE5" s="39" t="s">
+      <c r="CE5" s="40" t="s">
         <v>22</v>
       </c>
       <c r="CF5" s="46" t="s">
         <v>19</v>
       </c>
       <c r="CG5" s="46"/>
-      <c r="CH5" s="45" t="s">
+      <c r="CH5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="CI5" s="45"/>
-      <c r="CJ5" s="44" t="s">
+      <c r="CI5" s="47"/>
+      <c r="CJ5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="CK5" s="47" t="s">
+      <c r="CK5" s="41" t="s">
         <v>23</v>
       </c>
       <c r="CL5" s="11"/>
-      <c r="CM5" s="41" t="s">
+      <c r="CM5" s="48" t="s">
         <v>18</v>
       </c>
       <c r="CN5" s="46" t="s">
         <v>19</v>
       </c>
       <c r="CO5" s="46"/>
-      <c r="CP5" s="45" t="s">
+      <c r="CP5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="CQ5" s="45"/>
-      <c r="CR5" s="44" t="s">
+      <c r="CQ5" s="47"/>
+      <c r="CR5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="CS5" s="39" t="s">
+      <c r="CS5" s="40" t="s">
         <v>22</v>
       </c>
       <c r="CT5" s="46" t="s">
         <v>19</v>
       </c>
       <c r="CU5" s="46"/>
-      <c r="CV5" s="45" t="s">
+      <c r="CV5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="CW5" s="45"/>
-      <c r="CX5" s="44" t="s">
+      <c r="CW5" s="47"/>
+      <c r="CX5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="CY5" s="44" t="s">
+      <c r="CY5" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="CZ5" s="44" t="s">
+      <c r="CZ5" s="39" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:104" ht="14.4">
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="39"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3014,8 +3044,8 @@
       <c r="J6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
       <c r="M6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3028,9 +3058,9 @@
       <c r="P6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="T6" s="39"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="T6" s="40"/>
       <c r="U6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3043,8 +3073,8 @@
       <c r="X6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="39"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
       <c r="AA6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3057,9 +3087,9 @@
       <c r="AD6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AE6" s="39"/>
-      <c r="AF6" s="39"/>
-      <c r="AH6" s="39"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="40"/>
+      <c r="AH6" s="40"/>
       <c r="AI6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3072,8 +3102,8 @@
       <c r="AL6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AM6" s="39"/>
-      <c r="AN6" s="39"/>
+      <c r="AM6" s="40"/>
+      <c r="AN6" s="40"/>
       <c r="AO6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3086,10 +3116,10 @@
       <c r="AR6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AS6" s="39"/>
-      <c r="AT6" s="40"/>
+      <c r="AS6" s="40"/>
+      <c r="AT6" s="42"/>
       <c r="AU6" s="13"/>
-      <c r="AV6" s="39"/>
+      <c r="AV6" s="40"/>
       <c r="AW6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3102,8 +3132,8 @@
       <c r="AZ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BA6" s="39"/>
-      <c r="BB6" s="39"/>
+      <c r="BA6" s="40"/>
+      <c r="BB6" s="40"/>
       <c r="BC6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3116,10 +3146,10 @@
       <c r="BF6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BG6" s="39"/>
-      <c r="BH6" s="39"/>
+      <c r="BG6" s="40"/>
+      <c r="BH6" s="40"/>
       <c r="BI6" s="14"/>
-      <c r="BJ6" s="41"/>
+      <c r="BJ6" s="48"/>
       <c r="BK6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3132,8 +3162,8 @@
       <c r="BN6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BO6" s="39"/>
-      <c r="BP6" s="39"/>
+      <c r="BO6" s="40"/>
+      <c r="BP6" s="40"/>
       <c r="BQ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3146,10 +3176,10 @@
       <c r="BT6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BU6" s="39"/>
-      <c r="BV6" s="39"/>
-      <c r="BW6" s="39"/>
-      <c r="BY6" s="39"/>
+      <c r="BU6" s="40"/>
+      <c r="BV6" s="40"/>
+      <c r="BW6" s="40"/>
+      <c r="BY6" s="40"/>
       <c r="BZ6" s="32" t="s">
         <v>25</v>
       </c>
@@ -3162,8 +3192,8 @@
       <c r="CC6" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="CD6" s="39"/>
-      <c r="CE6" s="39"/>
+      <c r="CD6" s="40"/>
+      <c r="CE6" s="40"/>
       <c r="CF6" s="35" t="s">
         <v>25</v>
       </c>
@@ -3176,10 +3206,10 @@
       <c r="CI6" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="CJ6" s="39"/>
-      <c r="CK6" s="40"/>
+      <c r="CJ6" s="40"/>
+      <c r="CK6" s="42"/>
       <c r="CL6" s="11"/>
-      <c r="CM6" s="41"/>
+      <c r="CM6" s="48"/>
       <c r="CN6" s="35" t="s">
         <v>25</v>
       </c>
@@ -3192,8 +3222,8 @@
       <c r="CQ6" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="CR6" s="39"/>
-      <c r="CS6" s="39"/>
+      <c r="CR6" s="40"/>
+      <c r="CS6" s="40"/>
       <c r="CT6" s="35" t="s">
         <v>25</v>
       </c>
@@ -3206,9 +3236,9 @@
       <c r="CW6" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="CX6" s="39"/>
-      <c r="CY6" s="39"/>
-      <c r="CZ6" s="39"/>
+      <c r="CX6" s="40"/>
+      <c r="CY6" s="40"/>
+      <c r="CZ6" s="40"/>
     </row>
     <row r="7" spans="2:104" ht="20.25" customHeight="1">
       <c r="B7" s="5">
@@ -4428,10 +4458,10 @@
       <c r="BW14" s="10"/>
       <c r="BX14" s="13"/>
       <c r="BY14" s="36"/>
-      <c r="BZ14" s="48">
+      <c r="BZ14" s="43">
         <v>45100</v>
       </c>
-      <c r="CA14" s="48">
+      <c r="CA14" s="43">
         <v>45100</v>
       </c>
       <c r="CB14" s="36"/>
@@ -4597,8 +4627,8 @@
       <c r="BV15" s="10"/>
       <c r="BW15" s="10"/>
       <c r="BY15" s="37"/>
-      <c r="BZ15" s="49"/>
-      <c r="CA15" s="49"/>
+      <c r="BZ15" s="44"/>
+      <c r="CA15" s="44"/>
       <c r="CB15" s="37"/>
       <c r="CC15" s="37"/>
       <c r="CD15" s="37"/>
@@ -4750,8 +4780,8 @@
       <c r="BV16" s="10"/>
       <c r="BW16" s="10"/>
       <c r="BY16" s="37"/>
-      <c r="BZ16" s="49"/>
-      <c r="CA16" s="49"/>
+      <c r="BZ16" s="44"/>
+      <c r="CA16" s="44"/>
       <c r="CB16" s="37"/>
       <c r="CC16" s="37"/>
       <c r="CD16" s="37"/>
@@ -4904,8 +4934,8 @@
       <c r="BW17" s="10"/>
       <c r="BX17" s="11"/>
       <c r="BY17" s="37"/>
-      <c r="BZ17" s="49"/>
-      <c r="CA17" s="49"/>
+      <c r="BZ17" s="44"/>
+      <c r="CA17" s="44"/>
       <c r="CB17" s="37"/>
       <c r="CC17" s="37"/>
       <c r="CD17" s="37"/>
@@ -5058,8 +5088,8 @@
       <c r="BW18" s="10"/>
       <c r="BX18" s="11"/>
       <c r="BY18" s="37"/>
-      <c r="BZ18" s="49"/>
-      <c r="CA18" s="49"/>
+      <c r="BZ18" s="44"/>
+      <c r="CA18" s="44"/>
       <c r="CB18" s="37"/>
       <c r="CC18" s="37"/>
       <c r="CD18" s="37"/>
@@ -5212,8 +5242,8 @@
       <c r="BW19" s="10"/>
       <c r="BX19" s="11"/>
       <c r="BY19" s="37"/>
-      <c r="BZ19" s="49"/>
-      <c r="CA19" s="49"/>
+      <c r="BZ19" s="44"/>
+      <c r="CA19" s="44"/>
       <c r="CB19" s="37"/>
       <c r="CC19" s="37"/>
       <c r="CD19" s="37"/>
@@ -5366,8 +5396,8 @@
       <c r="BW20" s="10"/>
       <c r="BX20" s="11"/>
       <c r="BY20" s="37"/>
-      <c r="BZ20" s="49"/>
-      <c r="CA20" s="49"/>
+      <c r="BZ20" s="44"/>
+      <c r="CA20" s="44"/>
       <c r="CB20" s="37"/>
       <c r="CC20" s="37"/>
       <c r="CD20" s="37"/>
@@ -5520,8 +5550,8 @@
       <c r="BW21" s="10"/>
       <c r="BX21" s="13"/>
       <c r="BY21" s="38"/>
-      <c r="BZ21" s="50"/>
-      <c r="CA21" s="50"/>
+      <c r="BZ21" s="45"/>
+      <c r="CA21" s="45"/>
       <c r="CB21" s="38"/>
       <c r="CC21" s="38"/>
       <c r="CD21" s="38"/>
@@ -5558,62 +5588,63 @@
     </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="CB7:CB13"/>
-    <mergeCell ref="CC7:CC13"/>
-    <mergeCell ref="CD7:CD13"/>
-    <mergeCell ref="CE7:CE13"/>
-    <mergeCell ref="CF7:CF13"/>
-    <mergeCell ref="CG7:CG13"/>
-    <mergeCell ref="CU7:CU13"/>
-    <mergeCell ref="CV7:CV13"/>
-    <mergeCell ref="CW7:CW13"/>
-    <mergeCell ref="CH7:CH13"/>
-    <mergeCell ref="CI7:CI13"/>
-    <mergeCell ref="CJ7:CJ13"/>
-    <mergeCell ref="CK7:CK13"/>
-    <mergeCell ref="CM7:CM13"/>
-    <mergeCell ref="CN7:CN13"/>
-    <mergeCell ref="CO7:CO13"/>
-    <mergeCell ref="CP7:CP13"/>
-    <mergeCell ref="CQ7:CQ13"/>
-    <mergeCell ref="CX14:CX21"/>
-    <mergeCell ref="CY14:CY21"/>
-    <mergeCell ref="CZ14:CZ21"/>
-    <mergeCell ref="CM14:CM21"/>
-    <mergeCell ref="CN14:CN21"/>
-    <mergeCell ref="CO14:CO21"/>
-    <mergeCell ref="CP14:CP21"/>
-    <mergeCell ref="CR7:CR13"/>
-    <mergeCell ref="CS7:CS13"/>
-    <mergeCell ref="CT7:CT13"/>
-    <mergeCell ref="CT14:CT21"/>
-    <mergeCell ref="CU14:CU21"/>
-    <mergeCell ref="CV14:CV21"/>
-    <mergeCell ref="CW14:CW21"/>
-    <mergeCell ref="CX7:CX13"/>
-    <mergeCell ref="CY7:CY13"/>
-    <mergeCell ref="CZ7:CZ13"/>
-    <mergeCell ref="CQ14:CQ21"/>
-    <mergeCell ref="CR14:CR21"/>
-    <mergeCell ref="CS14:CS21"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="BY14:BY21"/>
-    <mergeCell ref="BZ14:BZ21"/>
-    <mergeCell ref="CA14:CA21"/>
-    <mergeCell ref="CB14:CB21"/>
-    <mergeCell ref="CC14:CC21"/>
-    <mergeCell ref="CD14:CD21"/>
-    <mergeCell ref="CE14:CE21"/>
-    <mergeCell ref="CF14:CF21"/>
-    <mergeCell ref="CG14:CG21"/>
+    <mergeCell ref="CH14:CH21"/>
+    <mergeCell ref="CI14:CI21"/>
+    <mergeCell ref="CJ14:CJ21"/>
+    <mergeCell ref="CK14:CK21"/>
+    <mergeCell ref="CE4:CK4"/>
+    <mergeCell ref="CM4:CR4"/>
+    <mergeCell ref="CS4:CZ4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:R4"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="CF5:CG5"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="BP4:BW4"/>
+    <mergeCell ref="BY4:CD4"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="Z4:AF4"/>
+    <mergeCell ref="AH4:AM4"/>
+    <mergeCell ref="AN4:AT4"/>
+    <mergeCell ref="AV4:BA4"/>
+    <mergeCell ref="BB4:BH4"/>
+    <mergeCell ref="BJ4:BO4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="BM5:BN5"/>
+    <mergeCell ref="BQ5:BR5"/>
     <mergeCell ref="BY7:BY13"/>
     <mergeCell ref="BZ7:BZ13"/>
     <mergeCell ref="CA7:CA13"/>
@@ -5638,63 +5669,62 @@
     <mergeCell ref="CH5:CI5"/>
     <mergeCell ref="CY5:CY6"/>
     <mergeCell ref="CE5:CE6"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="CF5:CG5"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="BZ5:CA5"/>
-    <mergeCell ref="BP4:BW4"/>
-    <mergeCell ref="BY4:CD4"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="Z4:AF4"/>
-    <mergeCell ref="AH4:AM4"/>
-    <mergeCell ref="AN4:AT4"/>
-    <mergeCell ref="AV4:BA4"/>
-    <mergeCell ref="BB4:BH4"/>
-    <mergeCell ref="BJ4:BO4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:R4"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="CH14:CH21"/>
-    <mergeCell ref="CI14:CI21"/>
-    <mergeCell ref="CJ14:CJ21"/>
-    <mergeCell ref="CK14:CK21"/>
-    <mergeCell ref="CE4:CK4"/>
-    <mergeCell ref="CM4:CR4"/>
-    <mergeCell ref="CS4:CZ4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="BY14:BY21"/>
+    <mergeCell ref="BZ14:BZ21"/>
+    <mergeCell ref="CA14:CA21"/>
+    <mergeCell ref="CB14:CB21"/>
+    <mergeCell ref="CC14:CC21"/>
+    <mergeCell ref="CD14:CD21"/>
+    <mergeCell ref="CE14:CE21"/>
+    <mergeCell ref="CF14:CF21"/>
+    <mergeCell ref="CG14:CG21"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="CX14:CX21"/>
+    <mergeCell ref="CY14:CY21"/>
+    <mergeCell ref="CZ14:CZ21"/>
+    <mergeCell ref="CM14:CM21"/>
+    <mergeCell ref="CN14:CN21"/>
+    <mergeCell ref="CO14:CO21"/>
+    <mergeCell ref="CP14:CP21"/>
+    <mergeCell ref="CR7:CR13"/>
+    <mergeCell ref="CS7:CS13"/>
+    <mergeCell ref="CT7:CT13"/>
+    <mergeCell ref="CT14:CT21"/>
+    <mergeCell ref="CU14:CU21"/>
+    <mergeCell ref="CV14:CV21"/>
+    <mergeCell ref="CW14:CW21"/>
+    <mergeCell ref="CX7:CX13"/>
+    <mergeCell ref="CY7:CY13"/>
+    <mergeCell ref="CZ7:CZ13"/>
+    <mergeCell ref="CQ14:CQ21"/>
+    <mergeCell ref="CR14:CR21"/>
+    <mergeCell ref="CS14:CS21"/>
+    <mergeCell ref="CB7:CB13"/>
+    <mergeCell ref="CC7:CC13"/>
+    <mergeCell ref="CD7:CD13"/>
+    <mergeCell ref="CE7:CE13"/>
+    <mergeCell ref="CF7:CF13"/>
+    <mergeCell ref="CG7:CG13"/>
+    <mergeCell ref="CU7:CU13"/>
+    <mergeCell ref="CV7:CV13"/>
+    <mergeCell ref="CW7:CW13"/>
+    <mergeCell ref="CH7:CH13"/>
+    <mergeCell ref="CI7:CI13"/>
+    <mergeCell ref="CJ7:CJ13"/>
+    <mergeCell ref="CK7:CK13"/>
+    <mergeCell ref="CM7:CM13"/>
+    <mergeCell ref="CN7:CN13"/>
+    <mergeCell ref="CO7:CO13"/>
+    <mergeCell ref="CP7:CP13"/>
+    <mergeCell ref="CQ7:CQ13"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="F7:F13 G7:K21">

--- a/スケジュール（2023-06）.xlsx
+++ b/スケジュール（2023-06）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/899294c6ec79a384/デスクトップ/WORK/topcloud研修用_202304/01_研修内容・宿題/03_java開発/-1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\o3o__\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="8_{66ACF057-1916-4C6E-BBFD-D075C0C10CDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C6A99F1-F788-485A-ABA8-E4CB1DF40A59}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC4071C-881E-4474-AB78-8890FBAA6983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="体制図" sheetId="11" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="59">
   <si>
     <t>勤怠管理システムWBS</t>
   </si>
@@ -264,71 +264,11 @@
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>高　菁雨</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>安　雪鑫</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>劉　金澤</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>聶　暁非</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>長島　凱斗</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>知野　明斗</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>陳　徐輝</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>チーム2</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>施 楠豪</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>李 承炫</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>陳　委芹</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>賈　則慧</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>壮　壮</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
     <t>馬　広超</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>陳　晨</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>金井　隆</t>
-    <phoneticPr fontId="8"/>
-  </si>
-  <si>
-    <t>林　松</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
@@ -353,6 +293,40 @@
     <t>PG(６名)</t>
     <rPh sb="4" eb="5">
       <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>陳　委芹</t>
+  </si>
+  <si>
+    <t>賈　則慧</t>
+  </si>
+  <si>
+    <t>施 楠豪</t>
+  </si>
+  <si>
+    <t>李 承炫</t>
+  </si>
+  <si>
+    <t>林　松</t>
+  </si>
+  <si>
+    <t>壮　壮</t>
+  </si>
+  <si>
+    <t>陳　晨</t>
+  </si>
+  <si>
+    <t>金井　隆</t>
+  </si>
+  <si>
+    <t>（日報参照）</t>
+    <rPh sb="1" eb="3">
+      <t>ニッポウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
@@ -574,7 +548,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -649,9 +623,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -677,16 +648,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -697,20 +683,26 @@
     <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -719,7 +711,77 @@
     <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準_システム管理" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="28">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2518,36 +2580,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EFD4C65-EF5B-404F-B563-8B0D34DB9F52}">
   <dimension ref="C3:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="3" spans="3:7">
-      <c r="G3" s="29" t="s">
-        <v>57</v>
+      <c r="G3" s="28" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="3:7">
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="28" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="3:7">
       <c r="C7" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="3:7">
       <c r="C11" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2594,11 +2656,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:CZ23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K8:K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
@@ -2634,18 +2696,18 @@
     <col min="69" max="75" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="76" max="76" width="1.59765625" style="1" customWidth="1"/>
     <col min="77" max="77" width="6.59765625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="78" max="81" width="6.5" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="78" max="81" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
     <col min="82" max="83" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="84" max="85" width="6.5" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="86" max="87" width="6.5" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="84" max="85" width="6.5" style="33" customWidth="1" outlineLevel="1"/>
+    <col min="86" max="87" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
     <col min="88" max="89" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="90" max="90" width="1.59765625" style="1" customWidth="1"/>
     <col min="91" max="91" width="6.59765625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="92" max="93" width="6.5" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="94" max="95" width="6.5" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="92" max="93" width="6.5" style="33" customWidth="1" outlineLevel="1"/>
+    <col min="94" max="95" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
     <col min="96" max="97" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="98" max="99" width="6.5" style="34" customWidth="1" outlineLevel="1"/>
-    <col min="100" max="101" width="6.5" style="31" customWidth="1" outlineLevel="1"/>
+    <col min="98" max="99" width="6.5" style="33" customWidth="1" outlineLevel="1"/>
+    <col min="100" max="101" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
     <col min="102" max="104" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="105" max="105" width="1.59765625" style="1" customWidth="1"/>
     <col min="106" max="16384" width="9" style="1"/>
@@ -2657,381 +2719,381 @@
       </c>
     </row>
     <row r="4" spans="2:104" s="20" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40" t="s">
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="T4" s="40" t="s">
+      <c r="M4" s="38"/>
+      <c r="N4" s="38"/>
+      <c r="O4" s="38"/>
+      <c r="P4" s="38"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="T4" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40" t="s">
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="38"/>
+      <c r="X4" s="38"/>
+      <c r="Y4" s="38"/>
+      <c r="Z4" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="40"/>
-      <c r="AH4" s="40" t="s">
+      <c r="AA4" s="38"/>
+      <c r="AB4" s="38"/>
+      <c r="AC4" s="38"/>
+      <c r="AD4" s="38"/>
+      <c r="AE4" s="38"/>
+      <c r="AF4" s="38"/>
+      <c r="AH4" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="AI4" s="40"/>
-      <c r="AJ4" s="40"/>
-      <c r="AK4" s="40"/>
-      <c r="AL4" s="40"/>
-      <c r="AM4" s="40"/>
-      <c r="AN4" s="40" t="s">
+      <c r="AI4" s="38"/>
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="38"/>
+      <c r="AL4" s="38"/>
+      <c r="AM4" s="38"/>
+      <c r="AN4" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="AO4" s="40"/>
-      <c r="AP4" s="40"/>
-      <c r="AQ4" s="40"/>
-      <c r="AR4" s="40"/>
-      <c r="AS4" s="40"/>
-      <c r="AT4" s="42"/>
+      <c r="AO4" s="38"/>
+      <c r="AP4" s="38"/>
+      <c r="AQ4" s="38"/>
+      <c r="AR4" s="38"/>
+      <c r="AS4" s="38"/>
+      <c r="AT4" s="39"/>
       <c r="AU4" s="21"/>
-      <c r="AV4" s="40" t="s">
+      <c r="AV4" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="AW4" s="40"/>
-      <c r="AX4" s="40"/>
-      <c r="AY4" s="40"/>
-      <c r="AZ4" s="40"/>
-      <c r="BA4" s="40"/>
-      <c r="BB4" s="40" t="s">
+      <c r="AW4" s="38"/>
+      <c r="AX4" s="38"/>
+      <c r="AY4" s="38"/>
+      <c r="AZ4" s="38"/>
+      <c r="BA4" s="38"/>
+      <c r="BB4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="BC4" s="40"/>
-      <c r="BD4" s="40"/>
-      <c r="BE4" s="40"/>
-      <c r="BF4" s="40"/>
-      <c r="BG4" s="40"/>
-      <c r="BH4" s="40"/>
+      <c r="BC4" s="38"/>
+      <c r="BD4" s="38"/>
+      <c r="BE4" s="38"/>
+      <c r="BF4" s="38"/>
+      <c r="BG4" s="38"/>
+      <c r="BH4" s="38"/>
       <c r="BI4" s="22"/>
-      <c r="BJ4" s="48" t="s">
+      <c r="BJ4" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="BK4" s="40"/>
-      <c r="BL4" s="40"/>
-      <c r="BM4" s="40"/>
-      <c r="BN4" s="40"/>
-      <c r="BO4" s="40"/>
-      <c r="BP4" s="40" t="s">
+      <c r="BK4" s="38"/>
+      <c r="BL4" s="38"/>
+      <c r="BM4" s="38"/>
+      <c r="BN4" s="38"/>
+      <c r="BO4" s="38"/>
+      <c r="BP4" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="BQ4" s="40"/>
-      <c r="BR4" s="40"/>
-      <c r="BS4" s="40"/>
-      <c r="BT4" s="40"/>
-      <c r="BU4" s="40"/>
-      <c r="BV4" s="40"/>
-      <c r="BW4" s="40"/>
-      <c r="BY4" s="40" t="s">
+      <c r="BQ4" s="38"/>
+      <c r="BR4" s="38"/>
+      <c r="BS4" s="38"/>
+      <c r="BT4" s="38"/>
+      <c r="BU4" s="38"/>
+      <c r="BV4" s="38"/>
+      <c r="BW4" s="38"/>
+      <c r="BY4" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="BZ4" s="40"/>
-      <c r="CA4" s="40"/>
-      <c r="CB4" s="40"/>
-      <c r="CC4" s="40"/>
-      <c r="CD4" s="40"/>
-      <c r="CE4" s="40" t="s">
+      <c r="BZ4" s="38"/>
+      <c r="CA4" s="38"/>
+      <c r="CB4" s="38"/>
+      <c r="CC4" s="38"/>
+      <c r="CD4" s="38"/>
+      <c r="CE4" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="CF4" s="40"/>
-      <c r="CG4" s="40"/>
-      <c r="CH4" s="40"/>
-      <c r="CI4" s="40"/>
-      <c r="CJ4" s="40"/>
-      <c r="CK4" s="42"/>
+      <c r="CF4" s="38"/>
+      <c r="CG4" s="38"/>
+      <c r="CH4" s="38"/>
+      <c r="CI4" s="38"/>
+      <c r="CJ4" s="38"/>
+      <c r="CK4" s="39"/>
       <c r="CL4" s="23"/>
-      <c r="CM4" s="48" t="s">
+      <c r="CM4" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="CN4" s="40"/>
-      <c r="CO4" s="40"/>
-      <c r="CP4" s="40"/>
-      <c r="CQ4" s="40"/>
-      <c r="CR4" s="40"/>
-      <c r="CS4" s="40" t="s">
+      <c r="CN4" s="38"/>
+      <c r="CO4" s="38"/>
+      <c r="CP4" s="38"/>
+      <c r="CQ4" s="38"/>
+      <c r="CR4" s="38"/>
+      <c r="CS4" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="CT4" s="40"/>
-      <c r="CU4" s="40"/>
-      <c r="CV4" s="40"/>
-      <c r="CW4" s="40"/>
-      <c r="CX4" s="40"/>
-      <c r="CY4" s="40"/>
-      <c r="CZ4" s="40"/>
+      <c r="CT4" s="38"/>
+      <c r="CU4" s="38"/>
+      <c r="CV4" s="38"/>
+      <c r="CW4" s="38"/>
+      <c r="CX4" s="38"/>
+      <c r="CY4" s="38"/>
+      <c r="CZ4" s="38"/>
     </row>
     <row r="5" spans="2:104" ht="21.6" customHeight="1">
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="40" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49" t="s">
+      <c r="H5" s="41"/>
+      <c r="I5" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="49"/>
-      <c r="K5" s="39" t="s">
+      <c r="J5" s="41"/>
+      <c r="K5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="40" t="s">
+      <c r="L5" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="49" t="s">
+      <c r="M5" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49" t="s">
+      <c r="N5" s="41"/>
+      <c r="O5" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="39" t="s">
+      <c r="P5" s="41"/>
+      <c r="Q5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="39" t="s">
+      <c r="R5" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="40" t="s">
+      <c r="T5" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="49" t="s">
+      <c r="U5" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49" t="s">
+      <c r="V5" s="41"/>
+      <c r="W5" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="39" t="s">
+      <c r="X5" s="41"/>
+      <c r="Y5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="40" t="s">
+      <c r="Z5" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="AA5" s="49" t="s">
+      <c r="AA5" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="AB5" s="49"/>
-      <c r="AC5" s="49" t="s">
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="AD5" s="49"/>
-      <c r="AE5" s="39" t="s">
+      <c r="AD5" s="41"/>
+      <c r="AE5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="AF5" s="39" t="s">
+      <c r="AF5" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="AH5" s="40" t="s">
+      <c r="AH5" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="AI5" s="49" t="s">
+      <c r="AI5" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="AJ5" s="49"/>
-      <c r="AK5" s="49" t="s">
+      <c r="AJ5" s="41"/>
+      <c r="AK5" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="AL5" s="49"/>
-      <c r="AM5" s="39" t="s">
+      <c r="AL5" s="41"/>
+      <c r="AM5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="AN5" s="40" t="s">
+      <c r="AN5" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="AO5" s="49" t="s">
+      <c r="AO5" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="AP5" s="49"/>
-      <c r="AQ5" s="49" t="s">
+      <c r="AP5" s="41"/>
+      <c r="AQ5" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="AR5" s="49"/>
-      <c r="AS5" s="39" t="s">
+      <c r="AR5" s="41"/>
+      <c r="AS5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="AT5" s="41" t="s">
+      <c r="AT5" s="46" t="s">
         <v>23</v>
       </c>
       <c r="AU5" s="13"/>
-      <c r="AV5" s="40" t="s">
+      <c r="AV5" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="AW5" s="49" t="s">
+      <c r="AW5" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="AX5" s="49"/>
-      <c r="AY5" s="49" t="s">
+      <c r="AX5" s="41"/>
+      <c r="AY5" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="AZ5" s="49"/>
-      <c r="BA5" s="39" t="s">
+      <c r="AZ5" s="41"/>
+      <c r="BA5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="BB5" s="40" t="s">
+      <c r="BB5" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="BC5" s="49" t="s">
+      <c r="BC5" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="BD5" s="49"/>
-      <c r="BE5" s="49" t="s">
+      <c r="BD5" s="41"/>
+      <c r="BE5" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="BF5" s="49"/>
-      <c r="BG5" s="39" t="s">
+      <c r="BF5" s="41"/>
+      <c r="BG5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="BH5" s="39" t="s">
+      <c r="BH5" s="43" t="s">
         <v>23</v>
       </c>
       <c r="BI5" s="14"/>
-      <c r="BJ5" s="48" t="s">
+      <c r="BJ5" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="BK5" s="49" t="s">
+      <c r="BK5" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="BL5" s="49"/>
-      <c r="BM5" s="49" t="s">
+      <c r="BL5" s="41"/>
+      <c r="BM5" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="BN5" s="49"/>
-      <c r="BO5" s="39" t="s">
+      <c r="BN5" s="41"/>
+      <c r="BO5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="BP5" s="40" t="s">
+      <c r="BP5" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="BQ5" s="49" t="s">
+      <c r="BQ5" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="BR5" s="49"/>
-      <c r="BS5" s="49" t="s">
+      <c r="BR5" s="41"/>
+      <c r="BS5" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="BT5" s="49"/>
-      <c r="BU5" s="39" t="s">
+      <c r="BT5" s="41"/>
+      <c r="BU5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="BV5" s="39" t="s">
+      <c r="BV5" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="BW5" s="39" t="s">
+      <c r="BW5" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="BY5" s="40" t="s">
+      <c r="BY5" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="BZ5" s="47" t="s">
+      <c r="BZ5" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="CA5" s="47"/>
-      <c r="CB5" s="47" t="s">
+      <c r="CA5" s="44"/>
+      <c r="CB5" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="CC5" s="47"/>
-      <c r="CD5" s="39" t="s">
+      <c r="CC5" s="44"/>
+      <c r="CD5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="CE5" s="40" t="s">
+      <c r="CE5" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="CF5" s="46" t="s">
+      <c r="CF5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="CG5" s="46"/>
-      <c r="CH5" s="47" t="s">
+      <c r="CG5" s="45"/>
+      <c r="CH5" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="CI5" s="47"/>
-      <c r="CJ5" s="39" t="s">
+      <c r="CI5" s="44"/>
+      <c r="CJ5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="CK5" s="41" t="s">
+      <c r="CK5" s="46" t="s">
         <v>23</v>
       </c>
       <c r="CL5" s="11"/>
-      <c r="CM5" s="48" t="s">
+      <c r="CM5" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="CN5" s="46" t="s">
+      <c r="CN5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="CO5" s="46"/>
-      <c r="CP5" s="47" t="s">
+      <c r="CO5" s="45"/>
+      <c r="CP5" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="CQ5" s="47"/>
-      <c r="CR5" s="39" t="s">
+      <c r="CQ5" s="44"/>
+      <c r="CR5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="CS5" s="40" t="s">
+      <c r="CS5" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="CT5" s="46" t="s">
+      <c r="CT5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="CU5" s="46"/>
-      <c r="CV5" s="47" t="s">
+      <c r="CU5" s="45"/>
+      <c r="CV5" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="CW5" s="47"/>
-      <c r="CX5" s="39" t="s">
+      <c r="CW5" s="44"/>
+      <c r="CX5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="CY5" s="39" t="s">
+      <c r="CY5" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="CZ5" s="39" t="s">
+      <c r="CZ5" s="43" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:104" ht="14.4">
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="40"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="38"/>
       <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3044,8 +3106,8 @@
       <c r="J6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
       <c r="M6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3058,9 +3120,9 @@
       <c r="P6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="T6" s="40"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="T6" s="38"/>
       <c r="U6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3073,8 +3135,8 @@
       <c r="X6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
       <c r="AA6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3087,9 +3149,9 @@
       <c r="AD6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AE6" s="40"/>
-      <c r="AF6" s="40"/>
-      <c r="AH6" s="40"/>
+      <c r="AE6" s="38"/>
+      <c r="AF6" s="38"/>
+      <c r="AH6" s="38"/>
       <c r="AI6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3102,8 +3164,8 @@
       <c r="AL6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AM6" s="40"/>
-      <c r="AN6" s="40"/>
+      <c r="AM6" s="38"/>
+      <c r="AN6" s="38"/>
       <c r="AO6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3116,10 +3178,10 @@
       <c r="AR6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AS6" s="40"/>
-      <c r="AT6" s="42"/>
+      <c r="AS6" s="38"/>
+      <c r="AT6" s="39"/>
       <c r="AU6" s="13"/>
-      <c r="AV6" s="40"/>
+      <c r="AV6" s="38"/>
       <c r="AW6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3132,8 +3194,8 @@
       <c r="AZ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BA6" s="40"/>
-      <c r="BB6" s="40"/>
+      <c r="BA6" s="38"/>
+      <c r="BB6" s="38"/>
       <c r="BC6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3146,10 +3208,10 @@
       <c r="BF6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BG6" s="40"/>
-      <c r="BH6" s="40"/>
+      <c r="BG6" s="38"/>
+      <c r="BH6" s="38"/>
       <c r="BI6" s="14"/>
-      <c r="BJ6" s="48"/>
+      <c r="BJ6" s="40"/>
       <c r="BK6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3162,8 +3224,8 @@
       <c r="BN6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BO6" s="40"/>
-      <c r="BP6" s="40"/>
+      <c r="BO6" s="38"/>
+      <c r="BP6" s="38"/>
       <c r="BQ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3176,69 +3238,69 @@
       <c r="BT6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BU6" s="40"/>
-      <c r="BV6" s="40"/>
-      <c r="BW6" s="40"/>
-      <c r="BY6" s="40"/>
-      <c r="BZ6" s="32" t="s">
+      <c r="BU6" s="38"/>
+      <c r="BV6" s="38"/>
+      <c r="BW6" s="38"/>
+      <c r="BY6" s="38"/>
+      <c r="BZ6" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="CA6" s="32" t="s">
+      <c r="CA6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CB6" s="32" t="s">
+      <c r="CB6" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="CC6" s="32" t="s">
+      <c r="CC6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CD6" s="40"/>
-      <c r="CE6" s="40"/>
-      <c r="CF6" s="35" t="s">
+      <c r="CD6" s="38"/>
+      <c r="CE6" s="38"/>
+      <c r="CF6" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="CG6" s="35" t="s">
+      <c r="CG6" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="CH6" s="32" t="s">
+      <c r="CH6" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="CI6" s="32" t="s">
+      <c r="CI6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CJ6" s="40"/>
-      <c r="CK6" s="42"/>
+      <c r="CJ6" s="38"/>
+      <c r="CK6" s="39"/>
       <c r="CL6" s="11"/>
-      <c r="CM6" s="48"/>
-      <c r="CN6" s="35" t="s">
+      <c r="CM6" s="40"/>
+      <c r="CN6" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="CO6" s="35" t="s">
+      <c r="CO6" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="CP6" s="32" t="s">
+      <c r="CP6" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="CQ6" s="32" t="s">
+      <c r="CQ6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CR6" s="40"/>
-      <c r="CS6" s="40"/>
-      <c r="CT6" s="35" t="s">
+      <c r="CR6" s="38"/>
+      <c r="CS6" s="38"/>
+      <c r="CT6" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="CU6" s="35" t="s">
+      <c r="CU6" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="CV6" s="32" t="s">
+      <c r="CV6" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="CW6" s="32" t="s">
+      <c r="CW6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CX6" s="40"/>
-      <c r="CY6" s="40"/>
-      <c r="CZ6" s="40"/>
+      <c r="CX6" s="38"/>
+      <c r="CY6" s="38"/>
+      <c r="CZ6" s="38"/>
     </row>
     <row r="7" spans="2:104" ht="20.25" customHeight="1">
       <c r="B7" s="5">
@@ -3255,7 +3317,7 @@
         <v>43</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="G7" s="6">
         <v>45079</v>
@@ -3263,9 +3325,15 @@
       <c r="H7" s="6">
         <v>45079</v>
       </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="7"/>
+      <c r="I7" s="6">
+        <v>45079</v>
+      </c>
+      <c r="J7" s="53">
+        <v>45079</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1</v>
+      </c>
       <c r="L7" s="17"/>
       <c r="M7" s="6">
         <v>45082</v>
@@ -3364,50 +3432,50 @@
       <c r="BU7" s="7"/>
       <c r="BV7" s="10"/>
       <c r="BW7" s="10"/>
-      <c r="BY7" s="36"/>
-      <c r="BZ7" s="36">
+      <c r="BY7" s="35"/>
+      <c r="BZ7" s="35">
         <v>45100</v>
       </c>
-      <c r="CA7" s="36">
+      <c r="CA7" s="35">
         <v>45100</v>
       </c>
-      <c r="CB7" s="36"/>
-      <c r="CC7" s="36"/>
-      <c r="CD7" s="36"/>
-      <c r="CE7" s="36"/>
-      <c r="CF7" s="36">
+      <c r="CB7" s="35"/>
+      <c r="CC7" s="35"/>
+      <c r="CD7" s="35"/>
+      <c r="CE7" s="35"/>
+      <c r="CF7" s="35">
         <v>45103</v>
       </c>
-      <c r="CG7" s="36">
+      <c r="CG7" s="35">
         <v>45103</v>
       </c>
-      <c r="CH7" s="36"/>
-      <c r="CI7" s="36"/>
-      <c r="CJ7" s="36"/>
-      <c r="CK7" s="36"/>
+      <c r="CH7" s="35"/>
+      <c r="CI7" s="35"/>
+      <c r="CJ7" s="35"/>
+      <c r="CK7" s="35"/>
       <c r="CL7" s="14"/>
-      <c r="CM7" s="36"/>
-      <c r="CN7" s="36">
+      <c r="CM7" s="35"/>
+      <c r="CN7" s="35">
         <v>45104</v>
       </c>
-      <c r="CO7" s="36">
+      <c r="CO7" s="35">
         <v>45104</v>
       </c>
-      <c r="CP7" s="36"/>
-      <c r="CQ7" s="36"/>
-      <c r="CR7" s="36"/>
-      <c r="CS7" s="36"/>
-      <c r="CT7" s="36">
+      <c r="CP7" s="35"/>
+      <c r="CQ7" s="35"/>
+      <c r="CR7" s="35"/>
+      <c r="CS7" s="35"/>
+      <c r="CT7" s="35">
         <v>45105</v>
       </c>
-      <c r="CU7" s="36">
+      <c r="CU7" s="35">
         <v>45105</v>
       </c>
-      <c r="CV7" s="36"/>
-      <c r="CW7" s="36"/>
-      <c r="CX7" s="36"/>
-      <c r="CY7" s="36"/>
-      <c r="CZ7" s="36"/>
+      <c r="CV7" s="35"/>
+      <c r="CW7" s="35"/>
+      <c r="CX7" s="35"/>
+      <c r="CY7" s="35"/>
+      <c r="CZ7" s="35"/>
     </row>
     <row r="8" spans="2:104" ht="20.25" customHeight="1">
       <c r="B8" s="5">
@@ -3423,8 +3491,8 @@
       <c r="E8" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="27" t="s">
-        <v>45</v>
+      <c r="F8" s="55" t="s">
+        <v>58</v>
       </c>
       <c r="G8" s="6">
         <v>45079</v>
@@ -3432,9 +3500,15 @@
       <c r="H8" s="6">
         <v>45079</v>
       </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="7"/>
+      <c r="I8" s="53">
+        <v>45079</v>
+      </c>
+      <c r="J8" s="53">
+        <v>45079</v>
+      </c>
+      <c r="K8" s="54">
+        <v>1</v>
+      </c>
       <c r="L8" s="17"/>
       <c r="M8" s="6">
         <v>45082</v>
@@ -3533,34 +3607,34 @@
       <c r="BU8" s="7"/>
       <c r="BV8" s="10"/>
       <c r="BW8" s="10"/>
-      <c r="BY8" s="37"/>
-      <c r="BZ8" s="37"/>
-      <c r="CA8" s="37"/>
-      <c r="CB8" s="37"/>
-      <c r="CC8" s="37"/>
-      <c r="CD8" s="37"/>
-      <c r="CE8" s="37"/>
-      <c r="CF8" s="37"/>
-      <c r="CG8" s="37"/>
-      <c r="CH8" s="37"/>
-      <c r="CI8" s="37"/>
-      <c r="CJ8" s="37"/>
-      <c r="CK8" s="37"/>
+      <c r="BY8" s="36"/>
+      <c r="BZ8" s="36"/>
+      <c r="CA8" s="36"/>
+      <c r="CB8" s="36"/>
+      <c r="CC8" s="36"/>
+      <c r="CD8" s="36"/>
+      <c r="CE8" s="36"/>
+      <c r="CF8" s="36"/>
+      <c r="CG8" s="36"/>
+      <c r="CH8" s="36"/>
+      <c r="CI8" s="36"/>
+      <c r="CJ8" s="36"/>
+      <c r="CK8" s="36"/>
       <c r="CL8" s="14"/>
-      <c r="CM8" s="37"/>
-      <c r="CN8" s="37"/>
-      <c r="CO8" s="37"/>
-      <c r="CP8" s="37"/>
-      <c r="CQ8" s="37"/>
-      <c r="CR8" s="37"/>
-      <c r="CS8" s="37"/>
-      <c r="CT8" s="37"/>
-      <c r="CU8" s="37"/>
-      <c r="CV8" s="37"/>
-      <c r="CW8" s="37"/>
-      <c r="CX8" s="37"/>
-      <c r="CY8" s="37"/>
-      <c r="CZ8" s="37"/>
+      <c r="CM8" s="36"/>
+      <c r="CN8" s="36"/>
+      <c r="CO8" s="36"/>
+      <c r="CP8" s="36"/>
+      <c r="CQ8" s="36"/>
+      <c r="CR8" s="36"/>
+      <c r="CS8" s="36"/>
+      <c r="CT8" s="36"/>
+      <c r="CU8" s="36"/>
+      <c r="CV8" s="36"/>
+      <c r="CW8" s="36"/>
+      <c r="CX8" s="36"/>
+      <c r="CY8" s="36"/>
+      <c r="CZ8" s="36"/>
     </row>
     <row r="9" spans="2:104" ht="20.25" customHeight="1">
       <c r="B9" s="5">
@@ -3576,8 +3650,8 @@
       <c r="E9" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="27" t="s">
-        <v>46</v>
+      <c r="F9" s="55" t="s">
+        <v>58</v>
       </c>
       <c r="G9" s="6">
         <v>45079</v>
@@ -3585,9 +3659,15 @@
       <c r="H9" s="6">
         <v>45079</v>
       </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="7"/>
+      <c r="I9" s="53">
+        <v>45079</v>
+      </c>
+      <c r="J9" s="53">
+        <v>45079</v>
+      </c>
+      <c r="K9" s="54">
+        <v>1</v>
+      </c>
       <c r="L9" s="17"/>
       <c r="M9" s="6">
         <v>45082</v>
@@ -3687,34 +3767,34 @@
       <c r="BV9" s="10"/>
       <c r="BW9" s="10"/>
       <c r="BX9" s="13"/>
-      <c r="BY9" s="37"/>
-      <c r="BZ9" s="37"/>
-      <c r="CA9" s="37"/>
-      <c r="CB9" s="37"/>
-      <c r="CC9" s="37"/>
-      <c r="CD9" s="37"/>
-      <c r="CE9" s="37"/>
-      <c r="CF9" s="37"/>
-      <c r="CG9" s="37"/>
-      <c r="CH9" s="37"/>
-      <c r="CI9" s="37"/>
-      <c r="CJ9" s="37"/>
-      <c r="CK9" s="37"/>
+      <c r="BY9" s="36"/>
+      <c r="BZ9" s="36"/>
+      <c r="CA9" s="36"/>
+      <c r="CB9" s="36"/>
+      <c r="CC9" s="36"/>
+      <c r="CD9" s="36"/>
+      <c r="CE9" s="36"/>
+      <c r="CF9" s="36"/>
+      <c r="CG9" s="36"/>
+      <c r="CH9" s="36"/>
+      <c r="CI9" s="36"/>
+      <c r="CJ9" s="36"/>
+      <c r="CK9" s="36"/>
       <c r="CL9" s="14"/>
-      <c r="CM9" s="37"/>
-      <c r="CN9" s="37"/>
-      <c r="CO9" s="37"/>
-      <c r="CP9" s="37"/>
-      <c r="CQ9" s="37"/>
-      <c r="CR9" s="37"/>
-      <c r="CS9" s="37"/>
-      <c r="CT9" s="37"/>
-      <c r="CU9" s="37"/>
-      <c r="CV9" s="37"/>
-      <c r="CW9" s="37"/>
-      <c r="CX9" s="37"/>
-      <c r="CY9" s="37"/>
-      <c r="CZ9" s="37"/>
+      <c r="CM9" s="36"/>
+      <c r="CN9" s="36"/>
+      <c r="CO9" s="36"/>
+      <c r="CP9" s="36"/>
+      <c r="CQ9" s="36"/>
+      <c r="CR9" s="36"/>
+      <c r="CS9" s="36"/>
+      <c r="CT9" s="36"/>
+      <c r="CU9" s="36"/>
+      <c r="CV9" s="36"/>
+      <c r="CW9" s="36"/>
+      <c r="CX9" s="36"/>
+      <c r="CY9" s="36"/>
+      <c r="CZ9" s="36"/>
     </row>
     <row r="10" spans="2:104" ht="20.25" customHeight="1">
       <c r="B10" s="5">
@@ -3730,8 +3810,8 @@
       <c r="E10" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="27" t="s">
-        <v>47</v>
+      <c r="F10" s="55" t="s">
+        <v>58</v>
       </c>
       <c r="G10" s="6">
         <v>45079</v>
@@ -3739,9 +3819,15 @@
       <c r="H10" s="6">
         <v>45079</v>
       </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="7"/>
+      <c r="I10" s="53">
+        <v>45079</v>
+      </c>
+      <c r="J10" s="53">
+        <v>45079</v>
+      </c>
+      <c r="K10" s="54">
+        <v>1</v>
+      </c>
       <c r="L10" s="17"/>
       <c r="M10" s="6">
         <v>45082</v>
@@ -3841,34 +3927,34 @@
       <c r="BV10" s="10"/>
       <c r="BW10" s="10"/>
       <c r="BX10" s="13"/>
-      <c r="BY10" s="37"/>
-      <c r="BZ10" s="37"/>
-      <c r="CA10" s="37"/>
-      <c r="CB10" s="37"/>
-      <c r="CC10" s="37"/>
-      <c r="CD10" s="37"/>
-      <c r="CE10" s="37"/>
-      <c r="CF10" s="37"/>
-      <c r="CG10" s="37"/>
-      <c r="CH10" s="37"/>
-      <c r="CI10" s="37"/>
-      <c r="CJ10" s="37"/>
-      <c r="CK10" s="37"/>
+      <c r="BY10" s="36"/>
+      <c r="BZ10" s="36"/>
+      <c r="CA10" s="36"/>
+      <c r="CB10" s="36"/>
+      <c r="CC10" s="36"/>
+      <c r="CD10" s="36"/>
+      <c r="CE10" s="36"/>
+      <c r="CF10" s="36"/>
+      <c r="CG10" s="36"/>
+      <c r="CH10" s="36"/>
+      <c r="CI10" s="36"/>
+      <c r="CJ10" s="36"/>
+      <c r="CK10" s="36"/>
       <c r="CL10" s="14"/>
-      <c r="CM10" s="37"/>
-      <c r="CN10" s="37"/>
-      <c r="CO10" s="37"/>
-      <c r="CP10" s="37"/>
-      <c r="CQ10" s="37"/>
-      <c r="CR10" s="37"/>
-      <c r="CS10" s="37"/>
-      <c r="CT10" s="37"/>
-      <c r="CU10" s="37"/>
-      <c r="CV10" s="37"/>
-      <c r="CW10" s="37"/>
-      <c r="CX10" s="37"/>
-      <c r="CY10" s="37"/>
-      <c r="CZ10" s="37"/>
+      <c r="CM10" s="36"/>
+      <c r="CN10" s="36"/>
+      <c r="CO10" s="36"/>
+      <c r="CP10" s="36"/>
+      <c r="CQ10" s="36"/>
+      <c r="CR10" s="36"/>
+      <c r="CS10" s="36"/>
+      <c r="CT10" s="36"/>
+      <c r="CU10" s="36"/>
+      <c r="CV10" s="36"/>
+      <c r="CW10" s="36"/>
+      <c r="CX10" s="36"/>
+      <c r="CY10" s="36"/>
+      <c r="CZ10" s="36"/>
     </row>
     <row r="11" spans="2:104" ht="20.25" customHeight="1">
       <c r="B11" s="5">
@@ -3884,8 +3970,8 @@
       <c r="E11" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="27" t="s">
-        <v>48</v>
+      <c r="F11" s="55" t="s">
+        <v>58</v>
       </c>
       <c r="G11" s="6">
         <v>45079</v>
@@ -3893,9 +3979,15 @@
       <c r="H11" s="6">
         <v>45079</v>
       </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="7"/>
+      <c r="I11" s="53">
+        <v>45079</v>
+      </c>
+      <c r="J11" s="53">
+        <v>45079</v>
+      </c>
+      <c r="K11" s="54">
+        <v>1</v>
+      </c>
       <c r="L11" s="17"/>
       <c r="M11" s="6">
         <v>45082</v>
@@ -3995,34 +4087,34 @@
       <c r="BV11" s="10"/>
       <c r="BW11" s="10"/>
       <c r="BX11" s="13"/>
-      <c r="BY11" s="37"/>
-      <c r="BZ11" s="37"/>
-      <c r="CA11" s="37"/>
-      <c r="CB11" s="37"/>
-      <c r="CC11" s="37"/>
-      <c r="CD11" s="37"/>
-      <c r="CE11" s="37"/>
-      <c r="CF11" s="37"/>
-      <c r="CG11" s="37"/>
-      <c r="CH11" s="37"/>
-      <c r="CI11" s="37"/>
-      <c r="CJ11" s="37"/>
-      <c r="CK11" s="37"/>
+      <c r="BY11" s="36"/>
+      <c r="BZ11" s="36"/>
+      <c r="CA11" s="36"/>
+      <c r="CB11" s="36"/>
+      <c r="CC11" s="36"/>
+      <c r="CD11" s="36"/>
+      <c r="CE11" s="36"/>
+      <c r="CF11" s="36"/>
+      <c r="CG11" s="36"/>
+      <c r="CH11" s="36"/>
+      <c r="CI11" s="36"/>
+      <c r="CJ11" s="36"/>
+      <c r="CK11" s="36"/>
       <c r="CL11" s="14"/>
-      <c r="CM11" s="37"/>
-      <c r="CN11" s="37"/>
-      <c r="CO11" s="37"/>
-      <c r="CP11" s="37"/>
-      <c r="CQ11" s="37"/>
-      <c r="CR11" s="37"/>
-      <c r="CS11" s="37"/>
-      <c r="CT11" s="37"/>
-      <c r="CU11" s="37"/>
-      <c r="CV11" s="37"/>
-      <c r="CW11" s="37"/>
-      <c r="CX11" s="37"/>
-      <c r="CY11" s="37"/>
-      <c r="CZ11" s="37"/>
+      <c r="CM11" s="36"/>
+      <c r="CN11" s="36"/>
+      <c r="CO11" s="36"/>
+      <c r="CP11" s="36"/>
+      <c r="CQ11" s="36"/>
+      <c r="CR11" s="36"/>
+      <c r="CS11" s="36"/>
+      <c r="CT11" s="36"/>
+      <c r="CU11" s="36"/>
+      <c r="CV11" s="36"/>
+      <c r="CW11" s="36"/>
+      <c r="CX11" s="36"/>
+      <c r="CY11" s="36"/>
+      <c r="CZ11" s="36"/>
     </row>
     <row r="12" spans="2:104" ht="20.25" customHeight="1">
       <c r="B12" s="5">
@@ -4038,8 +4130,8 @@
       <c r="E12" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="27" t="s">
-        <v>49</v>
+      <c r="F12" s="55" t="s">
+        <v>58</v>
       </c>
       <c r="G12" s="6">
         <v>45079</v>
@@ -4047,9 +4139,15 @@
       <c r="H12" s="6">
         <v>45079</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="7"/>
+      <c r="I12" s="53">
+        <v>45079</v>
+      </c>
+      <c r="J12" s="53">
+        <v>45079</v>
+      </c>
+      <c r="K12" s="54">
+        <v>1</v>
+      </c>
       <c r="L12" s="17"/>
       <c r="M12" s="6">
         <v>45082</v>
@@ -4149,34 +4247,34 @@
       <c r="BV12" s="10"/>
       <c r="BW12" s="10"/>
       <c r="BX12" s="13"/>
-      <c r="BY12" s="37"/>
-      <c r="BZ12" s="37"/>
-      <c r="CA12" s="37"/>
-      <c r="CB12" s="37"/>
-      <c r="CC12" s="37"/>
-      <c r="CD12" s="37"/>
-      <c r="CE12" s="37"/>
-      <c r="CF12" s="37"/>
-      <c r="CG12" s="37"/>
-      <c r="CH12" s="37"/>
-      <c r="CI12" s="37"/>
-      <c r="CJ12" s="37"/>
-      <c r="CK12" s="37"/>
+      <c r="BY12" s="36"/>
+      <c r="BZ12" s="36"/>
+      <c r="CA12" s="36"/>
+      <c r="CB12" s="36"/>
+      <c r="CC12" s="36"/>
+      <c r="CD12" s="36"/>
+      <c r="CE12" s="36"/>
+      <c r="CF12" s="36"/>
+      <c r="CG12" s="36"/>
+      <c r="CH12" s="36"/>
+      <c r="CI12" s="36"/>
+      <c r="CJ12" s="36"/>
+      <c r="CK12" s="36"/>
       <c r="CL12" s="14"/>
-      <c r="CM12" s="37"/>
-      <c r="CN12" s="37"/>
-      <c r="CO12" s="37"/>
-      <c r="CP12" s="37"/>
-      <c r="CQ12" s="37"/>
-      <c r="CR12" s="37"/>
-      <c r="CS12" s="37"/>
-      <c r="CT12" s="37"/>
-      <c r="CU12" s="37"/>
-      <c r="CV12" s="37"/>
-      <c r="CW12" s="37"/>
-      <c r="CX12" s="37"/>
-      <c r="CY12" s="37"/>
-      <c r="CZ12" s="37"/>
+      <c r="CM12" s="36"/>
+      <c r="CN12" s="36"/>
+      <c r="CO12" s="36"/>
+      <c r="CP12" s="36"/>
+      <c r="CQ12" s="36"/>
+      <c r="CR12" s="36"/>
+      <c r="CS12" s="36"/>
+      <c r="CT12" s="36"/>
+      <c r="CU12" s="36"/>
+      <c r="CV12" s="36"/>
+      <c r="CW12" s="36"/>
+      <c r="CX12" s="36"/>
+      <c r="CY12" s="36"/>
+      <c r="CZ12" s="36"/>
     </row>
     <row r="13" spans="2:104" ht="20.25" customHeight="1">
       <c r="B13" s="5">
@@ -4192,8 +4290,8 @@
       <c r="E13" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="27" t="s">
-        <v>50</v>
+      <c r="F13" s="55" t="s">
+        <v>58</v>
       </c>
       <c r="G13" s="6">
         <v>45079</v>
@@ -4201,9 +4299,15 @@
       <c r="H13" s="6">
         <v>45079</v>
       </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="7"/>
+      <c r="I13" s="53">
+        <v>45079</v>
+      </c>
+      <c r="J13" s="53">
+        <v>45079</v>
+      </c>
+      <c r="K13" s="54">
+        <v>1</v>
+      </c>
       <c r="L13" s="17"/>
       <c r="M13" s="6">
         <v>45082</v>
@@ -4303,34 +4407,34 @@
       <c r="BV13" s="10"/>
       <c r="BW13" s="10"/>
       <c r="BX13" s="13"/>
-      <c r="BY13" s="37"/>
-      <c r="BZ13" s="37"/>
-      <c r="CA13" s="37"/>
-      <c r="CB13" s="37"/>
-      <c r="CC13" s="37"/>
-      <c r="CD13" s="37"/>
-      <c r="CE13" s="37"/>
-      <c r="CF13" s="37"/>
-      <c r="CG13" s="37"/>
-      <c r="CH13" s="37"/>
-      <c r="CI13" s="37"/>
-      <c r="CJ13" s="37"/>
-      <c r="CK13" s="37"/>
+      <c r="BY13" s="36"/>
+      <c r="BZ13" s="36"/>
+      <c r="CA13" s="36"/>
+      <c r="CB13" s="36"/>
+      <c r="CC13" s="36"/>
+      <c r="CD13" s="36"/>
+      <c r="CE13" s="36"/>
+      <c r="CF13" s="36"/>
+      <c r="CG13" s="36"/>
+      <c r="CH13" s="36"/>
+      <c r="CI13" s="36"/>
+      <c r="CJ13" s="36"/>
+      <c r="CK13" s="36"/>
       <c r="CL13" s="14"/>
-      <c r="CM13" s="37"/>
-      <c r="CN13" s="37"/>
-      <c r="CO13" s="37"/>
-      <c r="CP13" s="37"/>
-      <c r="CQ13" s="37"/>
-      <c r="CR13" s="37"/>
-      <c r="CS13" s="37"/>
-      <c r="CT13" s="37"/>
-      <c r="CU13" s="37"/>
-      <c r="CV13" s="37"/>
-      <c r="CW13" s="37"/>
-      <c r="CX13" s="37"/>
-      <c r="CY13" s="37"/>
-      <c r="CZ13" s="37"/>
+      <c r="CM13" s="36"/>
+      <c r="CN13" s="36"/>
+      <c r="CO13" s="36"/>
+      <c r="CP13" s="36"/>
+      <c r="CQ13" s="36"/>
+      <c r="CR13" s="36"/>
+      <c r="CS13" s="36"/>
+      <c r="CT13" s="36"/>
+      <c r="CU13" s="36"/>
+      <c r="CV13" s="36"/>
+      <c r="CW13" s="36"/>
+      <c r="CX13" s="36"/>
+      <c r="CY13" s="36"/>
+      <c r="CZ13" s="36"/>
     </row>
     <row r="14" spans="2:104" ht="20.25" customHeight="1">
       <c r="B14" s="5">
@@ -4344,21 +4448,27 @@
         <v>27</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="6">
+        <v>44</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="G14" s="52">
         <v>45079</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="52">
         <v>45079</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="17"/>
+      <c r="I14" s="52">
+        <v>45078</v>
+      </c>
+      <c r="J14" s="52">
+        <v>45078</v>
+      </c>
+      <c r="K14" s="56">
+        <v>1</v>
+      </c>
+      <c r="L14" s="56"/>
       <c r="M14" s="6">
         <v>45082</v>
       </c>
@@ -4457,50 +4567,50 @@
       <c r="BV14" s="10"/>
       <c r="BW14" s="10"/>
       <c r="BX14" s="13"/>
-      <c r="BY14" s="36"/>
-      <c r="BZ14" s="43">
+      <c r="BY14" s="35"/>
+      <c r="BZ14" s="47">
         <v>45100</v>
       </c>
-      <c r="CA14" s="43">
+      <c r="CA14" s="47">
         <v>45100</v>
       </c>
-      <c r="CB14" s="36"/>
-      <c r="CC14" s="36"/>
-      <c r="CD14" s="36"/>
-      <c r="CE14" s="36"/>
-      <c r="CF14" s="36">
+      <c r="CB14" s="35"/>
+      <c r="CC14" s="35"/>
+      <c r="CD14" s="35"/>
+      <c r="CE14" s="35"/>
+      <c r="CF14" s="35">
         <v>45103</v>
       </c>
-      <c r="CG14" s="36">
+      <c r="CG14" s="35">
         <v>45103</v>
       </c>
-      <c r="CH14" s="36"/>
-      <c r="CI14" s="36"/>
-      <c r="CJ14" s="36"/>
-      <c r="CK14" s="36"/>
+      <c r="CH14" s="35"/>
+      <c r="CI14" s="35"/>
+      <c r="CJ14" s="35"/>
+      <c r="CK14" s="35"/>
       <c r="CL14" s="14"/>
-      <c r="CM14" s="36"/>
-      <c r="CN14" s="36">
+      <c r="CM14" s="35"/>
+      <c r="CN14" s="35">
         <v>45104</v>
       </c>
-      <c r="CO14" s="36">
+      <c r="CO14" s="35">
         <v>45104</v>
       </c>
-      <c r="CP14" s="36"/>
-      <c r="CQ14" s="36"/>
-      <c r="CR14" s="36"/>
-      <c r="CS14" s="36"/>
-      <c r="CT14" s="36">
+      <c r="CP14" s="35"/>
+      <c r="CQ14" s="35"/>
+      <c r="CR14" s="35"/>
+      <c r="CS14" s="35"/>
+      <c r="CT14" s="35">
         <v>45105</v>
       </c>
-      <c r="CU14" s="36">
+      <c r="CU14" s="35">
         <v>45105</v>
       </c>
-      <c r="CV14" s="36"/>
-      <c r="CW14" s="36"/>
-      <c r="CX14" s="36"/>
-      <c r="CY14" s="36"/>
-      <c r="CZ14" s="36"/>
+      <c r="CV14" s="35"/>
+      <c r="CW14" s="35"/>
+      <c r="CX14" s="35"/>
+      <c r="CY14" s="35"/>
+      <c r="CZ14" s="35"/>
     </row>
     <row r="15" spans="2:104" ht="20.25" customHeight="1">
       <c r="B15" s="5">
@@ -4514,21 +4624,27 @@
         <v>34</v>
       </c>
       <c r="E15" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="G15" s="6">
+      <c r="G15" s="52">
         <v>45079</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="52">
         <v>45079</v>
       </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="17"/>
+      <c r="I15" s="52">
+        <v>45078</v>
+      </c>
+      <c r="J15" s="52">
+        <v>45079</v>
+      </c>
+      <c r="K15" s="56">
+        <v>1</v>
+      </c>
+      <c r="L15" s="56"/>
       <c r="M15" s="6">
         <v>45082</v>
       </c>
@@ -4626,34 +4742,34 @@
       <c r="BU15" s="7"/>
       <c r="BV15" s="10"/>
       <c r="BW15" s="10"/>
-      <c r="BY15" s="37"/>
-      <c r="BZ15" s="44"/>
-      <c r="CA15" s="44"/>
-      <c r="CB15" s="37"/>
-      <c r="CC15" s="37"/>
-      <c r="CD15" s="37"/>
-      <c r="CE15" s="37"/>
-      <c r="CF15" s="37"/>
-      <c r="CG15" s="37"/>
-      <c r="CH15" s="37"/>
-      <c r="CI15" s="37"/>
-      <c r="CJ15" s="37"/>
-      <c r="CK15" s="37"/>
-      <c r="CL15" s="30"/>
-      <c r="CM15" s="37"/>
-      <c r="CN15" s="37"/>
-      <c r="CO15" s="37"/>
-      <c r="CP15" s="37"/>
-      <c r="CQ15" s="37"/>
-      <c r="CR15" s="37"/>
-      <c r="CS15" s="37"/>
-      <c r="CT15" s="37"/>
-      <c r="CU15" s="37"/>
-      <c r="CV15" s="37"/>
-      <c r="CW15" s="37"/>
-      <c r="CX15" s="37"/>
-      <c r="CY15" s="37"/>
-      <c r="CZ15" s="37"/>
+      <c r="BY15" s="36"/>
+      <c r="BZ15" s="48"/>
+      <c r="CA15" s="48"/>
+      <c r="CB15" s="36"/>
+      <c r="CC15" s="36"/>
+      <c r="CD15" s="36"/>
+      <c r="CE15" s="36"/>
+      <c r="CF15" s="36"/>
+      <c r="CG15" s="36"/>
+      <c r="CH15" s="36"/>
+      <c r="CI15" s="36"/>
+      <c r="CJ15" s="36"/>
+      <c r="CK15" s="36"/>
+      <c r="CL15" s="29"/>
+      <c r="CM15" s="36"/>
+      <c r="CN15" s="36"/>
+      <c r="CO15" s="36"/>
+      <c r="CP15" s="36"/>
+      <c r="CQ15" s="36"/>
+      <c r="CR15" s="36"/>
+      <c r="CS15" s="36"/>
+      <c r="CT15" s="36"/>
+      <c r="CU15" s="36"/>
+      <c r="CV15" s="36"/>
+      <c r="CW15" s="36"/>
+      <c r="CX15" s="36"/>
+      <c r="CY15" s="36"/>
+      <c r="CZ15" s="36"/>
     </row>
     <row r="16" spans="2:104" ht="20.25" customHeight="1">
       <c r="B16" s="5">
@@ -4667,21 +4783,27 @@
         <v>40</v>
       </c>
       <c r="E16" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="52">
         <v>45079</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="52">
         <v>45079</v>
       </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="17"/>
+      <c r="I16" s="52">
+        <v>45078</v>
+      </c>
+      <c r="J16" s="52">
+        <v>45078</v>
+      </c>
+      <c r="K16" s="56">
+        <v>1</v>
+      </c>
+      <c r="L16" s="56"/>
       <c r="M16" s="6">
         <v>45082</v>
       </c>
@@ -4779,34 +4901,34 @@
       <c r="BU16" s="7"/>
       <c r="BV16" s="10"/>
       <c r="BW16" s="10"/>
-      <c r="BY16" s="37"/>
-      <c r="BZ16" s="44"/>
-      <c r="CA16" s="44"/>
-      <c r="CB16" s="37"/>
-      <c r="CC16" s="37"/>
-      <c r="CD16" s="37"/>
-      <c r="CE16" s="37"/>
-      <c r="CF16" s="37"/>
-      <c r="CG16" s="37"/>
-      <c r="CH16" s="37"/>
-      <c r="CI16" s="37"/>
-      <c r="CJ16" s="37"/>
-      <c r="CK16" s="37"/>
-      <c r="CL16" s="30"/>
-      <c r="CM16" s="37"/>
-      <c r="CN16" s="37"/>
-      <c r="CO16" s="37"/>
-      <c r="CP16" s="37"/>
-      <c r="CQ16" s="37"/>
-      <c r="CR16" s="37"/>
-      <c r="CS16" s="37"/>
-      <c r="CT16" s="37"/>
-      <c r="CU16" s="37"/>
-      <c r="CV16" s="37"/>
-      <c r="CW16" s="37"/>
-      <c r="CX16" s="37"/>
-      <c r="CY16" s="37"/>
-      <c r="CZ16" s="37"/>
+      <c r="BY16" s="36"/>
+      <c r="BZ16" s="48"/>
+      <c r="CA16" s="48"/>
+      <c r="CB16" s="36"/>
+      <c r="CC16" s="36"/>
+      <c r="CD16" s="36"/>
+      <c r="CE16" s="36"/>
+      <c r="CF16" s="36"/>
+      <c r="CG16" s="36"/>
+      <c r="CH16" s="36"/>
+      <c r="CI16" s="36"/>
+      <c r="CJ16" s="36"/>
+      <c r="CK16" s="36"/>
+      <c r="CL16" s="29"/>
+      <c r="CM16" s="36"/>
+      <c r="CN16" s="36"/>
+      <c r="CO16" s="36"/>
+      <c r="CP16" s="36"/>
+      <c r="CQ16" s="36"/>
+      <c r="CR16" s="36"/>
+      <c r="CS16" s="36"/>
+      <c r="CT16" s="36"/>
+      <c r="CU16" s="36"/>
+      <c r="CV16" s="36"/>
+      <c r="CW16" s="36"/>
+      <c r="CX16" s="36"/>
+      <c r="CY16" s="36"/>
+      <c r="CZ16" s="36"/>
     </row>
     <row r="17" spans="2:104" ht="20.25" customHeight="1">
       <c r="B17" s="5">
@@ -4820,21 +4942,27 @@
         <v>37</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" s="50" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="52">
         <v>45079</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="52">
         <v>45079</v>
       </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="17"/>
+      <c r="I17" s="52">
+        <v>45078</v>
+      </c>
+      <c r="J17" s="52">
+        <v>45079</v>
+      </c>
+      <c r="K17" s="56">
+        <v>1</v>
+      </c>
+      <c r="L17" s="56"/>
       <c r="M17" s="6">
         <v>45082</v>
       </c>
@@ -4933,34 +5061,34 @@
       <c r="BV17" s="10"/>
       <c r="BW17" s="10"/>
       <c r="BX17" s="11"/>
-      <c r="BY17" s="37"/>
-      <c r="BZ17" s="44"/>
-      <c r="CA17" s="44"/>
-      <c r="CB17" s="37"/>
-      <c r="CC17" s="37"/>
-      <c r="CD17" s="37"/>
-      <c r="CE17" s="37"/>
-      <c r="CF17" s="37"/>
-      <c r="CG17" s="37"/>
-      <c r="CH17" s="37"/>
-      <c r="CI17" s="37"/>
-      <c r="CJ17" s="37"/>
-      <c r="CK17" s="37"/>
-      <c r="CL17" s="30"/>
-      <c r="CM17" s="37"/>
-      <c r="CN17" s="37"/>
-      <c r="CO17" s="37"/>
-      <c r="CP17" s="37"/>
-      <c r="CQ17" s="37"/>
-      <c r="CR17" s="37"/>
-      <c r="CS17" s="37"/>
-      <c r="CT17" s="37"/>
-      <c r="CU17" s="37"/>
-      <c r="CV17" s="37"/>
-      <c r="CW17" s="37"/>
-      <c r="CX17" s="37"/>
-      <c r="CY17" s="37"/>
-      <c r="CZ17" s="37"/>
+      <c r="BY17" s="36"/>
+      <c r="BZ17" s="48"/>
+      <c r="CA17" s="48"/>
+      <c r="CB17" s="36"/>
+      <c r="CC17" s="36"/>
+      <c r="CD17" s="36"/>
+      <c r="CE17" s="36"/>
+      <c r="CF17" s="36"/>
+      <c r="CG17" s="36"/>
+      <c r="CH17" s="36"/>
+      <c r="CI17" s="36"/>
+      <c r="CJ17" s="36"/>
+      <c r="CK17" s="36"/>
+      <c r="CL17" s="29"/>
+      <c r="CM17" s="36"/>
+      <c r="CN17" s="36"/>
+      <c r="CO17" s="36"/>
+      <c r="CP17" s="36"/>
+      <c r="CQ17" s="36"/>
+      <c r="CR17" s="36"/>
+      <c r="CS17" s="36"/>
+      <c r="CT17" s="36"/>
+      <c r="CU17" s="36"/>
+      <c r="CV17" s="36"/>
+      <c r="CW17" s="36"/>
+      <c r="CX17" s="36"/>
+      <c r="CY17" s="36"/>
+      <c r="CZ17" s="36"/>
     </row>
     <row r="18" spans="2:104" ht="20.25" customHeight="1">
       <c r="B18" s="5">
@@ -4974,21 +5102,27 @@
         <v>38</v>
       </c>
       <c r="E18" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="G18" s="6">
+        <v>44</v>
+      </c>
+      <c r="F18" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="52">
         <v>45079</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="52">
         <v>45079</v>
       </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="17"/>
+      <c r="I18" s="52">
+        <v>45078</v>
+      </c>
+      <c r="J18" s="52">
+        <v>45079</v>
+      </c>
+      <c r="K18" s="56">
+        <v>1</v>
+      </c>
+      <c r="L18" s="56"/>
       <c r="M18" s="6">
         <v>45082</v>
       </c>
@@ -5087,34 +5221,34 @@
       <c r="BV18" s="10"/>
       <c r="BW18" s="10"/>
       <c r="BX18" s="11"/>
-      <c r="BY18" s="37"/>
-      <c r="BZ18" s="44"/>
-      <c r="CA18" s="44"/>
-      <c r="CB18" s="37"/>
-      <c r="CC18" s="37"/>
-      <c r="CD18" s="37"/>
-      <c r="CE18" s="37"/>
-      <c r="CF18" s="37"/>
-      <c r="CG18" s="37"/>
-      <c r="CH18" s="37"/>
-      <c r="CI18" s="37"/>
-      <c r="CJ18" s="37"/>
-      <c r="CK18" s="37"/>
-      <c r="CL18" s="30"/>
-      <c r="CM18" s="37"/>
-      <c r="CN18" s="37"/>
-      <c r="CO18" s="37"/>
-      <c r="CP18" s="37"/>
-      <c r="CQ18" s="37"/>
-      <c r="CR18" s="37"/>
-      <c r="CS18" s="37"/>
-      <c r="CT18" s="37"/>
-      <c r="CU18" s="37"/>
-      <c r="CV18" s="37"/>
-      <c r="CW18" s="37"/>
-      <c r="CX18" s="37"/>
-      <c r="CY18" s="37"/>
-      <c r="CZ18" s="37"/>
+      <c r="BY18" s="36"/>
+      <c r="BZ18" s="48"/>
+      <c r="CA18" s="48"/>
+      <c r="CB18" s="36"/>
+      <c r="CC18" s="36"/>
+      <c r="CD18" s="36"/>
+      <c r="CE18" s="36"/>
+      <c r="CF18" s="36"/>
+      <c r="CG18" s="36"/>
+      <c r="CH18" s="36"/>
+      <c r="CI18" s="36"/>
+      <c r="CJ18" s="36"/>
+      <c r="CK18" s="36"/>
+      <c r="CL18" s="29"/>
+      <c r="CM18" s="36"/>
+      <c r="CN18" s="36"/>
+      <c r="CO18" s="36"/>
+      <c r="CP18" s="36"/>
+      <c r="CQ18" s="36"/>
+      <c r="CR18" s="36"/>
+      <c r="CS18" s="36"/>
+      <c r="CT18" s="36"/>
+      <c r="CU18" s="36"/>
+      <c r="CV18" s="36"/>
+      <c r="CW18" s="36"/>
+      <c r="CX18" s="36"/>
+      <c r="CY18" s="36"/>
+      <c r="CZ18" s="36"/>
     </row>
     <row r="19" spans="2:104" ht="20.25" customHeight="1">
       <c r="B19" s="5">
@@ -5128,21 +5262,27 @@
         <v>39</v>
       </c>
       <c r="E19" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="6">
+        <v>44</v>
+      </c>
+      <c r="F19" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="52">
         <v>45079</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="52">
         <v>45079</v>
       </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="17"/>
+      <c r="I19" s="52">
+        <v>45078</v>
+      </c>
+      <c r="J19" s="52">
+        <v>45079</v>
+      </c>
+      <c r="K19" s="56">
+        <v>0.95</v>
+      </c>
+      <c r="L19" s="56"/>
       <c r="M19" s="6">
         <v>45082</v>
       </c>
@@ -5241,34 +5381,34 @@
       <c r="BV19" s="10"/>
       <c r="BW19" s="10"/>
       <c r="BX19" s="11"/>
-      <c r="BY19" s="37"/>
-      <c r="BZ19" s="44"/>
-      <c r="CA19" s="44"/>
-      <c r="CB19" s="37"/>
-      <c r="CC19" s="37"/>
-      <c r="CD19" s="37"/>
-      <c r="CE19" s="37"/>
-      <c r="CF19" s="37"/>
-      <c r="CG19" s="37"/>
-      <c r="CH19" s="37"/>
-      <c r="CI19" s="37"/>
-      <c r="CJ19" s="37"/>
-      <c r="CK19" s="37"/>
-      <c r="CL19" s="30"/>
-      <c r="CM19" s="37"/>
-      <c r="CN19" s="37"/>
-      <c r="CO19" s="37"/>
-      <c r="CP19" s="37"/>
-      <c r="CQ19" s="37"/>
-      <c r="CR19" s="37"/>
-      <c r="CS19" s="37"/>
-      <c r="CT19" s="37"/>
-      <c r="CU19" s="37"/>
-      <c r="CV19" s="37"/>
-      <c r="CW19" s="37"/>
-      <c r="CX19" s="37"/>
-      <c r="CY19" s="37"/>
-      <c r="CZ19" s="37"/>
+      <c r="BY19" s="36"/>
+      <c r="BZ19" s="48"/>
+      <c r="CA19" s="48"/>
+      <c r="CB19" s="36"/>
+      <c r="CC19" s="36"/>
+      <c r="CD19" s="36"/>
+      <c r="CE19" s="36"/>
+      <c r="CF19" s="36"/>
+      <c r="CG19" s="36"/>
+      <c r="CH19" s="36"/>
+      <c r="CI19" s="36"/>
+      <c r="CJ19" s="36"/>
+      <c r="CK19" s="36"/>
+      <c r="CL19" s="29"/>
+      <c r="CM19" s="36"/>
+      <c r="CN19" s="36"/>
+      <c r="CO19" s="36"/>
+      <c r="CP19" s="36"/>
+      <c r="CQ19" s="36"/>
+      <c r="CR19" s="36"/>
+      <c r="CS19" s="36"/>
+      <c r="CT19" s="36"/>
+      <c r="CU19" s="36"/>
+      <c r="CV19" s="36"/>
+      <c r="CW19" s="36"/>
+      <c r="CX19" s="36"/>
+      <c r="CY19" s="36"/>
+      <c r="CZ19" s="36"/>
     </row>
     <row r="20" spans="2:104" ht="20.25" customHeight="1">
       <c r="B20" s="5">
@@ -5282,21 +5422,27 @@
         <v>36</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F20" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" s="6">
+        <v>44</v>
+      </c>
+      <c r="F20" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="52">
         <v>45079</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="52">
         <v>45079</v>
       </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="17"/>
+      <c r="I20" s="52">
+        <v>45078</v>
+      </c>
+      <c r="J20" s="52">
+        <v>45079</v>
+      </c>
+      <c r="K20" s="56">
+        <v>1</v>
+      </c>
+      <c r="L20" s="56"/>
       <c r="M20" s="6">
         <v>45082</v>
       </c>
@@ -5395,34 +5541,34 @@
       <c r="BV20" s="10"/>
       <c r="BW20" s="10"/>
       <c r="BX20" s="11"/>
-      <c r="BY20" s="37"/>
-      <c r="BZ20" s="44"/>
-      <c r="CA20" s="44"/>
-      <c r="CB20" s="37"/>
-      <c r="CC20" s="37"/>
-      <c r="CD20" s="37"/>
-      <c r="CE20" s="37"/>
-      <c r="CF20" s="37"/>
-      <c r="CG20" s="37"/>
-      <c r="CH20" s="37"/>
-      <c r="CI20" s="37"/>
-      <c r="CJ20" s="37"/>
-      <c r="CK20" s="37"/>
-      <c r="CL20" s="30"/>
-      <c r="CM20" s="37"/>
-      <c r="CN20" s="37"/>
-      <c r="CO20" s="37"/>
-      <c r="CP20" s="37"/>
-      <c r="CQ20" s="37"/>
-      <c r="CR20" s="37"/>
-      <c r="CS20" s="37"/>
-      <c r="CT20" s="37"/>
-      <c r="CU20" s="37"/>
-      <c r="CV20" s="37"/>
-      <c r="CW20" s="37"/>
-      <c r="CX20" s="37"/>
-      <c r="CY20" s="37"/>
-      <c r="CZ20" s="37"/>
+      <c r="BY20" s="36"/>
+      <c r="BZ20" s="48"/>
+      <c r="CA20" s="48"/>
+      <c r="CB20" s="36"/>
+      <c r="CC20" s="36"/>
+      <c r="CD20" s="36"/>
+      <c r="CE20" s="36"/>
+      <c r="CF20" s="36"/>
+      <c r="CG20" s="36"/>
+      <c r="CH20" s="36"/>
+      <c r="CI20" s="36"/>
+      <c r="CJ20" s="36"/>
+      <c r="CK20" s="36"/>
+      <c r="CL20" s="29"/>
+      <c r="CM20" s="36"/>
+      <c r="CN20" s="36"/>
+      <c r="CO20" s="36"/>
+      <c r="CP20" s="36"/>
+      <c r="CQ20" s="36"/>
+      <c r="CR20" s="36"/>
+      <c r="CS20" s="36"/>
+      <c r="CT20" s="36"/>
+      <c r="CU20" s="36"/>
+      <c r="CV20" s="36"/>
+      <c r="CW20" s="36"/>
+      <c r="CX20" s="36"/>
+      <c r="CY20" s="36"/>
+      <c r="CZ20" s="36"/>
     </row>
     <row r="21" spans="2:104" ht="20.25" customHeight="1">
       <c r="B21" s="5">
@@ -5432,25 +5578,31 @@
       <c r="C21" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="33" t="s">
-        <v>63</v>
+      <c r="D21" s="32" t="s">
+        <v>48</v>
       </c>
       <c r="E21" s="26" t="s">
-        <v>51</v>
-      </c>
-      <c r="F21" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="6">
+        <v>44</v>
+      </c>
+      <c r="F21" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="52">
         <v>45079</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="52">
         <v>45079</v>
       </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="17"/>
+      <c r="I21" s="52">
+        <v>45078</v>
+      </c>
+      <c r="J21" s="52">
+        <v>45079</v>
+      </c>
+      <c r="K21" s="56">
+        <v>1</v>
+      </c>
+      <c r="L21" s="56"/>
       <c r="M21" s="6">
         <v>45082</v>
       </c>
@@ -5549,34 +5701,34 @@
       <c r="BV21" s="10"/>
       <c r="BW21" s="10"/>
       <c r="BX21" s="13"/>
-      <c r="BY21" s="38"/>
-      <c r="BZ21" s="45"/>
-      <c r="CA21" s="45"/>
-      <c r="CB21" s="38"/>
-      <c r="CC21" s="38"/>
-      <c r="CD21" s="38"/>
-      <c r="CE21" s="38"/>
-      <c r="CF21" s="38"/>
-      <c r="CG21" s="38"/>
-      <c r="CH21" s="38"/>
-      <c r="CI21" s="38"/>
-      <c r="CJ21" s="38"/>
-      <c r="CK21" s="38"/>
+      <c r="BY21" s="37"/>
+      <c r="BZ21" s="49"/>
+      <c r="CA21" s="49"/>
+      <c r="CB21" s="37"/>
+      <c r="CC21" s="37"/>
+      <c r="CD21" s="37"/>
+      <c r="CE21" s="37"/>
+      <c r="CF21" s="37"/>
+      <c r="CG21" s="37"/>
+      <c r="CH21" s="37"/>
+      <c r="CI21" s="37"/>
+      <c r="CJ21" s="37"/>
+      <c r="CK21" s="37"/>
       <c r="CL21" s="14"/>
-      <c r="CM21" s="38"/>
-      <c r="CN21" s="38"/>
-      <c r="CO21" s="38"/>
-      <c r="CP21" s="38"/>
-      <c r="CQ21" s="38"/>
-      <c r="CR21" s="38"/>
-      <c r="CS21" s="38"/>
-      <c r="CT21" s="38"/>
-      <c r="CU21" s="38"/>
-      <c r="CV21" s="38"/>
-      <c r="CW21" s="38"/>
-      <c r="CX21" s="38"/>
-      <c r="CY21" s="38"/>
-      <c r="CZ21" s="38"/>
+      <c r="CM21" s="37"/>
+      <c r="CN21" s="37"/>
+      <c r="CO21" s="37"/>
+      <c r="CP21" s="37"/>
+      <c r="CQ21" s="37"/>
+      <c r="CR21" s="37"/>
+      <c r="CS21" s="37"/>
+      <c r="CT21" s="37"/>
+      <c r="CU21" s="37"/>
+      <c r="CV21" s="37"/>
+      <c r="CW21" s="37"/>
+      <c r="CX21" s="37"/>
+      <c r="CY21" s="37"/>
+      <c r="CZ21" s="37"/>
     </row>
     <row r="22" spans="2:104" ht="20.25" customHeight="1">
       <c r="BX22" s="11"/>
@@ -5588,6 +5740,119 @@
     </row>
   </sheetData>
   <mergeCells count="137">
+    <mergeCell ref="CZ14:CZ21"/>
+    <mergeCell ref="CM14:CM21"/>
+    <mergeCell ref="CN14:CN21"/>
+    <mergeCell ref="CO14:CO21"/>
+    <mergeCell ref="CP14:CP21"/>
+    <mergeCell ref="CR7:CR13"/>
+    <mergeCell ref="CS7:CS13"/>
+    <mergeCell ref="CT7:CT13"/>
+    <mergeCell ref="CT14:CT21"/>
+    <mergeCell ref="CU14:CU21"/>
+    <mergeCell ref="CV14:CV21"/>
+    <mergeCell ref="CW14:CW21"/>
+    <mergeCell ref="CX7:CX13"/>
+    <mergeCell ref="CY7:CY13"/>
+    <mergeCell ref="CZ7:CZ13"/>
+    <mergeCell ref="CQ14:CQ21"/>
+    <mergeCell ref="CR14:CR21"/>
+    <mergeCell ref="CS14:CS21"/>
+    <mergeCell ref="CU7:CU13"/>
+    <mergeCell ref="CV7:CV13"/>
+    <mergeCell ref="CW7:CW13"/>
+    <mergeCell ref="CM7:CM13"/>
+    <mergeCell ref="CN7:CN13"/>
+    <mergeCell ref="CO7:CO13"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="CX14:CX21"/>
+    <mergeCell ref="CY14:CY21"/>
+    <mergeCell ref="CB7:CB13"/>
+    <mergeCell ref="CC7:CC13"/>
+    <mergeCell ref="CD7:CD13"/>
+    <mergeCell ref="CE7:CE13"/>
+    <mergeCell ref="CF7:CF13"/>
+    <mergeCell ref="CG7:CG13"/>
+    <mergeCell ref="CH7:CH13"/>
+    <mergeCell ref="CI7:CI13"/>
+    <mergeCell ref="CJ7:CJ13"/>
+    <mergeCell ref="CK7:CK13"/>
+    <mergeCell ref="CP7:CP13"/>
+    <mergeCell ref="CQ7:CQ13"/>
+    <mergeCell ref="BY14:BY21"/>
+    <mergeCell ref="BZ14:BZ21"/>
+    <mergeCell ref="CA14:CA21"/>
+    <mergeCell ref="CB14:CB21"/>
+    <mergeCell ref="CC14:CC21"/>
+    <mergeCell ref="CD14:CD21"/>
+    <mergeCell ref="CE14:CE21"/>
+    <mergeCell ref="CF14:CF21"/>
+    <mergeCell ref="CG14:CG21"/>
+    <mergeCell ref="BY7:BY13"/>
+    <mergeCell ref="BZ7:BZ13"/>
+    <mergeCell ref="CA7:CA13"/>
+    <mergeCell ref="CZ5:CZ6"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CT5:CU5"/>
+    <mergeCell ref="CV5:CW5"/>
+    <mergeCell ref="CS5:CS6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CK5:CK6"/>
+    <mergeCell ref="CN5:CO5"/>
+    <mergeCell ref="CP5:CQ5"/>
+    <mergeCell ref="CM5:CM6"/>
+    <mergeCell ref="CH5:CI5"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CE5:CE6"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="CF5:CG5"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="BP4:BW4"/>
+    <mergeCell ref="BY4:CD4"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="Z4:AF4"/>
+    <mergeCell ref="AH4:AM4"/>
+    <mergeCell ref="AN4:AT4"/>
+    <mergeCell ref="AV4:BA4"/>
+    <mergeCell ref="BB4:BH4"/>
+    <mergeCell ref="BJ4:BO4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="BM5:BN5"/>
+    <mergeCell ref="BQ5:BR5"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:R4"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="E4:E6"/>
     <mergeCell ref="CH14:CH21"/>
     <mergeCell ref="CI14:CI21"/>
     <mergeCell ref="CJ14:CJ21"/>
@@ -5612,209 +5877,146 @@
     <mergeCell ref="BC5:BD5"/>
     <mergeCell ref="BE5:BF5"/>
     <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:R4"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="CF5:CG5"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="BZ5:CA5"/>
-    <mergeCell ref="BP4:BW4"/>
-    <mergeCell ref="BY4:CD4"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="Z4:AF4"/>
-    <mergeCell ref="AH4:AM4"/>
-    <mergeCell ref="AN4:AT4"/>
-    <mergeCell ref="AV4:BA4"/>
-    <mergeCell ref="BB4:BH4"/>
-    <mergeCell ref="BJ4:BO4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="BY7:BY13"/>
-    <mergeCell ref="BZ7:BZ13"/>
-    <mergeCell ref="CA7:CA13"/>
-    <mergeCell ref="CZ5:CZ6"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CT5:CU5"/>
-    <mergeCell ref="CV5:CW5"/>
-    <mergeCell ref="CS5:CS6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BW5:BW6"/>
-    <mergeCell ref="BY5:BY6"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CK5:CK6"/>
-    <mergeCell ref="CN5:CO5"/>
-    <mergeCell ref="CP5:CQ5"/>
-    <mergeCell ref="CM5:CM6"/>
-    <mergeCell ref="CH5:CI5"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CE5:CE6"/>
-    <mergeCell ref="BY14:BY21"/>
-    <mergeCell ref="BZ14:BZ21"/>
-    <mergeCell ref="CA14:CA21"/>
-    <mergeCell ref="CB14:CB21"/>
-    <mergeCell ref="CC14:CC21"/>
-    <mergeCell ref="CD14:CD21"/>
-    <mergeCell ref="CE14:CE21"/>
-    <mergeCell ref="CF14:CF21"/>
-    <mergeCell ref="CG14:CG21"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="CX14:CX21"/>
-    <mergeCell ref="CY14:CY21"/>
-    <mergeCell ref="CZ14:CZ21"/>
-    <mergeCell ref="CM14:CM21"/>
-    <mergeCell ref="CN14:CN21"/>
-    <mergeCell ref="CO14:CO21"/>
-    <mergeCell ref="CP14:CP21"/>
-    <mergeCell ref="CR7:CR13"/>
-    <mergeCell ref="CS7:CS13"/>
-    <mergeCell ref="CT7:CT13"/>
-    <mergeCell ref="CT14:CT21"/>
-    <mergeCell ref="CU14:CU21"/>
-    <mergeCell ref="CV14:CV21"/>
-    <mergeCell ref="CW14:CW21"/>
-    <mergeCell ref="CX7:CX13"/>
-    <mergeCell ref="CY7:CY13"/>
-    <mergeCell ref="CZ7:CZ13"/>
-    <mergeCell ref="CQ14:CQ21"/>
-    <mergeCell ref="CR14:CR21"/>
-    <mergeCell ref="CS14:CS21"/>
-    <mergeCell ref="CB7:CB13"/>
-    <mergeCell ref="CC7:CC13"/>
-    <mergeCell ref="CD7:CD13"/>
-    <mergeCell ref="CE7:CE13"/>
-    <mergeCell ref="CF7:CF13"/>
-    <mergeCell ref="CG7:CG13"/>
-    <mergeCell ref="CU7:CU13"/>
-    <mergeCell ref="CV7:CV13"/>
-    <mergeCell ref="CW7:CW13"/>
-    <mergeCell ref="CH7:CH13"/>
-    <mergeCell ref="CI7:CI13"/>
-    <mergeCell ref="CJ7:CJ13"/>
-    <mergeCell ref="CK7:CK13"/>
-    <mergeCell ref="CM7:CM13"/>
-    <mergeCell ref="CN7:CN13"/>
-    <mergeCell ref="CO7:CO13"/>
-    <mergeCell ref="CP7:CP13"/>
-    <mergeCell ref="CQ7:CQ13"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
-  <conditionalFormatting sqref="F7:F13 G7:K21">
-    <cfRule type="expression" dxfId="17" priority="73">
+  <conditionalFormatting sqref="F7:K13">
+    <cfRule type="expression" dxfId="27" priority="73">
       <formula>$J7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7:R21">
-    <cfRule type="expression" dxfId="16" priority="66">
+  <conditionalFormatting sqref="L7:R13 K14:R21">
+    <cfRule type="expression" dxfId="26" priority="66">
       <formula>$P7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T7:Y21">
-    <cfRule type="expression" dxfId="15" priority="65">
+  <conditionalFormatting sqref="T7:Y13">
+    <cfRule type="expression" dxfId="25" priority="65">
       <formula>$X7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z7:AF21">
-    <cfRule type="expression" dxfId="14" priority="64">
+  <conditionalFormatting sqref="Z7:AF13">
+    <cfRule type="expression" dxfId="24" priority="64">
       <formula>$AD7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH7:AM21">
-    <cfRule type="expression" dxfId="13" priority="62">
+  <conditionalFormatting sqref="AH7:AM13">
+    <cfRule type="expression" dxfId="23" priority="62">
       <formula>$AL7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN7:AT21">
-    <cfRule type="expression" dxfId="12" priority="63">
+  <conditionalFormatting sqref="AN7:AT13">
+    <cfRule type="expression" dxfId="22" priority="63">
       <formula>$AR7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV7:BA21">
-    <cfRule type="expression" dxfId="11" priority="127">
+  <conditionalFormatting sqref="AV7:BA13">
+    <cfRule type="expression" dxfId="21" priority="127">
       <formula>$AZ7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB7:BH21">
-    <cfRule type="expression" dxfId="10" priority="126">
+  <conditionalFormatting sqref="BB7:BH13">
+    <cfRule type="expression" dxfId="20" priority="126">
       <formula>$BF7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ7:BO21">
-    <cfRule type="expression" dxfId="9" priority="121">
+  <conditionalFormatting sqref="BJ7:BO13">
+    <cfRule type="expression" dxfId="19" priority="121">
       <formula>$BN7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP7:BW21">
-    <cfRule type="expression" dxfId="8" priority="120">
+  <conditionalFormatting sqref="BP7:BW13">
+    <cfRule type="expression" dxfId="18" priority="120">
       <formula>$BT7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F21">
-    <cfRule type="expression" dxfId="7" priority="150">
+    <cfRule type="expression" dxfId="17" priority="150">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA14:AB20 AA7:AB12">
-    <cfRule type="expression" dxfId="6" priority="152">
+  <conditionalFormatting sqref="AA7:AB12">
+    <cfRule type="expression" dxfId="16" priority="152">
       <formula>$X8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19 F14:F15">
-    <cfRule type="expression" dxfId="5" priority="178">
+    <cfRule type="expression" dxfId="15" priority="178">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA21:AB21">
-    <cfRule type="expression" dxfId="4" priority="180">
+    <cfRule type="expression" dxfId="14" priority="180">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="3" priority="185">
-      <formula>$J17&lt;&gt;""</formula>
+    <cfRule type="expression" dxfId="13" priority="185">
+      <formula>$I17&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F15">
-    <cfRule type="expression" dxfId="2" priority="187">
+    <cfRule type="expression" dxfId="12" priority="187">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F17">
-    <cfRule type="expression" dxfId="1" priority="188">
-      <formula>$J17&lt;&gt;""</formula>
+    <cfRule type="expression" dxfId="11" priority="188">
+      <formula>$I17&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA13:AB13">
-    <cfRule type="expression" dxfId="0" priority="210">
+    <cfRule type="expression" dxfId="10" priority="210">
       <formula>#REF!&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:J21">
+    <cfRule type="expression" dxfId="9" priority="212">
+      <formula>$I14&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T14:Y21">
+    <cfRule type="expression" dxfId="8" priority="216">
+      <formula>$X14&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z14:AF21">
+    <cfRule type="expression" dxfId="7" priority="218">
+      <formula>$AD14&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH14:AM21">
+    <cfRule type="expression" dxfId="6" priority="220">
+      <formula>$AL14&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN14:AT21">
+    <cfRule type="expression" dxfId="5" priority="222">
+      <formula>$AR14&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV14:BA21">
+    <cfRule type="expression" dxfId="4" priority="224">
+      <formula>$AZ14&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB14:BH21">
+    <cfRule type="expression" dxfId="3" priority="226">
+      <formula>$BF14&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ14:BO21">
+    <cfRule type="expression" dxfId="2" priority="228">
+      <formula>$BN14&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BP14:BW21">
+    <cfRule type="expression" dxfId="1" priority="230">
+      <formula>$BT14&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA14:AB20">
+    <cfRule type="expression" dxfId="0" priority="231">
+      <formula>$X15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>

--- a/スケジュール（2023-06）.xlsx
+++ b/スケジュール（2023-06）.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\o3o__\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC4071C-881E-4474-AB78-8890FBAA6983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F14120B-88CC-462A-9F59-87F312FB5AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -548,7 +548,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -638,6 +638,9 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -648,31 +651,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -683,26 +671,20 @@
     <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2660,7 +2642,7 @@
       <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K8:K13"/>
+      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
@@ -2719,381 +2701,381 @@
       </c>
     </row>
     <row r="4" spans="2:104" s="20" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="E4" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38" t="s">
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="T4" s="38" t="s">
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="T4" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38" t="s">
+      <c r="U4" s="40"/>
+      <c r="V4" s="40"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AH4" s="38" t="s">
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="40"/>
+      <c r="AE4" s="40"/>
+      <c r="AF4" s="40"/>
+      <c r="AH4" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="38" t="s">
+      <c r="AI4" s="40"/>
+      <c r="AJ4" s="40"/>
+      <c r="AK4" s="40"/>
+      <c r="AL4" s="40"/>
+      <c r="AM4" s="40"/>
+      <c r="AN4" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="39"/>
+      <c r="AO4" s="40"/>
+      <c r="AP4" s="40"/>
+      <c r="AQ4" s="40"/>
+      <c r="AR4" s="40"/>
+      <c r="AS4" s="40"/>
+      <c r="AT4" s="42"/>
       <c r="AU4" s="21"/>
-      <c r="AV4" s="38" t="s">
+      <c r="AV4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="AW4" s="38"/>
-      <c r="AX4" s="38"/>
-      <c r="AY4" s="38"/>
-      <c r="AZ4" s="38"/>
-      <c r="BA4" s="38"/>
-      <c r="BB4" s="38" t="s">
+      <c r="AW4" s="40"/>
+      <c r="AX4" s="40"/>
+      <c r="AY4" s="40"/>
+      <c r="AZ4" s="40"/>
+      <c r="BA4" s="40"/>
+      <c r="BB4" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="BC4" s="38"/>
-      <c r="BD4" s="38"/>
-      <c r="BE4" s="38"/>
-      <c r="BF4" s="38"/>
-      <c r="BG4" s="38"/>
-      <c r="BH4" s="38"/>
+      <c r="BC4" s="40"/>
+      <c r="BD4" s="40"/>
+      <c r="BE4" s="40"/>
+      <c r="BF4" s="40"/>
+      <c r="BG4" s="40"/>
+      <c r="BH4" s="40"/>
       <c r="BI4" s="22"/>
-      <c r="BJ4" s="40" t="s">
+      <c r="BJ4" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="BK4" s="38"/>
-      <c r="BL4" s="38"/>
-      <c r="BM4" s="38"/>
-      <c r="BN4" s="38"/>
-      <c r="BO4" s="38"/>
-      <c r="BP4" s="38" t="s">
+      <c r="BK4" s="40"/>
+      <c r="BL4" s="40"/>
+      <c r="BM4" s="40"/>
+      <c r="BN4" s="40"/>
+      <c r="BO4" s="40"/>
+      <c r="BP4" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="BQ4" s="38"/>
-      <c r="BR4" s="38"/>
-      <c r="BS4" s="38"/>
-      <c r="BT4" s="38"/>
-      <c r="BU4" s="38"/>
-      <c r="BV4" s="38"/>
-      <c r="BW4" s="38"/>
-      <c r="BY4" s="38" t="s">
+      <c r="BQ4" s="40"/>
+      <c r="BR4" s="40"/>
+      <c r="BS4" s="40"/>
+      <c r="BT4" s="40"/>
+      <c r="BU4" s="40"/>
+      <c r="BV4" s="40"/>
+      <c r="BW4" s="40"/>
+      <c r="BY4" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="BZ4" s="38"/>
-      <c r="CA4" s="38"/>
-      <c r="CB4" s="38"/>
-      <c r="CC4" s="38"/>
-      <c r="CD4" s="38"/>
-      <c r="CE4" s="38" t="s">
+      <c r="BZ4" s="40"/>
+      <c r="CA4" s="40"/>
+      <c r="CB4" s="40"/>
+      <c r="CC4" s="40"/>
+      <c r="CD4" s="40"/>
+      <c r="CE4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="CF4" s="38"/>
-      <c r="CG4" s="38"/>
-      <c r="CH4" s="38"/>
-      <c r="CI4" s="38"/>
-      <c r="CJ4" s="38"/>
-      <c r="CK4" s="39"/>
+      <c r="CF4" s="40"/>
+      <c r="CG4" s="40"/>
+      <c r="CH4" s="40"/>
+      <c r="CI4" s="40"/>
+      <c r="CJ4" s="40"/>
+      <c r="CK4" s="42"/>
       <c r="CL4" s="23"/>
-      <c r="CM4" s="40" t="s">
+      <c r="CM4" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="CN4" s="38"/>
-      <c r="CO4" s="38"/>
-      <c r="CP4" s="38"/>
-      <c r="CQ4" s="38"/>
-      <c r="CR4" s="38"/>
-      <c r="CS4" s="38" t="s">
+      <c r="CN4" s="40"/>
+      <c r="CO4" s="40"/>
+      <c r="CP4" s="40"/>
+      <c r="CQ4" s="40"/>
+      <c r="CR4" s="40"/>
+      <c r="CS4" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="CT4" s="38"/>
-      <c r="CU4" s="38"/>
-      <c r="CV4" s="38"/>
-      <c r="CW4" s="38"/>
-      <c r="CX4" s="38"/>
-      <c r="CY4" s="38"/>
-      <c r="CZ4" s="38"/>
+      <c r="CT4" s="40"/>
+      <c r="CU4" s="40"/>
+      <c r="CV4" s="40"/>
+      <c r="CW4" s="40"/>
+      <c r="CX4" s="40"/>
+      <c r="CY4" s="40"/>
+      <c r="CZ4" s="40"/>
     </row>
     <row r="5" spans="2:104" ht="21.6" customHeight="1">
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="38" t="s">
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="41" t="s">
+      <c r="G5" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41" t="s">
+      <c r="H5" s="49"/>
+      <c r="I5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="41"/>
-      <c r="K5" s="43" t="s">
+      <c r="J5" s="49"/>
+      <c r="K5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="38" t="s">
+      <c r="L5" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="41" t="s">
+      <c r="M5" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41" t="s">
+      <c r="N5" s="49"/>
+      <c r="O5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="43" t="s">
+      <c r="P5" s="49"/>
+      <c r="Q5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="43" t="s">
+      <c r="R5" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="38" t="s">
+      <c r="T5" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="41" t="s">
+      <c r="U5" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41" t="s">
+      <c r="V5" s="49"/>
+      <c r="W5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="43" t="s">
+      <c r="X5" s="49"/>
+      <c r="Y5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="38" t="s">
+      <c r="Z5" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="AA5" s="41" t="s">
+      <c r="AA5" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="41" t="s">
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="AD5" s="41"/>
-      <c r="AE5" s="43" t="s">
+      <c r="AD5" s="49"/>
+      <c r="AE5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="AF5" s="43" t="s">
+      <c r="AF5" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="AH5" s="38" t="s">
+      <c r="AH5" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="AI5" s="41" t="s">
+      <c r="AI5" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="AJ5" s="41"/>
-      <c r="AK5" s="41" t="s">
+      <c r="AJ5" s="49"/>
+      <c r="AK5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="AL5" s="41"/>
-      <c r="AM5" s="43" t="s">
+      <c r="AL5" s="49"/>
+      <c r="AM5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="AN5" s="38" t="s">
+      <c r="AN5" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="AO5" s="41" t="s">
+      <c r="AO5" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="AP5" s="41"/>
-      <c r="AQ5" s="41" t="s">
+      <c r="AP5" s="49"/>
+      <c r="AQ5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="AR5" s="41"/>
-      <c r="AS5" s="43" t="s">
+      <c r="AR5" s="49"/>
+      <c r="AS5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="AT5" s="46" t="s">
+      <c r="AT5" s="41" t="s">
         <v>23</v>
       </c>
       <c r="AU5" s="13"/>
-      <c r="AV5" s="38" t="s">
+      <c r="AV5" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="AW5" s="41" t="s">
+      <c r="AW5" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="AX5" s="41"/>
-      <c r="AY5" s="41" t="s">
+      <c r="AX5" s="49"/>
+      <c r="AY5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="AZ5" s="41"/>
-      <c r="BA5" s="43" t="s">
+      <c r="AZ5" s="49"/>
+      <c r="BA5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="BB5" s="38" t="s">
+      <c r="BB5" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="BC5" s="41" t="s">
+      <c r="BC5" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="BD5" s="41"/>
-      <c r="BE5" s="41" t="s">
+      <c r="BD5" s="49"/>
+      <c r="BE5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="BF5" s="41"/>
-      <c r="BG5" s="43" t="s">
+      <c r="BF5" s="49"/>
+      <c r="BG5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="BH5" s="43" t="s">
+      <c r="BH5" s="39" t="s">
         <v>23</v>
       </c>
       <c r="BI5" s="14"/>
-      <c r="BJ5" s="40" t="s">
+      <c r="BJ5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="BK5" s="41" t="s">
+      <c r="BK5" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="BL5" s="41"/>
-      <c r="BM5" s="41" t="s">
+      <c r="BL5" s="49"/>
+      <c r="BM5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="BN5" s="41"/>
-      <c r="BO5" s="43" t="s">
+      <c r="BN5" s="49"/>
+      <c r="BO5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="BP5" s="38" t="s">
+      <c r="BP5" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="BQ5" s="41" t="s">
+      <c r="BQ5" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="BR5" s="41"/>
-      <c r="BS5" s="41" t="s">
+      <c r="BR5" s="49"/>
+      <c r="BS5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="BT5" s="41"/>
-      <c r="BU5" s="43" t="s">
+      <c r="BT5" s="49"/>
+      <c r="BU5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="BV5" s="43" t="s">
+      <c r="BV5" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="BW5" s="43" t="s">
+      <c r="BW5" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="BY5" s="38" t="s">
+      <c r="BY5" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="BZ5" s="44" t="s">
+      <c r="BZ5" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="CA5" s="44"/>
-      <c r="CB5" s="44" t="s">
+      <c r="CA5" s="47"/>
+      <c r="CB5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="CC5" s="44"/>
-      <c r="CD5" s="43" t="s">
+      <c r="CC5" s="47"/>
+      <c r="CD5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="CE5" s="38" t="s">
+      <c r="CE5" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="CF5" s="45" t="s">
+      <c r="CF5" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="CG5" s="45"/>
-      <c r="CH5" s="44" t="s">
+      <c r="CG5" s="46"/>
+      <c r="CH5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="CI5" s="44"/>
-      <c r="CJ5" s="43" t="s">
+      <c r="CI5" s="47"/>
+      <c r="CJ5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="CK5" s="46" t="s">
+      <c r="CK5" s="41" t="s">
         <v>23</v>
       </c>
       <c r="CL5" s="11"/>
-      <c r="CM5" s="40" t="s">
+      <c r="CM5" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="CN5" s="45" t="s">
+      <c r="CN5" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="CO5" s="45"/>
-      <c r="CP5" s="44" t="s">
+      <c r="CO5" s="46"/>
+      <c r="CP5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="CQ5" s="44"/>
-      <c r="CR5" s="43" t="s">
+      <c r="CQ5" s="47"/>
+      <c r="CR5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="CS5" s="38" t="s">
+      <c r="CS5" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="CT5" s="45" t="s">
+      <c r="CT5" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="CU5" s="45"/>
-      <c r="CV5" s="44" t="s">
+      <c r="CU5" s="46"/>
+      <c r="CV5" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="CW5" s="44"/>
-      <c r="CX5" s="43" t="s">
+      <c r="CW5" s="47"/>
+      <c r="CX5" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="CY5" s="43" t="s">
+      <c r="CY5" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="CZ5" s="43" t="s">
+      <c r="CZ5" s="39" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:104" ht="14.4">
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="38"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="40"/>
       <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3106,8 +3088,8 @@
       <c r="J6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
+      <c r="K6" s="40"/>
+      <c r="L6" s="40"/>
       <c r="M6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3120,9 +3102,9 @@
       <c r="P6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="T6" s="38"/>
+      <c r="Q6" s="40"/>
+      <c r="R6" s="40"/>
+      <c r="T6" s="40"/>
       <c r="U6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3135,8 +3117,8 @@
       <c r="X6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
+      <c r="Y6" s="40"/>
+      <c r="Z6" s="40"/>
       <c r="AA6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3149,9 +3131,9 @@
       <c r="AD6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="38"/>
-      <c r="AH6" s="38"/>
+      <c r="AE6" s="40"/>
+      <c r="AF6" s="40"/>
+      <c r="AH6" s="40"/>
       <c r="AI6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3164,8 +3146,8 @@
       <c r="AL6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AM6" s="38"/>
-      <c r="AN6" s="38"/>
+      <c r="AM6" s="40"/>
+      <c r="AN6" s="40"/>
       <c r="AO6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3178,10 +3160,10 @@
       <c r="AR6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AS6" s="38"/>
-      <c r="AT6" s="39"/>
+      <c r="AS6" s="40"/>
+      <c r="AT6" s="42"/>
       <c r="AU6" s="13"/>
-      <c r="AV6" s="38"/>
+      <c r="AV6" s="40"/>
       <c r="AW6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3194,8 +3176,8 @@
       <c r="AZ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BA6" s="38"/>
-      <c r="BB6" s="38"/>
+      <c r="BA6" s="40"/>
+      <c r="BB6" s="40"/>
       <c r="BC6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3208,10 +3190,10 @@
       <c r="BF6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BG6" s="38"/>
-      <c r="BH6" s="38"/>
+      <c r="BG6" s="40"/>
+      <c r="BH6" s="40"/>
       <c r="BI6" s="14"/>
-      <c r="BJ6" s="40"/>
+      <c r="BJ6" s="48"/>
       <c r="BK6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3224,8 +3206,8 @@
       <c r="BN6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BO6" s="38"/>
-      <c r="BP6" s="38"/>
+      <c r="BO6" s="40"/>
+      <c r="BP6" s="40"/>
       <c r="BQ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3238,10 +3220,10 @@
       <c r="BT6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BU6" s="38"/>
-      <c r="BV6" s="38"/>
-      <c r="BW6" s="38"/>
-      <c r="BY6" s="38"/>
+      <c r="BU6" s="40"/>
+      <c r="BV6" s="40"/>
+      <c r="BW6" s="40"/>
+      <c r="BY6" s="40"/>
       <c r="BZ6" s="31" t="s">
         <v>25</v>
       </c>
@@ -3254,8 +3236,8 @@
       <c r="CC6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CD6" s="38"/>
-      <c r="CE6" s="38"/>
+      <c r="CD6" s="40"/>
+      <c r="CE6" s="40"/>
       <c r="CF6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3268,10 +3250,10 @@
       <c r="CI6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CJ6" s="38"/>
-      <c r="CK6" s="39"/>
+      <c r="CJ6" s="40"/>
+      <c r="CK6" s="42"/>
       <c r="CL6" s="11"/>
-      <c r="CM6" s="40"/>
+      <c r="CM6" s="48"/>
       <c r="CN6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3284,8 +3266,8 @@
       <c r="CQ6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CR6" s="38"/>
-      <c r="CS6" s="38"/>
+      <c r="CR6" s="40"/>
+      <c r="CS6" s="40"/>
       <c r="CT6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3298,9 +3280,9 @@
       <c r="CW6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CX6" s="38"/>
-      <c r="CY6" s="38"/>
-      <c r="CZ6" s="38"/>
+      <c r="CX6" s="40"/>
+      <c r="CY6" s="40"/>
+      <c r="CZ6" s="40"/>
     </row>
     <row r="7" spans="2:104" ht="20.25" customHeight="1">
       <c r="B7" s="5">
@@ -3328,7 +3310,7 @@
       <c r="I7" s="6">
         <v>45079</v>
       </c>
-      <c r="J7" s="53">
+      <c r="J7" s="6">
         <v>45079</v>
       </c>
       <c r="K7" s="7">
@@ -3432,50 +3414,50 @@
       <c r="BU7" s="7"/>
       <c r="BV7" s="10"/>
       <c r="BW7" s="10"/>
-      <c r="BY7" s="35"/>
-      <c r="BZ7" s="35">
+      <c r="BY7" s="36"/>
+      <c r="BZ7" s="36">
         <v>45100</v>
       </c>
-      <c r="CA7" s="35">
+      <c r="CA7" s="36">
         <v>45100</v>
       </c>
-      <c r="CB7" s="35"/>
-      <c r="CC7" s="35"/>
-      <c r="CD7" s="35"/>
-      <c r="CE7" s="35"/>
-      <c r="CF7" s="35">
+      <c r="CB7" s="36"/>
+      <c r="CC7" s="36"/>
+      <c r="CD7" s="36"/>
+      <c r="CE7" s="36"/>
+      <c r="CF7" s="36">
         <v>45103</v>
       </c>
-      <c r="CG7" s="35">
+      <c r="CG7" s="36">
         <v>45103</v>
       </c>
-      <c r="CH7" s="35"/>
-      <c r="CI7" s="35"/>
-      <c r="CJ7" s="35"/>
-      <c r="CK7" s="35"/>
+      <c r="CH7" s="36"/>
+      <c r="CI7" s="36"/>
+      <c r="CJ7" s="36"/>
+      <c r="CK7" s="36"/>
       <c r="CL7" s="14"/>
-      <c r="CM7" s="35"/>
-      <c r="CN7" s="35">
+      <c r="CM7" s="36"/>
+      <c r="CN7" s="36">
         <v>45104</v>
       </c>
-      <c r="CO7" s="35">
+      <c r="CO7" s="36">
         <v>45104</v>
       </c>
-      <c r="CP7" s="35"/>
-      <c r="CQ7" s="35"/>
-      <c r="CR7" s="35"/>
-      <c r="CS7" s="35"/>
-      <c r="CT7" s="35">
+      <c r="CP7" s="36"/>
+      <c r="CQ7" s="36"/>
+      <c r="CR7" s="36"/>
+      <c r="CS7" s="36"/>
+      <c r="CT7" s="36">
         <v>45105</v>
       </c>
-      <c r="CU7" s="35">
+      <c r="CU7" s="36">
         <v>45105</v>
       </c>
-      <c r="CV7" s="35"/>
-      <c r="CW7" s="35"/>
-      <c r="CX7" s="35"/>
-      <c r="CY7" s="35"/>
-      <c r="CZ7" s="35"/>
+      <c r="CV7" s="36"/>
+      <c r="CW7" s="36"/>
+      <c r="CX7" s="36"/>
+      <c r="CY7" s="36"/>
+      <c r="CZ7" s="36"/>
     </row>
     <row r="8" spans="2:104" ht="20.25" customHeight="1">
       <c r="B8" s="5">
@@ -3491,7 +3473,7 @@
       <c r="E8" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="55" t="s">
+      <c r="F8" s="27" t="s">
         <v>58</v>
       </c>
       <c r="G8" s="6">
@@ -3500,13 +3482,13 @@
       <c r="H8" s="6">
         <v>45079</v>
       </c>
-      <c r="I8" s="53">
+      <c r="I8" s="6">
         <v>45079</v>
       </c>
-      <c r="J8" s="53">
+      <c r="J8" s="6">
         <v>45079</v>
       </c>
-      <c r="K8" s="54">
+      <c r="K8" s="7">
         <v>1</v>
       </c>
       <c r="L8" s="17"/>
@@ -3607,34 +3589,34 @@
       <c r="BU8" s="7"/>
       <c r="BV8" s="10"/>
       <c r="BW8" s="10"/>
-      <c r="BY8" s="36"/>
-      <c r="BZ8" s="36"/>
-      <c r="CA8" s="36"/>
-      <c r="CB8" s="36"/>
-      <c r="CC8" s="36"/>
-      <c r="CD8" s="36"/>
-      <c r="CE8" s="36"/>
-      <c r="CF8" s="36"/>
-      <c r="CG8" s="36"/>
-      <c r="CH8" s="36"/>
-      <c r="CI8" s="36"/>
-      <c r="CJ8" s="36"/>
-      <c r="CK8" s="36"/>
+      <c r="BY8" s="37"/>
+      <c r="BZ8" s="37"/>
+      <c r="CA8" s="37"/>
+      <c r="CB8" s="37"/>
+      <c r="CC8" s="37"/>
+      <c r="CD8" s="37"/>
+      <c r="CE8" s="37"/>
+      <c r="CF8" s="37"/>
+      <c r="CG8" s="37"/>
+      <c r="CH8" s="37"/>
+      <c r="CI8" s="37"/>
+      <c r="CJ8" s="37"/>
+      <c r="CK8" s="37"/>
       <c r="CL8" s="14"/>
-      <c r="CM8" s="36"/>
-      <c r="CN8" s="36"/>
-      <c r="CO8" s="36"/>
-      <c r="CP8" s="36"/>
-      <c r="CQ8" s="36"/>
-      <c r="CR8" s="36"/>
-      <c r="CS8" s="36"/>
-      <c r="CT8" s="36"/>
-      <c r="CU8" s="36"/>
-      <c r="CV8" s="36"/>
-      <c r="CW8" s="36"/>
-      <c r="CX8" s="36"/>
-      <c r="CY8" s="36"/>
-      <c r="CZ8" s="36"/>
+      <c r="CM8" s="37"/>
+      <c r="CN8" s="37"/>
+      <c r="CO8" s="37"/>
+      <c r="CP8" s="37"/>
+      <c r="CQ8" s="37"/>
+      <c r="CR8" s="37"/>
+      <c r="CS8" s="37"/>
+      <c r="CT8" s="37"/>
+      <c r="CU8" s="37"/>
+      <c r="CV8" s="37"/>
+      <c r="CW8" s="37"/>
+      <c r="CX8" s="37"/>
+      <c r="CY8" s="37"/>
+      <c r="CZ8" s="37"/>
     </row>
     <row r="9" spans="2:104" ht="20.25" customHeight="1">
       <c r="B9" s="5">
@@ -3650,7 +3632,7 @@
       <c r="E9" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="27" t="s">
         <v>58</v>
       </c>
       <c r="G9" s="6">
@@ -3659,13 +3641,13 @@
       <c r="H9" s="6">
         <v>45079</v>
       </c>
-      <c r="I9" s="53">
+      <c r="I9" s="6">
         <v>45079</v>
       </c>
-      <c r="J9" s="53">
+      <c r="J9" s="6">
         <v>45079</v>
       </c>
-      <c r="K9" s="54">
+      <c r="K9" s="7">
         <v>1</v>
       </c>
       <c r="L9" s="17"/>
@@ -3767,34 +3749,34 @@
       <c r="BV9" s="10"/>
       <c r="BW9" s="10"/>
       <c r="BX9" s="13"/>
-      <c r="BY9" s="36"/>
-      <c r="BZ9" s="36"/>
-      <c r="CA9" s="36"/>
-      <c r="CB9" s="36"/>
-      <c r="CC9" s="36"/>
-      <c r="CD9" s="36"/>
-      <c r="CE9" s="36"/>
-      <c r="CF9" s="36"/>
-      <c r="CG9" s="36"/>
-      <c r="CH9" s="36"/>
-      <c r="CI9" s="36"/>
-      <c r="CJ9" s="36"/>
-      <c r="CK9" s="36"/>
+      <c r="BY9" s="37"/>
+      <c r="BZ9" s="37"/>
+      <c r="CA9" s="37"/>
+      <c r="CB9" s="37"/>
+      <c r="CC9" s="37"/>
+      <c r="CD9" s="37"/>
+      <c r="CE9" s="37"/>
+      <c r="CF9" s="37"/>
+      <c r="CG9" s="37"/>
+      <c r="CH9" s="37"/>
+      <c r="CI9" s="37"/>
+      <c r="CJ9" s="37"/>
+      <c r="CK9" s="37"/>
       <c r="CL9" s="14"/>
-      <c r="CM9" s="36"/>
-      <c r="CN9" s="36"/>
-      <c r="CO9" s="36"/>
-      <c r="CP9" s="36"/>
-      <c r="CQ9" s="36"/>
-      <c r="CR9" s="36"/>
-      <c r="CS9" s="36"/>
-      <c r="CT9" s="36"/>
-      <c r="CU9" s="36"/>
-      <c r="CV9" s="36"/>
-      <c r="CW9" s="36"/>
-      <c r="CX9" s="36"/>
-      <c r="CY9" s="36"/>
-      <c r="CZ9" s="36"/>
+      <c r="CM9" s="37"/>
+      <c r="CN9" s="37"/>
+      <c r="CO9" s="37"/>
+      <c r="CP9" s="37"/>
+      <c r="CQ9" s="37"/>
+      <c r="CR9" s="37"/>
+      <c r="CS9" s="37"/>
+      <c r="CT9" s="37"/>
+      <c r="CU9" s="37"/>
+      <c r="CV9" s="37"/>
+      <c r="CW9" s="37"/>
+      <c r="CX9" s="37"/>
+      <c r="CY9" s="37"/>
+      <c r="CZ9" s="37"/>
     </row>
     <row r="10" spans="2:104" ht="20.25" customHeight="1">
       <c r="B10" s="5">
@@ -3810,7 +3792,7 @@
       <c r="E10" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="27" t="s">
         <v>58</v>
       </c>
       <c r="G10" s="6">
@@ -3819,13 +3801,13 @@
       <c r="H10" s="6">
         <v>45079</v>
       </c>
-      <c r="I10" s="53">
+      <c r="I10" s="6">
         <v>45079</v>
       </c>
-      <c r="J10" s="53">
+      <c r="J10" s="6">
         <v>45079</v>
       </c>
-      <c r="K10" s="54">
+      <c r="K10" s="7">
         <v>1</v>
       </c>
       <c r="L10" s="17"/>
@@ -3927,34 +3909,34 @@
       <c r="BV10" s="10"/>
       <c r="BW10" s="10"/>
       <c r="BX10" s="13"/>
-      <c r="BY10" s="36"/>
-      <c r="BZ10" s="36"/>
-      <c r="CA10" s="36"/>
-      <c r="CB10" s="36"/>
-      <c r="CC10" s="36"/>
-      <c r="CD10" s="36"/>
-      <c r="CE10" s="36"/>
-      <c r="CF10" s="36"/>
-      <c r="CG10" s="36"/>
-      <c r="CH10" s="36"/>
-      <c r="CI10" s="36"/>
-      <c r="CJ10" s="36"/>
-      <c r="CK10" s="36"/>
+      <c r="BY10" s="37"/>
+      <c r="BZ10" s="37"/>
+      <c r="CA10" s="37"/>
+      <c r="CB10" s="37"/>
+      <c r="CC10" s="37"/>
+      <c r="CD10" s="37"/>
+      <c r="CE10" s="37"/>
+      <c r="CF10" s="37"/>
+      <c r="CG10" s="37"/>
+      <c r="CH10" s="37"/>
+      <c r="CI10" s="37"/>
+      <c r="CJ10" s="37"/>
+      <c r="CK10" s="37"/>
       <c r="CL10" s="14"/>
-      <c r="CM10" s="36"/>
-      <c r="CN10" s="36"/>
-      <c r="CO10" s="36"/>
-      <c r="CP10" s="36"/>
-      <c r="CQ10" s="36"/>
-      <c r="CR10" s="36"/>
-      <c r="CS10" s="36"/>
-      <c r="CT10" s="36"/>
-      <c r="CU10" s="36"/>
-      <c r="CV10" s="36"/>
-      <c r="CW10" s="36"/>
-      <c r="CX10" s="36"/>
-      <c r="CY10" s="36"/>
-      <c r="CZ10" s="36"/>
+      <c r="CM10" s="37"/>
+      <c r="CN10" s="37"/>
+      <c r="CO10" s="37"/>
+      <c r="CP10" s="37"/>
+      <c r="CQ10" s="37"/>
+      <c r="CR10" s="37"/>
+      <c r="CS10" s="37"/>
+      <c r="CT10" s="37"/>
+      <c r="CU10" s="37"/>
+      <c r="CV10" s="37"/>
+      <c r="CW10" s="37"/>
+      <c r="CX10" s="37"/>
+      <c r="CY10" s="37"/>
+      <c r="CZ10" s="37"/>
     </row>
     <row r="11" spans="2:104" ht="20.25" customHeight="1">
       <c r="B11" s="5">
@@ -3970,7 +3952,7 @@
       <c r="E11" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="27" t="s">
         <v>58</v>
       </c>
       <c r="G11" s="6">
@@ -3979,13 +3961,13 @@
       <c r="H11" s="6">
         <v>45079</v>
       </c>
-      <c r="I11" s="53">
+      <c r="I11" s="6">
         <v>45079</v>
       </c>
-      <c r="J11" s="53">
+      <c r="J11" s="6">
         <v>45079</v>
       </c>
-      <c r="K11" s="54">
+      <c r="K11" s="7">
         <v>1</v>
       </c>
       <c r="L11" s="17"/>
@@ -4087,34 +4069,34 @@
       <c r="BV11" s="10"/>
       <c r="BW11" s="10"/>
       <c r="BX11" s="13"/>
-      <c r="BY11" s="36"/>
-      <c r="BZ11" s="36"/>
-      <c r="CA11" s="36"/>
-      <c r="CB11" s="36"/>
-      <c r="CC11" s="36"/>
-      <c r="CD11" s="36"/>
-      <c r="CE11" s="36"/>
-      <c r="CF11" s="36"/>
-      <c r="CG11" s="36"/>
-      <c r="CH11" s="36"/>
-      <c r="CI11" s="36"/>
-      <c r="CJ11" s="36"/>
-      <c r="CK11" s="36"/>
+      <c r="BY11" s="37"/>
+      <c r="BZ11" s="37"/>
+      <c r="CA11" s="37"/>
+      <c r="CB11" s="37"/>
+      <c r="CC11" s="37"/>
+      <c r="CD11" s="37"/>
+      <c r="CE11" s="37"/>
+      <c r="CF11" s="37"/>
+      <c r="CG11" s="37"/>
+      <c r="CH11" s="37"/>
+      <c r="CI11" s="37"/>
+      <c r="CJ11" s="37"/>
+      <c r="CK11" s="37"/>
       <c r="CL11" s="14"/>
-      <c r="CM11" s="36"/>
-      <c r="CN11" s="36"/>
-      <c r="CO11" s="36"/>
-      <c r="CP11" s="36"/>
-      <c r="CQ11" s="36"/>
-      <c r="CR11" s="36"/>
-      <c r="CS11" s="36"/>
-      <c r="CT11" s="36"/>
-      <c r="CU11" s="36"/>
-      <c r="CV11" s="36"/>
-      <c r="CW11" s="36"/>
-      <c r="CX11" s="36"/>
-      <c r="CY11" s="36"/>
-      <c r="CZ11" s="36"/>
+      <c r="CM11" s="37"/>
+      <c r="CN11" s="37"/>
+      <c r="CO11" s="37"/>
+      <c r="CP11" s="37"/>
+      <c r="CQ11" s="37"/>
+      <c r="CR11" s="37"/>
+      <c r="CS11" s="37"/>
+      <c r="CT11" s="37"/>
+      <c r="CU11" s="37"/>
+      <c r="CV11" s="37"/>
+      <c r="CW11" s="37"/>
+      <c r="CX11" s="37"/>
+      <c r="CY11" s="37"/>
+      <c r="CZ11" s="37"/>
     </row>
     <row r="12" spans="2:104" ht="20.25" customHeight="1">
       <c r="B12" s="5">
@@ -4130,7 +4112,7 @@
       <c r="E12" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="27" t="s">
         <v>58</v>
       </c>
       <c r="G12" s="6">
@@ -4139,13 +4121,13 @@
       <c r="H12" s="6">
         <v>45079</v>
       </c>
-      <c r="I12" s="53">
+      <c r="I12" s="6">
         <v>45079</v>
       </c>
-      <c r="J12" s="53">
+      <c r="J12" s="6">
         <v>45079</v>
       </c>
-      <c r="K12" s="54">
+      <c r="K12" s="7">
         <v>1</v>
       </c>
       <c r="L12" s="17"/>
@@ -4247,34 +4229,34 @@
       <c r="BV12" s="10"/>
       <c r="BW12" s="10"/>
       <c r="BX12" s="13"/>
-      <c r="BY12" s="36"/>
-      <c r="BZ12" s="36"/>
-      <c r="CA12" s="36"/>
-      <c r="CB12" s="36"/>
-      <c r="CC12" s="36"/>
-      <c r="CD12" s="36"/>
-      <c r="CE12" s="36"/>
-      <c r="CF12" s="36"/>
-      <c r="CG12" s="36"/>
-      <c r="CH12" s="36"/>
-      <c r="CI12" s="36"/>
-      <c r="CJ12" s="36"/>
-      <c r="CK12" s="36"/>
+      <c r="BY12" s="37"/>
+      <c r="BZ12" s="37"/>
+      <c r="CA12" s="37"/>
+      <c r="CB12" s="37"/>
+      <c r="CC12" s="37"/>
+      <c r="CD12" s="37"/>
+      <c r="CE12" s="37"/>
+      <c r="CF12" s="37"/>
+      <c r="CG12" s="37"/>
+      <c r="CH12" s="37"/>
+      <c r="CI12" s="37"/>
+      <c r="CJ12" s="37"/>
+      <c r="CK12" s="37"/>
       <c r="CL12" s="14"/>
-      <c r="CM12" s="36"/>
-      <c r="CN12" s="36"/>
-      <c r="CO12" s="36"/>
-      <c r="CP12" s="36"/>
-      <c r="CQ12" s="36"/>
-      <c r="CR12" s="36"/>
-      <c r="CS12" s="36"/>
-      <c r="CT12" s="36"/>
-      <c r="CU12" s="36"/>
-      <c r="CV12" s="36"/>
-      <c r="CW12" s="36"/>
-      <c r="CX12" s="36"/>
-      <c r="CY12" s="36"/>
-      <c r="CZ12" s="36"/>
+      <c r="CM12" s="37"/>
+      <c r="CN12" s="37"/>
+      <c r="CO12" s="37"/>
+      <c r="CP12" s="37"/>
+      <c r="CQ12" s="37"/>
+      <c r="CR12" s="37"/>
+      <c r="CS12" s="37"/>
+      <c r="CT12" s="37"/>
+      <c r="CU12" s="37"/>
+      <c r="CV12" s="37"/>
+      <c r="CW12" s="37"/>
+      <c r="CX12" s="37"/>
+      <c r="CY12" s="37"/>
+      <c r="CZ12" s="37"/>
     </row>
     <row r="13" spans="2:104" ht="20.25" customHeight="1">
       <c r="B13" s="5">
@@ -4290,7 +4272,7 @@
       <c r="E13" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="F13" s="27" t="s">
         <v>58</v>
       </c>
       <c r="G13" s="6">
@@ -4299,13 +4281,13 @@
       <c r="H13" s="6">
         <v>45079</v>
       </c>
-      <c r="I13" s="53">
+      <c r="I13" s="6">
         <v>45079</v>
       </c>
-      <c r="J13" s="53">
+      <c r="J13" s="6">
         <v>45079</v>
       </c>
-      <c r="K13" s="54">
+      <c r="K13" s="7">
         <v>1</v>
       </c>
       <c r="L13" s="17"/>
@@ -4407,34 +4389,34 @@
       <c r="BV13" s="10"/>
       <c r="BW13" s="10"/>
       <c r="BX13" s="13"/>
-      <c r="BY13" s="36"/>
-      <c r="BZ13" s="36"/>
-      <c r="CA13" s="36"/>
-      <c r="CB13" s="36"/>
-      <c r="CC13" s="36"/>
-      <c r="CD13" s="36"/>
-      <c r="CE13" s="36"/>
-      <c r="CF13" s="36"/>
-      <c r="CG13" s="36"/>
-      <c r="CH13" s="36"/>
-      <c r="CI13" s="36"/>
-      <c r="CJ13" s="36"/>
-      <c r="CK13" s="36"/>
+      <c r="BY13" s="37"/>
+      <c r="BZ13" s="37"/>
+      <c r="CA13" s="37"/>
+      <c r="CB13" s="37"/>
+      <c r="CC13" s="37"/>
+      <c r="CD13" s="37"/>
+      <c r="CE13" s="37"/>
+      <c r="CF13" s="37"/>
+      <c r="CG13" s="37"/>
+      <c r="CH13" s="37"/>
+      <c r="CI13" s="37"/>
+      <c r="CJ13" s="37"/>
+      <c r="CK13" s="37"/>
       <c r="CL13" s="14"/>
-      <c r="CM13" s="36"/>
-      <c r="CN13" s="36"/>
-      <c r="CO13" s="36"/>
-      <c r="CP13" s="36"/>
-      <c r="CQ13" s="36"/>
-      <c r="CR13" s="36"/>
-      <c r="CS13" s="36"/>
-      <c r="CT13" s="36"/>
-      <c r="CU13" s="36"/>
-      <c r="CV13" s="36"/>
-      <c r="CW13" s="36"/>
-      <c r="CX13" s="36"/>
-      <c r="CY13" s="36"/>
-      <c r="CZ13" s="36"/>
+      <c r="CM13" s="37"/>
+      <c r="CN13" s="37"/>
+      <c r="CO13" s="37"/>
+      <c r="CP13" s="37"/>
+      <c r="CQ13" s="37"/>
+      <c r="CR13" s="37"/>
+      <c r="CS13" s="37"/>
+      <c r="CT13" s="37"/>
+      <c r="CU13" s="37"/>
+      <c r="CV13" s="37"/>
+      <c r="CW13" s="37"/>
+      <c r="CX13" s="37"/>
+      <c r="CY13" s="37"/>
+      <c r="CZ13" s="37"/>
     </row>
     <row r="14" spans="2:104" ht="20.25" customHeight="1">
       <c r="B14" s="5">
@@ -4450,25 +4432,25 @@
       <c r="E14" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="F14" s="51" t="s">
+      <c r="F14" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="G14" s="52">
+      <c r="G14" s="6">
         <v>45079</v>
       </c>
-      <c r="H14" s="52">
+      <c r="H14" s="6">
         <v>45079</v>
       </c>
-      <c r="I14" s="52">
+      <c r="I14" s="6">
         <v>45078</v>
       </c>
-      <c r="J14" s="52">
+      <c r="J14" s="6">
         <v>45078</v>
       </c>
-      <c r="K14" s="56">
+      <c r="K14" s="7">
         <v>1</v>
       </c>
-      <c r="L14" s="56"/>
+      <c r="L14" s="7"/>
       <c r="M14" s="6">
         <v>45082</v>
       </c>
@@ -4567,50 +4549,50 @@
       <c r="BV14" s="10"/>
       <c r="BW14" s="10"/>
       <c r="BX14" s="13"/>
-      <c r="BY14" s="35"/>
-      <c r="BZ14" s="47">
+      <c r="BY14" s="36"/>
+      <c r="BZ14" s="43">
         <v>45100</v>
       </c>
-      <c r="CA14" s="47">
+      <c r="CA14" s="43">
         <v>45100</v>
       </c>
-      <c r="CB14" s="35"/>
-      <c r="CC14" s="35"/>
-      <c r="CD14" s="35"/>
-      <c r="CE14" s="35"/>
-      <c r="CF14" s="35">
+      <c r="CB14" s="36"/>
+      <c r="CC14" s="36"/>
+      <c r="CD14" s="36"/>
+      <c r="CE14" s="36"/>
+      <c r="CF14" s="36">
         <v>45103</v>
       </c>
-      <c r="CG14" s="35">
+      <c r="CG14" s="36">
         <v>45103</v>
       </c>
-      <c r="CH14" s="35"/>
-      <c r="CI14" s="35"/>
-      <c r="CJ14" s="35"/>
-      <c r="CK14" s="35"/>
+      <c r="CH14" s="36"/>
+      <c r="CI14" s="36"/>
+      <c r="CJ14" s="36"/>
+      <c r="CK14" s="36"/>
       <c r="CL14" s="14"/>
-      <c r="CM14" s="35"/>
-      <c r="CN14" s="35">
+      <c r="CM14" s="36"/>
+      <c r="CN14" s="36">
         <v>45104</v>
       </c>
-      <c r="CO14" s="35">
+      <c r="CO14" s="36">
         <v>45104</v>
       </c>
-      <c r="CP14" s="35"/>
-      <c r="CQ14" s="35"/>
-      <c r="CR14" s="35"/>
-      <c r="CS14" s="35"/>
-      <c r="CT14" s="35">
+      <c r="CP14" s="36"/>
+      <c r="CQ14" s="36"/>
+      <c r="CR14" s="36"/>
+      <c r="CS14" s="36"/>
+      <c r="CT14" s="36">
         <v>45105</v>
       </c>
-      <c r="CU14" s="35">
+      <c r="CU14" s="36">
         <v>45105</v>
       </c>
-      <c r="CV14" s="35"/>
-      <c r="CW14" s="35"/>
-      <c r="CX14" s="35"/>
-      <c r="CY14" s="35"/>
-      <c r="CZ14" s="35"/>
+      <c r="CV14" s="36"/>
+      <c r="CW14" s="36"/>
+      <c r="CX14" s="36"/>
+      <c r="CY14" s="36"/>
+      <c r="CZ14" s="36"/>
     </row>
     <row r="15" spans="2:104" ht="20.25" customHeight="1">
       <c r="B15" s="5">
@@ -4626,25 +4608,25 @@
       <c r="E15" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="51" t="s">
+      <c r="F15" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="G15" s="52">
+      <c r="G15" s="6">
         <v>45079</v>
       </c>
-      <c r="H15" s="52">
+      <c r="H15" s="6">
         <v>45079</v>
       </c>
-      <c r="I15" s="52">
+      <c r="I15" s="6">
         <v>45078</v>
       </c>
-      <c r="J15" s="52">
+      <c r="J15" s="6">
         <v>45079</v>
       </c>
-      <c r="K15" s="56">
+      <c r="K15" s="7">
         <v>1</v>
       </c>
-      <c r="L15" s="56"/>
+      <c r="L15" s="7"/>
       <c r="M15" s="6">
         <v>45082</v>
       </c>
@@ -4742,34 +4724,34 @@
       <c r="BU15" s="7"/>
       <c r="BV15" s="10"/>
       <c r="BW15" s="10"/>
-      <c r="BY15" s="36"/>
-      <c r="BZ15" s="48"/>
-      <c r="CA15" s="48"/>
-      <c r="CB15" s="36"/>
-      <c r="CC15" s="36"/>
-      <c r="CD15" s="36"/>
-      <c r="CE15" s="36"/>
-      <c r="CF15" s="36"/>
-      <c r="CG15" s="36"/>
-      <c r="CH15" s="36"/>
-      <c r="CI15" s="36"/>
-      <c r="CJ15" s="36"/>
-      <c r="CK15" s="36"/>
+      <c r="BY15" s="37"/>
+      <c r="BZ15" s="44"/>
+      <c r="CA15" s="44"/>
+      <c r="CB15" s="37"/>
+      <c r="CC15" s="37"/>
+      <c r="CD15" s="37"/>
+      <c r="CE15" s="37"/>
+      <c r="CF15" s="37"/>
+      <c r="CG15" s="37"/>
+      <c r="CH15" s="37"/>
+      <c r="CI15" s="37"/>
+      <c r="CJ15" s="37"/>
+      <c r="CK15" s="37"/>
       <c r="CL15" s="29"/>
-      <c r="CM15" s="36"/>
-      <c r="CN15" s="36"/>
-      <c r="CO15" s="36"/>
-      <c r="CP15" s="36"/>
-      <c r="CQ15" s="36"/>
-      <c r="CR15" s="36"/>
-      <c r="CS15" s="36"/>
-      <c r="CT15" s="36"/>
-      <c r="CU15" s="36"/>
-      <c r="CV15" s="36"/>
-      <c r="CW15" s="36"/>
-      <c r="CX15" s="36"/>
-      <c r="CY15" s="36"/>
-      <c r="CZ15" s="36"/>
+      <c r="CM15" s="37"/>
+      <c r="CN15" s="37"/>
+      <c r="CO15" s="37"/>
+      <c r="CP15" s="37"/>
+      <c r="CQ15" s="37"/>
+      <c r="CR15" s="37"/>
+      <c r="CS15" s="37"/>
+      <c r="CT15" s="37"/>
+      <c r="CU15" s="37"/>
+      <c r="CV15" s="37"/>
+      <c r="CW15" s="37"/>
+      <c r="CX15" s="37"/>
+      <c r="CY15" s="37"/>
+      <c r="CZ15" s="37"/>
     </row>
     <row r="16" spans="2:104" ht="20.25" customHeight="1">
       <c r="B16" s="5">
@@ -4785,25 +4767,25 @@
       <c r="E16" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="G16" s="52">
+      <c r="G16" s="6">
         <v>45079</v>
       </c>
-      <c r="H16" s="52">
+      <c r="H16" s="6">
         <v>45079</v>
       </c>
-      <c r="I16" s="52">
+      <c r="I16" s="6">
         <v>45078</v>
       </c>
-      <c r="J16" s="52">
+      <c r="J16" s="6">
         <v>45078</v>
       </c>
-      <c r="K16" s="56">
+      <c r="K16" s="7">
         <v>1</v>
       </c>
-      <c r="L16" s="56"/>
+      <c r="L16" s="7"/>
       <c r="M16" s="6">
         <v>45082</v>
       </c>
@@ -4901,34 +4883,34 @@
       <c r="BU16" s="7"/>
       <c r="BV16" s="10"/>
       <c r="BW16" s="10"/>
-      <c r="BY16" s="36"/>
-      <c r="BZ16" s="48"/>
-      <c r="CA16" s="48"/>
-      <c r="CB16" s="36"/>
-      <c r="CC16" s="36"/>
-      <c r="CD16" s="36"/>
-      <c r="CE16" s="36"/>
-      <c r="CF16" s="36"/>
-      <c r="CG16" s="36"/>
-      <c r="CH16" s="36"/>
-      <c r="CI16" s="36"/>
-      <c r="CJ16" s="36"/>
-      <c r="CK16" s="36"/>
+      <c r="BY16" s="37"/>
+      <c r="BZ16" s="44"/>
+      <c r="CA16" s="44"/>
+      <c r="CB16" s="37"/>
+      <c r="CC16" s="37"/>
+      <c r="CD16" s="37"/>
+      <c r="CE16" s="37"/>
+      <c r="CF16" s="37"/>
+      <c r="CG16" s="37"/>
+      <c r="CH16" s="37"/>
+      <c r="CI16" s="37"/>
+      <c r="CJ16" s="37"/>
+      <c r="CK16" s="37"/>
       <c r="CL16" s="29"/>
-      <c r="CM16" s="36"/>
-      <c r="CN16" s="36"/>
-      <c r="CO16" s="36"/>
-      <c r="CP16" s="36"/>
-      <c r="CQ16" s="36"/>
-      <c r="CR16" s="36"/>
-      <c r="CS16" s="36"/>
-      <c r="CT16" s="36"/>
-      <c r="CU16" s="36"/>
-      <c r="CV16" s="36"/>
-      <c r="CW16" s="36"/>
-      <c r="CX16" s="36"/>
-      <c r="CY16" s="36"/>
-      <c r="CZ16" s="36"/>
+      <c r="CM16" s="37"/>
+      <c r="CN16" s="37"/>
+      <c r="CO16" s="37"/>
+      <c r="CP16" s="37"/>
+      <c r="CQ16" s="37"/>
+      <c r="CR16" s="37"/>
+      <c r="CS16" s="37"/>
+      <c r="CT16" s="37"/>
+      <c r="CU16" s="37"/>
+      <c r="CV16" s="37"/>
+      <c r="CW16" s="37"/>
+      <c r="CX16" s="37"/>
+      <c r="CY16" s="37"/>
+      <c r="CZ16" s="37"/>
     </row>
     <row r="17" spans="2:104" ht="20.25" customHeight="1">
       <c r="B17" s="5">
@@ -4944,25 +4926,25 @@
       <c r="E17" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="50" t="s">
+      <c r="F17" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="G17" s="52">
+      <c r="G17" s="6">
         <v>45079</v>
       </c>
-      <c r="H17" s="52">
+      <c r="H17" s="6">
         <v>45079</v>
       </c>
-      <c r="I17" s="52">
+      <c r="I17" s="6">
         <v>45078</v>
       </c>
-      <c r="J17" s="52">
+      <c r="J17" s="6">
         <v>45079</v>
       </c>
-      <c r="K17" s="56">
+      <c r="K17" s="7">
         <v>1</v>
       </c>
-      <c r="L17" s="56"/>
+      <c r="L17" s="7"/>
       <c r="M17" s="6">
         <v>45082</v>
       </c>
@@ -5061,34 +5043,34 @@
       <c r="BV17" s="10"/>
       <c r="BW17" s="10"/>
       <c r="BX17" s="11"/>
-      <c r="BY17" s="36"/>
-      <c r="BZ17" s="48"/>
-      <c r="CA17" s="48"/>
-      <c r="CB17" s="36"/>
-      <c r="CC17" s="36"/>
-      <c r="CD17" s="36"/>
-      <c r="CE17" s="36"/>
-      <c r="CF17" s="36"/>
-      <c r="CG17" s="36"/>
-      <c r="CH17" s="36"/>
-      <c r="CI17" s="36"/>
-      <c r="CJ17" s="36"/>
-      <c r="CK17" s="36"/>
+      <c r="BY17" s="37"/>
+      <c r="BZ17" s="44"/>
+      <c r="CA17" s="44"/>
+      <c r="CB17" s="37"/>
+      <c r="CC17" s="37"/>
+      <c r="CD17" s="37"/>
+      <c r="CE17" s="37"/>
+      <c r="CF17" s="37"/>
+      <c r="CG17" s="37"/>
+      <c r="CH17" s="37"/>
+      <c r="CI17" s="37"/>
+      <c r="CJ17" s="37"/>
+      <c r="CK17" s="37"/>
       <c r="CL17" s="29"/>
-      <c r="CM17" s="36"/>
-      <c r="CN17" s="36"/>
-      <c r="CO17" s="36"/>
-      <c r="CP17" s="36"/>
-      <c r="CQ17" s="36"/>
-      <c r="CR17" s="36"/>
-      <c r="CS17" s="36"/>
-      <c r="CT17" s="36"/>
-      <c r="CU17" s="36"/>
-      <c r="CV17" s="36"/>
-      <c r="CW17" s="36"/>
-      <c r="CX17" s="36"/>
-      <c r="CY17" s="36"/>
-      <c r="CZ17" s="36"/>
+      <c r="CM17" s="37"/>
+      <c r="CN17" s="37"/>
+      <c r="CO17" s="37"/>
+      <c r="CP17" s="37"/>
+      <c r="CQ17" s="37"/>
+      <c r="CR17" s="37"/>
+      <c r="CS17" s="37"/>
+      <c r="CT17" s="37"/>
+      <c r="CU17" s="37"/>
+      <c r="CV17" s="37"/>
+      <c r="CW17" s="37"/>
+      <c r="CX17" s="37"/>
+      <c r="CY17" s="37"/>
+      <c r="CZ17" s="37"/>
     </row>
     <row r="18" spans="2:104" ht="20.25" customHeight="1">
       <c r="B18" s="5">
@@ -5104,25 +5086,25 @@
       <c r="E18" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="50" t="s">
+      <c r="F18" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="G18" s="52">
+      <c r="G18" s="6">
         <v>45079</v>
       </c>
-      <c r="H18" s="52">
+      <c r="H18" s="6">
         <v>45079</v>
       </c>
-      <c r="I18" s="52">
+      <c r="I18" s="6">
         <v>45078</v>
       </c>
-      <c r="J18" s="52">
+      <c r="J18" s="6">
         <v>45079</v>
       </c>
-      <c r="K18" s="56">
+      <c r="K18" s="7">
         <v>1</v>
       </c>
-      <c r="L18" s="56"/>
+      <c r="L18" s="7"/>
       <c r="M18" s="6">
         <v>45082</v>
       </c>
@@ -5221,34 +5203,34 @@
       <c r="BV18" s="10"/>
       <c r="BW18" s="10"/>
       <c r="BX18" s="11"/>
-      <c r="BY18" s="36"/>
-      <c r="BZ18" s="48"/>
-      <c r="CA18" s="48"/>
-      <c r="CB18" s="36"/>
-      <c r="CC18" s="36"/>
-      <c r="CD18" s="36"/>
-      <c r="CE18" s="36"/>
-      <c r="CF18" s="36"/>
-      <c r="CG18" s="36"/>
-      <c r="CH18" s="36"/>
-      <c r="CI18" s="36"/>
-      <c r="CJ18" s="36"/>
-      <c r="CK18" s="36"/>
+      <c r="BY18" s="37"/>
+      <c r="BZ18" s="44"/>
+      <c r="CA18" s="44"/>
+      <c r="CB18" s="37"/>
+      <c r="CC18" s="37"/>
+      <c r="CD18" s="37"/>
+      <c r="CE18" s="37"/>
+      <c r="CF18" s="37"/>
+      <c r="CG18" s="37"/>
+      <c r="CH18" s="37"/>
+      <c r="CI18" s="37"/>
+      <c r="CJ18" s="37"/>
+      <c r="CK18" s="37"/>
       <c r="CL18" s="29"/>
-      <c r="CM18" s="36"/>
-      <c r="CN18" s="36"/>
-      <c r="CO18" s="36"/>
-      <c r="CP18" s="36"/>
-      <c r="CQ18" s="36"/>
-      <c r="CR18" s="36"/>
-      <c r="CS18" s="36"/>
-      <c r="CT18" s="36"/>
-      <c r="CU18" s="36"/>
-      <c r="CV18" s="36"/>
-      <c r="CW18" s="36"/>
-      <c r="CX18" s="36"/>
-      <c r="CY18" s="36"/>
-      <c r="CZ18" s="36"/>
+      <c r="CM18" s="37"/>
+      <c r="CN18" s="37"/>
+      <c r="CO18" s="37"/>
+      <c r="CP18" s="37"/>
+      <c r="CQ18" s="37"/>
+      <c r="CR18" s="37"/>
+      <c r="CS18" s="37"/>
+      <c r="CT18" s="37"/>
+      <c r="CU18" s="37"/>
+      <c r="CV18" s="37"/>
+      <c r="CW18" s="37"/>
+      <c r="CX18" s="37"/>
+      <c r="CY18" s="37"/>
+      <c r="CZ18" s="37"/>
     </row>
     <row r="19" spans="2:104" ht="20.25" customHeight="1">
       <c r="B19" s="5">
@@ -5264,25 +5246,25 @@
       <c r="E19" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="51" t="s">
+      <c r="F19" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="G19" s="52">
+      <c r="G19" s="6">
         <v>45079</v>
       </c>
-      <c r="H19" s="52">
+      <c r="H19" s="6">
         <v>45079</v>
       </c>
-      <c r="I19" s="52">
+      <c r="I19" s="6">
         <v>45078</v>
       </c>
-      <c r="J19" s="52">
+      <c r="J19" s="6">
         <v>45079</v>
       </c>
-      <c r="K19" s="56">
-        <v>0.95</v>
-      </c>
-      <c r="L19" s="56"/>
+      <c r="K19" s="7">
+        <v>1</v>
+      </c>
+      <c r="L19" s="7"/>
       <c r="M19" s="6">
         <v>45082</v>
       </c>
@@ -5381,34 +5363,34 @@
       <c r="BV19" s="10"/>
       <c r="BW19" s="10"/>
       <c r="BX19" s="11"/>
-      <c r="BY19" s="36"/>
-      <c r="BZ19" s="48"/>
-      <c r="CA19" s="48"/>
-      <c r="CB19" s="36"/>
-      <c r="CC19" s="36"/>
-      <c r="CD19" s="36"/>
-      <c r="CE19" s="36"/>
-      <c r="CF19" s="36"/>
-      <c r="CG19" s="36"/>
-      <c r="CH19" s="36"/>
-      <c r="CI19" s="36"/>
-      <c r="CJ19" s="36"/>
-      <c r="CK19" s="36"/>
+      <c r="BY19" s="37"/>
+      <c r="BZ19" s="44"/>
+      <c r="CA19" s="44"/>
+      <c r="CB19" s="37"/>
+      <c r="CC19" s="37"/>
+      <c r="CD19" s="37"/>
+      <c r="CE19" s="37"/>
+      <c r="CF19" s="37"/>
+      <c r="CG19" s="37"/>
+      <c r="CH19" s="37"/>
+      <c r="CI19" s="37"/>
+      <c r="CJ19" s="37"/>
+      <c r="CK19" s="37"/>
       <c r="CL19" s="29"/>
-      <c r="CM19" s="36"/>
-      <c r="CN19" s="36"/>
-      <c r="CO19" s="36"/>
-      <c r="CP19" s="36"/>
-      <c r="CQ19" s="36"/>
-      <c r="CR19" s="36"/>
-      <c r="CS19" s="36"/>
-      <c r="CT19" s="36"/>
-      <c r="CU19" s="36"/>
-      <c r="CV19" s="36"/>
-      <c r="CW19" s="36"/>
-      <c r="CX19" s="36"/>
-      <c r="CY19" s="36"/>
-      <c r="CZ19" s="36"/>
+      <c r="CM19" s="37"/>
+      <c r="CN19" s="37"/>
+      <c r="CO19" s="37"/>
+      <c r="CP19" s="37"/>
+      <c r="CQ19" s="37"/>
+      <c r="CR19" s="37"/>
+      <c r="CS19" s="37"/>
+      <c r="CT19" s="37"/>
+      <c r="CU19" s="37"/>
+      <c r="CV19" s="37"/>
+      <c r="CW19" s="37"/>
+      <c r="CX19" s="37"/>
+      <c r="CY19" s="37"/>
+      <c r="CZ19" s="37"/>
     </row>
     <row r="20" spans="2:104" ht="20.25" customHeight="1">
       <c r="B20" s="5">
@@ -5424,25 +5406,25 @@
       <c r="E20" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="51" t="s">
+      <c r="F20" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="52">
+      <c r="G20" s="6">
         <v>45079</v>
       </c>
-      <c r="H20" s="52">
+      <c r="H20" s="6">
         <v>45079</v>
       </c>
-      <c r="I20" s="52">
+      <c r="I20" s="6">
         <v>45078</v>
       </c>
-      <c r="J20" s="52">
+      <c r="J20" s="6">
         <v>45079</v>
       </c>
-      <c r="K20" s="56">
+      <c r="K20" s="7">
         <v>1</v>
       </c>
-      <c r="L20" s="56"/>
+      <c r="L20" s="7"/>
       <c r="M20" s="6">
         <v>45082</v>
       </c>
@@ -5541,34 +5523,34 @@
       <c r="BV20" s="10"/>
       <c r="BW20" s="10"/>
       <c r="BX20" s="11"/>
-      <c r="BY20" s="36"/>
-      <c r="BZ20" s="48"/>
-      <c r="CA20" s="48"/>
-      <c r="CB20" s="36"/>
-      <c r="CC20" s="36"/>
-      <c r="CD20" s="36"/>
-      <c r="CE20" s="36"/>
-      <c r="CF20" s="36"/>
-      <c r="CG20" s="36"/>
-      <c r="CH20" s="36"/>
-      <c r="CI20" s="36"/>
-      <c r="CJ20" s="36"/>
-      <c r="CK20" s="36"/>
+      <c r="BY20" s="37"/>
+      <c r="BZ20" s="44"/>
+      <c r="CA20" s="44"/>
+      <c r="CB20" s="37"/>
+      <c r="CC20" s="37"/>
+      <c r="CD20" s="37"/>
+      <c r="CE20" s="37"/>
+      <c r="CF20" s="37"/>
+      <c r="CG20" s="37"/>
+      <c r="CH20" s="37"/>
+      <c r="CI20" s="37"/>
+      <c r="CJ20" s="37"/>
+      <c r="CK20" s="37"/>
       <c r="CL20" s="29"/>
-      <c r="CM20" s="36"/>
-      <c r="CN20" s="36"/>
-      <c r="CO20" s="36"/>
-      <c r="CP20" s="36"/>
-      <c r="CQ20" s="36"/>
-      <c r="CR20" s="36"/>
-      <c r="CS20" s="36"/>
-      <c r="CT20" s="36"/>
-      <c r="CU20" s="36"/>
-      <c r="CV20" s="36"/>
-      <c r="CW20" s="36"/>
-      <c r="CX20" s="36"/>
-      <c r="CY20" s="36"/>
-      <c r="CZ20" s="36"/>
+      <c r="CM20" s="37"/>
+      <c r="CN20" s="37"/>
+      <c r="CO20" s="37"/>
+      <c r="CP20" s="37"/>
+      <c r="CQ20" s="37"/>
+      <c r="CR20" s="37"/>
+      <c r="CS20" s="37"/>
+      <c r="CT20" s="37"/>
+      <c r="CU20" s="37"/>
+      <c r="CV20" s="37"/>
+      <c r="CW20" s="37"/>
+      <c r="CX20" s="37"/>
+      <c r="CY20" s="37"/>
+      <c r="CZ20" s="37"/>
     </row>
     <row r="21" spans="2:104" ht="20.25" customHeight="1">
       <c r="B21" s="5">
@@ -5584,25 +5566,25 @@
       <c r="E21" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="51" t="s">
+      <c r="F21" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="G21" s="52">
+      <c r="G21" s="6">
         <v>45079</v>
       </c>
-      <c r="H21" s="52">
+      <c r="H21" s="6">
         <v>45079</v>
       </c>
-      <c r="I21" s="52">
+      <c r="I21" s="6">
         <v>45078</v>
       </c>
-      <c r="J21" s="52">
+      <c r="J21" s="6">
         <v>45079</v>
       </c>
-      <c r="K21" s="56">
+      <c r="K21" s="7">
         <v>1</v>
       </c>
-      <c r="L21" s="56"/>
+      <c r="L21" s="7"/>
       <c r="M21" s="6">
         <v>45082</v>
       </c>
@@ -5701,34 +5683,34 @@
       <c r="BV21" s="10"/>
       <c r="BW21" s="10"/>
       <c r="BX21" s="13"/>
-      <c r="BY21" s="37"/>
-      <c r="BZ21" s="49"/>
-      <c r="CA21" s="49"/>
-      <c r="CB21" s="37"/>
-      <c r="CC21" s="37"/>
-      <c r="CD21" s="37"/>
-      <c r="CE21" s="37"/>
-      <c r="CF21" s="37"/>
-      <c r="CG21" s="37"/>
-      <c r="CH21" s="37"/>
-      <c r="CI21" s="37"/>
-      <c r="CJ21" s="37"/>
-      <c r="CK21" s="37"/>
+      <c r="BY21" s="38"/>
+      <c r="BZ21" s="45"/>
+      <c r="CA21" s="45"/>
+      <c r="CB21" s="38"/>
+      <c r="CC21" s="38"/>
+      <c r="CD21" s="38"/>
+      <c r="CE21" s="38"/>
+      <c r="CF21" s="38"/>
+      <c r="CG21" s="38"/>
+      <c r="CH21" s="38"/>
+      <c r="CI21" s="38"/>
+      <c r="CJ21" s="38"/>
+      <c r="CK21" s="38"/>
       <c r="CL21" s="14"/>
-      <c r="CM21" s="37"/>
-      <c r="CN21" s="37"/>
-      <c r="CO21" s="37"/>
-      <c r="CP21" s="37"/>
-      <c r="CQ21" s="37"/>
-      <c r="CR21" s="37"/>
-      <c r="CS21" s="37"/>
-      <c r="CT21" s="37"/>
-      <c r="CU21" s="37"/>
-      <c r="CV21" s="37"/>
-      <c r="CW21" s="37"/>
-      <c r="CX21" s="37"/>
-      <c r="CY21" s="37"/>
-      <c r="CZ21" s="37"/>
+      <c r="CM21" s="38"/>
+      <c r="CN21" s="38"/>
+      <c r="CO21" s="38"/>
+      <c r="CP21" s="38"/>
+      <c r="CQ21" s="38"/>
+      <c r="CR21" s="38"/>
+      <c r="CS21" s="38"/>
+      <c r="CT21" s="38"/>
+      <c r="CU21" s="38"/>
+      <c r="CV21" s="38"/>
+      <c r="CW21" s="38"/>
+      <c r="CX21" s="38"/>
+      <c r="CY21" s="38"/>
+      <c r="CZ21" s="38"/>
     </row>
     <row r="22" spans="2:104" ht="20.25" customHeight="1">
       <c r="BX22" s="11"/>
@@ -5740,6 +5722,119 @@
     </row>
   </sheetData>
   <mergeCells count="137">
+    <mergeCell ref="CH14:CH21"/>
+    <mergeCell ref="CI14:CI21"/>
+    <mergeCell ref="CJ14:CJ21"/>
+    <mergeCell ref="CK14:CK21"/>
+    <mergeCell ref="CE4:CK4"/>
+    <mergeCell ref="CM4:CR4"/>
+    <mergeCell ref="CS4:CZ4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:R4"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="BP4:BW4"/>
+    <mergeCell ref="BY4:CD4"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="Z4:AF4"/>
+    <mergeCell ref="AH4:AM4"/>
+    <mergeCell ref="AN4:AT4"/>
+    <mergeCell ref="AV4:BA4"/>
+    <mergeCell ref="BB4:BH4"/>
+    <mergeCell ref="BJ4:BO4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="BM5:BN5"/>
+    <mergeCell ref="BQ5:BR5"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="CZ5:CZ6"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CT5:CU5"/>
+    <mergeCell ref="CV5:CW5"/>
+    <mergeCell ref="CS5:CS6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CK5:CK6"/>
+    <mergeCell ref="CN5:CO5"/>
+    <mergeCell ref="CP5:CQ5"/>
+    <mergeCell ref="CM5:CM6"/>
+    <mergeCell ref="CH5:CI5"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CE5:CE6"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="CF5:CG5"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="CB14:CB21"/>
+    <mergeCell ref="CC14:CC21"/>
+    <mergeCell ref="CD14:CD21"/>
+    <mergeCell ref="CE14:CE21"/>
+    <mergeCell ref="CF14:CF21"/>
+    <mergeCell ref="CG14:CG21"/>
+    <mergeCell ref="BY7:BY13"/>
+    <mergeCell ref="BZ7:BZ13"/>
+    <mergeCell ref="CA7:CA13"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="CX14:CX21"/>
+    <mergeCell ref="CY14:CY21"/>
+    <mergeCell ref="CB7:CB13"/>
+    <mergeCell ref="CC7:CC13"/>
+    <mergeCell ref="CD7:CD13"/>
+    <mergeCell ref="CE7:CE13"/>
+    <mergeCell ref="CF7:CF13"/>
+    <mergeCell ref="CG7:CG13"/>
+    <mergeCell ref="CH7:CH13"/>
+    <mergeCell ref="CI7:CI13"/>
+    <mergeCell ref="CJ7:CJ13"/>
+    <mergeCell ref="CK7:CK13"/>
+    <mergeCell ref="CP7:CP13"/>
+    <mergeCell ref="CQ7:CQ13"/>
+    <mergeCell ref="BY14:BY21"/>
+    <mergeCell ref="BZ14:BZ21"/>
+    <mergeCell ref="CA14:CA21"/>
     <mergeCell ref="CZ14:CZ21"/>
     <mergeCell ref="CM14:CM21"/>
     <mergeCell ref="CN14:CN21"/>
@@ -5764,119 +5859,6 @@
     <mergeCell ref="CM7:CM13"/>
     <mergeCell ref="CN7:CN13"/>
     <mergeCell ref="CO7:CO13"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="CX14:CX21"/>
-    <mergeCell ref="CY14:CY21"/>
-    <mergeCell ref="CB7:CB13"/>
-    <mergeCell ref="CC7:CC13"/>
-    <mergeCell ref="CD7:CD13"/>
-    <mergeCell ref="CE7:CE13"/>
-    <mergeCell ref="CF7:CF13"/>
-    <mergeCell ref="CG7:CG13"/>
-    <mergeCell ref="CH7:CH13"/>
-    <mergeCell ref="CI7:CI13"/>
-    <mergeCell ref="CJ7:CJ13"/>
-    <mergeCell ref="CK7:CK13"/>
-    <mergeCell ref="CP7:CP13"/>
-    <mergeCell ref="CQ7:CQ13"/>
-    <mergeCell ref="BY14:BY21"/>
-    <mergeCell ref="BZ14:BZ21"/>
-    <mergeCell ref="CA14:CA21"/>
-    <mergeCell ref="CB14:CB21"/>
-    <mergeCell ref="CC14:CC21"/>
-    <mergeCell ref="CD14:CD21"/>
-    <mergeCell ref="CE14:CE21"/>
-    <mergeCell ref="CF14:CF21"/>
-    <mergeCell ref="CG14:CG21"/>
-    <mergeCell ref="BY7:BY13"/>
-    <mergeCell ref="BZ7:BZ13"/>
-    <mergeCell ref="CA7:CA13"/>
-    <mergeCell ref="CZ5:CZ6"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CT5:CU5"/>
-    <mergeCell ref="CV5:CW5"/>
-    <mergeCell ref="CS5:CS6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BW5:BW6"/>
-    <mergeCell ref="BY5:BY6"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CK5:CK6"/>
-    <mergeCell ref="CN5:CO5"/>
-    <mergeCell ref="CP5:CQ5"/>
-    <mergeCell ref="CM5:CM6"/>
-    <mergeCell ref="CH5:CI5"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CE5:CE6"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="CF5:CG5"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="BZ5:CA5"/>
-    <mergeCell ref="BP4:BW4"/>
-    <mergeCell ref="BY4:CD4"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="Z4:AF4"/>
-    <mergeCell ref="AH4:AM4"/>
-    <mergeCell ref="AN4:AT4"/>
-    <mergeCell ref="AV4:BA4"/>
-    <mergeCell ref="BB4:BH4"/>
-    <mergeCell ref="BJ4:BO4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:R4"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="CH14:CH21"/>
-    <mergeCell ref="CI14:CI21"/>
-    <mergeCell ref="CJ14:CJ21"/>
-    <mergeCell ref="CK14:CK21"/>
-    <mergeCell ref="CE4:CK4"/>
-    <mergeCell ref="CM4:CR4"/>
-    <mergeCell ref="CS4:CZ4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BK5:BL5"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="F7:K13">

--- a/スケジュール（2023-06）.xlsx
+++ b/スケジュール（2023-06）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F14120B-88CC-462A-9F59-87F312FB5AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178667A8-320F-447D-81E1-0D2A912D9DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16020" yWindow="1410" windowWidth="15390" windowHeight="12330" tabRatio="910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="体制図" sheetId="11" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="60">
   <si>
     <t>勤怠管理システムWBS</t>
   </si>
@@ -328,6 +328,10 @@
     <rPh sb="3" eb="5">
       <t>サンショウ</t>
     </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>陳　委芹</t>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -651,16 +655,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -671,21 +690,6 @@
     <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
@@ -693,7 +697,42 @@
     <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準_システム管理" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="28">
+  <dxfs count="33">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2639,10 +2678,10 @@
   <dimension ref="B3:CZ23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="T7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="K17" sqref="K17"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
@@ -2701,381 +2740,381 @@
       </c>
     </row>
     <row r="4" spans="2:104" s="20" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="D4" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40" t="s">
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="T4" s="40" t="s">
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="T4" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="U4" s="40"/>
-      <c r="V4" s="40"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="40"/>
-      <c r="Y4" s="40"/>
-      <c r="Z4" s="40" t="s">
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="40"/>
-      <c r="AE4" s="40"/>
-      <c r="AF4" s="40"/>
-      <c r="AH4" s="40" t="s">
+      <c r="AA4" s="39"/>
+      <c r="AB4" s="39"/>
+      <c r="AC4" s="39"/>
+      <c r="AD4" s="39"/>
+      <c r="AE4" s="39"/>
+      <c r="AF4" s="39"/>
+      <c r="AH4" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="AI4" s="40"/>
-      <c r="AJ4" s="40"/>
-      <c r="AK4" s="40"/>
-      <c r="AL4" s="40"/>
-      <c r="AM4" s="40"/>
-      <c r="AN4" s="40" t="s">
+      <c r="AI4" s="39"/>
+      <c r="AJ4" s="39"/>
+      <c r="AK4" s="39"/>
+      <c r="AL4" s="39"/>
+      <c r="AM4" s="39"/>
+      <c r="AN4" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="AO4" s="40"/>
-      <c r="AP4" s="40"/>
-      <c r="AQ4" s="40"/>
-      <c r="AR4" s="40"/>
-      <c r="AS4" s="40"/>
-      <c r="AT4" s="42"/>
+      <c r="AO4" s="39"/>
+      <c r="AP4" s="39"/>
+      <c r="AQ4" s="39"/>
+      <c r="AR4" s="39"/>
+      <c r="AS4" s="39"/>
+      <c r="AT4" s="40"/>
       <c r="AU4" s="21"/>
-      <c r="AV4" s="40" t="s">
+      <c r="AV4" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="AW4" s="40"/>
-      <c r="AX4" s="40"/>
-      <c r="AY4" s="40"/>
-      <c r="AZ4" s="40"/>
-      <c r="BA4" s="40"/>
-      <c r="BB4" s="40" t="s">
+      <c r="AW4" s="39"/>
+      <c r="AX4" s="39"/>
+      <c r="AY4" s="39"/>
+      <c r="AZ4" s="39"/>
+      <c r="BA4" s="39"/>
+      <c r="BB4" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="BC4" s="40"/>
-      <c r="BD4" s="40"/>
-      <c r="BE4" s="40"/>
-      <c r="BF4" s="40"/>
-      <c r="BG4" s="40"/>
-      <c r="BH4" s="40"/>
+      <c r="BC4" s="39"/>
+      <c r="BD4" s="39"/>
+      <c r="BE4" s="39"/>
+      <c r="BF4" s="39"/>
+      <c r="BG4" s="39"/>
+      <c r="BH4" s="39"/>
       <c r="BI4" s="22"/>
-      <c r="BJ4" s="48" t="s">
+      <c r="BJ4" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="BK4" s="40"/>
-      <c r="BL4" s="40"/>
-      <c r="BM4" s="40"/>
-      <c r="BN4" s="40"/>
-      <c r="BO4" s="40"/>
-      <c r="BP4" s="40" t="s">
+      <c r="BK4" s="39"/>
+      <c r="BL4" s="39"/>
+      <c r="BM4" s="39"/>
+      <c r="BN4" s="39"/>
+      <c r="BO4" s="39"/>
+      <c r="BP4" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="BQ4" s="40"/>
-      <c r="BR4" s="40"/>
-      <c r="BS4" s="40"/>
-      <c r="BT4" s="40"/>
-      <c r="BU4" s="40"/>
-      <c r="BV4" s="40"/>
-      <c r="BW4" s="40"/>
-      <c r="BY4" s="40" t="s">
+      <c r="BQ4" s="39"/>
+      <c r="BR4" s="39"/>
+      <c r="BS4" s="39"/>
+      <c r="BT4" s="39"/>
+      <c r="BU4" s="39"/>
+      <c r="BV4" s="39"/>
+      <c r="BW4" s="39"/>
+      <c r="BY4" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="BZ4" s="40"/>
-      <c r="CA4" s="40"/>
-      <c r="CB4" s="40"/>
-      <c r="CC4" s="40"/>
-      <c r="CD4" s="40"/>
-      <c r="CE4" s="40" t="s">
+      <c r="BZ4" s="39"/>
+      <c r="CA4" s="39"/>
+      <c r="CB4" s="39"/>
+      <c r="CC4" s="39"/>
+      <c r="CD4" s="39"/>
+      <c r="CE4" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="CF4" s="40"/>
-      <c r="CG4" s="40"/>
-      <c r="CH4" s="40"/>
-      <c r="CI4" s="40"/>
-      <c r="CJ4" s="40"/>
-      <c r="CK4" s="42"/>
+      <c r="CF4" s="39"/>
+      <c r="CG4" s="39"/>
+      <c r="CH4" s="39"/>
+      <c r="CI4" s="39"/>
+      <c r="CJ4" s="39"/>
+      <c r="CK4" s="40"/>
       <c r="CL4" s="23"/>
-      <c r="CM4" s="48" t="s">
+      <c r="CM4" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="CN4" s="40"/>
-      <c r="CO4" s="40"/>
-      <c r="CP4" s="40"/>
-      <c r="CQ4" s="40"/>
-      <c r="CR4" s="40"/>
-      <c r="CS4" s="40" t="s">
+      <c r="CN4" s="39"/>
+      <c r="CO4" s="39"/>
+      <c r="CP4" s="39"/>
+      <c r="CQ4" s="39"/>
+      <c r="CR4" s="39"/>
+      <c r="CS4" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="CT4" s="40"/>
-      <c r="CU4" s="40"/>
-      <c r="CV4" s="40"/>
-      <c r="CW4" s="40"/>
-      <c r="CX4" s="40"/>
-      <c r="CY4" s="40"/>
-      <c r="CZ4" s="40"/>
+      <c r="CT4" s="39"/>
+      <c r="CU4" s="39"/>
+      <c r="CV4" s="39"/>
+      <c r="CW4" s="39"/>
+      <c r="CX4" s="39"/>
+      <c r="CY4" s="39"/>
+      <c r="CZ4" s="39"/>
     </row>
     <row r="5" spans="2:104" ht="21.6" customHeight="1">
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="40" t="s">
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="49" t="s">
+      <c r="G5" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49" t="s">
+      <c r="H5" s="42"/>
+      <c r="I5" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="49"/>
-      <c r="K5" s="39" t="s">
+      <c r="J5" s="42"/>
+      <c r="K5" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="40" t="s">
+      <c r="L5" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="49" t="s">
+      <c r="M5" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="49"/>
-      <c r="O5" s="49" t="s">
+      <c r="N5" s="42"/>
+      <c r="O5" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="49"/>
-      <c r="Q5" s="39" t="s">
+      <c r="P5" s="42"/>
+      <c r="Q5" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="39" t="s">
+      <c r="R5" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="40" t="s">
+      <c r="T5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="49" t="s">
+      <c r="U5" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="49"/>
-      <c r="W5" s="49" t="s">
+      <c r="V5" s="42"/>
+      <c r="W5" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="X5" s="49"/>
-      <c r="Y5" s="39" t="s">
+      <c r="X5" s="42"/>
+      <c r="Y5" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="40" t="s">
+      <c r="Z5" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="AA5" s="49" t="s">
+      <c r="AA5" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="AB5" s="49"/>
-      <c r="AC5" s="49" t="s">
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="AD5" s="49"/>
-      <c r="AE5" s="39" t="s">
+      <c r="AD5" s="42"/>
+      <c r="AE5" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AF5" s="39" t="s">
+      <c r="AF5" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="AH5" s="40" t="s">
+      <c r="AH5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="AI5" s="49" t="s">
+      <c r="AI5" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="AJ5" s="49"/>
-      <c r="AK5" s="49" t="s">
+      <c r="AJ5" s="42"/>
+      <c r="AK5" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="AL5" s="49"/>
-      <c r="AM5" s="39" t="s">
+      <c r="AL5" s="42"/>
+      <c r="AM5" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AN5" s="40" t="s">
+      <c r="AN5" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="AO5" s="49" t="s">
+      <c r="AO5" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="AP5" s="49"/>
-      <c r="AQ5" s="49" t="s">
+      <c r="AP5" s="42"/>
+      <c r="AQ5" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="AR5" s="49"/>
-      <c r="AS5" s="39" t="s">
+      <c r="AR5" s="42"/>
+      <c r="AS5" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AT5" s="41" t="s">
+      <c r="AT5" s="47" t="s">
         <v>23</v>
       </c>
       <c r="AU5" s="13"/>
-      <c r="AV5" s="40" t="s">
+      <c r="AV5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="AW5" s="49" t="s">
+      <c r="AW5" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="AX5" s="49"/>
-      <c r="AY5" s="49" t="s">
+      <c r="AX5" s="42"/>
+      <c r="AY5" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="AZ5" s="49"/>
-      <c r="BA5" s="39" t="s">
+      <c r="AZ5" s="42"/>
+      <c r="BA5" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="BB5" s="40" t="s">
+      <c r="BB5" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="BC5" s="49" t="s">
+      <c r="BC5" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="BD5" s="49"/>
-      <c r="BE5" s="49" t="s">
+      <c r="BD5" s="42"/>
+      <c r="BE5" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="BF5" s="49"/>
-      <c r="BG5" s="39" t="s">
+      <c r="BF5" s="42"/>
+      <c r="BG5" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="BH5" s="39" t="s">
+      <c r="BH5" s="44" t="s">
         <v>23</v>
       </c>
       <c r="BI5" s="14"/>
-      <c r="BJ5" s="48" t="s">
+      <c r="BJ5" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="BK5" s="49" t="s">
+      <c r="BK5" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="BL5" s="49"/>
-      <c r="BM5" s="49" t="s">
+      <c r="BL5" s="42"/>
+      <c r="BM5" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="BN5" s="49"/>
-      <c r="BO5" s="39" t="s">
+      <c r="BN5" s="42"/>
+      <c r="BO5" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="BP5" s="40" t="s">
+      <c r="BP5" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="BQ5" s="49" t="s">
+      <c r="BQ5" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="BR5" s="49"/>
-      <c r="BS5" s="49" t="s">
+      <c r="BR5" s="42"/>
+      <c r="BS5" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="BT5" s="49"/>
-      <c r="BU5" s="39" t="s">
+      <c r="BT5" s="42"/>
+      <c r="BU5" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="BV5" s="39" t="s">
+      <c r="BV5" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="BW5" s="39" t="s">
+      <c r="BW5" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="BY5" s="40" t="s">
+      <c r="BY5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="BZ5" s="47" t="s">
+      <c r="BZ5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="CA5" s="47"/>
-      <c r="CB5" s="47" t="s">
+      <c r="CA5" s="45"/>
+      <c r="CB5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="CC5" s="47"/>
-      <c r="CD5" s="39" t="s">
+      <c r="CC5" s="45"/>
+      <c r="CD5" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="CE5" s="40" t="s">
+      <c r="CE5" s="39" t="s">
         <v>22</v>
       </c>
       <c r="CF5" s="46" t="s">
         <v>19</v>
       </c>
       <c r="CG5" s="46"/>
-      <c r="CH5" s="47" t="s">
+      <c r="CH5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="CI5" s="47"/>
-      <c r="CJ5" s="39" t="s">
+      <c r="CI5" s="45"/>
+      <c r="CJ5" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="CK5" s="41" t="s">
+      <c r="CK5" s="47" t="s">
         <v>23</v>
       </c>
       <c r="CL5" s="11"/>
-      <c r="CM5" s="48" t="s">
+      <c r="CM5" s="41" t="s">
         <v>18</v>
       </c>
       <c r="CN5" s="46" t="s">
         <v>19</v>
       </c>
       <c r="CO5" s="46"/>
-      <c r="CP5" s="47" t="s">
+      <c r="CP5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="CQ5" s="47"/>
-      <c r="CR5" s="39" t="s">
+      <c r="CQ5" s="45"/>
+      <c r="CR5" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="CS5" s="40" t="s">
+      <c r="CS5" s="39" t="s">
         <v>22</v>
       </c>
       <c r="CT5" s="46" t="s">
         <v>19</v>
       </c>
       <c r="CU5" s="46"/>
-      <c r="CV5" s="47" t="s">
+      <c r="CV5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="CW5" s="47"/>
-      <c r="CX5" s="39" t="s">
+      <c r="CW5" s="45"/>
+      <c r="CX5" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="CY5" s="39" t="s">
+      <c r="CY5" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="CZ5" s="39" t="s">
+      <c r="CZ5" s="44" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:104" ht="14.4">
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="40"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="39"/>
       <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3088,8 +3127,8 @@
       <c r="J6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
       <c r="M6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3102,9 +3141,9 @@
       <c r="P6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="T6" s="40"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="T6" s="39"/>
       <c r="U6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3117,8 +3156,8 @@
       <c r="X6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39"/>
       <c r="AA6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3131,9 +3170,9 @@
       <c r="AD6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AE6" s="40"/>
-      <c r="AF6" s="40"/>
-      <c r="AH6" s="40"/>
+      <c r="AE6" s="39"/>
+      <c r="AF6" s="39"/>
+      <c r="AH6" s="39"/>
       <c r="AI6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3146,8 +3185,8 @@
       <c r="AL6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AM6" s="40"/>
-      <c r="AN6" s="40"/>
+      <c r="AM6" s="39"/>
+      <c r="AN6" s="39"/>
       <c r="AO6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3160,10 +3199,10 @@
       <c r="AR6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AS6" s="40"/>
-      <c r="AT6" s="42"/>
+      <c r="AS6" s="39"/>
+      <c r="AT6" s="40"/>
       <c r="AU6" s="13"/>
-      <c r="AV6" s="40"/>
+      <c r="AV6" s="39"/>
       <c r="AW6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3176,8 +3215,8 @@
       <c r="AZ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BA6" s="40"/>
-      <c r="BB6" s="40"/>
+      <c r="BA6" s="39"/>
+      <c r="BB6" s="39"/>
       <c r="BC6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3190,10 +3229,10 @@
       <c r="BF6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BG6" s="40"/>
-      <c r="BH6" s="40"/>
+      <c r="BG6" s="39"/>
+      <c r="BH6" s="39"/>
       <c r="BI6" s="14"/>
-      <c r="BJ6" s="48"/>
+      <c r="BJ6" s="41"/>
       <c r="BK6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3206,8 +3245,8 @@
       <c r="BN6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BO6" s="40"/>
-      <c r="BP6" s="40"/>
+      <c r="BO6" s="39"/>
+      <c r="BP6" s="39"/>
       <c r="BQ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3220,10 +3259,10 @@
       <c r="BT6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BU6" s="40"/>
-      <c r="BV6" s="40"/>
-      <c r="BW6" s="40"/>
-      <c r="BY6" s="40"/>
+      <c r="BU6" s="39"/>
+      <c r="BV6" s="39"/>
+      <c r="BW6" s="39"/>
+      <c r="BY6" s="39"/>
       <c r="BZ6" s="31" t="s">
         <v>25</v>
       </c>
@@ -3236,8 +3275,8 @@
       <c r="CC6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CD6" s="40"/>
-      <c r="CE6" s="40"/>
+      <c r="CD6" s="39"/>
+      <c r="CE6" s="39"/>
       <c r="CF6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3250,10 +3289,10 @@
       <c r="CI6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CJ6" s="40"/>
-      <c r="CK6" s="42"/>
+      <c r="CJ6" s="39"/>
+      <c r="CK6" s="40"/>
       <c r="CL6" s="11"/>
-      <c r="CM6" s="48"/>
+      <c r="CM6" s="41"/>
       <c r="CN6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3266,8 +3305,8 @@
       <c r="CQ6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CR6" s="40"/>
-      <c r="CS6" s="40"/>
+      <c r="CR6" s="39"/>
+      <c r="CS6" s="39"/>
       <c r="CT6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3280,9 +3319,9 @@
       <c r="CW6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CX6" s="40"/>
-      <c r="CY6" s="40"/>
-      <c r="CZ6" s="40"/>
+      <c r="CX6" s="39"/>
+      <c r="CY6" s="39"/>
+      <c r="CZ6" s="39"/>
     </row>
     <row r="7" spans="2:104" ht="20.25" customHeight="1">
       <c r="B7" s="5">
@@ -4461,16 +4500,22 @@
       <c r="P14" s="6"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="9"/>
-      <c r="T14" s="16"/>
+      <c r="T14" s="35" t="s">
+        <v>59</v>
+      </c>
       <c r="U14" s="6">
         <v>45083</v>
       </c>
       <c r="V14" s="6">
         <v>45083</v>
       </c>
-      <c r="W14" s="6"/>
+      <c r="W14" s="6">
+        <v>45083</v>
+      </c>
       <c r="X14" s="6"/>
-      <c r="Y14" s="7"/>
+      <c r="Y14" s="7">
+        <v>0.7</v>
+      </c>
       <c r="Z14" s="17"/>
       <c r="AA14" s="6">
         <v>45084</v>
@@ -4550,10 +4595,10 @@
       <c r="BW14" s="10"/>
       <c r="BX14" s="13"/>
       <c r="BY14" s="36"/>
-      <c r="BZ14" s="43">
+      <c r="BZ14" s="48">
         <v>45100</v>
       </c>
-      <c r="CA14" s="43">
+      <c r="CA14" s="48">
         <v>45100</v>
       </c>
       <c r="CB14" s="36"/>
@@ -4637,16 +4682,22 @@
       <c r="P15" s="6"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="9"/>
-      <c r="T15" s="16"/>
+      <c r="T15" s="35" t="s">
+        <v>51</v>
+      </c>
       <c r="U15" s="6">
         <v>45083</v>
       </c>
       <c r="V15" s="6">
         <v>45083</v>
       </c>
-      <c r="W15" s="6"/>
+      <c r="W15" s="6">
+        <v>45083</v>
+      </c>
       <c r="X15" s="6"/>
-      <c r="Y15" s="7"/>
+      <c r="Y15" s="7">
+        <v>0.3</v>
+      </c>
       <c r="Z15" s="17"/>
       <c r="AA15" s="6">
         <v>45084</v>
@@ -4725,8 +4776,8 @@
       <c r="BV15" s="10"/>
       <c r="BW15" s="10"/>
       <c r="BY15" s="37"/>
-      <c r="BZ15" s="44"/>
-      <c r="CA15" s="44"/>
+      <c r="BZ15" s="49"/>
+      <c r="CA15" s="49"/>
       <c r="CB15" s="37"/>
       <c r="CC15" s="37"/>
       <c r="CD15" s="37"/>
@@ -4796,16 +4847,22 @@
       <c r="P16" s="6"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="9"/>
-      <c r="T16" s="16"/>
+      <c r="T16" s="27" t="s">
+        <v>52</v>
+      </c>
       <c r="U16" s="6">
         <v>45083</v>
       </c>
       <c r="V16" s="6">
         <v>45083</v>
       </c>
-      <c r="W16" s="6"/>
+      <c r="W16" s="6">
+        <v>45083</v>
+      </c>
       <c r="X16" s="6"/>
-      <c r="Y16" s="7"/>
+      <c r="Y16" s="7">
+        <v>0.3</v>
+      </c>
       <c r="Z16" s="17"/>
       <c r="AA16" s="6">
         <v>45084</v>
@@ -4884,8 +4941,8 @@
       <c r="BV16" s="10"/>
       <c r="BW16" s="10"/>
       <c r="BY16" s="37"/>
-      <c r="BZ16" s="44"/>
-      <c r="CA16" s="44"/>
+      <c r="BZ16" s="49"/>
+      <c r="CA16" s="49"/>
       <c r="CB16" s="37"/>
       <c r="CC16" s="37"/>
       <c r="CD16" s="37"/>
@@ -4955,16 +5012,22 @@
       <c r="P17" s="6"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="9"/>
-      <c r="T17" s="16"/>
+      <c r="T17" s="27" t="s">
+        <v>53</v>
+      </c>
       <c r="U17" s="6">
         <v>45083</v>
       </c>
       <c r="V17" s="6">
         <v>45083</v>
       </c>
-      <c r="W17" s="6"/>
+      <c r="W17" s="6">
+        <v>45083</v>
+      </c>
       <c r="X17" s="6"/>
-      <c r="Y17" s="7"/>
+      <c r="Y17" s="7">
+        <v>0.3</v>
+      </c>
       <c r="Z17" s="17"/>
       <c r="AA17" s="6">
         <v>45084</v>
@@ -5044,8 +5107,8 @@
       <c r="BW17" s="10"/>
       <c r="BX17" s="11"/>
       <c r="BY17" s="37"/>
-      <c r="BZ17" s="44"/>
-      <c r="CA17" s="44"/>
+      <c r="BZ17" s="49"/>
+      <c r="CA17" s="49"/>
       <c r="CB17" s="37"/>
       <c r="CC17" s="37"/>
       <c r="CD17" s="37"/>
@@ -5115,16 +5178,22 @@
       <c r="P18" s="6"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="9"/>
-      <c r="T18" s="16"/>
+      <c r="T18" s="27" t="s">
+        <v>54</v>
+      </c>
       <c r="U18" s="6">
         <v>45083</v>
       </c>
       <c r="V18" s="6">
         <v>45083</v>
       </c>
-      <c r="W18" s="6"/>
+      <c r="W18" s="6">
+        <v>45083</v>
+      </c>
       <c r="X18" s="6"/>
-      <c r="Y18" s="7"/>
+      <c r="Y18" s="7">
+        <v>0.8</v>
+      </c>
       <c r="Z18" s="17"/>
       <c r="AA18" s="6">
         <v>45084</v>
@@ -5204,8 +5273,8 @@
       <c r="BW18" s="10"/>
       <c r="BX18" s="11"/>
       <c r="BY18" s="37"/>
-      <c r="BZ18" s="44"/>
-      <c r="CA18" s="44"/>
+      <c r="BZ18" s="49"/>
+      <c r="CA18" s="49"/>
       <c r="CB18" s="37"/>
       <c r="CC18" s="37"/>
       <c r="CD18" s="37"/>
@@ -5275,16 +5344,22 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="9"/>
-      <c r="T19" s="16"/>
+      <c r="T19" s="35" t="s">
+        <v>55</v>
+      </c>
       <c r="U19" s="6">
         <v>45083</v>
       </c>
       <c r="V19" s="6">
         <v>45083</v>
       </c>
-      <c r="W19" s="6"/>
+      <c r="W19" s="6">
+        <v>45083</v>
+      </c>
       <c r="X19" s="6"/>
-      <c r="Y19" s="7"/>
+      <c r="Y19" s="7">
+        <v>0.3</v>
+      </c>
       <c r="Z19" s="17"/>
       <c r="AA19" s="6">
         <v>45084</v>
@@ -5364,8 +5439,8 @@
       <c r="BW19" s="10"/>
       <c r="BX19" s="11"/>
       <c r="BY19" s="37"/>
-      <c r="BZ19" s="44"/>
-      <c r="CA19" s="44"/>
+      <c r="BZ19" s="49"/>
+      <c r="CA19" s="49"/>
       <c r="CB19" s="37"/>
       <c r="CC19" s="37"/>
       <c r="CD19" s="37"/>
@@ -5435,16 +5510,22 @@
       <c r="P20" s="6"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="9"/>
-      <c r="T20" s="16"/>
+      <c r="T20" s="35" t="s">
+        <v>56</v>
+      </c>
       <c r="U20" s="6">
         <v>45083</v>
       </c>
       <c r="V20" s="6">
         <v>45083</v>
       </c>
-      <c r="W20" s="6"/>
+      <c r="W20" s="6">
+        <v>45083</v>
+      </c>
       <c r="X20" s="6"/>
-      <c r="Y20" s="7"/>
+      <c r="Y20" s="7">
+        <v>0.4</v>
+      </c>
       <c r="Z20" s="17"/>
       <c r="AA20" s="6">
         <v>45084</v>
@@ -5524,8 +5605,8 @@
       <c r="BW20" s="10"/>
       <c r="BX20" s="11"/>
       <c r="BY20" s="37"/>
-      <c r="BZ20" s="44"/>
-      <c r="CA20" s="44"/>
+      <c r="BZ20" s="49"/>
+      <c r="CA20" s="49"/>
       <c r="CB20" s="37"/>
       <c r="CC20" s="37"/>
       <c r="CD20" s="37"/>
@@ -5595,16 +5676,22 @@
       <c r="P21" s="6"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="9"/>
-      <c r="T21" s="16"/>
+      <c r="T21" s="35" t="s">
+        <v>57</v>
+      </c>
       <c r="U21" s="6">
         <v>45083</v>
       </c>
       <c r="V21" s="6">
         <v>45083</v>
       </c>
-      <c r="W21" s="6"/>
+      <c r="W21" s="6">
+        <v>45083</v>
+      </c>
       <c r="X21" s="6"/>
-      <c r="Y21" s="7"/>
+      <c r="Y21" s="7">
+        <v>0.1</v>
+      </c>
       <c r="Z21" s="17"/>
       <c r="AA21" s="6">
         <v>45084</v>
@@ -5684,8 +5771,8 @@
       <c r="BW21" s="10"/>
       <c r="BX21" s="13"/>
       <c r="BY21" s="38"/>
-      <c r="BZ21" s="45"/>
-      <c r="CA21" s="45"/>
+      <c r="BZ21" s="50"/>
+      <c r="CA21" s="50"/>
       <c r="CB21" s="38"/>
       <c r="CC21" s="38"/>
       <c r="CD21" s="38"/>
@@ -5722,6 +5809,119 @@
     </row>
   </sheetData>
   <mergeCells count="137">
+    <mergeCell ref="CZ14:CZ21"/>
+    <mergeCell ref="CM14:CM21"/>
+    <mergeCell ref="CN14:CN21"/>
+    <mergeCell ref="CO14:CO21"/>
+    <mergeCell ref="CP14:CP21"/>
+    <mergeCell ref="CR7:CR13"/>
+    <mergeCell ref="CS7:CS13"/>
+    <mergeCell ref="CT7:CT13"/>
+    <mergeCell ref="CT14:CT21"/>
+    <mergeCell ref="CU14:CU21"/>
+    <mergeCell ref="CV14:CV21"/>
+    <mergeCell ref="CW14:CW21"/>
+    <mergeCell ref="CX7:CX13"/>
+    <mergeCell ref="CY7:CY13"/>
+    <mergeCell ref="CZ7:CZ13"/>
+    <mergeCell ref="CQ14:CQ21"/>
+    <mergeCell ref="CR14:CR21"/>
+    <mergeCell ref="CS14:CS21"/>
+    <mergeCell ref="CU7:CU13"/>
+    <mergeCell ref="CV7:CV13"/>
+    <mergeCell ref="CW7:CW13"/>
+    <mergeCell ref="CM7:CM13"/>
+    <mergeCell ref="CN7:CN13"/>
+    <mergeCell ref="CO7:CO13"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="CX14:CX21"/>
+    <mergeCell ref="CY14:CY21"/>
+    <mergeCell ref="CB7:CB13"/>
+    <mergeCell ref="CC7:CC13"/>
+    <mergeCell ref="CD7:CD13"/>
+    <mergeCell ref="CE7:CE13"/>
+    <mergeCell ref="CF7:CF13"/>
+    <mergeCell ref="CG7:CG13"/>
+    <mergeCell ref="CH7:CH13"/>
+    <mergeCell ref="CI7:CI13"/>
+    <mergeCell ref="CJ7:CJ13"/>
+    <mergeCell ref="CK7:CK13"/>
+    <mergeCell ref="CP7:CP13"/>
+    <mergeCell ref="CQ7:CQ13"/>
+    <mergeCell ref="BY14:BY21"/>
+    <mergeCell ref="BZ14:BZ21"/>
+    <mergeCell ref="CA14:CA21"/>
+    <mergeCell ref="CB14:CB21"/>
+    <mergeCell ref="CC14:CC21"/>
+    <mergeCell ref="CD14:CD21"/>
+    <mergeCell ref="CE14:CE21"/>
+    <mergeCell ref="CF14:CF21"/>
+    <mergeCell ref="CG14:CG21"/>
+    <mergeCell ref="BY7:BY13"/>
+    <mergeCell ref="BZ7:BZ13"/>
+    <mergeCell ref="CA7:CA13"/>
+    <mergeCell ref="CZ5:CZ6"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CT5:CU5"/>
+    <mergeCell ref="CV5:CW5"/>
+    <mergeCell ref="CS5:CS6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CK5:CK6"/>
+    <mergeCell ref="CN5:CO5"/>
+    <mergeCell ref="CP5:CQ5"/>
+    <mergeCell ref="CM5:CM6"/>
+    <mergeCell ref="CH5:CI5"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CE5:CE6"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="CF5:CG5"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="BP4:BW4"/>
+    <mergeCell ref="BY4:CD4"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="Z4:AF4"/>
+    <mergeCell ref="AH4:AM4"/>
+    <mergeCell ref="AN4:AT4"/>
+    <mergeCell ref="AV4:BA4"/>
+    <mergeCell ref="BB4:BH4"/>
+    <mergeCell ref="BJ4:BO4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="BM5:BN5"/>
+    <mergeCell ref="BQ5:BR5"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:R4"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="E4:E6"/>
     <mergeCell ref="CH14:CH21"/>
     <mergeCell ref="CI14:CI21"/>
     <mergeCell ref="CJ14:CJ21"/>
@@ -5746,259 +5946,171 @@
     <mergeCell ref="BC5:BD5"/>
     <mergeCell ref="BE5:BF5"/>
     <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:R4"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="BZ5:CA5"/>
-    <mergeCell ref="BP4:BW4"/>
-    <mergeCell ref="BY4:CD4"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="Z4:AF4"/>
-    <mergeCell ref="AH4:AM4"/>
-    <mergeCell ref="AN4:AT4"/>
-    <mergeCell ref="AV4:BA4"/>
-    <mergeCell ref="BB4:BH4"/>
-    <mergeCell ref="BJ4:BO4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="CZ5:CZ6"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CT5:CU5"/>
-    <mergeCell ref="CV5:CW5"/>
-    <mergeCell ref="CS5:CS6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BW5:BW6"/>
-    <mergeCell ref="BY5:BY6"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CK5:CK6"/>
-    <mergeCell ref="CN5:CO5"/>
-    <mergeCell ref="CP5:CQ5"/>
-    <mergeCell ref="CM5:CM6"/>
-    <mergeCell ref="CH5:CI5"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CE5:CE6"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="CF5:CG5"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="CB14:CB21"/>
-    <mergeCell ref="CC14:CC21"/>
-    <mergeCell ref="CD14:CD21"/>
-    <mergeCell ref="CE14:CE21"/>
-    <mergeCell ref="CF14:CF21"/>
-    <mergeCell ref="CG14:CG21"/>
-    <mergeCell ref="BY7:BY13"/>
-    <mergeCell ref="BZ7:BZ13"/>
-    <mergeCell ref="CA7:CA13"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="CX14:CX21"/>
-    <mergeCell ref="CY14:CY21"/>
-    <mergeCell ref="CB7:CB13"/>
-    <mergeCell ref="CC7:CC13"/>
-    <mergeCell ref="CD7:CD13"/>
-    <mergeCell ref="CE7:CE13"/>
-    <mergeCell ref="CF7:CF13"/>
-    <mergeCell ref="CG7:CG13"/>
-    <mergeCell ref="CH7:CH13"/>
-    <mergeCell ref="CI7:CI13"/>
-    <mergeCell ref="CJ7:CJ13"/>
-    <mergeCell ref="CK7:CK13"/>
-    <mergeCell ref="CP7:CP13"/>
-    <mergeCell ref="CQ7:CQ13"/>
-    <mergeCell ref="BY14:BY21"/>
-    <mergeCell ref="BZ14:BZ21"/>
-    <mergeCell ref="CA14:CA21"/>
-    <mergeCell ref="CZ14:CZ21"/>
-    <mergeCell ref="CM14:CM21"/>
-    <mergeCell ref="CN14:CN21"/>
-    <mergeCell ref="CO14:CO21"/>
-    <mergeCell ref="CP14:CP21"/>
-    <mergeCell ref="CR7:CR13"/>
-    <mergeCell ref="CS7:CS13"/>
-    <mergeCell ref="CT7:CT13"/>
-    <mergeCell ref="CT14:CT21"/>
-    <mergeCell ref="CU14:CU21"/>
-    <mergeCell ref="CV14:CV21"/>
-    <mergeCell ref="CW14:CW21"/>
-    <mergeCell ref="CX7:CX13"/>
-    <mergeCell ref="CY7:CY13"/>
-    <mergeCell ref="CZ7:CZ13"/>
-    <mergeCell ref="CQ14:CQ21"/>
-    <mergeCell ref="CR14:CR21"/>
-    <mergeCell ref="CS14:CS21"/>
-    <mergeCell ref="CU7:CU13"/>
-    <mergeCell ref="CV7:CV13"/>
-    <mergeCell ref="CW7:CW13"/>
-    <mergeCell ref="CM7:CM13"/>
-    <mergeCell ref="CN7:CN13"/>
-    <mergeCell ref="CO7:CO13"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="F7:K13">
-    <cfRule type="expression" dxfId="27" priority="73">
+    <cfRule type="expression" dxfId="32" priority="78">
       <formula>$J7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7:R13 K14:R21">
-    <cfRule type="expression" dxfId="26" priority="66">
+    <cfRule type="expression" dxfId="31" priority="71">
       <formula>$P7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:Y13">
-    <cfRule type="expression" dxfId="25" priority="65">
+    <cfRule type="expression" dxfId="30" priority="70">
       <formula>$X7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z7:AF13">
-    <cfRule type="expression" dxfId="24" priority="64">
+    <cfRule type="expression" dxfId="29" priority="69">
       <formula>$AD7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH7:AM13">
-    <cfRule type="expression" dxfId="23" priority="62">
+    <cfRule type="expression" dxfId="28" priority="67">
       <formula>$AL7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN7:AT13">
-    <cfRule type="expression" dxfId="22" priority="63">
+    <cfRule type="expression" dxfId="27" priority="68">
       <formula>$AR7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV7:BA13">
-    <cfRule type="expression" dxfId="21" priority="127">
+    <cfRule type="expression" dxfId="26" priority="132">
       <formula>$AZ7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB7:BH13">
-    <cfRule type="expression" dxfId="20" priority="126">
+    <cfRule type="expression" dxfId="25" priority="131">
       <formula>$BF7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ7:BO13">
-    <cfRule type="expression" dxfId="19" priority="121">
+    <cfRule type="expression" dxfId="24" priority="126">
       <formula>$BN7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP7:BW13">
-    <cfRule type="expression" dxfId="18" priority="120">
+    <cfRule type="expression" dxfId="23" priority="125">
       <formula>$BT7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F21">
-    <cfRule type="expression" dxfId="17" priority="150">
+    <cfRule type="expression" dxfId="22" priority="155">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA7:AB12">
-    <cfRule type="expression" dxfId="16" priority="152">
+    <cfRule type="expression" dxfId="21" priority="157">
       <formula>$X8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19 F14:F15">
-    <cfRule type="expression" dxfId="15" priority="178">
+    <cfRule type="expression" dxfId="20" priority="183">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA21:AB21">
-    <cfRule type="expression" dxfId="14" priority="180">
+    <cfRule type="expression" dxfId="19" priority="185">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="expression" dxfId="13" priority="185">
+    <cfRule type="expression" dxfId="18" priority="190">
       <formula>$I17&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F15">
-    <cfRule type="expression" dxfId="12" priority="187">
+    <cfRule type="expression" dxfId="17" priority="192">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F17">
-    <cfRule type="expression" dxfId="11" priority="188">
+    <cfRule type="expression" dxfId="16" priority="193">
       <formula>$I17&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA13:AB13">
-    <cfRule type="expression" dxfId="10" priority="210">
+    <cfRule type="expression" dxfId="15" priority="215">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:J21">
-    <cfRule type="expression" dxfId="9" priority="212">
+    <cfRule type="expression" dxfId="14" priority="217">
       <formula>$I14&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T14:Y21">
-    <cfRule type="expression" dxfId="8" priority="216">
+  <conditionalFormatting sqref="U14:Y21">
+    <cfRule type="expression" dxfId="13" priority="221">
       <formula>$X14&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z14:AF21">
-    <cfRule type="expression" dxfId="7" priority="218">
+    <cfRule type="expression" dxfId="12" priority="223">
       <formula>$AD14&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH14:AM21">
-    <cfRule type="expression" dxfId="6" priority="220">
+    <cfRule type="expression" dxfId="11" priority="225">
       <formula>$AL14&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN14:AT21">
-    <cfRule type="expression" dxfId="5" priority="222">
+    <cfRule type="expression" dxfId="10" priority="227">
       <formula>$AR14&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV14:BA21">
-    <cfRule type="expression" dxfId="4" priority="224">
+    <cfRule type="expression" dxfId="9" priority="229">
       <formula>$AZ14&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB14:BH21">
-    <cfRule type="expression" dxfId="3" priority="226">
+    <cfRule type="expression" dxfId="8" priority="231">
       <formula>$BF14&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ14:BO21">
-    <cfRule type="expression" dxfId="2" priority="228">
+    <cfRule type="expression" dxfId="7" priority="233">
       <formula>$BN14&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP14:BW21">
-    <cfRule type="expression" dxfId="1" priority="230">
+    <cfRule type="expression" dxfId="6" priority="235">
       <formula>$BT14&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA14:AB20">
-    <cfRule type="expression" dxfId="0" priority="231">
+    <cfRule type="expression" dxfId="5" priority="236">
       <formula>$X15&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T20:T21">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>#REF!&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T19 T14:T15">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>#REF!&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T18">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$I17&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T14:T15">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>#REF!&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T16:T17">
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>$I17&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>

--- a/スケジュール（2023-06）.xlsx
+++ b/スケジュール（2023-06）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SymStudy\2023-06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{178667A8-320F-447D-81E1-0D2A912D9DA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D529FDBE-515A-47D5-A805-A1B500F5DCDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16020" yWindow="1410" windowWidth="15390" windowHeight="12330" tabRatio="910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12497" tabRatio="910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="体制図" sheetId="11" r:id="rId1"/>
@@ -26,11 +26,24 @@
     <sheet name="8_勤怠承認詳細" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="68">
   <si>
     <t>勤怠管理システムWBS</t>
   </si>
@@ -321,18 +334,45 @@
     <t>金井　隆</t>
   </si>
   <si>
-    <t>（日報参照）</t>
-    <rPh sb="1" eb="3">
-      <t>ニッポウ</t>
+    <t>陳　委芹</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>勤怠承認詳細</t>
+    <rPh sb="0" eb="2">
+      <t>キンタイ</t>
     </rPh>
-    <rPh sb="3" eb="5">
-      <t>サンショウ</t>
+    <rPh sb="2" eb="4">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ショウサイ</t>
     </rPh>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>陳　委芹</t>
-    <phoneticPr fontId="8"/>
+    <t>高　菁雨</t>
+  </si>
+  <si>
+    <t>安　雪鑫</t>
+  </si>
+  <si>
+    <t>劉　金澤</t>
+  </si>
+  <si>
+    <t>聶　暁非</t>
+  </si>
+  <si>
+    <t>長島　凱斗</t>
+  </si>
+  <si>
+    <t>知野　明斗</t>
+  </si>
+  <si>
+    <t>陳　徐輝</t>
+  </si>
+  <si>
+    <t>安雪シン　高菁雨</t>
   </si>
 </sst>
 </file>
@@ -552,7 +592,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -645,13 +685,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -672,14 +706,23 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2309,38 +2352,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person5.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person6.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2605,7 +2616,7 @@
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.45"/>
   <sheetData>
     <row r="3" spans="3:7">
       <c r="G3" s="28" t="s">
@@ -2644,11 +2655,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AE7D0F1-6AA0-4233-AE1A-CF8041460EC1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.45"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2664,7 +2673,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.45"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2675,23 +2684,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:CZ23"/>
+  <dimension ref="B3:CZ24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="T7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="Z10" sqref="Z10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.796875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="18.69921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.59765625" style="8" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="8.69921875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="16.78515625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="18.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="8.7109375" style="1" customWidth="1" outlineLevel="1"/>
     <col min="8" max="11" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="13" max="18" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
@@ -2700,349 +2709,349 @@
     <col min="21" max="25" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="26" max="26" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="27" max="32" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="1.59765625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="1.5703125" style="1" customWidth="1"/>
     <col min="34" max="34" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="35" max="39" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="40" max="40" width="13" style="2" customWidth="1" outlineLevel="1"/>
     <col min="41" max="46" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="47" max="47" width="1.59765625" style="1" customWidth="1"/>
+    <col min="47" max="47" width="1.5703125" style="1" customWidth="1"/>
     <col min="48" max="48" width="13" style="2" customWidth="1" outlineLevel="1"/>
     <col min="49" max="53" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="54" max="54" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="55" max="60" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="61" max="61" width="1.59765625" style="1" customWidth="1"/>
+    <col min="61" max="61" width="1.5703125" style="1" customWidth="1"/>
     <col min="62" max="62" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="63" max="67" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="68" max="68" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="69" max="75" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="76" max="76" width="1.59765625" style="1" customWidth="1"/>
-    <col min="77" max="77" width="6.59765625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="76" max="76" width="1.5703125" style="1" customWidth="1"/>
+    <col min="77" max="77" width="6.5703125" style="1" customWidth="1" outlineLevel="1"/>
     <col min="78" max="81" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
     <col min="82" max="83" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="84" max="85" width="6.5" style="33" customWidth="1" outlineLevel="1"/>
     <col min="86" max="87" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
     <col min="88" max="89" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="90" max="90" width="1.59765625" style="1" customWidth="1"/>
-    <col min="91" max="91" width="6.59765625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="90" max="90" width="1.5703125" style="1" customWidth="1"/>
+    <col min="91" max="91" width="6.5703125" style="1" customWidth="1" outlineLevel="1"/>
     <col min="92" max="93" width="6.5" style="33" customWidth="1" outlineLevel="1"/>
     <col min="94" max="95" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
     <col min="96" max="97" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="98" max="99" width="6.5" style="33" customWidth="1" outlineLevel="1"/>
     <col min="100" max="101" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
     <col min="102" max="104" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="105" max="105" width="1.59765625" style="1" customWidth="1"/>
+    <col min="105" max="105" width="1.5703125" style="1" customWidth="1"/>
     <col min="106" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:104" ht="23.4">
+    <row r="3" spans="2:104" ht="23.6">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:104" s="20" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39" t="s">
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="T4" s="39" t="s">
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="T4" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="U4" s="39"/>
-      <c r="V4" s="39"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39" t="s">
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="39"/>
-      <c r="AB4" s="39"/>
-      <c r="AC4" s="39"/>
-      <c r="AD4" s="39"/>
-      <c r="AE4" s="39"/>
-      <c r="AF4" s="39"/>
-      <c r="AH4" s="39" t="s">
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AH4" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="AI4" s="39"/>
-      <c r="AJ4" s="39"/>
-      <c r="AK4" s="39"/>
-      <c r="AL4" s="39"/>
-      <c r="AM4" s="39"/>
-      <c r="AN4" s="39" t="s">
+      <c r="AI4" s="37"/>
+      <c r="AJ4" s="37"/>
+      <c r="AK4" s="37"/>
+      <c r="AL4" s="37"/>
+      <c r="AM4" s="37"/>
+      <c r="AN4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="AO4" s="39"/>
-      <c r="AP4" s="39"/>
-      <c r="AQ4" s="39"/>
-      <c r="AR4" s="39"/>
-      <c r="AS4" s="39"/>
-      <c r="AT4" s="40"/>
+      <c r="AO4" s="37"/>
+      <c r="AP4" s="37"/>
+      <c r="AQ4" s="37"/>
+      <c r="AR4" s="37"/>
+      <c r="AS4" s="37"/>
+      <c r="AT4" s="38"/>
       <c r="AU4" s="21"/>
-      <c r="AV4" s="39" t="s">
+      <c r="AV4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AW4" s="39"/>
-      <c r="AX4" s="39"/>
-      <c r="AY4" s="39"/>
-      <c r="AZ4" s="39"/>
-      <c r="BA4" s="39"/>
-      <c r="BB4" s="39" t="s">
+      <c r="AW4" s="37"/>
+      <c r="AX4" s="37"/>
+      <c r="AY4" s="37"/>
+      <c r="AZ4" s="37"/>
+      <c r="BA4" s="37"/>
+      <c r="BB4" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="BC4" s="39"/>
-      <c r="BD4" s="39"/>
-      <c r="BE4" s="39"/>
-      <c r="BF4" s="39"/>
-      <c r="BG4" s="39"/>
-      <c r="BH4" s="39"/>
+      <c r="BC4" s="37"/>
+      <c r="BD4" s="37"/>
+      <c r="BE4" s="37"/>
+      <c r="BF4" s="37"/>
+      <c r="BG4" s="37"/>
+      <c r="BH4" s="37"/>
       <c r="BI4" s="22"/>
-      <c r="BJ4" s="41" t="s">
+      <c r="BJ4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="BK4" s="39"/>
-      <c r="BL4" s="39"/>
-      <c r="BM4" s="39"/>
-      <c r="BN4" s="39"/>
-      <c r="BO4" s="39"/>
-      <c r="BP4" s="39" t="s">
+      <c r="BK4" s="37"/>
+      <c r="BL4" s="37"/>
+      <c r="BM4" s="37"/>
+      <c r="BN4" s="37"/>
+      <c r="BO4" s="37"/>
+      <c r="BP4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="BQ4" s="39"/>
-      <c r="BR4" s="39"/>
-      <c r="BS4" s="39"/>
-      <c r="BT4" s="39"/>
-      <c r="BU4" s="39"/>
-      <c r="BV4" s="39"/>
-      <c r="BW4" s="39"/>
-      <c r="BY4" s="39" t="s">
+      <c r="BQ4" s="37"/>
+      <c r="BR4" s="37"/>
+      <c r="BS4" s="37"/>
+      <c r="BT4" s="37"/>
+      <c r="BU4" s="37"/>
+      <c r="BV4" s="37"/>
+      <c r="BW4" s="37"/>
+      <c r="BY4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="BZ4" s="39"/>
-      <c r="CA4" s="39"/>
-      <c r="CB4" s="39"/>
-      <c r="CC4" s="39"/>
-      <c r="CD4" s="39"/>
-      <c r="CE4" s="39" t="s">
+      <c r="BZ4" s="37"/>
+      <c r="CA4" s="37"/>
+      <c r="CB4" s="37"/>
+      <c r="CC4" s="37"/>
+      <c r="CD4" s="37"/>
+      <c r="CE4" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="CF4" s="39"/>
-      <c r="CG4" s="39"/>
-      <c r="CH4" s="39"/>
-      <c r="CI4" s="39"/>
-      <c r="CJ4" s="39"/>
-      <c r="CK4" s="40"/>
+      <c r="CF4" s="37"/>
+      <c r="CG4" s="37"/>
+      <c r="CH4" s="37"/>
+      <c r="CI4" s="37"/>
+      <c r="CJ4" s="37"/>
+      <c r="CK4" s="38"/>
       <c r="CL4" s="23"/>
-      <c r="CM4" s="41" t="s">
+      <c r="CM4" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="CN4" s="39"/>
-      <c r="CO4" s="39"/>
-      <c r="CP4" s="39"/>
-      <c r="CQ4" s="39"/>
-      <c r="CR4" s="39"/>
-      <c r="CS4" s="39" t="s">
+      <c r="CN4" s="37"/>
+      <c r="CO4" s="37"/>
+      <c r="CP4" s="37"/>
+      <c r="CQ4" s="37"/>
+      <c r="CR4" s="37"/>
+      <c r="CS4" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="CT4" s="39"/>
-      <c r="CU4" s="39"/>
-      <c r="CV4" s="39"/>
-      <c r="CW4" s="39"/>
-      <c r="CX4" s="39"/>
-      <c r="CY4" s="39"/>
-      <c r="CZ4" s="39"/>
+      <c r="CT4" s="37"/>
+      <c r="CU4" s="37"/>
+      <c r="CV4" s="37"/>
+      <c r="CW4" s="37"/>
+      <c r="CX4" s="37"/>
+      <c r="CY4" s="37"/>
+      <c r="CZ4" s="37"/>
     </row>
-    <row r="5" spans="2:104" ht="21.6" customHeight="1">
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="39" t="s">
+    <row r="5" spans="2:104" ht="21.65" customHeight="1">
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="42" t="s">
+      <c r="G5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42" t="s">
+      <c r="H5" s="40"/>
+      <c r="I5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="42"/>
-      <c r="K5" s="44" t="s">
+      <c r="J5" s="40"/>
+      <c r="K5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="39" t="s">
+      <c r="L5" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="42" t="s">
+      <c r="M5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="42"/>
-      <c r="O5" s="42" t="s">
+      <c r="N5" s="40"/>
+      <c r="O5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="42"/>
-      <c r="Q5" s="44" t="s">
+      <c r="P5" s="40"/>
+      <c r="Q5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="44" t="s">
+      <c r="R5" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="39" t="s">
+      <c r="T5" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="42" t="s">
+      <c r="U5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="42"/>
-      <c r="W5" s="42" t="s">
+      <c r="V5" s="40"/>
+      <c r="W5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="44" t="s">
+      <c r="X5" s="40"/>
+      <c r="Y5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="39" t="s">
+      <c r="Z5" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="AA5" s="42" t="s">
+      <c r="AA5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="AB5" s="42"/>
-      <c r="AC5" s="42" t="s">
+      <c r="AB5" s="40"/>
+      <c r="AC5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="AD5" s="42"/>
-      <c r="AE5" s="44" t="s">
+      <c r="AD5" s="40"/>
+      <c r="AE5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="AF5" s="44" t="s">
+      <c r="AF5" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="AH5" s="39" t="s">
+      <c r="AH5" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="AI5" s="42" t="s">
+      <c r="AI5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="AJ5" s="42"/>
-      <c r="AK5" s="42" t="s">
+      <c r="AJ5" s="40"/>
+      <c r="AK5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="AL5" s="42"/>
-      <c r="AM5" s="44" t="s">
+      <c r="AL5" s="40"/>
+      <c r="AM5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="AN5" s="39" t="s">
+      <c r="AN5" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="AO5" s="42" t="s">
+      <c r="AO5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="AP5" s="42"/>
-      <c r="AQ5" s="42" t="s">
+      <c r="AP5" s="40"/>
+      <c r="AQ5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="AR5" s="42"/>
-      <c r="AS5" s="44" t="s">
+      <c r="AR5" s="40"/>
+      <c r="AS5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="AT5" s="47" t="s">
+      <c r="AT5" s="43" t="s">
         <v>23</v>
       </c>
       <c r="AU5" s="13"/>
-      <c r="AV5" s="39" t="s">
+      <c r="AV5" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="AW5" s="42" t="s">
+      <c r="AW5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="AX5" s="42"/>
-      <c r="AY5" s="42" t="s">
+      <c r="AX5" s="40"/>
+      <c r="AY5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="AZ5" s="42"/>
-      <c r="BA5" s="44" t="s">
+      <c r="AZ5" s="40"/>
+      <c r="BA5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="BB5" s="39" t="s">
+      <c r="BB5" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="BC5" s="42" t="s">
+      <c r="BC5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="BD5" s="42"/>
-      <c r="BE5" s="42" t="s">
+      <c r="BD5" s="40"/>
+      <c r="BE5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="BF5" s="42"/>
-      <c r="BG5" s="44" t="s">
+      <c r="BF5" s="40"/>
+      <c r="BG5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="BH5" s="44" t="s">
+      <c r="BH5" s="42" t="s">
         <v>23</v>
       </c>
       <c r="BI5" s="14"/>
-      <c r="BJ5" s="41" t="s">
+      <c r="BJ5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="BK5" s="42" t="s">
+      <c r="BK5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="BL5" s="42"/>
-      <c r="BM5" s="42" t="s">
+      <c r="BL5" s="40"/>
+      <c r="BM5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="BN5" s="42"/>
-      <c r="BO5" s="44" t="s">
+      <c r="BN5" s="40"/>
+      <c r="BO5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="BP5" s="39" t="s">
+      <c r="BP5" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="BQ5" s="42" t="s">
+      <c r="BQ5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="BR5" s="42"/>
-      <c r="BS5" s="42" t="s">
+      <c r="BR5" s="40"/>
+      <c r="BS5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="BT5" s="42"/>
-      <c r="BU5" s="44" t="s">
+      <c r="BT5" s="40"/>
+      <c r="BU5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="BV5" s="44" t="s">
+      <c r="BV5" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="BW5" s="44" t="s">
+      <c r="BW5" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="BY5" s="39" t="s">
+      <c r="BY5" s="37" t="s">
         <v>18</v>
       </c>
       <c r="BZ5" s="45" t="s">
@@ -3053,68 +3062,68 @@
         <v>20</v>
       </c>
       <c r="CC5" s="45"/>
-      <c r="CD5" s="44" t="s">
+      <c r="CD5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="CE5" s="39" t="s">
+      <c r="CE5" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="CF5" s="46" t="s">
+      <c r="CF5" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="CG5" s="46"/>
+      <c r="CG5" s="44"/>
       <c r="CH5" s="45" t="s">
         <v>20</v>
       </c>
       <c r="CI5" s="45"/>
-      <c r="CJ5" s="44" t="s">
+      <c r="CJ5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="CK5" s="47" t="s">
+      <c r="CK5" s="43" t="s">
         <v>23</v>
       </c>
       <c r="CL5" s="11"/>
-      <c r="CM5" s="41" t="s">
+      <c r="CM5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="CN5" s="46" t="s">
+      <c r="CN5" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="CO5" s="46"/>
+      <c r="CO5" s="44"/>
       <c r="CP5" s="45" t="s">
         <v>20</v>
       </c>
       <c r="CQ5" s="45"/>
-      <c r="CR5" s="44" t="s">
+      <c r="CR5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="CS5" s="39" t="s">
+      <c r="CS5" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="CT5" s="46" t="s">
+      <c r="CT5" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="CU5" s="46"/>
+      <c r="CU5" s="44"/>
       <c r="CV5" s="45" t="s">
         <v>20</v>
       </c>
       <c r="CW5" s="45"/>
-      <c r="CX5" s="44" t="s">
+      <c r="CX5" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="CY5" s="44" t="s">
+      <c r="CY5" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="CZ5" s="44" t="s">
+      <c r="CZ5" s="42" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:104" ht="14.4">
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="39"/>
+    <row r="6" spans="2:104" ht="14.15">
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3127,8 +3136,8 @@
       <c r="J6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="39"/>
-      <c r="L6" s="39"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
       <c r="M6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3141,9 +3150,9 @@
       <c r="P6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="39"/>
-      <c r="R6" s="39"/>
-      <c r="T6" s="39"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="T6" s="37"/>
       <c r="U6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3156,8 +3165,8 @@
       <c r="X6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="39"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
       <c r="AA6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3170,9 +3179,9 @@
       <c r="AD6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AE6" s="39"/>
-      <c r="AF6" s="39"/>
-      <c r="AH6" s="39"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="37"/>
+      <c r="AH6" s="37"/>
       <c r="AI6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3185,8 +3194,8 @@
       <c r="AL6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AM6" s="39"/>
-      <c r="AN6" s="39"/>
+      <c r="AM6" s="37"/>
+      <c r="AN6" s="37"/>
       <c r="AO6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3199,10 +3208,10 @@
       <c r="AR6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AS6" s="39"/>
-      <c r="AT6" s="40"/>
+      <c r="AS6" s="37"/>
+      <c r="AT6" s="38"/>
       <c r="AU6" s="13"/>
-      <c r="AV6" s="39"/>
+      <c r="AV6" s="37"/>
       <c r="AW6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3215,8 +3224,8 @@
       <c r="AZ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BA6" s="39"/>
-      <c r="BB6" s="39"/>
+      <c r="BA6" s="37"/>
+      <c r="BB6" s="37"/>
       <c r="BC6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3229,10 +3238,10 @@
       <c r="BF6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BG6" s="39"/>
-      <c r="BH6" s="39"/>
+      <c r="BG6" s="37"/>
+      <c r="BH6" s="37"/>
       <c r="BI6" s="14"/>
-      <c r="BJ6" s="41"/>
+      <c r="BJ6" s="39"/>
       <c r="BK6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3245,8 +3254,8 @@
       <c r="BN6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BO6" s="39"/>
-      <c r="BP6" s="39"/>
+      <c r="BO6" s="37"/>
+      <c r="BP6" s="37"/>
       <c r="BQ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3259,10 +3268,10 @@
       <c r="BT6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BU6" s="39"/>
-      <c r="BV6" s="39"/>
-      <c r="BW6" s="39"/>
-      <c r="BY6" s="39"/>
+      <c r="BU6" s="37"/>
+      <c r="BV6" s="37"/>
+      <c r="BW6" s="37"/>
+      <c r="BY6" s="37"/>
       <c r="BZ6" s="31" t="s">
         <v>25</v>
       </c>
@@ -3275,8 +3284,8 @@
       <c r="CC6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CD6" s="39"/>
-      <c r="CE6" s="39"/>
+      <c r="CD6" s="37"/>
+      <c r="CE6" s="37"/>
       <c r="CF6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3289,10 +3298,10 @@
       <c r="CI6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CJ6" s="39"/>
-      <c r="CK6" s="40"/>
+      <c r="CJ6" s="37"/>
+      <c r="CK6" s="38"/>
       <c r="CL6" s="11"/>
-      <c r="CM6" s="41"/>
+      <c r="CM6" s="39"/>
       <c r="CN6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3305,8 +3314,8 @@
       <c r="CQ6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CR6" s="39"/>
-      <c r="CS6" s="39"/>
+      <c r="CR6" s="37"/>
+      <c r="CS6" s="37"/>
       <c r="CT6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3319,9 +3328,9 @@
       <c r="CW6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CX6" s="39"/>
-      <c r="CY6" s="39"/>
-      <c r="CZ6" s="39"/>
+      <c r="CX6" s="37"/>
+      <c r="CY6" s="37"/>
+      <c r="CZ6" s="37"/>
     </row>
     <row r="7" spans="2:104" ht="20.25" customHeight="1">
       <c r="B7" s="5">
@@ -3338,7 +3347,7 @@
         <v>43</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G7" s="6">
         <v>45079</v>
@@ -3350,7 +3359,7 @@
         <v>45079</v>
       </c>
       <c r="J7" s="6">
-        <v>45079</v>
+        <v>45082</v>
       </c>
       <c r="K7" s="7">
         <v>1</v>
@@ -3362,20 +3371,32 @@
       <c r="N7" s="6">
         <v>45082</v>
       </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="7"/>
+      <c r="O7" s="6">
+        <v>45082</v>
+      </c>
+      <c r="P7" s="6">
+        <v>45083</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>1</v>
+      </c>
       <c r="R7" s="9"/>
-      <c r="T7" s="16"/>
+      <c r="T7" s="16" t="s">
+        <v>60</v>
+      </c>
       <c r="U7" s="6">
         <v>45083</v>
       </c>
       <c r="V7" s="6">
         <v>45083</v>
       </c>
-      <c r="W7" s="6"/>
+      <c r="W7" s="6">
+        <v>45083</v>
+      </c>
       <c r="X7" s="6"/>
-      <c r="Y7" s="7"/>
+      <c r="Y7" s="7">
+        <v>1</v>
+      </c>
       <c r="Z7" s="17"/>
       <c r="AA7" s="6">
         <v>45084</v>
@@ -3453,54 +3474,54 @@
       <c r="BU7" s="7"/>
       <c r="BV7" s="10"/>
       <c r="BW7" s="10"/>
-      <c r="BY7" s="36"/>
-      <c r="BZ7" s="36">
+      <c r="BY7" s="46"/>
+      <c r="BZ7" s="46">
         <v>45100</v>
       </c>
-      <c r="CA7" s="36">
+      <c r="CA7" s="46">
         <v>45100</v>
       </c>
-      <c r="CB7" s="36"/>
-      <c r="CC7" s="36"/>
-      <c r="CD7" s="36"/>
-      <c r="CE7" s="36"/>
-      <c r="CF7" s="36">
+      <c r="CB7" s="46"/>
+      <c r="CC7" s="46"/>
+      <c r="CD7" s="46"/>
+      <c r="CE7" s="46"/>
+      <c r="CF7" s="46">
         <v>45103</v>
       </c>
-      <c r="CG7" s="36">
+      <c r="CG7" s="46">
         <v>45103</v>
       </c>
-      <c r="CH7" s="36"/>
-      <c r="CI7" s="36"/>
-      <c r="CJ7" s="36"/>
-      <c r="CK7" s="36"/>
+      <c r="CH7" s="46"/>
+      <c r="CI7" s="46"/>
+      <c r="CJ7" s="46"/>
+      <c r="CK7" s="46"/>
       <c r="CL7" s="14"/>
-      <c r="CM7" s="36"/>
-      <c r="CN7" s="36">
+      <c r="CM7" s="46"/>
+      <c r="CN7" s="46">
         <v>45104</v>
       </c>
-      <c r="CO7" s="36">
+      <c r="CO7" s="46">
         <v>45104</v>
       </c>
-      <c r="CP7" s="36"/>
-      <c r="CQ7" s="36"/>
-      <c r="CR7" s="36"/>
-      <c r="CS7" s="36"/>
-      <c r="CT7" s="36">
+      <c r="CP7" s="46"/>
+      <c r="CQ7" s="46"/>
+      <c r="CR7" s="46"/>
+      <c r="CS7" s="46"/>
+      <c r="CT7" s="46">
         <v>45105</v>
       </c>
-      <c r="CU7" s="36">
+      <c r="CU7" s="46">
         <v>45105</v>
       </c>
-      <c r="CV7" s="36"/>
-      <c r="CW7" s="36"/>
-      <c r="CX7" s="36"/>
-      <c r="CY7" s="36"/>
-      <c r="CZ7" s="36"/>
+      <c r="CV7" s="46"/>
+      <c r="CW7" s="46"/>
+      <c r="CX7" s="46"/>
+      <c r="CY7" s="46"/>
+      <c r="CZ7" s="46"/>
     </row>
     <row r="8" spans="2:104" ht="20.25" customHeight="1">
       <c r="B8" s="5">
-        <f t="shared" ref="B8:B21" si="0">ROW()-6</f>
+        <f t="shared" ref="B8:B22" si="0">ROW()-6</f>
         <v>2</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -3513,7 +3534,7 @@
         <v>43</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G8" s="6">
         <v>45079</v>
@@ -3525,10 +3546,10 @@
         <v>45079</v>
       </c>
       <c r="J8" s="6">
-        <v>45079</v>
+        <v>45082</v>
       </c>
       <c r="K8" s="7">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="L8" s="17"/>
       <c r="M8" s="6">
@@ -3537,20 +3558,32 @@
       <c r="N8" s="6">
         <v>45082</v>
       </c>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="7"/>
+      <c r="O8" s="6">
+        <v>45082</v>
+      </c>
+      <c r="P8" s="6">
+        <v>45083</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>1</v>
+      </c>
       <c r="R8" s="9"/>
-      <c r="T8" s="16"/>
+      <c r="T8" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="U8" s="6">
         <v>45083</v>
       </c>
       <c r="V8" s="6">
         <v>45083</v>
       </c>
-      <c r="W8" s="6"/>
+      <c r="W8" s="6">
+        <v>45083</v>
+      </c>
       <c r="X8" s="6"/>
-      <c r="Y8" s="7"/>
+      <c r="Y8" s="7">
+        <v>0.5</v>
+      </c>
       <c r="Z8" s="17"/>
       <c r="AA8" s="6">
         <v>45084</v>
@@ -3628,34 +3661,34 @@
       <c r="BU8" s="7"/>
       <c r="BV8" s="10"/>
       <c r="BW8" s="10"/>
-      <c r="BY8" s="37"/>
-      <c r="BZ8" s="37"/>
-      <c r="CA8" s="37"/>
-      <c r="CB8" s="37"/>
-      <c r="CC8" s="37"/>
-      <c r="CD8" s="37"/>
-      <c r="CE8" s="37"/>
-      <c r="CF8" s="37"/>
-      <c r="CG8" s="37"/>
-      <c r="CH8" s="37"/>
-      <c r="CI8" s="37"/>
-      <c r="CJ8" s="37"/>
-      <c r="CK8" s="37"/>
+      <c r="BY8" s="47"/>
+      <c r="BZ8" s="47"/>
+      <c r="CA8" s="47"/>
+      <c r="CB8" s="47"/>
+      <c r="CC8" s="47"/>
+      <c r="CD8" s="47"/>
+      <c r="CE8" s="47"/>
+      <c r="CF8" s="47"/>
+      <c r="CG8" s="47"/>
+      <c r="CH8" s="47"/>
+      <c r="CI8" s="47"/>
+      <c r="CJ8" s="47"/>
+      <c r="CK8" s="47"/>
       <c r="CL8" s="14"/>
-      <c r="CM8" s="37"/>
-      <c r="CN8" s="37"/>
-      <c r="CO8" s="37"/>
-      <c r="CP8" s="37"/>
-      <c r="CQ8" s="37"/>
-      <c r="CR8" s="37"/>
-      <c r="CS8" s="37"/>
-      <c r="CT8" s="37"/>
-      <c r="CU8" s="37"/>
-      <c r="CV8" s="37"/>
-      <c r="CW8" s="37"/>
-      <c r="CX8" s="37"/>
-      <c r="CY8" s="37"/>
-      <c r="CZ8" s="37"/>
+      <c r="CM8" s="47"/>
+      <c r="CN8" s="47"/>
+      <c r="CO8" s="47"/>
+      <c r="CP8" s="47"/>
+      <c r="CQ8" s="47"/>
+      <c r="CR8" s="47"/>
+      <c r="CS8" s="47"/>
+      <c r="CT8" s="47"/>
+      <c r="CU8" s="47"/>
+      <c r="CV8" s="47"/>
+      <c r="CW8" s="47"/>
+      <c r="CX8" s="47"/>
+      <c r="CY8" s="47"/>
+      <c r="CZ8" s="47"/>
     </row>
     <row r="9" spans="2:104" ht="20.25" customHeight="1">
       <c r="B9" s="5">
@@ -3672,7 +3705,7 @@
         <v>43</v>
       </c>
       <c r="F9" s="27" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="G9" s="6">
         <v>45079</v>
@@ -3684,7 +3717,7 @@
         <v>45079</v>
       </c>
       <c r="J9" s="6">
-        <v>45079</v>
+        <v>45082</v>
       </c>
       <c r="K9" s="7">
         <v>1</v>
@@ -3696,20 +3729,32 @@
       <c r="N9" s="6">
         <v>45082</v>
       </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="7"/>
+      <c r="O9" s="6">
+        <v>45082</v>
+      </c>
+      <c r="P9" s="6">
+        <v>45083</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>1</v>
+      </c>
       <c r="R9" s="9"/>
-      <c r="T9" s="16"/>
+      <c r="T9" s="16" t="s">
+        <v>62</v>
+      </c>
       <c r="U9" s="6">
         <v>45083</v>
       </c>
       <c r="V9" s="6">
         <v>45083</v>
       </c>
-      <c r="W9" s="6"/>
+      <c r="W9" s="6">
+        <v>45083</v>
+      </c>
       <c r="X9" s="6"/>
-      <c r="Y9" s="7"/>
+      <c r="Y9" s="7">
+        <v>0.6</v>
+      </c>
       <c r="Z9" s="17"/>
       <c r="AA9" s="6">
         <v>45084</v>
@@ -3788,34 +3833,34 @@
       <c r="BV9" s="10"/>
       <c r="BW9" s="10"/>
       <c r="BX9" s="13"/>
-      <c r="BY9" s="37"/>
-      <c r="BZ9" s="37"/>
-      <c r="CA9" s="37"/>
-      <c r="CB9" s="37"/>
-      <c r="CC9" s="37"/>
-      <c r="CD9" s="37"/>
-      <c r="CE9" s="37"/>
-      <c r="CF9" s="37"/>
-      <c r="CG9" s="37"/>
-      <c r="CH9" s="37"/>
-      <c r="CI9" s="37"/>
-      <c r="CJ9" s="37"/>
-      <c r="CK9" s="37"/>
+      <c r="BY9" s="47"/>
+      <c r="BZ9" s="47"/>
+      <c r="CA9" s="47"/>
+      <c r="CB9" s="47"/>
+      <c r="CC9" s="47"/>
+      <c r="CD9" s="47"/>
+      <c r="CE9" s="47"/>
+      <c r="CF9" s="47"/>
+      <c r="CG9" s="47"/>
+      <c r="CH9" s="47"/>
+      <c r="CI9" s="47"/>
+      <c r="CJ9" s="47"/>
+      <c r="CK9" s="47"/>
       <c r="CL9" s="14"/>
-      <c r="CM9" s="37"/>
-      <c r="CN9" s="37"/>
-      <c r="CO9" s="37"/>
-      <c r="CP9" s="37"/>
-      <c r="CQ9" s="37"/>
-      <c r="CR9" s="37"/>
-      <c r="CS9" s="37"/>
-      <c r="CT9" s="37"/>
-      <c r="CU9" s="37"/>
-      <c r="CV9" s="37"/>
-      <c r="CW9" s="37"/>
-      <c r="CX9" s="37"/>
-      <c r="CY9" s="37"/>
-      <c r="CZ9" s="37"/>
+      <c r="CM9" s="47"/>
+      <c r="CN9" s="47"/>
+      <c r="CO9" s="47"/>
+      <c r="CP9" s="47"/>
+      <c r="CQ9" s="47"/>
+      <c r="CR9" s="47"/>
+      <c r="CS9" s="47"/>
+      <c r="CT9" s="47"/>
+      <c r="CU9" s="47"/>
+      <c r="CV9" s="47"/>
+      <c r="CW9" s="47"/>
+      <c r="CX9" s="47"/>
+      <c r="CY9" s="47"/>
+      <c r="CZ9" s="47"/>
     </row>
     <row r="10" spans="2:104" ht="20.25" customHeight="1">
       <c r="B10" s="5">
@@ -3832,7 +3877,7 @@
         <v>43</v>
       </c>
       <c r="F10" s="27" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G10" s="6">
         <v>45079</v>
@@ -3844,7 +3889,7 @@
         <v>45079</v>
       </c>
       <c r="J10" s="6">
-        <v>45079</v>
+        <v>45082</v>
       </c>
       <c r="K10" s="7">
         <v>1</v>
@@ -3856,20 +3901,32 @@
       <c r="N10" s="6">
         <v>45082</v>
       </c>
-      <c r="O10" s="6"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="7"/>
+      <c r="O10" s="6">
+        <v>45082</v>
+      </c>
+      <c r="P10" s="6">
+        <v>45083</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>1</v>
+      </c>
       <c r="R10" s="9"/>
-      <c r="T10" s="16"/>
+      <c r="T10" s="16" t="s">
+        <v>63</v>
+      </c>
       <c r="U10" s="6">
         <v>45083</v>
       </c>
       <c r="V10" s="6">
         <v>45083</v>
       </c>
-      <c r="W10" s="6"/>
+      <c r="W10" s="6">
+        <v>45083</v>
+      </c>
       <c r="X10" s="6"/>
-      <c r="Y10" s="7"/>
+      <c r="Y10" s="7">
+        <v>0.4</v>
+      </c>
       <c r="Z10" s="17"/>
       <c r="AA10" s="6">
         <v>45084</v>
@@ -3948,34 +4005,34 @@
       <c r="BV10" s="10"/>
       <c r="BW10" s="10"/>
       <c r="BX10" s="13"/>
-      <c r="BY10" s="37"/>
-      <c r="BZ10" s="37"/>
-      <c r="CA10" s="37"/>
-      <c r="CB10" s="37"/>
-      <c r="CC10" s="37"/>
-      <c r="CD10" s="37"/>
-      <c r="CE10" s="37"/>
-      <c r="CF10" s="37"/>
-      <c r="CG10" s="37"/>
-      <c r="CH10" s="37"/>
-      <c r="CI10" s="37"/>
-      <c r="CJ10" s="37"/>
-      <c r="CK10" s="37"/>
+      <c r="BY10" s="47"/>
+      <c r="BZ10" s="47"/>
+      <c r="CA10" s="47"/>
+      <c r="CB10" s="47"/>
+      <c r="CC10" s="47"/>
+      <c r="CD10" s="47"/>
+      <c r="CE10" s="47"/>
+      <c r="CF10" s="47"/>
+      <c r="CG10" s="47"/>
+      <c r="CH10" s="47"/>
+      <c r="CI10" s="47"/>
+      <c r="CJ10" s="47"/>
+      <c r="CK10" s="47"/>
       <c r="CL10" s="14"/>
-      <c r="CM10" s="37"/>
-      <c r="CN10" s="37"/>
-      <c r="CO10" s="37"/>
-      <c r="CP10" s="37"/>
-      <c r="CQ10" s="37"/>
-      <c r="CR10" s="37"/>
-      <c r="CS10" s="37"/>
-      <c r="CT10" s="37"/>
-      <c r="CU10" s="37"/>
-      <c r="CV10" s="37"/>
-      <c r="CW10" s="37"/>
-      <c r="CX10" s="37"/>
-      <c r="CY10" s="37"/>
-      <c r="CZ10" s="37"/>
+      <c r="CM10" s="47"/>
+      <c r="CN10" s="47"/>
+      <c r="CO10" s="47"/>
+      <c r="CP10" s="47"/>
+      <c r="CQ10" s="47"/>
+      <c r="CR10" s="47"/>
+      <c r="CS10" s="47"/>
+      <c r="CT10" s="47"/>
+      <c r="CU10" s="47"/>
+      <c r="CV10" s="47"/>
+      <c r="CW10" s="47"/>
+      <c r="CX10" s="47"/>
+      <c r="CY10" s="47"/>
+      <c r="CZ10" s="47"/>
     </row>
     <row r="11" spans="2:104" ht="20.25" customHeight="1">
       <c r="B11" s="5">
@@ -3992,7 +4049,7 @@
         <v>43</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G11" s="6">
         <v>45079</v>
@@ -4004,7 +4061,7 @@
         <v>45079</v>
       </c>
       <c r="J11" s="6">
-        <v>45079</v>
+        <v>45082</v>
       </c>
       <c r="K11" s="7">
         <v>1</v>
@@ -4016,20 +4073,32 @@
       <c r="N11" s="6">
         <v>45082</v>
       </c>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="7"/>
+      <c r="O11" s="6">
+        <v>45082</v>
+      </c>
+      <c r="P11" s="6">
+        <v>45083</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>1</v>
+      </c>
       <c r="R11" s="9"/>
-      <c r="T11" s="16"/>
+      <c r="T11" s="16" t="s">
+        <v>64</v>
+      </c>
       <c r="U11" s="6">
         <v>45083</v>
       </c>
       <c r="V11" s="6">
         <v>45083</v>
       </c>
-      <c r="W11" s="6"/>
+      <c r="W11" s="6">
+        <v>45083</v>
+      </c>
       <c r="X11" s="6"/>
-      <c r="Y11" s="7"/>
+      <c r="Y11" s="7">
+        <v>0.7</v>
+      </c>
       <c r="Z11" s="17"/>
       <c r="AA11" s="6">
         <v>45084</v>
@@ -4108,34 +4177,34 @@
       <c r="BV11" s="10"/>
       <c r="BW11" s="10"/>
       <c r="BX11" s="13"/>
-      <c r="BY11" s="37"/>
-      <c r="BZ11" s="37"/>
-      <c r="CA11" s="37"/>
-      <c r="CB11" s="37"/>
-      <c r="CC11" s="37"/>
-      <c r="CD11" s="37"/>
-      <c r="CE11" s="37"/>
-      <c r="CF11" s="37"/>
-      <c r="CG11" s="37"/>
-      <c r="CH11" s="37"/>
-      <c r="CI11" s="37"/>
-      <c r="CJ11" s="37"/>
-      <c r="CK11" s="37"/>
+      <c r="BY11" s="47"/>
+      <c r="BZ11" s="47"/>
+      <c r="CA11" s="47"/>
+      <c r="CB11" s="47"/>
+      <c r="CC11" s="47"/>
+      <c r="CD11" s="47"/>
+      <c r="CE11" s="47"/>
+      <c r="CF11" s="47"/>
+      <c r="CG11" s="47"/>
+      <c r="CH11" s="47"/>
+      <c r="CI11" s="47"/>
+      <c r="CJ11" s="47"/>
+      <c r="CK11" s="47"/>
       <c r="CL11" s="14"/>
-      <c r="CM11" s="37"/>
-      <c r="CN11" s="37"/>
-      <c r="CO11" s="37"/>
-      <c r="CP11" s="37"/>
-      <c r="CQ11" s="37"/>
-      <c r="CR11" s="37"/>
-      <c r="CS11" s="37"/>
-      <c r="CT11" s="37"/>
-      <c r="CU11" s="37"/>
-      <c r="CV11" s="37"/>
-      <c r="CW11" s="37"/>
-      <c r="CX11" s="37"/>
-      <c r="CY11" s="37"/>
-      <c r="CZ11" s="37"/>
+      <c r="CM11" s="47"/>
+      <c r="CN11" s="47"/>
+      <c r="CO11" s="47"/>
+      <c r="CP11" s="47"/>
+      <c r="CQ11" s="47"/>
+      <c r="CR11" s="47"/>
+      <c r="CS11" s="47"/>
+      <c r="CT11" s="47"/>
+      <c r="CU11" s="47"/>
+      <c r="CV11" s="47"/>
+      <c r="CW11" s="47"/>
+      <c r="CX11" s="47"/>
+      <c r="CY11" s="47"/>
+      <c r="CZ11" s="47"/>
     </row>
     <row r="12" spans="2:104" ht="20.25" customHeight="1">
       <c r="B12" s="5">
@@ -4152,7 +4221,7 @@
         <v>43</v>
       </c>
       <c r="F12" s="27" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G12" s="6">
         <v>45079</v>
@@ -4164,7 +4233,7 @@
         <v>45079</v>
       </c>
       <c r="J12" s="6">
-        <v>45079</v>
+        <v>45082</v>
       </c>
       <c r="K12" s="7">
         <v>1</v>
@@ -4176,20 +4245,32 @@
       <c r="N12" s="6">
         <v>45082</v>
       </c>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="7"/>
+      <c r="O12" s="6">
+        <v>45082</v>
+      </c>
+      <c r="P12" s="6">
+        <v>45083</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>1</v>
+      </c>
       <c r="R12" s="9"/>
-      <c r="T12" s="16"/>
+      <c r="T12" s="16" t="s">
+        <v>65</v>
+      </c>
       <c r="U12" s="6">
         <v>45083</v>
       </c>
       <c r="V12" s="6">
         <v>45083</v>
       </c>
-      <c r="W12" s="6"/>
+      <c r="W12" s="6">
+        <v>45083</v>
+      </c>
       <c r="X12" s="6"/>
-      <c r="Y12" s="7"/>
+      <c r="Y12" s="7">
+        <v>0.8</v>
+      </c>
       <c r="Z12" s="17"/>
       <c r="AA12" s="6">
         <v>45084</v>
@@ -4268,34 +4349,34 @@
       <c r="BV12" s="10"/>
       <c r="BW12" s="10"/>
       <c r="BX12" s="13"/>
-      <c r="BY12" s="37"/>
-      <c r="BZ12" s="37"/>
-      <c r="CA12" s="37"/>
-      <c r="CB12" s="37"/>
-      <c r="CC12" s="37"/>
-      <c r="CD12" s="37"/>
-      <c r="CE12" s="37"/>
-      <c r="CF12" s="37"/>
-      <c r="CG12" s="37"/>
-      <c r="CH12" s="37"/>
-      <c r="CI12" s="37"/>
-      <c r="CJ12" s="37"/>
-      <c r="CK12" s="37"/>
+      <c r="BY12" s="47"/>
+      <c r="BZ12" s="47"/>
+      <c r="CA12" s="47"/>
+      <c r="CB12" s="47"/>
+      <c r="CC12" s="47"/>
+      <c r="CD12" s="47"/>
+      <c r="CE12" s="47"/>
+      <c r="CF12" s="47"/>
+      <c r="CG12" s="47"/>
+      <c r="CH12" s="47"/>
+      <c r="CI12" s="47"/>
+      <c r="CJ12" s="47"/>
+      <c r="CK12" s="47"/>
       <c r="CL12" s="14"/>
-      <c r="CM12" s="37"/>
-      <c r="CN12" s="37"/>
-      <c r="CO12" s="37"/>
-      <c r="CP12" s="37"/>
-      <c r="CQ12" s="37"/>
-      <c r="CR12" s="37"/>
-      <c r="CS12" s="37"/>
-      <c r="CT12" s="37"/>
-      <c r="CU12" s="37"/>
-      <c r="CV12" s="37"/>
-      <c r="CW12" s="37"/>
-      <c r="CX12" s="37"/>
-      <c r="CY12" s="37"/>
-      <c r="CZ12" s="37"/>
+      <c r="CM12" s="47"/>
+      <c r="CN12" s="47"/>
+      <c r="CO12" s="47"/>
+      <c r="CP12" s="47"/>
+      <c r="CQ12" s="47"/>
+      <c r="CR12" s="47"/>
+      <c r="CS12" s="47"/>
+      <c r="CT12" s="47"/>
+      <c r="CU12" s="47"/>
+      <c r="CV12" s="47"/>
+      <c r="CW12" s="47"/>
+      <c r="CX12" s="47"/>
+      <c r="CY12" s="47"/>
+      <c r="CZ12" s="47"/>
     </row>
     <row r="13" spans="2:104" ht="20.25" customHeight="1">
       <c r="B13" s="5">
@@ -4312,7 +4393,7 @@
         <v>43</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G13" s="6">
         <v>45079</v>
@@ -4324,7 +4405,7 @@
         <v>45079</v>
       </c>
       <c r="J13" s="6">
-        <v>45079</v>
+        <v>45082</v>
       </c>
       <c r="K13" s="7">
         <v>1</v>
@@ -4336,20 +4417,32 @@
       <c r="N13" s="6">
         <v>45082</v>
       </c>
-      <c r="O13" s="6"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="7"/>
+      <c r="O13" s="6">
+        <v>45082</v>
+      </c>
+      <c r="P13" s="6">
+        <v>45083</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>1</v>
+      </c>
       <c r="R13" s="9"/>
-      <c r="T13" s="16"/>
+      <c r="T13" s="16" t="s">
+        <v>66</v>
+      </c>
       <c r="U13" s="6">
         <v>45083</v>
       </c>
       <c r="V13" s="6">
         <v>45083</v>
       </c>
-      <c r="W13" s="6"/>
+      <c r="W13" s="6">
+        <v>45083</v>
+      </c>
       <c r="X13" s="6"/>
-      <c r="Y13" s="7"/>
+      <c r="Y13" s="7">
+        <v>0.6</v>
+      </c>
       <c r="Z13" s="17"/>
       <c r="AA13" s="6">
         <v>45084</v>
@@ -4428,51 +4521,51 @@
       <c r="BV13" s="10"/>
       <c r="BW13" s="10"/>
       <c r="BX13" s="13"/>
-      <c r="BY13" s="37"/>
-      <c r="BZ13" s="37"/>
-      <c r="CA13" s="37"/>
-      <c r="CB13" s="37"/>
-      <c r="CC13" s="37"/>
-      <c r="CD13" s="37"/>
-      <c r="CE13" s="37"/>
-      <c r="CF13" s="37"/>
-      <c r="CG13" s="37"/>
-      <c r="CH13" s="37"/>
-      <c r="CI13" s="37"/>
-      <c r="CJ13" s="37"/>
-      <c r="CK13" s="37"/>
+      <c r="BY13" s="47"/>
+      <c r="BZ13" s="47"/>
+      <c r="CA13" s="47"/>
+      <c r="CB13" s="47"/>
+      <c r="CC13" s="47"/>
+      <c r="CD13" s="47"/>
+      <c r="CE13" s="47"/>
+      <c r="CF13" s="47"/>
+      <c r="CG13" s="47"/>
+      <c r="CH13" s="47"/>
+      <c r="CI13" s="47"/>
+      <c r="CJ13" s="47"/>
+      <c r="CK13" s="47"/>
       <c r="CL13" s="14"/>
-      <c r="CM13" s="37"/>
-      <c r="CN13" s="37"/>
-      <c r="CO13" s="37"/>
-      <c r="CP13" s="37"/>
-      <c r="CQ13" s="37"/>
-      <c r="CR13" s="37"/>
-      <c r="CS13" s="37"/>
-      <c r="CT13" s="37"/>
-      <c r="CU13" s="37"/>
-      <c r="CV13" s="37"/>
-      <c r="CW13" s="37"/>
-      <c r="CX13" s="37"/>
-      <c r="CY13" s="37"/>
-      <c r="CZ13" s="37"/>
+      <c r="CM13" s="47"/>
+      <c r="CN13" s="47"/>
+      <c r="CO13" s="47"/>
+      <c r="CP13" s="47"/>
+      <c r="CQ13" s="47"/>
+      <c r="CR13" s="47"/>
+      <c r="CS13" s="47"/>
+      <c r="CT13" s="47"/>
+      <c r="CU13" s="47"/>
+      <c r="CV13" s="47"/>
+      <c r="CW13" s="47"/>
+      <c r="CX13" s="47"/>
+      <c r="CY13" s="47"/>
+      <c r="CZ13" s="47"/>
     </row>
     <row r="14" spans="2:104" ht="20.25" customHeight="1">
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>31</v>
+      <c r="C14" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>50</v>
+        <v>43</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>67</v>
       </c>
       <c r="G14" s="6">
         <v>45079</v>
@@ -4481,27 +4574,33 @@
         <v>45079</v>
       </c>
       <c r="I14" s="6">
-        <v>45078</v>
+        <v>45079</v>
       </c>
       <c r="J14" s="6">
-        <v>45078</v>
+        <v>45082</v>
       </c>
       <c r="K14" s="7">
         <v>1</v>
       </c>
-      <c r="L14" s="7"/>
+      <c r="L14" s="17"/>
       <c r="M14" s="6">
         <v>45082</v>
       </c>
       <c r="N14" s="6">
         <v>45082</v>
       </c>
-      <c r="O14" s="6"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="7"/>
+      <c r="O14" s="6">
+        <v>45082</v>
+      </c>
+      <c r="P14" s="6">
+        <v>45083</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>1</v>
+      </c>
       <c r="R14" s="9"/>
-      <c r="T14" s="35" t="s">
-        <v>59</v>
+      <c r="T14" s="16" t="s">
+        <v>67</v>
       </c>
       <c r="U14" s="6">
         <v>45083</v>
@@ -4514,80 +4613,52 @@
       </c>
       <c r="X14" s="6"/>
       <c r="Y14" s="7">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="Z14" s="17"/>
-      <c r="AA14" s="6">
-        <v>45084</v>
-      </c>
-      <c r="AB14" s="6">
-        <v>45084</v>
-      </c>
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
       <c r="AD14" s="6"/>
       <c r="AE14" s="7"/>
       <c r="AF14" s="9"/>
       <c r="AH14" s="16"/>
-      <c r="AI14" s="6">
-        <v>45085</v>
-      </c>
-      <c r="AJ14" s="6">
-        <v>45091</v>
-      </c>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
       <c r="AK14" s="6"/>
       <c r="AL14" s="6"/>
       <c r="AM14" s="7"/>
       <c r="AN14" s="17"/>
-      <c r="AO14" s="6">
-        <v>45092</v>
-      </c>
-      <c r="AP14" s="6">
-        <v>45093</v>
-      </c>
+      <c r="AO14" s="6"/>
+      <c r="AP14" s="6"/>
       <c r="AQ14" s="6"/>
       <c r="AR14" s="6"/>
       <c r="AS14" s="7"/>
       <c r="AT14" s="12"/>
       <c r="AU14" s="13"/>
       <c r="AV14" s="16"/>
-      <c r="AW14" s="6">
-        <v>45096</v>
-      </c>
-      <c r="AX14" s="6">
-        <v>45096</v>
-      </c>
+      <c r="AW14" s="6"/>
+      <c r="AX14" s="6"/>
       <c r="AY14" s="6"/>
       <c r="AZ14" s="6"/>
       <c r="BA14" s="7"/>
       <c r="BB14" s="17"/>
-      <c r="BC14" s="6">
-        <v>45097</v>
-      </c>
-      <c r="BD14" s="6">
-        <v>45097</v>
-      </c>
+      <c r="BC14" s="6"/>
+      <c r="BD14" s="6"/>
       <c r="BE14" s="6"/>
       <c r="BF14" s="6"/>
       <c r="BG14" s="19"/>
       <c r="BH14" s="10"/>
       <c r="BI14" s="14"/>
       <c r="BJ14" s="18"/>
-      <c r="BK14" s="6">
-        <v>45098</v>
-      </c>
-      <c r="BL14" s="6">
-        <v>45098</v>
-      </c>
+      <c r="BK14" s="6"/>
+      <c r="BL14" s="6"/>
       <c r="BM14" s="6"/>
       <c r="BN14" s="6"/>
       <c r="BO14" s="7"/>
       <c r="BP14" s="17"/>
-      <c r="BQ14" s="6">
-        <v>45099</v>
-      </c>
-      <c r="BR14" s="6">
-        <v>45099</v>
-      </c>
+      <c r="BQ14" s="6"/>
+      <c r="BR14" s="6"/>
       <c r="BS14" s="6"/>
       <c r="BT14" s="6"/>
       <c r="BU14" s="7"/>
@@ -4595,44 +4666,28 @@
       <c r="BW14" s="10"/>
       <c r="BX14" s="13"/>
       <c r="BY14" s="36"/>
-      <c r="BZ14" s="48">
-        <v>45100</v>
-      </c>
-      <c r="CA14" s="48">
-        <v>45100</v>
-      </c>
+      <c r="BZ14" s="36"/>
+      <c r="CA14" s="36"/>
       <c r="CB14" s="36"/>
       <c r="CC14" s="36"/>
       <c r="CD14" s="36"/>
       <c r="CE14" s="36"/>
-      <c r="CF14" s="36">
-        <v>45103</v>
-      </c>
-      <c r="CG14" s="36">
-        <v>45103</v>
-      </c>
+      <c r="CF14" s="36"/>
+      <c r="CG14" s="36"/>
       <c r="CH14" s="36"/>
       <c r="CI14" s="36"/>
       <c r="CJ14" s="36"/>
       <c r="CK14" s="36"/>
       <c r="CL14" s="14"/>
       <c r="CM14" s="36"/>
-      <c r="CN14" s="36">
-        <v>45104</v>
-      </c>
-      <c r="CO14" s="36">
-        <v>45104</v>
-      </c>
+      <c r="CN14" s="36"/>
+      <c r="CO14" s="36"/>
       <c r="CP14" s="36"/>
       <c r="CQ14" s="36"/>
       <c r="CR14" s="36"/>
       <c r="CS14" s="36"/>
-      <c r="CT14" s="36">
-        <v>45105</v>
-      </c>
-      <c r="CU14" s="36">
-        <v>45105</v>
-      </c>
+      <c r="CT14" s="36"/>
+      <c r="CU14" s="36"/>
       <c r="CV14" s="36"/>
       <c r="CW14" s="36"/>
       <c r="CX14" s="36"/>
@@ -4645,16 +4700,16 @@
         <v>9</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E15" s="26" t="s">
         <v>44</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" s="6">
         <v>45079</v>
@@ -4666,7 +4721,7 @@
         <v>45078</v>
       </c>
       <c r="J15" s="6">
-        <v>45079</v>
+        <v>45078</v>
       </c>
       <c r="K15" s="7">
         <v>1</v>
@@ -4683,7 +4738,7 @@
       <c r="Q15" s="7"/>
       <c r="R15" s="9"/>
       <c r="T15" s="35" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="U15" s="6">
         <v>45083</v>
@@ -4696,7 +4751,7 @@
       </c>
       <c r="X15" s="6"/>
       <c r="Y15" s="7">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="Z15" s="17"/>
       <c r="AA15" s="6">
@@ -4775,34 +4830,51 @@
       <c r="BU15" s="7"/>
       <c r="BV15" s="10"/>
       <c r="BW15" s="10"/>
-      <c r="BY15" s="37"/>
-      <c r="BZ15" s="49"/>
-      <c r="CA15" s="49"/>
-      <c r="CB15" s="37"/>
-      <c r="CC15" s="37"/>
-      <c r="CD15" s="37"/>
-      <c r="CE15" s="37"/>
-      <c r="CF15" s="37"/>
-      <c r="CG15" s="37"/>
-      <c r="CH15" s="37"/>
-      <c r="CI15" s="37"/>
-      <c r="CJ15" s="37"/>
-      <c r="CK15" s="37"/>
-      <c r="CL15" s="29"/>
-      <c r="CM15" s="37"/>
-      <c r="CN15" s="37"/>
-      <c r="CO15" s="37"/>
-      <c r="CP15" s="37"/>
-      <c r="CQ15" s="37"/>
-      <c r="CR15" s="37"/>
-      <c r="CS15" s="37"/>
-      <c r="CT15" s="37"/>
-      <c r="CU15" s="37"/>
-      <c r="CV15" s="37"/>
-      <c r="CW15" s="37"/>
-      <c r="CX15" s="37"/>
-      <c r="CY15" s="37"/>
-      <c r="CZ15" s="37"/>
+      <c r="BX15" s="13"/>
+      <c r="BY15" s="46"/>
+      <c r="BZ15" s="49">
+        <v>45100</v>
+      </c>
+      <c r="CA15" s="49">
+        <v>45100</v>
+      </c>
+      <c r="CB15" s="46"/>
+      <c r="CC15" s="46"/>
+      <c r="CD15" s="46"/>
+      <c r="CE15" s="46"/>
+      <c r="CF15" s="46">
+        <v>45103</v>
+      </c>
+      <c r="CG15" s="46">
+        <v>45103</v>
+      </c>
+      <c r="CH15" s="46"/>
+      <c r="CI15" s="46"/>
+      <c r="CJ15" s="46"/>
+      <c r="CK15" s="46"/>
+      <c r="CL15" s="14"/>
+      <c r="CM15" s="46"/>
+      <c r="CN15" s="46">
+        <v>45104</v>
+      </c>
+      <c r="CO15" s="46">
+        <v>45104</v>
+      </c>
+      <c r="CP15" s="46"/>
+      <c r="CQ15" s="46"/>
+      <c r="CR15" s="46"/>
+      <c r="CS15" s="46"/>
+      <c r="CT15" s="46">
+        <v>45105</v>
+      </c>
+      <c r="CU15" s="46">
+        <v>45105</v>
+      </c>
+      <c r="CV15" s="46"/>
+      <c r="CW15" s="46"/>
+      <c r="CX15" s="46"/>
+      <c r="CY15" s="46"/>
+      <c r="CZ15" s="46"/>
     </row>
     <row r="16" spans="2:104" ht="20.25" customHeight="1">
       <c r="B16" s="5">
@@ -4812,14 +4884,14 @@
       <c r="C16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="25" t="s">
-        <v>40</v>
+      <c r="D16" s="24" t="s">
+        <v>34</v>
       </c>
       <c r="E16" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="27" t="s">
-        <v>52</v>
+      <c r="F16" s="35" t="s">
+        <v>51</v>
       </c>
       <c r="G16" s="6">
         <v>45079</v>
@@ -4831,7 +4903,7 @@
         <v>45078</v>
       </c>
       <c r="J16" s="6">
-        <v>45078</v>
+        <v>45079</v>
       </c>
       <c r="K16" s="7">
         <v>1</v>
@@ -4847,8 +4919,8 @@
       <c r="P16" s="6"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="9"/>
-      <c r="T16" s="27" t="s">
-        <v>52</v>
+      <c r="T16" s="35" t="s">
+        <v>51</v>
       </c>
       <c r="U16" s="6">
         <v>45083</v>
@@ -4940,51 +5012,51 @@
       <c r="BU16" s="7"/>
       <c r="BV16" s="10"/>
       <c r="BW16" s="10"/>
-      <c r="BY16" s="37"/>
-      <c r="BZ16" s="49"/>
-      <c r="CA16" s="49"/>
-      <c r="CB16" s="37"/>
-      <c r="CC16" s="37"/>
-      <c r="CD16" s="37"/>
-      <c r="CE16" s="37"/>
-      <c r="CF16" s="37"/>
-      <c r="CG16" s="37"/>
-      <c r="CH16" s="37"/>
-      <c r="CI16" s="37"/>
-      <c r="CJ16" s="37"/>
-      <c r="CK16" s="37"/>
+      <c r="BY16" s="47"/>
+      <c r="BZ16" s="50"/>
+      <c r="CA16" s="50"/>
+      <c r="CB16" s="47"/>
+      <c r="CC16" s="47"/>
+      <c r="CD16" s="47"/>
+      <c r="CE16" s="47"/>
+      <c r="CF16" s="47"/>
+      <c r="CG16" s="47"/>
+      <c r="CH16" s="47"/>
+      <c r="CI16" s="47"/>
+      <c r="CJ16" s="47"/>
+      <c r="CK16" s="47"/>
       <c r="CL16" s="29"/>
-      <c r="CM16" s="37"/>
-      <c r="CN16" s="37"/>
-      <c r="CO16" s="37"/>
-      <c r="CP16" s="37"/>
-      <c r="CQ16" s="37"/>
-      <c r="CR16" s="37"/>
-      <c r="CS16" s="37"/>
-      <c r="CT16" s="37"/>
-      <c r="CU16" s="37"/>
-      <c r="CV16" s="37"/>
-      <c r="CW16" s="37"/>
-      <c r="CX16" s="37"/>
-      <c r="CY16" s="37"/>
-      <c r="CZ16" s="37"/>
+      <c r="CM16" s="47"/>
+      <c r="CN16" s="47"/>
+      <c r="CO16" s="47"/>
+      <c r="CP16" s="47"/>
+      <c r="CQ16" s="47"/>
+      <c r="CR16" s="47"/>
+      <c r="CS16" s="47"/>
+      <c r="CT16" s="47"/>
+      <c r="CU16" s="47"/>
+      <c r="CV16" s="47"/>
+      <c r="CW16" s="47"/>
+      <c r="CX16" s="47"/>
+      <c r="CY16" s="47"/>
+      <c r="CZ16" s="47"/>
     </row>
     <row r="17" spans="2:104" ht="20.25" customHeight="1">
       <c r="B17" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C17" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>37</v>
+      <c r="C17" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>40</v>
       </c>
       <c r="E17" s="26" t="s">
         <v>44</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G17" s="6">
         <v>45079</v>
@@ -4996,7 +5068,7 @@
         <v>45078</v>
       </c>
       <c r="J17" s="6">
-        <v>45079</v>
+        <v>45078</v>
       </c>
       <c r="K17" s="7">
         <v>1</v>
@@ -5013,7 +5085,7 @@
       <c r="Q17" s="7"/>
       <c r="R17" s="9"/>
       <c r="T17" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="U17" s="6">
         <v>45083</v>
@@ -5105,35 +5177,34 @@
       <c r="BU17" s="7"/>
       <c r="BV17" s="10"/>
       <c r="BW17" s="10"/>
-      <c r="BX17" s="11"/>
-      <c r="BY17" s="37"/>
-      <c r="BZ17" s="49"/>
-      <c r="CA17" s="49"/>
-      <c r="CB17" s="37"/>
-      <c r="CC17" s="37"/>
-      <c r="CD17" s="37"/>
-      <c r="CE17" s="37"/>
-      <c r="CF17" s="37"/>
-      <c r="CG17" s="37"/>
-      <c r="CH17" s="37"/>
-      <c r="CI17" s="37"/>
-      <c r="CJ17" s="37"/>
-      <c r="CK17" s="37"/>
+      <c r="BY17" s="47"/>
+      <c r="BZ17" s="50"/>
+      <c r="CA17" s="50"/>
+      <c r="CB17" s="47"/>
+      <c r="CC17" s="47"/>
+      <c r="CD17" s="47"/>
+      <c r="CE17" s="47"/>
+      <c r="CF17" s="47"/>
+      <c r="CG17" s="47"/>
+      <c r="CH17" s="47"/>
+      <c r="CI17" s="47"/>
+      <c r="CJ17" s="47"/>
+      <c r="CK17" s="47"/>
       <c r="CL17" s="29"/>
-      <c r="CM17" s="37"/>
-      <c r="CN17" s="37"/>
-      <c r="CO17" s="37"/>
-      <c r="CP17" s="37"/>
-      <c r="CQ17" s="37"/>
-      <c r="CR17" s="37"/>
-      <c r="CS17" s="37"/>
-      <c r="CT17" s="37"/>
-      <c r="CU17" s="37"/>
-      <c r="CV17" s="37"/>
-      <c r="CW17" s="37"/>
-      <c r="CX17" s="37"/>
-      <c r="CY17" s="37"/>
-      <c r="CZ17" s="37"/>
+      <c r="CM17" s="47"/>
+      <c r="CN17" s="47"/>
+      <c r="CO17" s="47"/>
+      <c r="CP17" s="47"/>
+      <c r="CQ17" s="47"/>
+      <c r="CR17" s="47"/>
+      <c r="CS17" s="47"/>
+      <c r="CT17" s="47"/>
+      <c r="CU17" s="47"/>
+      <c r="CV17" s="47"/>
+      <c r="CW17" s="47"/>
+      <c r="CX17" s="47"/>
+      <c r="CY17" s="47"/>
+      <c r="CZ17" s="47"/>
     </row>
     <row r="18" spans="2:104" ht="20.25" customHeight="1">
       <c r="B18" s="5">
@@ -5144,13 +5215,13 @@
         <v>35</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E18" s="26" t="s">
         <v>44</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G18" s="6">
         <v>45079</v>
@@ -5179,7 +5250,7 @@
       <c r="Q18" s="7"/>
       <c r="R18" s="9"/>
       <c r="T18" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U18" s="6">
         <v>45083</v>
@@ -5192,7 +5263,7 @@
       </c>
       <c r="X18" s="6"/>
       <c r="Y18" s="7">
-        <v>0.8</v>
+        <v>0.3</v>
       </c>
       <c r="Z18" s="17"/>
       <c r="AA18" s="6">
@@ -5272,34 +5343,34 @@
       <c r="BV18" s="10"/>
       <c r="BW18" s="10"/>
       <c r="BX18" s="11"/>
-      <c r="BY18" s="37"/>
-      <c r="BZ18" s="49"/>
-      <c r="CA18" s="49"/>
-      <c r="CB18" s="37"/>
-      <c r="CC18" s="37"/>
-      <c r="CD18" s="37"/>
-      <c r="CE18" s="37"/>
-      <c r="CF18" s="37"/>
-      <c r="CG18" s="37"/>
-      <c r="CH18" s="37"/>
-      <c r="CI18" s="37"/>
-      <c r="CJ18" s="37"/>
-      <c r="CK18" s="37"/>
+      <c r="BY18" s="47"/>
+      <c r="BZ18" s="50"/>
+      <c r="CA18" s="50"/>
+      <c r="CB18" s="47"/>
+      <c r="CC18" s="47"/>
+      <c r="CD18" s="47"/>
+      <c r="CE18" s="47"/>
+      <c r="CF18" s="47"/>
+      <c r="CG18" s="47"/>
+      <c r="CH18" s="47"/>
+      <c r="CI18" s="47"/>
+      <c r="CJ18" s="47"/>
+      <c r="CK18" s="47"/>
       <c r="CL18" s="29"/>
-      <c r="CM18" s="37"/>
-      <c r="CN18" s="37"/>
-      <c r="CO18" s="37"/>
-      <c r="CP18" s="37"/>
-      <c r="CQ18" s="37"/>
-      <c r="CR18" s="37"/>
-      <c r="CS18" s="37"/>
-      <c r="CT18" s="37"/>
-      <c r="CU18" s="37"/>
-      <c r="CV18" s="37"/>
-      <c r="CW18" s="37"/>
-      <c r="CX18" s="37"/>
-      <c r="CY18" s="37"/>
-      <c r="CZ18" s="37"/>
+      <c r="CM18" s="47"/>
+      <c r="CN18" s="47"/>
+      <c r="CO18" s="47"/>
+      <c r="CP18" s="47"/>
+      <c r="CQ18" s="47"/>
+      <c r="CR18" s="47"/>
+      <c r="CS18" s="47"/>
+      <c r="CT18" s="47"/>
+      <c r="CU18" s="47"/>
+      <c r="CV18" s="47"/>
+      <c r="CW18" s="47"/>
+      <c r="CX18" s="47"/>
+      <c r="CY18" s="47"/>
+      <c r="CZ18" s="47"/>
     </row>
     <row r="19" spans="2:104" ht="20.25" customHeight="1">
       <c r="B19" s="5">
@@ -5310,13 +5381,13 @@
         <v>35</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="35" t="s">
-        <v>55</v>
+      <c r="F19" s="27" t="s">
+        <v>54</v>
       </c>
       <c r="G19" s="6">
         <v>45079</v>
@@ -5344,8 +5415,8 @@
       <c r="P19" s="6"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="9"/>
-      <c r="T19" s="35" t="s">
-        <v>55</v>
+      <c r="T19" s="27" t="s">
+        <v>54</v>
       </c>
       <c r="U19" s="6">
         <v>45083</v>
@@ -5358,7 +5429,7 @@
       </c>
       <c r="X19" s="6"/>
       <c r="Y19" s="7">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="Z19" s="17"/>
       <c r="AA19" s="6">
@@ -5438,34 +5509,34 @@
       <c r="BV19" s="10"/>
       <c r="BW19" s="10"/>
       <c r="BX19" s="11"/>
-      <c r="BY19" s="37"/>
-      <c r="BZ19" s="49"/>
-      <c r="CA19" s="49"/>
-      <c r="CB19" s="37"/>
-      <c r="CC19" s="37"/>
-      <c r="CD19" s="37"/>
-      <c r="CE19" s="37"/>
-      <c r="CF19" s="37"/>
-      <c r="CG19" s="37"/>
-      <c r="CH19" s="37"/>
-      <c r="CI19" s="37"/>
-      <c r="CJ19" s="37"/>
-      <c r="CK19" s="37"/>
+      <c r="BY19" s="47"/>
+      <c r="BZ19" s="50"/>
+      <c r="CA19" s="50"/>
+      <c r="CB19" s="47"/>
+      <c r="CC19" s="47"/>
+      <c r="CD19" s="47"/>
+      <c r="CE19" s="47"/>
+      <c r="CF19" s="47"/>
+      <c r="CG19" s="47"/>
+      <c r="CH19" s="47"/>
+      <c r="CI19" s="47"/>
+      <c r="CJ19" s="47"/>
+      <c r="CK19" s="47"/>
       <c r="CL19" s="29"/>
-      <c r="CM19" s="37"/>
-      <c r="CN19" s="37"/>
-      <c r="CO19" s="37"/>
-      <c r="CP19" s="37"/>
-      <c r="CQ19" s="37"/>
-      <c r="CR19" s="37"/>
-      <c r="CS19" s="37"/>
-      <c r="CT19" s="37"/>
-      <c r="CU19" s="37"/>
-      <c r="CV19" s="37"/>
-      <c r="CW19" s="37"/>
-      <c r="CX19" s="37"/>
-      <c r="CY19" s="37"/>
-      <c r="CZ19" s="37"/>
+      <c r="CM19" s="47"/>
+      <c r="CN19" s="47"/>
+      <c r="CO19" s="47"/>
+      <c r="CP19" s="47"/>
+      <c r="CQ19" s="47"/>
+      <c r="CR19" s="47"/>
+      <c r="CS19" s="47"/>
+      <c r="CT19" s="47"/>
+      <c r="CU19" s="47"/>
+      <c r="CV19" s="47"/>
+      <c r="CW19" s="47"/>
+      <c r="CX19" s="47"/>
+      <c r="CY19" s="47"/>
+      <c r="CZ19" s="47"/>
     </row>
     <row r="20" spans="2:104" ht="20.25" customHeight="1">
       <c r="B20" s="5">
@@ -5476,13 +5547,13 @@
         <v>35</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E20" s="26" t="s">
         <v>44</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G20" s="6">
         <v>45079</v>
@@ -5511,7 +5582,7 @@
       <c r="Q20" s="7"/>
       <c r="R20" s="9"/>
       <c r="T20" s="35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U20" s="6">
         <v>45083</v>
@@ -5524,7 +5595,7 @@
       </c>
       <c r="X20" s="6"/>
       <c r="Y20" s="7">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="Z20" s="17"/>
       <c r="AA20" s="6">
@@ -5604,34 +5675,34 @@
       <c r="BV20" s="10"/>
       <c r="BW20" s="10"/>
       <c r="BX20" s="11"/>
-      <c r="BY20" s="37"/>
-      <c r="BZ20" s="49"/>
-      <c r="CA20" s="49"/>
-      <c r="CB20" s="37"/>
-      <c r="CC20" s="37"/>
-      <c r="CD20" s="37"/>
-      <c r="CE20" s="37"/>
-      <c r="CF20" s="37"/>
-      <c r="CG20" s="37"/>
-      <c r="CH20" s="37"/>
-      <c r="CI20" s="37"/>
-      <c r="CJ20" s="37"/>
-      <c r="CK20" s="37"/>
+      <c r="BY20" s="47"/>
+      <c r="BZ20" s="50"/>
+      <c r="CA20" s="50"/>
+      <c r="CB20" s="47"/>
+      <c r="CC20" s="47"/>
+      <c r="CD20" s="47"/>
+      <c r="CE20" s="47"/>
+      <c r="CF20" s="47"/>
+      <c r="CG20" s="47"/>
+      <c r="CH20" s="47"/>
+      <c r="CI20" s="47"/>
+      <c r="CJ20" s="47"/>
+      <c r="CK20" s="47"/>
       <c r="CL20" s="29"/>
-      <c r="CM20" s="37"/>
-      <c r="CN20" s="37"/>
-      <c r="CO20" s="37"/>
-      <c r="CP20" s="37"/>
-      <c r="CQ20" s="37"/>
-      <c r="CR20" s="37"/>
-      <c r="CS20" s="37"/>
-      <c r="CT20" s="37"/>
-      <c r="CU20" s="37"/>
-      <c r="CV20" s="37"/>
-      <c r="CW20" s="37"/>
-      <c r="CX20" s="37"/>
-      <c r="CY20" s="37"/>
-      <c r="CZ20" s="37"/>
+      <c r="CM20" s="47"/>
+      <c r="CN20" s="47"/>
+      <c r="CO20" s="47"/>
+      <c r="CP20" s="47"/>
+      <c r="CQ20" s="47"/>
+      <c r="CR20" s="47"/>
+      <c r="CS20" s="47"/>
+      <c r="CT20" s="47"/>
+      <c r="CU20" s="47"/>
+      <c r="CV20" s="47"/>
+      <c r="CW20" s="47"/>
+      <c r="CX20" s="47"/>
+      <c r="CY20" s="47"/>
+      <c r="CZ20" s="47"/>
     </row>
     <row r="21" spans="2:104" ht="20.25" customHeight="1">
       <c r="B21" s="5">
@@ -5641,14 +5712,14 @@
       <c r="C21" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="32" t="s">
-        <v>48</v>
+      <c r="D21" s="24" t="s">
+        <v>36</v>
       </c>
       <c r="E21" s="26" t="s">
         <v>44</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G21" s="6">
         <v>45079</v>
@@ -5677,7 +5748,7 @@
       <c r="Q21" s="7"/>
       <c r="R21" s="9"/>
       <c r="T21" s="35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U21" s="6">
         <v>45083</v>
@@ -5690,7 +5761,7 @@
       </c>
       <c r="X21" s="6"/>
       <c r="Y21" s="7">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="Z21" s="17"/>
       <c r="AA21" s="6">
@@ -5769,76 +5840,228 @@
       <c r="BU21" s="7"/>
       <c r="BV21" s="10"/>
       <c r="BW21" s="10"/>
-      <c r="BX21" s="13"/>
-      <c r="BY21" s="38"/>
+      <c r="BX21" s="11"/>
+      <c r="BY21" s="47"/>
       <c r="BZ21" s="50"/>
       <c r="CA21" s="50"/>
-      <c r="CB21" s="38"/>
-      <c r="CC21" s="38"/>
-      <c r="CD21" s="38"/>
-      <c r="CE21" s="38"/>
-      <c r="CF21" s="38"/>
-      <c r="CG21" s="38"/>
-      <c r="CH21" s="38"/>
-      <c r="CI21" s="38"/>
-      <c r="CJ21" s="38"/>
-      <c r="CK21" s="38"/>
-      <c r="CL21" s="14"/>
-      <c r="CM21" s="38"/>
-      <c r="CN21" s="38"/>
-      <c r="CO21" s="38"/>
-      <c r="CP21" s="38"/>
-      <c r="CQ21" s="38"/>
-      <c r="CR21" s="38"/>
-      <c r="CS21" s="38"/>
-      <c r="CT21" s="38"/>
-      <c r="CU21" s="38"/>
-      <c r="CV21" s="38"/>
-      <c r="CW21" s="38"/>
-      <c r="CX21" s="38"/>
-      <c r="CY21" s="38"/>
-      <c r="CZ21" s="38"/>
+      <c r="CB21" s="47"/>
+      <c r="CC21" s="47"/>
+      <c r="CD21" s="47"/>
+      <c r="CE21" s="47"/>
+      <c r="CF21" s="47"/>
+      <c r="CG21" s="47"/>
+      <c r="CH21" s="47"/>
+      <c r="CI21" s="47"/>
+      <c r="CJ21" s="47"/>
+      <c r="CK21" s="47"/>
+      <c r="CL21" s="29"/>
+      <c r="CM21" s="47"/>
+      <c r="CN21" s="47"/>
+      <c r="CO21" s="47"/>
+      <c r="CP21" s="47"/>
+      <c r="CQ21" s="47"/>
+      <c r="CR21" s="47"/>
+      <c r="CS21" s="47"/>
+      <c r="CT21" s="47"/>
+      <c r="CU21" s="47"/>
+      <c r="CV21" s="47"/>
+      <c r="CW21" s="47"/>
+      <c r="CX21" s="47"/>
+      <c r="CY21" s="47"/>
+      <c r="CZ21" s="47"/>
     </row>
     <row r="22" spans="2:104" ht="20.25" customHeight="1">
-      <c r="BX22" s="11"/>
-      <c r="CL22" s="11"/>
+      <c r="B22" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="G22" s="6">
+        <v>45079</v>
+      </c>
+      <c r="H22" s="6">
+        <v>45079</v>
+      </c>
+      <c r="I22" s="6">
+        <v>45078</v>
+      </c>
+      <c r="J22" s="6">
+        <v>45079</v>
+      </c>
+      <c r="K22" s="7">
+        <v>1</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="6">
+        <v>45082</v>
+      </c>
+      <c r="N22" s="6">
+        <v>45082</v>
+      </c>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="9"/>
+      <c r="T22" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="U22" s="6">
+        <v>45083</v>
+      </c>
+      <c r="V22" s="6">
+        <v>45083</v>
+      </c>
+      <c r="W22" s="6">
+        <v>45083</v>
+      </c>
+      <c r="X22" s="6"/>
+      <c r="Y22" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="Z22" s="17"/>
+      <c r="AA22" s="6">
+        <v>45084</v>
+      </c>
+      <c r="AB22" s="6">
+        <v>45084</v>
+      </c>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="9"/>
+      <c r="AH22" s="16"/>
+      <c r="AI22" s="6">
+        <v>45085</v>
+      </c>
+      <c r="AJ22" s="6">
+        <v>45091</v>
+      </c>
+      <c r="AK22" s="6"/>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="7"/>
+      <c r="AN22" s="17"/>
+      <c r="AO22" s="6">
+        <v>45092</v>
+      </c>
+      <c r="AP22" s="6">
+        <v>45093</v>
+      </c>
+      <c r="AQ22" s="6"/>
+      <c r="AR22" s="6"/>
+      <c r="AS22" s="7"/>
+      <c r="AT22" s="12"/>
+      <c r="AU22" s="13"/>
+      <c r="AV22" s="16"/>
+      <c r="AW22" s="6">
+        <v>45096</v>
+      </c>
+      <c r="AX22" s="6">
+        <v>45096</v>
+      </c>
+      <c r="AY22" s="6"/>
+      <c r="AZ22" s="6"/>
+      <c r="BA22" s="7"/>
+      <c r="BB22" s="17"/>
+      <c r="BC22" s="6">
+        <v>45097</v>
+      </c>
+      <c r="BD22" s="6">
+        <v>45097</v>
+      </c>
+      <c r="BE22" s="6"/>
+      <c r="BF22" s="6"/>
+      <c r="BG22" s="19"/>
+      <c r="BH22" s="10"/>
+      <c r="BI22" s="14"/>
+      <c r="BJ22" s="18"/>
+      <c r="BK22" s="6">
+        <v>45098</v>
+      </c>
+      <c r="BL22" s="6">
+        <v>45098</v>
+      </c>
+      <c r="BM22" s="6"/>
+      <c r="BN22" s="6"/>
+      <c r="BO22" s="7"/>
+      <c r="BP22" s="17"/>
+      <c r="BQ22" s="6">
+        <v>45099</v>
+      </c>
+      <c r="BR22" s="6">
+        <v>45099</v>
+      </c>
+      <c r="BS22" s="6"/>
+      <c r="BT22" s="6"/>
+      <c r="BU22" s="7"/>
+      <c r="BV22" s="10"/>
+      <c r="BW22" s="10"/>
+      <c r="BX22" s="13"/>
+      <c r="BY22" s="48"/>
+      <c r="BZ22" s="51"/>
+      <c r="CA22" s="51"/>
+      <c r="CB22" s="48"/>
+      <c r="CC22" s="48"/>
+      <c r="CD22" s="48"/>
+      <c r="CE22" s="48"/>
+      <c r="CF22" s="48"/>
+      <c r="CG22" s="48"/>
+      <c r="CH22" s="48"/>
+      <c r="CI22" s="48"/>
+      <c r="CJ22" s="48"/>
+      <c r="CK22" s="48"/>
+      <c r="CL22" s="14"/>
+      <c r="CM22" s="48"/>
+      <c r="CN22" s="48"/>
+      <c r="CO22" s="48"/>
+      <c r="CP22" s="48"/>
+      <c r="CQ22" s="48"/>
+      <c r="CR22" s="48"/>
+      <c r="CS22" s="48"/>
+      <c r="CT22" s="48"/>
+      <c r="CU22" s="48"/>
+      <c r="CV22" s="48"/>
+      <c r="CW22" s="48"/>
+      <c r="CX22" s="48"/>
+      <c r="CY22" s="48"/>
+      <c r="CZ22" s="48"/>
     </row>
     <row r="23" spans="2:104" ht="20.25" customHeight="1">
       <c r="BX23" s="11"/>
       <c r="CL23" s="11"/>
     </row>
+    <row r="24" spans="2:104" ht="20.25" customHeight="1">
+      <c r="BX24" s="11"/>
+      <c r="CL24" s="11"/>
+    </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="CZ14:CZ21"/>
-    <mergeCell ref="CM14:CM21"/>
-    <mergeCell ref="CN14:CN21"/>
-    <mergeCell ref="CO14:CO21"/>
-    <mergeCell ref="CP14:CP21"/>
-    <mergeCell ref="CR7:CR13"/>
-    <mergeCell ref="CS7:CS13"/>
-    <mergeCell ref="CT7:CT13"/>
-    <mergeCell ref="CT14:CT21"/>
-    <mergeCell ref="CU14:CU21"/>
-    <mergeCell ref="CV14:CV21"/>
-    <mergeCell ref="CW14:CW21"/>
+    <mergeCell ref="CM7:CM13"/>
+    <mergeCell ref="CN7:CN13"/>
+    <mergeCell ref="CO7:CO13"/>
+    <mergeCell ref="CW15:CW22"/>
     <mergeCell ref="CX7:CX13"/>
     <mergeCell ref="CY7:CY13"/>
     <mergeCell ref="CZ7:CZ13"/>
-    <mergeCell ref="CQ14:CQ21"/>
-    <mergeCell ref="CR14:CR21"/>
-    <mergeCell ref="CS14:CS21"/>
+    <mergeCell ref="CQ15:CQ22"/>
+    <mergeCell ref="CR15:CR22"/>
+    <mergeCell ref="CS15:CS22"/>
     <mergeCell ref="CU7:CU13"/>
     <mergeCell ref="CV7:CV13"/>
     <mergeCell ref="CW7:CW13"/>
-    <mergeCell ref="CM7:CM13"/>
-    <mergeCell ref="CN7:CN13"/>
-    <mergeCell ref="CO7:CO13"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BG5:BG6"/>
     <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="CX14:CX21"/>
-    <mergeCell ref="CY14:CY21"/>
+    <mergeCell ref="CX15:CX22"/>
+    <mergeCell ref="CY15:CY22"/>
     <mergeCell ref="CB7:CB13"/>
     <mergeCell ref="CC7:CC13"/>
     <mergeCell ref="CD7:CD13"/>
@@ -5851,15 +6074,18 @@
     <mergeCell ref="CK7:CK13"/>
     <mergeCell ref="CP7:CP13"/>
     <mergeCell ref="CQ7:CQ13"/>
-    <mergeCell ref="BY14:BY21"/>
-    <mergeCell ref="BZ14:BZ21"/>
-    <mergeCell ref="CA14:CA21"/>
-    <mergeCell ref="CB14:CB21"/>
-    <mergeCell ref="CC14:CC21"/>
-    <mergeCell ref="CD14:CD21"/>
-    <mergeCell ref="CE14:CE21"/>
-    <mergeCell ref="CF14:CF21"/>
-    <mergeCell ref="CG14:CG21"/>
+    <mergeCell ref="BY15:BY22"/>
+    <mergeCell ref="BZ15:BZ22"/>
+    <mergeCell ref="CA15:CA22"/>
+    <mergeCell ref="CB15:CB22"/>
+    <mergeCell ref="CC15:CC22"/>
+    <mergeCell ref="CD15:CD22"/>
+    <mergeCell ref="CM15:CM22"/>
+    <mergeCell ref="CN15:CN22"/>
+    <mergeCell ref="CO15:CO22"/>
+    <mergeCell ref="CE15:CE22"/>
+    <mergeCell ref="CF15:CF22"/>
+    <mergeCell ref="CG15:CG22"/>
     <mergeCell ref="BY7:BY13"/>
     <mergeCell ref="BZ7:BZ13"/>
     <mergeCell ref="CA7:CA13"/>
@@ -5868,13 +6094,19 @@
     <mergeCell ref="CT5:CU5"/>
     <mergeCell ref="CV5:CW5"/>
     <mergeCell ref="CS5:CS6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BW5:BW6"/>
-    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CH15:CH22"/>
+    <mergeCell ref="CI15:CI22"/>
+    <mergeCell ref="CJ15:CJ22"/>
+    <mergeCell ref="CK15:CK22"/>
+    <mergeCell ref="CZ15:CZ22"/>
+    <mergeCell ref="CP15:CP22"/>
+    <mergeCell ref="CR7:CR13"/>
+    <mergeCell ref="CS7:CS13"/>
+    <mergeCell ref="CT7:CT13"/>
+    <mergeCell ref="CT15:CT22"/>
+    <mergeCell ref="CU15:CU22"/>
+    <mergeCell ref="CV15:CV22"/>
     <mergeCell ref="CR5:CR6"/>
     <mergeCell ref="CJ5:CJ6"/>
     <mergeCell ref="CK5:CK6"/>
@@ -5882,12 +6114,9 @@
     <mergeCell ref="CP5:CQ5"/>
     <mergeCell ref="CM5:CM6"/>
     <mergeCell ref="CH5:CI5"/>
-    <mergeCell ref="CY5:CY6"/>
     <mergeCell ref="CE5:CE6"/>
     <mergeCell ref="CB5:CC5"/>
     <mergeCell ref="CF5:CG5"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="BZ5:CA5"/>
     <mergeCell ref="BP4:BW4"/>
     <mergeCell ref="BY4:CD4"/>
     <mergeCell ref="T4:Y4"/>
@@ -5897,8 +6126,6 @@
     <mergeCell ref="AV4:BA4"/>
     <mergeCell ref="BB4:BH4"/>
     <mergeCell ref="BJ4:BO4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="Y5:Y6"/>
     <mergeCell ref="Z5:Z6"/>
     <mergeCell ref="CD5:CD6"/>
     <mergeCell ref="AE5:AE6"/>
@@ -5911,8 +6138,18 @@
     <mergeCell ref="AS5:AS6"/>
     <mergeCell ref="AT5:AT6"/>
     <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:R4"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BG5:BG6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="D4:D6"/>
@@ -5922,10 +6159,6 @@
     <mergeCell ref="Q5:Q6"/>
     <mergeCell ref="R5:R6"/>
     <mergeCell ref="E4:E6"/>
-    <mergeCell ref="CH14:CH21"/>
-    <mergeCell ref="CI14:CI21"/>
-    <mergeCell ref="CJ14:CJ21"/>
-    <mergeCell ref="CK14:CK21"/>
     <mergeCell ref="CE4:CK4"/>
     <mergeCell ref="CM4:CR4"/>
     <mergeCell ref="CS4:CZ4"/>
@@ -5946,59 +6179,63 @@
     <mergeCell ref="BC5:BD5"/>
     <mergeCell ref="BE5:BF5"/>
     <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:R4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="Y5:Y6"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
-  <conditionalFormatting sqref="F7:K13">
+  <conditionalFormatting sqref="F7:K14">
     <cfRule type="expression" dxfId="32" priority="78">
       <formula>$J7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7:R13 K14:R21">
+  <conditionalFormatting sqref="L7:R14 K15:R22">
     <cfRule type="expression" dxfId="31" priority="71">
       <formula>$P7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T7:Y13">
+  <conditionalFormatting sqref="T7:Y14">
     <cfRule type="expression" dxfId="30" priority="70">
       <formula>$X7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z7:AF13">
+  <conditionalFormatting sqref="Z7:AF14">
     <cfRule type="expression" dxfId="29" priority="69">
       <formula>$AD7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH7:AM13">
+  <conditionalFormatting sqref="AH7:AM14">
     <cfRule type="expression" dxfId="28" priority="67">
       <formula>$AL7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN7:AT13">
+  <conditionalFormatting sqref="AN7:AT14">
     <cfRule type="expression" dxfId="27" priority="68">
       <formula>$AR7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV7:BA13">
+  <conditionalFormatting sqref="AV7:BA14">
     <cfRule type="expression" dxfId="26" priority="132">
       <formula>$AZ7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB7:BH13">
+  <conditionalFormatting sqref="BB7:BH14">
     <cfRule type="expression" dxfId="25" priority="131">
       <formula>$BF7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ7:BO13">
+  <conditionalFormatting sqref="BJ7:BO14">
     <cfRule type="expression" dxfId="24" priority="126">
       <formula>$BN7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP7:BW13">
+  <conditionalFormatting sqref="BP7:BW14">
     <cfRule type="expression" dxfId="23" priority="125">
       <formula>$BT7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20:F21">
+  <conditionalFormatting sqref="F21:F22">
     <cfRule type="expression" dxfId="22" priority="155">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
@@ -6008,109 +6245,109 @@
       <formula>$X8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19 F14:F15">
+  <conditionalFormatting sqref="F20 F15:F16">
     <cfRule type="expression" dxfId="20" priority="183">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA21:AB21">
+  <conditionalFormatting sqref="AA22:AB22">
     <cfRule type="expression" dxfId="19" priority="185">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
+  <conditionalFormatting sqref="F19">
     <cfRule type="expression" dxfId="18" priority="190">
-      <formula>$I17&lt;&gt;""</formula>
+      <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:F15">
+  <conditionalFormatting sqref="F15:F16">
     <cfRule type="expression" dxfId="17" priority="192">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16:F17">
+  <conditionalFormatting sqref="F17:F18">
     <cfRule type="expression" dxfId="16" priority="193">
-      <formula>$I17&lt;&gt;""</formula>
+      <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA13:AB13">
+  <conditionalFormatting sqref="AA13:AB14">
     <cfRule type="expression" dxfId="15" priority="215">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14:J21">
+  <conditionalFormatting sqref="G15:J22">
     <cfRule type="expression" dxfId="14" priority="217">
-      <formula>$I14&lt;&gt;""</formula>
+      <formula>$I15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U14:Y21">
+  <conditionalFormatting sqref="U15:Y22">
     <cfRule type="expression" dxfId="13" priority="221">
-      <formula>$X14&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z14:AF21">
-    <cfRule type="expression" dxfId="12" priority="223">
-      <formula>$AD14&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH14:AM21">
-    <cfRule type="expression" dxfId="11" priority="225">
-      <formula>$AL14&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN14:AT21">
-    <cfRule type="expression" dxfId="10" priority="227">
-      <formula>$AR14&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV14:BA21">
-    <cfRule type="expression" dxfId="9" priority="229">
-      <formula>$AZ14&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB14:BH21">
-    <cfRule type="expression" dxfId="8" priority="231">
-      <formula>$BF14&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ14:BO21">
-    <cfRule type="expression" dxfId="7" priority="233">
-      <formula>$BN14&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BP14:BW21">
-    <cfRule type="expression" dxfId="6" priority="235">
-      <formula>$BT14&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA14:AB20">
-    <cfRule type="expression" dxfId="5" priority="236">
       <formula>$X15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T20:T21">
+  <conditionalFormatting sqref="Z15:AF22">
+    <cfRule type="expression" dxfId="12" priority="223">
+      <formula>$AD15&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH15:AM22">
+    <cfRule type="expression" dxfId="11" priority="225">
+      <formula>$AL15&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN15:AT22">
+    <cfRule type="expression" dxfId="10" priority="227">
+      <formula>$AR15&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV15:BA22">
+    <cfRule type="expression" dxfId="9" priority="229">
+      <formula>$AZ15&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB15:BH22">
+    <cfRule type="expression" dxfId="8" priority="231">
+      <formula>$BF15&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ15:BO22">
+    <cfRule type="expression" dxfId="7" priority="233">
+      <formula>$BN15&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BP15:BW22">
+    <cfRule type="expression" dxfId="6" priority="235">
+      <formula>$BT15&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA15:AB21">
+    <cfRule type="expression" dxfId="5" priority="236">
+      <formula>$X16&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T21:T22">
     <cfRule type="expression" dxfId="4" priority="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T19 T14:T15">
+  <conditionalFormatting sqref="T20 T15:T16">
     <cfRule type="expression" dxfId="3" priority="2">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T18">
+  <conditionalFormatting sqref="T19">
     <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$I17&lt;&gt;""</formula>
+      <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T14:T15">
+  <conditionalFormatting sqref="T15:T16">
     <cfRule type="expression" dxfId="1" priority="4">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T16:T17">
+  <conditionalFormatting sqref="T17:T18">
     <cfRule type="expression" dxfId="0" priority="5">
-      <formula>$I17&lt;&gt;""</formula>
+      <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -6121,14 +6358,15 @@
     <hyperlink ref="D11" location="'5_勤怠情報一覧（日別）'!A1" display="勤怠情報一覧（日別）" xr:uid="{E72646C9-F5A6-42C5-BA46-EC28DA1114DC}"/>
     <hyperlink ref="D12" location="'6_勤怠情報登録・更新'!A1" display="勤怠情報登録・更新" xr:uid="{F661A37B-9FA7-4494-9180-29E5E77AF19E}"/>
     <hyperlink ref="D13" location="'7_勤怠承認一覧'!A1" display="勤怠承認一覧" xr:uid="{1CFB0DDC-015B-4EAA-AD03-48FDF4830ED6}"/>
-    <hyperlink ref="D14" location="'1_ログイン'!A1" display="ログイン画面" xr:uid="{B1FF5EB0-21CC-4EB3-99F6-77D0719942F0}"/>
-    <hyperlink ref="D15" location="'2_社員情報一覧'!A1" display="社員情報一覧" xr:uid="{609F58F5-33F3-4B61-B545-7F18B08E22C8}"/>
-    <hyperlink ref="D16" location="'3_社員情報登録・更新'!A1" display="社員情報登録・更新" xr:uid="{419A2B0A-D89C-4326-9F29-A504ADF439B3}"/>
-    <hyperlink ref="D17" location="'4_勤怠情報一覧（月別）'!A1" display="勤怠情報一覧（月別）" xr:uid="{AF166743-8180-4954-BCD4-C6A9338812A1}"/>
-    <hyperlink ref="D18" location="'5_勤怠情報一覧（日別）'!A1" display="勤怠情報一覧（日別）" xr:uid="{D5349684-F11C-497E-B398-BF5574241169}"/>
-    <hyperlink ref="D19" location="'6_勤怠情報登録・更新'!A1" display="勤怠情報登録・更新" xr:uid="{00ECEF80-FD61-478B-8D37-D953C6AC1377}"/>
-    <hyperlink ref="D20" location="'7_勤怠承認一覧'!A1" display="勤怠承認一覧" xr:uid="{E18148D9-7201-438A-8DCA-5F559A68A413}"/>
-    <hyperlink ref="D21" location="'8_勤怠承認詳細'!A1" display="'8_勤怠承認詳細'!A1" xr:uid="{51AF4705-A268-486C-9830-0390786DD554}"/>
+    <hyperlink ref="D15" location="'1_ログイン'!A1" display="ログイン画面" xr:uid="{B1FF5EB0-21CC-4EB3-99F6-77D0719942F0}"/>
+    <hyperlink ref="D16" location="'2_社員情報一覧'!A1" display="社員情報一覧" xr:uid="{609F58F5-33F3-4B61-B545-7F18B08E22C8}"/>
+    <hyperlink ref="D17" location="'3_社員情報登録・更新'!A1" display="社員情報登録・更新" xr:uid="{419A2B0A-D89C-4326-9F29-A504ADF439B3}"/>
+    <hyperlink ref="D18" location="'4_勤怠情報一覧（月別）'!A1" display="勤怠情報一覧（月別）" xr:uid="{AF166743-8180-4954-BCD4-C6A9338812A1}"/>
+    <hyperlink ref="D19" location="'5_勤怠情報一覧（日別）'!A1" display="勤怠情報一覧（日別）" xr:uid="{D5349684-F11C-497E-B398-BF5574241169}"/>
+    <hyperlink ref="D20" location="'6_勤怠情報登録・更新'!A1" display="勤怠情報登録・更新" xr:uid="{00ECEF80-FD61-478B-8D37-D953C6AC1377}"/>
+    <hyperlink ref="D21" location="'7_勤怠承認一覧'!A1" display="勤怠承認一覧" xr:uid="{E18148D9-7201-438A-8DCA-5F559A68A413}"/>
+    <hyperlink ref="D22" location="'8_勤怠承認詳細'!A1" display="'8_勤怠承認詳細'!A1" xr:uid="{51AF4705-A268-486C-9830-0390786DD554}"/>
+    <hyperlink ref="D14" location="'7_勤怠承認一覧'!A1" display="勤怠承認一覧" xr:uid="{64BFD298-E305-4A25-A42E-96138E4FEAF6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6143,7 +6381,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.45"/>
   <sheetData>
     <row r="5" spans="4:5">
       <c r="D5" t="s">
@@ -6176,7 +6414,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.45"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6192,7 +6430,7 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.45"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6208,7 +6446,7 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.45"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6224,7 +6462,7 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.45"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6240,7 +6478,7 @@
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.45"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6256,7 +6494,7 @@
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.45"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/スケジュール（2023-06）.xlsx
+++ b/スケジュール（2023-06）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SymStudy\2023-06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D529FDBE-515A-47D5-A805-A1B500F5DCDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CA86C1-33E9-43FB-AF5C-5C46D2572B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12497" tabRatio="910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16185" yWindow="-5985" windowWidth="16635" windowHeight="13815" tabRatio="910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="体制図" sheetId="11" r:id="rId1"/>
@@ -26,24 +26,11 @@
     <sheet name="8_勤怠承認詳細" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="69">
   <si>
     <t>勤怠管理システムWBS</t>
   </si>
@@ -373,6 +360,10 @@
   </si>
   <si>
     <t>安雪シン　高菁雨</t>
+  </si>
+  <si>
+    <t>賈　則慧</t>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
@@ -688,8 +679,38 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -701,36 +722,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2616,7 +2607,7 @@
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="3" spans="3:7">
       <c r="G3" s="28" t="s">
@@ -2657,7 +2648,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2673,7 +2664,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2687,20 +2678,20 @@
   <dimension ref="B3:CZ24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="S7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Z10" sqref="Z10"/>
+      <selection pane="bottomRight" activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.78515625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="18.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="8" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="8.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="16.796875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="18.69921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.59765625" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="8.69921875" style="1" customWidth="1" outlineLevel="1"/>
     <col min="8" max="11" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="13" max="18" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
@@ -2709,421 +2700,421 @@
     <col min="21" max="25" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="26" max="26" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="27" max="32" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="1.5703125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="1.59765625" style="1" customWidth="1"/>
     <col min="34" max="34" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="35" max="39" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="40" max="40" width="13" style="2" customWidth="1" outlineLevel="1"/>
     <col min="41" max="46" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="47" max="47" width="1.5703125" style="1" customWidth="1"/>
+    <col min="47" max="47" width="1.59765625" style="1" customWidth="1"/>
     <col min="48" max="48" width="13" style="2" customWidth="1" outlineLevel="1"/>
     <col min="49" max="53" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="54" max="54" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="55" max="60" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="61" max="61" width="1.5703125" style="1" customWidth="1"/>
+    <col min="61" max="61" width="1.59765625" style="1" customWidth="1"/>
     <col min="62" max="62" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="63" max="67" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="68" max="68" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="69" max="75" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="76" max="76" width="1.5703125" style="1" customWidth="1"/>
-    <col min="77" max="77" width="6.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="76" max="76" width="1.59765625" style="1" customWidth="1"/>
+    <col min="77" max="77" width="6.59765625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="78" max="81" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
     <col min="82" max="83" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="84" max="85" width="6.5" style="33" customWidth="1" outlineLevel="1"/>
     <col min="86" max="87" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
     <col min="88" max="89" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="90" max="90" width="1.5703125" style="1" customWidth="1"/>
-    <col min="91" max="91" width="6.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="90" max="90" width="1.59765625" style="1" customWidth="1"/>
+    <col min="91" max="91" width="6.59765625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="92" max="93" width="6.5" style="33" customWidth="1" outlineLevel="1"/>
     <col min="94" max="95" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
     <col min="96" max="97" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="98" max="99" width="6.5" style="33" customWidth="1" outlineLevel="1"/>
     <col min="100" max="101" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
     <col min="102" max="104" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="105" max="105" width="1.5703125" style="1" customWidth="1"/>
+    <col min="105" max="105" width="1.59765625" style="1" customWidth="1"/>
     <col min="106" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:104" ht="23.6">
+    <row r="3" spans="2:104" ht="23.4">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:104" s="20" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37" t="s">
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="T4" s="37" t="s">
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="T4" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="37" t="s">
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="37"/>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="37"/>
-      <c r="AD4" s="37"/>
-      <c r="AE4" s="37"/>
-      <c r="AF4" s="37"/>
-      <c r="AH4" s="37" t="s">
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="41"/>
+      <c r="AH4" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="AI4" s="37"/>
-      <c r="AJ4" s="37"/>
-      <c r="AK4" s="37"/>
-      <c r="AL4" s="37"/>
-      <c r="AM4" s="37"/>
-      <c r="AN4" s="37" t="s">
+      <c r="AI4" s="41"/>
+      <c r="AJ4" s="41"/>
+      <c r="AK4" s="41"/>
+      <c r="AL4" s="41"/>
+      <c r="AM4" s="41"/>
+      <c r="AN4" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="AO4" s="37"/>
-      <c r="AP4" s="37"/>
-      <c r="AQ4" s="37"/>
-      <c r="AR4" s="37"/>
-      <c r="AS4" s="37"/>
-      <c r="AT4" s="38"/>
+      <c r="AO4" s="41"/>
+      <c r="AP4" s="41"/>
+      <c r="AQ4" s="41"/>
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="48"/>
       <c r="AU4" s="21"/>
-      <c r="AV4" s="37" t="s">
+      <c r="AV4" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="AW4" s="37"/>
-      <c r="AX4" s="37"/>
-      <c r="AY4" s="37"/>
-      <c r="AZ4" s="37"/>
-      <c r="BA4" s="37"/>
-      <c r="BB4" s="37" t="s">
+      <c r="AW4" s="41"/>
+      <c r="AX4" s="41"/>
+      <c r="AY4" s="41"/>
+      <c r="AZ4" s="41"/>
+      <c r="BA4" s="41"/>
+      <c r="BB4" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="BC4" s="37"/>
-      <c r="BD4" s="37"/>
-      <c r="BE4" s="37"/>
-      <c r="BF4" s="37"/>
-      <c r="BG4" s="37"/>
-      <c r="BH4" s="37"/>
+      <c r="BC4" s="41"/>
+      <c r="BD4" s="41"/>
+      <c r="BE4" s="41"/>
+      <c r="BF4" s="41"/>
+      <c r="BG4" s="41"/>
+      <c r="BH4" s="41"/>
       <c r="BI4" s="22"/>
-      <c r="BJ4" s="39" t="s">
+      <c r="BJ4" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="BK4" s="37"/>
-      <c r="BL4" s="37"/>
-      <c r="BM4" s="37"/>
-      <c r="BN4" s="37"/>
-      <c r="BO4" s="37"/>
-      <c r="BP4" s="37" t="s">
+      <c r="BK4" s="41"/>
+      <c r="BL4" s="41"/>
+      <c r="BM4" s="41"/>
+      <c r="BN4" s="41"/>
+      <c r="BO4" s="41"/>
+      <c r="BP4" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="BQ4" s="37"/>
-      <c r="BR4" s="37"/>
-      <c r="BS4" s="37"/>
-      <c r="BT4" s="37"/>
-      <c r="BU4" s="37"/>
-      <c r="BV4" s="37"/>
-      <c r="BW4" s="37"/>
-      <c r="BY4" s="37" t="s">
+      <c r="BQ4" s="41"/>
+      <c r="BR4" s="41"/>
+      <c r="BS4" s="41"/>
+      <c r="BT4" s="41"/>
+      <c r="BU4" s="41"/>
+      <c r="BV4" s="41"/>
+      <c r="BW4" s="41"/>
+      <c r="BY4" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="BZ4" s="37"/>
-      <c r="CA4" s="37"/>
-      <c r="CB4" s="37"/>
-      <c r="CC4" s="37"/>
-      <c r="CD4" s="37"/>
-      <c r="CE4" s="37" t="s">
+      <c r="BZ4" s="41"/>
+      <c r="CA4" s="41"/>
+      <c r="CB4" s="41"/>
+      <c r="CC4" s="41"/>
+      <c r="CD4" s="41"/>
+      <c r="CE4" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="CF4" s="37"/>
-      <c r="CG4" s="37"/>
-      <c r="CH4" s="37"/>
-      <c r="CI4" s="37"/>
-      <c r="CJ4" s="37"/>
-      <c r="CK4" s="38"/>
+      <c r="CF4" s="41"/>
+      <c r="CG4" s="41"/>
+      <c r="CH4" s="41"/>
+      <c r="CI4" s="41"/>
+      <c r="CJ4" s="41"/>
+      <c r="CK4" s="48"/>
       <c r="CL4" s="23"/>
-      <c r="CM4" s="39" t="s">
+      <c r="CM4" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="CN4" s="37"/>
-      <c r="CO4" s="37"/>
-      <c r="CP4" s="37"/>
-      <c r="CQ4" s="37"/>
-      <c r="CR4" s="37"/>
-      <c r="CS4" s="37" t="s">
+      <c r="CN4" s="41"/>
+      <c r="CO4" s="41"/>
+      <c r="CP4" s="41"/>
+      <c r="CQ4" s="41"/>
+      <c r="CR4" s="41"/>
+      <c r="CS4" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="CT4" s="37"/>
-      <c r="CU4" s="37"/>
-      <c r="CV4" s="37"/>
-      <c r="CW4" s="37"/>
-      <c r="CX4" s="37"/>
-      <c r="CY4" s="37"/>
-      <c r="CZ4" s="37"/>
+      <c r="CT4" s="41"/>
+      <c r="CU4" s="41"/>
+      <c r="CV4" s="41"/>
+      <c r="CW4" s="41"/>
+      <c r="CX4" s="41"/>
+      <c r="CY4" s="41"/>
+      <c r="CZ4" s="41"/>
     </row>
-    <row r="5" spans="2:104" ht="21.65" customHeight="1">
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="37" t="s">
+    <row r="5" spans="2:104" ht="21.6" customHeight="1">
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40" t="s">
+      <c r="H5" s="50"/>
+      <c r="I5" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="42" t="s">
+      <c r="J5" s="50"/>
+      <c r="K5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="40" t="s">
+      <c r="M5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40" t="s">
+      <c r="N5" s="50"/>
+      <c r="O5" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="42" t="s">
+      <c r="P5" s="50"/>
+      <c r="Q5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="42" t="s">
+      <c r="R5" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="37" t="s">
+      <c r="T5" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="40" t="s">
+      <c r="U5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40" t="s">
+      <c r="V5" s="50"/>
+      <c r="W5" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="42" t="s">
+      <c r="X5" s="50"/>
+      <c r="Y5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="37" t="s">
+      <c r="Z5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AA5" s="40" t="s">
+      <c r="AA5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="40" t="s">
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="42" t="s">
+      <c r="AD5" s="50"/>
+      <c r="AE5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="AF5" s="42" t="s">
+      <c r="AF5" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="AH5" s="37" t="s">
+      <c r="AH5" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="AI5" s="40" t="s">
+      <c r="AI5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AJ5" s="40"/>
-      <c r="AK5" s="40" t="s">
+      <c r="AJ5" s="50"/>
+      <c r="AK5" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AL5" s="40"/>
-      <c r="AM5" s="42" t="s">
+      <c r="AL5" s="50"/>
+      <c r="AM5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="AN5" s="37" t="s">
+      <c r="AN5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AO5" s="40" t="s">
+      <c r="AO5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AP5" s="40"/>
-      <c r="AQ5" s="40" t="s">
+      <c r="AP5" s="50"/>
+      <c r="AQ5" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AR5" s="40"/>
-      <c r="AS5" s="42" t="s">
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="AT5" s="43" t="s">
+      <c r="AT5" s="47" t="s">
         <v>23</v>
       </c>
       <c r="AU5" s="13"/>
-      <c r="AV5" s="37" t="s">
+      <c r="AV5" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="AW5" s="40" t="s">
+      <c r="AW5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AX5" s="40"/>
-      <c r="AY5" s="40" t="s">
+      <c r="AX5" s="50"/>
+      <c r="AY5" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AZ5" s="40"/>
-      <c r="BA5" s="42" t="s">
+      <c r="AZ5" s="50"/>
+      <c r="BA5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="BB5" s="37" t="s">
+      <c r="BB5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="BC5" s="40" t="s">
+      <c r="BC5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="BD5" s="40"/>
-      <c r="BE5" s="40" t="s">
+      <c r="BD5" s="50"/>
+      <c r="BE5" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="BF5" s="40"/>
-      <c r="BG5" s="42" t="s">
+      <c r="BF5" s="50"/>
+      <c r="BG5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="BH5" s="42" t="s">
+      <c r="BH5" s="40" t="s">
         <v>23</v>
       </c>
       <c r="BI5" s="14"/>
-      <c r="BJ5" s="39" t="s">
+      <c r="BJ5" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="BK5" s="40" t="s">
+      <c r="BK5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="BL5" s="40"/>
-      <c r="BM5" s="40" t="s">
+      <c r="BL5" s="50"/>
+      <c r="BM5" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="BN5" s="40"/>
-      <c r="BO5" s="42" t="s">
+      <c r="BN5" s="50"/>
+      <c r="BO5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="BP5" s="37" t="s">
+      <c r="BP5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="BQ5" s="40" t="s">
+      <c r="BQ5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="BR5" s="40"/>
-      <c r="BS5" s="40" t="s">
+      <c r="BR5" s="50"/>
+      <c r="BS5" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="BT5" s="40"/>
-      <c r="BU5" s="42" t="s">
+      <c r="BT5" s="50"/>
+      <c r="BU5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="BV5" s="42" t="s">
+      <c r="BV5" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="BW5" s="42" t="s">
+      <c r="BW5" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="BY5" s="37" t="s">
+      <c r="BY5" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="BZ5" s="45" t="s">
+      <c r="BZ5" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="CA5" s="45"/>
-      <c r="CB5" s="45" t="s">
+      <c r="CA5" s="46"/>
+      <c r="CB5" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="CC5" s="45"/>
-      <c r="CD5" s="42" t="s">
+      <c r="CC5" s="46"/>
+      <c r="CD5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="CE5" s="37" t="s">
+      <c r="CE5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="CF5" s="44" t="s">
+      <c r="CF5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="CG5" s="44"/>
-      <c r="CH5" s="45" t="s">
+      <c r="CG5" s="45"/>
+      <c r="CH5" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="CI5" s="45"/>
-      <c r="CJ5" s="42" t="s">
+      <c r="CI5" s="46"/>
+      <c r="CJ5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="CK5" s="43" t="s">
+      <c r="CK5" s="47" t="s">
         <v>23</v>
       </c>
       <c r="CL5" s="11"/>
-      <c r="CM5" s="39" t="s">
+      <c r="CM5" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="CN5" s="44" t="s">
+      <c r="CN5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="CO5" s="44"/>
-      <c r="CP5" s="45" t="s">
+      <c r="CO5" s="45"/>
+      <c r="CP5" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="CQ5" s="45"/>
-      <c r="CR5" s="42" t="s">
+      <c r="CQ5" s="46"/>
+      <c r="CR5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="CS5" s="37" t="s">
+      <c r="CS5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="CT5" s="44" t="s">
+      <c r="CT5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="CU5" s="44"/>
-      <c r="CV5" s="45" t="s">
+      <c r="CU5" s="45"/>
+      <c r="CV5" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="CW5" s="45"/>
-      <c r="CX5" s="42" t="s">
+      <c r="CW5" s="46"/>
+      <c r="CX5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="CY5" s="42" t="s">
+      <c r="CY5" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="CZ5" s="42" t="s">
+      <c r="CZ5" s="40" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:104" ht="14.15">
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="37"/>
+    <row r="6" spans="2:104" ht="14.4">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="41"/>
       <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3136,8 +3127,8 @@
       <c r="J6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
       <c r="M6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3150,9 +3141,9 @@
       <c r="P6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="T6" s="37"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="T6" s="41"/>
       <c r="U6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3165,8 +3156,8 @@
       <c r="X6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="37"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
       <c r="AA6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3179,9 +3170,9 @@
       <c r="AD6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AE6" s="37"/>
-      <c r="AF6" s="37"/>
-      <c r="AH6" s="37"/>
+      <c r="AE6" s="41"/>
+      <c r="AF6" s="41"/>
+      <c r="AH6" s="41"/>
       <c r="AI6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3194,8 +3185,8 @@
       <c r="AL6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AM6" s="37"/>
-      <c r="AN6" s="37"/>
+      <c r="AM6" s="41"/>
+      <c r="AN6" s="41"/>
       <c r="AO6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3208,10 +3199,10 @@
       <c r="AR6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AS6" s="37"/>
-      <c r="AT6" s="38"/>
+      <c r="AS6" s="41"/>
+      <c r="AT6" s="48"/>
       <c r="AU6" s="13"/>
-      <c r="AV6" s="37"/>
+      <c r="AV6" s="41"/>
       <c r="AW6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3224,8 +3215,8 @@
       <c r="AZ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BA6" s="37"/>
-      <c r="BB6" s="37"/>
+      <c r="BA6" s="41"/>
+      <c r="BB6" s="41"/>
       <c r="BC6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3238,10 +3229,10 @@
       <c r="BF6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BG6" s="37"/>
-      <c r="BH6" s="37"/>
+      <c r="BG6" s="41"/>
+      <c r="BH6" s="41"/>
       <c r="BI6" s="14"/>
-      <c r="BJ6" s="39"/>
+      <c r="BJ6" s="49"/>
       <c r="BK6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3254,8 +3245,8 @@
       <c r="BN6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BO6" s="37"/>
-      <c r="BP6" s="37"/>
+      <c r="BO6" s="41"/>
+      <c r="BP6" s="41"/>
       <c r="BQ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3268,10 +3259,10 @@
       <c r="BT6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BU6" s="37"/>
-      <c r="BV6" s="37"/>
-      <c r="BW6" s="37"/>
-      <c r="BY6" s="37"/>
+      <c r="BU6" s="41"/>
+      <c r="BV6" s="41"/>
+      <c r="BW6" s="41"/>
+      <c r="BY6" s="41"/>
       <c r="BZ6" s="31" t="s">
         <v>25</v>
       </c>
@@ -3284,8 +3275,8 @@
       <c r="CC6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CD6" s="37"/>
-      <c r="CE6" s="37"/>
+      <c r="CD6" s="41"/>
+      <c r="CE6" s="41"/>
       <c r="CF6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3298,10 +3289,10 @@
       <c r="CI6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CJ6" s="37"/>
-      <c r="CK6" s="38"/>
+      <c r="CJ6" s="41"/>
+      <c r="CK6" s="48"/>
       <c r="CL6" s="11"/>
-      <c r="CM6" s="39"/>
+      <c r="CM6" s="49"/>
       <c r="CN6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3314,8 +3305,8 @@
       <c r="CQ6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CR6" s="37"/>
-      <c r="CS6" s="37"/>
+      <c r="CR6" s="41"/>
+      <c r="CS6" s="41"/>
       <c r="CT6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3328,9 +3319,9 @@
       <c r="CW6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CX6" s="37"/>
-      <c r="CY6" s="37"/>
-      <c r="CZ6" s="37"/>
+      <c r="CX6" s="41"/>
+      <c r="CY6" s="41"/>
+      <c r="CZ6" s="41"/>
     </row>
     <row r="7" spans="2:104" ht="20.25" customHeight="1">
       <c r="B7" s="5">
@@ -3474,50 +3465,50 @@
       <c r="BU7" s="7"/>
       <c r="BV7" s="10"/>
       <c r="BW7" s="10"/>
-      <c r="BY7" s="46"/>
-      <c r="BZ7" s="46">
+      <c r="BY7" s="37"/>
+      <c r="BZ7" s="37">
         <v>45100</v>
       </c>
-      <c r="CA7" s="46">
+      <c r="CA7" s="37">
         <v>45100</v>
       </c>
-      <c r="CB7" s="46"/>
-      <c r="CC7" s="46"/>
-      <c r="CD7" s="46"/>
-      <c r="CE7" s="46"/>
-      <c r="CF7" s="46">
+      <c r="CB7" s="37"/>
+      <c r="CC7" s="37"/>
+      <c r="CD7" s="37"/>
+      <c r="CE7" s="37"/>
+      <c r="CF7" s="37">
         <v>45103</v>
       </c>
-      <c r="CG7" s="46">
+      <c r="CG7" s="37">
         <v>45103</v>
       </c>
-      <c r="CH7" s="46"/>
-      <c r="CI7" s="46"/>
-      <c r="CJ7" s="46"/>
-      <c r="CK7" s="46"/>
+      <c r="CH7" s="37"/>
+      <c r="CI7" s="37"/>
+      <c r="CJ7" s="37"/>
+      <c r="CK7" s="37"/>
       <c r="CL7" s="14"/>
-      <c r="CM7" s="46"/>
-      <c r="CN7" s="46">
+      <c r="CM7" s="37"/>
+      <c r="CN7" s="37">
         <v>45104</v>
       </c>
-      <c r="CO7" s="46">
+      <c r="CO7" s="37">
         <v>45104</v>
       </c>
-      <c r="CP7" s="46"/>
-      <c r="CQ7" s="46"/>
-      <c r="CR7" s="46"/>
-      <c r="CS7" s="46"/>
-      <c r="CT7" s="46">
+      <c r="CP7" s="37"/>
+      <c r="CQ7" s="37"/>
+      <c r="CR7" s="37"/>
+      <c r="CS7" s="37"/>
+      <c r="CT7" s="37">
         <v>45105</v>
       </c>
-      <c r="CU7" s="46">
+      <c r="CU7" s="37">
         <v>45105</v>
       </c>
-      <c r="CV7" s="46"/>
-      <c r="CW7" s="46"/>
-      <c r="CX7" s="46"/>
-      <c r="CY7" s="46"/>
-      <c r="CZ7" s="46"/>
+      <c r="CV7" s="37"/>
+      <c r="CW7" s="37"/>
+      <c r="CX7" s="37"/>
+      <c r="CY7" s="37"/>
+      <c r="CZ7" s="37"/>
     </row>
     <row r="8" spans="2:104" ht="20.25" customHeight="1">
       <c r="B8" s="5">
@@ -3661,34 +3652,34 @@
       <c r="BU8" s="7"/>
       <c r="BV8" s="10"/>
       <c r="BW8" s="10"/>
-      <c r="BY8" s="47"/>
-      <c r="BZ8" s="47"/>
-      <c r="CA8" s="47"/>
-      <c r="CB8" s="47"/>
-      <c r="CC8" s="47"/>
-      <c r="CD8" s="47"/>
-      <c r="CE8" s="47"/>
-      <c r="CF8" s="47"/>
-      <c r="CG8" s="47"/>
-      <c r="CH8" s="47"/>
-      <c r="CI8" s="47"/>
-      <c r="CJ8" s="47"/>
-      <c r="CK8" s="47"/>
+      <c r="BY8" s="38"/>
+      <c r="BZ8" s="38"/>
+      <c r="CA8" s="38"/>
+      <c r="CB8" s="38"/>
+      <c r="CC8" s="38"/>
+      <c r="CD8" s="38"/>
+      <c r="CE8" s="38"/>
+      <c r="CF8" s="38"/>
+      <c r="CG8" s="38"/>
+      <c r="CH8" s="38"/>
+      <c r="CI8" s="38"/>
+      <c r="CJ8" s="38"/>
+      <c r="CK8" s="38"/>
       <c r="CL8" s="14"/>
-      <c r="CM8" s="47"/>
-      <c r="CN8" s="47"/>
-      <c r="CO8" s="47"/>
-      <c r="CP8" s="47"/>
-      <c r="CQ8" s="47"/>
-      <c r="CR8" s="47"/>
-      <c r="CS8" s="47"/>
-      <c r="CT8" s="47"/>
-      <c r="CU8" s="47"/>
-      <c r="CV8" s="47"/>
-      <c r="CW8" s="47"/>
-      <c r="CX8" s="47"/>
-      <c r="CY8" s="47"/>
-      <c r="CZ8" s="47"/>
+      <c r="CM8" s="38"/>
+      <c r="CN8" s="38"/>
+      <c r="CO8" s="38"/>
+      <c r="CP8" s="38"/>
+      <c r="CQ8" s="38"/>
+      <c r="CR8" s="38"/>
+      <c r="CS8" s="38"/>
+      <c r="CT8" s="38"/>
+      <c r="CU8" s="38"/>
+      <c r="CV8" s="38"/>
+      <c r="CW8" s="38"/>
+      <c r="CX8" s="38"/>
+      <c r="CY8" s="38"/>
+      <c r="CZ8" s="38"/>
     </row>
     <row r="9" spans="2:104" ht="20.25" customHeight="1">
       <c r="B9" s="5">
@@ -3833,34 +3824,34 @@
       <c r="BV9" s="10"/>
       <c r="BW9" s="10"/>
       <c r="BX9" s="13"/>
-      <c r="BY9" s="47"/>
-      <c r="BZ9" s="47"/>
-      <c r="CA9" s="47"/>
-      <c r="CB9" s="47"/>
-      <c r="CC9" s="47"/>
-      <c r="CD9" s="47"/>
-      <c r="CE9" s="47"/>
-      <c r="CF9" s="47"/>
-      <c r="CG9" s="47"/>
-      <c r="CH9" s="47"/>
-      <c r="CI9" s="47"/>
-      <c r="CJ9" s="47"/>
-      <c r="CK9" s="47"/>
+      <c r="BY9" s="38"/>
+      <c r="BZ9" s="38"/>
+      <c r="CA9" s="38"/>
+      <c r="CB9" s="38"/>
+      <c r="CC9" s="38"/>
+      <c r="CD9" s="38"/>
+      <c r="CE9" s="38"/>
+      <c r="CF9" s="38"/>
+      <c r="CG9" s="38"/>
+      <c r="CH9" s="38"/>
+      <c r="CI9" s="38"/>
+      <c r="CJ9" s="38"/>
+      <c r="CK9" s="38"/>
       <c r="CL9" s="14"/>
-      <c r="CM9" s="47"/>
-      <c r="CN9" s="47"/>
-      <c r="CO9" s="47"/>
-      <c r="CP9" s="47"/>
-      <c r="CQ9" s="47"/>
-      <c r="CR9" s="47"/>
-      <c r="CS9" s="47"/>
-      <c r="CT9" s="47"/>
-      <c r="CU9" s="47"/>
-      <c r="CV9" s="47"/>
-      <c r="CW9" s="47"/>
-      <c r="CX9" s="47"/>
-      <c r="CY9" s="47"/>
-      <c r="CZ9" s="47"/>
+      <c r="CM9" s="38"/>
+      <c r="CN9" s="38"/>
+      <c r="CO9" s="38"/>
+      <c r="CP9" s="38"/>
+      <c r="CQ9" s="38"/>
+      <c r="CR9" s="38"/>
+      <c r="CS9" s="38"/>
+      <c r="CT9" s="38"/>
+      <c r="CU9" s="38"/>
+      <c r="CV9" s="38"/>
+      <c r="CW9" s="38"/>
+      <c r="CX9" s="38"/>
+      <c r="CY9" s="38"/>
+      <c r="CZ9" s="38"/>
     </row>
     <row r="10" spans="2:104" ht="20.25" customHeight="1">
       <c r="B10" s="5">
@@ -4005,34 +3996,34 @@
       <c r="BV10" s="10"/>
       <c r="BW10" s="10"/>
       <c r="BX10" s="13"/>
-      <c r="BY10" s="47"/>
-      <c r="BZ10" s="47"/>
-      <c r="CA10" s="47"/>
-      <c r="CB10" s="47"/>
-      <c r="CC10" s="47"/>
-      <c r="CD10" s="47"/>
-      <c r="CE10" s="47"/>
-      <c r="CF10" s="47"/>
-      <c r="CG10" s="47"/>
-      <c r="CH10" s="47"/>
-      <c r="CI10" s="47"/>
-      <c r="CJ10" s="47"/>
-      <c r="CK10" s="47"/>
+      <c r="BY10" s="38"/>
+      <c r="BZ10" s="38"/>
+      <c r="CA10" s="38"/>
+      <c r="CB10" s="38"/>
+      <c r="CC10" s="38"/>
+      <c r="CD10" s="38"/>
+      <c r="CE10" s="38"/>
+      <c r="CF10" s="38"/>
+      <c r="CG10" s="38"/>
+      <c r="CH10" s="38"/>
+      <c r="CI10" s="38"/>
+      <c r="CJ10" s="38"/>
+      <c r="CK10" s="38"/>
       <c r="CL10" s="14"/>
-      <c r="CM10" s="47"/>
-      <c r="CN10" s="47"/>
-      <c r="CO10" s="47"/>
-      <c r="CP10" s="47"/>
-      <c r="CQ10" s="47"/>
-      <c r="CR10" s="47"/>
-      <c r="CS10" s="47"/>
-      <c r="CT10" s="47"/>
-      <c r="CU10" s="47"/>
-      <c r="CV10" s="47"/>
-      <c r="CW10" s="47"/>
-      <c r="CX10" s="47"/>
-      <c r="CY10" s="47"/>
-      <c r="CZ10" s="47"/>
+      <c r="CM10" s="38"/>
+      <c r="CN10" s="38"/>
+      <c r="CO10" s="38"/>
+      <c r="CP10" s="38"/>
+      <c r="CQ10" s="38"/>
+      <c r="CR10" s="38"/>
+      <c r="CS10" s="38"/>
+      <c r="CT10" s="38"/>
+      <c r="CU10" s="38"/>
+      <c r="CV10" s="38"/>
+      <c r="CW10" s="38"/>
+      <c r="CX10" s="38"/>
+      <c r="CY10" s="38"/>
+      <c r="CZ10" s="38"/>
     </row>
     <row r="11" spans="2:104" ht="20.25" customHeight="1">
       <c r="B11" s="5">
@@ -4177,34 +4168,34 @@
       <c r="BV11" s="10"/>
       <c r="BW11" s="10"/>
       <c r="BX11" s="13"/>
-      <c r="BY11" s="47"/>
-      <c r="BZ11" s="47"/>
-      <c r="CA11" s="47"/>
-      <c r="CB11" s="47"/>
-      <c r="CC11" s="47"/>
-      <c r="CD11" s="47"/>
-      <c r="CE11" s="47"/>
-      <c r="CF11" s="47"/>
-      <c r="CG11" s="47"/>
-      <c r="CH11" s="47"/>
-      <c r="CI11" s="47"/>
-      <c r="CJ11" s="47"/>
-      <c r="CK11" s="47"/>
+      <c r="BY11" s="38"/>
+      <c r="BZ11" s="38"/>
+      <c r="CA11" s="38"/>
+      <c r="CB11" s="38"/>
+      <c r="CC11" s="38"/>
+      <c r="CD11" s="38"/>
+      <c r="CE11" s="38"/>
+      <c r="CF11" s="38"/>
+      <c r="CG11" s="38"/>
+      <c r="CH11" s="38"/>
+      <c r="CI11" s="38"/>
+      <c r="CJ11" s="38"/>
+      <c r="CK11" s="38"/>
       <c r="CL11" s="14"/>
-      <c r="CM11" s="47"/>
-      <c r="CN11" s="47"/>
-      <c r="CO11" s="47"/>
-      <c r="CP11" s="47"/>
-      <c r="CQ11" s="47"/>
-      <c r="CR11" s="47"/>
-      <c r="CS11" s="47"/>
-      <c r="CT11" s="47"/>
-      <c r="CU11" s="47"/>
-      <c r="CV11" s="47"/>
-      <c r="CW11" s="47"/>
-      <c r="CX11" s="47"/>
-      <c r="CY11" s="47"/>
-      <c r="CZ11" s="47"/>
+      <c r="CM11" s="38"/>
+      <c r="CN11" s="38"/>
+      <c r="CO11" s="38"/>
+      <c r="CP11" s="38"/>
+      <c r="CQ11" s="38"/>
+      <c r="CR11" s="38"/>
+      <c r="CS11" s="38"/>
+      <c r="CT11" s="38"/>
+      <c r="CU11" s="38"/>
+      <c r="CV11" s="38"/>
+      <c r="CW11" s="38"/>
+      <c r="CX11" s="38"/>
+      <c r="CY11" s="38"/>
+      <c r="CZ11" s="38"/>
     </row>
     <row r="12" spans="2:104" ht="20.25" customHeight="1">
       <c r="B12" s="5">
@@ -4349,34 +4340,34 @@
       <c r="BV12" s="10"/>
       <c r="BW12" s="10"/>
       <c r="BX12" s="13"/>
-      <c r="BY12" s="47"/>
-      <c r="BZ12" s="47"/>
-      <c r="CA12" s="47"/>
-      <c r="CB12" s="47"/>
-      <c r="CC12" s="47"/>
-      <c r="CD12" s="47"/>
-      <c r="CE12" s="47"/>
-      <c r="CF12" s="47"/>
-      <c r="CG12" s="47"/>
-      <c r="CH12" s="47"/>
-      <c r="CI12" s="47"/>
-      <c r="CJ12" s="47"/>
-      <c r="CK12" s="47"/>
+      <c r="BY12" s="38"/>
+      <c r="BZ12" s="38"/>
+      <c r="CA12" s="38"/>
+      <c r="CB12" s="38"/>
+      <c r="CC12" s="38"/>
+      <c r="CD12" s="38"/>
+      <c r="CE12" s="38"/>
+      <c r="CF12" s="38"/>
+      <c r="CG12" s="38"/>
+      <c r="CH12" s="38"/>
+      <c r="CI12" s="38"/>
+      <c r="CJ12" s="38"/>
+      <c r="CK12" s="38"/>
       <c r="CL12" s="14"/>
-      <c r="CM12" s="47"/>
-      <c r="CN12" s="47"/>
-      <c r="CO12" s="47"/>
-      <c r="CP12" s="47"/>
-      <c r="CQ12" s="47"/>
-      <c r="CR12" s="47"/>
-      <c r="CS12" s="47"/>
-      <c r="CT12" s="47"/>
-      <c r="CU12" s="47"/>
-      <c r="CV12" s="47"/>
-      <c r="CW12" s="47"/>
-      <c r="CX12" s="47"/>
-      <c r="CY12" s="47"/>
-      <c r="CZ12" s="47"/>
+      <c r="CM12" s="38"/>
+      <c r="CN12" s="38"/>
+      <c r="CO12" s="38"/>
+      <c r="CP12" s="38"/>
+      <c r="CQ12" s="38"/>
+      <c r="CR12" s="38"/>
+      <c r="CS12" s="38"/>
+      <c r="CT12" s="38"/>
+      <c r="CU12" s="38"/>
+      <c r="CV12" s="38"/>
+      <c r="CW12" s="38"/>
+      <c r="CX12" s="38"/>
+      <c r="CY12" s="38"/>
+      <c r="CZ12" s="38"/>
     </row>
     <row r="13" spans="2:104" ht="20.25" customHeight="1">
       <c r="B13" s="5">
@@ -4521,34 +4512,34 @@
       <c r="BV13" s="10"/>
       <c r="BW13" s="10"/>
       <c r="BX13" s="13"/>
-      <c r="BY13" s="47"/>
-      <c r="BZ13" s="47"/>
-      <c r="CA13" s="47"/>
-      <c r="CB13" s="47"/>
-      <c r="CC13" s="47"/>
-      <c r="CD13" s="47"/>
-      <c r="CE13" s="47"/>
-      <c r="CF13" s="47"/>
-      <c r="CG13" s="47"/>
-      <c r="CH13" s="47"/>
-      <c r="CI13" s="47"/>
-      <c r="CJ13" s="47"/>
-      <c r="CK13" s="47"/>
+      <c r="BY13" s="38"/>
+      <c r="BZ13" s="38"/>
+      <c r="CA13" s="38"/>
+      <c r="CB13" s="38"/>
+      <c r="CC13" s="38"/>
+      <c r="CD13" s="38"/>
+      <c r="CE13" s="38"/>
+      <c r="CF13" s="38"/>
+      <c r="CG13" s="38"/>
+      <c r="CH13" s="38"/>
+      <c r="CI13" s="38"/>
+      <c r="CJ13" s="38"/>
+      <c r="CK13" s="38"/>
       <c r="CL13" s="14"/>
-      <c r="CM13" s="47"/>
-      <c r="CN13" s="47"/>
-      <c r="CO13" s="47"/>
-      <c r="CP13" s="47"/>
-      <c r="CQ13" s="47"/>
-      <c r="CR13" s="47"/>
-      <c r="CS13" s="47"/>
-      <c r="CT13" s="47"/>
-      <c r="CU13" s="47"/>
-      <c r="CV13" s="47"/>
-      <c r="CW13" s="47"/>
-      <c r="CX13" s="47"/>
-      <c r="CY13" s="47"/>
-      <c r="CZ13" s="47"/>
+      <c r="CM13" s="38"/>
+      <c r="CN13" s="38"/>
+      <c r="CO13" s="38"/>
+      <c r="CP13" s="38"/>
+      <c r="CQ13" s="38"/>
+      <c r="CR13" s="38"/>
+      <c r="CS13" s="38"/>
+      <c r="CT13" s="38"/>
+      <c r="CU13" s="38"/>
+      <c r="CV13" s="38"/>
+      <c r="CW13" s="38"/>
+      <c r="CX13" s="38"/>
+      <c r="CY13" s="38"/>
+      <c r="CZ13" s="38"/>
     </row>
     <row r="14" spans="2:104" ht="20.25" customHeight="1">
       <c r="B14" s="5">
@@ -4733,9 +4724,15 @@
       <c r="N15" s="6">
         <v>45082</v>
       </c>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="7"/>
+      <c r="O15" s="6">
+        <v>45082</v>
+      </c>
+      <c r="P15" s="6">
+        <v>45083</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>1</v>
+      </c>
       <c r="R15" s="9"/>
       <c r="T15" s="35" t="s">
         <v>58</v>
@@ -4751,7 +4748,7 @@
       </c>
       <c r="X15" s="6"/>
       <c r="Y15" s="7">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="Z15" s="17"/>
       <c r="AA15" s="6">
@@ -4831,50 +4828,50 @@
       <c r="BV15" s="10"/>
       <c r="BW15" s="10"/>
       <c r="BX15" s="13"/>
-      <c r="BY15" s="46"/>
-      <c r="BZ15" s="49">
+      <c r="BY15" s="37"/>
+      <c r="BZ15" s="42">
         <v>45100</v>
       </c>
-      <c r="CA15" s="49">
+      <c r="CA15" s="42">
         <v>45100</v>
       </c>
-      <c r="CB15" s="46"/>
-      <c r="CC15" s="46"/>
-      <c r="CD15" s="46"/>
-      <c r="CE15" s="46"/>
-      <c r="CF15" s="46">
+      <c r="CB15" s="37"/>
+      <c r="CC15" s="37"/>
+      <c r="CD15" s="37"/>
+      <c r="CE15" s="37"/>
+      <c r="CF15" s="37">
         <v>45103</v>
       </c>
-      <c r="CG15" s="46">
+      <c r="CG15" s="37">
         <v>45103</v>
       </c>
-      <c r="CH15" s="46"/>
-      <c r="CI15" s="46"/>
-      <c r="CJ15" s="46"/>
-      <c r="CK15" s="46"/>
+      <c r="CH15" s="37"/>
+      <c r="CI15" s="37"/>
+      <c r="CJ15" s="37"/>
+      <c r="CK15" s="37"/>
       <c r="CL15" s="14"/>
-      <c r="CM15" s="46"/>
-      <c r="CN15" s="46">
+      <c r="CM15" s="37"/>
+      <c r="CN15" s="37">
         <v>45104</v>
       </c>
-      <c r="CO15" s="46">
+      <c r="CO15" s="37">
         <v>45104</v>
       </c>
-      <c r="CP15" s="46"/>
-      <c r="CQ15" s="46"/>
-      <c r="CR15" s="46"/>
-      <c r="CS15" s="46"/>
-      <c r="CT15" s="46">
+      <c r="CP15" s="37"/>
+      <c r="CQ15" s="37"/>
+      <c r="CR15" s="37"/>
+      <c r="CS15" s="37"/>
+      <c r="CT15" s="37">
         <v>45105</v>
       </c>
-      <c r="CU15" s="46">
+      <c r="CU15" s="37">
         <v>45105</v>
       </c>
-      <c r="CV15" s="46"/>
-      <c r="CW15" s="46"/>
-      <c r="CX15" s="46"/>
-      <c r="CY15" s="46"/>
-      <c r="CZ15" s="46"/>
+      <c r="CV15" s="37"/>
+      <c r="CW15" s="37"/>
+      <c r="CX15" s="37"/>
+      <c r="CY15" s="37"/>
+      <c r="CZ15" s="37"/>
     </row>
     <row r="16" spans="2:104" ht="20.25" customHeight="1">
       <c r="B16" s="5">
@@ -4915,12 +4912,18 @@
       <c r="N16" s="6">
         <v>45082</v>
       </c>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="7"/>
+      <c r="O16" s="6">
+        <v>45082</v>
+      </c>
+      <c r="P16" s="6">
+        <v>45083</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>1</v>
+      </c>
       <c r="R16" s="9"/>
       <c r="T16" s="35" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="U16" s="6">
         <v>45083</v>
@@ -4933,7 +4936,7 @@
       </c>
       <c r="X16" s="6"/>
       <c r="Y16" s="7">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="Z16" s="17"/>
       <c r="AA16" s="6">
@@ -5012,34 +5015,34 @@
       <c r="BU16" s="7"/>
       <c r="BV16" s="10"/>
       <c r="BW16" s="10"/>
-      <c r="BY16" s="47"/>
-      <c r="BZ16" s="50"/>
-      <c r="CA16" s="50"/>
-      <c r="CB16" s="47"/>
-      <c r="CC16" s="47"/>
-      <c r="CD16" s="47"/>
-      <c r="CE16" s="47"/>
-      <c r="CF16" s="47"/>
-      <c r="CG16" s="47"/>
-      <c r="CH16" s="47"/>
-      <c r="CI16" s="47"/>
-      <c r="CJ16" s="47"/>
-      <c r="CK16" s="47"/>
+      <c r="BY16" s="38"/>
+      <c r="BZ16" s="43"/>
+      <c r="CA16" s="43"/>
+      <c r="CB16" s="38"/>
+      <c r="CC16" s="38"/>
+      <c r="CD16" s="38"/>
+      <c r="CE16" s="38"/>
+      <c r="CF16" s="38"/>
+      <c r="CG16" s="38"/>
+      <c r="CH16" s="38"/>
+      <c r="CI16" s="38"/>
+      <c r="CJ16" s="38"/>
+      <c r="CK16" s="38"/>
       <c r="CL16" s="29"/>
-      <c r="CM16" s="47"/>
-      <c r="CN16" s="47"/>
-      <c r="CO16" s="47"/>
-      <c r="CP16" s="47"/>
-      <c r="CQ16" s="47"/>
-      <c r="CR16" s="47"/>
-      <c r="CS16" s="47"/>
-      <c r="CT16" s="47"/>
-      <c r="CU16" s="47"/>
-      <c r="CV16" s="47"/>
-      <c r="CW16" s="47"/>
-      <c r="CX16" s="47"/>
-      <c r="CY16" s="47"/>
-      <c r="CZ16" s="47"/>
+      <c r="CM16" s="38"/>
+      <c r="CN16" s="38"/>
+      <c r="CO16" s="38"/>
+      <c r="CP16" s="38"/>
+      <c r="CQ16" s="38"/>
+      <c r="CR16" s="38"/>
+      <c r="CS16" s="38"/>
+      <c r="CT16" s="38"/>
+      <c r="CU16" s="38"/>
+      <c r="CV16" s="38"/>
+      <c r="CW16" s="38"/>
+      <c r="CX16" s="38"/>
+      <c r="CY16" s="38"/>
+      <c r="CZ16" s="38"/>
     </row>
     <row r="17" spans="2:104" ht="20.25" customHeight="1">
       <c r="B17" s="5">
@@ -5080,9 +5083,15 @@
       <c r="N17" s="6">
         <v>45082</v>
       </c>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="7"/>
+      <c r="O17" s="6">
+        <v>45082</v>
+      </c>
+      <c r="P17" s="6">
+        <v>45083</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>1</v>
+      </c>
       <c r="R17" s="9"/>
       <c r="T17" s="27" t="s">
         <v>52</v>
@@ -5098,7 +5107,7 @@
       </c>
       <c r="X17" s="6"/>
       <c r="Y17" s="7">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="Z17" s="17"/>
       <c r="AA17" s="6">
@@ -5177,34 +5186,34 @@
       <c r="BU17" s="7"/>
       <c r="BV17" s="10"/>
       <c r="BW17" s="10"/>
-      <c r="BY17" s="47"/>
-      <c r="BZ17" s="50"/>
-      <c r="CA17" s="50"/>
-      <c r="CB17" s="47"/>
-      <c r="CC17" s="47"/>
-      <c r="CD17" s="47"/>
-      <c r="CE17" s="47"/>
-      <c r="CF17" s="47"/>
-      <c r="CG17" s="47"/>
-      <c r="CH17" s="47"/>
-      <c r="CI17" s="47"/>
-      <c r="CJ17" s="47"/>
-      <c r="CK17" s="47"/>
+      <c r="BY17" s="38"/>
+      <c r="BZ17" s="43"/>
+      <c r="CA17" s="43"/>
+      <c r="CB17" s="38"/>
+      <c r="CC17" s="38"/>
+      <c r="CD17" s="38"/>
+      <c r="CE17" s="38"/>
+      <c r="CF17" s="38"/>
+      <c r="CG17" s="38"/>
+      <c r="CH17" s="38"/>
+      <c r="CI17" s="38"/>
+      <c r="CJ17" s="38"/>
+      <c r="CK17" s="38"/>
       <c r="CL17" s="29"/>
-      <c r="CM17" s="47"/>
-      <c r="CN17" s="47"/>
-      <c r="CO17" s="47"/>
-      <c r="CP17" s="47"/>
-      <c r="CQ17" s="47"/>
-      <c r="CR17" s="47"/>
-      <c r="CS17" s="47"/>
-      <c r="CT17" s="47"/>
-      <c r="CU17" s="47"/>
-      <c r="CV17" s="47"/>
-      <c r="CW17" s="47"/>
-      <c r="CX17" s="47"/>
-      <c r="CY17" s="47"/>
-      <c r="CZ17" s="47"/>
+      <c r="CM17" s="38"/>
+      <c r="CN17" s="38"/>
+      <c r="CO17" s="38"/>
+      <c r="CP17" s="38"/>
+      <c r="CQ17" s="38"/>
+      <c r="CR17" s="38"/>
+      <c r="CS17" s="38"/>
+      <c r="CT17" s="38"/>
+      <c r="CU17" s="38"/>
+      <c r="CV17" s="38"/>
+      <c r="CW17" s="38"/>
+      <c r="CX17" s="38"/>
+      <c r="CY17" s="38"/>
+      <c r="CZ17" s="38"/>
     </row>
     <row r="18" spans="2:104" ht="20.25" customHeight="1">
       <c r="B18" s="5">
@@ -5245,9 +5254,15 @@
       <c r="N18" s="6">
         <v>45082</v>
       </c>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="7"/>
+      <c r="O18" s="6">
+        <v>45082</v>
+      </c>
+      <c r="P18" s="6">
+        <v>45083</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>1</v>
+      </c>
       <c r="R18" s="9"/>
       <c r="T18" s="27" t="s">
         <v>53</v>
@@ -5263,7 +5278,7 @@
       </c>
       <c r="X18" s="6"/>
       <c r="Y18" s="7">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="Z18" s="17"/>
       <c r="AA18" s="6">
@@ -5343,34 +5358,34 @@
       <c r="BV18" s="10"/>
       <c r="BW18" s="10"/>
       <c r="BX18" s="11"/>
-      <c r="BY18" s="47"/>
-      <c r="BZ18" s="50"/>
-      <c r="CA18" s="50"/>
-      <c r="CB18" s="47"/>
-      <c r="CC18" s="47"/>
-      <c r="CD18" s="47"/>
-      <c r="CE18" s="47"/>
-      <c r="CF18" s="47"/>
-      <c r="CG18" s="47"/>
-      <c r="CH18" s="47"/>
-      <c r="CI18" s="47"/>
-      <c r="CJ18" s="47"/>
-      <c r="CK18" s="47"/>
+      <c r="BY18" s="38"/>
+      <c r="BZ18" s="43"/>
+      <c r="CA18" s="43"/>
+      <c r="CB18" s="38"/>
+      <c r="CC18" s="38"/>
+      <c r="CD18" s="38"/>
+      <c r="CE18" s="38"/>
+      <c r="CF18" s="38"/>
+      <c r="CG18" s="38"/>
+      <c r="CH18" s="38"/>
+      <c r="CI18" s="38"/>
+      <c r="CJ18" s="38"/>
+      <c r="CK18" s="38"/>
       <c r="CL18" s="29"/>
-      <c r="CM18" s="47"/>
-      <c r="CN18" s="47"/>
-      <c r="CO18" s="47"/>
-      <c r="CP18" s="47"/>
-      <c r="CQ18" s="47"/>
-      <c r="CR18" s="47"/>
-      <c r="CS18" s="47"/>
-      <c r="CT18" s="47"/>
-      <c r="CU18" s="47"/>
-      <c r="CV18" s="47"/>
-      <c r="CW18" s="47"/>
-      <c r="CX18" s="47"/>
-      <c r="CY18" s="47"/>
-      <c r="CZ18" s="47"/>
+      <c r="CM18" s="38"/>
+      <c r="CN18" s="38"/>
+      <c r="CO18" s="38"/>
+      <c r="CP18" s="38"/>
+      <c r="CQ18" s="38"/>
+      <c r="CR18" s="38"/>
+      <c r="CS18" s="38"/>
+      <c r="CT18" s="38"/>
+      <c r="CU18" s="38"/>
+      <c r="CV18" s="38"/>
+      <c r="CW18" s="38"/>
+      <c r="CX18" s="38"/>
+      <c r="CY18" s="38"/>
+      <c r="CZ18" s="38"/>
     </row>
     <row r="19" spans="2:104" ht="20.25" customHeight="1">
       <c r="B19" s="5">
@@ -5411,9 +5426,15 @@
       <c r="N19" s="6">
         <v>45082</v>
       </c>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="7"/>
+      <c r="O19" s="6">
+        <v>45082</v>
+      </c>
+      <c r="P19" s="6">
+        <v>45083</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>1</v>
+      </c>
       <c r="R19" s="9"/>
       <c r="T19" s="27" t="s">
         <v>54</v>
@@ -5509,34 +5530,34 @@
       <c r="BV19" s="10"/>
       <c r="BW19" s="10"/>
       <c r="BX19" s="11"/>
-      <c r="BY19" s="47"/>
-      <c r="BZ19" s="50"/>
-      <c r="CA19" s="50"/>
-      <c r="CB19" s="47"/>
-      <c r="CC19" s="47"/>
-      <c r="CD19" s="47"/>
-      <c r="CE19" s="47"/>
-      <c r="CF19" s="47"/>
-      <c r="CG19" s="47"/>
-      <c r="CH19" s="47"/>
-      <c r="CI19" s="47"/>
-      <c r="CJ19" s="47"/>
-      <c r="CK19" s="47"/>
+      <c r="BY19" s="38"/>
+      <c r="BZ19" s="43"/>
+      <c r="CA19" s="43"/>
+      <c r="CB19" s="38"/>
+      <c r="CC19" s="38"/>
+      <c r="CD19" s="38"/>
+      <c r="CE19" s="38"/>
+      <c r="CF19" s="38"/>
+      <c r="CG19" s="38"/>
+      <c r="CH19" s="38"/>
+      <c r="CI19" s="38"/>
+      <c r="CJ19" s="38"/>
+      <c r="CK19" s="38"/>
       <c r="CL19" s="29"/>
-      <c r="CM19" s="47"/>
-      <c r="CN19" s="47"/>
-      <c r="CO19" s="47"/>
-      <c r="CP19" s="47"/>
-      <c r="CQ19" s="47"/>
-      <c r="CR19" s="47"/>
-      <c r="CS19" s="47"/>
-      <c r="CT19" s="47"/>
-      <c r="CU19" s="47"/>
-      <c r="CV19" s="47"/>
-      <c r="CW19" s="47"/>
-      <c r="CX19" s="47"/>
-      <c r="CY19" s="47"/>
-      <c r="CZ19" s="47"/>
+      <c r="CM19" s="38"/>
+      <c r="CN19" s="38"/>
+      <c r="CO19" s="38"/>
+      <c r="CP19" s="38"/>
+      <c r="CQ19" s="38"/>
+      <c r="CR19" s="38"/>
+      <c r="CS19" s="38"/>
+      <c r="CT19" s="38"/>
+      <c r="CU19" s="38"/>
+      <c r="CV19" s="38"/>
+      <c r="CW19" s="38"/>
+      <c r="CX19" s="38"/>
+      <c r="CY19" s="38"/>
+      <c r="CZ19" s="38"/>
     </row>
     <row r="20" spans="2:104" ht="20.25" customHeight="1">
       <c r="B20" s="5">
@@ -5577,9 +5598,15 @@
       <c r="N20" s="6">
         <v>45082</v>
       </c>
-      <c r="O20" s="6"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="7"/>
+      <c r="O20" s="6">
+        <v>45082</v>
+      </c>
+      <c r="P20" s="6">
+        <v>45083</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>1</v>
+      </c>
       <c r="R20" s="9"/>
       <c r="T20" s="35" t="s">
         <v>55</v>
@@ -5595,7 +5622,7 @@
       </c>
       <c r="X20" s="6"/>
       <c r="Y20" s="7">
-        <v>0.3</v>
+        <v>0.6</v>
       </c>
       <c r="Z20" s="17"/>
       <c r="AA20" s="6">
@@ -5675,34 +5702,34 @@
       <c r="BV20" s="10"/>
       <c r="BW20" s="10"/>
       <c r="BX20" s="11"/>
-      <c r="BY20" s="47"/>
-      <c r="BZ20" s="50"/>
-      <c r="CA20" s="50"/>
-      <c r="CB20" s="47"/>
-      <c r="CC20" s="47"/>
-      <c r="CD20" s="47"/>
-      <c r="CE20" s="47"/>
-      <c r="CF20" s="47"/>
-      <c r="CG20" s="47"/>
-      <c r="CH20" s="47"/>
-      <c r="CI20" s="47"/>
-      <c r="CJ20" s="47"/>
-      <c r="CK20" s="47"/>
+      <c r="BY20" s="38"/>
+      <c r="BZ20" s="43"/>
+      <c r="CA20" s="43"/>
+      <c r="CB20" s="38"/>
+      <c r="CC20" s="38"/>
+      <c r="CD20" s="38"/>
+      <c r="CE20" s="38"/>
+      <c r="CF20" s="38"/>
+      <c r="CG20" s="38"/>
+      <c r="CH20" s="38"/>
+      <c r="CI20" s="38"/>
+      <c r="CJ20" s="38"/>
+      <c r="CK20" s="38"/>
       <c r="CL20" s="29"/>
-      <c r="CM20" s="47"/>
-      <c r="CN20" s="47"/>
-      <c r="CO20" s="47"/>
-      <c r="CP20" s="47"/>
-      <c r="CQ20" s="47"/>
-      <c r="CR20" s="47"/>
-      <c r="CS20" s="47"/>
-      <c r="CT20" s="47"/>
-      <c r="CU20" s="47"/>
-      <c r="CV20" s="47"/>
-      <c r="CW20" s="47"/>
-      <c r="CX20" s="47"/>
-      <c r="CY20" s="47"/>
-      <c r="CZ20" s="47"/>
+      <c r="CM20" s="38"/>
+      <c r="CN20" s="38"/>
+      <c r="CO20" s="38"/>
+      <c r="CP20" s="38"/>
+      <c r="CQ20" s="38"/>
+      <c r="CR20" s="38"/>
+      <c r="CS20" s="38"/>
+      <c r="CT20" s="38"/>
+      <c r="CU20" s="38"/>
+      <c r="CV20" s="38"/>
+      <c r="CW20" s="38"/>
+      <c r="CX20" s="38"/>
+      <c r="CY20" s="38"/>
+      <c r="CZ20" s="38"/>
     </row>
     <row r="21" spans="2:104" ht="20.25" customHeight="1">
       <c r="B21" s="5">
@@ -5743,9 +5770,15 @@
       <c r="N21" s="6">
         <v>45082</v>
       </c>
-      <c r="O21" s="6"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="7"/>
+      <c r="O21" s="6">
+        <v>45082</v>
+      </c>
+      <c r="P21" s="6">
+        <v>45083</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>1</v>
+      </c>
       <c r="R21" s="9"/>
       <c r="T21" s="35" t="s">
         <v>56</v>
@@ -5761,7 +5794,7 @@
       </c>
       <c r="X21" s="6"/>
       <c r="Y21" s="7">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="Z21" s="17"/>
       <c r="AA21" s="6">
@@ -5841,34 +5874,34 @@
       <c r="BV21" s="10"/>
       <c r="BW21" s="10"/>
       <c r="BX21" s="11"/>
-      <c r="BY21" s="47"/>
-      <c r="BZ21" s="50"/>
-      <c r="CA21" s="50"/>
-      <c r="CB21" s="47"/>
-      <c r="CC21" s="47"/>
-      <c r="CD21" s="47"/>
-      <c r="CE21" s="47"/>
-      <c r="CF21" s="47"/>
-      <c r="CG21" s="47"/>
-      <c r="CH21" s="47"/>
-      <c r="CI21" s="47"/>
-      <c r="CJ21" s="47"/>
-      <c r="CK21" s="47"/>
+      <c r="BY21" s="38"/>
+      <c r="BZ21" s="43"/>
+      <c r="CA21" s="43"/>
+      <c r="CB21" s="38"/>
+      <c r="CC21" s="38"/>
+      <c r="CD21" s="38"/>
+      <c r="CE21" s="38"/>
+      <c r="CF21" s="38"/>
+      <c r="CG21" s="38"/>
+      <c r="CH21" s="38"/>
+      <c r="CI21" s="38"/>
+      <c r="CJ21" s="38"/>
+      <c r="CK21" s="38"/>
       <c r="CL21" s="29"/>
-      <c r="CM21" s="47"/>
-      <c r="CN21" s="47"/>
-      <c r="CO21" s="47"/>
-      <c r="CP21" s="47"/>
-      <c r="CQ21" s="47"/>
-      <c r="CR21" s="47"/>
-      <c r="CS21" s="47"/>
-      <c r="CT21" s="47"/>
-      <c r="CU21" s="47"/>
-      <c r="CV21" s="47"/>
-      <c r="CW21" s="47"/>
-      <c r="CX21" s="47"/>
-      <c r="CY21" s="47"/>
-      <c r="CZ21" s="47"/>
+      <c r="CM21" s="38"/>
+      <c r="CN21" s="38"/>
+      <c r="CO21" s="38"/>
+      <c r="CP21" s="38"/>
+      <c r="CQ21" s="38"/>
+      <c r="CR21" s="38"/>
+      <c r="CS21" s="38"/>
+      <c r="CT21" s="38"/>
+      <c r="CU21" s="38"/>
+      <c r="CV21" s="38"/>
+      <c r="CW21" s="38"/>
+      <c r="CX21" s="38"/>
+      <c r="CY21" s="38"/>
+      <c r="CZ21" s="38"/>
     </row>
     <row r="22" spans="2:104" ht="20.25" customHeight="1">
       <c r="B22" s="5">
@@ -5909,9 +5942,15 @@
       <c r="N22" s="6">
         <v>45082</v>
       </c>
-      <c r="O22" s="6"/>
-      <c r="P22" s="6"/>
-      <c r="Q22" s="7"/>
+      <c r="O22" s="6">
+        <v>45082</v>
+      </c>
+      <c r="P22" s="6">
+        <v>45083</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>1</v>
+      </c>
       <c r="R22" s="9"/>
       <c r="T22" s="35" t="s">
         <v>57</v>
@@ -5927,7 +5966,7 @@
       </c>
       <c r="X22" s="6"/>
       <c r="Y22" s="7">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="Z22" s="17"/>
       <c r="AA22" s="6">
@@ -6007,34 +6046,34 @@
       <c r="BV22" s="10"/>
       <c r="BW22" s="10"/>
       <c r="BX22" s="13"/>
-      <c r="BY22" s="48"/>
-      <c r="BZ22" s="51"/>
-      <c r="CA22" s="51"/>
-      <c r="CB22" s="48"/>
-      <c r="CC22" s="48"/>
-      <c r="CD22" s="48"/>
-      <c r="CE22" s="48"/>
-      <c r="CF22" s="48"/>
-      <c r="CG22" s="48"/>
-      <c r="CH22" s="48"/>
-      <c r="CI22" s="48"/>
-      <c r="CJ22" s="48"/>
-      <c r="CK22" s="48"/>
+      <c r="BY22" s="39"/>
+      <c r="BZ22" s="44"/>
+      <c r="CA22" s="44"/>
+      <c r="CB22" s="39"/>
+      <c r="CC22" s="39"/>
+      <c r="CD22" s="39"/>
+      <c r="CE22" s="39"/>
+      <c r="CF22" s="39"/>
+      <c r="CG22" s="39"/>
+      <c r="CH22" s="39"/>
+      <c r="CI22" s="39"/>
+      <c r="CJ22" s="39"/>
+      <c r="CK22" s="39"/>
       <c r="CL22" s="14"/>
-      <c r="CM22" s="48"/>
-      <c r="CN22" s="48"/>
-      <c r="CO22" s="48"/>
-      <c r="CP22" s="48"/>
-      <c r="CQ22" s="48"/>
-      <c r="CR22" s="48"/>
-      <c r="CS22" s="48"/>
-      <c r="CT22" s="48"/>
-      <c r="CU22" s="48"/>
-      <c r="CV22" s="48"/>
-      <c r="CW22" s="48"/>
-      <c r="CX22" s="48"/>
-      <c r="CY22" s="48"/>
-      <c r="CZ22" s="48"/>
+      <c r="CM22" s="39"/>
+      <c r="CN22" s="39"/>
+      <c r="CO22" s="39"/>
+      <c r="CP22" s="39"/>
+      <c r="CQ22" s="39"/>
+      <c r="CR22" s="39"/>
+      <c r="CS22" s="39"/>
+      <c r="CT22" s="39"/>
+      <c r="CU22" s="39"/>
+      <c r="CV22" s="39"/>
+      <c r="CW22" s="39"/>
+      <c r="CX22" s="39"/>
+      <c r="CY22" s="39"/>
+      <c r="CZ22" s="39"/>
     </row>
     <row r="23" spans="2:104" ht="20.25" customHeight="1">
       <c r="BX23" s="11"/>
@@ -6046,19 +6085,106 @@
     </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="CM7:CM13"/>
-    <mergeCell ref="CN7:CN13"/>
-    <mergeCell ref="CO7:CO13"/>
-    <mergeCell ref="CW15:CW22"/>
-    <mergeCell ref="CX7:CX13"/>
-    <mergeCell ref="CY7:CY13"/>
-    <mergeCell ref="CZ7:CZ13"/>
-    <mergeCell ref="CQ15:CQ22"/>
-    <mergeCell ref="CR15:CR22"/>
-    <mergeCell ref="CS15:CS22"/>
-    <mergeCell ref="CU7:CU13"/>
-    <mergeCell ref="CV7:CV13"/>
-    <mergeCell ref="CW7:CW13"/>
+    <mergeCell ref="CE4:CK4"/>
+    <mergeCell ref="CM4:CR4"/>
+    <mergeCell ref="CS4:CZ4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:R4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="BM5:BN5"/>
+    <mergeCell ref="BQ5:BR5"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="BP4:BW4"/>
+    <mergeCell ref="BY4:CD4"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="Z4:AF4"/>
+    <mergeCell ref="AH4:AM4"/>
+    <mergeCell ref="AN4:AT4"/>
+    <mergeCell ref="AV4:BA4"/>
+    <mergeCell ref="BB4:BH4"/>
+    <mergeCell ref="BJ4:BO4"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CK5:CK6"/>
+    <mergeCell ref="CN5:CO5"/>
+    <mergeCell ref="CP5:CQ5"/>
+    <mergeCell ref="CM5:CM6"/>
+    <mergeCell ref="CH5:CI5"/>
+    <mergeCell ref="CE5:CE6"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="CF5:CG5"/>
+    <mergeCell ref="CE15:CE22"/>
+    <mergeCell ref="CF15:CF22"/>
+    <mergeCell ref="CG15:CG22"/>
+    <mergeCell ref="BY7:BY13"/>
+    <mergeCell ref="BZ7:BZ13"/>
+    <mergeCell ref="CA7:CA13"/>
+    <mergeCell ref="CZ5:CZ6"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CT5:CU5"/>
+    <mergeCell ref="CV5:CW5"/>
+    <mergeCell ref="CS5:CS6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CH15:CH22"/>
+    <mergeCell ref="CI15:CI22"/>
+    <mergeCell ref="CJ15:CJ22"/>
+    <mergeCell ref="CK15:CK22"/>
+    <mergeCell ref="CZ15:CZ22"/>
+    <mergeCell ref="CP15:CP22"/>
+    <mergeCell ref="CR7:CR13"/>
+    <mergeCell ref="CS7:CS13"/>
+    <mergeCell ref="CT7:CT13"/>
+    <mergeCell ref="CT15:CT22"/>
+    <mergeCell ref="CU15:CU22"/>
+    <mergeCell ref="CV15:CV22"/>
     <mergeCell ref="BH5:BH6"/>
     <mergeCell ref="CX15:CX22"/>
     <mergeCell ref="CY15:CY22"/>
@@ -6083,106 +6209,19 @@
     <mergeCell ref="CM15:CM22"/>
     <mergeCell ref="CN15:CN22"/>
     <mergeCell ref="CO15:CO22"/>
-    <mergeCell ref="CE15:CE22"/>
-    <mergeCell ref="CF15:CF22"/>
-    <mergeCell ref="CG15:CG22"/>
-    <mergeCell ref="BY7:BY13"/>
-    <mergeCell ref="BZ7:BZ13"/>
-    <mergeCell ref="CA7:CA13"/>
-    <mergeCell ref="CZ5:CZ6"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CT5:CU5"/>
-    <mergeCell ref="CV5:CW5"/>
-    <mergeCell ref="CS5:CS6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CH15:CH22"/>
-    <mergeCell ref="CI15:CI22"/>
-    <mergeCell ref="CJ15:CJ22"/>
-    <mergeCell ref="CK15:CK22"/>
-    <mergeCell ref="CZ15:CZ22"/>
-    <mergeCell ref="CP15:CP22"/>
-    <mergeCell ref="CR7:CR13"/>
-    <mergeCell ref="CS7:CS13"/>
-    <mergeCell ref="CT7:CT13"/>
-    <mergeCell ref="CT15:CT22"/>
-    <mergeCell ref="CU15:CU22"/>
-    <mergeCell ref="CV15:CV22"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CK5:CK6"/>
-    <mergeCell ref="CN5:CO5"/>
-    <mergeCell ref="CP5:CQ5"/>
-    <mergeCell ref="CM5:CM6"/>
-    <mergeCell ref="CH5:CI5"/>
-    <mergeCell ref="CE5:CE6"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="CF5:CG5"/>
-    <mergeCell ref="BP4:BW4"/>
-    <mergeCell ref="BY4:CD4"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="Z4:AF4"/>
-    <mergeCell ref="AH4:AM4"/>
-    <mergeCell ref="AN4:AT4"/>
-    <mergeCell ref="AV4:BA4"/>
-    <mergeCell ref="BB4:BH4"/>
-    <mergeCell ref="BJ4:BO4"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BW5:BW6"/>
-    <mergeCell ref="BY5:BY6"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="BZ5:CA5"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="CE4:CK4"/>
-    <mergeCell ref="CM4:CR4"/>
-    <mergeCell ref="CS4:CZ4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:R4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="CM7:CM13"/>
+    <mergeCell ref="CN7:CN13"/>
+    <mergeCell ref="CO7:CO13"/>
+    <mergeCell ref="CW15:CW22"/>
+    <mergeCell ref="CX7:CX13"/>
+    <mergeCell ref="CY7:CY13"/>
+    <mergeCell ref="CZ7:CZ13"/>
+    <mergeCell ref="CQ15:CQ22"/>
+    <mergeCell ref="CR15:CR22"/>
+    <mergeCell ref="CS15:CS22"/>
+    <mergeCell ref="CU7:CU13"/>
+    <mergeCell ref="CV7:CV13"/>
+    <mergeCell ref="CW7:CW13"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="F7:K14">
@@ -6281,72 +6320,72 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U15:Y22">
-    <cfRule type="expression" dxfId="13" priority="221">
+    <cfRule type="expression" dxfId="0" priority="221">
       <formula>$X15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z15:AF22">
-    <cfRule type="expression" dxfId="12" priority="223">
+    <cfRule type="expression" dxfId="13" priority="223">
       <formula>$AD15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH15:AM22">
-    <cfRule type="expression" dxfId="11" priority="225">
+    <cfRule type="expression" dxfId="12" priority="225">
       <formula>$AL15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN15:AT22">
-    <cfRule type="expression" dxfId="10" priority="227">
+    <cfRule type="expression" dxfId="11" priority="227">
       <formula>$AR15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV15:BA22">
-    <cfRule type="expression" dxfId="9" priority="229">
+    <cfRule type="expression" dxfId="10" priority="229">
       <formula>$AZ15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB15:BH22">
-    <cfRule type="expression" dxfId="8" priority="231">
+    <cfRule type="expression" dxfId="9" priority="231">
       <formula>$BF15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ15:BO22">
-    <cfRule type="expression" dxfId="7" priority="233">
+    <cfRule type="expression" dxfId="8" priority="233">
       <formula>$BN15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP15:BW22">
-    <cfRule type="expression" dxfId="6" priority="235">
+    <cfRule type="expression" dxfId="7" priority="235">
       <formula>$BT15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15:AB21">
-    <cfRule type="expression" dxfId="5" priority="236">
+    <cfRule type="expression" dxfId="6" priority="236">
       <formula>$X16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T21:T22">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="5" priority="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T20 T15:T16">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15:T16">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="2" priority="4">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17:T18">
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6381,7 +6420,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <sheetData>
     <row r="5" spans="4:5">
       <c r="D5" t="s">
@@ -6414,7 +6453,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6430,7 +6469,7 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6446,7 +6485,7 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6462,7 +6501,7 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6478,7 +6517,7 @@
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6494,7 +6533,7 @@
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/スケジュール（2023-06）.xlsx
+++ b/スケジュール（2023-06）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SymStudy\2023-06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77CA86C1-33E9-43FB-AF5C-5C46D2572B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC473A6-4422-4B45-A0E5-E561E6BA6BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16185" yWindow="-5985" windowWidth="16635" windowHeight="13815" tabRatio="910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12497" tabRatio="910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="体制図" sheetId="11" r:id="rId1"/>
@@ -26,6 +26,19 @@
     <sheet name="8_勤怠承認詳細" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -679,38 +692,8 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -721,7 +704,37 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2607,7 +2620,7 @@
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.45"/>
   <sheetData>
     <row r="3" spans="3:7">
       <c r="G3" s="28" t="s">
@@ -2648,7 +2661,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.45"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2664,7 +2677,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.45"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2678,20 +2691,20 @@
   <dimension ref="B3:CZ24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="S7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="Q7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="U10" sqref="U10"/>
+      <selection pane="bottomRight" activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.796875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="18.69921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.59765625" style="8" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="8.69921875" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="16.78515625" style="2" customWidth="1"/>
+    <col min="4" max="5" width="18.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="8.7109375" style="1" customWidth="1" outlineLevel="1"/>
     <col min="8" max="11" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="13" max="18" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
@@ -2700,421 +2713,421 @@
     <col min="21" max="25" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="26" max="26" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="27" max="32" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="1.59765625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="1.5703125" style="1" customWidth="1"/>
     <col min="34" max="34" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="35" max="39" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="40" max="40" width="13" style="2" customWidth="1" outlineLevel="1"/>
     <col min="41" max="46" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="47" max="47" width="1.59765625" style="1" customWidth="1"/>
+    <col min="47" max="47" width="1.5703125" style="1" customWidth="1"/>
     <col min="48" max="48" width="13" style="2" customWidth="1" outlineLevel="1"/>
     <col min="49" max="53" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="54" max="54" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="55" max="60" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="61" max="61" width="1.59765625" style="1" customWidth="1"/>
+    <col min="61" max="61" width="1.5703125" style="1" customWidth="1"/>
     <col min="62" max="62" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="63" max="67" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="68" max="68" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="69" max="75" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="76" max="76" width="1.59765625" style="1" customWidth="1"/>
-    <col min="77" max="77" width="6.59765625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="76" max="76" width="1.5703125" style="1" customWidth="1"/>
+    <col min="77" max="77" width="6.5703125" style="1" customWidth="1" outlineLevel="1"/>
     <col min="78" max="81" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
     <col min="82" max="83" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="84" max="85" width="6.5" style="33" customWidth="1" outlineLevel="1"/>
     <col min="86" max="87" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
     <col min="88" max="89" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="90" max="90" width="1.59765625" style="1" customWidth="1"/>
-    <col min="91" max="91" width="6.59765625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="90" max="90" width="1.5703125" style="1" customWidth="1"/>
+    <col min="91" max="91" width="6.5703125" style="1" customWidth="1" outlineLevel="1"/>
     <col min="92" max="93" width="6.5" style="33" customWidth="1" outlineLevel="1"/>
     <col min="94" max="95" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
     <col min="96" max="97" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="98" max="99" width="6.5" style="33" customWidth="1" outlineLevel="1"/>
     <col min="100" max="101" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
     <col min="102" max="104" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="105" max="105" width="1.59765625" style="1" customWidth="1"/>
+    <col min="105" max="105" width="1.5703125" style="1" customWidth="1"/>
     <col min="106" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:104" ht="23.4">
+    <row r="3" spans="2:104" ht="23.6">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:104" s="20" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41" t="s">
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="T4" s="41" t="s">
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="T4" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41" t="s">
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="41"/>
-      <c r="AH4" s="41" t="s">
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AH4" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="AI4" s="41"/>
-      <c r="AJ4" s="41"/>
-      <c r="AK4" s="41"/>
-      <c r="AL4" s="41"/>
-      <c r="AM4" s="41"/>
-      <c r="AN4" s="41" t="s">
+      <c r="AI4" s="37"/>
+      <c r="AJ4" s="37"/>
+      <c r="AK4" s="37"/>
+      <c r="AL4" s="37"/>
+      <c r="AM4" s="37"/>
+      <c r="AN4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="AO4" s="41"/>
-      <c r="AP4" s="41"/>
-      <c r="AQ4" s="41"/>
-      <c r="AR4" s="41"/>
-      <c r="AS4" s="41"/>
-      <c r="AT4" s="48"/>
+      <c r="AO4" s="37"/>
+      <c r="AP4" s="37"/>
+      <c r="AQ4" s="37"/>
+      <c r="AR4" s="37"/>
+      <c r="AS4" s="37"/>
+      <c r="AT4" s="38"/>
       <c r="AU4" s="21"/>
-      <c r="AV4" s="41" t="s">
+      <c r="AV4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AW4" s="41"/>
-      <c r="AX4" s="41"/>
-      <c r="AY4" s="41"/>
-      <c r="AZ4" s="41"/>
-      <c r="BA4" s="41"/>
-      <c r="BB4" s="41" t="s">
+      <c r="AW4" s="37"/>
+      <c r="AX4" s="37"/>
+      <c r="AY4" s="37"/>
+      <c r="AZ4" s="37"/>
+      <c r="BA4" s="37"/>
+      <c r="BB4" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="BC4" s="41"/>
-      <c r="BD4" s="41"/>
-      <c r="BE4" s="41"/>
-      <c r="BF4" s="41"/>
-      <c r="BG4" s="41"/>
-      <c r="BH4" s="41"/>
+      <c r="BC4" s="37"/>
+      <c r="BD4" s="37"/>
+      <c r="BE4" s="37"/>
+      <c r="BF4" s="37"/>
+      <c r="BG4" s="37"/>
+      <c r="BH4" s="37"/>
       <c r="BI4" s="22"/>
-      <c r="BJ4" s="49" t="s">
+      <c r="BJ4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="BK4" s="41"/>
-      <c r="BL4" s="41"/>
-      <c r="BM4" s="41"/>
-      <c r="BN4" s="41"/>
-      <c r="BO4" s="41"/>
-      <c r="BP4" s="41" t="s">
+      <c r="BK4" s="37"/>
+      <c r="BL4" s="37"/>
+      <c r="BM4" s="37"/>
+      <c r="BN4" s="37"/>
+      <c r="BO4" s="37"/>
+      <c r="BP4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="BQ4" s="41"/>
-      <c r="BR4" s="41"/>
-      <c r="BS4" s="41"/>
-      <c r="BT4" s="41"/>
-      <c r="BU4" s="41"/>
-      <c r="BV4" s="41"/>
-      <c r="BW4" s="41"/>
-      <c r="BY4" s="41" t="s">
+      <c r="BQ4" s="37"/>
+      <c r="BR4" s="37"/>
+      <c r="BS4" s="37"/>
+      <c r="BT4" s="37"/>
+      <c r="BU4" s="37"/>
+      <c r="BV4" s="37"/>
+      <c r="BW4" s="37"/>
+      <c r="BY4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="BZ4" s="41"/>
-      <c r="CA4" s="41"/>
-      <c r="CB4" s="41"/>
-      <c r="CC4" s="41"/>
-      <c r="CD4" s="41"/>
-      <c r="CE4" s="41" t="s">
+      <c r="BZ4" s="37"/>
+      <c r="CA4" s="37"/>
+      <c r="CB4" s="37"/>
+      <c r="CC4" s="37"/>
+      <c r="CD4" s="37"/>
+      <c r="CE4" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="CF4" s="41"/>
-      <c r="CG4" s="41"/>
-      <c r="CH4" s="41"/>
-      <c r="CI4" s="41"/>
-      <c r="CJ4" s="41"/>
-      <c r="CK4" s="48"/>
+      <c r="CF4" s="37"/>
+      <c r="CG4" s="37"/>
+      <c r="CH4" s="37"/>
+      <c r="CI4" s="37"/>
+      <c r="CJ4" s="37"/>
+      <c r="CK4" s="38"/>
       <c r="CL4" s="23"/>
-      <c r="CM4" s="49" t="s">
+      <c r="CM4" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="CN4" s="41"/>
-      <c r="CO4" s="41"/>
-      <c r="CP4" s="41"/>
-      <c r="CQ4" s="41"/>
-      <c r="CR4" s="41"/>
-      <c r="CS4" s="41" t="s">
+      <c r="CN4" s="37"/>
+      <c r="CO4" s="37"/>
+      <c r="CP4" s="37"/>
+      <c r="CQ4" s="37"/>
+      <c r="CR4" s="37"/>
+      <c r="CS4" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="CT4" s="41"/>
-      <c r="CU4" s="41"/>
-      <c r="CV4" s="41"/>
-      <c r="CW4" s="41"/>
-      <c r="CX4" s="41"/>
-      <c r="CY4" s="41"/>
-      <c r="CZ4" s="41"/>
+      <c r="CT4" s="37"/>
+      <c r="CU4" s="37"/>
+      <c r="CV4" s="37"/>
+      <c r="CW4" s="37"/>
+      <c r="CX4" s="37"/>
+      <c r="CY4" s="37"/>
+      <c r="CZ4" s="37"/>
     </row>
-    <row r="5" spans="2:104" ht="21.6" customHeight="1">
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="41" t="s">
+    <row r="5" spans="2:104" ht="21.65" customHeight="1">
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50" t="s">
+      <c r="H5" s="40"/>
+      <c r="I5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="50"/>
-      <c r="K5" s="40" t="s">
+      <c r="J5" s="40"/>
+      <c r="K5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="41" t="s">
+      <c r="L5" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="50" t="s">
+      <c r="M5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50" t="s">
+      <c r="N5" s="40"/>
+      <c r="O5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="40" t="s">
+      <c r="P5" s="40"/>
+      <c r="Q5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="40" t="s">
+      <c r="R5" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="41" t="s">
+      <c r="T5" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="50" t="s">
+      <c r="U5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50" t="s">
+      <c r="V5" s="40"/>
+      <c r="W5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="40" t="s">
+      <c r="X5" s="40"/>
+      <c r="Y5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="41" t="s">
+      <c r="Z5" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="AA5" s="50" t="s">
+      <c r="AA5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="AB5" s="50"/>
-      <c r="AC5" s="50" t="s">
+      <c r="AB5" s="40"/>
+      <c r="AC5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="AD5" s="50"/>
-      <c r="AE5" s="40" t="s">
+      <c r="AD5" s="40"/>
+      <c r="AE5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="AF5" s="40" t="s">
+      <c r="AF5" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="AH5" s="41" t="s">
+      <c r="AH5" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="AI5" s="50" t="s">
+      <c r="AI5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="AJ5" s="50"/>
-      <c r="AK5" s="50" t="s">
+      <c r="AJ5" s="40"/>
+      <c r="AK5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="AL5" s="50"/>
-      <c r="AM5" s="40" t="s">
+      <c r="AL5" s="40"/>
+      <c r="AM5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="AN5" s="41" t="s">
+      <c r="AN5" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="AO5" s="50" t="s">
+      <c r="AO5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="AP5" s="50"/>
-      <c r="AQ5" s="50" t="s">
+      <c r="AP5" s="40"/>
+      <c r="AQ5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="40" t="s">
+      <c r="AR5" s="40"/>
+      <c r="AS5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="AT5" s="47" t="s">
+      <c r="AT5" s="43" t="s">
         <v>23</v>
       </c>
       <c r="AU5" s="13"/>
-      <c r="AV5" s="41" t="s">
+      <c r="AV5" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="AW5" s="50" t="s">
+      <c r="AW5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="AX5" s="50"/>
-      <c r="AY5" s="50" t="s">
+      <c r="AX5" s="40"/>
+      <c r="AY5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="AZ5" s="50"/>
-      <c r="BA5" s="40" t="s">
+      <c r="AZ5" s="40"/>
+      <c r="BA5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="BB5" s="41" t="s">
+      <c r="BB5" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="BC5" s="50" t="s">
+      <c r="BC5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="BD5" s="50"/>
-      <c r="BE5" s="50" t="s">
+      <c r="BD5" s="40"/>
+      <c r="BE5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="BF5" s="50"/>
-      <c r="BG5" s="40" t="s">
+      <c r="BF5" s="40"/>
+      <c r="BG5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="BH5" s="40" t="s">
+      <c r="BH5" s="41" t="s">
         <v>23</v>
       </c>
       <c r="BI5" s="14"/>
-      <c r="BJ5" s="49" t="s">
+      <c r="BJ5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="BK5" s="50" t="s">
+      <c r="BK5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="BL5" s="50"/>
-      <c r="BM5" s="50" t="s">
+      <c r="BL5" s="40"/>
+      <c r="BM5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="BN5" s="50"/>
-      <c r="BO5" s="40" t="s">
+      <c r="BN5" s="40"/>
+      <c r="BO5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="BP5" s="41" t="s">
+      <c r="BP5" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="BQ5" s="50" t="s">
+      <c r="BQ5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="BR5" s="50"/>
-      <c r="BS5" s="50" t="s">
+      <c r="BR5" s="40"/>
+      <c r="BS5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="BT5" s="50"/>
-      <c r="BU5" s="40" t="s">
+      <c r="BT5" s="40"/>
+      <c r="BU5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="BV5" s="40" t="s">
+      <c r="BV5" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="BW5" s="40" t="s">
+      <c r="BW5" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="BY5" s="41" t="s">
+      <c r="BY5" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="BZ5" s="46" t="s">
+      <c r="BZ5" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="CA5" s="46"/>
-      <c r="CB5" s="46" t="s">
+      <c r="CA5" s="44"/>
+      <c r="CB5" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="CC5" s="46"/>
-      <c r="CD5" s="40" t="s">
+      <c r="CC5" s="44"/>
+      <c r="CD5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="CE5" s="41" t="s">
+      <c r="CE5" s="37" t="s">
         <v>22</v>
       </c>
       <c r="CF5" s="45" t="s">
         <v>19</v>
       </c>
       <c r="CG5" s="45"/>
-      <c r="CH5" s="46" t="s">
+      <c r="CH5" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="CI5" s="46"/>
-      <c r="CJ5" s="40" t="s">
+      <c r="CI5" s="44"/>
+      <c r="CJ5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="CK5" s="47" t="s">
+      <c r="CK5" s="43" t="s">
         <v>23</v>
       </c>
       <c r="CL5" s="11"/>
-      <c r="CM5" s="49" t="s">
+      <c r="CM5" s="39" t="s">
         <v>18</v>
       </c>
       <c r="CN5" s="45" t="s">
         <v>19</v>
       </c>
       <c r="CO5" s="45"/>
-      <c r="CP5" s="46" t="s">
+      <c r="CP5" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="CQ5" s="46"/>
-      <c r="CR5" s="40" t="s">
+      <c r="CQ5" s="44"/>
+      <c r="CR5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="CS5" s="41" t="s">
+      <c r="CS5" s="37" t="s">
         <v>22</v>
       </c>
       <c r="CT5" s="45" t="s">
         <v>19</v>
       </c>
       <c r="CU5" s="45"/>
-      <c r="CV5" s="46" t="s">
+      <c r="CV5" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="CW5" s="46"/>
-      <c r="CX5" s="40" t="s">
+      <c r="CW5" s="44"/>
+      <c r="CX5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="CY5" s="40" t="s">
+      <c r="CY5" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="CZ5" s="40" t="s">
+      <c r="CZ5" s="41" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:104" ht="14.4">
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="41"/>
+    <row r="6" spans="2:104" ht="14.15">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3127,8 +3140,8 @@
       <c r="J6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
       <c r="M6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3141,9 +3154,9 @@
       <c r="P6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="T6" s="41"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="T6" s="37"/>
       <c r="U6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3156,8 +3169,8 @@
       <c r="X6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
       <c r="AA6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3170,9 +3183,9 @@
       <c r="AD6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AE6" s="41"/>
-      <c r="AF6" s="41"/>
-      <c r="AH6" s="41"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="37"/>
+      <c r="AH6" s="37"/>
       <c r="AI6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3185,8 +3198,8 @@
       <c r="AL6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AM6" s="41"/>
-      <c r="AN6" s="41"/>
+      <c r="AM6" s="37"/>
+      <c r="AN6" s="37"/>
       <c r="AO6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3199,10 +3212,10 @@
       <c r="AR6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AS6" s="41"/>
-      <c r="AT6" s="48"/>
+      <c r="AS6" s="37"/>
+      <c r="AT6" s="38"/>
       <c r="AU6" s="13"/>
-      <c r="AV6" s="41"/>
+      <c r="AV6" s="37"/>
       <c r="AW6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3215,8 +3228,8 @@
       <c r="AZ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BA6" s="41"/>
-      <c r="BB6" s="41"/>
+      <c r="BA6" s="37"/>
+      <c r="BB6" s="37"/>
       <c r="BC6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3229,10 +3242,10 @@
       <c r="BF6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BG6" s="41"/>
-      <c r="BH6" s="41"/>
+      <c r="BG6" s="37"/>
+      <c r="BH6" s="37"/>
       <c r="BI6" s="14"/>
-      <c r="BJ6" s="49"/>
+      <c r="BJ6" s="39"/>
       <c r="BK6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3245,8 +3258,8 @@
       <c r="BN6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BO6" s="41"/>
-      <c r="BP6" s="41"/>
+      <c r="BO6" s="37"/>
+      <c r="BP6" s="37"/>
       <c r="BQ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3259,10 +3272,10 @@
       <c r="BT6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BU6" s="41"/>
-      <c r="BV6" s="41"/>
-      <c r="BW6" s="41"/>
-      <c r="BY6" s="41"/>
+      <c r="BU6" s="37"/>
+      <c r="BV6" s="37"/>
+      <c r="BW6" s="37"/>
+      <c r="BY6" s="37"/>
       <c r="BZ6" s="31" t="s">
         <v>25</v>
       </c>
@@ -3275,8 +3288,8 @@
       <c r="CC6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CD6" s="41"/>
-      <c r="CE6" s="41"/>
+      <c r="CD6" s="37"/>
+      <c r="CE6" s="37"/>
       <c r="CF6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3289,10 +3302,10 @@
       <c r="CI6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CJ6" s="41"/>
-      <c r="CK6" s="48"/>
+      <c r="CJ6" s="37"/>
+      <c r="CK6" s="38"/>
       <c r="CL6" s="11"/>
-      <c r="CM6" s="49"/>
+      <c r="CM6" s="39"/>
       <c r="CN6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3305,8 +3318,8 @@
       <c r="CQ6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CR6" s="41"/>
-      <c r="CS6" s="41"/>
+      <c r="CR6" s="37"/>
+      <c r="CS6" s="37"/>
       <c r="CT6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3319,9 +3332,9 @@
       <c r="CW6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CX6" s="41"/>
-      <c r="CY6" s="41"/>
-      <c r="CZ6" s="41"/>
+      <c r="CX6" s="37"/>
+      <c r="CY6" s="37"/>
+      <c r="CZ6" s="37"/>
     </row>
     <row r="7" spans="2:104" ht="20.25" customHeight="1">
       <c r="B7" s="5">
@@ -3395,9 +3408,13 @@
       <c r="AB7" s="6">
         <v>45084</v>
       </c>
-      <c r="AC7" s="6"/>
+      <c r="AC7" s="6">
+        <v>45084</v>
+      </c>
       <c r="AD7" s="6"/>
-      <c r="AE7" s="7"/>
+      <c r="AE7" s="7">
+        <v>0.2</v>
+      </c>
       <c r="AF7" s="9"/>
       <c r="AH7" s="16"/>
       <c r="AI7" s="6">
@@ -3465,50 +3482,50 @@
       <c r="BU7" s="7"/>
       <c r="BV7" s="10"/>
       <c r="BW7" s="10"/>
-      <c r="BY7" s="37"/>
-      <c r="BZ7" s="37">
+      <c r="BY7" s="46"/>
+      <c r="BZ7" s="46">
         <v>45100</v>
       </c>
-      <c r="CA7" s="37">
+      <c r="CA7" s="46">
         <v>45100</v>
       </c>
-      <c r="CB7" s="37"/>
-      <c r="CC7" s="37"/>
-      <c r="CD7" s="37"/>
-      <c r="CE7" s="37"/>
-      <c r="CF7" s="37">
+      <c r="CB7" s="46"/>
+      <c r="CC7" s="46"/>
+      <c r="CD7" s="46"/>
+      <c r="CE7" s="46"/>
+      <c r="CF7" s="46">
         <v>45103</v>
       </c>
-      <c r="CG7" s="37">
+      <c r="CG7" s="46">
         <v>45103</v>
       </c>
-      <c r="CH7" s="37"/>
-      <c r="CI7" s="37"/>
-      <c r="CJ7" s="37"/>
-      <c r="CK7" s="37"/>
+      <c r="CH7" s="46"/>
+      <c r="CI7" s="46"/>
+      <c r="CJ7" s="46"/>
+      <c r="CK7" s="46"/>
       <c r="CL7" s="14"/>
-      <c r="CM7" s="37"/>
-      <c r="CN7" s="37">
+      <c r="CM7" s="46"/>
+      <c r="CN7" s="46">
         <v>45104</v>
       </c>
-      <c r="CO7" s="37">
+      <c r="CO7" s="46">
         <v>45104</v>
       </c>
-      <c r="CP7" s="37"/>
-      <c r="CQ7" s="37"/>
-      <c r="CR7" s="37"/>
-      <c r="CS7" s="37"/>
-      <c r="CT7" s="37">
+      <c r="CP7" s="46"/>
+      <c r="CQ7" s="46"/>
+      <c r="CR7" s="46"/>
+      <c r="CS7" s="46"/>
+      <c r="CT7" s="46">
         <v>45105</v>
       </c>
-      <c r="CU7" s="37">
+      <c r="CU7" s="46">
         <v>45105</v>
       </c>
-      <c r="CV7" s="37"/>
-      <c r="CW7" s="37"/>
-      <c r="CX7" s="37"/>
-      <c r="CY7" s="37"/>
-      <c r="CZ7" s="37"/>
+      <c r="CV7" s="46"/>
+      <c r="CW7" s="46"/>
+      <c r="CX7" s="46"/>
+      <c r="CY7" s="46"/>
+      <c r="CZ7" s="46"/>
     </row>
     <row r="8" spans="2:104" ht="20.25" customHeight="1">
       <c r="B8" s="5">
@@ -3652,34 +3669,34 @@
       <c r="BU8" s="7"/>
       <c r="BV8" s="10"/>
       <c r="BW8" s="10"/>
-      <c r="BY8" s="38"/>
-      <c r="BZ8" s="38"/>
-      <c r="CA8" s="38"/>
-      <c r="CB8" s="38"/>
-      <c r="CC8" s="38"/>
-      <c r="CD8" s="38"/>
-      <c r="CE8" s="38"/>
-      <c r="CF8" s="38"/>
-      <c r="CG8" s="38"/>
-      <c r="CH8" s="38"/>
-      <c r="CI8" s="38"/>
-      <c r="CJ8" s="38"/>
-      <c r="CK8" s="38"/>
+      <c r="BY8" s="47"/>
+      <c r="BZ8" s="47"/>
+      <c r="CA8" s="47"/>
+      <c r="CB8" s="47"/>
+      <c r="CC8" s="47"/>
+      <c r="CD8" s="47"/>
+      <c r="CE8" s="47"/>
+      <c r="CF8" s="47"/>
+      <c r="CG8" s="47"/>
+      <c r="CH8" s="47"/>
+      <c r="CI8" s="47"/>
+      <c r="CJ8" s="47"/>
+      <c r="CK8" s="47"/>
       <c r="CL8" s="14"/>
-      <c r="CM8" s="38"/>
-      <c r="CN8" s="38"/>
-      <c r="CO8" s="38"/>
-      <c r="CP8" s="38"/>
-      <c r="CQ8" s="38"/>
-      <c r="CR8" s="38"/>
-      <c r="CS8" s="38"/>
-      <c r="CT8" s="38"/>
-      <c r="CU8" s="38"/>
-      <c r="CV8" s="38"/>
-      <c r="CW8" s="38"/>
-      <c r="CX8" s="38"/>
-      <c r="CY8" s="38"/>
-      <c r="CZ8" s="38"/>
+      <c r="CM8" s="47"/>
+      <c r="CN8" s="47"/>
+      <c r="CO8" s="47"/>
+      <c r="CP8" s="47"/>
+      <c r="CQ8" s="47"/>
+      <c r="CR8" s="47"/>
+      <c r="CS8" s="47"/>
+      <c r="CT8" s="47"/>
+      <c r="CU8" s="47"/>
+      <c r="CV8" s="47"/>
+      <c r="CW8" s="47"/>
+      <c r="CX8" s="47"/>
+      <c r="CY8" s="47"/>
+      <c r="CZ8" s="47"/>
     </row>
     <row r="9" spans="2:104" ht="20.25" customHeight="1">
       <c r="B9" s="5">
@@ -3742,9 +3759,11 @@
       <c r="W9" s="6">
         <v>45083</v>
       </c>
-      <c r="X9" s="6"/>
+      <c r="X9" s="6">
+        <v>45084</v>
+      </c>
       <c r="Y9" s="7">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="Z9" s="17"/>
       <c r="AA9" s="6">
@@ -3753,9 +3772,13 @@
       <c r="AB9" s="6">
         <v>45084</v>
       </c>
-      <c r="AC9" s="6"/>
+      <c r="AC9" s="6">
+        <v>45084</v>
+      </c>
       <c r="AD9" s="6"/>
-      <c r="AE9" s="7"/>
+      <c r="AE9" s="7">
+        <v>0.2</v>
+      </c>
       <c r="AF9" s="9"/>
       <c r="AH9" s="16"/>
       <c r="AI9" s="6">
@@ -3824,34 +3847,34 @@
       <c r="BV9" s="10"/>
       <c r="BW9" s="10"/>
       <c r="BX9" s="13"/>
-      <c r="BY9" s="38"/>
-      <c r="BZ9" s="38"/>
-      <c r="CA9" s="38"/>
-      <c r="CB9" s="38"/>
-      <c r="CC9" s="38"/>
-      <c r="CD9" s="38"/>
-      <c r="CE9" s="38"/>
-      <c r="CF9" s="38"/>
-      <c r="CG9" s="38"/>
-      <c r="CH9" s="38"/>
-      <c r="CI9" s="38"/>
-      <c r="CJ9" s="38"/>
-      <c r="CK9" s="38"/>
+      <c r="BY9" s="47"/>
+      <c r="BZ9" s="47"/>
+      <c r="CA9" s="47"/>
+      <c r="CB9" s="47"/>
+      <c r="CC9" s="47"/>
+      <c r="CD9" s="47"/>
+      <c r="CE9" s="47"/>
+      <c r="CF9" s="47"/>
+      <c r="CG9" s="47"/>
+      <c r="CH9" s="47"/>
+      <c r="CI9" s="47"/>
+      <c r="CJ9" s="47"/>
+      <c r="CK9" s="47"/>
       <c r="CL9" s="14"/>
-      <c r="CM9" s="38"/>
-      <c r="CN9" s="38"/>
-      <c r="CO9" s="38"/>
-      <c r="CP9" s="38"/>
-      <c r="CQ9" s="38"/>
-      <c r="CR9" s="38"/>
-      <c r="CS9" s="38"/>
-      <c r="CT9" s="38"/>
-      <c r="CU9" s="38"/>
-      <c r="CV9" s="38"/>
-      <c r="CW9" s="38"/>
-      <c r="CX9" s="38"/>
-      <c r="CY9" s="38"/>
-      <c r="CZ9" s="38"/>
+      <c r="CM9" s="47"/>
+      <c r="CN9" s="47"/>
+      <c r="CO9" s="47"/>
+      <c r="CP9" s="47"/>
+      <c r="CQ9" s="47"/>
+      <c r="CR9" s="47"/>
+      <c r="CS9" s="47"/>
+      <c r="CT9" s="47"/>
+      <c r="CU9" s="47"/>
+      <c r="CV9" s="47"/>
+      <c r="CW9" s="47"/>
+      <c r="CX9" s="47"/>
+      <c r="CY9" s="47"/>
+      <c r="CZ9" s="47"/>
     </row>
     <row r="10" spans="2:104" ht="20.25" customHeight="1">
       <c r="B10" s="5">
@@ -3996,34 +4019,34 @@
       <c r="BV10" s="10"/>
       <c r="BW10" s="10"/>
       <c r="BX10" s="13"/>
-      <c r="BY10" s="38"/>
-      <c r="BZ10" s="38"/>
-      <c r="CA10" s="38"/>
-      <c r="CB10" s="38"/>
-      <c r="CC10" s="38"/>
-      <c r="CD10" s="38"/>
-      <c r="CE10" s="38"/>
-      <c r="CF10" s="38"/>
-      <c r="CG10" s="38"/>
-      <c r="CH10" s="38"/>
-      <c r="CI10" s="38"/>
-      <c r="CJ10" s="38"/>
-      <c r="CK10" s="38"/>
+      <c r="BY10" s="47"/>
+      <c r="BZ10" s="47"/>
+      <c r="CA10" s="47"/>
+      <c r="CB10" s="47"/>
+      <c r="CC10" s="47"/>
+      <c r="CD10" s="47"/>
+      <c r="CE10" s="47"/>
+      <c r="CF10" s="47"/>
+      <c r="CG10" s="47"/>
+      <c r="CH10" s="47"/>
+      <c r="CI10" s="47"/>
+      <c r="CJ10" s="47"/>
+      <c r="CK10" s="47"/>
       <c r="CL10" s="14"/>
-      <c r="CM10" s="38"/>
-      <c r="CN10" s="38"/>
-      <c r="CO10" s="38"/>
-      <c r="CP10" s="38"/>
-      <c r="CQ10" s="38"/>
-      <c r="CR10" s="38"/>
-      <c r="CS10" s="38"/>
-      <c r="CT10" s="38"/>
-      <c r="CU10" s="38"/>
-      <c r="CV10" s="38"/>
-      <c r="CW10" s="38"/>
-      <c r="CX10" s="38"/>
-      <c r="CY10" s="38"/>
-      <c r="CZ10" s="38"/>
+      <c r="CM10" s="47"/>
+      <c r="CN10" s="47"/>
+      <c r="CO10" s="47"/>
+      <c r="CP10" s="47"/>
+      <c r="CQ10" s="47"/>
+      <c r="CR10" s="47"/>
+      <c r="CS10" s="47"/>
+      <c r="CT10" s="47"/>
+      <c r="CU10" s="47"/>
+      <c r="CV10" s="47"/>
+      <c r="CW10" s="47"/>
+      <c r="CX10" s="47"/>
+      <c r="CY10" s="47"/>
+      <c r="CZ10" s="47"/>
     </row>
     <row r="11" spans="2:104" ht="20.25" customHeight="1">
       <c r="B11" s="5">
@@ -4097,9 +4120,13 @@
       <c r="AB11" s="6">
         <v>45084</v>
       </c>
-      <c r="AC11" s="6"/>
+      <c r="AC11" s="6">
+        <v>45084</v>
+      </c>
       <c r="AD11" s="6"/>
-      <c r="AE11" s="7"/>
+      <c r="AE11" s="7">
+        <v>0.2</v>
+      </c>
       <c r="AF11" s="9"/>
       <c r="AH11" s="16"/>
       <c r="AI11" s="6">
@@ -4168,34 +4195,34 @@
       <c r="BV11" s="10"/>
       <c r="BW11" s="10"/>
       <c r="BX11" s="13"/>
-      <c r="BY11" s="38"/>
-      <c r="BZ11" s="38"/>
-      <c r="CA11" s="38"/>
-      <c r="CB11" s="38"/>
-      <c r="CC11" s="38"/>
-      <c r="CD11" s="38"/>
-      <c r="CE11" s="38"/>
-      <c r="CF11" s="38"/>
-      <c r="CG11" s="38"/>
-      <c r="CH11" s="38"/>
-      <c r="CI11" s="38"/>
-      <c r="CJ11" s="38"/>
-      <c r="CK11" s="38"/>
+      <c r="BY11" s="47"/>
+      <c r="BZ11" s="47"/>
+      <c r="CA11" s="47"/>
+      <c r="CB11" s="47"/>
+      <c r="CC11" s="47"/>
+      <c r="CD11" s="47"/>
+      <c r="CE11" s="47"/>
+      <c r="CF11" s="47"/>
+      <c r="CG11" s="47"/>
+      <c r="CH11" s="47"/>
+      <c r="CI11" s="47"/>
+      <c r="CJ11" s="47"/>
+      <c r="CK11" s="47"/>
       <c r="CL11" s="14"/>
-      <c r="CM11" s="38"/>
-      <c r="CN11" s="38"/>
-      <c r="CO11" s="38"/>
-      <c r="CP11" s="38"/>
-      <c r="CQ11" s="38"/>
-      <c r="CR11" s="38"/>
-      <c r="CS11" s="38"/>
-      <c r="CT11" s="38"/>
-      <c r="CU11" s="38"/>
-      <c r="CV11" s="38"/>
-      <c r="CW11" s="38"/>
-      <c r="CX11" s="38"/>
-      <c r="CY11" s="38"/>
-      <c r="CZ11" s="38"/>
+      <c r="CM11" s="47"/>
+      <c r="CN11" s="47"/>
+      <c r="CO11" s="47"/>
+      <c r="CP11" s="47"/>
+      <c r="CQ11" s="47"/>
+      <c r="CR11" s="47"/>
+      <c r="CS11" s="47"/>
+      <c r="CT11" s="47"/>
+      <c r="CU11" s="47"/>
+      <c r="CV11" s="47"/>
+      <c r="CW11" s="47"/>
+      <c r="CX11" s="47"/>
+      <c r="CY11" s="47"/>
+      <c r="CZ11" s="47"/>
     </row>
     <row r="12" spans="2:104" ht="20.25" customHeight="1">
       <c r="B12" s="5">
@@ -4269,9 +4296,13 @@
       <c r="AB12" s="6">
         <v>45084</v>
       </c>
-      <c r="AC12" s="6"/>
+      <c r="AC12" s="6">
+        <v>45084</v>
+      </c>
       <c r="AD12" s="6"/>
-      <c r="AE12" s="7"/>
+      <c r="AE12" s="7">
+        <v>0.8</v>
+      </c>
       <c r="AF12" s="9"/>
       <c r="AH12" s="16"/>
       <c r="AI12" s="6">
@@ -4340,34 +4371,34 @@
       <c r="BV12" s="10"/>
       <c r="BW12" s="10"/>
       <c r="BX12" s="13"/>
-      <c r="BY12" s="38"/>
-      <c r="BZ12" s="38"/>
-      <c r="CA12" s="38"/>
-      <c r="CB12" s="38"/>
-      <c r="CC12" s="38"/>
-      <c r="CD12" s="38"/>
-      <c r="CE12" s="38"/>
-      <c r="CF12" s="38"/>
-      <c r="CG12" s="38"/>
-      <c r="CH12" s="38"/>
-      <c r="CI12" s="38"/>
-      <c r="CJ12" s="38"/>
-      <c r="CK12" s="38"/>
+      <c r="BY12" s="47"/>
+      <c r="BZ12" s="47"/>
+      <c r="CA12" s="47"/>
+      <c r="CB12" s="47"/>
+      <c r="CC12" s="47"/>
+      <c r="CD12" s="47"/>
+      <c r="CE12" s="47"/>
+      <c r="CF12" s="47"/>
+      <c r="CG12" s="47"/>
+      <c r="CH12" s="47"/>
+      <c r="CI12" s="47"/>
+      <c r="CJ12" s="47"/>
+      <c r="CK12" s="47"/>
       <c r="CL12" s="14"/>
-      <c r="CM12" s="38"/>
-      <c r="CN12" s="38"/>
-      <c r="CO12" s="38"/>
-      <c r="CP12" s="38"/>
-      <c r="CQ12" s="38"/>
-      <c r="CR12" s="38"/>
-      <c r="CS12" s="38"/>
-      <c r="CT12" s="38"/>
-      <c r="CU12" s="38"/>
-      <c r="CV12" s="38"/>
-      <c r="CW12" s="38"/>
-      <c r="CX12" s="38"/>
-      <c r="CY12" s="38"/>
-      <c r="CZ12" s="38"/>
+      <c r="CM12" s="47"/>
+      <c r="CN12" s="47"/>
+      <c r="CO12" s="47"/>
+      <c r="CP12" s="47"/>
+      <c r="CQ12" s="47"/>
+      <c r="CR12" s="47"/>
+      <c r="CS12" s="47"/>
+      <c r="CT12" s="47"/>
+      <c r="CU12" s="47"/>
+      <c r="CV12" s="47"/>
+      <c r="CW12" s="47"/>
+      <c r="CX12" s="47"/>
+      <c r="CY12" s="47"/>
+      <c r="CZ12" s="47"/>
     </row>
     <row r="13" spans="2:104" ht="20.25" customHeight="1">
       <c r="B13" s="5">
@@ -4441,9 +4472,13 @@
       <c r="AB13" s="6">
         <v>45084</v>
       </c>
-      <c r="AC13" s="6"/>
+      <c r="AC13" s="6">
+        <v>45084</v>
+      </c>
       <c r="AD13" s="6"/>
-      <c r="AE13" s="7"/>
+      <c r="AE13" s="7">
+        <v>0.2</v>
+      </c>
       <c r="AF13" s="9"/>
       <c r="AH13" s="16"/>
       <c r="AI13" s="6">
@@ -4512,34 +4547,34 @@
       <c r="BV13" s="10"/>
       <c r="BW13" s="10"/>
       <c r="BX13" s="13"/>
-      <c r="BY13" s="38"/>
-      <c r="BZ13" s="38"/>
-      <c r="CA13" s="38"/>
-      <c r="CB13" s="38"/>
-      <c r="CC13" s="38"/>
-      <c r="CD13" s="38"/>
-      <c r="CE13" s="38"/>
-      <c r="CF13" s="38"/>
-      <c r="CG13" s="38"/>
-      <c r="CH13" s="38"/>
-      <c r="CI13" s="38"/>
-      <c r="CJ13" s="38"/>
-      <c r="CK13" s="38"/>
+      <c r="BY13" s="47"/>
+      <c r="BZ13" s="47"/>
+      <c r="CA13" s="47"/>
+      <c r="CB13" s="47"/>
+      <c r="CC13" s="47"/>
+      <c r="CD13" s="47"/>
+      <c r="CE13" s="47"/>
+      <c r="CF13" s="47"/>
+      <c r="CG13" s="47"/>
+      <c r="CH13" s="47"/>
+      <c r="CI13" s="47"/>
+      <c r="CJ13" s="47"/>
+      <c r="CK13" s="47"/>
       <c r="CL13" s="14"/>
-      <c r="CM13" s="38"/>
-      <c r="CN13" s="38"/>
-      <c r="CO13" s="38"/>
-      <c r="CP13" s="38"/>
-      <c r="CQ13" s="38"/>
-      <c r="CR13" s="38"/>
-      <c r="CS13" s="38"/>
-      <c r="CT13" s="38"/>
-      <c r="CU13" s="38"/>
-      <c r="CV13" s="38"/>
-      <c r="CW13" s="38"/>
-      <c r="CX13" s="38"/>
-      <c r="CY13" s="38"/>
-      <c r="CZ13" s="38"/>
+      <c r="CM13" s="47"/>
+      <c r="CN13" s="47"/>
+      <c r="CO13" s="47"/>
+      <c r="CP13" s="47"/>
+      <c r="CQ13" s="47"/>
+      <c r="CR13" s="47"/>
+      <c r="CS13" s="47"/>
+      <c r="CT13" s="47"/>
+      <c r="CU13" s="47"/>
+      <c r="CV13" s="47"/>
+      <c r="CW13" s="47"/>
+      <c r="CX13" s="47"/>
+      <c r="CY13" s="47"/>
+      <c r="CZ13" s="47"/>
     </row>
     <row r="14" spans="2:104" ht="20.25" customHeight="1">
       <c r="B14" s="5">
@@ -4607,8 +4642,12 @@
         <v>0.8</v>
       </c>
       <c r="Z14" s="17"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
+      <c r="AA14" s="6">
+        <v>45084</v>
+      </c>
+      <c r="AB14" s="6">
+        <v>45084</v>
+      </c>
       <c r="AC14" s="6"/>
       <c r="AD14" s="6"/>
       <c r="AE14" s="7"/>
@@ -4828,50 +4867,50 @@
       <c r="BV15" s="10"/>
       <c r="BW15" s="10"/>
       <c r="BX15" s="13"/>
-      <c r="BY15" s="37"/>
-      <c r="BZ15" s="42">
+      <c r="BY15" s="46"/>
+      <c r="BZ15" s="49">
         <v>45100</v>
       </c>
-      <c r="CA15" s="42">
+      <c r="CA15" s="49">
         <v>45100</v>
       </c>
-      <c r="CB15" s="37"/>
-      <c r="CC15" s="37"/>
-      <c r="CD15" s="37"/>
-      <c r="CE15" s="37"/>
-      <c r="CF15" s="37">
+      <c r="CB15" s="46"/>
+      <c r="CC15" s="46"/>
+      <c r="CD15" s="46"/>
+      <c r="CE15" s="46"/>
+      <c r="CF15" s="46">
         <v>45103</v>
       </c>
-      <c r="CG15" s="37">
+      <c r="CG15" s="46">
         <v>45103</v>
       </c>
-      <c r="CH15" s="37"/>
-      <c r="CI15" s="37"/>
-      <c r="CJ15" s="37"/>
-      <c r="CK15" s="37"/>
+      <c r="CH15" s="46"/>
+      <c r="CI15" s="46"/>
+      <c r="CJ15" s="46"/>
+      <c r="CK15" s="46"/>
       <c r="CL15" s="14"/>
-      <c r="CM15" s="37"/>
-      <c r="CN15" s="37">
+      <c r="CM15" s="46"/>
+      <c r="CN15" s="46">
         <v>45104</v>
       </c>
-      <c r="CO15" s="37">
+      <c r="CO15" s="46">
         <v>45104</v>
       </c>
-      <c r="CP15" s="37"/>
-      <c r="CQ15" s="37"/>
-      <c r="CR15" s="37"/>
-      <c r="CS15" s="37"/>
-      <c r="CT15" s="37">
+      <c r="CP15" s="46"/>
+      <c r="CQ15" s="46"/>
+      <c r="CR15" s="46"/>
+      <c r="CS15" s="46"/>
+      <c r="CT15" s="46">
         <v>45105</v>
       </c>
-      <c r="CU15" s="37">
+      <c r="CU15" s="46">
         <v>45105</v>
       </c>
-      <c r="CV15" s="37"/>
-      <c r="CW15" s="37"/>
-      <c r="CX15" s="37"/>
-      <c r="CY15" s="37"/>
-      <c r="CZ15" s="37"/>
+      <c r="CV15" s="46"/>
+      <c r="CW15" s="46"/>
+      <c r="CX15" s="46"/>
+      <c r="CY15" s="46"/>
+      <c r="CZ15" s="46"/>
     </row>
     <row r="16" spans="2:104" ht="20.25" customHeight="1">
       <c r="B16" s="5">
@@ -5015,34 +5054,34 @@
       <c r="BU16" s="7"/>
       <c r="BV16" s="10"/>
       <c r="BW16" s="10"/>
-      <c r="BY16" s="38"/>
-      <c r="BZ16" s="43"/>
-      <c r="CA16" s="43"/>
-      <c r="CB16" s="38"/>
-      <c r="CC16" s="38"/>
-      <c r="CD16" s="38"/>
-      <c r="CE16" s="38"/>
-      <c r="CF16" s="38"/>
-      <c r="CG16" s="38"/>
-      <c r="CH16" s="38"/>
-      <c r="CI16" s="38"/>
-      <c r="CJ16" s="38"/>
-      <c r="CK16" s="38"/>
+      <c r="BY16" s="47"/>
+      <c r="BZ16" s="50"/>
+      <c r="CA16" s="50"/>
+      <c r="CB16" s="47"/>
+      <c r="CC16" s="47"/>
+      <c r="CD16" s="47"/>
+      <c r="CE16" s="47"/>
+      <c r="CF16" s="47"/>
+      <c r="CG16" s="47"/>
+      <c r="CH16" s="47"/>
+      <c r="CI16" s="47"/>
+      <c r="CJ16" s="47"/>
+      <c r="CK16" s="47"/>
       <c r="CL16" s="29"/>
-      <c r="CM16" s="38"/>
-      <c r="CN16" s="38"/>
-      <c r="CO16" s="38"/>
-      <c r="CP16" s="38"/>
-      <c r="CQ16" s="38"/>
-      <c r="CR16" s="38"/>
-      <c r="CS16" s="38"/>
-      <c r="CT16" s="38"/>
-      <c r="CU16" s="38"/>
-      <c r="CV16" s="38"/>
-      <c r="CW16" s="38"/>
-      <c r="CX16" s="38"/>
-      <c r="CY16" s="38"/>
-      <c r="CZ16" s="38"/>
+      <c r="CM16" s="47"/>
+      <c r="CN16" s="47"/>
+      <c r="CO16" s="47"/>
+      <c r="CP16" s="47"/>
+      <c r="CQ16" s="47"/>
+      <c r="CR16" s="47"/>
+      <c r="CS16" s="47"/>
+      <c r="CT16" s="47"/>
+      <c r="CU16" s="47"/>
+      <c r="CV16" s="47"/>
+      <c r="CW16" s="47"/>
+      <c r="CX16" s="47"/>
+      <c r="CY16" s="47"/>
+      <c r="CZ16" s="47"/>
     </row>
     <row r="17" spans="2:104" ht="20.25" customHeight="1">
       <c r="B17" s="5">
@@ -5186,34 +5225,34 @@
       <c r="BU17" s="7"/>
       <c r="BV17" s="10"/>
       <c r="BW17" s="10"/>
-      <c r="BY17" s="38"/>
-      <c r="BZ17" s="43"/>
-      <c r="CA17" s="43"/>
-      <c r="CB17" s="38"/>
-      <c r="CC17" s="38"/>
-      <c r="CD17" s="38"/>
-      <c r="CE17" s="38"/>
-      <c r="CF17" s="38"/>
-      <c r="CG17" s="38"/>
-      <c r="CH17" s="38"/>
-      <c r="CI17" s="38"/>
-      <c r="CJ17" s="38"/>
-      <c r="CK17" s="38"/>
+      <c r="BY17" s="47"/>
+      <c r="BZ17" s="50"/>
+      <c r="CA17" s="50"/>
+      <c r="CB17" s="47"/>
+      <c r="CC17" s="47"/>
+      <c r="CD17" s="47"/>
+      <c r="CE17" s="47"/>
+      <c r="CF17" s="47"/>
+      <c r="CG17" s="47"/>
+      <c r="CH17" s="47"/>
+      <c r="CI17" s="47"/>
+      <c r="CJ17" s="47"/>
+      <c r="CK17" s="47"/>
       <c r="CL17" s="29"/>
-      <c r="CM17" s="38"/>
-      <c r="CN17" s="38"/>
-      <c r="CO17" s="38"/>
-      <c r="CP17" s="38"/>
-      <c r="CQ17" s="38"/>
-      <c r="CR17" s="38"/>
-      <c r="CS17" s="38"/>
-      <c r="CT17" s="38"/>
-      <c r="CU17" s="38"/>
-      <c r="CV17" s="38"/>
-      <c r="CW17" s="38"/>
-      <c r="CX17" s="38"/>
-      <c r="CY17" s="38"/>
-      <c r="CZ17" s="38"/>
+      <c r="CM17" s="47"/>
+      <c r="CN17" s="47"/>
+      <c r="CO17" s="47"/>
+      <c r="CP17" s="47"/>
+      <c r="CQ17" s="47"/>
+      <c r="CR17" s="47"/>
+      <c r="CS17" s="47"/>
+      <c r="CT17" s="47"/>
+      <c r="CU17" s="47"/>
+      <c r="CV17" s="47"/>
+      <c r="CW17" s="47"/>
+      <c r="CX17" s="47"/>
+      <c r="CY17" s="47"/>
+      <c r="CZ17" s="47"/>
     </row>
     <row r="18" spans="2:104" ht="20.25" customHeight="1">
       <c r="B18" s="5">
@@ -5358,34 +5397,34 @@
       <c r="BV18" s="10"/>
       <c r="BW18" s="10"/>
       <c r="BX18" s="11"/>
-      <c r="BY18" s="38"/>
-      <c r="BZ18" s="43"/>
-      <c r="CA18" s="43"/>
-      <c r="CB18" s="38"/>
-      <c r="CC18" s="38"/>
-      <c r="CD18" s="38"/>
-      <c r="CE18" s="38"/>
-      <c r="CF18" s="38"/>
-      <c r="CG18" s="38"/>
-      <c r="CH18" s="38"/>
-      <c r="CI18" s="38"/>
-      <c r="CJ18" s="38"/>
-      <c r="CK18" s="38"/>
+      <c r="BY18" s="47"/>
+      <c r="BZ18" s="50"/>
+      <c r="CA18" s="50"/>
+      <c r="CB18" s="47"/>
+      <c r="CC18" s="47"/>
+      <c r="CD18" s="47"/>
+      <c r="CE18" s="47"/>
+      <c r="CF18" s="47"/>
+      <c r="CG18" s="47"/>
+      <c r="CH18" s="47"/>
+      <c r="CI18" s="47"/>
+      <c r="CJ18" s="47"/>
+      <c r="CK18" s="47"/>
       <c r="CL18" s="29"/>
-      <c r="CM18" s="38"/>
-      <c r="CN18" s="38"/>
-      <c r="CO18" s="38"/>
-      <c r="CP18" s="38"/>
-      <c r="CQ18" s="38"/>
-      <c r="CR18" s="38"/>
-      <c r="CS18" s="38"/>
-      <c r="CT18" s="38"/>
-      <c r="CU18" s="38"/>
-      <c r="CV18" s="38"/>
-      <c r="CW18" s="38"/>
-      <c r="CX18" s="38"/>
-      <c r="CY18" s="38"/>
-      <c r="CZ18" s="38"/>
+      <c r="CM18" s="47"/>
+      <c r="CN18" s="47"/>
+      <c r="CO18" s="47"/>
+      <c r="CP18" s="47"/>
+      <c r="CQ18" s="47"/>
+      <c r="CR18" s="47"/>
+      <c r="CS18" s="47"/>
+      <c r="CT18" s="47"/>
+      <c r="CU18" s="47"/>
+      <c r="CV18" s="47"/>
+      <c r="CW18" s="47"/>
+      <c r="CX18" s="47"/>
+      <c r="CY18" s="47"/>
+      <c r="CZ18" s="47"/>
     </row>
     <row r="19" spans="2:104" ht="20.25" customHeight="1">
       <c r="B19" s="5">
@@ -5530,34 +5569,34 @@
       <c r="BV19" s="10"/>
       <c r="BW19" s="10"/>
       <c r="BX19" s="11"/>
-      <c r="BY19" s="38"/>
-      <c r="BZ19" s="43"/>
-      <c r="CA19" s="43"/>
-      <c r="CB19" s="38"/>
-      <c r="CC19" s="38"/>
-      <c r="CD19" s="38"/>
-      <c r="CE19" s="38"/>
-      <c r="CF19" s="38"/>
-      <c r="CG19" s="38"/>
-      <c r="CH19" s="38"/>
-      <c r="CI19" s="38"/>
-      <c r="CJ19" s="38"/>
-      <c r="CK19" s="38"/>
+      <c r="BY19" s="47"/>
+      <c r="BZ19" s="50"/>
+      <c r="CA19" s="50"/>
+      <c r="CB19" s="47"/>
+      <c r="CC19" s="47"/>
+      <c r="CD19" s="47"/>
+      <c r="CE19" s="47"/>
+      <c r="CF19" s="47"/>
+      <c r="CG19" s="47"/>
+      <c r="CH19" s="47"/>
+      <c r="CI19" s="47"/>
+      <c r="CJ19" s="47"/>
+      <c r="CK19" s="47"/>
       <c r="CL19" s="29"/>
-      <c r="CM19" s="38"/>
-      <c r="CN19" s="38"/>
-      <c r="CO19" s="38"/>
-      <c r="CP19" s="38"/>
-      <c r="CQ19" s="38"/>
-      <c r="CR19" s="38"/>
-      <c r="CS19" s="38"/>
-      <c r="CT19" s="38"/>
-      <c r="CU19" s="38"/>
-      <c r="CV19" s="38"/>
-      <c r="CW19" s="38"/>
-      <c r="CX19" s="38"/>
-      <c r="CY19" s="38"/>
-      <c r="CZ19" s="38"/>
+      <c r="CM19" s="47"/>
+      <c r="CN19" s="47"/>
+      <c r="CO19" s="47"/>
+      <c r="CP19" s="47"/>
+      <c r="CQ19" s="47"/>
+      <c r="CR19" s="47"/>
+      <c r="CS19" s="47"/>
+      <c r="CT19" s="47"/>
+      <c r="CU19" s="47"/>
+      <c r="CV19" s="47"/>
+      <c r="CW19" s="47"/>
+      <c r="CX19" s="47"/>
+      <c r="CY19" s="47"/>
+      <c r="CZ19" s="47"/>
     </row>
     <row r="20" spans="2:104" ht="20.25" customHeight="1">
       <c r="B20" s="5">
@@ -5702,34 +5741,34 @@
       <c r="BV20" s="10"/>
       <c r="BW20" s="10"/>
       <c r="BX20" s="11"/>
-      <c r="BY20" s="38"/>
-      <c r="BZ20" s="43"/>
-      <c r="CA20" s="43"/>
-      <c r="CB20" s="38"/>
-      <c r="CC20" s="38"/>
-      <c r="CD20" s="38"/>
-      <c r="CE20" s="38"/>
-      <c r="CF20" s="38"/>
-      <c r="CG20" s="38"/>
-      <c r="CH20" s="38"/>
-      <c r="CI20" s="38"/>
-      <c r="CJ20" s="38"/>
-      <c r="CK20" s="38"/>
+      <c r="BY20" s="47"/>
+      <c r="BZ20" s="50"/>
+      <c r="CA20" s="50"/>
+      <c r="CB20" s="47"/>
+      <c r="CC20" s="47"/>
+      <c r="CD20" s="47"/>
+      <c r="CE20" s="47"/>
+      <c r="CF20" s="47"/>
+      <c r="CG20" s="47"/>
+      <c r="CH20" s="47"/>
+      <c r="CI20" s="47"/>
+      <c r="CJ20" s="47"/>
+      <c r="CK20" s="47"/>
       <c r="CL20" s="29"/>
-      <c r="CM20" s="38"/>
-      <c r="CN20" s="38"/>
-      <c r="CO20" s="38"/>
-      <c r="CP20" s="38"/>
-      <c r="CQ20" s="38"/>
-      <c r="CR20" s="38"/>
-      <c r="CS20" s="38"/>
-      <c r="CT20" s="38"/>
-      <c r="CU20" s="38"/>
-      <c r="CV20" s="38"/>
-      <c r="CW20" s="38"/>
-      <c r="CX20" s="38"/>
-      <c r="CY20" s="38"/>
-      <c r="CZ20" s="38"/>
+      <c r="CM20" s="47"/>
+      <c r="CN20" s="47"/>
+      <c r="CO20" s="47"/>
+      <c r="CP20" s="47"/>
+      <c r="CQ20" s="47"/>
+      <c r="CR20" s="47"/>
+      <c r="CS20" s="47"/>
+      <c r="CT20" s="47"/>
+      <c r="CU20" s="47"/>
+      <c r="CV20" s="47"/>
+      <c r="CW20" s="47"/>
+      <c r="CX20" s="47"/>
+      <c r="CY20" s="47"/>
+      <c r="CZ20" s="47"/>
     </row>
     <row r="21" spans="2:104" ht="20.25" customHeight="1">
       <c r="B21" s="5">
@@ -5874,34 +5913,34 @@
       <c r="BV21" s="10"/>
       <c r="BW21" s="10"/>
       <c r="BX21" s="11"/>
-      <c r="BY21" s="38"/>
-      <c r="BZ21" s="43"/>
-      <c r="CA21" s="43"/>
-      <c r="CB21" s="38"/>
-      <c r="CC21" s="38"/>
-      <c r="CD21" s="38"/>
-      <c r="CE21" s="38"/>
-      <c r="CF21" s="38"/>
-      <c r="CG21" s="38"/>
-      <c r="CH21" s="38"/>
-      <c r="CI21" s="38"/>
-      <c r="CJ21" s="38"/>
-      <c r="CK21" s="38"/>
+      <c r="BY21" s="47"/>
+      <c r="BZ21" s="50"/>
+      <c r="CA21" s="50"/>
+      <c r="CB21" s="47"/>
+      <c r="CC21" s="47"/>
+      <c r="CD21" s="47"/>
+      <c r="CE21" s="47"/>
+      <c r="CF21" s="47"/>
+      <c r="CG21" s="47"/>
+      <c r="CH21" s="47"/>
+      <c r="CI21" s="47"/>
+      <c r="CJ21" s="47"/>
+      <c r="CK21" s="47"/>
       <c r="CL21" s="29"/>
-      <c r="CM21" s="38"/>
-      <c r="CN21" s="38"/>
-      <c r="CO21" s="38"/>
-      <c r="CP21" s="38"/>
-      <c r="CQ21" s="38"/>
-      <c r="CR21" s="38"/>
-      <c r="CS21" s="38"/>
-      <c r="CT21" s="38"/>
-      <c r="CU21" s="38"/>
-      <c r="CV21" s="38"/>
-      <c r="CW21" s="38"/>
-      <c r="CX21" s="38"/>
-      <c r="CY21" s="38"/>
-      <c r="CZ21" s="38"/>
+      <c r="CM21" s="47"/>
+      <c r="CN21" s="47"/>
+      <c r="CO21" s="47"/>
+      <c r="CP21" s="47"/>
+      <c r="CQ21" s="47"/>
+      <c r="CR21" s="47"/>
+      <c r="CS21" s="47"/>
+      <c r="CT21" s="47"/>
+      <c r="CU21" s="47"/>
+      <c r="CV21" s="47"/>
+      <c r="CW21" s="47"/>
+      <c r="CX21" s="47"/>
+      <c r="CY21" s="47"/>
+      <c r="CZ21" s="47"/>
     </row>
     <row r="22" spans="2:104" ht="20.25" customHeight="1">
       <c r="B22" s="5">
@@ -6046,34 +6085,34 @@
       <c r="BV22" s="10"/>
       <c r="BW22" s="10"/>
       <c r="BX22" s="13"/>
-      <c r="BY22" s="39"/>
-      <c r="BZ22" s="44"/>
-      <c r="CA22" s="44"/>
-      <c r="CB22" s="39"/>
-      <c r="CC22" s="39"/>
-      <c r="CD22" s="39"/>
-      <c r="CE22" s="39"/>
-      <c r="CF22" s="39"/>
-      <c r="CG22" s="39"/>
-      <c r="CH22" s="39"/>
-      <c r="CI22" s="39"/>
-      <c r="CJ22" s="39"/>
-      <c r="CK22" s="39"/>
+      <c r="BY22" s="48"/>
+      <c r="BZ22" s="51"/>
+      <c r="CA22" s="51"/>
+      <c r="CB22" s="48"/>
+      <c r="CC22" s="48"/>
+      <c r="CD22" s="48"/>
+      <c r="CE22" s="48"/>
+      <c r="CF22" s="48"/>
+      <c r="CG22" s="48"/>
+      <c r="CH22" s="48"/>
+      <c r="CI22" s="48"/>
+      <c r="CJ22" s="48"/>
+      <c r="CK22" s="48"/>
       <c r="CL22" s="14"/>
-      <c r="CM22" s="39"/>
-      <c r="CN22" s="39"/>
-      <c r="CO22" s="39"/>
-      <c r="CP22" s="39"/>
-      <c r="CQ22" s="39"/>
-      <c r="CR22" s="39"/>
-      <c r="CS22" s="39"/>
-      <c r="CT22" s="39"/>
-      <c r="CU22" s="39"/>
-      <c r="CV22" s="39"/>
-      <c r="CW22" s="39"/>
-      <c r="CX22" s="39"/>
-      <c r="CY22" s="39"/>
-      <c r="CZ22" s="39"/>
+      <c r="CM22" s="48"/>
+      <c r="CN22" s="48"/>
+      <c r="CO22" s="48"/>
+      <c r="CP22" s="48"/>
+      <c r="CQ22" s="48"/>
+      <c r="CR22" s="48"/>
+      <c r="CS22" s="48"/>
+      <c r="CT22" s="48"/>
+      <c r="CU22" s="48"/>
+      <c r="CV22" s="48"/>
+      <c r="CW22" s="48"/>
+      <c r="CX22" s="48"/>
+      <c r="CY22" s="48"/>
+      <c r="CZ22" s="48"/>
     </row>
     <row r="23" spans="2:104" ht="20.25" customHeight="1">
       <c r="BX23" s="11"/>
@@ -6085,6 +6124,119 @@
     </row>
   </sheetData>
   <mergeCells count="137">
+    <mergeCell ref="CM7:CM13"/>
+    <mergeCell ref="CN7:CN13"/>
+    <mergeCell ref="CO7:CO13"/>
+    <mergeCell ref="CW15:CW22"/>
+    <mergeCell ref="CX7:CX13"/>
+    <mergeCell ref="CY7:CY13"/>
+    <mergeCell ref="CZ7:CZ13"/>
+    <mergeCell ref="CQ15:CQ22"/>
+    <mergeCell ref="CR15:CR22"/>
+    <mergeCell ref="CS15:CS22"/>
+    <mergeCell ref="CU7:CU13"/>
+    <mergeCell ref="CV7:CV13"/>
+    <mergeCell ref="CW7:CW13"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="CX15:CX22"/>
+    <mergeCell ref="CY15:CY22"/>
+    <mergeCell ref="CB7:CB13"/>
+    <mergeCell ref="CC7:CC13"/>
+    <mergeCell ref="CD7:CD13"/>
+    <mergeCell ref="CE7:CE13"/>
+    <mergeCell ref="CF7:CF13"/>
+    <mergeCell ref="CG7:CG13"/>
+    <mergeCell ref="CH7:CH13"/>
+    <mergeCell ref="CI7:CI13"/>
+    <mergeCell ref="CJ7:CJ13"/>
+    <mergeCell ref="CK7:CK13"/>
+    <mergeCell ref="CP7:CP13"/>
+    <mergeCell ref="CQ7:CQ13"/>
+    <mergeCell ref="BY15:BY22"/>
+    <mergeCell ref="BZ15:BZ22"/>
+    <mergeCell ref="CA15:CA22"/>
+    <mergeCell ref="CB15:CB22"/>
+    <mergeCell ref="CC15:CC22"/>
+    <mergeCell ref="CD15:CD22"/>
+    <mergeCell ref="CM15:CM22"/>
+    <mergeCell ref="CN15:CN22"/>
+    <mergeCell ref="CO15:CO22"/>
+    <mergeCell ref="CE15:CE22"/>
+    <mergeCell ref="CF15:CF22"/>
+    <mergeCell ref="CG15:CG22"/>
+    <mergeCell ref="BY7:BY13"/>
+    <mergeCell ref="BZ7:BZ13"/>
+    <mergeCell ref="CA7:CA13"/>
+    <mergeCell ref="CZ5:CZ6"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CT5:CU5"/>
+    <mergeCell ref="CV5:CW5"/>
+    <mergeCell ref="CS5:CS6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CH15:CH22"/>
+    <mergeCell ref="CI15:CI22"/>
+    <mergeCell ref="CJ15:CJ22"/>
+    <mergeCell ref="CK15:CK22"/>
+    <mergeCell ref="CZ15:CZ22"/>
+    <mergeCell ref="CP15:CP22"/>
+    <mergeCell ref="CR7:CR13"/>
+    <mergeCell ref="CS7:CS13"/>
+    <mergeCell ref="CT7:CT13"/>
+    <mergeCell ref="CT15:CT22"/>
+    <mergeCell ref="CU15:CU22"/>
+    <mergeCell ref="CV15:CV22"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CK5:CK6"/>
+    <mergeCell ref="CN5:CO5"/>
+    <mergeCell ref="CP5:CQ5"/>
+    <mergeCell ref="CM5:CM6"/>
+    <mergeCell ref="CH5:CI5"/>
+    <mergeCell ref="CE5:CE6"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="CF5:CG5"/>
+    <mergeCell ref="BP4:BW4"/>
+    <mergeCell ref="BY4:CD4"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="Z4:AF4"/>
+    <mergeCell ref="AH4:AM4"/>
+    <mergeCell ref="AN4:AT4"/>
+    <mergeCell ref="AV4:BA4"/>
+    <mergeCell ref="BB4:BH4"/>
+    <mergeCell ref="BJ4:BO4"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="BM5:BN5"/>
+    <mergeCell ref="BQ5:BR5"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="E4:E6"/>
     <mergeCell ref="CE4:CK4"/>
     <mergeCell ref="CM4:CR4"/>
     <mergeCell ref="CS4:CZ4"/>
@@ -6109,119 +6261,6 @@
     <mergeCell ref="L4:R4"/>
     <mergeCell ref="T5:T6"/>
     <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BW5:BW6"/>
-    <mergeCell ref="BY5:BY6"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="BZ5:CA5"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="BP4:BW4"/>
-    <mergeCell ref="BY4:CD4"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="Z4:AF4"/>
-    <mergeCell ref="AH4:AM4"/>
-    <mergeCell ref="AN4:AT4"/>
-    <mergeCell ref="AV4:BA4"/>
-    <mergeCell ref="BB4:BH4"/>
-    <mergeCell ref="BJ4:BO4"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CK5:CK6"/>
-    <mergeCell ref="CN5:CO5"/>
-    <mergeCell ref="CP5:CQ5"/>
-    <mergeCell ref="CM5:CM6"/>
-    <mergeCell ref="CH5:CI5"/>
-    <mergeCell ref="CE5:CE6"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="CF5:CG5"/>
-    <mergeCell ref="CE15:CE22"/>
-    <mergeCell ref="CF15:CF22"/>
-    <mergeCell ref="CG15:CG22"/>
-    <mergeCell ref="BY7:BY13"/>
-    <mergeCell ref="BZ7:BZ13"/>
-    <mergeCell ref="CA7:CA13"/>
-    <mergeCell ref="CZ5:CZ6"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CT5:CU5"/>
-    <mergeCell ref="CV5:CW5"/>
-    <mergeCell ref="CS5:CS6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CH15:CH22"/>
-    <mergeCell ref="CI15:CI22"/>
-    <mergeCell ref="CJ15:CJ22"/>
-    <mergeCell ref="CK15:CK22"/>
-    <mergeCell ref="CZ15:CZ22"/>
-    <mergeCell ref="CP15:CP22"/>
-    <mergeCell ref="CR7:CR13"/>
-    <mergeCell ref="CS7:CS13"/>
-    <mergeCell ref="CT7:CT13"/>
-    <mergeCell ref="CT15:CT22"/>
-    <mergeCell ref="CU15:CU22"/>
-    <mergeCell ref="CV15:CV22"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="CX15:CX22"/>
-    <mergeCell ref="CY15:CY22"/>
-    <mergeCell ref="CB7:CB13"/>
-    <mergeCell ref="CC7:CC13"/>
-    <mergeCell ref="CD7:CD13"/>
-    <mergeCell ref="CE7:CE13"/>
-    <mergeCell ref="CF7:CF13"/>
-    <mergeCell ref="CG7:CG13"/>
-    <mergeCell ref="CH7:CH13"/>
-    <mergeCell ref="CI7:CI13"/>
-    <mergeCell ref="CJ7:CJ13"/>
-    <mergeCell ref="CK7:CK13"/>
-    <mergeCell ref="CP7:CP13"/>
-    <mergeCell ref="CQ7:CQ13"/>
-    <mergeCell ref="BY15:BY22"/>
-    <mergeCell ref="BZ15:BZ22"/>
-    <mergeCell ref="CA15:CA22"/>
-    <mergeCell ref="CB15:CB22"/>
-    <mergeCell ref="CC15:CC22"/>
-    <mergeCell ref="CD15:CD22"/>
-    <mergeCell ref="CM15:CM22"/>
-    <mergeCell ref="CN15:CN22"/>
-    <mergeCell ref="CO15:CO22"/>
-    <mergeCell ref="CM7:CM13"/>
-    <mergeCell ref="CN7:CN13"/>
-    <mergeCell ref="CO7:CO13"/>
-    <mergeCell ref="CW15:CW22"/>
-    <mergeCell ref="CX7:CX13"/>
-    <mergeCell ref="CY7:CY13"/>
-    <mergeCell ref="CZ7:CZ13"/>
-    <mergeCell ref="CQ15:CQ22"/>
-    <mergeCell ref="CR15:CR22"/>
-    <mergeCell ref="CS15:CS22"/>
-    <mergeCell ref="CU7:CU13"/>
-    <mergeCell ref="CV7:CV13"/>
-    <mergeCell ref="CW7:CW13"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="F7:K14">
@@ -6320,72 +6359,72 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U15:Y22">
-    <cfRule type="expression" dxfId="0" priority="221">
+    <cfRule type="expression" dxfId="13" priority="221">
       <formula>$X15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z15:AF22">
-    <cfRule type="expression" dxfId="13" priority="223">
+    <cfRule type="expression" dxfId="12" priority="223">
       <formula>$AD15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH15:AM22">
-    <cfRule type="expression" dxfId="12" priority="225">
+    <cfRule type="expression" dxfId="11" priority="225">
       <formula>$AL15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN15:AT22">
-    <cfRule type="expression" dxfId="11" priority="227">
+    <cfRule type="expression" dxfId="10" priority="227">
       <formula>$AR15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV15:BA22">
-    <cfRule type="expression" dxfId="10" priority="229">
+    <cfRule type="expression" dxfId="9" priority="229">
       <formula>$AZ15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB15:BH22">
-    <cfRule type="expression" dxfId="9" priority="231">
+    <cfRule type="expression" dxfId="8" priority="231">
       <formula>$BF15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ15:BO22">
-    <cfRule type="expression" dxfId="8" priority="233">
+    <cfRule type="expression" dxfId="7" priority="233">
       <formula>$BN15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP15:BW22">
-    <cfRule type="expression" dxfId="7" priority="235">
+    <cfRule type="expression" dxfId="6" priority="235">
       <formula>$BT15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15:AB21">
-    <cfRule type="expression" dxfId="6" priority="236">
+    <cfRule type="expression" dxfId="5" priority="236">
       <formula>$X16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T21:T22">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T20 T15:T16">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15:T16">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17:T18">
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="0" priority="5">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6420,7 +6459,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.45"/>
   <sheetData>
     <row r="5" spans="4:5">
       <c r="D5" t="s">
@@ -6453,7 +6492,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.45"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6469,7 +6508,7 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.45"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6485,7 +6524,7 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.45"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6501,7 +6540,7 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.45"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6517,7 +6556,7 @@
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.45"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6533,7 +6572,7 @@
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.45"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/スケジュール（2023-06）.xlsx
+++ b/スケジュール（2023-06）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SymStudy\2023-06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC473A6-4422-4B45-A0E5-E561E6BA6BA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9F5D04-8F17-4933-A5BD-F149EE737EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12497" tabRatio="910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -692,8 +692,38 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -704,37 +734,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2691,10 +2691,10 @@
   <dimension ref="B3:CZ24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="Q7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="R7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="V3" sqref="V3"/>
+      <selection pane="bottomRight" activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.6" outlineLevelCol="1"/>
@@ -2753,381 +2753,381 @@
       </c>
     </row>
     <row r="4" spans="2:104" s="20" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37" t="s">
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="37"/>
-      <c r="R4" s="37"/>
-      <c r="T4" s="37" t="s">
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="T4" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="37"/>
-      <c r="X4" s="37"/>
-      <c r="Y4" s="37"/>
-      <c r="Z4" s="37" t="s">
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="37"/>
-      <c r="AB4" s="37"/>
-      <c r="AC4" s="37"/>
-      <c r="AD4" s="37"/>
-      <c r="AE4" s="37"/>
-      <c r="AF4" s="37"/>
-      <c r="AH4" s="37" t="s">
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="41"/>
+      <c r="AH4" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="AI4" s="37"/>
-      <c r="AJ4" s="37"/>
-      <c r="AK4" s="37"/>
-      <c r="AL4" s="37"/>
-      <c r="AM4" s="37"/>
-      <c r="AN4" s="37" t="s">
+      <c r="AI4" s="41"/>
+      <c r="AJ4" s="41"/>
+      <c r="AK4" s="41"/>
+      <c r="AL4" s="41"/>
+      <c r="AM4" s="41"/>
+      <c r="AN4" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="AO4" s="37"/>
-      <c r="AP4" s="37"/>
-      <c r="AQ4" s="37"/>
-      <c r="AR4" s="37"/>
-      <c r="AS4" s="37"/>
-      <c r="AT4" s="38"/>
+      <c r="AO4" s="41"/>
+      <c r="AP4" s="41"/>
+      <c r="AQ4" s="41"/>
+      <c r="AR4" s="41"/>
+      <c r="AS4" s="41"/>
+      <c r="AT4" s="48"/>
       <c r="AU4" s="21"/>
-      <c r="AV4" s="37" t="s">
+      <c r="AV4" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="AW4" s="37"/>
-      <c r="AX4" s="37"/>
-      <c r="AY4" s="37"/>
-      <c r="AZ4" s="37"/>
-      <c r="BA4" s="37"/>
-      <c r="BB4" s="37" t="s">
+      <c r="AW4" s="41"/>
+      <c r="AX4" s="41"/>
+      <c r="AY4" s="41"/>
+      <c r="AZ4" s="41"/>
+      <c r="BA4" s="41"/>
+      <c r="BB4" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="BC4" s="37"/>
-      <c r="BD4" s="37"/>
-      <c r="BE4" s="37"/>
-      <c r="BF4" s="37"/>
-      <c r="BG4" s="37"/>
-      <c r="BH4" s="37"/>
+      <c r="BC4" s="41"/>
+      <c r="BD4" s="41"/>
+      <c r="BE4" s="41"/>
+      <c r="BF4" s="41"/>
+      <c r="BG4" s="41"/>
+      <c r="BH4" s="41"/>
       <c r="BI4" s="22"/>
-      <c r="BJ4" s="39" t="s">
+      <c r="BJ4" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="BK4" s="37"/>
-      <c r="BL4" s="37"/>
-      <c r="BM4" s="37"/>
-      <c r="BN4" s="37"/>
-      <c r="BO4" s="37"/>
-      <c r="BP4" s="37" t="s">
+      <c r="BK4" s="41"/>
+      <c r="BL4" s="41"/>
+      <c r="BM4" s="41"/>
+      <c r="BN4" s="41"/>
+      <c r="BO4" s="41"/>
+      <c r="BP4" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="BQ4" s="37"/>
-      <c r="BR4" s="37"/>
-      <c r="BS4" s="37"/>
-      <c r="BT4" s="37"/>
-      <c r="BU4" s="37"/>
-      <c r="BV4" s="37"/>
-      <c r="BW4" s="37"/>
-      <c r="BY4" s="37" t="s">
+      <c r="BQ4" s="41"/>
+      <c r="BR4" s="41"/>
+      <c r="BS4" s="41"/>
+      <c r="BT4" s="41"/>
+      <c r="BU4" s="41"/>
+      <c r="BV4" s="41"/>
+      <c r="BW4" s="41"/>
+      <c r="BY4" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="BZ4" s="37"/>
-      <c r="CA4" s="37"/>
-      <c r="CB4" s="37"/>
-      <c r="CC4" s="37"/>
-      <c r="CD4" s="37"/>
-      <c r="CE4" s="37" t="s">
+      <c r="BZ4" s="41"/>
+      <c r="CA4" s="41"/>
+      <c r="CB4" s="41"/>
+      <c r="CC4" s="41"/>
+      <c r="CD4" s="41"/>
+      <c r="CE4" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="CF4" s="37"/>
-      <c r="CG4" s="37"/>
-      <c r="CH4" s="37"/>
-      <c r="CI4" s="37"/>
-      <c r="CJ4" s="37"/>
-      <c r="CK4" s="38"/>
+      <c r="CF4" s="41"/>
+      <c r="CG4" s="41"/>
+      <c r="CH4" s="41"/>
+      <c r="CI4" s="41"/>
+      <c r="CJ4" s="41"/>
+      <c r="CK4" s="48"/>
       <c r="CL4" s="23"/>
-      <c r="CM4" s="39" t="s">
+      <c r="CM4" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="CN4" s="37"/>
-      <c r="CO4" s="37"/>
-      <c r="CP4" s="37"/>
-      <c r="CQ4" s="37"/>
-      <c r="CR4" s="37"/>
-      <c r="CS4" s="37" t="s">
+      <c r="CN4" s="41"/>
+      <c r="CO4" s="41"/>
+      <c r="CP4" s="41"/>
+      <c r="CQ4" s="41"/>
+      <c r="CR4" s="41"/>
+      <c r="CS4" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="CT4" s="37"/>
-      <c r="CU4" s="37"/>
-      <c r="CV4" s="37"/>
-      <c r="CW4" s="37"/>
-      <c r="CX4" s="37"/>
-      <c r="CY4" s="37"/>
-      <c r="CZ4" s="37"/>
+      <c r="CT4" s="41"/>
+      <c r="CU4" s="41"/>
+      <c r="CV4" s="41"/>
+      <c r="CW4" s="41"/>
+      <c r="CX4" s="41"/>
+      <c r="CY4" s="41"/>
+      <c r="CZ4" s="41"/>
     </row>
     <row r="5" spans="2:104" ht="21.65" customHeight="1">
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="37" t="s">
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40" t="s">
+      <c r="H5" s="50"/>
+      <c r="I5" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="40"/>
-      <c r="K5" s="41" t="s">
+      <c r="J5" s="50"/>
+      <c r="K5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="37" t="s">
+      <c r="L5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="40" t="s">
+      <c r="M5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40" t="s">
+      <c r="N5" s="50"/>
+      <c r="O5" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="41" t="s">
+      <c r="P5" s="50"/>
+      <c r="Q5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="41" t="s">
+      <c r="R5" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="37" t="s">
+      <c r="T5" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="40" t="s">
+      <c r="U5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40" t="s">
+      <c r="V5" s="50"/>
+      <c r="W5" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="41" t="s">
+      <c r="X5" s="50"/>
+      <c r="Y5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="37" t="s">
+      <c r="Z5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AA5" s="40" t="s">
+      <c r="AA5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AB5" s="40"/>
-      <c r="AC5" s="40" t="s">
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AD5" s="40"/>
-      <c r="AE5" s="41" t="s">
+      <c r="AD5" s="50"/>
+      <c r="AE5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="AF5" s="41" t="s">
+      <c r="AF5" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="AH5" s="37" t="s">
+      <c r="AH5" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="AI5" s="40" t="s">
+      <c r="AI5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AJ5" s="40"/>
-      <c r="AK5" s="40" t="s">
+      <c r="AJ5" s="50"/>
+      <c r="AK5" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AL5" s="40"/>
-      <c r="AM5" s="41" t="s">
+      <c r="AL5" s="50"/>
+      <c r="AM5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="AN5" s="37" t="s">
+      <c r="AN5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AO5" s="40" t="s">
+      <c r="AO5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AP5" s="40"/>
-      <c r="AQ5" s="40" t="s">
+      <c r="AP5" s="50"/>
+      <c r="AQ5" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AR5" s="40"/>
-      <c r="AS5" s="41" t="s">
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="AT5" s="43" t="s">
+      <c r="AT5" s="47" t="s">
         <v>23</v>
       </c>
       <c r="AU5" s="13"/>
-      <c r="AV5" s="37" t="s">
+      <c r="AV5" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="AW5" s="40" t="s">
+      <c r="AW5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AX5" s="40"/>
-      <c r="AY5" s="40" t="s">
+      <c r="AX5" s="50"/>
+      <c r="AY5" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AZ5" s="40"/>
-      <c r="BA5" s="41" t="s">
+      <c r="AZ5" s="50"/>
+      <c r="BA5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="BB5" s="37" t="s">
+      <c r="BB5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="BC5" s="40" t="s">
+      <c r="BC5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="BD5" s="40"/>
-      <c r="BE5" s="40" t="s">
+      <c r="BD5" s="50"/>
+      <c r="BE5" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="BF5" s="40"/>
-      <c r="BG5" s="41" t="s">
+      <c r="BF5" s="50"/>
+      <c r="BG5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="BH5" s="41" t="s">
+      <c r="BH5" s="40" t="s">
         <v>23</v>
       </c>
       <c r="BI5" s="14"/>
-      <c r="BJ5" s="39" t="s">
+      <c r="BJ5" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="BK5" s="40" t="s">
+      <c r="BK5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="BL5" s="40"/>
-      <c r="BM5" s="40" t="s">
+      <c r="BL5" s="50"/>
+      <c r="BM5" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="BN5" s="40"/>
-      <c r="BO5" s="41" t="s">
+      <c r="BN5" s="50"/>
+      <c r="BO5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="BP5" s="37" t="s">
+      <c r="BP5" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="BQ5" s="40" t="s">
+      <c r="BQ5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="BR5" s="40"/>
-      <c r="BS5" s="40" t="s">
+      <c r="BR5" s="50"/>
+      <c r="BS5" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="BT5" s="40"/>
-      <c r="BU5" s="41" t="s">
+      <c r="BT5" s="50"/>
+      <c r="BU5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="BV5" s="41" t="s">
+      <c r="BV5" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="BW5" s="41" t="s">
+      <c r="BW5" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="BY5" s="37" t="s">
+      <c r="BY5" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="BZ5" s="44" t="s">
+      <c r="BZ5" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="CA5" s="44"/>
-      <c r="CB5" s="44" t="s">
+      <c r="CA5" s="46"/>
+      <c r="CB5" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="CC5" s="44"/>
-      <c r="CD5" s="41" t="s">
+      <c r="CC5" s="46"/>
+      <c r="CD5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="CE5" s="37" t="s">
+      <c r="CE5" s="41" t="s">
         <v>22</v>
       </c>
       <c r="CF5" s="45" t="s">
         <v>19</v>
       </c>
       <c r="CG5" s="45"/>
-      <c r="CH5" s="44" t="s">
+      <c r="CH5" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="CI5" s="44"/>
-      <c r="CJ5" s="41" t="s">
+      <c r="CI5" s="46"/>
+      <c r="CJ5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="CK5" s="43" t="s">
+      <c r="CK5" s="47" t="s">
         <v>23</v>
       </c>
       <c r="CL5" s="11"/>
-      <c r="CM5" s="39" t="s">
+      <c r="CM5" s="49" t="s">
         <v>18</v>
       </c>
       <c r="CN5" s="45" t="s">
         <v>19</v>
       </c>
       <c r="CO5" s="45"/>
-      <c r="CP5" s="44" t="s">
+      <c r="CP5" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="CQ5" s="44"/>
-      <c r="CR5" s="41" t="s">
+      <c r="CQ5" s="46"/>
+      <c r="CR5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="CS5" s="37" t="s">
+      <c r="CS5" s="41" t="s">
         <v>22</v>
       </c>
       <c r="CT5" s="45" t="s">
         <v>19</v>
       </c>
       <c r="CU5" s="45"/>
-      <c r="CV5" s="44" t="s">
+      <c r="CV5" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="CW5" s="44"/>
-      <c r="CX5" s="41" t="s">
+      <c r="CW5" s="46"/>
+      <c r="CX5" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="CY5" s="41" t="s">
+      <c r="CY5" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="CZ5" s="41" t="s">
+      <c r="CZ5" s="40" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:104" ht="14.15">
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="37"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="41"/>
       <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3140,8 +3140,8 @@
       <c r="J6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
       <c r="M6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3154,9 +3154,9 @@
       <c r="P6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="T6" s="37"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="T6" s="41"/>
       <c r="U6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3169,8 +3169,8 @@
       <c r="X6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="37"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
       <c r="AA6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3183,9 +3183,9 @@
       <c r="AD6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AE6" s="37"/>
-      <c r="AF6" s="37"/>
-      <c r="AH6" s="37"/>
+      <c r="AE6" s="41"/>
+      <c r="AF6" s="41"/>
+      <c r="AH6" s="41"/>
       <c r="AI6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3198,8 +3198,8 @@
       <c r="AL6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AM6" s="37"/>
-      <c r="AN6" s="37"/>
+      <c r="AM6" s="41"/>
+      <c r="AN6" s="41"/>
       <c r="AO6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3212,10 +3212,10 @@
       <c r="AR6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AS6" s="37"/>
-      <c r="AT6" s="38"/>
+      <c r="AS6" s="41"/>
+      <c r="AT6" s="48"/>
       <c r="AU6" s="13"/>
-      <c r="AV6" s="37"/>
+      <c r="AV6" s="41"/>
       <c r="AW6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3228,8 +3228,8 @@
       <c r="AZ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BA6" s="37"/>
-      <c r="BB6" s="37"/>
+      <c r="BA6" s="41"/>
+      <c r="BB6" s="41"/>
       <c r="BC6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3242,10 +3242,10 @@
       <c r="BF6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BG6" s="37"/>
-      <c r="BH6" s="37"/>
+      <c r="BG6" s="41"/>
+      <c r="BH6" s="41"/>
       <c r="BI6" s="14"/>
-      <c r="BJ6" s="39"/>
+      <c r="BJ6" s="49"/>
       <c r="BK6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3258,8 +3258,8 @@
       <c r="BN6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BO6" s="37"/>
-      <c r="BP6" s="37"/>
+      <c r="BO6" s="41"/>
+      <c r="BP6" s="41"/>
       <c r="BQ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3272,10 +3272,10 @@
       <c r="BT6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BU6" s="37"/>
-      <c r="BV6" s="37"/>
-      <c r="BW6" s="37"/>
-      <c r="BY6" s="37"/>
+      <c r="BU6" s="41"/>
+      <c r="BV6" s="41"/>
+      <c r="BW6" s="41"/>
+      <c r="BY6" s="41"/>
       <c r="BZ6" s="31" t="s">
         <v>25</v>
       </c>
@@ -3288,8 +3288,8 @@
       <c r="CC6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CD6" s="37"/>
-      <c r="CE6" s="37"/>
+      <c r="CD6" s="41"/>
+      <c r="CE6" s="41"/>
       <c r="CF6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3302,10 +3302,10 @@
       <c r="CI6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CJ6" s="37"/>
-      <c r="CK6" s="38"/>
+      <c r="CJ6" s="41"/>
+      <c r="CK6" s="48"/>
       <c r="CL6" s="11"/>
-      <c r="CM6" s="39"/>
+      <c r="CM6" s="49"/>
       <c r="CN6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3318,8 +3318,8 @@
       <c r="CQ6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CR6" s="37"/>
-      <c r="CS6" s="37"/>
+      <c r="CR6" s="41"/>
+      <c r="CS6" s="41"/>
       <c r="CT6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3332,9 +3332,9 @@
       <c r="CW6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CX6" s="37"/>
-      <c r="CY6" s="37"/>
-      <c r="CZ6" s="37"/>
+      <c r="CX6" s="41"/>
+      <c r="CY6" s="41"/>
+      <c r="CZ6" s="41"/>
     </row>
     <row r="7" spans="2:104" ht="20.25" customHeight="1">
       <c r="B7" s="5">
@@ -3397,7 +3397,9 @@
       <c r="W7" s="6">
         <v>45083</v>
       </c>
-      <c r="X7" s="6"/>
+      <c r="X7" s="6">
+        <v>45084</v>
+      </c>
       <c r="Y7" s="7">
         <v>1</v>
       </c>
@@ -3482,50 +3484,50 @@
       <c r="BU7" s="7"/>
       <c r="BV7" s="10"/>
       <c r="BW7" s="10"/>
-      <c r="BY7" s="46"/>
-      <c r="BZ7" s="46">
+      <c r="BY7" s="37"/>
+      <c r="BZ7" s="37">
         <v>45100</v>
       </c>
-      <c r="CA7" s="46">
+      <c r="CA7" s="37">
         <v>45100</v>
       </c>
-      <c r="CB7" s="46"/>
-      <c r="CC7" s="46"/>
-      <c r="CD7" s="46"/>
-      <c r="CE7" s="46"/>
-      <c r="CF7" s="46">
+      <c r="CB7" s="37"/>
+      <c r="CC7" s="37"/>
+      <c r="CD7" s="37"/>
+      <c r="CE7" s="37"/>
+      <c r="CF7" s="37">
         <v>45103</v>
       </c>
-      <c r="CG7" s="46">
+      <c r="CG7" s="37">
         <v>45103</v>
       </c>
-      <c r="CH7" s="46"/>
-      <c r="CI7" s="46"/>
-      <c r="CJ7" s="46"/>
-      <c r="CK7" s="46"/>
+      <c r="CH7" s="37"/>
+      <c r="CI7" s="37"/>
+      <c r="CJ7" s="37"/>
+      <c r="CK7" s="37"/>
       <c r="CL7" s="14"/>
-      <c r="CM7" s="46"/>
-      <c r="CN7" s="46">
+      <c r="CM7" s="37"/>
+      <c r="CN7" s="37">
         <v>45104</v>
       </c>
-      <c r="CO7" s="46">
+      <c r="CO7" s="37">
         <v>45104</v>
       </c>
-      <c r="CP7" s="46"/>
-      <c r="CQ7" s="46"/>
-      <c r="CR7" s="46"/>
-      <c r="CS7" s="46"/>
-      <c r="CT7" s="46">
+      <c r="CP7" s="37"/>
+      <c r="CQ7" s="37"/>
+      <c r="CR7" s="37"/>
+      <c r="CS7" s="37"/>
+      <c r="CT7" s="37">
         <v>45105</v>
       </c>
-      <c r="CU7" s="46">
+      <c r="CU7" s="37">
         <v>45105</v>
       </c>
-      <c r="CV7" s="46"/>
-      <c r="CW7" s="46"/>
-      <c r="CX7" s="46"/>
-      <c r="CY7" s="46"/>
-      <c r="CZ7" s="46"/>
+      <c r="CV7" s="37"/>
+      <c r="CW7" s="37"/>
+      <c r="CX7" s="37"/>
+      <c r="CY7" s="37"/>
+      <c r="CZ7" s="37"/>
     </row>
     <row r="8" spans="2:104" ht="20.25" customHeight="1">
       <c r="B8" s="5">
@@ -3669,34 +3671,34 @@
       <c r="BU8" s="7"/>
       <c r="BV8" s="10"/>
       <c r="BW8" s="10"/>
-      <c r="BY8" s="47"/>
-      <c r="BZ8" s="47"/>
-      <c r="CA8" s="47"/>
-      <c r="CB8" s="47"/>
-      <c r="CC8" s="47"/>
-      <c r="CD8" s="47"/>
-      <c r="CE8" s="47"/>
-      <c r="CF8" s="47"/>
-      <c r="CG8" s="47"/>
-      <c r="CH8" s="47"/>
-      <c r="CI8" s="47"/>
-      <c r="CJ8" s="47"/>
-      <c r="CK8" s="47"/>
+      <c r="BY8" s="38"/>
+      <c r="BZ8" s="38"/>
+      <c r="CA8" s="38"/>
+      <c r="CB8" s="38"/>
+      <c r="CC8" s="38"/>
+      <c r="CD8" s="38"/>
+      <c r="CE8" s="38"/>
+      <c r="CF8" s="38"/>
+      <c r="CG8" s="38"/>
+      <c r="CH8" s="38"/>
+      <c r="CI8" s="38"/>
+      <c r="CJ8" s="38"/>
+      <c r="CK8" s="38"/>
       <c r="CL8" s="14"/>
-      <c r="CM8" s="47"/>
-      <c r="CN8" s="47"/>
-      <c r="CO8" s="47"/>
-      <c r="CP8" s="47"/>
-      <c r="CQ8" s="47"/>
-      <c r="CR8" s="47"/>
-      <c r="CS8" s="47"/>
-      <c r="CT8" s="47"/>
-      <c r="CU8" s="47"/>
-      <c r="CV8" s="47"/>
-      <c r="CW8" s="47"/>
-      <c r="CX8" s="47"/>
-      <c r="CY8" s="47"/>
-      <c r="CZ8" s="47"/>
+      <c r="CM8" s="38"/>
+      <c r="CN8" s="38"/>
+      <c r="CO8" s="38"/>
+      <c r="CP8" s="38"/>
+      <c r="CQ8" s="38"/>
+      <c r="CR8" s="38"/>
+      <c r="CS8" s="38"/>
+      <c r="CT8" s="38"/>
+      <c r="CU8" s="38"/>
+      <c r="CV8" s="38"/>
+      <c r="CW8" s="38"/>
+      <c r="CX8" s="38"/>
+      <c r="CY8" s="38"/>
+      <c r="CZ8" s="38"/>
     </row>
     <row r="9" spans="2:104" ht="20.25" customHeight="1">
       <c r="B9" s="5">
@@ -3847,34 +3849,34 @@
       <c r="BV9" s="10"/>
       <c r="BW9" s="10"/>
       <c r="BX9" s="13"/>
-      <c r="BY9" s="47"/>
-      <c r="BZ9" s="47"/>
-      <c r="CA9" s="47"/>
-      <c r="CB9" s="47"/>
-      <c r="CC9" s="47"/>
-      <c r="CD9" s="47"/>
-      <c r="CE9" s="47"/>
-      <c r="CF9" s="47"/>
-      <c r="CG9" s="47"/>
-      <c r="CH9" s="47"/>
-      <c r="CI9" s="47"/>
-      <c r="CJ9" s="47"/>
-      <c r="CK9" s="47"/>
+      <c r="BY9" s="38"/>
+      <c r="BZ9" s="38"/>
+      <c r="CA9" s="38"/>
+      <c r="CB9" s="38"/>
+      <c r="CC9" s="38"/>
+      <c r="CD9" s="38"/>
+      <c r="CE9" s="38"/>
+      <c r="CF9" s="38"/>
+      <c r="CG9" s="38"/>
+      <c r="CH9" s="38"/>
+      <c r="CI9" s="38"/>
+      <c r="CJ9" s="38"/>
+      <c r="CK9" s="38"/>
       <c r="CL9" s="14"/>
-      <c r="CM9" s="47"/>
-      <c r="CN9" s="47"/>
-      <c r="CO9" s="47"/>
-      <c r="CP9" s="47"/>
-      <c r="CQ9" s="47"/>
-      <c r="CR9" s="47"/>
-      <c r="CS9" s="47"/>
-      <c r="CT9" s="47"/>
-      <c r="CU9" s="47"/>
-      <c r="CV9" s="47"/>
-      <c r="CW9" s="47"/>
-      <c r="CX9" s="47"/>
-      <c r="CY9" s="47"/>
-      <c r="CZ9" s="47"/>
+      <c r="CM9" s="38"/>
+      <c r="CN9" s="38"/>
+      <c r="CO9" s="38"/>
+      <c r="CP9" s="38"/>
+      <c r="CQ9" s="38"/>
+      <c r="CR9" s="38"/>
+      <c r="CS9" s="38"/>
+      <c r="CT9" s="38"/>
+      <c r="CU9" s="38"/>
+      <c r="CV9" s="38"/>
+      <c r="CW9" s="38"/>
+      <c r="CX9" s="38"/>
+      <c r="CY9" s="38"/>
+      <c r="CZ9" s="38"/>
     </row>
     <row r="10" spans="2:104" ht="20.25" customHeight="1">
       <c r="B10" s="5">
@@ -4019,34 +4021,34 @@
       <c r="BV10" s="10"/>
       <c r="BW10" s="10"/>
       <c r="BX10" s="13"/>
-      <c r="BY10" s="47"/>
-      <c r="BZ10" s="47"/>
-      <c r="CA10" s="47"/>
-      <c r="CB10" s="47"/>
-      <c r="CC10" s="47"/>
-      <c r="CD10" s="47"/>
-      <c r="CE10" s="47"/>
-      <c r="CF10" s="47"/>
-      <c r="CG10" s="47"/>
-      <c r="CH10" s="47"/>
-      <c r="CI10" s="47"/>
-      <c r="CJ10" s="47"/>
-      <c r="CK10" s="47"/>
+      <c r="BY10" s="38"/>
+      <c r="BZ10" s="38"/>
+      <c r="CA10" s="38"/>
+      <c r="CB10" s="38"/>
+      <c r="CC10" s="38"/>
+      <c r="CD10" s="38"/>
+      <c r="CE10" s="38"/>
+      <c r="CF10" s="38"/>
+      <c r="CG10" s="38"/>
+      <c r="CH10" s="38"/>
+      <c r="CI10" s="38"/>
+      <c r="CJ10" s="38"/>
+      <c r="CK10" s="38"/>
       <c r="CL10" s="14"/>
-      <c r="CM10" s="47"/>
-      <c r="CN10" s="47"/>
-      <c r="CO10" s="47"/>
-      <c r="CP10" s="47"/>
-      <c r="CQ10" s="47"/>
-      <c r="CR10" s="47"/>
-      <c r="CS10" s="47"/>
-      <c r="CT10" s="47"/>
-      <c r="CU10" s="47"/>
-      <c r="CV10" s="47"/>
-      <c r="CW10" s="47"/>
-      <c r="CX10" s="47"/>
-      <c r="CY10" s="47"/>
-      <c r="CZ10" s="47"/>
+      <c r="CM10" s="38"/>
+      <c r="CN10" s="38"/>
+      <c r="CO10" s="38"/>
+      <c r="CP10" s="38"/>
+      <c r="CQ10" s="38"/>
+      <c r="CR10" s="38"/>
+      <c r="CS10" s="38"/>
+      <c r="CT10" s="38"/>
+      <c r="CU10" s="38"/>
+      <c r="CV10" s="38"/>
+      <c r="CW10" s="38"/>
+      <c r="CX10" s="38"/>
+      <c r="CY10" s="38"/>
+      <c r="CZ10" s="38"/>
     </row>
     <row r="11" spans="2:104" ht="20.25" customHeight="1">
       <c r="B11" s="5">
@@ -4195,34 +4197,34 @@
       <c r="BV11" s="10"/>
       <c r="BW11" s="10"/>
       <c r="BX11" s="13"/>
-      <c r="BY11" s="47"/>
-      <c r="BZ11" s="47"/>
-      <c r="CA11" s="47"/>
-      <c r="CB11" s="47"/>
-      <c r="CC11" s="47"/>
-      <c r="CD11" s="47"/>
-      <c r="CE11" s="47"/>
-      <c r="CF11" s="47"/>
-      <c r="CG11" s="47"/>
-      <c r="CH11" s="47"/>
-      <c r="CI11" s="47"/>
-      <c r="CJ11" s="47"/>
-      <c r="CK11" s="47"/>
+      <c r="BY11" s="38"/>
+      <c r="BZ11" s="38"/>
+      <c r="CA11" s="38"/>
+      <c r="CB11" s="38"/>
+      <c r="CC11" s="38"/>
+      <c r="CD11" s="38"/>
+      <c r="CE11" s="38"/>
+      <c r="CF11" s="38"/>
+      <c r="CG11" s="38"/>
+      <c r="CH11" s="38"/>
+      <c r="CI11" s="38"/>
+      <c r="CJ11" s="38"/>
+      <c r="CK11" s="38"/>
       <c r="CL11" s="14"/>
-      <c r="CM11" s="47"/>
-      <c r="CN11" s="47"/>
-      <c r="CO11" s="47"/>
-      <c r="CP11" s="47"/>
-      <c r="CQ11" s="47"/>
-      <c r="CR11" s="47"/>
-      <c r="CS11" s="47"/>
-      <c r="CT11" s="47"/>
-      <c r="CU11" s="47"/>
-      <c r="CV11" s="47"/>
-      <c r="CW11" s="47"/>
-      <c r="CX11" s="47"/>
-      <c r="CY11" s="47"/>
-      <c r="CZ11" s="47"/>
+      <c r="CM11" s="38"/>
+      <c r="CN11" s="38"/>
+      <c r="CO11" s="38"/>
+      <c r="CP11" s="38"/>
+      <c r="CQ11" s="38"/>
+      <c r="CR11" s="38"/>
+      <c r="CS11" s="38"/>
+      <c r="CT11" s="38"/>
+      <c r="CU11" s="38"/>
+      <c r="CV11" s="38"/>
+      <c r="CW11" s="38"/>
+      <c r="CX11" s="38"/>
+      <c r="CY11" s="38"/>
+      <c r="CZ11" s="38"/>
     </row>
     <row r="12" spans="2:104" ht="20.25" customHeight="1">
       <c r="B12" s="5">
@@ -4371,34 +4373,34 @@
       <c r="BV12" s="10"/>
       <c r="BW12" s="10"/>
       <c r="BX12" s="13"/>
-      <c r="BY12" s="47"/>
-      <c r="BZ12" s="47"/>
-      <c r="CA12" s="47"/>
-      <c r="CB12" s="47"/>
-      <c r="CC12" s="47"/>
-      <c r="CD12" s="47"/>
-      <c r="CE12" s="47"/>
-      <c r="CF12" s="47"/>
-      <c r="CG12" s="47"/>
-      <c r="CH12" s="47"/>
-      <c r="CI12" s="47"/>
-      <c r="CJ12" s="47"/>
-      <c r="CK12" s="47"/>
+      <c r="BY12" s="38"/>
+      <c r="BZ12" s="38"/>
+      <c r="CA12" s="38"/>
+      <c r="CB12" s="38"/>
+      <c r="CC12" s="38"/>
+      <c r="CD12" s="38"/>
+      <c r="CE12" s="38"/>
+      <c r="CF12" s="38"/>
+      <c r="CG12" s="38"/>
+      <c r="CH12" s="38"/>
+      <c r="CI12" s="38"/>
+      <c r="CJ12" s="38"/>
+      <c r="CK12" s="38"/>
       <c r="CL12" s="14"/>
-      <c r="CM12" s="47"/>
-      <c r="CN12" s="47"/>
-      <c r="CO12" s="47"/>
-      <c r="CP12" s="47"/>
-      <c r="CQ12" s="47"/>
-      <c r="CR12" s="47"/>
-      <c r="CS12" s="47"/>
-      <c r="CT12" s="47"/>
-      <c r="CU12" s="47"/>
-      <c r="CV12" s="47"/>
-      <c r="CW12" s="47"/>
-      <c r="CX12" s="47"/>
-      <c r="CY12" s="47"/>
-      <c r="CZ12" s="47"/>
+      <c r="CM12" s="38"/>
+      <c r="CN12" s="38"/>
+      <c r="CO12" s="38"/>
+      <c r="CP12" s="38"/>
+      <c r="CQ12" s="38"/>
+      <c r="CR12" s="38"/>
+      <c r="CS12" s="38"/>
+      <c r="CT12" s="38"/>
+      <c r="CU12" s="38"/>
+      <c r="CV12" s="38"/>
+      <c r="CW12" s="38"/>
+      <c r="CX12" s="38"/>
+      <c r="CY12" s="38"/>
+      <c r="CZ12" s="38"/>
     </row>
     <row r="13" spans="2:104" ht="20.25" customHeight="1">
       <c r="B13" s="5">
@@ -4547,34 +4549,34 @@
       <c r="BV13" s="10"/>
       <c r="BW13" s="10"/>
       <c r="BX13" s="13"/>
-      <c r="BY13" s="47"/>
-      <c r="BZ13" s="47"/>
-      <c r="CA13" s="47"/>
-      <c r="CB13" s="47"/>
-      <c r="CC13" s="47"/>
-      <c r="CD13" s="47"/>
-      <c r="CE13" s="47"/>
-      <c r="CF13" s="47"/>
-      <c r="CG13" s="47"/>
-      <c r="CH13" s="47"/>
-      <c r="CI13" s="47"/>
-      <c r="CJ13" s="47"/>
-      <c r="CK13" s="47"/>
+      <c r="BY13" s="38"/>
+      <c r="BZ13" s="38"/>
+      <c r="CA13" s="38"/>
+      <c r="CB13" s="38"/>
+      <c r="CC13" s="38"/>
+      <c r="CD13" s="38"/>
+      <c r="CE13" s="38"/>
+      <c r="CF13" s="38"/>
+      <c r="CG13" s="38"/>
+      <c r="CH13" s="38"/>
+      <c r="CI13" s="38"/>
+      <c r="CJ13" s="38"/>
+      <c r="CK13" s="38"/>
       <c r="CL13" s="14"/>
-      <c r="CM13" s="47"/>
-      <c r="CN13" s="47"/>
-      <c r="CO13" s="47"/>
-      <c r="CP13" s="47"/>
-      <c r="CQ13" s="47"/>
-      <c r="CR13" s="47"/>
-      <c r="CS13" s="47"/>
-      <c r="CT13" s="47"/>
-      <c r="CU13" s="47"/>
-      <c r="CV13" s="47"/>
-      <c r="CW13" s="47"/>
-      <c r="CX13" s="47"/>
-      <c r="CY13" s="47"/>
-      <c r="CZ13" s="47"/>
+      <c r="CM13" s="38"/>
+      <c r="CN13" s="38"/>
+      <c r="CO13" s="38"/>
+      <c r="CP13" s="38"/>
+      <c r="CQ13" s="38"/>
+      <c r="CR13" s="38"/>
+      <c r="CS13" s="38"/>
+      <c r="CT13" s="38"/>
+      <c r="CU13" s="38"/>
+      <c r="CV13" s="38"/>
+      <c r="CW13" s="38"/>
+      <c r="CX13" s="38"/>
+      <c r="CY13" s="38"/>
+      <c r="CZ13" s="38"/>
     </row>
     <row r="14" spans="2:104" ht="20.25" customHeight="1">
       <c r="B14" s="5">
@@ -4867,50 +4869,50 @@
       <c r="BV15" s="10"/>
       <c r="BW15" s="10"/>
       <c r="BX15" s="13"/>
-      <c r="BY15" s="46"/>
-      <c r="BZ15" s="49">
+      <c r="BY15" s="37"/>
+      <c r="BZ15" s="42">
         <v>45100</v>
       </c>
-      <c r="CA15" s="49">
+      <c r="CA15" s="42">
         <v>45100</v>
       </c>
-      <c r="CB15" s="46"/>
-      <c r="CC15" s="46"/>
-      <c r="CD15" s="46"/>
-      <c r="CE15" s="46"/>
-      <c r="CF15" s="46">
+      <c r="CB15" s="37"/>
+      <c r="CC15" s="37"/>
+      <c r="CD15" s="37"/>
+      <c r="CE15" s="37"/>
+      <c r="CF15" s="37">
         <v>45103</v>
       </c>
-      <c r="CG15" s="46">
+      <c r="CG15" s="37">
         <v>45103</v>
       </c>
-      <c r="CH15" s="46"/>
-      <c r="CI15" s="46"/>
-      <c r="CJ15" s="46"/>
-      <c r="CK15" s="46"/>
+      <c r="CH15" s="37"/>
+      <c r="CI15" s="37"/>
+      <c r="CJ15" s="37"/>
+      <c r="CK15" s="37"/>
       <c r="CL15" s="14"/>
-      <c r="CM15" s="46"/>
-      <c r="CN15" s="46">
+      <c r="CM15" s="37"/>
+      <c r="CN15" s="37">
         <v>45104</v>
       </c>
-      <c r="CO15" s="46">
+      <c r="CO15" s="37">
         <v>45104</v>
       </c>
-      <c r="CP15" s="46"/>
-      <c r="CQ15" s="46"/>
-      <c r="CR15" s="46"/>
-      <c r="CS15" s="46"/>
-      <c r="CT15" s="46">
+      <c r="CP15" s="37"/>
+      <c r="CQ15" s="37"/>
+      <c r="CR15" s="37"/>
+      <c r="CS15" s="37"/>
+      <c r="CT15" s="37">
         <v>45105</v>
       </c>
-      <c r="CU15" s="46">
+      <c r="CU15" s="37">
         <v>45105</v>
       </c>
-      <c r="CV15" s="46"/>
-      <c r="CW15" s="46"/>
-      <c r="CX15" s="46"/>
-      <c r="CY15" s="46"/>
-      <c r="CZ15" s="46"/>
+      <c r="CV15" s="37"/>
+      <c r="CW15" s="37"/>
+      <c r="CX15" s="37"/>
+      <c r="CY15" s="37"/>
+      <c r="CZ15" s="37"/>
     </row>
     <row r="16" spans="2:104" ht="20.25" customHeight="1">
       <c r="B16" s="5">
@@ -5054,34 +5056,34 @@
       <c r="BU16" s="7"/>
       <c r="BV16" s="10"/>
       <c r="BW16" s="10"/>
-      <c r="BY16" s="47"/>
-      <c r="BZ16" s="50"/>
-      <c r="CA16" s="50"/>
-      <c r="CB16" s="47"/>
-      <c r="CC16" s="47"/>
-      <c r="CD16" s="47"/>
-      <c r="CE16" s="47"/>
-      <c r="CF16" s="47"/>
-      <c r="CG16" s="47"/>
-      <c r="CH16" s="47"/>
-      <c r="CI16" s="47"/>
-      <c r="CJ16" s="47"/>
-      <c r="CK16" s="47"/>
+      <c r="BY16" s="38"/>
+      <c r="BZ16" s="43"/>
+      <c r="CA16" s="43"/>
+      <c r="CB16" s="38"/>
+      <c r="CC16" s="38"/>
+      <c r="CD16" s="38"/>
+      <c r="CE16" s="38"/>
+      <c r="CF16" s="38"/>
+      <c r="CG16" s="38"/>
+      <c r="CH16" s="38"/>
+      <c r="CI16" s="38"/>
+      <c r="CJ16" s="38"/>
+      <c r="CK16" s="38"/>
       <c r="CL16" s="29"/>
-      <c r="CM16" s="47"/>
-      <c r="CN16" s="47"/>
-      <c r="CO16" s="47"/>
-      <c r="CP16" s="47"/>
-      <c r="CQ16" s="47"/>
-      <c r="CR16" s="47"/>
-      <c r="CS16" s="47"/>
-      <c r="CT16" s="47"/>
-      <c r="CU16" s="47"/>
-      <c r="CV16" s="47"/>
-      <c r="CW16" s="47"/>
-      <c r="CX16" s="47"/>
-      <c r="CY16" s="47"/>
-      <c r="CZ16" s="47"/>
+      <c r="CM16" s="38"/>
+      <c r="CN16" s="38"/>
+      <c r="CO16" s="38"/>
+      <c r="CP16" s="38"/>
+      <c r="CQ16" s="38"/>
+      <c r="CR16" s="38"/>
+      <c r="CS16" s="38"/>
+      <c r="CT16" s="38"/>
+      <c r="CU16" s="38"/>
+      <c r="CV16" s="38"/>
+      <c r="CW16" s="38"/>
+      <c r="CX16" s="38"/>
+      <c r="CY16" s="38"/>
+      <c r="CZ16" s="38"/>
     </row>
     <row r="17" spans="2:104" ht="20.25" customHeight="1">
       <c r="B17" s="5">
@@ -5225,34 +5227,34 @@
       <c r="BU17" s="7"/>
       <c r="BV17" s="10"/>
       <c r="BW17" s="10"/>
-      <c r="BY17" s="47"/>
-      <c r="BZ17" s="50"/>
-      <c r="CA17" s="50"/>
-      <c r="CB17" s="47"/>
-      <c r="CC17" s="47"/>
-      <c r="CD17" s="47"/>
-      <c r="CE17" s="47"/>
-      <c r="CF17" s="47"/>
-      <c r="CG17" s="47"/>
-      <c r="CH17" s="47"/>
-      <c r="CI17" s="47"/>
-      <c r="CJ17" s="47"/>
-      <c r="CK17" s="47"/>
+      <c r="BY17" s="38"/>
+      <c r="BZ17" s="43"/>
+      <c r="CA17" s="43"/>
+      <c r="CB17" s="38"/>
+      <c r="CC17" s="38"/>
+      <c r="CD17" s="38"/>
+      <c r="CE17" s="38"/>
+      <c r="CF17" s="38"/>
+      <c r="CG17" s="38"/>
+      <c r="CH17" s="38"/>
+      <c r="CI17" s="38"/>
+      <c r="CJ17" s="38"/>
+      <c r="CK17" s="38"/>
       <c r="CL17" s="29"/>
-      <c r="CM17" s="47"/>
-      <c r="CN17" s="47"/>
-      <c r="CO17" s="47"/>
-      <c r="CP17" s="47"/>
-      <c r="CQ17" s="47"/>
-      <c r="CR17" s="47"/>
-      <c r="CS17" s="47"/>
-      <c r="CT17" s="47"/>
-      <c r="CU17" s="47"/>
-      <c r="CV17" s="47"/>
-      <c r="CW17" s="47"/>
-      <c r="CX17" s="47"/>
-      <c r="CY17" s="47"/>
-      <c r="CZ17" s="47"/>
+      <c r="CM17" s="38"/>
+      <c r="CN17" s="38"/>
+      <c r="CO17" s="38"/>
+      <c r="CP17" s="38"/>
+      <c r="CQ17" s="38"/>
+      <c r="CR17" s="38"/>
+      <c r="CS17" s="38"/>
+      <c r="CT17" s="38"/>
+      <c r="CU17" s="38"/>
+      <c r="CV17" s="38"/>
+      <c r="CW17" s="38"/>
+      <c r="CX17" s="38"/>
+      <c r="CY17" s="38"/>
+      <c r="CZ17" s="38"/>
     </row>
     <row r="18" spans="2:104" ht="20.25" customHeight="1">
       <c r="B18" s="5">
@@ -5397,34 +5399,34 @@
       <c r="BV18" s="10"/>
       <c r="BW18" s="10"/>
       <c r="BX18" s="11"/>
-      <c r="BY18" s="47"/>
-      <c r="BZ18" s="50"/>
-      <c r="CA18" s="50"/>
-      <c r="CB18" s="47"/>
-      <c r="CC18" s="47"/>
-      <c r="CD18" s="47"/>
-      <c r="CE18" s="47"/>
-      <c r="CF18" s="47"/>
-      <c r="CG18" s="47"/>
-      <c r="CH18" s="47"/>
-      <c r="CI18" s="47"/>
-      <c r="CJ18" s="47"/>
-      <c r="CK18" s="47"/>
+      <c r="BY18" s="38"/>
+      <c r="BZ18" s="43"/>
+      <c r="CA18" s="43"/>
+      <c r="CB18" s="38"/>
+      <c r="CC18" s="38"/>
+      <c r="CD18" s="38"/>
+      <c r="CE18" s="38"/>
+      <c r="CF18" s="38"/>
+      <c r="CG18" s="38"/>
+      <c r="CH18" s="38"/>
+      <c r="CI18" s="38"/>
+      <c r="CJ18" s="38"/>
+      <c r="CK18" s="38"/>
       <c r="CL18" s="29"/>
-      <c r="CM18" s="47"/>
-      <c r="CN18" s="47"/>
-      <c r="CO18" s="47"/>
-      <c r="CP18" s="47"/>
-      <c r="CQ18" s="47"/>
-      <c r="CR18" s="47"/>
-      <c r="CS18" s="47"/>
-      <c r="CT18" s="47"/>
-      <c r="CU18" s="47"/>
-      <c r="CV18" s="47"/>
-      <c r="CW18" s="47"/>
-      <c r="CX18" s="47"/>
-      <c r="CY18" s="47"/>
-      <c r="CZ18" s="47"/>
+      <c r="CM18" s="38"/>
+      <c r="CN18" s="38"/>
+      <c r="CO18" s="38"/>
+      <c r="CP18" s="38"/>
+      <c r="CQ18" s="38"/>
+      <c r="CR18" s="38"/>
+      <c r="CS18" s="38"/>
+      <c r="CT18" s="38"/>
+      <c r="CU18" s="38"/>
+      <c r="CV18" s="38"/>
+      <c r="CW18" s="38"/>
+      <c r="CX18" s="38"/>
+      <c r="CY18" s="38"/>
+      <c r="CZ18" s="38"/>
     </row>
     <row r="19" spans="2:104" ht="20.25" customHeight="1">
       <c r="B19" s="5">
@@ -5569,34 +5571,34 @@
       <c r="BV19" s="10"/>
       <c r="BW19" s="10"/>
       <c r="BX19" s="11"/>
-      <c r="BY19" s="47"/>
-      <c r="BZ19" s="50"/>
-      <c r="CA19" s="50"/>
-      <c r="CB19" s="47"/>
-      <c r="CC19" s="47"/>
-      <c r="CD19" s="47"/>
-      <c r="CE19" s="47"/>
-      <c r="CF19" s="47"/>
-      <c r="CG19" s="47"/>
-      <c r="CH19" s="47"/>
-      <c r="CI19" s="47"/>
-      <c r="CJ19" s="47"/>
-      <c r="CK19" s="47"/>
+      <c r="BY19" s="38"/>
+      <c r="BZ19" s="43"/>
+      <c r="CA19" s="43"/>
+      <c r="CB19" s="38"/>
+      <c r="CC19" s="38"/>
+      <c r="CD19" s="38"/>
+      <c r="CE19" s="38"/>
+      <c r="CF19" s="38"/>
+      <c r="CG19" s="38"/>
+      <c r="CH19" s="38"/>
+      <c r="CI19" s="38"/>
+      <c r="CJ19" s="38"/>
+      <c r="CK19" s="38"/>
       <c r="CL19" s="29"/>
-      <c r="CM19" s="47"/>
-      <c r="CN19" s="47"/>
-      <c r="CO19" s="47"/>
-      <c r="CP19" s="47"/>
-      <c r="CQ19" s="47"/>
-      <c r="CR19" s="47"/>
-      <c r="CS19" s="47"/>
-      <c r="CT19" s="47"/>
-      <c r="CU19" s="47"/>
-      <c r="CV19" s="47"/>
-      <c r="CW19" s="47"/>
-      <c r="CX19" s="47"/>
-      <c r="CY19" s="47"/>
-      <c r="CZ19" s="47"/>
+      <c r="CM19" s="38"/>
+      <c r="CN19" s="38"/>
+      <c r="CO19" s="38"/>
+      <c r="CP19" s="38"/>
+      <c r="CQ19" s="38"/>
+      <c r="CR19" s="38"/>
+      <c r="CS19" s="38"/>
+      <c r="CT19" s="38"/>
+      <c r="CU19" s="38"/>
+      <c r="CV19" s="38"/>
+      <c r="CW19" s="38"/>
+      <c r="CX19" s="38"/>
+      <c r="CY19" s="38"/>
+      <c r="CZ19" s="38"/>
     </row>
     <row r="20" spans="2:104" ht="20.25" customHeight="1">
       <c r="B20" s="5">
@@ -5741,34 +5743,34 @@
       <c r="BV20" s="10"/>
       <c r="BW20" s="10"/>
       <c r="BX20" s="11"/>
-      <c r="BY20" s="47"/>
-      <c r="BZ20" s="50"/>
-      <c r="CA20" s="50"/>
-      <c r="CB20" s="47"/>
-      <c r="CC20" s="47"/>
-      <c r="CD20" s="47"/>
-      <c r="CE20" s="47"/>
-      <c r="CF20" s="47"/>
-      <c r="CG20" s="47"/>
-      <c r="CH20" s="47"/>
-      <c r="CI20" s="47"/>
-      <c r="CJ20" s="47"/>
-      <c r="CK20" s="47"/>
+      <c r="BY20" s="38"/>
+      <c r="BZ20" s="43"/>
+      <c r="CA20" s="43"/>
+      <c r="CB20" s="38"/>
+      <c r="CC20" s="38"/>
+      <c r="CD20" s="38"/>
+      <c r="CE20" s="38"/>
+      <c r="CF20" s="38"/>
+      <c r="CG20" s="38"/>
+      <c r="CH20" s="38"/>
+      <c r="CI20" s="38"/>
+      <c r="CJ20" s="38"/>
+      <c r="CK20" s="38"/>
       <c r="CL20" s="29"/>
-      <c r="CM20" s="47"/>
-      <c r="CN20" s="47"/>
-      <c r="CO20" s="47"/>
-      <c r="CP20" s="47"/>
-      <c r="CQ20" s="47"/>
-      <c r="CR20" s="47"/>
-      <c r="CS20" s="47"/>
-      <c r="CT20" s="47"/>
-      <c r="CU20" s="47"/>
-      <c r="CV20" s="47"/>
-      <c r="CW20" s="47"/>
-      <c r="CX20" s="47"/>
-      <c r="CY20" s="47"/>
-      <c r="CZ20" s="47"/>
+      <c r="CM20" s="38"/>
+      <c r="CN20" s="38"/>
+      <c r="CO20" s="38"/>
+      <c r="CP20" s="38"/>
+      <c r="CQ20" s="38"/>
+      <c r="CR20" s="38"/>
+      <c r="CS20" s="38"/>
+      <c r="CT20" s="38"/>
+      <c r="CU20" s="38"/>
+      <c r="CV20" s="38"/>
+      <c r="CW20" s="38"/>
+      <c r="CX20" s="38"/>
+      <c r="CY20" s="38"/>
+      <c r="CZ20" s="38"/>
     </row>
     <row r="21" spans="2:104" ht="20.25" customHeight="1">
       <c r="B21" s="5">
@@ -5913,34 +5915,34 @@
       <c r="BV21" s="10"/>
       <c r="BW21" s="10"/>
       <c r="BX21" s="11"/>
-      <c r="BY21" s="47"/>
-      <c r="BZ21" s="50"/>
-      <c r="CA21" s="50"/>
-      <c r="CB21" s="47"/>
-      <c r="CC21" s="47"/>
-      <c r="CD21" s="47"/>
-      <c r="CE21" s="47"/>
-      <c r="CF21" s="47"/>
-      <c r="CG21" s="47"/>
-      <c r="CH21" s="47"/>
-      <c r="CI21" s="47"/>
-      <c r="CJ21" s="47"/>
-      <c r="CK21" s="47"/>
+      <c r="BY21" s="38"/>
+      <c r="BZ21" s="43"/>
+      <c r="CA21" s="43"/>
+      <c r="CB21" s="38"/>
+      <c r="CC21" s="38"/>
+      <c r="CD21" s="38"/>
+      <c r="CE21" s="38"/>
+      <c r="CF21" s="38"/>
+      <c r="CG21" s="38"/>
+      <c r="CH21" s="38"/>
+      <c r="CI21" s="38"/>
+      <c r="CJ21" s="38"/>
+      <c r="CK21" s="38"/>
       <c r="CL21" s="29"/>
-      <c r="CM21" s="47"/>
-      <c r="CN21" s="47"/>
-      <c r="CO21" s="47"/>
-      <c r="CP21" s="47"/>
-      <c r="CQ21" s="47"/>
-      <c r="CR21" s="47"/>
-      <c r="CS21" s="47"/>
-      <c r="CT21" s="47"/>
-      <c r="CU21" s="47"/>
-      <c r="CV21" s="47"/>
-      <c r="CW21" s="47"/>
-      <c r="CX21" s="47"/>
-      <c r="CY21" s="47"/>
-      <c r="CZ21" s="47"/>
+      <c r="CM21" s="38"/>
+      <c r="CN21" s="38"/>
+      <c r="CO21" s="38"/>
+      <c r="CP21" s="38"/>
+      <c r="CQ21" s="38"/>
+      <c r="CR21" s="38"/>
+      <c r="CS21" s="38"/>
+      <c r="CT21" s="38"/>
+      <c r="CU21" s="38"/>
+      <c r="CV21" s="38"/>
+      <c r="CW21" s="38"/>
+      <c r="CX21" s="38"/>
+      <c r="CY21" s="38"/>
+      <c r="CZ21" s="38"/>
     </row>
     <row r="22" spans="2:104" ht="20.25" customHeight="1">
       <c r="B22" s="5">
@@ -6085,34 +6087,34 @@
       <c r="BV22" s="10"/>
       <c r="BW22" s="10"/>
       <c r="BX22" s="13"/>
-      <c r="BY22" s="48"/>
-      <c r="BZ22" s="51"/>
-      <c r="CA22" s="51"/>
-      <c r="CB22" s="48"/>
-      <c r="CC22" s="48"/>
-      <c r="CD22" s="48"/>
-      <c r="CE22" s="48"/>
-      <c r="CF22" s="48"/>
-      <c r="CG22" s="48"/>
-      <c r="CH22" s="48"/>
-      <c r="CI22" s="48"/>
-      <c r="CJ22" s="48"/>
-      <c r="CK22" s="48"/>
+      <c r="BY22" s="39"/>
+      <c r="BZ22" s="44"/>
+      <c r="CA22" s="44"/>
+      <c r="CB22" s="39"/>
+      <c r="CC22" s="39"/>
+      <c r="CD22" s="39"/>
+      <c r="CE22" s="39"/>
+      <c r="CF22" s="39"/>
+      <c r="CG22" s="39"/>
+      <c r="CH22" s="39"/>
+      <c r="CI22" s="39"/>
+      <c r="CJ22" s="39"/>
+      <c r="CK22" s="39"/>
       <c r="CL22" s="14"/>
-      <c r="CM22" s="48"/>
-      <c r="CN22" s="48"/>
-      <c r="CO22" s="48"/>
-      <c r="CP22" s="48"/>
-      <c r="CQ22" s="48"/>
-      <c r="CR22" s="48"/>
-      <c r="CS22" s="48"/>
-      <c r="CT22" s="48"/>
-      <c r="CU22" s="48"/>
-      <c r="CV22" s="48"/>
-      <c r="CW22" s="48"/>
-      <c r="CX22" s="48"/>
-      <c r="CY22" s="48"/>
-      <c r="CZ22" s="48"/>
+      <c r="CM22" s="39"/>
+      <c r="CN22" s="39"/>
+      <c r="CO22" s="39"/>
+      <c r="CP22" s="39"/>
+      <c r="CQ22" s="39"/>
+      <c r="CR22" s="39"/>
+      <c r="CS22" s="39"/>
+      <c r="CT22" s="39"/>
+      <c r="CU22" s="39"/>
+      <c r="CV22" s="39"/>
+      <c r="CW22" s="39"/>
+      <c r="CX22" s="39"/>
+      <c r="CY22" s="39"/>
+      <c r="CZ22" s="39"/>
     </row>
     <row r="23" spans="2:104" ht="20.25" customHeight="1">
       <c r="BX23" s="11"/>
@@ -6124,19 +6126,106 @@
     </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="CM7:CM13"/>
-    <mergeCell ref="CN7:CN13"/>
-    <mergeCell ref="CO7:CO13"/>
-    <mergeCell ref="CW15:CW22"/>
-    <mergeCell ref="CX7:CX13"/>
-    <mergeCell ref="CY7:CY13"/>
-    <mergeCell ref="CZ7:CZ13"/>
-    <mergeCell ref="CQ15:CQ22"/>
-    <mergeCell ref="CR15:CR22"/>
-    <mergeCell ref="CS15:CS22"/>
-    <mergeCell ref="CU7:CU13"/>
-    <mergeCell ref="CV7:CV13"/>
-    <mergeCell ref="CW7:CW13"/>
+    <mergeCell ref="CE4:CK4"/>
+    <mergeCell ref="CM4:CR4"/>
+    <mergeCell ref="CS4:CZ4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:R4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="BM5:BN5"/>
+    <mergeCell ref="BQ5:BR5"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="BP4:BW4"/>
+    <mergeCell ref="BY4:CD4"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="Z4:AF4"/>
+    <mergeCell ref="AH4:AM4"/>
+    <mergeCell ref="AN4:AT4"/>
+    <mergeCell ref="AV4:BA4"/>
+    <mergeCell ref="BB4:BH4"/>
+    <mergeCell ref="BJ4:BO4"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CK5:CK6"/>
+    <mergeCell ref="CN5:CO5"/>
+    <mergeCell ref="CP5:CQ5"/>
+    <mergeCell ref="CM5:CM6"/>
+    <mergeCell ref="CH5:CI5"/>
+    <mergeCell ref="CE5:CE6"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="CF5:CG5"/>
+    <mergeCell ref="CE15:CE22"/>
+    <mergeCell ref="CF15:CF22"/>
+    <mergeCell ref="CG15:CG22"/>
+    <mergeCell ref="BY7:BY13"/>
+    <mergeCell ref="BZ7:BZ13"/>
+    <mergeCell ref="CA7:CA13"/>
+    <mergeCell ref="CZ5:CZ6"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CT5:CU5"/>
+    <mergeCell ref="CV5:CW5"/>
+    <mergeCell ref="CS5:CS6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CH15:CH22"/>
+    <mergeCell ref="CI15:CI22"/>
+    <mergeCell ref="CJ15:CJ22"/>
+    <mergeCell ref="CK15:CK22"/>
+    <mergeCell ref="CZ15:CZ22"/>
+    <mergeCell ref="CP15:CP22"/>
+    <mergeCell ref="CR7:CR13"/>
+    <mergeCell ref="CS7:CS13"/>
+    <mergeCell ref="CT7:CT13"/>
+    <mergeCell ref="CT15:CT22"/>
+    <mergeCell ref="CU15:CU22"/>
+    <mergeCell ref="CV15:CV22"/>
     <mergeCell ref="BH5:BH6"/>
     <mergeCell ref="CX15:CX22"/>
     <mergeCell ref="CY15:CY22"/>
@@ -6161,106 +6250,19 @@
     <mergeCell ref="CM15:CM22"/>
     <mergeCell ref="CN15:CN22"/>
     <mergeCell ref="CO15:CO22"/>
-    <mergeCell ref="CE15:CE22"/>
-    <mergeCell ref="CF15:CF22"/>
-    <mergeCell ref="CG15:CG22"/>
-    <mergeCell ref="BY7:BY13"/>
-    <mergeCell ref="BZ7:BZ13"/>
-    <mergeCell ref="CA7:CA13"/>
-    <mergeCell ref="CZ5:CZ6"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CT5:CU5"/>
-    <mergeCell ref="CV5:CW5"/>
-    <mergeCell ref="CS5:CS6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CH15:CH22"/>
-    <mergeCell ref="CI15:CI22"/>
-    <mergeCell ref="CJ15:CJ22"/>
-    <mergeCell ref="CK15:CK22"/>
-    <mergeCell ref="CZ15:CZ22"/>
-    <mergeCell ref="CP15:CP22"/>
-    <mergeCell ref="CR7:CR13"/>
-    <mergeCell ref="CS7:CS13"/>
-    <mergeCell ref="CT7:CT13"/>
-    <mergeCell ref="CT15:CT22"/>
-    <mergeCell ref="CU15:CU22"/>
-    <mergeCell ref="CV15:CV22"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CK5:CK6"/>
-    <mergeCell ref="CN5:CO5"/>
-    <mergeCell ref="CP5:CQ5"/>
-    <mergeCell ref="CM5:CM6"/>
-    <mergeCell ref="CH5:CI5"/>
-    <mergeCell ref="CE5:CE6"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="CF5:CG5"/>
-    <mergeCell ref="BP4:BW4"/>
-    <mergeCell ref="BY4:CD4"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="Z4:AF4"/>
-    <mergeCell ref="AH4:AM4"/>
-    <mergeCell ref="AN4:AT4"/>
-    <mergeCell ref="AV4:BA4"/>
-    <mergeCell ref="BB4:BH4"/>
-    <mergeCell ref="BJ4:BO4"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BW5:BW6"/>
-    <mergeCell ref="BY5:BY6"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="BZ5:CA5"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="CE4:CK4"/>
-    <mergeCell ref="CM4:CR4"/>
-    <mergeCell ref="CS4:CZ4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:R4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="CM7:CM13"/>
+    <mergeCell ref="CN7:CN13"/>
+    <mergeCell ref="CO7:CO13"/>
+    <mergeCell ref="CW15:CW22"/>
+    <mergeCell ref="CX7:CX13"/>
+    <mergeCell ref="CY7:CY13"/>
+    <mergeCell ref="CZ7:CZ13"/>
+    <mergeCell ref="CQ15:CQ22"/>
+    <mergeCell ref="CR15:CR22"/>
+    <mergeCell ref="CS15:CS22"/>
+    <mergeCell ref="CU7:CU13"/>
+    <mergeCell ref="CV7:CV13"/>
+    <mergeCell ref="CW7:CW13"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="F7:K14">

--- a/スケジュール（2023-06）.xlsx
+++ b/スケジュール（2023-06）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SymStudy\2023-06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A9F5D04-8F17-4933-A5BD-F149EE737EAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB54F7A3-C31E-4ACE-8D23-CE549C2BB8AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12497" tabRatio="910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="体制図" sheetId="11" r:id="rId1"/>
@@ -26,19 +26,6 @@
     <sheet name="8_勤怠承認詳細" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -692,6 +679,33 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -699,12 +713,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -716,27 +724,6 @@
     <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
@@ -744,7 +731,28 @@
     <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準_システム管理" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2620,7 +2628,7 @@
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="3" spans="3:7">
       <c r="G3" s="28" t="s">
@@ -2661,7 +2669,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2677,7 +2685,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2691,20 +2699,20 @@
   <dimension ref="B3:CZ24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="R7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="Q7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Y12" sqref="Y12"/>
+      <selection pane="bottomRight" activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.78515625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="18.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="8" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="8.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="16.796875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="18.69921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.59765625" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="8.69921875" style="1" customWidth="1" outlineLevel="1"/>
     <col min="8" max="11" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="13" max="18" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
@@ -2713,421 +2721,421 @@
     <col min="21" max="25" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="26" max="26" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="27" max="32" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="1.5703125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="1.59765625" style="1" customWidth="1"/>
     <col min="34" max="34" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="35" max="39" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="40" max="40" width="13" style="2" customWidth="1" outlineLevel="1"/>
     <col min="41" max="46" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="47" max="47" width="1.5703125" style="1" customWidth="1"/>
+    <col min="47" max="47" width="1.59765625" style="1" customWidth="1"/>
     <col min="48" max="48" width="13" style="2" customWidth="1" outlineLevel="1"/>
     <col min="49" max="53" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="54" max="54" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="55" max="60" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="61" max="61" width="1.5703125" style="1" customWidth="1"/>
+    <col min="61" max="61" width="1.59765625" style="1" customWidth="1"/>
     <col min="62" max="62" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="63" max="67" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="68" max="68" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="69" max="75" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="76" max="76" width="1.5703125" style="1" customWidth="1"/>
-    <col min="77" max="77" width="6.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="76" max="76" width="1.59765625" style="1" customWidth="1"/>
+    <col min="77" max="77" width="6.59765625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="78" max="81" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
     <col min="82" max="83" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="84" max="85" width="6.5" style="33" customWidth="1" outlineLevel="1"/>
     <col min="86" max="87" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
     <col min="88" max="89" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="90" max="90" width="1.5703125" style="1" customWidth="1"/>
-    <col min="91" max="91" width="6.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="90" max="90" width="1.59765625" style="1" customWidth="1"/>
+    <col min="91" max="91" width="6.59765625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="92" max="93" width="6.5" style="33" customWidth="1" outlineLevel="1"/>
     <col min="94" max="95" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
     <col min="96" max="97" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="98" max="99" width="6.5" style="33" customWidth="1" outlineLevel="1"/>
     <col min="100" max="101" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
     <col min="102" max="104" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="105" max="105" width="1.5703125" style="1" customWidth="1"/>
+    <col min="105" max="105" width="1.59765625" style="1" customWidth="1"/>
     <col min="106" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:104" ht="23.6">
+    <row r="3" spans="2:104" ht="23.4">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:104" s="20" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41" t="s">
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="T4" s="41" t="s">
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="37"/>
+      <c r="T4" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41" t="s">
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="37"/>
+      <c r="X4" s="37"/>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="41"/>
-      <c r="AH4" s="41" t="s">
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="37"/>
+      <c r="AC4" s="37"/>
+      <c r="AD4" s="37"/>
+      <c r="AE4" s="37"/>
+      <c r="AF4" s="37"/>
+      <c r="AH4" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="AI4" s="41"/>
-      <c r="AJ4" s="41"/>
-      <c r="AK4" s="41"/>
-      <c r="AL4" s="41"/>
-      <c r="AM4" s="41"/>
-      <c r="AN4" s="41" t="s">
+      <c r="AI4" s="37"/>
+      <c r="AJ4" s="37"/>
+      <c r="AK4" s="37"/>
+      <c r="AL4" s="37"/>
+      <c r="AM4" s="37"/>
+      <c r="AN4" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="AO4" s="41"/>
-      <c r="AP4" s="41"/>
-      <c r="AQ4" s="41"/>
-      <c r="AR4" s="41"/>
-      <c r="AS4" s="41"/>
-      <c r="AT4" s="48"/>
+      <c r="AO4" s="37"/>
+      <c r="AP4" s="37"/>
+      <c r="AQ4" s="37"/>
+      <c r="AR4" s="37"/>
+      <c r="AS4" s="37"/>
+      <c r="AT4" s="38"/>
       <c r="AU4" s="21"/>
-      <c r="AV4" s="41" t="s">
+      <c r="AV4" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="AW4" s="41"/>
-      <c r="AX4" s="41"/>
-      <c r="AY4" s="41"/>
-      <c r="AZ4" s="41"/>
-      <c r="BA4" s="41"/>
-      <c r="BB4" s="41" t="s">
+      <c r="AW4" s="37"/>
+      <c r="AX4" s="37"/>
+      <c r="AY4" s="37"/>
+      <c r="AZ4" s="37"/>
+      <c r="BA4" s="37"/>
+      <c r="BB4" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="BC4" s="41"/>
-      <c r="BD4" s="41"/>
-      <c r="BE4" s="41"/>
-      <c r="BF4" s="41"/>
-      <c r="BG4" s="41"/>
-      <c r="BH4" s="41"/>
+      <c r="BC4" s="37"/>
+      <c r="BD4" s="37"/>
+      <c r="BE4" s="37"/>
+      <c r="BF4" s="37"/>
+      <c r="BG4" s="37"/>
+      <c r="BH4" s="37"/>
       <c r="BI4" s="22"/>
-      <c r="BJ4" s="49" t="s">
+      <c r="BJ4" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="BK4" s="41"/>
-      <c r="BL4" s="41"/>
-      <c r="BM4" s="41"/>
-      <c r="BN4" s="41"/>
-      <c r="BO4" s="41"/>
-      <c r="BP4" s="41" t="s">
+      <c r="BK4" s="37"/>
+      <c r="BL4" s="37"/>
+      <c r="BM4" s="37"/>
+      <c r="BN4" s="37"/>
+      <c r="BO4" s="37"/>
+      <c r="BP4" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="BQ4" s="41"/>
-      <c r="BR4" s="41"/>
-      <c r="BS4" s="41"/>
-      <c r="BT4" s="41"/>
-      <c r="BU4" s="41"/>
-      <c r="BV4" s="41"/>
-      <c r="BW4" s="41"/>
-      <c r="BY4" s="41" t="s">
+      <c r="BQ4" s="37"/>
+      <c r="BR4" s="37"/>
+      <c r="BS4" s="37"/>
+      <c r="BT4" s="37"/>
+      <c r="BU4" s="37"/>
+      <c r="BV4" s="37"/>
+      <c r="BW4" s="37"/>
+      <c r="BY4" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="BZ4" s="41"/>
-      <c r="CA4" s="41"/>
-      <c r="CB4" s="41"/>
-      <c r="CC4" s="41"/>
-      <c r="CD4" s="41"/>
-      <c r="CE4" s="41" t="s">
+      <c r="BZ4" s="37"/>
+      <c r="CA4" s="37"/>
+      <c r="CB4" s="37"/>
+      <c r="CC4" s="37"/>
+      <c r="CD4" s="37"/>
+      <c r="CE4" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="CF4" s="41"/>
-      <c r="CG4" s="41"/>
-      <c r="CH4" s="41"/>
-      <c r="CI4" s="41"/>
-      <c r="CJ4" s="41"/>
-      <c r="CK4" s="48"/>
+      <c r="CF4" s="37"/>
+      <c r="CG4" s="37"/>
+      <c r="CH4" s="37"/>
+      <c r="CI4" s="37"/>
+      <c r="CJ4" s="37"/>
+      <c r="CK4" s="38"/>
       <c r="CL4" s="23"/>
-      <c r="CM4" s="49" t="s">
+      <c r="CM4" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="CN4" s="41"/>
-      <c r="CO4" s="41"/>
-      <c r="CP4" s="41"/>
-      <c r="CQ4" s="41"/>
-      <c r="CR4" s="41"/>
-      <c r="CS4" s="41" t="s">
+      <c r="CN4" s="37"/>
+      <c r="CO4" s="37"/>
+      <c r="CP4" s="37"/>
+      <c r="CQ4" s="37"/>
+      <c r="CR4" s="37"/>
+      <c r="CS4" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="CT4" s="41"/>
-      <c r="CU4" s="41"/>
-      <c r="CV4" s="41"/>
-      <c r="CW4" s="41"/>
-      <c r="CX4" s="41"/>
-      <c r="CY4" s="41"/>
-      <c r="CZ4" s="41"/>
+      <c r="CT4" s="37"/>
+      <c r="CU4" s="37"/>
+      <c r="CV4" s="37"/>
+      <c r="CW4" s="37"/>
+      <c r="CX4" s="37"/>
+      <c r="CY4" s="37"/>
+      <c r="CZ4" s="37"/>
     </row>
-    <row r="5" spans="2:104" ht="21.65" customHeight="1">
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="41" t="s">
+    <row r="5" spans="2:104" ht="21.6" customHeight="1">
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50" t="s">
+      <c r="H5" s="40"/>
+      <c r="I5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="50"/>
-      <c r="K5" s="40" t="s">
+      <c r="J5" s="40"/>
+      <c r="K5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="41" t="s">
+      <c r="L5" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="50" t="s">
+      <c r="M5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50" t="s">
+      <c r="N5" s="40"/>
+      <c r="O5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="40" t="s">
+      <c r="P5" s="40"/>
+      <c r="Q5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="40" t="s">
+      <c r="R5" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="41" t="s">
+      <c r="T5" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="50" t="s">
+      <c r="U5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50" t="s">
+      <c r="V5" s="40"/>
+      <c r="W5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="40" t="s">
+      <c r="X5" s="40"/>
+      <c r="Y5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="41" t="s">
+      <c r="Z5" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="AA5" s="50" t="s">
+      <c r="AA5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="AB5" s="50"/>
-      <c r="AC5" s="50" t="s">
+      <c r="AB5" s="40"/>
+      <c r="AC5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="AD5" s="50"/>
-      <c r="AE5" s="40" t="s">
+      <c r="AD5" s="40"/>
+      <c r="AE5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="AF5" s="40" t="s">
+      <c r="AF5" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="AH5" s="41" t="s">
+      <c r="AH5" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="AI5" s="50" t="s">
+      <c r="AI5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="AJ5" s="50"/>
-      <c r="AK5" s="50" t="s">
+      <c r="AJ5" s="40"/>
+      <c r="AK5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="AL5" s="50"/>
-      <c r="AM5" s="40" t="s">
+      <c r="AL5" s="40"/>
+      <c r="AM5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="AN5" s="41" t="s">
+      <c r="AN5" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="AO5" s="50" t="s">
+      <c r="AO5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="AP5" s="50"/>
-      <c r="AQ5" s="50" t="s">
+      <c r="AP5" s="40"/>
+      <c r="AQ5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="40" t="s">
+      <c r="AR5" s="40"/>
+      <c r="AS5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="AT5" s="47" t="s">
+      <c r="AT5" s="43" t="s">
         <v>23</v>
       </c>
       <c r="AU5" s="13"/>
-      <c r="AV5" s="41" t="s">
+      <c r="AV5" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="AW5" s="50" t="s">
+      <c r="AW5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="AX5" s="50"/>
-      <c r="AY5" s="50" t="s">
+      <c r="AX5" s="40"/>
+      <c r="AY5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="AZ5" s="50"/>
-      <c r="BA5" s="40" t="s">
+      <c r="AZ5" s="40"/>
+      <c r="BA5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="BB5" s="41" t="s">
+      <c r="BB5" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="BC5" s="50" t="s">
+      <c r="BC5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="BD5" s="50"/>
-      <c r="BE5" s="50" t="s">
+      <c r="BD5" s="40"/>
+      <c r="BE5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="BF5" s="50"/>
-      <c r="BG5" s="40" t="s">
+      <c r="BF5" s="40"/>
+      <c r="BG5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="BH5" s="40" t="s">
+      <c r="BH5" s="41" t="s">
         <v>23</v>
       </c>
       <c r="BI5" s="14"/>
-      <c r="BJ5" s="49" t="s">
+      <c r="BJ5" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="BK5" s="50" t="s">
+      <c r="BK5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="BL5" s="50"/>
-      <c r="BM5" s="50" t="s">
+      <c r="BL5" s="40"/>
+      <c r="BM5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="BN5" s="50"/>
-      <c r="BO5" s="40" t="s">
+      <c r="BN5" s="40"/>
+      <c r="BO5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="BP5" s="41" t="s">
+      <c r="BP5" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="BQ5" s="50" t="s">
+      <c r="BQ5" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="BR5" s="50"/>
-      <c r="BS5" s="50" t="s">
+      <c r="BR5" s="40"/>
+      <c r="BS5" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="BT5" s="50"/>
-      <c r="BU5" s="40" t="s">
+      <c r="BT5" s="40"/>
+      <c r="BU5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="BV5" s="40" t="s">
+      <c r="BV5" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="BW5" s="40" t="s">
+      <c r="BW5" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="BY5" s="41" t="s">
+      <c r="BY5" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="BZ5" s="46" t="s">
+      <c r="BZ5" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="CA5" s="46"/>
-      <c r="CB5" s="46" t="s">
+      <c r="CA5" s="44"/>
+      <c r="CB5" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="CC5" s="46"/>
-      <c r="CD5" s="40" t="s">
+      <c r="CC5" s="44"/>
+      <c r="CD5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="CE5" s="41" t="s">
+      <c r="CE5" s="37" t="s">
         <v>22</v>
       </c>
       <c r="CF5" s="45" t="s">
         <v>19</v>
       </c>
       <c r="CG5" s="45"/>
-      <c r="CH5" s="46" t="s">
+      <c r="CH5" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="CI5" s="46"/>
-      <c r="CJ5" s="40" t="s">
+      <c r="CI5" s="44"/>
+      <c r="CJ5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="CK5" s="47" t="s">
+      <c r="CK5" s="43" t="s">
         <v>23</v>
       </c>
       <c r="CL5" s="11"/>
-      <c r="CM5" s="49" t="s">
+      <c r="CM5" s="39" t="s">
         <v>18</v>
       </c>
       <c r="CN5" s="45" t="s">
         <v>19</v>
       </c>
       <c r="CO5" s="45"/>
-      <c r="CP5" s="46" t="s">
+      <c r="CP5" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="CQ5" s="46"/>
-      <c r="CR5" s="40" t="s">
+      <c r="CQ5" s="44"/>
+      <c r="CR5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="CS5" s="41" t="s">
+      <c r="CS5" s="37" t="s">
         <v>22</v>
       </c>
       <c r="CT5" s="45" t="s">
         <v>19</v>
       </c>
       <c r="CU5" s="45"/>
-      <c r="CV5" s="46" t="s">
+      <c r="CV5" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="CW5" s="46"/>
-      <c r="CX5" s="40" t="s">
+      <c r="CW5" s="44"/>
+      <c r="CX5" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="CY5" s="40" t="s">
+      <c r="CY5" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="CZ5" s="40" t="s">
+      <c r="CZ5" s="41" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:104" ht="14.15">
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="41"/>
+    <row r="6" spans="2:104" ht="14.4">
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="37"/>
       <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3140,8 +3148,8 @@
       <c r="J6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
+      <c r="K6" s="37"/>
+      <c r="L6" s="37"/>
       <c r="M6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3154,9 +3162,9 @@
       <c r="P6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="T6" s="41"/>
+      <c r="Q6" s="37"/>
+      <c r="R6" s="37"/>
+      <c r="T6" s="37"/>
       <c r="U6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3169,8 +3177,8 @@
       <c r="X6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="37"/>
       <c r="AA6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3183,9 +3191,9 @@
       <c r="AD6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AE6" s="41"/>
-      <c r="AF6" s="41"/>
-      <c r="AH6" s="41"/>
+      <c r="AE6" s="37"/>
+      <c r="AF6" s="37"/>
+      <c r="AH6" s="37"/>
       <c r="AI6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3198,8 +3206,8 @@
       <c r="AL6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AM6" s="41"/>
-      <c r="AN6" s="41"/>
+      <c r="AM6" s="37"/>
+      <c r="AN6" s="37"/>
       <c r="AO6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3212,10 +3220,10 @@
       <c r="AR6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AS6" s="41"/>
-      <c r="AT6" s="48"/>
+      <c r="AS6" s="37"/>
+      <c r="AT6" s="38"/>
       <c r="AU6" s="13"/>
-      <c r="AV6" s="41"/>
+      <c r="AV6" s="37"/>
       <c r="AW6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3228,8 +3236,8 @@
       <c r="AZ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BA6" s="41"/>
-      <c r="BB6" s="41"/>
+      <c r="BA6" s="37"/>
+      <c r="BB6" s="37"/>
       <c r="BC6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3242,10 +3250,10 @@
       <c r="BF6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BG6" s="41"/>
-      <c r="BH6" s="41"/>
+      <c r="BG6" s="37"/>
+      <c r="BH6" s="37"/>
       <c r="BI6" s="14"/>
-      <c r="BJ6" s="49"/>
+      <c r="BJ6" s="39"/>
       <c r="BK6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3258,8 +3266,8 @@
       <c r="BN6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BO6" s="41"/>
-      <c r="BP6" s="41"/>
+      <c r="BO6" s="37"/>
+      <c r="BP6" s="37"/>
       <c r="BQ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3272,10 +3280,10 @@
       <c r="BT6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BU6" s="41"/>
-      <c r="BV6" s="41"/>
-      <c r="BW6" s="41"/>
-      <c r="BY6" s="41"/>
+      <c r="BU6" s="37"/>
+      <c r="BV6" s="37"/>
+      <c r="BW6" s="37"/>
+      <c r="BY6" s="37"/>
       <c r="BZ6" s="31" t="s">
         <v>25</v>
       </c>
@@ -3288,8 +3296,8 @@
       <c r="CC6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CD6" s="41"/>
-      <c r="CE6" s="41"/>
+      <c r="CD6" s="37"/>
+      <c r="CE6" s="37"/>
       <c r="CF6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3302,10 +3310,10 @@
       <c r="CI6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CJ6" s="41"/>
-      <c r="CK6" s="48"/>
+      <c r="CJ6" s="37"/>
+      <c r="CK6" s="38"/>
       <c r="CL6" s="11"/>
-      <c r="CM6" s="49"/>
+      <c r="CM6" s="39"/>
       <c r="CN6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3318,8 +3326,8 @@
       <c r="CQ6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CR6" s="41"/>
-      <c r="CS6" s="41"/>
+      <c r="CR6" s="37"/>
+      <c r="CS6" s="37"/>
       <c r="CT6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3332,9 +3340,9 @@
       <c r="CW6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CX6" s="41"/>
-      <c r="CY6" s="41"/>
-      <c r="CZ6" s="41"/>
+      <c r="CX6" s="37"/>
+      <c r="CY6" s="37"/>
+      <c r="CZ6" s="37"/>
     </row>
     <row r="7" spans="2:104" ht="20.25" customHeight="1">
       <c r="B7" s="5">
@@ -3484,50 +3492,50 @@
       <c r="BU7" s="7"/>
       <c r="BV7" s="10"/>
       <c r="BW7" s="10"/>
-      <c r="BY7" s="37"/>
-      <c r="BZ7" s="37">
+      <c r="BY7" s="46"/>
+      <c r="BZ7" s="46">
         <v>45100</v>
       </c>
-      <c r="CA7" s="37">
+      <c r="CA7" s="46">
         <v>45100</v>
       </c>
-      <c r="CB7" s="37"/>
-      <c r="CC7" s="37"/>
-      <c r="CD7" s="37"/>
-      <c r="CE7" s="37"/>
-      <c r="CF7" s="37">
+      <c r="CB7" s="46"/>
+      <c r="CC7" s="46"/>
+      <c r="CD7" s="46"/>
+      <c r="CE7" s="46"/>
+      <c r="CF7" s="46">
         <v>45103</v>
       </c>
-      <c r="CG7" s="37">
+      <c r="CG7" s="46">
         <v>45103</v>
       </c>
-      <c r="CH7" s="37"/>
-      <c r="CI7" s="37"/>
-      <c r="CJ7" s="37"/>
-      <c r="CK7" s="37"/>
+      <c r="CH7" s="46"/>
+      <c r="CI7" s="46"/>
+      <c r="CJ7" s="46"/>
+      <c r="CK7" s="46"/>
       <c r="CL7" s="14"/>
-      <c r="CM7" s="37"/>
-      <c r="CN7" s="37">
+      <c r="CM7" s="46"/>
+      <c r="CN7" s="46">
         <v>45104</v>
       </c>
-      <c r="CO7" s="37">
+      <c r="CO7" s="46">
         <v>45104</v>
       </c>
-      <c r="CP7" s="37"/>
-      <c r="CQ7" s="37"/>
-      <c r="CR7" s="37"/>
-      <c r="CS7" s="37"/>
-      <c r="CT7" s="37">
+      <c r="CP7" s="46"/>
+      <c r="CQ7" s="46"/>
+      <c r="CR7" s="46"/>
+      <c r="CS7" s="46"/>
+      <c r="CT7" s="46">
         <v>45105</v>
       </c>
-      <c r="CU7" s="37">
+      <c r="CU7" s="46">
         <v>45105</v>
       </c>
-      <c r="CV7" s="37"/>
-      <c r="CW7" s="37"/>
-      <c r="CX7" s="37"/>
-      <c r="CY7" s="37"/>
-      <c r="CZ7" s="37"/>
+      <c r="CV7" s="46"/>
+      <c r="CW7" s="46"/>
+      <c r="CX7" s="46"/>
+      <c r="CY7" s="46"/>
+      <c r="CZ7" s="46"/>
     </row>
     <row r="8" spans="2:104" ht="20.25" customHeight="1">
       <c r="B8" s="5">
@@ -3671,34 +3679,34 @@
       <c r="BU8" s="7"/>
       <c r="BV8" s="10"/>
       <c r="BW8" s="10"/>
-      <c r="BY8" s="38"/>
-      <c r="BZ8" s="38"/>
-      <c r="CA8" s="38"/>
-      <c r="CB8" s="38"/>
-      <c r="CC8" s="38"/>
-      <c r="CD8" s="38"/>
-      <c r="CE8" s="38"/>
-      <c r="CF8" s="38"/>
-      <c r="CG8" s="38"/>
-      <c r="CH8" s="38"/>
-      <c r="CI8" s="38"/>
-      <c r="CJ8" s="38"/>
-      <c r="CK8" s="38"/>
+      <c r="BY8" s="47"/>
+      <c r="BZ8" s="47"/>
+      <c r="CA8" s="47"/>
+      <c r="CB8" s="47"/>
+      <c r="CC8" s="47"/>
+      <c r="CD8" s="47"/>
+      <c r="CE8" s="47"/>
+      <c r="CF8" s="47"/>
+      <c r="CG8" s="47"/>
+      <c r="CH8" s="47"/>
+      <c r="CI8" s="47"/>
+      <c r="CJ8" s="47"/>
+      <c r="CK8" s="47"/>
       <c r="CL8" s="14"/>
-      <c r="CM8" s="38"/>
-      <c r="CN8" s="38"/>
-      <c r="CO8" s="38"/>
-      <c r="CP8" s="38"/>
-      <c r="CQ8" s="38"/>
-      <c r="CR8" s="38"/>
-      <c r="CS8" s="38"/>
-      <c r="CT8" s="38"/>
-      <c r="CU8" s="38"/>
-      <c r="CV8" s="38"/>
-      <c r="CW8" s="38"/>
-      <c r="CX8" s="38"/>
-      <c r="CY8" s="38"/>
-      <c r="CZ8" s="38"/>
+      <c r="CM8" s="47"/>
+      <c r="CN8" s="47"/>
+      <c r="CO8" s="47"/>
+      <c r="CP8" s="47"/>
+      <c r="CQ8" s="47"/>
+      <c r="CR8" s="47"/>
+      <c r="CS8" s="47"/>
+      <c r="CT8" s="47"/>
+      <c r="CU8" s="47"/>
+      <c r="CV8" s="47"/>
+      <c r="CW8" s="47"/>
+      <c r="CX8" s="47"/>
+      <c r="CY8" s="47"/>
+      <c r="CZ8" s="47"/>
     </row>
     <row r="9" spans="2:104" ht="20.25" customHeight="1">
       <c r="B9" s="5">
@@ -3849,34 +3857,34 @@
       <c r="BV9" s="10"/>
       <c r="BW9" s="10"/>
       <c r="BX9" s="13"/>
-      <c r="BY9" s="38"/>
-      <c r="BZ9" s="38"/>
-      <c r="CA9" s="38"/>
-      <c r="CB9" s="38"/>
-      <c r="CC9" s="38"/>
-      <c r="CD9" s="38"/>
-      <c r="CE9" s="38"/>
-      <c r="CF9" s="38"/>
-      <c r="CG9" s="38"/>
-      <c r="CH9" s="38"/>
-      <c r="CI9" s="38"/>
-      <c r="CJ9" s="38"/>
-      <c r="CK9" s="38"/>
+      <c r="BY9" s="47"/>
+      <c r="BZ9" s="47"/>
+      <c r="CA9" s="47"/>
+      <c r="CB9" s="47"/>
+      <c r="CC9" s="47"/>
+      <c r="CD9" s="47"/>
+      <c r="CE9" s="47"/>
+      <c r="CF9" s="47"/>
+      <c r="CG9" s="47"/>
+      <c r="CH9" s="47"/>
+      <c r="CI9" s="47"/>
+      <c r="CJ9" s="47"/>
+      <c r="CK9" s="47"/>
       <c r="CL9" s="14"/>
-      <c r="CM9" s="38"/>
-      <c r="CN9" s="38"/>
-      <c r="CO9" s="38"/>
-      <c r="CP9" s="38"/>
-      <c r="CQ9" s="38"/>
-      <c r="CR9" s="38"/>
-      <c r="CS9" s="38"/>
-      <c r="CT9" s="38"/>
-      <c r="CU9" s="38"/>
-      <c r="CV9" s="38"/>
-      <c r="CW9" s="38"/>
-      <c r="CX9" s="38"/>
-      <c r="CY9" s="38"/>
-      <c r="CZ9" s="38"/>
+      <c r="CM9" s="47"/>
+      <c r="CN9" s="47"/>
+      <c r="CO9" s="47"/>
+      <c r="CP9" s="47"/>
+      <c r="CQ9" s="47"/>
+      <c r="CR9" s="47"/>
+      <c r="CS9" s="47"/>
+      <c r="CT9" s="47"/>
+      <c r="CU9" s="47"/>
+      <c r="CV9" s="47"/>
+      <c r="CW9" s="47"/>
+      <c r="CX9" s="47"/>
+      <c r="CY9" s="47"/>
+      <c r="CZ9" s="47"/>
     </row>
     <row r="10" spans="2:104" ht="20.25" customHeight="1">
       <c r="B10" s="5">
@@ -4021,34 +4029,34 @@
       <c r="BV10" s="10"/>
       <c r="BW10" s="10"/>
       <c r="BX10" s="13"/>
-      <c r="BY10" s="38"/>
-      <c r="BZ10" s="38"/>
-      <c r="CA10" s="38"/>
-      <c r="CB10" s="38"/>
-      <c r="CC10" s="38"/>
-      <c r="CD10" s="38"/>
-      <c r="CE10" s="38"/>
-      <c r="CF10" s="38"/>
-      <c r="CG10" s="38"/>
-      <c r="CH10" s="38"/>
-      <c r="CI10" s="38"/>
-      <c r="CJ10" s="38"/>
-      <c r="CK10" s="38"/>
+      <c r="BY10" s="47"/>
+      <c r="BZ10" s="47"/>
+      <c r="CA10" s="47"/>
+      <c r="CB10" s="47"/>
+      <c r="CC10" s="47"/>
+      <c r="CD10" s="47"/>
+      <c r="CE10" s="47"/>
+      <c r="CF10" s="47"/>
+      <c r="CG10" s="47"/>
+      <c r="CH10" s="47"/>
+      <c r="CI10" s="47"/>
+      <c r="CJ10" s="47"/>
+      <c r="CK10" s="47"/>
       <c r="CL10" s="14"/>
-      <c r="CM10" s="38"/>
-      <c r="CN10" s="38"/>
-      <c r="CO10" s="38"/>
-      <c r="CP10" s="38"/>
-      <c r="CQ10" s="38"/>
-      <c r="CR10" s="38"/>
-      <c r="CS10" s="38"/>
-      <c r="CT10" s="38"/>
-      <c r="CU10" s="38"/>
-      <c r="CV10" s="38"/>
-      <c r="CW10" s="38"/>
-      <c r="CX10" s="38"/>
-      <c r="CY10" s="38"/>
-      <c r="CZ10" s="38"/>
+      <c r="CM10" s="47"/>
+      <c r="CN10" s="47"/>
+      <c r="CO10" s="47"/>
+      <c r="CP10" s="47"/>
+      <c r="CQ10" s="47"/>
+      <c r="CR10" s="47"/>
+      <c r="CS10" s="47"/>
+      <c r="CT10" s="47"/>
+      <c r="CU10" s="47"/>
+      <c r="CV10" s="47"/>
+      <c r="CW10" s="47"/>
+      <c r="CX10" s="47"/>
+      <c r="CY10" s="47"/>
+      <c r="CZ10" s="47"/>
     </row>
     <row r="11" spans="2:104" ht="20.25" customHeight="1">
       <c r="B11" s="5">
@@ -4197,34 +4205,34 @@
       <c r="BV11" s="10"/>
       <c r="BW11" s="10"/>
       <c r="BX11" s="13"/>
-      <c r="BY11" s="38"/>
-      <c r="BZ11" s="38"/>
-      <c r="CA11" s="38"/>
-      <c r="CB11" s="38"/>
-      <c r="CC11" s="38"/>
-      <c r="CD11" s="38"/>
-      <c r="CE11" s="38"/>
-      <c r="CF11" s="38"/>
-      <c r="CG11" s="38"/>
-      <c r="CH11" s="38"/>
-      <c r="CI11" s="38"/>
-      <c r="CJ11" s="38"/>
-      <c r="CK11" s="38"/>
+      <c r="BY11" s="47"/>
+      <c r="BZ11" s="47"/>
+      <c r="CA11" s="47"/>
+      <c r="CB11" s="47"/>
+      <c r="CC11" s="47"/>
+      <c r="CD11" s="47"/>
+      <c r="CE11" s="47"/>
+      <c r="CF11" s="47"/>
+      <c r="CG11" s="47"/>
+      <c r="CH11" s="47"/>
+      <c r="CI11" s="47"/>
+      <c r="CJ11" s="47"/>
+      <c r="CK11" s="47"/>
       <c r="CL11" s="14"/>
-      <c r="CM11" s="38"/>
-      <c r="CN11" s="38"/>
-      <c r="CO11" s="38"/>
-      <c r="CP11" s="38"/>
-      <c r="CQ11" s="38"/>
-      <c r="CR11" s="38"/>
-      <c r="CS11" s="38"/>
-      <c r="CT11" s="38"/>
-      <c r="CU11" s="38"/>
-      <c r="CV11" s="38"/>
-      <c r="CW11" s="38"/>
-      <c r="CX11" s="38"/>
-      <c r="CY11" s="38"/>
-      <c r="CZ11" s="38"/>
+      <c r="CM11" s="47"/>
+      <c r="CN11" s="47"/>
+      <c r="CO11" s="47"/>
+      <c r="CP11" s="47"/>
+      <c r="CQ11" s="47"/>
+      <c r="CR11" s="47"/>
+      <c r="CS11" s="47"/>
+      <c r="CT11" s="47"/>
+      <c r="CU11" s="47"/>
+      <c r="CV11" s="47"/>
+      <c r="CW11" s="47"/>
+      <c r="CX11" s="47"/>
+      <c r="CY11" s="47"/>
+      <c r="CZ11" s="47"/>
     </row>
     <row r="12" spans="2:104" ht="20.25" customHeight="1">
       <c r="B12" s="5">
@@ -4373,34 +4381,34 @@
       <c r="BV12" s="10"/>
       <c r="BW12" s="10"/>
       <c r="BX12" s="13"/>
-      <c r="BY12" s="38"/>
-      <c r="BZ12" s="38"/>
-      <c r="CA12" s="38"/>
-      <c r="CB12" s="38"/>
-      <c r="CC12" s="38"/>
-      <c r="CD12" s="38"/>
-      <c r="CE12" s="38"/>
-      <c r="CF12" s="38"/>
-      <c r="CG12" s="38"/>
-      <c r="CH12" s="38"/>
-      <c r="CI12" s="38"/>
-      <c r="CJ12" s="38"/>
-      <c r="CK12" s="38"/>
+      <c r="BY12" s="47"/>
+      <c r="BZ12" s="47"/>
+      <c r="CA12" s="47"/>
+      <c r="CB12" s="47"/>
+      <c r="CC12" s="47"/>
+      <c r="CD12" s="47"/>
+      <c r="CE12" s="47"/>
+      <c r="CF12" s="47"/>
+      <c r="CG12" s="47"/>
+      <c r="CH12" s="47"/>
+      <c r="CI12" s="47"/>
+      <c r="CJ12" s="47"/>
+      <c r="CK12" s="47"/>
       <c r="CL12" s="14"/>
-      <c r="CM12" s="38"/>
-      <c r="CN12" s="38"/>
-      <c r="CO12" s="38"/>
-      <c r="CP12" s="38"/>
-      <c r="CQ12" s="38"/>
-      <c r="CR12" s="38"/>
-      <c r="CS12" s="38"/>
-      <c r="CT12" s="38"/>
-      <c r="CU12" s="38"/>
-      <c r="CV12" s="38"/>
-      <c r="CW12" s="38"/>
-      <c r="CX12" s="38"/>
-      <c r="CY12" s="38"/>
-      <c r="CZ12" s="38"/>
+      <c r="CM12" s="47"/>
+      <c r="CN12" s="47"/>
+      <c r="CO12" s="47"/>
+      <c r="CP12" s="47"/>
+      <c r="CQ12" s="47"/>
+      <c r="CR12" s="47"/>
+      <c r="CS12" s="47"/>
+      <c r="CT12" s="47"/>
+      <c r="CU12" s="47"/>
+      <c r="CV12" s="47"/>
+      <c r="CW12" s="47"/>
+      <c r="CX12" s="47"/>
+      <c r="CY12" s="47"/>
+      <c r="CZ12" s="47"/>
     </row>
     <row r="13" spans="2:104" ht="20.25" customHeight="1">
       <c r="B13" s="5">
@@ -4549,34 +4557,34 @@
       <c r="BV13" s="10"/>
       <c r="BW13" s="10"/>
       <c r="BX13" s="13"/>
-      <c r="BY13" s="38"/>
-      <c r="BZ13" s="38"/>
-      <c r="CA13" s="38"/>
-      <c r="CB13" s="38"/>
-      <c r="CC13" s="38"/>
-      <c r="CD13" s="38"/>
-      <c r="CE13" s="38"/>
-      <c r="CF13" s="38"/>
-      <c r="CG13" s="38"/>
-      <c r="CH13" s="38"/>
-      <c r="CI13" s="38"/>
-      <c r="CJ13" s="38"/>
-      <c r="CK13" s="38"/>
+      <c r="BY13" s="47"/>
+      <c r="BZ13" s="47"/>
+      <c r="CA13" s="47"/>
+      <c r="CB13" s="47"/>
+      <c r="CC13" s="47"/>
+      <c r="CD13" s="47"/>
+      <c r="CE13" s="47"/>
+      <c r="CF13" s="47"/>
+      <c r="CG13" s="47"/>
+      <c r="CH13" s="47"/>
+      <c r="CI13" s="47"/>
+      <c r="CJ13" s="47"/>
+      <c r="CK13" s="47"/>
       <c r="CL13" s="14"/>
-      <c r="CM13" s="38"/>
-      <c r="CN13" s="38"/>
-      <c r="CO13" s="38"/>
-      <c r="CP13" s="38"/>
-      <c r="CQ13" s="38"/>
-      <c r="CR13" s="38"/>
-      <c r="CS13" s="38"/>
-      <c r="CT13" s="38"/>
-      <c r="CU13" s="38"/>
-      <c r="CV13" s="38"/>
-      <c r="CW13" s="38"/>
-      <c r="CX13" s="38"/>
-      <c r="CY13" s="38"/>
-      <c r="CZ13" s="38"/>
+      <c r="CM13" s="47"/>
+      <c r="CN13" s="47"/>
+      <c r="CO13" s="47"/>
+      <c r="CP13" s="47"/>
+      <c r="CQ13" s="47"/>
+      <c r="CR13" s="47"/>
+      <c r="CS13" s="47"/>
+      <c r="CT13" s="47"/>
+      <c r="CU13" s="47"/>
+      <c r="CV13" s="47"/>
+      <c r="CW13" s="47"/>
+      <c r="CX13" s="47"/>
+      <c r="CY13" s="47"/>
+      <c r="CZ13" s="47"/>
     </row>
     <row r="14" spans="2:104" ht="20.25" customHeight="1">
       <c r="B14" s="5">
@@ -4787,7 +4795,9 @@
       <c r="W15" s="6">
         <v>45083</v>
       </c>
-      <c r="X15" s="6"/>
+      <c r="X15" s="6">
+        <v>45084</v>
+      </c>
       <c r="Y15" s="7">
         <v>1</v>
       </c>
@@ -4869,50 +4879,50 @@
       <c r="BV15" s="10"/>
       <c r="BW15" s="10"/>
       <c r="BX15" s="13"/>
-      <c r="BY15" s="37"/>
-      <c r="BZ15" s="42">
+      <c r="BY15" s="46"/>
+      <c r="BZ15" s="49">
         <v>45100</v>
       </c>
-      <c r="CA15" s="42">
+      <c r="CA15" s="49">
         <v>45100</v>
       </c>
-      <c r="CB15" s="37"/>
-      <c r="CC15" s="37"/>
-      <c r="CD15" s="37"/>
-      <c r="CE15" s="37"/>
-      <c r="CF15" s="37">
+      <c r="CB15" s="46"/>
+      <c r="CC15" s="46"/>
+      <c r="CD15" s="46"/>
+      <c r="CE15" s="46"/>
+      <c r="CF15" s="46">
         <v>45103</v>
       </c>
-      <c r="CG15" s="37">
+      <c r="CG15" s="46">
         <v>45103</v>
       </c>
-      <c r="CH15" s="37"/>
-      <c r="CI15" s="37"/>
-      <c r="CJ15" s="37"/>
-      <c r="CK15" s="37"/>
+      <c r="CH15" s="46"/>
+      <c r="CI15" s="46"/>
+      <c r="CJ15" s="46"/>
+      <c r="CK15" s="46"/>
       <c r="CL15" s="14"/>
-      <c r="CM15" s="37"/>
-      <c r="CN15" s="37">
+      <c r="CM15" s="46"/>
+      <c r="CN15" s="46">
         <v>45104</v>
       </c>
-      <c r="CO15" s="37">
+      <c r="CO15" s="46">
         <v>45104</v>
       </c>
-      <c r="CP15" s="37"/>
-      <c r="CQ15" s="37"/>
-      <c r="CR15" s="37"/>
-      <c r="CS15" s="37"/>
-      <c r="CT15" s="37">
+      <c r="CP15" s="46"/>
+      <c r="CQ15" s="46"/>
+      <c r="CR15" s="46"/>
+      <c r="CS15" s="46"/>
+      <c r="CT15" s="46">
         <v>45105</v>
       </c>
-      <c r="CU15" s="37">
+      <c r="CU15" s="46">
         <v>45105</v>
       </c>
-      <c r="CV15" s="37"/>
-      <c r="CW15" s="37"/>
-      <c r="CX15" s="37"/>
-      <c r="CY15" s="37"/>
-      <c r="CZ15" s="37"/>
+      <c r="CV15" s="46"/>
+      <c r="CW15" s="46"/>
+      <c r="CX15" s="46"/>
+      <c r="CY15" s="46"/>
+      <c r="CZ15" s="46"/>
     </row>
     <row r="16" spans="2:104" ht="20.25" customHeight="1">
       <c r="B16" s="5">
@@ -4975,7 +4985,9 @@
       <c r="W16" s="6">
         <v>45083</v>
       </c>
-      <c r="X16" s="6"/>
+      <c r="X16" s="6">
+        <v>45084</v>
+      </c>
       <c r="Y16" s="7">
         <v>1</v>
       </c>
@@ -5056,34 +5068,34 @@
       <c r="BU16" s="7"/>
       <c r="BV16" s="10"/>
       <c r="BW16" s="10"/>
-      <c r="BY16" s="38"/>
-      <c r="BZ16" s="43"/>
-      <c r="CA16" s="43"/>
-      <c r="CB16" s="38"/>
-      <c r="CC16" s="38"/>
-      <c r="CD16" s="38"/>
-      <c r="CE16" s="38"/>
-      <c r="CF16" s="38"/>
-      <c r="CG16" s="38"/>
-      <c r="CH16" s="38"/>
-      <c r="CI16" s="38"/>
-      <c r="CJ16" s="38"/>
-      <c r="CK16" s="38"/>
+      <c r="BY16" s="47"/>
+      <c r="BZ16" s="50"/>
+      <c r="CA16" s="50"/>
+      <c r="CB16" s="47"/>
+      <c r="CC16" s="47"/>
+      <c r="CD16" s="47"/>
+      <c r="CE16" s="47"/>
+      <c r="CF16" s="47"/>
+      <c r="CG16" s="47"/>
+      <c r="CH16" s="47"/>
+      <c r="CI16" s="47"/>
+      <c r="CJ16" s="47"/>
+      <c r="CK16" s="47"/>
       <c r="CL16" s="29"/>
-      <c r="CM16" s="38"/>
-      <c r="CN16" s="38"/>
-      <c r="CO16" s="38"/>
-      <c r="CP16" s="38"/>
-      <c r="CQ16" s="38"/>
-      <c r="CR16" s="38"/>
-      <c r="CS16" s="38"/>
-      <c r="CT16" s="38"/>
-      <c r="CU16" s="38"/>
-      <c r="CV16" s="38"/>
-      <c r="CW16" s="38"/>
-      <c r="CX16" s="38"/>
-      <c r="CY16" s="38"/>
-      <c r="CZ16" s="38"/>
+      <c r="CM16" s="47"/>
+      <c r="CN16" s="47"/>
+      <c r="CO16" s="47"/>
+      <c r="CP16" s="47"/>
+      <c r="CQ16" s="47"/>
+      <c r="CR16" s="47"/>
+      <c r="CS16" s="47"/>
+      <c r="CT16" s="47"/>
+      <c r="CU16" s="47"/>
+      <c r="CV16" s="47"/>
+      <c r="CW16" s="47"/>
+      <c r="CX16" s="47"/>
+      <c r="CY16" s="47"/>
+      <c r="CZ16" s="47"/>
     </row>
     <row r="17" spans="2:104" ht="20.25" customHeight="1">
       <c r="B17" s="5">
@@ -5146,7 +5158,9 @@
       <c r="W17" s="6">
         <v>45083</v>
       </c>
-      <c r="X17" s="6"/>
+      <c r="X17" s="6">
+        <v>45084</v>
+      </c>
       <c r="Y17" s="7">
         <v>1</v>
       </c>
@@ -5227,34 +5241,34 @@
       <c r="BU17" s="7"/>
       <c r="BV17" s="10"/>
       <c r="BW17" s="10"/>
-      <c r="BY17" s="38"/>
-      <c r="BZ17" s="43"/>
-      <c r="CA17" s="43"/>
-      <c r="CB17" s="38"/>
-      <c r="CC17" s="38"/>
-      <c r="CD17" s="38"/>
-      <c r="CE17" s="38"/>
-      <c r="CF17" s="38"/>
-      <c r="CG17" s="38"/>
-      <c r="CH17" s="38"/>
-      <c r="CI17" s="38"/>
-      <c r="CJ17" s="38"/>
-      <c r="CK17" s="38"/>
+      <c r="BY17" s="47"/>
+      <c r="BZ17" s="50"/>
+      <c r="CA17" s="50"/>
+      <c r="CB17" s="47"/>
+      <c r="CC17" s="47"/>
+      <c r="CD17" s="47"/>
+      <c r="CE17" s="47"/>
+      <c r="CF17" s="47"/>
+      <c r="CG17" s="47"/>
+      <c r="CH17" s="47"/>
+      <c r="CI17" s="47"/>
+      <c r="CJ17" s="47"/>
+      <c r="CK17" s="47"/>
       <c r="CL17" s="29"/>
-      <c r="CM17" s="38"/>
-      <c r="CN17" s="38"/>
-      <c r="CO17" s="38"/>
-      <c r="CP17" s="38"/>
-      <c r="CQ17" s="38"/>
-      <c r="CR17" s="38"/>
-      <c r="CS17" s="38"/>
-      <c r="CT17" s="38"/>
-      <c r="CU17" s="38"/>
-      <c r="CV17" s="38"/>
-      <c r="CW17" s="38"/>
-      <c r="CX17" s="38"/>
-      <c r="CY17" s="38"/>
-      <c r="CZ17" s="38"/>
+      <c r="CM17" s="47"/>
+      <c r="CN17" s="47"/>
+      <c r="CO17" s="47"/>
+      <c r="CP17" s="47"/>
+      <c r="CQ17" s="47"/>
+      <c r="CR17" s="47"/>
+      <c r="CS17" s="47"/>
+      <c r="CT17" s="47"/>
+      <c r="CU17" s="47"/>
+      <c r="CV17" s="47"/>
+      <c r="CW17" s="47"/>
+      <c r="CX17" s="47"/>
+      <c r="CY17" s="47"/>
+      <c r="CZ17" s="47"/>
     </row>
     <row r="18" spans="2:104" ht="20.25" customHeight="1">
       <c r="B18" s="5">
@@ -5317,9 +5331,11 @@
       <c r="W18" s="6">
         <v>45083</v>
       </c>
-      <c r="X18" s="6"/>
+      <c r="X18" s="6">
+        <v>45085</v>
+      </c>
       <c r="Y18" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Z18" s="17"/>
       <c r="AA18" s="6">
@@ -5399,34 +5415,34 @@
       <c r="BV18" s="10"/>
       <c r="BW18" s="10"/>
       <c r="BX18" s="11"/>
-      <c r="BY18" s="38"/>
-      <c r="BZ18" s="43"/>
-      <c r="CA18" s="43"/>
-      <c r="CB18" s="38"/>
-      <c r="CC18" s="38"/>
-      <c r="CD18" s="38"/>
-      <c r="CE18" s="38"/>
-      <c r="CF18" s="38"/>
-      <c r="CG18" s="38"/>
-      <c r="CH18" s="38"/>
-      <c r="CI18" s="38"/>
-      <c r="CJ18" s="38"/>
-      <c r="CK18" s="38"/>
+      <c r="BY18" s="47"/>
+      <c r="BZ18" s="50"/>
+      <c r="CA18" s="50"/>
+      <c r="CB18" s="47"/>
+      <c r="CC18" s="47"/>
+      <c r="CD18" s="47"/>
+      <c r="CE18" s="47"/>
+      <c r="CF18" s="47"/>
+      <c r="CG18" s="47"/>
+      <c r="CH18" s="47"/>
+      <c r="CI18" s="47"/>
+      <c r="CJ18" s="47"/>
+      <c r="CK18" s="47"/>
       <c r="CL18" s="29"/>
-      <c r="CM18" s="38"/>
-      <c r="CN18" s="38"/>
-      <c r="CO18" s="38"/>
-      <c r="CP18" s="38"/>
-      <c r="CQ18" s="38"/>
-      <c r="CR18" s="38"/>
-      <c r="CS18" s="38"/>
-      <c r="CT18" s="38"/>
-      <c r="CU18" s="38"/>
-      <c r="CV18" s="38"/>
-      <c r="CW18" s="38"/>
-      <c r="CX18" s="38"/>
-      <c r="CY18" s="38"/>
-      <c r="CZ18" s="38"/>
+      <c r="CM18" s="47"/>
+      <c r="CN18" s="47"/>
+      <c r="CO18" s="47"/>
+      <c r="CP18" s="47"/>
+      <c r="CQ18" s="47"/>
+      <c r="CR18" s="47"/>
+      <c r="CS18" s="47"/>
+      <c r="CT18" s="47"/>
+      <c r="CU18" s="47"/>
+      <c r="CV18" s="47"/>
+      <c r="CW18" s="47"/>
+      <c r="CX18" s="47"/>
+      <c r="CY18" s="47"/>
+      <c r="CZ18" s="47"/>
     </row>
     <row r="19" spans="2:104" ht="20.25" customHeight="1">
       <c r="B19" s="5">
@@ -5489,9 +5505,11 @@
       <c r="W19" s="6">
         <v>45083</v>
       </c>
-      <c r="X19" s="6"/>
+      <c r="X19" s="6">
+        <v>45085</v>
+      </c>
       <c r="Y19" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="Z19" s="17"/>
       <c r="AA19" s="6">
@@ -5571,34 +5589,34 @@
       <c r="BV19" s="10"/>
       <c r="BW19" s="10"/>
       <c r="BX19" s="11"/>
-      <c r="BY19" s="38"/>
-      <c r="BZ19" s="43"/>
-      <c r="CA19" s="43"/>
-      <c r="CB19" s="38"/>
-      <c r="CC19" s="38"/>
-      <c r="CD19" s="38"/>
-      <c r="CE19" s="38"/>
-      <c r="CF19" s="38"/>
-      <c r="CG19" s="38"/>
-      <c r="CH19" s="38"/>
-      <c r="CI19" s="38"/>
-      <c r="CJ19" s="38"/>
-      <c r="CK19" s="38"/>
+      <c r="BY19" s="47"/>
+      <c r="BZ19" s="50"/>
+      <c r="CA19" s="50"/>
+      <c r="CB19" s="47"/>
+      <c r="CC19" s="47"/>
+      <c r="CD19" s="47"/>
+      <c r="CE19" s="47"/>
+      <c r="CF19" s="47"/>
+      <c r="CG19" s="47"/>
+      <c r="CH19" s="47"/>
+      <c r="CI19" s="47"/>
+      <c r="CJ19" s="47"/>
+      <c r="CK19" s="47"/>
       <c r="CL19" s="29"/>
-      <c r="CM19" s="38"/>
-      <c r="CN19" s="38"/>
-      <c r="CO19" s="38"/>
-      <c r="CP19" s="38"/>
-      <c r="CQ19" s="38"/>
-      <c r="CR19" s="38"/>
-      <c r="CS19" s="38"/>
-      <c r="CT19" s="38"/>
-      <c r="CU19" s="38"/>
-      <c r="CV19" s="38"/>
-      <c r="CW19" s="38"/>
-      <c r="CX19" s="38"/>
-      <c r="CY19" s="38"/>
-      <c r="CZ19" s="38"/>
+      <c r="CM19" s="47"/>
+      <c r="CN19" s="47"/>
+      <c r="CO19" s="47"/>
+      <c r="CP19" s="47"/>
+      <c r="CQ19" s="47"/>
+      <c r="CR19" s="47"/>
+      <c r="CS19" s="47"/>
+      <c r="CT19" s="47"/>
+      <c r="CU19" s="47"/>
+      <c r="CV19" s="47"/>
+      <c r="CW19" s="47"/>
+      <c r="CX19" s="47"/>
+      <c r="CY19" s="47"/>
+      <c r="CZ19" s="47"/>
     </row>
     <row r="20" spans="2:104" ht="20.25" customHeight="1">
       <c r="B20" s="5">
@@ -5661,9 +5679,11 @@
       <c r="W20" s="6">
         <v>45083</v>
       </c>
-      <c r="X20" s="6"/>
+      <c r="X20" s="6">
+        <v>45085</v>
+      </c>
       <c r="Y20" s="7">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="Z20" s="17"/>
       <c r="AA20" s="6">
@@ -5743,34 +5763,34 @@
       <c r="BV20" s="10"/>
       <c r="BW20" s="10"/>
       <c r="BX20" s="11"/>
-      <c r="BY20" s="38"/>
-      <c r="BZ20" s="43"/>
-      <c r="CA20" s="43"/>
-      <c r="CB20" s="38"/>
-      <c r="CC20" s="38"/>
-      <c r="CD20" s="38"/>
-      <c r="CE20" s="38"/>
-      <c r="CF20" s="38"/>
-      <c r="CG20" s="38"/>
-      <c r="CH20" s="38"/>
-      <c r="CI20" s="38"/>
-      <c r="CJ20" s="38"/>
-      <c r="CK20" s="38"/>
+      <c r="BY20" s="47"/>
+      <c r="BZ20" s="50"/>
+      <c r="CA20" s="50"/>
+      <c r="CB20" s="47"/>
+      <c r="CC20" s="47"/>
+      <c r="CD20" s="47"/>
+      <c r="CE20" s="47"/>
+      <c r="CF20" s="47"/>
+      <c r="CG20" s="47"/>
+      <c r="CH20" s="47"/>
+      <c r="CI20" s="47"/>
+      <c r="CJ20" s="47"/>
+      <c r="CK20" s="47"/>
       <c r="CL20" s="29"/>
-      <c r="CM20" s="38"/>
-      <c r="CN20" s="38"/>
-      <c r="CO20" s="38"/>
-      <c r="CP20" s="38"/>
-      <c r="CQ20" s="38"/>
-      <c r="CR20" s="38"/>
-      <c r="CS20" s="38"/>
-      <c r="CT20" s="38"/>
-      <c r="CU20" s="38"/>
-      <c r="CV20" s="38"/>
-      <c r="CW20" s="38"/>
-      <c r="CX20" s="38"/>
-      <c r="CY20" s="38"/>
-      <c r="CZ20" s="38"/>
+      <c r="CM20" s="47"/>
+      <c r="CN20" s="47"/>
+      <c r="CO20" s="47"/>
+      <c r="CP20" s="47"/>
+      <c r="CQ20" s="47"/>
+      <c r="CR20" s="47"/>
+      <c r="CS20" s="47"/>
+      <c r="CT20" s="47"/>
+      <c r="CU20" s="47"/>
+      <c r="CV20" s="47"/>
+      <c r="CW20" s="47"/>
+      <c r="CX20" s="47"/>
+      <c r="CY20" s="47"/>
+      <c r="CZ20" s="47"/>
     </row>
     <row r="21" spans="2:104" ht="20.25" customHeight="1">
       <c r="B21" s="5">
@@ -5833,9 +5853,11 @@
       <c r="W21" s="6">
         <v>45083</v>
       </c>
-      <c r="X21" s="6"/>
+      <c r="X21" s="6">
+        <v>45085</v>
+      </c>
       <c r="Y21" s="7">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="Z21" s="17"/>
       <c r="AA21" s="6">
@@ -5915,34 +5937,34 @@
       <c r="BV21" s="10"/>
       <c r="BW21" s="10"/>
       <c r="BX21" s="11"/>
-      <c r="BY21" s="38"/>
-      <c r="BZ21" s="43"/>
-      <c r="CA21" s="43"/>
-      <c r="CB21" s="38"/>
-      <c r="CC21" s="38"/>
-      <c r="CD21" s="38"/>
-      <c r="CE21" s="38"/>
-      <c r="CF21" s="38"/>
-      <c r="CG21" s="38"/>
-      <c r="CH21" s="38"/>
-      <c r="CI21" s="38"/>
-      <c r="CJ21" s="38"/>
-      <c r="CK21" s="38"/>
+      <c r="BY21" s="47"/>
+      <c r="BZ21" s="50"/>
+      <c r="CA21" s="50"/>
+      <c r="CB21" s="47"/>
+      <c r="CC21" s="47"/>
+      <c r="CD21" s="47"/>
+      <c r="CE21" s="47"/>
+      <c r="CF21" s="47"/>
+      <c r="CG21" s="47"/>
+      <c r="CH21" s="47"/>
+      <c r="CI21" s="47"/>
+      <c r="CJ21" s="47"/>
+      <c r="CK21" s="47"/>
       <c r="CL21" s="29"/>
-      <c r="CM21" s="38"/>
-      <c r="CN21" s="38"/>
-      <c r="CO21" s="38"/>
-      <c r="CP21" s="38"/>
-      <c r="CQ21" s="38"/>
-      <c r="CR21" s="38"/>
-      <c r="CS21" s="38"/>
-      <c r="CT21" s="38"/>
-      <c r="CU21" s="38"/>
-      <c r="CV21" s="38"/>
-      <c r="CW21" s="38"/>
-      <c r="CX21" s="38"/>
-      <c r="CY21" s="38"/>
-      <c r="CZ21" s="38"/>
+      <c r="CM21" s="47"/>
+      <c r="CN21" s="47"/>
+      <c r="CO21" s="47"/>
+      <c r="CP21" s="47"/>
+      <c r="CQ21" s="47"/>
+      <c r="CR21" s="47"/>
+      <c r="CS21" s="47"/>
+      <c r="CT21" s="47"/>
+      <c r="CU21" s="47"/>
+      <c r="CV21" s="47"/>
+      <c r="CW21" s="47"/>
+      <c r="CX21" s="47"/>
+      <c r="CY21" s="47"/>
+      <c r="CZ21" s="47"/>
     </row>
     <row r="22" spans="2:104" ht="20.25" customHeight="1">
       <c r="B22" s="5">
@@ -6005,9 +6027,11 @@
       <c r="W22" s="6">
         <v>45083</v>
       </c>
-      <c r="X22" s="6"/>
+      <c r="X22" s="6">
+        <v>45085</v>
+      </c>
       <c r="Y22" s="7">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="Z22" s="17"/>
       <c r="AA22" s="6">
@@ -6087,34 +6111,34 @@
       <c r="BV22" s="10"/>
       <c r="BW22" s="10"/>
       <c r="BX22" s="13"/>
-      <c r="BY22" s="39"/>
-      <c r="BZ22" s="44"/>
-      <c r="CA22" s="44"/>
-      <c r="CB22" s="39"/>
-      <c r="CC22" s="39"/>
-      <c r="CD22" s="39"/>
-      <c r="CE22" s="39"/>
-      <c r="CF22" s="39"/>
-      <c r="CG22" s="39"/>
-      <c r="CH22" s="39"/>
-      <c r="CI22" s="39"/>
-      <c r="CJ22" s="39"/>
-      <c r="CK22" s="39"/>
+      <c r="BY22" s="48"/>
+      <c r="BZ22" s="51"/>
+      <c r="CA22" s="51"/>
+      <c r="CB22" s="48"/>
+      <c r="CC22" s="48"/>
+      <c r="CD22" s="48"/>
+      <c r="CE22" s="48"/>
+      <c r="CF22" s="48"/>
+      <c r="CG22" s="48"/>
+      <c r="CH22" s="48"/>
+      <c r="CI22" s="48"/>
+      <c r="CJ22" s="48"/>
+      <c r="CK22" s="48"/>
       <c r="CL22" s="14"/>
-      <c r="CM22" s="39"/>
-      <c r="CN22" s="39"/>
-      <c r="CO22" s="39"/>
-      <c r="CP22" s="39"/>
-      <c r="CQ22" s="39"/>
-      <c r="CR22" s="39"/>
-      <c r="CS22" s="39"/>
-      <c r="CT22" s="39"/>
-      <c r="CU22" s="39"/>
-      <c r="CV22" s="39"/>
-      <c r="CW22" s="39"/>
-      <c r="CX22" s="39"/>
-      <c r="CY22" s="39"/>
-      <c r="CZ22" s="39"/>
+      <c r="CM22" s="48"/>
+      <c r="CN22" s="48"/>
+      <c r="CO22" s="48"/>
+      <c r="CP22" s="48"/>
+      <c r="CQ22" s="48"/>
+      <c r="CR22" s="48"/>
+      <c r="CS22" s="48"/>
+      <c r="CT22" s="48"/>
+      <c r="CU22" s="48"/>
+      <c r="CV22" s="48"/>
+      <c r="CW22" s="48"/>
+      <c r="CX22" s="48"/>
+      <c r="CY22" s="48"/>
+      <c r="CZ22" s="48"/>
     </row>
     <row r="23" spans="2:104" ht="20.25" customHeight="1">
       <c r="BX23" s="11"/>
@@ -6126,6 +6150,119 @@
     </row>
   </sheetData>
   <mergeCells count="137">
+    <mergeCell ref="CM7:CM13"/>
+    <mergeCell ref="CN7:CN13"/>
+    <mergeCell ref="CO7:CO13"/>
+    <mergeCell ref="CW15:CW22"/>
+    <mergeCell ref="CX7:CX13"/>
+    <mergeCell ref="CY7:CY13"/>
+    <mergeCell ref="CZ7:CZ13"/>
+    <mergeCell ref="CQ15:CQ22"/>
+    <mergeCell ref="CR15:CR22"/>
+    <mergeCell ref="CS15:CS22"/>
+    <mergeCell ref="CU7:CU13"/>
+    <mergeCell ref="CV7:CV13"/>
+    <mergeCell ref="CW7:CW13"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="CX15:CX22"/>
+    <mergeCell ref="CY15:CY22"/>
+    <mergeCell ref="CB7:CB13"/>
+    <mergeCell ref="CC7:CC13"/>
+    <mergeCell ref="CD7:CD13"/>
+    <mergeCell ref="CE7:CE13"/>
+    <mergeCell ref="CF7:CF13"/>
+    <mergeCell ref="CG7:CG13"/>
+    <mergeCell ref="CH7:CH13"/>
+    <mergeCell ref="CI7:CI13"/>
+    <mergeCell ref="CJ7:CJ13"/>
+    <mergeCell ref="CK7:CK13"/>
+    <mergeCell ref="CP7:CP13"/>
+    <mergeCell ref="CQ7:CQ13"/>
+    <mergeCell ref="BY15:BY22"/>
+    <mergeCell ref="BZ15:BZ22"/>
+    <mergeCell ref="CA15:CA22"/>
+    <mergeCell ref="CB15:CB22"/>
+    <mergeCell ref="CC15:CC22"/>
+    <mergeCell ref="CD15:CD22"/>
+    <mergeCell ref="CM15:CM22"/>
+    <mergeCell ref="CN15:CN22"/>
+    <mergeCell ref="CO15:CO22"/>
+    <mergeCell ref="CE15:CE22"/>
+    <mergeCell ref="CF15:CF22"/>
+    <mergeCell ref="CG15:CG22"/>
+    <mergeCell ref="BY7:BY13"/>
+    <mergeCell ref="BZ7:BZ13"/>
+    <mergeCell ref="CA7:CA13"/>
+    <mergeCell ref="CZ5:CZ6"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CT5:CU5"/>
+    <mergeCell ref="CV5:CW5"/>
+    <mergeCell ref="CS5:CS6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CH15:CH22"/>
+    <mergeCell ref="CI15:CI22"/>
+    <mergeCell ref="CJ15:CJ22"/>
+    <mergeCell ref="CK15:CK22"/>
+    <mergeCell ref="CZ15:CZ22"/>
+    <mergeCell ref="CP15:CP22"/>
+    <mergeCell ref="CR7:CR13"/>
+    <mergeCell ref="CS7:CS13"/>
+    <mergeCell ref="CT7:CT13"/>
+    <mergeCell ref="CT15:CT22"/>
+    <mergeCell ref="CU15:CU22"/>
+    <mergeCell ref="CV15:CV22"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CK5:CK6"/>
+    <mergeCell ref="CN5:CO5"/>
+    <mergeCell ref="CP5:CQ5"/>
+    <mergeCell ref="CM5:CM6"/>
+    <mergeCell ref="CH5:CI5"/>
+    <mergeCell ref="CE5:CE6"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="CF5:CG5"/>
+    <mergeCell ref="BP4:BW4"/>
+    <mergeCell ref="BY4:CD4"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="Z4:AF4"/>
+    <mergeCell ref="AH4:AM4"/>
+    <mergeCell ref="AN4:AT4"/>
+    <mergeCell ref="AV4:BA4"/>
+    <mergeCell ref="BB4:BH4"/>
+    <mergeCell ref="BJ4:BO4"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="BM5:BN5"/>
+    <mergeCell ref="BQ5:BR5"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="E4:E6"/>
     <mergeCell ref="CE4:CK4"/>
     <mergeCell ref="CM4:CR4"/>
     <mergeCell ref="CS4:CZ4"/>
@@ -6150,284 +6287,186 @@
     <mergeCell ref="L4:R4"/>
     <mergeCell ref="T5:T6"/>
     <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BW5:BW6"/>
-    <mergeCell ref="BY5:BY6"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="BZ5:CA5"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="BP4:BW4"/>
-    <mergeCell ref="BY4:CD4"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="Z4:AF4"/>
-    <mergeCell ref="AH4:AM4"/>
-    <mergeCell ref="AN4:AT4"/>
-    <mergeCell ref="AV4:BA4"/>
-    <mergeCell ref="BB4:BH4"/>
-    <mergeCell ref="BJ4:BO4"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CK5:CK6"/>
-    <mergeCell ref="CN5:CO5"/>
-    <mergeCell ref="CP5:CQ5"/>
-    <mergeCell ref="CM5:CM6"/>
-    <mergeCell ref="CH5:CI5"/>
-    <mergeCell ref="CE5:CE6"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="CF5:CG5"/>
-    <mergeCell ref="CE15:CE22"/>
-    <mergeCell ref="CF15:CF22"/>
-    <mergeCell ref="CG15:CG22"/>
-    <mergeCell ref="BY7:BY13"/>
-    <mergeCell ref="BZ7:BZ13"/>
-    <mergeCell ref="CA7:CA13"/>
-    <mergeCell ref="CZ5:CZ6"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CT5:CU5"/>
-    <mergeCell ref="CV5:CW5"/>
-    <mergeCell ref="CS5:CS6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CH15:CH22"/>
-    <mergeCell ref="CI15:CI22"/>
-    <mergeCell ref="CJ15:CJ22"/>
-    <mergeCell ref="CK15:CK22"/>
-    <mergeCell ref="CZ15:CZ22"/>
-    <mergeCell ref="CP15:CP22"/>
-    <mergeCell ref="CR7:CR13"/>
-    <mergeCell ref="CS7:CS13"/>
-    <mergeCell ref="CT7:CT13"/>
-    <mergeCell ref="CT15:CT22"/>
-    <mergeCell ref="CU15:CU22"/>
-    <mergeCell ref="CV15:CV22"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="CX15:CX22"/>
-    <mergeCell ref="CY15:CY22"/>
-    <mergeCell ref="CB7:CB13"/>
-    <mergeCell ref="CC7:CC13"/>
-    <mergeCell ref="CD7:CD13"/>
-    <mergeCell ref="CE7:CE13"/>
-    <mergeCell ref="CF7:CF13"/>
-    <mergeCell ref="CG7:CG13"/>
-    <mergeCell ref="CH7:CH13"/>
-    <mergeCell ref="CI7:CI13"/>
-    <mergeCell ref="CJ7:CJ13"/>
-    <mergeCell ref="CK7:CK13"/>
-    <mergeCell ref="CP7:CP13"/>
-    <mergeCell ref="CQ7:CQ13"/>
-    <mergeCell ref="BY15:BY22"/>
-    <mergeCell ref="BZ15:BZ22"/>
-    <mergeCell ref="CA15:CA22"/>
-    <mergeCell ref="CB15:CB22"/>
-    <mergeCell ref="CC15:CC22"/>
-    <mergeCell ref="CD15:CD22"/>
-    <mergeCell ref="CM15:CM22"/>
-    <mergeCell ref="CN15:CN22"/>
-    <mergeCell ref="CO15:CO22"/>
-    <mergeCell ref="CM7:CM13"/>
-    <mergeCell ref="CN7:CN13"/>
-    <mergeCell ref="CO7:CO13"/>
-    <mergeCell ref="CW15:CW22"/>
-    <mergeCell ref="CX7:CX13"/>
-    <mergeCell ref="CY7:CY13"/>
-    <mergeCell ref="CZ7:CZ13"/>
-    <mergeCell ref="CQ15:CQ22"/>
-    <mergeCell ref="CR15:CR22"/>
-    <mergeCell ref="CS15:CS22"/>
-    <mergeCell ref="CU7:CU13"/>
-    <mergeCell ref="CV7:CV13"/>
-    <mergeCell ref="CW7:CW13"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="F7:K14">
-    <cfRule type="expression" dxfId="32" priority="78">
+    <cfRule type="expression" dxfId="35" priority="81">
       <formula>$J7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7:R14 K15:R22">
-    <cfRule type="expression" dxfId="31" priority="71">
+    <cfRule type="expression" dxfId="34" priority="74">
       <formula>$P7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T7:Y14">
-    <cfRule type="expression" dxfId="30" priority="70">
+    <cfRule type="expression" dxfId="33" priority="73">
       <formula>$X7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z7:AF14">
-    <cfRule type="expression" dxfId="29" priority="69">
+    <cfRule type="expression" dxfId="32" priority="72">
       <formula>$AD7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH7:AM14">
-    <cfRule type="expression" dxfId="28" priority="67">
+    <cfRule type="expression" dxfId="31" priority="70">
       <formula>$AL7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN7:AT14">
-    <cfRule type="expression" dxfId="27" priority="68">
+    <cfRule type="expression" dxfId="30" priority="71">
       <formula>$AR7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV7:BA14">
-    <cfRule type="expression" dxfId="26" priority="132">
+    <cfRule type="expression" dxfId="29" priority="135">
       <formula>$AZ7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB7:BH14">
-    <cfRule type="expression" dxfId="25" priority="131">
+    <cfRule type="expression" dxfId="28" priority="134">
       <formula>$BF7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ7:BO14">
-    <cfRule type="expression" dxfId="24" priority="126">
+    <cfRule type="expression" dxfId="27" priority="129">
       <formula>$BN7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP7:BW14">
-    <cfRule type="expression" dxfId="23" priority="125">
+    <cfRule type="expression" dxfId="26" priority="128">
       <formula>$BT7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:F22">
-    <cfRule type="expression" dxfId="22" priority="155">
+    <cfRule type="expression" dxfId="25" priority="158">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA7:AB12">
-    <cfRule type="expression" dxfId="21" priority="157">
+    <cfRule type="expression" dxfId="24" priority="160">
       <formula>$X8&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20 F15:F16">
-    <cfRule type="expression" dxfId="20" priority="183">
+    <cfRule type="expression" dxfId="23" priority="186">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA22:AB22">
-    <cfRule type="expression" dxfId="19" priority="185">
+    <cfRule type="expression" dxfId="22" priority="188">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="18" priority="190">
+    <cfRule type="expression" dxfId="21" priority="193">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F16">
-    <cfRule type="expression" dxfId="17" priority="192">
+    <cfRule type="expression" dxfId="20" priority="195">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F18">
-    <cfRule type="expression" dxfId="16" priority="193">
+    <cfRule type="expression" dxfId="19" priority="196">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA13:AB14">
-    <cfRule type="expression" dxfId="15" priority="215">
+    <cfRule type="expression" dxfId="18" priority="218">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:J22">
-    <cfRule type="expression" dxfId="14" priority="217">
+    <cfRule type="expression" dxfId="17" priority="220">
       <formula>$I15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U15:Y22">
-    <cfRule type="expression" dxfId="13" priority="221">
+  <conditionalFormatting sqref="U15:W22 Y15:Y22">
+    <cfRule type="expression" dxfId="16" priority="224">
       <formula>$X15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z15:AF22">
-    <cfRule type="expression" dxfId="12" priority="223">
+    <cfRule type="expression" dxfId="15" priority="226">
       <formula>$AD15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH15:AM22">
-    <cfRule type="expression" dxfId="11" priority="225">
+    <cfRule type="expression" dxfId="14" priority="228">
       <formula>$AL15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN15:AT22">
-    <cfRule type="expression" dxfId="10" priority="227">
+    <cfRule type="expression" dxfId="13" priority="230">
       <formula>$AR15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV15:BA22">
-    <cfRule type="expression" dxfId="9" priority="229">
+    <cfRule type="expression" dxfId="12" priority="232">
       <formula>$AZ15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB15:BH22">
-    <cfRule type="expression" dxfId="8" priority="231">
+    <cfRule type="expression" dxfId="11" priority="234">
       <formula>$BF15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ15:BO22">
-    <cfRule type="expression" dxfId="7" priority="233">
+    <cfRule type="expression" dxfId="10" priority="236">
       <formula>$BN15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP15:BW22">
-    <cfRule type="expression" dxfId="6" priority="235">
+    <cfRule type="expression" dxfId="9" priority="238">
       <formula>$BT15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15:AB21">
-    <cfRule type="expression" dxfId="5" priority="236">
+    <cfRule type="expression" dxfId="8" priority="239">
       <formula>$X16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T21:T22">
-    <cfRule type="expression" dxfId="4" priority="1">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T20 T15:T16">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15:T16">
-    <cfRule type="expression" dxfId="1" priority="4">
+    <cfRule type="expression" dxfId="4" priority="7">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17:T18">
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="3" priority="8">
       <formula>$I18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X15">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$X15&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X16">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$X16&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X17:X22">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$X17&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -6461,7 +6500,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <sheetData>
     <row r="5" spans="4:5">
       <c r="D5" t="s">
@@ -6494,7 +6533,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6510,7 +6549,7 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6526,7 +6565,7 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6542,7 +6581,7 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6558,7 +6597,7 @@
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6574,7 +6613,7 @@
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/スケジュール（2023-06）.xlsx
+++ b/スケジュール（2023-06）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\algai\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B588A2-6A27-4EC3-9F08-B9D8CA76C685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5BD194A-65D1-4518-AE3A-9EC2524FF4C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12497" tabRatio="910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16395" yWindow="1590" windowWidth="15975" windowHeight="12615" tabRatio="910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="体制図" sheetId="11" r:id="rId1"/>
@@ -26,24 +26,11 @@
     <sheet name="8_勤怠承認詳細" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="70">
   <si>
     <t>勤怠管理システムWBS</t>
   </si>
@@ -722,51 +709,6 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -782,6 +724,51 @@
     <xf numFmtId="56" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
@@ -789,7 +776,14 @@
     <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準_システム管理" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="37">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2686,7 +2680,7 @@
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="3" spans="3:7">
       <c r="G3" s="28" t="s">
@@ -2727,7 +2721,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2743,7 +2737,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2757,20 +2751,20 @@
   <dimension ref="B3:CZ24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="Q7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="F9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Z16" sqref="Z16"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.78515625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="18.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="8" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="8.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="16.796875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="18.69921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.59765625" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="8.69921875" style="1" customWidth="1" outlineLevel="1"/>
     <col min="8" max="11" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="13" max="18" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
@@ -2778,422 +2772,424 @@
     <col min="20" max="20" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="21" max="25" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="26" max="26" width="13" style="8" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="32" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="1.5703125" style="1" customWidth="1"/>
+    <col min="27" max="29" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="7.59765625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="32" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="1.59765625" style="1" customWidth="1"/>
     <col min="34" max="34" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="35" max="39" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="40" max="40" width="13" style="2" customWidth="1" outlineLevel="1"/>
     <col min="41" max="46" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="47" max="47" width="1.5703125" style="1" customWidth="1"/>
+    <col min="47" max="47" width="1.59765625" style="1" customWidth="1"/>
     <col min="48" max="48" width="13" style="2" customWidth="1" outlineLevel="1"/>
     <col min="49" max="53" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="54" max="54" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="55" max="60" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="61" max="61" width="1.5703125" style="1" customWidth="1"/>
+    <col min="61" max="61" width="1.59765625" style="1" customWidth="1"/>
     <col min="62" max="62" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="63" max="67" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="68" max="68" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="69" max="75" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="76" max="76" width="1.5703125" style="1" customWidth="1"/>
-    <col min="77" max="77" width="6.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="76" max="76" width="1.59765625" style="1" customWidth="1"/>
+    <col min="77" max="77" width="6.59765625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="78" max="81" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
     <col min="82" max="83" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="84" max="85" width="6.5" style="33" customWidth="1" outlineLevel="1"/>
     <col min="86" max="87" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
     <col min="88" max="89" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="90" max="90" width="1.5703125" style="1" customWidth="1"/>
-    <col min="91" max="91" width="6.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="90" max="90" width="1.59765625" style="1" customWidth="1"/>
+    <col min="91" max="91" width="6.59765625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="92" max="93" width="6.5" style="33" customWidth="1" outlineLevel="1"/>
     <col min="94" max="95" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
     <col min="96" max="97" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="98" max="99" width="6.5" style="33" customWidth="1" outlineLevel="1"/>
     <col min="100" max="101" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
     <col min="102" max="104" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="105" max="105" width="1.5703125" style="1" customWidth="1"/>
+    <col min="105" max="105" width="1.59765625" style="1" customWidth="1"/>
     <col min="106" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:104" ht="23.6">
+    <row r="3" spans="2:104" ht="23.4">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:104" s="20" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41" t="s">
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="41"/>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="T4" s="41" t="s">
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="T4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="41"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41" t="s">
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="41"/>
-      <c r="AF4" s="41"/>
-      <c r="AH4" s="41" t="s">
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AH4" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="AI4" s="41"/>
-      <c r="AJ4" s="41"/>
-      <c r="AK4" s="41"/>
-      <c r="AL4" s="41"/>
-      <c r="AM4" s="41"/>
-      <c r="AN4" s="41" t="s">
+      <c r="AI4" s="42"/>
+      <c r="AJ4" s="42"/>
+      <c r="AK4" s="42"/>
+      <c r="AL4" s="42"/>
+      <c r="AM4" s="42"/>
+      <c r="AN4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AO4" s="41"/>
-      <c r="AP4" s="41"/>
-      <c r="AQ4" s="41"/>
-      <c r="AR4" s="41"/>
-      <c r="AS4" s="41"/>
-      <c r="AT4" s="48"/>
+      <c r="AO4" s="42"/>
+      <c r="AP4" s="42"/>
+      <c r="AQ4" s="42"/>
+      <c r="AR4" s="42"/>
+      <c r="AS4" s="42"/>
+      <c r="AT4" s="43"/>
       <c r="AU4" s="21"/>
-      <c r="AV4" s="41" t="s">
+      <c r="AV4" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="AW4" s="41"/>
-      <c r="AX4" s="41"/>
-      <c r="AY4" s="41"/>
-      <c r="AZ4" s="41"/>
-      <c r="BA4" s="41"/>
-      <c r="BB4" s="41" t="s">
+      <c r="AW4" s="42"/>
+      <c r="AX4" s="42"/>
+      <c r="AY4" s="42"/>
+      <c r="AZ4" s="42"/>
+      <c r="BA4" s="42"/>
+      <c r="BB4" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="BC4" s="41"/>
-      <c r="BD4" s="41"/>
-      <c r="BE4" s="41"/>
-      <c r="BF4" s="41"/>
-      <c r="BG4" s="41"/>
-      <c r="BH4" s="41"/>
+      <c r="BC4" s="42"/>
+      <c r="BD4" s="42"/>
+      <c r="BE4" s="42"/>
+      <c r="BF4" s="42"/>
+      <c r="BG4" s="42"/>
+      <c r="BH4" s="42"/>
       <c r="BI4" s="22"/>
-      <c r="BJ4" s="49" t="s">
+      <c r="BJ4" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="BK4" s="41"/>
-      <c r="BL4" s="41"/>
-      <c r="BM4" s="41"/>
-      <c r="BN4" s="41"/>
-      <c r="BO4" s="41"/>
-      <c r="BP4" s="41" t="s">
+      <c r="BK4" s="42"/>
+      <c r="BL4" s="42"/>
+      <c r="BM4" s="42"/>
+      <c r="BN4" s="42"/>
+      <c r="BO4" s="42"/>
+      <c r="BP4" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="BQ4" s="41"/>
-      <c r="BR4" s="41"/>
-      <c r="BS4" s="41"/>
-      <c r="BT4" s="41"/>
-      <c r="BU4" s="41"/>
-      <c r="BV4" s="41"/>
-      <c r="BW4" s="41"/>
-      <c r="BY4" s="41" t="s">
+      <c r="BQ4" s="42"/>
+      <c r="BR4" s="42"/>
+      <c r="BS4" s="42"/>
+      <c r="BT4" s="42"/>
+      <c r="BU4" s="42"/>
+      <c r="BV4" s="42"/>
+      <c r="BW4" s="42"/>
+      <c r="BY4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="BZ4" s="41"/>
-      <c r="CA4" s="41"/>
-      <c r="CB4" s="41"/>
-      <c r="CC4" s="41"/>
-      <c r="CD4" s="41"/>
-      <c r="CE4" s="41" t="s">
+      <c r="BZ4" s="42"/>
+      <c r="CA4" s="42"/>
+      <c r="CB4" s="42"/>
+      <c r="CC4" s="42"/>
+      <c r="CD4" s="42"/>
+      <c r="CE4" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="CF4" s="41"/>
-      <c r="CG4" s="41"/>
-      <c r="CH4" s="41"/>
-      <c r="CI4" s="41"/>
-      <c r="CJ4" s="41"/>
-      <c r="CK4" s="48"/>
+      <c r="CF4" s="42"/>
+      <c r="CG4" s="42"/>
+      <c r="CH4" s="42"/>
+      <c r="CI4" s="42"/>
+      <c r="CJ4" s="42"/>
+      <c r="CK4" s="43"/>
       <c r="CL4" s="23"/>
-      <c r="CM4" s="49" t="s">
+      <c r="CM4" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="CN4" s="41"/>
-      <c r="CO4" s="41"/>
-      <c r="CP4" s="41"/>
-      <c r="CQ4" s="41"/>
-      <c r="CR4" s="41"/>
-      <c r="CS4" s="41" t="s">
+      <c r="CN4" s="42"/>
+      <c r="CO4" s="42"/>
+      <c r="CP4" s="42"/>
+      <c r="CQ4" s="42"/>
+      <c r="CR4" s="42"/>
+      <c r="CS4" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="CT4" s="41"/>
-      <c r="CU4" s="41"/>
-      <c r="CV4" s="41"/>
-      <c r="CW4" s="41"/>
-      <c r="CX4" s="41"/>
-      <c r="CY4" s="41"/>
-      <c r="CZ4" s="41"/>
+      <c r="CT4" s="42"/>
+      <c r="CU4" s="42"/>
+      <c r="CV4" s="42"/>
+      <c r="CW4" s="42"/>
+      <c r="CX4" s="42"/>
+      <c r="CY4" s="42"/>
+      <c r="CZ4" s="42"/>
     </row>
-    <row r="5" spans="2:104" ht="21.65" customHeight="1">
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="41" t="s">
+    <row r="5" spans="2:104" ht="21.6" customHeight="1">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50" t="s">
+      <c r="H5" s="45"/>
+      <c r="I5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="50"/>
-      <c r="K5" s="40" t="s">
+      <c r="J5" s="45"/>
+      <c r="K5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="41" t="s">
+      <c r="L5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="50" t="s">
+      <c r="M5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50" t="s">
+      <c r="N5" s="45"/>
+      <c r="O5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="40" t="s">
+      <c r="P5" s="45"/>
+      <c r="Q5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="40" t="s">
+      <c r="R5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="41" t="s">
+      <c r="T5" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="50" t="s">
+      <c r="U5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50" t="s">
+      <c r="V5" s="45"/>
+      <c r="W5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="40" t="s">
+      <c r="X5" s="45"/>
+      <c r="Y5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="41" t="s">
+      <c r="Z5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AA5" s="50" t="s">
+      <c r="AA5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="AB5" s="50"/>
-      <c r="AC5" s="50" t="s">
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="AD5" s="50"/>
-      <c r="AE5" s="40" t="s">
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="AF5" s="40" t="s">
+      <c r="AF5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="AH5" s="41" t="s">
+      <c r="AH5" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="AI5" s="50" t="s">
+      <c r="AI5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="AJ5" s="50"/>
-      <c r="AK5" s="50" t="s">
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="AL5" s="50"/>
-      <c r="AM5" s="40" t="s">
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="AN5" s="41" t="s">
+      <c r="AN5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AO5" s="50" t="s">
+      <c r="AO5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="AP5" s="50"/>
-      <c r="AQ5" s="50" t="s">
+      <c r="AP5" s="45"/>
+      <c r="AQ5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="40" t="s">
+      <c r="AR5" s="45"/>
+      <c r="AS5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="AT5" s="47" t="s">
+      <c r="AT5" s="48" t="s">
         <v>23</v>
       </c>
       <c r="AU5" s="13"/>
-      <c r="AV5" s="41" t="s">
+      <c r="AV5" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="AW5" s="50" t="s">
+      <c r="AW5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="AX5" s="50"/>
-      <c r="AY5" s="50" t="s">
+      <c r="AX5" s="45"/>
+      <c r="AY5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="AZ5" s="50"/>
-      <c r="BA5" s="40" t="s">
+      <c r="AZ5" s="45"/>
+      <c r="BA5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="BB5" s="41" t="s">
+      <c r="BB5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BC5" s="50" t="s">
+      <c r="BC5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="BD5" s="50"/>
-      <c r="BE5" s="50" t="s">
+      <c r="BD5" s="45"/>
+      <c r="BE5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="BF5" s="50"/>
-      <c r="BG5" s="40" t="s">
+      <c r="BF5" s="45"/>
+      <c r="BG5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="BH5" s="40" t="s">
+      <c r="BH5" s="46" t="s">
         <v>23</v>
       </c>
       <c r="BI5" s="14"/>
-      <c r="BJ5" s="49" t="s">
+      <c r="BJ5" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="BK5" s="50" t="s">
+      <c r="BK5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="BL5" s="50"/>
-      <c r="BM5" s="50" t="s">
+      <c r="BL5" s="45"/>
+      <c r="BM5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="BN5" s="50"/>
-      <c r="BO5" s="40" t="s">
+      <c r="BN5" s="45"/>
+      <c r="BO5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="BP5" s="41" t="s">
+      <c r="BP5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BQ5" s="50" t="s">
+      <c r="BQ5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="BR5" s="50"/>
-      <c r="BS5" s="50" t="s">
+      <c r="BR5" s="45"/>
+      <c r="BS5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="BT5" s="50"/>
-      <c r="BU5" s="40" t="s">
+      <c r="BT5" s="45"/>
+      <c r="BU5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="BV5" s="40" t="s">
+      <c r="BV5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="BW5" s="40" t="s">
+      <c r="BW5" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="BY5" s="41" t="s">
+      <c r="BY5" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="BZ5" s="46" t="s">
+      <c r="BZ5" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="CA5" s="46"/>
-      <c r="CB5" s="46" t="s">
+      <c r="CA5" s="49"/>
+      <c r="CB5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="CC5" s="46"/>
-      <c r="CD5" s="40" t="s">
+      <c r="CC5" s="49"/>
+      <c r="CD5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="CE5" s="41" t="s">
+      <c r="CE5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="CF5" s="45" t="s">
+      <c r="CF5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="CG5" s="45"/>
-      <c r="CH5" s="46" t="s">
+      <c r="CG5" s="50"/>
+      <c r="CH5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="CI5" s="46"/>
-      <c r="CJ5" s="40" t="s">
+      <c r="CI5" s="49"/>
+      <c r="CJ5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="CK5" s="47" t="s">
+      <c r="CK5" s="48" t="s">
         <v>23</v>
       </c>
       <c r="CL5" s="11"/>
-      <c r="CM5" s="49" t="s">
+      <c r="CM5" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="CN5" s="45" t="s">
+      <c r="CN5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="CO5" s="45"/>
-      <c r="CP5" s="46" t="s">
+      <c r="CO5" s="50"/>
+      <c r="CP5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="CQ5" s="46"/>
-      <c r="CR5" s="40" t="s">
+      <c r="CQ5" s="49"/>
+      <c r="CR5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="CS5" s="41" t="s">
+      <c r="CS5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="CT5" s="45" t="s">
+      <c r="CT5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="CU5" s="45"/>
-      <c r="CV5" s="46" t="s">
+      <c r="CU5" s="50"/>
+      <c r="CV5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="CW5" s="46"/>
-      <c r="CX5" s="40" t="s">
+      <c r="CW5" s="49"/>
+      <c r="CX5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="CY5" s="40" t="s">
+      <c r="CY5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="CZ5" s="40" t="s">
+      <c r="CZ5" s="46" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:104" ht="14.15">
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="41"/>
+    <row r="6" spans="2:104" ht="14.4">
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3206,8 +3202,8 @@
       <c r="J6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
       <c r="M6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3220,9 +3216,9 @@
       <c r="P6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="41"/>
-      <c r="R6" s="41"/>
-      <c r="T6" s="41"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="T6" s="42"/>
       <c r="U6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3235,8 +3231,8 @@
       <c r="X6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="41"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
       <c r="AA6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3249,9 +3245,9 @@
       <c r="AD6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AE6" s="41"/>
-      <c r="AF6" s="41"/>
-      <c r="AH6" s="41"/>
+      <c r="AE6" s="42"/>
+      <c r="AF6" s="42"/>
+      <c r="AH6" s="42"/>
       <c r="AI6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3264,8 +3260,8 @@
       <c r="AL6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AM6" s="41"/>
-      <c r="AN6" s="41"/>
+      <c r="AM6" s="42"/>
+      <c r="AN6" s="42"/>
       <c r="AO6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3278,10 +3274,10 @@
       <c r="AR6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AS6" s="41"/>
-      <c r="AT6" s="48"/>
+      <c r="AS6" s="42"/>
+      <c r="AT6" s="43"/>
       <c r="AU6" s="13"/>
-      <c r="AV6" s="41"/>
+      <c r="AV6" s="42"/>
       <c r="AW6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3294,8 +3290,8 @@
       <c r="AZ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BA6" s="41"/>
-      <c r="BB6" s="41"/>
+      <c r="BA6" s="42"/>
+      <c r="BB6" s="42"/>
       <c r="BC6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3308,10 +3304,10 @@
       <c r="BF6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BG6" s="41"/>
-      <c r="BH6" s="41"/>
+      <c r="BG6" s="42"/>
+      <c r="BH6" s="42"/>
       <c r="BI6" s="14"/>
-      <c r="BJ6" s="49"/>
+      <c r="BJ6" s="44"/>
       <c r="BK6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3324,8 +3320,8 @@
       <c r="BN6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BO6" s="41"/>
-      <c r="BP6" s="41"/>
+      <c r="BO6" s="42"/>
+      <c r="BP6" s="42"/>
       <c r="BQ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3338,10 +3334,10 @@
       <c r="BT6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BU6" s="41"/>
-      <c r="BV6" s="41"/>
-      <c r="BW6" s="41"/>
-      <c r="BY6" s="41"/>
+      <c r="BU6" s="42"/>
+      <c r="BV6" s="42"/>
+      <c r="BW6" s="42"/>
+      <c r="BY6" s="42"/>
       <c r="BZ6" s="31" t="s">
         <v>25</v>
       </c>
@@ -3354,8 +3350,8 @@
       <c r="CC6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CD6" s="41"/>
-      <c r="CE6" s="41"/>
+      <c r="CD6" s="42"/>
+      <c r="CE6" s="42"/>
       <c r="CF6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3368,10 +3364,10 @@
       <c r="CI6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CJ6" s="41"/>
-      <c r="CK6" s="48"/>
+      <c r="CJ6" s="42"/>
+      <c r="CK6" s="43"/>
       <c r="CL6" s="11"/>
-      <c r="CM6" s="49"/>
+      <c r="CM6" s="44"/>
       <c r="CN6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3384,8 +3380,8 @@
       <c r="CQ6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CR6" s="41"/>
-      <c r="CS6" s="41"/>
+      <c r="CR6" s="42"/>
+      <c r="CS6" s="42"/>
       <c r="CT6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3398,9 +3394,9 @@
       <c r="CW6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CX6" s="41"/>
-      <c r="CY6" s="41"/>
-      <c r="CZ6" s="41"/>
+      <c r="CX6" s="42"/>
+      <c r="CY6" s="42"/>
+      <c r="CZ6" s="42"/>
     </row>
     <row r="7" spans="2:104" ht="20.25" customHeight="1">
       <c r="B7" s="5">
@@ -3451,43 +3447,43 @@
         <v>1</v>
       </c>
       <c r="R7" s="9"/>
-      <c r="T7" s="52" t="s">
+      <c r="T7" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="U7" s="53">
+      <c r="U7" s="38">
         <v>45083</v>
       </c>
-      <c r="V7" s="53">
+      <c r="V7" s="38">
         <v>45083</v>
       </c>
-      <c r="W7" s="53">
+      <c r="W7" s="38">
         <v>45083</v>
       </c>
-      <c r="X7" s="53">
+      <c r="X7" s="38">
         <v>45085</v>
       </c>
-      <c r="Y7" s="54">
+      <c r="Y7" s="39">
         <v>1</v>
       </c>
-      <c r="Z7" s="52" t="s">
+      <c r="Z7" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="AA7" s="53">
+      <c r="AA7" s="38">
         <v>45084</v>
       </c>
-      <c r="AB7" s="53">
+      <c r="AB7" s="38">
         <v>45084</v>
       </c>
-      <c r="AC7" s="53">
+      <c r="AC7" s="38">
         <v>45084</v>
       </c>
-      <c r="AD7" s="53">
+      <c r="AD7" s="38">
         <v>45086</v>
       </c>
-      <c r="AE7" s="54">
+      <c r="AE7" s="39">
         <v>1</v>
       </c>
-      <c r="AF7" s="55">
+      <c r="AF7" s="40">
         <v>6</v>
       </c>
       <c r="AH7" s="16"/>
@@ -3556,50 +3552,50 @@
       <c r="BU7" s="7"/>
       <c r="BV7" s="10"/>
       <c r="BW7" s="10"/>
-      <c r="BY7" s="37"/>
-      <c r="BZ7" s="37">
+      <c r="BY7" s="51"/>
+      <c r="BZ7" s="51">
         <v>45100</v>
       </c>
-      <c r="CA7" s="37">
+      <c r="CA7" s="51">
         <v>45100</v>
       </c>
-      <c r="CB7" s="37"/>
-      <c r="CC7" s="37"/>
-      <c r="CD7" s="37"/>
-      <c r="CE7" s="37"/>
-      <c r="CF7" s="37">
+      <c r="CB7" s="51"/>
+      <c r="CC7" s="51"/>
+      <c r="CD7" s="51"/>
+      <c r="CE7" s="51"/>
+      <c r="CF7" s="51">
         <v>45103</v>
       </c>
-      <c r="CG7" s="37">
+      <c r="CG7" s="51">
         <v>45103</v>
       </c>
-      <c r="CH7" s="37"/>
-      <c r="CI7" s="37"/>
-      <c r="CJ7" s="37"/>
-      <c r="CK7" s="37"/>
+      <c r="CH7" s="51"/>
+      <c r="CI7" s="51"/>
+      <c r="CJ7" s="51"/>
+      <c r="CK7" s="51"/>
       <c r="CL7" s="14"/>
-      <c r="CM7" s="37"/>
-      <c r="CN7" s="37">
+      <c r="CM7" s="51"/>
+      <c r="CN7" s="51">
         <v>45104</v>
       </c>
-      <c r="CO7" s="37">
+      <c r="CO7" s="51">
         <v>45104</v>
       </c>
-      <c r="CP7" s="37"/>
-      <c r="CQ7" s="37"/>
-      <c r="CR7" s="37"/>
-      <c r="CS7" s="37"/>
-      <c r="CT7" s="37">
+      <c r="CP7" s="51"/>
+      <c r="CQ7" s="51"/>
+      <c r="CR7" s="51"/>
+      <c r="CS7" s="51"/>
+      <c r="CT7" s="51">
         <v>45105</v>
       </c>
-      <c r="CU7" s="37">
+      <c r="CU7" s="51">
         <v>45105</v>
       </c>
-      <c r="CV7" s="37"/>
-      <c r="CW7" s="37"/>
-      <c r="CX7" s="37"/>
-      <c r="CY7" s="37"/>
-      <c r="CZ7" s="37"/>
+      <c r="CV7" s="51"/>
+      <c r="CW7" s="51"/>
+      <c r="CX7" s="51"/>
+      <c r="CY7" s="51"/>
+      <c r="CZ7" s="51"/>
     </row>
     <row r="8" spans="2:104" ht="20.25" customHeight="1">
       <c r="B8" s="5">
@@ -3650,43 +3646,43 @@
         <v>1</v>
       </c>
       <c r="R8" s="9"/>
-      <c r="T8" s="52" t="s">
+      <c r="T8" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="U8" s="53">
+      <c r="U8" s="38">
         <v>45083</v>
       </c>
-      <c r="V8" s="53">
+      <c r="V8" s="38">
         <v>45083</v>
       </c>
-      <c r="W8" s="53">
+      <c r="W8" s="38">
         <v>45083</v>
       </c>
-      <c r="X8" s="53">
+      <c r="X8" s="38">
         <v>45085</v>
       </c>
-      <c r="Y8" s="54">
+      <c r="Y8" s="39">
         <v>1</v>
       </c>
-      <c r="Z8" s="52" t="s">
+      <c r="Z8" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="AA8" s="53">
+      <c r="AA8" s="38">
         <v>45084</v>
       </c>
-      <c r="AB8" s="53">
+      <c r="AB8" s="38">
         <v>45084</v>
       </c>
-      <c r="AC8" s="53">
+      <c r="AC8" s="38">
         <v>45084</v>
       </c>
-      <c r="AD8" s="53">
+      <c r="AD8" s="38">
         <v>45086</v>
       </c>
-      <c r="AE8" s="54">
+      <c r="AE8" s="39">
         <v>1</v>
       </c>
-      <c r="AF8" s="55">
+      <c r="AF8" s="40">
         <v>8</v>
       </c>
       <c r="AH8" s="16"/>
@@ -3755,34 +3751,34 @@
       <c r="BU8" s="7"/>
       <c r="BV8" s="10"/>
       <c r="BW8" s="10"/>
-      <c r="BY8" s="38"/>
-      <c r="BZ8" s="38"/>
-      <c r="CA8" s="38"/>
-      <c r="CB8" s="38"/>
-      <c r="CC8" s="38"/>
-      <c r="CD8" s="38"/>
-      <c r="CE8" s="38"/>
-      <c r="CF8" s="38"/>
-      <c r="CG8" s="38"/>
-      <c r="CH8" s="38"/>
-      <c r="CI8" s="38"/>
-      <c r="CJ8" s="38"/>
-      <c r="CK8" s="38"/>
+      <c r="BY8" s="52"/>
+      <c r="BZ8" s="52"/>
+      <c r="CA8" s="52"/>
+      <c r="CB8" s="52"/>
+      <c r="CC8" s="52"/>
+      <c r="CD8" s="52"/>
+      <c r="CE8" s="52"/>
+      <c r="CF8" s="52"/>
+      <c r="CG8" s="52"/>
+      <c r="CH8" s="52"/>
+      <c r="CI8" s="52"/>
+      <c r="CJ8" s="52"/>
+      <c r="CK8" s="52"/>
       <c r="CL8" s="14"/>
-      <c r="CM8" s="38"/>
-      <c r="CN8" s="38"/>
-      <c r="CO8" s="38"/>
-      <c r="CP8" s="38"/>
-      <c r="CQ8" s="38"/>
-      <c r="CR8" s="38"/>
-      <c r="CS8" s="38"/>
-      <c r="CT8" s="38"/>
-      <c r="CU8" s="38"/>
-      <c r="CV8" s="38"/>
-      <c r="CW8" s="38"/>
-      <c r="CX8" s="38"/>
-      <c r="CY8" s="38"/>
-      <c r="CZ8" s="38"/>
+      <c r="CM8" s="52"/>
+      <c r="CN8" s="52"/>
+      <c r="CO8" s="52"/>
+      <c r="CP8" s="52"/>
+      <c r="CQ8" s="52"/>
+      <c r="CR8" s="52"/>
+      <c r="CS8" s="52"/>
+      <c r="CT8" s="52"/>
+      <c r="CU8" s="52"/>
+      <c r="CV8" s="52"/>
+      <c r="CW8" s="52"/>
+      <c r="CX8" s="52"/>
+      <c r="CY8" s="52"/>
+      <c r="CZ8" s="52"/>
     </row>
     <row r="9" spans="2:104" ht="20.25" customHeight="1">
       <c r="B9" s="5">
@@ -3833,43 +3829,43 @@
         <v>1</v>
       </c>
       <c r="R9" s="9"/>
-      <c r="T9" s="52" t="s">
+      <c r="T9" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="U9" s="53">
+      <c r="U9" s="38">
         <v>45083</v>
       </c>
-      <c r="V9" s="53">
+      <c r="V9" s="38">
         <v>45083</v>
       </c>
-      <c r="W9" s="53">
+      <c r="W9" s="38">
         <v>45083</v>
       </c>
-      <c r="X9" s="53">
+      <c r="X9" s="38">
         <v>45084</v>
       </c>
-      <c r="Y9" s="54">
+      <c r="Y9" s="39">
         <v>1</v>
       </c>
-      <c r="Z9" s="52" t="s">
+      <c r="Z9" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="AA9" s="53">
+      <c r="AA9" s="38">
         <v>45084</v>
       </c>
-      <c r="AB9" s="53">
+      <c r="AB9" s="38">
         <v>45084</v>
       </c>
-      <c r="AC9" s="53">
+      <c r="AC9" s="38">
         <v>45084</v>
       </c>
-      <c r="AD9" s="53">
+      <c r="AD9" s="38">
         <v>45086</v>
       </c>
-      <c r="AE9" s="54">
+      <c r="AE9" s="39">
         <v>1</v>
       </c>
-      <c r="AF9" s="55"/>
+      <c r="AF9" s="40"/>
       <c r="AH9" s="16"/>
       <c r="AI9" s="6">
         <v>45085</v>
@@ -3937,34 +3933,34 @@
       <c r="BV9" s="10"/>
       <c r="BW9" s="10"/>
       <c r="BX9" s="13"/>
-      <c r="BY9" s="38"/>
-      <c r="BZ9" s="38"/>
-      <c r="CA9" s="38"/>
-      <c r="CB9" s="38"/>
-      <c r="CC9" s="38"/>
-      <c r="CD9" s="38"/>
-      <c r="CE9" s="38"/>
-      <c r="CF9" s="38"/>
-      <c r="CG9" s="38"/>
-      <c r="CH9" s="38"/>
-      <c r="CI9" s="38"/>
-      <c r="CJ9" s="38"/>
-      <c r="CK9" s="38"/>
+      <c r="BY9" s="52"/>
+      <c r="BZ9" s="52"/>
+      <c r="CA9" s="52"/>
+      <c r="CB9" s="52"/>
+      <c r="CC9" s="52"/>
+      <c r="CD9" s="52"/>
+      <c r="CE9" s="52"/>
+      <c r="CF9" s="52"/>
+      <c r="CG9" s="52"/>
+      <c r="CH9" s="52"/>
+      <c r="CI9" s="52"/>
+      <c r="CJ9" s="52"/>
+      <c r="CK9" s="52"/>
       <c r="CL9" s="14"/>
-      <c r="CM9" s="38"/>
-      <c r="CN9" s="38"/>
-      <c r="CO9" s="38"/>
-      <c r="CP9" s="38"/>
-      <c r="CQ9" s="38"/>
-      <c r="CR9" s="38"/>
-      <c r="CS9" s="38"/>
-      <c r="CT9" s="38"/>
-      <c r="CU9" s="38"/>
-      <c r="CV9" s="38"/>
-      <c r="CW9" s="38"/>
-      <c r="CX9" s="38"/>
-      <c r="CY9" s="38"/>
-      <c r="CZ9" s="38"/>
+      <c r="CM9" s="52"/>
+      <c r="CN9" s="52"/>
+      <c r="CO9" s="52"/>
+      <c r="CP9" s="52"/>
+      <c r="CQ9" s="52"/>
+      <c r="CR9" s="52"/>
+      <c r="CS9" s="52"/>
+      <c r="CT9" s="52"/>
+      <c r="CU9" s="52"/>
+      <c r="CV9" s="52"/>
+      <c r="CW9" s="52"/>
+      <c r="CX9" s="52"/>
+      <c r="CY9" s="52"/>
+      <c r="CZ9" s="52"/>
     </row>
     <row r="10" spans="2:104" ht="20.25" customHeight="1">
       <c r="B10" s="5">
@@ -4015,43 +4011,43 @@
         <v>1</v>
       </c>
       <c r="R10" s="9"/>
-      <c r="T10" s="52" t="s">
+      <c r="T10" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="U10" s="53">
+      <c r="U10" s="38">
         <v>45083</v>
       </c>
-      <c r="V10" s="53">
+      <c r="V10" s="38">
         <v>45083</v>
       </c>
-      <c r="W10" s="53">
+      <c r="W10" s="38">
         <v>45083</v>
       </c>
-      <c r="X10" s="53">
+      <c r="X10" s="38">
         <v>45084</v>
       </c>
-      <c r="Y10" s="54">
+      <c r="Y10" s="39">
         <v>1</v>
       </c>
-      <c r="Z10" s="52" t="s">
+      <c r="Z10" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="AA10" s="53">
+      <c r="AA10" s="38">
         <v>45084</v>
       </c>
-      <c r="AB10" s="53">
+      <c r="AB10" s="38">
         <v>45084</v>
       </c>
-      <c r="AC10" s="53">
+      <c r="AC10" s="38">
         <v>45084</v>
       </c>
-      <c r="AD10" s="53">
+      <c r="AD10" s="38">
         <v>45086</v>
       </c>
-      <c r="AE10" s="54">
+      <c r="AE10" s="39">
         <v>0.8</v>
       </c>
-      <c r="AF10" s="55">
+      <c r="AF10" s="40">
         <v>9</v>
       </c>
       <c r="AH10" s="16"/>
@@ -4121,34 +4117,34 @@
       <c r="BV10" s="10"/>
       <c r="BW10" s="10"/>
       <c r="BX10" s="13"/>
-      <c r="BY10" s="38"/>
-      <c r="BZ10" s="38"/>
-      <c r="CA10" s="38"/>
-      <c r="CB10" s="38"/>
-      <c r="CC10" s="38"/>
-      <c r="CD10" s="38"/>
-      <c r="CE10" s="38"/>
-      <c r="CF10" s="38"/>
-      <c r="CG10" s="38"/>
-      <c r="CH10" s="38"/>
-      <c r="CI10" s="38"/>
-      <c r="CJ10" s="38"/>
-      <c r="CK10" s="38"/>
+      <c r="BY10" s="52"/>
+      <c r="BZ10" s="52"/>
+      <c r="CA10" s="52"/>
+      <c r="CB10" s="52"/>
+      <c r="CC10" s="52"/>
+      <c r="CD10" s="52"/>
+      <c r="CE10" s="52"/>
+      <c r="CF10" s="52"/>
+      <c r="CG10" s="52"/>
+      <c r="CH10" s="52"/>
+      <c r="CI10" s="52"/>
+      <c r="CJ10" s="52"/>
+      <c r="CK10" s="52"/>
       <c r="CL10" s="14"/>
-      <c r="CM10" s="38"/>
-      <c r="CN10" s="38"/>
-      <c r="CO10" s="38"/>
-      <c r="CP10" s="38"/>
-      <c r="CQ10" s="38"/>
-      <c r="CR10" s="38"/>
-      <c r="CS10" s="38"/>
-      <c r="CT10" s="38"/>
-      <c r="CU10" s="38"/>
-      <c r="CV10" s="38"/>
-      <c r="CW10" s="38"/>
-      <c r="CX10" s="38"/>
-      <c r="CY10" s="38"/>
-      <c r="CZ10" s="38"/>
+      <c r="CM10" s="52"/>
+      <c r="CN10" s="52"/>
+      <c r="CO10" s="52"/>
+      <c r="CP10" s="52"/>
+      <c r="CQ10" s="52"/>
+      <c r="CR10" s="52"/>
+      <c r="CS10" s="52"/>
+      <c r="CT10" s="52"/>
+      <c r="CU10" s="52"/>
+      <c r="CV10" s="52"/>
+      <c r="CW10" s="52"/>
+      <c r="CX10" s="52"/>
+      <c r="CY10" s="52"/>
+      <c r="CZ10" s="52"/>
     </row>
     <row r="11" spans="2:104" ht="20.25" customHeight="1">
       <c r="B11" s="5">
@@ -4199,43 +4195,43 @@
         <v>1</v>
       </c>
       <c r="R11" s="9"/>
-      <c r="T11" s="52" t="s">
+      <c r="T11" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="U11" s="53">
+      <c r="U11" s="38">
         <v>45083</v>
       </c>
-      <c r="V11" s="53">
+      <c r="V11" s="38">
         <v>45083</v>
       </c>
-      <c r="W11" s="53">
+      <c r="W11" s="38">
         <v>45083</v>
       </c>
-      <c r="X11" s="53">
+      <c r="X11" s="38">
         <v>45085</v>
       </c>
-      <c r="Y11" s="54">
+      <c r="Y11" s="39">
         <v>1</v>
       </c>
-      <c r="Z11" s="52" t="s">
+      <c r="Z11" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="AA11" s="53">
+      <c r="AA11" s="38">
         <v>45084</v>
       </c>
-      <c r="AB11" s="53">
+      <c r="AB11" s="38">
         <v>45084</v>
       </c>
-      <c r="AC11" s="53">
+      <c r="AC11" s="38">
         <v>45084</v>
       </c>
-      <c r="AD11" s="53">
+      <c r="AD11" s="38">
         <v>45086</v>
       </c>
-      <c r="AE11" s="54">
+      <c r="AE11" s="39">
         <v>1</v>
       </c>
-      <c r="AF11" s="55"/>
+      <c r="AF11" s="40"/>
       <c r="AH11" s="16"/>
       <c r="AI11" s="6">
         <v>45085</v>
@@ -4303,34 +4299,34 @@
       <c r="BV11" s="10"/>
       <c r="BW11" s="10"/>
       <c r="BX11" s="13"/>
-      <c r="BY11" s="38"/>
-      <c r="BZ11" s="38"/>
-      <c r="CA11" s="38"/>
-      <c r="CB11" s="38"/>
-      <c r="CC11" s="38"/>
-      <c r="CD11" s="38"/>
-      <c r="CE11" s="38"/>
-      <c r="CF11" s="38"/>
-      <c r="CG11" s="38"/>
-      <c r="CH11" s="38"/>
-      <c r="CI11" s="38"/>
-      <c r="CJ11" s="38"/>
-      <c r="CK11" s="38"/>
+      <c r="BY11" s="52"/>
+      <c r="BZ11" s="52"/>
+      <c r="CA11" s="52"/>
+      <c r="CB11" s="52"/>
+      <c r="CC11" s="52"/>
+      <c r="CD11" s="52"/>
+      <c r="CE11" s="52"/>
+      <c r="CF11" s="52"/>
+      <c r="CG11" s="52"/>
+      <c r="CH11" s="52"/>
+      <c r="CI11" s="52"/>
+      <c r="CJ11" s="52"/>
+      <c r="CK11" s="52"/>
       <c r="CL11" s="14"/>
-      <c r="CM11" s="38"/>
-      <c r="CN11" s="38"/>
-      <c r="CO11" s="38"/>
-      <c r="CP11" s="38"/>
-      <c r="CQ11" s="38"/>
-      <c r="CR11" s="38"/>
-      <c r="CS11" s="38"/>
-      <c r="CT11" s="38"/>
-      <c r="CU11" s="38"/>
-      <c r="CV11" s="38"/>
-      <c r="CW11" s="38"/>
-      <c r="CX11" s="38"/>
-      <c r="CY11" s="38"/>
-      <c r="CZ11" s="38"/>
+      <c r="CM11" s="52"/>
+      <c r="CN11" s="52"/>
+      <c r="CO11" s="52"/>
+      <c r="CP11" s="52"/>
+      <c r="CQ11" s="52"/>
+      <c r="CR11" s="52"/>
+      <c r="CS11" s="52"/>
+      <c r="CT11" s="52"/>
+      <c r="CU11" s="52"/>
+      <c r="CV11" s="52"/>
+      <c r="CW11" s="52"/>
+      <c r="CX11" s="52"/>
+      <c r="CY11" s="52"/>
+      <c r="CZ11" s="52"/>
     </row>
     <row r="12" spans="2:104" ht="20.25" customHeight="1">
       <c r="B12" s="5">
@@ -4381,43 +4377,43 @@
         <v>1</v>
       </c>
       <c r="R12" s="9"/>
-      <c r="T12" s="52" t="s">
+      <c r="T12" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="U12" s="53">
+      <c r="U12" s="38">
         <v>45083</v>
       </c>
-      <c r="V12" s="53">
+      <c r="V12" s="38">
         <v>45083</v>
       </c>
-      <c r="W12" s="53">
+      <c r="W12" s="38">
         <v>45083</v>
       </c>
-      <c r="X12" s="53">
+      <c r="X12" s="38">
         <v>45085</v>
       </c>
-      <c r="Y12" s="54">
+      <c r="Y12" s="39">
         <v>1</v>
       </c>
-      <c r="Z12" s="52" t="s">
+      <c r="Z12" s="37" t="s">
         <v>65</v>
       </c>
-      <c r="AA12" s="53">
+      <c r="AA12" s="38">
         <v>45084</v>
       </c>
-      <c r="AB12" s="53">
+      <c r="AB12" s="38">
         <v>45084</v>
       </c>
-      <c r="AC12" s="53">
+      <c r="AC12" s="38">
         <v>45084</v>
       </c>
-      <c r="AD12" s="53">
+      <c r="AD12" s="38">
         <v>45086</v>
       </c>
-      <c r="AE12" s="54">
+      <c r="AE12" s="39">
         <v>1</v>
       </c>
-      <c r="AF12" s="55"/>
+      <c r="AF12" s="40"/>
       <c r="AH12" s="16"/>
       <c r="AI12" s="6">
         <v>45085</v>
@@ -4485,34 +4481,34 @@
       <c r="BV12" s="10"/>
       <c r="BW12" s="10"/>
       <c r="BX12" s="13"/>
-      <c r="BY12" s="38"/>
-      <c r="BZ12" s="38"/>
-      <c r="CA12" s="38"/>
-      <c r="CB12" s="38"/>
-      <c r="CC12" s="38"/>
-      <c r="CD12" s="38"/>
-      <c r="CE12" s="38"/>
-      <c r="CF12" s="38"/>
-      <c r="CG12" s="38"/>
-      <c r="CH12" s="38"/>
-      <c r="CI12" s="38"/>
-      <c r="CJ12" s="38"/>
-      <c r="CK12" s="38"/>
+      <c r="BY12" s="52"/>
+      <c r="BZ12" s="52"/>
+      <c r="CA12" s="52"/>
+      <c r="CB12" s="52"/>
+      <c r="CC12" s="52"/>
+      <c r="CD12" s="52"/>
+      <c r="CE12" s="52"/>
+      <c r="CF12" s="52"/>
+      <c r="CG12" s="52"/>
+      <c r="CH12" s="52"/>
+      <c r="CI12" s="52"/>
+      <c r="CJ12" s="52"/>
+      <c r="CK12" s="52"/>
       <c r="CL12" s="14"/>
-      <c r="CM12" s="38"/>
-      <c r="CN12" s="38"/>
-      <c r="CO12" s="38"/>
-      <c r="CP12" s="38"/>
-      <c r="CQ12" s="38"/>
-      <c r="CR12" s="38"/>
-      <c r="CS12" s="38"/>
-      <c r="CT12" s="38"/>
-      <c r="CU12" s="38"/>
-      <c r="CV12" s="38"/>
-      <c r="CW12" s="38"/>
-      <c r="CX12" s="38"/>
-      <c r="CY12" s="38"/>
-      <c r="CZ12" s="38"/>
+      <c r="CM12" s="52"/>
+      <c r="CN12" s="52"/>
+      <c r="CO12" s="52"/>
+      <c r="CP12" s="52"/>
+      <c r="CQ12" s="52"/>
+      <c r="CR12" s="52"/>
+      <c r="CS12" s="52"/>
+      <c r="CT12" s="52"/>
+      <c r="CU12" s="52"/>
+      <c r="CV12" s="52"/>
+      <c r="CW12" s="52"/>
+      <c r="CX12" s="52"/>
+      <c r="CY12" s="52"/>
+      <c r="CZ12" s="52"/>
     </row>
     <row r="13" spans="2:104" ht="20.25" customHeight="1">
       <c r="B13" s="5">
@@ -4563,43 +4559,43 @@
         <v>1</v>
       </c>
       <c r="R13" s="9"/>
-      <c r="T13" s="52" t="s">
+      <c r="T13" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="U13" s="56">
+      <c r="U13" s="41">
         <v>45083</v>
       </c>
-      <c r="V13" s="56">
+      <c r="V13" s="41">
         <v>45083</v>
       </c>
-      <c r="W13" s="56">
+      <c r="W13" s="41">
         <v>45083</v>
       </c>
-      <c r="X13" s="53">
+      <c r="X13" s="38">
         <v>45086</v>
       </c>
-      <c r="Y13" s="54">
+      <c r="Y13" s="39">
         <v>0.6</v>
       </c>
-      <c r="Z13" s="52" t="s">
+      <c r="Z13" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="AA13" s="53">
+      <c r="AA13" s="38">
         <v>45084</v>
       </c>
-      <c r="AB13" s="53">
+      <c r="AB13" s="38">
         <v>45084</v>
       </c>
-      <c r="AC13" s="53">
+      <c r="AC13" s="38">
         <v>45084</v>
       </c>
-      <c r="AD13" s="53">
+      <c r="AD13" s="38">
         <v>45086</v>
       </c>
-      <c r="AE13" s="54">
+      <c r="AE13" s="39">
         <v>0.5</v>
       </c>
-      <c r="AF13" s="55">
+      <c r="AF13" s="40">
         <v>7</v>
       </c>
       <c r="AH13" s="16"/>
@@ -4669,34 +4665,34 @@
       <c r="BV13" s="10"/>
       <c r="BW13" s="10"/>
       <c r="BX13" s="13"/>
-      <c r="BY13" s="38"/>
-      <c r="BZ13" s="38"/>
-      <c r="CA13" s="38"/>
-      <c r="CB13" s="38"/>
-      <c r="CC13" s="38"/>
-      <c r="CD13" s="38"/>
-      <c r="CE13" s="38"/>
-      <c r="CF13" s="38"/>
-      <c r="CG13" s="38"/>
-      <c r="CH13" s="38"/>
-      <c r="CI13" s="38"/>
-      <c r="CJ13" s="38"/>
-      <c r="CK13" s="38"/>
+      <c r="BY13" s="52"/>
+      <c r="BZ13" s="52"/>
+      <c r="CA13" s="52"/>
+      <c r="CB13" s="52"/>
+      <c r="CC13" s="52"/>
+      <c r="CD13" s="52"/>
+      <c r="CE13" s="52"/>
+      <c r="CF13" s="52"/>
+      <c r="CG13" s="52"/>
+      <c r="CH13" s="52"/>
+      <c r="CI13" s="52"/>
+      <c r="CJ13" s="52"/>
+      <c r="CK13" s="52"/>
       <c r="CL13" s="14"/>
-      <c r="CM13" s="38"/>
-      <c r="CN13" s="38"/>
-      <c r="CO13" s="38"/>
-      <c r="CP13" s="38"/>
-      <c r="CQ13" s="38"/>
-      <c r="CR13" s="38"/>
-      <c r="CS13" s="38"/>
-      <c r="CT13" s="38"/>
-      <c r="CU13" s="38"/>
-      <c r="CV13" s="38"/>
-      <c r="CW13" s="38"/>
-      <c r="CX13" s="38"/>
-      <c r="CY13" s="38"/>
-      <c r="CZ13" s="38"/>
+      <c r="CM13" s="52"/>
+      <c r="CN13" s="52"/>
+      <c r="CO13" s="52"/>
+      <c r="CP13" s="52"/>
+      <c r="CQ13" s="52"/>
+      <c r="CR13" s="52"/>
+      <c r="CS13" s="52"/>
+      <c r="CT13" s="52"/>
+      <c r="CU13" s="52"/>
+      <c r="CV13" s="52"/>
+      <c r="CW13" s="52"/>
+      <c r="CX13" s="52"/>
+      <c r="CY13" s="52"/>
+      <c r="CZ13" s="52"/>
     </row>
     <row r="14" spans="2:104" ht="20.25" customHeight="1">
       <c r="B14" s="5">
@@ -4747,43 +4743,43 @@
         <v>1</v>
       </c>
       <c r="R14" s="9"/>
-      <c r="T14" s="52" t="s">
+      <c r="T14" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="U14" s="53">
+      <c r="U14" s="38">
         <v>45083</v>
       </c>
-      <c r="V14" s="53">
+      <c r="V14" s="38">
         <v>45083</v>
       </c>
-      <c r="W14" s="53">
+      <c r="W14" s="38">
         <v>45083</v>
       </c>
-      <c r="X14" s="53">
+      <c r="X14" s="38">
         <v>45085</v>
       </c>
-      <c r="Y14" s="54">
+      <c r="Y14" s="39">
         <v>0.8</v>
       </c>
-      <c r="Z14" s="52" t="s">
+      <c r="Z14" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="AA14" s="53">
+      <c r="AA14" s="38">
         <v>45084</v>
       </c>
-      <c r="AB14" s="53">
+      <c r="AB14" s="38">
         <v>45084</v>
       </c>
-      <c r="AC14" s="53">
+      <c r="AC14" s="38">
         <v>45084</v>
       </c>
-      <c r="AD14" s="53">
+      <c r="AD14" s="38">
         <v>45086</v>
       </c>
-      <c r="AE14" s="54">
+      <c r="AE14" s="39">
         <v>1</v>
       </c>
-      <c r="AF14" s="55">
+      <c r="AF14" s="40">
         <v>9</v>
       </c>
       <c r="AH14" s="16"/>
@@ -4925,16 +4921,24 @@
       <c r="Y15" s="7">
         <v>1</v>
       </c>
-      <c r="Z15" s="17"/>
+      <c r="Z15" s="35" t="s">
+        <v>58</v>
+      </c>
       <c r="AA15" s="6">
         <v>45084</v>
       </c>
       <c r="AB15" s="6">
         <v>45084</v>
       </c>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
-      <c r="AE15" s="7"/>
+      <c r="AC15" s="38">
+        <v>45084</v>
+      </c>
+      <c r="AD15" s="38">
+        <v>45089</v>
+      </c>
+      <c r="AE15" s="39">
+        <v>1</v>
+      </c>
       <c r="AF15" s="9"/>
       <c r="AH15" s="16"/>
       <c r="AI15" s="6">
@@ -5003,50 +5007,50 @@
       <c r="BV15" s="10"/>
       <c r="BW15" s="10"/>
       <c r="BX15" s="13"/>
-      <c r="BY15" s="37"/>
-      <c r="BZ15" s="42">
+      <c r="BY15" s="51"/>
+      <c r="BZ15" s="54">
         <v>45100</v>
       </c>
-      <c r="CA15" s="42">
+      <c r="CA15" s="54">
         <v>45100</v>
       </c>
-      <c r="CB15" s="37"/>
-      <c r="CC15" s="37"/>
-      <c r="CD15" s="37"/>
-      <c r="CE15" s="37"/>
-      <c r="CF15" s="37">
+      <c r="CB15" s="51"/>
+      <c r="CC15" s="51"/>
+      <c r="CD15" s="51"/>
+      <c r="CE15" s="51"/>
+      <c r="CF15" s="51">
         <v>45103</v>
       </c>
-      <c r="CG15" s="37">
+      <c r="CG15" s="51">
         <v>45103</v>
       </c>
-      <c r="CH15" s="37"/>
-      <c r="CI15" s="37"/>
-      <c r="CJ15" s="37"/>
-      <c r="CK15" s="37"/>
+      <c r="CH15" s="51"/>
+      <c r="CI15" s="51"/>
+      <c r="CJ15" s="51"/>
+      <c r="CK15" s="51"/>
       <c r="CL15" s="14"/>
-      <c r="CM15" s="37"/>
-      <c r="CN15" s="37">
+      <c r="CM15" s="51"/>
+      <c r="CN15" s="51">
         <v>45104</v>
       </c>
-      <c r="CO15" s="37">
+      <c r="CO15" s="51">
         <v>45104</v>
       </c>
-      <c r="CP15" s="37"/>
-      <c r="CQ15" s="37"/>
-      <c r="CR15" s="37"/>
-      <c r="CS15" s="37"/>
-      <c r="CT15" s="37">
+      <c r="CP15" s="51"/>
+      <c r="CQ15" s="51"/>
+      <c r="CR15" s="51"/>
+      <c r="CS15" s="51"/>
+      <c r="CT15" s="51">
         <v>45105</v>
       </c>
-      <c r="CU15" s="37">
+      <c r="CU15" s="51">
         <v>45105</v>
       </c>
-      <c r="CV15" s="37"/>
-      <c r="CW15" s="37"/>
-      <c r="CX15" s="37"/>
-      <c r="CY15" s="37"/>
-      <c r="CZ15" s="37"/>
+      <c r="CV15" s="51"/>
+      <c r="CW15" s="51"/>
+      <c r="CX15" s="51"/>
+      <c r="CY15" s="51"/>
+      <c r="CZ15" s="51"/>
     </row>
     <row r="16" spans="2:104" ht="20.25" customHeight="1">
       <c r="B16" s="5">
@@ -5115,16 +5119,24 @@
       <c r="Y16" s="7">
         <v>1</v>
       </c>
-      <c r="Z16" s="17"/>
+      <c r="Z16" s="35" t="s">
+        <v>68</v>
+      </c>
       <c r="AA16" s="6">
         <v>45084</v>
       </c>
       <c r="AB16" s="6">
         <v>45084</v>
       </c>
-      <c r="AC16" s="6"/>
-      <c r="AD16" s="6"/>
-      <c r="AE16" s="7"/>
+      <c r="AC16" s="38">
+        <v>45084</v>
+      </c>
+      <c r="AD16" s="38">
+        <v>45089</v>
+      </c>
+      <c r="AE16" s="39">
+        <v>1</v>
+      </c>
       <c r="AF16" s="9"/>
       <c r="AH16" s="16"/>
       <c r="AI16" s="6">
@@ -5192,34 +5204,34 @@
       <c r="BU16" s="7"/>
       <c r="BV16" s="10"/>
       <c r="BW16" s="10"/>
-      <c r="BY16" s="38"/>
-      <c r="BZ16" s="43"/>
-      <c r="CA16" s="43"/>
-      <c r="CB16" s="38"/>
-      <c r="CC16" s="38"/>
-      <c r="CD16" s="38"/>
-      <c r="CE16" s="38"/>
-      <c r="CF16" s="38"/>
-      <c r="CG16" s="38"/>
-      <c r="CH16" s="38"/>
-      <c r="CI16" s="38"/>
-      <c r="CJ16" s="38"/>
-      <c r="CK16" s="38"/>
+      <c r="BY16" s="52"/>
+      <c r="BZ16" s="55"/>
+      <c r="CA16" s="55"/>
+      <c r="CB16" s="52"/>
+      <c r="CC16" s="52"/>
+      <c r="CD16" s="52"/>
+      <c r="CE16" s="52"/>
+      <c r="CF16" s="52"/>
+      <c r="CG16" s="52"/>
+      <c r="CH16" s="52"/>
+      <c r="CI16" s="52"/>
+      <c r="CJ16" s="52"/>
+      <c r="CK16" s="52"/>
       <c r="CL16" s="29"/>
-      <c r="CM16" s="38"/>
-      <c r="CN16" s="38"/>
-      <c r="CO16" s="38"/>
-      <c r="CP16" s="38"/>
-      <c r="CQ16" s="38"/>
-      <c r="CR16" s="38"/>
-      <c r="CS16" s="38"/>
-      <c r="CT16" s="38"/>
-      <c r="CU16" s="38"/>
-      <c r="CV16" s="38"/>
-      <c r="CW16" s="38"/>
-      <c r="CX16" s="38"/>
-      <c r="CY16" s="38"/>
-      <c r="CZ16" s="38"/>
+      <c r="CM16" s="52"/>
+      <c r="CN16" s="52"/>
+      <c r="CO16" s="52"/>
+      <c r="CP16" s="52"/>
+      <c r="CQ16" s="52"/>
+      <c r="CR16" s="52"/>
+      <c r="CS16" s="52"/>
+      <c r="CT16" s="52"/>
+      <c r="CU16" s="52"/>
+      <c r="CV16" s="52"/>
+      <c r="CW16" s="52"/>
+      <c r="CX16" s="52"/>
+      <c r="CY16" s="52"/>
+      <c r="CZ16" s="52"/>
     </row>
     <row r="17" spans="2:104" ht="20.25" customHeight="1">
       <c r="B17" s="5">
@@ -5288,16 +5300,24 @@
       <c r="Y17" s="7">
         <v>1</v>
       </c>
-      <c r="Z17" s="17"/>
+      <c r="Z17" s="27" t="s">
+        <v>52</v>
+      </c>
       <c r="AA17" s="6">
         <v>45084</v>
       </c>
       <c r="AB17" s="6">
         <v>45084</v>
       </c>
-      <c r="AC17" s="6"/>
-      <c r="AD17" s="6"/>
-      <c r="AE17" s="7"/>
+      <c r="AC17" s="38">
+        <v>45084</v>
+      </c>
+      <c r="AD17" s="38">
+        <v>45089</v>
+      </c>
+      <c r="AE17" s="39">
+        <v>1</v>
+      </c>
       <c r="AF17" s="9"/>
       <c r="AH17" s="16"/>
       <c r="AI17" s="6">
@@ -5365,34 +5385,34 @@
       <c r="BU17" s="7"/>
       <c r="BV17" s="10"/>
       <c r="BW17" s="10"/>
-      <c r="BY17" s="38"/>
-      <c r="BZ17" s="43"/>
-      <c r="CA17" s="43"/>
-      <c r="CB17" s="38"/>
-      <c r="CC17" s="38"/>
-      <c r="CD17" s="38"/>
-      <c r="CE17" s="38"/>
-      <c r="CF17" s="38"/>
-      <c r="CG17" s="38"/>
-      <c r="CH17" s="38"/>
-      <c r="CI17" s="38"/>
-      <c r="CJ17" s="38"/>
-      <c r="CK17" s="38"/>
+      <c r="BY17" s="52"/>
+      <c r="BZ17" s="55"/>
+      <c r="CA17" s="55"/>
+      <c r="CB17" s="52"/>
+      <c r="CC17" s="52"/>
+      <c r="CD17" s="52"/>
+      <c r="CE17" s="52"/>
+      <c r="CF17" s="52"/>
+      <c r="CG17" s="52"/>
+      <c r="CH17" s="52"/>
+      <c r="CI17" s="52"/>
+      <c r="CJ17" s="52"/>
+      <c r="CK17" s="52"/>
       <c r="CL17" s="29"/>
-      <c r="CM17" s="38"/>
-      <c r="CN17" s="38"/>
-      <c r="CO17" s="38"/>
-      <c r="CP17" s="38"/>
-      <c r="CQ17" s="38"/>
-      <c r="CR17" s="38"/>
-      <c r="CS17" s="38"/>
-      <c r="CT17" s="38"/>
-      <c r="CU17" s="38"/>
-      <c r="CV17" s="38"/>
-      <c r="CW17" s="38"/>
-      <c r="CX17" s="38"/>
-      <c r="CY17" s="38"/>
-      <c r="CZ17" s="38"/>
+      <c r="CM17" s="52"/>
+      <c r="CN17" s="52"/>
+      <c r="CO17" s="52"/>
+      <c r="CP17" s="52"/>
+      <c r="CQ17" s="52"/>
+      <c r="CR17" s="52"/>
+      <c r="CS17" s="52"/>
+      <c r="CT17" s="52"/>
+      <c r="CU17" s="52"/>
+      <c r="CV17" s="52"/>
+      <c r="CW17" s="52"/>
+      <c r="CX17" s="52"/>
+      <c r="CY17" s="52"/>
+      <c r="CZ17" s="52"/>
     </row>
     <row r="18" spans="2:104" ht="20.25" customHeight="1">
       <c r="B18" s="5">
@@ -5461,16 +5481,24 @@
       <c r="Y18" s="7">
         <v>1</v>
       </c>
-      <c r="Z18" s="17"/>
+      <c r="Z18" s="27" t="s">
+        <v>53</v>
+      </c>
       <c r="AA18" s="6">
         <v>45084</v>
       </c>
       <c r="AB18" s="6">
         <v>45084</v>
       </c>
-      <c r="AC18" s="6"/>
-      <c r="AD18" s="6"/>
-      <c r="AE18" s="7"/>
+      <c r="AC18" s="38">
+        <v>45084</v>
+      </c>
+      <c r="AD18" s="38">
+        <v>45089</v>
+      </c>
+      <c r="AE18" s="39">
+        <v>1</v>
+      </c>
       <c r="AF18" s="9"/>
       <c r="AH18" s="16"/>
       <c r="AI18" s="6">
@@ -5539,34 +5567,34 @@
       <c r="BV18" s="10"/>
       <c r="BW18" s="10"/>
       <c r="BX18" s="11"/>
-      <c r="BY18" s="38"/>
-      <c r="BZ18" s="43"/>
-      <c r="CA18" s="43"/>
-      <c r="CB18" s="38"/>
-      <c r="CC18" s="38"/>
-      <c r="CD18" s="38"/>
-      <c r="CE18" s="38"/>
-      <c r="CF18" s="38"/>
-      <c r="CG18" s="38"/>
-      <c r="CH18" s="38"/>
-      <c r="CI18" s="38"/>
-      <c r="CJ18" s="38"/>
-      <c r="CK18" s="38"/>
+      <c r="BY18" s="52"/>
+      <c r="BZ18" s="55"/>
+      <c r="CA18" s="55"/>
+      <c r="CB18" s="52"/>
+      <c r="CC18" s="52"/>
+      <c r="CD18" s="52"/>
+      <c r="CE18" s="52"/>
+      <c r="CF18" s="52"/>
+      <c r="CG18" s="52"/>
+      <c r="CH18" s="52"/>
+      <c r="CI18" s="52"/>
+      <c r="CJ18" s="52"/>
+      <c r="CK18" s="52"/>
       <c r="CL18" s="29"/>
-      <c r="CM18" s="38"/>
-      <c r="CN18" s="38"/>
-      <c r="CO18" s="38"/>
-      <c r="CP18" s="38"/>
-      <c r="CQ18" s="38"/>
-      <c r="CR18" s="38"/>
-      <c r="CS18" s="38"/>
-      <c r="CT18" s="38"/>
-      <c r="CU18" s="38"/>
-      <c r="CV18" s="38"/>
-      <c r="CW18" s="38"/>
-      <c r="CX18" s="38"/>
-      <c r="CY18" s="38"/>
-      <c r="CZ18" s="38"/>
+      <c r="CM18" s="52"/>
+      <c r="CN18" s="52"/>
+      <c r="CO18" s="52"/>
+      <c r="CP18" s="52"/>
+      <c r="CQ18" s="52"/>
+      <c r="CR18" s="52"/>
+      <c r="CS18" s="52"/>
+      <c r="CT18" s="52"/>
+      <c r="CU18" s="52"/>
+      <c r="CV18" s="52"/>
+      <c r="CW18" s="52"/>
+      <c r="CX18" s="52"/>
+      <c r="CY18" s="52"/>
+      <c r="CZ18" s="52"/>
     </row>
     <row r="19" spans="2:104" ht="20.25" customHeight="1">
       <c r="B19" s="5">
@@ -5635,16 +5663,24 @@
       <c r="Y19" s="7">
         <v>1</v>
       </c>
-      <c r="Z19" s="17"/>
+      <c r="Z19" s="27" t="s">
+        <v>54</v>
+      </c>
       <c r="AA19" s="6">
         <v>45084</v>
       </c>
       <c r="AB19" s="6">
         <v>45084</v>
       </c>
-      <c r="AC19" s="6"/>
-      <c r="AD19" s="6"/>
-      <c r="AE19" s="7"/>
+      <c r="AC19" s="38">
+        <v>45084</v>
+      </c>
+      <c r="AD19" s="38">
+        <v>45089</v>
+      </c>
+      <c r="AE19" s="39">
+        <v>1</v>
+      </c>
       <c r="AF19" s="9"/>
       <c r="AH19" s="16"/>
       <c r="AI19" s="6">
@@ -5713,34 +5749,34 @@
       <c r="BV19" s="10"/>
       <c r="BW19" s="10"/>
       <c r="BX19" s="11"/>
-      <c r="BY19" s="38"/>
-      <c r="BZ19" s="43"/>
-      <c r="CA19" s="43"/>
-      <c r="CB19" s="38"/>
-      <c r="CC19" s="38"/>
-      <c r="CD19" s="38"/>
-      <c r="CE19" s="38"/>
-      <c r="CF19" s="38"/>
-      <c r="CG19" s="38"/>
-      <c r="CH19" s="38"/>
-      <c r="CI19" s="38"/>
-      <c r="CJ19" s="38"/>
-      <c r="CK19" s="38"/>
+      <c r="BY19" s="52"/>
+      <c r="BZ19" s="55"/>
+      <c r="CA19" s="55"/>
+      <c r="CB19" s="52"/>
+      <c r="CC19" s="52"/>
+      <c r="CD19" s="52"/>
+      <c r="CE19" s="52"/>
+      <c r="CF19" s="52"/>
+      <c r="CG19" s="52"/>
+      <c r="CH19" s="52"/>
+      <c r="CI19" s="52"/>
+      <c r="CJ19" s="52"/>
+      <c r="CK19" s="52"/>
       <c r="CL19" s="29"/>
-      <c r="CM19" s="38"/>
-      <c r="CN19" s="38"/>
-      <c r="CO19" s="38"/>
-      <c r="CP19" s="38"/>
-      <c r="CQ19" s="38"/>
-      <c r="CR19" s="38"/>
-      <c r="CS19" s="38"/>
-      <c r="CT19" s="38"/>
-      <c r="CU19" s="38"/>
-      <c r="CV19" s="38"/>
-      <c r="CW19" s="38"/>
-      <c r="CX19" s="38"/>
-      <c r="CY19" s="38"/>
-      <c r="CZ19" s="38"/>
+      <c r="CM19" s="52"/>
+      <c r="CN19" s="52"/>
+      <c r="CO19" s="52"/>
+      <c r="CP19" s="52"/>
+      <c r="CQ19" s="52"/>
+      <c r="CR19" s="52"/>
+      <c r="CS19" s="52"/>
+      <c r="CT19" s="52"/>
+      <c r="CU19" s="52"/>
+      <c r="CV19" s="52"/>
+      <c r="CW19" s="52"/>
+      <c r="CX19" s="52"/>
+      <c r="CY19" s="52"/>
+      <c r="CZ19" s="52"/>
     </row>
     <row r="20" spans="2:104" ht="20.25" customHeight="1">
       <c r="B20" s="5">
@@ -5809,16 +5845,24 @@
       <c r="Y20" s="7">
         <v>1</v>
       </c>
-      <c r="Z20" s="17"/>
+      <c r="Z20" s="35" t="s">
+        <v>55</v>
+      </c>
       <c r="AA20" s="6">
         <v>45084</v>
       </c>
       <c r="AB20" s="6">
         <v>45084</v>
       </c>
-      <c r="AC20" s="6"/>
-      <c r="AD20" s="6"/>
-      <c r="AE20" s="7"/>
+      <c r="AC20" s="38">
+        <v>45084</v>
+      </c>
+      <c r="AD20" s="38">
+        <v>45089</v>
+      </c>
+      <c r="AE20" s="39">
+        <v>1</v>
+      </c>
       <c r="AF20" s="9"/>
       <c r="AH20" s="16"/>
       <c r="AI20" s="6">
@@ -5887,34 +5931,34 @@
       <c r="BV20" s="10"/>
       <c r="BW20" s="10"/>
       <c r="BX20" s="11"/>
-      <c r="BY20" s="38"/>
-      <c r="BZ20" s="43"/>
-      <c r="CA20" s="43"/>
-      <c r="CB20" s="38"/>
-      <c r="CC20" s="38"/>
-      <c r="CD20" s="38"/>
-      <c r="CE20" s="38"/>
-      <c r="CF20" s="38"/>
-      <c r="CG20" s="38"/>
-      <c r="CH20" s="38"/>
-      <c r="CI20" s="38"/>
-      <c r="CJ20" s="38"/>
-      <c r="CK20" s="38"/>
+      <c r="BY20" s="52"/>
+      <c r="BZ20" s="55"/>
+      <c r="CA20" s="55"/>
+      <c r="CB20" s="52"/>
+      <c r="CC20" s="52"/>
+      <c r="CD20" s="52"/>
+      <c r="CE20" s="52"/>
+      <c r="CF20" s="52"/>
+      <c r="CG20" s="52"/>
+      <c r="CH20" s="52"/>
+      <c r="CI20" s="52"/>
+      <c r="CJ20" s="52"/>
+      <c r="CK20" s="52"/>
       <c r="CL20" s="29"/>
-      <c r="CM20" s="38"/>
-      <c r="CN20" s="38"/>
-      <c r="CO20" s="38"/>
-      <c r="CP20" s="38"/>
-      <c r="CQ20" s="38"/>
-      <c r="CR20" s="38"/>
-      <c r="CS20" s="38"/>
-      <c r="CT20" s="38"/>
-      <c r="CU20" s="38"/>
-      <c r="CV20" s="38"/>
-      <c r="CW20" s="38"/>
-      <c r="CX20" s="38"/>
-      <c r="CY20" s="38"/>
-      <c r="CZ20" s="38"/>
+      <c r="CM20" s="52"/>
+      <c r="CN20" s="52"/>
+      <c r="CO20" s="52"/>
+      <c r="CP20" s="52"/>
+      <c r="CQ20" s="52"/>
+      <c r="CR20" s="52"/>
+      <c r="CS20" s="52"/>
+      <c r="CT20" s="52"/>
+      <c r="CU20" s="52"/>
+      <c r="CV20" s="52"/>
+      <c r="CW20" s="52"/>
+      <c r="CX20" s="52"/>
+      <c r="CY20" s="52"/>
+      <c r="CZ20" s="52"/>
     </row>
     <row r="21" spans="2:104" ht="20.25" customHeight="1">
       <c r="B21" s="5">
@@ -5983,16 +6027,24 @@
       <c r="Y21" s="7">
         <v>1</v>
       </c>
-      <c r="Z21" s="17"/>
+      <c r="Z21" s="35" t="s">
+        <v>56</v>
+      </c>
       <c r="AA21" s="6">
         <v>45084</v>
       </c>
       <c r="AB21" s="6">
         <v>45084</v>
       </c>
-      <c r="AC21" s="6"/>
-      <c r="AD21" s="6"/>
-      <c r="AE21" s="7"/>
+      <c r="AC21" s="38">
+        <v>45084</v>
+      </c>
+      <c r="AD21" s="38">
+        <v>45086</v>
+      </c>
+      <c r="AE21" s="39">
+        <v>1</v>
+      </c>
       <c r="AF21" s="9"/>
       <c r="AH21" s="16"/>
       <c r="AI21" s="6">
@@ -6061,34 +6113,34 @@
       <c r="BV21" s="10"/>
       <c r="BW21" s="10"/>
       <c r="BX21" s="11"/>
-      <c r="BY21" s="38"/>
-      <c r="BZ21" s="43"/>
-      <c r="CA21" s="43"/>
-      <c r="CB21" s="38"/>
-      <c r="CC21" s="38"/>
-      <c r="CD21" s="38"/>
-      <c r="CE21" s="38"/>
-      <c r="CF21" s="38"/>
-      <c r="CG21" s="38"/>
-      <c r="CH21" s="38"/>
-      <c r="CI21" s="38"/>
-      <c r="CJ21" s="38"/>
-      <c r="CK21" s="38"/>
+      <c r="BY21" s="52"/>
+      <c r="BZ21" s="55"/>
+      <c r="CA21" s="55"/>
+      <c r="CB21" s="52"/>
+      <c r="CC21" s="52"/>
+      <c r="CD21" s="52"/>
+      <c r="CE21" s="52"/>
+      <c r="CF21" s="52"/>
+      <c r="CG21" s="52"/>
+      <c r="CH21" s="52"/>
+      <c r="CI21" s="52"/>
+      <c r="CJ21" s="52"/>
+      <c r="CK21" s="52"/>
       <c r="CL21" s="29"/>
-      <c r="CM21" s="38"/>
-      <c r="CN21" s="38"/>
-      <c r="CO21" s="38"/>
-      <c r="CP21" s="38"/>
-      <c r="CQ21" s="38"/>
-      <c r="CR21" s="38"/>
-      <c r="CS21" s="38"/>
-      <c r="CT21" s="38"/>
-      <c r="CU21" s="38"/>
-      <c r="CV21" s="38"/>
-      <c r="CW21" s="38"/>
-      <c r="CX21" s="38"/>
-      <c r="CY21" s="38"/>
-      <c r="CZ21" s="38"/>
+      <c r="CM21" s="52"/>
+      <c r="CN21" s="52"/>
+      <c r="CO21" s="52"/>
+      <c r="CP21" s="52"/>
+      <c r="CQ21" s="52"/>
+      <c r="CR21" s="52"/>
+      <c r="CS21" s="52"/>
+      <c r="CT21" s="52"/>
+      <c r="CU21" s="52"/>
+      <c r="CV21" s="52"/>
+      <c r="CW21" s="52"/>
+      <c r="CX21" s="52"/>
+      <c r="CY21" s="52"/>
+      <c r="CZ21" s="52"/>
     </row>
     <row r="22" spans="2:104" ht="20.25" customHeight="1">
       <c r="B22" s="5">
@@ -6157,7 +6209,9 @@
       <c r="Y22" s="7">
         <v>1</v>
       </c>
-      <c r="Z22" s="17"/>
+      <c r="Z22" s="35" t="s">
+        <v>57</v>
+      </c>
       <c r="AA22" s="6">
         <v>45084</v>
       </c>
@@ -6235,34 +6289,34 @@
       <c r="BV22" s="10"/>
       <c r="BW22" s="10"/>
       <c r="BX22" s="13"/>
-      <c r="BY22" s="39"/>
-      <c r="BZ22" s="44"/>
-      <c r="CA22" s="44"/>
-      <c r="CB22" s="39"/>
-      <c r="CC22" s="39"/>
-      <c r="CD22" s="39"/>
-      <c r="CE22" s="39"/>
-      <c r="CF22" s="39"/>
-      <c r="CG22" s="39"/>
-      <c r="CH22" s="39"/>
-      <c r="CI22" s="39"/>
-      <c r="CJ22" s="39"/>
-      <c r="CK22" s="39"/>
+      <c r="BY22" s="53"/>
+      <c r="BZ22" s="56"/>
+      <c r="CA22" s="56"/>
+      <c r="CB22" s="53"/>
+      <c r="CC22" s="53"/>
+      <c r="CD22" s="53"/>
+      <c r="CE22" s="53"/>
+      <c r="CF22" s="53"/>
+      <c r="CG22" s="53"/>
+      <c r="CH22" s="53"/>
+      <c r="CI22" s="53"/>
+      <c r="CJ22" s="53"/>
+      <c r="CK22" s="53"/>
       <c r="CL22" s="14"/>
-      <c r="CM22" s="39"/>
-      <c r="CN22" s="39"/>
-      <c r="CO22" s="39"/>
-      <c r="CP22" s="39"/>
-      <c r="CQ22" s="39"/>
-      <c r="CR22" s="39"/>
-      <c r="CS22" s="39"/>
-      <c r="CT22" s="39"/>
-      <c r="CU22" s="39"/>
-      <c r="CV22" s="39"/>
-      <c r="CW22" s="39"/>
-      <c r="CX22" s="39"/>
-      <c r="CY22" s="39"/>
-      <c r="CZ22" s="39"/>
+      <c r="CM22" s="53"/>
+      <c r="CN22" s="53"/>
+      <c r="CO22" s="53"/>
+      <c r="CP22" s="53"/>
+      <c r="CQ22" s="53"/>
+      <c r="CR22" s="53"/>
+      <c r="CS22" s="53"/>
+      <c r="CT22" s="53"/>
+      <c r="CU22" s="53"/>
+      <c r="CV22" s="53"/>
+      <c r="CW22" s="53"/>
+      <c r="CX22" s="53"/>
+      <c r="CY22" s="53"/>
+      <c r="CZ22" s="53"/>
     </row>
     <row r="23" spans="2:104" ht="20.25" customHeight="1">
       <c r="BX23" s="11"/>
@@ -6274,6 +6328,119 @@
     </row>
   </sheetData>
   <mergeCells count="137">
+    <mergeCell ref="CM7:CM13"/>
+    <mergeCell ref="CN7:CN13"/>
+    <mergeCell ref="CO7:CO13"/>
+    <mergeCell ref="CW15:CW22"/>
+    <mergeCell ref="CX7:CX13"/>
+    <mergeCell ref="CY7:CY13"/>
+    <mergeCell ref="CZ7:CZ13"/>
+    <mergeCell ref="CQ15:CQ22"/>
+    <mergeCell ref="CR15:CR22"/>
+    <mergeCell ref="CS15:CS22"/>
+    <mergeCell ref="CU7:CU13"/>
+    <mergeCell ref="CV7:CV13"/>
+    <mergeCell ref="CW7:CW13"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="CX15:CX22"/>
+    <mergeCell ref="CY15:CY22"/>
+    <mergeCell ref="CB7:CB13"/>
+    <mergeCell ref="CC7:CC13"/>
+    <mergeCell ref="CD7:CD13"/>
+    <mergeCell ref="CE7:CE13"/>
+    <mergeCell ref="CF7:CF13"/>
+    <mergeCell ref="CG7:CG13"/>
+    <mergeCell ref="CH7:CH13"/>
+    <mergeCell ref="CI7:CI13"/>
+    <mergeCell ref="CJ7:CJ13"/>
+    <mergeCell ref="CK7:CK13"/>
+    <mergeCell ref="CP7:CP13"/>
+    <mergeCell ref="CQ7:CQ13"/>
+    <mergeCell ref="BY15:BY22"/>
+    <mergeCell ref="BZ15:BZ22"/>
+    <mergeCell ref="CA15:CA22"/>
+    <mergeCell ref="CB15:CB22"/>
+    <mergeCell ref="CC15:CC22"/>
+    <mergeCell ref="CD15:CD22"/>
+    <mergeCell ref="CM15:CM22"/>
+    <mergeCell ref="CN15:CN22"/>
+    <mergeCell ref="CO15:CO22"/>
+    <mergeCell ref="CE15:CE22"/>
+    <mergeCell ref="CF15:CF22"/>
+    <mergeCell ref="CG15:CG22"/>
+    <mergeCell ref="BY7:BY13"/>
+    <mergeCell ref="BZ7:BZ13"/>
+    <mergeCell ref="CA7:CA13"/>
+    <mergeCell ref="CZ5:CZ6"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CT5:CU5"/>
+    <mergeCell ref="CV5:CW5"/>
+    <mergeCell ref="CS5:CS6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CH15:CH22"/>
+    <mergeCell ref="CI15:CI22"/>
+    <mergeCell ref="CJ15:CJ22"/>
+    <mergeCell ref="CK15:CK22"/>
+    <mergeCell ref="CZ15:CZ22"/>
+    <mergeCell ref="CP15:CP22"/>
+    <mergeCell ref="CR7:CR13"/>
+    <mergeCell ref="CS7:CS13"/>
+    <mergeCell ref="CT7:CT13"/>
+    <mergeCell ref="CT15:CT22"/>
+    <mergeCell ref="CU15:CU22"/>
+    <mergeCell ref="CV15:CV22"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CK5:CK6"/>
+    <mergeCell ref="CN5:CO5"/>
+    <mergeCell ref="CP5:CQ5"/>
+    <mergeCell ref="CM5:CM6"/>
+    <mergeCell ref="CH5:CI5"/>
+    <mergeCell ref="CE5:CE6"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="CF5:CG5"/>
+    <mergeCell ref="BP4:BW4"/>
+    <mergeCell ref="BY4:CD4"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="Z4:AF4"/>
+    <mergeCell ref="AH4:AM4"/>
+    <mergeCell ref="AN4:AT4"/>
+    <mergeCell ref="AV4:BA4"/>
+    <mergeCell ref="BB4:BH4"/>
+    <mergeCell ref="BJ4:BO4"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="BM5:BN5"/>
+    <mergeCell ref="BQ5:BR5"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="E4:E6"/>
     <mergeCell ref="CE4:CK4"/>
     <mergeCell ref="CM4:CR4"/>
     <mergeCell ref="CS4:CZ4"/>
@@ -6298,279 +6465,191 @@
     <mergeCell ref="L4:R4"/>
     <mergeCell ref="T5:T6"/>
     <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BW5:BW6"/>
-    <mergeCell ref="BY5:BY6"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="BZ5:CA5"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="BP4:BW4"/>
-    <mergeCell ref="BY4:CD4"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="Z4:AF4"/>
-    <mergeCell ref="AH4:AM4"/>
-    <mergeCell ref="AN4:AT4"/>
-    <mergeCell ref="AV4:BA4"/>
-    <mergeCell ref="BB4:BH4"/>
-    <mergeCell ref="BJ4:BO4"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CK5:CK6"/>
-    <mergeCell ref="CN5:CO5"/>
-    <mergeCell ref="CP5:CQ5"/>
-    <mergeCell ref="CM5:CM6"/>
-    <mergeCell ref="CH5:CI5"/>
-    <mergeCell ref="CE5:CE6"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="CF5:CG5"/>
-    <mergeCell ref="CE15:CE22"/>
-    <mergeCell ref="CF15:CF22"/>
-    <mergeCell ref="CG15:CG22"/>
-    <mergeCell ref="BY7:BY13"/>
-    <mergeCell ref="BZ7:BZ13"/>
-    <mergeCell ref="CA7:CA13"/>
-    <mergeCell ref="CZ5:CZ6"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CT5:CU5"/>
-    <mergeCell ref="CV5:CW5"/>
-    <mergeCell ref="CS5:CS6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CH15:CH22"/>
-    <mergeCell ref="CI15:CI22"/>
-    <mergeCell ref="CJ15:CJ22"/>
-    <mergeCell ref="CK15:CK22"/>
-    <mergeCell ref="CZ15:CZ22"/>
-    <mergeCell ref="CP15:CP22"/>
-    <mergeCell ref="CR7:CR13"/>
-    <mergeCell ref="CS7:CS13"/>
-    <mergeCell ref="CT7:CT13"/>
-    <mergeCell ref="CT15:CT22"/>
-    <mergeCell ref="CU15:CU22"/>
-    <mergeCell ref="CV15:CV22"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="CX15:CX22"/>
-    <mergeCell ref="CY15:CY22"/>
-    <mergeCell ref="CB7:CB13"/>
-    <mergeCell ref="CC7:CC13"/>
-    <mergeCell ref="CD7:CD13"/>
-    <mergeCell ref="CE7:CE13"/>
-    <mergeCell ref="CF7:CF13"/>
-    <mergeCell ref="CG7:CG13"/>
-    <mergeCell ref="CH7:CH13"/>
-    <mergeCell ref="CI7:CI13"/>
-    <mergeCell ref="CJ7:CJ13"/>
-    <mergeCell ref="CK7:CK13"/>
-    <mergeCell ref="CP7:CP13"/>
-    <mergeCell ref="CQ7:CQ13"/>
-    <mergeCell ref="BY15:BY22"/>
-    <mergeCell ref="BZ15:BZ22"/>
-    <mergeCell ref="CA15:CA22"/>
-    <mergeCell ref="CB15:CB22"/>
-    <mergeCell ref="CC15:CC22"/>
-    <mergeCell ref="CD15:CD22"/>
-    <mergeCell ref="CM15:CM22"/>
-    <mergeCell ref="CN15:CN22"/>
-    <mergeCell ref="CO15:CO22"/>
-    <mergeCell ref="CM7:CM13"/>
-    <mergeCell ref="CN7:CN13"/>
-    <mergeCell ref="CO7:CO13"/>
-    <mergeCell ref="CW15:CW22"/>
-    <mergeCell ref="CX7:CX13"/>
-    <mergeCell ref="CY7:CY13"/>
-    <mergeCell ref="CZ7:CZ13"/>
-    <mergeCell ref="CQ15:CQ22"/>
-    <mergeCell ref="CR15:CR22"/>
-    <mergeCell ref="CS15:CS22"/>
-    <mergeCell ref="CU7:CU13"/>
-    <mergeCell ref="CV7:CV13"/>
-    <mergeCell ref="CW7:CW13"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="F7:K14">
-    <cfRule type="expression" dxfId="35" priority="81">
+    <cfRule type="expression" dxfId="36" priority="86">
       <formula>$J7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7:R14 K15:R22">
-    <cfRule type="expression" dxfId="34" priority="74">
+    <cfRule type="expression" dxfId="35" priority="79">
       <formula>$P7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH7:AM14">
-    <cfRule type="expression" dxfId="31" priority="70">
+    <cfRule type="expression" dxfId="34" priority="75">
       <formula>$AL7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN7:AT14">
-    <cfRule type="expression" dxfId="30" priority="71">
+    <cfRule type="expression" dxfId="33" priority="76">
       <formula>$AR7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV7:BA14">
-    <cfRule type="expression" dxfId="29" priority="135">
+    <cfRule type="expression" dxfId="32" priority="140">
       <formula>$AZ7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB7:BH14">
-    <cfRule type="expression" dxfId="28" priority="134">
+    <cfRule type="expression" dxfId="31" priority="139">
       <formula>$BF7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ7:BO14">
-    <cfRule type="expression" dxfId="27" priority="129">
+    <cfRule type="expression" dxfId="30" priority="134">
       <formula>$BN7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP7:BW14">
-    <cfRule type="expression" dxfId="26" priority="128">
+    <cfRule type="expression" dxfId="29" priority="133">
       <formula>$BT7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:F22">
-    <cfRule type="expression" dxfId="25" priority="158">
+    <cfRule type="expression" dxfId="28" priority="163">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20 F15:F16">
-    <cfRule type="expression" dxfId="23" priority="186">
+    <cfRule type="expression" dxfId="27" priority="191">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA22:AB22">
-    <cfRule type="expression" dxfId="22" priority="188">
+    <cfRule type="expression" dxfId="26" priority="193">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="21" priority="193">
+    <cfRule type="expression" dxfId="25" priority="198">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F16">
-    <cfRule type="expression" dxfId="20" priority="195">
+    <cfRule type="expression" dxfId="24" priority="200">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F18">
-    <cfRule type="expression" dxfId="19" priority="196">
+    <cfRule type="expression" dxfId="23" priority="201">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:J22">
-    <cfRule type="expression" dxfId="17" priority="220">
+    <cfRule type="expression" dxfId="22" priority="225">
       <formula>$I15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U15:W22 Y15:Y22">
-    <cfRule type="expression" dxfId="16" priority="224">
+    <cfRule type="expression" dxfId="21" priority="229">
       <formula>$X15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z15:AF22">
-    <cfRule type="expression" dxfId="15" priority="226">
+  <conditionalFormatting sqref="AA22:AF22 AA15:AB21 AF15:AF21">
+    <cfRule type="expression" dxfId="20" priority="231">
       <formula>$AD15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH15:AM22">
-    <cfRule type="expression" dxfId="14" priority="228">
+    <cfRule type="expression" dxfId="19" priority="233">
       <formula>$AL15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN15:AT22">
-    <cfRule type="expression" dxfId="13" priority="230">
+    <cfRule type="expression" dxfId="18" priority="235">
       <formula>$AR15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV15:BA22">
-    <cfRule type="expression" dxfId="12" priority="232">
+    <cfRule type="expression" dxfId="17" priority="237">
       <formula>$AZ15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB15:BH22">
-    <cfRule type="expression" dxfId="11" priority="234">
+    <cfRule type="expression" dxfId="16" priority="239">
       <formula>$BF15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ15:BO22">
-    <cfRule type="expression" dxfId="10" priority="236">
+    <cfRule type="expression" dxfId="15" priority="241">
       <formula>$BN15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP15:BW22">
-    <cfRule type="expression" dxfId="9" priority="238">
+    <cfRule type="expression" dxfId="14" priority="243">
       <formula>$BT15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15:AB21">
-    <cfRule type="expression" dxfId="8" priority="239">
+    <cfRule type="expression" dxfId="13" priority="244">
       <formula>$X16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T21:T22">
-    <cfRule type="expression" dxfId="7" priority="4">
+    <cfRule type="expression" dxfId="12" priority="9">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T20 T15:T16">
-    <cfRule type="expression" dxfId="6" priority="5">
+    <cfRule type="expression" dxfId="11" priority="10">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15:T16">
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17:T18">
-    <cfRule type="expression" dxfId="3" priority="8">
+    <cfRule type="expression" dxfId="8" priority="13">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X15">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$X15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X16">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$X16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X17:X22">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$X17&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z21:Z22">
+    <cfRule type="expression" dxfId="4" priority="1">
+      <formula>#REF!&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z20 Z15:Z16">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>#REF!&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z19">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$I18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z15:Z16">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>#REF!&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z17:Z18">
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -6604,7 +6683,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <sheetData>
     <row r="5" spans="4:5">
       <c r="D5" t="s">
@@ -6637,7 +6716,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6653,7 +6732,7 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6669,7 +6748,7 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6685,7 +6764,7 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6701,7 +6780,7 @@
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6717,7 +6796,7 @@
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/スケジュール（2023-06）.xlsx
+++ b/スケジュール（2023-06）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\algai\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F2B9F7-257A-49E2-8120-510DBC7D8305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACC54FE-77F5-48A2-A29E-46A9E00DB070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12497" tabRatio="910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="体制図" sheetId="11" r:id="rId1"/>
@@ -26,24 +26,11 @@
     <sheet name="8_勤怠承認詳細" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="76">
   <si>
     <t>勤怠管理システムWBS</t>
   </si>
@@ -761,6 +748,33 @@
     <xf numFmtId="56" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -768,12 +782,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -785,27 +793,6 @@
     <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
@@ -813,7 +800,35 @@
     <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準_システム管理" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="39">
+  <dxfs count="43">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2731,7 +2746,7 @@
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="3" spans="3:7">
       <c r="G3" s="28" t="s">
@@ -2772,7 +2787,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2788,7 +2803,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2802,20 +2817,20 @@
   <dimension ref="B3:CZ24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="AD7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="Z7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AK11" sqref="AK11"/>
+      <selection pane="bottomRight" activeCell="AM17" sqref="AM17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.78515625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="18.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="8" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="8.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="16.796875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="18.69921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.59765625" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="8.69921875" style="1" customWidth="1" outlineLevel="1"/>
     <col min="8" max="11" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="13" max="18" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
@@ -2824,423 +2839,423 @@
     <col min="21" max="25" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="26" max="26" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="27" max="29" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="7.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="7.59765625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="31" max="32" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="1.5703125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="1.59765625" style="1" customWidth="1"/>
     <col min="34" max="34" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="35" max="39" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="40" max="40" width="13" style="2" customWidth="1" outlineLevel="1"/>
     <col min="41" max="46" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="47" max="47" width="1.5703125" style="1" customWidth="1"/>
+    <col min="47" max="47" width="1.59765625" style="1" customWidth="1"/>
     <col min="48" max="48" width="13" style="2" customWidth="1" outlineLevel="1"/>
     <col min="49" max="53" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="54" max="54" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="55" max="60" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="61" max="61" width="1.5703125" style="1" customWidth="1"/>
+    <col min="61" max="61" width="1.59765625" style="1" customWidth="1"/>
     <col min="62" max="62" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="63" max="67" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="68" max="68" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="69" max="75" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="76" max="76" width="1.5703125" style="1" customWidth="1"/>
-    <col min="77" max="77" width="6.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="76" max="76" width="1.59765625" style="1" customWidth="1"/>
+    <col min="77" max="77" width="6.59765625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="78" max="81" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
     <col min="82" max="83" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="84" max="85" width="6.5" style="33" customWidth="1" outlineLevel="1"/>
     <col min="86" max="87" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
     <col min="88" max="89" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="90" max="90" width="1.5703125" style="1" customWidth="1"/>
-    <col min="91" max="91" width="6.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="90" max="90" width="1.59765625" style="1" customWidth="1"/>
+    <col min="91" max="91" width="6.59765625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="92" max="93" width="6.5" style="33" customWidth="1" outlineLevel="1"/>
     <col min="94" max="95" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
     <col min="96" max="97" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="98" max="99" width="6.5" style="33" customWidth="1" outlineLevel="1"/>
     <col min="100" max="101" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
     <col min="102" max="104" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="105" max="105" width="1.5703125" style="1" customWidth="1"/>
+    <col min="105" max="105" width="1.59765625" style="1" customWidth="1"/>
     <col min="106" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:104" ht="23.6">
+    <row r="3" spans="2:104" ht="23.4">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:104" s="20" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46" t="s">
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="T4" s="46" t="s">
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="T4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46" t="s">
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="46"/>
-      <c r="AH4" s="46" t="s">
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AH4" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="46"/>
-      <c r="AK4" s="46"/>
-      <c r="AL4" s="46"/>
-      <c r="AM4" s="46"/>
-      <c r="AN4" s="46" t="s">
+      <c r="AI4" s="42"/>
+      <c r="AJ4" s="42"/>
+      <c r="AK4" s="42"/>
+      <c r="AL4" s="42"/>
+      <c r="AM4" s="42"/>
+      <c r="AN4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AO4" s="46"/>
-      <c r="AP4" s="46"/>
-      <c r="AQ4" s="46"/>
-      <c r="AR4" s="46"/>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="53"/>
+      <c r="AO4" s="42"/>
+      <c r="AP4" s="42"/>
+      <c r="AQ4" s="42"/>
+      <c r="AR4" s="42"/>
+      <c r="AS4" s="42"/>
+      <c r="AT4" s="43"/>
       <c r="AU4" s="21"/>
-      <c r="AV4" s="46" t="s">
+      <c r="AV4" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="AW4" s="46"/>
-      <c r="AX4" s="46"/>
-      <c r="AY4" s="46"/>
-      <c r="AZ4" s="46"/>
-      <c r="BA4" s="46"/>
-      <c r="BB4" s="46" t="s">
+      <c r="AW4" s="42"/>
+      <c r="AX4" s="42"/>
+      <c r="AY4" s="42"/>
+      <c r="AZ4" s="42"/>
+      <c r="BA4" s="42"/>
+      <c r="BB4" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="BC4" s="46"/>
-      <c r="BD4" s="46"/>
-      <c r="BE4" s="46"/>
-      <c r="BF4" s="46"/>
-      <c r="BG4" s="46"/>
-      <c r="BH4" s="46"/>
+      <c r="BC4" s="42"/>
+      <c r="BD4" s="42"/>
+      <c r="BE4" s="42"/>
+      <c r="BF4" s="42"/>
+      <c r="BG4" s="42"/>
+      <c r="BH4" s="42"/>
       <c r="BI4" s="22"/>
-      <c r="BJ4" s="54" t="s">
+      <c r="BJ4" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="BK4" s="46"/>
-      <c r="BL4" s="46"/>
-      <c r="BM4" s="46"/>
-      <c r="BN4" s="46"/>
-      <c r="BO4" s="46"/>
-      <c r="BP4" s="46" t="s">
+      <c r="BK4" s="42"/>
+      <c r="BL4" s="42"/>
+      <c r="BM4" s="42"/>
+      <c r="BN4" s="42"/>
+      <c r="BO4" s="42"/>
+      <c r="BP4" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="BQ4" s="46"/>
-      <c r="BR4" s="46"/>
-      <c r="BS4" s="46"/>
-      <c r="BT4" s="46"/>
-      <c r="BU4" s="46"/>
-      <c r="BV4" s="46"/>
-      <c r="BW4" s="46"/>
-      <c r="BY4" s="46" t="s">
+      <c r="BQ4" s="42"/>
+      <c r="BR4" s="42"/>
+      <c r="BS4" s="42"/>
+      <c r="BT4" s="42"/>
+      <c r="BU4" s="42"/>
+      <c r="BV4" s="42"/>
+      <c r="BW4" s="42"/>
+      <c r="BY4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="BZ4" s="46"/>
-      <c r="CA4" s="46"/>
-      <c r="CB4" s="46"/>
-      <c r="CC4" s="46"/>
-      <c r="CD4" s="46"/>
-      <c r="CE4" s="46" t="s">
+      <c r="BZ4" s="42"/>
+      <c r="CA4" s="42"/>
+      <c r="CB4" s="42"/>
+      <c r="CC4" s="42"/>
+      <c r="CD4" s="42"/>
+      <c r="CE4" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="CF4" s="46"/>
-      <c r="CG4" s="46"/>
-      <c r="CH4" s="46"/>
-      <c r="CI4" s="46"/>
-      <c r="CJ4" s="46"/>
-      <c r="CK4" s="53"/>
+      <c r="CF4" s="42"/>
+      <c r="CG4" s="42"/>
+      <c r="CH4" s="42"/>
+      <c r="CI4" s="42"/>
+      <c r="CJ4" s="42"/>
+      <c r="CK4" s="43"/>
       <c r="CL4" s="23"/>
-      <c r="CM4" s="54" t="s">
+      <c r="CM4" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="CN4" s="46"/>
-      <c r="CO4" s="46"/>
-      <c r="CP4" s="46"/>
-      <c r="CQ4" s="46"/>
-      <c r="CR4" s="46"/>
-      <c r="CS4" s="46" t="s">
+      <c r="CN4" s="42"/>
+      <c r="CO4" s="42"/>
+      <c r="CP4" s="42"/>
+      <c r="CQ4" s="42"/>
+      <c r="CR4" s="42"/>
+      <c r="CS4" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="CT4" s="46"/>
-      <c r="CU4" s="46"/>
-      <c r="CV4" s="46"/>
-      <c r="CW4" s="46"/>
-      <c r="CX4" s="46"/>
-      <c r="CY4" s="46"/>
-      <c r="CZ4" s="46"/>
+      <c r="CT4" s="42"/>
+      <c r="CU4" s="42"/>
+      <c r="CV4" s="42"/>
+      <c r="CW4" s="42"/>
+      <c r="CX4" s="42"/>
+      <c r="CY4" s="42"/>
+      <c r="CZ4" s="42"/>
     </row>
-    <row r="5" spans="2:104" ht="21.65" customHeight="1">
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="46" t="s">
+    <row r="5" spans="2:104" ht="21.6" customHeight="1">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55" t="s">
+      <c r="H5" s="45"/>
+      <c r="I5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="55"/>
-      <c r="K5" s="45" t="s">
+      <c r="J5" s="45"/>
+      <c r="K5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="46" t="s">
+      <c r="L5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="55" t="s">
+      <c r="M5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55" t="s">
+      <c r="N5" s="45"/>
+      <c r="O5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="45" t="s">
+      <c r="P5" s="45"/>
+      <c r="Q5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="45" t="s">
+      <c r="R5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="46" t="s">
+      <c r="T5" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="55" t="s">
+      <c r="U5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55" t="s">
+      <c r="V5" s="45"/>
+      <c r="W5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="45" t="s">
+      <c r="X5" s="45"/>
+      <c r="Y5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="46" t="s">
+      <c r="Z5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AA5" s="55" t="s">
+      <c r="AA5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="AB5" s="55"/>
-      <c r="AC5" s="55" t="s">
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="AD5" s="55"/>
-      <c r="AE5" s="45" t="s">
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="AF5" s="45" t="s">
+      <c r="AF5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="AH5" s="46" t="s">
+      <c r="AH5" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="AI5" s="55" t="s">
+      <c r="AI5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="AJ5" s="55"/>
-      <c r="AK5" s="55" t="s">
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="AL5" s="55"/>
-      <c r="AM5" s="45" t="s">
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="AN5" s="46" t="s">
+      <c r="AN5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AO5" s="55" t="s">
+      <c r="AO5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="AP5" s="55"/>
-      <c r="AQ5" s="55" t="s">
+      <c r="AP5" s="45"/>
+      <c r="AQ5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="AR5" s="55"/>
-      <c r="AS5" s="45" t="s">
+      <c r="AR5" s="45"/>
+      <c r="AS5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="AT5" s="52" t="s">
+      <c r="AT5" s="48" t="s">
         <v>23</v>
       </c>
       <c r="AU5" s="13"/>
-      <c r="AV5" s="46" t="s">
+      <c r="AV5" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="AW5" s="55" t="s">
+      <c r="AW5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="AX5" s="55"/>
-      <c r="AY5" s="55" t="s">
+      <c r="AX5" s="45"/>
+      <c r="AY5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="AZ5" s="55"/>
-      <c r="BA5" s="45" t="s">
+      <c r="AZ5" s="45"/>
+      <c r="BA5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="BB5" s="46" t="s">
+      <c r="BB5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BC5" s="55" t="s">
+      <c r="BC5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="BD5" s="55"/>
-      <c r="BE5" s="55" t="s">
+      <c r="BD5" s="45"/>
+      <c r="BE5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="BF5" s="55"/>
-      <c r="BG5" s="45" t="s">
+      <c r="BF5" s="45"/>
+      <c r="BG5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="BH5" s="45" t="s">
+      <c r="BH5" s="46" t="s">
         <v>23</v>
       </c>
       <c r="BI5" s="14"/>
-      <c r="BJ5" s="54" t="s">
+      <c r="BJ5" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="BK5" s="55" t="s">
+      <c r="BK5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="BL5" s="55"/>
-      <c r="BM5" s="55" t="s">
+      <c r="BL5" s="45"/>
+      <c r="BM5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="BN5" s="55"/>
-      <c r="BO5" s="45" t="s">
+      <c r="BN5" s="45"/>
+      <c r="BO5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="BP5" s="46" t="s">
+      <c r="BP5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BQ5" s="55" t="s">
+      <c r="BQ5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="BR5" s="55"/>
-      <c r="BS5" s="55" t="s">
+      <c r="BR5" s="45"/>
+      <c r="BS5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="BT5" s="55"/>
-      <c r="BU5" s="45" t="s">
+      <c r="BT5" s="45"/>
+      <c r="BU5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="BV5" s="45" t="s">
+      <c r="BV5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="BW5" s="45" t="s">
+      <c r="BW5" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="BY5" s="46" t="s">
+      <c r="BY5" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="BZ5" s="51" t="s">
+      <c r="BZ5" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="CA5" s="51"/>
-      <c r="CB5" s="51" t="s">
+      <c r="CA5" s="49"/>
+      <c r="CB5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="CC5" s="51"/>
-      <c r="CD5" s="45" t="s">
+      <c r="CC5" s="49"/>
+      <c r="CD5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="CE5" s="46" t="s">
+      <c r="CE5" s="42" t="s">
         <v>22</v>
       </c>
       <c r="CF5" s="50" t="s">
         <v>19</v>
       </c>
       <c r="CG5" s="50"/>
-      <c r="CH5" s="51" t="s">
+      <c r="CH5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="CI5" s="51"/>
-      <c r="CJ5" s="45" t="s">
+      <c r="CI5" s="49"/>
+      <c r="CJ5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="CK5" s="52" t="s">
+      <c r="CK5" s="48" t="s">
         <v>23</v>
       </c>
       <c r="CL5" s="11"/>
-      <c r="CM5" s="54" t="s">
+      <c r="CM5" s="44" t="s">
         <v>18</v>
       </c>
       <c r="CN5" s="50" t="s">
         <v>19</v>
       </c>
       <c r="CO5" s="50"/>
-      <c r="CP5" s="51" t="s">
+      <c r="CP5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="CQ5" s="51"/>
-      <c r="CR5" s="45" t="s">
+      <c r="CQ5" s="49"/>
+      <c r="CR5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="CS5" s="46" t="s">
+      <c r="CS5" s="42" t="s">
         <v>22</v>
       </c>
       <c r="CT5" s="50" t="s">
         <v>19</v>
       </c>
       <c r="CU5" s="50"/>
-      <c r="CV5" s="51" t="s">
+      <c r="CV5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="CW5" s="51"/>
-      <c r="CX5" s="45" t="s">
+      <c r="CW5" s="49"/>
+      <c r="CX5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="CY5" s="45" t="s">
+      <c r="CY5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="CZ5" s="45" t="s">
+      <c r="CZ5" s="46" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:104" ht="14.15">
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="46"/>
+    <row r="6" spans="2:104" ht="14.4">
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3253,8 +3268,8 @@
       <c r="J6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
       <c r="M6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3267,9 +3282,9 @@
       <c r="P6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="T6" s="46"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="T6" s="42"/>
       <c r="U6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3282,8 +3297,8 @@
       <c r="X6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
       <c r="AA6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3296,9 +3311,9 @@
       <c r="AD6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AE6" s="46"/>
-      <c r="AF6" s="46"/>
-      <c r="AH6" s="46"/>
+      <c r="AE6" s="42"/>
+      <c r="AF6" s="42"/>
+      <c r="AH6" s="42"/>
       <c r="AI6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3311,8 +3326,8 @@
       <c r="AL6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AM6" s="46"/>
-      <c r="AN6" s="46"/>
+      <c r="AM6" s="42"/>
+      <c r="AN6" s="42"/>
       <c r="AO6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3325,10 +3340,10 @@
       <c r="AR6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AS6" s="46"/>
-      <c r="AT6" s="53"/>
+      <c r="AS6" s="42"/>
+      <c r="AT6" s="43"/>
       <c r="AU6" s="13"/>
-      <c r="AV6" s="46"/>
+      <c r="AV6" s="42"/>
       <c r="AW6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3341,8 +3356,8 @@
       <c r="AZ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BA6" s="46"/>
-      <c r="BB6" s="46"/>
+      <c r="BA6" s="42"/>
+      <c r="BB6" s="42"/>
       <c r="BC6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3355,10 +3370,10 @@
       <c r="BF6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BG6" s="46"/>
-      <c r="BH6" s="46"/>
+      <c r="BG6" s="42"/>
+      <c r="BH6" s="42"/>
       <c r="BI6" s="14"/>
-      <c r="BJ6" s="54"/>
+      <c r="BJ6" s="44"/>
       <c r="BK6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3371,8 +3386,8 @@
       <c r="BN6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BO6" s="46"/>
-      <c r="BP6" s="46"/>
+      <c r="BO6" s="42"/>
+      <c r="BP6" s="42"/>
       <c r="BQ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3385,10 +3400,10 @@
       <c r="BT6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BU6" s="46"/>
-      <c r="BV6" s="46"/>
-      <c r="BW6" s="46"/>
-      <c r="BY6" s="46"/>
+      <c r="BU6" s="42"/>
+      <c r="BV6" s="42"/>
+      <c r="BW6" s="42"/>
+      <c r="BY6" s="42"/>
       <c r="BZ6" s="31" t="s">
         <v>25</v>
       </c>
@@ -3401,8 +3416,8 @@
       <c r="CC6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CD6" s="46"/>
-      <c r="CE6" s="46"/>
+      <c r="CD6" s="42"/>
+      <c r="CE6" s="42"/>
       <c r="CF6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3415,10 +3430,10 @@
       <c r="CI6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CJ6" s="46"/>
-      <c r="CK6" s="53"/>
+      <c r="CJ6" s="42"/>
+      <c r="CK6" s="43"/>
       <c r="CL6" s="11"/>
-      <c r="CM6" s="54"/>
+      <c r="CM6" s="44"/>
       <c r="CN6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3431,8 +3446,8 @@
       <c r="CQ6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CR6" s="46"/>
-      <c r="CS6" s="46"/>
+      <c r="CR6" s="42"/>
+      <c r="CS6" s="42"/>
       <c r="CT6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3445,9 +3460,9 @@
       <c r="CW6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CX6" s="46"/>
-      <c r="CY6" s="46"/>
-      <c r="CZ6" s="46"/>
+      <c r="CX6" s="42"/>
+      <c r="CY6" s="42"/>
+      <c r="CZ6" s="42"/>
     </row>
     <row r="7" spans="2:104" ht="20.25" customHeight="1">
       <c r="B7" s="5">
@@ -3609,50 +3624,50 @@
       <c r="BU7" s="7"/>
       <c r="BV7" s="10"/>
       <c r="BW7" s="10"/>
-      <c r="BY7" s="42"/>
-      <c r="BZ7" s="42">
+      <c r="BY7" s="51"/>
+      <c r="BZ7" s="51">
         <v>45100</v>
       </c>
-      <c r="CA7" s="42">
+      <c r="CA7" s="51">
         <v>45100</v>
       </c>
-      <c r="CB7" s="42"/>
-      <c r="CC7" s="42"/>
-      <c r="CD7" s="42"/>
-      <c r="CE7" s="42"/>
-      <c r="CF7" s="42">
+      <c r="CB7" s="51"/>
+      <c r="CC7" s="51"/>
+      <c r="CD7" s="51"/>
+      <c r="CE7" s="51"/>
+      <c r="CF7" s="51">
         <v>45103</v>
       </c>
-      <c r="CG7" s="42">
+      <c r="CG7" s="51">
         <v>45103</v>
       </c>
-      <c r="CH7" s="42"/>
-      <c r="CI7" s="42"/>
-      <c r="CJ7" s="42"/>
-      <c r="CK7" s="42"/>
+      <c r="CH7" s="51"/>
+      <c r="CI7" s="51"/>
+      <c r="CJ7" s="51"/>
+      <c r="CK7" s="51"/>
       <c r="CL7" s="14"/>
-      <c r="CM7" s="42"/>
-      <c r="CN7" s="42">
+      <c r="CM7" s="51"/>
+      <c r="CN7" s="51">
         <v>45104</v>
       </c>
-      <c r="CO7" s="42">
+      <c r="CO7" s="51">
         <v>45104</v>
       </c>
-      <c r="CP7" s="42"/>
-      <c r="CQ7" s="42"/>
-      <c r="CR7" s="42"/>
-      <c r="CS7" s="42"/>
-      <c r="CT7" s="42">
+      <c r="CP7" s="51"/>
+      <c r="CQ7" s="51"/>
+      <c r="CR7" s="51"/>
+      <c r="CS7" s="51"/>
+      <c r="CT7" s="51">
         <v>45105</v>
       </c>
-      <c r="CU7" s="42">
+      <c r="CU7" s="51">
         <v>45105</v>
       </c>
-      <c r="CV7" s="42"/>
-      <c r="CW7" s="42"/>
-      <c r="CX7" s="42"/>
-      <c r="CY7" s="42"/>
-      <c r="CZ7" s="42"/>
+      <c r="CV7" s="51"/>
+      <c r="CW7" s="51"/>
+      <c r="CX7" s="51"/>
+      <c r="CY7" s="51"/>
+      <c r="CZ7" s="51"/>
     </row>
     <row r="8" spans="2:104" ht="20.25" customHeight="1">
       <c r="B8" s="5">
@@ -3814,34 +3829,34 @@
       <c r="BU8" s="7"/>
       <c r="BV8" s="10"/>
       <c r="BW8" s="10"/>
-      <c r="BY8" s="43"/>
-      <c r="BZ8" s="43"/>
-      <c r="CA8" s="43"/>
-      <c r="CB8" s="43"/>
-      <c r="CC8" s="43"/>
-      <c r="CD8" s="43"/>
-      <c r="CE8" s="43"/>
-      <c r="CF8" s="43"/>
-      <c r="CG8" s="43"/>
-      <c r="CH8" s="43"/>
-      <c r="CI8" s="43"/>
-      <c r="CJ8" s="43"/>
-      <c r="CK8" s="43"/>
+      <c r="BY8" s="52"/>
+      <c r="BZ8" s="52"/>
+      <c r="CA8" s="52"/>
+      <c r="CB8" s="52"/>
+      <c r="CC8" s="52"/>
+      <c r="CD8" s="52"/>
+      <c r="CE8" s="52"/>
+      <c r="CF8" s="52"/>
+      <c r="CG8" s="52"/>
+      <c r="CH8" s="52"/>
+      <c r="CI8" s="52"/>
+      <c r="CJ8" s="52"/>
+      <c r="CK8" s="52"/>
       <c r="CL8" s="14"/>
-      <c r="CM8" s="43"/>
-      <c r="CN8" s="43"/>
-      <c r="CO8" s="43"/>
-      <c r="CP8" s="43"/>
-      <c r="CQ8" s="43"/>
-      <c r="CR8" s="43"/>
-      <c r="CS8" s="43"/>
-      <c r="CT8" s="43"/>
-      <c r="CU8" s="43"/>
-      <c r="CV8" s="43"/>
-      <c r="CW8" s="43"/>
-      <c r="CX8" s="43"/>
-      <c r="CY8" s="43"/>
-      <c r="CZ8" s="43"/>
+      <c r="CM8" s="52"/>
+      <c r="CN8" s="52"/>
+      <c r="CO8" s="52"/>
+      <c r="CP8" s="52"/>
+      <c r="CQ8" s="52"/>
+      <c r="CR8" s="52"/>
+      <c r="CS8" s="52"/>
+      <c r="CT8" s="52"/>
+      <c r="CU8" s="52"/>
+      <c r="CV8" s="52"/>
+      <c r="CW8" s="52"/>
+      <c r="CX8" s="52"/>
+      <c r="CY8" s="52"/>
+      <c r="CZ8" s="52"/>
     </row>
     <row r="9" spans="2:104" ht="20.25" customHeight="1">
       <c r="B9" s="5">
@@ -4002,34 +4017,34 @@
       <c r="BV9" s="10"/>
       <c r="BW9" s="10"/>
       <c r="BX9" s="13"/>
-      <c r="BY9" s="43"/>
-      <c r="BZ9" s="43"/>
-      <c r="CA9" s="43"/>
-      <c r="CB9" s="43"/>
-      <c r="CC9" s="43"/>
-      <c r="CD9" s="43"/>
-      <c r="CE9" s="43"/>
-      <c r="CF9" s="43"/>
-      <c r="CG9" s="43"/>
-      <c r="CH9" s="43"/>
-      <c r="CI9" s="43"/>
-      <c r="CJ9" s="43"/>
-      <c r="CK9" s="43"/>
+      <c r="BY9" s="52"/>
+      <c r="BZ9" s="52"/>
+      <c r="CA9" s="52"/>
+      <c r="CB9" s="52"/>
+      <c r="CC9" s="52"/>
+      <c r="CD9" s="52"/>
+      <c r="CE9" s="52"/>
+      <c r="CF9" s="52"/>
+      <c r="CG9" s="52"/>
+      <c r="CH9" s="52"/>
+      <c r="CI9" s="52"/>
+      <c r="CJ9" s="52"/>
+      <c r="CK9" s="52"/>
       <c r="CL9" s="14"/>
-      <c r="CM9" s="43"/>
-      <c r="CN9" s="43"/>
-      <c r="CO9" s="43"/>
-      <c r="CP9" s="43"/>
-      <c r="CQ9" s="43"/>
-      <c r="CR9" s="43"/>
-      <c r="CS9" s="43"/>
-      <c r="CT9" s="43"/>
-      <c r="CU9" s="43"/>
-      <c r="CV9" s="43"/>
-      <c r="CW9" s="43"/>
-      <c r="CX9" s="43"/>
-      <c r="CY9" s="43"/>
-      <c r="CZ9" s="43"/>
+      <c r="CM9" s="52"/>
+      <c r="CN9" s="52"/>
+      <c r="CO9" s="52"/>
+      <c r="CP9" s="52"/>
+      <c r="CQ9" s="52"/>
+      <c r="CR9" s="52"/>
+      <c r="CS9" s="52"/>
+      <c r="CT9" s="52"/>
+      <c r="CU9" s="52"/>
+      <c r="CV9" s="52"/>
+      <c r="CW9" s="52"/>
+      <c r="CX9" s="52"/>
+      <c r="CY9" s="52"/>
+      <c r="CZ9" s="52"/>
     </row>
     <row r="10" spans="2:104" ht="20.25" customHeight="1">
       <c r="B10" s="5">
@@ -4192,34 +4207,34 @@
       <c r="BV10" s="10"/>
       <c r="BW10" s="10"/>
       <c r="BX10" s="13"/>
-      <c r="BY10" s="43"/>
-      <c r="BZ10" s="43"/>
-      <c r="CA10" s="43"/>
-      <c r="CB10" s="43"/>
-      <c r="CC10" s="43"/>
-      <c r="CD10" s="43"/>
-      <c r="CE10" s="43"/>
-      <c r="CF10" s="43"/>
-      <c r="CG10" s="43"/>
-      <c r="CH10" s="43"/>
-      <c r="CI10" s="43"/>
-      <c r="CJ10" s="43"/>
-      <c r="CK10" s="43"/>
+      <c r="BY10" s="52"/>
+      <c r="BZ10" s="52"/>
+      <c r="CA10" s="52"/>
+      <c r="CB10" s="52"/>
+      <c r="CC10" s="52"/>
+      <c r="CD10" s="52"/>
+      <c r="CE10" s="52"/>
+      <c r="CF10" s="52"/>
+      <c r="CG10" s="52"/>
+      <c r="CH10" s="52"/>
+      <c r="CI10" s="52"/>
+      <c r="CJ10" s="52"/>
+      <c r="CK10" s="52"/>
       <c r="CL10" s="14"/>
-      <c r="CM10" s="43"/>
-      <c r="CN10" s="43"/>
-      <c r="CO10" s="43"/>
-      <c r="CP10" s="43"/>
-      <c r="CQ10" s="43"/>
-      <c r="CR10" s="43"/>
-      <c r="CS10" s="43"/>
-      <c r="CT10" s="43"/>
-      <c r="CU10" s="43"/>
-      <c r="CV10" s="43"/>
-      <c r="CW10" s="43"/>
-      <c r="CX10" s="43"/>
-      <c r="CY10" s="43"/>
-      <c r="CZ10" s="43"/>
+      <c r="CM10" s="52"/>
+      <c r="CN10" s="52"/>
+      <c r="CO10" s="52"/>
+      <c r="CP10" s="52"/>
+      <c r="CQ10" s="52"/>
+      <c r="CR10" s="52"/>
+      <c r="CS10" s="52"/>
+      <c r="CT10" s="52"/>
+      <c r="CU10" s="52"/>
+      <c r="CV10" s="52"/>
+      <c r="CW10" s="52"/>
+      <c r="CX10" s="52"/>
+      <c r="CY10" s="52"/>
+      <c r="CZ10" s="52"/>
     </row>
     <row r="11" spans="2:104" ht="20.25" customHeight="1">
       <c r="B11" s="5">
@@ -4380,34 +4395,34 @@
       <c r="BV11" s="10"/>
       <c r="BW11" s="10"/>
       <c r="BX11" s="13"/>
-      <c r="BY11" s="43"/>
-      <c r="BZ11" s="43"/>
-      <c r="CA11" s="43"/>
-      <c r="CB11" s="43"/>
-      <c r="CC11" s="43"/>
-      <c r="CD11" s="43"/>
-      <c r="CE11" s="43"/>
-      <c r="CF11" s="43"/>
-      <c r="CG11" s="43"/>
-      <c r="CH11" s="43"/>
-      <c r="CI11" s="43"/>
-      <c r="CJ11" s="43"/>
-      <c r="CK11" s="43"/>
+      <c r="BY11" s="52"/>
+      <c r="BZ11" s="52"/>
+      <c r="CA11" s="52"/>
+      <c r="CB11" s="52"/>
+      <c r="CC11" s="52"/>
+      <c r="CD11" s="52"/>
+      <c r="CE11" s="52"/>
+      <c r="CF11" s="52"/>
+      <c r="CG11" s="52"/>
+      <c r="CH11" s="52"/>
+      <c r="CI11" s="52"/>
+      <c r="CJ11" s="52"/>
+      <c r="CK11" s="52"/>
       <c r="CL11" s="14"/>
-      <c r="CM11" s="43"/>
-      <c r="CN11" s="43"/>
-      <c r="CO11" s="43"/>
-      <c r="CP11" s="43"/>
-      <c r="CQ11" s="43"/>
-      <c r="CR11" s="43"/>
-      <c r="CS11" s="43"/>
-      <c r="CT11" s="43"/>
-      <c r="CU11" s="43"/>
-      <c r="CV11" s="43"/>
-      <c r="CW11" s="43"/>
-      <c r="CX11" s="43"/>
-      <c r="CY11" s="43"/>
-      <c r="CZ11" s="43"/>
+      <c r="CM11" s="52"/>
+      <c r="CN11" s="52"/>
+      <c r="CO11" s="52"/>
+      <c r="CP11" s="52"/>
+      <c r="CQ11" s="52"/>
+      <c r="CR11" s="52"/>
+      <c r="CS11" s="52"/>
+      <c r="CT11" s="52"/>
+      <c r="CU11" s="52"/>
+      <c r="CV11" s="52"/>
+      <c r="CW11" s="52"/>
+      <c r="CX11" s="52"/>
+      <c r="CY11" s="52"/>
+      <c r="CZ11" s="52"/>
     </row>
     <row r="12" spans="2:104" ht="20.25" customHeight="1">
       <c r="B12" s="5">
@@ -4568,34 +4583,34 @@
       <c r="BV12" s="10"/>
       <c r="BW12" s="10"/>
       <c r="BX12" s="13"/>
-      <c r="BY12" s="43"/>
-      <c r="BZ12" s="43"/>
-      <c r="CA12" s="43"/>
-      <c r="CB12" s="43"/>
-      <c r="CC12" s="43"/>
-      <c r="CD12" s="43"/>
-      <c r="CE12" s="43"/>
-      <c r="CF12" s="43"/>
-      <c r="CG12" s="43"/>
-      <c r="CH12" s="43"/>
-      <c r="CI12" s="43"/>
-      <c r="CJ12" s="43"/>
-      <c r="CK12" s="43"/>
+      <c r="BY12" s="52"/>
+      <c r="BZ12" s="52"/>
+      <c r="CA12" s="52"/>
+      <c r="CB12" s="52"/>
+      <c r="CC12" s="52"/>
+      <c r="CD12" s="52"/>
+      <c r="CE12" s="52"/>
+      <c r="CF12" s="52"/>
+      <c r="CG12" s="52"/>
+      <c r="CH12" s="52"/>
+      <c r="CI12" s="52"/>
+      <c r="CJ12" s="52"/>
+      <c r="CK12" s="52"/>
       <c r="CL12" s="14"/>
-      <c r="CM12" s="43"/>
-      <c r="CN12" s="43"/>
-      <c r="CO12" s="43"/>
-      <c r="CP12" s="43"/>
-      <c r="CQ12" s="43"/>
-      <c r="CR12" s="43"/>
-      <c r="CS12" s="43"/>
-      <c r="CT12" s="43"/>
-      <c r="CU12" s="43"/>
-      <c r="CV12" s="43"/>
-      <c r="CW12" s="43"/>
-      <c r="CX12" s="43"/>
-      <c r="CY12" s="43"/>
-      <c r="CZ12" s="43"/>
+      <c r="CM12" s="52"/>
+      <c r="CN12" s="52"/>
+      <c r="CO12" s="52"/>
+      <c r="CP12" s="52"/>
+      <c r="CQ12" s="52"/>
+      <c r="CR12" s="52"/>
+      <c r="CS12" s="52"/>
+      <c r="CT12" s="52"/>
+      <c r="CU12" s="52"/>
+      <c r="CV12" s="52"/>
+      <c r="CW12" s="52"/>
+      <c r="CX12" s="52"/>
+      <c r="CY12" s="52"/>
+      <c r="CZ12" s="52"/>
     </row>
     <row r="13" spans="2:104" ht="20.25" customHeight="1">
       <c r="B13" s="5">
@@ -4758,34 +4773,34 @@
       <c r="BV13" s="10"/>
       <c r="BW13" s="10"/>
       <c r="BX13" s="13"/>
-      <c r="BY13" s="43"/>
-      <c r="BZ13" s="43"/>
-      <c r="CA13" s="43"/>
-      <c r="CB13" s="43"/>
-      <c r="CC13" s="43"/>
-      <c r="CD13" s="43"/>
-      <c r="CE13" s="43"/>
-      <c r="CF13" s="43"/>
-      <c r="CG13" s="43"/>
-      <c r="CH13" s="43"/>
-      <c r="CI13" s="43"/>
-      <c r="CJ13" s="43"/>
-      <c r="CK13" s="43"/>
+      <c r="BY13" s="52"/>
+      <c r="BZ13" s="52"/>
+      <c r="CA13" s="52"/>
+      <c r="CB13" s="52"/>
+      <c r="CC13" s="52"/>
+      <c r="CD13" s="52"/>
+      <c r="CE13" s="52"/>
+      <c r="CF13" s="52"/>
+      <c r="CG13" s="52"/>
+      <c r="CH13" s="52"/>
+      <c r="CI13" s="52"/>
+      <c r="CJ13" s="52"/>
+      <c r="CK13" s="52"/>
       <c r="CL13" s="14"/>
-      <c r="CM13" s="43"/>
-      <c r="CN13" s="43"/>
-      <c r="CO13" s="43"/>
-      <c r="CP13" s="43"/>
-      <c r="CQ13" s="43"/>
-      <c r="CR13" s="43"/>
-      <c r="CS13" s="43"/>
-      <c r="CT13" s="43"/>
-      <c r="CU13" s="43"/>
-      <c r="CV13" s="43"/>
-      <c r="CW13" s="43"/>
-      <c r="CX13" s="43"/>
-      <c r="CY13" s="43"/>
-      <c r="CZ13" s="43"/>
+      <c r="CM13" s="52"/>
+      <c r="CN13" s="52"/>
+      <c r="CO13" s="52"/>
+      <c r="CP13" s="52"/>
+      <c r="CQ13" s="52"/>
+      <c r="CR13" s="52"/>
+      <c r="CS13" s="52"/>
+      <c r="CT13" s="52"/>
+      <c r="CU13" s="52"/>
+      <c r="CV13" s="52"/>
+      <c r="CW13" s="52"/>
+      <c r="CX13" s="52"/>
+      <c r="CY13" s="52"/>
+      <c r="CZ13" s="52"/>
     </row>
     <row r="14" spans="2:104" ht="20.25" customHeight="1">
       <c r="B14" s="5">
@@ -5043,14 +5058,18 @@
         <v>1</v>
       </c>
       <c r="AF15" s="9"/>
-      <c r="AH15" s="16"/>
+      <c r="AH15" s="35" t="s">
+        <v>58</v>
+      </c>
       <c r="AI15" s="6">
         <v>45085</v>
       </c>
       <c r="AJ15" s="6">
         <v>45091</v>
       </c>
-      <c r="AK15" s="6"/>
+      <c r="AK15" s="6">
+        <v>45089</v>
+      </c>
       <c r="AL15" s="6"/>
       <c r="AM15" s="7"/>
       <c r="AN15" s="17"/>
@@ -5110,50 +5129,50 @@
       <c r="BV15" s="10"/>
       <c r="BW15" s="10"/>
       <c r="BX15" s="13"/>
-      <c r="BY15" s="42"/>
-      <c r="BZ15" s="47">
+      <c r="BY15" s="51"/>
+      <c r="BZ15" s="54">
         <v>45100</v>
       </c>
-      <c r="CA15" s="47">
+      <c r="CA15" s="54">
         <v>45100</v>
       </c>
-      <c r="CB15" s="42"/>
-      <c r="CC15" s="42"/>
-      <c r="CD15" s="42"/>
-      <c r="CE15" s="42"/>
-      <c r="CF15" s="42">
+      <c r="CB15" s="51"/>
+      <c r="CC15" s="51"/>
+      <c r="CD15" s="51"/>
+      <c r="CE15" s="51"/>
+      <c r="CF15" s="51">
         <v>45103</v>
       </c>
-      <c r="CG15" s="42">
+      <c r="CG15" s="51">
         <v>45103</v>
       </c>
-      <c r="CH15" s="42"/>
-      <c r="CI15" s="42"/>
-      <c r="CJ15" s="42"/>
-      <c r="CK15" s="42"/>
+      <c r="CH15" s="51"/>
+      <c r="CI15" s="51"/>
+      <c r="CJ15" s="51"/>
+      <c r="CK15" s="51"/>
       <c r="CL15" s="14"/>
-      <c r="CM15" s="42"/>
-      <c r="CN15" s="42">
+      <c r="CM15" s="51"/>
+      <c r="CN15" s="51">
         <v>45104</v>
       </c>
-      <c r="CO15" s="42">
+      <c r="CO15" s="51">
         <v>45104</v>
       </c>
-      <c r="CP15" s="42"/>
-      <c r="CQ15" s="42"/>
-      <c r="CR15" s="42"/>
-      <c r="CS15" s="42"/>
-      <c r="CT15" s="42">
+      <c r="CP15" s="51"/>
+      <c r="CQ15" s="51"/>
+      <c r="CR15" s="51"/>
+      <c r="CS15" s="51"/>
+      <c r="CT15" s="51">
         <v>45105</v>
       </c>
-      <c r="CU15" s="42">
+      <c r="CU15" s="51">
         <v>45105</v>
       </c>
-      <c r="CV15" s="42"/>
-      <c r="CW15" s="42"/>
-      <c r="CX15" s="42"/>
-      <c r="CY15" s="42"/>
-      <c r="CZ15" s="42"/>
+      <c r="CV15" s="51"/>
+      <c r="CW15" s="51"/>
+      <c r="CX15" s="51"/>
+      <c r="CY15" s="51"/>
+      <c r="CZ15" s="51"/>
     </row>
     <row r="16" spans="2:104" ht="20.25" customHeight="1">
       <c r="B16" s="5">
@@ -5241,14 +5260,18 @@
         <v>1</v>
       </c>
       <c r="AF16" s="9"/>
-      <c r="AH16" s="16"/>
+      <c r="AH16" s="35" t="s">
+        <v>68</v>
+      </c>
       <c r="AI16" s="6">
         <v>45085</v>
       </c>
       <c r="AJ16" s="6">
         <v>45091</v>
       </c>
-      <c r="AK16" s="6"/>
+      <c r="AK16" s="6">
+        <v>45089</v>
+      </c>
       <c r="AL16" s="6"/>
       <c r="AM16" s="7"/>
       <c r="AN16" s="17"/>
@@ -5307,34 +5330,34 @@
       <c r="BU16" s="7"/>
       <c r="BV16" s="10"/>
       <c r="BW16" s="10"/>
-      <c r="BY16" s="43"/>
-      <c r="BZ16" s="48"/>
-      <c r="CA16" s="48"/>
-      <c r="CB16" s="43"/>
-      <c r="CC16" s="43"/>
-      <c r="CD16" s="43"/>
-      <c r="CE16" s="43"/>
-      <c r="CF16" s="43"/>
-      <c r="CG16" s="43"/>
-      <c r="CH16" s="43"/>
-      <c r="CI16" s="43"/>
-      <c r="CJ16" s="43"/>
-      <c r="CK16" s="43"/>
+      <c r="BY16" s="52"/>
+      <c r="BZ16" s="55"/>
+      <c r="CA16" s="55"/>
+      <c r="CB16" s="52"/>
+      <c r="CC16" s="52"/>
+      <c r="CD16" s="52"/>
+      <c r="CE16" s="52"/>
+      <c r="CF16" s="52"/>
+      <c r="CG16" s="52"/>
+      <c r="CH16" s="52"/>
+      <c r="CI16" s="52"/>
+      <c r="CJ16" s="52"/>
+      <c r="CK16" s="52"/>
       <c r="CL16" s="29"/>
-      <c r="CM16" s="43"/>
-      <c r="CN16" s="43"/>
-      <c r="CO16" s="43"/>
-      <c r="CP16" s="43"/>
-      <c r="CQ16" s="43"/>
-      <c r="CR16" s="43"/>
-      <c r="CS16" s="43"/>
-      <c r="CT16" s="43"/>
-      <c r="CU16" s="43"/>
-      <c r="CV16" s="43"/>
-      <c r="CW16" s="43"/>
-      <c r="CX16" s="43"/>
-      <c r="CY16" s="43"/>
-      <c r="CZ16" s="43"/>
+      <c r="CM16" s="52"/>
+      <c r="CN16" s="52"/>
+      <c r="CO16" s="52"/>
+      <c r="CP16" s="52"/>
+      <c r="CQ16" s="52"/>
+      <c r="CR16" s="52"/>
+      <c r="CS16" s="52"/>
+      <c r="CT16" s="52"/>
+      <c r="CU16" s="52"/>
+      <c r="CV16" s="52"/>
+      <c r="CW16" s="52"/>
+      <c r="CX16" s="52"/>
+      <c r="CY16" s="52"/>
+      <c r="CZ16" s="52"/>
     </row>
     <row r="17" spans="2:104" ht="20.25" customHeight="1">
       <c r="B17" s="5">
@@ -5422,14 +5445,18 @@
         <v>1</v>
       </c>
       <c r="AF17" s="9"/>
-      <c r="AH17" s="16"/>
+      <c r="AH17" s="27" t="s">
+        <v>52</v>
+      </c>
       <c r="AI17" s="6">
         <v>45085</v>
       </c>
       <c r="AJ17" s="6">
         <v>45091</v>
       </c>
-      <c r="AK17" s="6"/>
+      <c r="AK17" s="6">
+        <v>45089</v>
+      </c>
       <c r="AL17" s="6"/>
       <c r="AM17" s="7"/>
       <c r="AN17" s="17"/>
@@ -5488,34 +5515,34 @@
       <c r="BU17" s="7"/>
       <c r="BV17" s="10"/>
       <c r="BW17" s="10"/>
-      <c r="BY17" s="43"/>
-      <c r="BZ17" s="48"/>
-      <c r="CA17" s="48"/>
-      <c r="CB17" s="43"/>
-      <c r="CC17" s="43"/>
-      <c r="CD17" s="43"/>
-      <c r="CE17" s="43"/>
-      <c r="CF17" s="43"/>
-      <c r="CG17" s="43"/>
-      <c r="CH17" s="43"/>
-      <c r="CI17" s="43"/>
-      <c r="CJ17" s="43"/>
-      <c r="CK17" s="43"/>
+      <c r="BY17" s="52"/>
+      <c r="BZ17" s="55"/>
+      <c r="CA17" s="55"/>
+      <c r="CB17" s="52"/>
+      <c r="CC17" s="52"/>
+      <c r="CD17" s="52"/>
+      <c r="CE17" s="52"/>
+      <c r="CF17" s="52"/>
+      <c r="CG17" s="52"/>
+      <c r="CH17" s="52"/>
+      <c r="CI17" s="52"/>
+      <c r="CJ17" s="52"/>
+      <c r="CK17" s="52"/>
       <c r="CL17" s="29"/>
-      <c r="CM17" s="43"/>
-      <c r="CN17" s="43"/>
-      <c r="CO17" s="43"/>
-      <c r="CP17" s="43"/>
-      <c r="CQ17" s="43"/>
-      <c r="CR17" s="43"/>
-      <c r="CS17" s="43"/>
-      <c r="CT17" s="43"/>
-      <c r="CU17" s="43"/>
-      <c r="CV17" s="43"/>
-      <c r="CW17" s="43"/>
-      <c r="CX17" s="43"/>
-      <c r="CY17" s="43"/>
-      <c r="CZ17" s="43"/>
+      <c r="CM17" s="52"/>
+      <c r="CN17" s="52"/>
+      <c r="CO17" s="52"/>
+      <c r="CP17" s="52"/>
+      <c r="CQ17" s="52"/>
+      <c r="CR17" s="52"/>
+      <c r="CS17" s="52"/>
+      <c r="CT17" s="52"/>
+      <c r="CU17" s="52"/>
+      <c r="CV17" s="52"/>
+      <c r="CW17" s="52"/>
+      <c r="CX17" s="52"/>
+      <c r="CY17" s="52"/>
+      <c r="CZ17" s="52"/>
     </row>
     <row r="18" spans="2:104" ht="20.25" customHeight="1">
       <c r="B18" s="5">
@@ -5603,14 +5630,18 @@
         <v>1</v>
       </c>
       <c r="AF18" s="9"/>
-      <c r="AH18" s="16"/>
+      <c r="AH18" s="27" t="s">
+        <v>53</v>
+      </c>
       <c r="AI18" s="6">
         <v>45085</v>
       </c>
       <c r="AJ18" s="6">
         <v>45091</v>
       </c>
-      <c r="AK18" s="6"/>
+      <c r="AK18" s="6">
+        <v>45089</v>
+      </c>
       <c r="AL18" s="6"/>
       <c r="AM18" s="7"/>
       <c r="AN18" s="17"/>
@@ -5670,34 +5701,34 @@
       <c r="BV18" s="10"/>
       <c r="BW18" s="10"/>
       <c r="BX18" s="11"/>
-      <c r="BY18" s="43"/>
-      <c r="BZ18" s="48"/>
-      <c r="CA18" s="48"/>
-      <c r="CB18" s="43"/>
-      <c r="CC18" s="43"/>
-      <c r="CD18" s="43"/>
-      <c r="CE18" s="43"/>
-      <c r="CF18" s="43"/>
-      <c r="CG18" s="43"/>
-      <c r="CH18" s="43"/>
-      <c r="CI18" s="43"/>
-      <c r="CJ18" s="43"/>
-      <c r="CK18" s="43"/>
+      <c r="BY18" s="52"/>
+      <c r="BZ18" s="55"/>
+      <c r="CA18" s="55"/>
+      <c r="CB18" s="52"/>
+      <c r="CC18" s="52"/>
+      <c r="CD18" s="52"/>
+      <c r="CE18" s="52"/>
+      <c r="CF18" s="52"/>
+      <c r="CG18" s="52"/>
+      <c r="CH18" s="52"/>
+      <c r="CI18" s="52"/>
+      <c r="CJ18" s="52"/>
+      <c r="CK18" s="52"/>
       <c r="CL18" s="29"/>
-      <c r="CM18" s="43"/>
-      <c r="CN18" s="43"/>
-      <c r="CO18" s="43"/>
-      <c r="CP18" s="43"/>
-      <c r="CQ18" s="43"/>
-      <c r="CR18" s="43"/>
-      <c r="CS18" s="43"/>
-      <c r="CT18" s="43"/>
-      <c r="CU18" s="43"/>
-      <c r="CV18" s="43"/>
-      <c r="CW18" s="43"/>
-      <c r="CX18" s="43"/>
-      <c r="CY18" s="43"/>
-      <c r="CZ18" s="43"/>
+      <c r="CM18" s="52"/>
+      <c r="CN18" s="52"/>
+      <c r="CO18" s="52"/>
+      <c r="CP18" s="52"/>
+      <c r="CQ18" s="52"/>
+      <c r="CR18" s="52"/>
+      <c r="CS18" s="52"/>
+      <c r="CT18" s="52"/>
+      <c r="CU18" s="52"/>
+      <c r="CV18" s="52"/>
+      <c r="CW18" s="52"/>
+      <c r="CX18" s="52"/>
+      <c r="CY18" s="52"/>
+      <c r="CZ18" s="52"/>
     </row>
     <row r="19" spans="2:104" ht="20.25" customHeight="1">
       <c r="B19" s="5">
@@ -5785,14 +5816,18 @@
         <v>1</v>
       </c>
       <c r="AF19" s="9"/>
-      <c r="AH19" s="16"/>
+      <c r="AH19" s="27" t="s">
+        <v>54</v>
+      </c>
       <c r="AI19" s="6">
         <v>45085</v>
       </c>
       <c r="AJ19" s="6">
         <v>45091</v>
       </c>
-      <c r="AK19" s="6"/>
+      <c r="AK19" s="6">
+        <v>45089</v>
+      </c>
       <c r="AL19" s="6"/>
       <c r="AM19" s="7"/>
       <c r="AN19" s="17"/>
@@ -5852,34 +5887,34 @@
       <c r="BV19" s="10"/>
       <c r="BW19" s="10"/>
       <c r="BX19" s="11"/>
-      <c r="BY19" s="43"/>
-      <c r="BZ19" s="48"/>
-      <c r="CA19" s="48"/>
-      <c r="CB19" s="43"/>
-      <c r="CC19" s="43"/>
-      <c r="CD19" s="43"/>
-      <c r="CE19" s="43"/>
-      <c r="CF19" s="43"/>
-      <c r="CG19" s="43"/>
-      <c r="CH19" s="43"/>
-      <c r="CI19" s="43"/>
-      <c r="CJ19" s="43"/>
-      <c r="CK19" s="43"/>
+      <c r="BY19" s="52"/>
+      <c r="BZ19" s="55"/>
+      <c r="CA19" s="55"/>
+      <c r="CB19" s="52"/>
+      <c r="CC19" s="52"/>
+      <c r="CD19" s="52"/>
+      <c r="CE19" s="52"/>
+      <c r="CF19" s="52"/>
+      <c r="CG19" s="52"/>
+      <c r="CH19" s="52"/>
+      <c r="CI19" s="52"/>
+      <c r="CJ19" s="52"/>
+      <c r="CK19" s="52"/>
       <c r="CL19" s="29"/>
-      <c r="CM19" s="43"/>
-      <c r="CN19" s="43"/>
-      <c r="CO19" s="43"/>
-      <c r="CP19" s="43"/>
-      <c r="CQ19" s="43"/>
-      <c r="CR19" s="43"/>
-      <c r="CS19" s="43"/>
-      <c r="CT19" s="43"/>
-      <c r="CU19" s="43"/>
-      <c r="CV19" s="43"/>
-      <c r="CW19" s="43"/>
-      <c r="CX19" s="43"/>
-      <c r="CY19" s="43"/>
-      <c r="CZ19" s="43"/>
+      <c r="CM19" s="52"/>
+      <c r="CN19" s="52"/>
+      <c r="CO19" s="52"/>
+      <c r="CP19" s="52"/>
+      <c r="CQ19" s="52"/>
+      <c r="CR19" s="52"/>
+      <c r="CS19" s="52"/>
+      <c r="CT19" s="52"/>
+      <c r="CU19" s="52"/>
+      <c r="CV19" s="52"/>
+      <c r="CW19" s="52"/>
+      <c r="CX19" s="52"/>
+      <c r="CY19" s="52"/>
+      <c r="CZ19" s="52"/>
     </row>
     <row r="20" spans="2:104" ht="20.25" customHeight="1">
       <c r="B20" s="5">
@@ -5967,14 +6002,18 @@
         <v>1</v>
       </c>
       <c r="AF20" s="9"/>
-      <c r="AH20" s="16"/>
+      <c r="AH20" s="35" t="s">
+        <v>55</v>
+      </c>
       <c r="AI20" s="6">
         <v>45085</v>
       </c>
       <c r="AJ20" s="6">
         <v>45091</v>
       </c>
-      <c r="AK20" s="6"/>
+      <c r="AK20" s="6">
+        <v>45089</v>
+      </c>
       <c r="AL20" s="6"/>
       <c r="AM20" s="7"/>
       <c r="AN20" s="17"/>
@@ -6034,34 +6073,34 @@
       <c r="BV20" s="10"/>
       <c r="BW20" s="10"/>
       <c r="BX20" s="11"/>
-      <c r="BY20" s="43"/>
-      <c r="BZ20" s="48"/>
-      <c r="CA20" s="48"/>
-      <c r="CB20" s="43"/>
-      <c r="CC20" s="43"/>
-      <c r="CD20" s="43"/>
-      <c r="CE20" s="43"/>
-      <c r="CF20" s="43"/>
-      <c r="CG20" s="43"/>
-      <c r="CH20" s="43"/>
-      <c r="CI20" s="43"/>
-      <c r="CJ20" s="43"/>
-      <c r="CK20" s="43"/>
+      <c r="BY20" s="52"/>
+      <c r="BZ20" s="55"/>
+      <c r="CA20" s="55"/>
+      <c r="CB20" s="52"/>
+      <c r="CC20" s="52"/>
+      <c r="CD20" s="52"/>
+      <c r="CE20" s="52"/>
+      <c r="CF20" s="52"/>
+      <c r="CG20" s="52"/>
+      <c r="CH20" s="52"/>
+      <c r="CI20" s="52"/>
+      <c r="CJ20" s="52"/>
+      <c r="CK20" s="52"/>
       <c r="CL20" s="29"/>
-      <c r="CM20" s="43"/>
-      <c r="CN20" s="43"/>
-      <c r="CO20" s="43"/>
-      <c r="CP20" s="43"/>
-      <c r="CQ20" s="43"/>
-      <c r="CR20" s="43"/>
-      <c r="CS20" s="43"/>
-      <c r="CT20" s="43"/>
-      <c r="CU20" s="43"/>
-      <c r="CV20" s="43"/>
-      <c r="CW20" s="43"/>
-      <c r="CX20" s="43"/>
-      <c r="CY20" s="43"/>
-      <c r="CZ20" s="43"/>
+      <c r="CM20" s="52"/>
+      <c r="CN20" s="52"/>
+      <c r="CO20" s="52"/>
+      <c r="CP20" s="52"/>
+      <c r="CQ20" s="52"/>
+      <c r="CR20" s="52"/>
+      <c r="CS20" s="52"/>
+      <c r="CT20" s="52"/>
+      <c r="CU20" s="52"/>
+      <c r="CV20" s="52"/>
+      <c r="CW20" s="52"/>
+      <c r="CX20" s="52"/>
+      <c r="CY20" s="52"/>
+      <c r="CZ20" s="52"/>
     </row>
     <row r="21" spans="2:104" ht="20.25" customHeight="1">
       <c r="B21" s="5">
@@ -6149,14 +6188,18 @@
         <v>1</v>
       </c>
       <c r="AF21" s="9"/>
-      <c r="AH21" s="16"/>
+      <c r="AH21" s="35" t="s">
+        <v>56</v>
+      </c>
       <c r="AI21" s="6">
         <v>45085</v>
       </c>
       <c r="AJ21" s="6">
         <v>45091</v>
       </c>
-      <c r="AK21" s="6"/>
+      <c r="AK21" s="6">
+        <v>45089</v>
+      </c>
       <c r="AL21" s="6"/>
       <c r="AM21" s="7"/>
       <c r="AN21" s="17"/>
@@ -6216,34 +6259,34 @@
       <c r="BV21" s="10"/>
       <c r="BW21" s="10"/>
       <c r="BX21" s="11"/>
-      <c r="BY21" s="43"/>
-      <c r="BZ21" s="48"/>
-      <c r="CA21" s="48"/>
-      <c r="CB21" s="43"/>
-      <c r="CC21" s="43"/>
-      <c r="CD21" s="43"/>
-      <c r="CE21" s="43"/>
-      <c r="CF21" s="43"/>
-      <c r="CG21" s="43"/>
-      <c r="CH21" s="43"/>
-      <c r="CI21" s="43"/>
-      <c r="CJ21" s="43"/>
-      <c r="CK21" s="43"/>
+      <c r="BY21" s="52"/>
+      <c r="BZ21" s="55"/>
+      <c r="CA21" s="55"/>
+      <c r="CB21" s="52"/>
+      <c r="CC21" s="52"/>
+      <c r="CD21" s="52"/>
+      <c r="CE21" s="52"/>
+      <c r="CF21" s="52"/>
+      <c r="CG21" s="52"/>
+      <c r="CH21" s="52"/>
+      <c r="CI21" s="52"/>
+      <c r="CJ21" s="52"/>
+      <c r="CK21" s="52"/>
       <c r="CL21" s="29"/>
-      <c r="CM21" s="43"/>
-      <c r="CN21" s="43"/>
-      <c r="CO21" s="43"/>
-      <c r="CP21" s="43"/>
-      <c r="CQ21" s="43"/>
-      <c r="CR21" s="43"/>
-      <c r="CS21" s="43"/>
-      <c r="CT21" s="43"/>
-      <c r="CU21" s="43"/>
-      <c r="CV21" s="43"/>
-      <c r="CW21" s="43"/>
-      <c r="CX21" s="43"/>
-      <c r="CY21" s="43"/>
-      <c r="CZ21" s="43"/>
+      <c r="CM21" s="52"/>
+      <c r="CN21" s="52"/>
+      <c r="CO21" s="52"/>
+      <c r="CP21" s="52"/>
+      <c r="CQ21" s="52"/>
+      <c r="CR21" s="52"/>
+      <c r="CS21" s="52"/>
+      <c r="CT21" s="52"/>
+      <c r="CU21" s="52"/>
+      <c r="CV21" s="52"/>
+      <c r="CW21" s="52"/>
+      <c r="CX21" s="52"/>
+      <c r="CY21" s="52"/>
+      <c r="CZ21" s="52"/>
     </row>
     <row r="22" spans="2:104" ht="20.25" customHeight="1">
       <c r="B22" s="5">
@@ -6321,11 +6364,19 @@
       <c r="AB22" s="6">
         <v>45084</v>
       </c>
-      <c r="AC22" s="6"/>
-      <c r="AD22" s="6"/>
-      <c r="AE22" s="7"/>
+      <c r="AC22" s="38">
+        <v>45084</v>
+      </c>
+      <c r="AD22" s="38">
+        <v>45086</v>
+      </c>
+      <c r="AE22" s="39">
+        <v>1</v>
+      </c>
       <c r="AF22" s="9"/>
-      <c r="AH22" s="16"/>
+      <c r="AH22" s="35" t="s">
+        <v>57</v>
+      </c>
       <c r="AI22" s="6">
         <v>45085</v>
       </c>
@@ -6392,34 +6443,34 @@
       <c r="BV22" s="10"/>
       <c r="BW22" s="10"/>
       <c r="BX22" s="13"/>
-      <c r="BY22" s="44"/>
-      <c r="BZ22" s="49"/>
-      <c r="CA22" s="49"/>
-      <c r="CB22" s="44"/>
-      <c r="CC22" s="44"/>
-      <c r="CD22" s="44"/>
-      <c r="CE22" s="44"/>
-      <c r="CF22" s="44"/>
-      <c r="CG22" s="44"/>
-      <c r="CH22" s="44"/>
-      <c r="CI22" s="44"/>
-      <c r="CJ22" s="44"/>
-      <c r="CK22" s="44"/>
+      <c r="BY22" s="53"/>
+      <c r="BZ22" s="56"/>
+      <c r="CA22" s="56"/>
+      <c r="CB22" s="53"/>
+      <c r="CC22" s="53"/>
+      <c r="CD22" s="53"/>
+      <c r="CE22" s="53"/>
+      <c r="CF22" s="53"/>
+      <c r="CG22" s="53"/>
+      <c r="CH22" s="53"/>
+      <c r="CI22" s="53"/>
+      <c r="CJ22" s="53"/>
+      <c r="CK22" s="53"/>
       <c r="CL22" s="14"/>
-      <c r="CM22" s="44"/>
-      <c r="CN22" s="44"/>
-      <c r="CO22" s="44"/>
-      <c r="CP22" s="44"/>
-      <c r="CQ22" s="44"/>
-      <c r="CR22" s="44"/>
-      <c r="CS22" s="44"/>
-      <c r="CT22" s="44"/>
-      <c r="CU22" s="44"/>
-      <c r="CV22" s="44"/>
-      <c r="CW22" s="44"/>
-      <c r="CX22" s="44"/>
-      <c r="CY22" s="44"/>
-      <c r="CZ22" s="44"/>
+      <c r="CM22" s="53"/>
+      <c r="CN22" s="53"/>
+      <c r="CO22" s="53"/>
+      <c r="CP22" s="53"/>
+      <c r="CQ22" s="53"/>
+      <c r="CR22" s="53"/>
+      <c r="CS22" s="53"/>
+      <c r="CT22" s="53"/>
+      <c r="CU22" s="53"/>
+      <c r="CV22" s="53"/>
+      <c r="CW22" s="53"/>
+      <c r="CX22" s="53"/>
+      <c r="CY22" s="53"/>
+      <c r="CZ22" s="53"/>
     </row>
     <row r="23" spans="2:104" ht="20.25" customHeight="1">
       <c r="BX23" s="11"/>
@@ -6431,6 +6482,119 @@
     </row>
   </sheetData>
   <mergeCells count="137">
+    <mergeCell ref="CM7:CM13"/>
+    <mergeCell ref="CN7:CN13"/>
+    <mergeCell ref="CO7:CO13"/>
+    <mergeCell ref="CW15:CW22"/>
+    <mergeCell ref="CX7:CX13"/>
+    <mergeCell ref="CY7:CY13"/>
+    <mergeCell ref="CZ7:CZ13"/>
+    <mergeCell ref="CQ15:CQ22"/>
+    <mergeCell ref="CR15:CR22"/>
+    <mergeCell ref="CS15:CS22"/>
+    <mergeCell ref="CU7:CU13"/>
+    <mergeCell ref="CV7:CV13"/>
+    <mergeCell ref="CW7:CW13"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="CX15:CX22"/>
+    <mergeCell ref="CY15:CY22"/>
+    <mergeCell ref="CB7:CB13"/>
+    <mergeCell ref="CC7:CC13"/>
+    <mergeCell ref="CD7:CD13"/>
+    <mergeCell ref="CE7:CE13"/>
+    <mergeCell ref="CF7:CF13"/>
+    <mergeCell ref="CG7:CG13"/>
+    <mergeCell ref="CH7:CH13"/>
+    <mergeCell ref="CI7:CI13"/>
+    <mergeCell ref="CJ7:CJ13"/>
+    <mergeCell ref="CK7:CK13"/>
+    <mergeCell ref="CP7:CP13"/>
+    <mergeCell ref="CQ7:CQ13"/>
+    <mergeCell ref="BY15:BY22"/>
+    <mergeCell ref="BZ15:BZ22"/>
+    <mergeCell ref="CA15:CA22"/>
+    <mergeCell ref="CB15:CB22"/>
+    <mergeCell ref="CC15:CC22"/>
+    <mergeCell ref="CD15:CD22"/>
+    <mergeCell ref="CM15:CM22"/>
+    <mergeCell ref="CN15:CN22"/>
+    <mergeCell ref="CO15:CO22"/>
+    <mergeCell ref="CE15:CE22"/>
+    <mergeCell ref="CF15:CF22"/>
+    <mergeCell ref="CG15:CG22"/>
+    <mergeCell ref="BY7:BY13"/>
+    <mergeCell ref="BZ7:BZ13"/>
+    <mergeCell ref="CA7:CA13"/>
+    <mergeCell ref="CZ5:CZ6"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CT5:CU5"/>
+    <mergeCell ref="CV5:CW5"/>
+    <mergeCell ref="CS5:CS6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CH15:CH22"/>
+    <mergeCell ref="CI15:CI22"/>
+    <mergeCell ref="CJ15:CJ22"/>
+    <mergeCell ref="CK15:CK22"/>
+    <mergeCell ref="CZ15:CZ22"/>
+    <mergeCell ref="CP15:CP22"/>
+    <mergeCell ref="CR7:CR13"/>
+    <mergeCell ref="CS7:CS13"/>
+    <mergeCell ref="CT7:CT13"/>
+    <mergeCell ref="CT15:CT22"/>
+    <mergeCell ref="CU15:CU22"/>
+    <mergeCell ref="CV15:CV22"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CK5:CK6"/>
+    <mergeCell ref="CN5:CO5"/>
+    <mergeCell ref="CP5:CQ5"/>
+    <mergeCell ref="CM5:CM6"/>
+    <mergeCell ref="CH5:CI5"/>
+    <mergeCell ref="CE5:CE6"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="CF5:CG5"/>
+    <mergeCell ref="BP4:BW4"/>
+    <mergeCell ref="BY4:CD4"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="Z4:AF4"/>
+    <mergeCell ref="AH4:AM4"/>
+    <mergeCell ref="AN4:AT4"/>
+    <mergeCell ref="AV4:BA4"/>
+    <mergeCell ref="BB4:BH4"/>
+    <mergeCell ref="BJ4:BO4"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="BM5:BN5"/>
+    <mergeCell ref="BQ5:BR5"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="E4:E6"/>
     <mergeCell ref="CE4:CK4"/>
     <mergeCell ref="CM4:CR4"/>
     <mergeCell ref="CS4:CZ4"/>
@@ -6455,309 +6619,221 @@
     <mergeCell ref="L4:R4"/>
     <mergeCell ref="T5:T6"/>
     <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BW5:BW6"/>
-    <mergeCell ref="BY5:BY6"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="BZ5:CA5"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="BP4:BW4"/>
-    <mergeCell ref="BY4:CD4"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="Z4:AF4"/>
-    <mergeCell ref="AH4:AM4"/>
-    <mergeCell ref="AN4:AT4"/>
-    <mergeCell ref="AV4:BA4"/>
-    <mergeCell ref="BB4:BH4"/>
-    <mergeCell ref="BJ4:BO4"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CK5:CK6"/>
-    <mergeCell ref="CN5:CO5"/>
-    <mergeCell ref="CP5:CQ5"/>
-    <mergeCell ref="CM5:CM6"/>
-    <mergeCell ref="CH5:CI5"/>
-    <mergeCell ref="CE5:CE6"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="CF5:CG5"/>
-    <mergeCell ref="CE15:CE22"/>
-    <mergeCell ref="CF15:CF22"/>
-    <mergeCell ref="CG15:CG22"/>
-    <mergeCell ref="BY7:BY13"/>
-    <mergeCell ref="BZ7:BZ13"/>
-    <mergeCell ref="CA7:CA13"/>
-    <mergeCell ref="CZ5:CZ6"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CT5:CU5"/>
-    <mergeCell ref="CV5:CW5"/>
-    <mergeCell ref="CS5:CS6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CH15:CH22"/>
-    <mergeCell ref="CI15:CI22"/>
-    <mergeCell ref="CJ15:CJ22"/>
-    <mergeCell ref="CK15:CK22"/>
-    <mergeCell ref="CZ15:CZ22"/>
-    <mergeCell ref="CP15:CP22"/>
-    <mergeCell ref="CR7:CR13"/>
-    <mergeCell ref="CS7:CS13"/>
-    <mergeCell ref="CT7:CT13"/>
-    <mergeCell ref="CT15:CT22"/>
-    <mergeCell ref="CU15:CU22"/>
-    <mergeCell ref="CV15:CV22"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="CX15:CX22"/>
-    <mergeCell ref="CY15:CY22"/>
-    <mergeCell ref="CB7:CB13"/>
-    <mergeCell ref="CC7:CC13"/>
-    <mergeCell ref="CD7:CD13"/>
-    <mergeCell ref="CE7:CE13"/>
-    <mergeCell ref="CF7:CF13"/>
-    <mergeCell ref="CG7:CG13"/>
-    <mergeCell ref="CH7:CH13"/>
-    <mergeCell ref="CI7:CI13"/>
-    <mergeCell ref="CJ7:CJ13"/>
-    <mergeCell ref="CK7:CK13"/>
-    <mergeCell ref="CP7:CP13"/>
-    <mergeCell ref="CQ7:CQ13"/>
-    <mergeCell ref="BY15:BY22"/>
-    <mergeCell ref="BZ15:BZ22"/>
-    <mergeCell ref="CA15:CA22"/>
-    <mergeCell ref="CB15:CB22"/>
-    <mergeCell ref="CC15:CC22"/>
-    <mergeCell ref="CD15:CD22"/>
-    <mergeCell ref="CM15:CM22"/>
-    <mergeCell ref="CN15:CN22"/>
-    <mergeCell ref="CO15:CO22"/>
-    <mergeCell ref="CM7:CM13"/>
-    <mergeCell ref="CN7:CN13"/>
-    <mergeCell ref="CO7:CO13"/>
-    <mergeCell ref="CW15:CW22"/>
-    <mergeCell ref="CX7:CX13"/>
-    <mergeCell ref="CY7:CY13"/>
-    <mergeCell ref="CZ7:CZ13"/>
-    <mergeCell ref="CQ15:CQ22"/>
-    <mergeCell ref="CR15:CR22"/>
-    <mergeCell ref="CS15:CS22"/>
-    <mergeCell ref="CU7:CU13"/>
-    <mergeCell ref="CV7:CV13"/>
-    <mergeCell ref="CW7:CW13"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="F7:K14">
-    <cfRule type="expression" dxfId="38" priority="88">
+    <cfRule type="expression" dxfId="42" priority="93">
       <formula>$J7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7:R14 K15:R22">
-    <cfRule type="expression" dxfId="37" priority="81">
+    <cfRule type="expression" dxfId="41" priority="86">
       <formula>$P7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN7:AT14">
-    <cfRule type="expression" dxfId="35" priority="78">
+    <cfRule type="expression" dxfId="40" priority="83">
       <formula>$AR7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV7:BA14">
-    <cfRule type="expression" dxfId="34" priority="142">
+    <cfRule type="expression" dxfId="39" priority="147">
       <formula>$AZ7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB7:BH14">
-    <cfRule type="expression" dxfId="33" priority="141">
+    <cfRule type="expression" dxfId="38" priority="146">
       <formula>$BF7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ7:BO14">
-    <cfRule type="expression" dxfId="32" priority="136">
+    <cfRule type="expression" dxfId="37" priority="141">
       <formula>$BN7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP7:BW14">
-    <cfRule type="expression" dxfId="31" priority="135">
+    <cfRule type="expression" dxfId="36" priority="140">
       <formula>$BT7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:F22">
-    <cfRule type="expression" dxfId="30" priority="165">
+    <cfRule type="expression" dxfId="35" priority="170">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20 F15:F16">
-    <cfRule type="expression" dxfId="29" priority="193">
+    <cfRule type="expression" dxfId="34" priority="198">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA22:AB22">
-    <cfRule type="expression" dxfId="28" priority="195">
+    <cfRule type="expression" dxfId="33" priority="200">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="27" priority="200">
+    <cfRule type="expression" dxfId="32" priority="205">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F16">
-    <cfRule type="expression" dxfId="26" priority="202">
+    <cfRule type="expression" dxfId="31" priority="207">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F18">
-    <cfRule type="expression" dxfId="25" priority="203">
+    <cfRule type="expression" dxfId="30" priority="208">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:J22">
-    <cfRule type="expression" dxfId="24" priority="227">
+    <cfRule type="expression" dxfId="29" priority="232">
       <formula>$I15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U15:W22 Y15:Y22">
-    <cfRule type="expression" dxfId="23" priority="231">
+    <cfRule type="expression" dxfId="28" priority="236">
       <formula>$X15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA22:AF22 AA15:AB21 AF15:AF21">
-    <cfRule type="expression" dxfId="22" priority="233">
+  <conditionalFormatting sqref="AA15:AB22 AF15:AF22">
+    <cfRule type="expression" dxfId="27" priority="238">
       <formula>$AD15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH15:AM22">
-    <cfRule type="expression" dxfId="21" priority="235">
+  <conditionalFormatting sqref="AI15:AJ22 AL15:AM22 AK22">
+    <cfRule type="expression" dxfId="26" priority="240">
       <formula>$AL15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN15:AT22">
-    <cfRule type="expression" dxfId="20" priority="237">
+    <cfRule type="expression" dxfId="25" priority="242">
       <formula>$AR15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV15:BA22">
-    <cfRule type="expression" dxfId="19" priority="239">
+    <cfRule type="expression" dxfId="24" priority="244">
       <formula>$AZ15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB15:BH22">
-    <cfRule type="expression" dxfId="18" priority="241">
+    <cfRule type="expression" dxfId="23" priority="246">
       <formula>$BF15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ15:BO22">
-    <cfRule type="expression" dxfId="17" priority="243">
+    <cfRule type="expression" dxfId="22" priority="248">
       <formula>$BN15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP15:BW22">
-    <cfRule type="expression" dxfId="16" priority="245">
+    <cfRule type="expression" dxfId="21" priority="250">
       <formula>$BT15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15:AB21">
-    <cfRule type="expression" dxfId="15" priority="246">
+    <cfRule type="expression" dxfId="20" priority="251">
       <formula>$X16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T21:T22">
-    <cfRule type="expression" dxfId="14" priority="11">
+    <cfRule type="expression" dxfId="19" priority="16">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T20 T15:T16">
-    <cfRule type="expression" dxfId="13" priority="12">
+    <cfRule type="expression" dxfId="18" priority="17">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="17" priority="18">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15:T16">
-    <cfRule type="expression" dxfId="11" priority="14">
+    <cfRule type="expression" dxfId="16" priority="19">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17:T18">
-    <cfRule type="expression" dxfId="10" priority="15">
+    <cfRule type="expression" dxfId="15" priority="20">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X15">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>$X15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X16">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>$X16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X17:X22">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>$X17&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z21:Z22">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="11" priority="8">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z20 Z15:Z16">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="10" priority="9">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z19">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z15:Z16">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="8" priority="11">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z17:Z18">
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="7" priority="12">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI7:AM14">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="AI7:AM14 AK15:AK21">
+    <cfRule type="expression" dxfId="0" priority="7">
       <formula>$AK7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH7:AH14">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>$J7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH21:AH22">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>#REF!&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH20 AH15:AH16">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>#REF!&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH19">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$I18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH15:AH16">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>#REF!&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH17:AH18">
+    <cfRule type="expression" dxfId="1" priority="5">
+      <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -6791,7 +6867,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <sheetData>
     <row r="5" spans="4:5">
       <c r="D5" t="s">
@@ -6824,7 +6900,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6840,7 +6916,7 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6856,7 +6932,7 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6872,7 +6948,7 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6888,7 +6964,7 @@
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6904,7 +6980,7 @@
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/スケジュール（2023-06）.xlsx
+++ b/スケジュール（2023-06）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\algai\Desktop\Study\2023-06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D88D42-EE09-4D89-A033-D491FBFB96E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57508228-5777-4FED-B6B9-61D63A531B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="19543" windowHeight="12497" tabRatio="910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="体制図" sheetId="11" r:id="rId1"/>
@@ -26,19 +26,6 @@
     <sheet name="8_勤怠承認詳細" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -761,38 +748,8 @@
     <xf numFmtId="56" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -803,7 +760,37 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2766,7 +2753,7 @@
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="3" spans="3:7">
       <c r="G3" s="28" t="s">
@@ -2807,7 +2794,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2823,7 +2810,7 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2837,20 +2824,20 @@
   <dimension ref="B3:CZ24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="Z7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="AH10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AN12" sqref="AN12"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.78515625" style="2" customWidth="1"/>
-    <col min="4" max="5" width="18.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" style="8" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="8.7109375" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="16.796875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="18.69921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.59765625" style="8" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="8.69921875" style="1" customWidth="1" outlineLevel="1"/>
     <col min="8" max="11" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="13" max="18" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
@@ -2859,423 +2846,423 @@
     <col min="21" max="25" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="26" max="26" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="27" max="29" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="7.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="7.59765625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="31" max="32" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="1.5703125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="1.59765625" style="1" customWidth="1"/>
     <col min="34" max="34" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="35" max="39" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="40" max="40" width="13" style="2" customWidth="1" outlineLevel="1"/>
     <col min="41" max="46" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="47" max="47" width="1.5703125" style="1" customWidth="1"/>
+    <col min="47" max="47" width="1.59765625" style="1" customWidth="1"/>
     <col min="48" max="48" width="13" style="2" customWidth="1" outlineLevel="1"/>
     <col min="49" max="53" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="54" max="54" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="55" max="60" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="61" max="61" width="1.5703125" style="1" customWidth="1"/>
+    <col min="61" max="61" width="1.59765625" style="1" customWidth="1"/>
     <col min="62" max="62" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="63" max="67" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="68" max="68" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="69" max="75" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="76" max="76" width="1.5703125" style="1" customWidth="1"/>
-    <col min="77" max="77" width="6.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="76" max="76" width="1.59765625" style="1" customWidth="1"/>
+    <col min="77" max="77" width="6.59765625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="78" max="81" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
     <col min="82" max="83" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="84" max="85" width="6.5" style="33" customWidth="1" outlineLevel="1"/>
     <col min="86" max="87" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
     <col min="88" max="89" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="90" max="90" width="1.5703125" style="1" customWidth="1"/>
-    <col min="91" max="91" width="6.5703125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="90" max="90" width="1.59765625" style="1" customWidth="1"/>
+    <col min="91" max="91" width="6.59765625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="92" max="93" width="6.5" style="33" customWidth="1" outlineLevel="1"/>
     <col min="94" max="95" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
     <col min="96" max="97" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="98" max="99" width="6.5" style="33" customWidth="1" outlineLevel="1"/>
     <col min="100" max="101" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
     <col min="102" max="104" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="105" max="105" width="1.5703125" style="1" customWidth="1"/>
+    <col min="105" max="105" width="1.59765625" style="1" customWidth="1"/>
     <col min="106" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:104" ht="23.6">
+    <row r="3" spans="2:104" ht="23.4">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:104" s="20" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46" t="s">
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="T4" s="46" t="s">
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="T4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46" t="s">
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="46"/>
-      <c r="AH4" s="46" t="s">
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AH4" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="46"/>
-      <c r="AK4" s="46"/>
-      <c r="AL4" s="46"/>
-      <c r="AM4" s="46"/>
-      <c r="AN4" s="46" t="s">
+      <c r="AI4" s="42"/>
+      <c r="AJ4" s="42"/>
+      <c r="AK4" s="42"/>
+      <c r="AL4" s="42"/>
+      <c r="AM4" s="42"/>
+      <c r="AN4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AO4" s="46"/>
-      <c r="AP4" s="46"/>
-      <c r="AQ4" s="46"/>
-      <c r="AR4" s="46"/>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="53"/>
+      <c r="AO4" s="42"/>
+      <c r="AP4" s="42"/>
+      <c r="AQ4" s="42"/>
+      <c r="AR4" s="42"/>
+      <c r="AS4" s="42"/>
+      <c r="AT4" s="43"/>
       <c r="AU4" s="21"/>
-      <c r="AV4" s="46" t="s">
+      <c r="AV4" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="AW4" s="46"/>
-      <c r="AX4" s="46"/>
-      <c r="AY4" s="46"/>
-      <c r="AZ4" s="46"/>
-      <c r="BA4" s="46"/>
-      <c r="BB4" s="46" t="s">
+      <c r="AW4" s="42"/>
+      <c r="AX4" s="42"/>
+      <c r="AY4" s="42"/>
+      <c r="AZ4" s="42"/>
+      <c r="BA4" s="42"/>
+      <c r="BB4" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="BC4" s="46"/>
-      <c r="BD4" s="46"/>
-      <c r="BE4" s="46"/>
-      <c r="BF4" s="46"/>
-      <c r="BG4" s="46"/>
-      <c r="BH4" s="46"/>
+      <c r="BC4" s="42"/>
+      <c r="BD4" s="42"/>
+      <c r="BE4" s="42"/>
+      <c r="BF4" s="42"/>
+      <c r="BG4" s="42"/>
+      <c r="BH4" s="42"/>
       <c r="BI4" s="22"/>
-      <c r="BJ4" s="54" t="s">
+      <c r="BJ4" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="BK4" s="46"/>
-      <c r="BL4" s="46"/>
-      <c r="BM4" s="46"/>
-      <c r="BN4" s="46"/>
-      <c r="BO4" s="46"/>
-      <c r="BP4" s="46" t="s">
+      <c r="BK4" s="42"/>
+      <c r="BL4" s="42"/>
+      <c r="BM4" s="42"/>
+      <c r="BN4" s="42"/>
+      <c r="BO4" s="42"/>
+      <c r="BP4" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="BQ4" s="46"/>
-      <c r="BR4" s="46"/>
-      <c r="BS4" s="46"/>
-      <c r="BT4" s="46"/>
-      <c r="BU4" s="46"/>
-      <c r="BV4" s="46"/>
-      <c r="BW4" s="46"/>
-      <c r="BY4" s="46" t="s">
+      <c r="BQ4" s="42"/>
+      <c r="BR4" s="42"/>
+      <c r="BS4" s="42"/>
+      <c r="BT4" s="42"/>
+      <c r="BU4" s="42"/>
+      <c r="BV4" s="42"/>
+      <c r="BW4" s="42"/>
+      <c r="BY4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="BZ4" s="46"/>
-      <c r="CA4" s="46"/>
-      <c r="CB4" s="46"/>
-      <c r="CC4" s="46"/>
-      <c r="CD4" s="46"/>
-      <c r="CE4" s="46" t="s">
+      <c r="BZ4" s="42"/>
+      <c r="CA4" s="42"/>
+      <c r="CB4" s="42"/>
+      <c r="CC4" s="42"/>
+      <c r="CD4" s="42"/>
+      <c r="CE4" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="CF4" s="46"/>
-      <c r="CG4" s="46"/>
-      <c r="CH4" s="46"/>
-      <c r="CI4" s="46"/>
-      <c r="CJ4" s="46"/>
-      <c r="CK4" s="53"/>
+      <c r="CF4" s="42"/>
+      <c r="CG4" s="42"/>
+      <c r="CH4" s="42"/>
+      <c r="CI4" s="42"/>
+      <c r="CJ4" s="42"/>
+      <c r="CK4" s="43"/>
       <c r="CL4" s="23"/>
-      <c r="CM4" s="54" t="s">
+      <c r="CM4" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="CN4" s="46"/>
-      <c r="CO4" s="46"/>
-      <c r="CP4" s="46"/>
-      <c r="CQ4" s="46"/>
-      <c r="CR4" s="46"/>
-      <c r="CS4" s="46" t="s">
+      <c r="CN4" s="42"/>
+      <c r="CO4" s="42"/>
+      <c r="CP4" s="42"/>
+      <c r="CQ4" s="42"/>
+      <c r="CR4" s="42"/>
+      <c r="CS4" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="CT4" s="46"/>
-      <c r="CU4" s="46"/>
-      <c r="CV4" s="46"/>
-      <c r="CW4" s="46"/>
-      <c r="CX4" s="46"/>
-      <c r="CY4" s="46"/>
-      <c r="CZ4" s="46"/>
+      <c r="CT4" s="42"/>
+      <c r="CU4" s="42"/>
+      <c r="CV4" s="42"/>
+      <c r="CW4" s="42"/>
+      <c r="CX4" s="42"/>
+      <c r="CY4" s="42"/>
+      <c r="CZ4" s="42"/>
     </row>
-    <row r="5" spans="2:104" ht="21.65" customHeight="1">
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="46" t="s">
+    <row r="5" spans="2:104" ht="21.6" customHeight="1">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55" t="s">
+      <c r="H5" s="45"/>
+      <c r="I5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="55"/>
-      <c r="K5" s="45" t="s">
+      <c r="J5" s="45"/>
+      <c r="K5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="46" t="s">
+      <c r="L5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="55" t="s">
+      <c r="M5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55" t="s">
+      <c r="N5" s="45"/>
+      <c r="O5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="45" t="s">
+      <c r="P5" s="45"/>
+      <c r="Q5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="45" t="s">
+      <c r="R5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="46" t="s">
+      <c r="T5" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="55" t="s">
+      <c r="U5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55" t="s">
+      <c r="V5" s="45"/>
+      <c r="W5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="45" t="s">
+      <c r="X5" s="45"/>
+      <c r="Y5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="46" t="s">
+      <c r="Z5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AA5" s="55" t="s">
+      <c r="AA5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="AB5" s="55"/>
-      <c r="AC5" s="55" t="s">
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="AD5" s="55"/>
-      <c r="AE5" s="45" t="s">
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="AF5" s="45" t="s">
+      <c r="AF5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="AH5" s="46" t="s">
+      <c r="AH5" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="AI5" s="55" t="s">
+      <c r="AI5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="AJ5" s="55"/>
-      <c r="AK5" s="55" t="s">
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="AL5" s="55"/>
-      <c r="AM5" s="45" t="s">
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="AN5" s="46" t="s">
+      <c r="AN5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AO5" s="55" t="s">
+      <c r="AO5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="AP5" s="55"/>
-      <c r="AQ5" s="55" t="s">
+      <c r="AP5" s="45"/>
+      <c r="AQ5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="AR5" s="55"/>
-      <c r="AS5" s="45" t="s">
+      <c r="AR5" s="45"/>
+      <c r="AS5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="AT5" s="52" t="s">
+      <c r="AT5" s="48" t="s">
         <v>23</v>
       </c>
       <c r="AU5" s="13"/>
-      <c r="AV5" s="46" t="s">
+      <c r="AV5" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="AW5" s="55" t="s">
+      <c r="AW5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="AX5" s="55"/>
-      <c r="AY5" s="55" t="s">
+      <c r="AX5" s="45"/>
+      <c r="AY5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="AZ5" s="55"/>
-      <c r="BA5" s="45" t="s">
+      <c r="AZ5" s="45"/>
+      <c r="BA5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="BB5" s="46" t="s">
+      <c r="BB5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BC5" s="55" t="s">
+      <c r="BC5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="BD5" s="55"/>
-      <c r="BE5" s="55" t="s">
+      <c r="BD5" s="45"/>
+      <c r="BE5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="BF5" s="55"/>
-      <c r="BG5" s="45" t="s">
+      <c r="BF5" s="45"/>
+      <c r="BG5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="BH5" s="45" t="s">
+      <c r="BH5" s="46" t="s">
         <v>23</v>
       </c>
       <c r="BI5" s="14"/>
-      <c r="BJ5" s="54" t="s">
+      <c r="BJ5" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="BK5" s="55" t="s">
+      <c r="BK5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="BL5" s="55"/>
-      <c r="BM5" s="55" t="s">
+      <c r="BL5" s="45"/>
+      <c r="BM5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="BN5" s="55"/>
-      <c r="BO5" s="45" t="s">
+      <c r="BN5" s="45"/>
+      <c r="BO5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="BP5" s="46" t="s">
+      <c r="BP5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BQ5" s="55" t="s">
+      <c r="BQ5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="BR5" s="55"/>
-      <c r="BS5" s="55" t="s">
+      <c r="BR5" s="45"/>
+      <c r="BS5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="BT5" s="55"/>
-      <c r="BU5" s="45" t="s">
+      <c r="BT5" s="45"/>
+      <c r="BU5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="BV5" s="45" t="s">
+      <c r="BV5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="BW5" s="45" t="s">
+      <c r="BW5" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="BY5" s="46" t="s">
+      <c r="BY5" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="BZ5" s="51" t="s">
+      <c r="BZ5" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="CA5" s="51"/>
-      <c r="CB5" s="51" t="s">
+      <c r="CA5" s="49"/>
+      <c r="CB5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="CC5" s="51"/>
-      <c r="CD5" s="45" t="s">
+      <c r="CC5" s="49"/>
+      <c r="CD5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="CE5" s="46" t="s">
+      <c r="CE5" s="42" t="s">
         <v>22</v>
       </c>
       <c r="CF5" s="50" t="s">
         <v>19</v>
       </c>
       <c r="CG5" s="50"/>
-      <c r="CH5" s="51" t="s">
+      <c r="CH5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="CI5" s="51"/>
-      <c r="CJ5" s="45" t="s">
+      <c r="CI5" s="49"/>
+      <c r="CJ5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="CK5" s="52" t="s">
+      <c r="CK5" s="48" t="s">
         <v>23</v>
       </c>
       <c r="CL5" s="11"/>
-      <c r="CM5" s="54" t="s">
+      <c r="CM5" s="44" t="s">
         <v>18</v>
       </c>
       <c r="CN5" s="50" t="s">
         <v>19</v>
       </c>
       <c r="CO5" s="50"/>
-      <c r="CP5" s="51" t="s">
+      <c r="CP5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="CQ5" s="51"/>
-      <c r="CR5" s="45" t="s">
+      <c r="CQ5" s="49"/>
+      <c r="CR5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="CS5" s="46" t="s">
+      <c r="CS5" s="42" t="s">
         <v>22</v>
       </c>
       <c r="CT5" s="50" t="s">
         <v>19</v>
       </c>
       <c r="CU5" s="50"/>
-      <c r="CV5" s="51" t="s">
+      <c r="CV5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="CW5" s="51"/>
-      <c r="CX5" s="45" t="s">
+      <c r="CW5" s="49"/>
+      <c r="CX5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="CY5" s="45" t="s">
+      <c r="CY5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="CZ5" s="45" t="s">
+      <c r="CZ5" s="46" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:104" ht="14.15">
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="46"/>
+    <row r="6" spans="2:104" ht="14.4">
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3288,8 +3275,8 @@
       <c r="J6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
       <c r="M6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3302,9 +3289,9 @@
       <c r="P6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="T6" s="46"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="T6" s="42"/>
       <c r="U6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3317,8 +3304,8 @@
       <c r="X6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
       <c r="AA6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3331,9 +3318,9 @@
       <c r="AD6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AE6" s="46"/>
-      <c r="AF6" s="46"/>
-      <c r="AH6" s="46"/>
+      <c r="AE6" s="42"/>
+      <c r="AF6" s="42"/>
+      <c r="AH6" s="42"/>
       <c r="AI6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3346,8 +3333,8 @@
       <c r="AL6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AM6" s="46"/>
-      <c r="AN6" s="46"/>
+      <c r="AM6" s="42"/>
+      <c r="AN6" s="42"/>
       <c r="AO6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3360,10 +3347,10 @@
       <c r="AR6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AS6" s="46"/>
-      <c r="AT6" s="53"/>
+      <c r="AS6" s="42"/>
+      <c r="AT6" s="43"/>
       <c r="AU6" s="13"/>
-      <c r="AV6" s="46"/>
+      <c r="AV6" s="42"/>
       <c r="AW6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3376,8 +3363,8 @@
       <c r="AZ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BA6" s="46"/>
-      <c r="BB6" s="46"/>
+      <c r="BA6" s="42"/>
+      <c r="BB6" s="42"/>
       <c r="BC6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3390,10 +3377,10 @@
       <c r="BF6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BG6" s="46"/>
-      <c r="BH6" s="46"/>
+      <c r="BG6" s="42"/>
+      <c r="BH6" s="42"/>
       <c r="BI6" s="14"/>
-      <c r="BJ6" s="54"/>
+      <c r="BJ6" s="44"/>
       <c r="BK6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3406,8 +3393,8 @@
       <c r="BN6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BO6" s="46"/>
-      <c r="BP6" s="46"/>
+      <c r="BO6" s="42"/>
+      <c r="BP6" s="42"/>
       <c r="BQ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3420,10 +3407,10 @@
       <c r="BT6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BU6" s="46"/>
-      <c r="BV6" s="46"/>
-      <c r="BW6" s="46"/>
-      <c r="BY6" s="46"/>
+      <c r="BU6" s="42"/>
+      <c r="BV6" s="42"/>
+      <c r="BW6" s="42"/>
+      <c r="BY6" s="42"/>
       <c r="BZ6" s="31" t="s">
         <v>25</v>
       </c>
@@ -3436,8 +3423,8 @@
       <c r="CC6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CD6" s="46"/>
-      <c r="CE6" s="46"/>
+      <c r="CD6" s="42"/>
+      <c r="CE6" s="42"/>
       <c r="CF6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3450,10 +3437,10 @@
       <c r="CI6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CJ6" s="46"/>
-      <c r="CK6" s="53"/>
+      <c r="CJ6" s="42"/>
+      <c r="CK6" s="43"/>
       <c r="CL6" s="11"/>
-      <c r="CM6" s="54"/>
+      <c r="CM6" s="44"/>
       <c r="CN6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3466,8 +3453,8 @@
       <c r="CQ6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CR6" s="46"/>
-      <c r="CS6" s="46"/>
+      <c r="CR6" s="42"/>
+      <c r="CS6" s="42"/>
       <c r="CT6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3480,9 +3467,9 @@
       <c r="CW6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CX6" s="46"/>
-      <c r="CY6" s="46"/>
-      <c r="CZ6" s="46"/>
+      <c r="CX6" s="42"/>
+      <c r="CY6" s="42"/>
+      <c r="CZ6" s="42"/>
     </row>
     <row r="7" spans="2:104" ht="20.25" customHeight="1">
       <c r="B7" s="5">
@@ -3644,50 +3631,50 @@
       <c r="BU7" s="7"/>
       <c r="BV7" s="10"/>
       <c r="BW7" s="10"/>
-      <c r="BY7" s="42"/>
-      <c r="BZ7" s="42">
+      <c r="BY7" s="51"/>
+      <c r="BZ7" s="51">
         <v>45100</v>
       </c>
-      <c r="CA7" s="42">
+      <c r="CA7" s="51">
         <v>45100</v>
       </c>
-      <c r="CB7" s="42"/>
-      <c r="CC7" s="42"/>
-      <c r="CD7" s="42"/>
-      <c r="CE7" s="42"/>
-      <c r="CF7" s="42">
+      <c r="CB7" s="51"/>
+      <c r="CC7" s="51"/>
+      <c r="CD7" s="51"/>
+      <c r="CE7" s="51"/>
+      <c r="CF7" s="51">
         <v>45103</v>
       </c>
-      <c r="CG7" s="42">
+      <c r="CG7" s="51">
         <v>45103</v>
       </c>
-      <c r="CH7" s="42"/>
-      <c r="CI7" s="42"/>
-      <c r="CJ7" s="42"/>
-      <c r="CK7" s="42"/>
+      <c r="CH7" s="51"/>
+      <c r="CI7" s="51"/>
+      <c r="CJ7" s="51"/>
+      <c r="CK7" s="51"/>
       <c r="CL7" s="14"/>
-      <c r="CM7" s="42"/>
-      <c r="CN7" s="42">
+      <c r="CM7" s="51"/>
+      <c r="CN7" s="51">
         <v>45104</v>
       </c>
-      <c r="CO7" s="42">
+      <c r="CO7" s="51">
         <v>45104</v>
       </c>
-      <c r="CP7" s="42"/>
-      <c r="CQ7" s="42"/>
-      <c r="CR7" s="42"/>
-      <c r="CS7" s="42"/>
-      <c r="CT7" s="42">
+      <c r="CP7" s="51"/>
+      <c r="CQ7" s="51"/>
+      <c r="CR7" s="51"/>
+      <c r="CS7" s="51"/>
+      <c r="CT7" s="51">
         <v>45105</v>
       </c>
-      <c r="CU7" s="42">
+      <c r="CU7" s="51">
         <v>45105</v>
       </c>
-      <c r="CV7" s="42"/>
-      <c r="CW7" s="42"/>
-      <c r="CX7" s="42"/>
-      <c r="CY7" s="42"/>
-      <c r="CZ7" s="42"/>
+      <c r="CV7" s="51"/>
+      <c r="CW7" s="51"/>
+      <c r="CX7" s="51"/>
+      <c r="CY7" s="51"/>
+      <c r="CZ7" s="51"/>
     </row>
     <row r="8" spans="2:104" ht="20.25" customHeight="1">
       <c r="B8" s="5">
@@ -3849,34 +3836,34 @@
       <c r="BU8" s="7"/>
       <c r="BV8" s="10"/>
       <c r="BW8" s="10"/>
-      <c r="BY8" s="43"/>
-      <c r="BZ8" s="43"/>
-      <c r="CA8" s="43"/>
-      <c r="CB8" s="43"/>
-      <c r="CC8" s="43"/>
-      <c r="CD8" s="43"/>
-      <c r="CE8" s="43"/>
-      <c r="CF8" s="43"/>
-      <c r="CG8" s="43"/>
-      <c r="CH8" s="43"/>
-      <c r="CI8" s="43"/>
-      <c r="CJ8" s="43"/>
-      <c r="CK8" s="43"/>
+      <c r="BY8" s="52"/>
+      <c r="BZ8" s="52"/>
+      <c r="CA8" s="52"/>
+      <c r="CB8" s="52"/>
+      <c r="CC8" s="52"/>
+      <c r="CD8" s="52"/>
+      <c r="CE8" s="52"/>
+      <c r="CF8" s="52"/>
+      <c r="CG8" s="52"/>
+      <c r="CH8" s="52"/>
+      <c r="CI8" s="52"/>
+      <c r="CJ8" s="52"/>
+      <c r="CK8" s="52"/>
       <c r="CL8" s="14"/>
-      <c r="CM8" s="43"/>
-      <c r="CN8" s="43"/>
-      <c r="CO8" s="43"/>
-      <c r="CP8" s="43"/>
-      <c r="CQ8" s="43"/>
-      <c r="CR8" s="43"/>
-      <c r="CS8" s="43"/>
-      <c r="CT8" s="43"/>
-      <c r="CU8" s="43"/>
-      <c r="CV8" s="43"/>
-      <c r="CW8" s="43"/>
-      <c r="CX8" s="43"/>
-      <c r="CY8" s="43"/>
-      <c r="CZ8" s="43"/>
+      <c r="CM8" s="52"/>
+      <c r="CN8" s="52"/>
+      <c r="CO8" s="52"/>
+      <c r="CP8" s="52"/>
+      <c r="CQ8" s="52"/>
+      <c r="CR8" s="52"/>
+      <c r="CS8" s="52"/>
+      <c r="CT8" s="52"/>
+      <c r="CU8" s="52"/>
+      <c r="CV8" s="52"/>
+      <c r="CW8" s="52"/>
+      <c r="CX8" s="52"/>
+      <c r="CY8" s="52"/>
+      <c r="CZ8" s="52"/>
     </row>
     <row r="9" spans="2:104" ht="20.25" customHeight="1">
       <c r="B9" s="5">
@@ -4037,34 +4024,34 @@
       <c r="BV9" s="10"/>
       <c r="BW9" s="10"/>
       <c r="BX9" s="13"/>
-      <c r="BY9" s="43"/>
-      <c r="BZ9" s="43"/>
-      <c r="CA9" s="43"/>
-      <c r="CB9" s="43"/>
-      <c r="CC9" s="43"/>
-      <c r="CD9" s="43"/>
-      <c r="CE9" s="43"/>
-      <c r="CF9" s="43"/>
-      <c r="CG9" s="43"/>
-      <c r="CH9" s="43"/>
-      <c r="CI9" s="43"/>
-      <c r="CJ9" s="43"/>
-      <c r="CK9" s="43"/>
+      <c r="BY9" s="52"/>
+      <c r="BZ9" s="52"/>
+      <c r="CA9" s="52"/>
+      <c r="CB9" s="52"/>
+      <c r="CC9" s="52"/>
+      <c r="CD9" s="52"/>
+      <c r="CE9" s="52"/>
+      <c r="CF9" s="52"/>
+      <c r="CG9" s="52"/>
+      <c r="CH9" s="52"/>
+      <c r="CI9" s="52"/>
+      <c r="CJ9" s="52"/>
+      <c r="CK9" s="52"/>
       <c r="CL9" s="14"/>
-      <c r="CM9" s="43"/>
-      <c r="CN9" s="43"/>
-      <c r="CO9" s="43"/>
-      <c r="CP9" s="43"/>
-      <c r="CQ9" s="43"/>
-      <c r="CR9" s="43"/>
-      <c r="CS9" s="43"/>
-      <c r="CT9" s="43"/>
-      <c r="CU9" s="43"/>
-      <c r="CV9" s="43"/>
-      <c r="CW9" s="43"/>
-      <c r="CX9" s="43"/>
-      <c r="CY9" s="43"/>
-      <c r="CZ9" s="43"/>
+      <c r="CM9" s="52"/>
+      <c r="CN9" s="52"/>
+      <c r="CO9" s="52"/>
+      <c r="CP9" s="52"/>
+      <c r="CQ9" s="52"/>
+      <c r="CR9" s="52"/>
+      <c r="CS9" s="52"/>
+      <c r="CT9" s="52"/>
+      <c r="CU9" s="52"/>
+      <c r="CV9" s="52"/>
+      <c r="CW9" s="52"/>
+      <c r="CX9" s="52"/>
+      <c r="CY9" s="52"/>
+      <c r="CZ9" s="52"/>
     </row>
     <row r="10" spans="2:104" ht="20.25" customHeight="1">
       <c r="B10" s="5">
@@ -4227,34 +4214,34 @@
       <c r="BV10" s="10"/>
       <c r="BW10" s="10"/>
       <c r="BX10" s="13"/>
-      <c r="BY10" s="43"/>
-      <c r="BZ10" s="43"/>
-      <c r="CA10" s="43"/>
-      <c r="CB10" s="43"/>
-      <c r="CC10" s="43"/>
-      <c r="CD10" s="43"/>
-      <c r="CE10" s="43"/>
-      <c r="CF10" s="43"/>
-      <c r="CG10" s="43"/>
-      <c r="CH10" s="43"/>
-      <c r="CI10" s="43"/>
-      <c r="CJ10" s="43"/>
-      <c r="CK10" s="43"/>
+      <c r="BY10" s="52"/>
+      <c r="BZ10" s="52"/>
+      <c r="CA10" s="52"/>
+      <c r="CB10" s="52"/>
+      <c r="CC10" s="52"/>
+      <c r="CD10" s="52"/>
+      <c r="CE10" s="52"/>
+      <c r="CF10" s="52"/>
+      <c r="CG10" s="52"/>
+      <c r="CH10" s="52"/>
+      <c r="CI10" s="52"/>
+      <c r="CJ10" s="52"/>
+      <c r="CK10" s="52"/>
       <c r="CL10" s="14"/>
-      <c r="CM10" s="43"/>
-      <c r="CN10" s="43"/>
-      <c r="CO10" s="43"/>
-      <c r="CP10" s="43"/>
-      <c r="CQ10" s="43"/>
-      <c r="CR10" s="43"/>
-      <c r="CS10" s="43"/>
-      <c r="CT10" s="43"/>
-      <c r="CU10" s="43"/>
-      <c r="CV10" s="43"/>
-      <c r="CW10" s="43"/>
-      <c r="CX10" s="43"/>
-      <c r="CY10" s="43"/>
-      <c r="CZ10" s="43"/>
+      <c r="CM10" s="52"/>
+      <c r="CN10" s="52"/>
+      <c r="CO10" s="52"/>
+      <c r="CP10" s="52"/>
+      <c r="CQ10" s="52"/>
+      <c r="CR10" s="52"/>
+      <c r="CS10" s="52"/>
+      <c r="CT10" s="52"/>
+      <c r="CU10" s="52"/>
+      <c r="CV10" s="52"/>
+      <c r="CW10" s="52"/>
+      <c r="CX10" s="52"/>
+      <c r="CY10" s="52"/>
+      <c r="CZ10" s="52"/>
     </row>
     <row r="11" spans="2:104" ht="20.25" customHeight="1">
       <c r="B11" s="5">
@@ -4415,34 +4402,34 @@
       <c r="BV11" s="10"/>
       <c r="BW11" s="10"/>
       <c r="BX11" s="13"/>
-      <c r="BY11" s="43"/>
-      <c r="BZ11" s="43"/>
-      <c r="CA11" s="43"/>
-      <c r="CB11" s="43"/>
-      <c r="CC11" s="43"/>
-      <c r="CD11" s="43"/>
-      <c r="CE11" s="43"/>
-      <c r="CF11" s="43"/>
-      <c r="CG11" s="43"/>
-      <c r="CH11" s="43"/>
-      <c r="CI11" s="43"/>
-      <c r="CJ11" s="43"/>
-      <c r="CK11" s="43"/>
+      <c r="BY11" s="52"/>
+      <c r="BZ11" s="52"/>
+      <c r="CA11" s="52"/>
+      <c r="CB11" s="52"/>
+      <c r="CC11" s="52"/>
+      <c r="CD11" s="52"/>
+      <c r="CE11" s="52"/>
+      <c r="CF11" s="52"/>
+      <c r="CG11" s="52"/>
+      <c r="CH11" s="52"/>
+      <c r="CI11" s="52"/>
+      <c r="CJ11" s="52"/>
+      <c r="CK11" s="52"/>
       <c r="CL11" s="14"/>
-      <c r="CM11" s="43"/>
-      <c r="CN11" s="43"/>
-      <c r="CO11" s="43"/>
-      <c r="CP11" s="43"/>
-      <c r="CQ11" s="43"/>
-      <c r="CR11" s="43"/>
-      <c r="CS11" s="43"/>
-      <c r="CT11" s="43"/>
-      <c r="CU11" s="43"/>
-      <c r="CV11" s="43"/>
-      <c r="CW11" s="43"/>
-      <c r="CX11" s="43"/>
-      <c r="CY11" s="43"/>
-      <c r="CZ11" s="43"/>
+      <c r="CM11" s="52"/>
+      <c r="CN11" s="52"/>
+      <c r="CO11" s="52"/>
+      <c r="CP11" s="52"/>
+      <c r="CQ11" s="52"/>
+      <c r="CR11" s="52"/>
+      <c r="CS11" s="52"/>
+      <c r="CT11" s="52"/>
+      <c r="CU11" s="52"/>
+      <c r="CV11" s="52"/>
+      <c r="CW11" s="52"/>
+      <c r="CX11" s="52"/>
+      <c r="CY11" s="52"/>
+      <c r="CZ11" s="52"/>
     </row>
     <row r="12" spans="2:104" ht="20.25" customHeight="1">
       <c r="B12" s="5">
@@ -4603,34 +4590,34 @@
       <c r="BV12" s="10"/>
       <c r="BW12" s="10"/>
       <c r="BX12" s="13"/>
-      <c r="BY12" s="43"/>
-      <c r="BZ12" s="43"/>
-      <c r="CA12" s="43"/>
-      <c r="CB12" s="43"/>
-      <c r="CC12" s="43"/>
-      <c r="CD12" s="43"/>
-      <c r="CE12" s="43"/>
-      <c r="CF12" s="43"/>
-      <c r="CG12" s="43"/>
-      <c r="CH12" s="43"/>
-      <c r="CI12" s="43"/>
-      <c r="CJ12" s="43"/>
-      <c r="CK12" s="43"/>
+      <c r="BY12" s="52"/>
+      <c r="BZ12" s="52"/>
+      <c r="CA12" s="52"/>
+      <c r="CB12" s="52"/>
+      <c r="CC12" s="52"/>
+      <c r="CD12" s="52"/>
+      <c r="CE12" s="52"/>
+      <c r="CF12" s="52"/>
+      <c r="CG12" s="52"/>
+      <c r="CH12" s="52"/>
+      <c r="CI12" s="52"/>
+      <c r="CJ12" s="52"/>
+      <c r="CK12" s="52"/>
       <c r="CL12" s="14"/>
-      <c r="CM12" s="43"/>
-      <c r="CN12" s="43"/>
-      <c r="CO12" s="43"/>
-      <c r="CP12" s="43"/>
-      <c r="CQ12" s="43"/>
-      <c r="CR12" s="43"/>
-      <c r="CS12" s="43"/>
-      <c r="CT12" s="43"/>
-      <c r="CU12" s="43"/>
-      <c r="CV12" s="43"/>
-      <c r="CW12" s="43"/>
-      <c r="CX12" s="43"/>
-      <c r="CY12" s="43"/>
-      <c r="CZ12" s="43"/>
+      <c r="CM12" s="52"/>
+      <c r="CN12" s="52"/>
+      <c r="CO12" s="52"/>
+      <c r="CP12" s="52"/>
+      <c r="CQ12" s="52"/>
+      <c r="CR12" s="52"/>
+      <c r="CS12" s="52"/>
+      <c r="CT12" s="52"/>
+      <c r="CU12" s="52"/>
+      <c r="CV12" s="52"/>
+      <c r="CW12" s="52"/>
+      <c r="CX12" s="52"/>
+      <c r="CY12" s="52"/>
+      <c r="CZ12" s="52"/>
     </row>
     <row r="13" spans="2:104" ht="20.25" customHeight="1">
       <c r="B13" s="5">
@@ -4793,34 +4780,34 @@
       <c r="BV13" s="10"/>
       <c r="BW13" s="10"/>
       <c r="BX13" s="13"/>
-      <c r="BY13" s="43"/>
-      <c r="BZ13" s="43"/>
-      <c r="CA13" s="43"/>
-      <c r="CB13" s="43"/>
-      <c r="CC13" s="43"/>
-      <c r="CD13" s="43"/>
-      <c r="CE13" s="43"/>
-      <c r="CF13" s="43"/>
-      <c r="CG13" s="43"/>
-      <c r="CH13" s="43"/>
-      <c r="CI13" s="43"/>
-      <c r="CJ13" s="43"/>
-      <c r="CK13" s="43"/>
+      <c r="BY13" s="52"/>
+      <c r="BZ13" s="52"/>
+      <c r="CA13" s="52"/>
+      <c r="CB13" s="52"/>
+      <c r="CC13" s="52"/>
+      <c r="CD13" s="52"/>
+      <c r="CE13" s="52"/>
+      <c r="CF13" s="52"/>
+      <c r="CG13" s="52"/>
+      <c r="CH13" s="52"/>
+      <c r="CI13" s="52"/>
+      <c r="CJ13" s="52"/>
+      <c r="CK13" s="52"/>
       <c r="CL13" s="14"/>
-      <c r="CM13" s="43"/>
-      <c r="CN13" s="43"/>
-      <c r="CO13" s="43"/>
-      <c r="CP13" s="43"/>
-      <c r="CQ13" s="43"/>
-      <c r="CR13" s="43"/>
-      <c r="CS13" s="43"/>
-      <c r="CT13" s="43"/>
-      <c r="CU13" s="43"/>
-      <c r="CV13" s="43"/>
-      <c r="CW13" s="43"/>
-      <c r="CX13" s="43"/>
-      <c r="CY13" s="43"/>
-      <c r="CZ13" s="43"/>
+      <c r="CM13" s="52"/>
+      <c r="CN13" s="52"/>
+      <c r="CO13" s="52"/>
+      <c r="CP13" s="52"/>
+      <c r="CQ13" s="52"/>
+      <c r="CR13" s="52"/>
+      <c r="CS13" s="52"/>
+      <c r="CT13" s="52"/>
+      <c r="CU13" s="52"/>
+      <c r="CV13" s="52"/>
+      <c r="CW13" s="52"/>
+      <c r="CX13" s="52"/>
+      <c r="CY13" s="52"/>
+      <c r="CZ13" s="52"/>
     </row>
     <row r="14" spans="2:104" ht="20.25" customHeight="1">
       <c r="B14" s="5">
@@ -5091,7 +5078,9 @@
         <v>45089</v>
       </c>
       <c r="AL15" s="6"/>
-      <c r="AM15" s="7"/>
+      <c r="AM15" s="7">
+        <v>0.7</v>
+      </c>
       <c r="AN15" s="17"/>
       <c r="AO15" s="6">
         <v>45092</v>
@@ -5149,50 +5138,50 @@
       <c r="BV15" s="10"/>
       <c r="BW15" s="10"/>
       <c r="BX15" s="13"/>
-      <c r="BY15" s="42"/>
-      <c r="BZ15" s="47">
+      <c r="BY15" s="51"/>
+      <c r="BZ15" s="54">
         <v>45100</v>
       </c>
-      <c r="CA15" s="47">
+      <c r="CA15" s="54">
         <v>45100</v>
       </c>
-      <c r="CB15" s="42"/>
-      <c r="CC15" s="42"/>
-      <c r="CD15" s="42"/>
-      <c r="CE15" s="42"/>
-      <c r="CF15" s="42">
+      <c r="CB15" s="51"/>
+      <c r="CC15" s="51"/>
+      <c r="CD15" s="51"/>
+      <c r="CE15" s="51"/>
+      <c r="CF15" s="51">
         <v>45103</v>
       </c>
-      <c r="CG15" s="42">
+      <c r="CG15" s="51">
         <v>45103</v>
       </c>
-      <c r="CH15" s="42"/>
-      <c r="CI15" s="42"/>
-      <c r="CJ15" s="42"/>
-      <c r="CK15" s="42"/>
+      <c r="CH15" s="51"/>
+      <c r="CI15" s="51"/>
+      <c r="CJ15" s="51"/>
+      <c r="CK15" s="51"/>
       <c r="CL15" s="14"/>
-      <c r="CM15" s="42"/>
-      <c r="CN15" s="42">
+      <c r="CM15" s="51"/>
+      <c r="CN15" s="51">
         <v>45104</v>
       </c>
-      <c r="CO15" s="42">
+      <c r="CO15" s="51">
         <v>45104</v>
       </c>
-      <c r="CP15" s="42"/>
-      <c r="CQ15" s="42"/>
-      <c r="CR15" s="42"/>
-      <c r="CS15" s="42"/>
-      <c r="CT15" s="42">
+      <c r="CP15" s="51"/>
+      <c r="CQ15" s="51"/>
+      <c r="CR15" s="51"/>
+      <c r="CS15" s="51"/>
+      <c r="CT15" s="51">
         <v>45105</v>
       </c>
-      <c r="CU15" s="42">
+      <c r="CU15" s="51">
         <v>45105</v>
       </c>
-      <c r="CV15" s="42"/>
-      <c r="CW15" s="42"/>
-      <c r="CX15" s="42"/>
-      <c r="CY15" s="42"/>
-      <c r="CZ15" s="42"/>
+      <c r="CV15" s="51"/>
+      <c r="CW15" s="51"/>
+      <c r="CX15" s="51"/>
+      <c r="CY15" s="51"/>
+      <c r="CZ15" s="51"/>
     </row>
     <row r="16" spans="2:104" ht="20.25" customHeight="1">
       <c r="B16" s="5">
@@ -5293,7 +5282,9 @@
         <v>45089</v>
       </c>
       <c r="AL16" s="6"/>
-      <c r="AM16" s="7"/>
+      <c r="AM16" s="7">
+        <v>0</v>
+      </c>
       <c r="AN16" s="17"/>
       <c r="AO16" s="6">
         <v>45092</v>
@@ -5350,34 +5341,34 @@
       <c r="BU16" s="7"/>
       <c r="BV16" s="10"/>
       <c r="BW16" s="10"/>
-      <c r="BY16" s="43"/>
-      <c r="BZ16" s="48"/>
-      <c r="CA16" s="48"/>
-      <c r="CB16" s="43"/>
-      <c r="CC16" s="43"/>
-      <c r="CD16" s="43"/>
-      <c r="CE16" s="43"/>
-      <c r="CF16" s="43"/>
-      <c r="CG16" s="43"/>
-      <c r="CH16" s="43"/>
-      <c r="CI16" s="43"/>
-      <c r="CJ16" s="43"/>
-      <c r="CK16" s="43"/>
+      <c r="BY16" s="52"/>
+      <c r="BZ16" s="55"/>
+      <c r="CA16" s="55"/>
+      <c r="CB16" s="52"/>
+      <c r="CC16" s="52"/>
+      <c r="CD16" s="52"/>
+      <c r="CE16" s="52"/>
+      <c r="CF16" s="52"/>
+      <c r="CG16" s="52"/>
+      <c r="CH16" s="52"/>
+      <c r="CI16" s="52"/>
+      <c r="CJ16" s="52"/>
+      <c r="CK16" s="52"/>
       <c r="CL16" s="29"/>
-      <c r="CM16" s="43"/>
-      <c r="CN16" s="43"/>
-      <c r="CO16" s="43"/>
-      <c r="CP16" s="43"/>
-      <c r="CQ16" s="43"/>
-      <c r="CR16" s="43"/>
-      <c r="CS16" s="43"/>
-      <c r="CT16" s="43"/>
-      <c r="CU16" s="43"/>
-      <c r="CV16" s="43"/>
-      <c r="CW16" s="43"/>
-      <c r="CX16" s="43"/>
-      <c r="CY16" s="43"/>
-      <c r="CZ16" s="43"/>
+      <c r="CM16" s="52"/>
+      <c r="CN16" s="52"/>
+      <c r="CO16" s="52"/>
+      <c r="CP16" s="52"/>
+      <c r="CQ16" s="52"/>
+      <c r="CR16" s="52"/>
+      <c r="CS16" s="52"/>
+      <c r="CT16" s="52"/>
+      <c r="CU16" s="52"/>
+      <c r="CV16" s="52"/>
+      <c r="CW16" s="52"/>
+      <c r="CX16" s="52"/>
+      <c r="CY16" s="52"/>
+      <c r="CZ16" s="52"/>
     </row>
     <row r="17" spans="2:104" ht="20.25" customHeight="1">
       <c r="B17" s="5">
@@ -5478,7 +5469,9 @@
         <v>45089</v>
       </c>
       <c r="AL17" s="6"/>
-      <c r="AM17" s="7"/>
+      <c r="AM17" s="7">
+        <v>0.7</v>
+      </c>
       <c r="AN17" s="17"/>
       <c r="AO17" s="6">
         <v>45092</v>
@@ -5535,34 +5528,34 @@
       <c r="BU17" s="7"/>
       <c r="BV17" s="10"/>
       <c r="BW17" s="10"/>
-      <c r="BY17" s="43"/>
-      <c r="BZ17" s="48"/>
-      <c r="CA17" s="48"/>
-      <c r="CB17" s="43"/>
-      <c r="CC17" s="43"/>
-      <c r="CD17" s="43"/>
-      <c r="CE17" s="43"/>
-      <c r="CF17" s="43"/>
-      <c r="CG17" s="43"/>
-      <c r="CH17" s="43"/>
-      <c r="CI17" s="43"/>
-      <c r="CJ17" s="43"/>
-      <c r="CK17" s="43"/>
+      <c r="BY17" s="52"/>
+      <c r="BZ17" s="55"/>
+      <c r="CA17" s="55"/>
+      <c r="CB17" s="52"/>
+      <c r="CC17" s="52"/>
+      <c r="CD17" s="52"/>
+      <c r="CE17" s="52"/>
+      <c r="CF17" s="52"/>
+      <c r="CG17" s="52"/>
+      <c r="CH17" s="52"/>
+      <c r="CI17" s="52"/>
+      <c r="CJ17" s="52"/>
+      <c r="CK17" s="52"/>
       <c r="CL17" s="29"/>
-      <c r="CM17" s="43"/>
-      <c r="CN17" s="43"/>
-      <c r="CO17" s="43"/>
-      <c r="CP17" s="43"/>
-      <c r="CQ17" s="43"/>
-      <c r="CR17" s="43"/>
-      <c r="CS17" s="43"/>
-      <c r="CT17" s="43"/>
-      <c r="CU17" s="43"/>
-      <c r="CV17" s="43"/>
-      <c r="CW17" s="43"/>
-      <c r="CX17" s="43"/>
-      <c r="CY17" s="43"/>
-      <c r="CZ17" s="43"/>
+      <c r="CM17" s="52"/>
+      <c r="CN17" s="52"/>
+      <c r="CO17" s="52"/>
+      <c r="CP17" s="52"/>
+      <c r="CQ17" s="52"/>
+      <c r="CR17" s="52"/>
+      <c r="CS17" s="52"/>
+      <c r="CT17" s="52"/>
+      <c r="CU17" s="52"/>
+      <c r="CV17" s="52"/>
+      <c r="CW17" s="52"/>
+      <c r="CX17" s="52"/>
+      <c r="CY17" s="52"/>
+      <c r="CZ17" s="52"/>
     </row>
     <row r="18" spans="2:104" ht="20.25" customHeight="1">
       <c r="B18" s="5">
@@ -5663,7 +5656,9 @@
         <v>45089</v>
       </c>
       <c r="AL18" s="6"/>
-      <c r="AM18" s="7"/>
+      <c r="AM18" s="7">
+        <v>0.25</v>
+      </c>
       <c r="AN18" s="17"/>
       <c r="AO18" s="6">
         <v>45092</v>
@@ -5721,34 +5716,34 @@
       <c r="BV18" s="10"/>
       <c r="BW18" s="10"/>
       <c r="BX18" s="11"/>
-      <c r="BY18" s="43"/>
-      <c r="BZ18" s="48"/>
-      <c r="CA18" s="48"/>
-      <c r="CB18" s="43"/>
-      <c r="CC18" s="43"/>
-      <c r="CD18" s="43"/>
-      <c r="CE18" s="43"/>
-      <c r="CF18" s="43"/>
-      <c r="CG18" s="43"/>
-      <c r="CH18" s="43"/>
-      <c r="CI18" s="43"/>
-      <c r="CJ18" s="43"/>
-      <c r="CK18" s="43"/>
+      <c r="BY18" s="52"/>
+      <c r="BZ18" s="55"/>
+      <c r="CA18" s="55"/>
+      <c r="CB18" s="52"/>
+      <c r="CC18" s="52"/>
+      <c r="CD18" s="52"/>
+      <c r="CE18" s="52"/>
+      <c r="CF18" s="52"/>
+      <c r="CG18" s="52"/>
+      <c r="CH18" s="52"/>
+      <c r="CI18" s="52"/>
+      <c r="CJ18" s="52"/>
+      <c r="CK18" s="52"/>
       <c r="CL18" s="29"/>
-      <c r="CM18" s="43"/>
-      <c r="CN18" s="43"/>
-      <c r="CO18" s="43"/>
-      <c r="CP18" s="43"/>
-      <c r="CQ18" s="43"/>
-      <c r="CR18" s="43"/>
-      <c r="CS18" s="43"/>
-      <c r="CT18" s="43"/>
-      <c r="CU18" s="43"/>
-      <c r="CV18" s="43"/>
-      <c r="CW18" s="43"/>
-      <c r="CX18" s="43"/>
-      <c r="CY18" s="43"/>
-      <c r="CZ18" s="43"/>
+      <c r="CM18" s="52"/>
+      <c r="CN18" s="52"/>
+      <c r="CO18" s="52"/>
+      <c r="CP18" s="52"/>
+      <c r="CQ18" s="52"/>
+      <c r="CR18" s="52"/>
+      <c r="CS18" s="52"/>
+      <c r="CT18" s="52"/>
+      <c r="CU18" s="52"/>
+      <c r="CV18" s="52"/>
+      <c r="CW18" s="52"/>
+      <c r="CX18" s="52"/>
+      <c r="CY18" s="52"/>
+      <c r="CZ18" s="52"/>
     </row>
     <row r="19" spans="2:104" ht="20.25" customHeight="1">
       <c r="B19" s="5">
@@ -5907,34 +5902,34 @@
       <c r="BV19" s="10"/>
       <c r="BW19" s="10"/>
       <c r="BX19" s="11"/>
-      <c r="BY19" s="43"/>
-      <c r="BZ19" s="48"/>
-      <c r="CA19" s="48"/>
-      <c r="CB19" s="43"/>
-      <c r="CC19" s="43"/>
-      <c r="CD19" s="43"/>
-      <c r="CE19" s="43"/>
-      <c r="CF19" s="43"/>
-      <c r="CG19" s="43"/>
-      <c r="CH19" s="43"/>
-      <c r="CI19" s="43"/>
-      <c r="CJ19" s="43"/>
-      <c r="CK19" s="43"/>
+      <c r="BY19" s="52"/>
+      <c r="BZ19" s="55"/>
+      <c r="CA19" s="55"/>
+      <c r="CB19" s="52"/>
+      <c r="CC19" s="52"/>
+      <c r="CD19" s="52"/>
+      <c r="CE19" s="52"/>
+      <c r="CF19" s="52"/>
+      <c r="CG19" s="52"/>
+      <c r="CH19" s="52"/>
+      <c r="CI19" s="52"/>
+      <c r="CJ19" s="52"/>
+      <c r="CK19" s="52"/>
       <c r="CL19" s="29"/>
-      <c r="CM19" s="43"/>
-      <c r="CN19" s="43"/>
-      <c r="CO19" s="43"/>
-      <c r="CP19" s="43"/>
-      <c r="CQ19" s="43"/>
-      <c r="CR19" s="43"/>
-      <c r="CS19" s="43"/>
-      <c r="CT19" s="43"/>
-      <c r="CU19" s="43"/>
-      <c r="CV19" s="43"/>
-      <c r="CW19" s="43"/>
-      <c r="CX19" s="43"/>
-      <c r="CY19" s="43"/>
-      <c r="CZ19" s="43"/>
+      <c r="CM19" s="52"/>
+      <c r="CN19" s="52"/>
+      <c r="CO19" s="52"/>
+      <c r="CP19" s="52"/>
+      <c r="CQ19" s="52"/>
+      <c r="CR19" s="52"/>
+      <c r="CS19" s="52"/>
+      <c r="CT19" s="52"/>
+      <c r="CU19" s="52"/>
+      <c r="CV19" s="52"/>
+      <c r="CW19" s="52"/>
+      <c r="CX19" s="52"/>
+      <c r="CY19" s="52"/>
+      <c r="CZ19" s="52"/>
     </row>
     <row r="20" spans="2:104" ht="20.25" customHeight="1">
       <c r="B20" s="5">
@@ -6035,7 +6030,9 @@
         <v>45089</v>
       </c>
       <c r="AL20" s="6"/>
-      <c r="AM20" s="7"/>
+      <c r="AM20" s="7">
+        <v>0.2</v>
+      </c>
       <c r="AN20" s="17"/>
       <c r="AO20" s="6">
         <v>45092</v>
@@ -6093,34 +6090,34 @@
       <c r="BV20" s="10"/>
       <c r="BW20" s="10"/>
       <c r="BX20" s="11"/>
-      <c r="BY20" s="43"/>
-      <c r="BZ20" s="48"/>
-      <c r="CA20" s="48"/>
-      <c r="CB20" s="43"/>
-      <c r="CC20" s="43"/>
-      <c r="CD20" s="43"/>
-      <c r="CE20" s="43"/>
-      <c r="CF20" s="43"/>
-      <c r="CG20" s="43"/>
-      <c r="CH20" s="43"/>
-      <c r="CI20" s="43"/>
-      <c r="CJ20" s="43"/>
-      <c r="CK20" s="43"/>
+      <c r="BY20" s="52"/>
+      <c r="BZ20" s="55"/>
+      <c r="CA20" s="55"/>
+      <c r="CB20" s="52"/>
+      <c r="CC20" s="52"/>
+      <c r="CD20" s="52"/>
+      <c r="CE20" s="52"/>
+      <c r="CF20" s="52"/>
+      <c r="CG20" s="52"/>
+      <c r="CH20" s="52"/>
+      <c r="CI20" s="52"/>
+      <c r="CJ20" s="52"/>
+      <c r="CK20" s="52"/>
       <c r="CL20" s="29"/>
-      <c r="CM20" s="43"/>
-      <c r="CN20" s="43"/>
-      <c r="CO20" s="43"/>
-      <c r="CP20" s="43"/>
-      <c r="CQ20" s="43"/>
-      <c r="CR20" s="43"/>
-      <c r="CS20" s="43"/>
-      <c r="CT20" s="43"/>
-      <c r="CU20" s="43"/>
-      <c r="CV20" s="43"/>
-      <c r="CW20" s="43"/>
-      <c r="CX20" s="43"/>
-      <c r="CY20" s="43"/>
-      <c r="CZ20" s="43"/>
+      <c r="CM20" s="52"/>
+      <c r="CN20" s="52"/>
+      <c r="CO20" s="52"/>
+      <c r="CP20" s="52"/>
+      <c r="CQ20" s="52"/>
+      <c r="CR20" s="52"/>
+      <c r="CS20" s="52"/>
+      <c r="CT20" s="52"/>
+      <c r="CU20" s="52"/>
+      <c r="CV20" s="52"/>
+      <c r="CW20" s="52"/>
+      <c r="CX20" s="52"/>
+      <c r="CY20" s="52"/>
+      <c r="CZ20" s="52"/>
     </row>
     <row r="21" spans="2:104" ht="20.25" customHeight="1">
       <c r="B21" s="5">
@@ -6279,34 +6276,34 @@
       <c r="BV21" s="10"/>
       <c r="BW21" s="10"/>
       <c r="BX21" s="11"/>
-      <c r="BY21" s="43"/>
-      <c r="BZ21" s="48"/>
-      <c r="CA21" s="48"/>
-      <c r="CB21" s="43"/>
-      <c r="CC21" s="43"/>
-      <c r="CD21" s="43"/>
-      <c r="CE21" s="43"/>
-      <c r="CF21" s="43"/>
-      <c r="CG21" s="43"/>
-      <c r="CH21" s="43"/>
-      <c r="CI21" s="43"/>
-      <c r="CJ21" s="43"/>
-      <c r="CK21" s="43"/>
+      <c r="BY21" s="52"/>
+      <c r="BZ21" s="55"/>
+      <c r="CA21" s="55"/>
+      <c r="CB21" s="52"/>
+      <c r="CC21" s="52"/>
+      <c r="CD21" s="52"/>
+      <c r="CE21" s="52"/>
+      <c r="CF21" s="52"/>
+      <c r="CG21" s="52"/>
+      <c r="CH21" s="52"/>
+      <c r="CI21" s="52"/>
+      <c r="CJ21" s="52"/>
+      <c r="CK21" s="52"/>
       <c r="CL21" s="29"/>
-      <c r="CM21" s="43"/>
-      <c r="CN21" s="43"/>
-      <c r="CO21" s="43"/>
-      <c r="CP21" s="43"/>
-      <c r="CQ21" s="43"/>
-      <c r="CR21" s="43"/>
-      <c r="CS21" s="43"/>
-      <c r="CT21" s="43"/>
-      <c r="CU21" s="43"/>
-      <c r="CV21" s="43"/>
-      <c r="CW21" s="43"/>
-      <c r="CX21" s="43"/>
-      <c r="CY21" s="43"/>
-      <c r="CZ21" s="43"/>
+      <c r="CM21" s="52"/>
+      <c r="CN21" s="52"/>
+      <c r="CO21" s="52"/>
+      <c r="CP21" s="52"/>
+      <c r="CQ21" s="52"/>
+      <c r="CR21" s="52"/>
+      <c r="CS21" s="52"/>
+      <c r="CT21" s="52"/>
+      <c r="CU21" s="52"/>
+      <c r="CV21" s="52"/>
+      <c r="CW21" s="52"/>
+      <c r="CX21" s="52"/>
+      <c r="CY21" s="52"/>
+      <c r="CZ21" s="52"/>
     </row>
     <row r="22" spans="2:104" ht="20.25" customHeight="1">
       <c r="B22" s="5">
@@ -6463,34 +6460,34 @@
       <c r="BV22" s="10"/>
       <c r="BW22" s="10"/>
       <c r="BX22" s="13"/>
-      <c r="BY22" s="44"/>
-      <c r="BZ22" s="49"/>
-      <c r="CA22" s="49"/>
-      <c r="CB22" s="44"/>
-      <c r="CC22" s="44"/>
-      <c r="CD22" s="44"/>
-      <c r="CE22" s="44"/>
-      <c r="CF22" s="44"/>
-      <c r="CG22" s="44"/>
-      <c r="CH22" s="44"/>
-      <c r="CI22" s="44"/>
-      <c r="CJ22" s="44"/>
-      <c r="CK22" s="44"/>
+      <c r="BY22" s="53"/>
+      <c r="BZ22" s="56"/>
+      <c r="CA22" s="56"/>
+      <c r="CB22" s="53"/>
+      <c r="CC22" s="53"/>
+      <c r="CD22" s="53"/>
+      <c r="CE22" s="53"/>
+      <c r="CF22" s="53"/>
+      <c r="CG22" s="53"/>
+      <c r="CH22" s="53"/>
+      <c r="CI22" s="53"/>
+      <c r="CJ22" s="53"/>
+      <c r="CK22" s="53"/>
       <c r="CL22" s="14"/>
-      <c r="CM22" s="44"/>
-      <c r="CN22" s="44"/>
-      <c r="CO22" s="44"/>
-      <c r="CP22" s="44"/>
-      <c r="CQ22" s="44"/>
-      <c r="CR22" s="44"/>
-      <c r="CS22" s="44"/>
-      <c r="CT22" s="44"/>
-      <c r="CU22" s="44"/>
-      <c r="CV22" s="44"/>
-      <c r="CW22" s="44"/>
-      <c r="CX22" s="44"/>
-      <c r="CY22" s="44"/>
-      <c r="CZ22" s="44"/>
+      <c r="CM22" s="53"/>
+      <c r="CN22" s="53"/>
+      <c r="CO22" s="53"/>
+      <c r="CP22" s="53"/>
+      <c r="CQ22" s="53"/>
+      <c r="CR22" s="53"/>
+      <c r="CS22" s="53"/>
+      <c r="CT22" s="53"/>
+      <c r="CU22" s="53"/>
+      <c r="CV22" s="53"/>
+      <c r="CW22" s="53"/>
+      <c r="CX22" s="53"/>
+      <c r="CY22" s="53"/>
+      <c r="CZ22" s="53"/>
     </row>
     <row r="23" spans="2:104" ht="20.25" customHeight="1">
       <c r="BX23" s="11"/>
@@ -6502,6 +6499,119 @@
     </row>
   </sheetData>
   <mergeCells count="137">
+    <mergeCell ref="CM7:CM13"/>
+    <mergeCell ref="CN7:CN13"/>
+    <mergeCell ref="CO7:CO13"/>
+    <mergeCell ref="CW15:CW22"/>
+    <mergeCell ref="CX7:CX13"/>
+    <mergeCell ref="CY7:CY13"/>
+    <mergeCell ref="CZ7:CZ13"/>
+    <mergeCell ref="CQ15:CQ22"/>
+    <mergeCell ref="CR15:CR22"/>
+    <mergeCell ref="CS15:CS22"/>
+    <mergeCell ref="CU7:CU13"/>
+    <mergeCell ref="CV7:CV13"/>
+    <mergeCell ref="CW7:CW13"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="CX15:CX22"/>
+    <mergeCell ref="CY15:CY22"/>
+    <mergeCell ref="CB7:CB13"/>
+    <mergeCell ref="CC7:CC13"/>
+    <mergeCell ref="CD7:CD13"/>
+    <mergeCell ref="CE7:CE13"/>
+    <mergeCell ref="CF7:CF13"/>
+    <mergeCell ref="CG7:CG13"/>
+    <mergeCell ref="CH7:CH13"/>
+    <mergeCell ref="CI7:CI13"/>
+    <mergeCell ref="CJ7:CJ13"/>
+    <mergeCell ref="CK7:CK13"/>
+    <mergeCell ref="CP7:CP13"/>
+    <mergeCell ref="CQ7:CQ13"/>
+    <mergeCell ref="BY15:BY22"/>
+    <mergeCell ref="BZ15:BZ22"/>
+    <mergeCell ref="CA15:CA22"/>
+    <mergeCell ref="CB15:CB22"/>
+    <mergeCell ref="CC15:CC22"/>
+    <mergeCell ref="CD15:CD22"/>
+    <mergeCell ref="CM15:CM22"/>
+    <mergeCell ref="CN15:CN22"/>
+    <mergeCell ref="CO15:CO22"/>
+    <mergeCell ref="CE15:CE22"/>
+    <mergeCell ref="CF15:CF22"/>
+    <mergeCell ref="CG15:CG22"/>
+    <mergeCell ref="BY7:BY13"/>
+    <mergeCell ref="BZ7:BZ13"/>
+    <mergeCell ref="CA7:CA13"/>
+    <mergeCell ref="CZ5:CZ6"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CT5:CU5"/>
+    <mergeCell ref="CV5:CW5"/>
+    <mergeCell ref="CS5:CS6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CH15:CH22"/>
+    <mergeCell ref="CI15:CI22"/>
+    <mergeCell ref="CJ15:CJ22"/>
+    <mergeCell ref="CK15:CK22"/>
+    <mergeCell ref="CZ15:CZ22"/>
+    <mergeCell ref="CP15:CP22"/>
+    <mergeCell ref="CR7:CR13"/>
+    <mergeCell ref="CS7:CS13"/>
+    <mergeCell ref="CT7:CT13"/>
+    <mergeCell ref="CT15:CT22"/>
+    <mergeCell ref="CU15:CU22"/>
+    <mergeCell ref="CV15:CV22"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CK5:CK6"/>
+    <mergeCell ref="CN5:CO5"/>
+    <mergeCell ref="CP5:CQ5"/>
+    <mergeCell ref="CM5:CM6"/>
+    <mergeCell ref="CH5:CI5"/>
+    <mergeCell ref="CE5:CE6"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="CF5:CG5"/>
+    <mergeCell ref="BP4:BW4"/>
+    <mergeCell ref="BY4:CD4"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="Z4:AF4"/>
+    <mergeCell ref="AH4:AM4"/>
+    <mergeCell ref="AN4:AT4"/>
+    <mergeCell ref="AV4:BA4"/>
+    <mergeCell ref="BB4:BH4"/>
+    <mergeCell ref="BJ4:BO4"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="BM5:BN5"/>
+    <mergeCell ref="BQ5:BR5"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="E4:E6"/>
     <mergeCell ref="CE4:CK4"/>
     <mergeCell ref="CM4:CR4"/>
     <mergeCell ref="CS4:CZ4"/>
@@ -6526,119 +6636,6 @@
     <mergeCell ref="L4:R4"/>
     <mergeCell ref="T5:T6"/>
     <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BW5:BW6"/>
-    <mergeCell ref="BY5:BY6"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="BZ5:CA5"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="BP4:BW4"/>
-    <mergeCell ref="BY4:CD4"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="Z4:AF4"/>
-    <mergeCell ref="AH4:AM4"/>
-    <mergeCell ref="AN4:AT4"/>
-    <mergeCell ref="AV4:BA4"/>
-    <mergeCell ref="BB4:BH4"/>
-    <mergeCell ref="BJ4:BO4"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CK5:CK6"/>
-    <mergeCell ref="CN5:CO5"/>
-    <mergeCell ref="CP5:CQ5"/>
-    <mergeCell ref="CM5:CM6"/>
-    <mergeCell ref="CH5:CI5"/>
-    <mergeCell ref="CE5:CE6"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="CF5:CG5"/>
-    <mergeCell ref="CE15:CE22"/>
-    <mergeCell ref="CF15:CF22"/>
-    <mergeCell ref="CG15:CG22"/>
-    <mergeCell ref="BY7:BY13"/>
-    <mergeCell ref="BZ7:BZ13"/>
-    <mergeCell ref="CA7:CA13"/>
-    <mergeCell ref="CZ5:CZ6"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CT5:CU5"/>
-    <mergeCell ref="CV5:CW5"/>
-    <mergeCell ref="CS5:CS6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CH15:CH22"/>
-    <mergeCell ref="CI15:CI22"/>
-    <mergeCell ref="CJ15:CJ22"/>
-    <mergeCell ref="CK15:CK22"/>
-    <mergeCell ref="CZ15:CZ22"/>
-    <mergeCell ref="CP15:CP22"/>
-    <mergeCell ref="CR7:CR13"/>
-    <mergeCell ref="CS7:CS13"/>
-    <mergeCell ref="CT7:CT13"/>
-    <mergeCell ref="CT15:CT22"/>
-    <mergeCell ref="CU15:CU22"/>
-    <mergeCell ref="CV15:CV22"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="CX15:CX22"/>
-    <mergeCell ref="CY15:CY22"/>
-    <mergeCell ref="CB7:CB13"/>
-    <mergeCell ref="CC7:CC13"/>
-    <mergeCell ref="CD7:CD13"/>
-    <mergeCell ref="CE7:CE13"/>
-    <mergeCell ref="CF7:CF13"/>
-    <mergeCell ref="CG7:CG13"/>
-    <mergeCell ref="CH7:CH13"/>
-    <mergeCell ref="CI7:CI13"/>
-    <mergeCell ref="CJ7:CJ13"/>
-    <mergeCell ref="CK7:CK13"/>
-    <mergeCell ref="CP7:CP13"/>
-    <mergeCell ref="CQ7:CQ13"/>
-    <mergeCell ref="BY15:BY22"/>
-    <mergeCell ref="BZ15:BZ22"/>
-    <mergeCell ref="CA15:CA22"/>
-    <mergeCell ref="CB15:CB22"/>
-    <mergeCell ref="CC15:CC22"/>
-    <mergeCell ref="CD15:CD22"/>
-    <mergeCell ref="CM15:CM22"/>
-    <mergeCell ref="CN15:CN22"/>
-    <mergeCell ref="CO15:CO22"/>
-    <mergeCell ref="CM7:CM13"/>
-    <mergeCell ref="CN7:CN13"/>
-    <mergeCell ref="CO7:CO13"/>
-    <mergeCell ref="CW15:CW22"/>
-    <mergeCell ref="CX7:CX13"/>
-    <mergeCell ref="CY7:CY13"/>
-    <mergeCell ref="CZ7:CZ13"/>
-    <mergeCell ref="CQ15:CQ22"/>
-    <mergeCell ref="CR15:CR22"/>
-    <mergeCell ref="CS15:CS22"/>
-    <mergeCell ref="CU7:CU13"/>
-    <mergeCell ref="CV7:CV13"/>
-    <mergeCell ref="CW7:CW13"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="F7:K14">
@@ -6892,7 +6889,7 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <sheetData>
     <row r="5" spans="4:5">
       <c r="D5" t="s">
@@ -6925,7 +6922,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6941,7 +6938,7 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6957,7 +6954,7 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6973,7 +6970,7 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6989,7 +6986,7 @@
       <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7005,7 +7002,7 @@
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <sheetData/>
   <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/スケジュール（2023-06）.xlsx
+++ b/スケジュール（2023-06）.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\o3o__\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57508228-5777-4FED-B6B9-61D63A531B1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90498B84-8094-4376-9CA8-234B5F403E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,11 +26,22 @@
     <sheet name="8_勤怠承認詳細" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="77">
   <si>
     <t>勤怠管理システムWBS</t>
   </si>
@@ -390,6 +401,16 @@
   </si>
   <si>
     <t>陳　徐輝</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>張勇</t>
+    <rPh sb="0" eb="1">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ユウ</t>
+    </rPh>
     <phoneticPr fontId="8"/>
   </si>
 </sst>
@@ -748,33 +769,6 @@
     <xf numFmtId="56" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -782,6 +776,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -793,6 +793,27 @@
     <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
@@ -800,7 +821,14 @@
     <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準_システム管理" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="45">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2824,10 +2852,10 @@
   <dimension ref="B3:CZ24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="AH10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="S7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="AM18" sqref="AM18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
@@ -2836,19 +2864,19 @@
     <col min="2" max="2" width="4.5" style="2" customWidth="1"/>
     <col min="3" max="3" width="16.796875" style="2" customWidth="1"/>
     <col min="4" max="5" width="18.69921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.59765625" style="8" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="8.69921875" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="8" max="11" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="13" style="8" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="18" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="19" max="19" width="2" style="1" customWidth="1"/>
-    <col min="20" max="20" width="13" style="8" customWidth="1" outlineLevel="1"/>
-    <col min="21" max="25" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="26" max="26" width="13" style="8" customWidth="1" outlineLevel="1"/>
-    <col min="27" max="29" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="7.59765625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="31" max="32" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="1.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.59765625" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="8.69921875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="8" max="11" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="12" max="12" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="13" max="18" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="19" max="19" width="2" style="1" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="21" max="25" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="26" max="26" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="27" max="29" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="7.59765625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="31" max="32" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="33" max="33" width="1.59765625" style="1" customWidth="1" collapsed="1"/>
     <col min="34" max="34" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="35" max="39" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="40" max="40" width="13" style="2" customWidth="1" outlineLevel="1"/>
@@ -2888,381 +2916,381 @@
       </c>
     </row>
     <row r="4" spans="2:104" s="20" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42" t="s">
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
+      <c r="J4" s="46"/>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="T4" s="42" t="s">
+      <c r="M4" s="46"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="46"/>
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="T4" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42" t="s">
+      <c r="U4" s="46"/>
+      <c r="V4" s="46"/>
+      <c r="W4" s="46"/>
+      <c r="X4" s="46"/>
+      <c r="Y4" s="46"/>
+      <c r="Z4" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AH4" s="42" t="s">
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="46"/>
+      <c r="AE4" s="46"/>
+      <c r="AF4" s="46"/>
+      <c r="AH4" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="42"/>
-      <c r="AM4" s="42"/>
-      <c r="AN4" s="42" t="s">
+      <c r="AI4" s="46"/>
+      <c r="AJ4" s="46"/>
+      <c r="AK4" s="46"/>
+      <c r="AL4" s="46"/>
+      <c r="AM4" s="46"/>
+      <c r="AN4" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="AO4" s="42"/>
-      <c r="AP4" s="42"/>
-      <c r="AQ4" s="42"/>
-      <c r="AR4" s="42"/>
-      <c r="AS4" s="42"/>
-      <c r="AT4" s="43"/>
+      <c r="AO4" s="46"/>
+      <c r="AP4" s="46"/>
+      <c r="AQ4" s="46"/>
+      <c r="AR4" s="46"/>
+      <c r="AS4" s="46"/>
+      <c r="AT4" s="53"/>
       <c r="AU4" s="21"/>
-      <c r="AV4" s="42" t="s">
+      <c r="AV4" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="AW4" s="42"/>
-      <c r="AX4" s="42"/>
-      <c r="AY4" s="42"/>
-      <c r="AZ4" s="42"/>
-      <c r="BA4" s="42"/>
-      <c r="BB4" s="42" t="s">
+      <c r="AW4" s="46"/>
+      <c r="AX4" s="46"/>
+      <c r="AY4" s="46"/>
+      <c r="AZ4" s="46"/>
+      <c r="BA4" s="46"/>
+      <c r="BB4" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="BC4" s="42"/>
-      <c r="BD4" s="42"/>
-      <c r="BE4" s="42"/>
-      <c r="BF4" s="42"/>
-      <c r="BG4" s="42"/>
-      <c r="BH4" s="42"/>
+      <c r="BC4" s="46"/>
+      <c r="BD4" s="46"/>
+      <c r="BE4" s="46"/>
+      <c r="BF4" s="46"/>
+      <c r="BG4" s="46"/>
+      <c r="BH4" s="46"/>
       <c r="BI4" s="22"/>
-      <c r="BJ4" s="44" t="s">
+      <c r="BJ4" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="BK4" s="42"/>
-      <c r="BL4" s="42"/>
-      <c r="BM4" s="42"/>
-      <c r="BN4" s="42"/>
-      <c r="BO4" s="42"/>
-      <c r="BP4" s="42" t="s">
+      <c r="BK4" s="46"/>
+      <c r="BL4" s="46"/>
+      <c r="BM4" s="46"/>
+      <c r="BN4" s="46"/>
+      <c r="BO4" s="46"/>
+      <c r="BP4" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="BQ4" s="42"/>
-      <c r="BR4" s="42"/>
-      <c r="BS4" s="42"/>
-      <c r="BT4" s="42"/>
-      <c r="BU4" s="42"/>
-      <c r="BV4" s="42"/>
-      <c r="BW4" s="42"/>
-      <c r="BY4" s="42" t="s">
+      <c r="BQ4" s="46"/>
+      <c r="BR4" s="46"/>
+      <c r="BS4" s="46"/>
+      <c r="BT4" s="46"/>
+      <c r="BU4" s="46"/>
+      <c r="BV4" s="46"/>
+      <c r="BW4" s="46"/>
+      <c r="BY4" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="BZ4" s="42"/>
-      <c r="CA4" s="42"/>
-      <c r="CB4" s="42"/>
-      <c r="CC4" s="42"/>
-      <c r="CD4" s="42"/>
-      <c r="CE4" s="42" t="s">
+      <c r="BZ4" s="46"/>
+      <c r="CA4" s="46"/>
+      <c r="CB4" s="46"/>
+      <c r="CC4" s="46"/>
+      <c r="CD4" s="46"/>
+      <c r="CE4" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="CF4" s="42"/>
-      <c r="CG4" s="42"/>
-      <c r="CH4" s="42"/>
-      <c r="CI4" s="42"/>
-      <c r="CJ4" s="42"/>
-      <c r="CK4" s="43"/>
+      <c r="CF4" s="46"/>
+      <c r="CG4" s="46"/>
+      <c r="CH4" s="46"/>
+      <c r="CI4" s="46"/>
+      <c r="CJ4" s="46"/>
+      <c r="CK4" s="53"/>
       <c r="CL4" s="23"/>
-      <c r="CM4" s="44" t="s">
+      <c r="CM4" s="54" t="s">
         <v>16</v>
       </c>
-      <c r="CN4" s="42"/>
-      <c r="CO4" s="42"/>
-      <c r="CP4" s="42"/>
-      <c r="CQ4" s="42"/>
-      <c r="CR4" s="42"/>
-      <c r="CS4" s="42" t="s">
+      <c r="CN4" s="46"/>
+      <c r="CO4" s="46"/>
+      <c r="CP4" s="46"/>
+      <c r="CQ4" s="46"/>
+      <c r="CR4" s="46"/>
+      <c r="CS4" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="CT4" s="42"/>
-      <c r="CU4" s="42"/>
-      <c r="CV4" s="42"/>
-      <c r="CW4" s="42"/>
-      <c r="CX4" s="42"/>
-      <c r="CY4" s="42"/>
-      <c r="CZ4" s="42"/>
+      <c r="CT4" s="46"/>
+      <c r="CU4" s="46"/>
+      <c r="CV4" s="46"/>
+      <c r="CW4" s="46"/>
+      <c r="CX4" s="46"/>
+      <c r="CY4" s="46"/>
+      <c r="CZ4" s="46"/>
     </row>
     <row r="5" spans="2:104" ht="21.6" customHeight="1">
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="42" t="s">
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45" t="s">
+      <c r="H5" s="55"/>
+      <c r="I5" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="45"/>
-      <c r="K5" s="46" t="s">
+      <c r="J5" s="55"/>
+      <c r="K5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="42" t="s">
+      <c r="L5" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="45" t="s">
+      <c r="M5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45" t="s">
+      <c r="N5" s="55"/>
+      <c r="O5" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="46" t="s">
+      <c r="P5" s="55"/>
+      <c r="Q5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="46" t="s">
+      <c r="R5" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="42" t="s">
+      <c r="T5" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="45" t="s">
+      <c r="U5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45" t="s">
+      <c r="V5" s="55"/>
+      <c r="W5" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="46" t="s">
+      <c r="X5" s="55"/>
+      <c r="Y5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="42" t="s">
+      <c r="Z5" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="AA5" s="45" t="s">
+      <c r="AA5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45" t="s">
+      <c r="AB5" s="55"/>
+      <c r="AC5" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="46" t="s">
+      <c r="AD5" s="55"/>
+      <c r="AE5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="AF5" s="46" t="s">
+      <c r="AF5" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="AH5" s="42" t="s">
+      <c r="AH5" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="AI5" s="45" t="s">
+      <c r="AI5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="AJ5" s="45"/>
-      <c r="AK5" s="45" t="s">
+      <c r="AJ5" s="55"/>
+      <c r="AK5" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="46" t="s">
+      <c r="AL5" s="55"/>
+      <c r="AM5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="AN5" s="42" t="s">
+      <c r="AN5" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="AO5" s="45" t="s">
+      <c r="AO5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="AP5" s="45"/>
-      <c r="AQ5" s="45" t="s">
+      <c r="AP5" s="55"/>
+      <c r="AQ5" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="AR5" s="45"/>
-      <c r="AS5" s="46" t="s">
+      <c r="AR5" s="55"/>
+      <c r="AS5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="AT5" s="48" t="s">
+      <c r="AT5" s="52" t="s">
         <v>23</v>
       </c>
       <c r="AU5" s="13"/>
-      <c r="AV5" s="42" t="s">
+      <c r="AV5" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="AW5" s="45" t="s">
+      <c r="AW5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="AX5" s="45"/>
-      <c r="AY5" s="45" t="s">
+      <c r="AX5" s="55"/>
+      <c r="AY5" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="AZ5" s="45"/>
-      <c r="BA5" s="46" t="s">
+      <c r="AZ5" s="55"/>
+      <c r="BA5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="BB5" s="42" t="s">
+      <c r="BB5" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="BC5" s="45" t="s">
+      <c r="BC5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="BD5" s="45"/>
-      <c r="BE5" s="45" t="s">
+      <c r="BD5" s="55"/>
+      <c r="BE5" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="BF5" s="45"/>
-      <c r="BG5" s="46" t="s">
+      <c r="BF5" s="55"/>
+      <c r="BG5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="BH5" s="46" t="s">
+      <c r="BH5" s="45" t="s">
         <v>23</v>
       </c>
       <c r="BI5" s="14"/>
-      <c r="BJ5" s="44" t="s">
+      <c r="BJ5" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="BK5" s="45" t="s">
+      <c r="BK5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="BL5" s="45"/>
-      <c r="BM5" s="45" t="s">
+      <c r="BL5" s="55"/>
+      <c r="BM5" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="BN5" s="45"/>
-      <c r="BO5" s="46" t="s">
+      <c r="BN5" s="55"/>
+      <c r="BO5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="BP5" s="42" t="s">
+      <c r="BP5" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="BQ5" s="45" t="s">
+      <c r="BQ5" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="BR5" s="45"/>
-      <c r="BS5" s="45" t="s">
+      <c r="BR5" s="55"/>
+      <c r="BS5" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="BT5" s="45"/>
-      <c r="BU5" s="46" t="s">
+      <c r="BT5" s="55"/>
+      <c r="BU5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="BV5" s="46" t="s">
+      <c r="BV5" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="BW5" s="46" t="s">
+      <c r="BW5" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="BY5" s="42" t="s">
+      <c r="BY5" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="BZ5" s="49" t="s">
+      <c r="BZ5" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="CA5" s="49"/>
-      <c r="CB5" s="49" t="s">
+      <c r="CA5" s="51"/>
+      <c r="CB5" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="CC5" s="49"/>
-      <c r="CD5" s="46" t="s">
+      <c r="CC5" s="51"/>
+      <c r="CD5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="CE5" s="42" t="s">
+      <c r="CE5" s="46" t="s">
         <v>22</v>
       </c>
       <c r="CF5" s="50" t="s">
         <v>19</v>
       </c>
       <c r="CG5" s="50"/>
-      <c r="CH5" s="49" t="s">
+      <c r="CH5" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="CI5" s="49"/>
-      <c r="CJ5" s="46" t="s">
+      <c r="CI5" s="51"/>
+      <c r="CJ5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="CK5" s="48" t="s">
+      <c r="CK5" s="52" t="s">
         <v>23</v>
       </c>
       <c r="CL5" s="11"/>
-      <c r="CM5" s="44" t="s">
+      <c r="CM5" s="54" t="s">
         <v>18</v>
       </c>
       <c r="CN5" s="50" t="s">
         <v>19</v>
       </c>
       <c r="CO5" s="50"/>
-      <c r="CP5" s="49" t="s">
+      <c r="CP5" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="CQ5" s="49"/>
-      <c r="CR5" s="46" t="s">
+      <c r="CQ5" s="51"/>
+      <c r="CR5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="CS5" s="42" t="s">
+      <c r="CS5" s="46" t="s">
         <v>22</v>
       </c>
       <c r="CT5" s="50" t="s">
         <v>19</v>
       </c>
       <c r="CU5" s="50"/>
-      <c r="CV5" s="49" t="s">
+      <c r="CV5" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="CW5" s="49"/>
-      <c r="CX5" s="46" t="s">
+      <c r="CW5" s="51"/>
+      <c r="CX5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="CY5" s="46" t="s">
+      <c r="CY5" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="CZ5" s="46" t="s">
+      <c r="CZ5" s="45" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:104" ht="14.4">
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="42"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="46"/>
       <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3275,8 +3303,8 @@
       <c r="J6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46"/>
       <c r="M6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3289,9 +3317,9 @@
       <c r="P6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="T6" s="42"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="T6" s="46"/>
       <c r="U6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3304,8 +3332,8 @@
       <c r="X6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
+      <c r="Y6" s="46"/>
+      <c r="Z6" s="46"/>
       <c r="AA6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3318,9 +3346,9 @@
       <c r="AD6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AE6" s="42"/>
-      <c r="AF6" s="42"/>
-      <c r="AH6" s="42"/>
+      <c r="AE6" s="46"/>
+      <c r="AF6" s="46"/>
+      <c r="AH6" s="46"/>
       <c r="AI6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3333,8 +3361,8 @@
       <c r="AL6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AM6" s="42"/>
-      <c r="AN6" s="42"/>
+      <c r="AM6" s="46"/>
+      <c r="AN6" s="46"/>
       <c r="AO6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3347,10 +3375,10 @@
       <c r="AR6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AS6" s="42"/>
-      <c r="AT6" s="43"/>
+      <c r="AS6" s="46"/>
+      <c r="AT6" s="53"/>
       <c r="AU6" s="13"/>
-      <c r="AV6" s="42"/>
+      <c r="AV6" s="46"/>
       <c r="AW6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3363,8 +3391,8 @@
       <c r="AZ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BA6" s="42"/>
-      <c r="BB6" s="42"/>
+      <c r="BA6" s="46"/>
+      <c r="BB6" s="46"/>
       <c r="BC6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3377,10 +3405,10 @@
       <c r="BF6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BG6" s="42"/>
-      <c r="BH6" s="42"/>
+      <c r="BG6" s="46"/>
+      <c r="BH6" s="46"/>
       <c r="BI6" s="14"/>
-      <c r="BJ6" s="44"/>
+      <c r="BJ6" s="54"/>
       <c r="BK6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3393,8 +3421,8 @@
       <c r="BN6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BO6" s="42"/>
-      <c r="BP6" s="42"/>
+      <c r="BO6" s="46"/>
+      <c r="BP6" s="46"/>
       <c r="BQ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3407,10 +3435,10 @@
       <c r="BT6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BU6" s="42"/>
-      <c r="BV6" s="42"/>
-      <c r="BW6" s="42"/>
-      <c r="BY6" s="42"/>
+      <c r="BU6" s="46"/>
+      <c r="BV6" s="46"/>
+      <c r="BW6" s="46"/>
+      <c r="BY6" s="46"/>
       <c r="BZ6" s="31" t="s">
         <v>25</v>
       </c>
@@ -3423,8 +3451,8 @@
       <c r="CC6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CD6" s="42"/>
-      <c r="CE6" s="42"/>
+      <c r="CD6" s="46"/>
+      <c r="CE6" s="46"/>
       <c r="CF6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3437,10 +3465,10 @@
       <c r="CI6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CJ6" s="42"/>
-      <c r="CK6" s="43"/>
+      <c r="CJ6" s="46"/>
+      <c r="CK6" s="53"/>
       <c r="CL6" s="11"/>
-      <c r="CM6" s="44"/>
+      <c r="CM6" s="54"/>
       <c r="CN6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3453,8 +3481,8 @@
       <c r="CQ6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CR6" s="42"/>
-      <c r="CS6" s="42"/>
+      <c r="CR6" s="46"/>
+      <c r="CS6" s="46"/>
       <c r="CT6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3467,9 +3495,9 @@
       <c r="CW6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CX6" s="42"/>
-      <c r="CY6" s="42"/>
-      <c r="CZ6" s="42"/>
+      <c r="CX6" s="46"/>
+      <c r="CY6" s="46"/>
+      <c r="CZ6" s="46"/>
     </row>
     <row r="7" spans="2:104" ht="20.25" customHeight="1">
       <c r="B7" s="5">
@@ -3503,7 +3531,9 @@
       <c r="K7" s="7">
         <v>1</v>
       </c>
-      <c r="L7" s="17"/>
+      <c r="L7" s="17" t="s">
+        <v>76</v>
+      </c>
       <c r="M7" s="6">
         <v>45082</v>
       </c>
@@ -3538,8 +3568,8 @@
       <c r="Y7" s="39">
         <v>1</v>
       </c>
-      <c r="Z7" s="37" t="s">
-        <v>60</v>
+      <c r="Z7" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="AA7" s="38">
         <v>45084</v>
@@ -3631,50 +3661,50 @@
       <c r="BU7" s="7"/>
       <c r="BV7" s="10"/>
       <c r="BW7" s="10"/>
-      <c r="BY7" s="51"/>
-      <c r="BZ7" s="51">
+      <c r="BY7" s="42"/>
+      <c r="BZ7" s="42">
         <v>45100</v>
       </c>
-      <c r="CA7" s="51">
+      <c r="CA7" s="42">
         <v>45100</v>
       </c>
-      <c r="CB7" s="51"/>
-      <c r="CC7" s="51"/>
-      <c r="CD7" s="51"/>
-      <c r="CE7" s="51"/>
-      <c r="CF7" s="51">
+      <c r="CB7" s="42"/>
+      <c r="CC7" s="42"/>
+      <c r="CD7" s="42"/>
+      <c r="CE7" s="42"/>
+      <c r="CF7" s="42">
         <v>45103</v>
       </c>
-      <c r="CG7" s="51">
+      <c r="CG7" s="42">
         <v>45103</v>
       </c>
-      <c r="CH7" s="51"/>
-      <c r="CI7" s="51"/>
-      <c r="CJ7" s="51"/>
-      <c r="CK7" s="51"/>
+      <c r="CH7" s="42"/>
+      <c r="CI7" s="42"/>
+      <c r="CJ7" s="42"/>
+      <c r="CK7" s="42"/>
       <c r="CL7" s="14"/>
-      <c r="CM7" s="51"/>
-      <c r="CN7" s="51">
+      <c r="CM7" s="42"/>
+      <c r="CN7" s="42">
         <v>45104</v>
       </c>
-      <c r="CO7" s="51">
+      <c r="CO7" s="42">
         <v>45104</v>
       </c>
-      <c r="CP7" s="51"/>
-      <c r="CQ7" s="51"/>
-      <c r="CR7" s="51"/>
-      <c r="CS7" s="51"/>
-      <c r="CT7" s="51">
+      <c r="CP7" s="42"/>
+      <c r="CQ7" s="42"/>
+      <c r="CR7" s="42"/>
+      <c r="CS7" s="42"/>
+      <c r="CT7" s="42">
         <v>45105</v>
       </c>
-      <c r="CU7" s="51">
+      <c r="CU7" s="42">
         <v>45105</v>
       </c>
-      <c r="CV7" s="51"/>
-      <c r="CW7" s="51"/>
-      <c r="CX7" s="51"/>
-      <c r="CY7" s="51"/>
-      <c r="CZ7" s="51"/>
+      <c r="CV7" s="42"/>
+      <c r="CW7" s="42"/>
+      <c r="CX7" s="42"/>
+      <c r="CY7" s="42"/>
+      <c r="CZ7" s="42"/>
     </row>
     <row r="8" spans="2:104" ht="20.25" customHeight="1">
       <c r="B8" s="5">
@@ -3706,9 +3736,11 @@
         <v>45082</v>
       </c>
       <c r="K8" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="L8" s="17"/>
+        <v>1</v>
+      </c>
+      <c r="L8" s="17" t="s">
+        <v>76</v>
+      </c>
       <c r="M8" s="6">
         <v>45082</v>
       </c>
@@ -3743,8 +3775,8 @@
       <c r="Y8" s="39">
         <v>1</v>
       </c>
-      <c r="Z8" s="37" t="s">
-        <v>61</v>
+      <c r="Z8" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="AA8" s="38">
         <v>45084</v>
@@ -3836,34 +3868,34 @@
       <c r="BU8" s="7"/>
       <c r="BV8" s="10"/>
       <c r="BW8" s="10"/>
-      <c r="BY8" s="52"/>
-      <c r="BZ8" s="52"/>
-      <c r="CA8" s="52"/>
-      <c r="CB8" s="52"/>
-      <c r="CC8" s="52"/>
-      <c r="CD8" s="52"/>
-      <c r="CE8" s="52"/>
-      <c r="CF8" s="52"/>
-      <c r="CG8" s="52"/>
-      <c r="CH8" s="52"/>
-      <c r="CI8" s="52"/>
-      <c r="CJ8" s="52"/>
-      <c r="CK8" s="52"/>
+      <c r="BY8" s="43"/>
+      <c r="BZ8" s="43"/>
+      <c r="CA8" s="43"/>
+      <c r="CB8" s="43"/>
+      <c r="CC8" s="43"/>
+      <c r="CD8" s="43"/>
+      <c r="CE8" s="43"/>
+      <c r="CF8" s="43"/>
+      <c r="CG8" s="43"/>
+      <c r="CH8" s="43"/>
+      <c r="CI8" s="43"/>
+      <c r="CJ8" s="43"/>
+      <c r="CK8" s="43"/>
       <c r="CL8" s="14"/>
-      <c r="CM8" s="52"/>
-      <c r="CN8" s="52"/>
-      <c r="CO8" s="52"/>
-      <c r="CP8" s="52"/>
-      <c r="CQ8" s="52"/>
-      <c r="CR8" s="52"/>
-      <c r="CS8" s="52"/>
-      <c r="CT8" s="52"/>
-      <c r="CU8" s="52"/>
-      <c r="CV8" s="52"/>
-      <c r="CW8" s="52"/>
-      <c r="CX8" s="52"/>
-      <c r="CY8" s="52"/>
-      <c r="CZ8" s="52"/>
+      <c r="CM8" s="43"/>
+      <c r="CN8" s="43"/>
+      <c r="CO8" s="43"/>
+      <c r="CP8" s="43"/>
+      <c r="CQ8" s="43"/>
+      <c r="CR8" s="43"/>
+      <c r="CS8" s="43"/>
+      <c r="CT8" s="43"/>
+      <c r="CU8" s="43"/>
+      <c r="CV8" s="43"/>
+      <c r="CW8" s="43"/>
+      <c r="CX8" s="43"/>
+      <c r="CY8" s="43"/>
+      <c r="CZ8" s="43"/>
     </row>
     <row r="9" spans="2:104" ht="20.25" customHeight="1">
       <c r="B9" s="5">
@@ -3897,7 +3929,9 @@
       <c r="K9" s="7">
         <v>1</v>
       </c>
-      <c r="L9" s="17"/>
+      <c r="L9" s="17" t="s">
+        <v>76</v>
+      </c>
       <c r="M9" s="6">
         <v>45082</v>
       </c>
@@ -3932,8 +3966,8 @@
       <c r="Y9" s="39">
         <v>1</v>
       </c>
-      <c r="Z9" s="37" t="s">
-        <v>62</v>
+      <c r="Z9" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="AA9" s="38">
         <v>45084</v>
@@ -4024,34 +4058,34 @@
       <c r="BV9" s="10"/>
       <c r="BW9" s="10"/>
       <c r="BX9" s="13"/>
-      <c r="BY9" s="52"/>
-      <c r="BZ9" s="52"/>
-      <c r="CA9" s="52"/>
-      <c r="CB9" s="52"/>
-      <c r="CC9" s="52"/>
-      <c r="CD9" s="52"/>
-      <c r="CE9" s="52"/>
-      <c r="CF9" s="52"/>
-      <c r="CG9" s="52"/>
-      <c r="CH9" s="52"/>
-      <c r="CI9" s="52"/>
-      <c r="CJ9" s="52"/>
-      <c r="CK9" s="52"/>
+      <c r="BY9" s="43"/>
+      <c r="BZ9" s="43"/>
+      <c r="CA9" s="43"/>
+      <c r="CB9" s="43"/>
+      <c r="CC9" s="43"/>
+      <c r="CD9" s="43"/>
+      <c r="CE9" s="43"/>
+      <c r="CF9" s="43"/>
+      <c r="CG9" s="43"/>
+      <c r="CH9" s="43"/>
+      <c r="CI9" s="43"/>
+      <c r="CJ9" s="43"/>
+      <c r="CK9" s="43"/>
       <c r="CL9" s="14"/>
-      <c r="CM9" s="52"/>
-      <c r="CN9" s="52"/>
-      <c r="CO9" s="52"/>
-      <c r="CP9" s="52"/>
-      <c r="CQ9" s="52"/>
-      <c r="CR9" s="52"/>
-      <c r="CS9" s="52"/>
-      <c r="CT9" s="52"/>
-      <c r="CU9" s="52"/>
-      <c r="CV9" s="52"/>
-      <c r="CW9" s="52"/>
-      <c r="CX9" s="52"/>
-      <c r="CY9" s="52"/>
-      <c r="CZ9" s="52"/>
+      <c r="CM9" s="43"/>
+      <c r="CN9" s="43"/>
+      <c r="CO9" s="43"/>
+      <c r="CP9" s="43"/>
+      <c r="CQ9" s="43"/>
+      <c r="CR9" s="43"/>
+      <c r="CS9" s="43"/>
+      <c r="CT9" s="43"/>
+      <c r="CU9" s="43"/>
+      <c r="CV9" s="43"/>
+      <c r="CW9" s="43"/>
+      <c r="CX9" s="43"/>
+      <c r="CY9" s="43"/>
+      <c r="CZ9" s="43"/>
     </row>
     <row r="10" spans="2:104" ht="20.25" customHeight="1">
       <c r="B10" s="5">
@@ -4085,7 +4119,9 @@
       <c r="K10" s="7">
         <v>1</v>
       </c>
-      <c r="L10" s="17"/>
+      <c r="L10" s="17" t="s">
+        <v>76</v>
+      </c>
       <c r="M10" s="6">
         <v>45082</v>
       </c>
@@ -4120,8 +4156,8 @@
       <c r="Y10" s="39">
         <v>1</v>
       </c>
-      <c r="Z10" s="37" t="s">
-        <v>63</v>
+      <c r="Z10" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="AA10" s="38">
         <v>45084</v>
@@ -4214,34 +4250,34 @@
       <c r="BV10" s="10"/>
       <c r="BW10" s="10"/>
       <c r="BX10" s="13"/>
-      <c r="BY10" s="52"/>
-      <c r="BZ10" s="52"/>
-      <c r="CA10" s="52"/>
-      <c r="CB10" s="52"/>
-      <c r="CC10" s="52"/>
-      <c r="CD10" s="52"/>
-      <c r="CE10" s="52"/>
-      <c r="CF10" s="52"/>
-      <c r="CG10" s="52"/>
-      <c r="CH10" s="52"/>
-      <c r="CI10" s="52"/>
-      <c r="CJ10" s="52"/>
-      <c r="CK10" s="52"/>
+      <c r="BY10" s="43"/>
+      <c r="BZ10" s="43"/>
+      <c r="CA10" s="43"/>
+      <c r="CB10" s="43"/>
+      <c r="CC10" s="43"/>
+      <c r="CD10" s="43"/>
+      <c r="CE10" s="43"/>
+      <c r="CF10" s="43"/>
+      <c r="CG10" s="43"/>
+      <c r="CH10" s="43"/>
+      <c r="CI10" s="43"/>
+      <c r="CJ10" s="43"/>
+      <c r="CK10" s="43"/>
       <c r="CL10" s="14"/>
-      <c r="CM10" s="52"/>
-      <c r="CN10" s="52"/>
-      <c r="CO10" s="52"/>
-      <c r="CP10" s="52"/>
-      <c r="CQ10" s="52"/>
-      <c r="CR10" s="52"/>
-      <c r="CS10" s="52"/>
-      <c r="CT10" s="52"/>
-      <c r="CU10" s="52"/>
-      <c r="CV10" s="52"/>
-      <c r="CW10" s="52"/>
-      <c r="CX10" s="52"/>
-      <c r="CY10" s="52"/>
-      <c r="CZ10" s="52"/>
+      <c r="CM10" s="43"/>
+      <c r="CN10" s="43"/>
+      <c r="CO10" s="43"/>
+      <c r="CP10" s="43"/>
+      <c r="CQ10" s="43"/>
+      <c r="CR10" s="43"/>
+      <c r="CS10" s="43"/>
+      <c r="CT10" s="43"/>
+      <c r="CU10" s="43"/>
+      <c r="CV10" s="43"/>
+      <c r="CW10" s="43"/>
+      <c r="CX10" s="43"/>
+      <c r="CY10" s="43"/>
+      <c r="CZ10" s="43"/>
     </row>
     <row r="11" spans="2:104" ht="20.25" customHeight="1">
       <c r="B11" s="5">
@@ -4275,7 +4311,9 @@
       <c r="K11" s="7">
         <v>1</v>
       </c>
-      <c r="L11" s="17"/>
+      <c r="L11" s="17" t="s">
+        <v>76</v>
+      </c>
       <c r="M11" s="6">
         <v>45082</v>
       </c>
@@ -4310,8 +4348,8 @@
       <c r="Y11" s="39">
         <v>1</v>
       </c>
-      <c r="Z11" s="37" t="s">
-        <v>64</v>
+      <c r="Z11" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="AA11" s="38">
         <v>45084</v>
@@ -4402,34 +4440,34 @@
       <c r="BV11" s="10"/>
       <c r="BW11" s="10"/>
       <c r="BX11" s="13"/>
-      <c r="BY11" s="52"/>
-      <c r="BZ11" s="52"/>
-      <c r="CA11" s="52"/>
-      <c r="CB11" s="52"/>
-      <c r="CC11" s="52"/>
-      <c r="CD11" s="52"/>
-      <c r="CE11" s="52"/>
-      <c r="CF11" s="52"/>
-      <c r="CG11" s="52"/>
-      <c r="CH11" s="52"/>
-      <c r="CI11" s="52"/>
-      <c r="CJ11" s="52"/>
-      <c r="CK11" s="52"/>
+      <c r="BY11" s="43"/>
+      <c r="BZ11" s="43"/>
+      <c r="CA11" s="43"/>
+      <c r="CB11" s="43"/>
+      <c r="CC11" s="43"/>
+      <c r="CD11" s="43"/>
+      <c r="CE11" s="43"/>
+      <c r="CF11" s="43"/>
+      <c r="CG11" s="43"/>
+      <c r="CH11" s="43"/>
+      <c r="CI11" s="43"/>
+      <c r="CJ11" s="43"/>
+      <c r="CK11" s="43"/>
       <c r="CL11" s="14"/>
-      <c r="CM11" s="52"/>
-      <c r="CN11" s="52"/>
-      <c r="CO11" s="52"/>
-      <c r="CP11" s="52"/>
-      <c r="CQ11" s="52"/>
-      <c r="CR11" s="52"/>
-      <c r="CS11" s="52"/>
-      <c r="CT11" s="52"/>
-      <c r="CU11" s="52"/>
-      <c r="CV11" s="52"/>
-      <c r="CW11" s="52"/>
-      <c r="CX11" s="52"/>
-      <c r="CY11" s="52"/>
-      <c r="CZ11" s="52"/>
+      <c r="CM11" s="43"/>
+      <c r="CN11" s="43"/>
+      <c r="CO11" s="43"/>
+      <c r="CP11" s="43"/>
+      <c r="CQ11" s="43"/>
+      <c r="CR11" s="43"/>
+      <c r="CS11" s="43"/>
+      <c r="CT11" s="43"/>
+      <c r="CU11" s="43"/>
+      <c r="CV11" s="43"/>
+      <c r="CW11" s="43"/>
+      <c r="CX11" s="43"/>
+      <c r="CY11" s="43"/>
+      <c r="CZ11" s="43"/>
     </row>
     <row r="12" spans="2:104" ht="20.25" customHeight="1">
       <c r="B12" s="5">
@@ -4463,7 +4501,9 @@
       <c r="K12" s="7">
         <v>1</v>
       </c>
-      <c r="L12" s="17"/>
+      <c r="L12" s="17" t="s">
+        <v>76</v>
+      </c>
       <c r="M12" s="6">
         <v>45082</v>
       </c>
@@ -4498,8 +4538,8 @@
       <c r="Y12" s="39">
         <v>1</v>
       </c>
-      <c r="Z12" s="37" t="s">
-        <v>65</v>
+      <c r="Z12" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="AA12" s="38">
         <v>45084</v>
@@ -4590,34 +4630,34 @@
       <c r="BV12" s="10"/>
       <c r="BW12" s="10"/>
       <c r="BX12" s="13"/>
-      <c r="BY12" s="52"/>
-      <c r="BZ12" s="52"/>
-      <c r="CA12" s="52"/>
-      <c r="CB12" s="52"/>
-      <c r="CC12" s="52"/>
-      <c r="CD12" s="52"/>
-      <c r="CE12" s="52"/>
-      <c r="CF12" s="52"/>
-      <c r="CG12" s="52"/>
-      <c r="CH12" s="52"/>
-      <c r="CI12" s="52"/>
-      <c r="CJ12" s="52"/>
-      <c r="CK12" s="52"/>
+      <c r="BY12" s="43"/>
+      <c r="BZ12" s="43"/>
+      <c r="CA12" s="43"/>
+      <c r="CB12" s="43"/>
+      <c r="CC12" s="43"/>
+      <c r="CD12" s="43"/>
+      <c r="CE12" s="43"/>
+      <c r="CF12" s="43"/>
+      <c r="CG12" s="43"/>
+      <c r="CH12" s="43"/>
+      <c r="CI12" s="43"/>
+      <c r="CJ12" s="43"/>
+      <c r="CK12" s="43"/>
       <c r="CL12" s="14"/>
-      <c r="CM12" s="52"/>
-      <c r="CN12" s="52"/>
-      <c r="CO12" s="52"/>
-      <c r="CP12" s="52"/>
-      <c r="CQ12" s="52"/>
-      <c r="CR12" s="52"/>
-      <c r="CS12" s="52"/>
-      <c r="CT12" s="52"/>
-      <c r="CU12" s="52"/>
-      <c r="CV12" s="52"/>
-      <c r="CW12" s="52"/>
-      <c r="CX12" s="52"/>
-      <c r="CY12" s="52"/>
-      <c r="CZ12" s="52"/>
+      <c r="CM12" s="43"/>
+      <c r="CN12" s="43"/>
+      <c r="CO12" s="43"/>
+      <c r="CP12" s="43"/>
+      <c r="CQ12" s="43"/>
+      <c r="CR12" s="43"/>
+      <c r="CS12" s="43"/>
+      <c r="CT12" s="43"/>
+      <c r="CU12" s="43"/>
+      <c r="CV12" s="43"/>
+      <c r="CW12" s="43"/>
+      <c r="CX12" s="43"/>
+      <c r="CY12" s="43"/>
+      <c r="CZ12" s="43"/>
     </row>
     <row r="13" spans="2:104" ht="20.25" customHeight="1">
       <c r="B13" s="5">
@@ -4651,7 +4691,9 @@
       <c r="K13" s="7">
         <v>1</v>
       </c>
-      <c r="L13" s="17"/>
+      <c r="L13" s="17" t="s">
+        <v>76</v>
+      </c>
       <c r="M13" s="6">
         <v>45082</v>
       </c>
@@ -4686,8 +4728,8 @@
       <c r="Y13" s="39">
         <v>0.6</v>
       </c>
-      <c r="Z13" s="37" t="s">
-        <v>66</v>
+      <c r="Z13" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="AA13" s="38">
         <v>45084</v>
@@ -4780,34 +4822,34 @@
       <c r="BV13" s="10"/>
       <c r="BW13" s="10"/>
       <c r="BX13" s="13"/>
-      <c r="BY13" s="52"/>
-      <c r="BZ13" s="52"/>
-      <c r="CA13" s="52"/>
-      <c r="CB13" s="52"/>
-      <c r="CC13" s="52"/>
-      <c r="CD13" s="52"/>
-      <c r="CE13" s="52"/>
-      <c r="CF13" s="52"/>
-      <c r="CG13" s="52"/>
-      <c r="CH13" s="52"/>
-      <c r="CI13" s="52"/>
-      <c r="CJ13" s="52"/>
-      <c r="CK13" s="52"/>
+      <c r="BY13" s="43"/>
+      <c r="BZ13" s="43"/>
+      <c r="CA13" s="43"/>
+      <c r="CB13" s="43"/>
+      <c r="CC13" s="43"/>
+      <c r="CD13" s="43"/>
+      <c r="CE13" s="43"/>
+      <c r="CF13" s="43"/>
+      <c r="CG13" s="43"/>
+      <c r="CH13" s="43"/>
+      <c r="CI13" s="43"/>
+      <c r="CJ13" s="43"/>
+      <c r="CK13" s="43"/>
       <c r="CL13" s="14"/>
-      <c r="CM13" s="52"/>
-      <c r="CN13" s="52"/>
-      <c r="CO13" s="52"/>
-      <c r="CP13" s="52"/>
-      <c r="CQ13" s="52"/>
-      <c r="CR13" s="52"/>
-      <c r="CS13" s="52"/>
-      <c r="CT13" s="52"/>
-      <c r="CU13" s="52"/>
-      <c r="CV13" s="52"/>
-      <c r="CW13" s="52"/>
-      <c r="CX13" s="52"/>
-      <c r="CY13" s="52"/>
-      <c r="CZ13" s="52"/>
+      <c r="CM13" s="43"/>
+      <c r="CN13" s="43"/>
+      <c r="CO13" s="43"/>
+      <c r="CP13" s="43"/>
+      <c r="CQ13" s="43"/>
+      <c r="CR13" s="43"/>
+      <c r="CS13" s="43"/>
+      <c r="CT13" s="43"/>
+      <c r="CU13" s="43"/>
+      <c r="CV13" s="43"/>
+      <c r="CW13" s="43"/>
+      <c r="CX13" s="43"/>
+      <c r="CY13" s="43"/>
+      <c r="CZ13" s="43"/>
     </row>
     <row r="14" spans="2:104" ht="20.25" customHeight="1">
       <c r="B14" s="5">
@@ -4841,7 +4883,9 @@
       <c r="K14" s="7">
         <v>1</v>
       </c>
-      <c r="L14" s="17"/>
+      <c r="L14" s="17" t="s">
+        <v>76</v>
+      </c>
       <c r="M14" s="6">
         <v>45082</v>
       </c>
@@ -4876,8 +4920,8 @@
       <c r="Y14" s="39">
         <v>0.8</v>
       </c>
-      <c r="Z14" s="37" t="s">
-        <v>69</v>
+      <c r="Z14" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="AA14" s="38">
         <v>45084</v>
@@ -5011,7 +5055,9 @@
       <c r="K15" s="7">
         <v>1</v>
       </c>
-      <c r="L15" s="7"/>
+      <c r="L15" s="17" t="s">
+        <v>76</v>
+      </c>
       <c r="M15" s="6">
         <v>45082</v>
       </c>
@@ -5046,8 +5092,8 @@
       <c r="Y15" s="7">
         <v>1</v>
       </c>
-      <c r="Z15" s="35" t="s">
-        <v>58</v>
+      <c r="Z15" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="AA15" s="6">
         <v>45084</v>
@@ -5138,50 +5184,50 @@
       <c r="BV15" s="10"/>
       <c r="BW15" s="10"/>
       <c r="BX15" s="13"/>
-      <c r="BY15" s="51"/>
-      <c r="BZ15" s="54">
+      <c r="BY15" s="42"/>
+      <c r="BZ15" s="47">
         <v>45100</v>
       </c>
-      <c r="CA15" s="54">
+      <c r="CA15" s="47">
         <v>45100</v>
       </c>
-      <c r="CB15" s="51"/>
-      <c r="CC15" s="51"/>
-      <c r="CD15" s="51"/>
-      <c r="CE15" s="51"/>
-      <c r="CF15" s="51">
+      <c r="CB15" s="42"/>
+      <c r="CC15" s="42"/>
+      <c r="CD15" s="42"/>
+      <c r="CE15" s="42"/>
+      <c r="CF15" s="42">
         <v>45103</v>
       </c>
-      <c r="CG15" s="51">
+      <c r="CG15" s="42">
         <v>45103</v>
       </c>
-      <c r="CH15" s="51"/>
-      <c r="CI15" s="51"/>
-      <c r="CJ15" s="51"/>
-      <c r="CK15" s="51"/>
+      <c r="CH15" s="42"/>
+      <c r="CI15" s="42"/>
+      <c r="CJ15" s="42"/>
+      <c r="CK15" s="42"/>
       <c r="CL15" s="14"/>
-      <c r="CM15" s="51"/>
-      <c r="CN15" s="51">
+      <c r="CM15" s="42"/>
+      <c r="CN15" s="42">
         <v>45104</v>
       </c>
-      <c r="CO15" s="51">
+      <c r="CO15" s="42">
         <v>45104</v>
       </c>
-      <c r="CP15" s="51"/>
-      <c r="CQ15" s="51"/>
-      <c r="CR15" s="51"/>
-      <c r="CS15" s="51"/>
-      <c r="CT15" s="51">
+      <c r="CP15" s="42"/>
+      <c r="CQ15" s="42"/>
+      <c r="CR15" s="42"/>
+      <c r="CS15" s="42"/>
+      <c r="CT15" s="42">
         <v>45105</v>
       </c>
-      <c r="CU15" s="51">
+      <c r="CU15" s="42">
         <v>45105</v>
       </c>
-      <c r="CV15" s="51"/>
-      <c r="CW15" s="51"/>
-      <c r="CX15" s="51"/>
-      <c r="CY15" s="51"/>
-      <c r="CZ15" s="51"/>
+      <c r="CV15" s="42"/>
+      <c r="CW15" s="42"/>
+      <c r="CX15" s="42"/>
+      <c r="CY15" s="42"/>
+      <c r="CZ15" s="42"/>
     </row>
     <row r="16" spans="2:104" ht="20.25" customHeight="1">
       <c r="B16" s="5">
@@ -5215,7 +5261,9 @@
       <c r="K16" s="7">
         <v>1</v>
       </c>
-      <c r="L16" s="7"/>
+      <c r="L16" s="17" t="s">
+        <v>76</v>
+      </c>
       <c r="M16" s="6">
         <v>45082</v>
       </c>
@@ -5250,8 +5298,8 @@
       <c r="Y16" s="7">
         <v>1</v>
       </c>
-      <c r="Z16" s="35" t="s">
-        <v>68</v>
+      <c r="Z16" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="AA16" s="6">
         <v>45084</v>
@@ -5341,34 +5389,34 @@
       <c r="BU16" s="7"/>
       <c r="BV16" s="10"/>
       <c r="BW16" s="10"/>
-      <c r="BY16" s="52"/>
-      <c r="BZ16" s="55"/>
-      <c r="CA16" s="55"/>
-      <c r="CB16" s="52"/>
-      <c r="CC16" s="52"/>
-      <c r="CD16" s="52"/>
-      <c r="CE16" s="52"/>
-      <c r="CF16" s="52"/>
-      <c r="CG16" s="52"/>
-      <c r="CH16" s="52"/>
-      <c r="CI16" s="52"/>
-      <c r="CJ16" s="52"/>
-      <c r="CK16" s="52"/>
+      <c r="BY16" s="43"/>
+      <c r="BZ16" s="48"/>
+      <c r="CA16" s="48"/>
+      <c r="CB16" s="43"/>
+      <c r="CC16" s="43"/>
+      <c r="CD16" s="43"/>
+      <c r="CE16" s="43"/>
+      <c r="CF16" s="43"/>
+      <c r="CG16" s="43"/>
+      <c r="CH16" s="43"/>
+      <c r="CI16" s="43"/>
+      <c r="CJ16" s="43"/>
+      <c r="CK16" s="43"/>
       <c r="CL16" s="29"/>
-      <c r="CM16" s="52"/>
-      <c r="CN16" s="52"/>
-      <c r="CO16" s="52"/>
-      <c r="CP16" s="52"/>
-      <c r="CQ16" s="52"/>
-      <c r="CR16" s="52"/>
-      <c r="CS16" s="52"/>
-      <c r="CT16" s="52"/>
-      <c r="CU16" s="52"/>
-      <c r="CV16" s="52"/>
-      <c r="CW16" s="52"/>
-      <c r="CX16" s="52"/>
-      <c r="CY16" s="52"/>
-      <c r="CZ16" s="52"/>
+      <c r="CM16" s="43"/>
+      <c r="CN16" s="43"/>
+      <c r="CO16" s="43"/>
+      <c r="CP16" s="43"/>
+      <c r="CQ16" s="43"/>
+      <c r="CR16" s="43"/>
+      <c r="CS16" s="43"/>
+      <c r="CT16" s="43"/>
+      <c r="CU16" s="43"/>
+      <c r="CV16" s="43"/>
+      <c r="CW16" s="43"/>
+      <c r="CX16" s="43"/>
+      <c r="CY16" s="43"/>
+      <c r="CZ16" s="43"/>
     </row>
     <row r="17" spans="2:104" ht="20.25" customHeight="1">
       <c r="B17" s="5">
@@ -5402,7 +5450,9 @@
       <c r="K17" s="7">
         <v>1</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="17" t="s">
+        <v>76</v>
+      </c>
       <c r="M17" s="6">
         <v>45082</v>
       </c>
@@ -5437,8 +5487,8 @@
       <c r="Y17" s="7">
         <v>1</v>
       </c>
-      <c r="Z17" s="27" t="s">
-        <v>52</v>
+      <c r="Z17" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="AA17" s="6">
         <v>45084</v>
@@ -5528,34 +5578,34 @@
       <c r="BU17" s="7"/>
       <c r="BV17" s="10"/>
       <c r="BW17" s="10"/>
-      <c r="BY17" s="52"/>
-      <c r="BZ17" s="55"/>
-      <c r="CA17" s="55"/>
-      <c r="CB17" s="52"/>
-      <c r="CC17" s="52"/>
-      <c r="CD17" s="52"/>
-      <c r="CE17" s="52"/>
-      <c r="CF17" s="52"/>
-      <c r="CG17" s="52"/>
-      <c r="CH17" s="52"/>
-      <c r="CI17" s="52"/>
-      <c r="CJ17" s="52"/>
-      <c r="CK17" s="52"/>
+      <c r="BY17" s="43"/>
+      <c r="BZ17" s="48"/>
+      <c r="CA17" s="48"/>
+      <c r="CB17" s="43"/>
+      <c r="CC17" s="43"/>
+      <c r="CD17" s="43"/>
+      <c r="CE17" s="43"/>
+      <c r="CF17" s="43"/>
+      <c r="CG17" s="43"/>
+      <c r="CH17" s="43"/>
+      <c r="CI17" s="43"/>
+      <c r="CJ17" s="43"/>
+      <c r="CK17" s="43"/>
       <c r="CL17" s="29"/>
-      <c r="CM17" s="52"/>
-      <c r="CN17" s="52"/>
-      <c r="CO17" s="52"/>
-      <c r="CP17" s="52"/>
-      <c r="CQ17" s="52"/>
-      <c r="CR17" s="52"/>
-      <c r="CS17" s="52"/>
-      <c r="CT17" s="52"/>
-      <c r="CU17" s="52"/>
-      <c r="CV17" s="52"/>
-      <c r="CW17" s="52"/>
-      <c r="CX17" s="52"/>
-      <c r="CY17" s="52"/>
-      <c r="CZ17" s="52"/>
+      <c r="CM17" s="43"/>
+      <c r="CN17" s="43"/>
+      <c r="CO17" s="43"/>
+      <c r="CP17" s="43"/>
+      <c r="CQ17" s="43"/>
+      <c r="CR17" s="43"/>
+      <c r="CS17" s="43"/>
+      <c r="CT17" s="43"/>
+      <c r="CU17" s="43"/>
+      <c r="CV17" s="43"/>
+      <c r="CW17" s="43"/>
+      <c r="CX17" s="43"/>
+      <c r="CY17" s="43"/>
+      <c r="CZ17" s="43"/>
     </row>
     <row r="18" spans="2:104" ht="20.25" customHeight="1">
       <c r="B18" s="5">
@@ -5589,7 +5639,9 @@
       <c r="K18" s="7">
         <v>1</v>
       </c>
-      <c r="L18" s="7"/>
+      <c r="L18" s="17" t="s">
+        <v>76</v>
+      </c>
       <c r="M18" s="6">
         <v>45082</v>
       </c>
@@ -5624,8 +5676,8 @@
       <c r="Y18" s="7">
         <v>1</v>
       </c>
-      <c r="Z18" s="27" t="s">
-        <v>53</v>
+      <c r="Z18" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="AA18" s="6">
         <v>45084</v>
@@ -5716,34 +5768,34 @@
       <c r="BV18" s="10"/>
       <c r="BW18" s="10"/>
       <c r="BX18" s="11"/>
-      <c r="BY18" s="52"/>
-      <c r="BZ18" s="55"/>
-      <c r="CA18" s="55"/>
-      <c r="CB18" s="52"/>
-      <c r="CC18" s="52"/>
-      <c r="CD18" s="52"/>
-      <c r="CE18" s="52"/>
-      <c r="CF18" s="52"/>
-      <c r="CG18" s="52"/>
-      <c r="CH18" s="52"/>
-      <c r="CI18" s="52"/>
-      <c r="CJ18" s="52"/>
-      <c r="CK18" s="52"/>
+      <c r="BY18" s="43"/>
+      <c r="BZ18" s="48"/>
+      <c r="CA18" s="48"/>
+      <c r="CB18" s="43"/>
+      <c r="CC18" s="43"/>
+      <c r="CD18" s="43"/>
+      <c r="CE18" s="43"/>
+      <c r="CF18" s="43"/>
+      <c r="CG18" s="43"/>
+      <c r="CH18" s="43"/>
+      <c r="CI18" s="43"/>
+      <c r="CJ18" s="43"/>
+      <c r="CK18" s="43"/>
       <c r="CL18" s="29"/>
-      <c r="CM18" s="52"/>
-      <c r="CN18" s="52"/>
-      <c r="CO18" s="52"/>
-      <c r="CP18" s="52"/>
-      <c r="CQ18" s="52"/>
-      <c r="CR18" s="52"/>
-      <c r="CS18" s="52"/>
-      <c r="CT18" s="52"/>
-      <c r="CU18" s="52"/>
-      <c r="CV18" s="52"/>
-      <c r="CW18" s="52"/>
-      <c r="CX18" s="52"/>
-      <c r="CY18" s="52"/>
-      <c r="CZ18" s="52"/>
+      <c r="CM18" s="43"/>
+      <c r="CN18" s="43"/>
+      <c r="CO18" s="43"/>
+      <c r="CP18" s="43"/>
+      <c r="CQ18" s="43"/>
+      <c r="CR18" s="43"/>
+      <c r="CS18" s="43"/>
+      <c r="CT18" s="43"/>
+      <c r="CU18" s="43"/>
+      <c r="CV18" s="43"/>
+      <c r="CW18" s="43"/>
+      <c r="CX18" s="43"/>
+      <c r="CY18" s="43"/>
+      <c r="CZ18" s="43"/>
     </row>
     <row r="19" spans="2:104" ht="20.25" customHeight="1">
       <c r="B19" s="5">
@@ -5777,7 +5829,9 @@
       <c r="K19" s="7">
         <v>1</v>
       </c>
-      <c r="L19" s="7"/>
+      <c r="L19" s="17" t="s">
+        <v>76</v>
+      </c>
       <c r="M19" s="6">
         <v>45082</v>
       </c>
@@ -5812,8 +5866,8 @@
       <c r="Y19" s="7">
         <v>1</v>
       </c>
-      <c r="Z19" s="27" t="s">
-        <v>54</v>
+      <c r="Z19" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="AA19" s="6">
         <v>45084</v>
@@ -5902,34 +5956,34 @@
       <c r="BV19" s="10"/>
       <c r="BW19" s="10"/>
       <c r="BX19" s="11"/>
-      <c r="BY19" s="52"/>
-      <c r="BZ19" s="55"/>
-      <c r="CA19" s="55"/>
-      <c r="CB19" s="52"/>
-      <c r="CC19" s="52"/>
-      <c r="CD19" s="52"/>
-      <c r="CE19" s="52"/>
-      <c r="CF19" s="52"/>
-      <c r="CG19" s="52"/>
-      <c r="CH19" s="52"/>
-      <c r="CI19" s="52"/>
-      <c r="CJ19" s="52"/>
-      <c r="CK19" s="52"/>
+      <c r="BY19" s="43"/>
+      <c r="BZ19" s="48"/>
+      <c r="CA19" s="48"/>
+      <c r="CB19" s="43"/>
+      <c r="CC19" s="43"/>
+      <c r="CD19" s="43"/>
+      <c r="CE19" s="43"/>
+      <c r="CF19" s="43"/>
+      <c r="CG19" s="43"/>
+      <c r="CH19" s="43"/>
+      <c r="CI19" s="43"/>
+      <c r="CJ19" s="43"/>
+      <c r="CK19" s="43"/>
       <c r="CL19" s="29"/>
-      <c r="CM19" s="52"/>
-      <c r="CN19" s="52"/>
-      <c r="CO19" s="52"/>
-      <c r="CP19" s="52"/>
-      <c r="CQ19" s="52"/>
-      <c r="CR19" s="52"/>
-      <c r="CS19" s="52"/>
-      <c r="CT19" s="52"/>
-      <c r="CU19" s="52"/>
-      <c r="CV19" s="52"/>
-      <c r="CW19" s="52"/>
-      <c r="CX19" s="52"/>
-      <c r="CY19" s="52"/>
-      <c r="CZ19" s="52"/>
+      <c r="CM19" s="43"/>
+      <c r="CN19" s="43"/>
+      <c r="CO19" s="43"/>
+      <c r="CP19" s="43"/>
+      <c r="CQ19" s="43"/>
+      <c r="CR19" s="43"/>
+      <c r="CS19" s="43"/>
+      <c r="CT19" s="43"/>
+      <c r="CU19" s="43"/>
+      <c r="CV19" s="43"/>
+      <c r="CW19" s="43"/>
+      <c r="CX19" s="43"/>
+      <c r="CY19" s="43"/>
+      <c r="CZ19" s="43"/>
     </row>
     <row r="20" spans="2:104" ht="20.25" customHeight="1">
       <c r="B20" s="5">
@@ -5963,7 +6017,9 @@
       <c r="K20" s="7">
         <v>1</v>
       </c>
-      <c r="L20" s="7"/>
+      <c r="L20" s="17" t="s">
+        <v>76</v>
+      </c>
       <c r="M20" s="6">
         <v>45082</v>
       </c>
@@ -5998,8 +6054,8 @@
       <c r="Y20" s="7">
         <v>1</v>
       </c>
-      <c r="Z20" s="35" t="s">
-        <v>55</v>
+      <c r="Z20" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="AA20" s="6">
         <v>45084</v>
@@ -6090,34 +6146,34 @@
       <c r="BV20" s="10"/>
       <c r="BW20" s="10"/>
       <c r="BX20" s="11"/>
-      <c r="BY20" s="52"/>
-      <c r="BZ20" s="55"/>
-      <c r="CA20" s="55"/>
-      <c r="CB20" s="52"/>
-      <c r="CC20" s="52"/>
-      <c r="CD20" s="52"/>
-      <c r="CE20" s="52"/>
-      <c r="CF20" s="52"/>
-      <c r="CG20" s="52"/>
-      <c r="CH20" s="52"/>
-      <c r="CI20" s="52"/>
-      <c r="CJ20" s="52"/>
-      <c r="CK20" s="52"/>
+      <c r="BY20" s="43"/>
+      <c r="BZ20" s="48"/>
+      <c r="CA20" s="48"/>
+      <c r="CB20" s="43"/>
+      <c r="CC20" s="43"/>
+      <c r="CD20" s="43"/>
+      <c r="CE20" s="43"/>
+      <c r="CF20" s="43"/>
+      <c r="CG20" s="43"/>
+      <c r="CH20" s="43"/>
+      <c r="CI20" s="43"/>
+      <c r="CJ20" s="43"/>
+      <c r="CK20" s="43"/>
       <c r="CL20" s="29"/>
-      <c r="CM20" s="52"/>
-      <c r="CN20" s="52"/>
-      <c r="CO20" s="52"/>
-      <c r="CP20" s="52"/>
-      <c r="CQ20" s="52"/>
-      <c r="CR20" s="52"/>
-      <c r="CS20" s="52"/>
-      <c r="CT20" s="52"/>
-      <c r="CU20" s="52"/>
-      <c r="CV20" s="52"/>
-      <c r="CW20" s="52"/>
-      <c r="CX20" s="52"/>
-      <c r="CY20" s="52"/>
-      <c r="CZ20" s="52"/>
+      <c r="CM20" s="43"/>
+      <c r="CN20" s="43"/>
+      <c r="CO20" s="43"/>
+      <c r="CP20" s="43"/>
+      <c r="CQ20" s="43"/>
+      <c r="CR20" s="43"/>
+      <c r="CS20" s="43"/>
+      <c r="CT20" s="43"/>
+      <c r="CU20" s="43"/>
+      <c r="CV20" s="43"/>
+      <c r="CW20" s="43"/>
+      <c r="CX20" s="43"/>
+      <c r="CY20" s="43"/>
+      <c r="CZ20" s="43"/>
     </row>
     <row r="21" spans="2:104" ht="20.25" customHeight="1">
       <c r="B21" s="5">
@@ -6151,7 +6207,9 @@
       <c r="K21" s="7">
         <v>1</v>
       </c>
-      <c r="L21" s="7"/>
+      <c r="L21" s="17" t="s">
+        <v>76</v>
+      </c>
       <c r="M21" s="6">
         <v>45082</v>
       </c>
@@ -6186,8 +6244,8 @@
       <c r="Y21" s="7">
         <v>1</v>
       </c>
-      <c r="Z21" s="35" t="s">
-        <v>56</v>
+      <c r="Z21" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="AA21" s="6">
         <v>45084</v>
@@ -6276,34 +6334,34 @@
       <c r="BV21" s="10"/>
       <c r="BW21" s="10"/>
       <c r="BX21" s="11"/>
-      <c r="BY21" s="52"/>
-      <c r="BZ21" s="55"/>
-      <c r="CA21" s="55"/>
-      <c r="CB21" s="52"/>
-      <c r="CC21" s="52"/>
-      <c r="CD21" s="52"/>
-      <c r="CE21" s="52"/>
-      <c r="CF21" s="52"/>
-      <c r="CG21" s="52"/>
-      <c r="CH21" s="52"/>
-      <c r="CI21" s="52"/>
-      <c r="CJ21" s="52"/>
-      <c r="CK21" s="52"/>
+      <c r="BY21" s="43"/>
+      <c r="BZ21" s="48"/>
+      <c r="CA21" s="48"/>
+      <c r="CB21" s="43"/>
+      <c r="CC21" s="43"/>
+      <c r="CD21" s="43"/>
+      <c r="CE21" s="43"/>
+      <c r="CF21" s="43"/>
+      <c r="CG21" s="43"/>
+      <c r="CH21" s="43"/>
+      <c r="CI21" s="43"/>
+      <c r="CJ21" s="43"/>
+      <c r="CK21" s="43"/>
       <c r="CL21" s="29"/>
-      <c r="CM21" s="52"/>
-      <c r="CN21" s="52"/>
-      <c r="CO21" s="52"/>
-      <c r="CP21" s="52"/>
-      <c r="CQ21" s="52"/>
-      <c r="CR21" s="52"/>
-      <c r="CS21" s="52"/>
-      <c r="CT21" s="52"/>
-      <c r="CU21" s="52"/>
-      <c r="CV21" s="52"/>
-      <c r="CW21" s="52"/>
-      <c r="CX21" s="52"/>
-      <c r="CY21" s="52"/>
-      <c r="CZ21" s="52"/>
+      <c r="CM21" s="43"/>
+      <c r="CN21" s="43"/>
+      <c r="CO21" s="43"/>
+      <c r="CP21" s="43"/>
+      <c r="CQ21" s="43"/>
+      <c r="CR21" s="43"/>
+      <c r="CS21" s="43"/>
+      <c r="CT21" s="43"/>
+      <c r="CU21" s="43"/>
+      <c r="CV21" s="43"/>
+      <c r="CW21" s="43"/>
+      <c r="CX21" s="43"/>
+      <c r="CY21" s="43"/>
+      <c r="CZ21" s="43"/>
     </row>
     <row r="22" spans="2:104" ht="20.25" customHeight="1">
       <c r="B22" s="5">
@@ -6337,7 +6395,9 @@
       <c r="K22" s="7">
         <v>1</v>
       </c>
-      <c r="L22" s="7"/>
+      <c r="L22" s="17" t="s">
+        <v>76</v>
+      </c>
       <c r="M22" s="6">
         <v>45082</v>
       </c>
@@ -6372,8 +6432,8 @@
       <c r="Y22" s="7">
         <v>1</v>
       </c>
-      <c r="Z22" s="35" t="s">
-        <v>57</v>
+      <c r="Z22" s="17" t="s">
+        <v>76</v>
       </c>
       <c r="AA22" s="6">
         <v>45084</v>
@@ -6460,34 +6520,34 @@
       <c r="BV22" s="10"/>
       <c r="BW22" s="10"/>
       <c r="BX22" s="13"/>
-      <c r="BY22" s="53"/>
-      <c r="BZ22" s="56"/>
-      <c r="CA22" s="56"/>
-      <c r="CB22" s="53"/>
-      <c r="CC22" s="53"/>
-      <c r="CD22" s="53"/>
-      <c r="CE22" s="53"/>
-      <c r="CF22" s="53"/>
-      <c r="CG22" s="53"/>
-      <c r="CH22" s="53"/>
-      <c r="CI22" s="53"/>
-      <c r="CJ22" s="53"/>
-      <c r="CK22" s="53"/>
+      <c r="BY22" s="44"/>
+      <c r="BZ22" s="49"/>
+      <c r="CA22" s="49"/>
+      <c r="CB22" s="44"/>
+      <c r="CC22" s="44"/>
+      <c r="CD22" s="44"/>
+      <c r="CE22" s="44"/>
+      <c r="CF22" s="44"/>
+      <c r="CG22" s="44"/>
+      <c r="CH22" s="44"/>
+      <c r="CI22" s="44"/>
+      <c r="CJ22" s="44"/>
+      <c r="CK22" s="44"/>
       <c r="CL22" s="14"/>
-      <c r="CM22" s="53"/>
-      <c r="CN22" s="53"/>
-      <c r="CO22" s="53"/>
-      <c r="CP22" s="53"/>
-      <c r="CQ22" s="53"/>
-      <c r="CR22" s="53"/>
-      <c r="CS22" s="53"/>
-      <c r="CT22" s="53"/>
-      <c r="CU22" s="53"/>
-      <c r="CV22" s="53"/>
-      <c r="CW22" s="53"/>
-      <c r="CX22" s="53"/>
-      <c r="CY22" s="53"/>
-      <c r="CZ22" s="53"/>
+      <c r="CM22" s="44"/>
+      <c r="CN22" s="44"/>
+      <c r="CO22" s="44"/>
+      <c r="CP22" s="44"/>
+      <c r="CQ22" s="44"/>
+      <c r="CR22" s="44"/>
+      <c r="CS22" s="44"/>
+      <c r="CT22" s="44"/>
+      <c r="CU22" s="44"/>
+      <c r="CV22" s="44"/>
+      <c r="CW22" s="44"/>
+      <c r="CX22" s="44"/>
+      <c r="CY22" s="44"/>
+      <c r="CZ22" s="44"/>
     </row>
     <row r="23" spans="2:104" ht="20.25" customHeight="1">
       <c r="BX23" s="11"/>
@@ -6499,19 +6559,106 @@
     </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="CM7:CM13"/>
-    <mergeCell ref="CN7:CN13"/>
-    <mergeCell ref="CO7:CO13"/>
-    <mergeCell ref="CW15:CW22"/>
-    <mergeCell ref="CX7:CX13"/>
-    <mergeCell ref="CY7:CY13"/>
-    <mergeCell ref="CZ7:CZ13"/>
-    <mergeCell ref="CQ15:CQ22"/>
-    <mergeCell ref="CR15:CR22"/>
-    <mergeCell ref="CS15:CS22"/>
-    <mergeCell ref="CU7:CU13"/>
-    <mergeCell ref="CV7:CV13"/>
-    <mergeCell ref="CW7:CW13"/>
+    <mergeCell ref="CE4:CK4"/>
+    <mergeCell ref="CM4:CR4"/>
+    <mergeCell ref="CS4:CZ4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:R4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="BM5:BN5"/>
+    <mergeCell ref="BQ5:BR5"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="BP4:BW4"/>
+    <mergeCell ref="BY4:CD4"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="Z4:AF4"/>
+    <mergeCell ref="AH4:AM4"/>
+    <mergeCell ref="AN4:AT4"/>
+    <mergeCell ref="AV4:BA4"/>
+    <mergeCell ref="BB4:BH4"/>
+    <mergeCell ref="BJ4:BO4"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CK5:CK6"/>
+    <mergeCell ref="CN5:CO5"/>
+    <mergeCell ref="CP5:CQ5"/>
+    <mergeCell ref="CM5:CM6"/>
+    <mergeCell ref="CH5:CI5"/>
+    <mergeCell ref="CE5:CE6"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="CF5:CG5"/>
+    <mergeCell ref="CE15:CE22"/>
+    <mergeCell ref="CF15:CF22"/>
+    <mergeCell ref="CG15:CG22"/>
+    <mergeCell ref="BY7:BY13"/>
+    <mergeCell ref="BZ7:BZ13"/>
+    <mergeCell ref="CA7:CA13"/>
+    <mergeCell ref="CZ5:CZ6"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CT5:CU5"/>
+    <mergeCell ref="CV5:CW5"/>
+    <mergeCell ref="CS5:CS6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CH15:CH22"/>
+    <mergeCell ref="CI15:CI22"/>
+    <mergeCell ref="CJ15:CJ22"/>
+    <mergeCell ref="CK15:CK22"/>
+    <mergeCell ref="CZ15:CZ22"/>
+    <mergeCell ref="CP15:CP22"/>
+    <mergeCell ref="CR7:CR13"/>
+    <mergeCell ref="CS7:CS13"/>
+    <mergeCell ref="CT7:CT13"/>
+    <mergeCell ref="CT15:CT22"/>
+    <mergeCell ref="CU15:CU22"/>
+    <mergeCell ref="CV15:CV22"/>
     <mergeCell ref="BH5:BH6"/>
     <mergeCell ref="CX15:CX22"/>
     <mergeCell ref="CY15:CY22"/>
@@ -6536,326 +6683,219 @@
     <mergeCell ref="CM15:CM22"/>
     <mergeCell ref="CN15:CN22"/>
     <mergeCell ref="CO15:CO22"/>
-    <mergeCell ref="CE15:CE22"/>
-    <mergeCell ref="CF15:CF22"/>
-    <mergeCell ref="CG15:CG22"/>
-    <mergeCell ref="BY7:BY13"/>
-    <mergeCell ref="BZ7:BZ13"/>
-    <mergeCell ref="CA7:CA13"/>
-    <mergeCell ref="CZ5:CZ6"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CT5:CU5"/>
-    <mergeCell ref="CV5:CW5"/>
-    <mergeCell ref="CS5:CS6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CH15:CH22"/>
-    <mergeCell ref="CI15:CI22"/>
-    <mergeCell ref="CJ15:CJ22"/>
-    <mergeCell ref="CK15:CK22"/>
-    <mergeCell ref="CZ15:CZ22"/>
-    <mergeCell ref="CP15:CP22"/>
-    <mergeCell ref="CR7:CR13"/>
-    <mergeCell ref="CS7:CS13"/>
-    <mergeCell ref="CT7:CT13"/>
-    <mergeCell ref="CT15:CT22"/>
-    <mergeCell ref="CU15:CU22"/>
-    <mergeCell ref="CV15:CV22"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CK5:CK6"/>
-    <mergeCell ref="CN5:CO5"/>
-    <mergeCell ref="CP5:CQ5"/>
-    <mergeCell ref="CM5:CM6"/>
-    <mergeCell ref="CH5:CI5"/>
-    <mergeCell ref="CE5:CE6"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="CF5:CG5"/>
-    <mergeCell ref="BP4:BW4"/>
-    <mergeCell ref="BY4:CD4"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="Z4:AF4"/>
-    <mergeCell ref="AH4:AM4"/>
-    <mergeCell ref="AN4:AT4"/>
-    <mergeCell ref="AV4:BA4"/>
-    <mergeCell ref="BB4:BH4"/>
-    <mergeCell ref="BJ4:BO4"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BW5:BW6"/>
-    <mergeCell ref="BY5:BY6"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="BZ5:CA5"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="CE4:CK4"/>
-    <mergeCell ref="CM4:CR4"/>
-    <mergeCell ref="CS4:CZ4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:R4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="CM7:CM13"/>
+    <mergeCell ref="CN7:CN13"/>
+    <mergeCell ref="CO7:CO13"/>
+    <mergeCell ref="CW15:CW22"/>
+    <mergeCell ref="CX7:CX13"/>
+    <mergeCell ref="CY7:CY13"/>
+    <mergeCell ref="CZ7:CZ13"/>
+    <mergeCell ref="CQ15:CQ22"/>
+    <mergeCell ref="CR15:CR22"/>
+    <mergeCell ref="CS15:CS22"/>
+    <mergeCell ref="CU7:CU13"/>
+    <mergeCell ref="CV7:CV13"/>
+    <mergeCell ref="CW7:CW13"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="F7:K14">
-    <cfRule type="expression" dxfId="43" priority="94">
+    <cfRule type="expression" dxfId="44" priority="95">
       <formula>$J7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L7:R14 K15:R22">
-    <cfRule type="expression" dxfId="42" priority="87">
+  <conditionalFormatting sqref="K15:K22 L7:R22">
+    <cfRule type="expression" dxfId="43" priority="88">
       <formula>$P7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN7:AT14">
-    <cfRule type="expression" dxfId="41" priority="84">
+    <cfRule type="expression" dxfId="42" priority="85">
       <formula>$AR7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV7:BA14">
-    <cfRule type="expression" dxfId="40" priority="148">
+    <cfRule type="expression" dxfId="41" priority="149">
       <formula>$AZ7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB7:BH14">
-    <cfRule type="expression" dxfId="39" priority="147">
+    <cfRule type="expression" dxfId="40" priority="148">
       <formula>$BF7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ7:BO14">
-    <cfRule type="expression" dxfId="38" priority="142">
+    <cfRule type="expression" dxfId="39" priority="143">
       <formula>$BN7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP7:BW14">
-    <cfRule type="expression" dxfId="37" priority="141">
+    <cfRule type="expression" dxfId="38" priority="142">
       <formula>$BT7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:F22">
-    <cfRule type="expression" dxfId="36" priority="171">
+    <cfRule type="expression" dxfId="37" priority="172">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20 F15:F16">
-    <cfRule type="expression" dxfId="35" priority="199">
+    <cfRule type="expression" dxfId="36" priority="200">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA22:AB22">
-    <cfRule type="expression" dxfId="34" priority="201">
+    <cfRule type="expression" dxfId="35" priority="202">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="33" priority="206">
+    <cfRule type="expression" dxfId="34" priority="207">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F16">
-    <cfRule type="expression" dxfId="32" priority="208">
+    <cfRule type="expression" dxfId="33" priority="209">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F18">
-    <cfRule type="expression" dxfId="31" priority="209">
+    <cfRule type="expression" dxfId="32" priority="210">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:J22">
-    <cfRule type="expression" dxfId="30" priority="233">
+    <cfRule type="expression" dxfId="31" priority="234">
       <formula>$I15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U15:W22 Y15:Y22">
-    <cfRule type="expression" dxfId="29" priority="237">
+    <cfRule type="expression" dxfId="30" priority="238">
       <formula>$X15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15:AB22 AF15:AF22">
-    <cfRule type="expression" dxfId="28" priority="239">
+    <cfRule type="expression" dxfId="29" priority="240">
       <formula>$AD15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI15:AJ22 AL15:AM22 AK22">
-    <cfRule type="expression" dxfId="27" priority="241">
+    <cfRule type="expression" dxfId="28" priority="242">
       <formula>$AL15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN15:AT22">
-    <cfRule type="expression" dxfId="26" priority="243">
+    <cfRule type="expression" dxfId="27" priority="244">
       <formula>$AR15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV15:BA22">
-    <cfRule type="expression" dxfId="25" priority="245">
+    <cfRule type="expression" dxfId="26" priority="246">
       <formula>$AZ15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB15:BH22">
-    <cfRule type="expression" dxfId="24" priority="247">
+    <cfRule type="expression" dxfId="25" priority="248">
       <formula>$BF15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ15:BO22">
-    <cfRule type="expression" dxfId="23" priority="249">
+    <cfRule type="expression" dxfId="24" priority="250">
       <formula>$BN15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP15:BW22">
-    <cfRule type="expression" dxfId="22" priority="251">
+    <cfRule type="expression" dxfId="23" priority="252">
       <formula>$BT15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15:AB21">
-    <cfRule type="expression" dxfId="21" priority="252">
+    <cfRule type="expression" dxfId="22" priority="253">
       <formula>$X16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T21:T22">
-    <cfRule type="expression" dxfId="20" priority="17">
+    <cfRule type="expression" dxfId="21" priority="18">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T20 T15:T16">
-    <cfRule type="expression" dxfId="19" priority="18">
+    <cfRule type="expression" dxfId="20" priority="19">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19">
-    <cfRule type="expression" dxfId="18" priority="19">
+    <cfRule type="expression" dxfId="19" priority="20">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15:T16">
-    <cfRule type="expression" dxfId="17" priority="20">
+    <cfRule type="expression" dxfId="18" priority="21">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17:T18">
-    <cfRule type="expression" dxfId="16" priority="21">
+    <cfRule type="expression" dxfId="17" priority="22">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X15">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="16" priority="17">
       <formula>$X15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X16">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="15" priority="16">
       <formula>$X16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X17:X22">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>$X17&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z21:Z22">
-    <cfRule type="expression" dxfId="12" priority="9">
-      <formula>#REF!&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z20 Z15:Z16">
-    <cfRule type="expression" dxfId="11" priority="10">
-      <formula>#REF!&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z19">
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>$I18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z15:Z16">
-    <cfRule type="expression" dxfId="9" priority="12">
-      <formula>#REF!&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z17:Z18">
-    <cfRule type="expression" dxfId="8" priority="13">
-      <formula>$I18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AI7:AL14 AK15:AK21">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>$AK7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH7:AH14">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$J7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH21:AH22">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="6" priority="3">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH20 AH15:AH16">
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH19">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH15:AH16">
-    <cfRule type="expression" dxfId="2" priority="5">
+    <cfRule type="expression" dxfId="3" priority="6">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH17:AH18">
-    <cfRule type="expression" dxfId="1" priority="6">
+    <cfRule type="expression" dxfId="2" priority="7">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM7:AM14">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$AK7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z7:Z22">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$AK7&lt;&gt;""</formula>
+      <formula>$P7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>

--- a/スケジュール（2023-06）.xlsx
+++ b/スケジュール（2023-06）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\o3o__\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90498B84-8094-4376-9CA8-234B5F403E84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA30E5F8-23F5-4D84-924F-5831D0E57C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,17 +26,6 @@
     <sheet name="8_勤怠承認詳細" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -423,7 +412,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="mm/yy"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -514,8 +503,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -544,6 +540,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD0CECE"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -658,7 +660,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -769,38 +771,8 @@
     <xf numFmtId="56" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -811,7 +783,66 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -821,21 +852,7 @@
     <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準_システム管理" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="45">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="43">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2852,10 +2869,10 @@
   <dimension ref="B3:CZ24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="S7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="CC7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AM18" sqref="AM18"/>
+      <selection pane="bottomRight" activeCell="CU15" sqref="CU15:CU22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
@@ -2916,381 +2933,381 @@
       </c>
     </row>
     <row r="4" spans="2:104" s="20" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="46"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46" t="s">
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
-      <c r="P4" s="46"/>
-      <c r="Q4" s="46"/>
-      <c r="R4" s="46"/>
-      <c r="T4" s="46" t="s">
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="T4" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="U4" s="46"/>
-      <c r="V4" s="46"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="46"/>
-      <c r="Y4" s="46"/>
-      <c r="Z4" s="46" t="s">
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="46"/>
-      <c r="AB4" s="46"/>
-      <c r="AC4" s="46"/>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AF4" s="46"/>
-      <c r="AH4" s="46" t="s">
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+      <c r="AH4" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="AI4" s="46"/>
-      <c r="AJ4" s="46"/>
-      <c r="AK4" s="46"/>
-      <c r="AL4" s="46"/>
-      <c r="AM4" s="46"/>
-      <c r="AN4" s="46" t="s">
+      <c r="AI4" s="42"/>
+      <c r="AJ4" s="42"/>
+      <c r="AK4" s="42"/>
+      <c r="AL4" s="42"/>
+      <c r="AM4" s="42"/>
+      <c r="AN4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="AO4" s="46"/>
-      <c r="AP4" s="46"/>
-      <c r="AQ4" s="46"/>
-      <c r="AR4" s="46"/>
-      <c r="AS4" s="46"/>
-      <c r="AT4" s="53"/>
+      <c r="AO4" s="42"/>
+      <c r="AP4" s="42"/>
+      <c r="AQ4" s="42"/>
+      <c r="AR4" s="42"/>
+      <c r="AS4" s="42"/>
+      <c r="AT4" s="43"/>
       <c r="AU4" s="21"/>
-      <c r="AV4" s="46" t="s">
+      <c r="AV4" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="AW4" s="46"/>
-      <c r="AX4" s="46"/>
-      <c r="AY4" s="46"/>
-      <c r="AZ4" s="46"/>
-      <c r="BA4" s="46"/>
-      <c r="BB4" s="46" t="s">
+      <c r="AW4" s="42"/>
+      <c r="AX4" s="42"/>
+      <c r="AY4" s="42"/>
+      <c r="AZ4" s="42"/>
+      <c r="BA4" s="42"/>
+      <c r="BB4" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="BC4" s="46"/>
-      <c r="BD4" s="46"/>
-      <c r="BE4" s="46"/>
-      <c r="BF4" s="46"/>
-      <c r="BG4" s="46"/>
-      <c r="BH4" s="46"/>
+      <c r="BC4" s="42"/>
+      <c r="BD4" s="42"/>
+      <c r="BE4" s="42"/>
+      <c r="BF4" s="42"/>
+      <c r="BG4" s="42"/>
+      <c r="BH4" s="42"/>
       <c r="BI4" s="22"/>
-      <c r="BJ4" s="54" t="s">
+      <c r="BJ4" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="BK4" s="46"/>
-      <c r="BL4" s="46"/>
-      <c r="BM4" s="46"/>
-      <c r="BN4" s="46"/>
-      <c r="BO4" s="46"/>
-      <c r="BP4" s="46" t="s">
+      <c r="BK4" s="42"/>
+      <c r="BL4" s="42"/>
+      <c r="BM4" s="42"/>
+      <c r="BN4" s="42"/>
+      <c r="BO4" s="42"/>
+      <c r="BP4" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="BQ4" s="46"/>
-      <c r="BR4" s="46"/>
-      <c r="BS4" s="46"/>
-      <c r="BT4" s="46"/>
-      <c r="BU4" s="46"/>
-      <c r="BV4" s="46"/>
-      <c r="BW4" s="46"/>
-      <c r="BY4" s="46" t="s">
+      <c r="BQ4" s="42"/>
+      <c r="BR4" s="42"/>
+      <c r="BS4" s="42"/>
+      <c r="BT4" s="42"/>
+      <c r="BU4" s="42"/>
+      <c r="BV4" s="42"/>
+      <c r="BW4" s="42"/>
+      <c r="BY4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="BZ4" s="46"/>
-      <c r="CA4" s="46"/>
-      <c r="CB4" s="46"/>
-      <c r="CC4" s="46"/>
-      <c r="CD4" s="46"/>
-      <c r="CE4" s="46" t="s">
+      <c r="BZ4" s="42"/>
+      <c r="CA4" s="42"/>
+      <c r="CB4" s="42"/>
+      <c r="CC4" s="42"/>
+      <c r="CD4" s="42"/>
+      <c r="CE4" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="CF4" s="46"/>
-      <c r="CG4" s="46"/>
-      <c r="CH4" s="46"/>
-      <c r="CI4" s="46"/>
-      <c r="CJ4" s="46"/>
-      <c r="CK4" s="53"/>
+      <c r="CF4" s="42"/>
+      <c r="CG4" s="42"/>
+      <c r="CH4" s="42"/>
+      <c r="CI4" s="42"/>
+      <c r="CJ4" s="42"/>
+      <c r="CK4" s="43"/>
       <c r="CL4" s="23"/>
-      <c r="CM4" s="54" t="s">
+      <c r="CM4" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="CN4" s="46"/>
-      <c r="CO4" s="46"/>
-      <c r="CP4" s="46"/>
-      <c r="CQ4" s="46"/>
-      <c r="CR4" s="46"/>
-      <c r="CS4" s="46" t="s">
+      <c r="CN4" s="42"/>
+      <c r="CO4" s="42"/>
+      <c r="CP4" s="42"/>
+      <c r="CQ4" s="42"/>
+      <c r="CR4" s="42"/>
+      <c r="CS4" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="CT4" s="46"/>
-      <c r="CU4" s="46"/>
-      <c r="CV4" s="46"/>
-      <c r="CW4" s="46"/>
-      <c r="CX4" s="46"/>
-      <c r="CY4" s="46"/>
-      <c r="CZ4" s="46"/>
+      <c r="CT4" s="42"/>
+      <c r="CU4" s="42"/>
+      <c r="CV4" s="42"/>
+      <c r="CW4" s="42"/>
+      <c r="CX4" s="42"/>
+      <c r="CY4" s="42"/>
+      <c r="CZ4" s="42"/>
     </row>
     <row r="5" spans="2:104" ht="21.6" customHeight="1">
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="46" t="s">
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="55" t="s">
+      <c r="G5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55" t="s">
+      <c r="H5" s="45"/>
+      <c r="I5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="55"/>
-      <c r="K5" s="45" t="s">
+      <c r="J5" s="45"/>
+      <c r="K5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="46" t="s">
+      <c r="L5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="55" t="s">
+      <c r="M5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55" t="s">
+      <c r="N5" s="45"/>
+      <c r="O5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="45" t="s">
+      <c r="P5" s="45"/>
+      <c r="Q5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="45" t="s">
+      <c r="R5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="46" t="s">
+      <c r="T5" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="55" t="s">
+      <c r="U5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="55"/>
-      <c r="W5" s="55" t="s">
+      <c r="V5" s="45"/>
+      <c r="W5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="X5" s="55"/>
-      <c r="Y5" s="45" t="s">
+      <c r="X5" s="45"/>
+      <c r="Y5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="46" t="s">
+      <c r="Z5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AA5" s="55" t="s">
+      <c r="AA5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="AB5" s="55"/>
-      <c r="AC5" s="55" t="s">
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="AD5" s="55"/>
-      <c r="AE5" s="45" t="s">
+      <c r="AD5" s="45"/>
+      <c r="AE5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="AF5" s="45" t="s">
+      <c r="AF5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="AH5" s="46" t="s">
+      <c r="AH5" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="AI5" s="55" t="s">
+      <c r="AI5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="AJ5" s="55"/>
-      <c r="AK5" s="55" t="s">
+      <c r="AJ5" s="45"/>
+      <c r="AK5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="AL5" s="55"/>
-      <c r="AM5" s="45" t="s">
+      <c r="AL5" s="45"/>
+      <c r="AM5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="AN5" s="46" t="s">
+      <c r="AN5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="AO5" s="55" t="s">
+      <c r="AO5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="AP5" s="55"/>
-      <c r="AQ5" s="55" t="s">
+      <c r="AP5" s="45"/>
+      <c r="AQ5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="AR5" s="55"/>
-      <c r="AS5" s="45" t="s">
+      <c r="AR5" s="45"/>
+      <c r="AS5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="AT5" s="52" t="s">
+      <c r="AT5" s="48" t="s">
         <v>23</v>
       </c>
       <c r="AU5" s="13"/>
-      <c r="AV5" s="46" t="s">
+      <c r="AV5" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="AW5" s="55" t="s">
+      <c r="AW5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="AX5" s="55"/>
-      <c r="AY5" s="55" t="s">
+      <c r="AX5" s="45"/>
+      <c r="AY5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="AZ5" s="55"/>
-      <c r="BA5" s="45" t="s">
+      <c r="AZ5" s="45"/>
+      <c r="BA5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="BB5" s="46" t="s">
+      <c r="BB5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BC5" s="55" t="s">
+      <c r="BC5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="BD5" s="55"/>
-      <c r="BE5" s="55" t="s">
+      <c r="BD5" s="45"/>
+      <c r="BE5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="BF5" s="55"/>
-      <c r="BG5" s="45" t="s">
+      <c r="BF5" s="45"/>
+      <c r="BG5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="BH5" s="45" t="s">
+      <c r="BH5" s="46" t="s">
         <v>23</v>
       </c>
       <c r="BI5" s="14"/>
-      <c r="BJ5" s="54" t="s">
+      <c r="BJ5" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="BK5" s="55" t="s">
+      <c r="BK5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="BL5" s="55"/>
-      <c r="BM5" s="55" t="s">
+      <c r="BL5" s="45"/>
+      <c r="BM5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="BN5" s="55"/>
-      <c r="BO5" s="45" t="s">
+      <c r="BN5" s="45"/>
+      <c r="BO5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="BP5" s="46" t="s">
+      <c r="BP5" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="BQ5" s="55" t="s">
+      <c r="BQ5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="BR5" s="55"/>
-      <c r="BS5" s="55" t="s">
+      <c r="BR5" s="45"/>
+      <c r="BS5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="BT5" s="55"/>
-      <c r="BU5" s="45" t="s">
+      <c r="BT5" s="45"/>
+      <c r="BU5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="BV5" s="45" t="s">
+      <c r="BV5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="BW5" s="45" t="s">
+      <c r="BW5" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="BY5" s="46" t="s">
+      <c r="BY5" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="BZ5" s="51" t="s">
+      <c r="BZ5" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="CA5" s="51"/>
-      <c r="CB5" s="51" t="s">
+      <c r="CA5" s="49"/>
+      <c r="CB5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="CC5" s="51"/>
-      <c r="CD5" s="45" t="s">
+      <c r="CC5" s="49"/>
+      <c r="CD5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="CE5" s="46" t="s">
+      <c r="CE5" s="42" t="s">
         <v>22</v>
       </c>
       <c r="CF5" s="50" t="s">
         <v>19</v>
       </c>
       <c r="CG5" s="50"/>
-      <c r="CH5" s="51" t="s">
+      <c r="CH5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="CI5" s="51"/>
-      <c r="CJ5" s="45" t="s">
+      <c r="CI5" s="49"/>
+      <c r="CJ5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="CK5" s="52" t="s">
+      <c r="CK5" s="48" t="s">
         <v>23</v>
       </c>
       <c r="CL5" s="11"/>
-      <c r="CM5" s="54" t="s">
+      <c r="CM5" s="44" t="s">
         <v>18</v>
       </c>
       <c r="CN5" s="50" t="s">
         <v>19</v>
       </c>
       <c r="CO5" s="50"/>
-      <c r="CP5" s="51" t="s">
+      <c r="CP5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="CQ5" s="51"/>
-      <c r="CR5" s="45" t="s">
+      <c r="CQ5" s="49"/>
+      <c r="CR5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="CS5" s="46" t="s">
+      <c r="CS5" s="42" t="s">
         <v>22</v>
       </c>
       <c r="CT5" s="50" t="s">
         <v>19</v>
       </c>
       <c r="CU5" s="50"/>
-      <c r="CV5" s="51" t="s">
+      <c r="CV5" s="49" t="s">
         <v>20</v>
       </c>
-      <c r="CW5" s="51"/>
-      <c r="CX5" s="45" t="s">
+      <c r="CW5" s="49"/>
+      <c r="CX5" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="CY5" s="45" t="s">
+      <c r="CY5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="CZ5" s="45" t="s">
+      <c r="CZ5" s="46" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:104" ht="14.4">
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="46"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="42"/>
       <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3303,8 +3320,8 @@
       <c r="J6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
       <c r="M6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3317,9 +3334,9 @@
       <c r="P6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="T6" s="46"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="T6" s="42"/>
       <c r="U6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3332,8 +3349,8 @@
       <c r="X6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="46"/>
-      <c r="Z6" s="46"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
       <c r="AA6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3346,9 +3363,9 @@
       <c r="AD6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AE6" s="46"/>
-      <c r="AF6" s="46"/>
-      <c r="AH6" s="46"/>
+      <c r="AE6" s="42"/>
+      <c r="AF6" s="42"/>
+      <c r="AH6" s="42"/>
       <c r="AI6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3361,8 +3378,8 @@
       <c r="AL6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AM6" s="46"/>
-      <c r="AN6" s="46"/>
+      <c r="AM6" s="42"/>
+      <c r="AN6" s="42"/>
       <c r="AO6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3375,10 +3392,10 @@
       <c r="AR6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AS6" s="46"/>
-      <c r="AT6" s="53"/>
+      <c r="AS6" s="42"/>
+      <c r="AT6" s="43"/>
       <c r="AU6" s="13"/>
-      <c r="AV6" s="46"/>
+      <c r="AV6" s="42"/>
       <c r="AW6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3391,8 +3408,8 @@
       <c r="AZ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BA6" s="46"/>
-      <c r="BB6" s="46"/>
+      <c r="BA6" s="42"/>
+      <c r="BB6" s="42"/>
       <c r="BC6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3405,10 +3422,10 @@
       <c r="BF6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BG6" s="46"/>
-      <c r="BH6" s="46"/>
+      <c r="BG6" s="42"/>
+      <c r="BH6" s="42"/>
       <c r="BI6" s="14"/>
-      <c r="BJ6" s="54"/>
+      <c r="BJ6" s="44"/>
       <c r="BK6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3421,8 +3438,8 @@
       <c r="BN6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BO6" s="46"/>
-      <c r="BP6" s="46"/>
+      <c r="BO6" s="42"/>
+      <c r="BP6" s="42"/>
       <c r="BQ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3435,10 +3452,10 @@
       <c r="BT6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BU6" s="46"/>
-      <c r="BV6" s="46"/>
-      <c r="BW6" s="46"/>
-      <c r="BY6" s="46"/>
+      <c r="BU6" s="42"/>
+      <c r="BV6" s="42"/>
+      <c r="BW6" s="42"/>
+      <c r="BY6" s="42"/>
       <c r="BZ6" s="31" t="s">
         <v>25</v>
       </c>
@@ -3451,8 +3468,8 @@
       <c r="CC6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CD6" s="46"/>
-      <c r="CE6" s="46"/>
+      <c r="CD6" s="42"/>
+      <c r="CE6" s="42"/>
       <c r="CF6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3465,10 +3482,10 @@
       <c r="CI6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CJ6" s="46"/>
-      <c r="CK6" s="53"/>
+      <c r="CJ6" s="42"/>
+      <c r="CK6" s="43"/>
       <c r="CL6" s="11"/>
-      <c r="CM6" s="54"/>
+      <c r="CM6" s="44"/>
       <c r="CN6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3481,8 +3498,8 @@
       <c r="CQ6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CR6" s="46"/>
-      <c r="CS6" s="46"/>
+      <c r="CR6" s="42"/>
+      <c r="CS6" s="42"/>
       <c r="CT6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3495,9 +3512,9 @@
       <c r="CW6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CX6" s="46"/>
-      <c r="CY6" s="46"/>
-      <c r="CZ6" s="46"/>
+      <c r="CX6" s="42"/>
+      <c r="CY6" s="42"/>
+      <c r="CZ6" s="42"/>
     </row>
     <row r="7" spans="2:104" ht="20.25" customHeight="1">
       <c r="B7" s="5">
@@ -3606,11 +3623,11 @@
         <v>0.8</v>
       </c>
       <c r="AN7" s="17"/>
-      <c r="AO7" s="6">
-        <v>45092</v>
-      </c>
-      <c r="AP7" s="6">
-        <v>45093</v>
+      <c r="AO7" s="64">
+        <v>45097</v>
+      </c>
+      <c r="AP7" s="64">
+        <v>45098</v>
       </c>
       <c r="AQ7" s="6"/>
       <c r="AR7" s="6"/>
@@ -3618,21 +3635,21 @@
       <c r="AT7" s="12"/>
       <c r="AU7" s="13"/>
       <c r="AV7" s="16"/>
-      <c r="AW7" s="6">
-        <v>45096</v>
-      </c>
-      <c r="AX7" s="6">
-        <v>45096</v>
+      <c r="AW7" s="64">
+        <v>45099</v>
+      </c>
+      <c r="AX7" s="64">
+        <v>45099</v>
       </c>
       <c r="AY7" s="6"/>
       <c r="AZ7" s="6"/>
       <c r="BA7" s="7"/>
       <c r="BB7" s="17"/>
-      <c r="BC7" s="6">
-        <v>45097</v>
-      </c>
-      <c r="BD7" s="6">
-        <v>45097</v>
+      <c r="BC7" s="64">
+        <v>45100</v>
+      </c>
+      <c r="BD7" s="64">
+        <v>45100</v>
       </c>
       <c r="BE7" s="6"/>
       <c r="BF7" s="6"/>
@@ -3640,71 +3657,71 @@
       <c r="BH7" s="10"/>
       <c r="BI7" s="14"/>
       <c r="BJ7" s="18"/>
-      <c r="BK7" s="6">
-        <v>45098</v>
-      </c>
-      <c r="BL7" s="6">
-        <v>45098</v>
+      <c r="BK7" s="64">
+        <v>45103</v>
+      </c>
+      <c r="BL7" s="64">
+        <v>45103</v>
       </c>
       <c r="BM7" s="6"/>
       <c r="BN7" s="6"/>
       <c r="BO7" s="7"/>
       <c r="BP7" s="17"/>
-      <c r="BQ7" s="6">
-        <v>45099</v>
-      </c>
-      <c r="BR7" s="6">
-        <v>45099</v>
+      <c r="BQ7" s="64">
+        <v>45103</v>
+      </c>
+      <c r="BR7" s="64">
+        <v>45103</v>
       </c>
       <c r="BS7" s="6"/>
       <c r="BT7" s="6"/>
       <c r="BU7" s="7"/>
       <c r="BV7" s="10"/>
       <c r="BW7" s="10"/>
-      <c r="BY7" s="42"/>
-      <c r="BZ7" s="42">
-        <v>45100</v>
-      </c>
-      <c r="CA7" s="42">
-        <v>45100</v>
-      </c>
-      <c r="CB7" s="42"/>
-      <c r="CC7" s="42"/>
-      <c r="CD7" s="42"/>
-      <c r="CE7" s="42"/>
-      <c r="CF7" s="42">
-        <v>45103</v>
-      </c>
-      <c r="CG7" s="42">
-        <v>45103</v>
-      </c>
-      <c r="CH7" s="42"/>
-      <c r="CI7" s="42"/>
-      <c r="CJ7" s="42"/>
-      <c r="CK7" s="42"/>
+      <c r="BY7" s="51"/>
+      <c r="BZ7" s="65">
+        <v>45104</v>
+      </c>
+      <c r="CA7" s="65">
+        <v>45104</v>
+      </c>
+      <c r="CB7" s="51"/>
+      <c r="CC7" s="51"/>
+      <c r="CD7" s="51"/>
+      <c r="CE7" s="51"/>
+      <c r="CF7" s="65">
+        <v>45104</v>
+      </c>
+      <c r="CG7" s="65">
+        <v>45104</v>
+      </c>
+      <c r="CH7" s="51"/>
+      <c r="CI7" s="51"/>
+      <c r="CJ7" s="51"/>
+      <c r="CK7" s="51"/>
       <c r="CL7" s="14"/>
-      <c r="CM7" s="42"/>
-      <c r="CN7" s="42">
-        <v>45104</v>
-      </c>
-      <c r="CO7" s="42">
-        <v>45104</v>
-      </c>
-      <c r="CP7" s="42"/>
-      <c r="CQ7" s="42"/>
-      <c r="CR7" s="42"/>
-      <c r="CS7" s="42"/>
-      <c r="CT7" s="42">
+      <c r="CM7" s="51"/>
+      <c r="CN7" s="65">
         <v>45105</v>
       </c>
-      <c r="CU7" s="42">
+      <c r="CO7" s="65">
         <v>45105</v>
       </c>
-      <c r="CV7" s="42"/>
-      <c r="CW7" s="42"/>
-      <c r="CX7" s="42"/>
-      <c r="CY7" s="42"/>
-      <c r="CZ7" s="42"/>
+      <c r="CP7" s="51"/>
+      <c r="CQ7" s="51"/>
+      <c r="CR7" s="51"/>
+      <c r="CS7" s="51"/>
+      <c r="CT7" s="65">
+        <v>45105</v>
+      </c>
+      <c r="CU7" s="65">
+        <v>45105</v>
+      </c>
+      <c r="CV7" s="51"/>
+      <c r="CW7" s="51"/>
+      <c r="CX7" s="51"/>
+      <c r="CY7" s="51"/>
+      <c r="CZ7" s="51"/>
     </row>
     <row r="8" spans="2:104" ht="20.25" customHeight="1">
       <c r="B8" s="5">
@@ -3813,11 +3830,11 @@
         <v>0.1</v>
       </c>
       <c r="AN8" s="17"/>
-      <c r="AO8" s="6">
-        <v>45092</v>
-      </c>
-      <c r="AP8" s="6">
-        <v>45093</v>
+      <c r="AO8" s="64">
+        <v>45097</v>
+      </c>
+      <c r="AP8" s="64">
+        <v>45098</v>
       </c>
       <c r="AQ8" s="6"/>
       <c r="AR8" s="6"/>
@@ -3825,21 +3842,21 @@
       <c r="AT8" s="12"/>
       <c r="AU8" s="13"/>
       <c r="AV8" s="16"/>
-      <c r="AW8" s="6">
-        <v>45096</v>
-      </c>
-      <c r="AX8" s="6">
-        <v>45096</v>
+      <c r="AW8" s="64">
+        <v>45099</v>
+      </c>
+      <c r="AX8" s="64">
+        <v>45099</v>
       </c>
       <c r="AY8" s="6"/>
       <c r="AZ8" s="6"/>
       <c r="BA8" s="7"/>
       <c r="BB8" s="17"/>
-      <c r="BC8" s="6">
-        <v>45097</v>
-      </c>
-      <c r="BD8" s="6">
-        <v>45097</v>
+      <c r="BC8" s="64">
+        <v>45100</v>
+      </c>
+      <c r="BD8" s="64">
+        <v>45100</v>
       </c>
       <c r="BE8" s="6"/>
       <c r="BF8" s="6"/>
@@ -3847,55 +3864,55 @@
       <c r="BH8" s="10"/>
       <c r="BI8" s="14"/>
       <c r="BJ8" s="18"/>
-      <c r="BK8" s="6">
-        <v>45098</v>
-      </c>
-      <c r="BL8" s="6">
-        <v>45098</v>
+      <c r="BK8" s="64">
+        <v>45103</v>
+      </c>
+      <c r="BL8" s="64">
+        <v>45103</v>
       </c>
       <c r="BM8" s="6"/>
       <c r="BN8" s="6"/>
       <c r="BO8" s="7"/>
       <c r="BP8" s="17"/>
-      <c r="BQ8" s="6">
-        <v>45099</v>
-      </c>
-      <c r="BR8" s="6">
-        <v>45099</v>
+      <c r="BQ8" s="64">
+        <v>45103</v>
+      </c>
+      <c r="BR8" s="64">
+        <v>45103</v>
       </c>
       <c r="BS8" s="6"/>
       <c r="BT8" s="6"/>
       <c r="BU8" s="7"/>
       <c r="BV8" s="10"/>
       <c r="BW8" s="10"/>
-      <c r="BY8" s="43"/>
-      <c r="BZ8" s="43"/>
-      <c r="CA8" s="43"/>
-      <c r="CB8" s="43"/>
-      <c r="CC8" s="43"/>
-      <c r="CD8" s="43"/>
-      <c r="CE8" s="43"/>
-      <c r="CF8" s="43"/>
-      <c r="CG8" s="43"/>
-      <c r="CH8" s="43"/>
-      <c r="CI8" s="43"/>
-      <c r="CJ8" s="43"/>
-      <c r="CK8" s="43"/>
+      <c r="BY8" s="52"/>
+      <c r="BZ8" s="66"/>
+      <c r="CA8" s="66"/>
+      <c r="CB8" s="52"/>
+      <c r="CC8" s="52"/>
+      <c r="CD8" s="52"/>
+      <c r="CE8" s="52"/>
+      <c r="CF8" s="66"/>
+      <c r="CG8" s="66"/>
+      <c r="CH8" s="52"/>
+      <c r="CI8" s="52"/>
+      <c r="CJ8" s="52"/>
+      <c r="CK8" s="52"/>
       <c r="CL8" s="14"/>
-      <c r="CM8" s="43"/>
-      <c r="CN8" s="43"/>
-      <c r="CO8" s="43"/>
-      <c r="CP8" s="43"/>
-      <c r="CQ8" s="43"/>
-      <c r="CR8" s="43"/>
-      <c r="CS8" s="43"/>
-      <c r="CT8" s="43"/>
-      <c r="CU8" s="43"/>
-      <c r="CV8" s="43"/>
-      <c r="CW8" s="43"/>
-      <c r="CX8" s="43"/>
-      <c r="CY8" s="43"/>
-      <c r="CZ8" s="43"/>
+      <c r="CM8" s="52"/>
+      <c r="CN8" s="66"/>
+      <c r="CO8" s="66"/>
+      <c r="CP8" s="52"/>
+      <c r="CQ8" s="52"/>
+      <c r="CR8" s="52"/>
+      <c r="CS8" s="52"/>
+      <c r="CT8" s="66"/>
+      <c r="CU8" s="66"/>
+      <c r="CV8" s="52"/>
+      <c r="CW8" s="52"/>
+      <c r="CX8" s="52"/>
+      <c r="CY8" s="52"/>
+      <c r="CZ8" s="52"/>
     </row>
     <row r="9" spans="2:104" ht="20.25" customHeight="1">
       <c r="B9" s="5">
@@ -4002,11 +4019,11 @@
         <v>0.5</v>
       </c>
       <c r="AN9" s="17"/>
-      <c r="AO9" s="6">
-        <v>45092</v>
-      </c>
-      <c r="AP9" s="6">
-        <v>45093</v>
+      <c r="AO9" s="64">
+        <v>45097</v>
+      </c>
+      <c r="AP9" s="64">
+        <v>45098</v>
       </c>
       <c r="AQ9" s="6"/>
       <c r="AR9" s="6"/>
@@ -4014,21 +4031,21 @@
       <c r="AT9" s="12"/>
       <c r="AU9" s="13"/>
       <c r="AV9" s="16"/>
-      <c r="AW9" s="6">
-        <v>45096</v>
-      </c>
-      <c r="AX9" s="6">
-        <v>45096</v>
+      <c r="AW9" s="64">
+        <v>45099</v>
+      </c>
+      <c r="AX9" s="64">
+        <v>45099</v>
       </c>
       <c r="AY9" s="6"/>
       <c r="AZ9" s="6"/>
       <c r="BA9" s="7"/>
       <c r="BB9" s="17"/>
-      <c r="BC9" s="6">
-        <v>45097</v>
-      </c>
-      <c r="BD9" s="6">
-        <v>45097</v>
+      <c r="BC9" s="64">
+        <v>45100</v>
+      </c>
+      <c r="BD9" s="64">
+        <v>45100</v>
       </c>
       <c r="BE9" s="6"/>
       <c r="BF9" s="6"/>
@@ -4036,21 +4053,21 @@
       <c r="BH9" s="10"/>
       <c r="BI9" s="14"/>
       <c r="BJ9" s="18"/>
-      <c r="BK9" s="6">
-        <v>45098</v>
-      </c>
-      <c r="BL9" s="6">
-        <v>45098</v>
+      <c r="BK9" s="64">
+        <v>45103</v>
+      </c>
+      <c r="BL9" s="64">
+        <v>45103</v>
       </c>
       <c r="BM9" s="6"/>
       <c r="BN9" s="6"/>
       <c r="BO9" s="7"/>
       <c r="BP9" s="17"/>
-      <c r="BQ9" s="6">
-        <v>45099</v>
-      </c>
-      <c r="BR9" s="6">
-        <v>45099</v>
+      <c r="BQ9" s="64">
+        <v>45103</v>
+      </c>
+      <c r="BR9" s="64">
+        <v>45103</v>
       </c>
       <c r="BS9" s="6"/>
       <c r="BT9" s="6"/>
@@ -4058,34 +4075,34 @@
       <c r="BV9" s="10"/>
       <c r="BW9" s="10"/>
       <c r="BX9" s="13"/>
-      <c r="BY9" s="43"/>
-      <c r="BZ9" s="43"/>
-      <c r="CA9" s="43"/>
-      <c r="CB9" s="43"/>
-      <c r="CC9" s="43"/>
-      <c r="CD9" s="43"/>
-      <c r="CE9" s="43"/>
-      <c r="CF9" s="43"/>
-      <c r="CG9" s="43"/>
-      <c r="CH9" s="43"/>
-      <c r="CI9" s="43"/>
-      <c r="CJ9" s="43"/>
-      <c r="CK9" s="43"/>
+      <c r="BY9" s="52"/>
+      <c r="BZ9" s="66"/>
+      <c r="CA9" s="66"/>
+      <c r="CB9" s="52"/>
+      <c r="CC9" s="52"/>
+      <c r="CD9" s="52"/>
+      <c r="CE9" s="52"/>
+      <c r="CF9" s="66"/>
+      <c r="CG9" s="66"/>
+      <c r="CH9" s="52"/>
+      <c r="CI9" s="52"/>
+      <c r="CJ9" s="52"/>
+      <c r="CK9" s="52"/>
       <c r="CL9" s="14"/>
-      <c r="CM9" s="43"/>
-      <c r="CN9" s="43"/>
-      <c r="CO9" s="43"/>
-      <c r="CP9" s="43"/>
-      <c r="CQ9" s="43"/>
-      <c r="CR9" s="43"/>
-      <c r="CS9" s="43"/>
-      <c r="CT9" s="43"/>
-      <c r="CU9" s="43"/>
-      <c r="CV9" s="43"/>
-      <c r="CW9" s="43"/>
-      <c r="CX9" s="43"/>
-      <c r="CY9" s="43"/>
-      <c r="CZ9" s="43"/>
+      <c r="CM9" s="52"/>
+      <c r="CN9" s="66"/>
+      <c r="CO9" s="66"/>
+      <c r="CP9" s="52"/>
+      <c r="CQ9" s="52"/>
+      <c r="CR9" s="52"/>
+      <c r="CS9" s="52"/>
+      <c r="CT9" s="66"/>
+      <c r="CU9" s="66"/>
+      <c r="CV9" s="52"/>
+      <c r="CW9" s="52"/>
+      <c r="CX9" s="52"/>
+      <c r="CY9" s="52"/>
+      <c r="CZ9" s="52"/>
     </row>
     <row r="10" spans="2:104" ht="20.25" customHeight="1">
       <c r="B10" s="5">
@@ -4194,11 +4211,11 @@
         <v>0.2</v>
       </c>
       <c r="AN10" s="17"/>
-      <c r="AO10" s="6">
-        <v>45092</v>
-      </c>
-      <c r="AP10" s="6">
-        <v>45093</v>
+      <c r="AO10" s="64">
+        <v>45097</v>
+      </c>
+      <c r="AP10" s="64">
+        <v>45098</v>
       </c>
       <c r="AQ10" s="6"/>
       <c r="AR10" s="6"/>
@@ -4206,21 +4223,21 @@
       <c r="AT10" s="12"/>
       <c r="AU10" s="13"/>
       <c r="AV10" s="16"/>
-      <c r="AW10" s="6">
-        <v>45096</v>
-      </c>
-      <c r="AX10" s="6">
-        <v>45096</v>
+      <c r="AW10" s="64">
+        <v>45099</v>
+      </c>
+      <c r="AX10" s="64">
+        <v>45099</v>
       </c>
       <c r="AY10" s="6"/>
       <c r="AZ10" s="6"/>
       <c r="BA10" s="7"/>
       <c r="BB10" s="17"/>
-      <c r="BC10" s="6">
-        <v>45097</v>
-      </c>
-      <c r="BD10" s="6">
-        <v>45097</v>
+      <c r="BC10" s="64">
+        <v>45100</v>
+      </c>
+      <c r="BD10" s="64">
+        <v>45100</v>
       </c>
       <c r="BE10" s="6"/>
       <c r="BF10" s="6"/>
@@ -4228,21 +4245,21 @@
       <c r="BH10" s="10"/>
       <c r="BI10" s="14"/>
       <c r="BJ10" s="18"/>
-      <c r="BK10" s="6">
-        <v>45098</v>
-      </c>
-      <c r="BL10" s="6">
-        <v>45098</v>
+      <c r="BK10" s="64">
+        <v>45103</v>
+      </c>
+      <c r="BL10" s="64">
+        <v>45103</v>
       </c>
       <c r="BM10" s="6"/>
       <c r="BN10" s="6"/>
       <c r="BO10" s="7"/>
       <c r="BP10" s="17"/>
-      <c r="BQ10" s="6">
-        <v>45099</v>
-      </c>
-      <c r="BR10" s="6">
-        <v>45099</v>
+      <c r="BQ10" s="64">
+        <v>45103</v>
+      </c>
+      <c r="BR10" s="64">
+        <v>45103</v>
       </c>
       <c r="BS10" s="6"/>
       <c r="BT10" s="6"/>
@@ -4250,34 +4267,34 @@
       <c r="BV10" s="10"/>
       <c r="BW10" s="10"/>
       <c r="BX10" s="13"/>
-      <c r="BY10" s="43"/>
-      <c r="BZ10" s="43"/>
-      <c r="CA10" s="43"/>
-      <c r="CB10" s="43"/>
-      <c r="CC10" s="43"/>
-      <c r="CD10" s="43"/>
-      <c r="CE10" s="43"/>
-      <c r="CF10" s="43"/>
-      <c r="CG10" s="43"/>
-      <c r="CH10" s="43"/>
-      <c r="CI10" s="43"/>
-      <c r="CJ10" s="43"/>
-      <c r="CK10" s="43"/>
+      <c r="BY10" s="52"/>
+      <c r="BZ10" s="66"/>
+      <c r="CA10" s="66"/>
+      <c r="CB10" s="52"/>
+      <c r="CC10" s="52"/>
+      <c r="CD10" s="52"/>
+      <c r="CE10" s="52"/>
+      <c r="CF10" s="66"/>
+      <c r="CG10" s="66"/>
+      <c r="CH10" s="52"/>
+      <c r="CI10" s="52"/>
+      <c r="CJ10" s="52"/>
+      <c r="CK10" s="52"/>
       <c r="CL10" s="14"/>
-      <c r="CM10" s="43"/>
-      <c r="CN10" s="43"/>
-      <c r="CO10" s="43"/>
-      <c r="CP10" s="43"/>
-      <c r="CQ10" s="43"/>
-      <c r="CR10" s="43"/>
-      <c r="CS10" s="43"/>
-      <c r="CT10" s="43"/>
-      <c r="CU10" s="43"/>
-      <c r="CV10" s="43"/>
-      <c r="CW10" s="43"/>
-      <c r="CX10" s="43"/>
-      <c r="CY10" s="43"/>
-      <c r="CZ10" s="43"/>
+      <c r="CM10" s="52"/>
+      <c r="CN10" s="66"/>
+      <c r="CO10" s="66"/>
+      <c r="CP10" s="52"/>
+      <c r="CQ10" s="52"/>
+      <c r="CR10" s="52"/>
+      <c r="CS10" s="52"/>
+      <c r="CT10" s="66"/>
+      <c r="CU10" s="66"/>
+      <c r="CV10" s="52"/>
+      <c r="CW10" s="52"/>
+      <c r="CX10" s="52"/>
+      <c r="CY10" s="52"/>
+      <c r="CZ10" s="52"/>
     </row>
     <row r="11" spans="2:104" ht="20.25" customHeight="1">
       <c r="B11" s="5">
@@ -4384,11 +4401,11 @@
         <v>0.15</v>
       </c>
       <c r="AN11" s="17"/>
-      <c r="AO11" s="6">
-        <v>45092</v>
-      </c>
-      <c r="AP11" s="6">
-        <v>45093</v>
+      <c r="AO11" s="64">
+        <v>45097</v>
+      </c>
+      <c r="AP11" s="64">
+        <v>45098</v>
       </c>
       <c r="AQ11" s="6"/>
       <c r="AR11" s="6"/>
@@ -4396,21 +4413,21 @@
       <c r="AT11" s="12"/>
       <c r="AU11" s="13"/>
       <c r="AV11" s="16"/>
-      <c r="AW11" s="6">
-        <v>45096</v>
-      </c>
-      <c r="AX11" s="6">
-        <v>45096</v>
+      <c r="AW11" s="64">
+        <v>45099</v>
+      </c>
+      <c r="AX11" s="64">
+        <v>45099</v>
       </c>
       <c r="AY11" s="6"/>
       <c r="AZ11" s="6"/>
       <c r="BA11" s="7"/>
       <c r="BB11" s="17"/>
-      <c r="BC11" s="6">
-        <v>45097</v>
-      </c>
-      <c r="BD11" s="6">
-        <v>45097</v>
+      <c r="BC11" s="64">
+        <v>45100</v>
+      </c>
+      <c r="BD11" s="64">
+        <v>45100</v>
       </c>
       <c r="BE11" s="6"/>
       <c r="BF11" s="6"/>
@@ -4418,21 +4435,21 @@
       <c r="BH11" s="10"/>
       <c r="BI11" s="14"/>
       <c r="BJ11" s="18"/>
-      <c r="BK11" s="6">
-        <v>45098</v>
-      </c>
-      <c r="BL11" s="6">
-        <v>45098</v>
+      <c r="BK11" s="64">
+        <v>45103</v>
+      </c>
+      <c r="BL11" s="64">
+        <v>45103</v>
       </c>
       <c r="BM11" s="6"/>
       <c r="BN11" s="6"/>
       <c r="BO11" s="7"/>
       <c r="BP11" s="17"/>
-      <c r="BQ11" s="6">
-        <v>45099</v>
-      </c>
-      <c r="BR11" s="6">
-        <v>45099</v>
+      <c r="BQ11" s="64">
+        <v>45103</v>
+      </c>
+      <c r="BR11" s="64">
+        <v>45103</v>
       </c>
       <c r="BS11" s="6"/>
       <c r="BT11" s="6"/>
@@ -4440,34 +4457,34 @@
       <c r="BV11" s="10"/>
       <c r="BW11" s="10"/>
       <c r="BX11" s="13"/>
-      <c r="BY11" s="43"/>
-      <c r="BZ11" s="43"/>
-      <c r="CA11" s="43"/>
-      <c r="CB11" s="43"/>
-      <c r="CC11" s="43"/>
-      <c r="CD11" s="43"/>
-      <c r="CE11" s="43"/>
-      <c r="CF11" s="43"/>
-      <c r="CG11" s="43"/>
-      <c r="CH11" s="43"/>
-      <c r="CI11" s="43"/>
-      <c r="CJ11" s="43"/>
-      <c r="CK11" s="43"/>
+      <c r="BY11" s="52"/>
+      <c r="BZ11" s="66"/>
+      <c r="CA11" s="66"/>
+      <c r="CB11" s="52"/>
+      <c r="CC11" s="52"/>
+      <c r="CD11" s="52"/>
+      <c r="CE11" s="52"/>
+      <c r="CF11" s="66"/>
+      <c r="CG11" s="66"/>
+      <c r="CH11" s="52"/>
+      <c r="CI11" s="52"/>
+      <c r="CJ11" s="52"/>
+      <c r="CK11" s="52"/>
       <c r="CL11" s="14"/>
-      <c r="CM11" s="43"/>
-      <c r="CN11" s="43"/>
-      <c r="CO11" s="43"/>
-      <c r="CP11" s="43"/>
-      <c r="CQ11" s="43"/>
-      <c r="CR11" s="43"/>
-      <c r="CS11" s="43"/>
-      <c r="CT11" s="43"/>
-      <c r="CU11" s="43"/>
-      <c r="CV11" s="43"/>
-      <c r="CW11" s="43"/>
-      <c r="CX11" s="43"/>
-      <c r="CY11" s="43"/>
-      <c r="CZ11" s="43"/>
+      <c r="CM11" s="52"/>
+      <c r="CN11" s="66"/>
+      <c r="CO11" s="66"/>
+      <c r="CP11" s="52"/>
+      <c r="CQ11" s="52"/>
+      <c r="CR11" s="52"/>
+      <c r="CS11" s="52"/>
+      <c r="CT11" s="66"/>
+      <c r="CU11" s="66"/>
+      <c r="CV11" s="52"/>
+      <c r="CW11" s="52"/>
+      <c r="CX11" s="52"/>
+      <c r="CY11" s="52"/>
+      <c r="CZ11" s="52"/>
     </row>
     <row r="12" spans="2:104" ht="20.25" customHeight="1">
       <c r="B12" s="5">
@@ -4574,11 +4591,11 @@
         <v>0.4</v>
       </c>
       <c r="AN12" s="17"/>
-      <c r="AO12" s="6">
-        <v>45092</v>
-      </c>
-      <c r="AP12" s="6">
-        <v>45093</v>
+      <c r="AO12" s="64">
+        <v>45097</v>
+      </c>
+      <c r="AP12" s="64">
+        <v>45098</v>
       </c>
       <c r="AQ12" s="6"/>
       <c r="AR12" s="6"/>
@@ -4586,21 +4603,21 @@
       <c r="AT12" s="12"/>
       <c r="AU12" s="13"/>
       <c r="AV12" s="16"/>
-      <c r="AW12" s="6">
-        <v>45096</v>
-      </c>
-      <c r="AX12" s="6">
-        <v>45096</v>
+      <c r="AW12" s="64">
+        <v>45099</v>
+      </c>
+      <c r="AX12" s="64">
+        <v>45099</v>
       </c>
       <c r="AY12" s="6"/>
       <c r="AZ12" s="6"/>
       <c r="BA12" s="7"/>
       <c r="BB12" s="17"/>
-      <c r="BC12" s="6">
-        <v>45097</v>
-      </c>
-      <c r="BD12" s="6">
-        <v>45097</v>
+      <c r="BC12" s="64">
+        <v>45100</v>
+      </c>
+      <c r="BD12" s="64">
+        <v>45100</v>
       </c>
       <c r="BE12" s="6"/>
       <c r="BF12" s="6"/>
@@ -4608,21 +4625,21 @@
       <c r="BH12" s="10"/>
       <c r="BI12" s="14"/>
       <c r="BJ12" s="18"/>
-      <c r="BK12" s="6">
-        <v>45098</v>
-      </c>
-      <c r="BL12" s="6">
-        <v>45098</v>
+      <c r="BK12" s="64">
+        <v>45103</v>
+      </c>
+      <c r="BL12" s="64">
+        <v>45103</v>
       </c>
       <c r="BM12" s="6"/>
       <c r="BN12" s="6"/>
       <c r="BO12" s="7"/>
       <c r="BP12" s="17"/>
-      <c r="BQ12" s="6">
-        <v>45099</v>
-      </c>
-      <c r="BR12" s="6">
-        <v>45099</v>
+      <c r="BQ12" s="64">
+        <v>45103</v>
+      </c>
+      <c r="BR12" s="64">
+        <v>45103</v>
       </c>
       <c r="BS12" s="6"/>
       <c r="BT12" s="6"/>
@@ -4630,34 +4647,34 @@
       <c r="BV12" s="10"/>
       <c r="BW12" s="10"/>
       <c r="BX12" s="13"/>
-      <c r="BY12" s="43"/>
-      <c r="BZ12" s="43"/>
-      <c r="CA12" s="43"/>
-      <c r="CB12" s="43"/>
-      <c r="CC12" s="43"/>
-      <c r="CD12" s="43"/>
-      <c r="CE12" s="43"/>
-      <c r="CF12" s="43"/>
-      <c r="CG12" s="43"/>
-      <c r="CH12" s="43"/>
-      <c r="CI12" s="43"/>
-      <c r="CJ12" s="43"/>
-      <c r="CK12" s="43"/>
+      <c r="BY12" s="52"/>
+      <c r="BZ12" s="66"/>
+      <c r="CA12" s="66"/>
+      <c r="CB12" s="52"/>
+      <c r="CC12" s="52"/>
+      <c r="CD12" s="52"/>
+      <c r="CE12" s="52"/>
+      <c r="CF12" s="66"/>
+      <c r="CG12" s="66"/>
+      <c r="CH12" s="52"/>
+      <c r="CI12" s="52"/>
+      <c r="CJ12" s="52"/>
+      <c r="CK12" s="52"/>
       <c r="CL12" s="14"/>
-      <c r="CM12" s="43"/>
-      <c r="CN12" s="43"/>
-      <c r="CO12" s="43"/>
-      <c r="CP12" s="43"/>
-      <c r="CQ12" s="43"/>
-      <c r="CR12" s="43"/>
-      <c r="CS12" s="43"/>
-      <c r="CT12" s="43"/>
-      <c r="CU12" s="43"/>
-      <c r="CV12" s="43"/>
-      <c r="CW12" s="43"/>
-      <c r="CX12" s="43"/>
-      <c r="CY12" s="43"/>
-      <c r="CZ12" s="43"/>
+      <c r="CM12" s="52"/>
+      <c r="CN12" s="66"/>
+      <c r="CO12" s="66"/>
+      <c r="CP12" s="52"/>
+      <c r="CQ12" s="52"/>
+      <c r="CR12" s="52"/>
+      <c r="CS12" s="52"/>
+      <c r="CT12" s="66"/>
+      <c r="CU12" s="66"/>
+      <c r="CV12" s="52"/>
+      <c r="CW12" s="52"/>
+      <c r="CX12" s="52"/>
+      <c r="CY12" s="52"/>
+      <c r="CZ12" s="52"/>
     </row>
     <row r="13" spans="2:104" ht="20.25" customHeight="1">
       <c r="B13" s="5">
@@ -4766,11 +4783,11 @@
         <v>0.2</v>
       </c>
       <c r="AN13" s="17"/>
-      <c r="AO13" s="6">
-        <v>45092</v>
-      </c>
-      <c r="AP13" s="6">
-        <v>45093</v>
+      <c r="AO13" s="64">
+        <v>45097</v>
+      </c>
+      <c r="AP13" s="64">
+        <v>45098</v>
       </c>
       <c r="AQ13" s="6"/>
       <c r="AR13" s="6"/>
@@ -4778,21 +4795,21 @@
       <c r="AT13" s="12"/>
       <c r="AU13" s="13"/>
       <c r="AV13" s="16"/>
-      <c r="AW13" s="6">
-        <v>45096</v>
-      </c>
-      <c r="AX13" s="6">
-        <v>45096</v>
+      <c r="AW13" s="64">
+        <v>45099</v>
+      </c>
+      <c r="AX13" s="64">
+        <v>45099</v>
       </c>
       <c r="AY13" s="6"/>
       <c r="AZ13" s="6"/>
       <c r="BA13" s="7"/>
       <c r="BB13" s="17"/>
-      <c r="BC13" s="6">
-        <v>45097</v>
-      </c>
-      <c r="BD13" s="6">
-        <v>45097</v>
+      <c r="BC13" s="64">
+        <v>45100</v>
+      </c>
+      <c r="BD13" s="64">
+        <v>45100</v>
       </c>
       <c r="BE13" s="6"/>
       <c r="BF13" s="6"/>
@@ -4800,21 +4817,21 @@
       <c r="BH13" s="10"/>
       <c r="BI13" s="14"/>
       <c r="BJ13" s="18"/>
-      <c r="BK13" s="6">
-        <v>45098</v>
-      </c>
-      <c r="BL13" s="6">
-        <v>45098</v>
+      <c r="BK13" s="64">
+        <v>45103</v>
+      </c>
+      <c r="BL13" s="64">
+        <v>45103</v>
       </c>
       <c r="BM13" s="6"/>
       <c r="BN13" s="6"/>
       <c r="BO13" s="7"/>
       <c r="BP13" s="17"/>
-      <c r="BQ13" s="6">
-        <v>45099</v>
-      </c>
-      <c r="BR13" s="6">
-        <v>45099</v>
+      <c r="BQ13" s="64">
+        <v>45103</v>
+      </c>
+      <c r="BR13" s="64">
+        <v>45103</v>
       </c>
       <c r="BS13" s="6"/>
       <c r="BT13" s="6"/>
@@ -4822,34 +4839,34 @@
       <c r="BV13" s="10"/>
       <c r="BW13" s="10"/>
       <c r="BX13" s="13"/>
-      <c r="BY13" s="43"/>
-      <c r="BZ13" s="43"/>
-      <c r="CA13" s="43"/>
-      <c r="CB13" s="43"/>
-      <c r="CC13" s="43"/>
-      <c r="CD13" s="43"/>
-      <c r="CE13" s="43"/>
-      <c r="CF13" s="43"/>
-      <c r="CG13" s="43"/>
-      <c r="CH13" s="43"/>
-      <c r="CI13" s="43"/>
-      <c r="CJ13" s="43"/>
-      <c r="CK13" s="43"/>
+      <c r="BY13" s="52"/>
+      <c r="BZ13" s="66"/>
+      <c r="CA13" s="66"/>
+      <c r="CB13" s="52"/>
+      <c r="CC13" s="52"/>
+      <c r="CD13" s="52"/>
+      <c r="CE13" s="52"/>
+      <c r="CF13" s="66"/>
+      <c r="CG13" s="66"/>
+      <c r="CH13" s="52"/>
+      <c r="CI13" s="52"/>
+      <c r="CJ13" s="52"/>
+      <c r="CK13" s="52"/>
       <c r="CL13" s="14"/>
-      <c r="CM13" s="43"/>
-      <c r="CN13" s="43"/>
-      <c r="CO13" s="43"/>
-      <c r="CP13" s="43"/>
-      <c r="CQ13" s="43"/>
-      <c r="CR13" s="43"/>
-      <c r="CS13" s="43"/>
-      <c r="CT13" s="43"/>
-      <c r="CU13" s="43"/>
-      <c r="CV13" s="43"/>
-      <c r="CW13" s="43"/>
-      <c r="CX13" s="43"/>
-      <c r="CY13" s="43"/>
-      <c r="CZ13" s="43"/>
+      <c r="CM13" s="52"/>
+      <c r="CN13" s="66"/>
+      <c r="CO13" s="66"/>
+      <c r="CP13" s="52"/>
+      <c r="CQ13" s="52"/>
+      <c r="CR13" s="52"/>
+      <c r="CS13" s="52"/>
+      <c r="CT13" s="66"/>
+      <c r="CU13" s="66"/>
+      <c r="CV13" s="52"/>
+      <c r="CW13" s="52"/>
+      <c r="CX13" s="52"/>
+      <c r="CY13" s="52"/>
+      <c r="CZ13" s="52"/>
     </row>
     <row r="14" spans="2:104" ht="20.25" customHeight="1">
       <c r="B14" s="5">
@@ -4958,36 +4975,56 @@
         <v>0.1</v>
       </c>
       <c r="AN14" s="17"/>
-      <c r="AO14" s="6"/>
-      <c r="AP14" s="6"/>
+      <c r="AO14" s="64">
+        <v>45097</v>
+      </c>
+      <c r="AP14" s="64">
+        <v>45098</v>
+      </c>
       <c r="AQ14" s="6"/>
       <c r="AR14" s="6"/>
       <c r="AS14" s="7"/>
       <c r="AT14" s="12"/>
       <c r="AU14" s="13"/>
       <c r="AV14" s="16"/>
-      <c r="AW14" s="6"/>
-      <c r="AX14" s="6"/>
+      <c r="AW14" s="64">
+        <v>45099</v>
+      </c>
+      <c r="AX14" s="64">
+        <v>45099</v>
+      </c>
       <c r="AY14" s="6"/>
       <c r="AZ14" s="6"/>
       <c r="BA14" s="7"/>
       <c r="BB14" s="17"/>
-      <c r="BC14" s="6"/>
-      <c r="BD14" s="6"/>
+      <c r="BC14" s="64">
+        <v>45100</v>
+      </c>
+      <c r="BD14" s="64">
+        <v>45100</v>
+      </c>
       <c r="BE14" s="6"/>
       <c r="BF14" s="6"/>
       <c r="BG14" s="19"/>
       <c r="BH14" s="10"/>
       <c r="BI14" s="14"/>
       <c r="BJ14" s="18"/>
-      <c r="BK14" s="6"/>
-      <c r="BL14" s="6"/>
+      <c r="BK14" s="64">
+        <v>45103</v>
+      </c>
+      <c r="BL14" s="64">
+        <v>45103</v>
+      </c>
       <c r="BM14" s="6"/>
       <c r="BN14" s="6"/>
       <c r="BO14" s="7"/>
       <c r="BP14" s="17"/>
-      <c r="BQ14" s="6"/>
-      <c r="BR14" s="6"/>
+      <c r="BQ14" s="64">
+        <v>45103</v>
+      </c>
+      <c r="BR14" s="64">
+        <v>45103</v>
+      </c>
       <c r="BS14" s="6"/>
       <c r="BT14" s="6"/>
       <c r="BU14" s="7"/>
@@ -4995,28 +5032,28 @@
       <c r="BW14" s="10"/>
       <c r="BX14" s="13"/>
       <c r="BY14" s="36"/>
-      <c r="BZ14" s="36"/>
-      <c r="CA14" s="36"/>
+      <c r="BZ14" s="67"/>
+      <c r="CA14" s="67"/>
       <c r="CB14" s="36"/>
       <c r="CC14" s="36"/>
       <c r="CD14" s="36"/>
       <c r="CE14" s="36"/>
-      <c r="CF14" s="36"/>
-      <c r="CG14" s="36"/>
+      <c r="CF14" s="67"/>
+      <c r="CG14" s="67"/>
       <c r="CH14" s="36"/>
       <c r="CI14" s="36"/>
       <c r="CJ14" s="36"/>
       <c r="CK14" s="36"/>
       <c r="CL14" s="14"/>
       <c r="CM14" s="36"/>
-      <c r="CN14" s="36"/>
-      <c r="CO14" s="36"/>
+      <c r="CN14" s="67"/>
+      <c r="CO14" s="67"/>
       <c r="CP14" s="36"/>
       <c r="CQ14" s="36"/>
       <c r="CR14" s="36"/>
       <c r="CS14" s="36"/>
-      <c r="CT14" s="36"/>
-      <c r="CU14" s="36"/>
+      <c r="CT14" s="67"/>
+      <c r="CU14" s="67"/>
       <c r="CV14" s="36"/>
       <c r="CW14" s="36"/>
       <c r="CX14" s="36"/>
@@ -5128,11 +5165,11 @@
         <v>0.7</v>
       </c>
       <c r="AN15" s="17"/>
-      <c r="AO15" s="6">
-        <v>45092</v>
-      </c>
-      <c r="AP15" s="6">
-        <v>45093</v>
+      <c r="AO15" s="64">
+        <v>45097</v>
+      </c>
+      <c r="AP15" s="64">
+        <v>45098</v>
       </c>
       <c r="AQ15" s="6"/>
       <c r="AR15" s="6"/>
@@ -5140,21 +5177,21 @@
       <c r="AT15" s="12"/>
       <c r="AU15" s="13"/>
       <c r="AV15" s="16"/>
-      <c r="AW15" s="6">
-        <v>45096</v>
-      </c>
-      <c r="AX15" s="6">
-        <v>45096</v>
+      <c r="AW15" s="64">
+        <v>45099</v>
+      </c>
+      <c r="AX15" s="64">
+        <v>45099</v>
       </c>
       <c r="AY15" s="6"/>
       <c r="AZ15" s="6"/>
       <c r="BA15" s="7"/>
       <c r="BB15" s="17"/>
-      <c r="BC15" s="6">
-        <v>45097</v>
-      </c>
-      <c r="BD15" s="6">
-        <v>45097</v>
+      <c r="BC15" s="64">
+        <v>45100</v>
+      </c>
+      <c r="BD15" s="64">
+        <v>45100</v>
       </c>
       <c r="BE15" s="6"/>
       <c r="BF15" s="6"/>
@@ -5162,21 +5199,21 @@
       <c r="BH15" s="10"/>
       <c r="BI15" s="14"/>
       <c r="BJ15" s="18"/>
-      <c r="BK15" s="6">
-        <v>45098</v>
-      </c>
-      <c r="BL15" s="6">
-        <v>45098</v>
+      <c r="BK15" s="64">
+        <v>45103</v>
+      </c>
+      <c r="BL15" s="64">
+        <v>45103</v>
       </c>
       <c r="BM15" s="6"/>
       <c r="BN15" s="6"/>
       <c r="BO15" s="7"/>
       <c r="BP15" s="17"/>
-      <c r="BQ15" s="6">
-        <v>45099</v>
-      </c>
-      <c r="BR15" s="6">
-        <v>45099</v>
+      <c r="BQ15" s="64">
+        <v>45103</v>
+      </c>
+      <c r="BR15" s="64">
+        <v>45103</v>
       </c>
       <c r="BS15" s="6"/>
       <c r="BT15" s="6"/>
@@ -5184,50 +5221,50 @@
       <c r="BV15" s="10"/>
       <c r="BW15" s="10"/>
       <c r="BX15" s="13"/>
-      <c r="BY15" s="42"/>
-      <c r="BZ15" s="47">
-        <v>45100</v>
-      </c>
-      <c r="CA15" s="47">
-        <v>45100</v>
-      </c>
-      <c r="CB15" s="42"/>
-      <c r="CC15" s="42"/>
-      <c r="CD15" s="42"/>
-      <c r="CE15" s="42"/>
-      <c r="CF15" s="42">
-        <v>45103</v>
-      </c>
-      <c r="CG15" s="42">
-        <v>45103</v>
-      </c>
-      <c r="CH15" s="42"/>
-      <c r="CI15" s="42"/>
-      <c r="CJ15" s="42"/>
-      <c r="CK15" s="42"/>
+      <c r="BY15" s="51"/>
+      <c r="BZ15" s="65">
+        <v>45104</v>
+      </c>
+      <c r="CA15" s="65">
+        <v>45104</v>
+      </c>
+      <c r="CB15" s="51"/>
+      <c r="CC15" s="51"/>
+      <c r="CD15" s="51"/>
+      <c r="CE15" s="51"/>
+      <c r="CF15" s="65">
+        <v>45104</v>
+      </c>
+      <c r="CG15" s="65">
+        <v>45104</v>
+      </c>
+      <c r="CH15" s="51"/>
+      <c r="CI15" s="51"/>
+      <c r="CJ15" s="51"/>
+      <c r="CK15" s="51"/>
       <c r="CL15" s="14"/>
-      <c r="CM15" s="42"/>
-      <c r="CN15" s="42">
-        <v>45104</v>
-      </c>
-      <c r="CO15" s="42">
-        <v>45104</v>
-      </c>
-      <c r="CP15" s="42"/>
-      <c r="CQ15" s="42"/>
-      <c r="CR15" s="42"/>
-      <c r="CS15" s="42"/>
-      <c r="CT15" s="42">
+      <c r="CM15" s="51"/>
+      <c r="CN15" s="65">
         <v>45105</v>
       </c>
-      <c r="CU15" s="42">
+      <c r="CO15" s="65">
         <v>45105</v>
       </c>
-      <c r="CV15" s="42"/>
-      <c r="CW15" s="42"/>
-      <c r="CX15" s="42"/>
-      <c r="CY15" s="42"/>
-      <c r="CZ15" s="42"/>
+      <c r="CP15" s="51"/>
+      <c r="CQ15" s="51"/>
+      <c r="CR15" s="51"/>
+      <c r="CS15" s="51"/>
+      <c r="CT15" s="65">
+        <v>45105</v>
+      </c>
+      <c r="CU15" s="65">
+        <v>45105</v>
+      </c>
+      <c r="CV15" s="51"/>
+      <c r="CW15" s="51"/>
+      <c r="CX15" s="51"/>
+      <c r="CY15" s="51"/>
+      <c r="CZ15" s="51"/>
     </row>
     <row r="16" spans="2:104" ht="20.25" customHeight="1">
       <c r="B16" s="5">
@@ -5334,11 +5371,11 @@
         <v>0</v>
       </c>
       <c r="AN16" s="17"/>
-      <c r="AO16" s="6">
-        <v>45092</v>
-      </c>
-      <c r="AP16" s="6">
-        <v>45093</v>
+      <c r="AO16" s="64">
+        <v>45097</v>
+      </c>
+      <c r="AP16" s="64">
+        <v>45098</v>
       </c>
       <c r="AQ16" s="6"/>
       <c r="AR16" s="6"/>
@@ -5346,21 +5383,21 @@
       <c r="AT16" s="12"/>
       <c r="AU16" s="13"/>
       <c r="AV16" s="16"/>
-      <c r="AW16" s="6">
-        <v>45096</v>
-      </c>
-      <c r="AX16" s="6">
-        <v>45096</v>
+      <c r="AW16" s="64">
+        <v>45099</v>
+      </c>
+      <c r="AX16" s="64">
+        <v>45099</v>
       </c>
       <c r="AY16" s="6"/>
       <c r="AZ16" s="6"/>
       <c r="BA16" s="7"/>
       <c r="BB16" s="17"/>
-      <c r="BC16" s="6">
-        <v>45097</v>
-      </c>
-      <c r="BD16" s="6">
-        <v>45097</v>
+      <c r="BC16" s="64">
+        <v>45100</v>
+      </c>
+      <c r="BD16" s="64">
+        <v>45100</v>
       </c>
       <c r="BE16" s="6"/>
       <c r="BF16" s="6"/>
@@ -5368,55 +5405,55 @@
       <c r="BH16" s="10"/>
       <c r="BI16" s="14"/>
       <c r="BJ16" s="18"/>
-      <c r="BK16" s="6">
-        <v>45098</v>
-      </c>
-      <c r="BL16" s="6">
-        <v>45098</v>
+      <c r="BK16" s="64">
+        <v>45103</v>
+      </c>
+      <c r="BL16" s="64">
+        <v>45103</v>
       </c>
       <c r="BM16" s="6"/>
       <c r="BN16" s="6"/>
       <c r="BO16" s="7"/>
       <c r="BP16" s="17"/>
-      <c r="BQ16" s="6">
-        <v>45099</v>
-      </c>
-      <c r="BR16" s="6">
-        <v>45099</v>
+      <c r="BQ16" s="64">
+        <v>45103</v>
+      </c>
+      <c r="BR16" s="64">
+        <v>45103</v>
       </c>
       <c r="BS16" s="6"/>
       <c r="BT16" s="6"/>
       <c r="BU16" s="7"/>
       <c r="BV16" s="10"/>
       <c r="BW16" s="10"/>
-      <c r="BY16" s="43"/>
-      <c r="BZ16" s="48"/>
-      <c r="CA16" s="48"/>
-      <c r="CB16" s="43"/>
-      <c r="CC16" s="43"/>
-      <c r="CD16" s="43"/>
-      <c r="CE16" s="43"/>
-      <c r="CF16" s="43"/>
-      <c r="CG16" s="43"/>
-      <c r="CH16" s="43"/>
-      <c r="CI16" s="43"/>
-      <c r="CJ16" s="43"/>
-      <c r="CK16" s="43"/>
+      <c r="BY16" s="52"/>
+      <c r="BZ16" s="66"/>
+      <c r="CA16" s="66"/>
+      <c r="CB16" s="52"/>
+      <c r="CC16" s="52"/>
+      <c r="CD16" s="52"/>
+      <c r="CE16" s="52"/>
+      <c r="CF16" s="66"/>
+      <c r="CG16" s="66"/>
+      <c r="CH16" s="52"/>
+      <c r="CI16" s="52"/>
+      <c r="CJ16" s="52"/>
+      <c r="CK16" s="52"/>
       <c r="CL16" s="29"/>
-      <c r="CM16" s="43"/>
-      <c r="CN16" s="43"/>
-      <c r="CO16" s="43"/>
-      <c r="CP16" s="43"/>
-      <c r="CQ16" s="43"/>
-      <c r="CR16" s="43"/>
-      <c r="CS16" s="43"/>
-      <c r="CT16" s="43"/>
-      <c r="CU16" s="43"/>
-      <c r="CV16" s="43"/>
-      <c r="CW16" s="43"/>
-      <c r="CX16" s="43"/>
-      <c r="CY16" s="43"/>
-      <c r="CZ16" s="43"/>
+      <c r="CM16" s="52"/>
+      <c r="CN16" s="66"/>
+      <c r="CO16" s="66"/>
+      <c r="CP16" s="52"/>
+      <c r="CQ16" s="52"/>
+      <c r="CR16" s="52"/>
+      <c r="CS16" s="52"/>
+      <c r="CT16" s="66"/>
+      <c r="CU16" s="66"/>
+      <c r="CV16" s="52"/>
+      <c r="CW16" s="52"/>
+      <c r="CX16" s="52"/>
+      <c r="CY16" s="52"/>
+      <c r="CZ16" s="52"/>
     </row>
     <row r="17" spans="2:104" ht="20.25" customHeight="1">
       <c r="B17" s="5">
@@ -5523,11 +5560,11 @@
         <v>0.7</v>
       </c>
       <c r="AN17" s="17"/>
-      <c r="AO17" s="6">
-        <v>45092</v>
-      </c>
-      <c r="AP17" s="6">
-        <v>45093</v>
+      <c r="AO17" s="64">
+        <v>45097</v>
+      </c>
+      <c r="AP17" s="64">
+        <v>45098</v>
       </c>
       <c r="AQ17" s="6"/>
       <c r="AR17" s="6"/>
@@ -5535,21 +5572,21 @@
       <c r="AT17" s="12"/>
       <c r="AU17" s="13"/>
       <c r="AV17" s="16"/>
-      <c r="AW17" s="6">
-        <v>45096</v>
-      </c>
-      <c r="AX17" s="6">
-        <v>45096</v>
+      <c r="AW17" s="64">
+        <v>45099</v>
+      </c>
+      <c r="AX17" s="64">
+        <v>45099</v>
       </c>
       <c r="AY17" s="6"/>
       <c r="AZ17" s="6"/>
       <c r="BA17" s="7"/>
       <c r="BB17" s="17"/>
-      <c r="BC17" s="6">
-        <v>45097</v>
-      </c>
-      <c r="BD17" s="6">
-        <v>45097</v>
+      <c r="BC17" s="64">
+        <v>45100</v>
+      </c>
+      <c r="BD17" s="64">
+        <v>45100</v>
       </c>
       <c r="BE17" s="6"/>
       <c r="BF17" s="6"/>
@@ -5557,55 +5594,55 @@
       <c r="BH17" s="10"/>
       <c r="BI17" s="14"/>
       <c r="BJ17" s="18"/>
-      <c r="BK17" s="6">
-        <v>45098</v>
-      </c>
-      <c r="BL17" s="6">
-        <v>45098</v>
+      <c r="BK17" s="64">
+        <v>45103</v>
+      </c>
+      <c r="BL17" s="64">
+        <v>45103</v>
       </c>
       <c r="BM17" s="6"/>
       <c r="BN17" s="6"/>
       <c r="BO17" s="7"/>
       <c r="BP17" s="17"/>
-      <c r="BQ17" s="6">
-        <v>45099</v>
-      </c>
-      <c r="BR17" s="6">
-        <v>45099</v>
+      <c r="BQ17" s="64">
+        <v>45103</v>
+      </c>
+      <c r="BR17" s="64">
+        <v>45103</v>
       </c>
       <c r="BS17" s="6"/>
       <c r="BT17" s="6"/>
       <c r="BU17" s="7"/>
       <c r="BV17" s="10"/>
       <c r="BW17" s="10"/>
-      <c r="BY17" s="43"/>
-      <c r="BZ17" s="48"/>
-      <c r="CA17" s="48"/>
-      <c r="CB17" s="43"/>
-      <c r="CC17" s="43"/>
-      <c r="CD17" s="43"/>
-      <c r="CE17" s="43"/>
-      <c r="CF17" s="43"/>
-      <c r="CG17" s="43"/>
-      <c r="CH17" s="43"/>
-      <c r="CI17" s="43"/>
-      <c r="CJ17" s="43"/>
-      <c r="CK17" s="43"/>
+      <c r="BY17" s="52"/>
+      <c r="BZ17" s="66"/>
+      <c r="CA17" s="66"/>
+      <c r="CB17" s="52"/>
+      <c r="CC17" s="52"/>
+      <c r="CD17" s="52"/>
+      <c r="CE17" s="52"/>
+      <c r="CF17" s="66"/>
+      <c r="CG17" s="66"/>
+      <c r="CH17" s="52"/>
+      <c r="CI17" s="52"/>
+      <c r="CJ17" s="52"/>
+      <c r="CK17" s="52"/>
       <c r="CL17" s="29"/>
-      <c r="CM17" s="43"/>
-      <c r="CN17" s="43"/>
-      <c r="CO17" s="43"/>
-      <c r="CP17" s="43"/>
-      <c r="CQ17" s="43"/>
-      <c r="CR17" s="43"/>
-      <c r="CS17" s="43"/>
-      <c r="CT17" s="43"/>
-      <c r="CU17" s="43"/>
-      <c r="CV17" s="43"/>
-      <c r="CW17" s="43"/>
-      <c r="CX17" s="43"/>
-      <c r="CY17" s="43"/>
-      <c r="CZ17" s="43"/>
+      <c r="CM17" s="52"/>
+      <c r="CN17" s="66"/>
+      <c r="CO17" s="66"/>
+      <c r="CP17" s="52"/>
+      <c r="CQ17" s="52"/>
+      <c r="CR17" s="52"/>
+      <c r="CS17" s="52"/>
+      <c r="CT17" s="66"/>
+      <c r="CU17" s="66"/>
+      <c r="CV17" s="52"/>
+      <c r="CW17" s="52"/>
+      <c r="CX17" s="52"/>
+      <c r="CY17" s="52"/>
+      <c r="CZ17" s="52"/>
     </row>
     <row r="18" spans="2:104" ht="20.25" customHeight="1">
       <c r="B18" s="5">
@@ -5712,11 +5749,11 @@
         <v>0.25</v>
       </c>
       <c r="AN18" s="17"/>
-      <c r="AO18" s="6">
-        <v>45092</v>
-      </c>
-      <c r="AP18" s="6">
-        <v>45093</v>
+      <c r="AO18" s="64">
+        <v>45097</v>
+      </c>
+      <c r="AP18" s="64">
+        <v>45098</v>
       </c>
       <c r="AQ18" s="6"/>
       <c r="AR18" s="6"/>
@@ -5724,21 +5761,21 @@
       <c r="AT18" s="12"/>
       <c r="AU18" s="13"/>
       <c r="AV18" s="16"/>
-      <c r="AW18" s="6">
-        <v>45096</v>
-      </c>
-      <c r="AX18" s="6">
-        <v>45096</v>
+      <c r="AW18" s="64">
+        <v>45099</v>
+      </c>
+      <c r="AX18" s="64">
+        <v>45099</v>
       </c>
       <c r="AY18" s="6"/>
       <c r="AZ18" s="6"/>
       <c r="BA18" s="7"/>
       <c r="BB18" s="17"/>
-      <c r="BC18" s="6">
-        <v>45097</v>
-      </c>
-      <c r="BD18" s="6">
-        <v>45097</v>
+      <c r="BC18" s="64">
+        <v>45100</v>
+      </c>
+      <c r="BD18" s="64">
+        <v>45100</v>
       </c>
       <c r="BE18" s="6"/>
       <c r="BF18" s="6"/>
@@ -5746,21 +5783,21 @@
       <c r="BH18" s="10"/>
       <c r="BI18" s="14"/>
       <c r="BJ18" s="18"/>
-      <c r="BK18" s="6">
-        <v>45098</v>
-      </c>
-      <c r="BL18" s="6">
-        <v>45098</v>
+      <c r="BK18" s="64">
+        <v>45103</v>
+      </c>
+      <c r="BL18" s="64">
+        <v>45103</v>
       </c>
       <c r="BM18" s="6"/>
       <c r="BN18" s="6"/>
       <c r="BO18" s="7"/>
       <c r="BP18" s="17"/>
-      <c r="BQ18" s="6">
-        <v>45099</v>
-      </c>
-      <c r="BR18" s="6">
-        <v>45099</v>
+      <c r="BQ18" s="64">
+        <v>45103</v>
+      </c>
+      <c r="BR18" s="64">
+        <v>45103</v>
       </c>
       <c r="BS18" s="6"/>
       <c r="BT18" s="6"/>
@@ -5768,34 +5805,34 @@
       <c r="BV18" s="10"/>
       <c r="BW18" s="10"/>
       <c r="BX18" s="11"/>
-      <c r="BY18" s="43"/>
-      <c r="BZ18" s="48"/>
-      <c r="CA18" s="48"/>
-      <c r="CB18" s="43"/>
-      <c r="CC18" s="43"/>
-      <c r="CD18" s="43"/>
-      <c r="CE18" s="43"/>
-      <c r="CF18" s="43"/>
-      <c r="CG18" s="43"/>
-      <c r="CH18" s="43"/>
-      <c r="CI18" s="43"/>
-      <c r="CJ18" s="43"/>
-      <c r="CK18" s="43"/>
+      <c r="BY18" s="52"/>
+      <c r="BZ18" s="66"/>
+      <c r="CA18" s="66"/>
+      <c r="CB18" s="52"/>
+      <c r="CC18" s="52"/>
+      <c r="CD18" s="52"/>
+      <c r="CE18" s="52"/>
+      <c r="CF18" s="66"/>
+      <c r="CG18" s="66"/>
+      <c r="CH18" s="52"/>
+      <c r="CI18" s="52"/>
+      <c r="CJ18" s="52"/>
+      <c r="CK18" s="52"/>
       <c r="CL18" s="29"/>
-      <c r="CM18" s="43"/>
-      <c r="CN18" s="43"/>
-      <c r="CO18" s="43"/>
-      <c r="CP18" s="43"/>
-      <c r="CQ18" s="43"/>
-      <c r="CR18" s="43"/>
-      <c r="CS18" s="43"/>
-      <c r="CT18" s="43"/>
-      <c r="CU18" s="43"/>
-      <c r="CV18" s="43"/>
-      <c r="CW18" s="43"/>
-      <c r="CX18" s="43"/>
-      <c r="CY18" s="43"/>
-      <c r="CZ18" s="43"/>
+      <c r="CM18" s="52"/>
+      <c r="CN18" s="66"/>
+      <c r="CO18" s="66"/>
+      <c r="CP18" s="52"/>
+      <c r="CQ18" s="52"/>
+      <c r="CR18" s="52"/>
+      <c r="CS18" s="52"/>
+      <c r="CT18" s="66"/>
+      <c r="CU18" s="66"/>
+      <c r="CV18" s="52"/>
+      <c r="CW18" s="52"/>
+      <c r="CX18" s="52"/>
+      <c r="CY18" s="52"/>
+      <c r="CZ18" s="52"/>
     </row>
     <row r="19" spans="2:104" ht="20.25" customHeight="1">
       <c r="B19" s="5">
@@ -5900,11 +5937,11 @@
       <c r="AL19" s="6"/>
       <c r="AM19" s="7"/>
       <c r="AN19" s="17"/>
-      <c r="AO19" s="6">
-        <v>45092</v>
-      </c>
-      <c r="AP19" s="6">
-        <v>45093</v>
+      <c r="AO19" s="64">
+        <v>45097</v>
+      </c>
+      <c r="AP19" s="64">
+        <v>45098</v>
       </c>
       <c r="AQ19" s="6"/>
       <c r="AR19" s="6"/>
@@ -5912,21 +5949,21 @@
       <c r="AT19" s="12"/>
       <c r="AU19" s="13"/>
       <c r="AV19" s="16"/>
-      <c r="AW19" s="6">
-        <v>45096</v>
-      </c>
-      <c r="AX19" s="6">
-        <v>45096</v>
+      <c r="AW19" s="64">
+        <v>45099</v>
+      </c>
+      <c r="AX19" s="64">
+        <v>45099</v>
       </c>
       <c r="AY19" s="6"/>
       <c r="AZ19" s="6"/>
       <c r="BA19" s="7"/>
       <c r="BB19" s="17"/>
-      <c r="BC19" s="6">
-        <v>45097</v>
-      </c>
-      <c r="BD19" s="6">
-        <v>45097</v>
+      <c r="BC19" s="64">
+        <v>45100</v>
+      </c>
+      <c r="BD19" s="64">
+        <v>45100</v>
       </c>
       <c r="BE19" s="6"/>
       <c r="BF19" s="6"/>
@@ -5934,21 +5971,21 @@
       <c r="BH19" s="10"/>
       <c r="BI19" s="14"/>
       <c r="BJ19" s="18"/>
-      <c r="BK19" s="6">
-        <v>45098</v>
-      </c>
-      <c r="BL19" s="6">
-        <v>45098</v>
+      <c r="BK19" s="64">
+        <v>45103</v>
+      </c>
+      <c r="BL19" s="64">
+        <v>45103</v>
       </c>
       <c r="BM19" s="6"/>
       <c r="BN19" s="6"/>
       <c r="BO19" s="7"/>
       <c r="BP19" s="17"/>
-      <c r="BQ19" s="6">
-        <v>45099</v>
-      </c>
-      <c r="BR19" s="6">
-        <v>45099</v>
+      <c r="BQ19" s="64">
+        <v>45103</v>
+      </c>
+      <c r="BR19" s="64">
+        <v>45103</v>
       </c>
       <c r="BS19" s="6"/>
       <c r="BT19" s="6"/>
@@ -5956,34 +5993,34 @@
       <c r="BV19" s="10"/>
       <c r="BW19" s="10"/>
       <c r="BX19" s="11"/>
-      <c r="BY19" s="43"/>
-      <c r="BZ19" s="48"/>
-      <c r="CA19" s="48"/>
-      <c r="CB19" s="43"/>
-      <c r="CC19" s="43"/>
-      <c r="CD19" s="43"/>
-      <c r="CE19" s="43"/>
-      <c r="CF19" s="43"/>
-      <c r="CG19" s="43"/>
-      <c r="CH19" s="43"/>
-      <c r="CI19" s="43"/>
-      <c r="CJ19" s="43"/>
-      <c r="CK19" s="43"/>
+      <c r="BY19" s="52"/>
+      <c r="BZ19" s="66"/>
+      <c r="CA19" s="66"/>
+      <c r="CB19" s="52"/>
+      <c r="CC19" s="52"/>
+      <c r="CD19" s="52"/>
+      <c r="CE19" s="52"/>
+      <c r="CF19" s="66"/>
+      <c r="CG19" s="66"/>
+      <c r="CH19" s="52"/>
+      <c r="CI19" s="52"/>
+      <c r="CJ19" s="52"/>
+      <c r="CK19" s="52"/>
       <c r="CL19" s="29"/>
-      <c r="CM19" s="43"/>
-      <c r="CN19" s="43"/>
-      <c r="CO19" s="43"/>
-      <c r="CP19" s="43"/>
-      <c r="CQ19" s="43"/>
-      <c r="CR19" s="43"/>
-      <c r="CS19" s="43"/>
-      <c r="CT19" s="43"/>
-      <c r="CU19" s="43"/>
-      <c r="CV19" s="43"/>
-      <c r="CW19" s="43"/>
-      <c r="CX19" s="43"/>
-      <c r="CY19" s="43"/>
-      <c r="CZ19" s="43"/>
+      <c r="CM19" s="52"/>
+      <c r="CN19" s="66"/>
+      <c r="CO19" s="66"/>
+      <c r="CP19" s="52"/>
+      <c r="CQ19" s="52"/>
+      <c r="CR19" s="52"/>
+      <c r="CS19" s="52"/>
+      <c r="CT19" s="66"/>
+      <c r="CU19" s="66"/>
+      <c r="CV19" s="52"/>
+      <c r="CW19" s="52"/>
+      <c r="CX19" s="52"/>
+      <c r="CY19" s="52"/>
+      <c r="CZ19" s="52"/>
     </row>
     <row r="20" spans="2:104" ht="20.25" customHeight="1">
       <c r="B20" s="5">
@@ -6090,11 +6127,11 @@
         <v>0.2</v>
       </c>
       <c r="AN20" s="17"/>
-      <c r="AO20" s="6">
-        <v>45092</v>
-      </c>
-      <c r="AP20" s="6">
-        <v>45093</v>
+      <c r="AO20" s="64">
+        <v>45097</v>
+      </c>
+      <c r="AP20" s="64">
+        <v>45098</v>
       </c>
       <c r="AQ20" s="6"/>
       <c r="AR20" s="6"/>
@@ -6102,21 +6139,21 @@
       <c r="AT20" s="12"/>
       <c r="AU20" s="13"/>
       <c r="AV20" s="16"/>
-      <c r="AW20" s="6">
-        <v>45096</v>
-      </c>
-      <c r="AX20" s="6">
-        <v>45096</v>
+      <c r="AW20" s="64">
+        <v>45099</v>
+      </c>
+      <c r="AX20" s="64">
+        <v>45099</v>
       </c>
       <c r="AY20" s="6"/>
       <c r="AZ20" s="6"/>
       <c r="BA20" s="7"/>
       <c r="BB20" s="17"/>
-      <c r="BC20" s="6">
-        <v>45097</v>
-      </c>
-      <c r="BD20" s="6">
-        <v>45097</v>
+      <c r="BC20" s="64">
+        <v>45100</v>
+      </c>
+      <c r="BD20" s="64">
+        <v>45100</v>
       </c>
       <c r="BE20" s="6"/>
       <c r="BF20" s="6"/>
@@ -6124,21 +6161,21 @@
       <c r="BH20" s="10"/>
       <c r="BI20" s="14"/>
       <c r="BJ20" s="18"/>
-      <c r="BK20" s="6">
-        <v>45098</v>
-      </c>
-      <c r="BL20" s="6">
-        <v>45098</v>
+      <c r="BK20" s="64">
+        <v>45103</v>
+      </c>
+      <c r="BL20" s="64">
+        <v>45103</v>
       </c>
       <c r="BM20" s="6"/>
       <c r="BN20" s="6"/>
       <c r="BO20" s="7"/>
       <c r="BP20" s="17"/>
-      <c r="BQ20" s="6">
-        <v>45099</v>
-      </c>
-      <c r="BR20" s="6">
-        <v>45099</v>
+      <c r="BQ20" s="64">
+        <v>45103</v>
+      </c>
+      <c r="BR20" s="64">
+        <v>45103</v>
       </c>
       <c r="BS20" s="6"/>
       <c r="BT20" s="6"/>
@@ -6146,34 +6183,34 @@
       <c r="BV20" s="10"/>
       <c r="BW20" s="10"/>
       <c r="BX20" s="11"/>
-      <c r="BY20" s="43"/>
-      <c r="BZ20" s="48"/>
-      <c r="CA20" s="48"/>
-      <c r="CB20" s="43"/>
-      <c r="CC20" s="43"/>
-      <c r="CD20" s="43"/>
-      <c r="CE20" s="43"/>
-      <c r="CF20" s="43"/>
-      <c r="CG20" s="43"/>
-      <c r="CH20" s="43"/>
-      <c r="CI20" s="43"/>
-      <c r="CJ20" s="43"/>
-      <c r="CK20" s="43"/>
+      <c r="BY20" s="52"/>
+      <c r="BZ20" s="66"/>
+      <c r="CA20" s="66"/>
+      <c r="CB20" s="52"/>
+      <c r="CC20" s="52"/>
+      <c r="CD20" s="52"/>
+      <c r="CE20" s="52"/>
+      <c r="CF20" s="66"/>
+      <c r="CG20" s="66"/>
+      <c r="CH20" s="52"/>
+      <c r="CI20" s="52"/>
+      <c r="CJ20" s="52"/>
+      <c r="CK20" s="52"/>
       <c r="CL20" s="29"/>
-      <c r="CM20" s="43"/>
-      <c r="CN20" s="43"/>
-      <c r="CO20" s="43"/>
-      <c r="CP20" s="43"/>
-      <c r="CQ20" s="43"/>
-      <c r="CR20" s="43"/>
-      <c r="CS20" s="43"/>
-      <c r="CT20" s="43"/>
-      <c r="CU20" s="43"/>
-      <c r="CV20" s="43"/>
-      <c r="CW20" s="43"/>
-      <c r="CX20" s="43"/>
-      <c r="CY20" s="43"/>
-      <c r="CZ20" s="43"/>
+      <c r="CM20" s="52"/>
+      <c r="CN20" s="66"/>
+      <c r="CO20" s="66"/>
+      <c r="CP20" s="52"/>
+      <c r="CQ20" s="52"/>
+      <c r="CR20" s="52"/>
+      <c r="CS20" s="52"/>
+      <c r="CT20" s="66"/>
+      <c r="CU20" s="66"/>
+      <c r="CV20" s="52"/>
+      <c r="CW20" s="52"/>
+      <c r="CX20" s="52"/>
+      <c r="CY20" s="52"/>
+      <c r="CZ20" s="52"/>
     </row>
     <row r="21" spans="2:104" ht="20.25" customHeight="1">
       <c r="B21" s="5">
@@ -6278,11 +6315,11 @@
       <c r="AL21" s="6"/>
       <c r="AM21" s="7"/>
       <c r="AN21" s="17"/>
-      <c r="AO21" s="6">
-        <v>45092</v>
-      </c>
-      <c r="AP21" s="6">
-        <v>45093</v>
+      <c r="AO21" s="64">
+        <v>45097</v>
+      </c>
+      <c r="AP21" s="64">
+        <v>45098</v>
       </c>
       <c r="AQ21" s="6"/>
       <c r="AR21" s="6"/>
@@ -6290,21 +6327,21 @@
       <c r="AT21" s="12"/>
       <c r="AU21" s="13"/>
       <c r="AV21" s="16"/>
-      <c r="AW21" s="6">
-        <v>45096</v>
-      </c>
-      <c r="AX21" s="6">
-        <v>45096</v>
+      <c r="AW21" s="64">
+        <v>45099</v>
+      </c>
+      <c r="AX21" s="64">
+        <v>45099</v>
       </c>
       <c r="AY21" s="6"/>
       <c r="AZ21" s="6"/>
       <c r="BA21" s="7"/>
       <c r="BB21" s="17"/>
-      <c r="BC21" s="6">
-        <v>45097</v>
-      </c>
-      <c r="BD21" s="6">
-        <v>45097</v>
+      <c r="BC21" s="64">
+        <v>45100</v>
+      </c>
+      <c r="BD21" s="64">
+        <v>45100</v>
       </c>
       <c r="BE21" s="6"/>
       <c r="BF21" s="6"/>
@@ -6312,21 +6349,21 @@
       <c r="BH21" s="10"/>
       <c r="BI21" s="14"/>
       <c r="BJ21" s="18"/>
-      <c r="BK21" s="6">
-        <v>45098</v>
-      </c>
-      <c r="BL21" s="6">
-        <v>45098</v>
+      <c r="BK21" s="64">
+        <v>45103</v>
+      </c>
+      <c r="BL21" s="64">
+        <v>45103</v>
       </c>
       <c r="BM21" s="6"/>
       <c r="BN21" s="6"/>
       <c r="BO21" s="7"/>
       <c r="BP21" s="17"/>
-      <c r="BQ21" s="6">
-        <v>45099</v>
-      </c>
-      <c r="BR21" s="6">
-        <v>45099</v>
+      <c r="BQ21" s="64">
+        <v>45103</v>
+      </c>
+      <c r="BR21" s="64">
+        <v>45103</v>
       </c>
       <c r="BS21" s="6"/>
       <c r="BT21" s="6"/>
@@ -6334,34 +6371,34 @@
       <c r="BV21" s="10"/>
       <c r="BW21" s="10"/>
       <c r="BX21" s="11"/>
-      <c r="BY21" s="43"/>
-      <c r="BZ21" s="48"/>
-      <c r="CA21" s="48"/>
-      <c r="CB21" s="43"/>
-      <c r="CC21" s="43"/>
-      <c r="CD21" s="43"/>
-      <c r="CE21" s="43"/>
-      <c r="CF21" s="43"/>
-      <c r="CG21" s="43"/>
-      <c r="CH21" s="43"/>
-      <c r="CI21" s="43"/>
-      <c r="CJ21" s="43"/>
-      <c r="CK21" s="43"/>
+      <c r="BY21" s="52"/>
+      <c r="BZ21" s="66"/>
+      <c r="CA21" s="66"/>
+      <c r="CB21" s="52"/>
+      <c r="CC21" s="52"/>
+      <c r="CD21" s="52"/>
+      <c r="CE21" s="52"/>
+      <c r="CF21" s="66"/>
+      <c r="CG21" s="66"/>
+      <c r="CH21" s="52"/>
+      <c r="CI21" s="52"/>
+      <c r="CJ21" s="52"/>
+      <c r="CK21" s="52"/>
       <c r="CL21" s="29"/>
-      <c r="CM21" s="43"/>
-      <c r="CN21" s="43"/>
-      <c r="CO21" s="43"/>
-      <c r="CP21" s="43"/>
-      <c r="CQ21" s="43"/>
-      <c r="CR21" s="43"/>
-      <c r="CS21" s="43"/>
-      <c r="CT21" s="43"/>
-      <c r="CU21" s="43"/>
-      <c r="CV21" s="43"/>
-      <c r="CW21" s="43"/>
-      <c r="CX21" s="43"/>
-      <c r="CY21" s="43"/>
-      <c r="CZ21" s="43"/>
+      <c r="CM21" s="52"/>
+      <c r="CN21" s="66"/>
+      <c r="CO21" s="66"/>
+      <c r="CP21" s="52"/>
+      <c r="CQ21" s="52"/>
+      <c r="CR21" s="52"/>
+      <c r="CS21" s="52"/>
+      <c r="CT21" s="66"/>
+      <c r="CU21" s="66"/>
+      <c r="CV21" s="52"/>
+      <c r="CW21" s="52"/>
+      <c r="CX21" s="52"/>
+      <c r="CY21" s="52"/>
+      <c r="CZ21" s="52"/>
     </row>
     <row r="22" spans="2:104" ht="20.25" customHeight="1">
       <c r="B22" s="5">
@@ -6460,94 +6497,94 @@
       <c r="AJ22" s="6">
         <v>45091</v>
       </c>
-      <c r="AK22" s="6"/>
-      <c r="AL22" s="6"/>
-      <c r="AM22" s="7"/>
-      <c r="AN22" s="17"/>
-      <c r="AO22" s="6">
+      <c r="AK22" s="54"/>
+      <c r="AL22" s="54"/>
+      <c r="AM22" s="55"/>
+      <c r="AN22" s="56"/>
+      <c r="AO22" s="54">
         <v>45092</v>
       </c>
-      <c r="AP22" s="6">
+      <c r="AP22" s="54">
         <v>45093</v>
       </c>
-      <c r="AQ22" s="6"/>
-      <c r="AR22" s="6"/>
-      <c r="AS22" s="7"/>
-      <c r="AT22" s="12"/>
-      <c r="AU22" s="13"/>
-      <c r="AV22" s="16"/>
-      <c r="AW22" s="6">
+      <c r="AQ22" s="54"/>
+      <c r="AR22" s="54"/>
+      <c r="AS22" s="55"/>
+      <c r="AT22" s="57"/>
+      <c r="AU22" s="58"/>
+      <c r="AV22" s="59"/>
+      <c r="AW22" s="54">
         <v>45096</v>
       </c>
-      <c r="AX22" s="6">
+      <c r="AX22" s="54">
         <v>45096</v>
       </c>
-      <c r="AY22" s="6"/>
-      <c r="AZ22" s="6"/>
-      <c r="BA22" s="7"/>
-      <c r="BB22" s="17"/>
-      <c r="BC22" s="6">
+      <c r="AY22" s="54"/>
+      <c r="AZ22" s="54"/>
+      <c r="BA22" s="55"/>
+      <c r="BB22" s="56"/>
+      <c r="BC22" s="54">
         <v>45097</v>
       </c>
-      <c r="BD22" s="6">
+      <c r="BD22" s="54">
         <v>45097</v>
       </c>
-      <c r="BE22" s="6"/>
-      <c r="BF22" s="6"/>
-      <c r="BG22" s="19"/>
-      <c r="BH22" s="10"/>
-      <c r="BI22" s="14"/>
-      <c r="BJ22" s="18"/>
-      <c r="BK22" s="6">
+      <c r="BE22" s="54"/>
+      <c r="BF22" s="54"/>
+      <c r="BG22" s="60"/>
+      <c r="BH22" s="61"/>
+      <c r="BI22" s="62"/>
+      <c r="BJ22" s="63"/>
+      <c r="BK22" s="54">
         <v>45098</v>
       </c>
-      <c r="BL22" s="6">
+      <c r="BL22" s="54">
         <v>45098</v>
       </c>
-      <c r="BM22" s="6"/>
-      <c r="BN22" s="6"/>
-      <c r="BO22" s="7"/>
-      <c r="BP22" s="17"/>
-      <c r="BQ22" s="6">
+      <c r="BM22" s="54"/>
+      <c r="BN22" s="54"/>
+      <c r="BO22" s="55"/>
+      <c r="BP22" s="56"/>
+      <c r="BQ22" s="54">
         <v>45099</v>
       </c>
-      <c r="BR22" s="6">
+      <c r="BR22" s="54">
         <v>45099</v>
       </c>
-      <c r="BS22" s="6"/>
-      <c r="BT22" s="6"/>
-      <c r="BU22" s="7"/>
-      <c r="BV22" s="10"/>
-      <c r="BW22" s="10"/>
+      <c r="BS22" s="54"/>
+      <c r="BT22" s="54"/>
+      <c r="BU22" s="55"/>
+      <c r="BV22" s="61"/>
+      <c r="BW22" s="61"/>
       <c r="BX22" s="13"/>
-      <c r="BY22" s="44"/>
-      <c r="BZ22" s="49"/>
-      <c r="CA22" s="49"/>
-      <c r="CB22" s="44"/>
-      <c r="CC22" s="44"/>
-      <c r="CD22" s="44"/>
-      <c r="CE22" s="44"/>
-      <c r="CF22" s="44"/>
-      <c r="CG22" s="44"/>
-      <c r="CH22" s="44"/>
-      <c r="CI22" s="44"/>
-      <c r="CJ22" s="44"/>
-      <c r="CK22" s="44"/>
+      <c r="BY22" s="53"/>
+      <c r="BZ22" s="67"/>
+      <c r="CA22" s="67"/>
+      <c r="CB22" s="53"/>
+      <c r="CC22" s="53"/>
+      <c r="CD22" s="53"/>
+      <c r="CE22" s="53"/>
+      <c r="CF22" s="67"/>
+      <c r="CG22" s="67"/>
+      <c r="CH22" s="53"/>
+      <c r="CI22" s="53"/>
+      <c r="CJ22" s="53"/>
+      <c r="CK22" s="53"/>
       <c r="CL22" s="14"/>
-      <c r="CM22" s="44"/>
-      <c r="CN22" s="44"/>
-      <c r="CO22" s="44"/>
-      <c r="CP22" s="44"/>
-      <c r="CQ22" s="44"/>
-      <c r="CR22" s="44"/>
-      <c r="CS22" s="44"/>
-      <c r="CT22" s="44"/>
-      <c r="CU22" s="44"/>
-      <c r="CV22" s="44"/>
-      <c r="CW22" s="44"/>
-      <c r="CX22" s="44"/>
-      <c r="CY22" s="44"/>
-      <c r="CZ22" s="44"/>
+      <c r="CM22" s="53"/>
+      <c r="CN22" s="67"/>
+      <c r="CO22" s="67"/>
+      <c r="CP22" s="53"/>
+      <c r="CQ22" s="53"/>
+      <c r="CR22" s="53"/>
+      <c r="CS22" s="53"/>
+      <c r="CT22" s="67"/>
+      <c r="CU22" s="67"/>
+      <c r="CV22" s="53"/>
+      <c r="CW22" s="53"/>
+      <c r="CX22" s="53"/>
+      <c r="CY22" s="53"/>
+      <c r="CZ22" s="53"/>
     </row>
     <row r="23" spans="2:104" ht="20.25" customHeight="1">
       <c r="BX23" s="11"/>
@@ -6559,6 +6596,119 @@
     </row>
   </sheetData>
   <mergeCells count="137">
+    <mergeCell ref="BZ7:BZ14"/>
+    <mergeCell ref="CA7:CA14"/>
+    <mergeCell ref="CF7:CF14"/>
+    <mergeCell ref="CG7:CG14"/>
+    <mergeCell ref="CN7:CN14"/>
+    <mergeCell ref="CO7:CO14"/>
+    <mergeCell ref="CT7:CT14"/>
+    <mergeCell ref="CU7:CU14"/>
+    <mergeCell ref="CM7:CM13"/>
+    <mergeCell ref="CW15:CW22"/>
+    <mergeCell ref="CX7:CX13"/>
+    <mergeCell ref="CY7:CY13"/>
+    <mergeCell ref="CZ7:CZ13"/>
+    <mergeCell ref="CQ15:CQ22"/>
+    <mergeCell ref="CR15:CR22"/>
+    <mergeCell ref="CS15:CS22"/>
+    <mergeCell ref="CV7:CV13"/>
+    <mergeCell ref="CW7:CW13"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="CX15:CX22"/>
+    <mergeCell ref="CY15:CY22"/>
+    <mergeCell ref="CB7:CB13"/>
+    <mergeCell ref="CC7:CC13"/>
+    <mergeCell ref="CD7:CD13"/>
+    <mergeCell ref="CE7:CE13"/>
+    <mergeCell ref="CH7:CH13"/>
+    <mergeCell ref="CI7:CI13"/>
+    <mergeCell ref="CJ7:CJ13"/>
+    <mergeCell ref="CK7:CK13"/>
+    <mergeCell ref="CP7:CP13"/>
+    <mergeCell ref="CQ7:CQ13"/>
+    <mergeCell ref="BY15:BY22"/>
+    <mergeCell ref="BZ15:BZ22"/>
+    <mergeCell ref="CA15:CA22"/>
+    <mergeCell ref="CB15:CB22"/>
+    <mergeCell ref="CC15:CC22"/>
+    <mergeCell ref="CD15:CD22"/>
+    <mergeCell ref="CM15:CM22"/>
+    <mergeCell ref="CN15:CN22"/>
+    <mergeCell ref="CO15:CO22"/>
+    <mergeCell ref="CE15:CE22"/>
+    <mergeCell ref="CF15:CF22"/>
+    <mergeCell ref="CG15:CG22"/>
+    <mergeCell ref="BY7:BY13"/>
+    <mergeCell ref="CZ5:CZ6"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CT5:CU5"/>
+    <mergeCell ref="CV5:CW5"/>
+    <mergeCell ref="CS5:CS6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CH15:CH22"/>
+    <mergeCell ref="CI15:CI22"/>
+    <mergeCell ref="CJ15:CJ22"/>
+    <mergeCell ref="CK15:CK22"/>
+    <mergeCell ref="CZ15:CZ22"/>
+    <mergeCell ref="CP15:CP22"/>
+    <mergeCell ref="CR7:CR13"/>
+    <mergeCell ref="CS7:CS13"/>
+    <mergeCell ref="CT15:CT22"/>
+    <mergeCell ref="CU15:CU22"/>
+    <mergeCell ref="CV15:CV22"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CK5:CK6"/>
+    <mergeCell ref="CN5:CO5"/>
+    <mergeCell ref="CP5:CQ5"/>
+    <mergeCell ref="CM5:CM6"/>
+    <mergeCell ref="CH5:CI5"/>
+    <mergeCell ref="CE5:CE6"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="CF5:CG5"/>
+    <mergeCell ref="BP4:BW4"/>
+    <mergeCell ref="BY4:CD4"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="Z4:AF4"/>
+    <mergeCell ref="AH4:AM4"/>
+    <mergeCell ref="AN4:AT4"/>
+    <mergeCell ref="AV4:BA4"/>
+    <mergeCell ref="BB4:BH4"/>
+    <mergeCell ref="BJ4:BO4"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="BM5:BN5"/>
+    <mergeCell ref="BQ5:BR5"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="E4:E6"/>
     <mergeCell ref="CE4:CK4"/>
     <mergeCell ref="CM4:CR4"/>
     <mergeCell ref="CS4:CZ4"/>
@@ -6583,319 +6733,221 @@
     <mergeCell ref="L4:R4"/>
     <mergeCell ref="T5:T6"/>
     <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BW5:BW6"/>
-    <mergeCell ref="BY5:BY6"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="BZ5:CA5"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="BP4:BW4"/>
-    <mergeCell ref="BY4:CD4"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="Z4:AF4"/>
-    <mergeCell ref="AH4:AM4"/>
-    <mergeCell ref="AN4:AT4"/>
-    <mergeCell ref="AV4:BA4"/>
-    <mergeCell ref="BB4:BH4"/>
-    <mergeCell ref="BJ4:BO4"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CK5:CK6"/>
-    <mergeCell ref="CN5:CO5"/>
-    <mergeCell ref="CP5:CQ5"/>
-    <mergeCell ref="CM5:CM6"/>
-    <mergeCell ref="CH5:CI5"/>
-    <mergeCell ref="CE5:CE6"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="CF5:CG5"/>
-    <mergeCell ref="CE15:CE22"/>
-    <mergeCell ref="CF15:CF22"/>
-    <mergeCell ref="CG15:CG22"/>
-    <mergeCell ref="BY7:BY13"/>
-    <mergeCell ref="BZ7:BZ13"/>
-    <mergeCell ref="CA7:CA13"/>
-    <mergeCell ref="CZ5:CZ6"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CT5:CU5"/>
-    <mergeCell ref="CV5:CW5"/>
-    <mergeCell ref="CS5:CS6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CH15:CH22"/>
-    <mergeCell ref="CI15:CI22"/>
-    <mergeCell ref="CJ15:CJ22"/>
-    <mergeCell ref="CK15:CK22"/>
-    <mergeCell ref="CZ15:CZ22"/>
-    <mergeCell ref="CP15:CP22"/>
-    <mergeCell ref="CR7:CR13"/>
-    <mergeCell ref="CS7:CS13"/>
-    <mergeCell ref="CT7:CT13"/>
-    <mergeCell ref="CT15:CT22"/>
-    <mergeCell ref="CU15:CU22"/>
-    <mergeCell ref="CV15:CV22"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="CX15:CX22"/>
-    <mergeCell ref="CY15:CY22"/>
-    <mergeCell ref="CB7:CB13"/>
-    <mergeCell ref="CC7:CC13"/>
-    <mergeCell ref="CD7:CD13"/>
-    <mergeCell ref="CE7:CE13"/>
-    <mergeCell ref="CF7:CF13"/>
-    <mergeCell ref="CG7:CG13"/>
-    <mergeCell ref="CH7:CH13"/>
-    <mergeCell ref="CI7:CI13"/>
-    <mergeCell ref="CJ7:CJ13"/>
-    <mergeCell ref="CK7:CK13"/>
-    <mergeCell ref="CP7:CP13"/>
-    <mergeCell ref="CQ7:CQ13"/>
-    <mergeCell ref="BY15:BY22"/>
-    <mergeCell ref="BZ15:BZ22"/>
-    <mergeCell ref="CA15:CA22"/>
-    <mergeCell ref="CB15:CB22"/>
-    <mergeCell ref="CC15:CC22"/>
-    <mergeCell ref="CD15:CD22"/>
-    <mergeCell ref="CM15:CM22"/>
-    <mergeCell ref="CN15:CN22"/>
-    <mergeCell ref="CO15:CO22"/>
-    <mergeCell ref="CM7:CM13"/>
-    <mergeCell ref="CN7:CN13"/>
-    <mergeCell ref="CO7:CO13"/>
-    <mergeCell ref="CW15:CW22"/>
-    <mergeCell ref="CX7:CX13"/>
-    <mergeCell ref="CY7:CY13"/>
-    <mergeCell ref="CZ7:CZ13"/>
-    <mergeCell ref="CQ15:CQ22"/>
-    <mergeCell ref="CR15:CR22"/>
-    <mergeCell ref="CS15:CS22"/>
-    <mergeCell ref="CU7:CU13"/>
-    <mergeCell ref="CV7:CV13"/>
-    <mergeCell ref="CW7:CW13"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="F7:K14">
-    <cfRule type="expression" dxfId="44" priority="95">
+    <cfRule type="expression" dxfId="42" priority="98">
       <formula>$J7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:K22 L7:R22">
-    <cfRule type="expression" dxfId="43" priority="88">
+    <cfRule type="expression" dxfId="41" priority="91">
       <formula>$P7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN7:AT14">
-    <cfRule type="expression" dxfId="42" priority="85">
+  <conditionalFormatting sqref="AN7:AT14 AO7:AP21">
+    <cfRule type="expression" dxfId="40" priority="88">
       <formula>$AR7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV7:BA14">
-    <cfRule type="expression" dxfId="41" priority="149">
+  <conditionalFormatting sqref="AV7:BA14 AW7:AX21">
+    <cfRule type="expression" dxfId="39" priority="152">
       <formula>$AZ7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB7:BH14">
-    <cfRule type="expression" dxfId="40" priority="148">
+  <conditionalFormatting sqref="BB9:BB14 BE9:BH14 BC9:BD21 BB7:BH8">
+    <cfRule type="expression" dxfId="38" priority="151">
       <formula>$BF7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ7:BO14">
-    <cfRule type="expression" dxfId="39" priority="143">
+  <conditionalFormatting sqref="BJ7:BO7 BJ8:BJ14 BM8:BO14 BK8:BL21">
+    <cfRule type="expression" dxfId="37" priority="146">
       <formula>$BN7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP7:BW14">
-    <cfRule type="expression" dxfId="38" priority="142">
+  <conditionalFormatting sqref="BP7:BP14 BS7:BW14">
+    <cfRule type="expression" dxfId="36" priority="145">
       <formula>$BT7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:F22">
-    <cfRule type="expression" dxfId="37" priority="172">
+    <cfRule type="expression" dxfId="35" priority="175">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20 F15:F16">
-    <cfRule type="expression" dxfId="36" priority="200">
+    <cfRule type="expression" dxfId="34" priority="203">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA22:AB22">
-    <cfRule type="expression" dxfId="35" priority="202">
+    <cfRule type="expression" dxfId="33" priority="205">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="34" priority="207">
+    <cfRule type="expression" dxfId="32" priority="210">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F16">
-    <cfRule type="expression" dxfId="33" priority="209">
+    <cfRule type="expression" dxfId="31" priority="212">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F18">
-    <cfRule type="expression" dxfId="32" priority="210">
+    <cfRule type="expression" dxfId="30" priority="213">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:J22">
-    <cfRule type="expression" dxfId="31" priority="234">
+    <cfRule type="expression" dxfId="29" priority="237">
       <formula>$I15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U15:W22 Y15:Y22">
-    <cfRule type="expression" dxfId="30" priority="238">
+    <cfRule type="expression" dxfId="28" priority="241">
       <formula>$X15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15:AB22 AF15:AF22">
-    <cfRule type="expression" dxfId="29" priority="240">
+    <cfRule type="expression" dxfId="27" priority="243">
       <formula>$AD15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI15:AJ22 AL15:AM22 AK22">
-    <cfRule type="expression" dxfId="28" priority="242">
+    <cfRule type="expression" dxfId="26" priority="245">
       <formula>$AL15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN15:AT22">
-    <cfRule type="expression" dxfId="27" priority="244">
+    <cfRule type="expression" dxfId="25" priority="247">
       <formula>$AR15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV15:BA22">
-    <cfRule type="expression" dxfId="26" priority="246">
+    <cfRule type="expression" dxfId="24" priority="249">
       <formula>$AZ15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BB15:BH22">
-    <cfRule type="expression" dxfId="25" priority="248">
+  <conditionalFormatting sqref="BB22:BH22 BB15:BB21 BE15:BH21">
+    <cfRule type="expression" dxfId="23" priority="251">
       <formula>$BF15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BJ15:BO22">
-    <cfRule type="expression" dxfId="24" priority="250">
+  <conditionalFormatting sqref="BJ22:BO22 BJ15:BJ21 BM15:BO21">
+    <cfRule type="expression" dxfId="22" priority="253">
       <formula>$BN15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BP15:BW22">
-    <cfRule type="expression" dxfId="23" priority="252">
+  <conditionalFormatting sqref="BP22:BW22 BP15:BP21 BS15:BW21">
+    <cfRule type="expression" dxfId="21" priority="255">
       <formula>$BT15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15:AB21">
-    <cfRule type="expression" dxfId="22" priority="253">
+    <cfRule type="expression" dxfId="20" priority="256">
       <formula>$X16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T21:T22">
-    <cfRule type="expression" dxfId="21" priority="18">
+    <cfRule type="expression" dxfId="19" priority="21">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T20 T15:T16">
-    <cfRule type="expression" dxfId="20" priority="19">
+    <cfRule type="expression" dxfId="18" priority="22">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19">
-    <cfRule type="expression" dxfId="19" priority="20">
+    <cfRule type="expression" dxfId="17" priority="23">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15:T16">
-    <cfRule type="expression" dxfId="18" priority="21">
+    <cfRule type="expression" dxfId="16" priority="24">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17:T18">
-    <cfRule type="expression" dxfId="17" priority="22">
+    <cfRule type="expression" dxfId="15" priority="25">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X15">
-    <cfRule type="expression" dxfId="16" priority="17">
+    <cfRule type="expression" dxfId="14" priority="20">
       <formula>$X15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X16">
-    <cfRule type="expression" dxfId="15" priority="16">
+    <cfRule type="expression" dxfId="13" priority="19">
       <formula>$X16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X17:X22">
-    <cfRule type="expression" dxfId="14" priority="15">
+    <cfRule type="expression" dxfId="12" priority="18">
       <formula>$X17&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI7:AL14 AK15:AK21">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>$AK7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH7:AH14">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>$J7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH21:AH22">
-    <cfRule type="expression" dxfId="6" priority="3">
+    <cfRule type="expression" dxfId="9" priority="6">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH20 AH15:AH16">
-    <cfRule type="expression" dxfId="5" priority="4">
+    <cfRule type="expression" dxfId="8" priority="7">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH19">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH15:AH16">
-    <cfRule type="expression" dxfId="3" priority="6">
+    <cfRule type="expression" dxfId="6" priority="9">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH17:AH18">
-    <cfRule type="expression" dxfId="2" priority="7">
+    <cfRule type="expression" dxfId="5" priority="10">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM7:AM14">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$AK7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z7:Z22">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$P7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BQ8:BR21">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$BN8&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BQ7">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$BN7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BR7">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$P7&lt;&gt;""</formula>
+      <formula>$BN7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>

--- a/スケジュール（2023-06）.xlsx
+++ b/スケジュール（2023-06）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\o3o__\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA30E5F8-23F5-4D84-924F-5831D0E57C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B05DB67-A6A7-4A7A-9E39-F954A7377BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -771,42 +771,6 @@
     <xf numFmtId="56" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -843,6 +807,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2869,10 +2869,10 @@
   <dimension ref="B3:CZ24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="CC7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="S7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="CU15" sqref="CU15:CU22"/>
+      <selection pane="bottomRight" activeCell="AI8" sqref="AI8:AJ22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
@@ -2933,381 +2933,381 @@
       </c>
     </row>
     <row r="4" spans="2:104" s="20" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="42" t="s">
+      <c r="D4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="42" t="s">
+      <c r="E4" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="42" t="s">
+      <c r="F4" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42" t="s">
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="T4" s="42" t="s">
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="T4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="U4" s="42"/>
-      <c r="V4" s="42"/>
-      <c r="W4" s="42"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
-      <c r="Z4" s="42" t="s">
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="42"/>
-      <c r="AE4" s="42"/>
-      <c r="AF4" s="42"/>
-      <c r="AH4" s="42" t="s">
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
+      <c r="AH4" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="AI4" s="42"/>
-      <c r="AJ4" s="42"/>
-      <c r="AK4" s="42"/>
-      <c r="AL4" s="42"/>
-      <c r="AM4" s="42"/>
-      <c r="AN4" s="42" t="s">
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="60"/>
+      <c r="AL4" s="60"/>
+      <c r="AM4" s="60"/>
+      <c r="AN4" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="AO4" s="42"/>
-      <c r="AP4" s="42"/>
-      <c r="AQ4" s="42"/>
-      <c r="AR4" s="42"/>
-      <c r="AS4" s="42"/>
-      <c r="AT4" s="43"/>
+      <c r="AO4" s="60"/>
+      <c r="AP4" s="60"/>
+      <c r="AQ4" s="60"/>
+      <c r="AR4" s="60"/>
+      <c r="AS4" s="60"/>
+      <c r="AT4" s="64"/>
       <c r="AU4" s="21"/>
-      <c r="AV4" s="42" t="s">
+      <c r="AV4" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="AW4" s="42"/>
-      <c r="AX4" s="42"/>
-      <c r="AY4" s="42"/>
-      <c r="AZ4" s="42"/>
-      <c r="BA4" s="42"/>
-      <c r="BB4" s="42" t="s">
+      <c r="AW4" s="60"/>
+      <c r="AX4" s="60"/>
+      <c r="AY4" s="60"/>
+      <c r="AZ4" s="60"/>
+      <c r="BA4" s="60"/>
+      <c r="BB4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="BC4" s="42"/>
-      <c r="BD4" s="42"/>
-      <c r="BE4" s="42"/>
-      <c r="BF4" s="42"/>
-      <c r="BG4" s="42"/>
-      <c r="BH4" s="42"/>
+      <c r="BC4" s="60"/>
+      <c r="BD4" s="60"/>
+      <c r="BE4" s="60"/>
+      <c r="BF4" s="60"/>
+      <c r="BG4" s="60"/>
+      <c r="BH4" s="60"/>
       <c r="BI4" s="22"/>
-      <c r="BJ4" s="44" t="s">
+      <c r="BJ4" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="BK4" s="42"/>
-      <c r="BL4" s="42"/>
-      <c r="BM4" s="42"/>
-      <c r="BN4" s="42"/>
-      <c r="BO4" s="42"/>
-      <c r="BP4" s="42" t="s">
+      <c r="BK4" s="60"/>
+      <c r="BL4" s="60"/>
+      <c r="BM4" s="60"/>
+      <c r="BN4" s="60"/>
+      <c r="BO4" s="60"/>
+      <c r="BP4" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="BQ4" s="42"/>
-      <c r="BR4" s="42"/>
-      <c r="BS4" s="42"/>
-      <c r="BT4" s="42"/>
-      <c r="BU4" s="42"/>
-      <c r="BV4" s="42"/>
-      <c r="BW4" s="42"/>
-      <c r="BY4" s="42" t="s">
+      <c r="BQ4" s="60"/>
+      <c r="BR4" s="60"/>
+      <c r="BS4" s="60"/>
+      <c r="BT4" s="60"/>
+      <c r="BU4" s="60"/>
+      <c r="BV4" s="60"/>
+      <c r="BW4" s="60"/>
+      <c r="BY4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="BZ4" s="42"/>
-      <c r="CA4" s="42"/>
-      <c r="CB4" s="42"/>
-      <c r="CC4" s="42"/>
-      <c r="CD4" s="42"/>
-      <c r="CE4" s="42" t="s">
+      <c r="BZ4" s="60"/>
+      <c r="CA4" s="60"/>
+      <c r="CB4" s="60"/>
+      <c r="CC4" s="60"/>
+      <c r="CD4" s="60"/>
+      <c r="CE4" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="CF4" s="42"/>
-      <c r="CG4" s="42"/>
-      <c r="CH4" s="42"/>
-      <c r="CI4" s="42"/>
-      <c r="CJ4" s="42"/>
-      <c r="CK4" s="43"/>
+      <c r="CF4" s="60"/>
+      <c r="CG4" s="60"/>
+      <c r="CH4" s="60"/>
+      <c r="CI4" s="60"/>
+      <c r="CJ4" s="60"/>
+      <c r="CK4" s="64"/>
       <c r="CL4" s="23"/>
-      <c r="CM4" s="44" t="s">
+      <c r="CM4" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="CN4" s="42"/>
-      <c r="CO4" s="42"/>
-      <c r="CP4" s="42"/>
-      <c r="CQ4" s="42"/>
-      <c r="CR4" s="42"/>
-      <c r="CS4" s="42" t="s">
+      <c r="CN4" s="60"/>
+      <c r="CO4" s="60"/>
+      <c r="CP4" s="60"/>
+      <c r="CQ4" s="60"/>
+      <c r="CR4" s="60"/>
+      <c r="CS4" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="CT4" s="42"/>
-      <c r="CU4" s="42"/>
-      <c r="CV4" s="42"/>
-      <c r="CW4" s="42"/>
-      <c r="CX4" s="42"/>
-      <c r="CY4" s="42"/>
-      <c r="CZ4" s="42"/>
+      <c r="CT4" s="60"/>
+      <c r="CU4" s="60"/>
+      <c r="CV4" s="60"/>
+      <c r="CW4" s="60"/>
+      <c r="CX4" s="60"/>
+      <c r="CY4" s="60"/>
+      <c r="CZ4" s="60"/>
     </row>
     <row r="5" spans="2:104" ht="21.6" customHeight="1">
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="42" t="s">
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45" t="s">
+      <c r="H5" s="66"/>
+      <c r="I5" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="45"/>
-      <c r="K5" s="46" t="s">
+      <c r="J5" s="66"/>
+      <c r="K5" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="42" t="s">
+      <c r="L5" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="45" t="s">
+      <c r="M5" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="45"/>
-      <c r="O5" s="45" t="s">
+      <c r="N5" s="66"/>
+      <c r="O5" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="46" t="s">
+      <c r="P5" s="66"/>
+      <c r="Q5" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="46" t="s">
+      <c r="R5" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="42" t="s">
+      <c r="T5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="45" t="s">
+      <c r="U5" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="45"/>
-      <c r="W5" s="45" t="s">
+      <c r="V5" s="66"/>
+      <c r="W5" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="X5" s="45"/>
-      <c r="Y5" s="46" t="s">
+      <c r="X5" s="66"/>
+      <c r="Y5" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="42" t="s">
+      <c r="Z5" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="AA5" s="45" t="s">
+      <c r="AA5" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45" t="s">
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="AD5" s="45"/>
-      <c r="AE5" s="46" t="s">
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="AF5" s="46" t="s">
+      <c r="AF5" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="AH5" s="42" t="s">
+      <c r="AH5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="AI5" s="45" t="s">
+      <c r="AI5" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="AJ5" s="45"/>
-      <c r="AK5" s="45" t="s">
+      <c r="AJ5" s="66"/>
+      <c r="AK5" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="AL5" s="45"/>
-      <c r="AM5" s="46" t="s">
+      <c r="AL5" s="66"/>
+      <c r="AM5" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="AN5" s="42" t="s">
+      <c r="AN5" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="AO5" s="45" t="s">
+      <c r="AO5" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="AP5" s="45"/>
-      <c r="AQ5" s="45" t="s">
+      <c r="AP5" s="66"/>
+      <c r="AQ5" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="AR5" s="45"/>
-      <c r="AS5" s="46" t="s">
+      <c r="AR5" s="66"/>
+      <c r="AS5" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="AT5" s="48" t="s">
+      <c r="AT5" s="63" t="s">
         <v>23</v>
       </c>
       <c r="AU5" s="13"/>
-      <c r="AV5" s="42" t="s">
+      <c r="AV5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="AW5" s="45" t="s">
+      <c r="AW5" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="AX5" s="45"/>
-      <c r="AY5" s="45" t="s">
+      <c r="AX5" s="66"/>
+      <c r="AY5" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="AZ5" s="45"/>
-      <c r="BA5" s="46" t="s">
+      <c r="AZ5" s="66"/>
+      <c r="BA5" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="BB5" s="42" t="s">
+      <c r="BB5" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="BC5" s="45" t="s">
+      <c r="BC5" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="BD5" s="45"/>
-      <c r="BE5" s="45" t="s">
+      <c r="BD5" s="66"/>
+      <c r="BE5" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="BF5" s="45"/>
-      <c r="BG5" s="46" t="s">
+      <c r="BF5" s="66"/>
+      <c r="BG5" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="BH5" s="46" t="s">
+      <c r="BH5" s="59" t="s">
         <v>23</v>
       </c>
       <c r="BI5" s="14"/>
-      <c r="BJ5" s="44" t="s">
+      <c r="BJ5" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="BK5" s="45" t="s">
+      <c r="BK5" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="BL5" s="45"/>
-      <c r="BM5" s="45" t="s">
+      <c r="BL5" s="66"/>
+      <c r="BM5" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="BN5" s="45"/>
-      <c r="BO5" s="46" t="s">
+      <c r="BN5" s="66"/>
+      <c r="BO5" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="BP5" s="42" t="s">
+      <c r="BP5" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="BQ5" s="45" t="s">
+      <c r="BQ5" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="BR5" s="45"/>
-      <c r="BS5" s="45" t="s">
+      <c r="BR5" s="66"/>
+      <c r="BS5" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="BT5" s="45"/>
-      <c r="BU5" s="46" t="s">
+      <c r="BT5" s="66"/>
+      <c r="BU5" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="BV5" s="46" t="s">
+      <c r="BV5" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="BW5" s="46" t="s">
+      <c r="BW5" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="BY5" s="42" t="s">
+      <c r="BY5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="BZ5" s="49" t="s">
+      <c r="BZ5" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="CA5" s="49"/>
-      <c r="CB5" s="49" t="s">
+      <c r="CA5" s="62"/>
+      <c r="CB5" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="CC5" s="49"/>
-      <c r="CD5" s="46" t="s">
+      <c r="CC5" s="62"/>
+      <c r="CD5" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="CE5" s="42" t="s">
+      <c r="CE5" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="CF5" s="50" t="s">
+      <c r="CF5" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="CG5" s="50"/>
-      <c r="CH5" s="49" t="s">
+      <c r="CG5" s="61"/>
+      <c r="CH5" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="CI5" s="49"/>
-      <c r="CJ5" s="46" t="s">
+      <c r="CI5" s="62"/>
+      <c r="CJ5" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="CK5" s="48" t="s">
+      <c r="CK5" s="63" t="s">
         <v>23</v>
       </c>
       <c r="CL5" s="11"/>
-      <c r="CM5" s="44" t="s">
+      <c r="CM5" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="CN5" s="50" t="s">
+      <c r="CN5" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="CO5" s="50"/>
-      <c r="CP5" s="49" t="s">
+      <c r="CO5" s="61"/>
+      <c r="CP5" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="CQ5" s="49"/>
-      <c r="CR5" s="46" t="s">
+      <c r="CQ5" s="62"/>
+      <c r="CR5" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="CS5" s="42" t="s">
+      <c r="CS5" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="CT5" s="50" t="s">
+      <c r="CT5" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="CU5" s="50"/>
-      <c r="CV5" s="49" t="s">
+      <c r="CU5" s="61"/>
+      <c r="CV5" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="CW5" s="49"/>
-      <c r="CX5" s="46" t="s">
+      <c r="CW5" s="62"/>
+      <c r="CX5" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="CY5" s="46" t="s">
+      <c r="CY5" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="CZ5" s="46" t="s">
+      <c r="CZ5" s="59" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:104" ht="14.4">
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="42"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="60"/>
       <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3320,8 +3320,8 @@
       <c r="J6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
       <c r="M6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3334,9 +3334,9 @@
       <c r="P6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="T6" s="42"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="T6" s="60"/>
       <c r="U6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3349,8 +3349,8 @@
       <c r="X6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="42"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="60"/>
       <c r="AA6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3363,9 +3363,9 @@
       <c r="AD6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AE6" s="42"/>
-      <c r="AF6" s="42"/>
-      <c r="AH6" s="42"/>
+      <c r="AE6" s="60"/>
+      <c r="AF6" s="60"/>
+      <c r="AH6" s="60"/>
       <c r="AI6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3378,8 +3378,8 @@
       <c r="AL6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AM6" s="42"/>
-      <c r="AN6" s="42"/>
+      <c r="AM6" s="60"/>
+      <c r="AN6" s="60"/>
       <c r="AO6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3392,10 +3392,10 @@
       <c r="AR6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AS6" s="42"/>
-      <c r="AT6" s="43"/>
+      <c r="AS6" s="60"/>
+      <c r="AT6" s="64"/>
       <c r="AU6" s="13"/>
-      <c r="AV6" s="42"/>
+      <c r="AV6" s="60"/>
       <c r="AW6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3408,8 +3408,8 @@
       <c r="AZ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BA6" s="42"/>
-      <c r="BB6" s="42"/>
+      <c r="BA6" s="60"/>
+      <c r="BB6" s="60"/>
       <c r="BC6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3422,10 +3422,10 @@
       <c r="BF6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BG6" s="42"/>
-      <c r="BH6" s="42"/>
+      <c r="BG6" s="60"/>
+      <c r="BH6" s="60"/>
       <c r="BI6" s="14"/>
-      <c r="BJ6" s="44"/>
+      <c r="BJ6" s="65"/>
       <c r="BK6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3438,8 +3438,8 @@
       <c r="BN6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BO6" s="42"/>
-      <c r="BP6" s="42"/>
+      <c r="BO6" s="60"/>
+      <c r="BP6" s="60"/>
       <c r="BQ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3452,10 +3452,10 @@
       <c r="BT6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BU6" s="42"/>
-      <c r="BV6" s="42"/>
-      <c r="BW6" s="42"/>
-      <c r="BY6" s="42"/>
+      <c r="BU6" s="60"/>
+      <c r="BV6" s="60"/>
+      <c r="BW6" s="60"/>
+      <c r="BY6" s="60"/>
       <c r="BZ6" s="31" t="s">
         <v>25</v>
       </c>
@@ -3468,8 +3468,8 @@
       <c r="CC6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CD6" s="42"/>
-      <c r="CE6" s="42"/>
+      <c r="CD6" s="60"/>
+      <c r="CE6" s="60"/>
       <c r="CF6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3482,10 +3482,10 @@
       <c r="CI6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CJ6" s="42"/>
-      <c r="CK6" s="43"/>
+      <c r="CJ6" s="60"/>
+      <c r="CK6" s="64"/>
       <c r="CL6" s="11"/>
-      <c r="CM6" s="44"/>
+      <c r="CM6" s="65"/>
       <c r="CN6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3498,8 +3498,8 @@
       <c r="CQ6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CR6" s="42"/>
-      <c r="CS6" s="42"/>
+      <c r="CR6" s="60"/>
+      <c r="CS6" s="60"/>
       <c r="CT6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3512,9 +3512,9 @@
       <c r="CW6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CX6" s="42"/>
-      <c r="CY6" s="42"/>
-      <c r="CZ6" s="42"/>
+      <c r="CX6" s="60"/>
+      <c r="CY6" s="60"/>
+      <c r="CZ6" s="60"/>
     </row>
     <row r="7" spans="2:104" ht="20.25" customHeight="1">
       <c r="B7" s="5">
@@ -3609,11 +3609,11 @@
       <c r="AH7" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="AI7" s="6">
-        <v>45085</v>
-      </c>
-      <c r="AJ7" s="6">
-        <v>45091</v>
+      <c r="AI7" s="52">
+        <v>45089</v>
+      </c>
+      <c r="AJ7" s="52">
+        <v>45096</v>
       </c>
       <c r="AK7" s="6">
         <v>45089</v>
@@ -3623,10 +3623,10 @@
         <v>0.8</v>
       </c>
       <c r="AN7" s="17"/>
-      <c r="AO7" s="64">
+      <c r="AO7" s="52">
         <v>45097</v>
       </c>
-      <c r="AP7" s="64">
+      <c r="AP7" s="52">
         <v>45098</v>
       </c>
       <c r="AQ7" s="6"/>
@@ -3635,20 +3635,20 @@
       <c r="AT7" s="12"/>
       <c r="AU7" s="13"/>
       <c r="AV7" s="16"/>
-      <c r="AW7" s="64">
+      <c r="AW7" s="52">
         <v>45099</v>
       </c>
-      <c r="AX7" s="64">
+      <c r="AX7" s="52">
         <v>45099</v>
       </c>
       <c r="AY7" s="6"/>
       <c r="AZ7" s="6"/>
       <c r="BA7" s="7"/>
       <c r="BB7" s="17"/>
-      <c r="BC7" s="64">
+      <c r="BC7" s="52">
         <v>45100</v>
       </c>
-      <c r="BD7" s="64">
+      <c r="BD7" s="52">
         <v>45100</v>
       </c>
       <c r="BE7" s="6"/>
@@ -3657,20 +3657,20 @@
       <c r="BH7" s="10"/>
       <c r="BI7" s="14"/>
       <c r="BJ7" s="18"/>
-      <c r="BK7" s="64">
+      <c r="BK7" s="52">
         <v>45103</v>
       </c>
-      <c r="BL7" s="64">
+      <c r="BL7" s="52">
         <v>45103</v>
       </c>
       <c r="BM7" s="6"/>
       <c r="BN7" s="6"/>
       <c r="BO7" s="7"/>
       <c r="BP7" s="17"/>
-      <c r="BQ7" s="64">
+      <c r="BQ7" s="52">
         <v>45103</v>
       </c>
-      <c r="BR7" s="64">
+      <c r="BR7" s="52">
         <v>45103</v>
       </c>
       <c r="BS7" s="6"/>
@@ -3678,50 +3678,50 @@
       <c r="BU7" s="7"/>
       <c r="BV7" s="10"/>
       <c r="BW7" s="10"/>
-      <c r="BY7" s="51"/>
-      <c r="BZ7" s="65">
+      <c r="BY7" s="56"/>
+      <c r="BZ7" s="53">
         <v>45104</v>
       </c>
-      <c r="CA7" s="65">
+      <c r="CA7" s="53">
         <v>45104</v>
       </c>
-      <c r="CB7" s="51"/>
-      <c r="CC7" s="51"/>
-      <c r="CD7" s="51"/>
-      <c r="CE7" s="51"/>
-      <c r="CF7" s="65">
+      <c r="CB7" s="56"/>
+      <c r="CC7" s="56"/>
+      <c r="CD7" s="56"/>
+      <c r="CE7" s="56"/>
+      <c r="CF7" s="53">
         <v>45104</v>
       </c>
-      <c r="CG7" s="65">
+      <c r="CG7" s="53">
         <v>45104</v>
       </c>
-      <c r="CH7" s="51"/>
-      <c r="CI7" s="51"/>
-      <c r="CJ7" s="51"/>
-      <c r="CK7" s="51"/>
+      <c r="CH7" s="56"/>
+      <c r="CI7" s="56"/>
+      <c r="CJ7" s="56"/>
+      <c r="CK7" s="56"/>
       <c r="CL7" s="14"/>
-      <c r="CM7" s="51"/>
-      <c r="CN7" s="65">
+      <c r="CM7" s="56"/>
+      <c r="CN7" s="53">
         <v>45105</v>
       </c>
-      <c r="CO7" s="65">
+      <c r="CO7" s="53">
         <v>45105</v>
       </c>
-      <c r="CP7" s="51"/>
-      <c r="CQ7" s="51"/>
-      <c r="CR7" s="51"/>
-      <c r="CS7" s="51"/>
-      <c r="CT7" s="65">
+      <c r="CP7" s="56"/>
+      <c r="CQ7" s="56"/>
+      <c r="CR7" s="56"/>
+      <c r="CS7" s="56"/>
+      <c r="CT7" s="53">
         <v>45105</v>
       </c>
-      <c r="CU7" s="65">
+      <c r="CU7" s="53">
         <v>45105</v>
       </c>
-      <c r="CV7" s="51"/>
-      <c r="CW7" s="51"/>
-      <c r="CX7" s="51"/>
-      <c r="CY7" s="51"/>
-      <c r="CZ7" s="51"/>
+      <c r="CV7" s="56"/>
+      <c r="CW7" s="56"/>
+      <c r="CX7" s="56"/>
+      <c r="CY7" s="56"/>
+      <c r="CZ7" s="56"/>
     </row>
     <row r="8" spans="2:104" ht="20.25" customHeight="1">
       <c r="B8" s="5">
@@ -3816,11 +3816,11 @@
       <c r="AH8" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="AI8" s="6">
-        <v>45085</v>
-      </c>
-      <c r="AJ8" s="6">
-        <v>45091</v>
+      <c r="AI8" s="52">
+        <v>45089</v>
+      </c>
+      <c r="AJ8" s="52">
+        <v>45096</v>
       </c>
       <c r="AK8" s="6">
         <v>45089</v>
@@ -3830,10 +3830,10 @@
         <v>0.1</v>
       </c>
       <c r="AN8" s="17"/>
-      <c r="AO8" s="64">
+      <c r="AO8" s="52">
         <v>45097</v>
       </c>
-      <c r="AP8" s="64">
+      <c r="AP8" s="52">
         <v>45098</v>
       </c>
       <c r="AQ8" s="6"/>
@@ -3842,20 +3842,20 @@
       <c r="AT8" s="12"/>
       <c r="AU8" s="13"/>
       <c r="AV8" s="16"/>
-      <c r="AW8" s="64">
+      <c r="AW8" s="52">
         <v>45099</v>
       </c>
-      <c r="AX8" s="64">
+      <c r="AX8" s="52">
         <v>45099</v>
       </c>
       <c r="AY8" s="6"/>
       <c r="AZ8" s="6"/>
       <c r="BA8" s="7"/>
       <c r="BB8" s="17"/>
-      <c r="BC8" s="64">
+      <c r="BC8" s="52">
         <v>45100</v>
       </c>
-      <c r="BD8" s="64">
+      <c r="BD8" s="52">
         <v>45100</v>
       </c>
       <c r="BE8" s="6"/>
@@ -3864,20 +3864,20 @@
       <c r="BH8" s="10"/>
       <c r="BI8" s="14"/>
       <c r="BJ8" s="18"/>
-      <c r="BK8" s="64">
+      <c r="BK8" s="52">
         <v>45103</v>
       </c>
-      <c r="BL8" s="64">
+      <c r="BL8" s="52">
         <v>45103</v>
       </c>
       <c r="BM8" s="6"/>
       <c r="BN8" s="6"/>
       <c r="BO8" s="7"/>
       <c r="BP8" s="17"/>
-      <c r="BQ8" s="64">
+      <c r="BQ8" s="52">
         <v>45103</v>
       </c>
-      <c r="BR8" s="64">
+      <c r="BR8" s="52">
         <v>45103</v>
       </c>
       <c r="BS8" s="6"/>
@@ -3885,34 +3885,34 @@
       <c r="BU8" s="7"/>
       <c r="BV8" s="10"/>
       <c r="BW8" s="10"/>
-      <c r="BY8" s="52"/>
-      <c r="BZ8" s="66"/>
-      <c r="CA8" s="66"/>
-      <c r="CB8" s="52"/>
-      <c r="CC8" s="52"/>
-      <c r="CD8" s="52"/>
-      <c r="CE8" s="52"/>
-      <c r="CF8" s="66"/>
-      <c r="CG8" s="66"/>
-      <c r="CH8" s="52"/>
-      <c r="CI8" s="52"/>
-      <c r="CJ8" s="52"/>
-      <c r="CK8" s="52"/>
+      <c r="BY8" s="57"/>
+      <c r="BZ8" s="54"/>
+      <c r="CA8" s="54"/>
+      <c r="CB8" s="57"/>
+      <c r="CC8" s="57"/>
+      <c r="CD8" s="57"/>
+      <c r="CE8" s="57"/>
+      <c r="CF8" s="54"/>
+      <c r="CG8" s="54"/>
+      <c r="CH8" s="57"/>
+      <c r="CI8" s="57"/>
+      <c r="CJ8" s="57"/>
+      <c r="CK8" s="57"/>
       <c r="CL8" s="14"/>
-      <c r="CM8" s="52"/>
-      <c r="CN8" s="66"/>
-      <c r="CO8" s="66"/>
-      <c r="CP8" s="52"/>
-      <c r="CQ8" s="52"/>
-      <c r="CR8" s="52"/>
-      <c r="CS8" s="52"/>
-      <c r="CT8" s="66"/>
-      <c r="CU8" s="66"/>
-      <c r="CV8" s="52"/>
-      <c r="CW8" s="52"/>
-      <c r="CX8" s="52"/>
-      <c r="CY8" s="52"/>
-      <c r="CZ8" s="52"/>
+      <c r="CM8" s="57"/>
+      <c r="CN8" s="54"/>
+      <c r="CO8" s="54"/>
+      <c r="CP8" s="57"/>
+      <c r="CQ8" s="57"/>
+      <c r="CR8" s="57"/>
+      <c r="CS8" s="57"/>
+      <c r="CT8" s="54"/>
+      <c r="CU8" s="54"/>
+      <c r="CV8" s="57"/>
+      <c r="CW8" s="57"/>
+      <c r="CX8" s="57"/>
+      <c r="CY8" s="57"/>
+      <c r="CZ8" s="57"/>
     </row>
     <row r="9" spans="2:104" ht="20.25" customHeight="1">
       <c r="B9" s="5">
@@ -4005,11 +4005,11 @@
       <c r="AH9" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="AI9" s="6">
-        <v>45085</v>
-      </c>
-      <c r="AJ9" s="6">
-        <v>45091</v>
+      <c r="AI9" s="52">
+        <v>45089</v>
+      </c>
+      <c r="AJ9" s="52">
+        <v>45096</v>
       </c>
       <c r="AK9" s="6">
         <v>45089</v>
@@ -4019,10 +4019,10 @@
         <v>0.5</v>
       </c>
       <c r="AN9" s="17"/>
-      <c r="AO9" s="64">
+      <c r="AO9" s="52">
         <v>45097</v>
       </c>
-      <c r="AP9" s="64">
+      <c r="AP9" s="52">
         <v>45098</v>
       </c>
       <c r="AQ9" s="6"/>
@@ -4031,20 +4031,20 @@
       <c r="AT9" s="12"/>
       <c r="AU9" s="13"/>
       <c r="AV9" s="16"/>
-      <c r="AW9" s="64">
+      <c r="AW9" s="52">
         <v>45099</v>
       </c>
-      <c r="AX9" s="64">
+      <c r="AX9" s="52">
         <v>45099</v>
       </c>
       <c r="AY9" s="6"/>
       <c r="AZ9" s="6"/>
       <c r="BA9" s="7"/>
       <c r="BB9" s="17"/>
-      <c r="BC9" s="64">
+      <c r="BC9" s="52">
         <v>45100</v>
       </c>
-      <c r="BD9" s="64">
+      <c r="BD9" s="52">
         <v>45100</v>
       </c>
       <c r="BE9" s="6"/>
@@ -4053,20 +4053,20 @@
       <c r="BH9" s="10"/>
       <c r="BI9" s="14"/>
       <c r="BJ9" s="18"/>
-      <c r="BK9" s="64">
+      <c r="BK9" s="52">
         <v>45103</v>
       </c>
-      <c r="BL9" s="64">
+      <c r="BL9" s="52">
         <v>45103</v>
       </c>
       <c r="BM9" s="6"/>
       <c r="BN9" s="6"/>
       <c r="BO9" s="7"/>
       <c r="BP9" s="17"/>
-      <c r="BQ9" s="64">
+      <c r="BQ9" s="52">
         <v>45103</v>
       </c>
-      <c r="BR9" s="64">
+      <c r="BR9" s="52">
         <v>45103</v>
       </c>
       <c r="BS9" s="6"/>
@@ -4075,34 +4075,34 @@
       <c r="BV9" s="10"/>
       <c r="BW9" s="10"/>
       <c r="BX9" s="13"/>
-      <c r="BY9" s="52"/>
-      <c r="BZ9" s="66"/>
-      <c r="CA9" s="66"/>
-      <c r="CB9" s="52"/>
-      <c r="CC9" s="52"/>
-      <c r="CD9" s="52"/>
-      <c r="CE9" s="52"/>
-      <c r="CF9" s="66"/>
-      <c r="CG9" s="66"/>
-      <c r="CH9" s="52"/>
-      <c r="CI9" s="52"/>
-      <c r="CJ9" s="52"/>
-      <c r="CK9" s="52"/>
+      <c r="BY9" s="57"/>
+      <c r="BZ9" s="54"/>
+      <c r="CA9" s="54"/>
+      <c r="CB9" s="57"/>
+      <c r="CC9" s="57"/>
+      <c r="CD9" s="57"/>
+      <c r="CE9" s="57"/>
+      <c r="CF9" s="54"/>
+      <c r="CG9" s="54"/>
+      <c r="CH9" s="57"/>
+      <c r="CI9" s="57"/>
+      <c r="CJ9" s="57"/>
+      <c r="CK9" s="57"/>
       <c r="CL9" s="14"/>
-      <c r="CM9" s="52"/>
-      <c r="CN9" s="66"/>
-      <c r="CO9" s="66"/>
-      <c r="CP9" s="52"/>
-      <c r="CQ9" s="52"/>
-      <c r="CR9" s="52"/>
-      <c r="CS9" s="52"/>
-      <c r="CT9" s="66"/>
-      <c r="CU9" s="66"/>
-      <c r="CV9" s="52"/>
-      <c r="CW9" s="52"/>
-      <c r="CX9" s="52"/>
-      <c r="CY9" s="52"/>
-      <c r="CZ9" s="52"/>
+      <c r="CM9" s="57"/>
+      <c r="CN9" s="54"/>
+      <c r="CO9" s="54"/>
+      <c r="CP9" s="57"/>
+      <c r="CQ9" s="57"/>
+      <c r="CR9" s="57"/>
+      <c r="CS9" s="57"/>
+      <c r="CT9" s="54"/>
+      <c r="CU9" s="54"/>
+      <c r="CV9" s="57"/>
+      <c r="CW9" s="57"/>
+      <c r="CX9" s="57"/>
+      <c r="CY9" s="57"/>
+      <c r="CZ9" s="57"/>
     </row>
     <row r="10" spans="2:104" ht="20.25" customHeight="1">
       <c r="B10" s="5">
@@ -4197,11 +4197,11 @@
       <c r="AH10" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="AI10" s="6">
-        <v>45085</v>
-      </c>
-      <c r="AJ10" s="6">
-        <v>45091</v>
+      <c r="AI10" s="52">
+        <v>45089</v>
+      </c>
+      <c r="AJ10" s="52">
+        <v>45096</v>
       </c>
       <c r="AK10" s="6">
         <v>45089</v>
@@ -4211,10 +4211,10 @@
         <v>0.2</v>
       </c>
       <c r="AN10" s="17"/>
-      <c r="AO10" s="64">
+      <c r="AO10" s="52">
         <v>45097</v>
       </c>
-      <c r="AP10" s="64">
+      <c r="AP10" s="52">
         <v>45098</v>
       </c>
       <c r="AQ10" s="6"/>
@@ -4223,20 +4223,20 @@
       <c r="AT10" s="12"/>
       <c r="AU10" s="13"/>
       <c r="AV10" s="16"/>
-      <c r="AW10" s="64">
+      <c r="AW10" s="52">
         <v>45099</v>
       </c>
-      <c r="AX10" s="64">
+      <c r="AX10" s="52">
         <v>45099</v>
       </c>
       <c r="AY10" s="6"/>
       <c r="AZ10" s="6"/>
       <c r="BA10" s="7"/>
       <c r="BB10" s="17"/>
-      <c r="BC10" s="64">
+      <c r="BC10" s="52">
         <v>45100</v>
       </c>
-      <c r="BD10" s="64">
+      <c r="BD10" s="52">
         <v>45100</v>
       </c>
       <c r="BE10" s="6"/>
@@ -4245,20 +4245,20 @@
       <c r="BH10" s="10"/>
       <c r="BI10" s="14"/>
       <c r="BJ10" s="18"/>
-      <c r="BK10" s="64">
+      <c r="BK10" s="52">
         <v>45103</v>
       </c>
-      <c r="BL10" s="64">
+      <c r="BL10" s="52">
         <v>45103</v>
       </c>
       <c r="BM10" s="6"/>
       <c r="BN10" s="6"/>
       <c r="BO10" s="7"/>
       <c r="BP10" s="17"/>
-      <c r="BQ10" s="64">
+      <c r="BQ10" s="52">
         <v>45103</v>
       </c>
-      <c r="BR10" s="64">
+      <c r="BR10" s="52">
         <v>45103</v>
       </c>
       <c r="BS10" s="6"/>
@@ -4267,34 +4267,34 @@
       <c r="BV10" s="10"/>
       <c r="BW10" s="10"/>
       <c r="BX10" s="13"/>
-      <c r="BY10" s="52"/>
-      <c r="BZ10" s="66"/>
-      <c r="CA10" s="66"/>
-      <c r="CB10" s="52"/>
-      <c r="CC10" s="52"/>
-      <c r="CD10" s="52"/>
-      <c r="CE10" s="52"/>
-      <c r="CF10" s="66"/>
-      <c r="CG10" s="66"/>
-      <c r="CH10" s="52"/>
-      <c r="CI10" s="52"/>
-      <c r="CJ10" s="52"/>
-      <c r="CK10" s="52"/>
+      <c r="BY10" s="57"/>
+      <c r="BZ10" s="54"/>
+      <c r="CA10" s="54"/>
+      <c r="CB10" s="57"/>
+      <c r="CC10" s="57"/>
+      <c r="CD10" s="57"/>
+      <c r="CE10" s="57"/>
+      <c r="CF10" s="54"/>
+      <c r="CG10" s="54"/>
+      <c r="CH10" s="57"/>
+      <c r="CI10" s="57"/>
+      <c r="CJ10" s="57"/>
+      <c r="CK10" s="57"/>
       <c r="CL10" s="14"/>
-      <c r="CM10" s="52"/>
-      <c r="CN10" s="66"/>
-      <c r="CO10" s="66"/>
-      <c r="CP10" s="52"/>
-      <c r="CQ10" s="52"/>
-      <c r="CR10" s="52"/>
-      <c r="CS10" s="52"/>
-      <c r="CT10" s="66"/>
-      <c r="CU10" s="66"/>
-      <c r="CV10" s="52"/>
-      <c r="CW10" s="52"/>
-      <c r="CX10" s="52"/>
-      <c r="CY10" s="52"/>
-      <c r="CZ10" s="52"/>
+      <c r="CM10" s="57"/>
+      <c r="CN10" s="54"/>
+      <c r="CO10" s="54"/>
+      <c r="CP10" s="57"/>
+      <c r="CQ10" s="57"/>
+      <c r="CR10" s="57"/>
+      <c r="CS10" s="57"/>
+      <c r="CT10" s="54"/>
+      <c r="CU10" s="54"/>
+      <c r="CV10" s="57"/>
+      <c r="CW10" s="57"/>
+      <c r="CX10" s="57"/>
+      <c r="CY10" s="57"/>
+      <c r="CZ10" s="57"/>
     </row>
     <row r="11" spans="2:104" ht="20.25" customHeight="1">
       <c r="B11" s="5">
@@ -4387,11 +4387,11 @@
       <c r="AH11" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="AI11" s="6">
-        <v>45085</v>
-      </c>
-      <c r="AJ11" s="6">
-        <v>45091</v>
+      <c r="AI11" s="52">
+        <v>45089</v>
+      </c>
+      <c r="AJ11" s="52">
+        <v>45096</v>
       </c>
       <c r="AK11" s="6">
         <v>45089</v>
@@ -4401,10 +4401,10 @@
         <v>0.15</v>
       </c>
       <c r="AN11" s="17"/>
-      <c r="AO11" s="64">
+      <c r="AO11" s="52">
         <v>45097</v>
       </c>
-      <c r="AP11" s="64">
+      <c r="AP11" s="52">
         <v>45098</v>
       </c>
       <c r="AQ11" s="6"/>
@@ -4413,20 +4413,20 @@
       <c r="AT11" s="12"/>
       <c r="AU11" s="13"/>
       <c r="AV11" s="16"/>
-      <c r="AW11" s="64">
+      <c r="AW11" s="52">
         <v>45099</v>
       </c>
-      <c r="AX11" s="64">
+      <c r="AX11" s="52">
         <v>45099</v>
       </c>
       <c r="AY11" s="6"/>
       <c r="AZ11" s="6"/>
       <c r="BA11" s="7"/>
       <c r="BB11" s="17"/>
-      <c r="BC11" s="64">
+      <c r="BC11" s="52">
         <v>45100</v>
       </c>
-      <c r="BD11" s="64">
+      <c r="BD11" s="52">
         <v>45100</v>
       </c>
       <c r="BE11" s="6"/>
@@ -4435,20 +4435,20 @@
       <c r="BH11" s="10"/>
       <c r="BI11" s="14"/>
       <c r="BJ11" s="18"/>
-      <c r="BK11" s="64">
+      <c r="BK11" s="52">
         <v>45103</v>
       </c>
-      <c r="BL11" s="64">
+      <c r="BL11" s="52">
         <v>45103</v>
       </c>
       <c r="BM11" s="6"/>
       <c r="BN11" s="6"/>
       <c r="BO11" s="7"/>
       <c r="BP11" s="17"/>
-      <c r="BQ11" s="64">
+      <c r="BQ11" s="52">
         <v>45103</v>
       </c>
-      <c r="BR11" s="64">
+      <c r="BR11" s="52">
         <v>45103</v>
       </c>
       <c r="BS11" s="6"/>
@@ -4457,34 +4457,34 @@
       <c r="BV11" s="10"/>
       <c r="BW11" s="10"/>
       <c r="BX11" s="13"/>
-      <c r="BY11" s="52"/>
-      <c r="BZ11" s="66"/>
-      <c r="CA11" s="66"/>
-      <c r="CB11" s="52"/>
-      <c r="CC11" s="52"/>
-      <c r="CD11" s="52"/>
-      <c r="CE11" s="52"/>
-      <c r="CF11" s="66"/>
-      <c r="CG11" s="66"/>
-      <c r="CH11" s="52"/>
-      <c r="CI11" s="52"/>
-      <c r="CJ11" s="52"/>
-      <c r="CK11" s="52"/>
+      <c r="BY11" s="57"/>
+      <c r="BZ11" s="54"/>
+      <c r="CA11" s="54"/>
+      <c r="CB11" s="57"/>
+      <c r="CC11" s="57"/>
+      <c r="CD11" s="57"/>
+      <c r="CE11" s="57"/>
+      <c r="CF11" s="54"/>
+      <c r="CG11" s="54"/>
+      <c r="CH11" s="57"/>
+      <c r="CI11" s="57"/>
+      <c r="CJ11" s="57"/>
+      <c r="CK11" s="57"/>
       <c r="CL11" s="14"/>
-      <c r="CM11" s="52"/>
-      <c r="CN11" s="66"/>
-      <c r="CO11" s="66"/>
-      <c r="CP11" s="52"/>
-      <c r="CQ11" s="52"/>
-      <c r="CR11" s="52"/>
-      <c r="CS11" s="52"/>
-      <c r="CT11" s="66"/>
-      <c r="CU11" s="66"/>
-      <c r="CV11" s="52"/>
-      <c r="CW11" s="52"/>
-      <c r="CX11" s="52"/>
-      <c r="CY11" s="52"/>
-      <c r="CZ11" s="52"/>
+      <c r="CM11" s="57"/>
+      <c r="CN11" s="54"/>
+      <c r="CO11" s="54"/>
+      <c r="CP11" s="57"/>
+      <c r="CQ11" s="57"/>
+      <c r="CR11" s="57"/>
+      <c r="CS11" s="57"/>
+      <c r="CT11" s="54"/>
+      <c r="CU11" s="54"/>
+      <c r="CV11" s="57"/>
+      <c r="CW11" s="57"/>
+      <c r="CX11" s="57"/>
+      <c r="CY11" s="57"/>
+      <c r="CZ11" s="57"/>
     </row>
     <row r="12" spans="2:104" ht="20.25" customHeight="1">
       <c r="B12" s="5">
@@ -4577,11 +4577,11 @@
       <c r="AH12" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="AI12" s="6">
-        <v>45085</v>
-      </c>
-      <c r="AJ12" s="6">
-        <v>45091</v>
+      <c r="AI12" s="52">
+        <v>45089</v>
+      </c>
+      <c r="AJ12" s="52">
+        <v>45096</v>
       </c>
       <c r="AK12" s="6">
         <v>45089</v>
@@ -4591,10 +4591,10 @@
         <v>0.4</v>
       </c>
       <c r="AN12" s="17"/>
-      <c r="AO12" s="64">
+      <c r="AO12" s="52">
         <v>45097</v>
       </c>
-      <c r="AP12" s="64">
+      <c r="AP12" s="52">
         <v>45098</v>
       </c>
       <c r="AQ12" s="6"/>
@@ -4603,20 +4603,20 @@
       <c r="AT12" s="12"/>
       <c r="AU12" s="13"/>
       <c r="AV12" s="16"/>
-      <c r="AW12" s="64">
+      <c r="AW12" s="52">
         <v>45099</v>
       </c>
-      <c r="AX12" s="64">
+      <c r="AX12" s="52">
         <v>45099</v>
       </c>
       <c r="AY12" s="6"/>
       <c r="AZ12" s="6"/>
       <c r="BA12" s="7"/>
       <c r="BB12" s="17"/>
-      <c r="BC12" s="64">
+      <c r="BC12" s="52">
         <v>45100</v>
       </c>
-      <c r="BD12" s="64">
+      <c r="BD12" s="52">
         <v>45100</v>
       </c>
       <c r="BE12" s="6"/>
@@ -4625,20 +4625,20 @@
       <c r="BH12" s="10"/>
       <c r="BI12" s="14"/>
       <c r="BJ12" s="18"/>
-      <c r="BK12" s="64">
+      <c r="BK12" s="52">
         <v>45103</v>
       </c>
-      <c r="BL12" s="64">
+      <c r="BL12" s="52">
         <v>45103</v>
       </c>
       <c r="BM12" s="6"/>
       <c r="BN12" s="6"/>
       <c r="BO12" s="7"/>
       <c r="BP12" s="17"/>
-      <c r="BQ12" s="64">
+      <c r="BQ12" s="52">
         <v>45103</v>
       </c>
-      <c r="BR12" s="64">
+      <c r="BR12" s="52">
         <v>45103</v>
       </c>
       <c r="BS12" s="6"/>
@@ -4647,34 +4647,34 @@
       <c r="BV12" s="10"/>
       <c r="BW12" s="10"/>
       <c r="BX12" s="13"/>
-      <c r="BY12" s="52"/>
-      <c r="BZ12" s="66"/>
-      <c r="CA12" s="66"/>
-      <c r="CB12" s="52"/>
-      <c r="CC12" s="52"/>
-      <c r="CD12" s="52"/>
-      <c r="CE12" s="52"/>
-      <c r="CF12" s="66"/>
-      <c r="CG12" s="66"/>
-      <c r="CH12" s="52"/>
-      <c r="CI12" s="52"/>
-      <c r="CJ12" s="52"/>
-      <c r="CK12" s="52"/>
+      <c r="BY12" s="57"/>
+      <c r="BZ12" s="54"/>
+      <c r="CA12" s="54"/>
+      <c r="CB12" s="57"/>
+      <c r="CC12" s="57"/>
+      <c r="CD12" s="57"/>
+      <c r="CE12" s="57"/>
+      <c r="CF12" s="54"/>
+      <c r="CG12" s="54"/>
+      <c r="CH12" s="57"/>
+      <c r="CI12" s="57"/>
+      <c r="CJ12" s="57"/>
+      <c r="CK12" s="57"/>
       <c r="CL12" s="14"/>
-      <c r="CM12" s="52"/>
-      <c r="CN12" s="66"/>
-      <c r="CO12" s="66"/>
-      <c r="CP12" s="52"/>
-      <c r="CQ12" s="52"/>
-      <c r="CR12" s="52"/>
-      <c r="CS12" s="52"/>
-      <c r="CT12" s="66"/>
-      <c r="CU12" s="66"/>
-      <c r="CV12" s="52"/>
-      <c r="CW12" s="52"/>
-      <c r="CX12" s="52"/>
-      <c r="CY12" s="52"/>
-      <c r="CZ12" s="52"/>
+      <c r="CM12" s="57"/>
+      <c r="CN12" s="54"/>
+      <c r="CO12" s="54"/>
+      <c r="CP12" s="57"/>
+      <c r="CQ12" s="57"/>
+      <c r="CR12" s="57"/>
+      <c r="CS12" s="57"/>
+      <c r="CT12" s="54"/>
+      <c r="CU12" s="54"/>
+      <c r="CV12" s="57"/>
+      <c r="CW12" s="57"/>
+      <c r="CX12" s="57"/>
+      <c r="CY12" s="57"/>
+      <c r="CZ12" s="57"/>
     </row>
     <row r="13" spans="2:104" ht="20.25" customHeight="1">
       <c r="B13" s="5">
@@ -4769,11 +4769,11 @@
       <c r="AH13" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="AI13" s="6">
-        <v>45085</v>
-      </c>
-      <c r="AJ13" s="6">
-        <v>45091</v>
+      <c r="AI13" s="52">
+        <v>45089</v>
+      </c>
+      <c r="AJ13" s="52">
+        <v>45096</v>
       </c>
       <c r="AK13" s="6">
         <v>45089</v>
@@ -4783,10 +4783,10 @@
         <v>0.2</v>
       </c>
       <c r="AN13" s="17"/>
-      <c r="AO13" s="64">
+      <c r="AO13" s="52">
         <v>45097</v>
       </c>
-      <c r="AP13" s="64">
+      <c r="AP13" s="52">
         <v>45098</v>
       </c>
       <c r="AQ13" s="6"/>
@@ -4795,20 +4795,20 @@
       <c r="AT13" s="12"/>
       <c r="AU13" s="13"/>
       <c r="AV13" s="16"/>
-      <c r="AW13" s="64">
+      <c r="AW13" s="52">
         <v>45099</v>
       </c>
-      <c r="AX13" s="64">
+      <c r="AX13" s="52">
         <v>45099</v>
       </c>
       <c r="AY13" s="6"/>
       <c r="AZ13" s="6"/>
       <c r="BA13" s="7"/>
       <c r="BB13" s="17"/>
-      <c r="BC13" s="64">
+      <c r="BC13" s="52">
         <v>45100</v>
       </c>
-      <c r="BD13" s="64">
+      <c r="BD13" s="52">
         <v>45100</v>
       </c>
       <c r="BE13" s="6"/>
@@ -4817,20 +4817,20 @@
       <c r="BH13" s="10"/>
       <c r="BI13" s="14"/>
       <c r="BJ13" s="18"/>
-      <c r="BK13" s="64">
+      <c r="BK13" s="52">
         <v>45103</v>
       </c>
-      <c r="BL13" s="64">
+      <c r="BL13" s="52">
         <v>45103</v>
       </c>
       <c r="BM13" s="6"/>
       <c r="BN13" s="6"/>
       <c r="BO13" s="7"/>
       <c r="BP13" s="17"/>
-      <c r="BQ13" s="64">
+      <c r="BQ13" s="52">
         <v>45103</v>
       </c>
-      <c r="BR13" s="64">
+      <c r="BR13" s="52">
         <v>45103</v>
       </c>
       <c r="BS13" s="6"/>
@@ -4839,34 +4839,34 @@
       <c r="BV13" s="10"/>
       <c r="BW13" s="10"/>
       <c r="BX13" s="13"/>
-      <c r="BY13" s="52"/>
-      <c r="BZ13" s="66"/>
-      <c r="CA13" s="66"/>
-      <c r="CB13" s="52"/>
-      <c r="CC13" s="52"/>
-      <c r="CD13" s="52"/>
-      <c r="CE13" s="52"/>
-      <c r="CF13" s="66"/>
-      <c r="CG13" s="66"/>
-      <c r="CH13" s="52"/>
-      <c r="CI13" s="52"/>
-      <c r="CJ13" s="52"/>
-      <c r="CK13" s="52"/>
+      <c r="BY13" s="57"/>
+      <c r="BZ13" s="54"/>
+      <c r="CA13" s="54"/>
+      <c r="CB13" s="57"/>
+      <c r="CC13" s="57"/>
+      <c r="CD13" s="57"/>
+      <c r="CE13" s="57"/>
+      <c r="CF13" s="54"/>
+      <c r="CG13" s="54"/>
+      <c r="CH13" s="57"/>
+      <c r="CI13" s="57"/>
+      <c r="CJ13" s="57"/>
+      <c r="CK13" s="57"/>
       <c r="CL13" s="14"/>
-      <c r="CM13" s="52"/>
-      <c r="CN13" s="66"/>
-      <c r="CO13" s="66"/>
-      <c r="CP13" s="52"/>
-      <c r="CQ13" s="52"/>
-      <c r="CR13" s="52"/>
-      <c r="CS13" s="52"/>
-      <c r="CT13" s="66"/>
-      <c r="CU13" s="66"/>
-      <c r="CV13" s="52"/>
-      <c r="CW13" s="52"/>
-      <c r="CX13" s="52"/>
-      <c r="CY13" s="52"/>
-      <c r="CZ13" s="52"/>
+      <c r="CM13" s="57"/>
+      <c r="CN13" s="54"/>
+      <c r="CO13" s="54"/>
+      <c r="CP13" s="57"/>
+      <c r="CQ13" s="57"/>
+      <c r="CR13" s="57"/>
+      <c r="CS13" s="57"/>
+      <c r="CT13" s="54"/>
+      <c r="CU13" s="54"/>
+      <c r="CV13" s="57"/>
+      <c r="CW13" s="57"/>
+      <c r="CX13" s="57"/>
+      <c r="CY13" s="57"/>
+      <c r="CZ13" s="57"/>
     </row>
     <row r="14" spans="2:104" ht="20.25" customHeight="1">
       <c r="B14" s="5">
@@ -4961,11 +4961,11 @@
       <c r="AH14" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="AI14" s="6">
-        <v>45085</v>
-      </c>
-      <c r="AJ14" s="6">
-        <v>45091</v>
+      <c r="AI14" s="52">
+        <v>45089</v>
+      </c>
+      <c r="AJ14" s="52">
+        <v>45096</v>
       </c>
       <c r="AK14" s="6">
         <v>45089</v>
@@ -4975,10 +4975,10 @@
         <v>0.1</v>
       </c>
       <c r="AN14" s="17"/>
-      <c r="AO14" s="64">
+      <c r="AO14" s="52">
         <v>45097</v>
       </c>
-      <c r="AP14" s="64">
+      <c r="AP14" s="52">
         <v>45098</v>
       </c>
       <c r="AQ14" s="6"/>
@@ -4987,20 +4987,20 @@
       <c r="AT14" s="12"/>
       <c r="AU14" s="13"/>
       <c r="AV14" s="16"/>
-      <c r="AW14" s="64">
+      <c r="AW14" s="52">
         <v>45099</v>
       </c>
-      <c r="AX14" s="64">
+      <c r="AX14" s="52">
         <v>45099</v>
       </c>
       <c r="AY14" s="6"/>
       <c r="AZ14" s="6"/>
       <c r="BA14" s="7"/>
       <c r="BB14" s="17"/>
-      <c r="BC14" s="64">
+      <c r="BC14" s="52">
         <v>45100</v>
       </c>
-      <c r="BD14" s="64">
+      <c r="BD14" s="52">
         <v>45100</v>
       </c>
       <c r="BE14" s="6"/>
@@ -5009,20 +5009,20 @@
       <c r="BH14" s="10"/>
       <c r="BI14" s="14"/>
       <c r="BJ14" s="18"/>
-      <c r="BK14" s="64">
+      <c r="BK14" s="52">
         <v>45103</v>
       </c>
-      <c r="BL14" s="64">
+      <c r="BL14" s="52">
         <v>45103</v>
       </c>
       <c r="BM14" s="6"/>
       <c r="BN14" s="6"/>
       <c r="BO14" s="7"/>
       <c r="BP14" s="17"/>
-      <c r="BQ14" s="64">
+      <c r="BQ14" s="52">
         <v>45103</v>
       </c>
-      <c r="BR14" s="64">
+      <c r="BR14" s="52">
         <v>45103</v>
       </c>
       <c r="BS14" s="6"/>
@@ -5032,28 +5032,28 @@
       <c r="BW14" s="10"/>
       <c r="BX14" s="13"/>
       <c r="BY14" s="36"/>
-      <c r="BZ14" s="67"/>
-      <c r="CA14" s="67"/>
+      <c r="BZ14" s="55"/>
+      <c r="CA14" s="55"/>
       <c r="CB14" s="36"/>
       <c r="CC14" s="36"/>
       <c r="CD14" s="36"/>
       <c r="CE14" s="36"/>
-      <c r="CF14" s="67"/>
-      <c r="CG14" s="67"/>
+      <c r="CF14" s="55"/>
+      <c r="CG14" s="55"/>
       <c r="CH14" s="36"/>
       <c r="CI14" s="36"/>
       <c r="CJ14" s="36"/>
       <c r="CK14" s="36"/>
       <c r="CL14" s="14"/>
       <c r="CM14" s="36"/>
-      <c r="CN14" s="67"/>
-      <c r="CO14" s="67"/>
+      <c r="CN14" s="55"/>
+      <c r="CO14" s="55"/>
       <c r="CP14" s="36"/>
       <c r="CQ14" s="36"/>
       <c r="CR14" s="36"/>
       <c r="CS14" s="36"/>
-      <c r="CT14" s="67"/>
-      <c r="CU14" s="67"/>
+      <c r="CT14" s="55"/>
+      <c r="CU14" s="55"/>
       <c r="CV14" s="36"/>
       <c r="CW14" s="36"/>
       <c r="CX14" s="36"/>
@@ -5151,11 +5151,11 @@
       <c r="AH15" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="AI15" s="6">
-        <v>45085</v>
-      </c>
-      <c r="AJ15" s="6">
-        <v>45091</v>
+      <c r="AI15" s="52">
+        <v>45089</v>
+      </c>
+      <c r="AJ15" s="52">
+        <v>45096</v>
       </c>
       <c r="AK15" s="6">
         <v>45089</v>
@@ -5165,10 +5165,10 @@
         <v>0.7</v>
       </c>
       <c r="AN15" s="17"/>
-      <c r="AO15" s="64">
+      <c r="AO15" s="52">
         <v>45097</v>
       </c>
-      <c r="AP15" s="64">
+      <c r="AP15" s="52">
         <v>45098</v>
       </c>
       <c r="AQ15" s="6"/>
@@ -5177,20 +5177,20 @@
       <c r="AT15" s="12"/>
       <c r="AU15" s="13"/>
       <c r="AV15" s="16"/>
-      <c r="AW15" s="64">
+      <c r="AW15" s="52">
         <v>45099</v>
       </c>
-      <c r="AX15" s="64">
+      <c r="AX15" s="52">
         <v>45099</v>
       </c>
       <c r="AY15" s="6"/>
       <c r="AZ15" s="6"/>
       <c r="BA15" s="7"/>
       <c r="BB15" s="17"/>
-      <c r="BC15" s="64">
+      <c r="BC15" s="52">
         <v>45100</v>
       </c>
-      <c r="BD15" s="64">
+      <c r="BD15" s="52">
         <v>45100</v>
       </c>
       <c r="BE15" s="6"/>
@@ -5199,20 +5199,20 @@
       <c r="BH15" s="10"/>
       <c r="BI15" s="14"/>
       <c r="BJ15" s="18"/>
-      <c r="BK15" s="64">
+      <c r="BK15" s="52">
         <v>45103</v>
       </c>
-      <c r="BL15" s="64">
+      <c r="BL15" s="52">
         <v>45103</v>
       </c>
       <c r="BM15" s="6"/>
       <c r="BN15" s="6"/>
       <c r="BO15" s="7"/>
       <c r="BP15" s="17"/>
-      <c r="BQ15" s="64">
+      <c r="BQ15" s="52">
         <v>45103</v>
       </c>
-      <c r="BR15" s="64">
+      <c r="BR15" s="52">
         <v>45103</v>
       </c>
       <c r="BS15" s="6"/>
@@ -5221,50 +5221,50 @@
       <c r="BV15" s="10"/>
       <c r="BW15" s="10"/>
       <c r="BX15" s="13"/>
-      <c r="BY15" s="51"/>
-      <c r="BZ15" s="65">
+      <c r="BY15" s="56"/>
+      <c r="BZ15" s="53">
         <v>45104</v>
       </c>
-      <c r="CA15" s="65">
+      <c r="CA15" s="53">
         <v>45104</v>
       </c>
-      <c r="CB15" s="51"/>
-      <c r="CC15" s="51"/>
-      <c r="CD15" s="51"/>
-      <c r="CE15" s="51"/>
-      <c r="CF15" s="65">
+      <c r="CB15" s="56"/>
+      <c r="CC15" s="56"/>
+      <c r="CD15" s="56"/>
+      <c r="CE15" s="56"/>
+      <c r="CF15" s="53">
         <v>45104</v>
       </c>
-      <c r="CG15" s="65">
+      <c r="CG15" s="53">
         <v>45104</v>
       </c>
-      <c r="CH15" s="51"/>
-      <c r="CI15" s="51"/>
-      <c r="CJ15" s="51"/>
-      <c r="CK15" s="51"/>
+      <c r="CH15" s="56"/>
+      <c r="CI15" s="56"/>
+      <c r="CJ15" s="56"/>
+      <c r="CK15" s="56"/>
       <c r="CL15" s="14"/>
-      <c r="CM15" s="51"/>
-      <c r="CN15" s="65">
+      <c r="CM15" s="56"/>
+      <c r="CN15" s="53">
         <v>45105</v>
       </c>
-      <c r="CO15" s="65">
+      <c r="CO15" s="53">
         <v>45105</v>
       </c>
-      <c r="CP15" s="51"/>
-      <c r="CQ15" s="51"/>
-      <c r="CR15" s="51"/>
-      <c r="CS15" s="51"/>
-      <c r="CT15" s="65">
+      <c r="CP15" s="56"/>
+      <c r="CQ15" s="56"/>
+      <c r="CR15" s="56"/>
+      <c r="CS15" s="56"/>
+      <c r="CT15" s="53">
         <v>45105</v>
       </c>
-      <c r="CU15" s="65">
+      <c r="CU15" s="53">
         <v>45105</v>
       </c>
-      <c r="CV15" s="51"/>
-      <c r="CW15" s="51"/>
-      <c r="CX15" s="51"/>
-      <c r="CY15" s="51"/>
-      <c r="CZ15" s="51"/>
+      <c r="CV15" s="56"/>
+      <c r="CW15" s="56"/>
+      <c r="CX15" s="56"/>
+      <c r="CY15" s="56"/>
+      <c r="CZ15" s="56"/>
     </row>
     <row r="16" spans="2:104" ht="20.25" customHeight="1">
       <c r="B16" s="5">
@@ -5357,11 +5357,11 @@
       <c r="AH16" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="AI16" s="6">
-        <v>45085</v>
-      </c>
-      <c r="AJ16" s="6">
-        <v>45091</v>
+      <c r="AI16" s="52">
+        <v>45089</v>
+      </c>
+      <c r="AJ16" s="52">
+        <v>45096</v>
       </c>
       <c r="AK16" s="6">
         <v>45089</v>
@@ -5371,10 +5371,10 @@
         <v>0</v>
       </c>
       <c r="AN16" s="17"/>
-      <c r="AO16" s="64">
+      <c r="AO16" s="52">
         <v>45097</v>
       </c>
-      <c r="AP16" s="64">
+      <c r="AP16" s="52">
         <v>45098</v>
       </c>
       <c r="AQ16" s="6"/>
@@ -5383,20 +5383,20 @@
       <c r="AT16" s="12"/>
       <c r="AU16" s="13"/>
       <c r="AV16" s="16"/>
-      <c r="AW16" s="64">
+      <c r="AW16" s="52">
         <v>45099</v>
       </c>
-      <c r="AX16" s="64">
+      <c r="AX16" s="52">
         <v>45099</v>
       </c>
       <c r="AY16" s="6"/>
       <c r="AZ16" s="6"/>
       <c r="BA16" s="7"/>
       <c r="BB16" s="17"/>
-      <c r="BC16" s="64">
+      <c r="BC16" s="52">
         <v>45100</v>
       </c>
-      <c r="BD16" s="64">
+      <c r="BD16" s="52">
         <v>45100</v>
       </c>
       <c r="BE16" s="6"/>
@@ -5405,20 +5405,20 @@
       <c r="BH16" s="10"/>
       <c r="BI16" s="14"/>
       <c r="BJ16" s="18"/>
-      <c r="BK16" s="64">
+      <c r="BK16" s="52">
         <v>45103</v>
       </c>
-      <c r="BL16" s="64">
+      <c r="BL16" s="52">
         <v>45103</v>
       </c>
       <c r="BM16" s="6"/>
       <c r="BN16" s="6"/>
       <c r="BO16" s="7"/>
       <c r="BP16" s="17"/>
-      <c r="BQ16" s="64">
+      <c r="BQ16" s="52">
         <v>45103</v>
       </c>
-      <c r="BR16" s="64">
+      <c r="BR16" s="52">
         <v>45103</v>
       </c>
       <c r="BS16" s="6"/>
@@ -5426,34 +5426,34 @@
       <c r="BU16" s="7"/>
       <c r="BV16" s="10"/>
       <c r="BW16" s="10"/>
-      <c r="BY16" s="52"/>
-      <c r="BZ16" s="66"/>
-      <c r="CA16" s="66"/>
-      <c r="CB16" s="52"/>
-      <c r="CC16" s="52"/>
-      <c r="CD16" s="52"/>
-      <c r="CE16" s="52"/>
-      <c r="CF16" s="66"/>
-      <c r="CG16" s="66"/>
-      <c r="CH16" s="52"/>
-      <c r="CI16" s="52"/>
-      <c r="CJ16" s="52"/>
-      <c r="CK16" s="52"/>
+      <c r="BY16" s="57"/>
+      <c r="BZ16" s="54"/>
+      <c r="CA16" s="54"/>
+      <c r="CB16" s="57"/>
+      <c r="CC16" s="57"/>
+      <c r="CD16" s="57"/>
+      <c r="CE16" s="57"/>
+      <c r="CF16" s="54"/>
+      <c r="CG16" s="54"/>
+      <c r="CH16" s="57"/>
+      <c r="CI16" s="57"/>
+      <c r="CJ16" s="57"/>
+      <c r="CK16" s="57"/>
       <c r="CL16" s="29"/>
-      <c r="CM16" s="52"/>
-      <c r="CN16" s="66"/>
-      <c r="CO16" s="66"/>
-      <c r="CP16" s="52"/>
-      <c r="CQ16" s="52"/>
-      <c r="CR16" s="52"/>
-      <c r="CS16" s="52"/>
-      <c r="CT16" s="66"/>
-      <c r="CU16" s="66"/>
-      <c r="CV16" s="52"/>
-      <c r="CW16" s="52"/>
-      <c r="CX16" s="52"/>
-      <c r="CY16" s="52"/>
-      <c r="CZ16" s="52"/>
+      <c r="CM16" s="57"/>
+      <c r="CN16" s="54"/>
+      <c r="CO16" s="54"/>
+      <c r="CP16" s="57"/>
+      <c r="CQ16" s="57"/>
+      <c r="CR16" s="57"/>
+      <c r="CS16" s="57"/>
+      <c r="CT16" s="54"/>
+      <c r="CU16" s="54"/>
+      <c r="CV16" s="57"/>
+      <c r="CW16" s="57"/>
+      <c r="CX16" s="57"/>
+      <c r="CY16" s="57"/>
+      <c r="CZ16" s="57"/>
     </row>
     <row r="17" spans="2:104" ht="20.25" customHeight="1">
       <c r="B17" s="5">
@@ -5546,11 +5546,11 @@
       <c r="AH17" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="AI17" s="6">
-        <v>45085</v>
-      </c>
-      <c r="AJ17" s="6">
-        <v>45091</v>
+      <c r="AI17" s="52">
+        <v>45089</v>
+      </c>
+      <c r="AJ17" s="52">
+        <v>45096</v>
       </c>
       <c r="AK17" s="6">
         <v>45089</v>
@@ -5560,10 +5560,10 @@
         <v>0.7</v>
       </c>
       <c r="AN17" s="17"/>
-      <c r="AO17" s="64">
+      <c r="AO17" s="52">
         <v>45097</v>
       </c>
-      <c r="AP17" s="64">
+      <c r="AP17" s="52">
         <v>45098</v>
       </c>
       <c r="AQ17" s="6"/>
@@ -5572,20 +5572,20 @@
       <c r="AT17" s="12"/>
       <c r="AU17" s="13"/>
       <c r="AV17" s="16"/>
-      <c r="AW17" s="64">
+      <c r="AW17" s="52">
         <v>45099</v>
       </c>
-      <c r="AX17" s="64">
+      <c r="AX17" s="52">
         <v>45099</v>
       </c>
       <c r="AY17" s="6"/>
       <c r="AZ17" s="6"/>
       <c r="BA17" s="7"/>
       <c r="BB17" s="17"/>
-      <c r="BC17" s="64">
+      <c r="BC17" s="52">
         <v>45100</v>
       </c>
-      <c r="BD17" s="64">
+      <c r="BD17" s="52">
         <v>45100</v>
       </c>
       <c r="BE17" s="6"/>
@@ -5594,20 +5594,20 @@
       <c r="BH17" s="10"/>
       <c r="BI17" s="14"/>
       <c r="BJ17" s="18"/>
-      <c r="BK17" s="64">
+      <c r="BK17" s="52">
         <v>45103</v>
       </c>
-      <c r="BL17" s="64">
+      <c r="BL17" s="52">
         <v>45103</v>
       </c>
       <c r="BM17" s="6"/>
       <c r="BN17" s="6"/>
       <c r="BO17" s="7"/>
       <c r="BP17" s="17"/>
-      <c r="BQ17" s="64">
+      <c r="BQ17" s="52">
         <v>45103</v>
       </c>
-      <c r="BR17" s="64">
+      <c r="BR17" s="52">
         <v>45103</v>
       </c>
       <c r="BS17" s="6"/>
@@ -5615,34 +5615,34 @@
       <c r="BU17" s="7"/>
       <c r="BV17" s="10"/>
       <c r="BW17" s="10"/>
-      <c r="BY17" s="52"/>
-      <c r="BZ17" s="66"/>
-      <c r="CA17" s="66"/>
-      <c r="CB17" s="52"/>
-      <c r="CC17" s="52"/>
-      <c r="CD17" s="52"/>
-      <c r="CE17" s="52"/>
-      <c r="CF17" s="66"/>
-      <c r="CG17" s="66"/>
-      <c r="CH17" s="52"/>
-      <c r="CI17" s="52"/>
-      <c r="CJ17" s="52"/>
-      <c r="CK17" s="52"/>
+      <c r="BY17" s="57"/>
+      <c r="BZ17" s="54"/>
+      <c r="CA17" s="54"/>
+      <c r="CB17" s="57"/>
+      <c r="CC17" s="57"/>
+      <c r="CD17" s="57"/>
+      <c r="CE17" s="57"/>
+      <c r="CF17" s="54"/>
+      <c r="CG17" s="54"/>
+      <c r="CH17" s="57"/>
+      <c r="CI17" s="57"/>
+      <c r="CJ17" s="57"/>
+      <c r="CK17" s="57"/>
       <c r="CL17" s="29"/>
-      <c r="CM17" s="52"/>
-      <c r="CN17" s="66"/>
-      <c r="CO17" s="66"/>
-      <c r="CP17" s="52"/>
-      <c r="CQ17" s="52"/>
-      <c r="CR17" s="52"/>
-      <c r="CS17" s="52"/>
-      <c r="CT17" s="66"/>
-      <c r="CU17" s="66"/>
-      <c r="CV17" s="52"/>
-      <c r="CW17" s="52"/>
-      <c r="CX17" s="52"/>
-      <c r="CY17" s="52"/>
-      <c r="CZ17" s="52"/>
+      <c r="CM17" s="57"/>
+      <c r="CN17" s="54"/>
+      <c r="CO17" s="54"/>
+      <c r="CP17" s="57"/>
+      <c r="CQ17" s="57"/>
+      <c r="CR17" s="57"/>
+      <c r="CS17" s="57"/>
+      <c r="CT17" s="54"/>
+      <c r="CU17" s="54"/>
+      <c r="CV17" s="57"/>
+      <c r="CW17" s="57"/>
+      <c r="CX17" s="57"/>
+      <c r="CY17" s="57"/>
+      <c r="CZ17" s="57"/>
     </row>
     <row r="18" spans="2:104" ht="20.25" customHeight="1">
       <c r="B18" s="5">
@@ -5735,11 +5735,11 @@
       <c r="AH18" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="AI18" s="6">
-        <v>45085</v>
-      </c>
-      <c r="AJ18" s="6">
-        <v>45091</v>
+      <c r="AI18" s="52">
+        <v>45089</v>
+      </c>
+      <c r="AJ18" s="52">
+        <v>45096</v>
       </c>
       <c r="AK18" s="6">
         <v>45089</v>
@@ -5749,10 +5749,10 @@
         <v>0.25</v>
       </c>
       <c r="AN18" s="17"/>
-      <c r="AO18" s="64">
+      <c r="AO18" s="52">
         <v>45097</v>
       </c>
-      <c r="AP18" s="64">
+      <c r="AP18" s="52">
         <v>45098</v>
       </c>
       <c r="AQ18" s="6"/>
@@ -5761,20 +5761,20 @@
       <c r="AT18" s="12"/>
       <c r="AU18" s="13"/>
       <c r="AV18" s="16"/>
-      <c r="AW18" s="64">
+      <c r="AW18" s="52">
         <v>45099</v>
       </c>
-      <c r="AX18" s="64">
+      <c r="AX18" s="52">
         <v>45099</v>
       </c>
       <c r="AY18" s="6"/>
       <c r="AZ18" s="6"/>
       <c r="BA18" s="7"/>
       <c r="BB18" s="17"/>
-      <c r="BC18" s="64">
+      <c r="BC18" s="52">
         <v>45100</v>
       </c>
-      <c r="BD18" s="64">
+      <c r="BD18" s="52">
         <v>45100</v>
       </c>
       <c r="BE18" s="6"/>
@@ -5783,20 +5783,20 @@
       <c r="BH18" s="10"/>
       <c r="BI18" s="14"/>
       <c r="BJ18" s="18"/>
-      <c r="BK18" s="64">
+      <c r="BK18" s="52">
         <v>45103</v>
       </c>
-      <c r="BL18" s="64">
+      <c r="BL18" s="52">
         <v>45103</v>
       </c>
       <c r="BM18" s="6"/>
       <c r="BN18" s="6"/>
       <c r="BO18" s="7"/>
       <c r="BP18" s="17"/>
-      <c r="BQ18" s="64">
+      <c r="BQ18" s="52">
         <v>45103</v>
       </c>
-      <c r="BR18" s="64">
+      <c r="BR18" s="52">
         <v>45103</v>
       </c>
       <c r="BS18" s="6"/>
@@ -5805,34 +5805,34 @@
       <c r="BV18" s="10"/>
       <c r="BW18" s="10"/>
       <c r="BX18" s="11"/>
-      <c r="BY18" s="52"/>
-      <c r="BZ18" s="66"/>
-      <c r="CA18" s="66"/>
-      <c r="CB18" s="52"/>
-      <c r="CC18" s="52"/>
-      <c r="CD18" s="52"/>
-      <c r="CE18" s="52"/>
-      <c r="CF18" s="66"/>
-      <c r="CG18" s="66"/>
-      <c r="CH18" s="52"/>
-      <c r="CI18" s="52"/>
-      <c r="CJ18" s="52"/>
-      <c r="CK18" s="52"/>
+      <c r="BY18" s="57"/>
+      <c r="BZ18" s="54"/>
+      <c r="CA18" s="54"/>
+      <c r="CB18" s="57"/>
+      <c r="CC18" s="57"/>
+      <c r="CD18" s="57"/>
+      <c r="CE18" s="57"/>
+      <c r="CF18" s="54"/>
+      <c r="CG18" s="54"/>
+      <c r="CH18" s="57"/>
+      <c r="CI18" s="57"/>
+      <c r="CJ18" s="57"/>
+      <c r="CK18" s="57"/>
       <c r="CL18" s="29"/>
-      <c r="CM18" s="52"/>
-      <c r="CN18" s="66"/>
-      <c r="CO18" s="66"/>
-      <c r="CP18" s="52"/>
-      <c r="CQ18" s="52"/>
-      <c r="CR18" s="52"/>
-      <c r="CS18" s="52"/>
-      <c r="CT18" s="66"/>
-      <c r="CU18" s="66"/>
-      <c r="CV18" s="52"/>
-      <c r="CW18" s="52"/>
-      <c r="CX18" s="52"/>
-      <c r="CY18" s="52"/>
-      <c r="CZ18" s="52"/>
+      <c r="CM18" s="57"/>
+      <c r="CN18" s="54"/>
+      <c r="CO18" s="54"/>
+      <c r="CP18" s="57"/>
+      <c r="CQ18" s="57"/>
+      <c r="CR18" s="57"/>
+      <c r="CS18" s="57"/>
+      <c r="CT18" s="54"/>
+      <c r="CU18" s="54"/>
+      <c r="CV18" s="57"/>
+      <c r="CW18" s="57"/>
+      <c r="CX18" s="57"/>
+      <c r="CY18" s="57"/>
+      <c r="CZ18" s="57"/>
     </row>
     <row r="19" spans="2:104" ht="20.25" customHeight="1">
       <c r="B19" s="5">
@@ -5925,11 +5925,11 @@
       <c r="AH19" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="AI19" s="6">
-        <v>45085</v>
-      </c>
-      <c r="AJ19" s="6">
-        <v>45091</v>
+      <c r="AI19" s="52">
+        <v>45089</v>
+      </c>
+      <c r="AJ19" s="52">
+        <v>45096</v>
       </c>
       <c r="AK19" s="6">
         <v>45089</v>
@@ -5937,10 +5937,10 @@
       <c r="AL19" s="6"/>
       <c r="AM19" s="7"/>
       <c r="AN19" s="17"/>
-      <c r="AO19" s="64">
+      <c r="AO19" s="52">
         <v>45097</v>
       </c>
-      <c r="AP19" s="64">
+      <c r="AP19" s="52">
         <v>45098</v>
       </c>
       <c r="AQ19" s="6"/>
@@ -5949,20 +5949,20 @@
       <c r="AT19" s="12"/>
       <c r="AU19" s="13"/>
       <c r="AV19" s="16"/>
-      <c r="AW19" s="64">
+      <c r="AW19" s="52">
         <v>45099</v>
       </c>
-      <c r="AX19" s="64">
+      <c r="AX19" s="52">
         <v>45099</v>
       </c>
       <c r="AY19" s="6"/>
       <c r="AZ19" s="6"/>
       <c r="BA19" s="7"/>
       <c r="BB19" s="17"/>
-      <c r="BC19" s="64">
+      <c r="BC19" s="52">
         <v>45100</v>
       </c>
-      <c r="BD19" s="64">
+      <c r="BD19" s="52">
         <v>45100</v>
       </c>
       <c r="BE19" s="6"/>
@@ -5971,20 +5971,20 @@
       <c r="BH19" s="10"/>
       <c r="BI19" s="14"/>
       <c r="BJ19" s="18"/>
-      <c r="BK19" s="64">
+      <c r="BK19" s="52">
         <v>45103</v>
       </c>
-      <c r="BL19" s="64">
+      <c r="BL19" s="52">
         <v>45103</v>
       </c>
       <c r="BM19" s="6"/>
       <c r="BN19" s="6"/>
       <c r="BO19" s="7"/>
       <c r="BP19" s="17"/>
-      <c r="BQ19" s="64">
+      <c r="BQ19" s="52">
         <v>45103</v>
       </c>
-      <c r="BR19" s="64">
+      <c r="BR19" s="52">
         <v>45103</v>
       </c>
       <c r="BS19" s="6"/>
@@ -5993,34 +5993,34 @@
       <c r="BV19" s="10"/>
       <c r="BW19" s="10"/>
       <c r="BX19" s="11"/>
-      <c r="BY19" s="52"/>
-      <c r="BZ19" s="66"/>
-      <c r="CA19" s="66"/>
-      <c r="CB19" s="52"/>
-      <c r="CC19" s="52"/>
-      <c r="CD19" s="52"/>
-      <c r="CE19" s="52"/>
-      <c r="CF19" s="66"/>
-      <c r="CG19" s="66"/>
-      <c r="CH19" s="52"/>
-      <c r="CI19" s="52"/>
-      <c r="CJ19" s="52"/>
-      <c r="CK19" s="52"/>
+      <c r="BY19" s="57"/>
+      <c r="BZ19" s="54"/>
+      <c r="CA19" s="54"/>
+      <c r="CB19" s="57"/>
+      <c r="CC19" s="57"/>
+      <c r="CD19" s="57"/>
+      <c r="CE19" s="57"/>
+      <c r="CF19" s="54"/>
+      <c r="CG19" s="54"/>
+      <c r="CH19" s="57"/>
+      <c r="CI19" s="57"/>
+      <c r="CJ19" s="57"/>
+      <c r="CK19" s="57"/>
       <c r="CL19" s="29"/>
-      <c r="CM19" s="52"/>
-      <c r="CN19" s="66"/>
-      <c r="CO19" s="66"/>
-      <c r="CP19" s="52"/>
-      <c r="CQ19" s="52"/>
-      <c r="CR19" s="52"/>
-      <c r="CS19" s="52"/>
-      <c r="CT19" s="66"/>
-      <c r="CU19" s="66"/>
-      <c r="CV19" s="52"/>
-      <c r="CW19" s="52"/>
-      <c r="CX19" s="52"/>
-      <c r="CY19" s="52"/>
-      <c r="CZ19" s="52"/>
+      <c r="CM19" s="57"/>
+      <c r="CN19" s="54"/>
+      <c r="CO19" s="54"/>
+      <c r="CP19" s="57"/>
+      <c r="CQ19" s="57"/>
+      <c r="CR19" s="57"/>
+      <c r="CS19" s="57"/>
+      <c r="CT19" s="54"/>
+      <c r="CU19" s="54"/>
+      <c r="CV19" s="57"/>
+      <c r="CW19" s="57"/>
+      <c r="CX19" s="57"/>
+      <c r="CY19" s="57"/>
+      <c r="CZ19" s="57"/>
     </row>
     <row r="20" spans="2:104" ht="20.25" customHeight="1">
       <c r="B20" s="5">
@@ -6113,11 +6113,11 @@
       <c r="AH20" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="AI20" s="6">
-        <v>45085</v>
-      </c>
-      <c r="AJ20" s="6">
-        <v>45091</v>
+      <c r="AI20" s="52">
+        <v>45089</v>
+      </c>
+      <c r="AJ20" s="52">
+        <v>45096</v>
       </c>
       <c r="AK20" s="6">
         <v>45089</v>
@@ -6127,10 +6127,10 @@
         <v>0.2</v>
       </c>
       <c r="AN20" s="17"/>
-      <c r="AO20" s="64">
+      <c r="AO20" s="52">
         <v>45097</v>
       </c>
-      <c r="AP20" s="64">
+      <c r="AP20" s="52">
         <v>45098</v>
       </c>
       <c r="AQ20" s="6"/>
@@ -6139,20 +6139,20 @@
       <c r="AT20" s="12"/>
       <c r="AU20" s="13"/>
       <c r="AV20" s="16"/>
-      <c r="AW20" s="64">
+      <c r="AW20" s="52">
         <v>45099</v>
       </c>
-      <c r="AX20" s="64">
+      <c r="AX20" s="52">
         <v>45099</v>
       </c>
       <c r="AY20" s="6"/>
       <c r="AZ20" s="6"/>
       <c r="BA20" s="7"/>
       <c r="BB20" s="17"/>
-      <c r="BC20" s="64">
+      <c r="BC20" s="52">
         <v>45100</v>
       </c>
-      <c r="BD20" s="64">
+      <c r="BD20" s="52">
         <v>45100</v>
       </c>
       <c r="BE20" s="6"/>
@@ -6161,20 +6161,20 @@
       <c r="BH20" s="10"/>
       <c r="BI20" s="14"/>
       <c r="BJ20" s="18"/>
-      <c r="BK20" s="64">
+      <c r="BK20" s="52">
         <v>45103</v>
       </c>
-      <c r="BL20" s="64">
+      <c r="BL20" s="52">
         <v>45103</v>
       </c>
       <c r="BM20" s="6"/>
       <c r="BN20" s="6"/>
       <c r="BO20" s="7"/>
       <c r="BP20" s="17"/>
-      <c r="BQ20" s="64">
+      <c r="BQ20" s="52">
         <v>45103</v>
       </c>
-      <c r="BR20" s="64">
+      <c r="BR20" s="52">
         <v>45103</v>
       </c>
       <c r="BS20" s="6"/>
@@ -6183,34 +6183,34 @@
       <c r="BV20" s="10"/>
       <c r="BW20" s="10"/>
       <c r="BX20" s="11"/>
-      <c r="BY20" s="52"/>
-      <c r="BZ20" s="66"/>
-      <c r="CA20" s="66"/>
-      <c r="CB20" s="52"/>
-      <c r="CC20" s="52"/>
-      <c r="CD20" s="52"/>
-      <c r="CE20" s="52"/>
-      <c r="CF20" s="66"/>
-      <c r="CG20" s="66"/>
-      <c r="CH20" s="52"/>
-      <c r="CI20" s="52"/>
-      <c r="CJ20" s="52"/>
-      <c r="CK20" s="52"/>
+      <c r="BY20" s="57"/>
+      <c r="BZ20" s="54"/>
+      <c r="CA20" s="54"/>
+      <c r="CB20" s="57"/>
+      <c r="CC20" s="57"/>
+      <c r="CD20" s="57"/>
+      <c r="CE20" s="57"/>
+      <c r="CF20" s="54"/>
+      <c r="CG20" s="54"/>
+      <c r="CH20" s="57"/>
+      <c r="CI20" s="57"/>
+      <c r="CJ20" s="57"/>
+      <c r="CK20" s="57"/>
       <c r="CL20" s="29"/>
-      <c r="CM20" s="52"/>
-      <c r="CN20" s="66"/>
-      <c r="CO20" s="66"/>
-      <c r="CP20" s="52"/>
-      <c r="CQ20" s="52"/>
-      <c r="CR20" s="52"/>
-      <c r="CS20" s="52"/>
-      <c r="CT20" s="66"/>
-      <c r="CU20" s="66"/>
-      <c r="CV20" s="52"/>
-      <c r="CW20" s="52"/>
-      <c r="CX20" s="52"/>
-      <c r="CY20" s="52"/>
-      <c r="CZ20" s="52"/>
+      <c r="CM20" s="57"/>
+      <c r="CN20" s="54"/>
+      <c r="CO20" s="54"/>
+      <c r="CP20" s="57"/>
+      <c r="CQ20" s="57"/>
+      <c r="CR20" s="57"/>
+      <c r="CS20" s="57"/>
+      <c r="CT20" s="54"/>
+      <c r="CU20" s="54"/>
+      <c r="CV20" s="57"/>
+      <c r="CW20" s="57"/>
+      <c r="CX20" s="57"/>
+      <c r="CY20" s="57"/>
+      <c r="CZ20" s="57"/>
     </row>
     <row r="21" spans="2:104" ht="20.25" customHeight="1">
       <c r="B21" s="5">
@@ -6303,11 +6303,11 @@
       <c r="AH21" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="AI21" s="6">
-        <v>45085</v>
-      </c>
-      <c r="AJ21" s="6">
-        <v>45091</v>
+      <c r="AI21" s="52">
+        <v>45089</v>
+      </c>
+      <c r="AJ21" s="52">
+        <v>45096</v>
       </c>
       <c r="AK21" s="6">
         <v>45089</v>
@@ -6315,10 +6315,10 @@
       <c r="AL21" s="6"/>
       <c r="AM21" s="7"/>
       <c r="AN21" s="17"/>
-      <c r="AO21" s="64">
+      <c r="AO21" s="52">
         <v>45097</v>
       </c>
-      <c r="AP21" s="64">
+      <c r="AP21" s="52">
         <v>45098</v>
       </c>
       <c r="AQ21" s="6"/>
@@ -6327,20 +6327,20 @@
       <c r="AT21" s="12"/>
       <c r="AU21" s="13"/>
       <c r="AV21" s="16"/>
-      <c r="AW21" s="64">
+      <c r="AW21" s="52">
         <v>45099</v>
       </c>
-      <c r="AX21" s="64">
+      <c r="AX21" s="52">
         <v>45099</v>
       </c>
       <c r="AY21" s="6"/>
       <c r="AZ21" s="6"/>
       <c r="BA21" s="7"/>
       <c r="BB21" s="17"/>
-      <c r="BC21" s="64">
+      <c r="BC21" s="52">
         <v>45100</v>
       </c>
-      <c r="BD21" s="64">
+      <c r="BD21" s="52">
         <v>45100</v>
       </c>
       <c r="BE21" s="6"/>
@@ -6349,20 +6349,20 @@
       <c r="BH21" s="10"/>
       <c r="BI21" s="14"/>
       <c r="BJ21" s="18"/>
-      <c r="BK21" s="64">
+      <c r="BK21" s="52">
         <v>45103</v>
       </c>
-      <c r="BL21" s="64">
+      <c r="BL21" s="52">
         <v>45103</v>
       </c>
       <c r="BM21" s="6"/>
       <c r="BN21" s="6"/>
       <c r="BO21" s="7"/>
       <c r="BP21" s="17"/>
-      <c r="BQ21" s="64">
+      <c r="BQ21" s="52">
         <v>45103</v>
       </c>
-      <c r="BR21" s="64">
+      <c r="BR21" s="52">
         <v>45103</v>
       </c>
       <c r="BS21" s="6"/>
@@ -6371,34 +6371,34 @@
       <c r="BV21" s="10"/>
       <c r="BW21" s="10"/>
       <c r="BX21" s="11"/>
-      <c r="BY21" s="52"/>
-      <c r="BZ21" s="66"/>
-      <c r="CA21" s="66"/>
-      <c r="CB21" s="52"/>
-      <c r="CC21" s="52"/>
-      <c r="CD21" s="52"/>
-      <c r="CE21" s="52"/>
-      <c r="CF21" s="66"/>
-      <c r="CG21" s="66"/>
-      <c r="CH21" s="52"/>
-      <c r="CI21" s="52"/>
-      <c r="CJ21" s="52"/>
-      <c r="CK21" s="52"/>
+      <c r="BY21" s="57"/>
+      <c r="BZ21" s="54"/>
+      <c r="CA21" s="54"/>
+      <c r="CB21" s="57"/>
+      <c r="CC21" s="57"/>
+      <c r="CD21" s="57"/>
+      <c r="CE21" s="57"/>
+      <c r="CF21" s="54"/>
+      <c r="CG21" s="54"/>
+      <c r="CH21" s="57"/>
+      <c r="CI21" s="57"/>
+      <c r="CJ21" s="57"/>
+      <c r="CK21" s="57"/>
       <c r="CL21" s="29"/>
-      <c r="CM21" s="52"/>
-      <c r="CN21" s="66"/>
-      <c r="CO21" s="66"/>
-      <c r="CP21" s="52"/>
-      <c r="CQ21" s="52"/>
-      <c r="CR21" s="52"/>
-      <c r="CS21" s="52"/>
-      <c r="CT21" s="66"/>
-      <c r="CU21" s="66"/>
-      <c r="CV21" s="52"/>
-      <c r="CW21" s="52"/>
-      <c r="CX21" s="52"/>
-      <c r="CY21" s="52"/>
-      <c r="CZ21" s="52"/>
+      <c r="CM21" s="57"/>
+      <c r="CN21" s="54"/>
+      <c r="CO21" s="54"/>
+      <c r="CP21" s="57"/>
+      <c r="CQ21" s="57"/>
+      <c r="CR21" s="57"/>
+      <c r="CS21" s="57"/>
+      <c r="CT21" s="54"/>
+      <c r="CU21" s="54"/>
+      <c r="CV21" s="57"/>
+      <c r="CW21" s="57"/>
+      <c r="CX21" s="57"/>
+      <c r="CY21" s="57"/>
+      <c r="CZ21" s="57"/>
     </row>
     <row r="22" spans="2:104" ht="20.25" customHeight="1">
       <c r="B22" s="5">
@@ -6491,100 +6491,100 @@
       <c r="AH22" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="AI22" s="6">
-        <v>45085</v>
-      </c>
-      <c r="AJ22" s="6">
-        <v>45091</v>
-      </c>
-      <c r="AK22" s="54"/>
-      <c r="AL22" s="54"/>
-      <c r="AM22" s="55"/>
-      <c r="AN22" s="56"/>
-      <c r="AO22" s="54">
+      <c r="AI22" s="52">
+        <v>45089</v>
+      </c>
+      <c r="AJ22" s="52">
+        <v>45096</v>
+      </c>
+      <c r="AK22" s="42"/>
+      <c r="AL22" s="42"/>
+      <c r="AM22" s="43"/>
+      <c r="AN22" s="44"/>
+      <c r="AO22" s="42">
         <v>45092</v>
       </c>
-      <c r="AP22" s="54">
+      <c r="AP22" s="42">
         <v>45093</v>
       </c>
-      <c r="AQ22" s="54"/>
-      <c r="AR22" s="54"/>
-      <c r="AS22" s="55"/>
-      <c r="AT22" s="57"/>
-      <c r="AU22" s="58"/>
-      <c r="AV22" s="59"/>
-      <c r="AW22" s="54">
+      <c r="AQ22" s="42"/>
+      <c r="AR22" s="42"/>
+      <c r="AS22" s="43"/>
+      <c r="AT22" s="45"/>
+      <c r="AU22" s="46"/>
+      <c r="AV22" s="47"/>
+      <c r="AW22" s="42">
         <v>45096</v>
       </c>
-      <c r="AX22" s="54">
+      <c r="AX22" s="42">
         <v>45096</v>
       </c>
-      <c r="AY22" s="54"/>
-      <c r="AZ22" s="54"/>
-      <c r="BA22" s="55"/>
-      <c r="BB22" s="56"/>
-      <c r="BC22" s="54">
+      <c r="AY22" s="42"/>
+      <c r="AZ22" s="42"/>
+      <c r="BA22" s="43"/>
+      <c r="BB22" s="44"/>
+      <c r="BC22" s="42">
         <v>45097</v>
       </c>
-      <c r="BD22" s="54">
+      <c r="BD22" s="42">
         <v>45097</v>
       </c>
-      <c r="BE22" s="54"/>
-      <c r="BF22" s="54"/>
-      <c r="BG22" s="60"/>
-      <c r="BH22" s="61"/>
-      <c r="BI22" s="62"/>
-      <c r="BJ22" s="63"/>
-      <c r="BK22" s="54">
+      <c r="BE22" s="42"/>
+      <c r="BF22" s="42"/>
+      <c r="BG22" s="48"/>
+      <c r="BH22" s="49"/>
+      <c r="BI22" s="50"/>
+      <c r="BJ22" s="51"/>
+      <c r="BK22" s="42">
         <v>45098</v>
       </c>
-      <c r="BL22" s="54">
+      <c r="BL22" s="42">
         <v>45098</v>
       </c>
-      <c r="BM22" s="54"/>
-      <c r="BN22" s="54"/>
-      <c r="BO22" s="55"/>
-      <c r="BP22" s="56"/>
-      <c r="BQ22" s="54">
+      <c r="BM22" s="42"/>
+      <c r="BN22" s="42"/>
+      <c r="BO22" s="43"/>
+      <c r="BP22" s="44"/>
+      <c r="BQ22" s="42">
         <v>45099</v>
       </c>
-      <c r="BR22" s="54">
+      <c r="BR22" s="42">
         <v>45099</v>
       </c>
-      <c r="BS22" s="54"/>
-      <c r="BT22" s="54"/>
-      <c r="BU22" s="55"/>
-      <c r="BV22" s="61"/>
-      <c r="BW22" s="61"/>
+      <c r="BS22" s="42"/>
+      <c r="BT22" s="42"/>
+      <c r="BU22" s="43"/>
+      <c r="BV22" s="49"/>
+      <c r="BW22" s="49"/>
       <c r="BX22" s="13"/>
-      <c r="BY22" s="53"/>
-      <c r="BZ22" s="67"/>
-      <c r="CA22" s="67"/>
-      <c r="CB22" s="53"/>
-      <c r="CC22" s="53"/>
-      <c r="CD22" s="53"/>
-      <c r="CE22" s="53"/>
-      <c r="CF22" s="67"/>
-      <c r="CG22" s="67"/>
-      <c r="CH22" s="53"/>
-      <c r="CI22" s="53"/>
-      <c r="CJ22" s="53"/>
-      <c r="CK22" s="53"/>
+      <c r="BY22" s="58"/>
+      <c r="BZ22" s="55"/>
+      <c r="CA22" s="55"/>
+      <c r="CB22" s="58"/>
+      <c r="CC22" s="58"/>
+      <c r="CD22" s="58"/>
+      <c r="CE22" s="58"/>
+      <c r="CF22" s="55"/>
+      <c r="CG22" s="55"/>
+      <c r="CH22" s="58"/>
+      <c r="CI22" s="58"/>
+      <c r="CJ22" s="58"/>
+      <c r="CK22" s="58"/>
       <c r="CL22" s="14"/>
-      <c r="CM22" s="53"/>
-      <c r="CN22" s="67"/>
-      <c r="CO22" s="67"/>
-      <c r="CP22" s="53"/>
-      <c r="CQ22" s="53"/>
-      <c r="CR22" s="53"/>
-      <c r="CS22" s="53"/>
-      <c r="CT22" s="67"/>
-      <c r="CU22" s="67"/>
-      <c r="CV22" s="53"/>
-      <c r="CW22" s="53"/>
-      <c r="CX22" s="53"/>
-      <c r="CY22" s="53"/>
-      <c r="CZ22" s="53"/>
+      <c r="CM22" s="58"/>
+      <c r="CN22" s="55"/>
+      <c r="CO22" s="55"/>
+      <c r="CP22" s="58"/>
+      <c r="CQ22" s="58"/>
+      <c r="CR22" s="58"/>
+      <c r="CS22" s="58"/>
+      <c r="CT22" s="55"/>
+      <c r="CU22" s="55"/>
+      <c r="CV22" s="58"/>
+      <c r="CW22" s="58"/>
+      <c r="CX22" s="58"/>
+      <c r="CY22" s="58"/>
+      <c r="CZ22" s="58"/>
     </row>
     <row r="23" spans="2:104" ht="20.25" customHeight="1">
       <c r="BX23" s="11"/>
@@ -6596,24 +6596,101 @@
     </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="BZ7:BZ14"/>
-    <mergeCell ref="CA7:CA14"/>
-    <mergeCell ref="CF7:CF14"/>
-    <mergeCell ref="CG7:CG14"/>
-    <mergeCell ref="CN7:CN14"/>
-    <mergeCell ref="CO7:CO14"/>
-    <mergeCell ref="CT7:CT14"/>
-    <mergeCell ref="CU7:CU14"/>
-    <mergeCell ref="CM7:CM13"/>
-    <mergeCell ref="CW15:CW22"/>
-    <mergeCell ref="CX7:CX13"/>
-    <mergeCell ref="CY7:CY13"/>
-    <mergeCell ref="CZ7:CZ13"/>
-    <mergeCell ref="CQ15:CQ22"/>
-    <mergeCell ref="CR15:CR22"/>
-    <mergeCell ref="CS15:CS22"/>
-    <mergeCell ref="CV7:CV13"/>
-    <mergeCell ref="CW7:CW13"/>
+    <mergeCell ref="CE4:CK4"/>
+    <mergeCell ref="CM4:CR4"/>
+    <mergeCell ref="CS4:CZ4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:R4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="CM5:CM6"/>
+    <mergeCell ref="CH5:CI5"/>
+    <mergeCell ref="CE5:CE6"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="CF5:CG5"/>
+    <mergeCell ref="BP4:BW4"/>
+    <mergeCell ref="BY4:CD4"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="Z4:AF4"/>
+    <mergeCell ref="AH4:AM4"/>
+    <mergeCell ref="AN4:AT4"/>
+    <mergeCell ref="AV4:BA4"/>
+    <mergeCell ref="BB4:BH4"/>
+    <mergeCell ref="BJ4:BO4"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="BM5:BN5"/>
+    <mergeCell ref="BQ5:BR5"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="CG15:CG22"/>
+    <mergeCell ref="BY7:BY13"/>
+    <mergeCell ref="CZ5:CZ6"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CT5:CU5"/>
+    <mergeCell ref="CV5:CW5"/>
+    <mergeCell ref="CS5:CS6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CH15:CH22"/>
+    <mergeCell ref="CI15:CI22"/>
+    <mergeCell ref="CJ15:CJ22"/>
+    <mergeCell ref="CK15:CK22"/>
+    <mergeCell ref="CZ15:CZ22"/>
+    <mergeCell ref="CP15:CP22"/>
+    <mergeCell ref="CR7:CR13"/>
+    <mergeCell ref="CS7:CS13"/>
+    <mergeCell ref="CT15:CT22"/>
+    <mergeCell ref="CU15:CU22"/>
+    <mergeCell ref="CV15:CV22"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CK5:CK6"/>
+    <mergeCell ref="CN5:CO5"/>
+    <mergeCell ref="CP5:CQ5"/>
     <mergeCell ref="BH5:BH6"/>
     <mergeCell ref="CX15:CX22"/>
     <mergeCell ref="CY15:CY22"/>
@@ -6638,101 +6715,24 @@
     <mergeCell ref="CO15:CO22"/>
     <mergeCell ref="CE15:CE22"/>
     <mergeCell ref="CF15:CF22"/>
-    <mergeCell ref="CG15:CG22"/>
-    <mergeCell ref="BY7:BY13"/>
-    <mergeCell ref="CZ5:CZ6"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CT5:CU5"/>
-    <mergeCell ref="CV5:CW5"/>
-    <mergeCell ref="CS5:CS6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CH15:CH22"/>
-    <mergeCell ref="CI15:CI22"/>
-    <mergeCell ref="CJ15:CJ22"/>
-    <mergeCell ref="CK15:CK22"/>
-    <mergeCell ref="CZ15:CZ22"/>
-    <mergeCell ref="CP15:CP22"/>
-    <mergeCell ref="CR7:CR13"/>
-    <mergeCell ref="CS7:CS13"/>
-    <mergeCell ref="CT15:CT22"/>
-    <mergeCell ref="CU15:CU22"/>
-    <mergeCell ref="CV15:CV22"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CK5:CK6"/>
-    <mergeCell ref="CN5:CO5"/>
-    <mergeCell ref="CP5:CQ5"/>
-    <mergeCell ref="CM5:CM6"/>
-    <mergeCell ref="CH5:CI5"/>
-    <mergeCell ref="CE5:CE6"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="CF5:CG5"/>
-    <mergeCell ref="BP4:BW4"/>
-    <mergeCell ref="BY4:CD4"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="Z4:AF4"/>
-    <mergeCell ref="AH4:AM4"/>
-    <mergeCell ref="AN4:AT4"/>
-    <mergeCell ref="AV4:BA4"/>
-    <mergeCell ref="BB4:BH4"/>
-    <mergeCell ref="BJ4:BO4"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BW5:BW6"/>
-    <mergeCell ref="BY5:BY6"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="BZ5:CA5"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="CE4:CK4"/>
-    <mergeCell ref="CM4:CR4"/>
-    <mergeCell ref="CS4:CZ4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:R4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="CW15:CW22"/>
+    <mergeCell ref="CX7:CX13"/>
+    <mergeCell ref="CY7:CY13"/>
+    <mergeCell ref="CZ7:CZ13"/>
+    <mergeCell ref="CQ15:CQ22"/>
+    <mergeCell ref="CR15:CR22"/>
+    <mergeCell ref="CS15:CS22"/>
+    <mergeCell ref="CV7:CV13"/>
+    <mergeCell ref="CW7:CW13"/>
+    <mergeCell ref="BZ7:BZ14"/>
+    <mergeCell ref="CA7:CA14"/>
+    <mergeCell ref="CF7:CF14"/>
+    <mergeCell ref="CG7:CG14"/>
+    <mergeCell ref="CN7:CN14"/>
+    <mergeCell ref="CO7:CO14"/>
+    <mergeCell ref="CT7:CT14"/>
+    <mergeCell ref="CU7:CU14"/>
+    <mergeCell ref="CM7:CM13"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="F7:K14">
@@ -6815,7 +6815,7 @@
       <formula>$AD15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI15:AJ22 AL15:AM22 AK22">
+  <conditionalFormatting sqref="AL15:AM22 AK22">
     <cfRule type="expression" dxfId="26" priority="245">
       <formula>$AL15&lt;&gt;""</formula>
     </cfRule>
@@ -6890,7 +6890,7 @@
       <formula>$X17&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI7:AL14 AK15:AK21">
+  <conditionalFormatting sqref="AI7:AL7 AK15:AK21 AK8:AL14 AI8:AJ22">
     <cfRule type="expression" dxfId="11" priority="12">
       <formula>$AK7&lt;&gt;""</formula>
     </cfRule>

--- a/スケジュール（2023-06）.xlsx
+++ b/スケジュール（2023-06）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\o3o__\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B05DB67-A6A7-4A7A-9E39-F954A7377BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E11A934-0EEF-46C5-922A-3EF15365A505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-14115" yWindow="3045" windowWidth="12675" windowHeight="9870" tabRatio="910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="体制図" sheetId="11" r:id="rId1"/>
@@ -800,6 +800,33 @@
     <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="176" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -816,33 +843,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2869,10 +2869,10 @@
   <dimension ref="B3:CZ24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="S7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="S13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AI8" sqref="AI8:AJ22"/>
+      <selection pane="bottomRight" activeCell="AL18" sqref="AL18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
@@ -2933,381 +2933,381 @@
       </c>
     </row>
     <row r="4" spans="2:104" s="20" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60" t="s">
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="T4" s="60" t="s">
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="T4" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="U4" s="60"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="60" t="s">
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="60"/>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="60"/>
-      <c r="AE4" s="60"/>
-      <c r="AF4" s="60"/>
-      <c r="AH4" s="60" t="s">
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="53"/>
+      <c r="AD4" s="53"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="53"/>
+      <c r="AH4" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="AI4" s="60"/>
-      <c r="AJ4" s="60"/>
-      <c r="AK4" s="60"/>
-      <c r="AL4" s="60"/>
-      <c r="AM4" s="60"/>
-      <c r="AN4" s="60" t="s">
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="53"/>
+      <c r="AK4" s="53"/>
+      <c r="AL4" s="53"/>
+      <c r="AM4" s="53"/>
+      <c r="AN4" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="AO4" s="60"/>
-      <c r="AP4" s="60"/>
-      <c r="AQ4" s="60"/>
-      <c r="AR4" s="60"/>
-      <c r="AS4" s="60"/>
-      <c r="AT4" s="64"/>
+      <c r="AO4" s="53"/>
+      <c r="AP4" s="53"/>
+      <c r="AQ4" s="53"/>
+      <c r="AR4" s="53"/>
+      <c r="AS4" s="53"/>
+      <c r="AT4" s="54"/>
       <c r="AU4" s="21"/>
-      <c r="AV4" s="60" t="s">
+      <c r="AV4" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="AW4" s="60"/>
-      <c r="AX4" s="60"/>
-      <c r="AY4" s="60"/>
-      <c r="AZ4" s="60"/>
-      <c r="BA4" s="60"/>
-      <c r="BB4" s="60" t="s">
+      <c r="AW4" s="53"/>
+      <c r="AX4" s="53"/>
+      <c r="AY4" s="53"/>
+      <c r="AZ4" s="53"/>
+      <c r="BA4" s="53"/>
+      <c r="BB4" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="BC4" s="60"/>
-      <c r="BD4" s="60"/>
-      <c r="BE4" s="60"/>
-      <c r="BF4" s="60"/>
-      <c r="BG4" s="60"/>
-      <c r="BH4" s="60"/>
+      <c r="BC4" s="53"/>
+      <c r="BD4" s="53"/>
+      <c r="BE4" s="53"/>
+      <c r="BF4" s="53"/>
+      <c r="BG4" s="53"/>
+      <c r="BH4" s="53"/>
       <c r="BI4" s="22"/>
-      <c r="BJ4" s="65" t="s">
+      <c r="BJ4" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="BK4" s="60"/>
-      <c r="BL4" s="60"/>
-      <c r="BM4" s="60"/>
-      <c r="BN4" s="60"/>
-      <c r="BO4" s="60"/>
-      <c r="BP4" s="60" t="s">
+      <c r="BK4" s="53"/>
+      <c r="BL4" s="53"/>
+      <c r="BM4" s="53"/>
+      <c r="BN4" s="53"/>
+      <c r="BO4" s="53"/>
+      <c r="BP4" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="BQ4" s="60"/>
-      <c r="BR4" s="60"/>
-      <c r="BS4" s="60"/>
-      <c r="BT4" s="60"/>
-      <c r="BU4" s="60"/>
-      <c r="BV4" s="60"/>
-      <c r="BW4" s="60"/>
-      <c r="BY4" s="60" t="s">
+      <c r="BQ4" s="53"/>
+      <c r="BR4" s="53"/>
+      <c r="BS4" s="53"/>
+      <c r="BT4" s="53"/>
+      <c r="BU4" s="53"/>
+      <c r="BV4" s="53"/>
+      <c r="BW4" s="53"/>
+      <c r="BY4" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="BZ4" s="60"/>
-      <c r="CA4" s="60"/>
-      <c r="CB4" s="60"/>
-      <c r="CC4" s="60"/>
-      <c r="CD4" s="60"/>
-      <c r="CE4" s="60" t="s">
+      <c r="BZ4" s="53"/>
+      <c r="CA4" s="53"/>
+      <c r="CB4" s="53"/>
+      <c r="CC4" s="53"/>
+      <c r="CD4" s="53"/>
+      <c r="CE4" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="CF4" s="60"/>
-      <c r="CG4" s="60"/>
-      <c r="CH4" s="60"/>
-      <c r="CI4" s="60"/>
-      <c r="CJ4" s="60"/>
-      <c r="CK4" s="64"/>
+      <c r="CF4" s="53"/>
+      <c r="CG4" s="53"/>
+      <c r="CH4" s="53"/>
+      <c r="CI4" s="53"/>
+      <c r="CJ4" s="53"/>
+      <c r="CK4" s="54"/>
       <c r="CL4" s="23"/>
-      <c r="CM4" s="65" t="s">
+      <c r="CM4" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="CN4" s="60"/>
-      <c r="CO4" s="60"/>
-      <c r="CP4" s="60"/>
-      <c r="CQ4" s="60"/>
-      <c r="CR4" s="60"/>
-      <c r="CS4" s="60" t="s">
+      <c r="CN4" s="53"/>
+      <c r="CO4" s="53"/>
+      <c r="CP4" s="53"/>
+      <c r="CQ4" s="53"/>
+      <c r="CR4" s="53"/>
+      <c r="CS4" s="53" t="s">
         <v>17</v>
       </c>
-      <c r="CT4" s="60"/>
-      <c r="CU4" s="60"/>
-      <c r="CV4" s="60"/>
-      <c r="CW4" s="60"/>
-      <c r="CX4" s="60"/>
-      <c r="CY4" s="60"/>
-      <c r="CZ4" s="60"/>
+      <c r="CT4" s="53"/>
+      <c r="CU4" s="53"/>
+      <c r="CV4" s="53"/>
+      <c r="CW4" s="53"/>
+      <c r="CX4" s="53"/>
+      <c r="CY4" s="53"/>
+      <c r="CZ4" s="53"/>
     </row>
     <row r="5" spans="2:104" ht="21.6" customHeight="1">
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="60" t="s">
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66" t="s">
+      <c r="H5" s="56"/>
+      <c r="I5" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="66"/>
-      <c r="K5" s="59" t="s">
+      <c r="J5" s="56"/>
+      <c r="K5" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="L5" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="66" t="s">
+      <c r="M5" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66" t="s">
+      <c r="N5" s="56"/>
+      <c r="O5" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="59" t="s">
+      <c r="P5" s="56"/>
+      <c r="Q5" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="59" t="s">
+      <c r="R5" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="60" t="s">
+      <c r="T5" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="66" t="s">
+      <c r="U5" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66" t="s">
+      <c r="V5" s="56"/>
+      <c r="W5" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="59" t="s">
+      <c r="X5" s="56"/>
+      <c r="Y5" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="60" t="s">
+      <c r="Z5" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="AA5" s="66" t="s">
+      <c r="AA5" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="66" t="s">
+      <c r="AB5" s="56"/>
+      <c r="AC5" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="AD5" s="66"/>
-      <c r="AE5" s="59" t="s">
+      <c r="AD5" s="56"/>
+      <c r="AE5" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="AF5" s="59" t="s">
+      <c r="AF5" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="AH5" s="60" t="s">
+      <c r="AH5" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="AI5" s="66" t="s">
+      <c r="AI5" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="AJ5" s="66"/>
-      <c r="AK5" s="66" t="s">
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="AL5" s="66"/>
-      <c r="AM5" s="59" t="s">
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="AN5" s="60" t="s">
+      <c r="AN5" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="AO5" s="66" t="s">
+      <c r="AO5" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="AP5" s="66"/>
-      <c r="AQ5" s="66" t="s">
+      <c r="AP5" s="56"/>
+      <c r="AQ5" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="AR5" s="66"/>
-      <c r="AS5" s="59" t="s">
+      <c r="AR5" s="56"/>
+      <c r="AS5" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="AT5" s="63" t="s">
+      <c r="AT5" s="60" t="s">
         <v>23</v>
       </c>
       <c r="AU5" s="13"/>
-      <c r="AV5" s="60" t="s">
+      <c r="AV5" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="AW5" s="66" t="s">
+      <c r="AW5" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="AX5" s="66"/>
-      <c r="AY5" s="66" t="s">
+      <c r="AX5" s="56"/>
+      <c r="AY5" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="AZ5" s="66"/>
-      <c r="BA5" s="59" t="s">
+      <c r="AZ5" s="56"/>
+      <c r="BA5" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="BB5" s="60" t="s">
+      <c r="BB5" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="BC5" s="66" t="s">
+      <c r="BC5" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="BD5" s="66"/>
-      <c r="BE5" s="66" t="s">
+      <c r="BD5" s="56"/>
+      <c r="BE5" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="BF5" s="66"/>
-      <c r="BG5" s="59" t="s">
+      <c r="BF5" s="56"/>
+      <c r="BG5" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="BH5" s="59" t="s">
+      <c r="BH5" s="57" t="s">
         <v>23</v>
       </c>
       <c r="BI5" s="14"/>
-      <c r="BJ5" s="65" t="s">
+      <c r="BJ5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="BK5" s="66" t="s">
+      <c r="BK5" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="BL5" s="66"/>
-      <c r="BM5" s="66" t="s">
+      <c r="BL5" s="56"/>
+      <c r="BM5" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="BN5" s="66"/>
-      <c r="BO5" s="59" t="s">
+      <c r="BN5" s="56"/>
+      <c r="BO5" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="BP5" s="60" t="s">
+      <c r="BP5" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="BQ5" s="66" t="s">
+      <c r="BQ5" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="BR5" s="66"/>
-      <c r="BS5" s="66" t="s">
+      <c r="BR5" s="56"/>
+      <c r="BS5" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="BT5" s="66"/>
-      <c r="BU5" s="59" t="s">
+      <c r="BT5" s="56"/>
+      <c r="BU5" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="BV5" s="59" t="s">
+      <c r="BV5" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="BW5" s="59" t="s">
+      <c r="BW5" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="BY5" s="60" t="s">
+      <c r="BY5" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="BZ5" s="62" t="s">
+      <c r="BZ5" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="CA5" s="62"/>
-      <c r="CB5" s="62" t="s">
+      <c r="CA5" s="58"/>
+      <c r="CB5" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="CC5" s="62"/>
-      <c r="CD5" s="59" t="s">
+      <c r="CC5" s="58"/>
+      <c r="CD5" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="CE5" s="60" t="s">
+      <c r="CE5" s="53" t="s">
         <v>22</v>
       </c>
       <c r="CF5" s="61" t="s">
         <v>19</v>
       </c>
       <c r="CG5" s="61"/>
-      <c r="CH5" s="62" t="s">
+      <c r="CH5" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="CI5" s="62"/>
-      <c r="CJ5" s="59" t="s">
+      <c r="CI5" s="58"/>
+      <c r="CJ5" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="CK5" s="63" t="s">
+      <c r="CK5" s="60" t="s">
         <v>23</v>
       </c>
       <c r="CL5" s="11"/>
-      <c r="CM5" s="65" t="s">
+      <c r="CM5" s="55" t="s">
         <v>18</v>
       </c>
       <c r="CN5" s="61" t="s">
         <v>19</v>
       </c>
       <c r="CO5" s="61"/>
-      <c r="CP5" s="62" t="s">
+      <c r="CP5" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="CQ5" s="62"/>
-      <c r="CR5" s="59" t="s">
+      <c r="CQ5" s="58"/>
+      <c r="CR5" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="CS5" s="60" t="s">
+      <c r="CS5" s="53" t="s">
         <v>22</v>
       </c>
       <c r="CT5" s="61" t="s">
         <v>19</v>
       </c>
       <c r="CU5" s="61"/>
-      <c r="CV5" s="62" t="s">
+      <c r="CV5" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="CW5" s="62"/>
-      <c r="CX5" s="59" t="s">
+      <c r="CW5" s="58"/>
+      <c r="CX5" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="CY5" s="59" t="s">
+      <c r="CY5" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="CZ5" s="59" t="s">
+      <c r="CZ5" s="57" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:104" ht="14.4">
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="60"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="53"/>
       <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3320,8 +3320,8 @@
       <c r="J6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
       <c r="M6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3334,9 +3334,9 @@
       <c r="P6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="T6" s="60"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53"/>
+      <c r="T6" s="53"/>
       <c r="U6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3349,8 +3349,8 @@
       <c r="X6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="60"/>
+      <c r="Y6" s="53"/>
+      <c r="Z6" s="53"/>
       <c r="AA6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3363,9 +3363,9 @@
       <c r="AD6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AE6" s="60"/>
-      <c r="AF6" s="60"/>
-      <c r="AH6" s="60"/>
+      <c r="AE6" s="53"/>
+      <c r="AF6" s="53"/>
+      <c r="AH6" s="53"/>
       <c r="AI6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3378,8 +3378,8 @@
       <c r="AL6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AM6" s="60"/>
-      <c r="AN6" s="60"/>
+      <c r="AM6" s="53"/>
+      <c r="AN6" s="53"/>
       <c r="AO6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3392,10 +3392,10 @@
       <c r="AR6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AS6" s="60"/>
-      <c r="AT6" s="64"/>
+      <c r="AS6" s="53"/>
+      <c r="AT6" s="54"/>
       <c r="AU6" s="13"/>
-      <c r="AV6" s="60"/>
+      <c r="AV6" s="53"/>
       <c r="AW6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3408,8 +3408,8 @@
       <c r="AZ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BA6" s="60"/>
-      <c r="BB6" s="60"/>
+      <c r="BA6" s="53"/>
+      <c r="BB6" s="53"/>
       <c r="BC6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3422,10 +3422,10 @@
       <c r="BF6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BG6" s="60"/>
-      <c r="BH6" s="60"/>
+      <c r="BG6" s="53"/>
+      <c r="BH6" s="53"/>
       <c r="BI6" s="14"/>
-      <c r="BJ6" s="65"/>
+      <c r="BJ6" s="55"/>
       <c r="BK6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3438,8 +3438,8 @@
       <c r="BN6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BO6" s="60"/>
-      <c r="BP6" s="60"/>
+      <c r="BO6" s="53"/>
+      <c r="BP6" s="53"/>
       <c r="BQ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3452,10 +3452,10 @@
       <c r="BT6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BU6" s="60"/>
-      <c r="BV6" s="60"/>
-      <c r="BW6" s="60"/>
-      <c r="BY6" s="60"/>
+      <c r="BU6" s="53"/>
+      <c r="BV6" s="53"/>
+      <c r="BW6" s="53"/>
+      <c r="BY6" s="53"/>
       <c r="BZ6" s="31" t="s">
         <v>25</v>
       </c>
@@ -3468,8 +3468,8 @@
       <c r="CC6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CD6" s="60"/>
-      <c r="CE6" s="60"/>
+      <c r="CD6" s="53"/>
+      <c r="CE6" s="53"/>
       <c r="CF6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3482,10 +3482,10 @@
       <c r="CI6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CJ6" s="60"/>
-      <c r="CK6" s="64"/>
+      <c r="CJ6" s="53"/>
+      <c r="CK6" s="54"/>
       <c r="CL6" s="11"/>
-      <c r="CM6" s="65"/>
+      <c r="CM6" s="55"/>
       <c r="CN6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3498,8 +3498,8 @@
       <c r="CQ6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CR6" s="60"/>
-      <c r="CS6" s="60"/>
+      <c r="CR6" s="53"/>
+      <c r="CS6" s="53"/>
       <c r="CT6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3512,9 +3512,9 @@
       <c r="CW6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CX6" s="60"/>
-      <c r="CY6" s="60"/>
-      <c r="CZ6" s="60"/>
+      <c r="CX6" s="53"/>
+      <c r="CY6" s="53"/>
+      <c r="CZ6" s="53"/>
     </row>
     <row r="7" spans="2:104" ht="20.25" customHeight="1">
       <c r="B7" s="5">
@@ -3678,50 +3678,50 @@
       <c r="BU7" s="7"/>
       <c r="BV7" s="10"/>
       <c r="BW7" s="10"/>
-      <c r="BY7" s="56"/>
-      <c r="BZ7" s="53">
+      <c r="BY7" s="65"/>
+      <c r="BZ7" s="62">
         <v>45104</v>
       </c>
-      <c r="CA7" s="53">
+      <c r="CA7" s="62">
         <v>45104</v>
       </c>
-      <c r="CB7" s="56"/>
-      <c r="CC7" s="56"/>
-      <c r="CD7" s="56"/>
-      <c r="CE7" s="56"/>
-      <c r="CF7" s="53">
+      <c r="CB7" s="65"/>
+      <c r="CC7" s="65"/>
+      <c r="CD7" s="65"/>
+      <c r="CE7" s="65"/>
+      <c r="CF7" s="62">
         <v>45104</v>
       </c>
-      <c r="CG7" s="53">
+      <c r="CG7" s="62">
         <v>45104</v>
       </c>
-      <c r="CH7" s="56"/>
-      <c r="CI7" s="56"/>
-      <c r="CJ7" s="56"/>
-      <c r="CK7" s="56"/>
+      <c r="CH7" s="65"/>
+      <c r="CI7" s="65"/>
+      <c r="CJ7" s="65"/>
+      <c r="CK7" s="65"/>
       <c r="CL7" s="14"/>
-      <c r="CM7" s="56"/>
-      <c r="CN7" s="53">
+      <c r="CM7" s="65"/>
+      <c r="CN7" s="62">
         <v>45105</v>
       </c>
-      <c r="CO7" s="53">
+      <c r="CO7" s="62">
         <v>45105</v>
       </c>
-      <c r="CP7" s="56"/>
-      <c r="CQ7" s="56"/>
-      <c r="CR7" s="56"/>
-      <c r="CS7" s="56"/>
-      <c r="CT7" s="53">
+      <c r="CP7" s="65"/>
+      <c r="CQ7" s="65"/>
+      <c r="CR7" s="65"/>
+      <c r="CS7" s="65"/>
+      <c r="CT7" s="62">
         <v>45105</v>
       </c>
-      <c r="CU7" s="53">
+      <c r="CU7" s="62">
         <v>45105</v>
       </c>
-      <c r="CV7" s="56"/>
-      <c r="CW7" s="56"/>
-      <c r="CX7" s="56"/>
-      <c r="CY7" s="56"/>
-      <c r="CZ7" s="56"/>
+      <c r="CV7" s="65"/>
+      <c r="CW7" s="65"/>
+      <c r="CX7" s="65"/>
+      <c r="CY7" s="65"/>
+      <c r="CZ7" s="65"/>
     </row>
     <row r="8" spans="2:104" ht="20.25" customHeight="1">
       <c r="B8" s="5">
@@ -3885,34 +3885,34 @@
       <c r="BU8" s="7"/>
       <c r="BV8" s="10"/>
       <c r="BW8" s="10"/>
-      <c r="BY8" s="57"/>
-      <c r="BZ8" s="54"/>
-      <c r="CA8" s="54"/>
-      <c r="CB8" s="57"/>
-      <c r="CC8" s="57"/>
-      <c r="CD8" s="57"/>
-      <c r="CE8" s="57"/>
-      <c r="CF8" s="54"/>
-      <c r="CG8" s="54"/>
-      <c r="CH8" s="57"/>
-      <c r="CI8" s="57"/>
-      <c r="CJ8" s="57"/>
-      <c r="CK8" s="57"/>
+      <c r="BY8" s="66"/>
+      <c r="BZ8" s="63"/>
+      <c r="CA8" s="63"/>
+      <c r="CB8" s="66"/>
+      <c r="CC8" s="66"/>
+      <c r="CD8" s="66"/>
+      <c r="CE8" s="66"/>
+      <c r="CF8" s="63"/>
+      <c r="CG8" s="63"/>
+      <c r="CH8" s="66"/>
+      <c r="CI8" s="66"/>
+      <c r="CJ8" s="66"/>
+      <c r="CK8" s="66"/>
       <c r="CL8" s="14"/>
-      <c r="CM8" s="57"/>
-      <c r="CN8" s="54"/>
-      <c r="CO8" s="54"/>
-      <c r="CP8" s="57"/>
-      <c r="CQ8" s="57"/>
-      <c r="CR8" s="57"/>
-      <c r="CS8" s="57"/>
-      <c r="CT8" s="54"/>
-      <c r="CU8" s="54"/>
-      <c r="CV8" s="57"/>
-      <c r="CW8" s="57"/>
-      <c r="CX8" s="57"/>
-      <c r="CY8" s="57"/>
-      <c r="CZ8" s="57"/>
+      <c r="CM8" s="66"/>
+      <c r="CN8" s="63"/>
+      <c r="CO8" s="63"/>
+      <c r="CP8" s="66"/>
+      <c r="CQ8" s="66"/>
+      <c r="CR8" s="66"/>
+      <c r="CS8" s="66"/>
+      <c r="CT8" s="63"/>
+      <c r="CU8" s="63"/>
+      <c r="CV8" s="66"/>
+      <c r="CW8" s="66"/>
+      <c r="CX8" s="66"/>
+      <c r="CY8" s="66"/>
+      <c r="CZ8" s="66"/>
     </row>
     <row r="9" spans="2:104" ht="20.25" customHeight="1">
       <c r="B9" s="5">
@@ -4075,34 +4075,34 @@
       <c r="BV9" s="10"/>
       <c r="BW9" s="10"/>
       <c r="BX9" s="13"/>
-      <c r="BY9" s="57"/>
-      <c r="BZ9" s="54"/>
-      <c r="CA9" s="54"/>
-      <c r="CB9" s="57"/>
-      <c r="CC9" s="57"/>
-      <c r="CD9" s="57"/>
-      <c r="CE9" s="57"/>
-      <c r="CF9" s="54"/>
-      <c r="CG9" s="54"/>
-      <c r="CH9" s="57"/>
-      <c r="CI9" s="57"/>
-      <c r="CJ9" s="57"/>
-      <c r="CK9" s="57"/>
+      <c r="BY9" s="66"/>
+      <c r="BZ9" s="63"/>
+      <c r="CA9" s="63"/>
+      <c r="CB9" s="66"/>
+      <c r="CC9" s="66"/>
+      <c r="CD9" s="66"/>
+      <c r="CE9" s="66"/>
+      <c r="CF9" s="63"/>
+      <c r="CG9" s="63"/>
+      <c r="CH9" s="66"/>
+      <c r="CI9" s="66"/>
+      <c r="CJ9" s="66"/>
+      <c r="CK9" s="66"/>
       <c r="CL9" s="14"/>
-      <c r="CM9" s="57"/>
-      <c r="CN9" s="54"/>
-      <c r="CO9" s="54"/>
-      <c r="CP9" s="57"/>
-      <c r="CQ9" s="57"/>
-      <c r="CR9" s="57"/>
-      <c r="CS9" s="57"/>
-      <c r="CT9" s="54"/>
-      <c r="CU9" s="54"/>
-      <c r="CV9" s="57"/>
-      <c r="CW9" s="57"/>
-      <c r="CX9" s="57"/>
-      <c r="CY9" s="57"/>
-      <c r="CZ9" s="57"/>
+      <c r="CM9" s="66"/>
+      <c r="CN9" s="63"/>
+      <c r="CO9" s="63"/>
+      <c r="CP9" s="66"/>
+      <c r="CQ9" s="66"/>
+      <c r="CR9" s="66"/>
+      <c r="CS9" s="66"/>
+      <c r="CT9" s="63"/>
+      <c r="CU9" s="63"/>
+      <c r="CV9" s="66"/>
+      <c r="CW9" s="66"/>
+      <c r="CX9" s="66"/>
+      <c r="CY9" s="66"/>
+      <c r="CZ9" s="66"/>
     </row>
     <row r="10" spans="2:104" ht="20.25" customHeight="1">
       <c r="B10" s="5">
@@ -4267,34 +4267,34 @@
       <c r="BV10" s="10"/>
       <c r="BW10" s="10"/>
       <c r="BX10" s="13"/>
-      <c r="BY10" s="57"/>
-      <c r="BZ10" s="54"/>
-      <c r="CA10" s="54"/>
-      <c r="CB10" s="57"/>
-      <c r="CC10" s="57"/>
-      <c r="CD10" s="57"/>
-      <c r="CE10" s="57"/>
-      <c r="CF10" s="54"/>
-      <c r="CG10" s="54"/>
-      <c r="CH10" s="57"/>
-      <c r="CI10" s="57"/>
-      <c r="CJ10" s="57"/>
-      <c r="CK10" s="57"/>
+      <c r="BY10" s="66"/>
+      <c r="BZ10" s="63"/>
+      <c r="CA10" s="63"/>
+      <c r="CB10" s="66"/>
+      <c r="CC10" s="66"/>
+      <c r="CD10" s="66"/>
+      <c r="CE10" s="66"/>
+      <c r="CF10" s="63"/>
+      <c r="CG10" s="63"/>
+      <c r="CH10" s="66"/>
+      <c r="CI10" s="66"/>
+      <c r="CJ10" s="66"/>
+      <c r="CK10" s="66"/>
       <c r="CL10" s="14"/>
-      <c r="CM10" s="57"/>
-      <c r="CN10" s="54"/>
-      <c r="CO10" s="54"/>
-      <c r="CP10" s="57"/>
-      <c r="CQ10" s="57"/>
-      <c r="CR10" s="57"/>
-      <c r="CS10" s="57"/>
-      <c r="CT10" s="54"/>
-      <c r="CU10" s="54"/>
-      <c r="CV10" s="57"/>
-      <c r="CW10" s="57"/>
-      <c r="CX10" s="57"/>
-      <c r="CY10" s="57"/>
-      <c r="CZ10" s="57"/>
+      <c r="CM10" s="66"/>
+      <c r="CN10" s="63"/>
+      <c r="CO10" s="63"/>
+      <c r="CP10" s="66"/>
+      <c r="CQ10" s="66"/>
+      <c r="CR10" s="66"/>
+      <c r="CS10" s="66"/>
+      <c r="CT10" s="63"/>
+      <c r="CU10" s="63"/>
+      <c r="CV10" s="66"/>
+      <c r="CW10" s="66"/>
+      <c r="CX10" s="66"/>
+      <c r="CY10" s="66"/>
+      <c r="CZ10" s="66"/>
     </row>
     <row r="11" spans="2:104" ht="20.25" customHeight="1">
       <c r="B11" s="5">
@@ -4457,34 +4457,34 @@
       <c r="BV11" s="10"/>
       <c r="BW11" s="10"/>
       <c r="BX11" s="13"/>
-      <c r="BY11" s="57"/>
-      <c r="BZ11" s="54"/>
-      <c r="CA11" s="54"/>
-      <c r="CB11" s="57"/>
-      <c r="CC11" s="57"/>
-      <c r="CD11" s="57"/>
-      <c r="CE11" s="57"/>
-      <c r="CF11" s="54"/>
-      <c r="CG11" s="54"/>
-      <c r="CH11" s="57"/>
-      <c r="CI11" s="57"/>
-      <c r="CJ11" s="57"/>
-      <c r="CK11" s="57"/>
+      <c r="BY11" s="66"/>
+      <c r="BZ11" s="63"/>
+      <c r="CA11" s="63"/>
+      <c r="CB11" s="66"/>
+      <c r="CC11" s="66"/>
+      <c r="CD11" s="66"/>
+      <c r="CE11" s="66"/>
+      <c r="CF11" s="63"/>
+      <c r="CG11" s="63"/>
+      <c r="CH11" s="66"/>
+      <c r="CI11" s="66"/>
+      <c r="CJ11" s="66"/>
+      <c r="CK11" s="66"/>
       <c r="CL11" s="14"/>
-      <c r="CM11" s="57"/>
-      <c r="CN11" s="54"/>
-      <c r="CO11" s="54"/>
-      <c r="CP11" s="57"/>
-      <c r="CQ11" s="57"/>
-      <c r="CR11" s="57"/>
-      <c r="CS11" s="57"/>
-      <c r="CT11" s="54"/>
-      <c r="CU11" s="54"/>
-      <c r="CV11" s="57"/>
-      <c r="CW11" s="57"/>
-      <c r="CX11" s="57"/>
-      <c r="CY11" s="57"/>
-      <c r="CZ11" s="57"/>
+      <c r="CM11" s="66"/>
+      <c r="CN11" s="63"/>
+      <c r="CO11" s="63"/>
+      <c r="CP11" s="66"/>
+      <c r="CQ11" s="66"/>
+      <c r="CR11" s="66"/>
+      <c r="CS11" s="66"/>
+      <c r="CT11" s="63"/>
+      <c r="CU11" s="63"/>
+      <c r="CV11" s="66"/>
+      <c r="CW11" s="66"/>
+      <c r="CX11" s="66"/>
+      <c r="CY11" s="66"/>
+      <c r="CZ11" s="66"/>
     </row>
     <row r="12" spans="2:104" ht="20.25" customHeight="1">
       <c r="B12" s="5">
@@ -4647,34 +4647,34 @@
       <c r="BV12" s="10"/>
       <c r="BW12" s="10"/>
       <c r="BX12" s="13"/>
-      <c r="BY12" s="57"/>
-      <c r="BZ12" s="54"/>
-      <c r="CA12" s="54"/>
-      <c r="CB12" s="57"/>
-      <c r="CC12" s="57"/>
-      <c r="CD12" s="57"/>
-      <c r="CE12" s="57"/>
-      <c r="CF12" s="54"/>
-      <c r="CG12" s="54"/>
-      <c r="CH12" s="57"/>
-      <c r="CI12" s="57"/>
-      <c r="CJ12" s="57"/>
-      <c r="CK12" s="57"/>
+      <c r="BY12" s="66"/>
+      <c r="BZ12" s="63"/>
+      <c r="CA12" s="63"/>
+      <c r="CB12" s="66"/>
+      <c r="CC12" s="66"/>
+      <c r="CD12" s="66"/>
+      <c r="CE12" s="66"/>
+      <c r="CF12" s="63"/>
+      <c r="CG12" s="63"/>
+      <c r="CH12" s="66"/>
+      <c r="CI12" s="66"/>
+      <c r="CJ12" s="66"/>
+      <c r="CK12" s="66"/>
       <c r="CL12" s="14"/>
-      <c r="CM12" s="57"/>
-      <c r="CN12" s="54"/>
-      <c r="CO12" s="54"/>
-      <c r="CP12" s="57"/>
-      <c r="CQ12" s="57"/>
-      <c r="CR12" s="57"/>
-      <c r="CS12" s="57"/>
-      <c r="CT12" s="54"/>
-      <c r="CU12" s="54"/>
-      <c r="CV12" s="57"/>
-      <c r="CW12" s="57"/>
-      <c r="CX12" s="57"/>
-      <c r="CY12" s="57"/>
-      <c r="CZ12" s="57"/>
+      <c r="CM12" s="66"/>
+      <c r="CN12" s="63"/>
+      <c r="CO12" s="63"/>
+      <c r="CP12" s="66"/>
+      <c r="CQ12" s="66"/>
+      <c r="CR12" s="66"/>
+      <c r="CS12" s="66"/>
+      <c r="CT12" s="63"/>
+      <c r="CU12" s="63"/>
+      <c r="CV12" s="66"/>
+      <c r="CW12" s="66"/>
+      <c r="CX12" s="66"/>
+      <c r="CY12" s="66"/>
+      <c r="CZ12" s="66"/>
     </row>
     <row r="13" spans="2:104" ht="20.25" customHeight="1">
       <c r="B13" s="5">
@@ -4839,34 +4839,34 @@
       <c r="BV13" s="10"/>
       <c r="BW13" s="10"/>
       <c r="BX13" s="13"/>
-      <c r="BY13" s="57"/>
-      <c r="BZ13" s="54"/>
-      <c r="CA13" s="54"/>
-      <c r="CB13" s="57"/>
-      <c r="CC13" s="57"/>
-      <c r="CD13" s="57"/>
-      <c r="CE13" s="57"/>
-      <c r="CF13" s="54"/>
-      <c r="CG13" s="54"/>
-      <c r="CH13" s="57"/>
-      <c r="CI13" s="57"/>
-      <c r="CJ13" s="57"/>
-      <c r="CK13" s="57"/>
+      <c r="BY13" s="66"/>
+      <c r="BZ13" s="63"/>
+      <c r="CA13" s="63"/>
+      <c r="CB13" s="66"/>
+      <c r="CC13" s="66"/>
+      <c r="CD13" s="66"/>
+      <c r="CE13" s="66"/>
+      <c r="CF13" s="63"/>
+      <c r="CG13" s="63"/>
+      <c r="CH13" s="66"/>
+      <c r="CI13" s="66"/>
+      <c r="CJ13" s="66"/>
+      <c r="CK13" s="66"/>
       <c r="CL13" s="14"/>
-      <c r="CM13" s="57"/>
-      <c r="CN13" s="54"/>
-      <c r="CO13" s="54"/>
-      <c r="CP13" s="57"/>
-      <c r="CQ13" s="57"/>
-      <c r="CR13" s="57"/>
-      <c r="CS13" s="57"/>
-      <c r="CT13" s="54"/>
-      <c r="CU13" s="54"/>
-      <c r="CV13" s="57"/>
-      <c r="CW13" s="57"/>
-      <c r="CX13" s="57"/>
-      <c r="CY13" s="57"/>
-      <c r="CZ13" s="57"/>
+      <c r="CM13" s="66"/>
+      <c r="CN13" s="63"/>
+      <c r="CO13" s="63"/>
+      <c r="CP13" s="66"/>
+      <c r="CQ13" s="66"/>
+      <c r="CR13" s="66"/>
+      <c r="CS13" s="66"/>
+      <c r="CT13" s="63"/>
+      <c r="CU13" s="63"/>
+      <c r="CV13" s="66"/>
+      <c r="CW13" s="66"/>
+      <c r="CX13" s="66"/>
+      <c r="CY13" s="66"/>
+      <c r="CZ13" s="66"/>
     </row>
     <row r="14" spans="2:104" ht="20.25" customHeight="1">
       <c r="B14" s="5">
@@ -5032,28 +5032,28 @@
       <c r="BW14" s="10"/>
       <c r="BX14" s="13"/>
       <c r="BY14" s="36"/>
-      <c r="BZ14" s="55"/>
-      <c r="CA14" s="55"/>
+      <c r="BZ14" s="64"/>
+      <c r="CA14" s="64"/>
       <c r="CB14" s="36"/>
       <c r="CC14" s="36"/>
       <c r="CD14" s="36"/>
       <c r="CE14" s="36"/>
-      <c r="CF14" s="55"/>
-      <c r="CG14" s="55"/>
+      <c r="CF14" s="64"/>
+      <c r="CG14" s="64"/>
       <c r="CH14" s="36"/>
       <c r="CI14" s="36"/>
       <c r="CJ14" s="36"/>
       <c r="CK14" s="36"/>
       <c r="CL14" s="14"/>
       <c r="CM14" s="36"/>
-      <c r="CN14" s="55"/>
-      <c r="CO14" s="55"/>
+      <c r="CN14" s="64"/>
+      <c r="CO14" s="64"/>
       <c r="CP14" s="36"/>
       <c r="CQ14" s="36"/>
       <c r="CR14" s="36"/>
       <c r="CS14" s="36"/>
-      <c r="CT14" s="55"/>
-      <c r="CU14" s="55"/>
+      <c r="CT14" s="64"/>
+      <c r="CU14" s="64"/>
       <c r="CV14" s="36"/>
       <c r="CW14" s="36"/>
       <c r="CX14" s="36"/>
@@ -5221,50 +5221,50 @@
       <c r="BV15" s="10"/>
       <c r="BW15" s="10"/>
       <c r="BX15" s="13"/>
-      <c r="BY15" s="56"/>
-      <c r="BZ15" s="53">
+      <c r="BY15" s="65"/>
+      <c r="BZ15" s="62">
         <v>45104</v>
       </c>
-      <c r="CA15" s="53">
+      <c r="CA15" s="62">
         <v>45104</v>
       </c>
-      <c r="CB15" s="56"/>
-      <c r="CC15" s="56"/>
-      <c r="CD15" s="56"/>
-      <c r="CE15" s="56"/>
-      <c r="CF15" s="53">
+      <c r="CB15" s="65"/>
+      <c r="CC15" s="65"/>
+      <c r="CD15" s="65"/>
+      <c r="CE15" s="65"/>
+      <c r="CF15" s="62">
         <v>45104</v>
       </c>
-      <c r="CG15" s="53">
+      <c r="CG15" s="62">
         <v>45104</v>
       </c>
-      <c r="CH15" s="56"/>
-      <c r="CI15" s="56"/>
-      <c r="CJ15" s="56"/>
-      <c r="CK15" s="56"/>
+      <c r="CH15" s="65"/>
+      <c r="CI15" s="65"/>
+      <c r="CJ15" s="65"/>
+      <c r="CK15" s="65"/>
       <c r="CL15" s="14"/>
-      <c r="CM15" s="56"/>
-      <c r="CN15" s="53">
+      <c r="CM15" s="65"/>
+      <c r="CN15" s="62">
         <v>45105</v>
       </c>
-      <c r="CO15" s="53">
+      <c r="CO15" s="62">
         <v>45105</v>
       </c>
-      <c r="CP15" s="56"/>
-      <c r="CQ15" s="56"/>
-      <c r="CR15" s="56"/>
-      <c r="CS15" s="56"/>
-      <c r="CT15" s="53">
+      <c r="CP15" s="65"/>
+      <c r="CQ15" s="65"/>
+      <c r="CR15" s="65"/>
+      <c r="CS15" s="65"/>
+      <c r="CT15" s="62">
         <v>45105</v>
       </c>
-      <c r="CU15" s="53">
+      <c r="CU15" s="62">
         <v>45105</v>
       </c>
-      <c r="CV15" s="56"/>
-      <c r="CW15" s="56"/>
-      <c r="CX15" s="56"/>
-      <c r="CY15" s="56"/>
-      <c r="CZ15" s="56"/>
+      <c r="CV15" s="65"/>
+      <c r="CW15" s="65"/>
+      <c r="CX15" s="65"/>
+      <c r="CY15" s="65"/>
+      <c r="CZ15" s="65"/>
     </row>
     <row r="16" spans="2:104" ht="20.25" customHeight="1">
       <c r="B16" s="5">
@@ -5426,34 +5426,34 @@
       <c r="BU16" s="7"/>
       <c r="BV16" s="10"/>
       <c r="BW16" s="10"/>
-      <c r="BY16" s="57"/>
-      <c r="BZ16" s="54"/>
-      <c r="CA16" s="54"/>
-      <c r="CB16" s="57"/>
-      <c r="CC16" s="57"/>
-      <c r="CD16" s="57"/>
-      <c r="CE16" s="57"/>
-      <c r="CF16" s="54"/>
-      <c r="CG16" s="54"/>
-      <c r="CH16" s="57"/>
-      <c r="CI16" s="57"/>
-      <c r="CJ16" s="57"/>
-      <c r="CK16" s="57"/>
+      <c r="BY16" s="66"/>
+      <c r="BZ16" s="63"/>
+      <c r="CA16" s="63"/>
+      <c r="CB16" s="66"/>
+      <c r="CC16" s="66"/>
+      <c r="CD16" s="66"/>
+      <c r="CE16" s="66"/>
+      <c r="CF16" s="63"/>
+      <c r="CG16" s="63"/>
+      <c r="CH16" s="66"/>
+      <c r="CI16" s="66"/>
+      <c r="CJ16" s="66"/>
+      <c r="CK16" s="66"/>
       <c r="CL16" s="29"/>
-      <c r="CM16" s="57"/>
-      <c r="CN16" s="54"/>
-      <c r="CO16" s="54"/>
-      <c r="CP16" s="57"/>
-      <c r="CQ16" s="57"/>
-      <c r="CR16" s="57"/>
-      <c r="CS16" s="57"/>
-      <c r="CT16" s="54"/>
-      <c r="CU16" s="54"/>
-      <c r="CV16" s="57"/>
-      <c r="CW16" s="57"/>
-      <c r="CX16" s="57"/>
-      <c r="CY16" s="57"/>
-      <c r="CZ16" s="57"/>
+      <c r="CM16" s="66"/>
+      <c r="CN16" s="63"/>
+      <c r="CO16" s="63"/>
+      <c r="CP16" s="66"/>
+      <c r="CQ16" s="66"/>
+      <c r="CR16" s="66"/>
+      <c r="CS16" s="66"/>
+      <c r="CT16" s="63"/>
+      <c r="CU16" s="63"/>
+      <c r="CV16" s="66"/>
+      <c r="CW16" s="66"/>
+      <c r="CX16" s="66"/>
+      <c r="CY16" s="66"/>
+      <c r="CZ16" s="66"/>
     </row>
     <row r="17" spans="2:104" ht="20.25" customHeight="1">
       <c r="B17" s="5">
@@ -5557,7 +5557,7 @@
       </c>
       <c r="AL17" s="6"/>
       <c r="AM17" s="7">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="AN17" s="17"/>
       <c r="AO17" s="52">
@@ -5615,34 +5615,34 @@
       <c r="BU17" s="7"/>
       <c r="BV17" s="10"/>
       <c r="BW17" s="10"/>
-      <c r="BY17" s="57"/>
-      <c r="BZ17" s="54"/>
-      <c r="CA17" s="54"/>
-      <c r="CB17" s="57"/>
-      <c r="CC17" s="57"/>
-      <c r="CD17" s="57"/>
-      <c r="CE17" s="57"/>
-      <c r="CF17" s="54"/>
-      <c r="CG17" s="54"/>
-      <c r="CH17" s="57"/>
-      <c r="CI17" s="57"/>
-      <c r="CJ17" s="57"/>
-      <c r="CK17" s="57"/>
+      <c r="BY17" s="66"/>
+      <c r="BZ17" s="63"/>
+      <c r="CA17" s="63"/>
+      <c r="CB17" s="66"/>
+      <c r="CC17" s="66"/>
+      <c r="CD17" s="66"/>
+      <c r="CE17" s="66"/>
+      <c r="CF17" s="63"/>
+      <c r="CG17" s="63"/>
+      <c r="CH17" s="66"/>
+      <c r="CI17" s="66"/>
+      <c r="CJ17" s="66"/>
+      <c r="CK17" s="66"/>
       <c r="CL17" s="29"/>
-      <c r="CM17" s="57"/>
-      <c r="CN17" s="54"/>
-      <c r="CO17" s="54"/>
-      <c r="CP17" s="57"/>
-      <c r="CQ17" s="57"/>
-      <c r="CR17" s="57"/>
-      <c r="CS17" s="57"/>
-      <c r="CT17" s="54"/>
-      <c r="CU17" s="54"/>
-      <c r="CV17" s="57"/>
-      <c r="CW17" s="57"/>
-      <c r="CX17" s="57"/>
-      <c r="CY17" s="57"/>
-      <c r="CZ17" s="57"/>
+      <c r="CM17" s="66"/>
+      <c r="CN17" s="63"/>
+      <c r="CO17" s="63"/>
+      <c r="CP17" s="66"/>
+      <c r="CQ17" s="66"/>
+      <c r="CR17" s="66"/>
+      <c r="CS17" s="66"/>
+      <c r="CT17" s="63"/>
+      <c r="CU17" s="63"/>
+      <c r="CV17" s="66"/>
+      <c r="CW17" s="66"/>
+      <c r="CX17" s="66"/>
+      <c r="CY17" s="66"/>
+      <c r="CZ17" s="66"/>
     </row>
     <row r="18" spans="2:104" ht="20.25" customHeight="1">
       <c r="B18" s="5">
@@ -5805,34 +5805,34 @@
       <c r="BV18" s="10"/>
       <c r="BW18" s="10"/>
       <c r="BX18" s="11"/>
-      <c r="BY18" s="57"/>
-      <c r="BZ18" s="54"/>
-      <c r="CA18" s="54"/>
-      <c r="CB18" s="57"/>
-      <c r="CC18" s="57"/>
-      <c r="CD18" s="57"/>
-      <c r="CE18" s="57"/>
-      <c r="CF18" s="54"/>
-      <c r="CG18" s="54"/>
-      <c r="CH18" s="57"/>
-      <c r="CI18" s="57"/>
-      <c r="CJ18" s="57"/>
-      <c r="CK18" s="57"/>
+      <c r="BY18" s="66"/>
+      <c r="BZ18" s="63"/>
+      <c r="CA18" s="63"/>
+      <c r="CB18" s="66"/>
+      <c r="CC18" s="66"/>
+      <c r="CD18" s="66"/>
+      <c r="CE18" s="66"/>
+      <c r="CF18" s="63"/>
+      <c r="CG18" s="63"/>
+      <c r="CH18" s="66"/>
+      <c r="CI18" s="66"/>
+      <c r="CJ18" s="66"/>
+      <c r="CK18" s="66"/>
       <c r="CL18" s="29"/>
-      <c r="CM18" s="57"/>
-      <c r="CN18" s="54"/>
-      <c r="CO18" s="54"/>
-      <c r="CP18" s="57"/>
-      <c r="CQ18" s="57"/>
-      <c r="CR18" s="57"/>
-      <c r="CS18" s="57"/>
-      <c r="CT18" s="54"/>
-      <c r="CU18" s="54"/>
-      <c r="CV18" s="57"/>
-      <c r="CW18" s="57"/>
-      <c r="CX18" s="57"/>
-      <c r="CY18" s="57"/>
-      <c r="CZ18" s="57"/>
+      <c r="CM18" s="66"/>
+      <c r="CN18" s="63"/>
+      <c r="CO18" s="63"/>
+      <c r="CP18" s="66"/>
+      <c r="CQ18" s="66"/>
+      <c r="CR18" s="66"/>
+      <c r="CS18" s="66"/>
+      <c r="CT18" s="63"/>
+      <c r="CU18" s="63"/>
+      <c r="CV18" s="66"/>
+      <c r="CW18" s="66"/>
+      <c r="CX18" s="66"/>
+      <c r="CY18" s="66"/>
+      <c r="CZ18" s="66"/>
     </row>
     <row r="19" spans="2:104" ht="20.25" customHeight="1">
       <c r="B19" s="5">
@@ -5935,7 +5935,9 @@
         <v>45089</v>
       </c>
       <c r="AL19" s="6"/>
-      <c r="AM19" s="7"/>
+      <c r="AM19" s="7">
+        <v>0.6</v>
+      </c>
       <c r="AN19" s="17"/>
       <c r="AO19" s="52">
         <v>45097</v>
@@ -5993,34 +5995,34 @@
       <c r="BV19" s="10"/>
       <c r="BW19" s="10"/>
       <c r="BX19" s="11"/>
-      <c r="BY19" s="57"/>
-      <c r="BZ19" s="54"/>
-      <c r="CA19" s="54"/>
-      <c r="CB19" s="57"/>
-      <c r="CC19" s="57"/>
-      <c r="CD19" s="57"/>
-      <c r="CE19" s="57"/>
-      <c r="CF19" s="54"/>
-      <c r="CG19" s="54"/>
-      <c r="CH19" s="57"/>
-      <c r="CI19" s="57"/>
-      <c r="CJ19" s="57"/>
-      <c r="CK19" s="57"/>
+      <c r="BY19" s="66"/>
+      <c r="BZ19" s="63"/>
+      <c r="CA19" s="63"/>
+      <c r="CB19" s="66"/>
+      <c r="CC19" s="66"/>
+      <c r="CD19" s="66"/>
+      <c r="CE19" s="66"/>
+      <c r="CF19" s="63"/>
+      <c r="CG19" s="63"/>
+      <c r="CH19" s="66"/>
+      <c r="CI19" s="66"/>
+      <c r="CJ19" s="66"/>
+      <c r="CK19" s="66"/>
       <c r="CL19" s="29"/>
-      <c r="CM19" s="57"/>
-      <c r="CN19" s="54"/>
-      <c r="CO19" s="54"/>
-      <c r="CP19" s="57"/>
-      <c r="CQ19" s="57"/>
-      <c r="CR19" s="57"/>
-      <c r="CS19" s="57"/>
-      <c r="CT19" s="54"/>
-      <c r="CU19" s="54"/>
-      <c r="CV19" s="57"/>
-      <c r="CW19" s="57"/>
-      <c r="CX19" s="57"/>
-      <c r="CY19" s="57"/>
-      <c r="CZ19" s="57"/>
+      <c r="CM19" s="66"/>
+      <c r="CN19" s="63"/>
+      <c r="CO19" s="63"/>
+      <c r="CP19" s="66"/>
+      <c r="CQ19" s="66"/>
+      <c r="CR19" s="66"/>
+      <c r="CS19" s="66"/>
+      <c r="CT19" s="63"/>
+      <c r="CU19" s="63"/>
+      <c r="CV19" s="66"/>
+      <c r="CW19" s="66"/>
+      <c r="CX19" s="66"/>
+      <c r="CY19" s="66"/>
+      <c r="CZ19" s="66"/>
     </row>
     <row r="20" spans="2:104" ht="20.25" customHeight="1">
       <c r="B20" s="5">
@@ -6183,34 +6185,34 @@
       <c r="BV20" s="10"/>
       <c r="BW20" s="10"/>
       <c r="BX20" s="11"/>
-      <c r="BY20" s="57"/>
-      <c r="BZ20" s="54"/>
-      <c r="CA20" s="54"/>
-      <c r="CB20" s="57"/>
-      <c r="CC20" s="57"/>
-      <c r="CD20" s="57"/>
-      <c r="CE20" s="57"/>
-      <c r="CF20" s="54"/>
-      <c r="CG20" s="54"/>
-      <c r="CH20" s="57"/>
-      <c r="CI20" s="57"/>
-      <c r="CJ20" s="57"/>
-      <c r="CK20" s="57"/>
+      <c r="BY20" s="66"/>
+      <c r="BZ20" s="63"/>
+      <c r="CA20" s="63"/>
+      <c r="CB20" s="66"/>
+      <c r="CC20" s="66"/>
+      <c r="CD20" s="66"/>
+      <c r="CE20" s="66"/>
+      <c r="CF20" s="63"/>
+      <c r="CG20" s="63"/>
+      <c r="CH20" s="66"/>
+      <c r="CI20" s="66"/>
+      <c r="CJ20" s="66"/>
+      <c r="CK20" s="66"/>
       <c r="CL20" s="29"/>
-      <c r="CM20" s="57"/>
-      <c r="CN20" s="54"/>
-      <c r="CO20" s="54"/>
-      <c r="CP20" s="57"/>
-      <c r="CQ20" s="57"/>
-      <c r="CR20" s="57"/>
-      <c r="CS20" s="57"/>
-      <c r="CT20" s="54"/>
-      <c r="CU20" s="54"/>
-      <c r="CV20" s="57"/>
-      <c r="CW20" s="57"/>
-      <c r="CX20" s="57"/>
-      <c r="CY20" s="57"/>
-      <c r="CZ20" s="57"/>
+      <c r="CM20" s="66"/>
+      <c r="CN20" s="63"/>
+      <c r="CO20" s="63"/>
+      <c r="CP20" s="66"/>
+      <c r="CQ20" s="66"/>
+      <c r="CR20" s="66"/>
+      <c r="CS20" s="66"/>
+      <c r="CT20" s="63"/>
+      <c r="CU20" s="63"/>
+      <c r="CV20" s="66"/>
+      <c r="CW20" s="66"/>
+      <c r="CX20" s="66"/>
+      <c r="CY20" s="66"/>
+      <c r="CZ20" s="66"/>
     </row>
     <row r="21" spans="2:104" ht="20.25" customHeight="1">
       <c r="B21" s="5">
@@ -6313,7 +6315,9 @@
         <v>45089</v>
       </c>
       <c r="AL21" s="6"/>
-      <c r="AM21" s="7"/>
+      <c r="AM21" s="7">
+        <v>0.2</v>
+      </c>
       <c r="AN21" s="17"/>
       <c r="AO21" s="52">
         <v>45097</v>
@@ -6371,34 +6375,34 @@
       <c r="BV21" s="10"/>
       <c r="BW21" s="10"/>
       <c r="BX21" s="11"/>
-      <c r="BY21" s="57"/>
-      <c r="BZ21" s="54"/>
-      <c r="CA21" s="54"/>
-      <c r="CB21" s="57"/>
-      <c r="CC21" s="57"/>
-      <c r="CD21" s="57"/>
-      <c r="CE21" s="57"/>
-      <c r="CF21" s="54"/>
-      <c r="CG21" s="54"/>
-      <c r="CH21" s="57"/>
-      <c r="CI21" s="57"/>
-      <c r="CJ21" s="57"/>
-      <c r="CK21" s="57"/>
+      <c r="BY21" s="66"/>
+      <c r="BZ21" s="63"/>
+      <c r="CA21" s="63"/>
+      <c r="CB21" s="66"/>
+      <c r="CC21" s="66"/>
+      <c r="CD21" s="66"/>
+      <c r="CE21" s="66"/>
+      <c r="CF21" s="63"/>
+      <c r="CG21" s="63"/>
+      <c r="CH21" s="66"/>
+      <c r="CI21" s="66"/>
+      <c r="CJ21" s="66"/>
+      <c r="CK21" s="66"/>
       <c r="CL21" s="29"/>
-      <c r="CM21" s="57"/>
-      <c r="CN21" s="54"/>
-      <c r="CO21" s="54"/>
-      <c r="CP21" s="57"/>
-      <c r="CQ21" s="57"/>
-      <c r="CR21" s="57"/>
-      <c r="CS21" s="57"/>
-      <c r="CT21" s="54"/>
-      <c r="CU21" s="54"/>
-      <c r="CV21" s="57"/>
-      <c r="CW21" s="57"/>
-      <c r="CX21" s="57"/>
-      <c r="CY21" s="57"/>
-      <c r="CZ21" s="57"/>
+      <c r="CM21" s="66"/>
+      <c r="CN21" s="63"/>
+      <c r="CO21" s="63"/>
+      <c r="CP21" s="66"/>
+      <c r="CQ21" s="66"/>
+      <c r="CR21" s="66"/>
+      <c r="CS21" s="66"/>
+      <c r="CT21" s="63"/>
+      <c r="CU21" s="63"/>
+      <c r="CV21" s="66"/>
+      <c r="CW21" s="66"/>
+      <c r="CX21" s="66"/>
+      <c r="CY21" s="66"/>
+      <c r="CZ21" s="66"/>
     </row>
     <row r="22" spans="2:104" ht="20.25" customHeight="1">
       <c r="B22" s="5">
@@ -6557,34 +6561,34 @@
       <c r="BV22" s="49"/>
       <c r="BW22" s="49"/>
       <c r="BX22" s="13"/>
-      <c r="BY22" s="58"/>
-      <c r="BZ22" s="55"/>
-      <c r="CA22" s="55"/>
-      <c r="CB22" s="58"/>
-      <c r="CC22" s="58"/>
-      <c r="CD22" s="58"/>
-      <c r="CE22" s="58"/>
-      <c r="CF22" s="55"/>
-      <c r="CG22" s="55"/>
-      <c r="CH22" s="58"/>
-      <c r="CI22" s="58"/>
-      <c r="CJ22" s="58"/>
-      <c r="CK22" s="58"/>
+      <c r="BY22" s="67"/>
+      <c r="BZ22" s="64"/>
+      <c r="CA22" s="64"/>
+      <c r="CB22" s="67"/>
+      <c r="CC22" s="67"/>
+      <c r="CD22" s="67"/>
+      <c r="CE22" s="67"/>
+      <c r="CF22" s="64"/>
+      <c r="CG22" s="64"/>
+      <c r="CH22" s="67"/>
+      <c r="CI22" s="67"/>
+      <c r="CJ22" s="67"/>
+      <c r="CK22" s="67"/>
       <c r="CL22" s="14"/>
-      <c r="CM22" s="58"/>
-      <c r="CN22" s="55"/>
-      <c r="CO22" s="55"/>
-      <c r="CP22" s="58"/>
-      <c r="CQ22" s="58"/>
-      <c r="CR22" s="58"/>
-      <c r="CS22" s="58"/>
-      <c r="CT22" s="55"/>
-      <c r="CU22" s="55"/>
-      <c r="CV22" s="58"/>
-      <c r="CW22" s="58"/>
-      <c r="CX22" s="58"/>
-      <c r="CY22" s="58"/>
-      <c r="CZ22" s="58"/>
+      <c r="CM22" s="67"/>
+      <c r="CN22" s="64"/>
+      <c r="CO22" s="64"/>
+      <c r="CP22" s="67"/>
+      <c r="CQ22" s="67"/>
+      <c r="CR22" s="67"/>
+      <c r="CS22" s="67"/>
+      <c r="CT22" s="64"/>
+      <c r="CU22" s="64"/>
+      <c r="CV22" s="67"/>
+      <c r="CW22" s="67"/>
+      <c r="CX22" s="67"/>
+      <c r="CY22" s="67"/>
+      <c r="CZ22" s="67"/>
     </row>
     <row r="23" spans="2:104" ht="20.25" customHeight="1">
       <c r="BX23" s="11"/>
@@ -6596,6 +6600,119 @@
     </row>
   </sheetData>
   <mergeCells count="137">
+    <mergeCell ref="CZ7:CZ13"/>
+    <mergeCell ref="CQ15:CQ22"/>
+    <mergeCell ref="CR15:CR22"/>
+    <mergeCell ref="CS15:CS22"/>
+    <mergeCell ref="CV7:CV13"/>
+    <mergeCell ref="CW7:CW13"/>
+    <mergeCell ref="BZ7:BZ14"/>
+    <mergeCell ref="CA7:CA14"/>
+    <mergeCell ref="CF7:CF14"/>
+    <mergeCell ref="CG7:CG14"/>
+    <mergeCell ref="CN7:CN14"/>
+    <mergeCell ref="CO7:CO14"/>
+    <mergeCell ref="CT7:CT14"/>
+    <mergeCell ref="CU7:CU14"/>
+    <mergeCell ref="CM7:CM13"/>
+    <mergeCell ref="BY15:BY22"/>
+    <mergeCell ref="BZ15:BZ22"/>
+    <mergeCell ref="CA15:CA22"/>
+    <mergeCell ref="CB15:CB22"/>
+    <mergeCell ref="CC15:CC22"/>
+    <mergeCell ref="CD15:CD22"/>
+    <mergeCell ref="CM15:CM22"/>
+    <mergeCell ref="CN15:CN22"/>
+    <mergeCell ref="CO15:CO22"/>
+    <mergeCell ref="CE15:CE22"/>
+    <mergeCell ref="CF15:CF22"/>
+    <mergeCell ref="CX15:CX22"/>
+    <mergeCell ref="CY15:CY22"/>
+    <mergeCell ref="CB7:CB13"/>
+    <mergeCell ref="CC7:CC13"/>
+    <mergeCell ref="CD7:CD13"/>
+    <mergeCell ref="CE7:CE13"/>
+    <mergeCell ref="CH7:CH13"/>
+    <mergeCell ref="CI7:CI13"/>
+    <mergeCell ref="CJ7:CJ13"/>
+    <mergeCell ref="CK7:CK13"/>
+    <mergeCell ref="CP7:CP13"/>
+    <mergeCell ref="CQ7:CQ13"/>
+    <mergeCell ref="CW15:CW22"/>
+    <mergeCell ref="CX7:CX13"/>
+    <mergeCell ref="CY7:CY13"/>
+    <mergeCell ref="CG15:CG22"/>
+    <mergeCell ref="BY7:BY13"/>
+    <mergeCell ref="CZ5:CZ6"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CT5:CU5"/>
+    <mergeCell ref="CV5:CW5"/>
+    <mergeCell ref="CS5:CS6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CH15:CH22"/>
+    <mergeCell ref="CI15:CI22"/>
+    <mergeCell ref="CJ15:CJ22"/>
+    <mergeCell ref="CK15:CK22"/>
+    <mergeCell ref="CZ15:CZ22"/>
+    <mergeCell ref="CP15:CP22"/>
+    <mergeCell ref="CR7:CR13"/>
+    <mergeCell ref="CS7:CS13"/>
+    <mergeCell ref="CT15:CT22"/>
+    <mergeCell ref="CU15:CU22"/>
+    <mergeCell ref="CV15:CV22"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CK5:CK6"/>
+    <mergeCell ref="CN5:CO5"/>
+    <mergeCell ref="CP5:CQ5"/>
+    <mergeCell ref="CM5:CM6"/>
+    <mergeCell ref="CH5:CI5"/>
+    <mergeCell ref="CE5:CE6"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="CF5:CG5"/>
+    <mergeCell ref="BP4:BW4"/>
+    <mergeCell ref="BY4:CD4"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="Z4:AF4"/>
+    <mergeCell ref="AH4:AM4"/>
+    <mergeCell ref="AN4:AT4"/>
+    <mergeCell ref="AV4:BA4"/>
+    <mergeCell ref="BB4:BH4"/>
+    <mergeCell ref="BJ4:BO4"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="BM5:BN5"/>
+    <mergeCell ref="BQ5:BR5"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="BH5:BH6"/>
     <mergeCell ref="CE4:CK4"/>
     <mergeCell ref="CM4:CR4"/>
     <mergeCell ref="CS4:CZ4"/>
@@ -6620,119 +6737,6 @@
     <mergeCell ref="L4:R4"/>
     <mergeCell ref="T5:T6"/>
     <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="BZ5:CA5"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BW5:BW6"/>
-    <mergeCell ref="BY5:BY6"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="CM5:CM6"/>
-    <mergeCell ref="CH5:CI5"/>
-    <mergeCell ref="CE5:CE6"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="CF5:CG5"/>
-    <mergeCell ref="BP4:BW4"/>
-    <mergeCell ref="BY4:CD4"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="Z4:AF4"/>
-    <mergeCell ref="AH4:AM4"/>
-    <mergeCell ref="AN4:AT4"/>
-    <mergeCell ref="AV4:BA4"/>
-    <mergeCell ref="BB4:BH4"/>
-    <mergeCell ref="BJ4:BO4"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="CG15:CG22"/>
-    <mergeCell ref="BY7:BY13"/>
-    <mergeCell ref="CZ5:CZ6"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CT5:CU5"/>
-    <mergeCell ref="CV5:CW5"/>
-    <mergeCell ref="CS5:CS6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CH15:CH22"/>
-    <mergeCell ref="CI15:CI22"/>
-    <mergeCell ref="CJ15:CJ22"/>
-    <mergeCell ref="CK15:CK22"/>
-    <mergeCell ref="CZ15:CZ22"/>
-    <mergeCell ref="CP15:CP22"/>
-    <mergeCell ref="CR7:CR13"/>
-    <mergeCell ref="CS7:CS13"/>
-    <mergeCell ref="CT15:CT22"/>
-    <mergeCell ref="CU15:CU22"/>
-    <mergeCell ref="CV15:CV22"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CK5:CK6"/>
-    <mergeCell ref="CN5:CO5"/>
-    <mergeCell ref="CP5:CQ5"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="CX15:CX22"/>
-    <mergeCell ref="CY15:CY22"/>
-    <mergeCell ref="CB7:CB13"/>
-    <mergeCell ref="CC7:CC13"/>
-    <mergeCell ref="CD7:CD13"/>
-    <mergeCell ref="CE7:CE13"/>
-    <mergeCell ref="CH7:CH13"/>
-    <mergeCell ref="CI7:CI13"/>
-    <mergeCell ref="CJ7:CJ13"/>
-    <mergeCell ref="CK7:CK13"/>
-    <mergeCell ref="CP7:CP13"/>
-    <mergeCell ref="CQ7:CQ13"/>
-    <mergeCell ref="BY15:BY22"/>
-    <mergeCell ref="BZ15:BZ22"/>
-    <mergeCell ref="CA15:CA22"/>
-    <mergeCell ref="CB15:CB22"/>
-    <mergeCell ref="CC15:CC22"/>
-    <mergeCell ref="CD15:CD22"/>
-    <mergeCell ref="CM15:CM22"/>
-    <mergeCell ref="CN15:CN22"/>
-    <mergeCell ref="CO15:CO22"/>
-    <mergeCell ref="CE15:CE22"/>
-    <mergeCell ref="CF15:CF22"/>
-    <mergeCell ref="CW15:CW22"/>
-    <mergeCell ref="CX7:CX13"/>
-    <mergeCell ref="CY7:CY13"/>
-    <mergeCell ref="CZ7:CZ13"/>
-    <mergeCell ref="CQ15:CQ22"/>
-    <mergeCell ref="CR15:CR22"/>
-    <mergeCell ref="CS15:CS22"/>
-    <mergeCell ref="CV7:CV13"/>
-    <mergeCell ref="CW7:CW13"/>
-    <mergeCell ref="BZ7:BZ14"/>
-    <mergeCell ref="CA7:CA14"/>
-    <mergeCell ref="CF7:CF14"/>
-    <mergeCell ref="CG7:CG14"/>
-    <mergeCell ref="CN7:CN14"/>
-    <mergeCell ref="CO7:CO14"/>
-    <mergeCell ref="CT7:CT14"/>
-    <mergeCell ref="CU7:CU14"/>
-    <mergeCell ref="CM7:CM13"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="F7:K14">

--- a/スケジュール（2023-06）.xlsx
+++ b/スケジュール（2023-06）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d661fd30cf1332e/桌面/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E11A934-0EEF-46C5-922A-3EF15365A505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{5E11A934-0EEF-46C5-922A-3EF15365A505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E415207-77E3-4775-9258-8694E3ABA0C9}"/>
   <bookViews>
-    <workbookView xWindow="-14115" yWindow="3045" windowWidth="12675" windowHeight="9870" tabRatio="910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12300" tabRatio="910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="体制図" sheetId="11" r:id="rId1"/>
@@ -26,6 +26,19 @@
     <sheet name="8_勤怠承認詳細" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -660,7 +673,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -800,8 +813,38 @@
     <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -812,38 +855,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2869,20 +2885,20 @@
   <dimension ref="B3:CZ24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="S13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="S7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AL18" sqref="AL18"/>
+      <selection pane="bottomRight" activeCell="AM7" sqref="AM7:AM14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.796875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="18.69921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.59765625" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="8.69921875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="16.83203125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="18.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.58203125" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="8.6640625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="8" max="11" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="13" max="18" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -2891,423 +2907,423 @@
     <col min="21" max="25" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="26" max="26" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="27" max="29" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="7.59765625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="7.58203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="31" max="32" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="1.59765625" style="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="1.58203125" style="1" customWidth="1" collapsed="1"/>
     <col min="34" max="34" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="35" max="39" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="40" max="40" width="13" style="2" customWidth="1" outlineLevel="1"/>
     <col min="41" max="46" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="47" max="47" width="1.59765625" style="1" customWidth="1"/>
+    <col min="47" max="47" width="1.58203125" style="1" customWidth="1"/>
     <col min="48" max="48" width="13" style="2" customWidth="1" outlineLevel="1"/>
     <col min="49" max="53" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="54" max="54" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="55" max="60" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="61" max="61" width="1.59765625" style="1" customWidth="1"/>
+    <col min="61" max="61" width="1.58203125" style="1" customWidth="1"/>
     <col min="62" max="62" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="63" max="67" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="68" max="68" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="69" max="75" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="76" max="76" width="1.59765625" style="1" customWidth="1"/>
-    <col min="77" max="77" width="6.59765625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="76" max="76" width="1.58203125" style="1" customWidth="1"/>
+    <col min="77" max="77" width="6.58203125" style="1" customWidth="1" outlineLevel="1"/>
     <col min="78" max="81" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
     <col min="82" max="83" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="84" max="85" width="6.5" style="33" customWidth="1" outlineLevel="1"/>
     <col min="86" max="87" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
     <col min="88" max="89" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="90" max="90" width="1.59765625" style="1" customWidth="1"/>
-    <col min="91" max="91" width="6.59765625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="90" max="90" width="1.58203125" style="1" customWidth="1"/>
+    <col min="91" max="91" width="6.58203125" style="1" customWidth="1" outlineLevel="1"/>
     <col min="92" max="93" width="6.5" style="33" customWidth="1" outlineLevel="1"/>
     <col min="94" max="95" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
     <col min="96" max="97" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="98" max="99" width="6.5" style="33" customWidth="1" outlineLevel="1"/>
     <col min="100" max="101" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
     <col min="102" max="104" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="105" max="105" width="1.59765625" style="1" customWidth="1"/>
+    <col min="105" max="105" width="1.58203125" style="1" customWidth="1"/>
     <col min="106" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:104" ht="23.4">
+    <row r="3" spans="2:104" ht="23.5">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:104" s="20" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53" t="s">
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="T4" s="53" t="s">
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="60"/>
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="T4" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-      <c r="Z4" s="53" t="s">
+      <c r="U4" s="60"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="60"/>
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="53"/>
-      <c r="AB4" s="53"/>
-      <c r="AC4" s="53"/>
-      <c r="AD4" s="53"/>
-      <c r="AE4" s="53"/>
-      <c r="AF4" s="53"/>
-      <c r="AH4" s="53" t="s">
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="60"/>
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
+      <c r="AH4" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="AI4" s="53"/>
-      <c r="AJ4" s="53"/>
-      <c r="AK4" s="53"/>
-      <c r="AL4" s="53"/>
-      <c r="AM4" s="53"/>
-      <c r="AN4" s="53" t="s">
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="60"/>
+      <c r="AL4" s="60"/>
+      <c r="AM4" s="60"/>
+      <c r="AN4" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="AO4" s="53"/>
-      <c r="AP4" s="53"/>
-      <c r="AQ4" s="53"/>
-      <c r="AR4" s="53"/>
-      <c r="AS4" s="53"/>
-      <c r="AT4" s="54"/>
+      <c r="AO4" s="60"/>
+      <c r="AP4" s="60"/>
+      <c r="AQ4" s="60"/>
+      <c r="AR4" s="60"/>
+      <c r="AS4" s="60"/>
+      <c r="AT4" s="64"/>
       <c r="AU4" s="21"/>
-      <c r="AV4" s="53" t="s">
+      <c r="AV4" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="AW4" s="53"/>
-      <c r="AX4" s="53"/>
-      <c r="AY4" s="53"/>
-      <c r="AZ4" s="53"/>
-      <c r="BA4" s="53"/>
-      <c r="BB4" s="53" t="s">
+      <c r="AW4" s="60"/>
+      <c r="AX4" s="60"/>
+      <c r="AY4" s="60"/>
+      <c r="AZ4" s="60"/>
+      <c r="BA4" s="60"/>
+      <c r="BB4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="BC4" s="53"/>
-      <c r="BD4" s="53"/>
-      <c r="BE4" s="53"/>
-      <c r="BF4" s="53"/>
-      <c r="BG4" s="53"/>
-      <c r="BH4" s="53"/>
+      <c r="BC4" s="60"/>
+      <c r="BD4" s="60"/>
+      <c r="BE4" s="60"/>
+      <c r="BF4" s="60"/>
+      <c r="BG4" s="60"/>
+      <c r="BH4" s="60"/>
       <c r="BI4" s="22"/>
-      <c r="BJ4" s="55" t="s">
+      <c r="BJ4" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="BK4" s="53"/>
-      <c r="BL4" s="53"/>
-      <c r="BM4" s="53"/>
-      <c r="BN4" s="53"/>
-      <c r="BO4" s="53"/>
-      <c r="BP4" s="53" t="s">
+      <c r="BK4" s="60"/>
+      <c r="BL4" s="60"/>
+      <c r="BM4" s="60"/>
+      <c r="BN4" s="60"/>
+      <c r="BO4" s="60"/>
+      <c r="BP4" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="BQ4" s="53"/>
-      <c r="BR4" s="53"/>
-      <c r="BS4" s="53"/>
-      <c r="BT4" s="53"/>
-      <c r="BU4" s="53"/>
-      <c r="BV4" s="53"/>
-      <c r="BW4" s="53"/>
-      <c r="BY4" s="53" t="s">
+      <c r="BQ4" s="60"/>
+      <c r="BR4" s="60"/>
+      <c r="BS4" s="60"/>
+      <c r="BT4" s="60"/>
+      <c r="BU4" s="60"/>
+      <c r="BV4" s="60"/>
+      <c r="BW4" s="60"/>
+      <c r="BY4" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="BZ4" s="53"/>
-      <c r="CA4" s="53"/>
-      <c r="CB4" s="53"/>
-      <c r="CC4" s="53"/>
-      <c r="CD4" s="53"/>
-      <c r="CE4" s="53" t="s">
+      <c r="BZ4" s="60"/>
+      <c r="CA4" s="60"/>
+      <c r="CB4" s="60"/>
+      <c r="CC4" s="60"/>
+      <c r="CD4" s="60"/>
+      <c r="CE4" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="CF4" s="53"/>
-      <c r="CG4" s="53"/>
-      <c r="CH4" s="53"/>
-      <c r="CI4" s="53"/>
-      <c r="CJ4" s="53"/>
-      <c r="CK4" s="54"/>
+      <c r="CF4" s="60"/>
+      <c r="CG4" s="60"/>
+      <c r="CH4" s="60"/>
+      <c r="CI4" s="60"/>
+      <c r="CJ4" s="60"/>
+      <c r="CK4" s="64"/>
       <c r="CL4" s="23"/>
-      <c r="CM4" s="55" t="s">
+      <c r="CM4" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="CN4" s="53"/>
-      <c r="CO4" s="53"/>
-      <c r="CP4" s="53"/>
-      <c r="CQ4" s="53"/>
-      <c r="CR4" s="53"/>
-      <c r="CS4" s="53" t="s">
+      <c r="CN4" s="60"/>
+      <c r="CO4" s="60"/>
+      <c r="CP4" s="60"/>
+      <c r="CQ4" s="60"/>
+      <c r="CR4" s="60"/>
+      <c r="CS4" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="CT4" s="53"/>
-      <c r="CU4" s="53"/>
-      <c r="CV4" s="53"/>
-      <c r="CW4" s="53"/>
-      <c r="CX4" s="53"/>
-      <c r="CY4" s="53"/>
-      <c r="CZ4" s="53"/>
+      <c r="CT4" s="60"/>
+      <c r="CU4" s="60"/>
+      <c r="CV4" s="60"/>
+      <c r="CW4" s="60"/>
+      <c r="CX4" s="60"/>
+      <c r="CY4" s="60"/>
+      <c r="CZ4" s="60"/>
     </row>
-    <row r="5" spans="2:104" ht="21.6" customHeight="1">
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="53" t="s">
+    <row r="5" spans="2:104" ht="21.65" customHeight="1">
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="56" t="s">
+      <c r="G5" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56" t="s">
+      <c r="H5" s="66"/>
+      <c r="I5" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="56"/>
-      <c r="K5" s="57" t="s">
+      <c r="J5" s="66"/>
+      <c r="K5" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="53" t="s">
+      <c r="L5" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="56" t="s">
+      <c r="M5" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="56"/>
-      <c r="O5" s="56" t="s">
+      <c r="N5" s="66"/>
+      <c r="O5" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="57" t="s">
+      <c r="P5" s="66"/>
+      <c r="Q5" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="57" t="s">
+      <c r="R5" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="53" t="s">
+      <c r="T5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="56" t="s">
+      <c r="U5" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56" t="s">
+      <c r="V5" s="66"/>
+      <c r="W5" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="57" t="s">
+      <c r="X5" s="66"/>
+      <c r="Y5" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="53" t="s">
+      <c r="Z5" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="AA5" s="56" t="s">
+      <c r="AA5" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="AB5" s="56"/>
-      <c r="AC5" s="56" t="s">
+      <c r="AB5" s="66"/>
+      <c r="AC5" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="AD5" s="56"/>
-      <c r="AE5" s="57" t="s">
+      <c r="AD5" s="66"/>
+      <c r="AE5" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="AF5" s="57" t="s">
+      <c r="AF5" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="AH5" s="53" t="s">
+      <c r="AH5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="AI5" s="56" t="s">
+      <c r="AI5" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56" t="s">
+      <c r="AJ5" s="66"/>
+      <c r="AK5" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="57" t="s">
+      <c r="AL5" s="66"/>
+      <c r="AM5" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="AN5" s="53" t="s">
+      <c r="AN5" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="AO5" s="56" t="s">
+      <c r="AO5" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="AP5" s="56"/>
-      <c r="AQ5" s="56" t="s">
+      <c r="AP5" s="66"/>
+      <c r="AQ5" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="AR5" s="56"/>
-      <c r="AS5" s="57" t="s">
+      <c r="AR5" s="66"/>
+      <c r="AS5" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="AT5" s="60" t="s">
+      <c r="AT5" s="63" t="s">
         <v>23</v>
       </c>
       <c r="AU5" s="13"/>
-      <c r="AV5" s="53" t="s">
+      <c r="AV5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="AW5" s="56" t="s">
+      <c r="AW5" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="AX5" s="56"/>
-      <c r="AY5" s="56" t="s">
+      <c r="AX5" s="66"/>
+      <c r="AY5" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="AZ5" s="56"/>
-      <c r="BA5" s="57" t="s">
+      <c r="AZ5" s="66"/>
+      <c r="BA5" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="BB5" s="53" t="s">
+      <c r="BB5" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="BC5" s="56" t="s">
+      <c r="BC5" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="BD5" s="56"/>
-      <c r="BE5" s="56" t="s">
+      <c r="BD5" s="66"/>
+      <c r="BE5" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="BF5" s="56"/>
-      <c r="BG5" s="57" t="s">
+      <c r="BF5" s="66"/>
+      <c r="BG5" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="BH5" s="57" t="s">
+      <c r="BH5" s="59" t="s">
         <v>23</v>
       </c>
       <c r="BI5" s="14"/>
-      <c r="BJ5" s="55" t="s">
+      <c r="BJ5" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="BK5" s="56" t="s">
+      <c r="BK5" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="BL5" s="56"/>
-      <c r="BM5" s="56" t="s">
+      <c r="BL5" s="66"/>
+      <c r="BM5" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="BN5" s="56"/>
-      <c r="BO5" s="57" t="s">
+      <c r="BN5" s="66"/>
+      <c r="BO5" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="BP5" s="53" t="s">
+      <c r="BP5" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="BQ5" s="56" t="s">
+      <c r="BQ5" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="BR5" s="56"/>
-      <c r="BS5" s="56" t="s">
+      <c r="BR5" s="66"/>
+      <c r="BS5" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="BT5" s="56"/>
-      <c r="BU5" s="57" t="s">
+      <c r="BT5" s="66"/>
+      <c r="BU5" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="BV5" s="57" t="s">
+      <c r="BV5" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="BW5" s="57" t="s">
+      <c r="BW5" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="BY5" s="53" t="s">
+      <c r="BY5" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="BZ5" s="58" t="s">
+      <c r="BZ5" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="CA5" s="58"/>
-      <c r="CB5" s="58" t="s">
+      <c r="CA5" s="62"/>
+      <c r="CB5" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="CC5" s="58"/>
-      <c r="CD5" s="57" t="s">
+      <c r="CC5" s="62"/>
+      <c r="CD5" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="CE5" s="53" t="s">
+      <c r="CE5" s="60" t="s">
         <v>22</v>
       </c>
       <c r="CF5" s="61" t="s">
         <v>19</v>
       </c>
       <c r="CG5" s="61"/>
-      <c r="CH5" s="58" t="s">
+      <c r="CH5" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="CI5" s="58"/>
-      <c r="CJ5" s="57" t="s">
+      <c r="CI5" s="62"/>
+      <c r="CJ5" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="CK5" s="60" t="s">
+      <c r="CK5" s="63" t="s">
         <v>23</v>
       </c>
       <c r="CL5" s="11"/>
-      <c r="CM5" s="55" t="s">
+      <c r="CM5" s="65" t="s">
         <v>18</v>
       </c>
       <c r="CN5" s="61" t="s">
         <v>19</v>
       </c>
       <c r="CO5" s="61"/>
-      <c r="CP5" s="58" t="s">
+      <c r="CP5" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="CQ5" s="58"/>
-      <c r="CR5" s="57" t="s">
+      <c r="CQ5" s="62"/>
+      <c r="CR5" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="CS5" s="53" t="s">
+      <c r="CS5" s="60" t="s">
         <v>22</v>
       </c>
       <c r="CT5" s="61" t="s">
         <v>19</v>
       </c>
       <c r="CU5" s="61"/>
-      <c r="CV5" s="58" t="s">
+      <c r="CV5" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="CW5" s="58"/>
-      <c r="CX5" s="57" t="s">
+      <c r="CW5" s="62"/>
+      <c r="CX5" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="CY5" s="57" t="s">
+      <c r="CY5" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="CZ5" s="57" t="s">
+      <c r="CZ5" s="59" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:104" ht="14.4">
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="53"/>
+    <row r="6" spans="2:104" ht="14">
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="60"/>
       <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3320,8 +3336,8 @@
       <c r="J6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
       <c r="M6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3334,9 +3350,9 @@
       <c r="P6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53"/>
-      <c r="T6" s="53"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="T6" s="60"/>
       <c r="U6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3349,8 +3365,8 @@
       <c r="X6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="53"/>
-      <c r="Z6" s="53"/>
+      <c r="Y6" s="60"/>
+      <c r="Z6" s="60"/>
       <c r="AA6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3363,9 +3379,9 @@
       <c r="AD6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AE6" s="53"/>
-      <c r="AF6" s="53"/>
-      <c r="AH6" s="53"/>
+      <c r="AE6" s="60"/>
+      <c r="AF6" s="60"/>
+      <c r="AH6" s="60"/>
       <c r="AI6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3378,8 +3394,8 @@
       <c r="AL6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AM6" s="53"/>
-      <c r="AN6" s="53"/>
+      <c r="AM6" s="60"/>
+      <c r="AN6" s="60"/>
       <c r="AO6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3392,10 +3408,10 @@
       <c r="AR6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AS6" s="53"/>
-      <c r="AT6" s="54"/>
+      <c r="AS6" s="60"/>
+      <c r="AT6" s="64"/>
       <c r="AU6" s="13"/>
-      <c r="AV6" s="53"/>
+      <c r="AV6" s="60"/>
       <c r="AW6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3408,8 +3424,8 @@
       <c r="AZ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BA6" s="53"/>
-      <c r="BB6" s="53"/>
+      <c r="BA6" s="60"/>
+      <c r="BB6" s="60"/>
       <c r="BC6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3422,10 +3438,10 @@
       <c r="BF6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BG6" s="53"/>
-      <c r="BH6" s="53"/>
+      <c r="BG6" s="60"/>
+      <c r="BH6" s="60"/>
       <c r="BI6" s="14"/>
-      <c r="BJ6" s="55"/>
+      <c r="BJ6" s="65"/>
       <c r="BK6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3438,8 +3454,8 @@
       <c r="BN6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BO6" s="53"/>
-      <c r="BP6" s="53"/>
+      <c r="BO6" s="60"/>
+      <c r="BP6" s="60"/>
       <c r="BQ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3452,10 +3468,10 @@
       <c r="BT6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BU6" s="53"/>
-      <c r="BV6" s="53"/>
-      <c r="BW6" s="53"/>
-      <c r="BY6" s="53"/>
+      <c r="BU6" s="60"/>
+      <c r="BV6" s="60"/>
+      <c r="BW6" s="60"/>
+      <c r="BY6" s="60"/>
       <c r="BZ6" s="31" t="s">
         <v>25</v>
       </c>
@@ -3468,8 +3484,8 @@
       <c r="CC6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CD6" s="53"/>
-      <c r="CE6" s="53"/>
+      <c r="CD6" s="60"/>
+      <c r="CE6" s="60"/>
       <c r="CF6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3482,10 +3498,10 @@
       <c r="CI6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CJ6" s="53"/>
-      <c r="CK6" s="54"/>
+      <c r="CJ6" s="60"/>
+      <c r="CK6" s="64"/>
       <c r="CL6" s="11"/>
-      <c r="CM6" s="55"/>
+      <c r="CM6" s="65"/>
       <c r="CN6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3498,8 +3514,8 @@
       <c r="CQ6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CR6" s="53"/>
-      <c r="CS6" s="53"/>
+      <c r="CR6" s="60"/>
+      <c r="CS6" s="60"/>
       <c r="CT6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3512,9 +3528,9 @@
       <c r="CW6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CX6" s="53"/>
-      <c r="CY6" s="53"/>
-      <c r="CZ6" s="53"/>
+      <c r="CX6" s="60"/>
+      <c r="CY6" s="60"/>
+      <c r="CZ6" s="60"/>
     </row>
     <row r="7" spans="2:104" ht="20.25" customHeight="1">
       <c r="B7" s="5">
@@ -3619,8 +3635,8 @@
         <v>45089</v>
       </c>
       <c r="AL7" s="6"/>
-      <c r="AM7" s="7">
-        <v>0.8</v>
+      <c r="AM7" s="68">
+        <v>1</v>
       </c>
       <c r="AN7" s="17"/>
       <c r="AO7" s="52">
@@ -3678,50 +3694,50 @@
       <c r="BU7" s="7"/>
       <c r="BV7" s="10"/>
       <c r="BW7" s="10"/>
-      <c r="BY7" s="65"/>
-      <c r="BZ7" s="62">
+      <c r="BY7" s="53"/>
+      <c r="BZ7" s="56">
         <v>45104</v>
       </c>
-      <c r="CA7" s="62">
+      <c r="CA7" s="56">
         <v>45104</v>
       </c>
-      <c r="CB7" s="65"/>
-      <c r="CC7" s="65"/>
-      <c r="CD7" s="65"/>
-      <c r="CE7" s="65"/>
-      <c r="CF7" s="62">
+      <c r="CB7" s="53"/>
+      <c r="CC7" s="53"/>
+      <c r="CD7" s="53"/>
+      <c r="CE7" s="53"/>
+      <c r="CF7" s="56">
         <v>45104</v>
       </c>
-      <c r="CG7" s="62">
+      <c r="CG7" s="56">
         <v>45104</v>
       </c>
-      <c r="CH7" s="65"/>
-      <c r="CI7" s="65"/>
-      <c r="CJ7" s="65"/>
-      <c r="CK7" s="65"/>
+      <c r="CH7" s="53"/>
+      <c r="CI7" s="53"/>
+      <c r="CJ7" s="53"/>
+      <c r="CK7" s="53"/>
       <c r="CL7" s="14"/>
-      <c r="CM7" s="65"/>
-      <c r="CN7" s="62">
+      <c r="CM7" s="53"/>
+      <c r="CN7" s="56">
         <v>45105</v>
       </c>
-      <c r="CO7" s="62">
+      <c r="CO7" s="56">
         <v>45105</v>
       </c>
-      <c r="CP7" s="65"/>
-      <c r="CQ7" s="65"/>
-      <c r="CR7" s="65"/>
-      <c r="CS7" s="65"/>
-      <c r="CT7" s="62">
+      <c r="CP7" s="53"/>
+      <c r="CQ7" s="53"/>
+      <c r="CR7" s="53"/>
+      <c r="CS7" s="53"/>
+      <c r="CT7" s="56">
         <v>45105</v>
       </c>
-      <c r="CU7" s="62">
+      <c r="CU7" s="56">
         <v>45105</v>
       </c>
-      <c r="CV7" s="65"/>
-      <c r="CW7" s="65"/>
-      <c r="CX7" s="65"/>
-      <c r="CY7" s="65"/>
-      <c r="CZ7" s="65"/>
+      <c r="CV7" s="53"/>
+      <c r="CW7" s="53"/>
+      <c r="CX7" s="53"/>
+      <c r="CY7" s="53"/>
+      <c r="CZ7" s="53"/>
     </row>
     <row r="8" spans="2:104" ht="20.25" customHeight="1">
       <c r="B8" s="5">
@@ -3826,7 +3842,7 @@
         <v>45089</v>
       </c>
       <c r="AL8" s="6"/>
-      <c r="AM8" s="7">
+      <c r="AM8" s="68">
         <v>0.1</v>
       </c>
       <c r="AN8" s="17"/>
@@ -3885,34 +3901,34 @@
       <c r="BU8" s="7"/>
       <c r="BV8" s="10"/>
       <c r="BW8" s="10"/>
-      <c r="BY8" s="66"/>
-      <c r="BZ8" s="63"/>
-      <c r="CA8" s="63"/>
-      <c r="CB8" s="66"/>
-      <c r="CC8" s="66"/>
-      <c r="CD8" s="66"/>
-      <c r="CE8" s="66"/>
-      <c r="CF8" s="63"/>
-      <c r="CG8" s="63"/>
-      <c r="CH8" s="66"/>
-      <c r="CI8" s="66"/>
-      <c r="CJ8" s="66"/>
-      <c r="CK8" s="66"/>
+      <c r="BY8" s="54"/>
+      <c r="BZ8" s="57"/>
+      <c r="CA8" s="57"/>
+      <c r="CB8" s="54"/>
+      <c r="CC8" s="54"/>
+      <c r="CD8" s="54"/>
+      <c r="CE8" s="54"/>
+      <c r="CF8" s="57"/>
+      <c r="CG8" s="57"/>
+      <c r="CH8" s="54"/>
+      <c r="CI8" s="54"/>
+      <c r="CJ8" s="54"/>
+      <c r="CK8" s="54"/>
       <c r="CL8" s="14"/>
-      <c r="CM8" s="66"/>
-      <c r="CN8" s="63"/>
-      <c r="CO8" s="63"/>
-      <c r="CP8" s="66"/>
-      <c r="CQ8" s="66"/>
-      <c r="CR8" s="66"/>
-      <c r="CS8" s="66"/>
-      <c r="CT8" s="63"/>
-      <c r="CU8" s="63"/>
-      <c r="CV8" s="66"/>
-      <c r="CW8" s="66"/>
-      <c r="CX8" s="66"/>
-      <c r="CY8" s="66"/>
-      <c r="CZ8" s="66"/>
+      <c r="CM8" s="54"/>
+      <c r="CN8" s="57"/>
+      <c r="CO8" s="57"/>
+      <c r="CP8" s="54"/>
+      <c r="CQ8" s="54"/>
+      <c r="CR8" s="54"/>
+      <c r="CS8" s="54"/>
+      <c r="CT8" s="57"/>
+      <c r="CU8" s="57"/>
+      <c r="CV8" s="54"/>
+      <c r="CW8" s="54"/>
+      <c r="CX8" s="54"/>
+      <c r="CY8" s="54"/>
+      <c r="CZ8" s="54"/>
     </row>
     <row r="9" spans="2:104" ht="20.25" customHeight="1">
       <c r="B9" s="5">
@@ -4015,8 +4031,8 @@
         <v>45089</v>
       </c>
       <c r="AL9" s="6"/>
-      <c r="AM9" s="7">
-        <v>0.5</v>
+      <c r="AM9" s="68">
+        <v>0.8</v>
       </c>
       <c r="AN9" s="17"/>
       <c r="AO9" s="52">
@@ -4075,34 +4091,34 @@
       <c r="BV9" s="10"/>
       <c r="BW9" s="10"/>
       <c r="BX9" s="13"/>
-      <c r="BY9" s="66"/>
-      <c r="BZ9" s="63"/>
-      <c r="CA9" s="63"/>
-      <c r="CB9" s="66"/>
-      <c r="CC9" s="66"/>
-      <c r="CD9" s="66"/>
-      <c r="CE9" s="66"/>
-      <c r="CF9" s="63"/>
-      <c r="CG9" s="63"/>
-      <c r="CH9" s="66"/>
-      <c r="CI9" s="66"/>
-      <c r="CJ9" s="66"/>
-      <c r="CK9" s="66"/>
+      <c r="BY9" s="54"/>
+      <c r="BZ9" s="57"/>
+      <c r="CA9" s="57"/>
+      <c r="CB9" s="54"/>
+      <c r="CC9" s="54"/>
+      <c r="CD9" s="54"/>
+      <c r="CE9" s="54"/>
+      <c r="CF9" s="57"/>
+      <c r="CG9" s="57"/>
+      <c r="CH9" s="54"/>
+      <c r="CI9" s="54"/>
+      <c r="CJ9" s="54"/>
+      <c r="CK9" s="54"/>
       <c r="CL9" s="14"/>
-      <c r="CM9" s="66"/>
-      <c r="CN9" s="63"/>
-      <c r="CO9" s="63"/>
-      <c r="CP9" s="66"/>
-      <c r="CQ9" s="66"/>
-      <c r="CR9" s="66"/>
-      <c r="CS9" s="66"/>
-      <c r="CT9" s="63"/>
-      <c r="CU9" s="63"/>
-      <c r="CV9" s="66"/>
-      <c r="CW9" s="66"/>
-      <c r="CX9" s="66"/>
-      <c r="CY9" s="66"/>
-      <c r="CZ9" s="66"/>
+      <c r="CM9" s="54"/>
+      <c r="CN9" s="57"/>
+      <c r="CO9" s="57"/>
+      <c r="CP9" s="54"/>
+      <c r="CQ9" s="54"/>
+      <c r="CR9" s="54"/>
+      <c r="CS9" s="54"/>
+      <c r="CT9" s="57"/>
+      <c r="CU9" s="57"/>
+      <c r="CV9" s="54"/>
+      <c r="CW9" s="54"/>
+      <c r="CX9" s="54"/>
+      <c r="CY9" s="54"/>
+      <c r="CZ9" s="54"/>
     </row>
     <row r="10" spans="2:104" ht="20.25" customHeight="1">
       <c r="B10" s="5">
@@ -4207,7 +4223,7 @@
         <v>45089</v>
       </c>
       <c r="AL10" s="6"/>
-      <c r="AM10" s="7">
+      <c r="AM10" s="68">
         <v>0.2</v>
       </c>
       <c r="AN10" s="17"/>
@@ -4267,34 +4283,34 @@
       <c r="BV10" s="10"/>
       <c r="BW10" s="10"/>
       <c r="BX10" s="13"/>
-      <c r="BY10" s="66"/>
-      <c r="BZ10" s="63"/>
-      <c r="CA10" s="63"/>
-      <c r="CB10" s="66"/>
-      <c r="CC10" s="66"/>
-      <c r="CD10" s="66"/>
-      <c r="CE10" s="66"/>
-      <c r="CF10" s="63"/>
-      <c r="CG10" s="63"/>
-      <c r="CH10" s="66"/>
-      <c r="CI10" s="66"/>
-      <c r="CJ10" s="66"/>
-      <c r="CK10" s="66"/>
+      <c r="BY10" s="54"/>
+      <c r="BZ10" s="57"/>
+      <c r="CA10" s="57"/>
+      <c r="CB10" s="54"/>
+      <c r="CC10" s="54"/>
+      <c r="CD10" s="54"/>
+      <c r="CE10" s="54"/>
+      <c r="CF10" s="57"/>
+      <c r="CG10" s="57"/>
+      <c r="CH10" s="54"/>
+      <c r="CI10" s="54"/>
+      <c r="CJ10" s="54"/>
+      <c r="CK10" s="54"/>
       <c r="CL10" s="14"/>
-      <c r="CM10" s="66"/>
-      <c r="CN10" s="63"/>
-      <c r="CO10" s="63"/>
-      <c r="CP10" s="66"/>
-      <c r="CQ10" s="66"/>
-      <c r="CR10" s="66"/>
-      <c r="CS10" s="66"/>
-      <c r="CT10" s="63"/>
-      <c r="CU10" s="63"/>
-      <c r="CV10" s="66"/>
-      <c r="CW10" s="66"/>
-      <c r="CX10" s="66"/>
-      <c r="CY10" s="66"/>
-      <c r="CZ10" s="66"/>
+      <c r="CM10" s="54"/>
+      <c r="CN10" s="57"/>
+      <c r="CO10" s="57"/>
+      <c r="CP10" s="54"/>
+      <c r="CQ10" s="54"/>
+      <c r="CR10" s="54"/>
+      <c r="CS10" s="54"/>
+      <c r="CT10" s="57"/>
+      <c r="CU10" s="57"/>
+      <c r="CV10" s="54"/>
+      <c r="CW10" s="54"/>
+      <c r="CX10" s="54"/>
+      <c r="CY10" s="54"/>
+      <c r="CZ10" s="54"/>
     </row>
     <row r="11" spans="2:104" ht="20.25" customHeight="1">
       <c r="B11" s="5">
@@ -4397,8 +4413,8 @@
         <v>45089</v>
       </c>
       <c r="AL11" s="6"/>
-      <c r="AM11" s="7">
-        <v>0.15</v>
+      <c r="AM11" s="68">
+        <v>0.2</v>
       </c>
       <c r="AN11" s="17"/>
       <c r="AO11" s="52">
@@ -4457,34 +4473,34 @@
       <c r="BV11" s="10"/>
       <c r="BW11" s="10"/>
       <c r="BX11" s="13"/>
-      <c r="BY11" s="66"/>
-      <c r="BZ11" s="63"/>
-      <c r="CA11" s="63"/>
-      <c r="CB11" s="66"/>
-      <c r="CC11" s="66"/>
-      <c r="CD11" s="66"/>
-      <c r="CE11" s="66"/>
-      <c r="CF11" s="63"/>
-      <c r="CG11" s="63"/>
-      <c r="CH11" s="66"/>
-      <c r="CI11" s="66"/>
-      <c r="CJ11" s="66"/>
-      <c r="CK11" s="66"/>
+      <c r="BY11" s="54"/>
+      <c r="BZ11" s="57"/>
+      <c r="CA11" s="57"/>
+      <c r="CB11" s="54"/>
+      <c r="CC11" s="54"/>
+      <c r="CD11" s="54"/>
+      <c r="CE11" s="54"/>
+      <c r="CF11" s="57"/>
+      <c r="CG11" s="57"/>
+      <c r="CH11" s="54"/>
+      <c r="CI11" s="54"/>
+      <c r="CJ11" s="54"/>
+      <c r="CK11" s="54"/>
       <c r="CL11" s="14"/>
-      <c r="CM11" s="66"/>
-      <c r="CN11" s="63"/>
-      <c r="CO11" s="63"/>
-      <c r="CP11" s="66"/>
-      <c r="CQ11" s="66"/>
-      <c r="CR11" s="66"/>
-      <c r="CS11" s="66"/>
-      <c r="CT11" s="63"/>
-      <c r="CU11" s="63"/>
-      <c r="CV11" s="66"/>
-      <c r="CW11" s="66"/>
-      <c r="CX11" s="66"/>
-      <c r="CY11" s="66"/>
-      <c r="CZ11" s="66"/>
+      <c r="CM11" s="54"/>
+      <c r="CN11" s="57"/>
+      <c r="CO11" s="57"/>
+      <c r="CP11" s="54"/>
+      <c r="CQ11" s="54"/>
+      <c r="CR11" s="54"/>
+      <c r="CS11" s="54"/>
+      <c r="CT11" s="57"/>
+      <c r="CU11" s="57"/>
+      <c r="CV11" s="54"/>
+      <c r="CW11" s="54"/>
+      <c r="CX11" s="54"/>
+      <c r="CY11" s="54"/>
+      <c r="CZ11" s="54"/>
     </row>
     <row r="12" spans="2:104" ht="20.25" customHeight="1">
       <c r="B12" s="5">
@@ -4587,8 +4603,8 @@
         <v>45089</v>
       </c>
       <c r="AL12" s="6"/>
-      <c r="AM12" s="7">
-        <v>0.4</v>
+      <c r="AM12" s="68">
+        <v>0.8</v>
       </c>
       <c r="AN12" s="17"/>
       <c r="AO12" s="52">
@@ -4647,34 +4663,34 @@
       <c r="BV12" s="10"/>
       <c r="BW12" s="10"/>
       <c r="BX12" s="13"/>
-      <c r="BY12" s="66"/>
-      <c r="BZ12" s="63"/>
-      <c r="CA12" s="63"/>
-      <c r="CB12" s="66"/>
-      <c r="CC12" s="66"/>
-      <c r="CD12" s="66"/>
-      <c r="CE12" s="66"/>
-      <c r="CF12" s="63"/>
-      <c r="CG12" s="63"/>
-      <c r="CH12" s="66"/>
-      <c r="CI12" s="66"/>
-      <c r="CJ12" s="66"/>
-      <c r="CK12" s="66"/>
+      <c r="BY12" s="54"/>
+      <c r="BZ12" s="57"/>
+      <c r="CA12" s="57"/>
+      <c r="CB12" s="54"/>
+      <c r="CC12" s="54"/>
+      <c r="CD12" s="54"/>
+      <c r="CE12" s="54"/>
+      <c r="CF12" s="57"/>
+      <c r="CG12" s="57"/>
+      <c r="CH12" s="54"/>
+      <c r="CI12" s="54"/>
+      <c r="CJ12" s="54"/>
+      <c r="CK12" s="54"/>
       <c r="CL12" s="14"/>
-      <c r="CM12" s="66"/>
-      <c r="CN12" s="63"/>
-      <c r="CO12" s="63"/>
-      <c r="CP12" s="66"/>
-      <c r="CQ12" s="66"/>
-      <c r="CR12" s="66"/>
-      <c r="CS12" s="66"/>
-      <c r="CT12" s="63"/>
-      <c r="CU12" s="63"/>
-      <c r="CV12" s="66"/>
-      <c r="CW12" s="66"/>
-      <c r="CX12" s="66"/>
-      <c r="CY12" s="66"/>
-      <c r="CZ12" s="66"/>
+      <c r="CM12" s="54"/>
+      <c r="CN12" s="57"/>
+      <c r="CO12" s="57"/>
+      <c r="CP12" s="54"/>
+      <c r="CQ12" s="54"/>
+      <c r="CR12" s="54"/>
+      <c r="CS12" s="54"/>
+      <c r="CT12" s="57"/>
+      <c r="CU12" s="57"/>
+      <c r="CV12" s="54"/>
+      <c r="CW12" s="54"/>
+      <c r="CX12" s="54"/>
+      <c r="CY12" s="54"/>
+      <c r="CZ12" s="54"/>
     </row>
     <row r="13" spans="2:104" ht="20.25" customHeight="1">
       <c r="B13" s="5">
@@ -4779,8 +4795,8 @@
         <v>45089</v>
       </c>
       <c r="AL13" s="6"/>
-      <c r="AM13" s="7">
-        <v>0.2</v>
+      <c r="AM13" s="68">
+        <v>0.8</v>
       </c>
       <c r="AN13" s="17"/>
       <c r="AO13" s="52">
@@ -4839,34 +4855,34 @@
       <c r="BV13" s="10"/>
       <c r="BW13" s="10"/>
       <c r="BX13" s="13"/>
-      <c r="BY13" s="66"/>
-      <c r="BZ13" s="63"/>
-      <c r="CA13" s="63"/>
-      <c r="CB13" s="66"/>
-      <c r="CC13" s="66"/>
-      <c r="CD13" s="66"/>
-      <c r="CE13" s="66"/>
-      <c r="CF13" s="63"/>
-      <c r="CG13" s="63"/>
-      <c r="CH13" s="66"/>
-      <c r="CI13" s="66"/>
-      <c r="CJ13" s="66"/>
-      <c r="CK13" s="66"/>
+      <c r="BY13" s="54"/>
+      <c r="BZ13" s="57"/>
+      <c r="CA13" s="57"/>
+      <c r="CB13" s="54"/>
+      <c r="CC13" s="54"/>
+      <c r="CD13" s="54"/>
+      <c r="CE13" s="54"/>
+      <c r="CF13" s="57"/>
+      <c r="CG13" s="57"/>
+      <c r="CH13" s="54"/>
+      <c r="CI13" s="54"/>
+      <c r="CJ13" s="54"/>
+      <c r="CK13" s="54"/>
       <c r="CL13" s="14"/>
-      <c r="CM13" s="66"/>
-      <c r="CN13" s="63"/>
-      <c r="CO13" s="63"/>
-      <c r="CP13" s="66"/>
-      <c r="CQ13" s="66"/>
-      <c r="CR13" s="66"/>
-      <c r="CS13" s="66"/>
-      <c r="CT13" s="63"/>
-      <c r="CU13" s="63"/>
-      <c r="CV13" s="66"/>
-      <c r="CW13" s="66"/>
-      <c r="CX13" s="66"/>
-      <c r="CY13" s="66"/>
-      <c r="CZ13" s="66"/>
+      <c r="CM13" s="54"/>
+      <c r="CN13" s="57"/>
+      <c r="CO13" s="57"/>
+      <c r="CP13" s="54"/>
+      <c r="CQ13" s="54"/>
+      <c r="CR13" s="54"/>
+      <c r="CS13" s="54"/>
+      <c r="CT13" s="57"/>
+      <c r="CU13" s="57"/>
+      <c r="CV13" s="54"/>
+      <c r="CW13" s="54"/>
+      <c r="CX13" s="54"/>
+      <c r="CY13" s="54"/>
+      <c r="CZ13" s="54"/>
     </row>
     <row r="14" spans="2:104" ht="20.25" customHeight="1">
       <c r="B14" s="5">
@@ -4971,7 +4987,7 @@
         <v>45089</v>
       </c>
       <c r="AL14" s="6"/>
-      <c r="AM14" s="7">
+      <c r="AM14" s="68">
         <v>0.1</v>
       </c>
       <c r="AN14" s="17"/>
@@ -5032,28 +5048,28 @@
       <c r="BW14" s="10"/>
       <c r="BX14" s="13"/>
       <c r="BY14" s="36"/>
-      <c r="BZ14" s="64"/>
-      <c r="CA14" s="64"/>
+      <c r="BZ14" s="58"/>
+      <c r="CA14" s="58"/>
       <c r="CB14" s="36"/>
       <c r="CC14" s="36"/>
       <c r="CD14" s="36"/>
       <c r="CE14" s="36"/>
-      <c r="CF14" s="64"/>
-      <c r="CG14" s="64"/>
+      <c r="CF14" s="58"/>
+      <c r="CG14" s="58"/>
       <c r="CH14" s="36"/>
       <c r="CI14" s="36"/>
       <c r="CJ14" s="36"/>
       <c r="CK14" s="36"/>
       <c r="CL14" s="14"/>
       <c r="CM14" s="36"/>
-      <c r="CN14" s="64"/>
-      <c r="CO14" s="64"/>
+      <c r="CN14" s="58"/>
+      <c r="CO14" s="58"/>
       <c r="CP14" s="36"/>
       <c r="CQ14" s="36"/>
       <c r="CR14" s="36"/>
       <c r="CS14" s="36"/>
-      <c r="CT14" s="64"/>
-      <c r="CU14" s="64"/>
+      <c r="CT14" s="58"/>
+      <c r="CU14" s="58"/>
       <c r="CV14" s="36"/>
       <c r="CW14" s="36"/>
       <c r="CX14" s="36"/>
@@ -5221,50 +5237,50 @@
       <c r="BV15" s="10"/>
       <c r="BW15" s="10"/>
       <c r="BX15" s="13"/>
-      <c r="BY15" s="65"/>
-      <c r="BZ15" s="62">
+      <c r="BY15" s="53"/>
+      <c r="BZ15" s="56">
         <v>45104</v>
       </c>
-      <c r="CA15" s="62">
+      <c r="CA15" s="56">
         <v>45104</v>
       </c>
-      <c r="CB15" s="65"/>
-      <c r="CC15" s="65"/>
-      <c r="CD15" s="65"/>
-      <c r="CE15" s="65"/>
-      <c r="CF15" s="62">
+      <c r="CB15" s="53"/>
+      <c r="CC15" s="53"/>
+      <c r="CD15" s="53"/>
+      <c r="CE15" s="53"/>
+      <c r="CF15" s="56">
         <v>45104</v>
       </c>
-      <c r="CG15" s="62">
+      <c r="CG15" s="56">
         <v>45104</v>
       </c>
-      <c r="CH15" s="65"/>
-      <c r="CI15" s="65"/>
-      <c r="CJ15" s="65"/>
-      <c r="CK15" s="65"/>
+      <c r="CH15" s="53"/>
+      <c r="CI15" s="53"/>
+      <c r="CJ15" s="53"/>
+      <c r="CK15" s="53"/>
       <c r="CL15" s="14"/>
-      <c r="CM15" s="65"/>
-      <c r="CN15" s="62">
+      <c r="CM15" s="53"/>
+      <c r="CN15" s="56">
         <v>45105</v>
       </c>
-      <c r="CO15" s="62">
+      <c r="CO15" s="56">
         <v>45105</v>
       </c>
-      <c r="CP15" s="65"/>
-      <c r="CQ15" s="65"/>
-      <c r="CR15" s="65"/>
-      <c r="CS15" s="65"/>
-      <c r="CT15" s="62">
+      <c r="CP15" s="53"/>
+      <c r="CQ15" s="53"/>
+      <c r="CR15" s="53"/>
+      <c r="CS15" s="53"/>
+      <c r="CT15" s="56">
         <v>45105</v>
       </c>
-      <c r="CU15" s="62">
+      <c r="CU15" s="56">
         <v>45105</v>
       </c>
-      <c r="CV15" s="65"/>
-      <c r="CW15" s="65"/>
-      <c r="CX15" s="65"/>
-      <c r="CY15" s="65"/>
-      <c r="CZ15" s="65"/>
+      <c r="CV15" s="53"/>
+      <c r="CW15" s="53"/>
+      <c r="CX15" s="53"/>
+      <c r="CY15" s="53"/>
+      <c r="CZ15" s="53"/>
     </row>
     <row r="16" spans="2:104" ht="20.25" customHeight="1">
       <c r="B16" s="5">
@@ -5426,34 +5442,34 @@
       <c r="BU16" s="7"/>
       <c r="BV16" s="10"/>
       <c r="BW16" s="10"/>
-      <c r="BY16" s="66"/>
-      <c r="BZ16" s="63"/>
-      <c r="CA16" s="63"/>
-      <c r="CB16" s="66"/>
-      <c r="CC16" s="66"/>
-      <c r="CD16" s="66"/>
-      <c r="CE16" s="66"/>
-      <c r="CF16" s="63"/>
-      <c r="CG16" s="63"/>
-      <c r="CH16" s="66"/>
-      <c r="CI16" s="66"/>
-      <c r="CJ16" s="66"/>
-      <c r="CK16" s="66"/>
+      <c r="BY16" s="54"/>
+      <c r="BZ16" s="57"/>
+      <c r="CA16" s="57"/>
+      <c r="CB16" s="54"/>
+      <c r="CC16" s="54"/>
+      <c r="CD16" s="54"/>
+      <c r="CE16" s="54"/>
+      <c r="CF16" s="57"/>
+      <c r="CG16" s="57"/>
+      <c r="CH16" s="54"/>
+      <c r="CI16" s="54"/>
+      <c r="CJ16" s="54"/>
+      <c r="CK16" s="54"/>
       <c r="CL16" s="29"/>
-      <c r="CM16" s="66"/>
-      <c r="CN16" s="63"/>
-      <c r="CO16" s="63"/>
-      <c r="CP16" s="66"/>
-      <c r="CQ16" s="66"/>
-      <c r="CR16" s="66"/>
-      <c r="CS16" s="66"/>
-      <c r="CT16" s="63"/>
-      <c r="CU16" s="63"/>
-      <c r="CV16" s="66"/>
-      <c r="CW16" s="66"/>
-      <c r="CX16" s="66"/>
-      <c r="CY16" s="66"/>
-      <c r="CZ16" s="66"/>
+      <c r="CM16" s="54"/>
+      <c r="CN16" s="57"/>
+      <c r="CO16" s="57"/>
+      <c r="CP16" s="54"/>
+      <c r="CQ16" s="54"/>
+      <c r="CR16" s="54"/>
+      <c r="CS16" s="54"/>
+      <c r="CT16" s="57"/>
+      <c r="CU16" s="57"/>
+      <c r="CV16" s="54"/>
+      <c r="CW16" s="54"/>
+      <c r="CX16" s="54"/>
+      <c r="CY16" s="54"/>
+      <c r="CZ16" s="54"/>
     </row>
     <row r="17" spans="2:104" ht="20.25" customHeight="1">
       <c r="B17" s="5">
@@ -5615,34 +5631,34 @@
       <c r="BU17" s="7"/>
       <c r="BV17" s="10"/>
       <c r="BW17" s="10"/>
-      <c r="BY17" s="66"/>
-      <c r="BZ17" s="63"/>
-      <c r="CA17" s="63"/>
-      <c r="CB17" s="66"/>
-      <c r="CC17" s="66"/>
-      <c r="CD17" s="66"/>
-      <c r="CE17" s="66"/>
-      <c r="CF17" s="63"/>
-      <c r="CG17" s="63"/>
-      <c r="CH17" s="66"/>
-      <c r="CI17" s="66"/>
-      <c r="CJ17" s="66"/>
-      <c r="CK17" s="66"/>
+      <c r="BY17" s="54"/>
+      <c r="BZ17" s="57"/>
+      <c r="CA17" s="57"/>
+      <c r="CB17" s="54"/>
+      <c r="CC17" s="54"/>
+      <c r="CD17" s="54"/>
+      <c r="CE17" s="54"/>
+      <c r="CF17" s="57"/>
+      <c r="CG17" s="57"/>
+      <c r="CH17" s="54"/>
+      <c r="CI17" s="54"/>
+      <c r="CJ17" s="54"/>
+      <c r="CK17" s="54"/>
       <c r="CL17" s="29"/>
-      <c r="CM17" s="66"/>
-      <c r="CN17" s="63"/>
-      <c r="CO17" s="63"/>
-      <c r="CP17" s="66"/>
-      <c r="CQ17" s="66"/>
-      <c r="CR17" s="66"/>
-      <c r="CS17" s="66"/>
-      <c r="CT17" s="63"/>
-      <c r="CU17" s="63"/>
-      <c r="CV17" s="66"/>
-      <c r="CW17" s="66"/>
-      <c r="CX17" s="66"/>
-      <c r="CY17" s="66"/>
-      <c r="CZ17" s="66"/>
+      <c r="CM17" s="54"/>
+      <c r="CN17" s="57"/>
+      <c r="CO17" s="57"/>
+      <c r="CP17" s="54"/>
+      <c r="CQ17" s="54"/>
+      <c r="CR17" s="54"/>
+      <c r="CS17" s="54"/>
+      <c r="CT17" s="57"/>
+      <c r="CU17" s="57"/>
+      <c r="CV17" s="54"/>
+      <c r="CW17" s="54"/>
+      <c r="CX17" s="54"/>
+      <c r="CY17" s="54"/>
+      <c r="CZ17" s="54"/>
     </row>
     <row r="18" spans="2:104" ht="20.25" customHeight="1">
       <c r="B18" s="5">
@@ -5805,34 +5821,34 @@
       <c r="BV18" s="10"/>
       <c r="BW18" s="10"/>
       <c r="BX18" s="11"/>
-      <c r="BY18" s="66"/>
-      <c r="BZ18" s="63"/>
-      <c r="CA18" s="63"/>
-      <c r="CB18" s="66"/>
-      <c r="CC18" s="66"/>
-      <c r="CD18" s="66"/>
-      <c r="CE18" s="66"/>
-      <c r="CF18" s="63"/>
-      <c r="CG18" s="63"/>
-      <c r="CH18" s="66"/>
-      <c r="CI18" s="66"/>
-      <c r="CJ18" s="66"/>
-      <c r="CK18" s="66"/>
+      <c r="BY18" s="54"/>
+      <c r="BZ18" s="57"/>
+      <c r="CA18" s="57"/>
+      <c r="CB18" s="54"/>
+      <c r="CC18" s="54"/>
+      <c r="CD18" s="54"/>
+      <c r="CE18" s="54"/>
+      <c r="CF18" s="57"/>
+      <c r="CG18" s="57"/>
+      <c r="CH18" s="54"/>
+      <c r="CI18" s="54"/>
+      <c r="CJ18" s="54"/>
+      <c r="CK18" s="54"/>
       <c r="CL18" s="29"/>
-      <c r="CM18" s="66"/>
-      <c r="CN18" s="63"/>
-      <c r="CO18" s="63"/>
-      <c r="CP18" s="66"/>
-      <c r="CQ18" s="66"/>
-      <c r="CR18" s="66"/>
-      <c r="CS18" s="66"/>
-      <c r="CT18" s="63"/>
-      <c r="CU18" s="63"/>
-      <c r="CV18" s="66"/>
-      <c r="CW18" s="66"/>
-      <c r="CX18" s="66"/>
-      <c r="CY18" s="66"/>
-      <c r="CZ18" s="66"/>
+      <c r="CM18" s="54"/>
+      <c r="CN18" s="57"/>
+      <c r="CO18" s="57"/>
+      <c r="CP18" s="54"/>
+      <c r="CQ18" s="54"/>
+      <c r="CR18" s="54"/>
+      <c r="CS18" s="54"/>
+      <c r="CT18" s="57"/>
+      <c r="CU18" s="57"/>
+      <c r="CV18" s="54"/>
+      <c r="CW18" s="54"/>
+      <c r="CX18" s="54"/>
+      <c r="CY18" s="54"/>
+      <c r="CZ18" s="54"/>
     </row>
     <row r="19" spans="2:104" ht="20.25" customHeight="1">
       <c r="B19" s="5">
@@ -5995,34 +6011,34 @@
       <c r="BV19" s="10"/>
       <c r="BW19" s="10"/>
       <c r="BX19" s="11"/>
-      <c r="BY19" s="66"/>
-      <c r="BZ19" s="63"/>
-      <c r="CA19" s="63"/>
-      <c r="CB19" s="66"/>
-      <c r="CC19" s="66"/>
-      <c r="CD19" s="66"/>
-      <c r="CE19" s="66"/>
-      <c r="CF19" s="63"/>
-      <c r="CG19" s="63"/>
-      <c r="CH19" s="66"/>
-      <c r="CI19" s="66"/>
-      <c r="CJ19" s="66"/>
-      <c r="CK19" s="66"/>
+      <c r="BY19" s="54"/>
+      <c r="BZ19" s="57"/>
+      <c r="CA19" s="57"/>
+      <c r="CB19" s="54"/>
+      <c r="CC19" s="54"/>
+      <c r="CD19" s="54"/>
+      <c r="CE19" s="54"/>
+      <c r="CF19" s="57"/>
+      <c r="CG19" s="57"/>
+      <c r="CH19" s="54"/>
+      <c r="CI19" s="54"/>
+      <c r="CJ19" s="54"/>
+      <c r="CK19" s="54"/>
       <c r="CL19" s="29"/>
-      <c r="CM19" s="66"/>
-      <c r="CN19" s="63"/>
-      <c r="CO19" s="63"/>
-      <c r="CP19" s="66"/>
-      <c r="CQ19" s="66"/>
-      <c r="CR19" s="66"/>
-      <c r="CS19" s="66"/>
-      <c r="CT19" s="63"/>
-      <c r="CU19" s="63"/>
-      <c r="CV19" s="66"/>
-      <c r="CW19" s="66"/>
-      <c r="CX19" s="66"/>
-      <c r="CY19" s="66"/>
-      <c r="CZ19" s="66"/>
+      <c r="CM19" s="54"/>
+      <c r="CN19" s="57"/>
+      <c r="CO19" s="57"/>
+      <c r="CP19" s="54"/>
+      <c r="CQ19" s="54"/>
+      <c r="CR19" s="54"/>
+      <c r="CS19" s="54"/>
+      <c r="CT19" s="57"/>
+      <c r="CU19" s="57"/>
+      <c r="CV19" s="54"/>
+      <c r="CW19" s="54"/>
+      <c r="CX19" s="54"/>
+      <c r="CY19" s="54"/>
+      <c r="CZ19" s="54"/>
     </row>
     <row r="20" spans="2:104" ht="20.25" customHeight="1">
       <c r="B20" s="5">
@@ -6185,34 +6201,34 @@
       <c r="BV20" s="10"/>
       <c r="BW20" s="10"/>
       <c r="BX20" s="11"/>
-      <c r="BY20" s="66"/>
-      <c r="BZ20" s="63"/>
-      <c r="CA20" s="63"/>
-      <c r="CB20" s="66"/>
-      <c r="CC20" s="66"/>
-      <c r="CD20" s="66"/>
-      <c r="CE20" s="66"/>
-      <c r="CF20" s="63"/>
-      <c r="CG20" s="63"/>
-      <c r="CH20" s="66"/>
-      <c r="CI20" s="66"/>
-      <c r="CJ20" s="66"/>
-      <c r="CK20" s="66"/>
+      <c r="BY20" s="54"/>
+      <c r="BZ20" s="57"/>
+      <c r="CA20" s="57"/>
+      <c r="CB20" s="54"/>
+      <c r="CC20" s="54"/>
+      <c r="CD20" s="54"/>
+      <c r="CE20" s="54"/>
+      <c r="CF20" s="57"/>
+      <c r="CG20" s="57"/>
+      <c r="CH20" s="54"/>
+      <c r="CI20" s="54"/>
+      <c r="CJ20" s="54"/>
+      <c r="CK20" s="54"/>
       <c r="CL20" s="29"/>
-      <c r="CM20" s="66"/>
-      <c r="CN20" s="63"/>
-      <c r="CO20" s="63"/>
-      <c r="CP20" s="66"/>
-      <c r="CQ20" s="66"/>
-      <c r="CR20" s="66"/>
-      <c r="CS20" s="66"/>
-      <c r="CT20" s="63"/>
-      <c r="CU20" s="63"/>
-      <c r="CV20" s="66"/>
-      <c r="CW20" s="66"/>
-      <c r="CX20" s="66"/>
-      <c r="CY20" s="66"/>
-      <c r="CZ20" s="66"/>
+      <c r="CM20" s="54"/>
+      <c r="CN20" s="57"/>
+      <c r="CO20" s="57"/>
+      <c r="CP20" s="54"/>
+      <c r="CQ20" s="54"/>
+      <c r="CR20" s="54"/>
+      <c r="CS20" s="54"/>
+      <c r="CT20" s="57"/>
+      <c r="CU20" s="57"/>
+      <c r="CV20" s="54"/>
+      <c r="CW20" s="54"/>
+      <c r="CX20" s="54"/>
+      <c r="CY20" s="54"/>
+      <c r="CZ20" s="54"/>
     </row>
     <row r="21" spans="2:104" ht="20.25" customHeight="1">
       <c r="B21" s="5">
@@ -6375,34 +6391,34 @@
       <c r="BV21" s="10"/>
       <c r="BW21" s="10"/>
       <c r="BX21" s="11"/>
-      <c r="BY21" s="66"/>
-      <c r="BZ21" s="63"/>
-      <c r="CA21" s="63"/>
-      <c r="CB21" s="66"/>
-      <c r="CC21" s="66"/>
-      <c r="CD21" s="66"/>
-      <c r="CE21" s="66"/>
-      <c r="CF21" s="63"/>
-      <c r="CG21" s="63"/>
-      <c r="CH21" s="66"/>
-      <c r="CI21" s="66"/>
-      <c r="CJ21" s="66"/>
-      <c r="CK21" s="66"/>
+      <c r="BY21" s="54"/>
+      <c r="BZ21" s="57"/>
+      <c r="CA21" s="57"/>
+      <c r="CB21" s="54"/>
+      <c r="CC21" s="54"/>
+      <c r="CD21" s="54"/>
+      <c r="CE21" s="54"/>
+      <c r="CF21" s="57"/>
+      <c r="CG21" s="57"/>
+      <c r="CH21" s="54"/>
+      <c r="CI21" s="54"/>
+      <c r="CJ21" s="54"/>
+      <c r="CK21" s="54"/>
       <c r="CL21" s="29"/>
-      <c r="CM21" s="66"/>
-      <c r="CN21" s="63"/>
-      <c r="CO21" s="63"/>
-      <c r="CP21" s="66"/>
-      <c r="CQ21" s="66"/>
-      <c r="CR21" s="66"/>
-      <c r="CS21" s="66"/>
-      <c r="CT21" s="63"/>
-      <c r="CU21" s="63"/>
-      <c r="CV21" s="66"/>
-      <c r="CW21" s="66"/>
-      <c r="CX21" s="66"/>
-      <c r="CY21" s="66"/>
-      <c r="CZ21" s="66"/>
+      <c r="CM21" s="54"/>
+      <c r="CN21" s="57"/>
+      <c r="CO21" s="57"/>
+      <c r="CP21" s="54"/>
+      <c r="CQ21" s="54"/>
+      <c r="CR21" s="54"/>
+      <c r="CS21" s="54"/>
+      <c r="CT21" s="57"/>
+      <c r="CU21" s="57"/>
+      <c r="CV21" s="54"/>
+      <c r="CW21" s="54"/>
+      <c r="CX21" s="54"/>
+      <c r="CY21" s="54"/>
+      <c r="CZ21" s="54"/>
     </row>
     <row r="22" spans="2:104" ht="20.25" customHeight="1">
       <c r="B22" s="5">
@@ -6561,34 +6577,34 @@
       <c r="BV22" s="49"/>
       <c r="BW22" s="49"/>
       <c r="BX22" s="13"/>
-      <c r="BY22" s="67"/>
-      <c r="BZ22" s="64"/>
-      <c r="CA22" s="64"/>
-      <c r="CB22" s="67"/>
-      <c r="CC22" s="67"/>
-      <c r="CD22" s="67"/>
-      <c r="CE22" s="67"/>
-      <c r="CF22" s="64"/>
-      <c r="CG22" s="64"/>
-      <c r="CH22" s="67"/>
-      <c r="CI22" s="67"/>
-      <c r="CJ22" s="67"/>
-      <c r="CK22" s="67"/>
+      <c r="BY22" s="55"/>
+      <c r="BZ22" s="58"/>
+      <c r="CA22" s="58"/>
+      <c r="CB22" s="55"/>
+      <c r="CC22" s="55"/>
+      <c r="CD22" s="55"/>
+      <c r="CE22" s="55"/>
+      <c r="CF22" s="58"/>
+      <c r="CG22" s="58"/>
+      <c r="CH22" s="55"/>
+      <c r="CI22" s="55"/>
+      <c r="CJ22" s="55"/>
+      <c r="CK22" s="55"/>
       <c r="CL22" s="14"/>
-      <c r="CM22" s="67"/>
-      <c r="CN22" s="64"/>
-      <c r="CO22" s="64"/>
-      <c r="CP22" s="67"/>
-      <c r="CQ22" s="67"/>
-      <c r="CR22" s="67"/>
-      <c r="CS22" s="67"/>
-      <c r="CT22" s="64"/>
-      <c r="CU22" s="64"/>
-      <c r="CV22" s="67"/>
-      <c r="CW22" s="67"/>
-      <c r="CX22" s="67"/>
-      <c r="CY22" s="67"/>
-      <c r="CZ22" s="67"/>
+      <c r="CM22" s="55"/>
+      <c r="CN22" s="58"/>
+      <c r="CO22" s="58"/>
+      <c r="CP22" s="55"/>
+      <c r="CQ22" s="55"/>
+      <c r="CR22" s="55"/>
+      <c r="CS22" s="55"/>
+      <c r="CT22" s="58"/>
+      <c r="CU22" s="58"/>
+      <c r="CV22" s="55"/>
+      <c r="CW22" s="55"/>
+      <c r="CX22" s="55"/>
+      <c r="CY22" s="55"/>
+      <c r="CZ22" s="55"/>
     </row>
     <row r="23" spans="2:104" ht="20.25" customHeight="1">
       <c r="BX23" s="11"/>
@@ -6600,41 +6616,84 @@
     </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="CZ7:CZ13"/>
-    <mergeCell ref="CQ15:CQ22"/>
-    <mergeCell ref="CR15:CR22"/>
-    <mergeCell ref="CS15:CS22"/>
-    <mergeCell ref="CV7:CV13"/>
-    <mergeCell ref="CW7:CW13"/>
-    <mergeCell ref="BZ7:BZ14"/>
-    <mergeCell ref="CA7:CA14"/>
-    <mergeCell ref="CF7:CF14"/>
-    <mergeCell ref="CG7:CG14"/>
-    <mergeCell ref="CN7:CN14"/>
-    <mergeCell ref="CO7:CO14"/>
-    <mergeCell ref="CT7:CT14"/>
-    <mergeCell ref="CU7:CU14"/>
-    <mergeCell ref="CM7:CM13"/>
-    <mergeCell ref="BY15:BY22"/>
-    <mergeCell ref="BZ15:BZ22"/>
-    <mergeCell ref="CA15:CA22"/>
-    <mergeCell ref="CB15:CB22"/>
-    <mergeCell ref="CC15:CC22"/>
-    <mergeCell ref="CD15:CD22"/>
-    <mergeCell ref="CM15:CM22"/>
-    <mergeCell ref="CN15:CN22"/>
-    <mergeCell ref="CO15:CO22"/>
-    <mergeCell ref="CE15:CE22"/>
-    <mergeCell ref="CF15:CF22"/>
-    <mergeCell ref="CX15:CX22"/>
-    <mergeCell ref="CY15:CY22"/>
-    <mergeCell ref="CB7:CB13"/>
-    <mergeCell ref="CC7:CC13"/>
-    <mergeCell ref="CD7:CD13"/>
-    <mergeCell ref="CE7:CE13"/>
-    <mergeCell ref="CH7:CH13"/>
-    <mergeCell ref="CI7:CI13"/>
-    <mergeCell ref="CJ7:CJ13"/>
+    <mergeCell ref="CE4:CK4"/>
+    <mergeCell ref="CM4:CR4"/>
+    <mergeCell ref="CS4:CZ4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:R4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="CF5:CG5"/>
+    <mergeCell ref="BP4:BW4"/>
+    <mergeCell ref="BY4:CD4"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="Z4:AF4"/>
+    <mergeCell ref="AH4:AM4"/>
+    <mergeCell ref="AN4:AT4"/>
+    <mergeCell ref="AV4:BA4"/>
+    <mergeCell ref="BB4:BH4"/>
+    <mergeCell ref="BJ4:BO4"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="BM5:BN5"/>
+    <mergeCell ref="BQ5:BR5"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="CV15:CV22"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CK5:CK6"/>
+    <mergeCell ref="CN5:CO5"/>
+    <mergeCell ref="CP5:CQ5"/>
+    <mergeCell ref="CM5:CM6"/>
+    <mergeCell ref="CH5:CI5"/>
+    <mergeCell ref="CE5:CE6"/>
     <mergeCell ref="CK7:CK13"/>
     <mergeCell ref="CP7:CP13"/>
     <mergeCell ref="CQ7:CQ13"/>
@@ -6659,84 +6718,41 @@
     <mergeCell ref="CS7:CS13"/>
     <mergeCell ref="CT15:CT22"/>
     <mergeCell ref="CU15:CU22"/>
-    <mergeCell ref="CV15:CV22"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CK5:CK6"/>
-    <mergeCell ref="CN5:CO5"/>
-    <mergeCell ref="CP5:CQ5"/>
-    <mergeCell ref="CM5:CM6"/>
-    <mergeCell ref="CH5:CI5"/>
-    <mergeCell ref="CE5:CE6"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="CF5:CG5"/>
-    <mergeCell ref="BP4:BW4"/>
-    <mergeCell ref="BY4:CD4"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="Z4:AF4"/>
-    <mergeCell ref="AH4:AM4"/>
-    <mergeCell ref="AN4:AT4"/>
-    <mergeCell ref="AV4:BA4"/>
-    <mergeCell ref="BB4:BH4"/>
-    <mergeCell ref="BJ4:BO4"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="BZ5:CA5"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BW5:BW6"/>
-    <mergeCell ref="BY5:BY6"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="CE4:CK4"/>
-    <mergeCell ref="CM4:CR4"/>
-    <mergeCell ref="CS4:CZ4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:R4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="BY15:BY22"/>
+    <mergeCell ref="BZ15:BZ22"/>
+    <mergeCell ref="CA15:CA22"/>
+    <mergeCell ref="CB15:CB22"/>
+    <mergeCell ref="CC15:CC22"/>
+    <mergeCell ref="CD15:CD22"/>
+    <mergeCell ref="CM15:CM22"/>
+    <mergeCell ref="CN15:CN22"/>
+    <mergeCell ref="CO15:CO22"/>
+    <mergeCell ref="CE15:CE22"/>
+    <mergeCell ref="CF15:CF22"/>
+    <mergeCell ref="CZ7:CZ13"/>
+    <mergeCell ref="CQ15:CQ22"/>
+    <mergeCell ref="CR15:CR22"/>
+    <mergeCell ref="CS15:CS22"/>
+    <mergeCell ref="CV7:CV13"/>
+    <mergeCell ref="CW7:CW13"/>
+    <mergeCell ref="BZ7:BZ14"/>
+    <mergeCell ref="CA7:CA14"/>
+    <mergeCell ref="CF7:CF14"/>
+    <mergeCell ref="CG7:CG14"/>
+    <mergeCell ref="CN7:CN14"/>
+    <mergeCell ref="CO7:CO14"/>
+    <mergeCell ref="CT7:CT14"/>
+    <mergeCell ref="CU7:CU14"/>
+    <mergeCell ref="CM7:CM13"/>
+    <mergeCell ref="CX15:CX22"/>
+    <mergeCell ref="CY15:CY22"/>
+    <mergeCell ref="CB7:CB13"/>
+    <mergeCell ref="CC7:CC13"/>
+    <mergeCell ref="CD7:CD13"/>
+    <mergeCell ref="CE7:CE13"/>
+    <mergeCell ref="CH7:CH13"/>
+    <mergeCell ref="CI7:CI13"/>
+    <mergeCell ref="CJ7:CJ13"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="F7:K14">
@@ -6929,11 +6945,6 @@
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM7:AM14">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>$AK7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Z7:Z22">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>$P7&lt;&gt;""</formula>

--- a/スケジュール（2023-06）.xlsx
+++ b/スケジュール（2023-06）.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1d661fd30cf1332e/桌面/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{5E11A934-0EEF-46C5-922A-3EF15365A505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E415207-77E3-4775-9258-8694E3ABA0C9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330598B1-69A3-46D6-BEB4-41AFDBA60785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12300" tabRatio="910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15390" yWindow="975" windowWidth="13050" windowHeight="11535" tabRatio="910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="体制図" sheetId="11" r:id="rId1"/>
@@ -26,19 +26,6 @@
     <sheet name="8_勤怠承認詳細" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -813,6 +800,36 @@
     <xf numFmtId="176" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -831,36 +848,6 @@
     <xf numFmtId="176" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
@@ -868,14 +855,7 @@
     <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準_システム管理" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="43">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="42">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2885,20 +2865,20 @@
   <dimension ref="B3:CZ24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="S7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="S10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AM7" sqref="AM7:AM14"/>
+      <selection pane="bottomRight" activeCell="AI12" sqref="AI12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="18.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.58203125" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="8.6640625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="16.796875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="18.69921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.59765625" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="8.69921875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="8" max="11" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="13" max="18" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -2907,423 +2887,423 @@
     <col min="21" max="25" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="26" max="26" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="27" max="29" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="7.58203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="7.59765625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="31" max="32" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="1.58203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="1.59765625" style="1" customWidth="1" collapsed="1"/>
     <col min="34" max="34" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="35" max="39" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="40" max="40" width="13" style="2" customWidth="1" outlineLevel="1"/>
     <col min="41" max="46" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="47" max="47" width="1.58203125" style="1" customWidth="1"/>
+    <col min="47" max="47" width="1.59765625" style="1" customWidth="1"/>
     <col min="48" max="48" width="13" style="2" customWidth="1" outlineLevel="1"/>
     <col min="49" max="53" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="54" max="54" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="55" max="60" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="61" max="61" width="1.58203125" style="1" customWidth="1"/>
+    <col min="61" max="61" width="1.59765625" style="1" customWidth="1"/>
     <col min="62" max="62" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="63" max="67" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="68" max="68" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="69" max="75" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="76" max="76" width="1.58203125" style="1" customWidth="1"/>
-    <col min="77" max="77" width="6.58203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="76" max="76" width="1.59765625" style="1" customWidth="1"/>
+    <col min="77" max="77" width="6.59765625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="78" max="81" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
     <col min="82" max="83" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="84" max="85" width="6.5" style="33" customWidth="1" outlineLevel="1"/>
     <col min="86" max="87" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
     <col min="88" max="89" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="90" max="90" width="1.58203125" style="1" customWidth="1"/>
-    <col min="91" max="91" width="6.58203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="90" max="90" width="1.59765625" style="1" customWidth="1"/>
+    <col min="91" max="91" width="6.59765625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="92" max="93" width="6.5" style="33" customWidth="1" outlineLevel="1"/>
     <col min="94" max="95" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
     <col min="96" max="97" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="98" max="99" width="6.5" style="33" customWidth="1" outlineLevel="1"/>
     <col min="100" max="101" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
     <col min="102" max="104" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="105" max="105" width="1.58203125" style="1" customWidth="1"/>
+    <col min="105" max="105" width="1.59765625" style="1" customWidth="1"/>
     <col min="106" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:104" ht="23.5">
+    <row r="3" spans="2:104" ht="23.4">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:104" s="20" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="60" t="s">
+      <c r="E4" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="60"/>
-      <c r="H4" s="60"/>
-      <c r="I4" s="60"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60" t="s">
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="T4" s="60" t="s">
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="T4" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="U4" s="60"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="60"/>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="60" t="s">
+      <c r="U4" s="54"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="60"/>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="60"/>
-      <c r="AE4" s="60"/>
-      <c r="AF4" s="60"/>
-      <c r="AH4" s="60" t="s">
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="54"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AH4" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="AI4" s="60"/>
-      <c r="AJ4" s="60"/>
-      <c r="AK4" s="60"/>
-      <c r="AL4" s="60"/>
-      <c r="AM4" s="60"/>
-      <c r="AN4" s="60" t="s">
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="AO4" s="60"/>
-      <c r="AP4" s="60"/>
-      <c r="AQ4" s="60"/>
-      <c r="AR4" s="60"/>
-      <c r="AS4" s="60"/>
-      <c r="AT4" s="64"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="54"/>
+      <c r="AQ4" s="54"/>
+      <c r="AR4" s="54"/>
+      <c r="AS4" s="54"/>
+      <c r="AT4" s="55"/>
       <c r="AU4" s="21"/>
-      <c r="AV4" s="60" t="s">
+      <c r="AV4" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="AW4" s="60"/>
-      <c r="AX4" s="60"/>
-      <c r="AY4" s="60"/>
-      <c r="AZ4" s="60"/>
-      <c r="BA4" s="60"/>
-      <c r="BB4" s="60" t="s">
+      <c r="AW4" s="54"/>
+      <c r="AX4" s="54"/>
+      <c r="AY4" s="54"/>
+      <c r="AZ4" s="54"/>
+      <c r="BA4" s="54"/>
+      <c r="BB4" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="BC4" s="60"/>
-      <c r="BD4" s="60"/>
-      <c r="BE4" s="60"/>
-      <c r="BF4" s="60"/>
-      <c r="BG4" s="60"/>
-      <c r="BH4" s="60"/>
+      <c r="BC4" s="54"/>
+      <c r="BD4" s="54"/>
+      <c r="BE4" s="54"/>
+      <c r="BF4" s="54"/>
+      <c r="BG4" s="54"/>
+      <c r="BH4" s="54"/>
       <c r="BI4" s="22"/>
-      <c r="BJ4" s="65" t="s">
+      <c r="BJ4" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="BK4" s="60"/>
-      <c r="BL4" s="60"/>
-      <c r="BM4" s="60"/>
-      <c r="BN4" s="60"/>
-      <c r="BO4" s="60"/>
-      <c r="BP4" s="60" t="s">
+      <c r="BK4" s="54"/>
+      <c r="BL4" s="54"/>
+      <c r="BM4" s="54"/>
+      <c r="BN4" s="54"/>
+      <c r="BO4" s="54"/>
+      <c r="BP4" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="BQ4" s="60"/>
-      <c r="BR4" s="60"/>
-      <c r="BS4" s="60"/>
-      <c r="BT4" s="60"/>
-      <c r="BU4" s="60"/>
-      <c r="BV4" s="60"/>
-      <c r="BW4" s="60"/>
-      <c r="BY4" s="60" t="s">
+      <c r="BQ4" s="54"/>
+      <c r="BR4" s="54"/>
+      <c r="BS4" s="54"/>
+      <c r="BT4" s="54"/>
+      <c r="BU4" s="54"/>
+      <c r="BV4" s="54"/>
+      <c r="BW4" s="54"/>
+      <c r="BY4" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="BZ4" s="60"/>
-      <c r="CA4" s="60"/>
-      <c r="CB4" s="60"/>
-      <c r="CC4" s="60"/>
-      <c r="CD4" s="60"/>
-      <c r="CE4" s="60" t="s">
+      <c r="BZ4" s="54"/>
+      <c r="CA4" s="54"/>
+      <c r="CB4" s="54"/>
+      <c r="CC4" s="54"/>
+      <c r="CD4" s="54"/>
+      <c r="CE4" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="CF4" s="60"/>
-      <c r="CG4" s="60"/>
-      <c r="CH4" s="60"/>
-      <c r="CI4" s="60"/>
-      <c r="CJ4" s="60"/>
-      <c r="CK4" s="64"/>
+      <c r="CF4" s="54"/>
+      <c r="CG4" s="54"/>
+      <c r="CH4" s="54"/>
+      <c r="CI4" s="54"/>
+      <c r="CJ4" s="54"/>
+      <c r="CK4" s="55"/>
       <c r="CL4" s="23"/>
-      <c r="CM4" s="65" t="s">
+      <c r="CM4" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="CN4" s="60"/>
-      <c r="CO4" s="60"/>
-      <c r="CP4" s="60"/>
-      <c r="CQ4" s="60"/>
-      <c r="CR4" s="60"/>
-      <c r="CS4" s="60" t="s">
+      <c r="CN4" s="54"/>
+      <c r="CO4" s="54"/>
+      <c r="CP4" s="54"/>
+      <c r="CQ4" s="54"/>
+      <c r="CR4" s="54"/>
+      <c r="CS4" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="CT4" s="60"/>
-      <c r="CU4" s="60"/>
-      <c r="CV4" s="60"/>
-      <c r="CW4" s="60"/>
-      <c r="CX4" s="60"/>
-      <c r="CY4" s="60"/>
-      <c r="CZ4" s="60"/>
+      <c r="CT4" s="54"/>
+      <c r="CU4" s="54"/>
+      <c r="CV4" s="54"/>
+      <c r="CW4" s="54"/>
+      <c r="CX4" s="54"/>
+      <c r="CY4" s="54"/>
+      <c r="CZ4" s="54"/>
     </row>
-    <row r="5" spans="2:104" ht="21.65" customHeight="1">
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="60" t="s">
+    <row r="5" spans="2:104" ht="21.6" customHeight="1">
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66" t="s">
+      <c r="H5" s="57"/>
+      <c r="I5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="66"/>
-      <c r="K5" s="59" t="s">
+      <c r="J5" s="57"/>
+      <c r="K5" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="60" t="s">
+      <c r="L5" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="66" t="s">
+      <c r="M5" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66" t="s">
+      <c r="N5" s="57"/>
+      <c r="O5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="59" t="s">
+      <c r="P5" s="57"/>
+      <c r="Q5" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="59" t="s">
+      <c r="R5" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="60" t="s">
+      <c r="T5" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="66" t="s">
+      <c r="U5" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66" t="s">
+      <c r="V5" s="57"/>
+      <c r="W5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="59" t="s">
+      <c r="X5" s="57"/>
+      <c r="Y5" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="60" t="s">
+      <c r="Z5" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="AA5" s="66" t="s">
+      <c r="AA5" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="66" t="s">
+      <c r="AB5" s="57"/>
+      <c r="AC5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="AD5" s="66"/>
-      <c r="AE5" s="59" t="s">
+      <c r="AD5" s="57"/>
+      <c r="AE5" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="AF5" s="59" t="s">
+      <c r="AF5" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="AH5" s="60" t="s">
+      <c r="AH5" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="AI5" s="66" t="s">
+      <c r="AI5" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AJ5" s="66"/>
-      <c r="AK5" s="66" t="s">
+      <c r="AJ5" s="57"/>
+      <c r="AK5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="AL5" s="66"/>
-      <c r="AM5" s="59" t="s">
+      <c r="AL5" s="57"/>
+      <c r="AM5" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="AN5" s="60" t="s">
+      <c r="AN5" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="AO5" s="66" t="s">
+      <c r="AO5" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AP5" s="66"/>
-      <c r="AQ5" s="66" t="s">
+      <c r="AP5" s="57"/>
+      <c r="AQ5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="AR5" s="66"/>
-      <c r="AS5" s="59" t="s">
+      <c r="AR5" s="57"/>
+      <c r="AS5" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="AT5" s="63" t="s">
+      <c r="AT5" s="60" t="s">
         <v>23</v>
       </c>
       <c r="AU5" s="13"/>
-      <c r="AV5" s="60" t="s">
+      <c r="AV5" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="AW5" s="66" t="s">
+      <c r="AW5" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="AX5" s="66"/>
-      <c r="AY5" s="66" t="s">
+      <c r="AX5" s="57"/>
+      <c r="AY5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="AZ5" s="66"/>
-      <c r="BA5" s="59" t="s">
+      <c r="AZ5" s="57"/>
+      <c r="BA5" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="BB5" s="60" t="s">
+      <c r="BB5" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="BC5" s="66" t="s">
+      <c r="BC5" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="BD5" s="66"/>
-      <c r="BE5" s="66" t="s">
+      <c r="BD5" s="57"/>
+      <c r="BE5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="BF5" s="66"/>
-      <c r="BG5" s="59" t="s">
+      <c r="BF5" s="57"/>
+      <c r="BG5" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="BH5" s="59" t="s">
+      <c r="BH5" s="58" t="s">
         <v>23</v>
       </c>
       <c r="BI5" s="14"/>
-      <c r="BJ5" s="65" t="s">
+      <c r="BJ5" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="BK5" s="66" t="s">
+      <c r="BK5" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="BL5" s="66"/>
-      <c r="BM5" s="66" t="s">
+      <c r="BL5" s="57"/>
+      <c r="BM5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="BN5" s="66"/>
-      <c r="BO5" s="59" t="s">
+      <c r="BN5" s="57"/>
+      <c r="BO5" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="BP5" s="60" t="s">
+      <c r="BP5" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="BQ5" s="66" t="s">
+      <c r="BQ5" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="BR5" s="66"/>
-      <c r="BS5" s="66" t="s">
+      <c r="BR5" s="57"/>
+      <c r="BS5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="BT5" s="66"/>
-      <c r="BU5" s="59" t="s">
+      <c r="BT5" s="57"/>
+      <c r="BU5" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="BV5" s="59" t="s">
+      <c r="BV5" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="BW5" s="59" t="s">
+      <c r="BW5" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="BY5" s="60" t="s">
+      <c r="BY5" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="BZ5" s="62" t="s">
+      <c r="BZ5" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="CA5" s="62"/>
-      <c r="CB5" s="62" t="s">
+      <c r="CA5" s="61"/>
+      <c r="CB5" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="CC5" s="62"/>
-      <c r="CD5" s="59" t="s">
+      <c r="CC5" s="61"/>
+      <c r="CD5" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="CE5" s="60" t="s">
+      <c r="CE5" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="CF5" s="61" t="s">
+      <c r="CF5" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="CG5" s="61"/>
-      <c r="CH5" s="62" t="s">
+      <c r="CG5" s="62"/>
+      <c r="CH5" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="CI5" s="62"/>
-      <c r="CJ5" s="59" t="s">
+      <c r="CI5" s="61"/>
+      <c r="CJ5" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="CK5" s="63" t="s">
+      <c r="CK5" s="60" t="s">
         <v>23</v>
       </c>
       <c r="CL5" s="11"/>
-      <c r="CM5" s="65" t="s">
+      <c r="CM5" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="CN5" s="61" t="s">
+      <c r="CN5" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="CO5" s="61"/>
-      <c r="CP5" s="62" t="s">
+      <c r="CO5" s="62"/>
+      <c r="CP5" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="CQ5" s="62"/>
-      <c r="CR5" s="59" t="s">
+      <c r="CQ5" s="61"/>
+      <c r="CR5" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="CS5" s="60" t="s">
+      <c r="CS5" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="CT5" s="61" t="s">
+      <c r="CT5" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="CU5" s="61"/>
-      <c r="CV5" s="62" t="s">
+      <c r="CU5" s="62"/>
+      <c r="CV5" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="CW5" s="62"/>
-      <c r="CX5" s="59" t="s">
+      <c r="CW5" s="61"/>
+      <c r="CX5" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="CY5" s="59" t="s">
+      <c r="CY5" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="CZ5" s="59" t="s">
+      <c r="CZ5" s="58" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:104" ht="14">
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="60"/>
+    <row r="6" spans="2:104" ht="14.4">
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="54"/>
       <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3336,8 +3316,8 @@
       <c r="J6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
       <c r="M6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3350,9 +3330,9 @@
       <c r="P6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="T6" s="60"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
+      <c r="T6" s="54"/>
       <c r="U6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3365,8 +3345,8 @@
       <c r="X6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="60"/>
+      <c r="Y6" s="54"/>
+      <c r="Z6" s="54"/>
       <c r="AA6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3379,9 +3359,9 @@
       <c r="AD6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AE6" s="60"/>
-      <c r="AF6" s="60"/>
-      <c r="AH6" s="60"/>
+      <c r="AE6" s="54"/>
+      <c r="AF6" s="54"/>
+      <c r="AH6" s="54"/>
       <c r="AI6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3394,8 +3374,8 @@
       <c r="AL6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AM6" s="60"/>
-      <c r="AN6" s="60"/>
+      <c r="AM6" s="54"/>
+      <c r="AN6" s="54"/>
       <c r="AO6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3408,10 +3388,10 @@
       <c r="AR6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AS6" s="60"/>
-      <c r="AT6" s="64"/>
+      <c r="AS6" s="54"/>
+      <c r="AT6" s="55"/>
       <c r="AU6" s="13"/>
-      <c r="AV6" s="60"/>
+      <c r="AV6" s="54"/>
       <c r="AW6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3424,8 +3404,8 @@
       <c r="AZ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BA6" s="60"/>
-      <c r="BB6" s="60"/>
+      <c r="BA6" s="54"/>
+      <c r="BB6" s="54"/>
       <c r="BC6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3438,10 +3418,10 @@
       <c r="BF6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BG6" s="60"/>
-      <c r="BH6" s="60"/>
+      <c r="BG6" s="54"/>
+      <c r="BH6" s="54"/>
       <c r="BI6" s="14"/>
-      <c r="BJ6" s="65"/>
+      <c r="BJ6" s="56"/>
       <c r="BK6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3454,8 +3434,8 @@
       <c r="BN6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BO6" s="60"/>
-      <c r="BP6" s="60"/>
+      <c r="BO6" s="54"/>
+      <c r="BP6" s="54"/>
       <c r="BQ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3468,10 +3448,10 @@
       <c r="BT6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BU6" s="60"/>
-      <c r="BV6" s="60"/>
-      <c r="BW6" s="60"/>
-      <c r="BY6" s="60"/>
+      <c r="BU6" s="54"/>
+      <c r="BV6" s="54"/>
+      <c r="BW6" s="54"/>
+      <c r="BY6" s="54"/>
       <c r="BZ6" s="31" t="s">
         <v>25</v>
       </c>
@@ -3484,8 +3464,8 @@
       <c r="CC6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CD6" s="60"/>
-      <c r="CE6" s="60"/>
+      <c r="CD6" s="54"/>
+      <c r="CE6" s="54"/>
       <c r="CF6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3498,10 +3478,10 @@
       <c r="CI6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CJ6" s="60"/>
-      <c r="CK6" s="64"/>
+      <c r="CJ6" s="54"/>
+      <c r="CK6" s="55"/>
       <c r="CL6" s="11"/>
-      <c r="CM6" s="65"/>
+      <c r="CM6" s="56"/>
       <c r="CN6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3514,8 +3494,8 @@
       <c r="CQ6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CR6" s="60"/>
-      <c r="CS6" s="60"/>
+      <c r="CR6" s="54"/>
+      <c r="CS6" s="54"/>
       <c r="CT6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3528,9 +3508,9 @@
       <c r="CW6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CX6" s="60"/>
-      <c r="CY6" s="60"/>
-      <c r="CZ6" s="60"/>
+      <c r="CX6" s="54"/>
+      <c r="CY6" s="54"/>
+      <c r="CZ6" s="54"/>
     </row>
     <row r="7" spans="2:104" ht="20.25" customHeight="1">
       <c r="B7" s="5">
@@ -3635,7 +3615,7 @@
         <v>45089</v>
       </c>
       <c r="AL7" s="6"/>
-      <c r="AM7" s="68">
+      <c r="AM7" s="53">
         <v>1</v>
       </c>
       <c r="AN7" s="17"/>
@@ -3694,50 +3674,50 @@
       <c r="BU7" s="7"/>
       <c r="BV7" s="10"/>
       <c r="BW7" s="10"/>
-      <c r="BY7" s="53"/>
-      <c r="BZ7" s="56">
+      <c r="BY7" s="63"/>
+      <c r="BZ7" s="66">
         <v>45104</v>
       </c>
-      <c r="CA7" s="56">
+      <c r="CA7" s="66">
         <v>45104</v>
       </c>
-      <c r="CB7" s="53"/>
-      <c r="CC7" s="53"/>
-      <c r="CD7" s="53"/>
-      <c r="CE7" s="53"/>
-      <c r="CF7" s="56">
+      <c r="CB7" s="63"/>
+      <c r="CC7" s="63"/>
+      <c r="CD7" s="63"/>
+      <c r="CE7" s="63"/>
+      <c r="CF7" s="66">
         <v>45104</v>
       </c>
-      <c r="CG7" s="56">
+      <c r="CG7" s="66">
         <v>45104</v>
       </c>
-      <c r="CH7" s="53"/>
-      <c r="CI7" s="53"/>
-      <c r="CJ7" s="53"/>
-      <c r="CK7" s="53"/>
+      <c r="CH7" s="63"/>
+      <c r="CI7" s="63"/>
+      <c r="CJ7" s="63"/>
+      <c r="CK7" s="63"/>
       <c r="CL7" s="14"/>
-      <c r="CM7" s="53"/>
-      <c r="CN7" s="56">
+      <c r="CM7" s="63"/>
+      <c r="CN7" s="66">
         <v>45105</v>
       </c>
-      <c r="CO7" s="56">
+      <c r="CO7" s="66">
         <v>45105</v>
       </c>
-      <c r="CP7" s="53"/>
-      <c r="CQ7" s="53"/>
-      <c r="CR7" s="53"/>
-      <c r="CS7" s="53"/>
-      <c r="CT7" s="56">
+      <c r="CP7" s="63"/>
+      <c r="CQ7" s="63"/>
+      <c r="CR7" s="63"/>
+      <c r="CS7" s="63"/>
+      <c r="CT7" s="66">
         <v>45105</v>
       </c>
-      <c r="CU7" s="56">
+      <c r="CU7" s="66">
         <v>45105</v>
       </c>
-      <c r="CV7" s="53"/>
-      <c r="CW7" s="53"/>
-      <c r="CX7" s="53"/>
-      <c r="CY7" s="53"/>
-      <c r="CZ7" s="53"/>
+      <c r="CV7" s="63"/>
+      <c r="CW7" s="63"/>
+      <c r="CX7" s="63"/>
+      <c r="CY7" s="63"/>
+      <c r="CZ7" s="63"/>
     </row>
     <row r="8" spans="2:104" ht="20.25" customHeight="1">
       <c r="B8" s="5">
@@ -3842,7 +3822,7 @@
         <v>45089</v>
       </c>
       <c r="AL8" s="6"/>
-      <c r="AM8" s="68">
+      <c r="AM8" s="53">
         <v>0.1</v>
       </c>
       <c r="AN8" s="17"/>
@@ -3901,34 +3881,34 @@
       <c r="BU8" s="7"/>
       <c r="BV8" s="10"/>
       <c r="BW8" s="10"/>
-      <c r="BY8" s="54"/>
-      <c r="BZ8" s="57"/>
-      <c r="CA8" s="57"/>
-      <c r="CB8" s="54"/>
-      <c r="CC8" s="54"/>
-      <c r="CD8" s="54"/>
-      <c r="CE8" s="54"/>
-      <c r="CF8" s="57"/>
-      <c r="CG8" s="57"/>
-      <c r="CH8" s="54"/>
-      <c r="CI8" s="54"/>
-      <c r="CJ8" s="54"/>
-      <c r="CK8" s="54"/>
+      <c r="BY8" s="64"/>
+      <c r="BZ8" s="67"/>
+      <c r="CA8" s="67"/>
+      <c r="CB8" s="64"/>
+      <c r="CC8" s="64"/>
+      <c r="CD8" s="64"/>
+      <c r="CE8" s="64"/>
+      <c r="CF8" s="67"/>
+      <c r="CG8" s="67"/>
+      <c r="CH8" s="64"/>
+      <c r="CI8" s="64"/>
+      <c r="CJ8" s="64"/>
+      <c r="CK8" s="64"/>
       <c r="CL8" s="14"/>
-      <c r="CM8" s="54"/>
-      <c r="CN8" s="57"/>
-      <c r="CO8" s="57"/>
-      <c r="CP8" s="54"/>
-      <c r="CQ8" s="54"/>
-      <c r="CR8" s="54"/>
-      <c r="CS8" s="54"/>
-      <c r="CT8" s="57"/>
-      <c r="CU8" s="57"/>
-      <c r="CV8" s="54"/>
-      <c r="CW8" s="54"/>
-      <c r="CX8" s="54"/>
-      <c r="CY8" s="54"/>
-      <c r="CZ8" s="54"/>
+      <c r="CM8" s="64"/>
+      <c r="CN8" s="67"/>
+      <c r="CO8" s="67"/>
+      <c r="CP8" s="64"/>
+      <c r="CQ8" s="64"/>
+      <c r="CR8" s="64"/>
+      <c r="CS8" s="64"/>
+      <c r="CT8" s="67"/>
+      <c r="CU8" s="67"/>
+      <c r="CV8" s="64"/>
+      <c r="CW8" s="64"/>
+      <c r="CX8" s="64"/>
+      <c r="CY8" s="64"/>
+      <c r="CZ8" s="64"/>
     </row>
     <row r="9" spans="2:104" ht="20.25" customHeight="1">
       <c r="B9" s="5">
@@ -4031,7 +4011,7 @@
         <v>45089</v>
       </c>
       <c r="AL9" s="6"/>
-      <c r="AM9" s="68">
+      <c r="AM9" s="53">
         <v>0.8</v>
       </c>
       <c r="AN9" s="17"/>
@@ -4091,34 +4071,34 @@
       <c r="BV9" s="10"/>
       <c r="BW9" s="10"/>
       <c r="BX9" s="13"/>
-      <c r="BY9" s="54"/>
-      <c r="BZ9" s="57"/>
-      <c r="CA9" s="57"/>
-      <c r="CB9" s="54"/>
-      <c r="CC9" s="54"/>
-      <c r="CD9" s="54"/>
-      <c r="CE9" s="54"/>
-      <c r="CF9" s="57"/>
-      <c r="CG9" s="57"/>
-      <c r="CH9" s="54"/>
-      <c r="CI9" s="54"/>
-      <c r="CJ9" s="54"/>
-      <c r="CK9" s="54"/>
+      <c r="BY9" s="64"/>
+      <c r="BZ9" s="67"/>
+      <c r="CA9" s="67"/>
+      <c r="CB9" s="64"/>
+      <c r="CC9" s="64"/>
+      <c r="CD9" s="64"/>
+      <c r="CE9" s="64"/>
+      <c r="CF9" s="67"/>
+      <c r="CG9" s="67"/>
+      <c r="CH9" s="64"/>
+      <c r="CI9" s="64"/>
+      <c r="CJ9" s="64"/>
+      <c r="CK9" s="64"/>
       <c r="CL9" s="14"/>
-      <c r="CM9" s="54"/>
-      <c r="CN9" s="57"/>
-      <c r="CO9" s="57"/>
-      <c r="CP9" s="54"/>
-      <c r="CQ9" s="54"/>
-      <c r="CR9" s="54"/>
-      <c r="CS9" s="54"/>
-      <c r="CT9" s="57"/>
-      <c r="CU9" s="57"/>
-      <c r="CV9" s="54"/>
-      <c r="CW9" s="54"/>
-      <c r="CX9" s="54"/>
-      <c r="CY9" s="54"/>
-      <c r="CZ9" s="54"/>
+      <c r="CM9" s="64"/>
+      <c r="CN9" s="67"/>
+      <c r="CO9" s="67"/>
+      <c r="CP9" s="64"/>
+      <c r="CQ9" s="64"/>
+      <c r="CR9" s="64"/>
+      <c r="CS9" s="64"/>
+      <c r="CT9" s="67"/>
+      <c r="CU9" s="67"/>
+      <c r="CV9" s="64"/>
+      <c r="CW9" s="64"/>
+      <c r="CX9" s="64"/>
+      <c r="CY9" s="64"/>
+      <c r="CZ9" s="64"/>
     </row>
     <row r="10" spans="2:104" ht="20.25" customHeight="1">
       <c r="B10" s="5">
@@ -4223,7 +4203,7 @@
         <v>45089</v>
       </c>
       <c r="AL10" s="6"/>
-      <c r="AM10" s="68">
+      <c r="AM10" s="53">
         <v>0.2</v>
       </c>
       <c r="AN10" s="17"/>
@@ -4283,34 +4263,34 @@
       <c r="BV10" s="10"/>
       <c r="BW10" s="10"/>
       <c r="BX10" s="13"/>
-      <c r="BY10" s="54"/>
-      <c r="BZ10" s="57"/>
-      <c r="CA10" s="57"/>
-      <c r="CB10" s="54"/>
-      <c r="CC10" s="54"/>
-      <c r="CD10" s="54"/>
-      <c r="CE10" s="54"/>
-      <c r="CF10" s="57"/>
-      <c r="CG10" s="57"/>
-      <c r="CH10" s="54"/>
-      <c r="CI10" s="54"/>
-      <c r="CJ10" s="54"/>
-      <c r="CK10" s="54"/>
+      <c r="BY10" s="64"/>
+      <c r="BZ10" s="67"/>
+      <c r="CA10" s="67"/>
+      <c r="CB10" s="64"/>
+      <c r="CC10" s="64"/>
+      <c r="CD10" s="64"/>
+      <c r="CE10" s="64"/>
+      <c r="CF10" s="67"/>
+      <c r="CG10" s="67"/>
+      <c r="CH10" s="64"/>
+      <c r="CI10" s="64"/>
+      <c r="CJ10" s="64"/>
+      <c r="CK10" s="64"/>
       <c r="CL10" s="14"/>
-      <c r="CM10" s="54"/>
-      <c r="CN10" s="57"/>
-      <c r="CO10" s="57"/>
-      <c r="CP10" s="54"/>
-      <c r="CQ10" s="54"/>
-      <c r="CR10" s="54"/>
-      <c r="CS10" s="54"/>
-      <c r="CT10" s="57"/>
-      <c r="CU10" s="57"/>
-      <c r="CV10" s="54"/>
-      <c r="CW10" s="54"/>
-      <c r="CX10" s="54"/>
-      <c r="CY10" s="54"/>
-      <c r="CZ10" s="54"/>
+      <c r="CM10" s="64"/>
+      <c r="CN10" s="67"/>
+      <c r="CO10" s="67"/>
+      <c r="CP10" s="64"/>
+      <c r="CQ10" s="64"/>
+      <c r="CR10" s="64"/>
+      <c r="CS10" s="64"/>
+      <c r="CT10" s="67"/>
+      <c r="CU10" s="67"/>
+      <c r="CV10" s="64"/>
+      <c r="CW10" s="64"/>
+      <c r="CX10" s="64"/>
+      <c r="CY10" s="64"/>
+      <c r="CZ10" s="64"/>
     </row>
     <row r="11" spans="2:104" ht="20.25" customHeight="1">
       <c r="B11" s="5">
@@ -4413,7 +4393,7 @@
         <v>45089</v>
       </c>
       <c r="AL11" s="6"/>
-      <c r="AM11" s="68">
+      <c r="AM11" s="53">
         <v>0.2</v>
       </c>
       <c r="AN11" s="17"/>
@@ -4473,34 +4453,34 @@
       <c r="BV11" s="10"/>
       <c r="BW11" s="10"/>
       <c r="BX11" s="13"/>
-      <c r="BY11" s="54"/>
-      <c r="BZ11" s="57"/>
-      <c r="CA11" s="57"/>
-      <c r="CB11" s="54"/>
-      <c r="CC11" s="54"/>
-      <c r="CD11" s="54"/>
-      <c r="CE11" s="54"/>
-      <c r="CF11" s="57"/>
-      <c r="CG11" s="57"/>
-      <c r="CH11" s="54"/>
-      <c r="CI11" s="54"/>
-      <c r="CJ11" s="54"/>
-      <c r="CK11" s="54"/>
+      <c r="BY11" s="64"/>
+      <c r="BZ11" s="67"/>
+      <c r="CA11" s="67"/>
+      <c r="CB11" s="64"/>
+      <c r="CC11" s="64"/>
+      <c r="CD11" s="64"/>
+      <c r="CE11" s="64"/>
+      <c r="CF11" s="67"/>
+      <c r="CG11" s="67"/>
+      <c r="CH11" s="64"/>
+      <c r="CI11" s="64"/>
+      <c r="CJ11" s="64"/>
+      <c r="CK11" s="64"/>
       <c r="CL11" s="14"/>
-      <c r="CM11" s="54"/>
-      <c r="CN11" s="57"/>
-      <c r="CO11" s="57"/>
-      <c r="CP11" s="54"/>
-      <c r="CQ11" s="54"/>
-      <c r="CR11" s="54"/>
-      <c r="CS11" s="54"/>
-      <c r="CT11" s="57"/>
-      <c r="CU11" s="57"/>
-      <c r="CV11" s="54"/>
-      <c r="CW11" s="54"/>
-      <c r="CX11" s="54"/>
-      <c r="CY11" s="54"/>
-      <c r="CZ11" s="54"/>
+      <c r="CM11" s="64"/>
+      <c r="CN11" s="67"/>
+      <c r="CO11" s="67"/>
+      <c r="CP11" s="64"/>
+      <c r="CQ11" s="64"/>
+      <c r="CR11" s="64"/>
+      <c r="CS11" s="64"/>
+      <c r="CT11" s="67"/>
+      <c r="CU11" s="67"/>
+      <c r="CV11" s="64"/>
+      <c r="CW11" s="64"/>
+      <c r="CX11" s="64"/>
+      <c r="CY11" s="64"/>
+      <c r="CZ11" s="64"/>
     </row>
     <row r="12" spans="2:104" ht="20.25" customHeight="1">
       <c r="B12" s="5">
@@ -4603,7 +4583,7 @@
         <v>45089</v>
       </c>
       <c r="AL12" s="6"/>
-      <c r="AM12" s="68">
+      <c r="AM12" s="53">
         <v>0.8</v>
       </c>
       <c r="AN12" s="17"/>
@@ -4663,34 +4643,34 @@
       <c r="BV12" s="10"/>
       <c r="BW12" s="10"/>
       <c r="BX12" s="13"/>
-      <c r="BY12" s="54"/>
-      <c r="BZ12" s="57"/>
-      <c r="CA12" s="57"/>
-      <c r="CB12" s="54"/>
-      <c r="CC12" s="54"/>
-      <c r="CD12" s="54"/>
-      <c r="CE12" s="54"/>
-      <c r="CF12" s="57"/>
-      <c r="CG12" s="57"/>
-      <c r="CH12" s="54"/>
-      <c r="CI12" s="54"/>
-      <c r="CJ12" s="54"/>
-      <c r="CK12" s="54"/>
+      <c r="BY12" s="64"/>
+      <c r="BZ12" s="67"/>
+      <c r="CA12" s="67"/>
+      <c r="CB12" s="64"/>
+      <c r="CC12" s="64"/>
+      <c r="CD12" s="64"/>
+      <c r="CE12" s="64"/>
+      <c r="CF12" s="67"/>
+      <c r="CG12" s="67"/>
+      <c r="CH12" s="64"/>
+      <c r="CI12" s="64"/>
+      <c r="CJ12" s="64"/>
+      <c r="CK12" s="64"/>
       <c r="CL12" s="14"/>
-      <c r="CM12" s="54"/>
-      <c r="CN12" s="57"/>
-      <c r="CO12" s="57"/>
-      <c r="CP12" s="54"/>
-      <c r="CQ12" s="54"/>
-      <c r="CR12" s="54"/>
-      <c r="CS12" s="54"/>
-      <c r="CT12" s="57"/>
-      <c r="CU12" s="57"/>
-      <c r="CV12" s="54"/>
-      <c r="CW12" s="54"/>
-      <c r="CX12" s="54"/>
-      <c r="CY12" s="54"/>
-      <c r="CZ12" s="54"/>
+      <c r="CM12" s="64"/>
+      <c r="CN12" s="67"/>
+      <c r="CO12" s="67"/>
+      <c r="CP12" s="64"/>
+      <c r="CQ12" s="64"/>
+      <c r="CR12" s="64"/>
+      <c r="CS12" s="64"/>
+      <c r="CT12" s="67"/>
+      <c r="CU12" s="67"/>
+      <c r="CV12" s="64"/>
+      <c r="CW12" s="64"/>
+      <c r="CX12" s="64"/>
+      <c r="CY12" s="64"/>
+      <c r="CZ12" s="64"/>
     </row>
     <row r="13" spans="2:104" ht="20.25" customHeight="1">
       <c r="B13" s="5">
@@ -4795,7 +4775,7 @@
         <v>45089</v>
       </c>
       <c r="AL13" s="6"/>
-      <c r="AM13" s="68">
+      <c r="AM13" s="53">
         <v>0.8</v>
       </c>
       <c r="AN13" s="17"/>
@@ -4855,34 +4835,34 @@
       <c r="BV13" s="10"/>
       <c r="BW13" s="10"/>
       <c r="BX13" s="13"/>
-      <c r="BY13" s="54"/>
-      <c r="BZ13" s="57"/>
-      <c r="CA13" s="57"/>
-      <c r="CB13" s="54"/>
-      <c r="CC13" s="54"/>
-      <c r="CD13" s="54"/>
-      <c r="CE13" s="54"/>
-      <c r="CF13" s="57"/>
-      <c r="CG13" s="57"/>
-      <c r="CH13" s="54"/>
-      <c r="CI13" s="54"/>
-      <c r="CJ13" s="54"/>
-      <c r="CK13" s="54"/>
+      <c r="BY13" s="64"/>
+      <c r="BZ13" s="67"/>
+      <c r="CA13" s="67"/>
+      <c r="CB13" s="64"/>
+      <c r="CC13" s="64"/>
+      <c r="CD13" s="64"/>
+      <c r="CE13" s="64"/>
+      <c r="CF13" s="67"/>
+      <c r="CG13" s="67"/>
+      <c r="CH13" s="64"/>
+      <c r="CI13" s="64"/>
+      <c r="CJ13" s="64"/>
+      <c r="CK13" s="64"/>
       <c r="CL13" s="14"/>
-      <c r="CM13" s="54"/>
-      <c r="CN13" s="57"/>
-      <c r="CO13" s="57"/>
-      <c r="CP13" s="54"/>
-      <c r="CQ13" s="54"/>
-      <c r="CR13" s="54"/>
-      <c r="CS13" s="54"/>
-      <c r="CT13" s="57"/>
-      <c r="CU13" s="57"/>
-      <c r="CV13" s="54"/>
-      <c r="CW13" s="54"/>
-      <c r="CX13" s="54"/>
-      <c r="CY13" s="54"/>
-      <c r="CZ13" s="54"/>
+      <c r="CM13" s="64"/>
+      <c r="CN13" s="67"/>
+      <c r="CO13" s="67"/>
+      <c r="CP13" s="64"/>
+      <c r="CQ13" s="64"/>
+      <c r="CR13" s="64"/>
+      <c r="CS13" s="64"/>
+      <c r="CT13" s="67"/>
+      <c r="CU13" s="67"/>
+      <c r="CV13" s="64"/>
+      <c r="CW13" s="64"/>
+      <c r="CX13" s="64"/>
+      <c r="CY13" s="64"/>
+      <c r="CZ13" s="64"/>
     </row>
     <row r="14" spans="2:104" ht="20.25" customHeight="1">
       <c r="B14" s="5">
@@ -4987,7 +4967,7 @@
         <v>45089</v>
       </c>
       <c r="AL14" s="6"/>
-      <c r="AM14" s="68">
+      <c r="AM14" s="53">
         <v>0.1</v>
       </c>
       <c r="AN14" s="17"/>
@@ -5048,28 +5028,28 @@
       <c r="BW14" s="10"/>
       <c r="BX14" s="13"/>
       <c r="BY14" s="36"/>
-      <c r="BZ14" s="58"/>
-      <c r="CA14" s="58"/>
+      <c r="BZ14" s="68"/>
+      <c r="CA14" s="68"/>
       <c r="CB14" s="36"/>
       <c r="CC14" s="36"/>
       <c r="CD14" s="36"/>
       <c r="CE14" s="36"/>
-      <c r="CF14" s="58"/>
-      <c r="CG14" s="58"/>
+      <c r="CF14" s="68"/>
+      <c r="CG14" s="68"/>
       <c r="CH14" s="36"/>
       <c r="CI14" s="36"/>
       <c r="CJ14" s="36"/>
       <c r="CK14" s="36"/>
       <c r="CL14" s="14"/>
       <c r="CM14" s="36"/>
-      <c r="CN14" s="58"/>
-      <c r="CO14" s="58"/>
+      <c r="CN14" s="68"/>
+      <c r="CO14" s="68"/>
       <c r="CP14" s="36"/>
       <c r="CQ14" s="36"/>
       <c r="CR14" s="36"/>
       <c r="CS14" s="36"/>
-      <c r="CT14" s="58"/>
-      <c r="CU14" s="58"/>
+      <c r="CT14" s="68"/>
+      <c r="CU14" s="68"/>
       <c r="CV14" s="36"/>
       <c r="CW14" s="36"/>
       <c r="CX14" s="36"/>
@@ -5178,7 +5158,7 @@
       </c>
       <c r="AL15" s="6"/>
       <c r="AM15" s="7">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="AN15" s="17"/>
       <c r="AO15" s="52">
@@ -5237,50 +5217,50 @@
       <c r="BV15" s="10"/>
       <c r="BW15" s="10"/>
       <c r="BX15" s="13"/>
-      <c r="BY15" s="53"/>
-      <c r="BZ15" s="56">
+      <c r="BY15" s="63"/>
+      <c r="BZ15" s="66">
         <v>45104</v>
       </c>
-      <c r="CA15" s="56">
+      <c r="CA15" s="66">
         <v>45104</v>
       </c>
-      <c r="CB15" s="53"/>
-      <c r="CC15" s="53"/>
-      <c r="CD15" s="53"/>
-      <c r="CE15" s="53"/>
-      <c r="CF15" s="56">
+      <c r="CB15" s="63"/>
+      <c r="CC15" s="63"/>
+      <c r="CD15" s="63"/>
+      <c r="CE15" s="63"/>
+      <c r="CF15" s="66">
         <v>45104</v>
       </c>
-      <c r="CG15" s="56">
+      <c r="CG15" s="66">
         <v>45104</v>
       </c>
-      <c r="CH15" s="53"/>
-      <c r="CI15" s="53"/>
-      <c r="CJ15" s="53"/>
-      <c r="CK15" s="53"/>
+      <c r="CH15" s="63"/>
+      <c r="CI15" s="63"/>
+      <c r="CJ15" s="63"/>
+      <c r="CK15" s="63"/>
       <c r="CL15" s="14"/>
-      <c r="CM15" s="53"/>
-      <c r="CN15" s="56">
+      <c r="CM15" s="63"/>
+      <c r="CN15" s="66">
         <v>45105</v>
       </c>
-      <c r="CO15" s="56">
+      <c r="CO15" s="66">
         <v>45105</v>
       </c>
-      <c r="CP15" s="53"/>
-      <c r="CQ15" s="53"/>
-      <c r="CR15" s="53"/>
-      <c r="CS15" s="53"/>
-      <c r="CT15" s="56">
+      <c r="CP15" s="63"/>
+      <c r="CQ15" s="63"/>
+      <c r="CR15" s="63"/>
+      <c r="CS15" s="63"/>
+      <c r="CT15" s="66">
         <v>45105</v>
       </c>
-      <c r="CU15" s="56">
+      <c r="CU15" s="66">
         <v>45105</v>
       </c>
-      <c r="CV15" s="53"/>
-      <c r="CW15" s="53"/>
-      <c r="CX15" s="53"/>
-      <c r="CY15" s="53"/>
-      <c r="CZ15" s="53"/>
+      <c r="CV15" s="63"/>
+      <c r="CW15" s="63"/>
+      <c r="CX15" s="63"/>
+      <c r="CY15" s="63"/>
+      <c r="CZ15" s="63"/>
     </row>
     <row r="16" spans="2:104" ht="20.25" customHeight="1">
       <c r="B16" s="5">
@@ -5384,7 +5364,7 @@
       </c>
       <c r="AL16" s="6"/>
       <c r="AM16" s="7">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="AN16" s="17"/>
       <c r="AO16" s="52">
@@ -5442,34 +5422,34 @@
       <c r="BU16" s="7"/>
       <c r="BV16" s="10"/>
       <c r="BW16" s="10"/>
-      <c r="BY16" s="54"/>
-      <c r="BZ16" s="57"/>
-      <c r="CA16" s="57"/>
-      <c r="CB16" s="54"/>
-      <c r="CC16" s="54"/>
-      <c r="CD16" s="54"/>
-      <c r="CE16" s="54"/>
-      <c r="CF16" s="57"/>
-      <c r="CG16" s="57"/>
-      <c r="CH16" s="54"/>
-      <c r="CI16" s="54"/>
-      <c r="CJ16" s="54"/>
-      <c r="CK16" s="54"/>
+      <c r="BY16" s="64"/>
+      <c r="BZ16" s="67"/>
+      <c r="CA16" s="67"/>
+      <c r="CB16" s="64"/>
+      <c r="CC16" s="64"/>
+      <c r="CD16" s="64"/>
+      <c r="CE16" s="64"/>
+      <c r="CF16" s="67"/>
+      <c r="CG16" s="67"/>
+      <c r="CH16" s="64"/>
+      <c r="CI16" s="64"/>
+      <c r="CJ16" s="64"/>
+      <c r="CK16" s="64"/>
       <c r="CL16" s="29"/>
-      <c r="CM16" s="54"/>
-      <c r="CN16" s="57"/>
-      <c r="CO16" s="57"/>
-      <c r="CP16" s="54"/>
-      <c r="CQ16" s="54"/>
-      <c r="CR16" s="54"/>
-      <c r="CS16" s="54"/>
-      <c r="CT16" s="57"/>
-      <c r="CU16" s="57"/>
-      <c r="CV16" s="54"/>
-      <c r="CW16" s="54"/>
-      <c r="CX16" s="54"/>
-      <c r="CY16" s="54"/>
-      <c r="CZ16" s="54"/>
+      <c r="CM16" s="64"/>
+      <c r="CN16" s="67"/>
+      <c r="CO16" s="67"/>
+      <c r="CP16" s="64"/>
+      <c r="CQ16" s="64"/>
+      <c r="CR16" s="64"/>
+      <c r="CS16" s="64"/>
+      <c r="CT16" s="67"/>
+      <c r="CU16" s="67"/>
+      <c r="CV16" s="64"/>
+      <c r="CW16" s="64"/>
+      <c r="CX16" s="64"/>
+      <c r="CY16" s="64"/>
+      <c r="CZ16" s="64"/>
     </row>
     <row r="17" spans="2:104" ht="20.25" customHeight="1">
       <c r="B17" s="5">
@@ -5573,7 +5553,7 @@
       </c>
       <c r="AL17" s="6"/>
       <c r="AM17" s="7">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="AN17" s="17"/>
       <c r="AO17" s="52">
@@ -5631,34 +5611,34 @@
       <c r="BU17" s="7"/>
       <c r="BV17" s="10"/>
       <c r="BW17" s="10"/>
-      <c r="BY17" s="54"/>
-      <c r="BZ17" s="57"/>
-      <c r="CA17" s="57"/>
-      <c r="CB17" s="54"/>
-      <c r="CC17" s="54"/>
-      <c r="CD17" s="54"/>
-      <c r="CE17" s="54"/>
-      <c r="CF17" s="57"/>
-      <c r="CG17" s="57"/>
-      <c r="CH17" s="54"/>
-      <c r="CI17" s="54"/>
-      <c r="CJ17" s="54"/>
-      <c r="CK17" s="54"/>
+      <c r="BY17" s="64"/>
+      <c r="BZ17" s="67"/>
+      <c r="CA17" s="67"/>
+      <c r="CB17" s="64"/>
+      <c r="CC17" s="64"/>
+      <c r="CD17" s="64"/>
+      <c r="CE17" s="64"/>
+      <c r="CF17" s="67"/>
+      <c r="CG17" s="67"/>
+      <c r="CH17" s="64"/>
+      <c r="CI17" s="64"/>
+      <c r="CJ17" s="64"/>
+      <c r="CK17" s="64"/>
       <c r="CL17" s="29"/>
-      <c r="CM17" s="54"/>
-      <c r="CN17" s="57"/>
-      <c r="CO17" s="57"/>
-      <c r="CP17" s="54"/>
-      <c r="CQ17" s="54"/>
-      <c r="CR17" s="54"/>
-      <c r="CS17" s="54"/>
-      <c r="CT17" s="57"/>
-      <c r="CU17" s="57"/>
-      <c r="CV17" s="54"/>
-      <c r="CW17" s="54"/>
-      <c r="CX17" s="54"/>
-      <c r="CY17" s="54"/>
-      <c r="CZ17" s="54"/>
+      <c r="CM17" s="64"/>
+      <c r="CN17" s="67"/>
+      <c r="CO17" s="67"/>
+      <c r="CP17" s="64"/>
+      <c r="CQ17" s="64"/>
+      <c r="CR17" s="64"/>
+      <c r="CS17" s="64"/>
+      <c r="CT17" s="67"/>
+      <c r="CU17" s="67"/>
+      <c r="CV17" s="64"/>
+      <c r="CW17" s="64"/>
+      <c r="CX17" s="64"/>
+      <c r="CY17" s="64"/>
+      <c r="CZ17" s="64"/>
     </row>
     <row r="18" spans="2:104" ht="20.25" customHeight="1">
       <c r="B18" s="5">
@@ -5762,7 +5742,7 @@
       </c>
       <c r="AL18" s="6"/>
       <c r="AM18" s="7">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="AN18" s="17"/>
       <c r="AO18" s="52">
@@ -5821,34 +5801,34 @@
       <c r="BV18" s="10"/>
       <c r="BW18" s="10"/>
       <c r="BX18" s="11"/>
-      <c r="BY18" s="54"/>
-      <c r="BZ18" s="57"/>
-      <c r="CA18" s="57"/>
-      <c r="CB18" s="54"/>
-      <c r="CC18" s="54"/>
-      <c r="CD18" s="54"/>
-      <c r="CE18" s="54"/>
-      <c r="CF18" s="57"/>
-      <c r="CG18" s="57"/>
-      <c r="CH18" s="54"/>
-      <c r="CI18" s="54"/>
-      <c r="CJ18" s="54"/>
-      <c r="CK18" s="54"/>
+      <c r="BY18" s="64"/>
+      <c r="BZ18" s="67"/>
+      <c r="CA18" s="67"/>
+      <c r="CB18" s="64"/>
+      <c r="CC18" s="64"/>
+      <c r="CD18" s="64"/>
+      <c r="CE18" s="64"/>
+      <c r="CF18" s="67"/>
+      <c r="CG18" s="67"/>
+      <c r="CH18" s="64"/>
+      <c r="CI18" s="64"/>
+      <c r="CJ18" s="64"/>
+      <c r="CK18" s="64"/>
       <c r="CL18" s="29"/>
-      <c r="CM18" s="54"/>
-      <c r="CN18" s="57"/>
-      <c r="CO18" s="57"/>
-      <c r="CP18" s="54"/>
-      <c r="CQ18" s="54"/>
-      <c r="CR18" s="54"/>
-      <c r="CS18" s="54"/>
-      <c r="CT18" s="57"/>
-      <c r="CU18" s="57"/>
-      <c r="CV18" s="54"/>
-      <c r="CW18" s="54"/>
-      <c r="CX18" s="54"/>
-      <c r="CY18" s="54"/>
-      <c r="CZ18" s="54"/>
+      <c r="CM18" s="64"/>
+      <c r="CN18" s="67"/>
+      <c r="CO18" s="67"/>
+      <c r="CP18" s="64"/>
+      <c r="CQ18" s="64"/>
+      <c r="CR18" s="64"/>
+      <c r="CS18" s="64"/>
+      <c r="CT18" s="67"/>
+      <c r="CU18" s="67"/>
+      <c r="CV18" s="64"/>
+      <c r="CW18" s="64"/>
+      <c r="CX18" s="64"/>
+      <c r="CY18" s="64"/>
+      <c r="CZ18" s="64"/>
     </row>
     <row r="19" spans="2:104" ht="20.25" customHeight="1">
       <c r="B19" s="5">
@@ -5952,7 +5932,7 @@
       </c>
       <c r="AL19" s="6"/>
       <c r="AM19" s="7">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AN19" s="17"/>
       <c r="AO19" s="52">
@@ -6011,34 +5991,34 @@
       <c r="BV19" s="10"/>
       <c r="BW19" s="10"/>
       <c r="BX19" s="11"/>
-      <c r="BY19" s="54"/>
-      <c r="BZ19" s="57"/>
-      <c r="CA19" s="57"/>
-      <c r="CB19" s="54"/>
-      <c r="CC19" s="54"/>
-      <c r="CD19" s="54"/>
-      <c r="CE19" s="54"/>
-      <c r="CF19" s="57"/>
-      <c r="CG19" s="57"/>
-      <c r="CH19" s="54"/>
-      <c r="CI19" s="54"/>
-      <c r="CJ19" s="54"/>
-      <c r="CK19" s="54"/>
+      <c r="BY19" s="64"/>
+      <c r="BZ19" s="67"/>
+      <c r="CA19" s="67"/>
+      <c r="CB19" s="64"/>
+      <c r="CC19" s="64"/>
+      <c r="CD19" s="64"/>
+      <c r="CE19" s="64"/>
+      <c r="CF19" s="67"/>
+      <c r="CG19" s="67"/>
+      <c r="CH19" s="64"/>
+      <c r="CI19" s="64"/>
+      <c r="CJ19" s="64"/>
+      <c r="CK19" s="64"/>
       <c r="CL19" s="29"/>
-      <c r="CM19" s="54"/>
-      <c r="CN19" s="57"/>
-      <c r="CO19" s="57"/>
-      <c r="CP19" s="54"/>
-      <c r="CQ19" s="54"/>
-      <c r="CR19" s="54"/>
-      <c r="CS19" s="54"/>
-      <c r="CT19" s="57"/>
-      <c r="CU19" s="57"/>
-      <c r="CV19" s="54"/>
-      <c r="CW19" s="54"/>
-      <c r="CX19" s="54"/>
-      <c r="CY19" s="54"/>
-      <c r="CZ19" s="54"/>
+      <c r="CM19" s="64"/>
+      <c r="CN19" s="67"/>
+      <c r="CO19" s="67"/>
+      <c r="CP19" s="64"/>
+      <c r="CQ19" s="64"/>
+      <c r="CR19" s="64"/>
+      <c r="CS19" s="64"/>
+      <c r="CT19" s="67"/>
+      <c r="CU19" s="67"/>
+      <c r="CV19" s="64"/>
+      <c r="CW19" s="64"/>
+      <c r="CX19" s="64"/>
+      <c r="CY19" s="64"/>
+      <c r="CZ19" s="64"/>
     </row>
     <row r="20" spans="2:104" ht="20.25" customHeight="1">
       <c r="B20" s="5">
@@ -6142,7 +6122,7 @@
       </c>
       <c r="AL20" s="6"/>
       <c r="AM20" s="7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="AN20" s="17"/>
       <c r="AO20" s="52">
@@ -6201,34 +6181,34 @@
       <c r="BV20" s="10"/>
       <c r="BW20" s="10"/>
       <c r="BX20" s="11"/>
-      <c r="BY20" s="54"/>
-      <c r="BZ20" s="57"/>
-      <c r="CA20" s="57"/>
-      <c r="CB20" s="54"/>
-      <c r="CC20" s="54"/>
-      <c r="CD20" s="54"/>
-      <c r="CE20" s="54"/>
-      <c r="CF20" s="57"/>
-      <c r="CG20" s="57"/>
-      <c r="CH20" s="54"/>
-      <c r="CI20" s="54"/>
-      <c r="CJ20" s="54"/>
-      <c r="CK20" s="54"/>
+      <c r="BY20" s="64"/>
+      <c r="BZ20" s="67"/>
+      <c r="CA20" s="67"/>
+      <c r="CB20" s="64"/>
+      <c r="CC20" s="64"/>
+      <c r="CD20" s="64"/>
+      <c r="CE20" s="64"/>
+      <c r="CF20" s="67"/>
+      <c r="CG20" s="67"/>
+      <c r="CH20" s="64"/>
+      <c r="CI20" s="64"/>
+      <c r="CJ20" s="64"/>
+      <c r="CK20" s="64"/>
       <c r="CL20" s="29"/>
-      <c r="CM20" s="54"/>
-      <c r="CN20" s="57"/>
-      <c r="CO20" s="57"/>
-      <c r="CP20" s="54"/>
-      <c r="CQ20" s="54"/>
-      <c r="CR20" s="54"/>
-      <c r="CS20" s="54"/>
-      <c r="CT20" s="57"/>
-      <c r="CU20" s="57"/>
-      <c r="CV20" s="54"/>
-      <c r="CW20" s="54"/>
-      <c r="CX20" s="54"/>
-      <c r="CY20" s="54"/>
-      <c r="CZ20" s="54"/>
+      <c r="CM20" s="64"/>
+      <c r="CN20" s="67"/>
+      <c r="CO20" s="67"/>
+      <c r="CP20" s="64"/>
+      <c r="CQ20" s="64"/>
+      <c r="CR20" s="64"/>
+      <c r="CS20" s="64"/>
+      <c r="CT20" s="67"/>
+      <c r="CU20" s="67"/>
+      <c r="CV20" s="64"/>
+      <c r="CW20" s="64"/>
+      <c r="CX20" s="64"/>
+      <c r="CY20" s="64"/>
+      <c r="CZ20" s="64"/>
     </row>
     <row r="21" spans="2:104" ht="20.25" customHeight="1">
       <c r="B21" s="5">
@@ -6332,7 +6312,7 @@
       </c>
       <c r="AL21" s="6"/>
       <c r="AM21" s="7">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="AN21" s="17"/>
       <c r="AO21" s="52">
@@ -6391,34 +6371,34 @@
       <c r="BV21" s="10"/>
       <c r="BW21" s="10"/>
       <c r="BX21" s="11"/>
-      <c r="BY21" s="54"/>
-      <c r="BZ21" s="57"/>
-      <c r="CA21" s="57"/>
-      <c r="CB21" s="54"/>
-      <c r="CC21" s="54"/>
-      <c r="CD21" s="54"/>
-      <c r="CE21" s="54"/>
-      <c r="CF21" s="57"/>
-      <c r="CG21" s="57"/>
-      <c r="CH21" s="54"/>
-      <c r="CI21" s="54"/>
-      <c r="CJ21" s="54"/>
-      <c r="CK21" s="54"/>
+      <c r="BY21" s="64"/>
+      <c r="BZ21" s="67"/>
+      <c r="CA21" s="67"/>
+      <c r="CB21" s="64"/>
+      <c r="CC21" s="64"/>
+      <c r="CD21" s="64"/>
+      <c r="CE21" s="64"/>
+      <c r="CF21" s="67"/>
+      <c r="CG21" s="67"/>
+      <c r="CH21" s="64"/>
+      <c r="CI21" s="64"/>
+      <c r="CJ21" s="64"/>
+      <c r="CK21" s="64"/>
       <c r="CL21" s="29"/>
-      <c r="CM21" s="54"/>
-      <c r="CN21" s="57"/>
-      <c r="CO21" s="57"/>
-      <c r="CP21" s="54"/>
-      <c r="CQ21" s="54"/>
-      <c r="CR21" s="54"/>
-      <c r="CS21" s="54"/>
-      <c r="CT21" s="57"/>
-      <c r="CU21" s="57"/>
-      <c r="CV21" s="54"/>
-      <c r="CW21" s="54"/>
-      <c r="CX21" s="54"/>
-      <c r="CY21" s="54"/>
-      <c r="CZ21" s="54"/>
+      <c r="CM21" s="64"/>
+      <c r="CN21" s="67"/>
+      <c r="CO21" s="67"/>
+      <c r="CP21" s="64"/>
+      <c r="CQ21" s="64"/>
+      <c r="CR21" s="64"/>
+      <c r="CS21" s="64"/>
+      <c r="CT21" s="67"/>
+      <c r="CU21" s="67"/>
+      <c r="CV21" s="64"/>
+      <c r="CW21" s="64"/>
+      <c r="CX21" s="64"/>
+      <c r="CY21" s="64"/>
+      <c r="CZ21" s="64"/>
     </row>
     <row r="22" spans="2:104" ht="20.25" customHeight="1">
       <c r="B22" s="5">
@@ -6577,34 +6557,34 @@
       <c r="BV22" s="49"/>
       <c r="BW22" s="49"/>
       <c r="BX22" s="13"/>
-      <c r="BY22" s="55"/>
-      <c r="BZ22" s="58"/>
-      <c r="CA22" s="58"/>
-      <c r="CB22" s="55"/>
-      <c r="CC22" s="55"/>
-      <c r="CD22" s="55"/>
-      <c r="CE22" s="55"/>
-      <c r="CF22" s="58"/>
-      <c r="CG22" s="58"/>
-      <c r="CH22" s="55"/>
-      <c r="CI22" s="55"/>
-      <c r="CJ22" s="55"/>
-      <c r="CK22" s="55"/>
+      <c r="BY22" s="65"/>
+      <c r="BZ22" s="68"/>
+      <c r="CA22" s="68"/>
+      <c r="CB22" s="65"/>
+      <c r="CC22" s="65"/>
+      <c r="CD22" s="65"/>
+      <c r="CE22" s="65"/>
+      <c r="CF22" s="68"/>
+      <c r="CG22" s="68"/>
+      <c r="CH22" s="65"/>
+      <c r="CI22" s="65"/>
+      <c r="CJ22" s="65"/>
+      <c r="CK22" s="65"/>
       <c r="CL22" s="14"/>
-      <c r="CM22" s="55"/>
-      <c r="CN22" s="58"/>
-      <c r="CO22" s="58"/>
-      <c r="CP22" s="55"/>
-      <c r="CQ22" s="55"/>
-      <c r="CR22" s="55"/>
-      <c r="CS22" s="55"/>
-      <c r="CT22" s="58"/>
-      <c r="CU22" s="58"/>
-      <c r="CV22" s="55"/>
-      <c r="CW22" s="55"/>
-      <c r="CX22" s="55"/>
-      <c r="CY22" s="55"/>
-      <c r="CZ22" s="55"/>
+      <c r="CM22" s="65"/>
+      <c r="CN22" s="68"/>
+      <c r="CO22" s="68"/>
+      <c r="CP22" s="65"/>
+      <c r="CQ22" s="65"/>
+      <c r="CR22" s="65"/>
+      <c r="CS22" s="65"/>
+      <c r="CT22" s="68"/>
+      <c r="CU22" s="68"/>
+      <c r="CV22" s="65"/>
+      <c r="CW22" s="65"/>
+      <c r="CX22" s="65"/>
+      <c r="CY22" s="65"/>
+      <c r="CZ22" s="65"/>
     </row>
     <row r="23" spans="2:104" ht="20.25" customHeight="1">
       <c r="BX23" s="11"/>
@@ -6616,6 +6596,119 @@
     </row>
   </sheetData>
   <mergeCells count="137">
+    <mergeCell ref="BZ7:BZ14"/>
+    <mergeCell ref="CA7:CA14"/>
+    <mergeCell ref="CF7:CF14"/>
+    <mergeCell ref="CG7:CG14"/>
+    <mergeCell ref="CN7:CN14"/>
+    <mergeCell ref="CO7:CO14"/>
+    <mergeCell ref="CT7:CT14"/>
+    <mergeCell ref="CU7:CU14"/>
+    <mergeCell ref="CM7:CM13"/>
+    <mergeCell ref="CB7:CB13"/>
+    <mergeCell ref="CC7:CC13"/>
+    <mergeCell ref="CD7:CD13"/>
+    <mergeCell ref="CE7:CE13"/>
+    <mergeCell ref="CH7:CH13"/>
+    <mergeCell ref="CI7:CI13"/>
+    <mergeCell ref="CJ7:CJ13"/>
+    <mergeCell ref="CB15:CB22"/>
+    <mergeCell ref="CC15:CC22"/>
+    <mergeCell ref="CD15:CD22"/>
+    <mergeCell ref="CM15:CM22"/>
+    <mergeCell ref="CN15:CN22"/>
+    <mergeCell ref="CO15:CO22"/>
+    <mergeCell ref="CE15:CE22"/>
+    <mergeCell ref="CF15:CF22"/>
+    <mergeCell ref="CZ7:CZ13"/>
+    <mergeCell ref="CQ15:CQ22"/>
+    <mergeCell ref="CR15:CR22"/>
+    <mergeCell ref="CS15:CS22"/>
+    <mergeCell ref="CV7:CV13"/>
+    <mergeCell ref="CW7:CW13"/>
+    <mergeCell ref="CX15:CX22"/>
+    <mergeCell ref="CY15:CY22"/>
+    <mergeCell ref="CW15:CW22"/>
+    <mergeCell ref="CX7:CX13"/>
+    <mergeCell ref="CY7:CY13"/>
+    <mergeCell ref="CG15:CG22"/>
+    <mergeCell ref="BY7:BY13"/>
+    <mergeCell ref="CZ5:CZ6"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CT5:CU5"/>
+    <mergeCell ref="CV5:CW5"/>
+    <mergeCell ref="CS5:CS6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CH15:CH22"/>
+    <mergeCell ref="CI15:CI22"/>
+    <mergeCell ref="CJ15:CJ22"/>
+    <mergeCell ref="CK15:CK22"/>
+    <mergeCell ref="CZ15:CZ22"/>
+    <mergeCell ref="CP15:CP22"/>
+    <mergeCell ref="CR7:CR13"/>
+    <mergeCell ref="CS7:CS13"/>
+    <mergeCell ref="CT15:CT22"/>
+    <mergeCell ref="CU15:CU22"/>
+    <mergeCell ref="BY15:BY22"/>
+    <mergeCell ref="BZ15:BZ22"/>
+    <mergeCell ref="CA15:CA22"/>
+    <mergeCell ref="CV15:CV22"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CK5:CK6"/>
+    <mergeCell ref="CN5:CO5"/>
+    <mergeCell ref="CP5:CQ5"/>
+    <mergeCell ref="CM5:CM6"/>
+    <mergeCell ref="CH5:CI5"/>
+    <mergeCell ref="CE5:CE6"/>
+    <mergeCell ref="CK7:CK13"/>
+    <mergeCell ref="CP7:CP13"/>
+    <mergeCell ref="CQ7:CQ13"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="CF5:CG5"/>
+    <mergeCell ref="BP4:BW4"/>
+    <mergeCell ref="BY4:CD4"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="Z4:AF4"/>
+    <mergeCell ref="AH4:AM4"/>
+    <mergeCell ref="AN4:AT4"/>
+    <mergeCell ref="AV4:BA4"/>
+    <mergeCell ref="BB4:BH4"/>
+    <mergeCell ref="BJ4:BO4"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="BM5:BN5"/>
+    <mergeCell ref="BQ5:BR5"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="BH5:BH6"/>
     <mergeCell ref="CE4:CK4"/>
     <mergeCell ref="CM4:CR4"/>
     <mergeCell ref="CS4:CZ4"/>
@@ -6640,308 +6733,195 @@
     <mergeCell ref="L4:R4"/>
     <mergeCell ref="T5:T6"/>
     <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BW5:BW6"/>
-    <mergeCell ref="BY5:BY6"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="CF5:CG5"/>
-    <mergeCell ref="BP4:BW4"/>
-    <mergeCell ref="BY4:CD4"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="Z4:AF4"/>
-    <mergeCell ref="AH4:AM4"/>
-    <mergeCell ref="AN4:AT4"/>
-    <mergeCell ref="AV4:BA4"/>
-    <mergeCell ref="BB4:BH4"/>
-    <mergeCell ref="BJ4:BO4"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="BZ5:CA5"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="CV15:CV22"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CK5:CK6"/>
-    <mergeCell ref="CN5:CO5"/>
-    <mergeCell ref="CP5:CQ5"/>
-    <mergeCell ref="CM5:CM6"/>
-    <mergeCell ref="CH5:CI5"/>
-    <mergeCell ref="CE5:CE6"/>
-    <mergeCell ref="CK7:CK13"/>
-    <mergeCell ref="CP7:CP13"/>
-    <mergeCell ref="CQ7:CQ13"/>
-    <mergeCell ref="CW15:CW22"/>
-    <mergeCell ref="CX7:CX13"/>
-    <mergeCell ref="CY7:CY13"/>
-    <mergeCell ref="CG15:CG22"/>
-    <mergeCell ref="BY7:BY13"/>
-    <mergeCell ref="CZ5:CZ6"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CT5:CU5"/>
-    <mergeCell ref="CV5:CW5"/>
-    <mergeCell ref="CS5:CS6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CH15:CH22"/>
-    <mergeCell ref="CI15:CI22"/>
-    <mergeCell ref="CJ15:CJ22"/>
-    <mergeCell ref="CK15:CK22"/>
-    <mergeCell ref="CZ15:CZ22"/>
-    <mergeCell ref="CP15:CP22"/>
-    <mergeCell ref="CR7:CR13"/>
-    <mergeCell ref="CS7:CS13"/>
-    <mergeCell ref="CT15:CT22"/>
-    <mergeCell ref="CU15:CU22"/>
-    <mergeCell ref="BY15:BY22"/>
-    <mergeCell ref="BZ15:BZ22"/>
-    <mergeCell ref="CA15:CA22"/>
-    <mergeCell ref="CB15:CB22"/>
-    <mergeCell ref="CC15:CC22"/>
-    <mergeCell ref="CD15:CD22"/>
-    <mergeCell ref="CM15:CM22"/>
-    <mergeCell ref="CN15:CN22"/>
-    <mergeCell ref="CO15:CO22"/>
-    <mergeCell ref="CE15:CE22"/>
-    <mergeCell ref="CF15:CF22"/>
-    <mergeCell ref="CZ7:CZ13"/>
-    <mergeCell ref="CQ15:CQ22"/>
-    <mergeCell ref="CR15:CR22"/>
-    <mergeCell ref="CS15:CS22"/>
-    <mergeCell ref="CV7:CV13"/>
-    <mergeCell ref="CW7:CW13"/>
-    <mergeCell ref="BZ7:BZ14"/>
-    <mergeCell ref="CA7:CA14"/>
-    <mergeCell ref="CF7:CF14"/>
-    <mergeCell ref="CG7:CG14"/>
-    <mergeCell ref="CN7:CN14"/>
-    <mergeCell ref="CO7:CO14"/>
-    <mergeCell ref="CT7:CT14"/>
-    <mergeCell ref="CU7:CU14"/>
-    <mergeCell ref="CM7:CM13"/>
-    <mergeCell ref="CX15:CX22"/>
-    <mergeCell ref="CY15:CY22"/>
-    <mergeCell ref="CB7:CB13"/>
-    <mergeCell ref="CC7:CC13"/>
-    <mergeCell ref="CD7:CD13"/>
-    <mergeCell ref="CE7:CE13"/>
-    <mergeCell ref="CH7:CH13"/>
-    <mergeCell ref="CI7:CI13"/>
-    <mergeCell ref="CJ7:CJ13"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="F7:K14">
-    <cfRule type="expression" dxfId="42" priority="98">
+    <cfRule type="expression" dxfId="41" priority="98">
       <formula>$J7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K15:K22 L7:R22">
-    <cfRule type="expression" dxfId="41" priority="91">
+    <cfRule type="expression" dxfId="40" priority="91">
       <formula>$P7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN7:AT14 AO7:AP21">
-    <cfRule type="expression" dxfId="40" priority="88">
+    <cfRule type="expression" dxfId="39" priority="88">
       <formula>$AR7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV7:BA14 AW7:AX21">
-    <cfRule type="expression" dxfId="39" priority="152">
+    <cfRule type="expression" dxfId="38" priority="152">
       <formula>$AZ7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB9:BB14 BE9:BH14 BC9:BD21 BB7:BH8">
-    <cfRule type="expression" dxfId="38" priority="151">
+    <cfRule type="expression" dxfId="37" priority="151">
       <formula>$BF7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ7:BO7 BJ8:BJ14 BM8:BO14 BK8:BL21">
-    <cfRule type="expression" dxfId="37" priority="146">
+    <cfRule type="expression" dxfId="36" priority="146">
       <formula>$BN7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP7:BP14 BS7:BW14">
-    <cfRule type="expression" dxfId="36" priority="145">
+    <cfRule type="expression" dxfId="35" priority="145">
       <formula>$BT7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:F22">
-    <cfRule type="expression" dxfId="35" priority="175">
+    <cfRule type="expression" dxfId="34" priority="175">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20 F15:F16">
-    <cfRule type="expression" dxfId="34" priority="203">
+    <cfRule type="expression" dxfId="33" priority="203">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA22:AB22">
-    <cfRule type="expression" dxfId="33" priority="205">
+    <cfRule type="expression" dxfId="32" priority="205">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="32" priority="210">
+    <cfRule type="expression" dxfId="31" priority="210">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F16">
-    <cfRule type="expression" dxfId="31" priority="212">
+    <cfRule type="expression" dxfId="30" priority="212">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F18">
-    <cfRule type="expression" dxfId="30" priority="213">
+    <cfRule type="expression" dxfId="29" priority="213">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:J22">
-    <cfRule type="expression" dxfId="29" priority="237">
+    <cfRule type="expression" dxfId="28" priority="237">
       <formula>$I15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U15:W22 Y15:Y22">
-    <cfRule type="expression" dxfId="28" priority="241">
+    <cfRule type="expression" dxfId="27" priority="241">
       <formula>$X15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15:AB22 AF15:AF22">
-    <cfRule type="expression" dxfId="27" priority="243">
+    <cfRule type="expression" dxfId="26" priority="243">
       <formula>$AD15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL15:AM22 AK22">
-    <cfRule type="expression" dxfId="26" priority="245">
+    <cfRule type="expression" dxfId="25" priority="245">
       <formula>$AL15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN15:AT22">
-    <cfRule type="expression" dxfId="25" priority="247">
+    <cfRule type="expression" dxfId="24" priority="247">
       <formula>$AR15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV15:BA22">
-    <cfRule type="expression" dxfId="24" priority="249">
+    <cfRule type="expression" dxfId="23" priority="249">
       <formula>$AZ15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB22:BH22 BB15:BB21 BE15:BH21">
-    <cfRule type="expression" dxfId="23" priority="251">
+    <cfRule type="expression" dxfId="22" priority="251">
       <formula>$BF15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ22:BO22 BJ15:BJ21 BM15:BO21">
-    <cfRule type="expression" dxfId="22" priority="253">
+    <cfRule type="expression" dxfId="21" priority="253">
       <formula>$BN15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP22:BW22 BP15:BP21 BS15:BW21">
-    <cfRule type="expression" dxfId="21" priority="255">
+    <cfRule type="expression" dxfId="20" priority="255">
       <formula>$BT15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15:AB21">
-    <cfRule type="expression" dxfId="20" priority="256">
+    <cfRule type="expression" dxfId="19" priority="256">
       <formula>$X16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T21:T22">
-    <cfRule type="expression" dxfId="19" priority="21">
+    <cfRule type="expression" dxfId="18" priority="21">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T20 T15:T16">
-    <cfRule type="expression" dxfId="18" priority="22">
+    <cfRule type="expression" dxfId="17" priority="22">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19">
-    <cfRule type="expression" dxfId="17" priority="23">
+    <cfRule type="expression" dxfId="16" priority="23">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15:T16">
-    <cfRule type="expression" dxfId="16" priority="24">
+    <cfRule type="expression" dxfId="15" priority="24">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17:T18">
-    <cfRule type="expression" dxfId="15" priority="25">
+    <cfRule type="expression" dxfId="14" priority="25">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X15">
-    <cfRule type="expression" dxfId="14" priority="20">
+    <cfRule type="expression" dxfId="13" priority="20">
       <formula>$X15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X16">
-    <cfRule type="expression" dxfId="13" priority="19">
+    <cfRule type="expression" dxfId="12" priority="19">
       <formula>$X16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X17:X22">
-    <cfRule type="expression" dxfId="12" priority="18">
+    <cfRule type="expression" dxfId="11" priority="18">
       <formula>$X17&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI7:AL7 AK15:AK21 AK8:AL14 AI8:AJ22">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="10" priority="12">
       <formula>$AK7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH7:AH14">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="9" priority="11">
       <formula>$J7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH21:AH22">
-    <cfRule type="expression" dxfId="9" priority="6">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH20 AH15:AH16">
-    <cfRule type="expression" dxfId="8" priority="7">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH19">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="6" priority="8">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH15:AH16">
-    <cfRule type="expression" dxfId="6" priority="9">
+    <cfRule type="expression" dxfId="5" priority="9">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH17:AH18">
-    <cfRule type="expression" dxfId="5" priority="10">
+    <cfRule type="expression" dxfId="4" priority="10">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/スケジュール（2023-06）.xlsx
+++ b/スケジュール（2023-06）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330598B1-69A3-46D6-BEB4-41AFDBA60785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7621B8A1-6AE9-4A9D-870F-85B755C3741B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15390" yWindow="975" windowWidth="13050" windowHeight="11535" tabRatio="910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15975" yWindow="-4230" windowWidth="14880" windowHeight="12885" tabRatio="910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="体制図" sheetId="11" r:id="rId1"/>
@@ -803,8 +803,38 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -815,37 +845,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2865,10 +2865,10 @@
   <dimension ref="B3:CZ24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="S10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="S7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AI12" sqref="AI12"/>
+      <selection pane="bottomRight" activeCell="AM19" sqref="AM19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
@@ -2929,381 +2929,381 @@
       </c>
     </row>
     <row r="4" spans="2:104" s="20" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54" t="s">
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="T4" s="54" t="s">
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="T4" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="U4" s="54"/>
-      <c r="V4" s="54"/>
-      <c r="W4" s="54"/>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54" t="s">
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="61"/>
+      <c r="Y4" s="61"/>
+      <c r="Z4" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="54"/>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AH4" s="54" t="s">
+      <c r="AA4" s="61"/>
+      <c r="AB4" s="61"/>
+      <c r="AC4" s="61"/>
+      <c r="AD4" s="61"/>
+      <c r="AE4" s="61"/>
+      <c r="AF4" s="61"/>
+      <c r="AH4" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54" t="s">
+      <c r="AI4" s="61"/>
+      <c r="AJ4" s="61"/>
+      <c r="AK4" s="61"/>
+      <c r="AL4" s="61"/>
+      <c r="AM4" s="61"/>
+      <c r="AN4" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="54"/>
-      <c r="AQ4" s="54"/>
-      <c r="AR4" s="54"/>
-      <c r="AS4" s="54"/>
-      <c r="AT4" s="55"/>
+      <c r="AO4" s="61"/>
+      <c r="AP4" s="61"/>
+      <c r="AQ4" s="61"/>
+      <c r="AR4" s="61"/>
+      <c r="AS4" s="61"/>
+      <c r="AT4" s="65"/>
       <c r="AU4" s="21"/>
-      <c r="AV4" s="54" t="s">
+      <c r="AV4" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="AW4" s="54"/>
-      <c r="AX4" s="54"/>
-      <c r="AY4" s="54"/>
-      <c r="AZ4" s="54"/>
-      <c r="BA4" s="54"/>
-      <c r="BB4" s="54" t="s">
+      <c r="AW4" s="61"/>
+      <c r="AX4" s="61"/>
+      <c r="AY4" s="61"/>
+      <c r="AZ4" s="61"/>
+      <c r="BA4" s="61"/>
+      <c r="BB4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="BC4" s="54"/>
-      <c r="BD4" s="54"/>
-      <c r="BE4" s="54"/>
-      <c r="BF4" s="54"/>
-      <c r="BG4" s="54"/>
-      <c r="BH4" s="54"/>
+      <c r="BC4" s="61"/>
+      <c r="BD4" s="61"/>
+      <c r="BE4" s="61"/>
+      <c r="BF4" s="61"/>
+      <c r="BG4" s="61"/>
+      <c r="BH4" s="61"/>
       <c r="BI4" s="22"/>
-      <c r="BJ4" s="56" t="s">
+      <c r="BJ4" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="BK4" s="54"/>
-      <c r="BL4" s="54"/>
-      <c r="BM4" s="54"/>
-      <c r="BN4" s="54"/>
-      <c r="BO4" s="54"/>
-      <c r="BP4" s="54" t="s">
+      <c r="BK4" s="61"/>
+      <c r="BL4" s="61"/>
+      <c r="BM4" s="61"/>
+      <c r="BN4" s="61"/>
+      <c r="BO4" s="61"/>
+      <c r="BP4" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="BQ4" s="54"/>
-      <c r="BR4" s="54"/>
-      <c r="BS4" s="54"/>
-      <c r="BT4" s="54"/>
-      <c r="BU4" s="54"/>
-      <c r="BV4" s="54"/>
-      <c r="BW4" s="54"/>
-      <c r="BY4" s="54" t="s">
+      <c r="BQ4" s="61"/>
+      <c r="BR4" s="61"/>
+      <c r="BS4" s="61"/>
+      <c r="BT4" s="61"/>
+      <c r="BU4" s="61"/>
+      <c r="BV4" s="61"/>
+      <c r="BW4" s="61"/>
+      <c r="BY4" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="BZ4" s="54"/>
-      <c r="CA4" s="54"/>
-      <c r="CB4" s="54"/>
-      <c r="CC4" s="54"/>
-      <c r="CD4" s="54"/>
-      <c r="CE4" s="54" t="s">
+      <c r="BZ4" s="61"/>
+      <c r="CA4" s="61"/>
+      <c r="CB4" s="61"/>
+      <c r="CC4" s="61"/>
+      <c r="CD4" s="61"/>
+      <c r="CE4" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="CF4" s="54"/>
-      <c r="CG4" s="54"/>
-      <c r="CH4" s="54"/>
-      <c r="CI4" s="54"/>
-      <c r="CJ4" s="54"/>
-      <c r="CK4" s="55"/>
+      <c r="CF4" s="61"/>
+      <c r="CG4" s="61"/>
+      <c r="CH4" s="61"/>
+      <c r="CI4" s="61"/>
+      <c r="CJ4" s="61"/>
+      <c r="CK4" s="65"/>
       <c r="CL4" s="23"/>
-      <c r="CM4" s="56" t="s">
+      <c r="CM4" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="CN4" s="54"/>
-      <c r="CO4" s="54"/>
-      <c r="CP4" s="54"/>
-      <c r="CQ4" s="54"/>
-      <c r="CR4" s="54"/>
-      <c r="CS4" s="54" t="s">
+      <c r="CN4" s="61"/>
+      <c r="CO4" s="61"/>
+      <c r="CP4" s="61"/>
+      <c r="CQ4" s="61"/>
+      <c r="CR4" s="61"/>
+      <c r="CS4" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="CT4" s="54"/>
-      <c r="CU4" s="54"/>
-      <c r="CV4" s="54"/>
-      <c r="CW4" s="54"/>
-      <c r="CX4" s="54"/>
-      <c r="CY4" s="54"/>
-      <c r="CZ4" s="54"/>
+      <c r="CT4" s="61"/>
+      <c r="CU4" s="61"/>
+      <c r="CV4" s="61"/>
+      <c r="CW4" s="61"/>
+      <c r="CX4" s="61"/>
+      <c r="CY4" s="61"/>
+      <c r="CZ4" s="61"/>
     </row>
     <row r="5" spans="2:104" ht="21.6" customHeight="1">
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="54" t="s">
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="61" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57" t="s">
+      <c r="H5" s="67"/>
+      <c r="I5" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="57"/>
-      <c r="K5" s="58" t="s">
+      <c r="J5" s="67"/>
+      <c r="K5" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="54" t="s">
+      <c r="L5" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="57" t="s">
+      <c r="M5" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57" t="s">
+      <c r="N5" s="67"/>
+      <c r="O5" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="58" t="s">
+      <c r="P5" s="67"/>
+      <c r="Q5" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="58" t="s">
+      <c r="R5" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="54" t="s">
+      <c r="T5" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="57" t="s">
+      <c r="U5" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57" t="s">
+      <c r="V5" s="67"/>
+      <c r="W5" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="X5" s="57"/>
-      <c r="Y5" s="58" t="s">
+      <c r="X5" s="67"/>
+      <c r="Y5" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="54" t="s">
+      <c r="Z5" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="AA5" s="57" t="s">
+      <c r="AA5" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="AB5" s="57"/>
-      <c r="AC5" s="57" t="s">
+      <c r="AB5" s="67"/>
+      <c r="AC5" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="AD5" s="57"/>
-      <c r="AE5" s="58" t="s">
+      <c r="AD5" s="67"/>
+      <c r="AE5" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="AF5" s="58" t="s">
+      <c r="AF5" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="AH5" s="54" t="s">
+      <c r="AH5" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="AI5" s="57" t="s">
+      <c r="AI5" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="AJ5" s="57"/>
-      <c r="AK5" s="57" t="s">
+      <c r="AJ5" s="67"/>
+      <c r="AK5" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="AL5" s="57"/>
-      <c r="AM5" s="58" t="s">
+      <c r="AL5" s="67"/>
+      <c r="AM5" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="AN5" s="54" t="s">
+      <c r="AN5" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="AO5" s="57" t="s">
+      <c r="AO5" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="AP5" s="57"/>
-      <c r="AQ5" s="57" t="s">
+      <c r="AP5" s="67"/>
+      <c r="AQ5" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="AR5" s="57"/>
-      <c r="AS5" s="58" t="s">
+      <c r="AR5" s="67"/>
+      <c r="AS5" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="AT5" s="60" t="s">
+      <c r="AT5" s="64" t="s">
         <v>23</v>
       </c>
       <c r="AU5" s="13"/>
-      <c r="AV5" s="54" t="s">
+      <c r="AV5" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="AW5" s="57" t="s">
+      <c r="AW5" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="AX5" s="57"/>
-      <c r="AY5" s="57" t="s">
+      <c r="AX5" s="67"/>
+      <c r="AY5" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="AZ5" s="57"/>
-      <c r="BA5" s="58" t="s">
+      <c r="AZ5" s="67"/>
+      <c r="BA5" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="BB5" s="54" t="s">
+      <c r="BB5" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="BC5" s="57" t="s">
+      <c r="BC5" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="BD5" s="57"/>
-      <c r="BE5" s="57" t="s">
+      <c r="BD5" s="67"/>
+      <c r="BE5" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="BF5" s="57"/>
-      <c r="BG5" s="58" t="s">
+      <c r="BF5" s="67"/>
+      <c r="BG5" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="BH5" s="58" t="s">
+      <c r="BH5" s="60" t="s">
         <v>23</v>
       </c>
       <c r="BI5" s="14"/>
-      <c r="BJ5" s="56" t="s">
+      <c r="BJ5" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="BK5" s="57" t="s">
+      <c r="BK5" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="BL5" s="57"/>
-      <c r="BM5" s="57" t="s">
+      <c r="BL5" s="67"/>
+      <c r="BM5" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="BN5" s="57"/>
-      <c r="BO5" s="58" t="s">
+      <c r="BN5" s="67"/>
+      <c r="BO5" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="BP5" s="54" t="s">
+      <c r="BP5" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="BQ5" s="57" t="s">
+      <c r="BQ5" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="BR5" s="57"/>
-      <c r="BS5" s="57" t="s">
+      <c r="BR5" s="67"/>
+      <c r="BS5" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="BT5" s="57"/>
-      <c r="BU5" s="58" t="s">
+      <c r="BT5" s="67"/>
+      <c r="BU5" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="BV5" s="58" t="s">
+      <c r="BV5" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="BW5" s="58" t="s">
+      <c r="BW5" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="BY5" s="54" t="s">
+      <c r="BY5" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="BZ5" s="61" t="s">
+      <c r="BZ5" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="CA5" s="61"/>
-      <c r="CB5" s="61" t="s">
+      <c r="CA5" s="63"/>
+      <c r="CB5" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="CC5" s="61"/>
-      <c r="CD5" s="58" t="s">
+      <c r="CC5" s="63"/>
+      <c r="CD5" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="CE5" s="54" t="s">
+      <c r="CE5" s="61" t="s">
         <v>22</v>
       </c>
       <c r="CF5" s="62" t="s">
         <v>19</v>
       </c>
       <c r="CG5" s="62"/>
-      <c r="CH5" s="61" t="s">
+      <c r="CH5" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="CI5" s="61"/>
-      <c r="CJ5" s="58" t="s">
+      <c r="CI5" s="63"/>
+      <c r="CJ5" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="CK5" s="60" t="s">
+      <c r="CK5" s="64" t="s">
         <v>23</v>
       </c>
       <c r="CL5" s="11"/>
-      <c r="CM5" s="56" t="s">
+      <c r="CM5" s="66" t="s">
         <v>18</v>
       </c>
       <c r="CN5" s="62" t="s">
         <v>19</v>
       </c>
       <c r="CO5" s="62"/>
-      <c r="CP5" s="61" t="s">
+      <c r="CP5" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="CQ5" s="61"/>
-      <c r="CR5" s="58" t="s">
+      <c r="CQ5" s="63"/>
+      <c r="CR5" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="CS5" s="54" t="s">
+      <c r="CS5" s="61" t="s">
         <v>22</v>
       </c>
       <c r="CT5" s="62" t="s">
         <v>19</v>
       </c>
       <c r="CU5" s="62"/>
-      <c r="CV5" s="61" t="s">
+      <c r="CV5" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="CW5" s="61"/>
-      <c r="CX5" s="58" t="s">
+      <c r="CW5" s="63"/>
+      <c r="CX5" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="CY5" s="58" t="s">
+      <c r="CY5" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="CZ5" s="58" t="s">
+      <c r="CZ5" s="60" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:104" ht="14.4">
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="54"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="61"/>
       <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3316,8 +3316,8 @@
       <c r="J6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
       <c r="M6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3330,9 +3330,9 @@
       <c r="P6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
-      <c r="T6" s="54"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="T6" s="61"/>
       <c r="U6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3345,8 +3345,8 @@
       <c r="X6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="54"/>
-      <c r="Z6" s="54"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="61"/>
       <c r="AA6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3359,9 +3359,9 @@
       <c r="AD6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AE6" s="54"/>
-      <c r="AF6" s="54"/>
-      <c r="AH6" s="54"/>
+      <c r="AE6" s="61"/>
+      <c r="AF6" s="61"/>
+      <c r="AH6" s="61"/>
       <c r="AI6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3374,8 +3374,8 @@
       <c r="AL6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AM6" s="54"/>
-      <c r="AN6" s="54"/>
+      <c r="AM6" s="61"/>
+      <c r="AN6" s="61"/>
       <c r="AO6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3388,10 +3388,10 @@
       <c r="AR6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AS6" s="54"/>
-      <c r="AT6" s="55"/>
+      <c r="AS6" s="61"/>
+      <c r="AT6" s="65"/>
       <c r="AU6" s="13"/>
-      <c r="AV6" s="54"/>
+      <c r="AV6" s="61"/>
       <c r="AW6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3404,8 +3404,8 @@
       <c r="AZ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BA6" s="54"/>
-      <c r="BB6" s="54"/>
+      <c r="BA6" s="61"/>
+      <c r="BB6" s="61"/>
       <c r="BC6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3418,10 +3418,10 @@
       <c r="BF6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BG6" s="54"/>
-      <c r="BH6" s="54"/>
+      <c r="BG6" s="61"/>
+      <c r="BH6" s="61"/>
       <c r="BI6" s="14"/>
-      <c r="BJ6" s="56"/>
+      <c r="BJ6" s="66"/>
       <c r="BK6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3434,8 +3434,8 @@
       <c r="BN6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BO6" s="54"/>
-      <c r="BP6" s="54"/>
+      <c r="BO6" s="61"/>
+      <c r="BP6" s="61"/>
       <c r="BQ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3448,10 +3448,10 @@
       <c r="BT6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BU6" s="54"/>
-      <c r="BV6" s="54"/>
-      <c r="BW6" s="54"/>
-      <c r="BY6" s="54"/>
+      <c r="BU6" s="61"/>
+      <c r="BV6" s="61"/>
+      <c r="BW6" s="61"/>
+      <c r="BY6" s="61"/>
       <c r="BZ6" s="31" t="s">
         <v>25</v>
       </c>
@@ -3464,8 +3464,8 @@
       <c r="CC6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CD6" s="54"/>
-      <c r="CE6" s="54"/>
+      <c r="CD6" s="61"/>
+      <c r="CE6" s="61"/>
       <c r="CF6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3478,10 +3478,10 @@
       <c r="CI6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CJ6" s="54"/>
-      <c r="CK6" s="55"/>
+      <c r="CJ6" s="61"/>
+      <c r="CK6" s="65"/>
       <c r="CL6" s="11"/>
-      <c r="CM6" s="56"/>
+      <c r="CM6" s="66"/>
       <c r="CN6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3494,8 +3494,8 @@
       <c r="CQ6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CR6" s="54"/>
-      <c r="CS6" s="54"/>
+      <c r="CR6" s="61"/>
+      <c r="CS6" s="61"/>
       <c r="CT6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3508,9 +3508,9 @@
       <c r="CW6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CX6" s="54"/>
-      <c r="CY6" s="54"/>
-      <c r="CZ6" s="54"/>
+      <c r="CX6" s="61"/>
+      <c r="CY6" s="61"/>
+      <c r="CZ6" s="61"/>
     </row>
     <row r="7" spans="2:104" ht="20.25" customHeight="1">
       <c r="B7" s="5">
@@ -3674,50 +3674,50 @@
       <c r="BU7" s="7"/>
       <c r="BV7" s="10"/>
       <c r="BW7" s="10"/>
-      <c r="BY7" s="63"/>
-      <c r="BZ7" s="66">
+      <c r="BY7" s="57"/>
+      <c r="BZ7" s="54">
         <v>45104</v>
       </c>
-      <c r="CA7" s="66">
+      <c r="CA7" s="54">
         <v>45104</v>
       </c>
-      <c r="CB7" s="63"/>
-      <c r="CC7" s="63"/>
-      <c r="CD7" s="63"/>
-      <c r="CE7" s="63"/>
-      <c r="CF7" s="66">
+      <c r="CB7" s="57"/>
+      <c r="CC7" s="57"/>
+      <c r="CD7" s="57"/>
+      <c r="CE7" s="57"/>
+      <c r="CF7" s="54">
         <v>45104</v>
       </c>
-      <c r="CG7" s="66">
+      <c r="CG7" s="54">
         <v>45104</v>
       </c>
-      <c r="CH7" s="63"/>
-      <c r="CI7" s="63"/>
-      <c r="CJ7" s="63"/>
-      <c r="CK7" s="63"/>
+      <c r="CH7" s="57"/>
+      <c r="CI7" s="57"/>
+      <c r="CJ7" s="57"/>
+      <c r="CK7" s="57"/>
       <c r="CL7" s="14"/>
-      <c r="CM7" s="63"/>
-      <c r="CN7" s="66">
+      <c r="CM7" s="57"/>
+      <c r="CN7" s="54">
         <v>45105</v>
       </c>
-      <c r="CO7" s="66">
+      <c r="CO7" s="54">
         <v>45105</v>
       </c>
-      <c r="CP7" s="63"/>
-      <c r="CQ7" s="63"/>
-      <c r="CR7" s="63"/>
-      <c r="CS7" s="63"/>
-      <c r="CT7" s="66">
+      <c r="CP7" s="57"/>
+      <c r="CQ7" s="57"/>
+      <c r="CR7" s="57"/>
+      <c r="CS7" s="57"/>
+      <c r="CT7" s="54">
         <v>45105</v>
       </c>
-      <c r="CU7" s="66">
+      <c r="CU7" s="54">
         <v>45105</v>
       </c>
-      <c r="CV7" s="63"/>
-      <c r="CW7" s="63"/>
-      <c r="CX7" s="63"/>
-      <c r="CY7" s="63"/>
-      <c r="CZ7" s="63"/>
+      <c r="CV7" s="57"/>
+      <c r="CW7" s="57"/>
+      <c r="CX7" s="57"/>
+      <c r="CY7" s="57"/>
+      <c r="CZ7" s="57"/>
     </row>
     <row r="8" spans="2:104" ht="20.25" customHeight="1">
       <c r="B8" s="5">
@@ -3881,34 +3881,34 @@
       <c r="BU8" s="7"/>
       <c r="BV8" s="10"/>
       <c r="BW8" s="10"/>
-      <c r="BY8" s="64"/>
-      <c r="BZ8" s="67"/>
-      <c r="CA8" s="67"/>
-      <c r="CB8" s="64"/>
-      <c r="CC8" s="64"/>
-      <c r="CD8" s="64"/>
-      <c r="CE8" s="64"/>
-      <c r="CF8" s="67"/>
-      <c r="CG8" s="67"/>
-      <c r="CH8" s="64"/>
-      <c r="CI8" s="64"/>
-      <c r="CJ8" s="64"/>
-      <c r="CK8" s="64"/>
+      <c r="BY8" s="58"/>
+      <c r="BZ8" s="55"/>
+      <c r="CA8" s="55"/>
+      <c r="CB8" s="58"/>
+      <c r="CC8" s="58"/>
+      <c r="CD8" s="58"/>
+      <c r="CE8" s="58"/>
+      <c r="CF8" s="55"/>
+      <c r="CG8" s="55"/>
+      <c r="CH8" s="58"/>
+      <c r="CI8" s="58"/>
+      <c r="CJ8" s="58"/>
+      <c r="CK8" s="58"/>
       <c r="CL8" s="14"/>
-      <c r="CM8" s="64"/>
-      <c r="CN8" s="67"/>
-      <c r="CO8" s="67"/>
-      <c r="CP8" s="64"/>
-      <c r="CQ8" s="64"/>
-      <c r="CR8" s="64"/>
-      <c r="CS8" s="64"/>
-      <c r="CT8" s="67"/>
-      <c r="CU8" s="67"/>
-      <c r="CV8" s="64"/>
-      <c r="CW8" s="64"/>
-      <c r="CX8" s="64"/>
-      <c r="CY8" s="64"/>
-      <c r="CZ8" s="64"/>
+      <c r="CM8" s="58"/>
+      <c r="CN8" s="55"/>
+      <c r="CO8" s="55"/>
+      <c r="CP8" s="58"/>
+      <c r="CQ8" s="58"/>
+      <c r="CR8" s="58"/>
+      <c r="CS8" s="58"/>
+      <c r="CT8" s="55"/>
+      <c r="CU8" s="55"/>
+      <c r="CV8" s="58"/>
+      <c r="CW8" s="58"/>
+      <c r="CX8" s="58"/>
+      <c r="CY8" s="58"/>
+      <c r="CZ8" s="58"/>
     </row>
     <row r="9" spans="2:104" ht="20.25" customHeight="1">
       <c r="B9" s="5">
@@ -4071,34 +4071,34 @@
       <c r="BV9" s="10"/>
       <c r="BW9" s="10"/>
       <c r="BX9" s="13"/>
-      <c r="BY9" s="64"/>
-      <c r="BZ9" s="67"/>
-      <c r="CA9" s="67"/>
-      <c r="CB9" s="64"/>
-      <c r="CC9" s="64"/>
-      <c r="CD9" s="64"/>
-      <c r="CE9" s="64"/>
-      <c r="CF9" s="67"/>
-      <c r="CG9" s="67"/>
-      <c r="CH9" s="64"/>
-      <c r="CI9" s="64"/>
-      <c r="CJ9" s="64"/>
-      <c r="CK9" s="64"/>
+      <c r="BY9" s="58"/>
+      <c r="BZ9" s="55"/>
+      <c r="CA9" s="55"/>
+      <c r="CB9" s="58"/>
+      <c r="CC9" s="58"/>
+      <c r="CD9" s="58"/>
+      <c r="CE9" s="58"/>
+      <c r="CF9" s="55"/>
+      <c r="CG9" s="55"/>
+      <c r="CH9" s="58"/>
+      <c r="CI9" s="58"/>
+      <c r="CJ9" s="58"/>
+      <c r="CK9" s="58"/>
       <c r="CL9" s="14"/>
-      <c r="CM9" s="64"/>
-      <c r="CN9" s="67"/>
-      <c r="CO9" s="67"/>
-      <c r="CP9" s="64"/>
-      <c r="CQ9" s="64"/>
-      <c r="CR9" s="64"/>
-      <c r="CS9" s="64"/>
-      <c r="CT9" s="67"/>
-      <c r="CU9" s="67"/>
-      <c r="CV9" s="64"/>
-      <c r="CW9" s="64"/>
-      <c r="CX9" s="64"/>
-      <c r="CY9" s="64"/>
-      <c r="CZ9" s="64"/>
+      <c r="CM9" s="58"/>
+      <c r="CN9" s="55"/>
+      <c r="CO9" s="55"/>
+      <c r="CP9" s="58"/>
+      <c r="CQ9" s="58"/>
+      <c r="CR9" s="58"/>
+      <c r="CS9" s="58"/>
+      <c r="CT9" s="55"/>
+      <c r="CU9" s="55"/>
+      <c r="CV9" s="58"/>
+      <c r="CW9" s="58"/>
+      <c r="CX9" s="58"/>
+      <c r="CY9" s="58"/>
+      <c r="CZ9" s="58"/>
     </row>
     <row r="10" spans="2:104" ht="20.25" customHeight="1">
       <c r="B10" s="5">
@@ -4263,34 +4263,34 @@
       <c r="BV10" s="10"/>
       <c r="BW10" s="10"/>
       <c r="BX10" s="13"/>
-      <c r="BY10" s="64"/>
-      <c r="BZ10" s="67"/>
-      <c r="CA10" s="67"/>
-      <c r="CB10" s="64"/>
-      <c r="CC10" s="64"/>
-      <c r="CD10" s="64"/>
-      <c r="CE10" s="64"/>
-      <c r="CF10" s="67"/>
-      <c r="CG10" s="67"/>
-      <c r="CH10" s="64"/>
-      <c r="CI10" s="64"/>
-      <c r="CJ10" s="64"/>
-      <c r="CK10" s="64"/>
+      <c r="BY10" s="58"/>
+      <c r="BZ10" s="55"/>
+      <c r="CA10" s="55"/>
+      <c r="CB10" s="58"/>
+      <c r="CC10" s="58"/>
+      <c r="CD10" s="58"/>
+      <c r="CE10" s="58"/>
+      <c r="CF10" s="55"/>
+      <c r="CG10" s="55"/>
+      <c r="CH10" s="58"/>
+      <c r="CI10" s="58"/>
+      <c r="CJ10" s="58"/>
+      <c r="CK10" s="58"/>
       <c r="CL10" s="14"/>
-      <c r="CM10" s="64"/>
-      <c r="CN10" s="67"/>
-      <c r="CO10" s="67"/>
-      <c r="CP10" s="64"/>
-      <c r="CQ10" s="64"/>
-      <c r="CR10" s="64"/>
-      <c r="CS10" s="64"/>
-      <c r="CT10" s="67"/>
-      <c r="CU10" s="67"/>
-      <c r="CV10" s="64"/>
-      <c r="CW10" s="64"/>
-      <c r="CX10" s="64"/>
-      <c r="CY10" s="64"/>
-      <c r="CZ10" s="64"/>
+      <c r="CM10" s="58"/>
+      <c r="CN10" s="55"/>
+      <c r="CO10" s="55"/>
+      <c r="CP10" s="58"/>
+      <c r="CQ10" s="58"/>
+      <c r="CR10" s="58"/>
+      <c r="CS10" s="58"/>
+      <c r="CT10" s="55"/>
+      <c r="CU10" s="55"/>
+      <c r="CV10" s="58"/>
+      <c r="CW10" s="58"/>
+      <c r="CX10" s="58"/>
+      <c r="CY10" s="58"/>
+      <c r="CZ10" s="58"/>
     </row>
     <row r="11" spans="2:104" ht="20.25" customHeight="1">
       <c r="B11" s="5">
@@ -4453,34 +4453,34 @@
       <c r="BV11" s="10"/>
       <c r="BW11" s="10"/>
       <c r="BX11" s="13"/>
-      <c r="BY11" s="64"/>
-      <c r="BZ11" s="67"/>
-      <c r="CA11" s="67"/>
-      <c r="CB11" s="64"/>
-      <c r="CC11" s="64"/>
-      <c r="CD11" s="64"/>
-      <c r="CE11" s="64"/>
-      <c r="CF11" s="67"/>
-      <c r="CG11" s="67"/>
-      <c r="CH11" s="64"/>
-      <c r="CI11" s="64"/>
-      <c r="CJ11" s="64"/>
-      <c r="CK11" s="64"/>
+      <c r="BY11" s="58"/>
+      <c r="BZ11" s="55"/>
+      <c r="CA11" s="55"/>
+      <c r="CB11" s="58"/>
+      <c r="CC11" s="58"/>
+      <c r="CD11" s="58"/>
+      <c r="CE11" s="58"/>
+      <c r="CF11" s="55"/>
+      <c r="CG11" s="55"/>
+      <c r="CH11" s="58"/>
+      <c r="CI11" s="58"/>
+      <c r="CJ11" s="58"/>
+      <c r="CK11" s="58"/>
       <c r="CL11" s="14"/>
-      <c r="CM11" s="64"/>
-      <c r="CN11" s="67"/>
-      <c r="CO11" s="67"/>
-      <c r="CP11" s="64"/>
-      <c r="CQ11" s="64"/>
-      <c r="CR11" s="64"/>
-      <c r="CS11" s="64"/>
-      <c r="CT11" s="67"/>
-      <c r="CU11" s="67"/>
-      <c r="CV11" s="64"/>
-      <c r="CW11" s="64"/>
-      <c r="CX11" s="64"/>
-      <c r="CY11" s="64"/>
-      <c r="CZ11" s="64"/>
+      <c r="CM11" s="58"/>
+      <c r="CN11" s="55"/>
+      <c r="CO11" s="55"/>
+      <c r="CP11" s="58"/>
+      <c r="CQ11" s="58"/>
+      <c r="CR11" s="58"/>
+      <c r="CS11" s="58"/>
+      <c r="CT11" s="55"/>
+      <c r="CU11" s="55"/>
+      <c r="CV11" s="58"/>
+      <c r="CW11" s="58"/>
+      <c r="CX11" s="58"/>
+      <c r="CY11" s="58"/>
+      <c r="CZ11" s="58"/>
     </row>
     <row r="12" spans="2:104" ht="20.25" customHeight="1">
       <c r="B12" s="5">
@@ -4643,34 +4643,34 @@
       <c r="BV12" s="10"/>
       <c r="BW12" s="10"/>
       <c r="BX12" s="13"/>
-      <c r="BY12" s="64"/>
-      <c r="BZ12" s="67"/>
-      <c r="CA12" s="67"/>
-      <c r="CB12" s="64"/>
-      <c r="CC12" s="64"/>
-      <c r="CD12" s="64"/>
-      <c r="CE12" s="64"/>
-      <c r="CF12" s="67"/>
-      <c r="CG12" s="67"/>
-      <c r="CH12" s="64"/>
-      <c r="CI12" s="64"/>
-      <c r="CJ12" s="64"/>
-      <c r="CK12" s="64"/>
+      <c r="BY12" s="58"/>
+      <c r="BZ12" s="55"/>
+      <c r="CA12" s="55"/>
+      <c r="CB12" s="58"/>
+      <c r="CC12" s="58"/>
+      <c r="CD12" s="58"/>
+      <c r="CE12" s="58"/>
+      <c r="CF12" s="55"/>
+      <c r="CG12" s="55"/>
+      <c r="CH12" s="58"/>
+      <c r="CI12" s="58"/>
+      <c r="CJ12" s="58"/>
+      <c r="CK12" s="58"/>
       <c r="CL12" s="14"/>
-      <c r="CM12" s="64"/>
-      <c r="CN12" s="67"/>
-      <c r="CO12" s="67"/>
-      <c r="CP12" s="64"/>
-      <c r="CQ12" s="64"/>
-      <c r="CR12" s="64"/>
-      <c r="CS12" s="64"/>
-      <c r="CT12" s="67"/>
-      <c r="CU12" s="67"/>
-      <c r="CV12" s="64"/>
-      <c r="CW12" s="64"/>
-      <c r="CX12" s="64"/>
-      <c r="CY12" s="64"/>
-      <c r="CZ12" s="64"/>
+      <c r="CM12" s="58"/>
+      <c r="CN12" s="55"/>
+      <c r="CO12" s="55"/>
+      <c r="CP12" s="58"/>
+      <c r="CQ12" s="58"/>
+      <c r="CR12" s="58"/>
+      <c r="CS12" s="58"/>
+      <c r="CT12" s="55"/>
+      <c r="CU12" s="55"/>
+      <c r="CV12" s="58"/>
+      <c r="CW12" s="58"/>
+      <c r="CX12" s="58"/>
+      <c r="CY12" s="58"/>
+      <c r="CZ12" s="58"/>
     </row>
     <row r="13" spans="2:104" ht="20.25" customHeight="1">
       <c r="B13" s="5">
@@ -4835,34 +4835,34 @@
       <c r="BV13" s="10"/>
       <c r="BW13" s="10"/>
       <c r="BX13" s="13"/>
-      <c r="BY13" s="64"/>
-      <c r="BZ13" s="67"/>
-      <c r="CA13" s="67"/>
-      <c r="CB13" s="64"/>
-      <c r="CC13" s="64"/>
-      <c r="CD13" s="64"/>
-      <c r="CE13" s="64"/>
-      <c r="CF13" s="67"/>
-      <c r="CG13" s="67"/>
-      <c r="CH13" s="64"/>
-      <c r="CI13" s="64"/>
-      <c r="CJ13" s="64"/>
-      <c r="CK13" s="64"/>
+      <c r="BY13" s="58"/>
+      <c r="BZ13" s="55"/>
+      <c r="CA13" s="55"/>
+      <c r="CB13" s="58"/>
+      <c r="CC13" s="58"/>
+      <c r="CD13" s="58"/>
+      <c r="CE13" s="58"/>
+      <c r="CF13" s="55"/>
+      <c r="CG13" s="55"/>
+      <c r="CH13" s="58"/>
+      <c r="CI13" s="58"/>
+      <c r="CJ13" s="58"/>
+      <c r="CK13" s="58"/>
       <c r="CL13" s="14"/>
-      <c r="CM13" s="64"/>
-      <c r="CN13" s="67"/>
-      <c r="CO13" s="67"/>
-      <c r="CP13" s="64"/>
-      <c r="CQ13" s="64"/>
-      <c r="CR13" s="64"/>
-      <c r="CS13" s="64"/>
-      <c r="CT13" s="67"/>
-      <c r="CU13" s="67"/>
-      <c r="CV13" s="64"/>
-      <c r="CW13" s="64"/>
-      <c r="CX13" s="64"/>
-      <c r="CY13" s="64"/>
-      <c r="CZ13" s="64"/>
+      <c r="CM13" s="58"/>
+      <c r="CN13" s="55"/>
+      <c r="CO13" s="55"/>
+      <c r="CP13" s="58"/>
+      <c r="CQ13" s="58"/>
+      <c r="CR13" s="58"/>
+      <c r="CS13" s="58"/>
+      <c r="CT13" s="55"/>
+      <c r="CU13" s="55"/>
+      <c r="CV13" s="58"/>
+      <c r="CW13" s="58"/>
+      <c r="CX13" s="58"/>
+      <c r="CY13" s="58"/>
+      <c r="CZ13" s="58"/>
     </row>
     <row r="14" spans="2:104" ht="20.25" customHeight="1">
       <c r="B14" s="5">
@@ -5028,28 +5028,28 @@
       <c r="BW14" s="10"/>
       <c r="BX14" s="13"/>
       <c r="BY14" s="36"/>
-      <c r="BZ14" s="68"/>
-      <c r="CA14" s="68"/>
+      <c r="BZ14" s="56"/>
+      <c r="CA14" s="56"/>
       <c r="CB14" s="36"/>
       <c r="CC14" s="36"/>
       <c r="CD14" s="36"/>
       <c r="CE14" s="36"/>
-      <c r="CF14" s="68"/>
-      <c r="CG14" s="68"/>
+      <c r="CF14" s="56"/>
+      <c r="CG14" s="56"/>
       <c r="CH14" s="36"/>
       <c r="CI14" s="36"/>
       <c r="CJ14" s="36"/>
       <c r="CK14" s="36"/>
       <c r="CL14" s="14"/>
       <c r="CM14" s="36"/>
-      <c r="CN14" s="68"/>
-      <c r="CO14" s="68"/>
+      <c r="CN14" s="56"/>
+      <c r="CO14" s="56"/>
       <c r="CP14" s="36"/>
       <c r="CQ14" s="36"/>
       <c r="CR14" s="36"/>
       <c r="CS14" s="36"/>
-      <c r="CT14" s="68"/>
-      <c r="CU14" s="68"/>
+      <c r="CT14" s="56"/>
+      <c r="CU14" s="56"/>
       <c r="CV14" s="36"/>
       <c r="CW14" s="36"/>
       <c r="CX14" s="36"/>
@@ -5158,7 +5158,7 @@
       </c>
       <c r="AL15" s="6"/>
       <c r="AM15" s="7">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AN15" s="17"/>
       <c r="AO15" s="52">
@@ -5217,50 +5217,50 @@
       <c r="BV15" s="10"/>
       <c r="BW15" s="10"/>
       <c r="BX15" s="13"/>
-      <c r="BY15" s="63"/>
-      <c r="BZ15" s="66">
+      <c r="BY15" s="57"/>
+      <c r="BZ15" s="54">
         <v>45104</v>
       </c>
-      <c r="CA15" s="66">
+      <c r="CA15" s="54">
         <v>45104</v>
       </c>
-      <c r="CB15" s="63"/>
-      <c r="CC15" s="63"/>
-      <c r="CD15" s="63"/>
-      <c r="CE15" s="63"/>
-      <c r="CF15" s="66">
+      <c r="CB15" s="57"/>
+      <c r="CC15" s="57"/>
+      <c r="CD15" s="57"/>
+      <c r="CE15" s="57"/>
+      <c r="CF15" s="54">
         <v>45104</v>
       </c>
-      <c r="CG15" s="66">
+      <c r="CG15" s="54">
         <v>45104</v>
       </c>
-      <c r="CH15" s="63"/>
-      <c r="CI15" s="63"/>
-      <c r="CJ15" s="63"/>
-      <c r="CK15" s="63"/>
+      <c r="CH15" s="57"/>
+      <c r="CI15" s="57"/>
+      <c r="CJ15" s="57"/>
+      <c r="CK15" s="57"/>
       <c r="CL15" s="14"/>
-      <c r="CM15" s="63"/>
-      <c r="CN15" s="66">
+      <c r="CM15" s="57"/>
+      <c r="CN15" s="54">
         <v>45105</v>
       </c>
-      <c r="CO15" s="66">
+      <c r="CO15" s="54">
         <v>45105</v>
       </c>
-      <c r="CP15" s="63"/>
-      <c r="CQ15" s="63"/>
-      <c r="CR15" s="63"/>
-      <c r="CS15" s="63"/>
-      <c r="CT15" s="66">
+      <c r="CP15" s="57"/>
+      <c r="CQ15" s="57"/>
+      <c r="CR15" s="57"/>
+      <c r="CS15" s="57"/>
+      <c r="CT15" s="54">
         <v>45105</v>
       </c>
-      <c r="CU15" s="66">
+      <c r="CU15" s="54">
         <v>45105</v>
       </c>
-      <c r="CV15" s="63"/>
-      <c r="CW15" s="63"/>
-      <c r="CX15" s="63"/>
-      <c r="CY15" s="63"/>
-      <c r="CZ15" s="63"/>
+      <c r="CV15" s="57"/>
+      <c r="CW15" s="57"/>
+      <c r="CX15" s="57"/>
+      <c r="CY15" s="57"/>
+      <c r="CZ15" s="57"/>
     </row>
     <row r="16" spans="2:104" ht="20.25" customHeight="1">
       <c r="B16" s="5">
@@ -5422,34 +5422,34 @@
       <c r="BU16" s="7"/>
       <c r="BV16" s="10"/>
       <c r="BW16" s="10"/>
-      <c r="BY16" s="64"/>
-      <c r="BZ16" s="67"/>
-      <c r="CA16" s="67"/>
-      <c r="CB16" s="64"/>
-      <c r="CC16" s="64"/>
-      <c r="CD16" s="64"/>
-      <c r="CE16" s="64"/>
-      <c r="CF16" s="67"/>
-      <c r="CG16" s="67"/>
-      <c r="CH16" s="64"/>
-      <c r="CI16" s="64"/>
-      <c r="CJ16" s="64"/>
-      <c r="CK16" s="64"/>
+      <c r="BY16" s="58"/>
+      <c r="BZ16" s="55"/>
+      <c r="CA16" s="55"/>
+      <c r="CB16" s="58"/>
+      <c r="CC16" s="58"/>
+      <c r="CD16" s="58"/>
+      <c r="CE16" s="58"/>
+      <c r="CF16" s="55"/>
+      <c r="CG16" s="55"/>
+      <c r="CH16" s="58"/>
+      <c r="CI16" s="58"/>
+      <c r="CJ16" s="58"/>
+      <c r="CK16" s="58"/>
       <c r="CL16" s="29"/>
-      <c r="CM16" s="64"/>
-      <c r="CN16" s="67"/>
-      <c r="CO16" s="67"/>
-      <c r="CP16" s="64"/>
-      <c r="CQ16" s="64"/>
-      <c r="CR16" s="64"/>
-      <c r="CS16" s="64"/>
-      <c r="CT16" s="67"/>
-      <c r="CU16" s="67"/>
-      <c r="CV16" s="64"/>
-      <c r="CW16" s="64"/>
-      <c r="CX16" s="64"/>
-      <c r="CY16" s="64"/>
-      <c r="CZ16" s="64"/>
+      <c r="CM16" s="58"/>
+      <c r="CN16" s="55"/>
+      <c r="CO16" s="55"/>
+      <c r="CP16" s="58"/>
+      <c r="CQ16" s="58"/>
+      <c r="CR16" s="58"/>
+      <c r="CS16" s="58"/>
+      <c r="CT16" s="55"/>
+      <c r="CU16" s="55"/>
+      <c r="CV16" s="58"/>
+      <c r="CW16" s="58"/>
+      <c r="CX16" s="58"/>
+      <c r="CY16" s="58"/>
+      <c r="CZ16" s="58"/>
     </row>
     <row r="17" spans="2:104" ht="20.25" customHeight="1">
       <c r="B17" s="5">
@@ -5553,7 +5553,7 @@
       </c>
       <c r="AL17" s="6"/>
       <c r="AM17" s="7">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="AN17" s="17"/>
       <c r="AO17" s="52">
@@ -5611,34 +5611,34 @@
       <c r="BU17" s="7"/>
       <c r="BV17" s="10"/>
       <c r="BW17" s="10"/>
-      <c r="BY17" s="64"/>
-      <c r="BZ17" s="67"/>
-      <c r="CA17" s="67"/>
-      <c r="CB17" s="64"/>
-      <c r="CC17" s="64"/>
-      <c r="CD17" s="64"/>
-      <c r="CE17" s="64"/>
-      <c r="CF17" s="67"/>
-      <c r="CG17" s="67"/>
-      <c r="CH17" s="64"/>
-      <c r="CI17" s="64"/>
-      <c r="CJ17" s="64"/>
-      <c r="CK17" s="64"/>
+      <c r="BY17" s="58"/>
+      <c r="BZ17" s="55"/>
+      <c r="CA17" s="55"/>
+      <c r="CB17" s="58"/>
+      <c r="CC17" s="58"/>
+      <c r="CD17" s="58"/>
+      <c r="CE17" s="58"/>
+      <c r="CF17" s="55"/>
+      <c r="CG17" s="55"/>
+      <c r="CH17" s="58"/>
+      <c r="CI17" s="58"/>
+      <c r="CJ17" s="58"/>
+      <c r="CK17" s="58"/>
       <c r="CL17" s="29"/>
-      <c r="CM17" s="64"/>
-      <c r="CN17" s="67"/>
-      <c r="CO17" s="67"/>
-      <c r="CP17" s="64"/>
-      <c r="CQ17" s="64"/>
-      <c r="CR17" s="64"/>
-      <c r="CS17" s="64"/>
-      <c r="CT17" s="67"/>
-      <c r="CU17" s="67"/>
-      <c r="CV17" s="64"/>
-      <c r="CW17" s="64"/>
-      <c r="CX17" s="64"/>
-      <c r="CY17" s="64"/>
-      <c r="CZ17" s="64"/>
+      <c r="CM17" s="58"/>
+      <c r="CN17" s="55"/>
+      <c r="CO17" s="55"/>
+      <c r="CP17" s="58"/>
+      <c r="CQ17" s="58"/>
+      <c r="CR17" s="58"/>
+      <c r="CS17" s="58"/>
+      <c r="CT17" s="55"/>
+      <c r="CU17" s="55"/>
+      <c r="CV17" s="58"/>
+      <c r="CW17" s="58"/>
+      <c r="CX17" s="58"/>
+      <c r="CY17" s="58"/>
+      <c r="CZ17" s="58"/>
     </row>
     <row r="18" spans="2:104" ht="20.25" customHeight="1">
       <c r="B18" s="5">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="AL18" s="6"/>
       <c r="AM18" s="7">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AN18" s="17"/>
       <c r="AO18" s="52">
@@ -5801,34 +5801,34 @@
       <c r="BV18" s="10"/>
       <c r="BW18" s="10"/>
       <c r="BX18" s="11"/>
-      <c r="BY18" s="64"/>
-      <c r="BZ18" s="67"/>
-      <c r="CA18" s="67"/>
-      <c r="CB18" s="64"/>
-      <c r="CC18" s="64"/>
-      <c r="CD18" s="64"/>
-      <c r="CE18" s="64"/>
-      <c r="CF18" s="67"/>
-      <c r="CG18" s="67"/>
-      <c r="CH18" s="64"/>
-      <c r="CI18" s="64"/>
-      <c r="CJ18" s="64"/>
-      <c r="CK18" s="64"/>
+      <c r="BY18" s="58"/>
+      <c r="BZ18" s="55"/>
+      <c r="CA18" s="55"/>
+      <c r="CB18" s="58"/>
+      <c r="CC18" s="58"/>
+      <c r="CD18" s="58"/>
+      <c r="CE18" s="58"/>
+      <c r="CF18" s="55"/>
+      <c r="CG18" s="55"/>
+      <c r="CH18" s="58"/>
+      <c r="CI18" s="58"/>
+      <c r="CJ18" s="58"/>
+      <c r="CK18" s="58"/>
       <c r="CL18" s="29"/>
-      <c r="CM18" s="64"/>
-      <c r="CN18" s="67"/>
-      <c r="CO18" s="67"/>
-      <c r="CP18" s="64"/>
-      <c r="CQ18" s="64"/>
-      <c r="CR18" s="64"/>
-      <c r="CS18" s="64"/>
-      <c r="CT18" s="67"/>
-      <c r="CU18" s="67"/>
-      <c r="CV18" s="64"/>
-      <c r="CW18" s="64"/>
-      <c r="CX18" s="64"/>
-      <c r="CY18" s="64"/>
-      <c r="CZ18" s="64"/>
+      <c r="CM18" s="58"/>
+      <c r="CN18" s="55"/>
+      <c r="CO18" s="55"/>
+      <c r="CP18" s="58"/>
+      <c r="CQ18" s="58"/>
+      <c r="CR18" s="58"/>
+      <c r="CS18" s="58"/>
+      <c r="CT18" s="55"/>
+      <c r="CU18" s="55"/>
+      <c r="CV18" s="58"/>
+      <c r="CW18" s="58"/>
+      <c r="CX18" s="58"/>
+      <c r="CY18" s="58"/>
+      <c r="CZ18" s="58"/>
     </row>
     <row r="19" spans="2:104" ht="20.25" customHeight="1">
       <c r="B19" s="5">
@@ -5991,34 +5991,34 @@
       <c r="BV19" s="10"/>
       <c r="BW19" s="10"/>
       <c r="BX19" s="11"/>
-      <c r="BY19" s="64"/>
-      <c r="BZ19" s="67"/>
-      <c r="CA19" s="67"/>
-      <c r="CB19" s="64"/>
-      <c r="CC19" s="64"/>
-      <c r="CD19" s="64"/>
-      <c r="CE19" s="64"/>
-      <c r="CF19" s="67"/>
-      <c r="CG19" s="67"/>
-      <c r="CH19" s="64"/>
-      <c r="CI19" s="64"/>
-      <c r="CJ19" s="64"/>
-      <c r="CK19" s="64"/>
+      <c r="BY19" s="58"/>
+      <c r="BZ19" s="55"/>
+      <c r="CA19" s="55"/>
+      <c r="CB19" s="58"/>
+      <c r="CC19" s="58"/>
+      <c r="CD19" s="58"/>
+      <c r="CE19" s="58"/>
+      <c r="CF19" s="55"/>
+      <c r="CG19" s="55"/>
+      <c r="CH19" s="58"/>
+      <c r="CI19" s="58"/>
+      <c r="CJ19" s="58"/>
+      <c r="CK19" s="58"/>
       <c r="CL19" s="29"/>
-      <c r="CM19" s="64"/>
-      <c r="CN19" s="67"/>
-      <c r="CO19" s="67"/>
-      <c r="CP19" s="64"/>
-      <c r="CQ19" s="64"/>
-      <c r="CR19" s="64"/>
-      <c r="CS19" s="64"/>
-      <c r="CT19" s="67"/>
-      <c r="CU19" s="67"/>
-      <c r="CV19" s="64"/>
-      <c r="CW19" s="64"/>
-      <c r="CX19" s="64"/>
-      <c r="CY19" s="64"/>
-      <c r="CZ19" s="64"/>
+      <c r="CM19" s="58"/>
+      <c r="CN19" s="55"/>
+      <c r="CO19" s="55"/>
+      <c r="CP19" s="58"/>
+      <c r="CQ19" s="58"/>
+      <c r="CR19" s="58"/>
+      <c r="CS19" s="58"/>
+      <c r="CT19" s="55"/>
+      <c r="CU19" s="55"/>
+      <c r="CV19" s="58"/>
+      <c r="CW19" s="58"/>
+      <c r="CX19" s="58"/>
+      <c r="CY19" s="58"/>
+      <c r="CZ19" s="58"/>
     </row>
     <row r="20" spans="2:104" ht="20.25" customHeight="1">
       <c r="B20" s="5">
@@ -6122,7 +6122,7 @@
       </c>
       <c r="AL20" s="6"/>
       <c r="AM20" s="7">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="AN20" s="17"/>
       <c r="AO20" s="52">
@@ -6181,34 +6181,34 @@
       <c r="BV20" s="10"/>
       <c r="BW20" s="10"/>
       <c r="BX20" s="11"/>
-      <c r="BY20" s="64"/>
-      <c r="BZ20" s="67"/>
-      <c r="CA20" s="67"/>
-      <c r="CB20" s="64"/>
-      <c r="CC20" s="64"/>
-      <c r="CD20" s="64"/>
-      <c r="CE20" s="64"/>
-      <c r="CF20" s="67"/>
-      <c r="CG20" s="67"/>
-      <c r="CH20" s="64"/>
-      <c r="CI20" s="64"/>
-      <c r="CJ20" s="64"/>
-      <c r="CK20" s="64"/>
+      <c r="BY20" s="58"/>
+      <c r="BZ20" s="55"/>
+      <c r="CA20" s="55"/>
+      <c r="CB20" s="58"/>
+      <c r="CC20" s="58"/>
+      <c r="CD20" s="58"/>
+      <c r="CE20" s="58"/>
+      <c r="CF20" s="55"/>
+      <c r="CG20" s="55"/>
+      <c r="CH20" s="58"/>
+      <c r="CI20" s="58"/>
+      <c r="CJ20" s="58"/>
+      <c r="CK20" s="58"/>
       <c r="CL20" s="29"/>
-      <c r="CM20" s="64"/>
-      <c r="CN20" s="67"/>
-      <c r="CO20" s="67"/>
-      <c r="CP20" s="64"/>
-      <c r="CQ20" s="64"/>
-      <c r="CR20" s="64"/>
-      <c r="CS20" s="64"/>
-      <c r="CT20" s="67"/>
-      <c r="CU20" s="67"/>
-      <c r="CV20" s="64"/>
-      <c r="CW20" s="64"/>
-      <c r="CX20" s="64"/>
-      <c r="CY20" s="64"/>
-      <c r="CZ20" s="64"/>
+      <c r="CM20" s="58"/>
+      <c r="CN20" s="55"/>
+      <c r="CO20" s="55"/>
+      <c r="CP20" s="58"/>
+      <c r="CQ20" s="58"/>
+      <c r="CR20" s="58"/>
+      <c r="CS20" s="58"/>
+      <c r="CT20" s="55"/>
+      <c r="CU20" s="55"/>
+      <c r="CV20" s="58"/>
+      <c r="CW20" s="58"/>
+      <c r="CX20" s="58"/>
+      <c r="CY20" s="58"/>
+      <c r="CZ20" s="58"/>
     </row>
     <row r="21" spans="2:104" ht="20.25" customHeight="1">
       <c r="B21" s="5">
@@ -6312,7 +6312,7 @@
       </c>
       <c r="AL21" s="6"/>
       <c r="AM21" s="7">
-        <v>0.25</v>
+        <v>0.45</v>
       </c>
       <c r="AN21" s="17"/>
       <c r="AO21" s="52">
@@ -6371,34 +6371,34 @@
       <c r="BV21" s="10"/>
       <c r="BW21" s="10"/>
       <c r="BX21" s="11"/>
-      <c r="BY21" s="64"/>
-      <c r="BZ21" s="67"/>
-      <c r="CA21" s="67"/>
-      <c r="CB21" s="64"/>
-      <c r="CC21" s="64"/>
-      <c r="CD21" s="64"/>
-      <c r="CE21" s="64"/>
-      <c r="CF21" s="67"/>
-      <c r="CG21" s="67"/>
-      <c r="CH21" s="64"/>
-      <c r="CI21" s="64"/>
-      <c r="CJ21" s="64"/>
-      <c r="CK21" s="64"/>
+      <c r="BY21" s="58"/>
+      <c r="BZ21" s="55"/>
+      <c r="CA21" s="55"/>
+      <c r="CB21" s="58"/>
+      <c r="CC21" s="58"/>
+      <c r="CD21" s="58"/>
+      <c r="CE21" s="58"/>
+      <c r="CF21" s="55"/>
+      <c r="CG21" s="55"/>
+      <c r="CH21" s="58"/>
+      <c r="CI21" s="58"/>
+      <c r="CJ21" s="58"/>
+      <c r="CK21" s="58"/>
       <c r="CL21" s="29"/>
-      <c r="CM21" s="64"/>
-      <c r="CN21" s="67"/>
-      <c r="CO21" s="67"/>
-      <c r="CP21" s="64"/>
-      <c r="CQ21" s="64"/>
-      <c r="CR21" s="64"/>
-      <c r="CS21" s="64"/>
-      <c r="CT21" s="67"/>
-      <c r="CU21" s="67"/>
-      <c r="CV21" s="64"/>
-      <c r="CW21" s="64"/>
-      <c r="CX21" s="64"/>
-      <c r="CY21" s="64"/>
-      <c r="CZ21" s="64"/>
+      <c r="CM21" s="58"/>
+      <c r="CN21" s="55"/>
+      <c r="CO21" s="55"/>
+      <c r="CP21" s="58"/>
+      <c r="CQ21" s="58"/>
+      <c r="CR21" s="58"/>
+      <c r="CS21" s="58"/>
+      <c r="CT21" s="55"/>
+      <c r="CU21" s="55"/>
+      <c r="CV21" s="58"/>
+      <c r="CW21" s="58"/>
+      <c r="CX21" s="58"/>
+      <c r="CY21" s="58"/>
+      <c r="CZ21" s="58"/>
     </row>
     <row r="22" spans="2:104" ht="20.25" customHeight="1">
       <c r="B22" s="5">
@@ -6557,34 +6557,34 @@
       <c r="BV22" s="49"/>
       <c r="BW22" s="49"/>
       <c r="BX22" s="13"/>
-      <c r="BY22" s="65"/>
-      <c r="BZ22" s="68"/>
-      <c r="CA22" s="68"/>
-      <c r="CB22" s="65"/>
-      <c r="CC22" s="65"/>
-      <c r="CD22" s="65"/>
-      <c r="CE22" s="65"/>
-      <c r="CF22" s="68"/>
-      <c r="CG22" s="68"/>
-      <c r="CH22" s="65"/>
-      <c r="CI22" s="65"/>
-      <c r="CJ22" s="65"/>
-      <c r="CK22" s="65"/>
+      <c r="BY22" s="59"/>
+      <c r="BZ22" s="56"/>
+      <c r="CA22" s="56"/>
+      <c r="CB22" s="59"/>
+      <c r="CC22" s="59"/>
+      <c r="CD22" s="59"/>
+      <c r="CE22" s="59"/>
+      <c r="CF22" s="56"/>
+      <c r="CG22" s="56"/>
+      <c r="CH22" s="59"/>
+      <c r="CI22" s="59"/>
+      <c r="CJ22" s="59"/>
+      <c r="CK22" s="59"/>
       <c r="CL22" s="14"/>
-      <c r="CM22" s="65"/>
-      <c r="CN22" s="68"/>
-      <c r="CO22" s="68"/>
-      <c r="CP22" s="65"/>
-      <c r="CQ22" s="65"/>
-      <c r="CR22" s="65"/>
-      <c r="CS22" s="65"/>
-      <c r="CT22" s="68"/>
-      <c r="CU22" s="68"/>
-      <c r="CV22" s="65"/>
-      <c r="CW22" s="65"/>
-      <c r="CX22" s="65"/>
-      <c r="CY22" s="65"/>
-      <c r="CZ22" s="65"/>
+      <c r="CM22" s="59"/>
+      <c r="CN22" s="56"/>
+      <c r="CO22" s="56"/>
+      <c r="CP22" s="59"/>
+      <c r="CQ22" s="59"/>
+      <c r="CR22" s="59"/>
+      <c r="CS22" s="59"/>
+      <c r="CT22" s="56"/>
+      <c r="CU22" s="56"/>
+      <c r="CV22" s="59"/>
+      <c r="CW22" s="59"/>
+      <c r="CX22" s="59"/>
+      <c r="CY22" s="59"/>
+      <c r="CZ22" s="59"/>
     </row>
     <row r="23" spans="2:104" ht="20.25" customHeight="1">
       <c r="BX23" s="11"/>
@@ -6596,42 +6596,83 @@
     </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="BZ7:BZ14"/>
-    <mergeCell ref="CA7:CA14"/>
-    <mergeCell ref="CF7:CF14"/>
-    <mergeCell ref="CG7:CG14"/>
-    <mergeCell ref="CN7:CN14"/>
-    <mergeCell ref="CO7:CO14"/>
-    <mergeCell ref="CT7:CT14"/>
-    <mergeCell ref="CU7:CU14"/>
-    <mergeCell ref="CM7:CM13"/>
-    <mergeCell ref="CB7:CB13"/>
-    <mergeCell ref="CC7:CC13"/>
-    <mergeCell ref="CD7:CD13"/>
-    <mergeCell ref="CE7:CE13"/>
-    <mergeCell ref="CH7:CH13"/>
-    <mergeCell ref="CI7:CI13"/>
-    <mergeCell ref="CJ7:CJ13"/>
-    <mergeCell ref="CB15:CB22"/>
-    <mergeCell ref="CC15:CC22"/>
-    <mergeCell ref="CD15:CD22"/>
-    <mergeCell ref="CM15:CM22"/>
-    <mergeCell ref="CN15:CN22"/>
-    <mergeCell ref="CO15:CO22"/>
-    <mergeCell ref="CE15:CE22"/>
-    <mergeCell ref="CF15:CF22"/>
-    <mergeCell ref="CZ7:CZ13"/>
-    <mergeCell ref="CQ15:CQ22"/>
-    <mergeCell ref="CR15:CR22"/>
-    <mergeCell ref="CS15:CS22"/>
-    <mergeCell ref="CV7:CV13"/>
-    <mergeCell ref="CW7:CW13"/>
-    <mergeCell ref="CX15:CX22"/>
-    <mergeCell ref="CY15:CY22"/>
-    <mergeCell ref="CW15:CW22"/>
-    <mergeCell ref="CX7:CX13"/>
-    <mergeCell ref="CY7:CY13"/>
-    <mergeCell ref="CG15:CG22"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="CE4:CK4"/>
+    <mergeCell ref="CM4:CR4"/>
+    <mergeCell ref="CS4:CZ4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:R4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="BM5:BN5"/>
+    <mergeCell ref="BQ5:BR5"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="BP4:BW4"/>
+    <mergeCell ref="BY4:CD4"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="Z4:AF4"/>
+    <mergeCell ref="AH4:AM4"/>
+    <mergeCell ref="AN4:AT4"/>
+    <mergeCell ref="AV4:BA4"/>
+    <mergeCell ref="BB4:BH4"/>
+    <mergeCell ref="BJ4:BO4"/>
+    <mergeCell ref="CN5:CO5"/>
+    <mergeCell ref="CP5:CQ5"/>
+    <mergeCell ref="CM5:CM6"/>
+    <mergeCell ref="CH5:CI5"/>
+    <mergeCell ref="CE5:CE6"/>
+    <mergeCell ref="CK7:CK13"/>
+    <mergeCell ref="CP7:CP13"/>
+    <mergeCell ref="CQ7:CQ13"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="CF5:CG5"/>
     <mergeCell ref="BY7:BY13"/>
     <mergeCell ref="CZ5:CZ6"/>
     <mergeCell ref="CX5:CX6"/>
@@ -6656,83 +6697,42 @@
     <mergeCell ref="CR5:CR6"/>
     <mergeCell ref="CJ5:CJ6"/>
     <mergeCell ref="CK5:CK6"/>
-    <mergeCell ref="CN5:CO5"/>
-    <mergeCell ref="CP5:CQ5"/>
-    <mergeCell ref="CM5:CM6"/>
-    <mergeCell ref="CH5:CI5"/>
-    <mergeCell ref="CE5:CE6"/>
-    <mergeCell ref="CK7:CK13"/>
-    <mergeCell ref="CP7:CP13"/>
-    <mergeCell ref="CQ7:CQ13"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="CF5:CG5"/>
-    <mergeCell ref="BP4:BW4"/>
-    <mergeCell ref="BY4:CD4"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="Z4:AF4"/>
-    <mergeCell ref="AH4:AM4"/>
-    <mergeCell ref="AN4:AT4"/>
-    <mergeCell ref="AV4:BA4"/>
-    <mergeCell ref="BB4:BH4"/>
-    <mergeCell ref="BJ4:BO4"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="BZ5:CA5"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BW5:BW6"/>
-    <mergeCell ref="BY5:BY6"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="CE4:CK4"/>
-    <mergeCell ref="CM4:CR4"/>
-    <mergeCell ref="CS4:CZ4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:R4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="CB15:CB22"/>
+    <mergeCell ref="CC15:CC22"/>
+    <mergeCell ref="CD15:CD22"/>
+    <mergeCell ref="CM15:CM22"/>
+    <mergeCell ref="CN15:CN22"/>
+    <mergeCell ref="CO15:CO22"/>
+    <mergeCell ref="CE15:CE22"/>
+    <mergeCell ref="CF15:CF22"/>
+    <mergeCell ref="CZ7:CZ13"/>
+    <mergeCell ref="CQ15:CQ22"/>
+    <mergeCell ref="CR15:CR22"/>
+    <mergeCell ref="CS15:CS22"/>
+    <mergeCell ref="CV7:CV13"/>
+    <mergeCell ref="CW7:CW13"/>
+    <mergeCell ref="CX15:CX22"/>
+    <mergeCell ref="CY15:CY22"/>
+    <mergeCell ref="CW15:CW22"/>
+    <mergeCell ref="CX7:CX13"/>
+    <mergeCell ref="CY7:CY13"/>
+    <mergeCell ref="CG15:CG22"/>
+    <mergeCell ref="BZ7:BZ14"/>
+    <mergeCell ref="CA7:CA14"/>
+    <mergeCell ref="CF7:CF14"/>
+    <mergeCell ref="CG7:CG14"/>
+    <mergeCell ref="CN7:CN14"/>
+    <mergeCell ref="CO7:CO14"/>
+    <mergeCell ref="CT7:CT14"/>
+    <mergeCell ref="CU7:CU14"/>
+    <mergeCell ref="CM7:CM13"/>
+    <mergeCell ref="CB7:CB13"/>
+    <mergeCell ref="CC7:CC13"/>
+    <mergeCell ref="CD7:CD13"/>
+    <mergeCell ref="CE7:CE13"/>
+    <mergeCell ref="CH7:CH13"/>
+    <mergeCell ref="CI7:CI13"/>
+    <mergeCell ref="CJ7:CJ13"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="F7:K14">

--- a/スケジュール（2023-06）.xlsx
+++ b/スケジュール（2023-06）.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7621B8A1-6AE9-4A9D-870F-85B755C3741B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD11316-1E5E-43E5-904F-59A7579B7E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15975" yWindow="-4230" windowWidth="14880" windowHeight="12885" tabRatio="910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-16065" yWindow="-1275" windowWidth="12690" windowHeight="13725" tabRatio="910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="体制図" sheetId="11" r:id="rId1"/>
@@ -803,38 +803,11 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -846,6 +819,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2929,381 +2929,381 @@
       </c>
     </row>
     <row r="4" spans="2:104" s="20" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="55" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="61" t="s">
+      <c r="D4" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="61" t="s">
+      <c r="E4" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="61" t="s">
+      <c r="F4" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61" t="s">
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="T4" s="61" t="s">
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="T4" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="61"/>
-      <c r="Y4" s="61"/>
-      <c r="Z4" s="61" t="s">
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="61"/>
-      <c r="AB4" s="61"/>
-      <c r="AC4" s="61"/>
-      <c r="AD4" s="61"/>
-      <c r="AE4" s="61"/>
-      <c r="AF4" s="61"/>
-      <c r="AH4" s="61" t="s">
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="55"/>
+      <c r="AD4" s="55"/>
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="55"/>
+      <c r="AH4" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AI4" s="61"/>
-      <c r="AJ4" s="61"/>
-      <c r="AK4" s="61"/>
-      <c r="AL4" s="61"/>
-      <c r="AM4" s="61"/>
-      <c r="AN4" s="61" t="s">
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="55"/>
+      <c r="AK4" s="55"/>
+      <c r="AL4" s="55"/>
+      <c r="AM4" s="55"/>
+      <c r="AN4" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="AO4" s="61"/>
-      <c r="AP4" s="61"/>
-      <c r="AQ4" s="61"/>
-      <c r="AR4" s="61"/>
-      <c r="AS4" s="61"/>
-      <c r="AT4" s="65"/>
+      <c r="AO4" s="55"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="55"/>
+      <c r="AR4" s="55"/>
+      <c r="AS4" s="55"/>
+      <c r="AT4" s="56"/>
       <c r="AU4" s="21"/>
-      <c r="AV4" s="61" t="s">
+      <c r="AV4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="AW4" s="61"/>
-      <c r="AX4" s="61"/>
-      <c r="AY4" s="61"/>
-      <c r="AZ4" s="61"/>
-      <c r="BA4" s="61"/>
-      <c r="BB4" s="61" t="s">
+      <c r="AW4" s="55"/>
+      <c r="AX4" s="55"/>
+      <c r="AY4" s="55"/>
+      <c r="AZ4" s="55"/>
+      <c r="BA4" s="55"/>
+      <c r="BB4" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="BC4" s="61"/>
-      <c r="BD4" s="61"/>
-      <c r="BE4" s="61"/>
-      <c r="BF4" s="61"/>
-      <c r="BG4" s="61"/>
-      <c r="BH4" s="61"/>
+      <c r="BC4" s="55"/>
+      <c r="BD4" s="55"/>
+      <c r="BE4" s="55"/>
+      <c r="BF4" s="55"/>
+      <c r="BG4" s="55"/>
+      <c r="BH4" s="55"/>
       <c r="BI4" s="22"/>
-      <c r="BJ4" s="66" t="s">
+      <c r="BJ4" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="BK4" s="61"/>
-      <c r="BL4" s="61"/>
-      <c r="BM4" s="61"/>
-      <c r="BN4" s="61"/>
-      <c r="BO4" s="61"/>
-      <c r="BP4" s="61" t="s">
+      <c r="BK4" s="55"/>
+      <c r="BL4" s="55"/>
+      <c r="BM4" s="55"/>
+      <c r="BN4" s="55"/>
+      <c r="BO4" s="55"/>
+      <c r="BP4" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="BQ4" s="61"/>
-      <c r="BR4" s="61"/>
-      <c r="BS4" s="61"/>
-      <c r="BT4" s="61"/>
-      <c r="BU4" s="61"/>
-      <c r="BV4" s="61"/>
-      <c r="BW4" s="61"/>
-      <c r="BY4" s="61" t="s">
+      <c r="BQ4" s="55"/>
+      <c r="BR4" s="55"/>
+      <c r="BS4" s="55"/>
+      <c r="BT4" s="55"/>
+      <c r="BU4" s="55"/>
+      <c r="BV4" s="55"/>
+      <c r="BW4" s="55"/>
+      <c r="BY4" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="BZ4" s="61"/>
-      <c r="CA4" s="61"/>
-      <c r="CB4" s="61"/>
-      <c r="CC4" s="61"/>
-      <c r="CD4" s="61"/>
-      <c r="CE4" s="61" t="s">
+      <c r="BZ4" s="55"/>
+      <c r="CA4" s="55"/>
+      <c r="CB4" s="55"/>
+      <c r="CC4" s="55"/>
+      <c r="CD4" s="55"/>
+      <c r="CE4" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="CF4" s="61"/>
-      <c r="CG4" s="61"/>
-      <c r="CH4" s="61"/>
-      <c r="CI4" s="61"/>
-      <c r="CJ4" s="61"/>
-      <c r="CK4" s="65"/>
+      <c r="CF4" s="55"/>
+      <c r="CG4" s="55"/>
+      <c r="CH4" s="55"/>
+      <c r="CI4" s="55"/>
+      <c r="CJ4" s="55"/>
+      <c r="CK4" s="56"/>
       <c r="CL4" s="23"/>
-      <c r="CM4" s="66" t="s">
+      <c r="CM4" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="CN4" s="61"/>
-      <c r="CO4" s="61"/>
-      <c r="CP4" s="61"/>
-      <c r="CQ4" s="61"/>
-      <c r="CR4" s="61"/>
-      <c r="CS4" s="61" t="s">
+      <c r="CN4" s="55"/>
+      <c r="CO4" s="55"/>
+      <c r="CP4" s="55"/>
+      <c r="CQ4" s="55"/>
+      <c r="CR4" s="55"/>
+      <c r="CS4" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="CT4" s="61"/>
-      <c r="CU4" s="61"/>
-      <c r="CV4" s="61"/>
-      <c r="CW4" s="61"/>
-      <c r="CX4" s="61"/>
-      <c r="CY4" s="61"/>
-      <c r="CZ4" s="61"/>
+      <c r="CT4" s="55"/>
+      <c r="CU4" s="55"/>
+      <c r="CV4" s="55"/>
+      <c r="CW4" s="55"/>
+      <c r="CX4" s="55"/>
+      <c r="CY4" s="55"/>
+      <c r="CZ4" s="55"/>
     </row>
     <row r="5" spans="2:104" ht="21.6" customHeight="1">
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="61" t="s">
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="67" t="s">
+      <c r="G5" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67" t="s">
+      <c r="H5" s="58"/>
+      <c r="I5" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="67"/>
-      <c r="K5" s="60" t="s">
+      <c r="J5" s="58"/>
+      <c r="K5" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="61" t="s">
+      <c r="L5" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="67" t="s">
+      <c r="M5" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67" t="s">
+      <c r="N5" s="58"/>
+      <c r="O5" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="60" t="s">
+      <c r="P5" s="58"/>
+      <c r="Q5" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="60" t="s">
+      <c r="R5" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="61" t="s">
+      <c r="T5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="67" t="s">
+      <c r="U5" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="67"/>
-      <c r="W5" s="67" t="s">
+      <c r="V5" s="58"/>
+      <c r="W5" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="60" t="s">
+      <c r="X5" s="58"/>
+      <c r="Y5" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="61" t="s">
+      <c r="Z5" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="AA5" s="67" t="s">
+      <c r="AA5" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67" t="s">
+      <c r="AB5" s="58"/>
+      <c r="AC5" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="60" t="s">
+      <c r="AD5" s="58"/>
+      <c r="AE5" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="AF5" s="60" t="s">
+      <c r="AF5" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="AH5" s="61" t="s">
+      <c r="AH5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="AI5" s="67" t="s">
+      <c r="AI5" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67" t="s">
+      <c r="AJ5" s="58"/>
+      <c r="AK5" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="60" t="s">
+      <c r="AL5" s="58"/>
+      <c r="AM5" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="AN5" s="61" t="s">
+      <c r="AN5" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="AO5" s="67" t="s">
+      <c r="AO5" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="AP5" s="67"/>
-      <c r="AQ5" s="67" t="s">
+      <c r="AP5" s="58"/>
+      <c r="AQ5" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="AR5" s="67"/>
-      <c r="AS5" s="60" t="s">
+      <c r="AR5" s="58"/>
+      <c r="AS5" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="AT5" s="64" t="s">
+      <c r="AT5" s="61" t="s">
         <v>23</v>
       </c>
       <c r="AU5" s="13"/>
-      <c r="AV5" s="61" t="s">
+      <c r="AV5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="AW5" s="67" t="s">
+      <c r="AW5" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="AX5" s="67"/>
-      <c r="AY5" s="67" t="s">
+      <c r="AX5" s="58"/>
+      <c r="AY5" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="AZ5" s="67"/>
-      <c r="BA5" s="60" t="s">
+      <c r="AZ5" s="58"/>
+      <c r="BA5" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="BB5" s="61" t="s">
+      <c r="BB5" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="BC5" s="67" t="s">
+      <c r="BC5" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="BD5" s="67"/>
-      <c r="BE5" s="67" t="s">
+      <c r="BD5" s="58"/>
+      <c r="BE5" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="BF5" s="67"/>
-      <c r="BG5" s="60" t="s">
+      <c r="BF5" s="58"/>
+      <c r="BG5" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="BH5" s="60" t="s">
+      <c r="BH5" s="54" t="s">
         <v>23</v>
       </c>
       <c r="BI5" s="14"/>
-      <c r="BJ5" s="66" t="s">
+      <c r="BJ5" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="BK5" s="67" t="s">
+      <c r="BK5" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="BL5" s="67"/>
-      <c r="BM5" s="67" t="s">
+      <c r="BL5" s="58"/>
+      <c r="BM5" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="BN5" s="67"/>
-      <c r="BO5" s="60" t="s">
+      <c r="BN5" s="58"/>
+      <c r="BO5" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="BP5" s="61" t="s">
+      <c r="BP5" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="BQ5" s="67" t="s">
+      <c r="BQ5" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="BR5" s="67"/>
-      <c r="BS5" s="67" t="s">
+      <c r="BR5" s="58"/>
+      <c r="BS5" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="BT5" s="67"/>
-      <c r="BU5" s="60" t="s">
+      <c r="BT5" s="58"/>
+      <c r="BU5" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="BV5" s="60" t="s">
+      <c r="BV5" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="BW5" s="60" t="s">
+      <c r="BW5" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="BY5" s="61" t="s">
+      <c r="BY5" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="BZ5" s="63" t="s">
+      <c r="BZ5" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="CA5" s="63"/>
-      <c r="CB5" s="63" t="s">
+      <c r="CA5" s="60"/>
+      <c r="CB5" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="CC5" s="63"/>
-      <c r="CD5" s="60" t="s">
+      <c r="CC5" s="60"/>
+      <c r="CD5" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="CE5" s="61" t="s">
+      <c r="CE5" s="55" t="s">
         <v>22</v>
       </c>
       <c r="CF5" s="62" t="s">
         <v>19</v>
       </c>
       <c r="CG5" s="62"/>
-      <c r="CH5" s="63" t="s">
+      <c r="CH5" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="CI5" s="63"/>
-      <c r="CJ5" s="60" t="s">
+      <c r="CI5" s="60"/>
+      <c r="CJ5" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="CK5" s="64" t="s">
+      <c r="CK5" s="61" t="s">
         <v>23</v>
       </c>
       <c r="CL5" s="11"/>
-      <c r="CM5" s="66" t="s">
+      <c r="CM5" s="57" t="s">
         <v>18</v>
       </c>
       <c r="CN5" s="62" t="s">
         <v>19</v>
       </c>
       <c r="CO5" s="62"/>
-      <c r="CP5" s="63" t="s">
+      <c r="CP5" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="CQ5" s="63"/>
-      <c r="CR5" s="60" t="s">
+      <c r="CQ5" s="60"/>
+      <c r="CR5" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="CS5" s="61" t="s">
+      <c r="CS5" s="55" t="s">
         <v>22</v>
       </c>
       <c r="CT5" s="62" t="s">
         <v>19</v>
       </c>
       <c r="CU5" s="62"/>
-      <c r="CV5" s="63" t="s">
+      <c r="CV5" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="CW5" s="63"/>
-      <c r="CX5" s="60" t="s">
+      <c r="CW5" s="60"/>
+      <c r="CX5" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="CY5" s="60" t="s">
+      <c r="CY5" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="CZ5" s="60" t="s">
+      <c r="CZ5" s="54" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:104" ht="14.4">
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="61"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="55"/>
       <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3316,8 +3316,8 @@
       <c r="J6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
       <c r="M6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3330,9 +3330,9 @@
       <c r="P6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="T6" s="61"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55"/>
+      <c r="T6" s="55"/>
       <c r="U6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3345,8 +3345,8 @@
       <c r="X6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="61"/>
+      <c r="Y6" s="55"/>
+      <c r="Z6" s="55"/>
       <c r="AA6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3359,9 +3359,9 @@
       <c r="AD6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AE6" s="61"/>
-      <c r="AF6" s="61"/>
-      <c r="AH6" s="61"/>
+      <c r="AE6" s="55"/>
+      <c r="AF6" s="55"/>
+      <c r="AH6" s="55"/>
       <c r="AI6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3374,8 +3374,8 @@
       <c r="AL6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AM6" s="61"/>
-      <c r="AN6" s="61"/>
+      <c r="AM6" s="55"/>
+      <c r="AN6" s="55"/>
       <c r="AO6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3388,10 +3388,10 @@
       <c r="AR6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AS6" s="61"/>
-      <c r="AT6" s="65"/>
+      <c r="AS6" s="55"/>
+      <c r="AT6" s="56"/>
       <c r="AU6" s="13"/>
-      <c r="AV6" s="61"/>
+      <c r="AV6" s="55"/>
       <c r="AW6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3404,8 +3404,8 @@
       <c r="AZ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BA6" s="61"/>
-      <c r="BB6" s="61"/>
+      <c r="BA6" s="55"/>
+      <c r="BB6" s="55"/>
       <c r="BC6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3418,10 +3418,10 @@
       <c r="BF6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BG6" s="61"/>
-      <c r="BH6" s="61"/>
+      <c r="BG6" s="55"/>
+      <c r="BH6" s="55"/>
       <c r="BI6" s="14"/>
-      <c r="BJ6" s="66"/>
+      <c r="BJ6" s="57"/>
       <c r="BK6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3434,8 +3434,8 @@
       <c r="BN6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BO6" s="61"/>
-      <c r="BP6" s="61"/>
+      <c r="BO6" s="55"/>
+      <c r="BP6" s="55"/>
       <c r="BQ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3448,10 +3448,10 @@
       <c r="BT6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BU6" s="61"/>
-      <c r="BV6" s="61"/>
-      <c r="BW6" s="61"/>
-      <c r="BY6" s="61"/>
+      <c r="BU6" s="55"/>
+      <c r="BV6" s="55"/>
+      <c r="BW6" s="55"/>
+      <c r="BY6" s="55"/>
       <c r="BZ6" s="31" t="s">
         <v>25</v>
       </c>
@@ -3464,8 +3464,8 @@
       <c r="CC6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CD6" s="61"/>
-      <c r="CE6" s="61"/>
+      <c r="CD6" s="55"/>
+      <c r="CE6" s="55"/>
       <c r="CF6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3478,10 +3478,10 @@
       <c r="CI6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CJ6" s="61"/>
-      <c r="CK6" s="65"/>
+      <c r="CJ6" s="55"/>
+      <c r="CK6" s="56"/>
       <c r="CL6" s="11"/>
-      <c r="CM6" s="66"/>
+      <c r="CM6" s="57"/>
       <c r="CN6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3494,8 +3494,8 @@
       <c r="CQ6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CR6" s="61"/>
-      <c r="CS6" s="61"/>
+      <c r="CR6" s="55"/>
+      <c r="CS6" s="55"/>
       <c r="CT6" s="34" t="s">
         <v>25</v>
       </c>
@@ -3508,9 +3508,9 @@
       <c r="CW6" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="CX6" s="61"/>
-      <c r="CY6" s="61"/>
-      <c r="CZ6" s="61"/>
+      <c r="CX6" s="55"/>
+      <c r="CY6" s="55"/>
+      <c r="CZ6" s="55"/>
     </row>
     <row r="7" spans="2:104" ht="20.25" customHeight="1">
       <c r="B7" s="5">
@@ -3674,50 +3674,50 @@
       <c r="BU7" s="7"/>
       <c r="BV7" s="10"/>
       <c r="BW7" s="10"/>
-      <c r="BY7" s="57"/>
-      <c r="BZ7" s="54">
+      <c r="BY7" s="63"/>
+      <c r="BZ7" s="66">
         <v>45104</v>
       </c>
-      <c r="CA7" s="54">
+      <c r="CA7" s="66">
         <v>45104</v>
       </c>
-      <c r="CB7" s="57"/>
-      <c r="CC7" s="57"/>
-      <c r="CD7" s="57"/>
-      <c r="CE7" s="57"/>
-      <c r="CF7" s="54">
+      <c r="CB7" s="63"/>
+      <c r="CC7" s="63"/>
+      <c r="CD7" s="63"/>
+      <c r="CE7" s="63"/>
+      <c r="CF7" s="66">
         <v>45104</v>
       </c>
-      <c r="CG7" s="54">
+      <c r="CG7" s="66">
         <v>45104</v>
       </c>
-      <c r="CH7" s="57"/>
-      <c r="CI7" s="57"/>
-      <c r="CJ7" s="57"/>
-      <c r="CK7" s="57"/>
+      <c r="CH7" s="63"/>
+      <c r="CI7" s="63"/>
+      <c r="CJ7" s="63"/>
+      <c r="CK7" s="63"/>
       <c r="CL7" s="14"/>
-      <c r="CM7" s="57"/>
-      <c r="CN7" s="54">
+      <c r="CM7" s="63"/>
+      <c r="CN7" s="66">
         <v>45105</v>
       </c>
-      <c r="CO7" s="54">
+      <c r="CO7" s="66">
         <v>45105</v>
       </c>
-      <c r="CP7" s="57"/>
-      <c r="CQ7" s="57"/>
-      <c r="CR7" s="57"/>
-      <c r="CS7" s="57"/>
-      <c r="CT7" s="54">
+      <c r="CP7" s="63"/>
+      <c r="CQ7" s="63"/>
+      <c r="CR7" s="63"/>
+      <c r="CS7" s="63"/>
+      <c r="CT7" s="66">
         <v>45105</v>
       </c>
-      <c r="CU7" s="54">
+      <c r="CU7" s="66">
         <v>45105</v>
       </c>
-      <c r="CV7" s="57"/>
-      <c r="CW7" s="57"/>
-      <c r="CX7" s="57"/>
-      <c r="CY7" s="57"/>
-      <c r="CZ7" s="57"/>
+      <c r="CV7" s="63"/>
+      <c r="CW7" s="63"/>
+      <c r="CX7" s="63"/>
+      <c r="CY7" s="63"/>
+      <c r="CZ7" s="63"/>
     </row>
     <row r="8" spans="2:104" ht="20.25" customHeight="1">
       <c r="B8" s="5">
@@ -3881,34 +3881,34 @@
       <c r="BU8" s="7"/>
       <c r="BV8" s="10"/>
       <c r="BW8" s="10"/>
-      <c r="BY8" s="58"/>
-      <c r="BZ8" s="55"/>
-      <c r="CA8" s="55"/>
-      <c r="CB8" s="58"/>
-      <c r="CC8" s="58"/>
-      <c r="CD8" s="58"/>
-      <c r="CE8" s="58"/>
-      <c r="CF8" s="55"/>
-      <c r="CG8" s="55"/>
-      <c r="CH8" s="58"/>
-      <c r="CI8" s="58"/>
-      <c r="CJ8" s="58"/>
-      <c r="CK8" s="58"/>
+      <c r="BY8" s="64"/>
+      <c r="BZ8" s="67"/>
+      <c r="CA8" s="67"/>
+      <c r="CB8" s="64"/>
+      <c r="CC8" s="64"/>
+      <c r="CD8" s="64"/>
+      <c r="CE8" s="64"/>
+      <c r="CF8" s="67"/>
+      <c r="CG8" s="67"/>
+      <c r="CH8" s="64"/>
+      <c r="CI8" s="64"/>
+      <c r="CJ8" s="64"/>
+      <c r="CK8" s="64"/>
       <c r="CL8" s="14"/>
-      <c r="CM8" s="58"/>
-      <c r="CN8" s="55"/>
-      <c r="CO8" s="55"/>
-      <c r="CP8" s="58"/>
-      <c r="CQ8" s="58"/>
-      <c r="CR8" s="58"/>
-      <c r="CS8" s="58"/>
-      <c r="CT8" s="55"/>
-      <c r="CU8" s="55"/>
-      <c r="CV8" s="58"/>
-      <c r="CW8" s="58"/>
-      <c r="CX8" s="58"/>
-      <c r="CY8" s="58"/>
-      <c r="CZ8" s="58"/>
+      <c r="CM8" s="64"/>
+      <c r="CN8" s="67"/>
+      <c r="CO8" s="67"/>
+      <c r="CP8" s="64"/>
+      <c r="CQ8" s="64"/>
+      <c r="CR8" s="64"/>
+      <c r="CS8" s="64"/>
+      <c r="CT8" s="67"/>
+      <c r="CU8" s="67"/>
+      <c r="CV8" s="64"/>
+      <c r="CW8" s="64"/>
+      <c r="CX8" s="64"/>
+      <c r="CY8" s="64"/>
+      <c r="CZ8" s="64"/>
     </row>
     <row r="9" spans="2:104" ht="20.25" customHeight="1">
       <c r="B9" s="5">
@@ -4071,34 +4071,34 @@
       <c r="BV9" s="10"/>
       <c r="BW9" s="10"/>
       <c r="BX9" s="13"/>
-      <c r="BY9" s="58"/>
-      <c r="BZ9" s="55"/>
-      <c r="CA9" s="55"/>
-      <c r="CB9" s="58"/>
-      <c r="CC9" s="58"/>
-      <c r="CD9" s="58"/>
-      <c r="CE9" s="58"/>
-      <c r="CF9" s="55"/>
-      <c r="CG9" s="55"/>
-      <c r="CH9" s="58"/>
-      <c r="CI9" s="58"/>
-      <c r="CJ9" s="58"/>
-      <c r="CK9" s="58"/>
+      <c r="BY9" s="64"/>
+      <c r="BZ9" s="67"/>
+      <c r="CA9" s="67"/>
+      <c r="CB9" s="64"/>
+      <c r="CC9" s="64"/>
+      <c r="CD9" s="64"/>
+      <c r="CE9" s="64"/>
+      <c r="CF9" s="67"/>
+      <c r="CG9" s="67"/>
+      <c r="CH9" s="64"/>
+      <c r="CI9" s="64"/>
+      <c r="CJ9" s="64"/>
+      <c r="CK9" s="64"/>
       <c r="CL9" s="14"/>
-      <c r="CM9" s="58"/>
-      <c r="CN9" s="55"/>
-      <c r="CO9" s="55"/>
-      <c r="CP9" s="58"/>
-      <c r="CQ9" s="58"/>
-      <c r="CR9" s="58"/>
-      <c r="CS9" s="58"/>
-      <c r="CT9" s="55"/>
-      <c r="CU9" s="55"/>
-      <c r="CV9" s="58"/>
-      <c r="CW9" s="58"/>
-      <c r="CX9" s="58"/>
-      <c r="CY9" s="58"/>
-      <c r="CZ9" s="58"/>
+      <c r="CM9" s="64"/>
+      <c r="CN9" s="67"/>
+      <c r="CO9" s="67"/>
+      <c r="CP9" s="64"/>
+      <c r="CQ9" s="64"/>
+      <c r="CR9" s="64"/>
+      <c r="CS9" s="64"/>
+      <c r="CT9" s="67"/>
+      <c r="CU9" s="67"/>
+      <c r="CV9" s="64"/>
+      <c r="CW9" s="64"/>
+      <c r="CX9" s="64"/>
+      <c r="CY9" s="64"/>
+      <c r="CZ9" s="64"/>
     </row>
     <row r="10" spans="2:104" ht="20.25" customHeight="1">
       <c r="B10" s="5">
@@ -4263,34 +4263,34 @@
       <c r="BV10" s="10"/>
       <c r="BW10" s="10"/>
       <c r="BX10" s="13"/>
-      <c r="BY10" s="58"/>
-      <c r="BZ10" s="55"/>
-      <c r="CA10" s="55"/>
-      <c r="CB10" s="58"/>
-      <c r="CC10" s="58"/>
-      <c r="CD10" s="58"/>
-      <c r="CE10" s="58"/>
-      <c r="CF10" s="55"/>
-      <c r="CG10" s="55"/>
-      <c r="CH10" s="58"/>
-      <c r="CI10" s="58"/>
-      <c r="CJ10" s="58"/>
-      <c r="CK10" s="58"/>
+      <c r="BY10" s="64"/>
+      <c r="BZ10" s="67"/>
+      <c r="CA10" s="67"/>
+      <c r="CB10" s="64"/>
+      <c r="CC10" s="64"/>
+      <c r="CD10" s="64"/>
+      <c r="CE10" s="64"/>
+      <c r="CF10" s="67"/>
+      <c r="CG10" s="67"/>
+      <c r="CH10" s="64"/>
+      <c r="CI10" s="64"/>
+      <c r="CJ10" s="64"/>
+      <c r="CK10" s="64"/>
       <c r="CL10" s="14"/>
-      <c r="CM10" s="58"/>
-      <c r="CN10" s="55"/>
-      <c r="CO10" s="55"/>
-      <c r="CP10" s="58"/>
-      <c r="CQ10" s="58"/>
-      <c r="CR10" s="58"/>
-      <c r="CS10" s="58"/>
-      <c r="CT10" s="55"/>
-      <c r="CU10" s="55"/>
-      <c r="CV10" s="58"/>
-      <c r="CW10" s="58"/>
-      <c r="CX10" s="58"/>
-      <c r="CY10" s="58"/>
-      <c r="CZ10" s="58"/>
+      <c r="CM10" s="64"/>
+      <c r="CN10" s="67"/>
+      <c r="CO10" s="67"/>
+      <c r="CP10" s="64"/>
+      <c r="CQ10" s="64"/>
+      <c r="CR10" s="64"/>
+      <c r="CS10" s="64"/>
+      <c r="CT10" s="67"/>
+      <c r="CU10" s="67"/>
+      <c r="CV10" s="64"/>
+      <c r="CW10" s="64"/>
+      <c r="CX10" s="64"/>
+      <c r="CY10" s="64"/>
+      <c r="CZ10" s="64"/>
     </row>
     <row r="11" spans="2:104" ht="20.25" customHeight="1">
       <c r="B11" s="5">
@@ -4453,34 +4453,34 @@
       <c r="BV11" s="10"/>
       <c r="BW11" s="10"/>
       <c r="BX11" s="13"/>
-      <c r="BY11" s="58"/>
-      <c r="BZ11" s="55"/>
-      <c r="CA11" s="55"/>
-      <c r="CB11" s="58"/>
-      <c r="CC11" s="58"/>
-      <c r="CD11" s="58"/>
-      <c r="CE11" s="58"/>
-      <c r="CF11" s="55"/>
-      <c r="CG11" s="55"/>
-      <c r="CH11" s="58"/>
-      <c r="CI11" s="58"/>
-      <c r="CJ11" s="58"/>
-      <c r="CK11" s="58"/>
+      <c r="BY11" s="64"/>
+      <c r="BZ11" s="67"/>
+      <c r="CA11" s="67"/>
+      <c r="CB11" s="64"/>
+      <c r="CC11" s="64"/>
+      <c r="CD11" s="64"/>
+      <c r="CE11" s="64"/>
+      <c r="CF11" s="67"/>
+      <c r="CG11" s="67"/>
+      <c r="CH11" s="64"/>
+      <c r="CI11" s="64"/>
+      <c r="CJ11" s="64"/>
+      <c r="CK11" s="64"/>
       <c r="CL11" s="14"/>
-      <c r="CM11" s="58"/>
-      <c r="CN11" s="55"/>
-      <c r="CO11" s="55"/>
-      <c r="CP11" s="58"/>
-      <c r="CQ11" s="58"/>
-      <c r="CR11" s="58"/>
-      <c r="CS11" s="58"/>
-      <c r="CT11" s="55"/>
-      <c r="CU11" s="55"/>
-      <c r="CV11" s="58"/>
-      <c r="CW11" s="58"/>
-      <c r="CX11" s="58"/>
-      <c r="CY11" s="58"/>
-      <c r="CZ11" s="58"/>
+      <c r="CM11" s="64"/>
+      <c r="CN11" s="67"/>
+      <c r="CO11" s="67"/>
+      <c r="CP11" s="64"/>
+      <c r="CQ11" s="64"/>
+      <c r="CR11" s="64"/>
+      <c r="CS11" s="64"/>
+      <c r="CT11" s="67"/>
+      <c r="CU11" s="67"/>
+      <c r="CV11" s="64"/>
+      <c r="CW11" s="64"/>
+      <c r="CX11" s="64"/>
+      <c r="CY11" s="64"/>
+      <c r="CZ11" s="64"/>
     </row>
     <row r="12" spans="2:104" ht="20.25" customHeight="1">
       <c r="B12" s="5">
@@ -4643,34 +4643,34 @@
       <c r="BV12" s="10"/>
       <c r="BW12" s="10"/>
       <c r="BX12" s="13"/>
-      <c r="BY12" s="58"/>
-      <c r="BZ12" s="55"/>
-      <c r="CA12" s="55"/>
-      <c r="CB12" s="58"/>
-      <c r="CC12" s="58"/>
-      <c r="CD12" s="58"/>
-      <c r="CE12" s="58"/>
-      <c r="CF12" s="55"/>
-      <c r="CG12" s="55"/>
-      <c r="CH12" s="58"/>
-      <c r="CI12" s="58"/>
-      <c r="CJ12" s="58"/>
-      <c r="CK12" s="58"/>
+      <c r="BY12" s="64"/>
+      <c r="BZ12" s="67"/>
+      <c r="CA12" s="67"/>
+      <c r="CB12" s="64"/>
+      <c r="CC12" s="64"/>
+      <c r="CD12" s="64"/>
+      <c r="CE12" s="64"/>
+      <c r="CF12" s="67"/>
+      <c r="CG12" s="67"/>
+      <c r="CH12" s="64"/>
+      <c r="CI12" s="64"/>
+      <c r="CJ12" s="64"/>
+      <c r="CK12" s="64"/>
       <c r="CL12" s="14"/>
-      <c r="CM12" s="58"/>
-      <c r="CN12" s="55"/>
-      <c r="CO12" s="55"/>
-      <c r="CP12" s="58"/>
-      <c r="CQ12" s="58"/>
-      <c r="CR12" s="58"/>
-      <c r="CS12" s="58"/>
-      <c r="CT12" s="55"/>
-      <c r="CU12" s="55"/>
-      <c r="CV12" s="58"/>
-      <c r="CW12" s="58"/>
-      <c r="CX12" s="58"/>
-      <c r="CY12" s="58"/>
-      <c r="CZ12" s="58"/>
+      <c r="CM12" s="64"/>
+      <c r="CN12" s="67"/>
+      <c r="CO12" s="67"/>
+      <c r="CP12" s="64"/>
+      <c r="CQ12" s="64"/>
+      <c r="CR12" s="64"/>
+      <c r="CS12" s="64"/>
+      <c r="CT12" s="67"/>
+      <c r="CU12" s="67"/>
+      <c r="CV12" s="64"/>
+      <c r="CW12" s="64"/>
+      <c r="CX12" s="64"/>
+      <c r="CY12" s="64"/>
+      <c r="CZ12" s="64"/>
     </row>
     <row r="13" spans="2:104" ht="20.25" customHeight="1">
       <c r="B13" s="5">
@@ -4835,34 +4835,34 @@
       <c r="BV13" s="10"/>
       <c r="BW13" s="10"/>
       <c r="BX13" s="13"/>
-      <c r="BY13" s="58"/>
-      <c r="BZ13" s="55"/>
-      <c r="CA13" s="55"/>
-      <c r="CB13" s="58"/>
-      <c r="CC13" s="58"/>
-      <c r="CD13" s="58"/>
-      <c r="CE13" s="58"/>
-      <c r="CF13" s="55"/>
-      <c r="CG13" s="55"/>
-      <c r="CH13" s="58"/>
-      <c r="CI13" s="58"/>
-      <c r="CJ13" s="58"/>
-      <c r="CK13" s="58"/>
+      <c r="BY13" s="64"/>
+      <c r="BZ13" s="67"/>
+      <c r="CA13" s="67"/>
+      <c r="CB13" s="64"/>
+      <c r="CC13" s="64"/>
+      <c r="CD13" s="64"/>
+      <c r="CE13" s="64"/>
+      <c r="CF13" s="67"/>
+      <c r="CG13" s="67"/>
+      <c r="CH13" s="64"/>
+      <c r="CI13" s="64"/>
+      <c r="CJ13" s="64"/>
+      <c r="CK13" s="64"/>
       <c r="CL13" s="14"/>
-      <c r="CM13" s="58"/>
-      <c r="CN13" s="55"/>
-      <c r="CO13" s="55"/>
-      <c r="CP13" s="58"/>
-      <c r="CQ13" s="58"/>
-      <c r="CR13" s="58"/>
-      <c r="CS13" s="58"/>
-      <c r="CT13" s="55"/>
-      <c r="CU13" s="55"/>
-      <c r="CV13" s="58"/>
-      <c r="CW13" s="58"/>
-      <c r="CX13" s="58"/>
-      <c r="CY13" s="58"/>
-      <c r="CZ13" s="58"/>
+      <c r="CM13" s="64"/>
+      <c r="CN13" s="67"/>
+      <c r="CO13" s="67"/>
+      <c r="CP13" s="64"/>
+      <c r="CQ13" s="64"/>
+      <c r="CR13" s="64"/>
+      <c r="CS13" s="64"/>
+      <c r="CT13" s="67"/>
+      <c r="CU13" s="67"/>
+      <c r="CV13" s="64"/>
+      <c r="CW13" s="64"/>
+      <c r="CX13" s="64"/>
+      <c r="CY13" s="64"/>
+      <c r="CZ13" s="64"/>
     </row>
     <row r="14" spans="2:104" ht="20.25" customHeight="1">
       <c r="B14" s="5">
@@ -5028,28 +5028,28 @@
       <c r="BW14" s="10"/>
       <c r="BX14" s="13"/>
       <c r="BY14" s="36"/>
-      <c r="BZ14" s="56"/>
-      <c r="CA14" s="56"/>
+      <c r="BZ14" s="68"/>
+      <c r="CA14" s="68"/>
       <c r="CB14" s="36"/>
       <c r="CC14" s="36"/>
       <c r="CD14" s="36"/>
       <c r="CE14" s="36"/>
-      <c r="CF14" s="56"/>
-      <c r="CG14" s="56"/>
+      <c r="CF14" s="68"/>
+      <c r="CG14" s="68"/>
       <c r="CH14" s="36"/>
       <c r="CI14" s="36"/>
       <c r="CJ14" s="36"/>
       <c r="CK14" s="36"/>
       <c r="CL14" s="14"/>
       <c r="CM14" s="36"/>
-      <c r="CN14" s="56"/>
-      <c r="CO14" s="56"/>
+      <c r="CN14" s="68"/>
+      <c r="CO14" s="68"/>
       <c r="CP14" s="36"/>
       <c r="CQ14" s="36"/>
       <c r="CR14" s="36"/>
       <c r="CS14" s="36"/>
-      <c r="CT14" s="56"/>
-      <c r="CU14" s="56"/>
+      <c r="CT14" s="68"/>
+      <c r="CU14" s="68"/>
       <c r="CV14" s="36"/>
       <c r="CW14" s="36"/>
       <c r="CX14" s="36"/>
@@ -5217,50 +5217,50 @@
       <c r="BV15" s="10"/>
       <c r="BW15" s="10"/>
       <c r="BX15" s="13"/>
-      <c r="BY15" s="57"/>
-      <c r="BZ15" s="54">
+      <c r="BY15" s="63"/>
+      <c r="BZ15" s="66">
         <v>45104</v>
       </c>
-      <c r="CA15" s="54">
+      <c r="CA15" s="66">
         <v>45104</v>
       </c>
-      <c r="CB15" s="57"/>
-      <c r="CC15" s="57"/>
-      <c r="CD15" s="57"/>
-      <c r="CE15" s="57"/>
-      <c r="CF15" s="54">
+      <c r="CB15" s="63"/>
+      <c r="CC15" s="63"/>
+      <c r="CD15" s="63"/>
+      <c r="CE15" s="63"/>
+      <c r="CF15" s="66">
         <v>45104</v>
       </c>
-      <c r="CG15" s="54">
+      <c r="CG15" s="66">
         <v>45104</v>
       </c>
-      <c r="CH15" s="57"/>
-      <c r="CI15" s="57"/>
-      <c r="CJ15" s="57"/>
-      <c r="CK15" s="57"/>
+      <c r="CH15" s="63"/>
+      <c r="CI15" s="63"/>
+      <c r="CJ15" s="63"/>
+      <c r="CK15" s="63"/>
       <c r="CL15" s="14"/>
-      <c r="CM15" s="57"/>
-      <c r="CN15" s="54">
+      <c r="CM15" s="63"/>
+      <c r="CN15" s="66">
         <v>45105</v>
       </c>
-      <c r="CO15" s="54">
+      <c r="CO15" s="66">
         <v>45105</v>
       </c>
-      <c r="CP15" s="57"/>
-      <c r="CQ15" s="57"/>
-      <c r="CR15" s="57"/>
-      <c r="CS15" s="57"/>
-      <c r="CT15" s="54">
+      <c r="CP15" s="63"/>
+      <c r="CQ15" s="63"/>
+      <c r="CR15" s="63"/>
+      <c r="CS15" s="63"/>
+      <c r="CT15" s="66">
         <v>45105</v>
       </c>
-      <c r="CU15" s="54">
+      <c r="CU15" s="66">
         <v>45105</v>
       </c>
-      <c r="CV15" s="57"/>
-      <c r="CW15" s="57"/>
-      <c r="CX15" s="57"/>
-      <c r="CY15" s="57"/>
-      <c r="CZ15" s="57"/>
+      <c r="CV15" s="63"/>
+      <c r="CW15" s="63"/>
+      <c r="CX15" s="63"/>
+      <c r="CY15" s="63"/>
+      <c r="CZ15" s="63"/>
     </row>
     <row r="16" spans="2:104" ht="20.25" customHeight="1">
       <c r="B16" s="5">
@@ -5364,7 +5364,7 @@
       </c>
       <c r="AL16" s="6"/>
       <c r="AM16" s="7">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="AN16" s="17"/>
       <c r="AO16" s="52">
@@ -5422,34 +5422,34 @@
       <c r="BU16" s="7"/>
       <c r="BV16" s="10"/>
       <c r="BW16" s="10"/>
-      <c r="BY16" s="58"/>
-      <c r="BZ16" s="55"/>
-      <c r="CA16" s="55"/>
-      <c r="CB16" s="58"/>
-      <c r="CC16" s="58"/>
-      <c r="CD16" s="58"/>
-      <c r="CE16" s="58"/>
-      <c r="CF16" s="55"/>
-      <c r="CG16" s="55"/>
-      <c r="CH16" s="58"/>
-      <c r="CI16" s="58"/>
-      <c r="CJ16" s="58"/>
-      <c r="CK16" s="58"/>
+      <c r="BY16" s="64"/>
+      <c r="BZ16" s="67"/>
+      <c r="CA16" s="67"/>
+      <c r="CB16" s="64"/>
+      <c r="CC16" s="64"/>
+      <c r="CD16" s="64"/>
+      <c r="CE16" s="64"/>
+      <c r="CF16" s="67"/>
+      <c r="CG16" s="67"/>
+      <c r="CH16" s="64"/>
+      <c r="CI16" s="64"/>
+      <c r="CJ16" s="64"/>
+      <c r="CK16" s="64"/>
       <c r="CL16" s="29"/>
-      <c r="CM16" s="58"/>
-      <c r="CN16" s="55"/>
-      <c r="CO16" s="55"/>
-      <c r="CP16" s="58"/>
-      <c r="CQ16" s="58"/>
-      <c r="CR16" s="58"/>
-      <c r="CS16" s="58"/>
-      <c r="CT16" s="55"/>
-      <c r="CU16" s="55"/>
-      <c r="CV16" s="58"/>
-      <c r="CW16" s="58"/>
-      <c r="CX16" s="58"/>
-      <c r="CY16" s="58"/>
-      <c r="CZ16" s="58"/>
+      <c r="CM16" s="64"/>
+      <c r="CN16" s="67"/>
+      <c r="CO16" s="67"/>
+      <c r="CP16" s="64"/>
+      <c r="CQ16" s="64"/>
+      <c r="CR16" s="64"/>
+      <c r="CS16" s="64"/>
+      <c r="CT16" s="67"/>
+      <c r="CU16" s="67"/>
+      <c r="CV16" s="64"/>
+      <c r="CW16" s="64"/>
+      <c r="CX16" s="64"/>
+      <c r="CY16" s="64"/>
+      <c r="CZ16" s="64"/>
     </row>
     <row r="17" spans="2:104" ht="20.25" customHeight="1">
       <c r="B17" s="5">
@@ -5611,34 +5611,34 @@
       <c r="BU17" s="7"/>
       <c r="BV17" s="10"/>
       <c r="BW17" s="10"/>
-      <c r="BY17" s="58"/>
-      <c r="BZ17" s="55"/>
-      <c r="CA17" s="55"/>
-      <c r="CB17" s="58"/>
-      <c r="CC17" s="58"/>
-      <c r="CD17" s="58"/>
-      <c r="CE17" s="58"/>
-      <c r="CF17" s="55"/>
-      <c r="CG17" s="55"/>
-      <c r="CH17" s="58"/>
-      <c r="CI17" s="58"/>
-      <c r="CJ17" s="58"/>
-      <c r="CK17" s="58"/>
+      <c r="BY17" s="64"/>
+      <c r="BZ17" s="67"/>
+      <c r="CA17" s="67"/>
+      <c r="CB17" s="64"/>
+      <c r="CC17" s="64"/>
+      <c r="CD17" s="64"/>
+      <c r="CE17" s="64"/>
+      <c r="CF17" s="67"/>
+      <c r="CG17" s="67"/>
+      <c r="CH17" s="64"/>
+      <c r="CI17" s="64"/>
+      <c r="CJ17" s="64"/>
+      <c r="CK17" s="64"/>
       <c r="CL17" s="29"/>
-      <c r="CM17" s="58"/>
-      <c r="CN17" s="55"/>
-      <c r="CO17" s="55"/>
-      <c r="CP17" s="58"/>
-      <c r="CQ17" s="58"/>
-      <c r="CR17" s="58"/>
-      <c r="CS17" s="58"/>
-      <c r="CT17" s="55"/>
-      <c r="CU17" s="55"/>
-      <c r="CV17" s="58"/>
-      <c r="CW17" s="58"/>
-      <c r="CX17" s="58"/>
-      <c r="CY17" s="58"/>
-      <c r="CZ17" s="58"/>
+      <c r="CM17" s="64"/>
+      <c r="CN17" s="67"/>
+      <c r="CO17" s="67"/>
+      <c r="CP17" s="64"/>
+      <c r="CQ17" s="64"/>
+      <c r="CR17" s="64"/>
+      <c r="CS17" s="64"/>
+      <c r="CT17" s="67"/>
+      <c r="CU17" s="67"/>
+      <c r="CV17" s="64"/>
+      <c r="CW17" s="64"/>
+      <c r="CX17" s="64"/>
+      <c r="CY17" s="64"/>
+      <c r="CZ17" s="64"/>
     </row>
     <row r="18" spans="2:104" ht="20.25" customHeight="1">
       <c r="B18" s="5">
@@ -5742,7 +5742,7 @@
       </c>
       <c r="AL18" s="6"/>
       <c r="AM18" s="7">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="AN18" s="17"/>
       <c r="AO18" s="52">
@@ -5801,34 +5801,34 @@
       <c r="BV18" s="10"/>
       <c r="BW18" s="10"/>
       <c r="BX18" s="11"/>
-      <c r="BY18" s="58"/>
-      <c r="BZ18" s="55"/>
-      <c r="CA18" s="55"/>
-      <c r="CB18" s="58"/>
-      <c r="CC18" s="58"/>
-      <c r="CD18" s="58"/>
-      <c r="CE18" s="58"/>
-      <c r="CF18" s="55"/>
-      <c r="CG18" s="55"/>
-      <c r="CH18" s="58"/>
-      <c r="CI18" s="58"/>
-      <c r="CJ18" s="58"/>
-      <c r="CK18" s="58"/>
+      <c r="BY18" s="64"/>
+      <c r="BZ18" s="67"/>
+      <c r="CA18" s="67"/>
+      <c r="CB18" s="64"/>
+      <c r="CC18" s="64"/>
+      <c r="CD18" s="64"/>
+      <c r="CE18" s="64"/>
+      <c r="CF18" s="67"/>
+      <c r="CG18" s="67"/>
+      <c r="CH18" s="64"/>
+      <c r="CI18" s="64"/>
+      <c r="CJ18" s="64"/>
+      <c r="CK18" s="64"/>
       <c r="CL18" s="29"/>
-      <c r="CM18" s="58"/>
-      <c r="CN18" s="55"/>
-      <c r="CO18" s="55"/>
-      <c r="CP18" s="58"/>
-      <c r="CQ18" s="58"/>
-      <c r="CR18" s="58"/>
-      <c r="CS18" s="58"/>
-      <c r="CT18" s="55"/>
-      <c r="CU18" s="55"/>
-      <c r="CV18" s="58"/>
-      <c r="CW18" s="58"/>
-      <c r="CX18" s="58"/>
-      <c r="CY18" s="58"/>
-      <c r="CZ18" s="58"/>
+      <c r="CM18" s="64"/>
+      <c r="CN18" s="67"/>
+      <c r="CO18" s="67"/>
+      <c r="CP18" s="64"/>
+      <c r="CQ18" s="64"/>
+      <c r="CR18" s="64"/>
+      <c r="CS18" s="64"/>
+      <c r="CT18" s="67"/>
+      <c r="CU18" s="67"/>
+      <c r="CV18" s="64"/>
+      <c r="CW18" s="64"/>
+      <c r="CX18" s="64"/>
+      <c r="CY18" s="64"/>
+      <c r="CZ18" s="64"/>
     </row>
     <row r="19" spans="2:104" ht="20.25" customHeight="1">
       <c r="B19" s="5">
@@ -5991,34 +5991,34 @@
       <c r="BV19" s="10"/>
       <c r="BW19" s="10"/>
       <c r="BX19" s="11"/>
-      <c r="BY19" s="58"/>
-      <c r="BZ19" s="55"/>
-      <c r="CA19" s="55"/>
-      <c r="CB19" s="58"/>
-      <c r="CC19" s="58"/>
-      <c r="CD19" s="58"/>
-      <c r="CE19" s="58"/>
-      <c r="CF19" s="55"/>
-      <c r="CG19" s="55"/>
-      <c r="CH19" s="58"/>
-      <c r="CI19" s="58"/>
-      <c r="CJ19" s="58"/>
-      <c r="CK19" s="58"/>
+      <c r="BY19" s="64"/>
+      <c r="BZ19" s="67"/>
+      <c r="CA19" s="67"/>
+      <c r="CB19" s="64"/>
+      <c r="CC19" s="64"/>
+      <c r="CD19" s="64"/>
+      <c r="CE19" s="64"/>
+      <c r="CF19" s="67"/>
+      <c r="CG19" s="67"/>
+      <c r="CH19" s="64"/>
+      <c r="CI19" s="64"/>
+      <c r="CJ19" s="64"/>
+      <c r="CK19" s="64"/>
       <c r="CL19" s="29"/>
-      <c r="CM19" s="58"/>
-      <c r="CN19" s="55"/>
-      <c r="CO19" s="55"/>
-      <c r="CP19" s="58"/>
-      <c r="CQ19" s="58"/>
-      <c r="CR19" s="58"/>
-      <c r="CS19" s="58"/>
-      <c r="CT19" s="55"/>
-      <c r="CU19" s="55"/>
-      <c r="CV19" s="58"/>
-      <c r="CW19" s="58"/>
-      <c r="CX19" s="58"/>
-      <c r="CY19" s="58"/>
-      <c r="CZ19" s="58"/>
+      <c r="CM19" s="64"/>
+      <c r="CN19" s="67"/>
+      <c r="CO19" s="67"/>
+      <c r="CP19" s="64"/>
+      <c r="CQ19" s="64"/>
+      <c r="CR19" s="64"/>
+      <c r="CS19" s="64"/>
+      <c r="CT19" s="67"/>
+      <c r="CU19" s="67"/>
+      <c r="CV19" s="64"/>
+      <c r="CW19" s="64"/>
+      <c r="CX19" s="64"/>
+      <c r="CY19" s="64"/>
+      <c r="CZ19" s="64"/>
     </row>
     <row r="20" spans="2:104" ht="20.25" customHeight="1">
       <c r="B20" s="5">
@@ -6181,34 +6181,34 @@
       <c r="BV20" s="10"/>
       <c r="BW20" s="10"/>
       <c r="BX20" s="11"/>
-      <c r="BY20" s="58"/>
-      <c r="BZ20" s="55"/>
-      <c r="CA20" s="55"/>
-      <c r="CB20" s="58"/>
-      <c r="CC20" s="58"/>
-      <c r="CD20" s="58"/>
-      <c r="CE20" s="58"/>
-      <c r="CF20" s="55"/>
-      <c r="CG20" s="55"/>
-      <c r="CH20" s="58"/>
-      <c r="CI20" s="58"/>
-      <c r="CJ20" s="58"/>
-      <c r="CK20" s="58"/>
+      <c r="BY20" s="64"/>
+      <c r="BZ20" s="67"/>
+      <c r="CA20" s="67"/>
+      <c r="CB20" s="64"/>
+      <c r="CC20" s="64"/>
+      <c r="CD20" s="64"/>
+      <c r="CE20" s="64"/>
+      <c r="CF20" s="67"/>
+      <c r="CG20" s="67"/>
+      <c r="CH20" s="64"/>
+      <c r="CI20" s="64"/>
+      <c r="CJ20" s="64"/>
+      <c r="CK20" s="64"/>
       <c r="CL20" s="29"/>
-      <c r="CM20" s="58"/>
-      <c r="CN20" s="55"/>
-      <c r="CO20" s="55"/>
-      <c r="CP20" s="58"/>
-      <c r="CQ20" s="58"/>
-      <c r="CR20" s="58"/>
-      <c r="CS20" s="58"/>
-      <c r="CT20" s="55"/>
-      <c r="CU20" s="55"/>
-      <c r="CV20" s="58"/>
-      <c r="CW20" s="58"/>
-      <c r="CX20" s="58"/>
-      <c r="CY20" s="58"/>
-      <c r="CZ20" s="58"/>
+      <c r="CM20" s="64"/>
+      <c r="CN20" s="67"/>
+      <c r="CO20" s="67"/>
+      <c r="CP20" s="64"/>
+      <c r="CQ20" s="64"/>
+      <c r="CR20" s="64"/>
+      <c r="CS20" s="64"/>
+      <c r="CT20" s="67"/>
+      <c r="CU20" s="67"/>
+      <c r="CV20" s="64"/>
+      <c r="CW20" s="64"/>
+      <c r="CX20" s="64"/>
+      <c r="CY20" s="64"/>
+      <c r="CZ20" s="64"/>
     </row>
     <row r="21" spans="2:104" ht="20.25" customHeight="1">
       <c r="B21" s="5">
@@ -6371,34 +6371,34 @@
       <c r="BV21" s="10"/>
       <c r="BW21" s="10"/>
       <c r="BX21" s="11"/>
-      <c r="BY21" s="58"/>
-      <c r="BZ21" s="55"/>
-      <c r="CA21" s="55"/>
-      <c r="CB21" s="58"/>
-      <c r="CC21" s="58"/>
-      <c r="CD21" s="58"/>
-      <c r="CE21" s="58"/>
-      <c r="CF21" s="55"/>
-      <c r="CG21" s="55"/>
-      <c r="CH21" s="58"/>
-      <c r="CI21" s="58"/>
-      <c r="CJ21" s="58"/>
-      <c r="CK21" s="58"/>
+      <c r="BY21" s="64"/>
+      <c r="BZ21" s="67"/>
+      <c r="CA21" s="67"/>
+      <c r="CB21" s="64"/>
+      <c r="CC21" s="64"/>
+      <c r="CD21" s="64"/>
+      <c r="CE21" s="64"/>
+      <c r="CF21" s="67"/>
+      <c r="CG21" s="67"/>
+      <c r="CH21" s="64"/>
+      <c r="CI21" s="64"/>
+      <c r="CJ21" s="64"/>
+      <c r="CK21" s="64"/>
       <c r="CL21" s="29"/>
-      <c r="CM21" s="58"/>
-      <c r="CN21" s="55"/>
-      <c r="CO21" s="55"/>
-      <c r="CP21" s="58"/>
-      <c r="CQ21" s="58"/>
-      <c r="CR21" s="58"/>
-      <c r="CS21" s="58"/>
-      <c r="CT21" s="55"/>
-      <c r="CU21" s="55"/>
-      <c r="CV21" s="58"/>
-      <c r="CW21" s="58"/>
-      <c r="CX21" s="58"/>
-      <c r="CY21" s="58"/>
-      <c r="CZ21" s="58"/>
+      <c r="CM21" s="64"/>
+      <c r="CN21" s="67"/>
+      <c r="CO21" s="67"/>
+      <c r="CP21" s="64"/>
+      <c r="CQ21" s="64"/>
+      <c r="CR21" s="64"/>
+      <c r="CS21" s="64"/>
+      <c r="CT21" s="67"/>
+      <c r="CU21" s="67"/>
+      <c r="CV21" s="64"/>
+      <c r="CW21" s="64"/>
+      <c r="CX21" s="64"/>
+      <c r="CY21" s="64"/>
+      <c r="CZ21" s="64"/>
     </row>
     <row r="22" spans="2:104" ht="20.25" customHeight="1">
       <c r="B22" s="5">
@@ -6557,34 +6557,34 @@
       <c r="BV22" s="49"/>
       <c r="BW22" s="49"/>
       <c r="BX22" s="13"/>
-      <c r="BY22" s="59"/>
-      <c r="BZ22" s="56"/>
-      <c r="CA22" s="56"/>
-      <c r="CB22" s="59"/>
-      <c r="CC22" s="59"/>
-      <c r="CD22" s="59"/>
-      <c r="CE22" s="59"/>
-      <c r="CF22" s="56"/>
-      <c r="CG22" s="56"/>
-      <c r="CH22" s="59"/>
-      <c r="CI22" s="59"/>
-      <c r="CJ22" s="59"/>
-      <c r="CK22" s="59"/>
+      <c r="BY22" s="65"/>
+      <c r="BZ22" s="68"/>
+      <c r="CA22" s="68"/>
+      <c r="CB22" s="65"/>
+      <c r="CC22" s="65"/>
+      <c r="CD22" s="65"/>
+      <c r="CE22" s="65"/>
+      <c r="CF22" s="68"/>
+      <c r="CG22" s="68"/>
+      <c r="CH22" s="65"/>
+      <c r="CI22" s="65"/>
+      <c r="CJ22" s="65"/>
+      <c r="CK22" s="65"/>
       <c r="CL22" s="14"/>
-      <c r="CM22" s="59"/>
-      <c r="CN22" s="56"/>
-      <c r="CO22" s="56"/>
-      <c r="CP22" s="59"/>
-      <c r="CQ22" s="59"/>
-      <c r="CR22" s="59"/>
-      <c r="CS22" s="59"/>
-      <c r="CT22" s="56"/>
-      <c r="CU22" s="56"/>
-      <c r="CV22" s="59"/>
-      <c r="CW22" s="59"/>
-      <c r="CX22" s="59"/>
-      <c r="CY22" s="59"/>
-      <c r="CZ22" s="59"/>
+      <c r="CM22" s="65"/>
+      <c r="CN22" s="68"/>
+      <c r="CO22" s="68"/>
+      <c r="CP22" s="65"/>
+      <c r="CQ22" s="65"/>
+      <c r="CR22" s="65"/>
+      <c r="CS22" s="65"/>
+      <c r="CT22" s="68"/>
+      <c r="CU22" s="68"/>
+      <c r="CV22" s="65"/>
+      <c r="CW22" s="65"/>
+      <c r="CX22" s="65"/>
+      <c r="CY22" s="65"/>
+      <c r="CZ22" s="65"/>
     </row>
     <row r="23" spans="2:104" ht="20.25" customHeight="1">
       <c r="BX23" s="11"/>
@@ -6596,6 +6596,119 @@
     </row>
   </sheetData>
   <mergeCells count="137">
+    <mergeCell ref="BZ7:BZ14"/>
+    <mergeCell ref="CA7:CA14"/>
+    <mergeCell ref="CF7:CF14"/>
+    <mergeCell ref="CG7:CG14"/>
+    <mergeCell ref="CN7:CN14"/>
+    <mergeCell ref="CO7:CO14"/>
+    <mergeCell ref="CT7:CT14"/>
+    <mergeCell ref="CU7:CU14"/>
+    <mergeCell ref="CM7:CM13"/>
+    <mergeCell ref="CB7:CB13"/>
+    <mergeCell ref="CC7:CC13"/>
+    <mergeCell ref="CD7:CD13"/>
+    <mergeCell ref="CE7:CE13"/>
+    <mergeCell ref="CH7:CH13"/>
+    <mergeCell ref="CI7:CI13"/>
+    <mergeCell ref="CJ7:CJ13"/>
+    <mergeCell ref="CB15:CB22"/>
+    <mergeCell ref="CC15:CC22"/>
+    <mergeCell ref="CD15:CD22"/>
+    <mergeCell ref="CM15:CM22"/>
+    <mergeCell ref="CN15:CN22"/>
+    <mergeCell ref="CO15:CO22"/>
+    <mergeCell ref="CE15:CE22"/>
+    <mergeCell ref="CF15:CF22"/>
+    <mergeCell ref="CZ7:CZ13"/>
+    <mergeCell ref="CQ15:CQ22"/>
+    <mergeCell ref="CR15:CR22"/>
+    <mergeCell ref="CS15:CS22"/>
+    <mergeCell ref="CV7:CV13"/>
+    <mergeCell ref="CW7:CW13"/>
+    <mergeCell ref="CX15:CX22"/>
+    <mergeCell ref="CY15:CY22"/>
+    <mergeCell ref="CW15:CW22"/>
+    <mergeCell ref="CX7:CX13"/>
+    <mergeCell ref="CY7:CY13"/>
+    <mergeCell ref="CG15:CG22"/>
+    <mergeCell ref="BY7:BY13"/>
+    <mergeCell ref="CZ5:CZ6"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CT5:CU5"/>
+    <mergeCell ref="CV5:CW5"/>
+    <mergeCell ref="CS5:CS6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CH15:CH22"/>
+    <mergeCell ref="CI15:CI22"/>
+    <mergeCell ref="CJ15:CJ22"/>
+    <mergeCell ref="CK15:CK22"/>
+    <mergeCell ref="CZ15:CZ22"/>
+    <mergeCell ref="CP15:CP22"/>
+    <mergeCell ref="CR7:CR13"/>
+    <mergeCell ref="CS7:CS13"/>
+    <mergeCell ref="CT15:CT22"/>
+    <mergeCell ref="CU15:CU22"/>
+    <mergeCell ref="BY15:BY22"/>
+    <mergeCell ref="BZ15:BZ22"/>
+    <mergeCell ref="CA15:CA22"/>
+    <mergeCell ref="CV15:CV22"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CK5:CK6"/>
+    <mergeCell ref="CN5:CO5"/>
+    <mergeCell ref="CP5:CQ5"/>
+    <mergeCell ref="CM5:CM6"/>
+    <mergeCell ref="CH5:CI5"/>
+    <mergeCell ref="CE5:CE6"/>
+    <mergeCell ref="CK7:CK13"/>
+    <mergeCell ref="CP7:CP13"/>
+    <mergeCell ref="CQ7:CQ13"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="CF5:CG5"/>
+    <mergeCell ref="BP4:BW4"/>
+    <mergeCell ref="BY4:CD4"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="Z4:AF4"/>
+    <mergeCell ref="AH4:AM4"/>
+    <mergeCell ref="AN4:AT4"/>
+    <mergeCell ref="AV4:BA4"/>
+    <mergeCell ref="BB4:BH4"/>
+    <mergeCell ref="BJ4:BO4"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="BM5:BN5"/>
+    <mergeCell ref="BQ5:BR5"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="E4:E6"/>
     <mergeCell ref="Y5:Y6"/>
     <mergeCell ref="BH5:BH6"/>
     <mergeCell ref="CE4:CK4"/>
@@ -6620,119 +6733,6 @@
     <mergeCell ref="BK5:BL5"/>
     <mergeCell ref="F4:K4"/>
     <mergeCell ref="L4:R4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="BZ5:CA5"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BW5:BW6"/>
-    <mergeCell ref="BY5:BY6"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="BP4:BW4"/>
-    <mergeCell ref="BY4:CD4"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="Z4:AF4"/>
-    <mergeCell ref="AH4:AM4"/>
-    <mergeCell ref="AN4:AT4"/>
-    <mergeCell ref="AV4:BA4"/>
-    <mergeCell ref="BB4:BH4"/>
-    <mergeCell ref="BJ4:BO4"/>
-    <mergeCell ref="CN5:CO5"/>
-    <mergeCell ref="CP5:CQ5"/>
-    <mergeCell ref="CM5:CM6"/>
-    <mergeCell ref="CH5:CI5"/>
-    <mergeCell ref="CE5:CE6"/>
-    <mergeCell ref="CK7:CK13"/>
-    <mergeCell ref="CP7:CP13"/>
-    <mergeCell ref="CQ7:CQ13"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="CF5:CG5"/>
-    <mergeCell ref="BY7:BY13"/>
-    <mergeCell ref="CZ5:CZ6"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CT5:CU5"/>
-    <mergeCell ref="CV5:CW5"/>
-    <mergeCell ref="CS5:CS6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CH15:CH22"/>
-    <mergeCell ref="CI15:CI22"/>
-    <mergeCell ref="CJ15:CJ22"/>
-    <mergeCell ref="CK15:CK22"/>
-    <mergeCell ref="CZ15:CZ22"/>
-    <mergeCell ref="CP15:CP22"/>
-    <mergeCell ref="CR7:CR13"/>
-    <mergeCell ref="CS7:CS13"/>
-    <mergeCell ref="CT15:CT22"/>
-    <mergeCell ref="CU15:CU22"/>
-    <mergeCell ref="BY15:BY22"/>
-    <mergeCell ref="BZ15:BZ22"/>
-    <mergeCell ref="CA15:CA22"/>
-    <mergeCell ref="CV15:CV22"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CK5:CK6"/>
-    <mergeCell ref="CB15:CB22"/>
-    <mergeCell ref="CC15:CC22"/>
-    <mergeCell ref="CD15:CD22"/>
-    <mergeCell ref="CM15:CM22"/>
-    <mergeCell ref="CN15:CN22"/>
-    <mergeCell ref="CO15:CO22"/>
-    <mergeCell ref="CE15:CE22"/>
-    <mergeCell ref="CF15:CF22"/>
-    <mergeCell ref="CZ7:CZ13"/>
-    <mergeCell ref="CQ15:CQ22"/>
-    <mergeCell ref="CR15:CR22"/>
-    <mergeCell ref="CS15:CS22"/>
-    <mergeCell ref="CV7:CV13"/>
-    <mergeCell ref="CW7:CW13"/>
-    <mergeCell ref="CX15:CX22"/>
-    <mergeCell ref="CY15:CY22"/>
-    <mergeCell ref="CW15:CW22"/>
-    <mergeCell ref="CX7:CX13"/>
-    <mergeCell ref="CY7:CY13"/>
-    <mergeCell ref="CG15:CG22"/>
-    <mergeCell ref="BZ7:BZ14"/>
-    <mergeCell ref="CA7:CA14"/>
-    <mergeCell ref="CF7:CF14"/>
-    <mergeCell ref="CG7:CG14"/>
-    <mergeCell ref="CN7:CN14"/>
-    <mergeCell ref="CO7:CO14"/>
-    <mergeCell ref="CT7:CT14"/>
-    <mergeCell ref="CU7:CU14"/>
-    <mergeCell ref="CM7:CM13"/>
-    <mergeCell ref="CB7:CB13"/>
-    <mergeCell ref="CC7:CC13"/>
-    <mergeCell ref="CD7:CD13"/>
-    <mergeCell ref="CE7:CE13"/>
-    <mergeCell ref="CH7:CH13"/>
-    <mergeCell ref="CI7:CI13"/>
-    <mergeCell ref="CJ7:CJ13"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="F7:K14">

--- a/スケジュール（2023-06）.xlsx
+++ b/スケジュール（2023-06）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\o3o__\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD11316-1E5E-43E5-904F-59A7579B7E90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6774B364-EF23-4A31-B22B-9B864B2DF5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16065" yWindow="-1275" windowWidth="12690" windowHeight="13725" tabRatio="910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="体制図" sheetId="11" r:id="rId1"/>
@@ -412,7 +412,7 @@
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="178" formatCode="mm/yy"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,6 +509,19 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -660,7 +673,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -690,12 +703,9 @@
     <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -712,15 +722,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
@@ -753,9 +754,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -771,19 +769,12 @@
     <xf numFmtId="56" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="5" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="5" fillId="6" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -793,7 +784,6 @@
     <xf numFmtId="177" fontId="5" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -809,6 +799,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -821,33 +820,62 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="13" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
@@ -855,70 +883,7 @@
     <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準_システム管理" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="33">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2797,12 +2762,12 @@
   <sheetFormatPr defaultRowHeight="18"/>
   <sheetData>
     <row r="3" spans="3:7">
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="22" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="3:7">
-      <c r="G4" s="28" t="s">
+      <c r="G4" s="22" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2862,13 +2827,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:CZ24"/>
+  <dimension ref="B3:DA24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="S7" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AM19" sqref="AM19"/>
+      <selection pane="bottomRight" activeCell="AN7" sqref="AN7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
@@ -2906,404 +2871,408 @@
     <col min="69" max="75" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="76" max="76" width="1.59765625" style="1" customWidth="1"/>
     <col min="77" max="77" width="6.59765625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="78" max="81" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="78" max="81" width="6.5" style="24" customWidth="1" outlineLevel="1"/>
     <col min="82" max="83" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="84" max="85" width="6.5" style="33" customWidth="1" outlineLevel="1"/>
-    <col min="86" max="87" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="84" max="85" width="6.5" style="27" customWidth="1" outlineLevel="1"/>
+    <col min="86" max="87" width="6.5" style="24" customWidth="1" outlineLevel="1"/>
     <col min="88" max="89" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="90" max="90" width="1.59765625" style="1" customWidth="1"/>
     <col min="91" max="91" width="6.59765625" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="92" max="93" width="6.5" style="33" customWidth="1" outlineLevel="1"/>
-    <col min="94" max="95" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="92" max="93" width="6.5" style="27" customWidth="1" outlineLevel="1"/>
+    <col min="94" max="95" width="6.5" style="24" customWidth="1" outlineLevel="1"/>
     <col min="96" max="97" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="98" max="99" width="6.5" style="33" customWidth="1" outlineLevel="1"/>
-    <col min="100" max="101" width="6.5" style="30" customWidth="1" outlineLevel="1"/>
+    <col min="98" max="99" width="6.5" style="27" customWidth="1" outlineLevel="1"/>
+    <col min="100" max="101" width="6.5" style="24" customWidth="1" outlineLevel="1"/>
     <col min="102" max="104" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="105" max="105" width="1.59765625" style="1" customWidth="1"/>
     <col min="106" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:104" ht="23.4">
+    <row r="3" spans="2:105" ht="23.4">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:104" s="20" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="55" t="s">
+    <row r="4" spans="2:105" s="17" customFormat="1" ht="33" customHeight="1">
+      <c r="B4" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="55" t="s">
+      <c r="D4" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55" t="s">
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="44"/>
+      <c r="L4" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="T4" s="55" t="s">
+      <c r="M4" s="44"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="44"/>
+      <c r="P4" s="44"/>
+      <c r="Q4" s="44"/>
+      <c r="R4" s="44"/>
+      <c r="T4" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="U4" s="55"/>
-      <c r="V4" s="55"/>
-      <c r="W4" s="55"/>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55" t="s">
+      <c r="U4" s="44"/>
+      <c r="V4" s="44"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="44"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="55"/>
-      <c r="AB4" s="55"/>
-      <c r="AC4" s="55"/>
-      <c r="AD4" s="55"/>
-      <c r="AE4" s="55"/>
-      <c r="AF4" s="55"/>
-      <c r="AH4" s="55" t="s">
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="44"/>
+      <c r="AD4" s="44"/>
+      <c r="AE4" s="44"/>
+      <c r="AF4" s="44"/>
+      <c r="AH4" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="AI4" s="55"/>
-      <c r="AJ4" s="55"/>
-      <c r="AK4" s="55"/>
-      <c r="AL4" s="55"/>
-      <c r="AM4" s="55"/>
-      <c r="AN4" s="55" t="s">
+      <c r="AI4" s="44"/>
+      <c r="AJ4" s="44"/>
+      <c r="AK4" s="44"/>
+      <c r="AL4" s="44"/>
+      <c r="AM4" s="44"/>
+      <c r="AN4" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="AO4" s="55"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="55"/>
-      <c r="AR4" s="55"/>
-      <c r="AS4" s="55"/>
-      <c r="AT4" s="56"/>
-      <c r="AU4" s="21"/>
-      <c r="AV4" s="55" t="s">
+      <c r="AO4" s="44"/>
+      <c r="AP4" s="44"/>
+      <c r="AQ4" s="44"/>
+      <c r="AR4" s="44"/>
+      <c r="AS4" s="44"/>
+      <c r="AT4" s="48"/>
+      <c r="AU4" s="52"/>
+      <c r="AV4" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="AW4" s="55"/>
-      <c r="AX4" s="55"/>
-      <c r="AY4" s="55"/>
-      <c r="AZ4" s="55"/>
-      <c r="BA4" s="55"/>
-      <c r="BB4" s="55" t="s">
+      <c r="AW4" s="44"/>
+      <c r="AX4" s="44"/>
+      <c r="AY4" s="44"/>
+      <c r="AZ4" s="44"/>
+      <c r="BA4" s="44"/>
+      <c r="BB4" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="BC4" s="55"/>
-      <c r="BD4" s="55"/>
-      <c r="BE4" s="55"/>
-      <c r="BF4" s="55"/>
-      <c r="BG4" s="55"/>
-      <c r="BH4" s="55"/>
-      <c r="BI4" s="22"/>
-      <c r="BJ4" s="57" t="s">
+      <c r="BC4" s="44"/>
+      <c r="BD4" s="44"/>
+      <c r="BE4" s="44"/>
+      <c r="BF4" s="44"/>
+      <c r="BG4" s="44"/>
+      <c r="BH4" s="44"/>
+      <c r="BI4" s="53"/>
+      <c r="BJ4" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="BK4" s="55"/>
-      <c r="BL4" s="55"/>
-      <c r="BM4" s="55"/>
-      <c r="BN4" s="55"/>
-      <c r="BO4" s="55"/>
-      <c r="BP4" s="55" t="s">
+      <c r="BK4" s="44"/>
+      <c r="BL4" s="44"/>
+      <c r="BM4" s="44"/>
+      <c r="BN4" s="44"/>
+      <c r="BO4" s="44"/>
+      <c r="BP4" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="BQ4" s="55"/>
-      <c r="BR4" s="55"/>
-      <c r="BS4" s="55"/>
-      <c r="BT4" s="55"/>
-      <c r="BU4" s="55"/>
-      <c r="BV4" s="55"/>
-      <c r="BW4" s="55"/>
-      <c r="BY4" s="55" t="s">
+      <c r="BQ4" s="44"/>
+      <c r="BR4" s="44"/>
+      <c r="BS4" s="44"/>
+      <c r="BT4" s="44"/>
+      <c r="BU4" s="44"/>
+      <c r="BV4" s="44"/>
+      <c r="BW4" s="44"/>
+      <c r="BX4" s="54"/>
+      <c r="BY4" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="BZ4" s="55"/>
-      <c r="CA4" s="55"/>
-      <c r="CB4" s="55"/>
-      <c r="CC4" s="55"/>
-      <c r="CD4" s="55"/>
-      <c r="CE4" s="55" t="s">
+      <c r="BZ4" s="44"/>
+      <c r="CA4" s="44"/>
+      <c r="CB4" s="44"/>
+      <c r="CC4" s="44"/>
+      <c r="CD4" s="44"/>
+      <c r="CE4" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="CF4" s="55"/>
-      <c r="CG4" s="55"/>
-      <c r="CH4" s="55"/>
-      <c r="CI4" s="55"/>
-      <c r="CJ4" s="55"/>
-      <c r="CK4" s="56"/>
-      <c r="CL4" s="23"/>
-      <c r="CM4" s="57" t="s">
+      <c r="CF4" s="44"/>
+      <c r="CG4" s="44"/>
+      <c r="CH4" s="44"/>
+      <c r="CI4" s="44"/>
+      <c r="CJ4" s="44"/>
+      <c r="CK4" s="48"/>
+      <c r="CL4" s="55"/>
+      <c r="CM4" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="CN4" s="55"/>
-      <c r="CO4" s="55"/>
-      <c r="CP4" s="55"/>
-      <c r="CQ4" s="55"/>
-      <c r="CR4" s="55"/>
-      <c r="CS4" s="55" t="s">
+      <c r="CN4" s="44"/>
+      <c r="CO4" s="44"/>
+      <c r="CP4" s="44"/>
+      <c r="CQ4" s="44"/>
+      <c r="CR4" s="44"/>
+      <c r="CS4" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="CT4" s="55"/>
-      <c r="CU4" s="55"/>
-      <c r="CV4" s="55"/>
-      <c r="CW4" s="55"/>
-      <c r="CX4" s="55"/>
-      <c r="CY4" s="55"/>
-      <c r="CZ4" s="55"/>
+      <c r="CT4" s="44"/>
+      <c r="CU4" s="44"/>
+      <c r="CV4" s="44"/>
+      <c r="CW4" s="44"/>
+      <c r="CX4" s="44"/>
+      <c r="CY4" s="44"/>
+      <c r="CZ4" s="44"/>
+      <c r="DA4" s="54"/>
     </row>
-    <row r="5" spans="2:104" ht="21.6" customHeight="1">
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="55" t="s">
+    <row r="5" spans="2:105" ht="21.6" customHeight="1">
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="58"/>
-      <c r="I5" s="58" t="s">
+      <c r="H5" s="50"/>
+      <c r="I5" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="58"/>
-      <c r="K5" s="54" t="s">
+      <c r="J5" s="50"/>
+      <c r="K5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="55" t="s">
+      <c r="L5" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="58" t="s">
+      <c r="M5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="58"/>
-      <c r="O5" s="58" t="s">
+      <c r="N5" s="50"/>
+      <c r="O5" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="58"/>
-      <c r="Q5" s="54" t="s">
+      <c r="P5" s="50"/>
+      <c r="Q5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="54" t="s">
+      <c r="R5" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="55" t="s">
+      <c r="T5" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="58" t="s">
+      <c r="U5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="58"/>
-      <c r="W5" s="58" t="s">
+      <c r="V5" s="50"/>
+      <c r="W5" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="X5" s="58"/>
-      <c r="Y5" s="54" t="s">
+      <c r="X5" s="50"/>
+      <c r="Y5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="55" t="s">
+      <c r="Z5" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AA5" s="58" t="s">
+      <c r="AA5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AB5" s="58"/>
-      <c r="AC5" s="58" t="s">
+      <c r="AB5" s="50"/>
+      <c r="AC5" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AD5" s="58"/>
-      <c r="AE5" s="54" t="s">
+      <c r="AD5" s="50"/>
+      <c r="AE5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="AF5" s="54" t="s">
+      <c r="AF5" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="AH5" s="55" t="s">
+      <c r="AH5" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AI5" s="58" t="s">
+      <c r="AI5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AJ5" s="58"/>
-      <c r="AK5" s="58" t="s">
+      <c r="AJ5" s="50"/>
+      <c r="AK5" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AL5" s="58"/>
-      <c r="AM5" s="54" t="s">
+      <c r="AL5" s="50"/>
+      <c r="AM5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="AN5" s="55" t="s">
+      <c r="AN5" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="AO5" s="58" t="s">
+      <c r="AO5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AP5" s="58"/>
-      <c r="AQ5" s="58" t="s">
+      <c r="AP5" s="50"/>
+      <c r="AQ5" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AR5" s="58"/>
-      <c r="AS5" s="54" t="s">
+      <c r="AR5" s="50"/>
+      <c r="AS5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="AT5" s="61" t="s">
+      <c r="AT5" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="AU5" s="13"/>
-      <c r="AV5" s="55" t="s">
+      <c r="AU5" s="56"/>
+      <c r="AV5" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AW5" s="58" t="s">
+      <c r="AW5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="AX5" s="58"/>
-      <c r="AY5" s="58" t="s">
+      <c r="AX5" s="50"/>
+      <c r="AY5" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="AZ5" s="58"/>
-      <c r="BA5" s="54" t="s">
+      <c r="AZ5" s="50"/>
+      <c r="BA5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="BB5" s="55" t="s">
+      <c r="BB5" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="BC5" s="58" t="s">
+      <c r="BC5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="BD5" s="58"/>
-      <c r="BE5" s="58" t="s">
+      <c r="BD5" s="50"/>
+      <c r="BE5" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="BF5" s="58"/>
-      <c r="BG5" s="54" t="s">
+      <c r="BF5" s="50"/>
+      <c r="BG5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="BH5" s="54" t="s">
+      <c r="BH5" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="BI5" s="14"/>
-      <c r="BJ5" s="57" t="s">
+      <c r="BI5" s="57"/>
+      <c r="BJ5" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="BK5" s="58" t="s">
+      <c r="BK5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="BL5" s="58"/>
-      <c r="BM5" s="58" t="s">
+      <c r="BL5" s="50"/>
+      <c r="BM5" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="BN5" s="58"/>
-      <c r="BO5" s="54" t="s">
+      <c r="BN5" s="50"/>
+      <c r="BO5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="BP5" s="55" t="s">
+      <c r="BP5" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="BQ5" s="58" t="s">
+      <c r="BQ5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="BR5" s="58"/>
-      <c r="BS5" s="58" t="s">
+      <c r="BR5" s="50"/>
+      <c r="BS5" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="BT5" s="58"/>
-      <c r="BU5" s="54" t="s">
+      <c r="BT5" s="50"/>
+      <c r="BU5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="BV5" s="54" t="s">
+      <c r="BV5" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="BW5" s="54" t="s">
+      <c r="BW5" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="BY5" s="55" t="s">
+      <c r="BX5" s="58"/>
+      <c r="BY5" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="BZ5" s="60" t="s">
+      <c r="BZ5" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="CA5" s="60"/>
-      <c r="CB5" s="60" t="s">
+      <c r="CA5" s="46"/>
+      <c r="CB5" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="CC5" s="60"/>
-      <c r="CD5" s="54" t="s">
+      <c r="CC5" s="46"/>
+      <c r="CD5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="CE5" s="55" t="s">
+      <c r="CE5" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="CF5" s="62" t="s">
+      <c r="CF5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="CG5" s="62"/>
-      <c r="CH5" s="60" t="s">
+      <c r="CG5" s="45"/>
+      <c r="CH5" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="CI5" s="60"/>
-      <c r="CJ5" s="54" t="s">
+      <c r="CI5" s="46"/>
+      <c r="CJ5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="CK5" s="61" t="s">
+      <c r="CK5" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="CL5" s="11"/>
-      <c r="CM5" s="57" t="s">
+      <c r="CL5" s="59"/>
+      <c r="CM5" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="CN5" s="62" t="s">
+      <c r="CN5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="CO5" s="62"/>
-      <c r="CP5" s="60" t="s">
+      <c r="CO5" s="45"/>
+      <c r="CP5" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="CQ5" s="60"/>
-      <c r="CR5" s="54" t="s">
+      <c r="CQ5" s="46"/>
+      <c r="CR5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="CS5" s="55" t="s">
+      <c r="CS5" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="CT5" s="62" t="s">
+      <c r="CT5" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="CU5" s="62"/>
-      <c r="CV5" s="60" t="s">
+      <c r="CU5" s="45"/>
+      <c r="CV5" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="CW5" s="60"/>
-      <c r="CX5" s="54" t="s">
+      <c r="CW5" s="46"/>
+      <c r="CX5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="CY5" s="54" t="s">
+      <c r="CY5" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="CZ5" s="54" t="s">
+      <c r="CZ5" s="43" t="s">
         <v>24</v>
       </c>
+      <c r="DA5" s="58"/>
     </row>
-    <row r="6" spans="2:104" ht="14.4">
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="55"/>
+    <row r="6" spans="2:105" ht="14.4">
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="44"/>
       <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3316,8 +3285,8 @@
       <c r="J6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
       <c r="M6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3330,9 +3299,9 @@
       <c r="P6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="T6" s="55"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="T6" s="44"/>
       <c r="U6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3345,8 +3314,8 @@
       <c r="X6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="55"/>
-      <c r="Z6" s="55"/>
+      <c r="Y6" s="44"/>
+      <c r="Z6" s="44"/>
       <c r="AA6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3359,9 +3328,9 @@
       <c r="AD6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AE6" s="55"/>
-      <c r="AF6" s="55"/>
-      <c r="AH6" s="55"/>
+      <c r="AE6" s="44"/>
+      <c r="AF6" s="44"/>
+      <c r="AH6" s="44"/>
       <c r="AI6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3374,8 +3343,8 @@
       <c r="AL6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AM6" s="55"/>
-      <c r="AN6" s="55"/>
+      <c r="AM6" s="44"/>
+      <c r="AN6" s="44"/>
       <c r="AO6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3388,10 +3357,10 @@
       <c r="AR6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AS6" s="55"/>
-      <c r="AT6" s="56"/>
-      <c r="AU6" s="13"/>
-      <c r="AV6" s="55"/>
+      <c r="AS6" s="44"/>
+      <c r="AT6" s="48"/>
+      <c r="AU6" s="56"/>
+      <c r="AV6" s="44"/>
       <c r="AW6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3404,8 +3373,8 @@
       <c r="AZ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BA6" s="55"/>
-      <c r="BB6" s="55"/>
+      <c r="BA6" s="44"/>
+      <c r="BB6" s="44"/>
       <c r="BC6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3418,10 +3387,10 @@
       <c r="BF6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BG6" s="55"/>
-      <c r="BH6" s="55"/>
-      <c r="BI6" s="14"/>
-      <c r="BJ6" s="57"/>
+      <c r="BG6" s="44"/>
+      <c r="BH6" s="44"/>
+      <c r="BI6" s="57"/>
+      <c r="BJ6" s="49"/>
       <c r="BK6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3434,8 +3403,8 @@
       <c r="BN6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BO6" s="55"/>
-      <c r="BP6" s="55"/>
+      <c r="BO6" s="44"/>
+      <c r="BP6" s="44"/>
       <c r="BQ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3448,85 +3417,87 @@
       <c r="BT6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BU6" s="55"/>
-      <c r="BV6" s="55"/>
-      <c r="BW6" s="55"/>
-      <c r="BY6" s="55"/>
-      <c r="BZ6" s="31" t="s">
+      <c r="BU6" s="44"/>
+      <c r="BV6" s="44"/>
+      <c r="BW6" s="44"/>
+      <c r="BX6" s="58"/>
+      <c r="BY6" s="44"/>
+      <c r="BZ6" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="CA6" s="31" t="s">
+      <c r="CA6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="CB6" s="31" t="s">
+      <c r="CB6" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="CC6" s="31" t="s">
+      <c r="CC6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="CD6" s="55"/>
-      <c r="CE6" s="55"/>
-      <c r="CF6" s="34" t="s">
+      <c r="CD6" s="44"/>
+      <c r="CE6" s="44"/>
+      <c r="CF6" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="CG6" s="34" t="s">
+      <c r="CG6" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="CH6" s="31" t="s">
+      <c r="CH6" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="CI6" s="31" t="s">
+      <c r="CI6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="CJ6" s="55"/>
-      <c r="CK6" s="56"/>
-      <c r="CL6" s="11"/>
-      <c r="CM6" s="57"/>
-      <c r="CN6" s="34" t="s">
+      <c r="CJ6" s="44"/>
+      <c r="CK6" s="48"/>
+      <c r="CL6" s="59"/>
+      <c r="CM6" s="49"/>
+      <c r="CN6" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="CO6" s="34" t="s">
+      <c r="CO6" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="CP6" s="31" t="s">
+      <c r="CP6" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="CQ6" s="31" t="s">
+      <c r="CQ6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="CR6" s="55"/>
-      <c r="CS6" s="55"/>
-      <c r="CT6" s="34" t="s">
+      <c r="CR6" s="44"/>
+      <c r="CS6" s="44"/>
+      <c r="CT6" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="CU6" s="34" t="s">
+      <c r="CU6" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="CV6" s="31" t="s">
+      <c r="CV6" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="CW6" s="31" t="s">
+      <c r="CW6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="CX6" s="55"/>
-      <c r="CY6" s="55"/>
-      <c r="CZ6" s="55"/>
+      <c r="CX6" s="44"/>
+      <c r="CY6" s="44"/>
+      <c r="CZ6" s="44"/>
+      <c r="DA6" s="58"/>
     </row>
-    <row r="7" spans="2:104" ht="20.25" customHeight="1">
+    <row r="7" spans="2:105" ht="20.25" customHeight="1">
       <c r="B7" s="5">
         <f>ROW()-6</f>
         <v>1</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="26" t="s">
+      <c r="E7" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="F7" s="21" t="s">
         <v>60</v>
       </c>
       <c r="G7" s="6">
@@ -3544,7 +3515,7 @@
       <c r="K7" s="7">
         <v>1</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="14" t="s">
         <v>76</v>
       </c>
       <c r="M7" s="6">
@@ -3563,154 +3534,155 @@
         <v>1</v>
       </c>
       <c r="R7" s="9"/>
-      <c r="T7" s="37" t="s">
+      <c r="T7" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="U7" s="38">
+      <c r="U7" s="31">
         <v>45083</v>
       </c>
-      <c r="V7" s="38">
+      <c r="V7" s="31">
         <v>45083</v>
       </c>
-      <c r="W7" s="38">
+      <c r="W7" s="31">
         <v>45083</v>
       </c>
-      <c r="X7" s="38">
+      <c r="X7" s="31">
         <v>45085</v>
       </c>
-      <c r="Y7" s="39">
+      <c r="Y7" s="32">
         <v>1</v>
       </c>
-      <c r="Z7" s="17" t="s">
+      <c r="Z7" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AA7" s="38">
+      <c r="AA7" s="31">
         <v>45084</v>
       </c>
-      <c r="AB7" s="38">
+      <c r="AB7" s="31">
         <v>45084</v>
       </c>
-      <c r="AC7" s="38">
+      <c r="AC7" s="31">
         <v>45084</v>
       </c>
-      <c r="AD7" s="38">
+      <c r="AD7" s="31">
         <v>45086</v>
       </c>
-      <c r="AE7" s="39">
+      <c r="AE7" s="32">
         <v>1</v>
       </c>
-      <c r="AF7" s="40">
+      <c r="AF7" s="33">
         <v>6</v>
       </c>
-      <c r="AH7" s="27" t="s">
+      <c r="AH7" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="AI7" s="52">
+      <c r="AI7" s="61">
         <v>45089</v>
       </c>
-      <c r="AJ7" s="52">
+      <c r="AJ7" s="61">
         <v>45096</v>
       </c>
-      <c r="AK7" s="6">
+      <c r="AK7" s="61">
         <v>45089</v>
       </c>
-      <c r="AL7" s="6"/>
-      <c r="AM7" s="53">
+      <c r="AL7" s="61"/>
+      <c r="AM7" s="42">
         <v>1</v>
       </c>
-      <c r="AN7" s="17"/>
-      <c r="AO7" s="52">
+      <c r="AN7" s="62"/>
+      <c r="AO7" s="41">
+        <v>45099</v>
+      </c>
+      <c r="AP7" s="41">
+        <v>45100</v>
+      </c>
+      <c r="AQ7" s="61"/>
+      <c r="AR7" s="61"/>
+      <c r="AS7" s="7"/>
+      <c r="AT7" s="11"/>
+      <c r="AU7" s="56"/>
+      <c r="AV7" s="13"/>
+      <c r="AW7" s="41">
         <v>45097</v>
       </c>
-      <c r="AP7" s="52">
+      <c r="AX7" s="41">
+        <v>45097</v>
+      </c>
+      <c r="AY7" s="61"/>
+      <c r="AZ7" s="61"/>
+      <c r="BA7" s="7"/>
+      <c r="BB7" s="62"/>
+      <c r="BC7" s="41">
         <v>45098</v>
       </c>
-      <c r="AQ7" s="6"/>
-      <c r="AR7" s="6"/>
-      <c r="AS7" s="7"/>
-      <c r="AT7" s="12"/>
-      <c r="AU7" s="13"/>
-      <c r="AV7" s="16"/>
-      <c r="AW7" s="52">
-        <v>45099</v>
-      </c>
-      <c r="AX7" s="52">
-        <v>45099</v>
-      </c>
-      <c r="AY7" s="6"/>
-      <c r="AZ7" s="6"/>
-      <c r="BA7" s="7"/>
-      <c r="BB7" s="17"/>
-      <c r="BC7" s="52">
-        <v>45100</v>
-      </c>
-      <c r="BD7" s="52">
-        <v>45100</v>
-      </c>
-      <c r="BE7" s="6"/>
-      <c r="BF7" s="6"/>
-      <c r="BG7" s="19"/>
+      <c r="BD7" s="41">
+        <v>45098</v>
+      </c>
+      <c r="BE7" s="61"/>
+      <c r="BF7" s="61"/>
+      <c r="BG7" s="16"/>
       <c r="BH7" s="10"/>
-      <c r="BI7" s="14"/>
-      <c r="BJ7" s="18"/>
-      <c r="BK7" s="52">
+      <c r="BI7" s="57"/>
+      <c r="BJ7" s="15"/>
+      <c r="BK7" s="61">
         <v>45103</v>
       </c>
-      <c r="BL7" s="52">
+      <c r="BL7" s="61">
         <v>45103</v>
       </c>
-      <c r="BM7" s="6"/>
-      <c r="BN7" s="6"/>
+      <c r="BM7" s="61"/>
+      <c r="BN7" s="61"/>
       <c r="BO7" s="7"/>
-      <c r="BP7" s="17"/>
-      <c r="BQ7" s="52">
+      <c r="BP7" s="62"/>
+      <c r="BQ7" s="61">
         <v>45103</v>
       </c>
-      <c r="BR7" s="52">
+      <c r="BR7" s="61">
         <v>45103</v>
       </c>
-      <c r="BS7" s="6"/>
-      <c r="BT7" s="6"/>
+      <c r="BS7" s="61"/>
+      <c r="BT7" s="61"/>
       <c r="BU7" s="7"/>
       <c r="BV7" s="10"/>
       <c r="BW7" s="10"/>
+      <c r="BX7" s="58"/>
       <c r="BY7" s="63"/>
-      <c r="BZ7" s="66">
+      <c r="BZ7" s="63">
         <v>45104</v>
       </c>
-      <c r="CA7" s="66">
+      <c r="CA7" s="63">
         <v>45104</v>
       </c>
       <c r="CB7" s="63"/>
       <c r="CC7" s="63"/>
       <c r="CD7" s="63"/>
       <c r="CE7" s="63"/>
-      <c r="CF7" s="66">
+      <c r="CF7" s="63">
         <v>45104</v>
       </c>
-      <c r="CG7" s="66">
+      <c r="CG7" s="63">
         <v>45104</v>
       </c>
       <c r="CH7" s="63"/>
       <c r="CI7" s="63"/>
       <c r="CJ7" s="63"/>
       <c r="CK7" s="63"/>
-      <c r="CL7" s="14"/>
+      <c r="CL7" s="57"/>
       <c r="CM7" s="63"/>
-      <c r="CN7" s="66">
+      <c r="CN7" s="63">
         <v>45105</v>
       </c>
-      <c r="CO7" s="66">
+      <c r="CO7" s="63">
         <v>45105</v>
       </c>
       <c r="CP7" s="63"/>
       <c r="CQ7" s="63"/>
       <c r="CR7" s="63"/>
       <c r="CS7" s="63"/>
-      <c r="CT7" s="66">
+      <c r="CT7" s="63">
         <v>45105</v>
       </c>
-      <c r="CU7" s="66">
+      <c r="CU7" s="63">
         <v>45105</v>
       </c>
       <c r="CV7" s="63"/>
@@ -3718,22 +3690,23 @@
       <c r="CX7" s="63"/>
       <c r="CY7" s="63"/>
       <c r="CZ7" s="63"/>
+      <c r="DA7" s="58"/>
     </row>
-    <row r="8" spans="2:104" ht="20.25" customHeight="1">
+    <row r="8" spans="2:105" ht="20.25" customHeight="1">
       <c r="B8" s="5">
         <f t="shared" ref="B8:B22" si="0">ROW()-6</f>
         <v>2</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="F8" s="21" t="s">
         <v>61</v>
       </c>
       <c r="G8" s="6">
@@ -3751,7 +3724,7 @@
       <c r="K8" s="7">
         <v>1</v>
       </c>
-      <c r="L8" s="17" t="s">
+      <c r="L8" s="14" t="s">
         <v>76</v>
       </c>
       <c r="M8" s="6">
@@ -3770,161 +3743,163 @@
         <v>1</v>
       </c>
       <c r="R8" s="9"/>
-      <c r="T8" s="37" t="s">
+      <c r="T8" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="U8" s="38">
+      <c r="U8" s="31">
         <v>45083</v>
       </c>
-      <c r="V8" s="38">
+      <c r="V8" s="31">
         <v>45083</v>
       </c>
-      <c r="W8" s="38">
+      <c r="W8" s="31">
         <v>45083</v>
       </c>
-      <c r="X8" s="38">
+      <c r="X8" s="31">
         <v>45085</v>
       </c>
-      <c r="Y8" s="39">
+      <c r="Y8" s="32">
         <v>1</v>
       </c>
-      <c r="Z8" s="17" t="s">
+      <c r="Z8" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AA8" s="38">
+      <c r="AA8" s="31">
         <v>45084</v>
       </c>
-      <c r="AB8" s="38">
+      <c r="AB8" s="31">
         <v>45084</v>
       </c>
-      <c r="AC8" s="38">
+      <c r="AC8" s="31">
         <v>45084</v>
       </c>
-      <c r="AD8" s="38">
+      <c r="AD8" s="31">
         <v>45086</v>
       </c>
-      <c r="AE8" s="39">
+      <c r="AE8" s="32">
         <v>1</v>
       </c>
-      <c r="AF8" s="40">
+      <c r="AF8" s="33">
         <v>8</v>
       </c>
-      <c r="AH8" s="27" t="s">
+      <c r="AH8" s="60" t="s">
         <v>71</v>
       </c>
-      <c r="AI8" s="52">
+      <c r="AI8" s="61">
         <v>45089</v>
       </c>
-      <c r="AJ8" s="52">
+      <c r="AJ8" s="61">
         <v>45096</v>
       </c>
-      <c r="AK8" s="6">
+      <c r="AK8" s="61">
         <v>45089</v>
       </c>
-      <c r="AL8" s="6"/>
-      <c r="AM8" s="53">
+      <c r="AL8" s="61"/>
+      <c r="AM8" s="42">
         <v>0.1</v>
       </c>
-      <c r="AN8" s="17"/>
-      <c r="AO8" s="52">
+      <c r="AN8" s="62"/>
+      <c r="AO8" s="41">
+        <v>45099</v>
+      </c>
+      <c r="AP8" s="41">
+        <v>45100</v>
+      </c>
+      <c r="AQ8" s="61"/>
+      <c r="AR8" s="61"/>
+      <c r="AS8" s="7"/>
+      <c r="AT8" s="11"/>
+      <c r="AU8" s="56"/>
+      <c r="AV8" s="13"/>
+      <c r="AW8" s="41">
         <v>45097</v>
       </c>
-      <c r="AP8" s="52">
+      <c r="AX8" s="41">
+        <v>45097</v>
+      </c>
+      <c r="AY8" s="61"/>
+      <c r="AZ8" s="61"/>
+      <c r="BA8" s="7"/>
+      <c r="BB8" s="62"/>
+      <c r="BC8" s="41">
         <v>45098</v>
       </c>
-      <c r="AQ8" s="6"/>
-      <c r="AR8" s="6"/>
-      <c r="AS8" s="7"/>
-      <c r="AT8" s="12"/>
-      <c r="AU8" s="13"/>
-      <c r="AV8" s="16"/>
-      <c r="AW8" s="52">
-        <v>45099</v>
-      </c>
-      <c r="AX8" s="52">
-        <v>45099</v>
-      </c>
-      <c r="AY8" s="6"/>
-      <c r="AZ8" s="6"/>
-      <c r="BA8" s="7"/>
-      <c r="BB8" s="17"/>
-      <c r="BC8" s="52">
-        <v>45100</v>
-      </c>
-      <c r="BD8" s="52">
-        <v>45100</v>
-      </c>
-      <c r="BE8" s="6"/>
-      <c r="BF8" s="6"/>
-      <c r="BG8" s="19"/>
+      <c r="BD8" s="41">
+        <v>45098</v>
+      </c>
+      <c r="BE8" s="61"/>
+      <c r="BF8" s="61"/>
+      <c r="BG8" s="16"/>
       <c r="BH8" s="10"/>
-      <c r="BI8" s="14"/>
-      <c r="BJ8" s="18"/>
-      <c r="BK8" s="52">
+      <c r="BI8" s="57"/>
+      <c r="BJ8" s="15"/>
+      <c r="BK8" s="61">
         <v>45103</v>
       </c>
-      <c r="BL8" s="52">
+      <c r="BL8" s="61">
         <v>45103</v>
       </c>
-      <c r="BM8" s="6"/>
-      <c r="BN8" s="6"/>
+      <c r="BM8" s="61"/>
+      <c r="BN8" s="61"/>
       <c r="BO8" s="7"/>
-      <c r="BP8" s="17"/>
-      <c r="BQ8" s="52">
+      <c r="BP8" s="62"/>
+      <c r="BQ8" s="61">
         <v>45103</v>
       </c>
-      <c r="BR8" s="52">
+      <c r="BR8" s="61">
         <v>45103</v>
       </c>
-      <c r="BS8" s="6"/>
-      <c r="BT8" s="6"/>
+      <c r="BS8" s="61"/>
+      <c r="BT8" s="61"/>
       <c r="BU8" s="7"/>
       <c r="BV8" s="10"/>
       <c r="BW8" s="10"/>
+      <c r="BX8" s="58"/>
       <c r="BY8" s="64"/>
-      <c r="BZ8" s="67"/>
-      <c r="CA8" s="67"/>
+      <c r="BZ8" s="64"/>
+      <c r="CA8" s="64"/>
       <c r="CB8" s="64"/>
       <c r="CC8" s="64"/>
       <c r="CD8" s="64"/>
       <c r="CE8" s="64"/>
-      <c r="CF8" s="67"/>
-      <c r="CG8" s="67"/>
+      <c r="CF8" s="64"/>
+      <c r="CG8" s="64"/>
       <c r="CH8" s="64"/>
       <c r="CI8" s="64"/>
       <c r="CJ8" s="64"/>
       <c r="CK8" s="64"/>
-      <c r="CL8" s="14"/>
+      <c r="CL8" s="57"/>
       <c r="CM8" s="64"/>
-      <c r="CN8" s="67"/>
-      <c r="CO8" s="67"/>
+      <c r="CN8" s="64"/>
+      <c r="CO8" s="64"/>
       <c r="CP8" s="64"/>
       <c r="CQ8" s="64"/>
       <c r="CR8" s="64"/>
       <c r="CS8" s="64"/>
-      <c r="CT8" s="67"/>
-      <c r="CU8" s="67"/>
+      <c r="CT8" s="64"/>
+      <c r="CU8" s="64"/>
       <c r="CV8" s="64"/>
       <c r="CW8" s="64"/>
       <c r="CX8" s="64"/>
       <c r="CY8" s="64"/>
       <c r="CZ8" s="64"/>
+      <c r="DA8" s="58"/>
     </row>
-    <row r="9" spans="2:104" ht="20.25" customHeight="1">
+    <row r="9" spans="2:105" ht="20.25" customHeight="1">
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="21" t="s">
         <v>62</v>
       </c>
       <c r="G9" s="6">
@@ -3942,7 +3917,7 @@
       <c r="K9" s="7">
         <v>1</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="14" t="s">
         <v>76</v>
       </c>
       <c r="M9" s="6">
@@ -3961,160 +3936,161 @@
         <v>1</v>
       </c>
       <c r="R9" s="9"/>
-      <c r="T9" s="37" t="s">
+      <c r="T9" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="U9" s="38">
+      <c r="U9" s="31">
         <v>45083</v>
       </c>
-      <c r="V9" s="38">
+      <c r="V9" s="31">
         <v>45083</v>
       </c>
-      <c r="W9" s="38">
+      <c r="W9" s="31">
         <v>45083</v>
       </c>
-      <c r="X9" s="38">
+      <c r="X9" s="31">
         <v>45084</v>
       </c>
-      <c r="Y9" s="39">
+      <c r="Y9" s="32">
         <v>1</v>
       </c>
-      <c r="Z9" s="17" t="s">
+      <c r="Z9" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AA9" s="38">
+      <c r="AA9" s="31">
         <v>45084</v>
       </c>
-      <c r="AB9" s="38">
+      <c r="AB9" s="31">
         <v>45084</v>
       </c>
-      <c r="AC9" s="38">
+      <c r="AC9" s="31">
         <v>45084</v>
       </c>
-      <c r="AD9" s="38">
+      <c r="AD9" s="31">
         <v>45086</v>
       </c>
-      <c r="AE9" s="39">
+      <c r="AE9" s="32">
         <v>1</v>
       </c>
-      <c r="AF9" s="40"/>
-      <c r="AH9" s="27" t="s">
+      <c r="AF9" s="33"/>
+      <c r="AH9" s="60" t="s">
         <v>72</v>
       </c>
-      <c r="AI9" s="52">
+      <c r="AI9" s="61">
         <v>45089</v>
       </c>
-      <c r="AJ9" s="52">
+      <c r="AJ9" s="61">
         <v>45096</v>
       </c>
-      <c r="AK9" s="6">
+      <c r="AK9" s="61">
         <v>45089</v>
       </c>
-      <c r="AL9" s="6"/>
-      <c r="AM9" s="53">
+      <c r="AL9" s="61"/>
+      <c r="AM9" s="42">
         <v>0.8</v>
       </c>
-      <c r="AN9" s="17"/>
-      <c r="AO9" s="52">
+      <c r="AN9" s="62"/>
+      <c r="AO9" s="41">
+        <v>45099</v>
+      </c>
+      <c r="AP9" s="41">
+        <v>45100</v>
+      </c>
+      <c r="AQ9" s="61"/>
+      <c r="AR9" s="61"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="11"/>
+      <c r="AU9" s="56"/>
+      <c r="AV9" s="13"/>
+      <c r="AW9" s="41">
         <v>45097</v>
       </c>
-      <c r="AP9" s="52">
+      <c r="AX9" s="41">
+        <v>45097</v>
+      </c>
+      <c r="AY9" s="61"/>
+      <c r="AZ9" s="61"/>
+      <c r="BA9" s="7"/>
+      <c r="BB9" s="62"/>
+      <c r="BC9" s="41">
         <v>45098</v>
       </c>
-      <c r="AQ9" s="6"/>
-      <c r="AR9" s="6"/>
-      <c r="AS9" s="7"/>
-      <c r="AT9" s="12"/>
-      <c r="AU9" s="13"/>
-      <c r="AV9" s="16"/>
-      <c r="AW9" s="52">
-        <v>45099</v>
-      </c>
-      <c r="AX9" s="52">
-        <v>45099</v>
-      </c>
-      <c r="AY9" s="6"/>
-      <c r="AZ9" s="6"/>
-      <c r="BA9" s="7"/>
-      <c r="BB9" s="17"/>
-      <c r="BC9" s="52">
-        <v>45100</v>
-      </c>
-      <c r="BD9" s="52">
-        <v>45100</v>
-      </c>
-      <c r="BE9" s="6"/>
-      <c r="BF9" s="6"/>
-      <c r="BG9" s="19"/>
+      <c r="BD9" s="41">
+        <v>45098</v>
+      </c>
+      <c r="BE9" s="61"/>
+      <c r="BF9" s="61"/>
+      <c r="BG9" s="16"/>
       <c r="BH9" s="10"/>
-      <c r="BI9" s="14"/>
-      <c r="BJ9" s="18"/>
-      <c r="BK9" s="52">
+      <c r="BI9" s="57"/>
+      <c r="BJ9" s="15"/>
+      <c r="BK9" s="61">
         <v>45103</v>
       </c>
-      <c r="BL9" s="52">
+      <c r="BL9" s="61">
         <v>45103</v>
       </c>
-      <c r="BM9" s="6"/>
-      <c r="BN9" s="6"/>
+      <c r="BM9" s="61"/>
+      <c r="BN9" s="61"/>
       <c r="BO9" s="7"/>
-      <c r="BP9" s="17"/>
-      <c r="BQ9" s="52">
+      <c r="BP9" s="62"/>
+      <c r="BQ9" s="61">
         <v>45103</v>
       </c>
-      <c r="BR9" s="52">
+      <c r="BR9" s="61">
         <v>45103</v>
       </c>
-      <c r="BS9" s="6"/>
-      <c r="BT9" s="6"/>
+      <c r="BS9" s="61"/>
+      <c r="BT9" s="61"/>
       <c r="BU9" s="7"/>
       <c r="BV9" s="10"/>
       <c r="BW9" s="10"/>
-      <c r="BX9" s="13"/>
+      <c r="BX9" s="56"/>
       <c r="BY9" s="64"/>
-      <c r="BZ9" s="67"/>
-      <c r="CA9" s="67"/>
+      <c r="BZ9" s="64"/>
+      <c r="CA9" s="64"/>
       <c r="CB9" s="64"/>
       <c r="CC9" s="64"/>
       <c r="CD9" s="64"/>
       <c r="CE9" s="64"/>
-      <c r="CF9" s="67"/>
-      <c r="CG9" s="67"/>
+      <c r="CF9" s="64"/>
+      <c r="CG9" s="64"/>
       <c r="CH9" s="64"/>
       <c r="CI9" s="64"/>
       <c r="CJ9" s="64"/>
       <c r="CK9" s="64"/>
-      <c r="CL9" s="14"/>
+      <c r="CL9" s="57"/>
       <c r="CM9" s="64"/>
-      <c r="CN9" s="67"/>
-      <c r="CO9" s="67"/>
+      <c r="CN9" s="64"/>
+      <c r="CO9" s="64"/>
       <c r="CP9" s="64"/>
       <c r="CQ9" s="64"/>
       <c r="CR9" s="64"/>
       <c r="CS9" s="64"/>
-      <c r="CT9" s="67"/>
-      <c r="CU9" s="67"/>
+      <c r="CT9" s="64"/>
+      <c r="CU9" s="64"/>
       <c r="CV9" s="64"/>
       <c r="CW9" s="64"/>
       <c r="CX9" s="64"/>
       <c r="CY9" s="64"/>
       <c r="CZ9" s="64"/>
+      <c r="DA9" s="58"/>
     </row>
-    <row r="10" spans="2:104" ht="20.25" customHeight="1">
+    <row r="10" spans="2:105" ht="20.25" customHeight="1">
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="27" t="s">
+      <c r="F10" s="21" t="s">
         <v>63</v>
       </c>
       <c r="G10" s="6">
@@ -4132,7 +4108,7 @@
       <c r="K10" s="7">
         <v>1</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="14" t="s">
         <v>76</v>
       </c>
       <c r="M10" s="6">
@@ -4151,162 +4127,163 @@
         <v>1</v>
       </c>
       <c r="R10" s="9"/>
-      <c r="T10" s="37" t="s">
+      <c r="T10" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="U10" s="38">
+      <c r="U10" s="31">
         <v>45083</v>
       </c>
-      <c r="V10" s="38">
+      <c r="V10" s="31">
         <v>45083</v>
       </c>
-      <c r="W10" s="38">
+      <c r="W10" s="31">
         <v>45083</v>
       </c>
-      <c r="X10" s="38">
+      <c r="X10" s="31">
         <v>45084</v>
       </c>
-      <c r="Y10" s="39">
+      <c r="Y10" s="32">
         <v>1</v>
       </c>
-      <c r="Z10" s="17" t="s">
+      <c r="Z10" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AA10" s="38">
+      <c r="AA10" s="31">
         <v>45084</v>
       </c>
-      <c r="AB10" s="38">
+      <c r="AB10" s="31">
         <v>45084</v>
       </c>
-      <c r="AC10" s="38">
+      <c r="AC10" s="31">
         <v>45084</v>
       </c>
-      <c r="AD10" s="38">
+      <c r="AD10" s="31">
         <v>45086</v>
       </c>
-      <c r="AE10" s="39">
+      <c r="AE10" s="32">
         <v>0.8</v>
       </c>
-      <c r="AF10" s="40">
+      <c r="AF10" s="33">
         <v>9</v>
       </c>
-      <c r="AH10" s="27" t="s">
+      <c r="AH10" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="AI10" s="52">
+      <c r="AI10" s="61">
         <v>45089</v>
       </c>
-      <c r="AJ10" s="52">
+      <c r="AJ10" s="61">
         <v>45096</v>
       </c>
-      <c r="AK10" s="6">
+      <c r="AK10" s="61">
         <v>45089</v>
       </c>
-      <c r="AL10" s="6"/>
-      <c r="AM10" s="53">
+      <c r="AL10" s="61"/>
+      <c r="AM10" s="42">
         <v>0.2</v>
       </c>
-      <c r="AN10" s="17"/>
-      <c r="AO10" s="52">
+      <c r="AN10" s="62"/>
+      <c r="AO10" s="41">
+        <v>45099</v>
+      </c>
+      <c r="AP10" s="41">
+        <v>45100</v>
+      </c>
+      <c r="AQ10" s="61"/>
+      <c r="AR10" s="61"/>
+      <c r="AS10" s="7"/>
+      <c r="AT10" s="11"/>
+      <c r="AU10" s="56"/>
+      <c r="AV10" s="13"/>
+      <c r="AW10" s="41">
         <v>45097</v>
       </c>
-      <c r="AP10" s="52">
+      <c r="AX10" s="41">
+        <v>45097</v>
+      </c>
+      <c r="AY10" s="61"/>
+      <c r="AZ10" s="61"/>
+      <c r="BA10" s="7"/>
+      <c r="BB10" s="62"/>
+      <c r="BC10" s="41">
         <v>45098</v>
       </c>
-      <c r="AQ10" s="6"/>
-      <c r="AR10" s="6"/>
-      <c r="AS10" s="7"/>
-      <c r="AT10" s="12"/>
-      <c r="AU10" s="13"/>
-      <c r="AV10" s="16"/>
-      <c r="AW10" s="52">
-        <v>45099</v>
-      </c>
-      <c r="AX10" s="52">
-        <v>45099</v>
-      </c>
-      <c r="AY10" s="6"/>
-      <c r="AZ10" s="6"/>
-      <c r="BA10" s="7"/>
-      <c r="BB10" s="17"/>
-      <c r="BC10" s="52">
-        <v>45100</v>
-      </c>
-      <c r="BD10" s="52">
-        <v>45100</v>
-      </c>
-      <c r="BE10" s="6"/>
-      <c r="BF10" s="6"/>
-      <c r="BG10" s="19"/>
+      <c r="BD10" s="41">
+        <v>45098</v>
+      </c>
+      <c r="BE10" s="61"/>
+      <c r="BF10" s="61"/>
+      <c r="BG10" s="16"/>
       <c r="BH10" s="10"/>
-      <c r="BI10" s="14"/>
-      <c r="BJ10" s="18"/>
-      <c r="BK10" s="52">
+      <c r="BI10" s="57"/>
+      <c r="BJ10" s="15"/>
+      <c r="BK10" s="61">
         <v>45103</v>
       </c>
-      <c r="BL10" s="52">
+      <c r="BL10" s="61">
         <v>45103</v>
       </c>
-      <c r="BM10" s="6"/>
-      <c r="BN10" s="6"/>
+      <c r="BM10" s="61"/>
+      <c r="BN10" s="61"/>
       <c r="BO10" s="7"/>
-      <c r="BP10" s="17"/>
-      <c r="BQ10" s="52">
+      <c r="BP10" s="62"/>
+      <c r="BQ10" s="61">
         <v>45103</v>
       </c>
-      <c r="BR10" s="52">
+      <c r="BR10" s="61">
         <v>45103</v>
       </c>
-      <c r="BS10" s="6"/>
-      <c r="BT10" s="6"/>
+      <c r="BS10" s="61"/>
+      <c r="BT10" s="61"/>
       <c r="BU10" s="7"/>
       <c r="BV10" s="10"/>
       <c r="BW10" s="10"/>
-      <c r="BX10" s="13"/>
+      <c r="BX10" s="56"/>
       <c r="BY10" s="64"/>
-      <c r="BZ10" s="67"/>
-      <c r="CA10" s="67"/>
+      <c r="BZ10" s="64"/>
+      <c r="CA10" s="64"/>
       <c r="CB10" s="64"/>
       <c r="CC10" s="64"/>
       <c r="CD10" s="64"/>
       <c r="CE10" s="64"/>
-      <c r="CF10" s="67"/>
-      <c r="CG10" s="67"/>
+      <c r="CF10" s="64"/>
+      <c r="CG10" s="64"/>
       <c r="CH10" s="64"/>
       <c r="CI10" s="64"/>
       <c r="CJ10" s="64"/>
       <c r="CK10" s="64"/>
-      <c r="CL10" s="14"/>
+      <c r="CL10" s="57"/>
       <c r="CM10" s="64"/>
-      <c r="CN10" s="67"/>
-      <c r="CO10" s="67"/>
+      <c r="CN10" s="64"/>
+      <c r="CO10" s="64"/>
       <c r="CP10" s="64"/>
       <c r="CQ10" s="64"/>
       <c r="CR10" s="64"/>
       <c r="CS10" s="64"/>
-      <c r="CT10" s="67"/>
-      <c r="CU10" s="67"/>
+      <c r="CT10" s="64"/>
+      <c r="CU10" s="64"/>
       <c r="CV10" s="64"/>
       <c r="CW10" s="64"/>
       <c r="CX10" s="64"/>
       <c r="CY10" s="64"/>
       <c r="CZ10" s="64"/>
+      <c r="DA10" s="58"/>
     </row>
-    <row r="11" spans="2:104" ht="20.25" customHeight="1">
+    <row r="11" spans="2:105" ht="20.25" customHeight="1">
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="27" t="s">
+      <c r="F11" s="21" t="s">
         <v>64</v>
       </c>
       <c r="G11" s="6">
@@ -4324,7 +4301,7 @@
       <c r="K11" s="7">
         <v>1</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="14" t="s">
         <v>76</v>
       </c>
       <c r="M11" s="6">
@@ -4343,160 +4320,161 @@
         <v>1</v>
       </c>
       <c r="R11" s="9"/>
-      <c r="T11" s="37" t="s">
+      <c r="T11" s="30" t="s">
         <v>64</v>
       </c>
-      <c r="U11" s="38">
+      <c r="U11" s="31">
         <v>45083</v>
       </c>
-      <c r="V11" s="38">
+      <c r="V11" s="31">
         <v>45083</v>
       </c>
-      <c r="W11" s="38">
+      <c r="W11" s="31">
         <v>45083</v>
       </c>
-      <c r="X11" s="38">
+      <c r="X11" s="31">
         <v>45085</v>
       </c>
-      <c r="Y11" s="39">
+      <c r="Y11" s="32">
         <v>1</v>
       </c>
-      <c r="Z11" s="17" t="s">
+      <c r="Z11" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AA11" s="38">
+      <c r="AA11" s="31">
         <v>45084</v>
       </c>
-      <c r="AB11" s="38">
+      <c r="AB11" s="31">
         <v>45084</v>
       </c>
-      <c r="AC11" s="38">
+      <c r="AC11" s="31">
         <v>45084</v>
       </c>
-      <c r="AD11" s="38">
+      <c r="AD11" s="31">
         <v>45086</v>
       </c>
-      <c r="AE11" s="39">
+      <c r="AE11" s="32">
         <v>1</v>
       </c>
-      <c r="AF11" s="40"/>
-      <c r="AH11" s="27" t="s">
+      <c r="AF11" s="33"/>
+      <c r="AH11" s="60" t="s">
         <v>73</v>
       </c>
-      <c r="AI11" s="52">
+      <c r="AI11" s="61">
         <v>45089</v>
       </c>
-      <c r="AJ11" s="52">
+      <c r="AJ11" s="61">
         <v>45096</v>
       </c>
-      <c r="AK11" s="6">
+      <c r="AK11" s="61">
         <v>45089</v>
       </c>
-      <c r="AL11" s="6"/>
-      <c r="AM11" s="53">
+      <c r="AL11" s="61"/>
+      <c r="AM11" s="42">
         <v>0.2</v>
       </c>
-      <c r="AN11" s="17"/>
-      <c r="AO11" s="52">
+      <c r="AN11" s="62"/>
+      <c r="AO11" s="41">
+        <v>45099</v>
+      </c>
+      <c r="AP11" s="41">
+        <v>45100</v>
+      </c>
+      <c r="AQ11" s="61"/>
+      <c r="AR11" s="61"/>
+      <c r="AS11" s="7"/>
+      <c r="AT11" s="11"/>
+      <c r="AU11" s="56"/>
+      <c r="AV11" s="13"/>
+      <c r="AW11" s="41">
         <v>45097</v>
       </c>
-      <c r="AP11" s="52">
+      <c r="AX11" s="41">
+        <v>45097</v>
+      </c>
+      <c r="AY11" s="61"/>
+      <c r="AZ11" s="61"/>
+      <c r="BA11" s="7"/>
+      <c r="BB11" s="62"/>
+      <c r="BC11" s="41">
         <v>45098</v>
       </c>
-      <c r="AQ11" s="6"/>
-      <c r="AR11" s="6"/>
-      <c r="AS11" s="7"/>
-      <c r="AT11" s="12"/>
-      <c r="AU11" s="13"/>
-      <c r="AV11" s="16"/>
-      <c r="AW11" s="52">
-        <v>45099</v>
-      </c>
-      <c r="AX11" s="52">
-        <v>45099</v>
-      </c>
-      <c r="AY11" s="6"/>
-      <c r="AZ11" s="6"/>
-      <c r="BA11" s="7"/>
-      <c r="BB11" s="17"/>
-      <c r="BC11" s="52">
-        <v>45100</v>
-      </c>
-      <c r="BD11" s="52">
-        <v>45100</v>
-      </c>
-      <c r="BE11" s="6"/>
-      <c r="BF11" s="6"/>
-      <c r="BG11" s="19"/>
+      <c r="BD11" s="41">
+        <v>45098</v>
+      </c>
+      <c r="BE11" s="61"/>
+      <c r="BF11" s="61"/>
+      <c r="BG11" s="16"/>
       <c r="BH11" s="10"/>
-      <c r="BI11" s="14"/>
-      <c r="BJ11" s="18"/>
-      <c r="BK11" s="52">
+      <c r="BI11" s="57"/>
+      <c r="BJ11" s="15"/>
+      <c r="BK11" s="61">
         <v>45103</v>
       </c>
-      <c r="BL11" s="52">
+      <c r="BL11" s="61">
         <v>45103</v>
       </c>
-      <c r="BM11" s="6"/>
-      <c r="BN11" s="6"/>
+      <c r="BM11" s="61"/>
+      <c r="BN11" s="61"/>
       <c r="BO11" s="7"/>
-      <c r="BP11" s="17"/>
-      <c r="BQ11" s="52">
+      <c r="BP11" s="62"/>
+      <c r="BQ11" s="61">
         <v>45103</v>
       </c>
-      <c r="BR11" s="52">
+      <c r="BR11" s="61">
         <v>45103</v>
       </c>
-      <c r="BS11" s="6"/>
-      <c r="BT11" s="6"/>
+      <c r="BS11" s="61"/>
+      <c r="BT11" s="61"/>
       <c r="BU11" s="7"/>
       <c r="BV11" s="10"/>
       <c r="BW11" s="10"/>
-      <c r="BX11" s="13"/>
+      <c r="BX11" s="56"/>
       <c r="BY11" s="64"/>
-      <c r="BZ11" s="67"/>
-      <c r="CA11" s="67"/>
+      <c r="BZ11" s="64"/>
+      <c r="CA11" s="64"/>
       <c r="CB11" s="64"/>
       <c r="CC11" s="64"/>
       <c r="CD11" s="64"/>
       <c r="CE11" s="64"/>
-      <c r="CF11" s="67"/>
-      <c r="CG11" s="67"/>
+      <c r="CF11" s="64"/>
+      <c r="CG11" s="64"/>
       <c r="CH11" s="64"/>
       <c r="CI11" s="64"/>
       <c r="CJ11" s="64"/>
       <c r="CK11" s="64"/>
-      <c r="CL11" s="14"/>
+      <c r="CL11" s="57"/>
       <c r="CM11" s="64"/>
-      <c r="CN11" s="67"/>
-      <c r="CO11" s="67"/>
+      <c r="CN11" s="64"/>
+      <c r="CO11" s="64"/>
       <c r="CP11" s="64"/>
       <c r="CQ11" s="64"/>
       <c r="CR11" s="64"/>
       <c r="CS11" s="64"/>
-      <c r="CT11" s="67"/>
-      <c r="CU11" s="67"/>
+      <c r="CT11" s="64"/>
+      <c r="CU11" s="64"/>
       <c r="CV11" s="64"/>
       <c r="CW11" s="64"/>
       <c r="CX11" s="64"/>
       <c r="CY11" s="64"/>
       <c r="CZ11" s="64"/>
+      <c r="DA11" s="58"/>
     </row>
-    <row r="12" spans="2:104" ht="20.25" customHeight="1">
+    <row r="12" spans="2:105" ht="20.25" customHeight="1">
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="27" t="s">
+      <c r="F12" s="21" t="s">
         <v>65</v>
       </c>
       <c r="G12" s="6">
@@ -4514,7 +4492,7 @@
       <c r="K12" s="7">
         <v>1</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="L12" s="14" t="s">
         <v>76</v>
       </c>
       <c r="M12" s="6">
@@ -4533,160 +4511,161 @@
         <v>1</v>
       </c>
       <c r="R12" s="9"/>
-      <c r="T12" s="37" t="s">
+      <c r="T12" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="U12" s="38">
+      <c r="U12" s="31">
         <v>45083</v>
       </c>
-      <c r="V12" s="38">
+      <c r="V12" s="31">
         <v>45083</v>
       </c>
-      <c r="W12" s="38">
+      <c r="W12" s="31">
         <v>45083</v>
       </c>
-      <c r="X12" s="38">
+      <c r="X12" s="31">
         <v>45085</v>
       </c>
-      <c r="Y12" s="39">
+      <c r="Y12" s="32">
         <v>1</v>
       </c>
-      <c r="Z12" s="17" t="s">
+      <c r="Z12" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AA12" s="38">
+      <c r="AA12" s="31">
         <v>45084</v>
       </c>
-      <c r="AB12" s="38">
+      <c r="AB12" s="31">
         <v>45084</v>
       </c>
-      <c r="AC12" s="38">
+      <c r="AC12" s="31">
         <v>45084</v>
       </c>
-      <c r="AD12" s="38">
+      <c r="AD12" s="31">
         <v>45086</v>
       </c>
-      <c r="AE12" s="39">
+      <c r="AE12" s="32">
         <v>1</v>
       </c>
-      <c r="AF12" s="40"/>
-      <c r="AH12" s="27" t="s">
+      <c r="AF12" s="33"/>
+      <c r="AH12" s="60" t="s">
         <v>74</v>
       </c>
-      <c r="AI12" s="52">
+      <c r="AI12" s="61">
         <v>45089</v>
       </c>
-      <c r="AJ12" s="52">
+      <c r="AJ12" s="61">
         <v>45096</v>
       </c>
-      <c r="AK12" s="6">
+      <c r="AK12" s="61">
         <v>45089</v>
       </c>
-      <c r="AL12" s="6"/>
-      <c r="AM12" s="53">
+      <c r="AL12" s="61"/>
+      <c r="AM12" s="42">
         <v>0.8</v>
       </c>
-      <c r="AN12" s="17"/>
-      <c r="AO12" s="52">
+      <c r="AN12" s="62"/>
+      <c r="AO12" s="41">
+        <v>45099</v>
+      </c>
+      <c r="AP12" s="41">
+        <v>45100</v>
+      </c>
+      <c r="AQ12" s="61"/>
+      <c r="AR12" s="61"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="11"/>
+      <c r="AU12" s="56"/>
+      <c r="AV12" s="13"/>
+      <c r="AW12" s="41">
         <v>45097</v>
       </c>
-      <c r="AP12" s="52">
+      <c r="AX12" s="41">
+        <v>45097</v>
+      </c>
+      <c r="AY12" s="61"/>
+      <c r="AZ12" s="61"/>
+      <c r="BA12" s="7"/>
+      <c r="BB12" s="62"/>
+      <c r="BC12" s="41">
         <v>45098</v>
       </c>
-      <c r="AQ12" s="6"/>
-      <c r="AR12" s="6"/>
-      <c r="AS12" s="7"/>
-      <c r="AT12" s="12"/>
-      <c r="AU12" s="13"/>
-      <c r="AV12" s="16"/>
-      <c r="AW12" s="52">
-        <v>45099</v>
-      </c>
-      <c r="AX12" s="52">
-        <v>45099</v>
-      </c>
-      <c r="AY12" s="6"/>
-      <c r="AZ12" s="6"/>
-      <c r="BA12" s="7"/>
-      <c r="BB12" s="17"/>
-      <c r="BC12" s="52">
-        <v>45100</v>
-      </c>
-      <c r="BD12" s="52">
-        <v>45100</v>
-      </c>
-      <c r="BE12" s="6"/>
-      <c r="BF12" s="6"/>
-      <c r="BG12" s="19"/>
+      <c r="BD12" s="41">
+        <v>45098</v>
+      </c>
+      <c r="BE12" s="61"/>
+      <c r="BF12" s="61"/>
+      <c r="BG12" s="16"/>
       <c r="BH12" s="10"/>
-      <c r="BI12" s="14"/>
-      <c r="BJ12" s="18"/>
-      <c r="BK12" s="52">
+      <c r="BI12" s="57"/>
+      <c r="BJ12" s="15"/>
+      <c r="BK12" s="61">
         <v>45103</v>
       </c>
-      <c r="BL12" s="52">
+      <c r="BL12" s="61">
         <v>45103</v>
       </c>
-      <c r="BM12" s="6"/>
-      <c r="BN12" s="6"/>
+      <c r="BM12" s="61"/>
+      <c r="BN12" s="61"/>
       <c r="BO12" s="7"/>
-      <c r="BP12" s="17"/>
-      <c r="BQ12" s="52">
+      <c r="BP12" s="62"/>
+      <c r="BQ12" s="61">
         <v>45103</v>
       </c>
-      <c r="BR12" s="52">
+      <c r="BR12" s="61">
         <v>45103</v>
       </c>
-      <c r="BS12" s="6"/>
-      <c r="BT12" s="6"/>
+      <c r="BS12" s="61"/>
+      <c r="BT12" s="61"/>
       <c r="BU12" s="7"/>
       <c r="BV12" s="10"/>
       <c r="BW12" s="10"/>
-      <c r="BX12" s="13"/>
+      <c r="BX12" s="56"/>
       <c r="BY12" s="64"/>
-      <c r="BZ12" s="67"/>
-      <c r="CA12" s="67"/>
+      <c r="BZ12" s="64"/>
+      <c r="CA12" s="64"/>
       <c r="CB12" s="64"/>
       <c r="CC12" s="64"/>
       <c r="CD12" s="64"/>
       <c r="CE12" s="64"/>
-      <c r="CF12" s="67"/>
-      <c r="CG12" s="67"/>
+      <c r="CF12" s="64"/>
+      <c r="CG12" s="64"/>
       <c r="CH12" s="64"/>
       <c r="CI12" s="64"/>
       <c r="CJ12" s="64"/>
       <c r="CK12" s="64"/>
-      <c r="CL12" s="14"/>
+      <c r="CL12" s="57"/>
       <c r="CM12" s="64"/>
-      <c r="CN12" s="67"/>
-      <c r="CO12" s="67"/>
+      <c r="CN12" s="64"/>
+      <c r="CO12" s="64"/>
       <c r="CP12" s="64"/>
       <c r="CQ12" s="64"/>
       <c r="CR12" s="64"/>
       <c r="CS12" s="64"/>
-      <c r="CT12" s="67"/>
-      <c r="CU12" s="67"/>
+      <c r="CT12" s="64"/>
+      <c r="CU12" s="64"/>
       <c r="CV12" s="64"/>
       <c r="CW12" s="64"/>
       <c r="CX12" s="64"/>
       <c r="CY12" s="64"/>
       <c r="CZ12" s="64"/>
+      <c r="DA12" s="58"/>
     </row>
-    <row r="13" spans="2:104" ht="20.25" customHeight="1">
+    <row r="13" spans="2:105" ht="20.25" customHeight="1">
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="21" t="s">
         <v>66</v>
       </c>
       <c r="G13" s="6">
@@ -4704,7 +4683,7 @@
       <c r="K13" s="7">
         <v>1</v>
       </c>
-      <c r="L13" s="17" t="s">
+      <c r="L13" s="14" t="s">
         <v>76</v>
       </c>
       <c r="M13" s="6">
@@ -4723,162 +4702,163 @@
         <v>1</v>
       </c>
       <c r="R13" s="9"/>
-      <c r="T13" s="37" t="s">
+      <c r="T13" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="U13" s="41">
+      <c r="U13" s="34">
         <v>45083</v>
       </c>
-      <c r="V13" s="41">
+      <c r="V13" s="34">
         <v>45083</v>
       </c>
-      <c r="W13" s="41">
+      <c r="W13" s="34">
         <v>45083</v>
       </c>
-      <c r="X13" s="38">
+      <c r="X13" s="31">
         <v>45086</v>
       </c>
-      <c r="Y13" s="39">
+      <c r="Y13" s="32">
         <v>0.6</v>
       </c>
-      <c r="Z13" s="17" t="s">
+      <c r="Z13" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AA13" s="38">
+      <c r="AA13" s="31">
         <v>45084</v>
       </c>
-      <c r="AB13" s="38">
+      <c r="AB13" s="31">
         <v>45084</v>
       </c>
-      <c r="AC13" s="38">
+      <c r="AC13" s="31">
         <v>45084</v>
       </c>
-      <c r="AD13" s="38">
+      <c r="AD13" s="31">
         <v>45086</v>
       </c>
-      <c r="AE13" s="39">
+      <c r="AE13" s="32">
         <v>0.5</v>
       </c>
-      <c r="AF13" s="40">
+      <c r="AF13" s="33">
         <v>7</v>
       </c>
-      <c r="AH13" s="27" t="s">
+      <c r="AH13" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="AI13" s="52">
+      <c r="AI13" s="61">
         <v>45089</v>
       </c>
-      <c r="AJ13" s="52">
+      <c r="AJ13" s="61">
         <v>45096</v>
       </c>
-      <c r="AK13" s="6">
+      <c r="AK13" s="61">
         <v>45089</v>
       </c>
-      <c r="AL13" s="6"/>
-      <c r="AM13" s="53">
+      <c r="AL13" s="61"/>
+      <c r="AM13" s="42">
         <v>0.8</v>
       </c>
-      <c r="AN13" s="17"/>
-      <c r="AO13" s="52">
+      <c r="AN13" s="62"/>
+      <c r="AO13" s="41">
+        <v>45099</v>
+      </c>
+      <c r="AP13" s="41">
+        <v>45100</v>
+      </c>
+      <c r="AQ13" s="61"/>
+      <c r="AR13" s="61"/>
+      <c r="AS13" s="7"/>
+      <c r="AT13" s="11"/>
+      <c r="AU13" s="56"/>
+      <c r="AV13" s="13"/>
+      <c r="AW13" s="41">
         <v>45097</v>
       </c>
-      <c r="AP13" s="52">
+      <c r="AX13" s="41">
+        <v>45097</v>
+      </c>
+      <c r="AY13" s="61"/>
+      <c r="AZ13" s="61"/>
+      <c r="BA13" s="7"/>
+      <c r="BB13" s="62"/>
+      <c r="BC13" s="41">
         <v>45098</v>
       </c>
-      <c r="AQ13" s="6"/>
-      <c r="AR13" s="6"/>
-      <c r="AS13" s="7"/>
-      <c r="AT13" s="12"/>
-      <c r="AU13" s="13"/>
-      <c r="AV13" s="16"/>
-      <c r="AW13" s="52">
-        <v>45099</v>
-      </c>
-      <c r="AX13" s="52">
-        <v>45099</v>
-      </c>
-      <c r="AY13" s="6"/>
-      <c r="AZ13" s="6"/>
-      <c r="BA13" s="7"/>
-      <c r="BB13" s="17"/>
-      <c r="BC13" s="52">
-        <v>45100</v>
-      </c>
-      <c r="BD13" s="52">
-        <v>45100</v>
-      </c>
-      <c r="BE13" s="6"/>
-      <c r="BF13" s="6"/>
-      <c r="BG13" s="19"/>
+      <c r="BD13" s="41">
+        <v>45098</v>
+      </c>
+      <c r="BE13" s="61"/>
+      <c r="BF13" s="61"/>
+      <c r="BG13" s="16"/>
       <c r="BH13" s="10"/>
-      <c r="BI13" s="14"/>
-      <c r="BJ13" s="18"/>
-      <c r="BK13" s="52">
+      <c r="BI13" s="57"/>
+      <c r="BJ13" s="15"/>
+      <c r="BK13" s="61">
         <v>45103</v>
       </c>
-      <c r="BL13" s="52">
+      <c r="BL13" s="61">
         <v>45103</v>
       </c>
-      <c r="BM13" s="6"/>
-      <c r="BN13" s="6"/>
+      <c r="BM13" s="61"/>
+      <c r="BN13" s="61"/>
       <c r="BO13" s="7"/>
-      <c r="BP13" s="17"/>
-      <c r="BQ13" s="52">
+      <c r="BP13" s="62"/>
+      <c r="BQ13" s="61">
         <v>45103</v>
       </c>
-      <c r="BR13" s="52">
+      <c r="BR13" s="61">
         <v>45103</v>
       </c>
-      <c r="BS13" s="6"/>
-      <c r="BT13" s="6"/>
+      <c r="BS13" s="61"/>
+      <c r="BT13" s="61"/>
       <c r="BU13" s="7"/>
       <c r="BV13" s="10"/>
       <c r="BW13" s="10"/>
-      <c r="BX13" s="13"/>
+      <c r="BX13" s="56"/>
       <c r="BY13" s="64"/>
-      <c r="BZ13" s="67"/>
-      <c r="CA13" s="67"/>
+      <c r="BZ13" s="64"/>
+      <c r="CA13" s="64"/>
       <c r="CB13" s="64"/>
       <c r="CC13" s="64"/>
       <c r="CD13" s="64"/>
       <c r="CE13" s="64"/>
-      <c r="CF13" s="67"/>
-      <c r="CG13" s="67"/>
+      <c r="CF13" s="64"/>
+      <c r="CG13" s="64"/>
       <c r="CH13" s="64"/>
       <c r="CI13" s="64"/>
       <c r="CJ13" s="64"/>
       <c r="CK13" s="64"/>
-      <c r="CL13" s="14"/>
+      <c r="CL13" s="57"/>
       <c r="CM13" s="64"/>
-      <c r="CN13" s="67"/>
-      <c r="CO13" s="67"/>
+      <c r="CN13" s="64"/>
+      <c r="CO13" s="64"/>
       <c r="CP13" s="64"/>
       <c r="CQ13" s="64"/>
       <c r="CR13" s="64"/>
       <c r="CS13" s="64"/>
-      <c r="CT13" s="67"/>
-      <c r="CU13" s="67"/>
+      <c r="CT13" s="64"/>
+      <c r="CU13" s="64"/>
       <c r="CV13" s="64"/>
       <c r="CW13" s="64"/>
       <c r="CX13" s="64"/>
       <c r="CY13" s="64"/>
       <c r="CZ13" s="64"/>
+      <c r="DA13" s="58"/>
     </row>
-    <row r="14" spans="2:104" ht="20.25" customHeight="1">
+    <row r="14" spans="2:105" ht="20.25" customHeight="1">
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="27" t="s">
+      <c r="F14" s="21" t="s">
         <v>67</v>
       </c>
       <c r="G14" s="6">
@@ -4896,7 +4876,7 @@
       <c r="K14" s="7">
         <v>1</v>
       </c>
-      <c r="L14" s="17" t="s">
+      <c r="L14" s="14" t="s">
         <v>76</v>
       </c>
       <c r="M14" s="6">
@@ -4915,162 +4895,163 @@
         <v>1</v>
       </c>
       <c r="R14" s="9"/>
-      <c r="T14" s="37" t="s">
+      <c r="T14" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="U14" s="38">
+      <c r="U14" s="31">
         <v>45083</v>
       </c>
-      <c r="V14" s="38">
+      <c r="V14" s="31">
         <v>45083</v>
       </c>
-      <c r="W14" s="38">
+      <c r="W14" s="31">
         <v>45083</v>
       </c>
-      <c r="X14" s="38">
+      <c r="X14" s="31">
         <v>45085</v>
       </c>
-      <c r="Y14" s="39">
+      <c r="Y14" s="32">
         <v>0.8</v>
       </c>
-      <c r="Z14" s="17" t="s">
+      <c r="Z14" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="AA14" s="38">
+      <c r="AA14" s="31">
         <v>45084</v>
       </c>
-      <c r="AB14" s="38">
+      <c r="AB14" s="31">
         <v>45084</v>
       </c>
-      <c r="AC14" s="38">
+      <c r="AC14" s="31">
         <v>45084</v>
       </c>
-      <c r="AD14" s="38">
+      <c r="AD14" s="31">
         <v>45086</v>
       </c>
-      <c r="AE14" s="39">
+      <c r="AE14" s="32">
         <v>1</v>
       </c>
-      <c r="AF14" s="40">
+      <c r="AF14" s="33">
         <v>9</v>
       </c>
-      <c r="AH14" s="27" t="s">
+      <c r="AH14" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="AI14" s="52">
+      <c r="AI14" s="61">
         <v>45089</v>
       </c>
-      <c r="AJ14" s="52">
+      <c r="AJ14" s="61">
         <v>45096</v>
       </c>
-      <c r="AK14" s="6">
+      <c r="AK14" s="61">
         <v>45089</v>
       </c>
-      <c r="AL14" s="6"/>
-      <c r="AM14" s="53">
+      <c r="AL14" s="61"/>
+      <c r="AM14" s="42">
         <v>0.1</v>
       </c>
-      <c r="AN14" s="17"/>
-      <c r="AO14" s="52">
+      <c r="AN14" s="62"/>
+      <c r="AO14" s="41">
+        <v>45099</v>
+      </c>
+      <c r="AP14" s="41">
+        <v>45100</v>
+      </c>
+      <c r="AQ14" s="61"/>
+      <c r="AR14" s="61"/>
+      <c r="AS14" s="7"/>
+      <c r="AT14" s="11"/>
+      <c r="AU14" s="56"/>
+      <c r="AV14" s="13"/>
+      <c r="AW14" s="41">
         <v>45097</v>
       </c>
-      <c r="AP14" s="52">
+      <c r="AX14" s="41">
+        <v>45097</v>
+      </c>
+      <c r="AY14" s="61"/>
+      <c r="AZ14" s="61"/>
+      <c r="BA14" s="7"/>
+      <c r="BB14" s="62"/>
+      <c r="BC14" s="41">
         <v>45098</v>
       </c>
-      <c r="AQ14" s="6"/>
-      <c r="AR14" s="6"/>
-      <c r="AS14" s="7"/>
-      <c r="AT14" s="12"/>
-      <c r="AU14" s="13"/>
-      <c r="AV14" s="16"/>
-      <c r="AW14" s="52">
-        <v>45099</v>
-      </c>
-      <c r="AX14" s="52">
-        <v>45099</v>
-      </c>
-      <c r="AY14" s="6"/>
-      <c r="AZ14" s="6"/>
-      <c r="BA14" s="7"/>
-      <c r="BB14" s="17"/>
-      <c r="BC14" s="52">
-        <v>45100</v>
-      </c>
-      <c r="BD14" s="52">
-        <v>45100</v>
-      </c>
-      <c r="BE14" s="6"/>
-      <c r="BF14" s="6"/>
-      <c r="BG14" s="19"/>
+      <c r="BD14" s="41">
+        <v>45098</v>
+      </c>
+      <c r="BE14" s="61"/>
+      <c r="BF14" s="61"/>
+      <c r="BG14" s="16"/>
       <c r="BH14" s="10"/>
-      <c r="BI14" s="14"/>
-      <c r="BJ14" s="18"/>
-      <c r="BK14" s="52">
+      <c r="BI14" s="57"/>
+      <c r="BJ14" s="15"/>
+      <c r="BK14" s="61">
         <v>45103</v>
       </c>
-      <c r="BL14" s="52">
+      <c r="BL14" s="61">
         <v>45103</v>
       </c>
-      <c r="BM14" s="6"/>
-      <c r="BN14" s="6"/>
+      <c r="BM14" s="61"/>
+      <c r="BN14" s="61"/>
       <c r="BO14" s="7"/>
-      <c r="BP14" s="17"/>
-      <c r="BQ14" s="52">
+      <c r="BP14" s="62"/>
+      <c r="BQ14" s="61">
         <v>45103</v>
       </c>
-      <c r="BR14" s="52">
+      <c r="BR14" s="61">
         <v>45103</v>
       </c>
-      <c r="BS14" s="6"/>
-      <c r="BT14" s="6"/>
+      <c r="BS14" s="61"/>
+      <c r="BT14" s="61"/>
       <c r="BU14" s="7"/>
       <c r="BV14" s="10"/>
       <c r="BW14" s="10"/>
-      <c r="BX14" s="13"/>
-      <c r="BY14" s="36"/>
-      <c r="BZ14" s="68"/>
-      <c r="CA14" s="68"/>
-      <c r="CB14" s="36"/>
-      <c r="CC14" s="36"/>
-      <c r="CD14" s="36"/>
-      <c r="CE14" s="36"/>
-      <c r="CF14" s="68"/>
-      <c r="CG14" s="68"/>
-      <c r="CH14" s="36"/>
-      <c r="CI14" s="36"/>
-      <c r="CJ14" s="36"/>
-      <c r="CK14" s="36"/>
-      <c r="CL14" s="14"/>
-      <c r="CM14" s="36"/>
-      <c r="CN14" s="68"/>
-      <c r="CO14" s="68"/>
-      <c r="CP14" s="36"/>
-      <c r="CQ14" s="36"/>
-      <c r="CR14" s="36"/>
-      <c r="CS14" s="36"/>
-      <c r="CT14" s="68"/>
-      <c r="CU14" s="68"/>
-      <c r="CV14" s="36"/>
-      <c r="CW14" s="36"/>
-      <c r="CX14" s="36"/>
-      <c r="CY14" s="36"/>
-      <c r="CZ14" s="36"/>
+      <c r="BX14" s="56"/>
+      <c r="BY14" s="65"/>
+      <c r="BZ14" s="66"/>
+      <c r="CA14" s="66"/>
+      <c r="CB14" s="65"/>
+      <c r="CC14" s="65"/>
+      <c r="CD14" s="65"/>
+      <c r="CE14" s="65"/>
+      <c r="CF14" s="66"/>
+      <c r="CG14" s="66"/>
+      <c r="CH14" s="65"/>
+      <c r="CI14" s="65"/>
+      <c r="CJ14" s="65"/>
+      <c r="CK14" s="65"/>
+      <c r="CL14" s="57"/>
+      <c r="CM14" s="65"/>
+      <c r="CN14" s="66"/>
+      <c r="CO14" s="66"/>
+      <c r="CP14" s="65"/>
+      <c r="CQ14" s="65"/>
+      <c r="CR14" s="65"/>
+      <c r="CS14" s="65"/>
+      <c r="CT14" s="66"/>
+      <c r="CU14" s="66"/>
+      <c r="CV14" s="65"/>
+      <c r="CW14" s="65"/>
+      <c r="CX14" s="65"/>
+      <c r="CY14" s="65"/>
+      <c r="CZ14" s="65"/>
+      <c r="DA14" s="58"/>
     </row>
-    <row r="15" spans="2:104" ht="20.25" customHeight="1">
+    <row r="15" spans="2:105" ht="20.25" customHeight="1">
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F15" s="35" t="s">
+      <c r="F15" s="29" t="s">
         <v>50</v>
       </c>
       <c r="G15" s="6">
@@ -5088,7 +5069,7 @@
       <c r="K15" s="7">
         <v>1</v>
       </c>
-      <c r="L15" s="17" t="s">
+      <c r="L15" s="14" t="s">
         <v>76</v>
       </c>
       <c r="M15" s="6">
@@ -5107,7 +5088,7 @@
         <v>1</v>
       </c>
       <c r="R15" s="9"/>
-      <c r="T15" s="35" t="s">
+      <c r="T15" s="29" t="s">
         <v>58</v>
       </c>
       <c r="U15" s="6">
@@ -5125,7 +5106,7 @@
       <c r="Y15" s="7">
         <v>1</v>
       </c>
-      <c r="Z15" s="17" t="s">
+      <c r="Z15" s="14" t="s">
         <v>76</v>
       </c>
       <c r="AA15" s="6">
@@ -5134,126 +5115,126 @@
       <c r="AB15" s="6">
         <v>45084</v>
       </c>
-      <c r="AC15" s="38">
+      <c r="AC15" s="31">
         <v>45084</v>
       </c>
-      <c r="AD15" s="38">
+      <c r="AD15" s="31">
         <v>45089</v>
       </c>
-      <c r="AE15" s="39">
+      <c r="AE15" s="32">
         <v>1</v>
       </c>
       <c r="AF15" s="9"/>
-      <c r="AH15" s="35" t="s">
+      <c r="AH15" s="67" t="s">
         <v>58</v>
       </c>
-      <c r="AI15" s="52">
+      <c r="AI15" s="61">
         <v>45089</v>
       </c>
-      <c r="AJ15" s="52">
+      <c r="AJ15" s="61">
         <v>45096</v>
       </c>
-      <c r="AK15" s="6">
+      <c r="AK15" s="61">
         <v>45089</v>
       </c>
-      <c r="AL15" s="6"/>
+      <c r="AL15" s="61"/>
       <c r="AM15" s="7">
         <v>1</v>
       </c>
-      <c r="AN15" s="17"/>
-      <c r="AO15" s="52">
+      <c r="AN15" s="62"/>
+      <c r="AO15" s="41">
+        <v>45099</v>
+      </c>
+      <c r="AP15" s="41">
+        <v>45100</v>
+      </c>
+      <c r="AQ15" s="61"/>
+      <c r="AR15" s="61"/>
+      <c r="AS15" s="7"/>
+      <c r="AT15" s="11"/>
+      <c r="AU15" s="56"/>
+      <c r="AV15" s="13"/>
+      <c r="AW15" s="41">
         <v>45097</v>
       </c>
-      <c r="AP15" s="52">
+      <c r="AX15" s="41">
+        <v>45097</v>
+      </c>
+      <c r="AY15" s="61"/>
+      <c r="AZ15" s="61"/>
+      <c r="BA15" s="7"/>
+      <c r="BB15" s="62"/>
+      <c r="BC15" s="41">
         <v>45098</v>
       </c>
-      <c r="AQ15" s="6"/>
-      <c r="AR15" s="6"/>
-      <c r="AS15" s="7"/>
-      <c r="AT15" s="12"/>
-      <c r="AU15" s="13"/>
-      <c r="AV15" s="16"/>
-      <c r="AW15" s="52">
-        <v>45099</v>
-      </c>
-      <c r="AX15" s="52">
-        <v>45099</v>
-      </c>
-      <c r="AY15" s="6"/>
-      <c r="AZ15" s="6"/>
-      <c r="BA15" s="7"/>
-      <c r="BB15" s="17"/>
-      <c r="BC15" s="52">
-        <v>45100</v>
-      </c>
-      <c r="BD15" s="52">
-        <v>45100</v>
-      </c>
-      <c r="BE15" s="6"/>
-      <c r="BF15" s="6"/>
-      <c r="BG15" s="19"/>
+      <c r="BD15" s="41">
+        <v>45098</v>
+      </c>
+      <c r="BE15" s="61"/>
+      <c r="BF15" s="61"/>
+      <c r="BG15" s="16"/>
       <c r="BH15" s="10"/>
-      <c r="BI15" s="14"/>
-      <c r="BJ15" s="18"/>
-      <c r="BK15" s="52">
+      <c r="BI15" s="57"/>
+      <c r="BJ15" s="15"/>
+      <c r="BK15" s="61">
         <v>45103</v>
       </c>
-      <c r="BL15" s="52">
+      <c r="BL15" s="61">
         <v>45103</v>
       </c>
-      <c r="BM15" s="6"/>
-      <c r="BN15" s="6"/>
+      <c r="BM15" s="61"/>
+      <c r="BN15" s="61"/>
       <c r="BO15" s="7"/>
-      <c r="BP15" s="17"/>
-      <c r="BQ15" s="52">
+      <c r="BP15" s="62"/>
+      <c r="BQ15" s="61">
         <v>45103</v>
       </c>
-      <c r="BR15" s="52">
+      <c r="BR15" s="61">
         <v>45103</v>
       </c>
-      <c r="BS15" s="6"/>
-      <c r="BT15" s="6"/>
+      <c r="BS15" s="61"/>
+      <c r="BT15" s="61"/>
       <c r="BU15" s="7"/>
       <c r="BV15" s="10"/>
       <c r="BW15" s="10"/>
-      <c r="BX15" s="13"/>
+      <c r="BX15" s="56"/>
       <c r="BY15" s="63"/>
-      <c r="BZ15" s="66">
+      <c r="BZ15" s="63">
         <v>45104</v>
       </c>
-      <c r="CA15" s="66">
+      <c r="CA15" s="63">
         <v>45104</v>
       </c>
       <c r="CB15" s="63"/>
       <c r="CC15" s="63"/>
       <c r="CD15" s="63"/>
       <c r="CE15" s="63"/>
-      <c r="CF15" s="66">
+      <c r="CF15" s="63">
         <v>45104</v>
       </c>
-      <c r="CG15" s="66">
+      <c r="CG15" s="63">
         <v>45104</v>
       </c>
       <c r="CH15" s="63"/>
       <c r="CI15" s="63"/>
       <c r="CJ15" s="63"/>
       <c r="CK15" s="63"/>
-      <c r="CL15" s="14"/>
+      <c r="CL15" s="57"/>
       <c r="CM15" s="63"/>
-      <c r="CN15" s="66">
+      <c r="CN15" s="63">
         <v>45105</v>
       </c>
-      <c r="CO15" s="66">
+      <c r="CO15" s="63">
         <v>45105</v>
       </c>
       <c r="CP15" s="63"/>
       <c r="CQ15" s="63"/>
       <c r="CR15" s="63"/>
       <c r="CS15" s="63"/>
-      <c r="CT15" s="66">
+      <c r="CT15" s="63">
         <v>45105</v>
       </c>
-      <c r="CU15" s="66">
+      <c r="CU15" s="63">
         <v>45105</v>
       </c>
       <c r="CV15" s="63"/>
@@ -5261,22 +5242,23 @@
       <c r="CX15" s="63"/>
       <c r="CY15" s="63"/>
       <c r="CZ15" s="63"/>
+      <c r="DA15" s="58"/>
     </row>
-    <row r="16" spans="2:104" ht="20.25" customHeight="1">
+    <row r="16" spans="2:105" ht="20.25" customHeight="1">
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="35" t="s">
+      <c r="F16" s="29" t="s">
         <v>51</v>
       </c>
       <c r="G16" s="6">
@@ -5294,7 +5276,7 @@
       <c r="K16" s="7">
         <v>1</v>
       </c>
-      <c r="L16" s="17" t="s">
+      <c r="L16" s="14" t="s">
         <v>76</v>
       </c>
       <c r="M16" s="6">
@@ -5313,7 +5295,7 @@
         <v>1</v>
       </c>
       <c r="R16" s="9"/>
-      <c r="T16" s="35" t="s">
+      <c r="T16" s="29" t="s">
         <v>68</v>
       </c>
       <c r="U16" s="6">
@@ -5331,7 +5313,7 @@
       <c r="Y16" s="7">
         <v>1</v>
       </c>
-      <c r="Z16" s="17" t="s">
+      <c r="Z16" s="14" t="s">
         <v>76</v>
       </c>
       <c r="AA16" s="6">
@@ -5340,132 +5322,134 @@
       <c r="AB16" s="6">
         <v>45084</v>
       </c>
-      <c r="AC16" s="38">
+      <c r="AC16" s="31">
         <v>45084</v>
       </c>
-      <c r="AD16" s="38">
+      <c r="AD16" s="31">
         <v>45089</v>
       </c>
-      <c r="AE16" s="39">
+      <c r="AE16" s="32">
         <v>1</v>
       </c>
       <c r="AF16" s="9"/>
-      <c r="AH16" s="35" t="s">
+      <c r="AH16" s="67" t="s">
         <v>68</v>
       </c>
-      <c r="AI16" s="52">
+      <c r="AI16" s="61">
         <v>45089</v>
       </c>
-      <c r="AJ16" s="52">
+      <c r="AJ16" s="61">
         <v>45096</v>
       </c>
-      <c r="AK16" s="6">
+      <c r="AK16" s="61">
         <v>45089</v>
       </c>
-      <c r="AL16" s="6"/>
+      <c r="AL16" s="61"/>
       <c r="AM16" s="7">
         <v>0.7</v>
       </c>
-      <c r="AN16" s="17"/>
-      <c r="AO16" s="52">
+      <c r="AN16" s="62"/>
+      <c r="AO16" s="41">
+        <v>45099</v>
+      </c>
+      <c r="AP16" s="41">
+        <v>45100</v>
+      </c>
+      <c r="AQ16" s="61"/>
+      <c r="AR16" s="61"/>
+      <c r="AS16" s="7"/>
+      <c r="AT16" s="11"/>
+      <c r="AU16" s="56"/>
+      <c r="AV16" s="13"/>
+      <c r="AW16" s="41">
         <v>45097</v>
       </c>
-      <c r="AP16" s="52">
+      <c r="AX16" s="41">
+        <v>45097</v>
+      </c>
+      <c r="AY16" s="61"/>
+      <c r="AZ16" s="61"/>
+      <c r="BA16" s="7"/>
+      <c r="BB16" s="62"/>
+      <c r="BC16" s="41">
         <v>45098</v>
       </c>
-      <c r="AQ16" s="6"/>
-      <c r="AR16" s="6"/>
-      <c r="AS16" s="7"/>
-      <c r="AT16" s="12"/>
-      <c r="AU16" s="13"/>
-      <c r="AV16" s="16"/>
-      <c r="AW16" s="52">
-        <v>45099</v>
-      </c>
-      <c r="AX16" s="52">
-        <v>45099</v>
-      </c>
-      <c r="AY16" s="6"/>
-      <c r="AZ16" s="6"/>
-      <c r="BA16" s="7"/>
-      <c r="BB16" s="17"/>
-      <c r="BC16" s="52">
-        <v>45100</v>
-      </c>
-      <c r="BD16" s="52">
-        <v>45100</v>
-      </c>
-      <c r="BE16" s="6"/>
-      <c r="BF16" s="6"/>
-      <c r="BG16" s="19"/>
+      <c r="BD16" s="41">
+        <v>45098</v>
+      </c>
+      <c r="BE16" s="61"/>
+      <c r="BF16" s="61"/>
+      <c r="BG16" s="16"/>
       <c r="BH16" s="10"/>
-      <c r="BI16" s="14"/>
-      <c r="BJ16" s="18"/>
-      <c r="BK16" s="52">
+      <c r="BI16" s="57"/>
+      <c r="BJ16" s="15"/>
+      <c r="BK16" s="61">
         <v>45103</v>
       </c>
-      <c r="BL16" s="52">
+      <c r="BL16" s="61">
         <v>45103</v>
       </c>
-      <c r="BM16" s="6"/>
-      <c r="BN16" s="6"/>
+      <c r="BM16" s="61"/>
+      <c r="BN16" s="61"/>
       <c r="BO16" s="7"/>
-      <c r="BP16" s="17"/>
-      <c r="BQ16" s="52">
+      <c r="BP16" s="62"/>
+      <c r="BQ16" s="61">
         <v>45103</v>
       </c>
-      <c r="BR16" s="52">
+      <c r="BR16" s="61">
         <v>45103</v>
       </c>
-      <c r="BS16" s="6"/>
-      <c r="BT16" s="6"/>
+      <c r="BS16" s="61"/>
+      <c r="BT16" s="61"/>
       <c r="BU16" s="7"/>
       <c r="BV16" s="10"/>
       <c r="BW16" s="10"/>
+      <c r="BX16" s="58"/>
       <c r="BY16" s="64"/>
-      <c r="BZ16" s="67"/>
-      <c r="CA16" s="67"/>
+      <c r="BZ16" s="64"/>
+      <c r="CA16" s="64"/>
       <c r="CB16" s="64"/>
       <c r="CC16" s="64"/>
       <c r="CD16" s="64"/>
       <c r="CE16" s="64"/>
-      <c r="CF16" s="67"/>
-      <c r="CG16" s="67"/>
+      <c r="CF16" s="64"/>
+      <c r="CG16" s="64"/>
       <c r="CH16" s="64"/>
       <c r="CI16" s="64"/>
       <c r="CJ16" s="64"/>
       <c r="CK16" s="64"/>
-      <c r="CL16" s="29"/>
+      <c r="CL16" s="23"/>
       <c r="CM16" s="64"/>
-      <c r="CN16" s="67"/>
-      <c r="CO16" s="67"/>
+      <c r="CN16" s="64"/>
+      <c r="CO16" s="64"/>
       <c r="CP16" s="64"/>
       <c r="CQ16" s="64"/>
       <c r="CR16" s="64"/>
       <c r="CS16" s="64"/>
-      <c r="CT16" s="67"/>
-      <c r="CU16" s="67"/>
+      <c r="CT16" s="64"/>
+      <c r="CU16" s="64"/>
       <c r="CV16" s="64"/>
       <c r="CW16" s="64"/>
       <c r="CX16" s="64"/>
       <c r="CY16" s="64"/>
       <c r="CZ16" s="64"/>
+      <c r="DA16" s="58"/>
     </row>
-    <row r="17" spans="2:104" ht="20.25" customHeight="1">
+    <row r="17" spans="2:105" ht="20.25" customHeight="1">
       <c r="B17" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="27" t="s">
+      <c r="F17" s="21" t="s">
         <v>52</v>
       </c>
       <c r="G17" s="6">
@@ -5483,7 +5467,7 @@
       <c r="K17" s="7">
         <v>1</v>
       </c>
-      <c r="L17" s="17" t="s">
+      <c r="L17" s="14" t="s">
         <v>76</v>
       </c>
       <c r="M17" s="6">
@@ -5502,7 +5486,7 @@
         <v>1</v>
       </c>
       <c r="R17" s="9"/>
-      <c r="T17" s="27" t="s">
+      <c r="T17" s="21" t="s">
         <v>52</v>
       </c>
       <c r="U17" s="6">
@@ -5520,7 +5504,7 @@
       <c r="Y17" s="7">
         <v>1</v>
       </c>
-      <c r="Z17" s="17" t="s">
+      <c r="Z17" s="14" t="s">
         <v>76</v>
       </c>
       <c r="AA17" s="6">
@@ -5529,132 +5513,134 @@
       <c r="AB17" s="6">
         <v>45084</v>
       </c>
-      <c r="AC17" s="38">
+      <c r="AC17" s="31">
         <v>45084</v>
       </c>
-      <c r="AD17" s="38">
+      <c r="AD17" s="31">
         <v>45089</v>
       </c>
-      <c r="AE17" s="39">
+      <c r="AE17" s="32">
         <v>1</v>
       </c>
       <c r="AF17" s="9"/>
-      <c r="AH17" s="27" t="s">
+      <c r="AH17" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="AI17" s="52">
+      <c r="AI17" s="61">
         <v>45089</v>
       </c>
-      <c r="AJ17" s="52">
+      <c r="AJ17" s="61">
         <v>45096</v>
       </c>
-      <c r="AK17" s="6">
+      <c r="AK17" s="61">
         <v>45089</v>
       </c>
-      <c r="AL17" s="6"/>
+      <c r="AL17" s="61"/>
       <c r="AM17" s="7">
         <v>1</v>
       </c>
-      <c r="AN17" s="17"/>
-      <c r="AO17" s="52">
+      <c r="AN17" s="62"/>
+      <c r="AO17" s="41">
+        <v>45099</v>
+      </c>
+      <c r="AP17" s="41">
+        <v>45100</v>
+      </c>
+      <c r="AQ17" s="61"/>
+      <c r="AR17" s="61"/>
+      <c r="AS17" s="7"/>
+      <c r="AT17" s="11"/>
+      <c r="AU17" s="56"/>
+      <c r="AV17" s="13"/>
+      <c r="AW17" s="41">
         <v>45097</v>
       </c>
-      <c r="AP17" s="52">
+      <c r="AX17" s="41">
+        <v>45097</v>
+      </c>
+      <c r="AY17" s="61"/>
+      <c r="AZ17" s="61"/>
+      <c r="BA17" s="7"/>
+      <c r="BB17" s="62"/>
+      <c r="BC17" s="41">
         <v>45098</v>
       </c>
-      <c r="AQ17" s="6"/>
-      <c r="AR17" s="6"/>
-      <c r="AS17" s="7"/>
-      <c r="AT17" s="12"/>
-      <c r="AU17" s="13"/>
-      <c r="AV17" s="16"/>
-      <c r="AW17" s="52">
-        <v>45099</v>
-      </c>
-      <c r="AX17" s="52">
-        <v>45099</v>
-      </c>
-      <c r="AY17" s="6"/>
-      <c r="AZ17" s="6"/>
-      <c r="BA17" s="7"/>
-      <c r="BB17" s="17"/>
-      <c r="BC17" s="52">
-        <v>45100</v>
-      </c>
-      <c r="BD17" s="52">
-        <v>45100</v>
-      </c>
-      <c r="BE17" s="6"/>
-      <c r="BF17" s="6"/>
-      <c r="BG17" s="19"/>
+      <c r="BD17" s="41">
+        <v>45098</v>
+      </c>
+      <c r="BE17" s="61"/>
+      <c r="BF17" s="61"/>
+      <c r="BG17" s="16"/>
       <c r="BH17" s="10"/>
-      <c r="BI17" s="14"/>
-      <c r="BJ17" s="18"/>
-      <c r="BK17" s="52">
+      <c r="BI17" s="57"/>
+      <c r="BJ17" s="15"/>
+      <c r="BK17" s="61">
         <v>45103</v>
       </c>
-      <c r="BL17" s="52">
+      <c r="BL17" s="61">
         <v>45103</v>
       </c>
-      <c r="BM17" s="6"/>
-      <c r="BN17" s="6"/>
+      <c r="BM17" s="61"/>
+      <c r="BN17" s="61"/>
       <c r="BO17" s="7"/>
-      <c r="BP17" s="17"/>
-      <c r="BQ17" s="52">
+      <c r="BP17" s="62"/>
+      <c r="BQ17" s="61">
         <v>45103</v>
       </c>
-      <c r="BR17" s="52">
+      <c r="BR17" s="61">
         <v>45103</v>
       </c>
-      <c r="BS17" s="6"/>
-      <c r="BT17" s="6"/>
+      <c r="BS17" s="61"/>
+      <c r="BT17" s="61"/>
       <c r="BU17" s="7"/>
       <c r="BV17" s="10"/>
       <c r="BW17" s="10"/>
+      <c r="BX17" s="58"/>
       <c r="BY17" s="64"/>
-      <c r="BZ17" s="67"/>
-      <c r="CA17" s="67"/>
+      <c r="BZ17" s="64"/>
+      <c r="CA17" s="64"/>
       <c r="CB17" s="64"/>
       <c r="CC17" s="64"/>
       <c r="CD17" s="64"/>
       <c r="CE17" s="64"/>
-      <c r="CF17" s="67"/>
-      <c r="CG17" s="67"/>
+      <c r="CF17" s="64"/>
+      <c r="CG17" s="64"/>
       <c r="CH17" s="64"/>
       <c r="CI17" s="64"/>
       <c r="CJ17" s="64"/>
       <c r="CK17" s="64"/>
-      <c r="CL17" s="29"/>
+      <c r="CL17" s="23"/>
       <c r="CM17" s="64"/>
-      <c r="CN17" s="67"/>
-      <c r="CO17" s="67"/>
+      <c r="CN17" s="64"/>
+      <c r="CO17" s="64"/>
       <c r="CP17" s="64"/>
       <c r="CQ17" s="64"/>
       <c r="CR17" s="64"/>
       <c r="CS17" s="64"/>
-      <c r="CT17" s="67"/>
-      <c r="CU17" s="67"/>
+      <c r="CT17" s="64"/>
+      <c r="CU17" s="64"/>
       <c r="CV17" s="64"/>
       <c r="CW17" s="64"/>
       <c r="CX17" s="64"/>
       <c r="CY17" s="64"/>
       <c r="CZ17" s="64"/>
+      <c r="DA17" s="58"/>
     </row>
-    <row r="18" spans="2:104" ht="20.25" customHeight="1">
+    <row r="18" spans="2:105" ht="20.25" customHeight="1">
       <c r="B18" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="21" t="s">
         <v>53</v>
       </c>
       <c r="G18" s="6">
@@ -5672,7 +5658,7 @@
       <c r="K18" s="7">
         <v>1</v>
       </c>
-      <c r="L18" s="17" t="s">
+      <c r="L18" s="14" t="s">
         <v>76</v>
       </c>
       <c r="M18" s="6">
@@ -5691,7 +5677,7 @@
         <v>1</v>
       </c>
       <c r="R18" s="9"/>
-      <c r="T18" s="27" t="s">
+      <c r="T18" s="21" t="s">
         <v>53</v>
       </c>
       <c r="U18" s="6">
@@ -5709,7 +5695,7 @@
       <c r="Y18" s="7">
         <v>1</v>
       </c>
-      <c r="Z18" s="17" t="s">
+      <c r="Z18" s="14" t="s">
         <v>76</v>
       </c>
       <c r="AA18" s="6">
@@ -5718,133 +5704,134 @@
       <c r="AB18" s="6">
         <v>45084</v>
       </c>
-      <c r="AC18" s="38">
+      <c r="AC18" s="31">
         <v>45084</v>
       </c>
-      <c r="AD18" s="38">
+      <c r="AD18" s="31">
         <v>45089</v>
       </c>
-      <c r="AE18" s="39">
+      <c r="AE18" s="32">
         <v>1</v>
       </c>
       <c r="AF18" s="9"/>
-      <c r="AH18" s="27" t="s">
+      <c r="AH18" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="AI18" s="52">
+      <c r="AI18" s="61">
         <v>45089</v>
       </c>
-      <c r="AJ18" s="52">
+      <c r="AJ18" s="61">
         <v>45096</v>
       </c>
-      <c r="AK18" s="6">
+      <c r="AK18" s="61">
         <v>45089</v>
       </c>
-      <c r="AL18" s="6"/>
+      <c r="AL18" s="61"/>
       <c r="AM18" s="7">
         <v>0.9</v>
       </c>
-      <c r="AN18" s="17"/>
-      <c r="AO18" s="52">
+      <c r="AN18" s="62"/>
+      <c r="AO18" s="41">
+        <v>45099</v>
+      </c>
+      <c r="AP18" s="41">
+        <v>45100</v>
+      </c>
+      <c r="AQ18" s="61"/>
+      <c r="AR18" s="61"/>
+      <c r="AS18" s="7"/>
+      <c r="AT18" s="11"/>
+      <c r="AU18" s="56"/>
+      <c r="AV18" s="13"/>
+      <c r="AW18" s="41">
         <v>45097</v>
       </c>
-      <c r="AP18" s="52">
+      <c r="AX18" s="41">
+        <v>45097</v>
+      </c>
+      <c r="AY18" s="61"/>
+      <c r="AZ18" s="61"/>
+      <c r="BA18" s="7"/>
+      <c r="BB18" s="62"/>
+      <c r="BC18" s="41">
         <v>45098</v>
       </c>
-      <c r="AQ18" s="6"/>
-      <c r="AR18" s="6"/>
-      <c r="AS18" s="7"/>
-      <c r="AT18" s="12"/>
-      <c r="AU18" s="13"/>
-      <c r="AV18" s="16"/>
-      <c r="AW18" s="52">
-        <v>45099</v>
-      </c>
-      <c r="AX18" s="52">
-        <v>45099</v>
-      </c>
-      <c r="AY18" s="6"/>
-      <c r="AZ18" s="6"/>
-      <c r="BA18" s="7"/>
-      <c r="BB18" s="17"/>
-      <c r="BC18" s="52">
-        <v>45100</v>
-      </c>
-      <c r="BD18" s="52">
-        <v>45100</v>
-      </c>
-      <c r="BE18" s="6"/>
-      <c r="BF18" s="6"/>
-      <c r="BG18" s="19"/>
+      <c r="BD18" s="41">
+        <v>45098</v>
+      </c>
+      <c r="BE18" s="61"/>
+      <c r="BF18" s="61"/>
+      <c r="BG18" s="16"/>
       <c r="BH18" s="10"/>
-      <c r="BI18" s="14"/>
-      <c r="BJ18" s="18"/>
-      <c r="BK18" s="52">
+      <c r="BI18" s="57"/>
+      <c r="BJ18" s="15"/>
+      <c r="BK18" s="61">
         <v>45103</v>
       </c>
-      <c r="BL18" s="52">
+      <c r="BL18" s="61">
         <v>45103</v>
       </c>
-      <c r="BM18" s="6"/>
-      <c r="BN18" s="6"/>
+      <c r="BM18" s="61"/>
+      <c r="BN18" s="61"/>
       <c r="BO18" s="7"/>
-      <c r="BP18" s="17"/>
-      <c r="BQ18" s="52">
+      <c r="BP18" s="62"/>
+      <c r="BQ18" s="61">
         <v>45103</v>
       </c>
-      <c r="BR18" s="52">
+      <c r="BR18" s="61">
         <v>45103</v>
       </c>
-      <c r="BS18" s="6"/>
-      <c r="BT18" s="6"/>
+      <c r="BS18" s="61"/>
+      <c r="BT18" s="61"/>
       <c r="BU18" s="7"/>
       <c r="BV18" s="10"/>
       <c r="BW18" s="10"/>
-      <c r="BX18" s="11"/>
+      <c r="BX18" s="59"/>
       <c r="BY18" s="64"/>
-      <c r="BZ18" s="67"/>
-      <c r="CA18" s="67"/>
+      <c r="BZ18" s="64"/>
+      <c r="CA18" s="64"/>
       <c r="CB18" s="64"/>
       <c r="CC18" s="64"/>
       <c r="CD18" s="64"/>
       <c r="CE18" s="64"/>
-      <c r="CF18" s="67"/>
-      <c r="CG18" s="67"/>
+      <c r="CF18" s="64"/>
+      <c r="CG18" s="64"/>
       <c r="CH18" s="64"/>
       <c r="CI18" s="64"/>
       <c r="CJ18" s="64"/>
       <c r="CK18" s="64"/>
-      <c r="CL18" s="29"/>
+      <c r="CL18" s="23"/>
       <c r="CM18" s="64"/>
-      <c r="CN18" s="67"/>
-      <c r="CO18" s="67"/>
+      <c r="CN18" s="64"/>
+      <c r="CO18" s="64"/>
       <c r="CP18" s="64"/>
       <c r="CQ18" s="64"/>
       <c r="CR18" s="64"/>
       <c r="CS18" s="64"/>
-      <c r="CT18" s="67"/>
-      <c r="CU18" s="67"/>
+      <c r="CT18" s="64"/>
+      <c r="CU18" s="64"/>
       <c r="CV18" s="64"/>
       <c r="CW18" s="64"/>
       <c r="CX18" s="64"/>
       <c r="CY18" s="64"/>
       <c r="CZ18" s="64"/>
+      <c r="DA18" s="58"/>
     </row>
-    <row r="19" spans="2:104" ht="20.25" customHeight="1">
+    <row r="19" spans="2:105" ht="20.25" customHeight="1">
       <c r="B19" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F19" s="27" t="s">
+      <c r="F19" s="21" t="s">
         <v>54</v>
       </c>
       <c r="G19" s="6">
@@ -5862,7 +5849,7 @@
       <c r="K19" s="7">
         <v>1</v>
       </c>
-      <c r="L19" s="17" t="s">
+      <c r="L19" s="14" t="s">
         <v>76</v>
       </c>
       <c r="M19" s="6">
@@ -5881,7 +5868,7 @@
         <v>1</v>
       </c>
       <c r="R19" s="9"/>
-      <c r="T19" s="27" t="s">
+      <c r="T19" s="21" t="s">
         <v>54</v>
       </c>
       <c r="U19" s="6">
@@ -5899,7 +5886,7 @@
       <c r="Y19" s="7">
         <v>1</v>
       </c>
-      <c r="Z19" s="17" t="s">
+      <c r="Z19" s="14" t="s">
         <v>76</v>
       </c>
       <c r="AA19" s="6">
@@ -5908,133 +5895,134 @@
       <c r="AB19" s="6">
         <v>45084</v>
       </c>
-      <c r="AC19" s="38">
+      <c r="AC19" s="31">
         <v>45084</v>
       </c>
-      <c r="AD19" s="38">
+      <c r="AD19" s="31">
         <v>45089</v>
       </c>
-      <c r="AE19" s="39">
+      <c r="AE19" s="32">
         <v>1</v>
       </c>
       <c r="AF19" s="9"/>
-      <c r="AH19" s="27" t="s">
+      <c r="AH19" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="AI19" s="52">
+      <c r="AI19" s="61">
         <v>45089</v>
       </c>
-      <c r="AJ19" s="52">
+      <c r="AJ19" s="61">
         <v>45096</v>
       </c>
-      <c r="AK19" s="6">
+      <c r="AK19" s="61">
         <v>45089</v>
       </c>
-      <c r="AL19" s="6"/>
+      <c r="AL19" s="61"/>
       <c r="AM19" s="7">
         <v>0.8</v>
       </c>
-      <c r="AN19" s="17"/>
-      <c r="AO19" s="52">
+      <c r="AN19" s="62"/>
+      <c r="AO19" s="41">
+        <v>45099</v>
+      </c>
+      <c r="AP19" s="41">
+        <v>45100</v>
+      </c>
+      <c r="AQ19" s="61"/>
+      <c r="AR19" s="61"/>
+      <c r="AS19" s="7"/>
+      <c r="AT19" s="11"/>
+      <c r="AU19" s="56"/>
+      <c r="AV19" s="13"/>
+      <c r="AW19" s="41">
         <v>45097</v>
       </c>
-      <c r="AP19" s="52">
+      <c r="AX19" s="41">
+        <v>45097</v>
+      </c>
+      <c r="AY19" s="61"/>
+      <c r="AZ19" s="61"/>
+      <c r="BA19" s="7"/>
+      <c r="BB19" s="62"/>
+      <c r="BC19" s="41">
         <v>45098</v>
       </c>
-      <c r="AQ19" s="6"/>
-      <c r="AR19" s="6"/>
-      <c r="AS19" s="7"/>
-      <c r="AT19" s="12"/>
-      <c r="AU19" s="13"/>
-      <c r="AV19" s="16"/>
-      <c r="AW19" s="52">
-        <v>45099</v>
-      </c>
-      <c r="AX19" s="52">
-        <v>45099</v>
-      </c>
-      <c r="AY19" s="6"/>
-      <c r="AZ19" s="6"/>
-      <c r="BA19" s="7"/>
-      <c r="BB19" s="17"/>
-      <c r="BC19" s="52">
-        <v>45100</v>
-      </c>
-      <c r="BD19" s="52">
-        <v>45100</v>
-      </c>
-      <c r="BE19" s="6"/>
-      <c r="BF19" s="6"/>
-      <c r="BG19" s="19"/>
+      <c r="BD19" s="41">
+        <v>45098</v>
+      </c>
+      <c r="BE19" s="61"/>
+      <c r="BF19" s="61"/>
+      <c r="BG19" s="16"/>
       <c r="BH19" s="10"/>
-      <c r="BI19" s="14"/>
-      <c r="BJ19" s="18"/>
-      <c r="BK19" s="52">
+      <c r="BI19" s="57"/>
+      <c r="BJ19" s="15"/>
+      <c r="BK19" s="61">
         <v>45103</v>
       </c>
-      <c r="BL19" s="52">
+      <c r="BL19" s="61">
         <v>45103</v>
       </c>
-      <c r="BM19" s="6"/>
-      <c r="BN19" s="6"/>
+      <c r="BM19" s="61"/>
+      <c r="BN19" s="61"/>
       <c r="BO19" s="7"/>
-      <c r="BP19" s="17"/>
-      <c r="BQ19" s="52">
+      <c r="BP19" s="62"/>
+      <c r="BQ19" s="61">
         <v>45103</v>
       </c>
-      <c r="BR19" s="52">
+      <c r="BR19" s="61">
         <v>45103</v>
       </c>
-      <c r="BS19" s="6"/>
-      <c r="BT19" s="6"/>
+      <c r="BS19" s="61"/>
+      <c r="BT19" s="61"/>
       <c r="BU19" s="7"/>
       <c r="BV19" s="10"/>
       <c r="BW19" s="10"/>
-      <c r="BX19" s="11"/>
+      <c r="BX19" s="59"/>
       <c r="BY19" s="64"/>
-      <c r="BZ19" s="67"/>
-      <c r="CA19" s="67"/>
+      <c r="BZ19" s="64"/>
+      <c r="CA19" s="64"/>
       <c r="CB19" s="64"/>
       <c r="CC19" s="64"/>
       <c r="CD19" s="64"/>
       <c r="CE19" s="64"/>
-      <c r="CF19" s="67"/>
-      <c r="CG19" s="67"/>
+      <c r="CF19" s="64"/>
+      <c r="CG19" s="64"/>
       <c r="CH19" s="64"/>
       <c r="CI19" s="64"/>
       <c r="CJ19" s="64"/>
       <c r="CK19" s="64"/>
-      <c r="CL19" s="29"/>
+      <c r="CL19" s="23"/>
       <c r="CM19" s="64"/>
-      <c r="CN19" s="67"/>
-      <c r="CO19" s="67"/>
+      <c r="CN19" s="64"/>
+      <c r="CO19" s="64"/>
       <c r="CP19" s="64"/>
       <c r="CQ19" s="64"/>
       <c r="CR19" s="64"/>
       <c r="CS19" s="64"/>
-      <c r="CT19" s="67"/>
-      <c r="CU19" s="67"/>
+      <c r="CT19" s="64"/>
+      <c r="CU19" s="64"/>
       <c r="CV19" s="64"/>
       <c r="CW19" s="64"/>
       <c r="CX19" s="64"/>
       <c r="CY19" s="64"/>
       <c r="CZ19" s="64"/>
+      <c r="DA19" s="58"/>
     </row>
-    <row r="20" spans="2:104" ht="20.25" customHeight="1">
+    <row r="20" spans="2:105" ht="20.25" customHeight="1">
       <c r="B20" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="35" t="s">
+      <c r="F20" s="29" t="s">
         <v>55</v>
       </c>
       <c r="G20" s="6">
@@ -6052,7 +6040,7 @@
       <c r="K20" s="7">
         <v>1</v>
       </c>
-      <c r="L20" s="17" t="s">
+      <c r="L20" s="14" t="s">
         <v>76</v>
       </c>
       <c r="M20" s="6">
@@ -6071,7 +6059,7 @@
         <v>1</v>
       </c>
       <c r="R20" s="9"/>
-      <c r="T20" s="35" t="s">
+      <c r="T20" s="29" t="s">
         <v>55</v>
       </c>
       <c r="U20" s="6">
@@ -6089,7 +6077,7 @@
       <c r="Y20" s="7">
         <v>1</v>
       </c>
-      <c r="Z20" s="17" t="s">
+      <c r="Z20" s="14" t="s">
         <v>76</v>
       </c>
       <c r="AA20" s="6">
@@ -6098,133 +6086,134 @@
       <c r="AB20" s="6">
         <v>45084</v>
       </c>
-      <c r="AC20" s="38">
+      <c r="AC20" s="31">
         <v>45084</v>
       </c>
-      <c r="AD20" s="38">
+      <c r="AD20" s="31">
         <v>45089</v>
       </c>
-      <c r="AE20" s="39">
+      <c r="AE20" s="32">
         <v>1</v>
       </c>
       <c r="AF20" s="9"/>
-      <c r="AH20" s="35" t="s">
+      <c r="AH20" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="AI20" s="52">
+      <c r="AI20" s="61">
         <v>45089</v>
       </c>
-      <c r="AJ20" s="52">
+      <c r="AJ20" s="61">
         <v>45096</v>
       </c>
-      <c r="AK20" s="6">
+      <c r="AK20" s="61">
         <v>45089</v>
       </c>
-      <c r="AL20" s="6"/>
+      <c r="AL20" s="61"/>
       <c r="AM20" s="7">
         <v>0.65</v>
       </c>
-      <c r="AN20" s="17"/>
-      <c r="AO20" s="52">
+      <c r="AN20" s="62"/>
+      <c r="AO20" s="41">
+        <v>45099</v>
+      </c>
+      <c r="AP20" s="41">
+        <v>45100</v>
+      </c>
+      <c r="AQ20" s="61"/>
+      <c r="AR20" s="61"/>
+      <c r="AS20" s="7"/>
+      <c r="AT20" s="11"/>
+      <c r="AU20" s="56"/>
+      <c r="AV20" s="13"/>
+      <c r="AW20" s="41">
         <v>45097</v>
       </c>
-      <c r="AP20" s="52">
+      <c r="AX20" s="41">
+        <v>45097</v>
+      </c>
+      <c r="AY20" s="61"/>
+      <c r="AZ20" s="61"/>
+      <c r="BA20" s="7"/>
+      <c r="BB20" s="62"/>
+      <c r="BC20" s="41">
         <v>45098</v>
       </c>
-      <c r="AQ20" s="6"/>
-      <c r="AR20" s="6"/>
-      <c r="AS20" s="7"/>
-      <c r="AT20" s="12"/>
-      <c r="AU20" s="13"/>
-      <c r="AV20" s="16"/>
-      <c r="AW20" s="52">
-        <v>45099</v>
-      </c>
-      <c r="AX20" s="52">
-        <v>45099</v>
-      </c>
-      <c r="AY20" s="6"/>
-      <c r="AZ20" s="6"/>
-      <c r="BA20" s="7"/>
-      <c r="BB20" s="17"/>
-      <c r="BC20" s="52">
-        <v>45100</v>
-      </c>
-      <c r="BD20" s="52">
-        <v>45100</v>
-      </c>
-      <c r="BE20" s="6"/>
-      <c r="BF20" s="6"/>
-      <c r="BG20" s="19"/>
+      <c r="BD20" s="41">
+        <v>45098</v>
+      </c>
+      <c r="BE20" s="61"/>
+      <c r="BF20" s="61"/>
+      <c r="BG20" s="16"/>
       <c r="BH20" s="10"/>
-      <c r="BI20" s="14"/>
-      <c r="BJ20" s="18"/>
-      <c r="BK20" s="52">
+      <c r="BI20" s="57"/>
+      <c r="BJ20" s="15"/>
+      <c r="BK20" s="61">
         <v>45103</v>
       </c>
-      <c r="BL20" s="52">
+      <c r="BL20" s="61">
         <v>45103</v>
       </c>
-      <c r="BM20" s="6"/>
-      <c r="BN20" s="6"/>
+      <c r="BM20" s="61"/>
+      <c r="BN20" s="61"/>
       <c r="BO20" s="7"/>
-      <c r="BP20" s="17"/>
-      <c r="BQ20" s="52">
+      <c r="BP20" s="62"/>
+      <c r="BQ20" s="61">
         <v>45103</v>
       </c>
-      <c r="BR20" s="52">
+      <c r="BR20" s="61">
         <v>45103</v>
       </c>
-      <c r="BS20" s="6"/>
-      <c r="BT20" s="6"/>
+      <c r="BS20" s="61"/>
+      <c r="BT20" s="61"/>
       <c r="BU20" s="7"/>
       <c r="BV20" s="10"/>
       <c r="BW20" s="10"/>
-      <c r="BX20" s="11"/>
+      <c r="BX20" s="59"/>
       <c r="BY20" s="64"/>
-      <c r="BZ20" s="67"/>
-      <c r="CA20" s="67"/>
+      <c r="BZ20" s="64"/>
+      <c r="CA20" s="64"/>
       <c r="CB20" s="64"/>
       <c r="CC20" s="64"/>
       <c r="CD20" s="64"/>
       <c r="CE20" s="64"/>
-      <c r="CF20" s="67"/>
-      <c r="CG20" s="67"/>
+      <c r="CF20" s="64"/>
+      <c r="CG20" s="64"/>
       <c r="CH20" s="64"/>
       <c r="CI20" s="64"/>
       <c r="CJ20" s="64"/>
       <c r="CK20" s="64"/>
-      <c r="CL20" s="29"/>
+      <c r="CL20" s="23"/>
       <c r="CM20" s="64"/>
-      <c r="CN20" s="67"/>
-      <c r="CO20" s="67"/>
+      <c r="CN20" s="64"/>
+      <c r="CO20" s="64"/>
       <c r="CP20" s="64"/>
       <c r="CQ20" s="64"/>
       <c r="CR20" s="64"/>
       <c r="CS20" s="64"/>
-      <c r="CT20" s="67"/>
-      <c r="CU20" s="67"/>
+      <c r="CT20" s="64"/>
+      <c r="CU20" s="64"/>
       <c r="CV20" s="64"/>
       <c r="CW20" s="64"/>
       <c r="CX20" s="64"/>
       <c r="CY20" s="64"/>
       <c r="CZ20" s="64"/>
+      <c r="DA20" s="58"/>
     </row>
-    <row r="21" spans="2:104" ht="20.25" customHeight="1">
+    <row r="21" spans="2:105" ht="20.25" customHeight="1">
       <c r="B21" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="F21" s="29" t="s">
         <v>56</v>
       </c>
       <c r="G21" s="6">
@@ -6242,7 +6231,7 @@
       <c r="K21" s="7">
         <v>1</v>
       </c>
-      <c r="L21" s="17" t="s">
+      <c r="L21" s="14" t="s">
         <v>76</v>
       </c>
       <c r="M21" s="6">
@@ -6261,7 +6250,7 @@
         <v>1</v>
       </c>
       <c r="R21" s="9"/>
-      <c r="T21" s="35" t="s">
+      <c r="T21" s="29" t="s">
         <v>56</v>
       </c>
       <c r="U21" s="6">
@@ -6279,7 +6268,7 @@
       <c r="Y21" s="7">
         <v>1</v>
       </c>
-      <c r="Z21" s="17" t="s">
+      <c r="Z21" s="14" t="s">
         <v>76</v>
       </c>
       <c r="AA21" s="6">
@@ -6288,133 +6277,134 @@
       <c r="AB21" s="6">
         <v>45084</v>
       </c>
-      <c r="AC21" s="38">
+      <c r="AC21" s="31">
         <v>45084</v>
       </c>
-      <c r="AD21" s="38">
+      <c r="AD21" s="31">
         <v>45086</v>
       </c>
-      <c r="AE21" s="39">
+      <c r="AE21" s="32">
         <v>1</v>
       </c>
       <c r="AF21" s="9"/>
-      <c r="AH21" s="35" t="s">
+      <c r="AH21" s="67" t="s">
         <v>56</v>
       </c>
-      <c r="AI21" s="52">
+      <c r="AI21" s="61">
         <v>45089</v>
       </c>
-      <c r="AJ21" s="52">
+      <c r="AJ21" s="61">
         <v>45096</v>
       </c>
-      <c r="AK21" s="6">
+      <c r="AK21" s="61">
         <v>45089</v>
       </c>
-      <c r="AL21" s="6"/>
+      <c r="AL21" s="61"/>
       <c r="AM21" s="7">
         <v>0.45</v>
       </c>
-      <c r="AN21" s="17"/>
-      <c r="AO21" s="52">
+      <c r="AN21" s="62"/>
+      <c r="AO21" s="41">
+        <v>45099</v>
+      </c>
+      <c r="AP21" s="41">
+        <v>45100</v>
+      </c>
+      <c r="AQ21" s="61"/>
+      <c r="AR21" s="61"/>
+      <c r="AS21" s="7"/>
+      <c r="AT21" s="11"/>
+      <c r="AU21" s="56"/>
+      <c r="AV21" s="13"/>
+      <c r="AW21" s="41">
         <v>45097</v>
       </c>
-      <c r="AP21" s="52">
+      <c r="AX21" s="41">
+        <v>45097</v>
+      </c>
+      <c r="AY21" s="61"/>
+      <c r="AZ21" s="61"/>
+      <c r="BA21" s="7"/>
+      <c r="BB21" s="62"/>
+      <c r="BC21" s="41">
         <v>45098</v>
       </c>
-      <c r="AQ21" s="6"/>
-      <c r="AR21" s="6"/>
-      <c r="AS21" s="7"/>
-      <c r="AT21" s="12"/>
-      <c r="AU21" s="13"/>
-      <c r="AV21" s="16"/>
-      <c r="AW21" s="52">
-        <v>45099</v>
-      </c>
-      <c r="AX21" s="52">
-        <v>45099</v>
-      </c>
-      <c r="AY21" s="6"/>
-      <c r="AZ21" s="6"/>
-      <c r="BA21" s="7"/>
-      <c r="BB21" s="17"/>
-      <c r="BC21" s="52">
-        <v>45100</v>
-      </c>
-      <c r="BD21" s="52">
-        <v>45100</v>
-      </c>
-      <c r="BE21" s="6"/>
-      <c r="BF21" s="6"/>
-      <c r="BG21" s="19"/>
+      <c r="BD21" s="41">
+        <v>45098</v>
+      </c>
+      <c r="BE21" s="61"/>
+      <c r="BF21" s="61"/>
+      <c r="BG21" s="16"/>
       <c r="BH21" s="10"/>
-      <c r="BI21" s="14"/>
-      <c r="BJ21" s="18"/>
-      <c r="BK21" s="52">
+      <c r="BI21" s="57"/>
+      <c r="BJ21" s="15"/>
+      <c r="BK21" s="61">
         <v>45103</v>
       </c>
-      <c r="BL21" s="52">
+      <c r="BL21" s="61">
         <v>45103</v>
       </c>
-      <c r="BM21" s="6"/>
-      <c r="BN21" s="6"/>
+      <c r="BM21" s="61"/>
+      <c r="BN21" s="61"/>
       <c r="BO21" s="7"/>
-      <c r="BP21" s="17"/>
-      <c r="BQ21" s="52">
+      <c r="BP21" s="62"/>
+      <c r="BQ21" s="61">
         <v>45103</v>
       </c>
-      <c r="BR21" s="52">
+      <c r="BR21" s="61">
         <v>45103</v>
       </c>
-      <c r="BS21" s="6"/>
-      <c r="BT21" s="6"/>
+      <c r="BS21" s="61"/>
+      <c r="BT21" s="61"/>
       <c r="BU21" s="7"/>
       <c r="BV21" s="10"/>
       <c r="BW21" s="10"/>
-      <c r="BX21" s="11"/>
+      <c r="BX21" s="59"/>
       <c r="BY21" s="64"/>
-      <c r="BZ21" s="67"/>
-      <c r="CA21" s="67"/>
+      <c r="BZ21" s="64"/>
+      <c r="CA21" s="64"/>
       <c r="CB21" s="64"/>
       <c r="CC21" s="64"/>
       <c r="CD21" s="64"/>
       <c r="CE21" s="64"/>
-      <c r="CF21" s="67"/>
-      <c r="CG21" s="67"/>
+      <c r="CF21" s="64"/>
+      <c r="CG21" s="64"/>
       <c r="CH21" s="64"/>
       <c r="CI21" s="64"/>
       <c r="CJ21" s="64"/>
       <c r="CK21" s="64"/>
-      <c r="CL21" s="29"/>
+      <c r="CL21" s="23"/>
       <c r="CM21" s="64"/>
-      <c r="CN21" s="67"/>
-      <c r="CO21" s="67"/>
+      <c r="CN21" s="64"/>
+      <c r="CO21" s="64"/>
       <c r="CP21" s="64"/>
       <c r="CQ21" s="64"/>
       <c r="CR21" s="64"/>
       <c r="CS21" s="64"/>
-      <c r="CT21" s="67"/>
-      <c r="CU21" s="67"/>
+      <c r="CT21" s="64"/>
+      <c r="CU21" s="64"/>
       <c r="CV21" s="64"/>
       <c r="CW21" s="64"/>
       <c r="CX21" s="64"/>
       <c r="CY21" s="64"/>
       <c r="CZ21" s="64"/>
+      <c r="DA21" s="58"/>
     </row>
-    <row r="22" spans="2:104" ht="20.25" customHeight="1">
+    <row r="22" spans="2:105" ht="20.25" customHeight="1">
       <c r="B22" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="35" t="s">
+      <c r="F22" s="29" t="s">
         <v>57</v>
       </c>
       <c r="G22" s="6">
@@ -6432,7 +6422,7 @@
       <c r="K22" s="7">
         <v>1</v>
       </c>
-      <c r="L22" s="17" t="s">
+      <c r="L22" s="14" t="s">
         <v>76</v>
       </c>
       <c r="M22" s="6">
@@ -6451,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="R22" s="9"/>
-      <c r="T22" s="35" t="s">
+      <c r="T22" s="29" t="s">
         <v>57</v>
       </c>
       <c r="U22" s="6">
@@ -6469,7 +6459,7 @@
       <c r="Y22" s="7">
         <v>1</v>
       </c>
-      <c r="Z22" s="17" t="s">
+      <c r="Z22" s="14" t="s">
         <v>76</v>
       </c>
       <c r="AA22" s="6">
@@ -6478,160 +6468,342 @@
       <c r="AB22" s="6">
         <v>45084</v>
       </c>
-      <c r="AC22" s="38">
+      <c r="AC22" s="31">
         <v>45084</v>
       </c>
-      <c r="AD22" s="38">
+      <c r="AD22" s="31">
         <v>45086</v>
       </c>
-      <c r="AE22" s="39">
+      <c r="AE22" s="32">
         <v>1</v>
       </c>
       <c r="AF22" s="9"/>
-      <c r="AH22" s="35" t="s">
+      <c r="AH22" s="67" t="s">
         <v>57</v>
       </c>
-      <c r="AI22" s="52">
+      <c r="AI22" s="61">
         <v>45089</v>
       </c>
-      <c r="AJ22" s="52">
+      <c r="AJ22" s="61">
         <v>45096</v>
       </c>
-      <c r="AK22" s="42"/>
-      <c r="AL22" s="42"/>
-      <c r="AM22" s="43"/>
-      <c r="AN22" s="44"/>
-      <c r="AO22" s="42">
+      <c r="AK22" s="68"/>
+      <c r="AL22" s="68"/>
+      <c r="AM22" s="35"/>
+      <c r="AN22" s="69"/>
+      <c r="AO22" s="68">
         <v>45092</v>
       </c>
-      <c r="AP22" s="42">
+      <c r="AP22" s="68">
         <v>45093</v>
       </c>
-      <c r="AQ22" s="42"/>
-      <c r="AR22" s="42"/>
-      <c r="AS22" s="43"/>
-      <c r="AT22" s="45"/>
-      <c r="AU22" s="46"/>
-      <c r="AV22" s="47"/>
-      <c r="AW22" s="42">
+      <c r="AQ22" s="68"/>
+      <c r="AR22" s="68"/>
+      <c r="AS22" s="35"/>
+      <c r="AT22" s="36"/>
+      <c r="AU22" s="70"/>
+      <c r="AV22" s="37"/>
+      <c r="AW22" s="68">
         <v>45096</v>
       </c>
-      <c r="AX22" s="42">
+      <c r="AX22" s="68">
         <v>45096</v>
       </c>
-      <c r="AY22" s="42"/>
-      <c r="AZ22" s="42"/>
-      <c r="BA22" s="43"/>
-      <c r="BB22" s="44"/>
-      <c r="BC22" s="42">
+      <c r="AY22" s="68"/>
+      <c r="AZ22" s="68"/>
+      <c r="BA22" s="35"/>
+      <c r="BB22" s="69"/>
+      <c r="BC22" s="68">
         <v>45097</v>
       </c>
-      <c r="BD22" s="42">
+      <c r="BD22" s="68">
         <v>45097</v>
       </c>
-      <c r="BE22" s="42"/>
-      <c r="BF22" s="42"/>
-      <c r="BG22" s="48"/>
-      <c r="BH22" s="49"/>
-      <c r="BI22" s="50"/>
-      <c r="BJ22" s="51"/>
-      <c r="BK22" s="42">
+      <c r="BE22" s="68"/>
+      <c r="BF22" s="68"/>
+      <c r="BG22" s="38"/>
+      <c r="BH22" s="39"/>
+      <c r="BI22" s="71"/>
+      <c r="BJ22" s="40"/>
+      <c r="BK22" s="68">
         <v>45098</v>
       </c>
-      <c r="BL22" s="42">
+      <c r="BL22" s="68">
         <v>45098</v>
       </c>
-      <c r="BM22" s="42"/>
-      <c r="BN22" s="42"/>
-      <c r="BO22" s="43"/>
-      <c r="BP22" s="44"/>
-      <c r="BQ22" s="42">
+      <c r="BM22" s="68"/>
+      <c r="BN22" s="68"/>
+      <c r="BO22" s="35"/>
+      <c r="BP22" s="69"/>
+      <c r="BQ22" s="68">
         <v>45099</v>
       </c>
-      <c r="BR22" s="42">
+      <c r="BR22" s="68">
         <v>45099</v>
       </c>
-      <c r="BS22" s="42"/>
-      <c r="BT22" s="42"/>
-      <c r="BU22" s="43"/>
-      <c r="BV22" s="49"/>
-      <c r="BW22" s="49"/>
-      <c r="BX22" s="13"/>
-      <c r="BY22" s="65"/>
-      <c r="BZ22" s="68"/>
-      <c r="CA22" s="68"/>
-      <c r="CB22" s="65"/>
-      <c r="CC22" s="65"/>
-      <c r="CD22" s="65"/>
-      <c r="CE22" s="65"/>
-      <c r="CF22" s="68"/>
-      <c r="CG22" s="68"/>
-      <c r="CH22" s="65"/>
-      <c r="CI22" s="65"/>
-      <c r="CJ22" s="65"/>
-      <c r="CK22" s="65"/>
-      <c r="CL22" s="14"/>
-      <c r="CM22" s="65"/>
-      <c r="CN22" s="68"/>
-      <c r="CO22" s="68"/>
-      <c r="CP22" s="65"/>
-      <c r="CQ22" s="65"/>
-      <c r="CR22" s="65"/>
-      <c r="CS22" s="65"/>
-      <c r="CT22" s="68"/>
-      <c r="CU22" s="68"/>
-      <c r="CV22" s="65"/>
-      <c r="CW22" s="65"/>
-      <c r="CX22" s="65"/>
-      <c r="CY22" s="65"/>
-      <c r="CZ22" s="65"/>
+      <c r="BS22" s="68"/>
+      <c r="BT22" s="68"/>
+      <c r="BU22" s="35"/>
+      <c r="BV22" s="39"/>
+      <c r="BW22" s="39"/>
+      <c r="BX22" s="56"/>
+      <c r="BY22" s="66"/>
+      <c r="BZ22" s="66"/>
+      <c r="CA22" s="66"/>
+      <c r="CB22" s="66"/>
+      <c r="CC22" s="66"/>
+      <c r="CD22" s="66"/>
+      <c r="CE22" s="66"/>
+      <c r="CF22" s="66"/>
+      <c r="CG22" s="66"/>
+      <c r="CH22" s="66"/>
+      <c r="CI22" s="66"/>
+      <c r="CJ22" s="66"/>
+      <c r="CK22" s="66"/>
+      <c r="CL22" s="57"/>
+      <c r="CM22" s="66"/>
+      <c r="CN22" s="66"/>
+      <c r="CO22" s="66"/>
+      <c r="CP22" s="66"/>
+      <c r="CQ22" s="66"/>
+      <c r="CR22" s="66"/>
+      <c r="CS22" s="66"/>
+      <c r="CT22" s="66"/>
+      <c r="CU22" s="66"/>
+      <c r="CV22" s="66"/>
+      <c r="CW22" s="66"/>
+      <c r="CX22" s="66"/>
+      <c r="CY22" s="66"/>
+      <c r="CZ22" s="66"/>
+      <c r="DA22" s="58"/>
     </row>
-    <row r="23" spans="2:104" ht="20.25" customHeight="1">
-      <c r="BX23" s="11"/>
-      <c r="CL23" s="11"/>
+    <row r="23" spans="2:105" ht="20.25" customHeight="1">
+      <c r="AH23" s="72"/>
+      <c r="AI23" s="58"/>
+      <c r="AJ23" s="58"/>
+      <c r="AK23" s="58"/>
+      <c r="AL23" s="58"/>
+      <c r="AM23" s="58"/>
+      <c r="AN23" s="73"/>
+      <c r="AO23" s="58"/>
+      <c r="AP23" s="58"/>
+      <c r="AQ23" s="58"/>
+      <c r="AR23" s="58"/>
+      <c r="AS23" s="58"/>
+      <c r="AT23" s="58"/>
+      <c r="AU23" s="58"/>
+      <c r="AV23" s="73"/>
+      <c r="AW23" s="58"/>
+      <c r="AX23" s="58"/>
+      <c r="AY23" s="58"/>
+      <c r="AZ23" s="58"/>
+      <c r="BA23" s="58"/>
+      <c r="BB23" s="72"/>
+      <c r="BC23" s="58"/>
+      <c r="BD23" s="58"/>
+      <c r="BE23" s="58"/>
+      <c r="BF23" s="58"/>
+      <c r="BG23" s="58"/>
+      <c r="BH23" s="58"/>
+      <c r="BI23" s="58"/>
+      <c r="BJ23" s="72"/>
+      <c r="BK23" s="58"/>
+      <c r="BL23" s="58"/>
+      <c r="BM23" s="58"/>
+      <c r="BN23" s="58"/>
+      <c r="BO23" s="58"/>
+      <c r="BP23" s="72"/>
+      <c r="BQ23" s="58"/>
+      <c r="BR23" s="58"/>
+      <c r="BS23" s="58"/>
+      <c r="BT23" s="58"/>
+      <c r="BU23" s="58"/>
+      <c r="BV23" s="58"/>
+      <c r="BW23" s="58"/>
+      <c r="BX23" s="59"/>
+      <c r="BY23" s="58"/>
+      <c r="BZ23" s="74"/>
+      <c r="CA23" s="74"/>
+      <c r="CB23" s="74"/>
+      <c r="CC23" s="74"/>
+      <c r="CD23" s="58"/>
+      <c r="CE23" s="58"/>
+      <c r="CF23" s="75"/>
+      <c r="CG23" s="75"/>
+      <c r="CH23" s="74"/>
+      <c r="CI23" s="74"/>
+      <c r="CJ23" s="58"/>
+      <c r="CK23" s="58"/>
+      <c r="CL23" s="59"/>
+      <c r="CM23" s="58"/>
+      <c r="CN23" s="75"/>
+      <c r="CO23" s="75"/>
+      <c r="CP23" s="74"/>
+      <c r="CQ23" s="74"/>
+      <c r="CR23" s="58"/>
+      <c r="CS23" s="58"/>
+      <c r="CT23" s="75"/>
+      <c r="CU23" s="75"/>
+      <c r="CV23" s="74"/>
+      <c r="CW23" s="74"/>
+      <c r="CX23" s="58"/>
+      <c r="CY23" s="58"/>
+      <c r="CZ23" s="58"/>
+      <c r="DA23" s="58"/>
     </row>
-    <row r="24" spans="2:104" ht="20.25" customHeight="1">
-      <c r="BX24" s="11"/>
-      <c r="CL24" s="11"/>
+    <row r="24" spans="2:105" ht="20.25" customHeight="1">
+      <c r="AH24" s="72"/>
+      <c r="AI24" s="58"/>
+      <c r="AJ24" s="58"/>
+      <c r="AK24" s="58"/>
+      <c r="AL24" s="58"/>
+      <c r="AM24" s="58"/>
+      <c r="AN24" s="73"/>
+      <c r="AO24" s="58"/>
+      <c r="AP24" s="58"/>
+      <c r="AQ24" s="58"/>
+      <c r="AR24" s="58"/>
+      <c r="AS24" s="58"/>
+      <c r="AT24" s="58"/>
+      <c r="AU24" s="58"/>
+      <c r="AV24" s="73"/>
+      <c r="AW24" s="58"/>
+      <c r="AX24" s="58"/>
+      <c r="AY24" s="58"/>
+      <c r="AZ24" s="58"/>
+      <c r="BA24" s="58"/>
+      <c r="BB24" s="72"/>
+      <c r="BC24" s="58"/>
+      <c r="BD24" s="58"/>
+      <c r="BE24" s="58"/>
+      <c r="BF24" s="58"/>
+      <c r="BG24" s="58"/>
+      <c r="BH24" s="58"/>
+      <c r="BI24" s="58"/>
+      <c r="BJ24" s="72"/>
+      <c r="BK24" s="58"/>
+      <c r="BL24" s="58"/>
+      <c r="BM24" s="58"/>
+      <c r="BN24" s="58"/>
+      <c r="BO24" s="58"/>
+      <c r="BP24" s="72"/>
+      <c r="BQ24" s="58"/>
+      <c r="BR24" s="58"/>
+      <c r="BS24" s="58"/>
+      <c r="BT24" s="58"/>
+      <c r="BU24" s="58"/>
+      <c r="BV24" s="58"/>
+      <c r="BW24" s="58"/>
+      <c r="BX24" s="59"/>
+      <c r="BY24" s="58"/>
+      <c r="BZ24" s="74"/>
+      <c r="CA24" s="74"/>
+      <c r="CB24" s="74"/>
+      <c r="CC24" s="74"/>
+      <c r="CD24" s="58"/>
+      <c r="CE24" s="58"/>
+      <c r="CF24" s="75"/>
+      <c r="CG24" s="75"/>
+      <c r="CH24" s="74"/>
+      <c r="CI24" s="74"/>
+      <c r="CJ24" s="58"/>
+      <c r="CK24" s="58"/>
+      <c r="CL24" s="59"/>
+      <c r="CM24" s="58"/>
+      <c r="CN24" s="75"/>
+      <c r="CO24" s="75"/>
+      <c r="CP24" s="74"/>
+      <c r="CQ24" s="74"/>
+      <c r="CR24" s="58"/>
+      <c r="CS24" s="58"/>
+      <c r="CT24" s="75"/>
+      <c r="CU24" s="75"/>
+      <c r="CV24" s="74"/>
+      <c r="CW24" s="74"/>
+      <c r="CX24" s="58"/>
+      <c r="CY24" s="58"/>
+      <c r="CZ24" s="58"/>
+      <c r="DA24" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="BZ7:BZ14"/>
-    <mergeCell ref="CA7:CA14"/>
-    <mergeCell ref="CF7:CF14"/>
-    <mergeCell ref="CG7:CG14"/>
-    <mergeCell ref="CN7:CN14"/>
-    <mergeCell ref="CO7:CO14"/>
-    <mergeCell ref="CT7:CT14"/>
-    <mergeCell ref="CU7:CU14"/>
-    <mergeCell ref="CM7:CM13"/>
-    <mergeCell ref="CB7:CB13"/>
-    <mergeCell ref="CC7:CC13"/>
-    <mergeCell ref="CD7:CD13"/>
-    <mergeCell ref="CE7:CE13"/>
-    <mergeCell ref="CH7:CH13"/>
-    <mergeCell ref="CI7:CI13"/>
-    <mergeCell ref="CJ7:CJ13"/>
-    <mergeCell ref="CB15:CB22"/>
-    <mergeCell ref="CC15:CC22"/>
-    <mergeCell ref="CD15:CD22"/>
-    <mergeCell ref="CM15:CM22"/>
-    <mergeCell ref="CN15:CN22"/>
-    <mergeCell ref="CO15:CO22"/>
-    <mergeCell ref="CE15:CE22"/>
-    <mergeCell ref="CF15:CF22"/>
-    <mergeCell ref="CZ7:CZ13"/>
-    <mergeCell ref="CQ15:CQ22"/>
-    <mergeCell ref="CR15:CR22"/>
-    <mergeCell ref="CS15:CS22"/>
-    <mergeCell ref="CV7:CV13"/>
-    <mergeCell ref="CW7:CW13"/>
-    <mergeCell ref="CX15:CX22"/>
-    <mergeCell ref="CY15:CY22"/>
-    <mergeCell ref="CW15:CW22"/>
-    <mergeCell ref="CX7:CX13"/>
-    <mergeCell ref="CY7:CY13"/>
-    <mergeCell ref="CG15:CG22"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="CE4:CK4"/>
+    <mergeCell ref="CM4:CR4"/>
+    <mergeCell ref="CS4:CZ4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:R4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="BM5:BN5"/>
+    <mergeCell ref="BQ5:BR5"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="BP4:BW4"/>
+    <mergeCell ref="BY4:CD4"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="Z4:AF4"/>
+    <mergeCell ref="AH4:AM4"/>
+    <mergeCell ref="AN4:AT4"/>
+    <mergeCell ref="AV4:BA4"/>
+    <mergeCell ref="BB4:BH4"/>
+    <mergeCell ref="BJ4:BO4"/>
+    <mergeCell ref="CN5:CO5"/>
+    <mergeCell ref="CP5:CQ5"/>
+    <mergeCell ref="CM5:CM6"/>
+    <mergeCell ref="CH5:CI5"/>
+    <mergeCell ref="CE5:CE6"/>
+    <mergeCell ref="CK7:CK13"/>
+    <mergeCell ref="CP7:CP13"/>
+    <mergeCell ref="CQ7:CQ13"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="CF5:CG5"/>
     <mergeCell ref="BY7:BY13"/>
     <mergeCell ref="CZ5:CZ6"/>
     <mergeCell ref="CX5:CX6"/>
@@ -6656,291 +6828,201 @@
     <mergeCell ref="CR5:CR6"/>
     <mergeCell ref="CJ5:CJ6"/>
     <mergeCell ref="CK5:CK6"/>
-    <mergeCell ref="CN5:CO5"/>
-    <mergeCell ref="CP5:CQ5"/>
-    <mergeCell ref="CM5:CM6"/>
-    <mergeCell ref="CH5:CI5"/>
-    <mergeCell ref="CE5:CE6"/>
-    <mergeCell ref="CK7:CK13"/>
-    <mergeCell ref="CP7:CP13"/>
-    <mergeCell ref="CQ7:CQ13"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="CF5:CG5"/>
-    <mergeCell ref="BP4:BW4"/>
-    <mergeCell ref="BY4:CD4"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="Z4:AF4"/>
-    <mergeCell ref="AH4:AM4"/>
-    <mergeCell ref="AN4:AT4"/>
-    <mergeCell ref="AV4:BA4"/>
-    <mergeCell ref="BB4:BH4"/>
-    <mergeCell ref="BJ4:BO4"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="BZ5:CA5"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BW5:BW6"/>
-    <mergeCell ref="BY5:BY6"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="CE4:CK4"/>
-    <mergeCell ref="CM4:CR4"/>
-    <mergeCell ref="CS4:CZ4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:R4"/>
+    <mergeCell ref="CB15:CB22"/>
+    <mergeCell ref="CC15:CC22"/>
+    <mergeCell ref="CD15:CD22"/>
+    <mergeCell ref="CM15:CM22"/>
+    <mergeCell ref="CN15:CN22"/>
+    <mergeCell ref="CO15:CO22"/>
+    <mergeCell ref="CE15:CE22"/>
+    <mergeCell ref="CF15:CF22"/>
+    <mergeCell ref="CZ7:CZ13"/>
+    <mergeCell ref="CQ15:CQ22"/>
+    <mergeCell ref="CR15:CR22"/>
+    <mergeCell ref="CS15:CS22"/>
+    <mergeCell ref="CV7:CV13"/>
+    <mergeCell ref="CW7:CW13"/>
+    <mergeCell ref="CX15:CX22"/>
+    <mergeCell ref="CY15:CY22"/>
+    <mergeCell ref="CW15:CW22"/>
+    <mergeCell ref="CX7:CX13"/>
+    <mergeCell ref="CY7:CY13"/>
+    <mergeCell ref="CG15:CG22"/>
+    <mergeCell ref="BZ7:BZ14"/>
+    <mergeCell ref="CA7:CA14"/>
+    <mergeCell ref="CF7:CF14"/>
+    <mergeCell ref="CG7:CG14"/>
+    <mergeCell ref="CN7:CN14"/>
+    <mergeCell ref="CO7:CO14"/>
+    <mergeCell ref="CT7:CT14"/>
+    <mergeCell ref="CU7:CU14"/>
+    <mergeCell ref="CM7:CM13"/>
+    <mergeCell ref="CB7:CB13"/>
+    <mergeCell ref="CC7:CC13"/>
+    <mergeCell ref="CD7:CD13"/>
+    <mergeCell ref="CE7:CE13"/>
+    <mergeCell ref="CH7:CH13"/>
+    <mergeCell ref="CI7:CI13"/>
+    <mergeCell ref="CJ7:CJ13"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
-  <conditionalFormatting sqref="F7:K14">
-    <cfRule type="expression" dxfId="41" priority="98">
-      <formula>$J7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K15:K22 L7:R22">
-    <cfRule type="expression" dxfId="40" priority="91">
-      <formula>$P7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN7:AT14 AO7:AP21">
-    <cfRule type="expression" dxfId="39" priority="88">
-      <formula>$AR7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV7:BA14 AW7:AX21">
-    <cfRule type="expression" dxfId="38" priority="152">
-      <formula>$AZ7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB9:BB14 BE9:BH14 BC9:BD21 BB7:BH8">
-    <cfRule type="expression" dxfId="37" priority="151">
-      <formula>$BF7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ7:BO7 BJ8:BJ14 BM8:BO14 BK8:BL21">
-    <cfRule type="expression" dxfId="36" priority="146">
-      <formula>$BN7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BP7:BP14 BS7:BW14">
-    <cfRule type="expression" dxfId="35" priority="145">
-      <formula>$BT7&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F21:F22">
-    <cfRule type="expression" dxfId="34" priority="175">
+  <conditionalFormatting sqref="F15:F16">
+    <cfRule type="expression" dxfId="32" priority="212">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20 F15:F16">
-    <cfRule type="expression" dxfId="33" priority="203">
-      <formula>#REF!&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA22:AB22">
-    <cfRule type="expression" dxfId="32" priority="205">
-      <formula>#REF!&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="31" priority="210">
-      <formula>$I18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15:F16">
-    <cfRule type="expression" dxfId="30" priority="212">
+    <cfRule type="expression" dxfId="31" priority="203">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F18">
-    <cfRule type="expression" dxfId="29" priority="213">
+    <cfRule type="expression" dxfId="30" priority="213">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="expression" dxfId="29" priority="210">
+      <formula>$I18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20:F22">
+    <cfRule type="expression" dxfId="28" priority="175">
+      <formula>#REF!&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7:K14">
+    <cfRule type="expression" dxfId="27" priority="98">
+      <formula>$J7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G15:J22">
-    <cfRule type="expression" dxfId="28" priority="237">
+    <cfRule type="expression" dxfId="26" priority="237">
       <formula>$I15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U15:W22 Y15:Y22">
-    <cfRule type="expression" dxfId="27" priority="241">
-      <formula>$X15&lt;&gt;""</formula>
+  <conditionalFormatting sqref="L7:R22 K15:K22">
+    <cfRule type="expression" dxfId="25" priority="91">
+      <formula>$P7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA15:AB22 AF15:AF22">
-    <cfRule type="expression" dxfId="26" priority="243">
-      <formula>$AD15&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL15:AM22 AK22">
-    <cfRule type="expression" dxfId="25" priority="245">
-      <formula>$AL15&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AN15:AT22">
-    <cfRule type="expression" dxfId="24" priority="247">
-      <formula>$AR15&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AV15:BA22">
-    <cfRule type="expression" dxfId="23" priority="249">
-      <formula>$AZ15&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BB22:BH22 BB15:BB21 BE15:BH21">
-    <cfRule type="expression" dxfId="22" priority="251">
-      <formula>$BF15&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BJ22:BO22 BJ15:BJ21 BM15:BO21">
-    <cfRule type="expression" dxfId="21" priority="253">
-      <formula>$BN15&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BP22:BW22 BP15:BP21 BS15:BW21">
-    <cfRule type="expression" dxfId="20" priority="255">
-      <formula>$BT15&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA15:AB21">
-    <cfRule type="expression" dxfId="19" priority="256">
-      <formula>$X16&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T21:T22">
-    <cfRule type="expression" dxfId="18" priority="21">
+  <conditionalFormatting sqref="T15:T16 T20">
+    <cfRule type="expression" dxfId="24" priority="22">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T20 T15:T16">
-    <cfRule type="expression" dxfId="17" priority="22">
-      <formula>#REF!&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T19">
-    <cfRule type="expression" dxfId="16" priority="23">
-      <formula>$I18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="T15:T16">
-    <cfRule type="expression" dxfId="15" priority="24">
+    <cfRule type="expression" dxfId="23" priority="24">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17:T18">
-    <cfRule type="expression" dxfId="14" priority="25">
+    <cfRule type="expression" dxfId="22" priority="25">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X15">
-    <cfRule type="expression" dxfId="13" priority="20">
+  <conditionalFormatting sqref="T19">
+    <cfRule type="expression" dxfId="21" priority="23">
+      <formula>$I18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T21:T22">
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>#REF!&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U15:Y22">
+    <cfRule type="expression" dxfId="19" priority="18">
       <formula>$X15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X16">
-    <cfRule type="expression" dxfId="12" priority="19">
+  <conditionalFormatting sqref="Z7:Z22">
+    <cfRule type="expression" dxfId="18" priority="4">
+      <formula>$P7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA15:AB21">
+    <cfRule type="expression" dxfId="17" priority="256">
       <formula>$X16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X17:X22">
-    <cfRule type="expression" dxfId="11" priority="18">
-      <formula>$X17&lt;&gt;""</formula>
+  <conditionalFormatting sqref="AA15:AB22 AF15:AF22">
+    <cfRule type="expression" dxfId="16" priority="243">
+      <formula>$AD15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI7:AL7 AK15:AK21 AK8:AL14 AI8:AJ22">
-    <cfRule type="expression" dxfId="10" priority="12">
-      <formula>$AK7&lt;&gt;""</formula>
+  <conditionalFormatting sqref="AA22:AB22">
+    <cfRule type="expression" dxfId="15" priority="205">
+      <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH7:AH14">
-    <cfRule type="expression" dxfId="9" priority="11">
+    <cfRule type="expression" dxfId="14" priority="11">
       <formula>$J7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH21:AH22">
-    <cfRule type="expression" dxfId="8" priority="6">
+  <conditionalFormatting sqref="AH15:AH16">
+    <cfRule type="expression" dxfId="13" priority="7">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH20 AH15:AH16">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>#REF!&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH19">
-    <cfRule type="expression" dxfId="6" priority="8">
-      <formula>$I18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH15:AH16">
-    <cfRule type="expression" dxfId="5" priority="9">
+    <cfRule type="expression" dxfId="12" priority="9">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH17:AH18">
-    <cfRule type="expression" dxfId="4" priority="10">
+    <cfRule type="expression" dxfId="11" priority="10">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z7:Z22">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>$P7&lt;&gt;""</formula>
+  <conditionalFormatting sqref="AH19">
+    <cfRule type="expression" dxfId="10" priority="8">
+      <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ8:BR21">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$BN8&lt;&gt;""</formula>
+  <conditionalFormatting sqref="AH20:AH22">
+    <cfRule type="expression" dxfId="9" priority="6">
+      <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BQ7">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="AI7:AL7 AK8:AL14 AI8:AJ22 AK15:AK21">
+    <cfRule type="expression" dxfId="8" priority="12">
+      <formula>$AK7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL15:AM22 AK22">
+    <cfRule type="expression" dxfId="7" priority="245">
+      <formula>$AL15&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN7:AT22">
+    <cfRule type="expression" dxfId="6" priority="88">
+      <formula>$AR7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AV7:BA22">
+    <cfRule type="expression" dxfId="5" priority="152">
+      <formula>$AZ7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BB7:BH22">
+    <cfRule type="expression" dxfId="4" priority="151">
+      <formula>$BF7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BJ7:BO22">
+    <cfRule type="expression" dxfId="3" priority="146">
       <formula>$BN7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="BR7">
+  <conditionalFormatting sqref="BP7:BP21 BS7:BW21">
+    <cfRule type="expression" dxfId="2" priority="145">
+      <formula>$BT7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BP22:BW22">
+    <cfRule type="expression" dxfId="1" priority="255">
+      <formula>$BT22&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BQ7:BR21">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$BN7&lt;&gt;""</formula>
     </cfRule>

--- a/スケジュール（2023-06）.xlsx
+++ b/スケジュール（2023-06）.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\o3o__\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6774B364-EF23-4A31-B22B-9B864B2DF5CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6946EAD-09A7-4AA4-A5F8-0026295196A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -793,33 +793,6 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -845,16 +818,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -876,6 +840,42 @@
     </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
@@ -2830,10 +2830,10 @@
   <dimension ref="B3:DA24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="F7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="S10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AN7" sqref="AN7"/>
+      <selection pane="bottomRight" activeCell="AN12" sqref="AN12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
@@ -2894,385 +2894,385 @@
       </c>
     </row>
     <row r="4" spans="2:105" s="17" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="F4" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
-      <c r="J4" s="44"/>
-      <c r="K4" s="44"/>
-      <c r="L4" s="44" t="s">
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="44"/>
-      <c r="N4" s="44"/>
-      <c r="O4" s="44"/>
-      <c r="P4" s="44"/>
-      <c r="Q4" s="44"/>
-      <c r="R4" s="44"/>
-      <c r="T4" s="44" t="s">
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="T4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="U4" s="44"/>
-      <c r="V4" s="44"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="44" t="s">
+      <c r="U4" s="65"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="44"/>
-      <c r="AB4" s="44"/>
-      <c r="AC4" s="44"/>
-      <c r="AD4" s="44"/>
-      <c r="AE4" s="44"/>
-      <c r="AF4" s="44"/>
-      <c r="AH4" s="44" t="s">
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AH4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="AI4" s="44"/>
-      <c r="AJ4" s="44"/>
-      <c r="AK4" s="44"/>
-      <c r="AL4" s="44"/>
-      <c r="AM4" s="44"/>
-      <c r="AN4" s="44" t="s">
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="AO4" s="44"/>
-      <c r="AP4" s="44"/>
-      <c r="AQ4" s="44"/>
-      <c r="AR4" s="44"/>
-      <c r="AS4" s="44"/>
-      <c r="AT4" s="48"/>
-      <c r="AU4" s="52"/>
-      <c r="AV4" s="44" t="s">
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="65"/>
+      <c r="AQ4" s="65"/>
+      <c r="AR4" s="65"/>
+      <c r="AS4" s="65"/>
+      <c r="AT4" s="66"/>
+      <c r="AU4" s="43"/>
+      <c r="AV4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="AW4" s="44"/>
-      <c r="AX4" s="44"/>
-      <c r="AY4" s="44"/>
-      <c r="AZ4" s="44"/>
-      <c r="BA4" s="44"/>
-      <c r="BB4" s="44" t="s">
+      <c r="AW4" s="65"/>
+      <c r="AX4" s="65"/>
+      <c r="AY4" s="65"/>
+      <c r="AZ4" s="65"/>
+      <c r="BA4" s="65"/>
+      <c r="BB4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="BC4" s="44"/>
-      <c r="BD4" s="44"/>
-      <c r="BE4" s="44"/>
-      <c r="BF4" s="44"/>
-      <c r="BG4" s="44"/>
-      <c r="BH4" s="44"/>
-      <c r="BI4" s="53"/>
-      <c r="BJ4" s="49" t="s">
+      <c r="BC4" s="65"/>
+      <c r="BD4" s="65"/>
+      <c r="BE4" s="65"/>
+      <c r="BF4" s="65"/>
+      <c r="BG4" s="65"/>
+      <c r="BH4" s="65"/>
+      <c r="BI4" s="44"/>
+      <c r="BJ4" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="BK4" s="44"/>
-      <c r="BL4" s="44"/>
-      <c r="BM4" s="44"/>
-      <c r="BN4" s="44"/>
-      <c r="BO4" s="44"/>
-      <c r="BP4" s="44" t="s">
+      <c r="BK4" s="65"/>
+      <c r="BL4" s="65"/>
+      <c r="BM4" s="65"/>
+      <c r="BN4" s="65"/>
+      <c r="BO4" s="65"/>
+      <c r="BP4" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="BQ4" s="44"/>
-      <c r="BR4" s="44"/>
-      <c r="BS4" s="44"/>
-      <c r="BT4" s="44"/>
-      <c r="BU4" s="44"/>
-      <c r="BV4" s="44"/>
-      <c r="BW4" s="44"/>
-      <c r="BX4" s="54"/>
-      <c r="BY4" s="44" t="s">
+      <c r="BQ4" s="65"/>
+      <c r="BR4" s="65"/>
+      <c r="BS4" s="65"/>
+      <c r="BT4" s="65"/>
+      <c r="BU4" s="65"/>
+      <c r="BV4" s="65"/>
+      <c r="BW4" s="65"/>
+      <c r="BX4" s="45"/>
+      <c r="BY4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="BZ4" s="44"/>
-      <c r="CA4" s="44"/>
-      <c r="CB4" s="44"/>
-      <c r="CC4" s="44"/>
-      <c r="CD4" s="44"/>
-      <c r="CE4" s="44" t="s">
+      <c r="BZ4" s="65"/>
+      <c r="CA4" s="65"/>
+      <c r="CB4" s="65"/>
+      <c r="CC4" s="65"/>
+      <c r="CD4" s="65"/>
+      <c r="CE4" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="CF4" s="44"/>
-      <c r="CG4" s="44"/>
-      <c r="CH4" s="44"/>
-      <c r="CI4" s="44"/>
-      <c r="CJ4" s="44"/>
-      <c r="CK4" s="48"/>
-      <c r="CL4" s="55"/>
-      <c r="CM4" s="49" t="s">
+      <c r="CF4" s="65"/>
+      <c r="CG4" s="65"/>
+      <c r="CH4" s="65"/>
+      <c r="CI4" s="65"/>
+      <c r="CJ4" s="65"/>
+      <c r="CK4" s="66"/>
+      <c r="CL4" s="46"/>
+      <c r="CM4" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="CN4" s="44"/>
-      <c r="CO4" s="44"/>
-      <c r="CP4" s="44"/>
-      <c r="CQ4" s="44"/>
-      <c r="CR4" s="44"/>
-      <c r="CS4" s="44" t="s">
+      <c r="CN4" s="65"/>
+      <c r="CO4" s="65"/>
+      <c r="CP4" s="65"/>
+      <c r="CQ4" s="65"/>
+      <c r="CR4" s="65"/>
+      <c r="CS4" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="CT4" s="44"/>
-      <c r="CU4" s="44"/>
-      <c r="CV4" s="44"/>
-      <c r="CW4" s="44"/>
-      <c r="CX4" s="44"/>
-      <c r="CY4" s="44"/>
-      <c r="CZ4" s="44"/>
-      <c r="DA4" s="54"/>
+      <c r="CT4" s="65"/>
+      <c r="CU4" s="65"/>
+      <c r="CV4" s="65"/>
+      <c r="CW4" s="65"/>
+      <c r="CX4" s="65"/>
+      <c r="CY4" s="65"/>
+      <c r="CZ4" s="65"/>
+      <c r="DA4" s="45"/>
     </row>
     <row r="5" spans="2:105" ht="21.6" customHeight="1">
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="44" t="s">
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50" t="s">
+      <c r="H5" s="68"/>
+      <c r="I5" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="50"/>
-      <c r="K5" s="43" t="s">
+      <c r="J5" s="68"/>
+      <c r="K5" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="44" t="s">
+      <c r="L5" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="50" t="s">
+      <c r="M5" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50" t="s">
+      <c r="N5" s="68"/>
+      <c r="O5" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="50"/>
-      <c r="Q5" s="43" t="s">
+      <c r="P5" s="68"/>
+      <c r="Q5" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="43" t="s">
+      <c r="R5" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="44" t="s">
+      <c r="T5" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="50" t="s">
+      <c r="U5" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="50"/>
-      <c r="W5" s="50" t="s">
+      <c r="V5" s="68"/>
+      <c r="W5" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="X5" s="50"/>
-      <c r="Y5" s="43" t="s">
+      <c r="X5" s="68"/>
+      <c r="Y5" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="44" t="s">
+      <c r="Z5" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="AA5" s="50" t="s">
+      <c r="AA5" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="AB5" s="50"/>
-      <c r="AC5" s="50" t="s">
+      <c r="AB5" s="68"/>
+      <c r="AC5" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="AD5" s="50"/>
-      <c r="AE5" s="43" t="s">
+      <c r="AD5" s="68"/>
+      <c r="AE5" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="AF5" s="43" t="s">
+      <c r="AF5" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="AH5" s="44" t="s">
+      <c r="AH5" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="AI5" s="50" t="s">
+      <c r="AI5" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="AJ5" s="50"/>
-      <c r="AK5" s="50" t="s">
+      <c r="AJ5" s="68"/>
+      <c r="AK5" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="AL5" s="50"/>
-      <c r="AM5" s="43" t="s">
+      <c r="AL5" s="68"/>
+      <c r="AM5" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="AN5" s="44" t="s">
+      <c r="AN5" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="AO5" s="50" t="s">
+      <c r="AO5" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="AP5" s="50"/>
-      <c r="AQ5" s="50" t="s">
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="43" t="s">
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="AT5" s="47" t="s">
+      <c r="AT5" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="AU5" s="56"/>
-      <c r="AV5" s="44" t="s">
+      <c r="AU5" s="47"/>
+      <c r="AV5" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="AW5" s="50" t="s">
+      <c r="AW5" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="AX5" s="50"/>
-      <c r="AY5" s="50" t="s">
+      <c r="AX5" s="68"/>
+      <c r="AY5" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="AZ5" s="50"/>
-      <c r="BA5" s="43" t="s">
+      <c r="AZ5" s="68"/>
+      <c r="BA5" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="BB5" s="44" t="s">
+      <c r="BB5" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="BC5" s="50" t="s">
+      <c r="BC5" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="BD5" s="50"/>
-      <c r="BE5" s="50" t="s">
+      <c r="BD5" s="68"/>
+      <c r="BE5" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="BF5" s="50"/>
-      <c r="BG5" s="43" t="s">
+      <c r="BF5" s="68"/>
+      <c r="BG5" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="BH5" s="43" t="s">
+      <c r="BH5" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="BI5" s="57"/>
-      <c r="BJ5" s="49" t="s">
+      <c r="BI5" s="48"/>
+      <c r="BJ5" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="BK5" s="50" t="s">
+      <c r="BK5" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="BL5" s="50"/>
-      <c r="BM5" s="50" t="s">
+      <c r="BL5" s="68"/>
+      <c r="BM5" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="BN5" s="50"/>
-      <c r="BO5" s="43" t="s">
+      <c r="BN5" s="68"/>
+      <c r="BO5" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="BP5" s="44" t="s">
+      <c r="BP5" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="BQ5" s="50" t="s">
+      <c r="BQ5" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="BR5" s="50"/>
-      <c r="BS5" s="50" t="s">
+      <c r="BR5" s="68"/>
+      <c r="BS5" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="BT5" s="50"/>
-      <c r="BU5" s="43" t="s">
+      <c r="BT5" s="68"/>
+      <c r="BU5" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="BV5" s="43" t="s">
+      <c r="BV5" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="BW5" s="43" t="s">
+      <c r="BW5" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="BX5" s="58"/>
-      <c r="BY5" s="44" t="s">
+      <c r="BX5" s="49"/>
+      <c r="BY5" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="BZ5" s="46" t="s">
+      <c r="BZ5" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="CA5" s="46"/>
-      <c r="CB5" s="46" t="s">
+      <c r="CA5" s="70"/>
+      <c r="CB5" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="CC5" s="46"/>
-      <c r="CD5" s="43" t="s">
+      <c r="CC5" s="70"/>
+      <c r="CD5" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="CE5" s="44" t="s">
+      <c r="CE5" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="CF5" s="45" t="s">
+      <c r="CF5" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="CG5" s="45"/>
-      <c r="CH5" s="46" t="s">
+      <c r="CG5" s="72"/>
+      <c r="CH5" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="CI5" s="46"/>
-      <c r="CJ5" s="43" t="s">
+      <c r="CI5" s="70"/>
+      <c r="CJ5" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="CK5" s="47" t="s">
+      <c r="CK5" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="CL5" s="59"/>
-      <c r="CM5" s="49" t="s">
+      <c r="CL5" s="50"/>
+      <c r="CM5" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="CN5" s="45" t="s">
+      <c r="CN5" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="CO5" s="45"/>
-      <c r="CP5" s="46" t="s">
+      <c r="CO5" s="72"/>
+      <c r="CP5" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="CQ5" s="46"/>
-      <c r="CR5" s="43" t="s">
+      <c r="CQ5" s="70"/>
+      <c r="CR5" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="CS5" s="44" t="s">
+      <c r="CS5" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="CT5" s="45" t="s">
+      <c r="CT5" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="CU5" s="45"/>
-      <c r="CV5" s="46" t="s">
+      <c r="CU5" s="72"/>
+      <c r="CV5" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="CW5" s="46"/>
-      <c r="CX5" s="43" t="s">
+      <c r="CW5" s="70"/>
+      <c r="CX5" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="CY5" s="43" t="s">
+      <c r="CY5" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="CZ5" s="43" t="s">
+      <c r="CZ5" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="DA5" s="58"/>
+      <c r="DA5" s="49"/>
     </row>
     <row r="6" spans="2:105" ht="14.4">
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="44"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3285,8 +3285,8 @@
       <c r="J6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
       <c r="M6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3299,9 +3299,9 @@
       <c r="P6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="T6" s="44"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="T6" s="65"/>
       <c r="U6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3314,8 +3314,8 @@
       <c r="X6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="44"/>
-      <c r="Z6" s="44"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
       <c r="AA6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3328,9 +3328,9 @@
       <c r="AD6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AE6" s="44"/>
-      <c r="AF6" s="44"/>
-      <c r="AH6" s="44"/>
+      <c r="AE6" s="65"/>
+      <c r="AF6" s="65"/>
+      <c r="AH6" s="65"/>
       <c r="AI6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3343,8 +3343,8 @@
       <c r="AL6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AM6" s="44"/>
-      <c r="AN6" s="44"/>
+      <c r="AM6" s="65"/>
+      <c r="AN6" s="65"/>
       <c r="AO6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3357,10 +3357,10 @@
       <c r="AR6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AS6" s="44"/>
-      <c r="AT6" s="48"/>
-      <c r="AU6" s="56"/>
-      <c r="AV6" s="44"/>
+      <c r="AS6" s="65"/>
+      <c r="AT6" s="66"/>
+      <c r="AU6" s="47"/>
+      <c r="AV6" s="65"/>
       <c r="AW6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3373,8 +3373,8 @@
       <c r="AZ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BA6" s="44"/>
-      <c r="BB6" s="44"/>
+      <c r="BA6" s="65"/>
+      <c r="BB6" s="65"/>
       <c r="BC6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3387,10 +3387,10 @@
       <c r="BF6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BG6" s="44"/>
-      <c r="BH6" s="44"/>
-      <c r="BI6" s="57"/>
-      <c r="BJ6" s="49"/>
+      <c r="BG6" s="65"/>
+      <c r="BH6" s="65"/>
+      <c r="BI6" s="48"/>
+      <c r="BJ6" s="67"/>
       <c r="BK6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3403,8 +3403,8 @@
       <c r="BN6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BO6" s="44"/>
-      <c r="BP6" s="44"/>
+      <c r="BO6" s="65"/>
+      <c r="BP6" s="65"/>
       <c r="BQ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3417,11 +3417,11 @@
       <c r="BT6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BU6" s="44"/>
-      <c r="BV6" s="44"/>
-      <c r="BW6" s="44"/>
-      <c r="BX6" s="58"/>
-      <c r="BY6" s="44"/>
+      <c r="BU6" s="65"/>
+      <c r="BV6" s="65"/>
+      <c r="BW6" s="65"/>
+      <c r="BX6" s="49"/>
+      <c r="BY6" s="65"/>
       <c r="BZ6" s="25" t="s">
         <v>25</v>
       </c>
@@ -3434,8 +3434,8 @@
       <c r="CC6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="CD6" s="44"/>
-      <c r="CE6" s="44"/>
+      <c r="CD6" s="65"/>
+      <c r="CE6" s="65"/>
       <c r="CF6" s="28" t="s">
         <v>25</v>
       </c>
@@ -3448,10 +3448,10 @@
       <c r="CI6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="CJ6" s="44"/>
-      <c r="CK6" s="48"/>
-      <c r="CL6" s="59"/>
-      <c r="CM6" s="49"/>
+      <c r="CJ6" s="65"/>
+      <c r="CK6" s="66"/>
+      <c r="CL6" s="50"/>
+      <c r="CM6" s="67"/>
       <c r="CN6" s="28" t="s">
         <v>25</v>
       </c>
@@ -3464,8 +3464,8 @@
       <c r="CQ6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="CR6" s="44"/>
-      <c r="CS6" s="44"/>
+      <c r="CR6" s="65"/>
+      <c r="CS6" s="65"/>
       <c r="CT6" s="28" t="s">
         <v>25</v>
       </c>
@@ -3478,10 +3478,10 @@
       <c r="CW6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="CX6" s="44"/>
-      <c r="CY6" s="44"/>
-      <c r="CZ6" s="44"/>
-      <c r="DA6" s="58"/>
+      <c r="CX6" s="65"/>
+      <c r="CY6" s="65"/>
+      <c r="CZ6" s="65"/>
+      <c r="DA6" s="49"/>
     </row>
     <row r="7" spans="2:105" ht="20.25" customHeight="1">
       <c r="B7" s="5">
@@ -3573,34 +3573,34 @@
       <c r="AF7" s="33">
         <v>6</v>
       </c>
-      <c r="AH7" s="60" t="s">
+      <c r="AH7" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="AI7" s="61">
+      <c r="AI7" s="52">
         <v>45089</v>
       </c>
-      <c r="AJ7" s="61">
+      <c r="AJ7" s="52">
         <v>45096</v>
       </c>
-      <c r="AK7" s="61">
+      <c r="AK7" s="52">
         <v>45089</v>
       </c>
-      <c r="AL7" s="61"/>
+      <c r="AL7" s="52"/>
       <c r="AM7" s="42">
         <v>1</v>
       </c>
-      <c r="AN7" s="62"/>
+      <c r="AN7" s="53"/>
       <c r="AO7" s="41">
         <v>45099</v>
       </c>
       <c r="AP7" s="41">
         <v>45100</v>
       </c>
-      <c r="AQ7" s="61"/>
-      <c r="AR7" s="61"/>
+      <c r="AQ7" s="52"/>
+      <c r="AR7" s="52"/>
       <c r="AS7" s="7"/>
       <c r="AT7" s="11"/>
-      <c r="AU7" s="56"/>
+      <c r="AU7" s="47"/>
       <c r="AV7" s="13"/>
       <c r="AW7" s="41">
         <v>45097</v>
@@ -3608,89 +3608,89 @@
       <c r="AX7" s="41">
         <v>45097</v>
       </c>
-      <c r="AY7" s="61"/>
-      <c r="AZ7" s="61"/>
+      <c r="AY7" s="52"/>
+      <c r="AZ7" s="52"/>
       <c r="BA7" s="7"/>
-      <c r="BB7" s="62"/>
+      <c r="BB7" s="53"/>
       <c r="BC7" s="41">
         <v>45098</v>
       </c>
       <c r="BD7" s="41">
         <v>45098</v>
       </c>
-      <c r="BE7" s="61"/>
-      <c r="BF7" s="61"/>
+      <c r="BE7" s="52"/>
+      <c r="BF7" s="52"/>
       <c r="BG7" s="16"/>
       <c r="BH7" s="10"/>
-      <c r="BI7" s="57"/>
+      <c r="BI7" s="48"/>
       <c r="BJ7" s="15"/>
-      <c r="BK7" s="61">
+      <c r="BK7" s="52">
         <v>45103</v>
       </c>
-      <c r="BL7" s="61">
+      <c r="BL7" s="52">
         <v>45103</v>
       </c>
-      <c r="BM7" s="61"/>
-      <c r="BN7" s="61"/>
+      <c r="BM7" s="52"/>
+      <c r="BN7" s="52"/>
       <c r="BO7" s="7"/>
-      <c r="BP7" s="62"/>
-      <c r="BQ7" s="61">
+      <c r="BP7" s="53"/>
+      <c r="BQ7" s="52">
         <v>45103</v>
       </c>
-      <c r="BR7" s="61">
+      <c r="BR7" s="52">
         <v>45103</v>
       </c>
-      <c r="BS7" s="61"/>
-      <c r="BT7" s="61"/>
+      <c r="BS7" s="52"/>
+      <c r="BT7" s="52"/>
       <c r="BU7" s="7"/>
       <c r="BV7" s="10"/>
       <c r="BW7" s="10"/>
-      <c r="BX7" s="58"/>
-      <c r="BY7" s="63"/>
-      <c r="BZ7" s="63">
+      <c r="BX7" s="49"/>
+      <c r="BY7" s="73"/>
+      <c r="BZ7" s="73">
         <v>45104</v>
       </c>
-      <c r="CA7" s="63">
+      <c r="CA7" s="73">
         <v>45104</v>
       </c>
-      <c r="CB7" s="63"/>
-      <c r="CC7" s="63"/>
-      <c r="CD7" s="63"/>
-      <c r="CE7" s="63"/>
-      <c r="CF7" s="63">
+      <c r="CB7" s="73"/>
+      <c r="CC7" s="73"/>
+      <c r="CD7" s="73"/>
+      <c r="CE7" s="73"/>
+      <c r="CF7" s="73">
         <v>45104</v>
       </c>
-      <c r="CG7" s="63">
+      <c r="CG7" s="73">
         <v>45104</v>
       </c>
-      <c r="CH7" s="63"/>
-      <c r="CI7" s="63"/>
-      <c r="CJ7" s="63"/>
-      <c r="CK7" s="63"/>
-      <c r="CL7" s="57"/>
-      <c r="CM7" s="63"/>
-      <c r="CN7" s="63">
+      <c r="CH7" s="73"/>
+      <c r="CI7" s="73"/>
+      <c r="CJ7" s="73"/>
+      <c r="CK7" s="73"/>
+      <c r="CL7" s="48"/>
+      <c r="CM7" s="73"/>
+      <c r="CN7" s="73">
         <v>45105</v>
       </c>
-      <c r="CO7" s="63">
+      <c r="CO7" s="73">
         <v>45105</v>
       </c>
-      <c r="CP7" s="63"/>
-      <c r="CQ7" s="63"/>
-      <c r="CR7" s="63"/>
-      <c r="CS7" s="63"/>
-      <c r="CT7" s="63">
+      <c r="CP7" s="73"/>
+      <c r="CQ7" s="73"/>
+      <c r="CR7" s="73"/>
+      <c r="CS7" s="73"/>
+      <c r="CT7" s="73">
         <v>45105</v>
       </c>
-      <c r="CU7" s="63">
+      <c r="CU7" s="73">
         <v>45105</v>
       </c>
-      <c r="CV7" s="63"/>
-      <c r="CW7" s="63"/>
-      <c r="CX7" s="63"/>
-      <c r="CY7" s="63"/>
-      <c r="CZ7" s="63"/>
-      <c r="DA7" s="58"/>
+      <c r="CV7" s="73"/>
+      <c r="CW7" s="73"/>
+      <c r="CX7" s="73"/>
+      <c r="CY7" s="73"/>
+      <c r="CZ7" s="73"/>
+      <c r="DA7" s="49"/>
     </row>
     <row r="8" spans="2:105" ht="20.25" customHeight="1">
       <c r="B8" s="5">
@@ -3782,34 +3782,34 @@
       <c r="AF8" s="33">
         <v>8</v>
       </c>
-      <c r="AH8" s="60" t="s">
+      <c r="AH8" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="AI8" s="61">
+      <c r="AI8" s="52">
         <v>45089</v>
       </c>
-      <c r="AJ8" s="61">
+      <c r="AJ8" s="52">
         <v>45096</v>
       </c>
-      <c r="AK8" s="61">
+      <c r="AK8" s="52">
         <v>45089</v>
       </c>
-      <c r="AL8" s="61"/>
+      <c r="AL8" s="52"/>
       <c r="AM8" s="42">
         <v>0.1</v>
       </c>
-      <c r="AN8" s="62"/>
+      <c r="AN8" s="53"/>
       <c r="AO8" s="41">
         <v>45099</v>
       </c>
       <c r="AP8" s="41">
         <v>45100</v>
       </c>
-      <c r="AQ8" s="61"/>
-      <c r="AR8" s="61"/>
+      <c r="AQ8" s="52"/>
+      <c r="AR8" s="52"/>
       <c r="AS8" s="7"/>
       <c r="AT8" s="11"/>
-      <c r="AU8" s="56"/>
+      <c r="AU8" s="47"/>
       <c r="AV8" s="13"/>
       <c r="AW8" s="41">
         <v>45097</v>
@@ -3817,73 +3817,73 @@
       <c r="AX8" s="41">
         <v>45097</v>
       </c>
-      <c r="AY8" s="61"/>
-      <c r="AZ8" s="61"/>
+      <c r="AY8" s="52"/>
+      <c r="AZ8" s="52"/>
       <c r="BA8" s="7"/>
-      <c r="BB8" s="62"/>
+      <c r="BB8" s="53"/>
       <c r="BC8" s="41">
         <v>45098</v>
       </c>
       <c r="BD8" s="41">
         <v>45098</v>
       </c>
-      <c r="BE8" s="61"/>
-      <c r="BF8" s="61"/>
+      <c r="BE8" s="52"/>
+      <c r="BF8" s="52"/>
       <c r="BG8" s="16"/>
       <c r="BH8" s="10"/>
-      <c r="BI8" s="57"/>
+      <c r="BI8" s="48"/>
       <c r="BJ8" s="15"/>
-      <c r="BK8" s="61">
+      <c r="BK8" s="52">
         <v>45103</v>
       </c>
-      <c r="BL8" s="61">
+      <c r="BL8" s="52">
         <v>45103</v>
       </c>
-      <c r="BM8" s="61"/>
-      <c r="BN8" s="61"/>
+      <c r="BM8" s="52"/>
+      <c r="BN8" s="52"/>
       <c r="BO8" s="7"/>
-      <c r="BP8" s="62"/>
-      <c r="BQ8" s="61">
+      <c r="BP8" s="53"/>
+      <c r="BQ8" s="52">
         <v>45103</v>
       </c>
-      <c r="BR8" s="61">
+      <c r="BR8" s="52">
         <v>45103</v>
       </c>
-      <c r="BS8" s="61"/>
-      <c r="BT8" s="61"/>
+      <c r="BS8" s="52"/>
+      <c r="BT8" s="52"/>
       <c r="BU8" s="7"/>
       <c r="BV8" s="10"/>
       <c r="BW8" s="10"/>
-      <c r="BX8" s="58"/>
-      <c r="BY8" s="64"/>
-      <c r="BZ8" s="64"/>
-      <c r="CA8" s="64"/>
-      <c r="CB8" s="64"/>
-      <c r="CC8" s="64"/>
-      <c r="CD8" s="64"/>
-      <c r="CE8" s="64"/>
-      <c r="CF8" s="64"/>
-      <c r="CG8" s="64"/>
-      <c r="CH8" s="64"/>
-      <c r="CI8" s="64"/>
-      <c r="CJ8" s="64"/>
-      <c r="CK8" s="64"/>
-      <c r="CL8" s="57"/>
-      <c r="CM8" s="64"/>
-      <c r="CN8" s="64"/>
-      <c r="CO8" s="64"/>
-      <c r="CP8" s="64"/>
-      <c r="CQ8" s="64"/>
-      <c r="CR8" s="64"/>
-      <c r="CS8" s="64"/>
-      <c r="CT8" s="64"/>
-      <c r="CU8" s="64"/>
-      <c r="CV8" s="64"/>
-      <c r="CW8" s="64"/>
-      <c r="CX8" s="64"/>
-      <c r="CY8" s="64"/>
-      <c r="CZ8" s="64"/>
-      <c r="DA8" s="58"/>
+      <c r="BX8" s="49"/>
+      <c r="BY8" s="74"/>
+      <c r="BZ8" s="74"/>
+      <c r="CA8" s="74"/>
+      <c r="CB8" s="74"/>
+      <c r="CC8" s="74"/>
+      <c r="CD8" s="74"/>
+      <c r="CE8" s="74"/>
+      <c r="CF8" s="74"/>
+      <c r="CG8" s="74"/>
+      <c r="CH8" s="74"/>
+      <c r="CI8" s="74"/>
+      <c r="CJ8" s="74"/>
+      <c r="CK8" s="74"/>
+      <c r="CL8" s="48"/>
+      <c r="CM8" s="74"/>
+      <c r="CN8" s="74"/>
+      <c r="CO8" s="74"/>
+      <c r="CP8" s="74"/>
+      <c r="CQ8" s="74"/>
+      <c r="CR8" s="74"/>
+      <c r="CS8" s="74"/>
+      <c r="CT8" s="74"/>
+      <c r="CU8" s="74"/>
+      <c r="CV8" s="74"/>
+      <c r="CW8" s="74"/>
+      <c r="CX8" s="74"/>
+      <c r="CY8" s="74"/>
+      <c r="CZ8" s="74"/>
+      <c r="DA8" s="49"/>
     </row>
     <row r="9" spans="2:105" ht="20.25" customHeight="1">
       <c r="B9" s="5">
@@ -3973,34 +3973,34 @@
         <v>1</v>
       </c>
       <c r="AF9" s="33"/>
-      <c r="AH9" s="60" t="s">
+      <c r="AH9" s="51" t="s">
         <v>72</v>
       </c>
-      <c r="AI9" s="61">
+      <c r="AI9" s="52">
         <v>45089</v>
       </c>
-      <c r="AJ9" s="61">
+      <c r="AJ9" s="52">
         <v>45096</v>
       </c>
-      <c r="AK9" s="61">
+      <c r="AK9" s="52">
         <v>45089</v>
       </c>
-      <c r="AL9" s="61"/>
+      <c r="AL9" s="52"/>
       <c r="AM9" s="42">
         <v>0.8</v>
       </c>
-      <c r="AN9" s="62"/>
+      <c r="AN9" s="53"/>
       <c r="AO9" s="41">
         <v>45099</v>
       </c>
       <c r="AP9" s="41">
         <v>45100</v>
       </c>
-      <c r="AQ9" s="61"/>
-      <c r="AR9" s="61"/>
+      <c r="AQ9" s="52"/>
+      <c r="AR9" s="52"/>
       <c r="AS9" s="7"/>
       <c r="AT9" s="11"/>
-      <c r="AU9" s="56"/>
+      <c r="AU9" s="47"/>
       <c r="AV9" s="13"/>
       <c r="AW9" s="41">
         <v>45097</v>
@@ -4008,73 +4008,73 @@
       <c r="AX9" s="41">
         <v>45097</v>
       </c>
-      <c r="AY9" s="61"/>
-      <c r="AZ9" s="61"/>
+      <c r="AY9" s="52"/>
+      <c r="AZ9" s="52"/>
       <c r="BA9" s="7"/>
-      <c r="BB9" s="62"/>
+      <c r="BB9" s="53"/>
       <c r="BC9" s="41">
         <v>45098</v>
       </c>
       <c r="BD9" s="41">
         <v>45098</v>
       </c>
-      <c r="BE9" s="61"/>
-      <c r="BF9" s="61"/>
+      <c r="BE9" s="52"/>
+      <c r="BF9" s="52"/>
       <c r="BG9" s="16"/>
       <c r="BH9" s="10"/>
-      <c r="BI9" s="57"/>
+      <c r="BI9" s="48"/>
       <c r="BJ9" s="15"/>
-      <c r="BK9" s="61">
+      <c r="BK9" s="52">
         <v>45103</v>
       </c>
-      <c r="BL9" s="61">
+      <c r="BL9" s="52">
         <v>45103</v>
       </c>
-      <c r="BM9" s="61"/>
-      <c r="BN9" s="61"/>
+      <c r="BM9" s="52"/>
+      <c r="BN9" s="52"/>
       <c r="BO9" s="7"/>
-      <c r="BP9" s="62"/>
-      <c r="BQ9" s="61">
+      <c r="BP9" s="53"/>
+      <c r="BQ9" s="52">
         <v>45103</v>
       </c>
-      <c r="BR9" s="61">
+      <c r="BR9" s="52">
         <v>45103</v>
       </c>
-      <c r="BS9" s="61"/>
-      <c r="BT9" s="61"/>
+      <c r="BS9" s="52"/>
+      <c r="BT9" s="52"/>
       <c r="BU9" s="7"/>
       <c r="BV9" s="10"/>
       <c r="BW9" s="10"/>
-      <c r="BX9" s="56"/>
-      <c r="BY9" s="64"/>
-      <c r="BZ9" s="64"/>
-      <c r="CA9" s="64"/>
-      <c r="CB9" s="64"/>
-      <c r="CC9" s="64"/>
-      <c r="CD9" s="64"/>
-      <c r="CE9" s="64"/>
-      <c r="CF9" s="64"/>
-      <c r="CG9" s="64"/>
-      <c r="CH9" s="64"/>
-      <c r="CI9" s="64"/>
-      <c r="CJ9" s="64"/>
-      <c r="CK9" s="64"/>
-      <c r="CL9" s="57"/>
-      <c r="CM9" s="64"/>
-      <c r="CN9" s="64"/>
-      <c r="CO9" s="64"/>
-      <c r="CP9" s="64"/>
-      <c r="CQ9" s="64"/>
-      <c r="CR9" s="64"/>
-      <c r="CS9" s="64"/>
-      <c r="CT9" s="64"/>
-      <c r="CU9" s="64"/>
-      <c r="CV9" s="64"/>
-      <c r="CW9" s="64"/>
-      <c r="CX9" s="64"/>
-      <c r="CY9" s="64"/>
-      <c r="CZ9" s="64"/>
-      <c r="DA9" s="58"/>
+      <c r="BX9" s="47"/>
+      <c r="BY9" s="74"/>
+      <c r="BZ9" s="74"/>
+      <c r="CA9" s="74"/>
+      <c r="CB9" s="74"/>
+      <c r="CC9" s="74"/>
+      <c r="CD9" s="74"/>
+      <c r="CE9" s="74"/>
+      <c r="CF9" s="74"/>
+      <c r="CG9" s="74"/>
+      <c r="CH9" s="74"/>
+      <c r="CI9" s="74"/>
+      <c r="CJ9" s="74"/>
+      <c r="CK9" s="74"/>
+      <c r="CL9" s="48"/>
+      <c r="CM9" s="74"/>
+      <c r="CN9" s="74"/>
+      <c r="CO9" s="74"/>
+      <c r="CP9" s="74"/>
+      <c r="CQ9" s="74"/>
+      <c r="CR9" s="74"/>
+      <c r="CS9" s="74"/>
+      <c r="CT9" s="74"/>
+      <c r="CU9" s="74"/>
+      <c r="CV9" s="74"/>
+      <c r="CW9" s="74"/>
+      <c r="CX9" s="74"/>
+      <c r="CY9" s="74"/>
+      <c r="CZ9" s="74"/>
+      <c r="DA9" s="49"/>
     </row>
     <row r="10" spans="2:105" ht="20.25" customHeight="1">
       <c r="B10" s="5">
@@ -4166,34 +4166,34 @@
       <c r="AF10" s="33">
         <v>9</v>
       </c>
-      <c r="AH10" s="60" t="s">
+      <c r="AH10" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="AI10" s="61">
+      <c r="AI10" s="52">
         <v>45089</v>
       </c>
-      <c r="AJ10" s="61">
+      <c r="AJ10" s="52">
         <v>45096</v>
       </c>
-      <c r="AK10" s="61">
+      <c r="AK10" s="52">
         <v>45089</v>
       </c>
-      <c r="AL10" s="61"/>
+      <c r="AL10" s="52"/>
       <c r="AM10" s="42">
         <v>0.2</v>
       </c>
-      <c r="AN10" s="62"/>
+      <c r="AN10" s="53"/>
       <c r="AO10" s="41">
         <v>45099</v>
       </c>
       <c r="AP10" s="41">
         <v>45100</v>
       </c>
-      <c r="AQ10" s="61"/>
-      <c r="AR10" s="61"/>
+      <c r="AQ10" s="52"/>
+      <c r="AR10" s="52"/>
       <c r="AS10" s="7"/>
       <c r="AT10" s="11"/>
-      <c r="AU10" s="56"/>
+      <c r="AU10" s="47"/>
       <c r="AV10" s="13"/>
       <c r="AW10" s="41">
         <v>45097</v>
@@ -4201,73 +4201,73 @@
       <c r="AX10" s="41">
         <v>45097</v>
       </c>
-      <c r="AY10" s="61"/>
-      <c r="AZ10" s="61"/>
+      <c r="AY10" s="52"/>
+      <c r="AZ10" s="52"/>
       <c r="BA10" s="7"/>
-      <c r="BB10" s="62"/>
+      <c r="BB10" s="53"/>
       <c r="BC10" s="41">
         <v>45098</v>
       </c>
       <c r="BD10" s="41">
         <v>45098</v>
       </c>
-      <c r="BE10" s="61"/>
-      <c r="BF10" s="61"/>
+      <c r="BE10" s="52"/>
+      <c r="BF10" s="52"/>
       <c r="BG10" s="16"/>
       <c r="BH10" s="10"/>
-      <c r="BI10" s="57"/>
+      <c r="BI10" s="48"/>
       <c r="BJ10" s="15"/>
-      <c r="BK10" s="61">
+      <c r="BK10" s="52">
         <v>45103</v>
       </c>
-      <c r="BL10" s="61">
+      <c r="BL10" s="52">
         <v>45103</v>
       </c>
-      <c r="BM10" s="61"/>
-      <c r="BN10" s="61"/>
+      <c r="BM10" s="52"/>
+      <c r="BN10" s="52"/>
       <c r="BO10" s="7"/>
-      <c r="BP10" s="62"/>
-      <c r="BQ10" s="61">
+      <c r="BP10" s="53"/>
+      <c r="BQ10" s="52">
         <v>45103</v>
       </c>
-      <c r="BR10" s="61">
+      <c r="BR10" s="52">
         <v>45103</v>
       </c>
-      <c r="BS10" s="61"/>
-      <c r="BT10" s="61"/>
+      <c r="BS10" s="52"/>
+      <c r="BT10" s="52"/>
       <c r="BU10" s="7"/>
       <c r="BV10" s="10"/>
       <c r="BW10" s="10"/>
-      <c r="BX10" s="56"/>
-      <c r="BY10" s="64"/>
-      <c r="BZ10" s="64"/>
-      <c r="CA10" s="64"/>
-      <c r="CB10" s="64"/>
-      <c r="CC10" s="64"/>
-      <c r="CD10" s="64"/>
-      <c r="CE10" s="64"/>
-      <c r="CF10" s="64"/>
-      <c r="CG10" s="64"/>
-      <c r="CH10" s="64"/>
-      <c r="CI10" s="64"/>
-      <c r="CJ10" s="64"/>
-      <c r="CK10" s="64"/>
-      <c r="CL10" s="57"/>
-      <c r="CM10" s="64"/>
-      <c r="CN10" s="64"/>
-      <c r="CO10" s="64"/>
-      <c r="CP10" s="64"/>
-      <c r="CQ10" s="64"/>
-      <c r="CR10" s="64"/>
-      <c r="CS10" s="64"/>
-      <c r="CT10" s="64"/>
-      <c r="CU10" s="64"/>
-      <c r="CV10" s="64"/>
-      <c r="CW10" s="64"/>
-      <c r="CX10" s="64"/>
-      <c r="CY10" s="64"/>
-      <c r="CZ10" s="64"/>
-      <c r="DA10" s="58"/>
+      <c r="BX10" s="47"/>
+      <c r="BY10" s="74"/>
+      <c r="BZ10" s="74"/>
+      <c r="CA10" s="74"/>
+      <c r="CB10" s="74"/>
+      <c r="CC10" s="74"/>
+      <c r="CD10" s="74"/>
+      <c r="CE10" s="74"/>
+      <c r="CF10" s="74"/>
+      <c r="CG10" s="74"/>
+      <c r="CH10" s="74"/>
+      <c r="CI10" s="74"/>
+      <c r="CJ10" s="74"/>
+      <c r="CK10" s="74"/>
+      <c r="CL10" s="48"/>
+      <c r="CM10" s="74"/>
+      <c r="CN10" s="74"/>
+      <c r="CO10" s="74"/>
+      <c r="CP10" s="74"/>
+      <c r="CQ10" s="74"/>
+      <c r="CR10" s="74"/>
+      <c r="CS10" s="74"/>
+      <c r="CT10" s="74"/>
+      <c r="CU10" s="74"/>
+      <c r="CV10" s="74"/>
+      <c r="CW10" s="74"/>
+      <c r="CX10" s="74"/>
+      <c r="CY10" s="74"/>
+      <c r="CZ10" s="74"/>
+      <c r="DA10" s="49"/>
     </row>
     <row r="11" spans="2:105" ht="20.25" customHeight="1">
       <c r="B11" s="5">
@@ -4357,34 +4357,34 @@
         <v>1</v>
       </c>
       <c r="AF11" s="33"/>
-      <c r="AH11" s="60" t="s">
+      <c r="AH11" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="AI11" s="61">
+      <c r="AI11" s="52">
         <v>45089</v>
       </c>
-      <c r="AJ11" s="61">
+      <c r="AJ11" s="52">
         <v>45096</v>
       </c>
-      <c r="AK11" s="61">
+      <c r="AK11" s="52">
         <v>45089</v>
       </c>
-      <c r="AL11" s="61"/>
+      <c r="AL11" s="52"/>
       <c r="AM11" s="42">
         <v>0.2</v>
       </c>
-      <c r="AN11" s="62"/>
+      <c r="AN11" s="53"/>
       <c r="AO11" s="41">
         <v>45099</v>
       </c>
       <c r="AP11" s="41">
         <v>45100</v>
       </c>
-      <c r="AQ11" s="61"/>
-      <c r="AR11" s="61"/>
+      <c r="AQ11" s="52"/>
+      <c r="AR11" s="52"/>
       <c r="AS11" s="7"/>
       <c r="AT11" s="11"/>
-      <c r="AU11" s="56"/>
+      <c r="AU11" s="47"/>
       <c r="AV11" s="13"/>
       <c r="AW11" s="41">
         <v>45097</v>
@@ -4392,73 +4392,73 @@
       <c r="AX11" s="41">
         <v>45097</v>
       </c>
-      <c r="AY11" s="61"/>
-      <c r="AZ11" s="61"/>
+      <c r="AY11" s="52"/>
+      <c r="AZ11" s="52"/>
       <c r="BA11" s="7"/>
-      <c r="BB11" s="62"/>
+      <c r="BB11" s="53"/>
       <c r="BC11" s="41">
         <v>45098</v>
       </c>
       <c r="BD11" s="41">
         <v>45098</v>
       </c>
-      <c r="BE11" s="61"/>
-      <c r="BF11" s="61"/>
+      <c r="BE11" s="52"/>
+      <c r="BF11" s="52"/>
       <c r="BG11" s="16"/>
       <c r="BH11" s="10"/>
-      <c r="BI11" s="57"/>
+      <c r="BI11" s="48"/>
       <c r="BJ11" s="15"/>
-      <c r="BK11" s="61">
+      <c r="BK11" s="52">
         <v>45103</v>
       </c>
-      <c r="BL11" s="61">
+      <c r="BL11" s="52">
         <v>45103</v>
       </c>
-      <c r="BM11" s="61"/>
-      <c r="BN11" s="61"/>
+      <c r="BM11" s="52"/>
+      <c r="BN11" s="52"/>
       <c r="BO11" s="7"/>
-      <c r="BP11" s="62"/>
-      <c r="BQ11" s="61">
+      <c r="BP11" s="53"/>
+      <c r="BQ11" s="52">
         <v>45103</v>
       </c>
-      <c r="BR11" s="61">
+      <c r="BR11" s="52">
         <v>45103</v>
       </c>
-      <c r="BS11" s="61"/>
-      <c r="BT11" s="61"/>
+      <c r="BS11" s="52"/>
+      <c r="BT11" s="52"/>
       <c r="BU11" s="7"/>
       <c r="BV11" s="10"/>
       <c r="BW11" s="10"/>
-      <c r="BX11" s="56"/>
-      <c r="BY11" s="64"/>
-      <c r="BZ11" s="64"/>
-      <c r="CA11" s="64"/>
-      <c r="CB11" s="64"/>
-      <c r="CC11" s="64"/>
-      <c r="CD11" s="64"/>
-      <c r="CE11" s="64"/>
-      <c r="CF11" s="64"/>
-      <c r="CG11" s="64"/>
-      <c r="CH11" s="64"/>
-      <c r="CI11" s="64"/>
-      <c r="CJ11" s="64"/>
-      <c r="CK11" s="64"/>
-      <c r="CL11" s="57"/>
-      <c r="CM11" s="64"/>
-      <c r="CN11" s="64"/>
-      <c r="CO11" s="64"/>
-      <c r="CP11" s="64"/>
-      <c r="CQ11" s="64"/>
-      <c r="CR11" s="64"/>
-      <c r="CS11" s="64"/>
-      <c r="CT11" s="64"/>
-      <c r="CU11" s="64"/>
-      <c r="CV11" s="64"/>
-      <c r="CW11" s="64"/>
-      <c r="CX11" s="64"/>
-      <c r="CY11" s="64"/>
-      <c r="CZ11" s="64"/>
-      <c r="DA11" s="58"/>
+      <c r="BX11" s="47"/>
+      <c r="BY11" s="74"/>
+      <c r="BZ11" s="74"/>
+      <c r="CA11" s="74"/>
+      <c r="CB11" s="74"/>
+      <c r="CC11" s="74"/>
+      <c r="CD11" s="74"/>
+      <c r="CE11" s="74"/>
+      <c r="CF11" s="74"/>
+      <c r="CG11" s="74"/>
+      <c r="CH11" s="74"/>
+      <c r="CI11" s="74"/>
+      <c r="CJ11" s="74"/>
+      <c r="CK11" s="74"/>
+      <c r="CL11" s="48"/>
+      <c r="CM11" s="74"/>
+      <c r="CN11" s="74"/>
+      <c r="CO11" s="74"/>
+      <c r="CP11" s="74"/>
+      <c r="CQ11" s="74"/>
+      <c r="CR11" s="74"/>
+      <c r="CS11" s="74"/>
+      <c r="CT11" s="74"/>
+      <c r="CU11" s="74"/>
+      <c r="CV11" s="74"/>
+      <c r="CW11" s="74"/>
+      <c r="CX11" s="74"/>
+      <c r="CY11" s="74"/>
+      <c r="CZ11" s="74"/>
+      <c r="DA11" s="49"/>
     </row>
     <row r="12" spans="2:105" ht="20.25" customHeight="1">
       <c r="B12" s="5">
@@ -4548,34 +4548,34 @@
         <v>1</v>
       </c>
       <c r="AF12" s="33"/>
-      <c r="AH12" s="60" t="s">
+      <c r="AH12" s="51" t="s">
         <v>74</v>
       </c>
-      <c r="AI12" s="61">
+      <c r="AI12" s="52">
         <v>45089</v>
       </c>
-      <c r="AJ12" s="61">
+      <c r="AJ12" s="52">
         <v>45096</v>
       </c>
-      <c r="AK12" s="61">
+      <c r="AK12" s="52">
         <v>45089</v>
       </c>
-      <c r="AL12" s="61"/>
+      <c r="AL12" s="52"/>
       <c r="AM12" s="42">
         <v>0.8</v>
       </c>
-      <c r="AN12" s="62"/>
+      <c r="AN12" s="53"/>
       <c r="AO12" s="41">
         <v>45099</v>
       </c>
       <c r="AP12" s="41">
         <v>45100</v>
       </c>
-      <c r="AQ12" s="61"/>
-      <c r="AR12" s="61"/>
+      <c r="AQ12" s="52"/>
+      <c r="AR12" s="52"/>
       <c r="AS12" s="7"/>
       <c r="AT12" s="11"/>
-      <c r="AU12" s="56"/>
+      <c r="AU12" s="47"/>
       <c r="AV12" s="13"/>
       <c r="AW12" s="41">
         <v>45097</v>
@@ -4583,73 +4583,73 @@
       <c r="AX12" s="41">
         <v>45097</v>
       </c>
-      <c r="AY12" s="61"/>
-      <c r="AZ12" s="61"/>
+      <c r="AY12" s="52"/>
+      <c r="AZ12" s="52"/>
       <c r="BA12" s="7"/>
-      <c r="BB12" s="62"/>
+      <c r="BB12" s="53"/>
       <c r="BC12" s="41">
         <v>45098</v>
       </c>
       <c r="BD12" s="41">
         <v>45098</v>
       </c>
-      <c r="BE12" s="61"/>
-      <c r="BF12" s="61"/>
+      <c r="BE12" s="52"/>
+      <c r="BF12" s="52"/>
       <c r="BG12" s="16"/>
       <c r="BH12" s="10"/>
-      <c r="BI12" s="57"/>
+      <c r="BI12" s="48"/>
       <c r="BJ12" s="15"/>
-      <c r="BK12" s="61">
+      <c r="BK12" s="52">
         <v>45103</v>
       </c>
-      <c r="BL12" s="61">
+      <c r="BL12" s="52">
         <v>45103</v>
       </c>
-      <c r="BM12" s="61"/>
-      <c r="BN12" s="61"/>
+      <c r="BM12" s="52"/>
+      <c r="BN12" s="52"/>
       <c r="BO12" s="7"/>
-      <c r="BP12" s="62"/>
-      <c r="BQ12" s="61">
+      <c r="BP12" s="53"/>
+      <c r="BQ12" s="52">
         <v>45103</v>
       </c>
-      <c r="BR12" s="61">
+      <c r="BR12" s="52">
         <v>45103</v>
       </c>
-      <c r="BS12" s="61"/>
-      <c r="BT12" s="61"/>
+      <c r="BS12" s="52"/>
+      <c r="BT12" s="52"/>
       <c r="BU12" s="7"/>
       <c r="BV12" s="10"/>
       <c r="BW12" s="10"/>
-      <c r="BX12" s="56"/>
-      <c r="BY12" s="64"/>
-      <c r="BZ12" s="64"/>
-      <c r="CA12" s="64"/>
-      <c r="CB12" s="64"/>
-      <c r="CC12" s="64"/>
-      <c r="CD12" s="64"/>
-      <c r="CE12" s="64"/>
-      <c r="CF12" s="64"/>
-      <c r="CG12" s="64"/>
-      <c r="CH12" s="64"/>
-      <c r="CI12" s="64"/>
-      <c r="CJ12" s="64"/>
-      <c r="CK12" s="64"/>
-      <c r="CL12" s="57"/>
-      <c r="CM12" s="64"/>
-      <c r="CN12" s="64"/>
-      <c r="CO12" s="64"/>
-      <c r="CP12" s="64"/>
-      <c r="CQ12" s="64"/>
-      <c r="CR12" s="64"/>
-      <c r="CS12" s="64"/>
-      <c r="CT12" s="64"/>
-      <c r="CU12" s="64"/>
-      <c r="CV12" s="64"/>
-      <c r="CW12" s="64"/>
-      <c r="CX12" s="64"/>
-      <c r="CY12" s="64"/>
-      <c r="CZ12" s="64"/>
-      <c r="DA12" s="58"/>
+      <c r="BX12" s="47"/>
+      <c r="BY12" s="74"/>
+      <c r="BZ12" s="74"/>
+      <c r="CA12" s="74"/>
+      <c r="CB12" s="74"/>
+      <c r="CC12" s="74"/>
+      <c r="CD12" s="74"/>
+      <c r="CE12" s="74"/>
+      <c r="CF12" s="74"/>
+      <c r="CG12" s="74"/>
+      <c r="CH12" s="74"/>
+      <c r="CI12" s="74"/>
+      <c r="CJ12" s="74"/>
+      <c r="CK12" s="74"/>
+      <c r="CL12" s="48"/>
+      <c r="CM12" s="74"/>
+      <c r="CN12" s="74"/>
+      <c r="CO12" s="74"/>
+      <c r="CP12" s="74"/>
+      <c r="CQ12" s="74"/>
+      <c r="CR12" s="74"/>
+      <c r="CS12" s="74"/>
+      <c r="CT12" s="74"/>
+      <c r="CU12" s="74"/>
+      <c r="CV12" s="74"/>
+      <c r="CW12" s="74"/>
+      <c r="CX12" s="74"/>
+      <c r="CY12" s="74"/>
+      <c r="CZ12" s="74"/>
+      <c r="DA12" s="49"/>
     </row>
     <row r="13" spans="2:105" ht="20.25" customHeight="1">
       <c r="B13" s="5">
@@ -4741,34 +4741,34 @@
       <c r="AF13" s="33">
         <v>7</v>
       </c>
-      <c r="AH13" s="60" t="s">
+      <c r="AH13" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="AI13" s="61">
+      <c r="AI13" s="52">
         <v>45089</v>
       </c>
-      <c r="AJ13" s="61">
+      <c r="AJ13" s="52">
         <v>45096</v>
       </c>
-      <c r="AK13" s="61">
+      <c r="AK13" s="52">
         <v>45089</v>
       </c>
-      <c r="AL13" s="61"/>
+      <c r="AL13" s="52"/>
       <c r="AM13" s="42">
         <v>0.8</v>
       </c>
-      <c r="AN13" s="62"/>
+      <c r="AN13" s="53"/>
       <c r="AO13" s="41">
         <v>45099</v>
       </c>
       <c r="AP13" s="41">
         <v>45100</v>
       </c>
-      <c r="AQ13" s="61"/>
-      <c r="AR13" s="61"/>
+      <c r="AQ13" s="52"/>
+      <c r="AR13" s="52"/>
       <c r="AS13" s="7"/>
       <c r="AT13" s="11"/>
-      <c r="AU13" s="56"/>
+      <c r="AU13" s="47"/>
       <c r="AV13" s="13"/>
       <c r="AW13" s="41">
         <v>45097</v>
@@ -4776,73 +4776,73 @@
       <c r="AX13" s="41">
         <v>45097</v>
       </c>
-      <c r="AY13" s="61"/>
-      <c r="AZ13" s="61"/>
+      <c r="AY13" s="52"/>
+      <c r="AZ13" s="52"/>
       <c r="BA13" s="7"/>
-      <c r="BB13" s="62"/>
+      <c r="BB13" s="53"/>
       <c r="BC13" s="41">
         <v>45098</v>
       </c>
       <c r="BD13" s="41">
         <v>45098</v>
       </c>
-      <c r="BE13" s="61"/>
-      <c r="BF13" s="61"/>
+      <c r="BE13" s="52"/>
+      <c r="BF13" s="52"/>
       <c r="BG13" s="16"/>
       <c r="BH13" s="10"/>
-      <c r="BI13" s="57"/>
+      <c r="BI13" s="48"/>
       <c r="BJ13" s="15"/>
-      <c r="BK13" s="61">
+      <c r="BK13" s="52">
         <v>45103</v>
       </c>
-      <c r="BL13" s="61">
+      <c r="BL13" s="52">
         <v>45103</v>
       </c>
-      <c r="BM13" s="61"/>
-      <c r="BN13" s="61"/>
+      <c r="BM13" s="52"/>
+      <c r="BN13" s="52"/>
       <c r="BO13" s="7"/>
-      <c r="BP13" s="62"/>
-      <c r="BQ13" s="61">
+      <c r="BP13" s="53"/>
+      <c r="BQ13" s="52">
         <v>45103</v>
       </c>
-      <c r="BR13" s="61">
+      <c r="BR13" s="52">
         <v>45103</v>
       </c>
-      <c r="BS13" s="61"/>
-      <c r="BT13" s="61"/>
+      <c r="BS13" s="52"/>
+      <c r="BT13" s="52"/>
       <c r="BU13" s="7"/>
       <c r="BV13" s="10"/>
       <c r="BW13" s="10"/>
-      <c r="BX13" s="56"/>
-      <c r="BY13" s="64"/>
-      <c r="BZ13" s="64"/>
-      <c r="CA13" s="64"/>
-      <c r="CB13" s="64"/>
-      <c r="CC13" s="64"/>
-      <c r="CD13" s="64"/>
-      <c r="CE13" s="64"/>
-      <c r="CF13" s="64"/>
-      <c r="CG13" s="64"/>
-      <c r="CH13" s="64"/>
-      <c r="CI13" s="64"/>
-      <c r="CJ13" s="64"/>
-      <c r="CK13" s="64"/>
-      <c r="CL13" s="57"/>
-      <c r="CM13" s="64"/>
-      <c r="CN13" s="64"/>
-      <c r="CO13" s="64"/>
-      <c r="CP13" s="64"/>
-      <c r="CQ13" s="64"/>
-      <c r="CR13" s="64"/>
-      <c r="CS13" s="64"/>
-      <c r="CT13" s="64"/>
-      <c r="CU13" s="64"/>
-      <c r="CV13" s="64"/>
-      <c r="CW13" s="64"/>
-      <c r="CX13" s="64"/>
-      <c r="CY13" s="64"/>
-      <c r="CZ13" s="64"/>
-      <c r="DA13" s="58"/>
+      <c r="BX13" s="47"/>
+      <c r="BY13" s="74"/>
+      <c r="BZ13" s="74"/>
+      <c r="CA13" s="74"/>
+      <c r="CB13" s="74"/>
+      <c r="CC13" s="74"/>
+      <c r="CD13" s="74"/>
+      <c r="CE13" s="74"/>
+      <c r="CF13" s="74"/>
+      <c r="CG13" s="74"/>
+      <c r="CH13" s="74"/>
+      <c r="CI13" s="74"/>
+      <c r="CJ13" s="74"/>
+      <c r="CK13" s="74"/>
+      <c r="CL13" s="48"/>
+      <c r="CM13" s="74"/>
+      <c r="CN13" s="74"/>
+      <c r="CO13" s="74"/>
+      <c r="CP13" s="74"/>
+      <c r="CQ13" s="74"/>
+      <c r="CR13" s="74"/>
+      <c r="CS13" s="74"/>
+      <c r="CT13" s="74"/>
+      <c r="CU13" s="74"/>
+      <c r="CV13" s="74"/>
+      <c r="CW13" s="74"/>
+      <c r="CX13" s="74"/>
+      <c r="CY13" s="74"/>
+      <c r="CZ13" s="74"/>
+      <c r="DA13" s="49"/>
     </row>
     <row r="14" spans="2:105" ht="20.25" customHeight="1">
       <c r="B14" s="5">
@@ -4934,34 +4934,36 @@
       <c r="AF14" s="33">
         <v>9</v>
       </c>
-      <c r="AH14" s="60" t="s">
+      <c r="AH14" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="AI14" s="61">
+      <c r="AI14" s="52">
         <v>45089</v>
       </c>
-      <c r="AJ14" s="61">
+      <c r="AJ14" s="52">
         <v>45096</v>
       </c>
-      <c r="AK14" s="61">
+      <c r="AK14" s="52">
         <v>45089</v>
       </c>
-      <c r="AL14" s="61"/>
+      <c r="AL14" s="52"/>
       <c r="AM14" s="42">
         <v>0.1</v>
       </c>
-      <c r="AN14" s="62"/>
+      <c r="AN14" s="53"/>
       <c r="AO14" s="41">
         <v>45099</v>
       </c>
       <c r="AP14" s="41">
         <v>45100</v>
       </c>
-      <c r="AQ14" s="61"/>
-      <c r="AR14" s="61"/>
+      <c r="AQ14" s="52">
+        <v>45099</v>
+      </c>
+      <c r="AR14" s="52"/>
       <c r="AS14" s="7"/>
       <c r="AT14" s="11"/>
-      <c r="AU14" s="56"/>
+      <c r="AU14" s="47"/>
       <c r="AV14" s="13"/>
       <c r="AW14" s="41">
         <v>45097</v>
@@ -4969,73 +4971,73 @@
       <c r="AX14" s="41">
         <v>45097</v>
       </c>
-      <c r="AY14" s="61"/>
-      <c r="AZ14" s="61"/>
+      <c r="AY14" s="52"/>
+      <c r="AZ14" s="52"/>
       <c r="BA14" s="7"/>
-      <c r="BB14" s="62"/>
+      <c r="BB14" s="53"/>
       <c r="BC14" s="41">
         <v>45098</v>
       </c>
       <c r="BD14" s="41">
         <v>45098</v>
       </c>
-      <c r="BE14" s="61"/>
-      <c r="BF14" s="61"/>
+      <c r="BE14" s="52"/>
+      <c r="BF14" s="52"/>
       <c r="BG14" s="16"/>
       <c r="BH14" s="10"/>
-      <c r="BI14" s="57"/>
+      <c r="BI14" s="48"/>
       <c r="BJ14" s="15"/>
-      <c r="BK14" s="61">
+      <c r="BK14" s="52">
         <v>45103</v>
       </c>
-      <c r="BL14" s="61">
+      <c r="BL14" s="52">
         <v>45103</v>
       </c>
-      <c r="BM14" s="61"/>
-      <c r="BN14" s="61"/>
+      <c r="BM14" s="52"/>
+      <c r="BN14" s="52"/>
       <c r="BO14" s="7"/>
-      <c r="BP14" s="62"/>
-      <c r="BQ14" s="61">
+      <c r="BP14" s="53"/>
+      <c r="BQ14" s="52">
         <v>45103</v>
       </c>
-      <c r="BR14" s="61">
+      <c r="BR14" s="52">
         <v>45103</v>
       </c>
-      <c r="BS14" s="61"/>
-      <c r="BT14" s="61"/>
+      <c r="BS14" s="52"/>
+      <c r="BT14" s="52"/>
       <c r="BU14" s="7"/>
       <c r="BV14" s="10"/>
       <c r="BW14" s="10"/>
-      <c r="BX14" s="56"/>
-      <c r="BY14" s="65"/>
-      <c r="BZ14" s="66"/>
-      <c r="CA14" s="66"/>
-      <c r="CB14" s="65"/>
-      <c r="CC14" s="65"/>
-      <c r="CD14" s="65"/>
-      <c r="CE14" s="65"/>
-      <c r="CF14" s="66"/>
-      <c r="CG14" s="66"/>
-      <c r="CH14" s="65"/>
-      <c r="CI14" s="65"/>
-      <c r="CJ14" s="65"/>
-      <c r="CK14" s="65"/>
-      <c r="CL14" s="57"/>
-      <c r="CM14" s="65"/>
-      <c r="CN14" s="66"/>
-      <c r="CO14" s="66"/>
-      <c r="CP14" s="65"/>
-      <c r="CQ14" s="65"/>
-      <c r="CR14" s="65"/>
-      <c r="CS14" s="65"/>
-      <c r="CT14" s="66"/>
-      <c r="CU14" s="66"/>
-      <c r="CV14" s="65"/>
-      <c r="CW14" s="65"/>
-      <c r="CX14" s="65"/>
-      <c r="CY14" s="65"/>
-      <c r="CZ14" s="65"/>
-      <c r="DA14" s="58"/>
+      <c r="BX14" s="47"/>
+      <c r="BY14" s="54"/>
+      <c r="BZ14" s="75"/>
+      <c r="CA14" s="75"/>
+      <c r="CB14" s="54"/>
+      <c r="CC14" s="54"/>
+      <c r="CD14" s="54"/>
+      <c r="CE14" s="54"/>
+      <c r="CF14" s="75"/>
+      <c r="CG14" s="75"/>
+      <c r="CH14" s="54"/>
+      <c r="CI14" s="54"/>
+      <c r="CJ14" s="54"/>
+      <c r="CK14" s="54"/>
+      <c r="CL14" s="48"/>
+      <c r="CM14" s="54"/>
+      <c r="CN14" s="75"/>
+      <c r="CO14" s="75"/>
+      <c r="CP14" s="54"/>
+      <c r="CQ14" s="54"/>
+      <c r="CR14" s="54"/>
+      <c r="CS14" s="54"/>
+      <c r="CT14" s="75"/>
+      <c r="CU14" s="75"/>
+      <c r="CV14" s="54"/>
+      <c r="CW14" s="54"/>
+      <c r="CX14" s="54"/>
+      <c r="CY14" s="54"/>
+      <c r="CZ14" s="54"/>
+      <c r="DA14" s="49"/>
     </row>
     <row r="15" spans="2:105" ht="20.25" customHeight="1">
       <c r="B15" s="5">
@@ -5125,34 +5127,38 @@
         <v>1</v>
       </c>
       <c r="AF15" s="9"/>
-      <c r="AH15" s="67" t="s">
+      <c r="AH15" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="AI15" s="61">
+      <c r="AI15" s="52">
         <v>45089</v>
       </c>
-      <c r="AJ15" s="61">
+      <c r="AJ15" s="52">
         <v>45096</v>
       </c>
-      <c r="AK15" s="61">
+      <c r="AK15" s="52">
         <v>45089</v>
       </c>
-      <c r="AL15" s="61"/>
+      <c r="AL15" s="52"/>
       <c r="AM15" s="7">
         <v>1</v>
       </c>
-      <c r="AN15" s="62"/>
+      <c r="AN15" s="53"/>
       <c r="AO15" s="41">
         <v>45099</v>
       </c>
       <c r="AP15" s="41">
         <v>45100</v>
       </c>
-      <c r="AQ15" s="61"/>
-      <c r="AR15" s="61"/>
-      <c r="AS15" s="7"/>
+      <c r="AQ15" s="52">
+        <v>45099</v>
+      </c>
+      <c r="AR15" s="52"/>
+      <c r="AS15" s="7">
+        <v>0.5</v>
+      </c>
       <c r="AT15" s="11"/>
-      <c r="AU15" s="56"/>
+      <c r="AU15" s="47"/>
       <c r="AV15" s="13"/>
       <c r="AW15" s="41">
         <v>45097</v>
@@ -5160,89 +5166,89 @@
       <c r="AX15" s="41">
         <v>45097</v>
       </c>
-      <c r="AY15" s="61"/>
-      <c r="AZ15" s="61"/>
+      <c r="AY15" s="52"/>
+      <c r="AZ15" s="52"/>
       <c r="BA15" s="7"/>
-      <c r="BB15" s="62"/>
+      <c r="BB15" s="53"/>
       <c r="BC15" s="41">
         <v>45098</v>
       </c>
       <c r="BD15" s="41">
         <v>45098</v>
       </c>
-      <c r="BE15" s="61"/>
-      <c r="BF15" s="61"/>
+      <c r="BE15" s="52"/>
+      <c r="BF15" s="52"/>
       <c r="BG15" s="16"/>
       <c r="BH15" s="10"/>
-      <c r="BI15" s="57"/>
+      <c r="BI15" s="48"/>
       <c r="BJ15" s="15"/>
-      <c r="BK15" s="61">
+      <c r="BK15" s="52">
         <v>45103</v>
       </c>
-      <c r="BL15" s="61">
+      <c r="BL15" s="52">
         <v>45103</v>
       </c>
-      <c r="BM15" s="61"/>
-      <c r="BN15" s="61"/>
+      <c r="BM15" s="52"/>
+      <c r="BN15" s="52"/>
       <c r="BO15" s="7"/>
-      <c r="BP15" s="62"/>
-      <c r="BQ15" s="61">
+      <c r="BP15" s="53"/>
+      <c r="BQ15" s="52">
         <v>45103</v>
       </c>
-      <c r="BR15" s="61">
+      <c r="BR15" s="52">
         <v>45103</v>
       </c>
-      <c r="BS15" s="61"/>
-      <c r="BT15" s="61"/>
+      <c r="BS15" s="52"/>
+      <c r="BT15" s="52"/>
       <c r="BU15" s="7"/>
       <c r="BV15" s="10"/>
       <c r="BW15" s="10"/>
-      <c r="BX15" s="56"/>
-      <c r="BY15" s="63"/>
-      <c r="BZ15" s="63">
+      <c r="BX15" s="47"/>
+      <c r="BY15" s="73"/>
+      <c r="BZ15" s="73">
         <v>45104</v>
       </c>
-      <c r="CA15" s="63">
+      <c r="CA15" s="73">
         <v>45104</v>
       </c>
-      <c r="CB15" s="63"/>
-      <c r="CC15" s="63"/>
-      <c r="CD15" s="63"/>
-      <c r="CE15" s="63"/>
-      <c r="CF15" s="63">
+      <c r="CB15" s="73"/>
+      <c r="CC15" s="73"/>
+      <c r="CD15" s="73"/>
+      <c r="CE15" s="73"/>
+      <c r="CF15" s="73">
         <v>45104</v>
       </c>
-      <c r="CG15" s="63">
+      <c r="CG15" s="73">
         <v>45104</v>
       </c>
-      <c r="CH15" s="63"/>
-      <c r="CI15" s="63"/>
-      <c r="CJ15" s="63"/>
-      <c r="CK15" s="63"/>
-      <c r="CL15" s="57"/>
-      <c r="CM15" s="63"/>
-      <c r="CN15" s="63">
+      <c r="CH15" s="73"/>
+      <c r="CI15" s="73"/>
+      <c r="CJ15" s="73"/>
+      <c r="CK15" s="73"/>
+      <c r="CL15" s="48"/>
+      <c r="CM15" s="73"/>
+      <c r="CN15" s="73">
         <v>45105</v>
       </c>
-      <c r="CO15" s="63">
+      <c r="CO15" s="73">
         <v>45105</v>
       </c>
-      <c r="CP15" s="63"/>
-      <c r="CQ15" s="63"/>
-      <c r="CR15" s="63"/>
-      <c r="CS15" s="63"/>
-      <c r="CT15" s="63">
+      <c r="CP15" s="73"/>
+      <c r="CQ15" s="73"/>
+      <c r="CR15" s="73"/>
+      <c r="CS15" s="73"/>
+      <c r="CT15" s="73">
         <v>45105</v>
       </c>
-      <c r="CU15" s="63">
+      <c r="CU15" s="73">
         <v>45105</v>
       </c>
-      <c r="CV15" s="63"/>
-      <c r="CW15" s="63"/>
-      <c r="CX15" s="63"/>
-      <c r="CY15" s="63"/>
-      <c r="CZ15" s="63"/>
-      <c r="DA15" s="58"/>
+      <c r="CV15" s="73"/>
+      <c r="CW15" s="73"/>
+      <c r="CX15" s="73"/>
+      <c r="CY15" s="73"/>
+      <c r="CZ15" s="73"/>
+      <c r="DA15" s="49"/>
     </row>
     <row r="16" spans="2:105" ht="20.25" customHeight="1">
       <c r="B16" s="5">
@@ -5332,34 +5338,38 @@
         <v>1</v>
       </c>
       <c r="AF16" s="9"/>
-      <c r="AH16" s="67" t="s">
+      <c r="AH16" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="AI16" s="61">
+      <c r="AI16" s="52">
         <v>45089</v>
       </c>
-      <c r="AJ16" s="61">
+      <c r="AJ16" s="52">
         <v>45096</v>
       </c>
-      <c r="AK16" s="61">
+      <c r="AK16" s="52">
         <v>45089</v>
       </c>
-      <c r="AL16" s="61"/>
+      <c r="AL16" s="52"/>
       <c r="AM16" s="7">
         <v>0.7</v>
       </c>
-      <c r="AN16" s="62"/>
+      <c r="AN16" s="53"/>
       <c r="AO16" s="41">
         <v>45099</v>
       </c>
       <c r="AP16" s="41">
         <v>45100</v>
       </c>
-      <c r="AQ16" s="61"/>
-      <c r="AR16" s="61"/>
-      <c r="AS16" s="7"/>
+      <c r="AQ16" s="52">
+        <v>45099</v>
+      </c>
+      <c r="AR16" s="52"/>
+      <c r="AS16" s="7">
+        <v>0.7</v>
+      </c>
       <c r="AT16" s="11"/>
-      <c r="AU16" s="56"/>
+      <c r="AU16" s="47"/>
       <c r="AV16" s="13"/>
       <c r="AW16" s="41">
         <v>45097</v>
@@ -5367,73 +5377,73 @@
       <c r="AX16" s="41">
         <v>45097</v>
       </c>
-      <c r="AY16" s="61"/>
-      <c r="AZ16" s="61"/>
+      <c r="AY16" s="52"/>
+      <c r="AZ16" s="52"/>
       <c r="BA16" s="7"/>
-      <c r="BB16" s="62"/>
+      <c r="BB16" s="53"/>
       <c r="BC16" s="41">
         <v>45098</v>
       </c>
       <c r="BD16" s="41">
         <v>45098</v>
       </c>
-      <c r="BE16" s="61"/>
-      <c r="BF16" s="61"/>
+      <c r="BE16" s="52"/>
+      <c r="BF16" s="52"/>
       <c r="BG16" s="16"/>
       <c r="BH16" s="10"/>
-      <c r="BI16" s="57"/>
+      <c r="BI16" s="48"/>
       <c r="BJ16" s="15"/>
-      <c r="BK16" s="61">
+      <c r="BK16" s="52">
         <v>45103</v>
       </c>
-      <c r="BL16" s="61">
+      <c r="BL16" s="52">
         <v>45103</v>
       </c>
-      <c r="BM16" s="61"/>
-      <c r="BN16" s="61"/>
+      <c r="BM16" s="52"/>
+      <c r="BN16" s="52"/>
       <c r="BO16" s="7"/>
-      <c r="BP16" s="62"/>
-      <c r="BQ16" s="61">
+      <c r="BP16" s="53"/>
+      <c r="BQ16" s="52">
         <v>45103</v>
       </c>
-      <c r="BR16" s="61">
+      <c r="BR16" s="52">
         <v>45103</v>
       </c>
-      <c r="BS16" s="61"/>
-      <c r="BT16" s="61"/>
+      <c r="BS16" s="52"/>
+      <c r="BT16" s="52"/>
       <c r="BU16" s="7"/>
       <c r="BV16" s="10"/>
       <c r="BW16" s="10"/>
-      <c r="BX16" s="58"/>
-      <c r="BY16" s="64"/>
-      <c r="BZ16" s="64"/>
-      <c r="CA16" s="64"/>
-      <c r="CB16" s="64"/>
-      <c r="CC16" s="64"/>
-      <c r="CD16" s="64"/>
-      <c r="CE16" s="64"/>
-      <c r="CF16" s="64"/>
-      <c r="CG16" s="64"/>
-      <c r="CH16" s="64"/>
-      <c r="CI16" s="64"/>
-      <c r="CJ16" s="64"/>
-      <c r="CK16" s="64"/>
+      <c r="BX16" s="49"/>
+      <c r="BY16" s="74"/>
+      <c r="BZ16" s="74"/>
+      <c r="CA16" s="74"/>
+      <c r="CB16" s="74"/>
+      <c r="CC16" s="74"/>
+      <c r="CD16" s="74"/>
+      <c r="CE16" s="74"/>
+      <c r="CF16" s="74"/>
+      <c r="CG16" s="74"/>
+      <c r="CH16" s="74"/>
+      <c r="CI16" s="74"/>
+      <c r="CJ16" s="74"/>
+      <c r="CK16" s="74"/>
       <c r="CL16" s="23"/>
-      <c r="CM16" s="64"/>
-      <c r="CN16" s="64"/>
-      <c r="CO16" s="64"/>
-      <c r="CP16" s="64"/>
-      <c r="CQ16" s="64"/>
-      <c r="CR16" s="64"/>
-      <c r="CS16" s="64"/>
-      <c r="CT16" s="64"/>
-      <c r="CU16" s="64"/>
-      <c r="CV16" s="64"/>
-      <c r="CW16" s="64"/>
-      <c r="CX16" s="64"/>
-      <c r="CY16" s="64"/>
-      <c r="CZ16" s="64"/>
-      <c r="DA16" s="58"/>
+      <c r="CM16" s="74"/>
+      <c r="CN16" s="74"/>
+      <c r="CO16" s="74"/>
+      <c r="CP16" s="74"/>
+      <c r="CQ16" s="74"/>
+      <c r="CR16" s="74"/>
+      <c r="CS16" s="74"/>
+      <c r="CT16" s="74"/>
+      <c r="CU16" s="74"/>
+      <c r="CV16" s="74"/>
+      <c r="CW16" s="74"/>
+      <c r="CX16" s="74"/>
+      <c r="CY16" s="74"/>
+      <c r="CZ16" s="74"/>
+      <c r="DA16" s="49"/>
     </row>
     <row r="17" spans="2:105" ht="20.25" customHeight="1">
       <c r="B17" s="5">
@@ -5523,34 +5533,38 @@
         <v>1</v>
       </c>
       <c r="AF17" s="9"/>
-      <c r="AH17" s="60" t="s">
+      <c r="AH17" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="AI17" s="61">
+      <c r="AI17" s="52">
         <v>45089</v>
       </c>
-      <c r="AJ17" s="61">
+      <c r="AJ17" s="52">
         <v>45096</v>
       </c>
-      <c r="AK17" s="61">
+      <c r="AK17" s="52">
         <v>45089</v>
       </c>
-      <c r="AL17" s="61"/>
+      <c r="AL17" s="52"/>
       <c r="AM17" s="7">
         <v>1</v>
       </c>
-      <c r="AN17" s="62"/>
+      <c r="AN17" s="53"/>
       <c r="AO17" s="41">
         <v>45099</v>
       </c>
       <c r="AP17" s="41">
         <v>45100</v>
       </c>
-      <c r="AQ17" s="61"/>
-      <c r="AR17" s="61"/>
-      <c r="AS17" s="7"/>
+      <c r="AQ17" s="52">
+        <v>45099</v>
+      </c>
+      <c r="AR17" s="52"/>
+      <c r="AS17" s="7">
+        <v>0.5</v>
+      </c>
       <c r="AT17" s="11"/>
-      <c r="AU17" s="56"/>
+      <c r="AU17" s="47"/>
       <c r="AV17" s="13"/>
       <c r="AW17" s="41">
         <v>45097</v>
@@ -5558,73 +5572,73 @@
       <c r="AX17" s="41">
         <v>45097</v>
       </c>
-      <c r="AY17" s="61"/>
-      <c r="AZ17" s="61"/>
+      <c r="AY17" s="52"/>
+      <c r="AZ17" s="52"/>
       <c r="BA17" s="7"/>
-      <c r="BB17" s="62"/>
+      <c r="BB17" s="53"/>
       <c r="BC17" s="41">
         <v>45098</v>
       </c>
       <c r="BD17" s="41">
         <v>45098</v>
       </c>
-      <c r="BE17" s="61"/>
-      <c r="BF17" s="61"/>
+      <c r="BE17" s="52"/>
+      <c r="BF17" s="52"/>
       <c r="BG17" s="16"/>
       <c r="BH17" s="10"/>
-      <c r="BI17" s="57"/>
+      <c r="BI17" s="48"/>
       <c r="BJ17" s="15"/>
-      <c r="BK17" s="61">
+      <c r="BK17" s="52">
         <v>45103</v>
       </c>
-      <c r="BL17" s="61">
+      <c r="BL17" s="52">
         <v>45103</v>
       </c>
-      <c r="BM17" s="61"/>
-      <c r="BN17" s="61"/>
+      <c r="BM17" s="52"/>
+      <c r="BN17" s="52"/>
       <c r="BO17" s="7"/>
-      <c r="BP17" s="62"/>
-      <c r="BQ17" s="61">
+      <c r="BP17" s="53"/>
+      <c r="BQ17" s="52">
         <v>45103</v>
       </c>
-      <c r="BR17" s="61">
+      <c r="BR17" s="52">
         <v>45103</v>
       </c>
-      <c r="BS17" s="61"/>
-      <c r="BT17" s="61"/>
+      <c r="BS17" s="52"/>
+      <c r="BT17" s="52"/>
       <c r="BU17" s="7"/>
       <c r="BV17" s="10"/>
       <c r="BW17" s="10"/>
-      <c r="BX17" s="58"/>
-      <c r="BY17" s="64"/>
-      <c r="BZ17" s="64"/>
-      <c r="CA17" s="64"/>
-      <c r="CB17" s="64"/>
-      <c r="CC17" s="64"/>
-      <c r="CD17" s="64"/>
-      <c r="CE17" s="64"/>
-      <c r="CF17" s="64"/>
-      <c r="CG17" s="64"/>
-      <c r="CH17" s="64"/>
-      <c r="CI17" s="64"/>
-      <c r="CJ17" s="64"/>
-      <c r="CK17" s="64"/>
+      <c r="BX17" s="49"/>
+      <c r="BY17" s="74"/>
+      <c r="BZ17" s="74"/>
+      <c r="CA17" s="74"/>
+      <c r="CB17" s="74"/>
+      <c r="CC17" s="74"/>
+      <c r="CD17" s="74"/>
+      <c r="CE17" s="74"/>
+      <c r="CF17" s="74"/>
+      <c r="CG17" s="74"/>
+      <c r="CH17" s="74"/>
+      <c r="CI17" s="74"/>
+      <c r="CJ17" s="74"/>
+      <c r="CK17" s="74"/>
       <c r="CL17" s="23"/>
-      <c r="CM17" s="64"/>
-      <c r="CN17" s="64"/>
-      <c r="CO17" s="64"/>
-      <c r="CP17" s="64"/>
-      <c r="CQ17" s="64"/>
-      <c r="CR17" s="64"/>
-      <c r="CS17" s="64"/>
-      <c r="CT17" s="64"/>
-      <c r="CU17" s="64"/>
-      <c r="CV17" s="64"/>
-      <c r="CW17" s="64"/>
-      <c r="CX17" s="64"/>
-      <c r="CY17" s="64"/>
-      <c r="CZ17" s="64"/>
-      <c r="DA17" s="58"/>
+      <c r="CM17" s="74"/>
+      <c r="CN17" s="74"/>
+      <c r="CO17" s="74"/>
+      <c r="CP17" s="74"/>
+      <c r="CQ17" s="74"/>
+      <c r="CR17" s="74"/>
+      <c r="CS17" s="74"/>
+      <c r="CT17" s="74"/>
+      <c r="CU17" s="74"/>
+      <c r="CV17" s="74"/>
+      <c r="CW17" s="74"/>
+      <c r="CX17" s="74"/>
+      <c r="CY17" s="74"/>
+      <c r="CZ17" s="74"/>
+      <c r="DA17" s="49"/>
     </row>
     <row r="18" spans="2:105" ht="20.25" customHeight="1">
       <c r="B18" s="5">
@@ -5714,34 +5728,38 @@
         <v>1</v>
       </c>
       <c r="AF18" s="9"/>
-      <c r="AH18" s="60" t="s">
+      <c r="AH18" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="AI18" s="61">
+      <c r="AI18" s="52">
         <v>45089</v>
       </c>
-      <c r="AJ18" s="61">
+      <c r="AJ18" s="52">
         <v>45096</v>
       </c>
-      <c r="AK18" s="61">
+      <c r="AK18" s="52">
         <v>45089</v>
       </c>
-      <c r="AL18" s="61"/>
+      <c r="AL18" s="52"/>
       <c r="AM18" s="7">
         <v>0.9</v>
       </c>
-      <c r="AN18" s="62"/>
+      <c r="AN18" s="53"/>
       <c r="AO18" s="41">
         <v>45099</v>
       </c>
       <c r="AP18" s="41">
         <v>45100</v>
       </c>
-      <c r="AQ18" s="61"/>
-      <c r="AR18" s="61"/>
-      <c r="AS18" s="7"/>
+      <c r="AQ18" s="52">
+        <v>45099</v>
+      </c>
+      <c r="AR18" s="52"/>
+      <c r="AS18" s="7">
+        <v>0.4</v>
+      </c>
       <c r="AT18" s="11"/>
-      <c r="AU18" s="56"/>
+      <c r="AU18" s="47"/>
       <c r="AV18" s="13"/>
       <c r="AW18" s="41">
         <v>45097</v>
@@ -5749,73 +5767,73 @@
       <c r="AX18" s="41">
         <v>45097</v>
       </c>
-      <c r="AY18" s="61"/>
-      <c r="AZ18" s="61"/>
+      <c r="AY18" s="52"/>
+      <c r="AZ18" s="52"/>
       <c r="BA18" s="7"/>
-      <c r="BB18" s="62"/>
+      <c r="BB18" s="53"/>
       <c r="BC18" s="41">
         <v>45098</v>
       </c>
       <c r="BD18" s="41">
         <v>45098</v>
       </c>
-      <c r="BE18" s="61"/>
-      <c r="BF18" s="61"/>
+      <c r="BE18" s="52"/>
+      <c r="BF18" s="52"/>
       <c r="BG18" s="16"/>
       <c r="BH18" s="10"/>
-      <c r="BI18" s="57"/>
+      <c r="BI18" s="48"/>
       <c r="BJ18" s="15"/>
-      <c r="BK18" s="61">
+      <c r="BK18" s="52">
         <v>45103</v>
       </c>
-      <c r="BL18" s="61">
+      <c r="BL18" s="52">
         <v>45103</v>
       </c>
-      <c r="BM18" s="61"/>
-      <c r="BN18" s="61"/>
+      <c r="BM18" s="52"/>
+      <c r="BN18" s="52"/>
       <c r="BO18" s="7"/>
-      <c r="BP18" s="62"/>
-      <c r="BQ18" s="61">
+      <c r="BP18" s="53"/>
+      <c r="BQ18" s="52">
         <v>45103</v>
       </c>
-      <c r="BR18" s="61">
+      <c r="BR18" s="52">
         <v>45103</v>
       </c>
-      <c r="BS18" s="61"/>
-      <c r="BT18" s="61"/>
+      <c r="BS18" s="52"/>
+      <c r="BT18" s="52"/>
       <c r="BU18" s="7"/>
       <c r="BV18" s="10"/>
       <c r="BW18" s="10"/>
-      <c r="BX18" s="59"/>
-      <c r="BY18" s="64"/>
-      <c r="BZ18" s="64"/>
-      <c r="CA18" s="64"/>
-      <c r="CB18" s="64"/>
-      <c r="CC18" s="64"/>
-      <c r="CD18" s="64"/>
-      <c r="CE18" s="64"/>
-      <c r="CF18" s="64"/>
-      <c r="CG18" s="64"/>
-      <c r="CH18" s="64"/>
-      <c r="CI18" s="64"/>
-      <c r="CJ18" s="64"/>
-      <c r="CK18" s="64"/>
+      <c r="BX18" s="50"/>
+      <c r="BY18" s="74"/>
+      <c r="BZ18" s="74"/>
+      <c r="CA18" s="74"/>
+      <c r="CB18" s="74"/>
+      <c r="CC18" s="74"/>
+      <c r="CD18" s="74"/>
+      <c r="CE18" s="74"/>
+      <c r="CF18" s="74"/>
+      <c r="CG18" s="74"/>
+      <c r="CH18" s="74"/>
+      <c r="CI18" s="74"/>
+      <c r="CJ18" s="74"/>
+      <c r="CK18" s="74"/>
       <c r="CL18" s="23"/>
-      <c r="CM18" s="64"/>
-      <c r="CN18" s="64"/>
-      <c r="CO18" s="64"/>
-      <c r="CP18" s="64"/>
-      <c r="CQ18" s="64"/>
-      <c r="CR18" s="64"/>
-      <c r="CS18" s="64"/>
-      <c r="CT18" s="64"/>
-      <c r="CU18" s="64"/>
-      <c r="CV18" s="64"/>
-      <c r="CW18" s="64"/>
-      <c r="CX18" s="64"/>
-      <c r="CY18" s="64"/>
-      <c r="CZ18" s="64"/>
-      <c r="DA18" s="58"/>
+      <c r="CM18" s="74"/>
+      <c r="CN18" s="74"/>
+      <c r="CO18" s="74"/>
+      <c r="CP18" s="74"/>
+      <c r="CQ18" s="74"/>
+      <c r="CR18" s="74"/>
+      <c r="CS18" s="74"/>
+      <c r="CT18" s="74"/>
+      <c r="CU18" s="74"/>
+      <c r="CV18" s="74"/>
+      <c r="CW18" s="74"/>
+      <c r="CX18" s="74"/>
+      <c r="CY18" s="74"/>
+      <c r="CZ18" s="74"/>
+      <c r="DA18" s="49"/>
     </row>
     <row r="19" spans="2:105" ht="20.25" customHeight="1">
       <c r="B19" s="5">
@@ -5905,34 +5923,38 @@
         <v>1</v>
       </c>
       <c r="AF19" s="9"/>
-      <c r="AH19" s="60" t="s">
+      <c r="AH19" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="AI19" s="61">
+      <c r="AI19" s="52">
         <v>45089</v>
       </c>
-      <c r="AJ19" s="61">
+      <c r="AJ19" s="52">
         <v>45096</v>
       </c>
-      <c r="AK19" s="61">
+      <c r="AK19" s="52">
         <v>45089</v>
       </c>
-      <c r="AL19" s="61"/>
+      <c r="AL19" s="52"/>
       <c r="AM19" s="7">
         <v>0.8</v>
       </c>
-      <c r="AN19" s="62"/>
+      <c r="AN19" s="53"/>
       <c r="AO19" s="41">
         <v>45099</v>
       </c>
       <c r="AP19" s="41">
         <v>45100</v>
       </c>
-      <c r="AQ19" s="61"/>
-      <c r="AR19" s="61"/>
-      <c r="AS19" s="7"/>
+      <c r="AQ19" s="52">
+        <v>45099</v>
+      </c>
+      <c r="AR19" s="52"/>
+      <c r="AS19" s="7">
+        <v>0.8</v>
+      </c>
       <c r="AT19" s="11"/>
-      <c r="AU19" s="56"/>
+      <c r="AU19" s="47"/>
       <c r="AV19" s="13"/>
       <c r="AW19" s="41">
         <v>45097</v>
@@ -5940,73 +5962,73 @@
       <c r="AX19" s="41">
         <v>45097</v>
       </c>
-      <c r="AY19" s="61"/>
-      <c r="AZ19" s="61"/>
+      <c r="AY19" s="52"/>
+      <c r="AZ19" s="52"/>
       <c r="BA19" s="7"/>
-      <c r="BB19" s="62"/>
+      <c r="BB19" s="53"/>
       <c r="BC19" s="41">
         <v>45098</v>
       </c>
       <c r="BD19" s="41">
         <v>45098</v>
       </c>
-      <c r="BE19" s="61"/>
-      <c r="BF19" s="61"/>
+      <c r="BE19" s="52"/>
+      <c r="BF19" s="52"/>
       <c r="BG19" s="16"/>
       <c r="BH19" s="10"/>
-      <c r="BI19" s="57"/>
+      <c r="BI19" s="48"/>
       <c r="BJ19" s="15"/>
-      <c r="BK19" s="61">
+      <c r="BK19" s="52">
         <v>45103</v>
       </c>
-      <c r="BL19" s="61">
+      <c r="BL19" s="52">
         <v>45103</v>
       </c>
-      <c r="BM19" s="61"/>
-      <c r="BN19" s="61"/>
+      <c r="BM19" s="52"/>
+      <c r="BN19" s="52"/>
       <c r="BO19" s="7"/>
-      <c r="BP19" s="62"/>
-      <c r="BQ19" s="61">
+      <c r="BP19" s="53"/>
+      <c r="BQ19" s="52">
         <v>45103</v>
       </c>
-      <c r="BR19" s="61">
+      <c r="BR19" s="52">
         <v>45103</v>
       </c>
-      <c r="BS19" s="61"/>
-      <c r="BT19" s="61"/>
+      <c r="BS19" s="52"/>
+      <c r="BT19" s="52"/>
       <c r="BU19" s="7"/>
       <c r="BV19" s="10"/>
       <c r="BW19" s="10"/>
-      <c r="BX19" s="59"/>
-      <c r="BY19" s="64"/>
-      <c r="BZ19" s="64"/>
-      <c r="CA19" s="64"/>
-      <c r="CB19" s="64"/>
-      <c r="CC19" s="64"/>
-      <c r="CD19" s="64"/>
-      <c r="CE19" s="64"/>
-      <c r="CF19" s="64"/>
-      <c r="CG19" s="64"/>
-      <c r="CH19" s="64"/>
-      <c r="CI19" s="64"/>
-      <c r="CJ19" s="64"/>
-      <c r="CK19" s="64"/>
+      <c r="BX19" s="50"/>
+      <c r="BY19" s="74"/>
+      <c r="BZ19" s="74"/>
+      <c r="CA19" s="74"/>
+      <c r="CB19" s="74"/>
+      <c r="CC19" s="74"/>
+      <c r="CD19" s="74"/>
+      <c r="CE19" s="74"/>
+      <c r="CF19" s="74"/>
+      <c r="CG19" s="74"/>
+      <c r="CH19" s="74"/>
+      <c r="CI19" s="74"/>
+      <c r="CJ19" s="74"/>
+      <c r="CK19" s="74"/>
       <c r="CL19" s="23"/>
-      <c r="CM19" s="64"/>
-      <c r="CN19" s="64"/>
-      <c r="CO19" s="64"/>
-      <c r="CP19" s="64"/>
-      <c r="CQ19" s="64"/>
-      <c r="CR19" s="64"/>
-      <c r="CS19" s="64"/>
-      <c r="CT19" s="64"/>
-      <c r="CU19" s="64"/>
-      <c r="CV19" s="64"/>
-      <c r="CW19" s="64"/>
-      <c r="CX19" s="64"/>
-      <c r="CY19" s="64"/>
-      <c r="CZ19" s="64"/>
-      <c r="DA19" s="58"/>
+      <c r="CM19" s="74"/>
+      <c r="CN19" s="74"/>
+      <c r="CO19" s="74"/>
+      <c r="CP19" s="74"/>
+      <c r="CQ19" s="74"/>
+      <c r="CR19" s="74"/>
+      <c r="CS19" s="74"/>
+      <c r="CT19" s="74"/>
+      <c r="CU19" s="74"/>
+      <c r="CV19" s="74"/>
+      <c r="CW19" s="74"/>
+      <c r="CX19" s="74"/>
+      <c r="CY19" s="74"/>
+      <c r="CZ19" s="74"/>
+      <c r="DA19" s="49"/>
     </row>
     <row r="20" spans="2:105" ht="20.25" customHeight="1">
       <c r="B20" s="5">
@@ -6096,34 +6118,34 @@
         <v>1</v>
       </c>
       <c r="AF20" s="9"/>
-      <c r="AH20" s="67" t="s">
+      <c r="AH20" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="AI20" s="61">
+      <c r="AI20" s="52">
         <v>45089</v>
       </c>
-      <c r="AJ20" s="61">
+      <c r="AJ20" s="52">
         <v>45096</v>
       </c>
-      <c r="AK20" s="61">
+      <c r="AK20" s="52">
         <v>45089</v>
       </c>
-      <c r="AL20" s="61"/>
+      <c r="AL20" s="52"/>
       <c r="AM20" s="7">
         <v>0.65</v>
       </c>
-      <c r="AN20" s="62"/>
+      <c r="AN20" s="53"/>
       <c r="AO20" s="41">
         <v>45099</v>
       </c>
       <c r="AP20" s="41">
         <v>45100</v>
       </c>
-      <c r="AQ20" s="61"/>
-      <c r="AR20" s="61"/>
-      <c r="AS20" s="7"/>
+      <c r="AQ20" s="52"/>
+      <c r="AR20" s="52"/>
+      <c r="AS20" s="11"/>
       <c r="AT20" s="11"/>
-      <c r="AU20" s="56"/>
+      <c r="AU20" s="47"/>
       <c r="AV20" s="13"/>
       <c r="AW20" s="41">
         <v>45097</v>
@@ -6131,73 +6153,73 @@
       <c r="AX20" s="41">
         <v>45097</v>
       </c>
-      <c r="AY20" s="61"/>
-      <c r="AZ20" s="61"/>
+      <c r="AY20" s="52"/>
+      <c r="AZ20" s="52"/>
       <c r="BA20" s="7"/>
-      <c r="BB20" s="62"/>
+      <c r="BB20" s="53"/>
       <c r="BC20" s="41">
         <v>45098</v>
       </c>
       <c r="BD20" s="41">
         <v>45098</v>
       </c>
-      <c r="BE20" s="61"/>
-      <c r="BF20" s="61"/>
+      <c r="BE20" s="52"/>
+      <c r="BF20" s="52"/>
       <c r="BG20" s="16"/>
       <c r="BH20" s="10"/>
-      <c r="BI20" s="57"/>
+      <c r="BI20" s="48"/>
       <c r="BJ20" s="15"/>
-      <c r="BK20" s="61">
+      <c r="BK20" s="52">
         <v>45103</v>
       </c>
-      <c r="BL20" s="61">
+      <c r="BL20" s="52">
         <v>45103</v>
       </c>
-      <c r="BM20" s="61"/>
-      <c r="BN20" s="61"/>
+      <c r="BM20" s="52"/>
+      <c r="BN20" s="52"/>
       <c r="BO20" s="7"/>
-      <c r="BP20" s="62"/>
-      <c r="BQ20" s="61">
+      <c r="BP20" s="53"/>
+      <c r="BQ20" s="52">
         <v>45103</v>
       </c>
-      <c r="BR20" s="61">
+      <c r="BR20" s="52">
         <v>45103</v>
       </c>
-      <c r="BS20" s="61"/>
-      <c r="BT20" s="61"/>
+      <c r="BS20" s="52"/>
+      <c r="BT20" s="52"/>
       <c r="BU20" s="7"/>
       <c r="BV20" s="10"/>
       <c r="BW20" s="10"/>
-      <c r="BX20" s="59"/>
-      <c r="BY20" s="64"/>
-      <c r="BZ20" s="64"/>
-      <c r="CA20" s="64"/>
-      <c r="CB20" s="64"/>
-      <c r="CC20" s="64"/>
-      <c r="CD20" s="64"/>
-      <c r="CE20" s="64"/>
-      <c r="CF20" s="64"/>
-      <c r="CG20" s="64"/>
-      <c r="CH20" s="64"/>
-      <c r="CI20" s="64"/>
-      <c r="CJ20" s="64"/>
-      <c r="CK20" s="64"/>
+      <c r="BX20" s="50"/>
+      <c r="BY20" s="74"/>
+      <c r="BZ20" s="74"/>
+      <c r="CA20" s="74"/>
+      <c r="CB20" s="74"/>
+      <c r="CC20" s="74"/>
+      <c r="CD20" s="74"/>
+      <c r="CE20" s="74"/>
+      <c r="CF20" s="74"/>
+      <c r="CG20" s="74"/>
+      <c r="CH20" s="74"/>
+      <c r="CI20" s="74"/>
+      <c r="CJ20" s="74"/>
+      <c r="CK20" s="74"/>
       <c r="CL20" s="23"/>
-      <c r="CM20" s="64"/>
-      <c r="CN20" s="64"/>
-      <c r="CO20" s="64"/>
-      <c r="CP20" s="64"/>
-      <c r="CQ20" s="64"/>
-      <c r="CR20" s="64"/>
-      <c r="CS20" s="64"/>
-      <c r="CT20" s="64"/>
-      <c r="CU20" s="64"/>
-      <c r="CV20" s="64"/>
-      <c r="CW20" s="64"/>
-      <c r="CX20" s="64"/>
-      <c r="CY20" s="64"/>
-      <c r="CZ20" s="64"/>
-      <c r="DA20" s="58"/>
+      <c r="CM20" s="74"/>
+      <c r="CN20" s="74"/>
+      <c r="CO20" s="74"/>
+      <c r="CP20" s="74"/>
+      <c r="CQ20" s="74"/>
+      <c r="CR20" s="74"/>
+      <c r="CS20" s="74"/>
+      <c r="CT20" s="74"/>
+      <c r="CU20" s="74"/>
+      <c r="CV20" s="74"/>
+      <c r="CW20" s="74"/>
+      <c r="CX20" s="74"/>
+      <c r="CY20" s="74"/>
+      <c r="CZ20" s="74"/>
+      <c r="DA20" s="49"/>
     </row>
     <row r="21" spans="2:105" ht="20.25" customHeight="1">
       <c r="B21" s="5">
@@ -6287,34 +6309,38 @@
         <v>1</v>
       </c>
       <c r="AF21" s="9"/>
-      <c r="AH21" s="67" t="s">
+      <c r="AH21" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="AI21" s="61">
+      <c r="AI21" s="52">
         <v>45089</v>
       </c>
-      <c r="AJ21" s="61">
+      <c r="AJ21" s="52">
         <v>45096</v>
       </c>
-      <c r="AK21" s="61">
+      <c r="AK21" s="52">
         <v>45089</v>
       </c>
-      <c r="AL21" s="61"/>
+      <c r="AL21" s="52"/>
       <c r="AM21" s="7">
         <v>0.45</v>
       </c>
-      <c r="AN21" s="62"/>
+      <c r="AN21" s="53"/>
       <c r="AO21" s="41">
         <v>45099</v>
       </c>
       <c r="AP21" s="41">
         <v>45100</v>
       </c>
-      <c r="AQ21" s="61"/>
-      <c r="AR21" s="61"/>
-      <c r="AS21" s="7"/>
+      <c r="AQ21" s="52">
+        <v>45099</v>
+      </c>
+      <c r="AR21" s="52"/>
+      <c r="AS21" s="7">
+        <v>0.65</v>
+      </c>
       <c r="AT21" s="11"/>
-      <c r="AU21" s="56"/>
+      <c r="AU21" s="47"/>
       <c r="AV21" s="13"/>
       <c r="AW21" s="41">
         <v>45097</v>
@@ -6322,73 +6348,73 @@
       <c r="AX21" s="41">
         <v>45097</v>
       </c>
-      <c r="AY21" s="61"/>
-      <c r="AZ21" s="61"/>
+      <c r="AY21" s="52"/>
+      <c r="AZ21" s="52"/>
       <c r="BA21" s="7"/>
-      <c r="BB21" s="62"/>
+      <c r="BB21" s="53"/>
       <c r="BC21" s="41">
         <v>45098</v>
       </c>
       <c r="BD21" s="41">
         <v>45098</v>
       </c>
-      <c r="BE21" s="61"/>
-      <c r="BF21" s="61"/>
+      <c r="BE21" s="52"/>
+      <c r="BF21" s="52"/>
       <c r="BG21" s="16"/>
       <c r="BH21" s="10"/>
-      <c r="BI21" s="57"/>
+      <c r="BI21" s="48"/>
       <c r="BJ21" s="15"/>
-      <c r="BK21" s="61">
+      <c r="BK21" s="52">
         <v>45103</v>
       </c>
-      <c r="BL21" s="61">
+      <c r="BL21" s="52">
         <v>45103</v>
       </c>
-      <c r="BM21" s="61"/>
-      <c r="BN21" s="61"/>
+      <c r="BM21" s="52"/>
+      <c r="BN21" s="52"/>
       <c r="BO21" s="7"/>
-      <c r="BP21" s="62"/>
-      <c r="BQ21" s="61">
+      <c r="BP21" s="53"/>
+      <c r="BQ21" s="52">
         <v>45103</v>
       </c>
-      <c r="BR21" s="61">
+      <c r="BR21" s="52">
         <v>45103</v>
       </c>
-      <c r="BS21" s="61"/>
-      <c r="BT21" s="61"/>
+      <c r="BS21" s="52"/>
+      <c r="BT21" s="52"/>
       <c r="BU21" s="7"/>
       <c r="BV21" s="10"/>
       <c r="BW21" s="10"/>
-      <c r="BX21" s="59"/>
-      <c r="BY21" s="64"/>
-      <c r="BZ21" s="64"/>
-      <c r="CA21" s="64"/>
-      <c r="CB21" s="64"/>
-      <c r="CC21" s="64"/>
-      <c r="CD21" s="64"/>
-      <c r="CE21" s="64"/>
-      <c r="CF21" s="64"/>
-      <c r="CG21" s="64"/>
-      <c r="CH21" s="64"/>
-      <c r="CI21" s="64"/>
-      <c r="CJ21" s="64"/>
-      <c r="CK21" s="64"/>
+      <c r="BX21" s="50"/>
+      <c r="BY21" s="74"/>
+      <c r="BZ21" s="74"/>
+      <c r="CA21" s="74"/>
+      <c r="CB21" s="74"/>
+      <c r="CC21" s="74"/>
+      <c r="CD21" s="74"/>
+      <c r="CE21" s="74"/>
+      <c r="CF21" s="74"/>
+      <c r="CG21" s="74"/>
+      <c r="CH21" s="74"/>
+      <c r="CI21" s="74"/>
+      <c r="CJ21" s="74"/>
+      <c r="CK21" s="74"/>
       <c r="CL21" s="23"/>
-      <c r="CM21" s="64"/>
-      <c r="CN21" s="64"/>
-      <c r="CO21" s="64"/>
-      <c r="CP21" s="64"/>
-      <c r="CQ21" s="64"/>
-      <c r="CR21" s="64"/>
-      <c r="CS21" s="64"/>
-      <c r="CT21" s="64"/>
-      <c r="CU21" s="64"/>
-      <c r="CV21" s="64"/>
-      <c r="CW21" s="64"/>
-      <c r="CX21" s="64"/>
-      <c r="CY21" s="64"/>
-      <c r="CZ21" s="64"/>
-      <c r="DA21" s="58"/>
+      <c r="CM21" s="74"/>
+      <c r="CN21" s="74"/>
+      <c r="CO21" s="74"/>
+      <c r="CP21" s="74"/>
+      <c r="CQ21" s="74"/>
+      <c r="CR21" s="74"/>
+      <c r="CS21" s="74"/>
+      <c r="CT21" s="74"/>
+      <c r="CU21" s="74"/>
+      <c r="CV21" s="74"/>
+      <c r="CW21" s="74"/>
+      <c r="CX21" s="74"/>
+      <c r="CY21" s="74"/>
+      <c r="CZ21" s="74"/>
+      <c r="DA21" s="49"/>
     </row>
     <row r="22" spans="2:105" ht="20.25" customHeight="1">
       <c r="B22" s="5">
@@ -6478,255 +6504,368 @@
         <v>1</v>
       </c>
       <c r="AF22" s="9"/>
-      <c r="AH22" s="67" t="s">
+      <c r="AH22" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="AI22" s="61">
+      <c r="AI22" s="52">
         <v>45089</v>
       </c>
-      <c r="AJ22" s="61">
+      <c r="AJ22" s="52">
         <v>45096</v>
       </c>
-      <c r="AK22" s="68"/>
-      <c r="AL22" s="68"/>
+      <c r="AK22" s="56"/>
+      <c r="AL22" s="56"/>
       <c r="AM22" s="35"/>
-      <c r="AN22" s="69"/>
-      <c r="AO22" s="68">
+      <c r="AN22" s="57"/>
+      <c r="AO22" s="56">
         <v>45092</v>
       </c>
-      <c r="AP22" s="68">
+      <c r="AP22" s="56">
         <v>45093</v>
       </c>
-      <c r="AQ22" s="68"/>
-      <c r="AR22" s="68"/>
+      <c r="AQ22" s="56"/>
+      <c r="AR22" s="56"/>
       <c r="AS22" s="35"/>
       <c r="AT22" s="36"/>
-      <c r="AU22" s="70"/>
+      <c r="AU22" s="58"/>
       <c r="AV22" s="37"/>
-      <c r="AW22" s="68">
+      <c r="AW22" s="56">
         <v>45096</v>
       </c>
-      <c r="AX22" s="68">
+      <c r="AX22" s="56">
         <v>45096</v>
       </c>
-      <c r="AY22" s="68"/>
-      <c r="AZ22" s="68"/>
+      <c r="AY22" s="56"/>
+      <c r="AZ22" s="56"/>
       <c r="BA22" s="35"/>
-      <c r="BB22" s="69"/>
-      <c r="BC22" s="68">
+      <c r="BB22" s="57"/>
+      <c r="BC22" s="56">
         <v>45097</v>
       </c>
-      <c r="BD22" s="68">
+      <c r="BD22" s="56">
         <v>45097</v>
       </c>
-      <c r="BE22" s="68"/>
-      <c r="BF22" s="68"/>
+      <c r="BE22" s="56"/>
+      <c r="BF22" s="56"/>
       <c r="BG22" s="38"/>
       <c r="BH22" s="39"/>
-      <c r="BI22" s="71"/>
+      <c r="BI22" s="59"/>
       <c r="BJ22" s="40"/>
-      <c r="BK22" s="68">
+      <c r="BK22" s="56">
         <v>45098</v>
       </c>
-      <c r="BL22" s="68">
+      <c r="BL22" s="56">
         <v>45098</v>
       </c>
-      <c r="BM22" s="68"/>
-      <c r="BN22" s="68"/>
+      <c r="BM22" s="56"/>
+      <c r="BN22" s="56"/>
       <c r="BO22" s="35"/>
-      <c r="BP22" s="69"/>
-      <c r="BQ22" s="68">
+      <c r="BP22" s="57"/>
+      <c r="BQ22" s="56">
         <v>45099</v>
       </c>
-      <c r="BR22" s="68">
+      <c r="BR22" s="56">
         <v>45099</v>
       </c>
-      <c r="BS22" s="68"/>
-      <c r="BT22" s="68"/>
+      <c r="BS22" s="56"/>
+      <c r="BT22" s="56"/>
       <c r="BU22" s="35"/>
       <c r="BV22" s="39"/>
       <c r="BW22" s="39"/>
-      <c r="BX22" s="56"/>
-      <c r="BY22" s="66"/>
-      <c r="BZ22" s="66"/>
-      <c r="CA22" s="66"/>
-      <c r="CB22" s="66"/>
-      <c r="CC22" s="66"/>
-      <c r="CD22" s="66"/>
-      <c r="CE22" s="66"/>
-      <c r="CF22" s="66"/>
-      <c r="CG22" s="66"/>
-      <c r="CH22" s="66"/>
-      <c r="CI22" s="66"/>
-      <c r="CJ22" s="66"/>
-      <c r="CK22" s="66"/>
-      <c r="CL22" s="57"/>
-      <c r="CM22" s="66"/>
-      <c r="CN22" s="66"/>
-      <c r="CO22" s="66"/>
-      <c r="CP22" s="66"/>
-      <c r="CQ22" s="66"/>
-      <c r="CR22" s="66"/>
-      <c r="CS22" s="66"/>
-      <c r="CT22" s="66"/>
-      <c r="CU22" s="66"/>
-      <c r="CV22" s="66"/>
-      <c r="CW22" s="66"/>
-      <c r="CX22" s="66"/>
-      <c r="CY22" s="66"/>
-      <c r="CZ22" s="66"/>
-      <c r="DA22" s="58"/>
+      <c r="BX22" s="47"/>
+      <c r="BY22" s="75"/>
+      <c r="BZ22" s="75"/>
+      <c r="CA22" s="75"/>
+      <c r="CB22" s="75"/>
+      <c r="CC22" s="75"/>
+      <c r="CD22" s="75"/>
+      <c r="CE22" s="75"/>
+      <c r="CF22" s="75"/>
+      <c r="CG22" s="75"/>
+      <c r="CH22" s="75"/>
+      <c r="CI22" s="75"/>
+      <c r="CJ22" s="75"/>
+      <c r="CK22" s="75"/>
+      <c r="CL22" s="48"/>
+      <c r="CM22" s="75"/>
+      <c r="CN22" s="75"/>
+      <c r="CO22" s="75"/>
+      <c r="CP22" s="75"/>
+      <c r="CQ22" s="75"/>
+      <c r="CR22" s="75"/>
+      <c r="CS22" s="75"/>
+      <c r="CT22" s="75"/>
+      <c r="CU22" s="75"/>
+      <c r="CV22" s="75"/>
+      <c r="CW22" s="75"/>
+      <c r="CX22" s="75"/>
+      <c r="CY22" s="75"/>
+      <c r="CZ22" s="75"/>
+      <c r="DA22" s="49"/>
     </row>
     <row r="23" spans="2:105" ht="20.25" customHeight="1">
-      <c r="AH23" s="72"/>
-      <c r="AI23" s="58"/>
-      <c r="AJ23" s="58"/>
-      <c r="AK23" s="58"/>
-      <c r="AL23" s="58"/>
-      <c r="AM23" s="58"/>
-      <c r="AN23" s="73"/>
-      <c r="AO23" s="58"/>
-      <c r="AP23" s="58"/>
-      <c r="AQ23" s="58"/>
-      <c r="AR23" s="58"/>
-      <c r="AS23" s="58"/>
-      <c r="AT23" s="58"/>
-      <c r="AU23" s="58"/>
-      <c r="AV23" s="73"/>
-      <c r="AW23" s="58"/>
-      <c r="AX23" s="58"/>
-      <c r="AY23" s="58"/>
-      <c r="AZ23" s="58"/>
-      <c r="BA23" s="58"/>
-      <c r="BB23" s="72"/>
-      <c r="BC23" s="58"/>
-      <c r="BD23" s="58"/>
-      <c r="BE23" s="58"/>
-      <c r="BF23" s="58"/>
-      <c r="BG23" s="58"/>
-      <c r="BH23" s="58"/>
-      <c r="BI23" s="58"/>
-      <c r="BJ23" s="72"/>
-      <c r="BK23" s="58"/>
-      <c r="BL23" s="58"/>
-      <c r="BM23" s="58"/>
-      <c r="BN23" s="58"/>
-      <c r="BO23" s="58"/>
-      <c r="BP23" s="72"/>
-      <c r="BQ23" s="58"/>
-      <c r="BR23" s="58"/>
-      <c r="BS23" s="58"/>
-      <c r="BT23" s="58"/>
-      <c r="BU23" s="58"/>
-      <c r="BV23" s="58"/>
-      <c r="BW23" s="58"/>
-      <c r="BX23" s="59"/>
-      <c r="BY23" s="58"/>
-      <c r="BZ23" s="74"/>
-      <c r="CA23" s="74"/>
-      <c r="CB23" s="74"/>
-      <c r="CC23" s="74"/>
-      <c r="CD23" s="58"/>
-      <c r="CE23" s="58"/>
-      <c r="CF23" s="75"/>
-      <c r="CG23" s="75"/>
-      <c r="CH23" s="74"/>
-      <c r="CI23" s="74"/>
-      <c r="CJ23" s="58"/>
-      <c r="CK23" s="58"/>
-      <c r="CL23" s="59"/>
-      <c r="CM23" s="58"/>
-      <c r="CN23" s="75"/>
-      <c r="CO23" s="75"/>
-      <c r="CP23" s="74"/>
-      <c r="CQ23" s="74"/>
-      <c r="CR23" s="58"/>
-      <c r="CS23" s="58"/>
-      <c r="CT23" s="75"/>
-      <c r="CU23" s="75"/>
-      <c r="CV23" s="74"/>
-      <c r="CW23" s="74"/>
-      <c r="CX23" s="58"/>
-      <c r="CY23" s="58"/>
-      <c r="CZ23" s="58"/>
-      <c r="DA23" s="58"/>
+      <c r="AH23" s="60"/>
+      <c r="AI23" s="49"/>
+      <c r="AJ23" s="49"/>
+      <c r="AK23" s="49"/>
+      <c r="AL23" s="49"/>
+      <c r="AM23" s="49"/>
+      <c r="AN23" s="61"/>
+      <c r="AO23" s="49"/>
+      <c r="AP23" s="49"/>
+      <c r="AQ23" s="49"/>
+      <c r="AR23" s="49"/>
+      <c r="AS23" s="49"/>
+      <c r="AT23" s="49"/>
+      <c r="AU23" s="49"/>
+      <c r="AV23" s="61"/>
+      <c r="AW23" s="49"/>
+      <c r="AX23" s="49"/>
+      <c r="AY23" s="49"/>
+      <c r="AZ23" s="49"/>
+      <c r="BA23" s="49"/>
+      <c r="BB23" s="60"/>
+      <c r="BC23" s="49"/>
+      <c r="BD23" s="49"/>
+      <c r="BE23" s="49"/>
+      <c r="BF23" s="49"/>
+      <c r="BG23" s="49"/>
+      <c r="BH23" s="49"/>
+      <c r="BI23" s="49"/>
+      <c r="BJ23" s="60"/>
+      <c r="BK23" s="49"/>
+      <c r="BL23" s="49"/>
+      <c r="BM23" s="49"/>
+      <c r="BN23" s="49"/>
+      <c r="BO23" s="49"/>
+      <c r="BP23" s="60"/>
+      <c r="BQ23" s="49"/>
+      <c r="BR23" s="49"/>
+      <c r="BS23" s="49"/>
+      <c r="BT23" s="49"/>
+      <c r="BU23" s="49"/>
+      <c r="BV23" s="49"/>
+      <c r="BW23" s="49"/>
+      <c r="BX23" s="50"/>
+      <c r="BY23" s="49"/>
+      <c r="BZ23" s="62"/>
+      <c r="CA23" s="62"/>
+      <c r="CB23" s="62"/>
+      <c r="CC23" s="62"/>
+      <c r="CD23" s="49"/>
+      <c r="CE23" s="49"/>
+      <c r="CF23" s="63"/>
+      <c r="CG23" s="63"/>
+      <c r="CH23" s="62"/>
+      <c r="CI23" s="62"/>
+      <c r="CJ23" s="49"/>
+      <c r="CK23" s="49"/>
+      <c r="CL23" s="50"/>
+      <c r="CM23" s="49"/>
+      <c r="CN23" s="63"/>
+      <c r="CO23" s="63"/>
+      <c r="CP23" s="62"/>
+      <c r="CQ23" s="62"/>
+      <c r="CR23" s="49"/>
+      <c r="CS23" s="49"/>
+      <c r="CT23" s="63"/>
+      <c r="CU23" s="63"/>
+      <c r="CV23" s="62"/>
+      <c r="CW23" s="62"/>
+      <c r="CX23" s="49"/>
+      <c r="CY23" s="49"/>
+      <c r="CZ23" s="49"/>
+      <c r="DA23" s="49"/>
     </row>
     <row r="24" spans="2:105" ht="20.25" customHeight="1">
-      <c r="AH24" s="72"/>
-      <c r="AI24" s="58"/>
-      <c r="AJ24" s="58"/>
-      <c r="AK24" s="58"/>
-      <c r="AL24" s="58"/>
-      <c r="AM24" s="58"/>
-      <c r="AN24" s="73"/>
-      <c r="AO24" s="58"/>
-      <c r="AP24" s="58"/>
-      <c r="AQ24" s="58"/>
-      <c r="AR24" s="58"/>
-      <c r="AS24" s="58"/>
-      <c r="AT24" s="58"/>
-      <c r="AU24" s="58"/>
-      <c r="AV24" s="73"/>
-      <c r="AW24" s="58"/>
-      <c r="AX24" s="58"/>
-      <c r="AY24" s="58"/>
-      <c r="AZ24" s="58"/>
-      <c r="BA24" s="58"/>
-      <c r="BB24" s="72"/>
-      <c r="BC24" s="58"/>
-      <c r="BD24" s="58"/>
-      <c r="BE24" s="58"/>
-      <c r="BF24" s="58"/>
-      <c r="BG24" s="58"/>
-      <c r="BH24" s="58"/>
-      <c r="BI24" s="58"/>
-      <c r="BJ24" s="72"/>
-      <c r="BK24" s="58"/>
-      <c r="BL24" s="58"/>
-      <c r="BM24" s="58"/>
-      <c r="BN24" s="58"/>
-      <c r="BO24" s="58"/>
-      <c r="BP24" s="72"/>
-      <c r="BQ24" s="58"/>
-      <c r="BR24" s="58"/>
-      <c r="BS24" s="58"/>
-      <c r="BT24" s="58"/>
-      <c r="BU24" s="58"/>
-      <c r="BV24" s="58"/>
-      <c r="BW24" s="58"/>
-      <c r="BX24" s="59"/>
-      <c r="BY24" s="58"/>
-      <c r="BZ24" s="74"/>
-      <c r="CA24" s="74"/>
-      <c r="CB24" s="74"/>
-      <c r="CC24" s="74"/>
-      <c r="CD24" s="58"/>
-      <c r="CE24" s="58"/>
-      <c r="CF24" s="75"/>
-      <c r="CG24" s="75"/>
-      <c r="CH24" s="74"/>
-      <c r="CI24" s="74"/>
-      <c r="CJ24" s="58"/>
-      <c r="CK24" s="58"/>
-      <c r="CL24" s="59"/>
-      <c r="CM24" s="58"/>
-      <c r="CN24" s="75"/>
-      <c r="CO24" s="75"/>
-      <c r="CP24" s="74"/>
-      <c r="CQ24" s="74"/>
-      <c r="CR24" s="58"/>
-      <c r="CS24" s="58"/>
-      <c r="CT24" s="75"/>
-      <c r="CU24" s="75"/>
-      <c r="CV24" s="74"/>
-      <c r="CW24" s="74"/>
-      <c r="CX24" s="58"/>
-      <c r="CY24" s="58"/>
-      <c r="CZ24" s="58"/>
-      <c r="DA24" s="58"/>
+      <c r="AH24" s="60"/>
+      <c r="AI24" s="49"/>
+      <c r="AJ24" s="49"/>
+      <c r="AK24" s="49"/>
+      <c r="AL24" s="49"/>
+      <c r="AM24" s="49"/>
+      <c r="AN24" s="61"/>
+      <c r="AO24" s="49"/>
+      <c r="AP24" s="49"/>
+      <c r="AQ24" s="49"/>
+      <c r="AR24" s="49"/>
+      <c r="AS24" s="49"/>
+      <c r="AT24" s="49"/>
+      <c r="AU24" s="49"/>
+      <c r="AV24" s="61"/>
+      <c r="AW24" s="49"/>
+      <c r="AX24" s="49"/>
+      <c r="AY24" s="49"/>
+      <c r="AZ24" s="49"/>
+      <c r="BA24" s="49"/>
+      <c r="BB24" s="60"/>
+      <c r="BC24" s="49"/>
+      <c r="BD24" s="49"/>
+      <c r="BE24" s="49"/>
+      <c r="BF24" s="49"/>
+      <c r="BG24" s="49"/>
+      <c r="BH24" s="49"/>
+      <c r="BI24" s="49"/>
+      <c r="BJ24" s="60"/>
+      <c r="BK24" s="49"/>
+      <c r="BL24" s="49"/>
+      <c r="BM24" s="49"/>
+      <c r="BN24" s="49"/>
+      <c r="BO24" s="49"/>
+      <c r="BP24" s="60"/>
+      <c r="BQ24" s="49"/>
+      <c r="BR24" s="49"/>
+      <c r="BS24" s="49"/>
+      <c r="BT24" s="49"/>
+      <c r="BU24" s="49"/>
+      <c r="BV24" s="49"/>
+      <c r="BW24" s="49"/>
+      <c r="BX24" s="50"/>
+      <c r="BY24" s="49"/>
+      <c r="BZ24" s="62"/>
+      <c r="CA24" s="62"/>
+      <c r="CB24" s="62"/>
+      <c r="CC24" s="62"/>
+      <c r="CD24" s="49"/>
+      <c r="CE24" s="49"/>
+      <c r="CF24" s="63"/>
+      <c r="CG24" s="63"/>
+      <c r="CH24" s="62"/>
+      <c r="CI24" s="62"/>
+      <c r="CJ24" s="49"/>
+      <c r="CK24" s="49"/>
+      <c r="CL24" s="50"/>
+      <c r="CM24" s="49"/>
+      <c r="CN24" s="63"/>
+      <c r="CO24" s="63"/>
+      <c r="CP24" s="62"/>
+      <c r="CQ24" s="62"/>
+      <c r="CR24" s="49"/>
+      <c r="CS24" s="49"/>
+      <c r="CT24" s="63"/>
+      <c r="CU24" s="63"/>
+      <c r="CV24" s="62"/>
+      <c r="CW24" s="62"/>
+      <c r="CX24" s="49"/>
+      <c r="CY24" s="49"/>
+      <c r="CZ24" s="49"/>
+      <c r="DA24" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="137">
+    <mergeCell ref="BZ7:BZ14"/>
+    <mergeCell ref="CA7:CA14"/>
+    <mergeCell ref="CF7:CF14"/>
+    <mergeCell ref="CG7:CG14"/>
+    <mergeCell ref="CN7:CN14"/>
+    <mergeCell ref="CO7:CO14"/>
+    <mergeCell ref="CT7:CT14"/>
+    <mergeCell ref="CU7:CU14"/>
+    <mergeCell ref="CM7:CM13"/>
+    <mergeCell ref="CB7:CB13"/>
+    <mergeCell ref="CC7:CC13"/>
+    <mergeCell ref="CD7:CD13"/>
+    <mergeCell ref="CE7:CE13"/>
+    <mergeCell ref="CH7:CH13"/>
+    <mergeCell ref="CI7:CI13"/>
+    <mergeCell ref="CJ7:CJ13"/>
+    <mergeCell ref="CB15:CB22"/>
+    <mergeCell ref="CC15:CC22"/>
+    <mergeCell ref="CD15:CD22"/>
+    <mergeCell ref="CM15:CM22"/>
+    <mergeCell ref="CN15:CN22"/>
+    <mergeCell ref="CO15:CO22"/>
+    <mergeCell ref="CE15:CE22"/>
+    <mergeCell ref="CF15:CF22"/>
+    <mergeCell ref="CZ7:CZ13"/>
+    <mergeCell ref="CQ15:CQ22"/>
+    <mergeCell ref="CR15:CR22"/>
+    <mergeCell ref="CS15:CS22"/>
+    <mergeCell ref="CV7:CV13"/>
+    <mergeCell ref="CW7:CW13"/>
+    <mergeCell ref="CX15:CX22"/>
+    <mergeCell ref="CY15:CY22"/>
+    <mergeCell ref="CW15:CW22"/>
+    <mergeCell ref="CX7:CX13"/>
+    <mergeCell ref="CY7:CY13"/>
+    <mergeCell ref="CG15:CG22"/>
+    <mergeCell ref="BY7:BY13"/>
+    <mergeCell ref="CZ5:CZ6"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CT5:CU5"/>
+    <mergeCell ref="CV5:CW5"/>
+    <mergeCell ref="CS5:CS6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CH15:CH22"/>
+    <mergeCell ref="CI15:CI22"/>
+    <mergeCell ref="CJ15:CJ22"/>
+    <mergeCell ref="CK15:CK22"/>
+    <mergeCell ref="CZ15:CZ22"/>
+    <mergeCell ref="CP15:CP22"/>
+    <mergeCell ref="CR7:CR13"/>
+    <mergeCell ref="CS7:CS13"/>
+    <mergeCell ref="CT15:CT22"/>
+    <mergeCell ref="CU15:CU22"/>
+    <mergeCell ref="BY15:BY22"/>
+    <mergeCell ref="BZ15:BZ22"/>
+    <mergeCell ref="CA15:CA22"/>
+    <mergeCell ref="CV15:CV22"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CK5:CK6"/>
+    <mergeCell ref="CN5:CO5"/>
+    <mergeCell ref="CP5:CQ5"/>
+    <mergeCell ref="CM5:CM6"/>
+    <mergeCell ref="CH5:CI5"/>
+    <mergeCell ref="CE5:CE6"/>
+    <mergeCell ref="CK7:CK13"/>
+    <mergeCell ref="CP7:CP13"/>
+    <mergeCell ref="CQ7:CQ13"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="CF5:CG5"/>
+    <mergeCell ref="BP4:BW4"/>
+    <mergeCell ref="BY4:CD4"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="Z4:AF4"/>
+    <mergeCell ref="AH4:AM4"/>
+    <mergeCell ref="AN4:AT4"/>
+    <mergeCell ref="AV4:BA4"/>
+    <mergeCell ref="BB4:BH4"/>
+    <mergeCell ref="BJ4:BO4"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="BM5:BN5"/>
+    <mergeCell ref="BQ5:BR5"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="E4:E6"/>
     <mergeCell ref="Y5:Y6"/>
     <mergeCell ref="BH5:BH6"/>
     <mergeCell ref="CE4:CK4"/>
@@ -6751,119 +6890,6 @@
     <mergeCell ref="BK5:BL5"/>
     <mergeCell ref="F4:K4"/>
     <mergeCell ref="L4:R4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="BZ5:CA5"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BW5:BW6"/>
-    <mergeCell ref="BY5:BY6"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="BP4:BW4"/>
-    <mergeCell ref="BY4:CD4"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="Z4:AF4"/>
-    <mergeCell ref="AH4:AM4"/>
-    <mergeCell ref="AN4:AT4"/>
-    <mergeCell ref="AV4:BA4"/>
-    <mergeCell ref="BB4:BH4"/>
-    <mergeCell ref="BJ4:BO4"/>
-    <mergeCell ref="CN5:CO5"/>
-    <mergeCell ref="CP5:CQ5"/>
-    <mergeCell ref="CM5:CM6"/>
-    <mergeCell ref="CH5:CI5"/>
-    <mergeCell ref="CE5:CE6"/>
-    <mergeCell ref="CK7:CK13"/>
-    <mergeCell ref="CP7:CP13"/>
-    <mergeCell ref="CQ7:CQ13"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="CF5:CG5"/>
-    <mergeCell ref="BY7:BY13"/>
-    <mergeCell ref="CZ5:CZ6"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CT5:CU5"/>
-    <mergeCell ref="CV5:CW5"/>
-    <mergeCell ref="CS5:CS6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CH15:CH22"/>
-    <mergeCell ref="CI15:CI22"/>
-    <mergeCell ref="CJ15:CJ22"/>
-    <mergeCell ref="CK15:CK22"/>
-    <mergeCell ref="CZ15:CZ22"/>
-    <mergeCell ref="CP15:CP22"/>
-    <mergeCell ref="CR7:CR13"/>
-    <mergeCell ref="CS7:CS13"/>
-    <mergeCell ref="CT15:CT22"/>
-    <mergeCell ref="CU15:CU22"/>
-    <mergeCell ref="BY15:BY22"/>
-    <mergeCell ref="BZ15:BZ22"/>
-    <mergeCell ref="CA15:CA22"/>
-    <mergeCell ref="CV15:CV22"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CK5:CK6"/>
-    <mergeCell ref="CB15:CB22"/>
-    <mergeCell ref="CC15:CC22"/>
-    <mergeCell ref="CD15:CD22"/>
-    <mergeCell ref="CM15:CM22"/>
-    <mergeCell ref="CN15:CN22"/>
-    <mergeCell ref="CO15:CO22"/>
-    <mergeCell ref="CE15:CE22"/>
-    <mergeCell ref="CF15:CF22"/>
-    <mergeCell ref="CZ7:CZ13"/>
-    <mergeCell ref="CQ15:CQ22"/>
-    <mergeCell ref="CR15:CR22"/>
-    <mergeCell ref="CS15:CS22"/>
-    <mergeCell ref="CV7:CV13"/>
-    <mergeCell ref="CW7:CW13"/>
-    <mergeCell ref="CX15:CX22"/>
-    <mergeCell ref="CY15:CY22"/>
-    <mergeCell ref="CW15:CW22"/>
-    <mergeCell ref="CX7:CX13"/>
-    <mergeCell ref="CY7:CY13"/>
-    <mergeCell ref="CG15:CG22"/>
-    <mergeCell ref="BZ7:BZ14"/>
-    <mergeCell ref="CA7:CA14"/>
-    <mergeCell ref="CF7:CF14"/>
-    <mergeCell ref="CG7:CG14"/>
-    <mergeCell ref="CN7:CN14"/>
-    <mergeCell ref="CO7:CO14"/>
-    <mergeCell ref="CT7:CT14"/>
-    <mergeCell ref="CU7:CU14"/>
-    <mergeCell ref="CM7:CM13"/>
-    <mergeCell ref="CB7:CB13"/>
-    <mergeCell ref="CC7:CC13"/>
-    <mergeCell ref="CD7:CD13"/>
-    <mergeCell ref="CE7:CE13"/>
-    <mergeCell ref="CH7:CH13"/>
-    <mergeCell ref="CI7:CI13"/>
-    <mergeCell ref="CJ7:CJ13"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="F15:F16">
@@ -6993,37 +7019,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN7:AT22">
-    <cfRule type="expression" dxfId="6" priority="88">
+    <cfRule type="expression" dxfId="0" priority="88">
       <formula>$AR7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV7:BA22">
-    <cfRule type="expression" dxfId="5" priority="152">
+    <cfRule type="expression" dxfId="6" priority="152">
       <formula>$AZ7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB7:BH22">
-    <cfRule type="expression" dxfId="4" priority="151">
+    <cfRule type="expression" dxfId="5" priority="151">
       <formula>$BF7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ7:BO22">
-    <cfRule type="expression" dxfId="3" priority="146">
+    <cfRule type="expression" dxfId="4" priority="146">
       <formula>$BN7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP7:BP21 BS7:BW21">
-    <cfRule type="expression" dxfId="2" priority="145">
+    <cfRule type="expression" dxfId="3" priority="145">
       <formula>$BT7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP22:BW22">
-    <cfRule type="expression" dxfId="1" priority="255">
+    <cfRule type="expression" dxfId="2" priority="255">
       <formula>$BT22&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ7:BR21">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$BN7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>

--- a/スケジュール（2023-06）.xlsx
+++ b/スケジュール（2023-06）.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6946EAD-09A7-4AA4-A5F8-0026295196A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D13846D-61D1-4636-A832-2ACFD68BD79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -840,11 +840,29 @@
     </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -858,24 +876,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
@@ -883,7 +883,28 @@
     <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準_システム管理" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="33">
+  <dxfs count="36">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2830,10 +2851,10 @@
   <dimension ref="B3:DA24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="S10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="S13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AN12" sqref="AN12"/>
+      <selection pane="bottomRight" activeCell="AP20" sqref="AP20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
@@ -2894,312 +2915,312 @@
       </c>
     </row>
     <row r="4" spans="2:105" s="17" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65" t="s">
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="T4" s="65" t="s">
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="T4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65" t="s">
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AH4" s="65" t="s">
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="68"/>
+      <c r="AE4" s="68"/>
+      <c r="AF4" s="68"/>
+      <c r="AH4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65" t="s">
+      <c r="AI4" s="68"/>
+      <c r="AJ4" s="68"/>
+      <c r="AK4" s="68"/>
+      <c r="AL4" s="68"/>
+      <c r="AM4" s="68"/>
+      <c r="AN4" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="65"/>
-      <c r="AQ4" s="65"/>
-      <c r="AR4" s="65"/>
-      <c r="AS4" s="65"/>
-      <c r="AT4" s="66"/>
+      <c r="AO4" s="68"/>
+      <c r="AP4" s="68"/>
+      <c r="AQ4" s="68"/>
+      <c r="AR4" s="68"/>
+      <c r="AS4" s="68"/>
+      <c r="AT4" s="72"/>
       <c r="AU4" s="43"/>
-      <c r="AV4" s="65" t="s">
+      <c r="AV4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="AW4" s="65"/>
-      <c r="AX4" s="65"/>
-      <c r="AY4" s="65"/>
-      <c r="AZ4" s="65"/>
-      <c r="BA4" s="65"/>
-      <c r="BB4" s="65" t="s">
+      <c r="AW4" s="68"/>
+      <c r="AX4" s="68"/>
+      <c r="AY4" s="68"/>
+      <c r="AZ4" s="68"/>
+      <c r="BA4" s="68"/>
+      <c r="BB4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="BC4" s="65"/>
-      <c r="BD4" s="65"/>
-      <c r="BE4" s="65"/>
-      <c r="BF4" s="65"/>
-      <c r="BG4" s="65"/>
-      <c r="BH4" s="65"/>
+      <c r="BC4" s="68"/>
+      <c r="BD4" s="68"/>
+      <c r="BE4" s="68"/>
+      <c r="BF4" s="68"/>
+      <c r="BG4" s="68"/>
+      <c r="BH4" s="68"/>
       <c r="BI4" s="44"/>
-      <c r="BJ4" s="67" t="s">
+      <c r="BJ4" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="BK4" s="65"/>
-      <c r="BL4" s="65"/>
-      <c r="BM4" s="65"/>
-      <c r="BN4" s="65"/>
-      <c r="BO4" s="65"/>
-      <c r="BP4" s="65" t="s">
+      <c r="BK4" s="68"/>
+      <c r="BL4" s="68"/>
+      <c r="BM4" s="68"/>
+      <c r="BN4" s="68"/>
+      <c r="BO4" s="68"/>
+      <c r="BP4" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="BQ4" s="65"/>
-      <c r="BR4" s="65"/>
-      <c r="BS4" s="65"/>
-      <c r="BT4" s="65"/>
-      <c r="BU4" s="65"/>
-      <c r="BV4" s="65"/>
-      <c r="BW4" s="65"/>
+      <c r="BQ4" s="68"/>
+      <c r="BR4" s="68"/>
+      <c r="BS4" s="68"/>
+      <c r="BT4" s="68"/>
+      <c r="BU4" s="68"/>
+      <c r="BV4" s="68"/>
+      <c r="BW4" s="68"/>
       <c r="BX4" s="45"/>
-      <c r="BY4" s="65" t="s">
+      <c r="BY4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="BZ4" s="65"/>
-      <c r="CA4" s="65"/>
-      <c r="CB4" s="65"/>
-      <c r="CC4" s="65"/>
-      <c r="CD4" s="65"/>
-      <c r="CE4" s="65" t="s">
+      <c r="BZ4" s="68"/>
+      <c r="CA4" s="68"/>
+      <c r="CB4" s="68"/>
+      <c r="CC4" s="68"/>
+      <c r="CD4" s="68"/>
+      <c r="CE4" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="CF4" s="65"/>
-      <c r="CG4" s="65"/>
-      <c r="CH4" s="65"/>
-      <c r="CI4" s="65"/>
-      <c r="CJ4" s="65"/>
-      <c r="CK4" s="66"/>
+      <c r="CF4" s="68"/>
+      <c r="CG4" s="68"/>
+      <c r="CH4" s="68"/>
+      <c r="CI4" s="68"/>
+      <c r="CJ4" s="68"/>
+      <c r="CK4" s="72"/>
       <c r="CL4" s="46"/>
-      <c r="CM4" s="67" t="s">
+      <c r="CM4" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="CN4" s="65"/>
-      <c r="CO4" s="65"/>
-      <c r="CP4" s="65"/>
-      <c r="CQ4" s="65"/>
-      <c r="CR4" s="65"/>
-      <c r="CS4" s="65" t="s">
+      <c r="CN4" s="68"/>
+      <c r="CO4" s="68"/>
+      <c r="CP4" s="68"/>
+      <c r="CQ4" s="68"/>
+      <c r="CR4" s="68"/>
+      <c r="CS4" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="CT4" s="65"/>
-      <c r="CU4" s="65"/>
-      <c r="CV4" s="65"/>
-      <c r="CW4" s="65"/>
-      <c r="CX4" s="65"/>
-      <c r="CY4" s="65"/>
-      <c r="CZ4" s="65"/>
+      <c r="CT4" s="68"/>
+      <c r="CU4" s="68"/>
+      <c r="CV4" s="68"/>
+      <c r="CW4" s="68"/>
+      <c r="CX4" s="68"/>
+      <c r="CY4" s="68"/>
+      <c r="CZ4" s="68"/>
       <c r="DA4" s="45"/>
     </row>
     <row r="5" spans="2:105" ht="21.6" customHeight="1">
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="65" t="s">
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="68" t="s">
+      <c r="G5" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68" t="s">
+      <c r="H5" s="74"/>
+      <c r="I5" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="68"/>
-      <c r="K5" s="64" t="s">
+      <c r="J5" s="74"/>
+      <c r="K5" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="65" t="s">
+      <c r="L5" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="68" t="s">
+      <c r="M5" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68" t="s">
+      <c r="N5" s="74"/>
+      <c r="O5" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="64" t="s">
+      <c r="P5" s="74"/>
+      <c r="Q5" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="64" t="s">
+      <c r="R5" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="65" t="s">
+      <c r="T5" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="68" t="s">
+      <c r="U5" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="68"/>
-      <c r="W5" s="68" t="s">
+      <c r="V5" s="74"/>
+      <c r="W5" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="X5" s="68"/>
-      <c r="Y5" s="64" t="s">
+      <c r="X5" s="74"/>
+      <c r="Y5" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="65" t="s">
+      <c r="Z5" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="AA5" s="68" t="s">
+      <c r="AA5" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="AB5" s="68"/>
-      <c r="AC5" s="68" t="s">
+      <c r="AB5" s="74"/>
+      <c r="AC5" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="AD5" s="68"/>
-      <c r="AE5" s="64" t="s">
+      <c r="AD5" s="74"/>
+      <c r="AE5" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AF5" s="64" t="s">
+      <c r="AF5" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="AH5" s="65" t="s">
+      <c r="AH5" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="AI5" s="68" t="s">
+      <c r="AI5" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="AJ5" s="68"/>
-      <c r="AK5" s="68" t="s">
+      <c r="AJ5" s="74"/>
+      <c r="AK5" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="AL5" s="68"/>
-      <c r="AM5" s="64" t="s">
+      <c r="AL5" s="74"/>
+      <c r="AM5" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AN5" s="65" t="s">
+      <c r="AN5" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="AO5" s="68" t="s">
+      <c r="AO5" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="68" t="s">
+      <c r="AP5" s="74"/>
+      <c r="AQ5" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="64" t="s">
+      <c r="AR5" s="74"/>
+      <c r="AS5" s="67" t="s">
         <v>21</v>
       </c>
       <c r="AT5" s="71" t="s">
         <v>23</v>
       </c>
       <c r="AU5" s="47"/>
-      <c r="AV5" s="65" t="s">
+      <c r="AV5" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="AW5" s="68" t="s">
+      <c r="AW5" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="AX5" s="68"/>
-      <c r="AY5" s="68" t="s">
+      <c r="AX5" s="74"/>
+      <c r="AY5" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="AZ5" s="68"/>
-      <c r="BA5" s="64" t="s">
+      <c r="AZ5" s="74"/>
+      <c r="BA5" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="BB5" s="65" t="s">
+      <c r="BB5" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="BC5" s="68" t="s">
+      <c r="BC5" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="BD5" s="68"/>
-      <c r="BE5" s="68" t="s">
+      <c r="BD5" s="74"/>
+      <c r="BE5" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="BF5" s="68"/>
-      <c r="BG5" s="64" t="s">
+      <c r="BF5" s="74"/>
+      <c r="BG5" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="BH5" s="64" t="s">
+      <c r="BH5" s="67" t="s">
         <v>23</v>
       </c>
       <c r="BI5" s="48"/>
-      <c r="BJ5" s="67" t="s">
+      <c r="BJ5" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="BK5" s="68" t="s">
+      <c r="BK5" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="BL5" s="68"/>
-      <c r="BM5" s="68" t="s">
+      <c r="BL5" s="74"/>
+      <c r="BM5" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="BN5" s="68"/>
-      <c r="BO5" s="64" t="s">
+      <c r="BN5" s="74"/>
+      <c r="BO5" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="BP5" s="65" t="s">
+      <c r="BP5" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="BQ5" s="68" t="s">
+      <c r="BQ5" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="BR5" s="68"/>
-      <c r="BS5" s="68" t="s">
+      <c r="BR5" s="74"/>
+      <c r="BS5" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="BT5" s="68"/>
-      <c r="BU5" s="64" t="s">
+      <c r="BT5" s="74"/>
+      <c r="BU5" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="BV5" s="64" t="s">
+      <c r="BV5" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="BW5" s="64" t="s">
+      <c r="BW5" s="67" t="s">
         <v>24</v>
       </c>
       <c r="BX5" s="49"/>
-      <c r="BY5" s="65" t="s">
+      <c r="BY5" s="68" t="s">
         <v>18</v>
       </c>
       <c r="BZ5" s="70" t="s">
@@ -3210,69 +3231,69 @@
         <v>20</v>
       </c>
       <c r="CC5" s="70"/>
-      <c r="CD5" s="64" t="s">
+      <c r="CD5" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="CE5" s="65" t="s">
+      <c r="CE5" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="CF5" s="72" t="s">
+      <c r="CF5" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="CG5" s="72"/>
+      <c r="CG5" s="69"/>
       <c r="CH5" s="70" t="s">
         <v>20</v>
       </c>
       <c r="CI5" s="70"/>
-      <c r="CJ5" s="64" t="s">
+      <c r="CJ5" s="67" t="s">
         <v>21</v>
       </c>
       <c r="CK5" s="71" t="s">
         <v>23</v>
       </c>
       <c r="CL5" s="50"/>
-      <c r="CM5" s="67" t="s">
+      <c r="CM5" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="CN5" s="72" t="s">
+      <c r="CN5" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="CO5" s="72"/>
+      <c r="CO5" s="69"/>
       <c r="CP5" s="70" t="s">
         <v>20</v>
       </c>
       <c r="CQ5" s="70"/>
-      <c r="CR5" s="64" t="s">
+      <c r="CR5" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="CS5" s="65" t="s">
+      <c r="CS5" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="CT5" s="72" t="s">
+      <c r="CT5" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="CU5" s="72"/>
+      <c r="CU5" s="69"/>
       <c r="CV5" s="70" t="s">
         <v>20</v>
       </c>
       <c r="CW5" s="70"/>
-      <c r="CX5" s="64" t="s">
+      <c r="CX5" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="CY5" s="64" t="s">
+      <c r="CY5" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="CZ5" s="64" t="s">
+      <c r="CZ5" s="67" t="s">
         <v>24</v>
       </c>
       <c r="DA5" s="49"/>
     </row>
     <row r="6" spans="2:105" ht="14.4">
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="65"/>
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3285,8 +3306,8 @@
       <c r="J6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
       <c r="M6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3299,9 +3320,9 @@
       <c r="P6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="T6" s="65"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="T6" s="68"/>
       <c r="U6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3314,8 +3335,8 @@
       <c r="X6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="65"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68"/>
       <c r="AA6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3328,9 +3349,9 @@
       <c r="AD6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AE6" s="65"/>
-      <c r="AF6" s="65"/>
-      <c r="AH6" s="65"/>
+      <c r="AE6" s="68"/>
+      <c r="AF6" s="68"/>
+      <c r="AH6" s="68"/>
       <c r="AI6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3343,8 +3364,8 @@
       <c r="AL6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AM6" s="65"/>
-      <c r="AN6" s="65"/>
+      <c r="AM6" s="68"/>
+      <c r="AN6" s="68"/>
       <c r="AO6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3357,10 +3378,10 @@
       <c r="AR6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AS6" s="65"/>
-      <c r="AT6" s="66"/>
+      <c r="AS6" s="68"/>
+      <c r="AT6" s="72"/>
       <c r="AU6" s="47"/>
-      <c r="AV6" s="65"/>
+      <c r="AV6" s="68"/>
       <c r="AW6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3373,8 +3394,8 @@
       <c r="AZ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BA6" s="65"/>
-      <c r="BB6" s="65"/>
+      <c r="BA6" s="68"/>
+      <c r="BB6" s="68"/>
       <c r="BC6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3387,10 +3408,10 @@
       <c r="BF6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BG6" s="65"/>
-      <c r="BH6" s="65"/>
+      <c r="BG6" s="68"/>
+      <c r="BH6" s="68"/>
       <c r="BI6" s="48"/>
-      <c r="BJ6" s="67"/>
+      <c r="BJ6" s="73"/>
       <c r="BK6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3403,8 +3424,8 @@
       <c r="BN6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BO6" s="65"/>
-      <c r="BP6" s="65"/>
+      <c r="BO6" s="68"/>
+      <c r="BP6" s="68"/>
       <c r="BQ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3417,11 +3438,11 @@
       <c r="BT6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BU6" s="65"/>
-      <c r="BV6" s="65"/>
-      <c r="BW6" s="65"/>
+      <c r="BU6" s="68"/>
+      <c r="BV6" s="68"/>
+      <c r="BW6" s="68"/>
       <c r="BX6" s="49"/>
-      <c r="BY6" s="65"/>
+      <c r="BY6" s="68"/>
       <c r="BZ6" s="25" t="s">
         <v>25</v>
       </c>
@@ -3434,8 +3455,8 @@
       <c r="CC6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="CD6" s="65"/>
-      <c r="CE6" s="65"/>
+      <c r="CD6" s="68"/>
+      <c r="CE6" s="68"/>
       <c r="CF6" s="28" t="s">
         <v>25</v>
       </c>
@@ -3448,10 +3469,10 @@
       <c r="CI6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="CJ6" s="65"/>
-      <c r="CK6" s="66"/>
+      <c r="CJ6" s="68"/>
+      <c r="CK6" s="72"/>
       <c r="CL6" s="50"/>
-      <c r="CM6" s="67"/>
+      <c r="CM6" s="73"/>
       <c r="CN6" s="28" t="s">
         <v>25</v>
       </c>
@@ -3464,8 +3485,8 @@
       <c r="CQ6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="CR6" s="65"/>
-      <c r="CS6" s="65"/>
+      <c r="CR6" s="68"/>
+      <c r="CS6" s="68"/>
       <c r="CT6" s="28" t="s">
         <v>25</v>
       </c>
@@ -3478,9 +3499,9 @@
       <c r="CW6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="CX6" s="65"/>
-      <c r="CY6" s="65"/>
-      <c r="CZ6" s="65"/>
+      <c r="CX6" s="68"/>
+      <c r="CY6" s="68"/>
+      <c r="CZ6" s="68"/>
       <c r="DA6" s="49"/>
     </row>
     <row r="7" spans="2:105" ht="20.25" customHeight="1">
@@ -3646,50 +3667,50 @@
       <c r="BV7" s="10"/>
       <c r="BW7" s="10"/>
       <c r="BX7" s="49"/>
-      <c r="BY7" s="73"/>
-      <c r="BZ7" s="73">
+      <c r="BY7" s="64"/>
+      <c r="BZ7" s="64">
         <v>45104</v>
       </c>
-      <c r="CA7" s="73">
+      <c r="CA7" s="64">
         <v>45104</v>
       </c>
-      <c r="CB7" s="73"/>
-      <c r="CC7" s="73"/>
-      <c r="CD7" s="73"/>
-      <c r="CE7" s="73"/>
-      <c r="CF7" s="73">
+      <c r="CB7" s="64"/>
+      <c r="CC7" s="64"/>
+      <c r="CD7" s="64"/>
+      <c r="CE7" s="64"/>
+      <c r="CF7" s="64">
         <v>45104</v>
       </c>
-      <c r="CG7" s="73">
+      <c r="CG7" s="64">
         <v>45104</v>
       </c>
-      <c r="CH7" s="73"/>
-      <c r="CI7" s="73"/>
-      <c r="CJ7" s="73"/>
-      <c r="CK7" s="73"/>
+      <c r="CH7" s="64"/>
+      <c r="CI7" s="64"/>
+      <c r="CJ7" s="64"/>
+      <c r="CK7" s="64"/>
       <c r="CL7" s="48"/>
-      <c r="CM7" s="73"/>
-      <c r="CN7" s="73">
+      <c r="CM7" s="64"/>
+      <c r="CN7" s="64">
         <v>45105</v>
       </c>
-      <c r="CO7" s="73">
+      <c r="CO7" s="64">
         <v>45105</v>
       </c>
-      <c r="CP7" s="73"/>
-      <c r="CQ7" s="73"/>
-      <c r="CR7" s="73"/>
-      <c r="CS7" s="73"/>
-      <c r="CT7" s="73">
+      <c r="CP7" s="64"/>
+      <c r="CQ7" s="64"/>
+      <c r="CR7" s="64"/>
+      <c r="CS7" s="64"/>
+      <c r="CT7" s="64">
         <v>45105</v>
       </c>
-      <c r="CU7" s="73">
+      <c r="CU7" s="64">
         <v>45105</v>
       </c>
-      <c r="CV7" s="73"/>
-      <c r="CW7" s="73"/>
-      <c r="CX7" s="73"/>
-      <c r="CY7" s="73"/>
-      <c r="CZ7" s="73"/>
+      <c r="CV7" s="64"/>
+      <c r="CW7" s="64"/>
+      <c r="CX7" s="64"/>
+      <c r="CY7" s="64"/>
+      <c r="CZ7" s="64"/>
       <c r="DA7" s="49"/>
     </row>
     <row r="8" spans="2:105" ht="20.25" customHeight="1">
@@ -3855,34 +3876,34 @@
       <c r="BV8" s="10"/>
       <c r="BW8" s="10"/>
       <c r="BX8" s="49"/>
-      <c r="BY8" s="74"/>
-      <c r="BZ8" s="74"/>
-      <c r="CA8" s="74"/>
-      <c r="CB8" s="74"/>
-      <c r="CC8" s="74"/>
-      <c r="CD8" s="74"/>
-      <c r="CE8" s="74"/>
-      <c r="CF8" s="74"/>
-      <c r="CG8" s="74"/>
-      <c r="CH8" s="74"/>
-      <c r="CI8" s="74"/>
-      <c r="CJ8" s="74"/>
-      <c r="CK8" s="74"/>
+      <c r="BY8" s="65"/>
+      <c r="BZ8" s="65"/>
+      <c r="CA8" s="65"/>
+      <c r="CB8" s="65"/>
+      <c r="CC8" s="65"/>
+      <c r="CD8" s="65"/>
+      <c r="CE8" s="65"/>
+      <c r="CF8" s="65"/>
+      <c r="CG8" s="65"/>
+      <c r="CH8" s="65"/>
+      <c r="CI8" s="65"/>
+      <c r="CJ8" s="65"/>
+      <c r="CK8" s="65"/>
       <c r="CL8" s="48"/>
-      <c r="CM8" s="74"/>
-      <c r="CN8" s="74"/>
-      <c r="CO8" s="74"/>
-      <c r="CP8" s="74"/>
-      <c r="CQ8" s="74"/>
-      <c r="CR8" s="74"/>
-      <c r="CS8" s="74"/>
-      <c r="CT8" s="74"/>
-      <c r="CU8" s="74"/>
-      <c r="CV8" s="74"/>
-      <c r="CW8" s="74"/>
-      <c r="CX8" s="74"/>
-      <c r="CY8" s="74"/>
-      <c r="CZ8" s="74"/>
+      <c r="CM8" s="65"/>
+      <c r="CN8" s="65"/>
+      <c r="CO8" s="65"/>
+      <c r="CP8" s="65"/>
+      <c r="CQ8" s="65"/>
+      <c r="CR8" s="65"/>
+      <c r="CS8" s="65"/>
+      <c r="CT8" s="65"/>
+      <c r="CU8" s="65"/>
+      <c r="CV8" s="65"/>
+      <c r="CW8" s="65"/>
+      <c r="CX8" s="65"/>
+      <c r="CY8" s="65"/>
+      <c r="CZ8" s="65"/>
       <c r="DA8" s="49"/>
     </row>
     <row r="9" spans="2:105" ht="20.25" customHeight="1">
@@ -4046,34 +4067,34 @@
       <c r="BV9" s="10"/>
       <c r="BW9" s="10"/>
       <c r="BX9" s="47"/>
-      <c r="BY9" s="74"/>
-      <c r="BZ9" s="74"/>
-      <c r="CA9" s="74"/>
-      <c r="CB9" s="74"/>
-      <c r="CC9" s="74"/>
-      <c r="CD9" s="74"/>
-      <c r="CE9" s="74"/>
-      <c r="CF9" s="74"/>
-      <c r="CG9" s="74"/>
-      <c r="CH9" s="74"/>
-      <c r="CI9" s="74"/>
-      <c r="CJ9" s="74"/>
-      <c r="CK9" s="74"/>
+      <c r="BY9" s="65"/>
+      <c r="BZ9" s="65"/>
+      <c r="CA9" s="65"/>
+      <c r="CB9" s="65"/>
+      <c r="CC9" s="65"/>
+      <c r="CD9" s="65"/>
+      <c r="CE9" s="65"/>
+      <c r="CF9" s="65"/>
+      <c r="CG9" s="65"/>
+      <c r="CH9" s="65"/>
+      <c r="CI9" s="65"/>
+      <c r="CJ9" s="65"/>
+      <c r="CK9" s="65"/>
       <c r="CL9" s="48"/>
-      <c r="CM9" s="74"/>
-      <c r="CN9" s="74"/>
-      <c r="CO9" s="74"/>
-      <c r="CP9" s="74"/>
-      <c r="CQ9" s="74"/>
-      <c r="CR9" s="74"/>
-      <c r="CS9" s="74"/>
-      <c r="CT9" s="74"/>
-      <c r="CU9" s="74"/>
-      <c r="CV9" s="74"/>
-      <c r="CW9" s="74"/>
-      <c r="CX9" s="74"/>
-      <c r="CY9" s="74"/>
-      <c r="CZ9" s="74"/>
+      <c r="CM9" s="65"/>
+      <c r="CN9" s="65"/>
+      <c r="CO9" s="65"/>
+      <c r="CP9" s="65"/>
+      <c r="CQ9" s="65"/>
+      <c r="CR9" s="65"/>
+      <c r="CS9" s="65"/>
+      <c r="CT9" s="65"/>
+      <c r="CU9" s="65"/>
+      <c r="CV9" s="65"/>
+      <c r="CW9" s="65"/>
+      <c r="CX9" s="65"/>
+      <c r="CY9" s="65"/>
+      <c r="CZ9" s="65"/>
       <c r="DA9" s="49"/>
     </row>
     <row r="10" spans="2:105" ht="20.25" customHeight="1">
@@ -4239,34 +4260,34 @@
       <c r="BV10" s="10"/>
       <c r="BW10" s="10"/>
       <c r="BX10" s="47"/>
-      <c r="BY10" s="74"/>
-      <c r="BZ10" s="74"/>
-      <c r="CA10" s="74"/>
-      <c r="CB10" s="74"/>
-      <c r="CC10" s="74"/>
-      <c r="CD10" s="74"/>
-      <c r="CE10" s="74"/>
-      <c r="CF10" s="74"/>
-      <c r="CG10" s="74"/>
-      <c r="CH10" s="74"/>
-      <c r="CI10" s="74"/>
-      <c r="CJ10" s="74"/>
-      <c r="CK10" s="74"/>
+      <c r="BY10" s="65"/>
+      <c r="BZ10" s="65"/>
+      <c r="CA10" s="65"/>
+      <c r="CB10" s="65"/>
+      <c r="CC10" s="65"/>
+      <c r="CD10" s="65"/>
+      <c r="CE10" s="65"/>
+      <c r="CF10" s="65"/>
+      <c r="CG10" s="65"/>
+      <c r="CH10" s="65"/>
+      <c r="CI10" s="65"/>
+      <c r="CJ10" s="65"/>
+      <c r="CK10" s="65"/>
       <c r="CL10" s="48"/>
-      <c r="CM10" s="74"/>
-      <c r="CN10" s="74"/>
-      <c r="CO10" s="74"/>
-      <c r="CP10" s="74"/>
-      <c r="CQ10" s="74"/>
-      <c r="CR10" s="74"/>
-      <c r="CS10" s="74"/>
-      <c r="CT10" s="74"/>
-      <c r="CU10" s="74"/>
-      <c r="CV10" s="74"/>
-      <c r="CW10" s="74"/>
-      <c r="CX10" s="74"/>
-      <c r="CY10" s="74"/>
-      <c r="CZ10" s="74"/>
+      <c r="CM10" s="65"/>
+      <c r="CN10" s="65"/>
+      <c r="CO10" s="65"/>
+      <c r="CP10" s="65"/>
+      <c r="CQ10" s="65"/>
+      <c r="CR10" s="65"/>
+      <c r="CS10" s="65"/>
+      <c r="CT10" s="65"/>
+      <c r="CU10" s="65"/>
+      <c r="CV10" s="65"/>
+      <c r="CW10" s="65"/>
+      <c r="CX10" s="65"/>
+      <c r="CY10" s="65"/>
+      <c r="CZ10" s="65"/>
       <c r="DA10" s="49"/>
     </row>
     <row r="11" spans="2:105" ht="20.25" customHeight="1">
@@ -4430,34 +4451,34 @@
       <c r="BV11" s="10"/>
       <c r="BW11" s="10"/>
       <c r="BX11" s="47"/>
-      <c r="BY11" s="74"/>
-      <c r="BZ11" s="74"/>
-      <c r="CA11" s="74"/>
-      <c r="CB11" s="74"/>
-      <c r="CC11" s="74"/>
-      <c r="CD11" s="74"/>
-      <c r="CE11" s="74"/>
-      <c r="CF11" s="74"/>
-      <c r="CG11" s="74"/>
-      <c r="CH11" s="74"/>
-      <c r="CI11" s="74"/>
-      <c r="CJ11" s="74"/>
-      <c r="CK11" s="74"/>
+      <c r="BY11" s="65"/>
+      <c r="BZ11" s="65"/>
+      <c r="CA11" s="65"/>
+      <c r="CB11" s="65"/>
+      <c r="CC11" s="65"/>
+      <c r="CD11" s="65"/>
+      <c r="CE11" s="65"/>
+      <c r="CF11" s="65"/>
+      <c r="CG11" s="65"/>
+      <c r="CH11" s="65"/>
+      <c r="CI11" s="65"/>
+      <c r="CJ11" s="65"/>
+      <c r="CK11" s="65"/>
       <c r="CL11" s="48"/>
-      <c r="CM11" s="74"/>
-      <c r="CN11" s="74"/>
-      <c r="CO11" s="74"/>
-      <c r="CP11" s="74"/>
-      <c r="CQ11" s="74"/>
-      <c r="CR11" s="74"/>
-      <c r="CS11" s="74"/>
-      <c r="CT11" s="74"/>
-      <c r="CU11" s="74"/>
-      <c r="CV11" s="74"/>
-      <c r="CW11" s="74"/>
-      <c r="CX11" s="74"/>
-      <c r="CY11" s="74"/>
-      <c r="CZ11" s="74"/>
+      <c r="CM11" s="65"/>
+      <c r="CN11" s="65"/>
+      <c r="CO11" s="65"/>
+      <c r="CP11" s="65"/>
+      <c r="CQ11" s="65"/>
+      <c r="CR11" s="65"/>
+      <c r="CS11" s="65"/>
+      <c r="CT11" s="65"/>
+      <c r="CU11" s="65"/>
+      <c r="CV11" s="65"/>
+      <c r="CW11" s="65"/>
+      <c r="CX11" s="65"/>
+      <c r="CY11" s="65"/>
+      <c r="CZ11" s="65"/>
       <c r="DA11" s="49"/>
     </row>
     <row r="12" spans="2:105" ht="20.25" customHeight="1">
@@ -4621,34 +4642,34 @@
       <c r="BV12" s="10"/>
       <c r="BW12" s="10"/>
       <c r="BX12" s="47"/>
-      <c r="BY12" s="74"/>
-      <c r="BZ12" s="74"/>
-      <c r="CA12" s="74"/>
-      <c r="CB12" s="74"/>
-      <c r="CC12" s="74"/>
-      <c r="CD12" s="74"/>
-      <c r="CE12" s="74"/>
-      <c r="CF12" s="74"/>
-      <c r="CG12" s="74"/>
-      <c r="CH12" s="74"/>
-      <c r="CI12" s="74"/>
-      <c r="CJ12" s="74"/>
-      <c r="CK12" s="74"/>
+      <c r="BY12" s="65"/>
+      <c r="BZ12" s="65"/>
+      <c r="CA12" s="65"/>
+      <c r="CB12" s="65"/>
+      <c r="CC12" s="65"/>
+      <c r="CD12" s="65"/>
+      <c r="CE12" s="65"/>
+      <c r="CF12" s="65"/>
+      <c r="CG12" s="65"/>
+      <c r="CH12" s="65"/>
+      <c r="CI12" s="65"/>
+      <c r="CJ12" s="65"/>
+      <c r="CK12" s="65"/>
       <c r="CL12" s="48"/>
-      <c r="CM12" s="74"/>
-      <c r="CN12" s="74"/>
-      <c r="CO12" s="74"/>
-      <c r="CP12" s="74"/>
-      <c r="CQ12" s="74"/>
-      <c r="CR12" s="74"/>
-      <c r="CS12" s="74"/>
-      <c r="CT12" s="74"/>
-      <c r="CU12" s="74"/>
-      <c r="CV12" s="74"/>
-      <c r="CW12" s="74"/>
-      <c r="CX12" s="74"/>
-      <c r="CY12" s="74"/>
-      <c r="CZ12" s="74"/>
+      <c r="CM12" s="65"/>
+      <c r="CN12" s="65"/>
+      <c r="CO12" s="65"/>
+      <c r="CP12" s="65"/>
+      <c r="CQ12" s="65"/>
+      <c r="CR12" s="65"/>
+      <c r="CS12" s="65"/>
+      <c r="CT12" s="65"/>
+      <c r="CU12" s="65"/>
+      <c r="CV12" s="65"/>
+      <c r="CW12" s="65"/>
+      <c r="CX12" s="65"/>
+      <c r="CY12" s="65"/>
+      <c r="CZ12" s="65"/>
       <c r="DA12" s="49"/>
     </row>
     <row r="13" spans="2:105" ht="20.25" customHeight="1">
@@ -4814,34 +4835,34 @@
       <c r="BV13" s="10"/>
       <c r="BW13" s="10"/>
       <c r="BX13" s="47"/>
-      <c r="BY13" s="74"/>
-      <c r="BZ13" s="74"/>
-      <c r="CA13" s="74"/>
-      <c r="CB13" s="74"/>
-      <c r="CC13" s="74"/>
-      <c r="CD13" s="74"/>
-      <c r="CE13" s="74"/>
-      <c r="CF13" s="74"/>
-      <c r="CG13" s="74"/>
-      <c r="CH13" s="74"/>
-      <c r="CI13" s="74"/>
-      <c r="CJ13" s="74"/>
-      <c r="CK13" s="74"/>
+      <c r="BY13" s="65"/>
+      <c r="BZ13" s="65"/>
+      <c r="CA13" s="65"/>
+      <c r="CB13" s="65"/>
+      <c r="CC13" s="65"/>
+      <c r="CD13" s="65"/>
+      <c r="CE13" s="65"/>
+      <c r="CF13" s="65"/>
+      <c r="CG13" s="65"/>
+      <c r="CH13" s="65"/>
+      <c r="CI13" s="65"/>
+      <c r="CJ13" s="65"/>
+      <c r="CK13" s="65"/>
       <c r="CL13" s="48"/>
-      <c r="CM13" s="74"/>
-      <c r="CN13" s="74"/>
-      <c r="CO13" s="74"/>
-      <c r="CP13" s="74"/>
-      <c r="CQ13" s="74"/>
-      <c r="CR13" s="74"/>
-      <c r="CS13" s="74"/>
-      <c r="CT13" s="74"/>
-      <c r="CU13" s="74"/>
-      <c r="CV13" s="74"/>
-      <c r="CW13" s="74"/>
-      <c r="CX13" s="74"/>
-      <c r="CY13" s="74"/>
-      <c r="CZ13" s="74"/>
+      <c r="CM13" s="65"/>
+      <c r="CN13" s="65"/>
+      <c r="CO13" s="65"/>
+      <c r="CP13" s="65"/>
+      <c r="CQ13" s="65"/>
+      <c r="CR13" s="65"/>
+      <c r="CS13" s="65"/>
+      <c r="CT13" s="65"/>
+      <c r="CU13" s="65"/>
+      <c r="CV13" s="65"/>
+      <c r="CW13" s="65"/>
+      <c r="CX13" s="65"/>
+      <c r="CY13" s="65"/>
+      <c r="CZ13" s="65"/>
       <c r="DA13" s="49"/>
     </row>
     <row r="14" spans="2:105" ht="20.25" customHeight="1">
@@ -5010,28 +5031,28 @@
       <c r="BW14" s="10"/>
       <c r="BX14" s="47"/>
       <c r="BY14" s="54"/>
-      <c r="BZ14" s="75"/>
-      <c r="CA14" s="75"/>
+      <c r="BZ14" s="66"/>
+      <c r="CA14" s="66"/>
       <c r="CB14" s="54"/>
       <c r="CC14" s="54"/>
       <c r="CD14" s="54"/>
       <c r="CE14" s="54"/>
-      <c r="CF14" s="75"/>
-      <c r="CG14" s="75"/>
+      <c r="CF14" s="66"/>
+      <c r="CG14" s="66"/>
       <c r="CH14" s="54"/>
       <c r="CI14" s="54"/>
       <c r="CJ14" s="54"/>
       <c r="CK14" s="54"/>
       <c r="CL14" s="48"/>
       <c r="CM14" s="54"/>
-      <c r="CN14" s="75"/>
-      <c r="CO14" s="75"/>
+      <c r="CN14" s="66"/>
+      <c r="CO14" s="66"/>
       <c r="CP14" s="54"/>
       <c r="CQ14" s="54"/>
       <c r="CR14" s="54"/>
       <c r="CS14" s="54"/>
-      <c r="CT14" s="75"/>
-      <c r="CU14" s="75"/>
+      <c r="CT14" s="66"/>
+      <c r="CU14" s="66"/>
       <c r="CV14" s="54"/>
       <c r="CW14" s="54"/>
       <c r="CX14" s="54"/>
@@ -5139,7 +5160,9 @@
       <c r="AK15" s="52">
         <v>45089</v>
       </c>
-      <c r="AL15" s="52"/>
+      <c r="AL15" s="52">
+        <v>45096</v>
+      </c>
       <c r="AM15" s="7">
         <v>1</v>
       </c>
@@ -5204,50 +5227,50 @@
       <c r="BV15" s="10"/>
       <c r="BW15" s="10"/>
       <c r="BX15" s="47"/>
-      <c r="BY15" s="73"/>
-      <c r="BZ15" s="73">
+      <c r="BY15" s="64"/>
+      <c r="BZ15" s="64">
         <v>45104</v>
       </c>
-      <c r="CA15" s="73">
+      <c r="CA15" s="64">
         <v>45104</v>
       </c>
-      <c r="CB15" s="73"/>
-      <c r="CC15" s="73"/>
-      <c r="CD15" s="73"/>
-      <c r="CE15" s="73"/>
-      <c r="CF15" s="73">
+      <c r="CB15" s="64"/>
+      <c r="CC15" s="64"/>
+      <c r="CD15" s="64"/>
+      <c r="CE15" s="64"/>
+      <c r="CF15" s="64">
         <v>45104</v>
       </c>
-      <c r="CG15" s="73">
+      <c r="CG15" s="64">
         <v>45104</v>
       </c>
-      <c r="CH15" s="73"/>
-      <c r="CI15" s="73"/>
-      <c r="CJ15" s="73"/>
-      <c r="CK15" s="73"/>
+      <c r="CH15" s="64"/>
+      <c r="CI15" s="64"/>
+      <c r="CJ15" s="64"/>
+      <c r="CK15" s="64"/>
       <c r="CL15" s="48"/>
-      <c r="CM15" s="73"/>
-      <c r="CN15" s="73">
+      <c r="CM15" s="64"/>
+      <c r="CN15" s="64">
         <v>45105</v>
       </c>
-      <c r="CO15" s="73">
+      <c r="CO15" s="64">
         <v>45105</v>
       </c>
-      <c r="CP15" s="73"/>
-      <c r="CQ15" s="73"/>
-      <c r="CR15" s="73"/>
-      <c r="CS15" s="73"/>
-      <c r="CT15" s="73">
+      <c r="CP15" s="64"/>
+      <c r="CQ15" s="64"/>
+      <c r="CR15" s="64"/>
+      <c r="CS15" s="64"/>
+      <c r="CT15" s="64">
         <v>45105</v>
       </c>
-      <c r="CU15" s="73">
+      <c r="CU15" s="64">
         <v>45105</v>
       </c>
-      <c r="CV15" s="73"/>
-      <c r="CW15" s="73"/>
-      <c r="CX15" s="73"/>
-      <c r="CY15" s="73"/>
-      <c r="CZ15" s="73"/>
+      <c r="CV15" s="64"/>
+      <c r="CW15" s="64"/>
+      <c r="CX15" s="64"/>
+      <c r="CY15" s="64"/>
+      <c r="CZ15" s="64"/>
       <c r="DA15" s="49"/>
     </row>
     <row r="16" spans="2:105" ht="20.25" customHeight="1">
@@ -5415,34 +5438,34 @@
       <c r="BV16" s="10"/>
       <c r="BW16" s="10"/>
       <c r="BX16" s="49"/>
-      <c r="BY16" s="74"/>
-      <c r="BZ16" s="74"/>
-      <c r="CA16" s="74"/>
-      <c r="CB16" s="74"/>
-      <c r="CC16" s="74"/>
-      <c r="CD16" s="74"/>
-      <c r="CE16" s="74"/>
-      <c r="CF16" s="74"/>
-      <c r="CG16" s="74"/>
-      <c r="CH16" s="74"/>
-      <c r="CI16" s="74"/>
-      <c r="CJ16" s="74"/>
-      <c r="CK16" s="74"/>
+      <c r="BY16" s="65"/>
+      <c r="BZ16" s="65"/>
+      <c r="CA16" s="65"/>
+      <c r="CB16" s="65"/>
+      <c r="CC16" s="65"/>
+      <c r="CD16" s="65"/>
+      <c r="CE16" s="65"/>
+      <c r="CF16" s="65"/>
+      <c r="CG16" s="65"/>
+      <c r="CH16" s="65"/>
+      <c r="CI16" s="65"/>
+      <c r="CJ16" s="65"/>
+      <c r="CK16" s="65"/>
       <c r="CL16" s="23"/>
-      <c r="CM16" s="74"/>
-      <c r="CN16" s="74"/>
-      <c r="CO16" s="74"/>
-      <c r="CP16" s="74"/>
-      <c r="CQ16" s="74"/>
-      <c r="CR16" s="74"/>
-      <c r="CS16" s="74"/>
-      <c r="CT16" s="74"/>
-      <c r="CU16" s="74"/>
-      <c r="CV16" s="74"/>
-      <c r="CW16" s="74"/>
-      <c r="CX16" s="74"/>
-      <c r="CY16" s="74"/>
-      <c r="CZ16" s="74"/>
+      <c r="CM16" s="65"/>
+      <c r="CN16" s="65"/>
+      <c r="CO16" s="65"/>
+      <c r="CP16" s="65"/>
+      <c r="CQ16" s="65"/>
+      <c r="CR16" s="65"/>
+      <c r="CS16" s="65"/>
+      <c r="CT16" s="65"/>
+      <c r="CU16" s="65"/>
+      <c r="CV16" s="65"/>
+      <c r="CW16" s="65"/>
+      <c r="CX16" s="65"/>
+      <c r="CY16" s="65"/>
+      <c r="CZ16" s="65"/>
       <c r="DA16" s="49"/>
     </row>
     <row r="17" spans="2:105" ht="20.25" customHeight="1">
@@ -5545,7 +5568,9 @@
       <c r="AK17" s="52">
         <v>45089</v>
       </c>
-      <c r="AL17" s="52"/>
+      <c r="AL17" s="52">
+        <v>45096</v>
+      </c>
       <c r="AM17" s="7">
         <v>1</v>
       </c>
@@ -5561,7 +5586,7 @@
       </c>
       <c r="AR17" s="52"/>
       <c r="AS17" s="7">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="AT17" s="11"/>
       <c r="AU17" s="47"/>
@@ -5610,34 +5635,34 @@
       <c r="BV17" s="10"/>
       <c r="BW17" s="10"/>
       <c r="BX17" s="49"/>
-      <c r="BY17" s="74"/>
-      <c r="BZ17" s="74"/>
-      <c r="CA17" s="74"/>
-      <c r="CB17" s="74"/>
-      <c r="CC17" s="74"/>
-      <c r="CD17" s="74"/>
-      <c r="CE17" s="74"/>
-      <c r="CF17" s="74"/>
-      <c r="CG17" s="74"/>
-      <c r="CH17" s="74"/>
-      <c r="CI17" s="74"/>
-      <c r="CJ17" s="74"/>
-      <c r="CK17" s="74"/>
+      <c r="BY17" s="65"/>
+      <c r="BZ17" s="65"/>
+      <c r="CA17" s="65"/>
+      <c r="CB17" s="65"/>
+      <c r="CC17" s="65"/>
+      <c r="CD17" s="65"/>
+      <c r="CE17" s="65"/>
+      <c r="CF17" s="65"/>
+      <c r="CG17" s="65"/>
+      <c r="CH17" s="65"/>
+      <c r="CI17" s="65"/>
+      <c r="CJ17" s="65"/>
+      <c r="CK17" s="65"/>
       <c r="CL17" s="23"/>
-      <c r="CM17" s="74"/>
-      <c r="CN17" s="74"/>
-      <c r="CO17" s="74"/>
-      <c r="CP17" s="74"/>
-      <c r="CQ17" s="74"/>
-      <c r="CR17" s="74"/>
-      <c r="CS17" s="74"/>
-      <c r="CT17" s="74"/>
-      <c r="CU17" s="74"/>
-      <c r="CV17" s="74"/>
-      <c r="CW17" s="74"/>
-      <c r="CX17" s="74"/>
-      <c r="CY17" s="74"/>
-      <c r="CZ17" s="74"/>
+      <c r="CM17" s="65"/>
+      <c r="CN17" s="65"/>
+      <c r="CO17" s="65"/>
+      <c r="CP17" s="65"/>
+      <c r="CQ17" s="65"/>
+      <c r="CR17" s="65"/>
+      <c r="CS17" s="65"/>
+      <c r="CT17" s="65"/>
+      <c r="CU17" s="65"/>
+      <c r="CV17" s="65"/>
+      <c r="CW17" s="65"/>
+      <c r="CX17" s="65"/>
+      <c r="CY17" s="65"/>
+      <c r="CZ17" s="65"/>
       <c r="DA17" s="49"/>
     </row>
     <row r="18" spans="2:105" ht="20.25" customHeight="1">
@@ -5740,9 +5765,11 @@
       <c r="AK18" s="52">
         <v>45089</v>
       </c>
-      <c r="AL18" s="52"/>
+      <c r="AL18" s="52">
+        <v>45098</v>
+      </c>
       <c r="AM18" s="7">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="AN18" s="53"/>
       <c r="AO18" s="41">
@@ -5754,9 +5781,11 @@
       <c r="AQ18" s="52">
         <v>45099</v>
       </c>
-      <c r="AR18" s="52"/>
+      <c r="AR18" s="52">
+        <v>45098</v>
+      </c>
       <c r="AS18" s="7">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AT18" s="11"/>
       <c r="AU18" s="47"/>
@@ -5805,34 +5834,34 @@
       <c r="BV18" s="10"/>
       <c r="BW18" s="10"/>
       <c r="BX18" s="50"/>
-      <c r="BY18" s="74"/>
-      <c r="BZ18" s="74"/>
-      <c r="CA18" s="74"/>
-      <c r="CB18" s="74"/>
-      <c r="CC18" s="74"/>
-      <c r="CD18" s="74"/>
-      <c r="CE18" s="74"/>
-      <c r="CF18" s="74"/>
-      <c r="CG18" s="74"/>
-      <c r="CH18" s="74"/>
-      <c r="CI18" s="74"/>
-      <c r="CJ18" s="74"/>
-      <c r="CK18" s="74"/>
+      <c r="BY18" s="65"/>
+      <c r="BZ18" s="65"/>
+      <c r="CA18" s="65"/>
+      <c r="CB18" s="65"/>
+      <c r="CC18" s="65"/>
+      <c r="CD18" s="65"/>
+      <c r="CE18" s="65"/>
+      <c r="CF18" s="65"/>
+      <c r="CG18" s="65"/>
+      <c r="CH18" s="65"/>
+      <c r="CI18" s="65"/>
+      <c r="CJ18" s="65"/>
+      <c r="CK18" s="65"/>
       <c r="CL18" s="23"/>
-      <c r="CM18" s="74"/>
-      <c r="CN18" s="74"/>
-      <c r="CO18" s="74"/>
-      <c r="CP18" s="74"/>
-      <c r="CQ18" s="74"/>
-      <c r="CR18" s="74"/>
-      <c r="CS18" s="74"/>
-      <c r="CT18" s="74"/>
-      <c r="CU18" s="74"/>
-      <c r="CV18" s="74"/>
-      <c r="CW18" s="74"/>
-      <c r="CX18" s="74"/>
-      <c r="CY18" s="74"/>
-      <c r="CZ18" s="74"/>
+      <c r="CM18" s="65"/>
+      <c r="CN18" s="65"/>
+      <c r="CO18" s="65"/>
+      <c r="CP18" s="65"/>
+      <c r="CQ18" s="65"/>
+      <c r="CR18" s="65"/>
+      <c r="CS18" s="65"/>
+      <c r="CT18" s="65"/>
+      <c r="CU18" s="65"/>
+      <c r="CV18" s="65"/>
+      <c r="CW18" s="65"/>
+      <c r="CX18" s="65"/>
+      <c r="CY18" s="65"/>
+      <c r="CZ18" s="65"/>
       <c r="DA18" s="49"/>
     </row>
     <row r="19" spans="2:105" ht="20.25" customHeight="1">
@@ -6000,34 +6029,34 @@
       <c r="BV19" s="10"/>
       <c r="BW19" s="10"/>
       <c r="BX19" s="50"/>
-      <c r="BY19" s="74"/>
-      <c r="BZ19" s="74"/>
-      <c r="CA19" s="74"/>
-      <c r="CB19" s="74"/>
-      <c r="CC19" s="74"/>
-      <c r="CD19" s="74"/>
-      <c r="CE19" s="74"/>
-      <c r="CF19" s="74"/>
-      <c r="CG19" s="74"/>
-      <c r="CH19" s="74"/>
-      <c r="CI19" s="74"/>
-      <c r="CJ19" s="74"/>
-      <c r="CK19" s="74"/>
+      <c r="BY19" s="65"/>
+      <c r="BZ19" s="65"/>
+      <c r="CA19" s="65"/>
+      <c r="CB19" s="65"/>
+      <c r="CC19" s="65"/>
+      <c r="CD19" s="65"/>
+      <c r="CE19" s="65"/>
+      <c r="CF19" s="65"/>
+      <c r="CG19" s="65"/>
+      <c r="CH19" s="65"/>
+      <c r="CI19" s="65"/>
+      <c r="CJ19" s="65"/>
+      <c r="CK19" s="65"/>
       <c r="CL19" s="23"/>
-      <c r="CM19" s="74"/>
-      <c r="CN19" s="74"/>
-      <c r="CO19" s="74"/>
-      <c r="CP19" s="74"/>
-      <c r="CQ19" s="74"/>
-      <c r="CR19" s="74"/>
-      <c r="CS19" s="74"/>
-      <c r="CT19" s="74"/>
-      <c r="CU19" s="74"/>
-      <c r="CV19" s="74"/>
-      <c r="CW19" s="74"/>
-      <c r="CX19" s="74"/>
-      <c r="CY19" s="74"/>
-      <c r="CZ19" s="74"/>
+      <c r="CM19" s="65"/>
+      <c r="CN19" s="65"/>
+      <c r="CO19" s="65"/>
+      <c r="CP19" s="65"/>
+      <c r="CQ19" s="65"/>
+      <c r="CR19" s="65"/>
+      <c r="CS19" s="65"/>
+      <c r="CT19" s="65"/>
+      <c r="CU19" s="65"/>
+      <c r="CV19" s="65"/>
+      <c r="CW19" s="65"/>
+      <c r="CX19" s="65"/>
+      <c r="CY19" s="65"/>
+      <c r="CZ19" s="65"/>
       <c r="DA19" s="49"/>
     </row>
     <row r="20" spans="2:105" ht="20.25" customHeight="1">
@@ -6141,9 +6170,13 @@
       <c r="AP20" s="41">
         <v>45100</v>
       </c>
-      <c r="AQ20" s="52"/>
+      <c r="AQ20" s="52">
+        <v>45098</v>
+      </c>
       <c r="AR20" s="52"/>
-      <c r="AS20" s="11"/>
+      <c r="AS20" s="11">
+        <v>80</v>
+      </c>
       <c r="AT20" s="11"/>
       <c r="AU20" s="47"/>
       <c r="AV20" s="13"/>
@@ -6191,34 +6224,34 @@
       <c r="BV20" s="10"/>
       <c r="BW20" s="10"/>
       <c r="BX20" s="50"/>
-      <c r="BY20" s="74"/>
-      <c r="BZ20" s="74"/>
-      <c r="CA20" s="74"/>
-      <c r="CB20" s="74"/>
-      <c r="CC20" s="74"/>
-      <c r="CD20" s="74"/>
-      <c r="CE20" s="74"/>
-      <c r="CF20" s="74"/>
-      <c r="CG20" s="74"/>
-      <c r="CH20" s="74"/>
-      <c r="CI20" s="74"/>
-      <c r="CJ20" s="74"/>
-      <c r="CK20" s="74"/>
+      <c r="BY20" s="65"/>
+      <c r="BZ20" s="65"/>
+      <c r="CA20" s="65"/>
+      <c r="CB20" s="65"/>
+      <c r="CC20" s="65"/>
+      <c r="CD20" s="65"/>
+      <c r="CE20" s="65"/>
+      <c r="CF20" s="65"/>
+      <c r="CG20" s="65"/>
+      <c r="CH20" s="65"/>
+      <c r="CI20" s="65"/>
+      <c r="CJ20" s="65"/>
+      <c r="CK20" s="65"/>
       <c r="CL20" s="23"/>
-      <c r="CM20" s="74"/>
-      <c r="CN20" s="74"/>
-      <c r="CO20" s="74"/>
-      <c r="CP20" s="74"/>
-      <c r="CQ20" s="74"/>
-      <c r="CR20" s="74"/>
-      <c r="CS20" s="74"/>
-      <c r="CT20" s="74"/>
-      <c r="CU20" s="74"/>
-      <c r="CV20" s="74"/>
-      <c r="CW20" s="74"/>
-      <c r="CX20" s="74"/>
-      <c r="CY20" s="74"/>
-      <c r="CZ20" s="74"/>
+      <c r="CM20" s="65"/>
+      <c r="CN20" s="65"/>
+      <c r="CO20" s="65"/>
+      <c r="CP20" s="65"/>
+      <c r="CQ20" s="65"/>
+      <c r="CR20" s="65"/>
+      <c r="CS20" s="65"/>
+      <c r="CT20" s="65"/>
+      <c r="CU20" s="65"/>
+      <c r="CV20" s="65"/>
+      <c r="CW20" s="65"/>
+      <c r="CX20" s="65"/>
+      <c r="CY20" s="65"/>
+      <c r="CZ20" s="65"/>
       <c r="DA20" s="49"/>
     </row>
     <row r="21" spans="2:105" ht="20.25" customHeight="1">
@@ -6386,34 +6419,34 @@
       <c r="BV21" s="10"/>
       <c r="BW21" s="10"/>
       <c r="BX21" s="50"/>
-      <c r="BY21" s="74"/>
-      <c r="BZ21" s="74"/>
-      <c r="CA21" s="74"/>
-      <c r="CB21" s="74"/>
-      <c r="CC21" s="74"/>
-      <c r="CD21" s="74"/>
-      <c r="CE21" s="74"/>
-      <c r="CF21" s="74"/>
-      <c r="CG21" s="74"/>
-      <c r="CH21" s="74"/>
-      <c r="CI21" s="74"/>
-      <c r="CJ21" s="74"/>
-      <c r="CK21" s="74"/>
+      <c r="BY21" s="65"/>
+      <c r="BZ21" s="65"/>
+      <c r="CA21" s="65"/>
+      <c r="CB21" s="65"/>
+      <c r="CC21" s="65"/>
+      <c r="CD21" s="65"/>
+      <c r="CE21" s="65"/>
+      <c r="CF21" s="65"/>
+      <c r="CG21" s="65"/>
+      <c r="CH21" s="65"/>
+      <c r="CI21" s="65"/>
+      <c r="CJ21" s="65"/>
+      <c r="CK21" s="65"/>
       <c r="CL21" s="23"/>
-      <c r="CM21" s="74"/>
-      <c r="CN21" s="74"/>
-      <c r="CO21" s="74"/>
-      <c r="CP21" s="74"/>
-      <c r="CQ21" s="74"/>
-      <c r="CR21" s="74"/>
-      <c r="CS21" s="74"/>
-      <c r="CT21" s="74"/>
-      <c r="CU21" s="74"/>
-      <c r="CV21" s="74"/>
-      <c r="CW21" s="74"/>
-      <c r="CX21" s="74"/>
-      <c r="CY21" s="74"/>
-      <c r="CZ21" s="74"/>
+      <c r="CM21" s="65"/>
+      <c r="CN21" s="65"/>
+      <c r="CO21" s="65"/>
+      <c r="CP21" s="65"/>
+      <c r="CQ21" s="65"/>
+      <c r="CR21" s="65"/>
+      <c r="CS21" s="65"/>
+      <c r="CT21" s="65"/>
+      <c r="CU21" s="65"/>
+      <c r="CV21" s="65"/>
+      <c r="CW21" s="65"/>
+      <c r="CX21" s="65"/>
+      <c r="CY21" s="65"/>
+      <c r="CZ21" s="65"/>
       <c r="DA21" s="49"/>
     </row>
     <row r="22" spans="2:105" ht="20.25" customHeight="1">
@@ -6573,34 +6606,34 @@
       <c r="BV22" s="39"/>
       <c r="BW22" s="39"/>
       <c r="BX22" s="47"/>
-      <c r="BY22" s="75"/>
-      <c r="BZ22" s="75"/>
-      <c r="CA22" s="75"/>
-      <c r="CB22" s="75"/>
-      <c r="CC22" s="75"/>
-      <c r="CD22" s="75"/>
-      <c r="CE22" s="75"/>
-      <c r="CF22" s="75"/>
-      <c r="CG22" s="75"/>
-      <c r="CH22" s="75"/>
-      <c r="CI22" s="75"/>
-      <c r="CJ22" s="75"/>
-      <c r="CK22" s="75"/>
+      <c r="BY22" s="66"/>
+      <c r="BZ22" s="66"/>
+      <c r="CA22" s="66"/>
+      <c r="CB22" s="66"/>
+      <c r="CC22" s="66"/>
+      <c r="CD22" s="66"/>
+      <c r="CE22" s="66"/>
+      <c r="CF22" s="66"/>
+      <c r="CG22" s="66"/>
+      <c r="CH22" s="66"/>
+      <c r="CI22" s="66"/>
+      <c r="CJ22" s="66"/>
+      <c r="CK22" s="66"/>
       <c r="CL22" s="48"/>
-      <c r="CM22" s="75"/>
-      <c r="CN22" s="75"/>
-      <c r="CO22" s="75"/>
-      <c r="CP22" s="75"/>
-      <c r="CQ22" s="75"/>
-      <c r="CR22" s="75"/>
-      <c r="CS22" s="75"/>
-      <c r="CT22" s="75"/>
-      <c r="CU22" s="75"/>
-      <c r="CV22" s="75"/>
-      <c r="CW22" s="75"/>
-      <c r="CX22" s="75"/>
-      <c r="CY22" s="75"/>
-      <c r="CZ22" s="75"/>
+      <c r="CM22" s="66"/>
+      <c r="CN22" s="66"/>
+      <c r="CO22" s="66"/>
+      <c r="CP22" s="66"/>
+      <c r="CQ22" s="66"/>
+      <c r="CR22" s="66"/>
+      <c r="CS22" s="66"/>
+      <c r="CT22" s="66"/>
+      <c r="CU22" s="66"/>
+      <c r="CV22" s="66"/>
+      <c r="CW22" s="66"/>
+      <c r="CX22" s="66"/>
+      <c r="CY22" s="66"/>
+      <c r="CZ22" s="66"/>
       <c r="DA22" s="49"/>
     </row>
     <row r="23" spans="2:105" ht="20.25" customHeight="1">
@@ -6753,42 +6786,83 @@
     </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="BZ7:BZ14"/>
-    <mergeCell ref="CA7:CA14"/>
-    <mergeCell ref="CF7:CF14"/>
-    <mergeCell ref="CG7:CG14"/>
-    <mergeCell ref="CN7:CN14"/>
-    <mergeCell ref="CO7:CO14"/>
-    <mergeCell ref="CT7:CT14"/>
-    <mergeCell ref="CU7:CU14"/>
-    <mergeCell ref="CM7:CM13"/>
-    <mergeCell ref="CB7:CB13"/>
-    <mergeCell ref="CC7:CC13"/>
-    <mergeCell ref="CD7:CD13"/>
-    <mergeCell ref="CE7:CE13"/>
-    <mergeCell ref="CH7:CH13"/>
-    <mergeCell ref="CI7:CI13"/>
-    <mergeCell ref="CJ7:CJ13"/>
-    <mergeCell ref="CB15:CB22"/>
-    <mergeCell ref="CC15:CC22"/>
-    <mergeCell ref="CD15:CD22"/>
-    <mergeCell ref="CM15:CM22"/>
-    <mergeCell ref="CN15:CN22"/>
-    <mergeCell ref="CO15:CO22"/>
-    <mergeCell ref="CE15:CE22"/>
-    <mergeCell ref="CF15:CF22"/>
-    <mergeCell ref="CZ7:CZ13"/>
-    <mergeCell ref="CQ15:CQ22"/>
-    <mergeCell ref="CR15:CR22"/>
-    <mergeCell ref="CS15:CS22"/>
-    <mergeCell ref="CV7:CV13"/>
-    <mergeCell ref="CW7:CW13"/>
-    <mergeCell ref="CX15:CX22"/>
-    <mergeCell ref="CY15:CY22"/>
-    <mergeCell ref="CW15:CW22"/>
-    <mergeCell ref="CX7:CX13"/>
-    <mergeCell ref="CY7:CY13"/>
-    <mergeCell ref="CG15:CG22"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="CE4:CK4"/>
+    <mergeCell ref="CM4:CR4"/>
+    <mergeCell ref="CS4:CZ4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:R4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="BM5:BN5"/>
+    <mergeCell ref="BQ5:BR5"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="BP4:BW4"/>
+    <mergeCell ref="BY4:CD4"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="Z4:AF4"/>
+    <mergeCell ref="AH4:AM4"/>
+    <mergeCell ref="AN4:AT4"/>
+    <mergeCell ref="AV4:BA4"/>
+    <mergeCell ref="BB4:BH4"/>
+    <mergeCell ref="BJ4:BO4"/>
+    <mergeCell ref="CN5:CO5"/>
+    <mergeCell ref="CP5:CQ5"/>
+    <mergeCell ref="CM5:CM6"/>
+    <mergeCell ref="CH5:CI5"/>
+    <mergeCell ref="CE5:CE6"/>
+    <mergeCell ref="CK7:CK13"/>
+    <mergeCell ref="CP7:CP13"/>
+    <mergeCell ref="CQ7:CQ13"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="CF5:CG5"/>
     <mergeCell ref="BY7:BY13"/>
     <mergeCell ref="CZ5:CZ6"/>
     <mergeCell ref="CX5:CX6"/>
@@ -6813,244 +6887,218 @@
     <mergeCell ref="CR5:CR6"/>
     <mergeCell ref="CJ5:CJ6"/>
     <mergeCell ref="CK5:CK6"/>
-    <mergeCell ref="CN5:CO5"/>
-    <mergeCell ref="CP5:CQ5"/>
-    <mergeCell ref="CM5:CM6"/>
-    <mergeCell ref="CH5:CI5"/>
-    <mergeCell ref="CE5:CE6"/>
-    <mergeCell ref="CK7:CK13"/>
-    <mergeCell ref="CP7:CP13"/>
-    <mergeCell ref="CQ7:CQ13"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="CF5:CG5"/>
-    <mergeCell ref="BP4:BW4"/>
-    <mergeCell ref="BY4:CD4"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="Z4:AF4"/>
-    <mergeCell ref="AH4:AM4"/>
-    <mergeCell ref="AN4:AT4"/>
-    <mergeCell ref="AV4:BA4"/>
-    <mergeCell ref="BB4:BH4"/>
-    <mergeCell ref="BJ4:BO4"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="BZ5:CA5"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BW5:BW6"/>
-    <mergeCell ref="BY5:BY6"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="CE4:CK4"/>
-    <mergeCell ref="CM4:CR4"/>
-    <mergeCell ref="CS4:CZ4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:R4"/>
+    <mergeCell ref="CB15:CB22"/>
+    <mergeCell ref="CC15:CC22"/>
+    <mergeCell ref="CD15:CD22"/>
+    <mergeCell ref="CM15:CM22"/>
+    <mergeCell ref="CN15:CN22"/>
+    <mergeCell ref="CO15:CO22"/>
+    <mergeCell ref="CE15:CE22"/>
+    <mergeCell ref="CF15:CF22"/>
+    <mergeCell ref="CZ7:CZ13"/>
+    <mergeCell ref="CQ15:CQ22"/>
+    <mergeCell ref="CR15:CR22"/>
+    <mergeCell ref="CS15:CS22"/>
+    <mergeCell ref="CV7:CV13"/>
+    <mergeCell ref="CW7:CW13"/>
+    <mergeCell ref="CX15:CX22"/>
+    <mergeCell ref="CY15:CY22"/>
+    <mergeCell ref="CW15:CW22"/>
+    <mergeCell ref="CX7:CX13"/>
+    <mergeCell ref="CY7:CY13"/>
+    <mergeCell ref="CG15:CG22"/>
+    <mergeCell ref="BZ7:BZ14"/>
+    <mergeCell ref="CA7:CA14"/>
+    <mergeCell ref="CF7:CF14"/>
+    <mergeCell ref="CG7:CG14"/>
+    <mergeCell ref="CN7:CN14"/>
+    <mergeCell ref="CO7:CO14"/>
+    <mergeCell ref="CT7:CT14"/>
+    <mergeCell ref="CU7:CU14"/>
+    <mergeCell ref="CM7:CM13"/>
+    <mergeCell ref="CB7:CB13"/>
+    <mergeCell ref="CC7:CC13"/>
+    <mergeCell ref="CD7:CD13"/>
+    <mergeCell ref="CE7:CE13"/>
+    <mergeCell ref="CH7:CH13"/>
+    <mergeCell ref="CI7:CI13"/>
+    <mergeCell ref="CJ7:CJ13"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="F15:F16">
-    <cfRule type="expression" dxfId="32" priority="212">
+    <cfRule type="expression" dxfId="35" priority="215">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="31" priority="203">
+    <cfRule type="expression" dxfId="34" priority="206">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F18">
-    <cfRule type="expression" dxfId="30" priority="213">
+    <cfRule type="expression" dxfId="33" priority="216">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="29" priority="210">
+    <cfRule type="expression" dxfId="32" priority="213">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F22">
-    <cfRule type="expression" dxfId="28" priority="175">
+    <cfRule type="expression" dxfId="31" priority="178">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:K14">
-    <cfRule type="expression" dxfId="27" priority="98">
+    <cfRule type="expression" dxfId="30" priority="101">
       <formula>$J7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:J22">
-    <cfRule type="expression" dxfId="26" priority="237">
+    <cfRule type="expression" dxfId="29" priority="240">
       <formula>$I15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7:R22 K15:K22">
-    <cfRule type="expression" dxfId="25" priority="91">
+    <cfRule type="expression" dxfId="28" priority="94">
       <formula>$P7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15:T16 T20">
-    <cfRule type="expression" dxfId="24" priority="22">
+    <cfRule type="expression" dxfId="27" priority="25">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15:T16">
+    <cfRule type="expression" dxfId="26" priority="27">
+      <formula>#REF!&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T17:T18">
+    <cfRule type="expression" dxfId="25" priority="28">
+      <formula>$I18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T19">
+    <cfRule type="expression" dxfId="24" priority="26">
+      <formula>$I18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T21:T22">
     <cfRule type="expression" dxfId="23" priority="24">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T17:T18">
-    <cfRule type="expression" dxfId="22" priority="25">
-      <formula>$I18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T19">
-    <cfRule type="expression" dxfId="21" priority="23">
-      <formula>$I18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T21:T22">
-    <cfRule type="expression" dxfId="20" priority="21">
-      <formula>#REF!&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="U15:Y22">
-    <cfRule type="expression" dxfId="19" priority="18">
+    <cfRule type="expression" dxfId="22" priority="21">
       <formula>$X15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z7:Z22">
-    <cfRule type="expression" dxfId="18" priority="4">
+    <cfRule type="expression" dxfId="21" priority="7">
       <formula>$P7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15:AB21">
-    <cfRule type="expression" dxfId="17" priority="256">
+    <cfRule type="expression" dxfId="20" priority="259">
       <formula>$X16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15:AB22 AF15:AF22">
-    <cfRule type="expression" dxfId="16" priority="243">
+    <cfRule type="expression" dxfId="19" priority="246">
       <formula>$AD15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA22:AB22">
-    <cfRule type="expression" dxfId="15" priority="205">
+    <cfRule type="expression" dxfId="18" priority="208">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH7:AH14">
-    <cfRule type="expression" dxfId="14" priority="11">
+    <cfRule type="expression" dxfId="17" priority="14">
       <formula>$J7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH15:AH16">
-    <cfRule type="expression" dxfId="13" priority="7">
+    <cfRule type="expression" dxfId="16" priority="10">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
+    <cfRule type="expression" dxfId="15" priority="12">
+      <formula>#REF!&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH17:AH18">
+    <cfRule type="expression" dxfId="14" priority="13">
+      <formula>$I18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH19">
+    <cfRule type="expression" dxfId="13" priority="11">
+      <formula>$I18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH20:AH22">
     <cfRule type="expression" dxfId="12" priority="9">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH17:AH18">
-    <cfRule type="expression" dxfId="11" priority="10">
-      <formula>$I18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH19">
-    <cfRule type="expression" dxfId="10" priority="8">
-      <formula>$I18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH20:AH22">
-    <cfRule type="expression" dxfId="9" priority="6">
-      <formula>#REF!&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="AI7:AL7 AK8:AL14 AI8:AJ22 AK15:AK21">
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="11" priority="15">
       <formula>$AK7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL15:AM22 AK22">
-    <cfRule type="expression" dxfId="7" priority="245">
+  <conditionalFormatting sqref="AL16:AM16 AK22 AL19:AM22 AM17:AM18 AM15">
+    <cfRule type="expression" dxfId="10" priority="248">
       <formula>$AL15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN7:AT22">
-    <cfRule type="expression" dxfId="0" priority="88">
+    <cfRule type="expression" dxfId="3" priority="91">
       <formula>$AR7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV7:BA22">
-    <cfRule type="expression" dxfId="6" priority="152">
+    <cfRule type="expression" dxfId="9" priority="155">
       <formula>$AZ7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB7:BH22">
-    <cfRule type="expression" dxfId="5" priority="151">
+    <cfRule type="expression" dxfId="8" priority="154">
       <formula>$BF7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ7:BO22">
-    <cfRule type="expression" dxfId="4" priority="146">
+    <cfRule type="expression" dxfId="7" priority="149">
       <formula>$BN7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP7:BP21 BS7:BW21">
-    <cfRule type="expression" dxfId="3" priority="145">
+    <cfRule type="expression" dxfId="6" priority="148">
       <formula>$BT7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP22:BW22">
-    <cfRule type="expression" dxfId="2" priority="255">
+    <cfRule type="expression" dxfId="5" priority="258">
       <formula>$BT22&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ7:BR21">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>$BN7&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL18">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$AR18&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL15">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$AR15&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL17">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$AR17&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>

--- a/スケジュール（2023-06）.xlsx
+++ b/スケジュール（2023-06）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sidney\OneDrive\桌面\Gitplace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D13846D-61D1-4636-A832-2ACFD68BD79F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDE19C8-2BFD-4431-97BA-E7022E65DD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12300" tabRatio="910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="体制図" sheetId="11" r:id="rId1"/>
@@ -26,6 +26,19 @@
     <sheet name="8_勤怠承認詳細" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -840,29 +853,11 @@
     </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -876,6 +871,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
@@ -883,21 +896,7 @@
     <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準_システム管理" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="36">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="0" tint="-0.1498764000366222"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="34">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2851,20 +2850,20 @@
   <dimension ref="B3:DA24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="S13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="S7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AP20" sqref="AP20"/>
+      <selection pane="bottomRight" activeCell="AM9" sqref="AM9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.796875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="18.69921875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.59765625" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="8.69921875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="16.83203125" style="2" customWidth="1"/>
+    <col min="4" max="5" width="18.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.58203125" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="8.6640625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="8" max="11" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="13" max="18" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -2873,354 +2872,354 @@
     <col min="21" max="25" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="26" max="26" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="27" max="29" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="7.59765625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="7.58203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="31" max="32" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="1.59765625" style="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="1.58203125" style="1" customWidth="1" collapsed="1"/>
     <col min="34" max="34" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="35" max="39" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="40" max="40" width="13" style="2" customWidth="1" outlineLevel="1"/>
     <col min="41" max="46" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="47" max="47" width="1.59765625" style="1" customWidth="1"/>
+    <col min="47" max="47" width="1.58203125" style="1" customWidth="1"/>
     <col min="48" max="48" width="13" style="2" customWidth="1" outlineLevel="1"/>
     <col min="49" max="53" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="54" max="54" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="55" max="60" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="61" max="61" width="1.59765625" style="1" customWidth="1"/>
+    <col min="61" max="61" width="1.58203125" style="1" customWidth="1"/>
     <col min="62" max="62" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="63" max="67" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="68" max="68" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="69" max="75" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="76" max="76" width="1.59765625" style="1" customWidth="1"/>
-    <col min="77" max="77" width="6.59765625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="76" max="76" width="1.58203125" style="1" customWidth="1"/>
+    <col min="77" max="77" width="6.58203125" style="1" customWidth="1" outlineLevel="1"/>
     <col min="78" max="81" width="6.5" style="24" customWidth="1" outlineLevel="1"/>
     <col min="82" max="83" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="84" max="85" width="6.5" style="27" customWidth="1" outlineLevel="1"/>
     <col min="86" max="87" width="6.5" style="24" customWidth="1" outlineLevel="1"/>
     <col min="88" max="89" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="90" max="90" width="1.59765625" style="1" customWidth="1"/>
-    <col min="91" max="91" width="6.59765625" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="90" max="90" width="1.58203125" style="1" customWidth="1"/>
+    <col min="91" max="91" width="6.58203125" style="1" customWidth="1" outlineLevel="1"/>
     <col min="92" max="93" width="6.5" style="27" customWidth="1" outlineLevel="1"/>
     <col min="94" max="95" width="6.5" style="24" customWidth="1" outlineLevel="1"/>
     <col min="96" max="97" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="98" max="99" width="6.5" style="27" customWidth="1" outlineLevel="1"/>
     <col min="100" max="101" width="6.5" style="24" customWidth="1" outlineLevel="1"/>
     <col min="102" max="104" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="105" max="105" width="1.59765625" style="1" customWidth="1"/>
+    <col min="105" max="105" width="1.58203125" style="1" customWidth="1"/>
     <col min="106" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:105" ht="23.4">
+    <row r="3" spans="2:105" ht="23.5">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:105" s="17" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="68" t="s">
+      <c r="D4" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="68" t="s">
+      <c r="E4" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="68" t="s">
+      <c r="F4" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68" t="s">
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="T4" s="68" t="s">
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="T4" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="U4" s="68"/>
-      <c r="V4" s="68"/>
-      <c r="W4" s="68"/>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="68"/>
-      <c r="Z4" s="68" t="s">
+      <c r="U4" s="65"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="68"/>
-      <c r="AB4" s="68"/>
-      <c r="AC4" s="68"/>
-      <c r="AD4" s="68"/>
-      <c r="AE4" s="68"/>
-      <c r="AF4" s="68"/>
-      <c r="AH4" s="68" t="s">
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AH4" s="65" t="s">
         <v>8</v>
       </c>
-      <c r="AI4" s="68"/>
-      <c r="AJ4" s="68"/>
-      <c r="AK4" s="68"/>
-      <c r="AL4" s="68"/>
-      <c r="AM4" s="68"/>
-      <c r="AN4" s="68" t="s">
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="AO4" s="68"/>
-      <c r="AP4" s="68"/>
-      <c r="AQ4" s="68"/>
-      <c r="AR4" s="68"/>
-      <c r="AS4" s="68"/>
-      <c r="AT4" s="72"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="65"/>
+      <c r="AQ4" s="65"/>
+      <c r="AR4" s="65"/>
+      <c r="AS4" s="65"/>
+      <c r="AT4" s="66"/>
       <c r="AU4" s="43"/>
-      <c r="AV4" s="68" t="s">
+      <c r="AV4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="AW4" s="68"/>
-      <c r="AX4" s="68"/>
-      <c r="AY4" s="68"/>
-      <c r="AZ4" s="68"/>
-      <c r="BA4" s="68"/>
-      <c r="BB4" s="68" t="s">
+      <c r="AW4" s="65"/>
+      <c r="AX4" s="65"/>
+      <c r="AY4" s="65"/>
+      <c r="AZ4" s="65"/>
+      <c r="BA4" s="65"/>
+      <c r="BB4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="BC4" s="68"/>
-      <c r="BD4" s="68"/>
-      <c r="BE4" s="68"/>
-      <c r="BF4" s="68"/>
-      <c r="BG4" s="68"/>
-      <c r="BH4" s="68"/>
+      <c r="BC4" s="65"/>
+      <c r="BD4" s="65"/>
+      <c r="BE4" s="65"/>
+      <c r="BF4" s="65"/>
+      <c r="BG4" s="65"/>
+      <c r="BH4" s="65"/>
       <c r="BI4" s="44"/>
-      <c r="BJ4" s="73" t="s">
+      <c r="BJ4" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="BK4" s="68"/>
-      <c r="BL4" s="68"/>
-      <c r="BM4" s="68"/>
-      <c r="BN4" s="68"/>
-      <c r="BO4" s="68"/>
-      <c r="BP4" s="68" t="s">
+      <c r="BK4" s="65"/>
+      <c r="BL4" s="65"/>
+      <c r="BM4" s="65"/>
+      <c r="BN4" s="65"/>
+      <c r="BO4" s="65"/>
+      <c r="BP4" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="BQ4" s="68"/>
-      <c r="BR4" s="68"/>
-      <c r="BS4" s="68"/>
-      <c r="BT4" s="68"/>
-      <c r="BU4" s="68"/>
-      <c r="BV4" s="68"/>
-      <c r="BW4" s="68"/>
+      <c r="BQ4" s="65"/>
+      <c r="BR4" s="65"/>
+      <c r="BS4" s="65"/>
+      <c r="BT4" s="65"/>
+      <c r="BU4" s="65"/>
+      <c r="BV4" s="65"/>
+      <c r="BW4" s="65"/>
       <c r="BX4" s="45"/>
-      <c r="BY4" s="68" t="s">
+      <c r="BY4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="BZ4" s="68"/>
-      <c r="CA4" s="68"/>
-      <c r="CB4" s="68"/>
-      <c r="CC4" s="68"/>
-      <c r="CD4" s="68"/>
-      <c r="CE4" s="68" t="s">
+      <c r="BZ4" s="65"/>
+      <c r="CA4" s="65"/>
+      <c r="CB4" s="65"/>
+      <c r="CC4" s="65"/>
+      <c r="CD4" s="65"/>
+      <c r="CE4" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="CF4" s="68"/>
-      <c r="CG4" s="68"/>
-      <c r="CH4" s="68"/>
-      <c r="CI4" s="68"/>
-      <c r="CJ4" s="68"/>
-      <c r="CK4" s="72"/>
+      <c r="CF4" s="65"/>
+      <c r="CG4" s="65"/>
+      <c r="CH4" s="65"/>
+      <c r="CI4" s="65"/>
+      <c r="CJ4" s="65"/>
+      <c r="CK4" s="66"/>
       <c r="CL4" s="46"/>
-      <c r="CM4" s="73" t="s">
+      <c r="CM4" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="CN4" s="68"/>
-      <c r="CO4" s="68"/>
-      <c r="CP4" s="68"/>
-      <c r="CQ4" s="68"/>
-      <c r="CR4" s="68"/>
-      <c r="CS4" s="68" t="s">
+      <c r="CN4" s="65"/>
+      <c r="CO4" s="65"/>
+      <c r="CP4" s="65"/>
+      <c r="CQ4" s="65"/>
+      <c r="CR4" s="65"/>
+      <c r="CS4" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="CT4" s="68"/>
-      <c r="CU4" s="68"/>
-      <c r="CV4" s="68"/>
-      <c r="CW4" s="68"/>
-      <c r="CX4" s="68"/>
-      <c r="CY4" s="68"/>
-      <c r="CZ4" s="68"/>
+      <c r="CT4" s="65"/>
+      <c r="CU4" s="65"/>
+      <c r="CV4" s="65"/>
+      <c r="CW4" s="65"/>
+      <c r="CX4" s="65"/>
+      <c r="CY4" s="65"/>
+      <c r="CZ4" s="65"/>
       <c r="DA4" s="45"/>
     </row>
-    <row r="5" spans="2:105" ht="21.6" customHeight="1">
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="68" t="s">
+    <row r="5" spans="2:105" ht="21.65" customHeight="1">
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74" t="s">
+      <c r="H5" s="68"/>
+      <c r="I5" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="74"/>
-      <c r="K5" s="67" t="s">
+      <c r="J5" s="68"/>
+      <c r="K5" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="68" t="s">
+      <c r="L5" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="74" t="s">
+      <c r="M5" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="74"/>
-      <c r="O5" s="74" t="s">
+      <c r="N5" s="68"/>
+      <c r="O5" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="67" t="s">
+      <c r="P5" s="68"/>
+      <c r="Q5" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="67" t="s">
+      <c r="R5" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="68" t="s">
+      <c r="T5" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="74" t="s">
+      <c r="U5" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74" t="s">
+      <c r="V5" s="68"/>
+      <c r="W5" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="67" t="s">
+      <c r="X5" s="68"/>
+      <c r="Y5" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="68" t="s">
+      <c r="Z5" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="AA5" s="74" t="s">
+      <c r="AA5" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="AB5" s="74"/>
-      <c r="AC5" s="74" t="s">
+      <c r="AB5" s="68"/>
+      <c r="AC5" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="AD5" s="74"/>
-      <c r="AE5" s="67" t="s">
+      <c r="AD5" s="68"/>
+      <c r="AE5" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="AF5" s="67" t="s">
+      <c r="AF5" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="AH5" s="68" t="s">
+      <c r="AH5" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="AI5" s="74" t="s">
+      <c r="AI5" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="AJ5" s="74"/>
-      <c r="AK5" s="74" t="s">
+      <c r="AJ5" s="68"/>
+      <c r="AK5" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="AL5" s="74"/>
-      <c r="AM5" s="67" t="s">
+      <c r="AL5" s="68"/>
+      <c r="AM5" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="AN5" s="68" t="s">
+      <c r="AN5" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="AO5" s="74" t="s">
+      <c r="AO5" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="AP5" s="74"/>
-      <c r="AQ5" s="74" t="s">
+      <c r="AP5" s="68"/>
+      <c r="AQ5" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="AR5" s="74"/>
-      <c r="AS5" s="67" t="s">
+      <c r="AR5" s="68"/>
+      <c r="AS5" s="64" t="s">
         <v>21</v>
       </c>
       <c r="AT5" s="71" t="s">
         <v>23</v>
       </c>
       <c r="AU5" s="47"/>
-      <c r="AV5" s="68" t="s">
+      <c r="AV5" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="AW5" s="74" t="s">
+      <c r="AW5" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="AX5" s="74"/>
-      <c r="AY5" s="74" t="s">
+      <c r="AX5" s="68"/>
+      <c r="AY5" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="AZ5" s="74"/>
-      <c r="BA5" s="67" t="s">
+      <c r="AZ5" s="68"/>
+      <c r="BA5" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="BB5" s="68" t="s">
+      <c r="BB5" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="BC5" s="74" t="s">
+      <c r="BC5" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="BD5" s="74"/>
-      <c r="BE5" s="74" t="s">
+      <c r="BD5" s="68"/>
+      <c r="BE5" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="BF5" s="74"/>
-      <c r="BG5" s="67" t="s">
+      <c r="BF5" s="68"/>
+      <c r="BG5" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="BH5" s="67" t="s">
+      <c r="BH5" s="64" t="s">
         <v>23</v>
       </c>
       <c r="BI5" s="48"/>
-      <c r="BJ5" s="73" t="s">
+      <c r="BJ5" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="BK5" s="74" t="s">
+      <c r="BK5" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="BL5" s="74"/>
-      <c r="BM5" s="74" t="s">
+      <c r="BL5" s="68"/>
+      <c r="BM5" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="BN5" s="74"/>
-      <c r="BO5" s="67" t="s">
+      <c r="BN5" s="68"/>
+      <c r="BO5" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="BP5" s="68" t="s">
+      <c r="BP5" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="BQ5" s="74" t="s">
+      <c r="BQ5" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="BR5" s="74"/>
-      <c r="BS5" s="74" t="s">
+      <c r="BR5" s="68"/>
+      <c r="BS5" s="68" t="s">
         <v>20</v>
       </c>
-      <c r="BT5" s="74"/>
-      <c r="BU5" s="67" t="s">
+      <c r="BT5" s="68"/>
+      <c r="BU5" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="BV5" s="67" t="s">
+      <c r="BV5" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="BW5" s="67" t="s">
+      <c r="BW5" s="64" t="s">
         <v>24</v>
       </c>
       <c r="BX5" s="49"/>
-      <c r="BY5" s="68" t="s">
+      <c r="BY5" s="65" t="s">
         <v>18</v>
       </c>
       <c r="BZ5" s="70" t="s">
@@ -3231,69 +3230,69 @@
         <v>20</v>
       </c>
       <c r="CC5" s="70"/>
-      <c r="CD5" s="67" t="s">
+      <c r="CD5" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="CE5" s="68" t="s">
+      <c r="CE5" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="CF5" s="69" t="s">
+      <c r="CF5" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="CG5" s="69"/>
+      <c r="CG5" s="72"/>
       <c r="CH5" s="70" t="s">
         <v>20</v>
       </c>
       <c r="CI5" s="70"/>
-      <c r="CJ5" s="67" t="s">
+      <c r="CJ5" s="64" t="s">
         <v>21</v>
       </c>
       <c r="CK5" s="71" t="s">
         <v>23</v>
       </c>
       <c r="CL5" s="50"/>
-      <c r="CM5" s="73" t="s">
+      <c r="CM5" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="CN5" s="69" t="s">
+      <c r="CN5" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="CO5" s="69"/>
+      <c r="CO5" s="72"/>
       <c r="CP5" s="70" t="s">
         <v>20</v>
       </c>
       <c r="CQ5" s="70"/>
-      <c r="CR5" s="67" t="s">
+      <c r="CR5" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="CS5" s="68" t="s">
+      <c r="CS5" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="CT5" s="69" t="s">
+      <c r="CT5" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="CU5" s="69"/>
+      <c r="CU5" s="72"/>
       <c r="CV5" s="70" t="s">
         <v>20</v>
       </c>
       <c r="CW5" s="70"/>
-      <c r="CX5" s="67" t="s">
+      <c r="CX5" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="CY5" s="67" t="s">
+      <c r="CY5" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="CZ5" s="67" t="s">
+      <c r="CZ5" s="64" t="s">
         <v>24</v>
       </c>
       <c r="DA5" s="49"/>
     </row>
-    <row r="6" spans="2:105" ht="14.4">
-      <c r="B6" s="75"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="68"/>
+    <row r="6" spans="2:105" ht="14">
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="65"/>
       <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3306,8 +3305,8 @@
       <c r="J6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
       <c r="M6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3320,9 +3319,9 @@
       <c r="P6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="T6" s="68"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="T6" s="65"/>
       <c r="U6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3335,8 +3334,8 @@
       <c r="X6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="68"/>
-      <c r="Z6" s="68"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
       <c r="AA6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3349,9 +3348,9 @@
       <c r="AD6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AE6" s="68"/>
-      <c r="AF6" s="68"/>
-      <c r="AH6" s="68"/>
+      <c r="AE6" s="65"/>
+      <c r="AF6" s="65"/>
+      <c r="AH6" s="65"/>
       <c r="AI6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3364,8 +3363,8 @@
       <c r="AL6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AM6" s="68"/>
-      <c r="AN6" s="68"/>
+      <c r="AM6" s="65"/>
+      <c r="AN6" s="65"/>
       <c r="AO6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3378,10 +3377,10 @@
       <c r="AR6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AS6" s="68"/>
-      <c r="AT6" s="72"/>
+      <c r="AS6" s="65"/>
+      <c r="AT6" s="66"/>
       <c r="AU6" s="47"/>
-      <c r="AV6" s="68"/>
+      <c r="AV6" s="65"/>
       <c r="AW6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3394,8 +3393,8 @@
       <c r="AZ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BA6" s="68"/>
-      <c r="BB6" s="68"/>
+      <c r="BA6" s="65"/>
+      <c r="BB6" s="65"/>
       <c r="BC6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3408,10 +3407,10 @@
       <c r="BF6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BG6" s="68"/>
-      <c r="BH6" s="68"/>
+      <c r="BG6" s="65"/>
+      <c r="BH6" s="65"/>
       <c r="BI6" s="48"/>
-      <c r="BJ6" s="73"/>
+      <c r="BJ6" s="67"/>
       <c r="BK6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3424,8 +3423,8 @@
       <c r="BN6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BO6" s="68"/>
-      <c r="BP6" s="68"/>
+      <c r="BO6" s="65"/>
+      <c r="BP6" s="65"/>
       <c r="BQ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3438,11 +3437,11 @@
       <c r="BT6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BU6" s="68"/>
-      <c r="BV6" s="68"/>
-      <c r="BW6" s="68"/>
+      <c r="BU6" s="65"/>
+      <c r="BV6" s="65"/>
+      <c r="BW6" s="65"/>
       <c r="BX6" s="49"/>
-      <c r="BY6" s="68"/>
+      <c r="BY6" s="65"/>
       <c r="BZ6" s="25" t="s">
         <v>25</v>
       </c>
@@ -3455,8 +3454,8 @@
       <c r="CC6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="CD6" s="68"/>
-      <c r="CE6" s="68"/>
+      <c r="CD6" s="65"/>
+      <c r="CE6" s="65"/>
       <c r="CF6" s="28" t="s">
         <v>25</v>
       </c>
@@ -3469,10 +3468,10 @@
       <c r="CI6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="CJ6" s="68"/>
-      <c r="CK6" s="72"/>
+      <c r="CJ6" s="65"/>
+      <c r="CK6" s="66"/>
       <c r="CL6" s="50"/>
-      <c r="CM6" s="73"/>
+      <c r="CM6" s="67"/>
       <c r="CN6" s="28" t="s">
         <v>25</v>
       </c>
@@ -3485,8 +3484,8 @@
       <c r="CQ6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="CR6" s="68"/>
-      <c r="CS6" s="68"/>
+      <c r="CR6" s="65"/>
+      <c r="CS6" s="65"/>
       <c r="CT6" s="28" t="s">
         <v>25</v>
       </c>
@@ -3499,9 +3498,9 @@
       <c r="CW6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="CX6" s="68"/>
-      <c r="CY6" s="68"/>
-      <c r="CZ6" s="68"/>
+      <c r="CX6" s="65"/>
+      <c r="CY6" s="65"/>
+      <c r="CZ6" s="65"/>
       <c r="DA6" s="49"/>
     </row>
     <row r="7" spans="2:105" ht="20.25" customHeight="1">
@@ -3617,9 +3616,13 @@
       <c r="AP7" s="41">
         <v>45100</v>
       </c>
-      <c r="AQ7" s="52"/>
+      <c r="AQ7" s="52">
+        <v>45099</v>
+      </c>
       <c r="AR7" s="52"/>
-      <c r="AS7" s="7"/>
+      <c r="AS7" s="7">
+        <v>0.5</v>
+      </c>
       <c r="AT7" s="11"/>
       <c r="AU7" s="47"/>
       <c r="AV7" s="13"/>
@@ -3629,9 +3632,15 @@
       <c r="AX7" s="41">
         <v>45097</v>
       </c>
-      <c r="AY7" s="52"/>
-      <c r="AZ7" s="52"/>
-      <c r="BA7" s="7"/>
+      <c r="AY7" s="52">
+        <v>45099</v>
+      </c>
+      <c r="AZ7" s="52">
+        <v>45099</v>
+      </c>
+      <c r="BA7" s="16">
+        <v>1</v>
+      </c>
       <c r="BB7" s="53"/>
       <c r="BC7" s="41">
         <v>45098</v>
@@ -3667,50 +3676,50 @@
       <c r="BV7" s="10"/>
       <c r="BW7" s="10"/>
       <c r="BX7" s="49"/>
-      <c r="BY7" s="64"/>
-      <c r="BZ7" s="64">
+      <c r="BY7" s="73"/>
+      <c r="BZ7" s="73">
         <v>45104</v>
       </c>
-      <c r="CA7" s="64">
+      <c r="CA7" s="73">
         <v>45104</v>
       </c>
-      <c r="CB7" s="64"/>
-      <c r="CC7" s="64"/>
-      <c r="CD7" s="64"/>
-      <c r="CE7" s="64"/>
-      <c r="CF7" s="64">
+      <c r="CB7" s="73"/>
+      <c r="CC7" s="73"/>
+      <c r="CD7" s="73"/>
+      <c r="CE7" s="73"/>
+      <c r="CF7" s="73">
         <v>45104</v>
       </c>
-      <c r="CG7" s="64">
+      <c r="CG7" s="73">
         <v>45104</v>
       </c>
-      <c r="CH7" s="64"/>
-      <c r="CI7" s="64"/>
-      <c r="CJ7" s="64"/>
-      <c r="CK7" s="64"/>
+      <c r="CH7" s="73"/>
+      <c r="CI7" s="73"/>
+      <c r="CJ7" s="73"/>
+      <c r="CK7" s="73"/>
       <c r="CL7" s="48"/>
-      <c r="CM7" s="64"/>
-      <c r="CN7" s="64">
+      <c r="CM7" s="73"/>
+      <c r="CN7" s="73">
         <v>45105</v>
       </c>
-      <c r="CO7" s="64">
+      <c r="CO7" s="73">
         <v>45105</v>
       </c>
-      <c r="CP7" s="64"/>
-      <c r="CQ7" s="64"/>
-      <c r="CR7" s="64"/>
-      <c r="CS7" s="64"/>
-      <c r="CT7" s="64">
+      <c r="CP7" s="73"/>
+      <c r="CQ7" s="73"/>
+      <c r="CR7" s="73"/>
+      <c r="CS7" s="73"/>
+      <c r="CT7" s="73">
         <v>45105</v>
       </c>
-      <c r="CU7" s="64">
+      <c r="CU7" s="73">
         <v>45105</v>
       </c>
-      <c r="CV7" s="64"/>
-      <c r="CW7" s="64"/>
-      <c r="CX7" s="64"/>
-      <c r="CY7" s="64"/>
-      <c r="CZ7" s="64"/>
+      <c r="CV7" s="73"/>
+      <c r="CW7" s="73"/>
+      <c r="CX7" s="73"/>
+      <c r="CY7" s="73"/>
+      <c r="CZ7" s="73"/>
       <c r="DA7" s="49"/>
     </row>
     <row r="8" spans="2:105" ht="20.25" customHeight="1">
@@ -3826,9 +3835,13 @@
       <c r="AP8" s="41">
         <v>45100</v>
       </c>
-      <c r="AQ8" s="52"/>
+      <c r="AQ8" s="52">
+        <v>45099</v>
+      </c>
       <c r="AR8" s="52"/>
-      <c r="AS8" s="7"/>
+      <c r="AS8" s="7">
+        <v>0.5</v>
+      </c>
       <c r="AT8" s="11"/>
       <c r="AU8" s="47"/>
       <c r="AV8" s="13"/>
@@ -3838,9 +3851,13 @@
       <c r="AX8" s="41">
         <v>45097</v>
       </c>
-      <c r="AY8" s="52"/>
+      <c r="AY8" s="52">
+        <v>45100</v>
+      </c>
       <c r="AZ8" s="52"/>
-      <c r="BA8" s="7"/>
+      <c r="BA8" s="16">
+        <v>0.1</v>
+      </c>
       <c r="BB8" s="53"/>
       <c r="BC8" s="41">
         <v>45098</v>
@@ -3876,34 +3893,34 @@
       <c r="BV8" s="10"/>
       <c r="BW8" s="10"/>
       <c r="BX8" s="49"/>
-      <c r="BY8" s="65"/>
-      <c r="BZ8" s="65"/>
-      <c r="CA8" s="65"/>
-      <c r="CB8" s="65"/>
-      <c r="CC8" s="65"/>
-      <c r="CD8" s="65"/>
-      <c r="CE8" s="65"/>
-      <c r="CF8" s="65"/>
-      <c r="CG8" s="65"/>
-      <c r="CH8" s="65"/>
-      <c r="CI8" s="65"/>
-      <c r="CJ8" s="65"/>
-      <c r="CK8" s="65"/>
+      <c r="BY8" s="74"/>
+      <c r="BZ8" s="74"/>
+      <c r="CA8" s="74"/>
+      <c r="CB8" s="74"/>
+      <c r="CC8" s="74"/>
+      <c r="CD8" s="74"/>
+      <c r="CE8" s="74"/>
+      <c r="CF8" s="74"/>
+      <c r="CG8" s="74"/>
+      <c r="CH8" s="74"/>
+      <c r="CI8" s="74"/>
+      <c r="CJ8" s="74"/>
+      <c r="CK8" s="74"/>
       <c r="CL8" s="48"/>
-      <c r="CM8" s="65"/>
-      <c r="CN8" s="65"/>
-      <c r="CO8" s="65"/>
-      <c r="CP8" s="65"/>
-      <c r="CQ8" s="65"/>
-      <c r="CR8" s="65"/>
-      <c r="CS8" s="65"/>
-      <c r="CT8" s="65"/>
-      <c r="CU8" s="65"/>
-      <c r="CV8" s="65"/>
-      <c r="CW8" s="65"/>
-      <c r="CX8" s="65"/>
-      <c r="CY8" s="65"/>
-      <c r="CZ8" s="65"/>
+      <c r="CM8" s="74"/>
+      <c r="CN8" s="74"/>
+      <c r="CO8" s="74"/>
+      <c r="CP8" s="74"/>
+      <c r="CQ8" s="74"/>
+      <c r="CR8" s="74"/>
+      <c r="CS8" s="74"/>
+      <c r="CT8" s="74"/>
+      <c r="CU8" s="74"/>
+      <c r="CV8" s="74"/>
+      <c r="CW8" s="74"/>
+      <c r="CX8" s="74"/>
+      <c r="CY8" s="74"/>
+      <c r="CZ8" s="74"/>
       <c r="DA8" s="49"/>
     </row>
     <row r="9" spans="2:105" ht="20.25" customHeight="1">
@@ -4008,7 +4025,7 @@
       </c>
       <c r="AL9" s="52"/>
       <c r="AM9" s="42">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AN9" s="53"/>
       <c r="AO9" s="41">
@@ -4017,9 +4034,13 @@
       <c r="AP9" s="41">
         <v>45100</v>
       </c>
-      <c r="AQ9" s="52"/>
+      <c r="AQ9" s="52">
+        <v>45099</v>
+      </c>
       <c r="AR9" s="52"/>
-      <c r="AS9" s="7"/>
+      <c r="AS9" s="7">
+        <v>0.5</v>
+      </c>
       <c r="AT9" s="11"/>
       <c r="AU9" s="47"/>
       <c r="AV9" s="13"/>
@@ -4029,9 +4050,13 @@
       <c r="AX9" s="41">
         <v>45097</v>
       </c>
-      <c r="AY9" s="52"/>
+      <c r="AY9" s="52">
+        <v>45100</v>
+      </c>
       <c r="AZ9" s="52"/>
-      <c r="BA9" s="7"/>
+      <c r="BA9" s="16">
+        <v>0.1</v>
+      </c>
       <c r="BB9" s="53"/>
       <c r="BC9" s="41">
         <v>45098</v>
@@ -4067,34 +4092,34 @@
       <c r="BV9" s="10"/>
       <c r="BW9" s="10"/>
       <c r="BX9" s="47"/>
-      <c r="BY9" s="65"/>
-      <c r="BZ9" s="65"/>
-      <c r="CA9" s="65"/>
-      <c r="CB9" s="65"/>
-      <c r="CC9" s="65"/>
-      <c r="CD9" s="65"/>
-      <c r="CE9" s="65"/>
-      <c r="CF9" s="65"/>
-      <c r="CG9" s="65"/>
-      <c r="CH9" s="65"/>
-      <c r="CI9" s="65"/>
-      <c r="CJ9" s="65"/>
-      <c r="CK9" s="65"/>
+      <c r="BY9" s="74"/>
+      <c r="BZ9" s="74"/>
+      <c r="CA9" s="74"/>
+      <c r="CB9" s="74"/>
+      <c r="CC9" s="74"/>
+      <c r="CD9" s="74"/>
+      <c r="CE9" s="74"/>
+      <c r="CF9" s="74"/>
+      <c r="CG9" s="74"/>
+      <c r="CH9" s="74"/>
+      <c r="CI9" s="74"/>
+      <c r="CJ9" s="74"/>
+      <c r="CK9" s="74"/>
       <c r="CL9" s="48"/>
-      <c r="CM9" s="65"/>
-      <c r="CN9" s="65"/>
-      <c r="CO9" s="65"/>
-      <c r="CP9" s="65"/>
-      <c r="CQ9" s="65"/>
-      <c r="CR9" s="65"/>
-      <c r="CS9" s="65"/>
-      <c r="CT9" s="65"/>
-      <c r="CU9" s="65"/>
-      <c r="CV9" s="65"/>
-      <c r="CW9" s="65"/>
-      <c r="CX9" s="65"/>
-      <c r="CY9" s="65"/>
-      <c r="CZ9" s="65"/>
+      <c r="CM9" s="74"/>
+      <c r="CN9" s="74"/>
+      <c r="CO9" s="74"/>
+      <c r="CP9" s="74"/>
+      <c r="CQ9" s="74"/>
+      <c r="CR9" s="74"/>
+      <c r="CS9" s="74"/>
+      <c r="CT9" s="74"/>
+      <c r="CU9" s="74"/>
+      <c r="CV9" s="74"/>
+      <c r="CW9" s="74"/>
+      <c r="CX9" s="74"/>
+      <c r="CY9" s="74"/>
+      <c r="CZ9" s="74"/>
       <c r="DA9" s="49"/>
     </row>
     <row r="10" spans="2:105" ht="20.25" customHeight="1">
@@ -4210,9 +4235,13 @@
       <c r="AP10" s="41">
         <v>45100</v>
       </c>
-      <c r="AQ10" s="52"/>
+      <c r="AQ10" s="52">
+        <v>45099</v>
+      </c>
       <c r="AR10" s="52"/>
-      <c r="AS10" s="7"/>
+      <c r="AS10" s="7">
+        <v>0.5</v>
+      </c>
       <c r="AT10" s="11"/>
       <c r="AU10" s="47"/>
       <c r="AV10" s="13"/>
@@ -4222,9 +4251,13 @@
       <c r="AX10" s="41">
         <v>45097</v>
       </c>
-      <c r="AY10" s="52"/>
+      <c r="AY10" s="52">
+        <v>45100</v>
+      </c>
       <c r="AZ10" s="52"/>
-      <c r="BA10" s="7"/>
+      <c r="BA10" s="16">
+        <v>0.1</v>
+      </c>
       <c r="BB10" s="53"/>
       <c r="BC10" s="41">
         <v>45098</v>
@@ -4260,34 +4293,34 @@
       <c r="BV10" s="10"/>
       <c r="BW10" s="10"/>
       <c r="BX10" s="47"/>
-      <c r="BY10" s="65"/>
-      <c r="BZ10" s="65"/>
-      <c r="CA10" s="65"/>
-      <c r="CB10" s="65"/>
-      <c r="CC10" s="65"/>
-      <c r="CD10" s="65"/>
-      <c r="CE10" s="65"/>
-      <c r="CF10" s="65"/>
-      <c r="CG10" s="65"/>
-      <c r="CH10" s="65"/>
-      <c r="CI10" s="65"/>
-      <c r="CJ10" s="65"/>
-      <c r="CK10" s="65"/>
+      <c r="BY10" s="74"/>
+      <c r="BZ10" s="74"/>
+      <c r="CA10" s="74"/>
+      <c r="CB10" s="74"/>
+      <c r="CC10" s="74"/>
+      <c r="CD10" s="74"/>
+      <c r="CE10" s="74"/>
+      <c r="CF10" s="74"/>
+      <c r="CG10" s="74"/>
+      <c r="CH10" s="74"/>
+      <c r="CI10" s="74"/>
+      <c r="CJ10" s="74"/>
+      <c r="CK10" s="74"/>
       <c r="CL10" s="48"/>
-      <c r="CM10" s="65"/>
-      <c r="CN10" s="65"/>
-      <c r="CO10" s="65"/>
-      <c r="CP10" s="65"/>
-      <c r="CQ10" s="65"/>
-      <c r="CR10" s="65"/>
-      <c r="CS10" s="65"/>
-      <c r="CT10" s="65"/>
-      <c r="CU10" s="65"/>
-      <c r="CV10" s="65"/>
-      <c r="CW10" s="65"/>
-      <c r="CX10" s="65"/>
-      <c r="CY10" s="65"/>
-      <c r="CZ10" s="65"/>
+      <c r="CM10" s="74"/>
+      <c r="CN10" s="74"/>
+      <c r="CO10" s="74"/>
+      <c r="CP10" s="74"/>
+      <c r="CQ10" s="74"/>
+      <c r="CR10" s="74"/>
+      <c r="CS10" s="74"/>
+      <c r="CT10" s="74"/>
+      <c r="CU10" s="74"/>
+      <c r="CV10" s="74"/>
+      <c r="CW10" s="74"/>
+      <c r="CX10" s="74"/>
+      <c r="CY10" s="74"/>
+      <c r="CZ10" s="74"/>
       <c r="DA10" s="49"/>
     </row>
     <row r="11" spans="2:105" ht="20.25" customHeight="1">
@@ -4401,9 +4434,13 @@
       <c r="AP11" s="41">
         <v>45100</v>
       </c>
-      <c r="AQ11" s="52"/>
+      <c r="AQ11" s="52">
+        <v>45099</v>
+      </c>
       <c r="AR11" s="52"/>
-      <c r="AS11" s="7"/>
+      <c r="AS11" s="7">
+        <v>0.5</v>
+      </c>
       <c r="AT11" s="11"/>
       <c r="AU11" s="47"/>
       <c r="AV11" s="13"/>
@@ -4413,9 +4450,13 @@
       <c r="AX11" s="41">
         <v>45097</v>
       </c>
-      <c r="AY11" s="52"/>
+      <c r="AY11" s="52">
+        <v>45100</v>
+      </c>
       <c r="AZ11" s="52"/>
-      <c r="BA11" s="7"/>
+      <c r="BA11" s="16">
+        <v>0.1</v>
+      </c>
       <c r="BB11" s="53"/>
       <c r="BC11" s="41">
         <v>45098</v>
@@ -4451,34 +4492,34 @@
       <c r="BV11" s="10"/>
       <c r="BW11" s="10"/>
       <c r="BX11" s="47"/>
-      <c r="BY11" s="65"/>
-      <c r="BZ11" s="65"/>
-      <c r="CA11" s="65"/>
-      <c r="CB11" s="65"/>
-      <c r="CC11" s="65"/>
-      <c r="CD11" s="65"/>
-      <c r="CE11" s="65"/>
-      <c r="CF11" s="65"/>
-      <c r="CG11" s="65"/>
-      <c r="CH11" s="65"/>
-      <c r="CI11" s="65"/>
-      <c r="CJ11" s="65"/>
-      <c r="CK11" s="65"/>
+      <c r="BY11" s="74"/>
+      <c r="BZ11" s="74"/>
+      <c r="CA11" s="74"/>
+      <c r="CB11" s="74"/>
+      <c r="CC11" s="74"/>
+      <c r="CD11" s="74"/>
+      <c r="CE11" s="74"/>
+      <c r="CF11" s="74"/>
+      <c r="CG11" s="74"/>
+      <c r="CH11" s="74"/>
+      <c r="CI11" s="74"/>
+      <c r="CJ11" s="74"/>
+      <c r="CK11" s="74"/>
       <c r="CL11" s="48"/>
-      <c r="CM11" s="65"/>
-      <c r="CN11" s="65"/>
-      <c r="CO11" s="65"/>
-      <c r="CP11" s="65"/>
-      <c r="CQ11" s="65"/>
-      <c r="CR11" s="65"/>
-      <c r="CS11" s="65"/>
-      <c r="CT11" s="65"/>
-      <c r="CU11" s="65"/>
-      <c r="CV11" s="65"/>
-      <c r="CW11" s="65"/>
-      <c r="CX11" s="65"/>
-      <c r="CY11" s="65"/>
-      <c r="CZ11" s="65"/>
+      <c r="CM11" s="74"/>
+      <c r="CN11" s="74"/>
+      <c r="CO11" s="74"/>
+      <c r="CP11" s="74"/>
+      <c r="CQ11" s="74"/>
+      <c r="CR11" s="74"/>
+      <c r="CS11" s="74"/>
+      <c r="CT11" s="74"/>
+      <c r="CU11" s="74"/>
+      <c r="CV11" s="74"/>
+      <c r="CW11" s="74"/>
+      <c r="CX11" s="74"/>
+      <c r="CY11" s="74"/>
+      <c r="CZ11" s="74"/>
       <c r="DA11" s="49"/>
     </row>
     <row r="12" spans="2:105" ht="20.25" customHeight="1">
@@ -4583,7 +4624,7 @@
       </c>
       <c r="AL12" s="52"/>
       <c r="AM12" s="42">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AN12" s="53"/>
       <c r="AO12" s="41">
@@ -4592,9 +4633,13 @@
       <c r="AP12" s="41">
         <v>45100</v>
       </c>
-      <c r="AQ12" s="52"/>
+      <c r="AQ12" s="52">
+        <v>45099</v>
+      </c>
       <c r="AR12" s="52"/>
-      <c r="AS12" s="7"/>
+      <c r="AS12" s="7">
+        <v>0.5</v>
+      </c>
       <c r="AT12" s="11"/>
       <c r="AU12" s="47"/>
       <c r="AV12" s="13"/>
@@ -4604,9 +4649,15 @@
       <c r="AX12" s="41">
         <v>45097</v>
       </c>
-      <c r="AY12" s="52"/>
-      <c r="AZ12" s="52"/>
-      <c r="BA12" s="7"/>
+      <c r="AY12" s="52">
+        <v>45099</v>
+      </c>
+      <c r="AZ12" s="52">
+        <v>45099</v>
+      </c>
+      <c r="BA12" s="16">
+        <v>1</v>
+      </c>
       <c r="BB12" s="53"/>
       <c r="BC12" s="41">
         <v>45098</v>
@@ -4642,34 +4693,34 @@
       <c r="BV12" s="10"/>
       <c r="BW12" s="10"/>
       <c r="BX12" s="47"/>
-      <c r="BY12" s="65"/>
-      <c r="BZ12" s="65"/>
-      <c r="CA12" s="65"/>
-      <c r="CB12" s="65"/>
-      <c r="CC12" s="65"/>
-      <c r="CD12" s="65"/>
-      <c r="CE12" s="65"/>
-      <c r="CF12" s="65"/>
-      <c r="CG12" s="65"/>
-      <c r="CH12" s="65"/>
-      <c r="CI12" s="65"/>
-      <c r="CJ12" s="65"/>
-      <c r="CK12" s="65"/>
+      <c r="BY12" s="74"/>
+      <c r="BZ12" s="74"/>
+      <c r="CA12" s="74"/>
+      <c r="CB12" s="74"/>
+      <c r="CC12" s="74"/>
+      <c r="CD12" s="74"/>
+      <c r="CE12" s="74"/>
+      <c r="CF12" s="74"/>
+      <c r="CG12" s="74"/>
+      <c r="CH12" s="74"/>
+      <c r="CI12" s="74"/>
+      <c r="CJ12" s="74"/>
+      <c r="CK12" s="74"/>
       <c r="CL12" s="48"/>
-      <c r="CM12" s="65"/>
-      <c r="CN12" s="65"/>
-      <c r="CO12" s="65"/>
-      <c r="CP12" s="65"/>
-      <c r="CQ12" s="65"/>
-      <c r="CR12" s="65"/>
-      <c r="CS12" s="65"/>
-      <c r="CT12" s="65"/>
-      <c r="CU12" s="65"/>
-      <c r="CV12" s="65"/>
-      <c r="CW12" s="65"/>
-      <c r="CX12" s="65"/>
-      <c r="CY12" s="65"/>
-      <c r="CZ12" s="65"/>
+      <c r="CM12" s="74"/>
+      <c r="CN12" s="74"/>
+      <c r="CO12" s="74"/>
+      <c r="CP12" s="74"/>
+      <c r="CQ12" s="74"/>
+      <c r="CR12" s="74"/>
+      <c r="CS12" s="74"/>
+      <c r="CT12" s="74"/>
+      <c r="CU12" s="74"/>
+      <c r="CV12" s="74"/>
+      <c r="CW12" s="74"/>
+      <c r="CX12" s="74"/>
+      <c r="CY12" s="74"/>
+      <c r="CZ12" s="74"/>
       <c r="DA12" s="49"/>
     </row>
     <row r="13" spans="2:105" ht="20.25" customHeight="1">
@@ -4776,7 +4827,7 @@
       </c>
       <c r="AL13" s="52"/>
       <c r="AM13" s="42">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AN13" s="53"/>
       <c r="AO13" s="41">
@@ -4785,9 +4836,13 @@
       <c r="AP13" s="41">
         <v>45100</v>
       </c>
-      <c r="AQ13" s="52"/>
+      <c r="AQ13" s="52">
+        <v>45099</v>
+      </c>
       <c r="AR13" s="52"/>
-      <c r="AS13" s="7"/>
+      <c r="AS13" s="7">
+        <v>0.5</v>
+      </c>
       <c r="AT13" s="11"/>
       <c r="AU13" s="47"/>
       <c r="AV13" s="13"/>
@@ -4797,9 +4852,13 @@
       <c r="AX13" s="41">
         <v>45097</v>
       </c>
-      <c r="AY13" s="52"/>
+      <c r="AY13" s="52">
+        <v>45099</v>
+      </c>
       <c r="AZ13" s="52"/>
-      <c r="BA13" s="7"/>
+      <c r="BA13" s="16">
+        <v>0.1</v>
+      </c>
       <c r="BB13" s="53"/>
       <c r="BC13" s="41">
         <v>45098</v>
@@ -4835,34 +4894,34 @@
       <c r="BV13" s="10"/>
       <c r="BW13" s="10"/>
       <c r="BX13" s="47"/>
-      <c r="BY13" s="65"/>
-      <c r="BZ13" s="65"/>
-      <c r="CA13" s="65"/>
-      <c r="CB13" s="65"/>
-      <c r="CC13" s="65"/>
-      <c r="CD13" s="65"/>
-      <c r="CE13" s="65"/>
-      <c r="CF13" s="65"/>
-      <c r="CG13" s="65"/>
-      <c r="CH13" s="65"/>
-      <c r="CI13" s="65"/>
-      <c r="CJ13" s="65"/>
-      <c r="CK13" s="65"/>
+      <c r="BY13" s="74"/>
+      <c r="BZ13" s="74"/>
+      <c r="CA13" s="74"/>
+      <c r="CB13" s="74"/>
+      <c r="CC13" s="74"/>
+      <c r="CD13" s="74"/>
+      <c r="CE13" s="74"/>
+      <c r="CF13" s="74"/>
+      <c r="CG13" s="74"/>
+      <c r="CH13" s="74"/>
+      <c r="CI13" s="74"/>
+      <c r="CJ13" s="74"/>
+      <c r="CK13" s="74"/>
       <c r="CL13" s="48"/>
-      <c r="CM13" s="65"/>
-      <c r="CN13" s="65"/>
-      <c r="CO13" s="65"/>
-      <c r="CP13" s="65"/>
-      <c r="CQ13" s="65"/>
-      <c r="CR13" s="65"/>
-      <c r="CS13" s="65"/>
-      <c r="CT13" s="65"/>
-      <c r="CU13" s="65"/>
-      <c r="CV13" s="65"/>
-      <c r="CW13" s="65"/>
-      <c r="CX13" s="65"/>
-      <c r="CY13" s="65"/>
-      <c r="CZ13" s="65"/>
+      <c r="CM13" s="74"/>
+      <c r="CN13" s="74"/>
+      <c r="CO13" s="74"/>
+      <c r="CP13" s="74"/>
+      <c r="CQ13" s="74"/>
+      <c r="CR13" s="74"/>
+      <c r="CS13" s="74"/>
+      <c r="CT13" s="74"/>
+      <c r="CU13" s="74"/>
+      <c r="CV13" s="74"/>
+      <c r="CW13" s="74"/>
+      <c r="CX13" s="74"/>
+      <c r="CY13" s="74"/>
+      <c r="CZ13" s="74"/>
       <c r="DA13" s="49"/>
     </row>
     <row r="14" spans="2:105" ht="20.25" customHeight="1">
@@ -4992,9 +5051,15 @@
       <c r="AX14" s="41">
         <v>45097</v>
       </c>
-      <c r="AY14" s="52"/>
-      <c r="AZ14" s="52"/>
-      <c r="BA14" s="7"/>
+      <c r="AY14" s="52">
+        <v>45099</v>
+      </c>
+      <c r="AZ14" s="52">
+        <v>45099</v>
+      </c>
+      <c r="BA14" s="16">
+        <v>1</v>
+      </c>
       <c r="BB14" s="53"/>
       <c r="BC14" s="41">
         <v>45098</v>
@@ -5031,28 +5096,28 @@
       <c r="BW14" s="10"/>
       <c r="BX14" s="47"/>
       <c r="BY14" s="54"/>
-      <c r="BZ14" s="66"/>
-      <c r="CA14" s="66"/>
+      <c r="BZ14" s="75"/>
+      <c r="CA14" s="75"/>
       <c r="CB14" s="54"/>
       <c r="CC14" s="54"/>
       <c r="CD14" s="54"/>
       <c r="CE14" s="54"/>
-      <c r="CF14" s="66"/>
-      <c r="CG14" s="66"/>
+      <c r="CF14" s="75"/>
+      <c r="CG14" s="75"/>
       <c r="CH14" s="54"/>
       <c r="CI14" s="54"/>
       <c r="CJ14" s="54"/>
       <c r="CK14" s="54"/>
       <c r="CL14" s="48"/>
       <c r="CM14" s="54"/>
-      <c r="CN14" s="66"/>
-      <c r="CO14" s="66"/>
+      <c r="CN14" s="75"/>
+      <c r="CO14" s="75"/>
       <c r="CP14" s="54"/>
       <c r="CQ14" s="54"/>
       <c r="CR14" s="54"/>
       <c r="CS14" s="54"/>
-      <c r="CT14" s="66"/>
-      <c r="CU14" s="66"/>
+      <c r="CT14" s="75"/>
+      <c r="CU14" s="75"/>
       <c r="CV14" s="54"/>
       <c r="CW14" s="54"/>
       <c r="CX14" s="54"/>
@@ -5227,50 +5292,50 @@
       <c r="BV15" s="10"/>
       <c r="BW15" s="10"/>
       <c r="BX15" s="47"/>
-      <c r="BY15" s="64"/>
-      <c r="BZ15" s="64">
+      <c r="BY15" s="73"/>
+      <c r="BZ15" s="73">
         <v>45104</v>
       </c>
-      <c r="CA15" s="64">
+      <c r="CA15" s="73">
         <v>45104</v>
       </c>
-      <c r="CB15" s="64"/>
-      <c r="CC15" s="64"/>
-      <c r="CD15" s="64"/>
-      <c r="CE15" s="64"/>
-      <c r="CF15" s="64">
+      <c r="CB15" s="73"/>
+      <c r="CC15" s="73"/>
+      <c r="CD15" s="73"/>
+      <c r="CE15" s="73"/>
+      <c r="CF15" s="73">
         <v>45104</v>
       </c>
-      <c r="CG15" s="64">
+      <c r="CG15" s="73">
         <v>45104</v>
       </c>
-      <c r="CH15" s="64"/>
-      <c r="CI15" s="64"/>
-      <c r="CJ15" s="64"/>
-      <c r="CK15" s="64"/>
+      <c r="CH15" s="73"/>
+      <c r="CI15" s="73"/>
+      <c r="CJ15" s="73"/>
+      <c r="CK15" s="73"/>
       <c r="CL15" s="48"/>
-      <c r="CM15" s="64"/>
-      <c r="CN15" s="64">
+      <c r="CM15" s="73"/>
+      <c r="CN15" s="73">
         <v>45105</v>
       </c>
-      <c r="CO15" s="64">
+      <c r="CO15" s="73">
         <v>45105</v>
       </c>
-      <c r="CP15" s="64"/>
-      <c r="CQ15" s="64"/>
-      <c r="CR15" s="64"/>
-      <c r="CS15" s="64"/>
-      <c r="CT15" s="64">
+      <c r="CP15" s="73"/>
+      <c r="CQ15" s="73"/>
+      <c r="CR15" s="73"/>
+      <c r="CS15" s="73"/>
+      <c r="CT15" s="73">
         <v>45105</v>
       </c>
-      <c r="CU15" s="64">
+      <c r="CU15" s="73">
         <v>45105</v>
       </c>
-      <c r="CV15" s="64"/>
-      <c r="CW15" s="64"/>
-      <c r="CX15" s="64"/>
-      <c r="CY15" s="64"/>
-      <c r="CZ15" s="64"/>
+      <c r="CV15" s="73"/>
+      <c r="CW15" s="73"/>
+      <c r="CX15" s="73"/>
+      <c r="CY15" s="73"/>
+      <c r="CZ15" s="73"/>
       <c r="DA15" s="49"/>
     </row>
     <row r="16" spans="2:105" ht="20.25" customHeight="1">
@@ -5438,34 +5503,34 @@
       <c r="BV16" s="10"/>
       <c r="BW16" s="10"/>
       <c r="BX16" s="49"/>
-      <c r="BY16" s="65"/>
-      <c r="BZ16" s="65"/>
-      <c r="CA16" s="65"/>
-      <c r="CB16" s="65"/>
-      <c r="CC16" s="65"/>
-      <c r="CD16" s="65"/>
-      <c r="CE16" s="65"/>
-      <c r="CF16" s="65"/>
-      <c r="CG16" s="65"/>
-      <c r="CH16" s="65"/>
-      <c r="CI16" s="65"/>
-      <c r="CJ16" s="65"/>
-      <c r="CK16" s="65"/>
+      <c r="BY16" s="74"/>
+      <c r="BZ16" s="74"/>
+      <c r="CA16" s="74"/>
+      <c r="CB16" s="74"/>
+      <c r="CC16" s="74"/>
+      <c r="CD16" s="74"/>
+      <c r="CE16" s="74"/>
+      <c r="CF16" s="74"/>
+      <c r="CG16" s="74"/>
+      <c r="CH16" s="74"/>
+      <c r="CI16" s="74"/>
+      <c r="CJ16" s="74"/>
+      <c r="CK16" s="74"/>
       <c r="CL16" s="23"/>
-      <c r="CM16" s="65"/>
-      <c r="CN16" s="65"/>
-      <c r="CO16" s="65"/>
-      <c r="CP16" s="65"/>
-      <c r="CQ16" s="65"/>
-      <c r="CR16" s="65"/>
-      <c r="CS16" s="65"/>
-      <c r="CT16" s="65"/>
-      <c r="CU16" s="65"/>
-      <c r="CV16" s="65"/>
-      <c r="CW16" s="65"/>
-      <c r="CX16" s="65"/>
-      <c r="CY16" s="65"/>
-      <c r="CZ16" s="65"/>
+      <c r="CM16" s="74"/>
+      <c r="CN16" s="74"/>
+      <c r="CO16" s="74"/>
+      <c r="CP16" s="74"/>
+      <c r="CQ16" s="74"/>
+      <c r="CR16" s="74"/>
+      <c r="CS16" s="74"/>
+      <c r="CT16" s="74"/>
+      <c r="CU16" s="74"/>
+      <c r="CV16" s="74"/>
+      <c r="CW16" s="74"/>
+      <c r="CX16" s="74"/>
+      <c r="CY16" s="74"/>
+      <c r="CZ16" s="74"/>
       <c r="DA16" s="49"/>
     </row>
     <row r="17" spans="2:105" ht="20.25" customHeight="1">
@@ -5635,34 +5700,34 @@
       <c r="BV17" s="10"/>
       <c r="BW17" s="10"/>
       <c r="BX17" s="49"/>
-      <c r="BY17" s="65"/>
-      <c r="BZ17" s="65"/>
-      <c r="CA17" s="65"/>
-      <c r="CB17" s="65"/>
-      <c r="CC17" s="65"/>
-      <c r="CD17" s="65"/>
-      <c r="CE17" s="65"/>
-      <c r="CF17" s="65"/>
-      <c r="CG17" s="65"/>
-      <c r="CH17" s="65"/>
-      <c r="CI17" s="65"/>
-      <c r="CJ17" s="65"/>
-      <c r="CK17" s="65"/>
+      <c r="BY17" s="74"/>
+      <c r="BZ17" s="74"/>
+      <c r="CA17" s="74"/>
+      <c r="CB17" s="74"/>
+      <c r="CC17" s="74"/>
+      <c r="CD17" s="74"/>
+      <c r="CE17" s="74"/>
+      <c r="CF17" s="74"/>
+      <c r="CG17" s="74"/>
+      <c r="CH17" s="74"/>
+      <c r="CI17" s="74"/>
+      <c r="CJ17" s="74"/>
+      <c r="CK17" s="74"/>
       <c r="CL17" s="23"/>
-      <c r="CM17" s="65"/>
-      <c r="CN17" s="65"/>
-      <c r="CO17" s="65"/>
-      <c r="CP17" s="65"/>
-      <c r="CQ17" s="65"/>
-      <c r="CR17" s="65"/>
-      <c r="CS17" s="65"/>
-      <c r="CT17" s="65"/>
-      <c r="CU17" s="65"/>
-      <c r="CV17" s="65"/>
-      <c r="CW17" s="65"/>
-      <c r="CX17" s="65"/>
-      <c r="CY17" s="65"/>
-      <c r="CZ17" s="65"/>
+      <c r="CM17" s="74"/>
+      <c r="CN17" s="74"/>
+      <c r="CO17" s="74"/>
+      <c r="CP17" s="74"/>
+      <c r="CQ17" s="74"/>
+      <c r="CR17" s="74"/>
+      <c r="CS17" s="74"/>
+      <c r="CT17" s="74"/>
+      <c r="CU17" s="74"/>
+      <c r="CV17" s="74"/>
+      <c r="CW17" s="74"/>
+      <c r="CX17" s="74"/>
+      <c r="CY17" s="74"/>
+      <c r="CZ17" s="74"/>
       <c r="DA17" s="49"/>
     </row>
     <row r="18" spans="2:105" ht="20.25" customHeight="1">
@@ -5834,34 +5899,34 @@
       <c r="BV18" s="10"/>
       <c r="BW18" s="10"/>
       <c r="BX18" s="50"/>
-      <c r="BY18" s="65"/>
-      <c r="BZ18" s="65"/>
-      <c r="CA18" s="65"/>
-      <c r="CB18" s="65"/>
-      <c r="CC18" s="65"/>
-      <c r="CD18" s="65"/>
-      <c r="CE18" s="65"/>
-      <c r="CF18" s="65"/>
-      <c r="CG18" s="65"/>
-      <c r="CH18" s="65"/>
-      <c r="CI18" s="65"/>
-      <c r="CJ18" s="65"/>
-      <c r="CK18" s="65"/>
+      <c r="BY18" s="74"/>
+      <c r="BZ18" s="74"/>
+      <c r="CA18" s="74"/>
+      <c r="CB18" s="74"/>
+      <c r="CC18" s="74"/>
+      <c r="CD18" s="74"/>
+      <c r="CE18" s="74"/>
+      <c r="CF18" s="74"/>
+      <c r="CG18" s="74"/>
+      <c r="CH18" s="74"/>
+      <c r="CI18" s="74"/>
+      <c r="CJ18" s="74"/>
+      <c r="CK18" s="74"/>
       <c r="CL18" s="23"/>
-      <c r="CM18" s="65"/>
-      <c r="CN18" s="65"/>
-      <c r="CO18" s="65"/>
-      <c r="CP18" s="65"/>
-      <c r="CQ18" s="65"/>
-      <c r="CR18" s="65"/>
-      <c r="CS18" s="65"/>
-      <c r="CT18" s="65"/>
-      <c r="CU18" s="65"/>
-      <c r="CV18" s="65"/>
-      <c r="CW18" s="65"/>
-      <c r="CX18" s="65"/>
-      <c r="CY18" s="65"/>
-      <c r="CZ18" s="65"/>
+      <c r="CM18" s="74"/>
+      <c r="CN18" s="74"/>
+      <c r="CO18" s="74"/>
+      <c r="CP18" s="74"/>
+      <c r="CQ18" s="74"/>
+      <c r="CR18" s="74"/>
+      <c r="CS18" s="74"/>
+      <c r="CT18" s="74"/>
+      <c r="CU18" s="74"/>
+      <c r="CV18" s="74"/>
+      <c r="CW18" s="74"/>
+      <c r="CX18" s="74"/>
+      <c r="CY18" s="74"/>
+      <c r="CZ18" s="74"/>
       <c r="DA18" s="49"/>
     </row>
     <row r="19" spans="2:105" ht="20.25" customHeight="1">
@@ -6029,34 +6094,34 @@
       <c r="BV19" s="10"/>
       <c r="BW19" s="10"/>
       <c r="BX19" s="50"/>
-      <c r="BY19" s="65"/>
-      <c r="BZ19" s="65"/>
-      <c r="CA19" s="65"/>
-      <c r="CB19" s="65"/>
-      <c r="CC19" s="65"/>
-      <c r="CD19" s="65"/>
-      <c r="CE19" s="65"/>
-      <c r="CF19" s="65"/>
-      <c r="CG19" s="65"/>
-      <c r="CH19" s="65"/>
-      <c r="CI19" s="65"/>
-      <c r="CJ19" s="65"/>
-      <c r="CK19" s="65"/>
+      <c r="BY19" s="74"/>
+      <c r="BZ19" s="74"/>
+      <c r="CA19" s="74"/>
+      <c r="CB19" s="74"/>
+      <c r="CC19" s="74"/>
+      <c r="CD19" s="74"/>
+      <c r="CE19" s="74"/>
+      <c r="CF19" s="74"/>
+      <c r="CG19" s="74"/>
+      <c r="CH19" s="74"/>
+      <c r="CI19" s="74"/>
+      <c r="CJ19" s="74"/>
+      <c r="CK19" s="74"/>
       <c r="CL19" s="23"/>
-      <c r="CM19" s="65"/>
-      <c r="CN19" s="65"/>
-      <c r="CO19" s="65"/>
-      <c r="CP19" s="65"/>
-      <c r="CQ19" s="65"/>
-      <c r="CR19" s="65"/>
-      <c r="CS19" s="65"/>
-      <c r="CT19" s="65"/>
-      <c r="CU19" s="65"/>
-      <c r="CV19" s="65"/>
-      <c r="CW19" s="65"/>
-      <c r="CX19" s="65"/>
-      <c r="CY19" s="65"/>
-      <c r="CZ19" s="65"/>
+      <c r="CM19" s="74"/>
+      <c r="CN19" s="74"/>
+      <c r="CO19" s="74"/>
+      <c r="CP19" s="74"/>
+      <c r="CQ19" s="74"/>
+      <c r="CR19" s="74"/>
+      <c r="CS19" s="74"/>
+      <c r="CT19" s="74"/>
+      <c r="CU19" s="74"/>
+      <c r="CV19" s="74"/>
+      <c r="CW19" s="74"/>
+      <c r="CX19" s="74"/>
+      <c r="CY19" s="74"/>
+      <c r="CZ19" s="74"/>
       <c r="DA19" s="49"/>
     </row>
     <row r="20" spans="2:105" ht="20.25" customHeight="1">
@@ -6224,34 +6289,34 @@
       <c r="BV20" s="10"/>
       <c r="BW20" s="10"/>
       <c r="BX20" s="50"/>
-      <c r="BY20" s="65"/>
-      <c r="BZ20" s="65"/>
-      <c r="CA20" s="65"/>
-      <c r="CB20" s="65"/>
-      <c r="CC20" s="65"/>
-      <c r="CD20" s="65"/>
-      <c r="CE20" s="65"/>
-      <c r="CF20" s="65"/>
-      <c r="CG20" s="65"/>
-      <c r="CH20" s="65"/>
-      <c r="CI20" s="65"/>
-      <c r="CJ20" s="65"/>
-      <c r="CK20" s="65"/>
+      <c r="BY20" s="74"/>
+      <c r="BZ20" s="74"/>
+      <c r="CA20" s="74"/>
+      <c r="CB20" s="74"/>
+      <c r="CC20" s="74"/>
+      <c r="CD20" s="74"/>
+      <c r="CE20" s="74"/>
+      <c r="CF20" s="74"/>
+      <c r="CG20" s="74"/>
+      <c r="CH20" s="74"/>
+      <c r="CI20" s="74"/>
+      <c r="CJ20" s="74"/>
+      <c r="CK20" s="74"/>
       <c r="CL20" s="23"/>
-      <c r="CM20" s="65"/>
-      <c r="CN20" s="65"/>
-      <c r="CO20" s="65"/>
-      <c r="CP20" s="65"/>
-      <c r="CQ20" s="65"/>
-      <c r="CR20" s="65"/>
-      <c r="CS20" s="65"/>
-      <c r="CT20" s="65"/>
-      <c r="CU20" s="65"/>
-      <c r="CV20" s="65"/>
-      <c r="CW20" s="65"/>
-      <c r="CX20" s="65"/>
-      <c r="CY20" s="65"/>
-      <c r="CZ20" s="65"/>
+      <c r="CM20" s="74"/>
+      <c r="CN20" s="74"/>
+      <c r="CO20" s="74"/>
+      <c r="CP20" s="74"/>
+      <c r="CQ20" s="74"/>
+      <c r="CR20" s="74"/>
+      <c r="CS20" s="74"/>
+      <c r="CT20" s="74"/>
+      <c r="CU20" s="74"/>
+      <c r="CV20" s="74"/>
+      <c r="CW20" s="74"/>
+      <c r="CX20" s="74"/>
+      <c r="CY20" s="74"/>
+      <c r="CZ20" s="74"/>
       <c r="DA20" s="49"/>
     </row>
     <row r="21" spans="2:105" ht="20.25" customHeight="1">
@@ -6419,34 +6484,34 @@
       <c r="BV21" s="10"/>
       <c r="BW21" s="10"/>
       <c r="BX21" s="50"/>
-      <c r="BY21" s="65"/>
-      <c r="BZ21" s="65"/>
-      <c r="CA21" s="65"/>
-      <c r="CB21" s="65"/>
-      <c r="CC21" s="65"/>
-      <c r="CD21" s="65"/>
-      <c r="CE21" s="65"/>
-      <c r="CF21" s="65"/>
-      <c r="CG21" s="65"/>
-      <c r="CH21" s="65"/>
-      <c r="CI21" s="65"/>
-      <c r="CJ21" s="65"/>
-      <c r="CK21" s="65"/>
+      <c r="BY21" s="74"/>
+      <c r="BZ21" s="74"/>
+      <c r="CA21" s="74"/>
+      <c r="CB21" s="74"/>
+      <c r="CC21" s="74"/>
+      <c r="CD21" s="74"/>
+      <c r="CE21" s="74"/>
+      <c r="CF21" s="74"/>
+      <c r="CG21" s="74"/>
+      <c r="CH21" s="74"/>
+      <c r="CI21" s="74"/>
+      <c r="CJ21" s="74"/>
+      <c r="CK21" s="74"/>
       <c r="CL21" s="23"/>
-      <c r="CM21" s="65"/>
-      <c r="CN21" s="65"/>
-      <c r="CO21" s="65"/>
-      <c r="CP21" s="65"/>
-      <c r="CQ21" s="65"/>
-      <c r="CR21" s="65"/>
-      <c r="CS21" s="65"/>
-      <c r="CT21" s="65"/>
-      <c r="CU21" s="65"/>
-      <c r="CV21" s="65"/>
-      <c r="CW21" s="65"/>
-      <c r="CX21" s="65"/>
-      <c r="CY21" s="65"/>
-      <c r="CZ21" s="65"/>
+      <c r="CM21" s="74"/>
+      <c r="CN21" s="74"/>
+      <c r="CO21" s="74"/>
+      <c r="CP21" s="74"/>
+      <c r="CQ21" s="74"/>
+      <c r="CR21" s="74"/>
+      <c r="CS21" s="74"/>
+      <c r="CT21" s="74"/>
+      <c r="CU21" s="74"/>
+      <c r="CV21" s="74"/>
+      <c r="CW21" s="74"/>
+      <c r="CX21" s="74"/>
+      <c r="CY21" s="74"/>
+      <c r="CZ21" s="74"/>
       <c r="DA21" s="49"/>
     </row>
     <row r="22" spans="2:105" ht="20.25" customHeight="1">
@@ -6606,34 +6671,34 @@
       <c r="BV22" s="39"/>
       <c r="BW22" s="39"/>
       <c r="BX22" s="47"/>
-      <c r="BY22" s="66"/>
-      <c r="BZ22" s="66"/>
-      <c r="CA22" s="66"/>
-      <c r="CB22" s="66"/>
-      <c r="CC22" s="66"/>
-      <c r="CD22" s="66"/>
-      <c r="CE22" s="66"/>
-      <c r="CF22" s="66"/>
-      <c r="CG22" s="66"/>
-      <c r="CH22" s="66"/>
-      <c r="CI22" s="66"/>
-      <c r="CJ22" s="66"/>
-      <c r="CK22" s="66"/>
+      <c r="BY22" s="75"/>
+      <c r="BZ22" s="75"/>
+      <c r="CA22" s="75"/>
+      <c r="CB22" s="75"/>
+      <c r="CC22" s="75"/>
+      <c r="CD22" s="75"/>
+      <c r="CE22" s="75"/>
+      <c r="CF22" s="75"/>
+      <c r="CG22" s="75"/>
+      <c r="CH22" s="75"/>
+      <c r="CI22" s="75"/>
+      <c r="CJ22" s="75"/>
+      <c r="CK22" s="75"/>
       <c r="CL22" s="48"/>
-      <c r="CM22" s="66"/>
-      <c r="CN22" s="66"/>
-      <c r="CO22" s="66"/>
-      <c r="CP22" s="66"/>
-      <c r="CQ22" s="66"/>
-      <c r="CR22" s="66"/>
-      <c r="CS22" s="66"/>
-      <c r="CT22" s="66"/>
-      <c r="CU22" s="66"/>
-      <c r="CV22" s="66"/>
-      <c r="CW22" s="66"/>
-      <c r="CX22" s="66"/>
-      <c r="CY22" s="66"/>
-      <c r="CZ22" s="66"/>
+      <c r="CM22" s="75"/>
+      <c r="CN22" s="75"/>
+      <c r="CO22" s="75"/>
+      <c r="CP22" s="75"/>
+      <c r="CQ22" s="75"/>
+      <c r="CR22" s="75"/>
+      <c r="CS22" s="75"/>
+      <c r="CT22" s="75"/>
+      <c r="CU22" s="75"/>
+      <c r="CV22" s="75"/>
+      <c r="CW22" s="75"/>
+      <c r="CX22" s="75"/>
+      <c r="CY22" s="75"/>
+      <c r="CZ22" s="75"/>
       <c r="DA22" s="49"/>
     </row>
     <row r="23" spans="2:105" ht="20.25" customHeight="1">
@@ -6786,6 +6851,119 @@
     </row>
   </sheetData>
   <mergeCells count="137">
+    <mergeCell ref="BZ7:BZ14"/>
+    <mergeCell ref="CA7:CA14"/>
+    <mergeCell ref="CF7:CF14"/>
+    <mergeCell ref="CG7:CG14"/>
+    <mergeCell ref="CN7:CN14"/>
+    <mergeCell ref="CO7:CO14"/>
+    <mergeCell ref="CT7:CT14"/>
+    <mergeCell ref="CU7:CU14"/>
+    <mergeCell ref="CM7:CM13"/>
+    <mergeCell ref="CB7:CB13"/>
+    <mergeCell ref="CC7:CC13"/>
+    <mergeCell ref="CD7:CD13"/>
+    <mergeCell ref="CE7:CE13"/>
+    <mergeCell ref="CH7:CH13"/>
+    <mergeCell ref="CI7:CI13"/>
+    <mergeCell ref="CJ7:CJ13"/>
+    <mergeCell ref="CB15:CB22"/>
+    <mergeCell ref="CC15:CC22"/>
+    <mergeCell ref="CD15:CD22"/>
+    <mergeCell ref="CM15:CM22"/>
+    <mergeCell ref="CN15:CN22"/>
+    <mergeCell ref="CO15:CO22"/>
+    <mergeCell ref="CE15:CE22"/>
+    <mergeCell ref="CF15:CF22"/>
+    <mergeCell ref="CZ7:CZ13"/>
+    <mergeCell ref="CQ15:CQ22"/>
+    <mergeCell ref="CR15:CR22"/>
+    <mergeCell ref="CS15:CS22"/>
+    <mergeCell ref="CV7:CV13"/>
+    <mergeCell ref="CW7:CW13"/>
+    <mergeCell ref="CX15:CX22"/>
+    <mergeCell ref="CY15:CY22"/>
+    <mergeCell ref="CW15:CW22"/>
+    <mergeCell ref="CX7:CX13"/>
+    <mergeCell ref="CY7:CY13"/>
+    <mergeCell ref="CG15:CG22"/>
+    <mergeCell ref="BY7:BY13"/>
+    <mergeCell ref="CZ5:CZ6"/>
+    <mergeCell ref="CX5:CX6"/>
+    <mergeCell ref="CT5:CU5"/>
+    <mergeCell ref="CV5:CW5"/>
+    <mergeCell ref="CS5:CS6"/>
+    <mergeCell ref="CY5:CY6"/>
+    <mergeCell ref="CH15:CH22"/>
+    <mergeCell ref="CI15:CI22"/>
+    <mergeCell ref="CJ15:CJ22"/>
+    <mergeCell ref="CK15:CK22"/>
+    <mergeCell ref="CZ15:CZ22"/>
+    <mergeCell ref="CP15:CP22"/>
+    <mergeCell ref="CR7:CR13"/>
+    <mergeCell ref="CS7:CS13"/>
+    <mergeCell ref="CT15:CT22"/>
+    <mergeCell ref="CU15:CU22"/>
+    <mergeCell ref="BY15:BY22"/>
+    <mergeCell ref="BZ15:BZ22"/>
+    <mergeCell ref="CA15:CA22"/>
+    <mergeCell ref="CV15:CV22"/>
+    <mergeCell ref="CR5:CR6"/>
+    <mergeCell ref="CJ5:CJ6"/>
+    <mergeCell ref="CK5:CK6"/>
+    <mergeCell ref="CN5:CO5"/>
+    <mergeCell ref="CP5:CQ5"/>
+    <mergeCell ref="CM5:CM6"/>
+    <mergeCell ref="CH5:CI5"/>
+    <mergeCell ref="CE5:CE6"/>
+    <mergeCell ref="CK7:CK13"/>
+    <mergeCell ref="CP7:CP13"/>
+    <mergeCell ref="CQ7:CQ13"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="CF5:CG5"/>
+    <mergeCell ref="BP4:BW4"/>
+    <mergeCell ref="BY4:CD4"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="Z4:AF4"/>
+    <mergeCell ref="AH4:AM4"/>
+    <mergeCell ref="AN4:AT4"/>
+    <mergeCell ref="AV4:BA4"/>
+    <mergeCell ref="BB4:BH4"/>
+    <mergeCell ref="BJ4:BO4"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="BM5:BN5"/>
+    <mergeCell ref="BQ5:BR5"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="E4:E6"/>
     <mergeCell ref="Y5:Y6"/>
     <mergeCell ref="BH5:BH6"/>
     <mergeCell ref="CE4:CK4"/>
@@ -6810,295 +6988,174 @@
     <mergeCell ref="BK5:BL5"/>
     <mergeCell ref="F4:K4"/>
     <mergeCell ref="L4:R4"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="BZ5:CA5"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BW5:BW6"/>
-    <mergeCell ref="BY5:BY6"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="BP4:BW4"/>
-    <mergeCell ref="BY4:CD4"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="Z4:AF4"/>
-    <mergeCell ref="AH4:AM4"/>
-    <mergeCell ref="AN4:AT4"/>
-    <mergeCell ref="AV4:BA4"/>
-    <mergeCell ref="BB4:BH4"/>
-    <mergeCell ref="BJ4:BO4"/>
-    <mergeCell ref="CN5:CO5"/>
-    <mergeCell ref="CP5:CQ5"/>
-    <mergeCell ref="CM5:CM6"/>
-    <mergeCell ref="CH5:CI5"/>
-    <mergeCell ref="CE5:CE6"/>
-    <mergeCell ref="CK7:CK13"/>
-    <mergeCell ref="CP7:CP13"/>
-    <mergeCell ref="CQ7:CQ13"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="CF5:CG5"/>
-    <mergeCell ref="BY7:BY13"/>
-    <mergeCell ref="CZ5:CZ6"/>
-    <mergeCell ref="CX5:CX6"/>
-    <mergeCell ref="CT5:CU5"/>
-    <mergeCell ref="CV5:CW5"/>
-    <mergeCell ref="CS5:CS6"/>
-    <mergeCell ref="CY5:CY6"/>
-    <mergeCell ref="CH15:CH22"/>
-    <mergeCell ref="CI15:CI22"/>
-    <mergeCell ref="CJ15:CJ22"/>
-    <mergeCell ref="CK15:CK22"/>
-    <mergeCell ref="CZ15:CZ22"/>
-    <mergeCell ref="CP15:CP22"/>
-    <mergeCell ref="CR7:CR13"/>
-    <mergeCell ref="CS7:CS13"/>
-    <mergeCell ref="CT15:CT22"/>
-    <mergeCell ref="CU15:CU22"/>
-    <mergeCell ref="BY15:BY22"/>
-    <mergeCell ref="BZ15:BZ22"/>
-    <mergeCell ref="CA15:CA22"/>
-    <mergeCell ref="CV15:CV22"/>
-    <mergeCell ref="CR5:CR6"/>
-    <mergeCell ref="CJ5:CJ6"/>
-    <mergeCell ref="CK5:CK6"/>
-    <mergeCell ref="CB15:CB22"/>
-    <mergeCell ref="CC15:CC22"/>
-    <mergeCell ref="CD15:CD22"/>
-    <mergeCell ref="CM15:CM22"/>
-    <mergeCell ref="CN15:CN22"/>
-    <mergeCell ref="CO15:CO22"/>
-    <mergeCell ref="CE15:CE22"/>
-    <mergeCell ref="CF15:CF22"/>
-    <mergeCell ref="CZ7:CZ13"/>
-    <mergeCell ref="CQ15:CQ22"/>
-    <mergeCell ref="CR15:CR22"/>
-    <mergeCell ref="CS15:CS22"/>
-    <mergeCell ref="CV7:CV13"/>
-    <mergeCell ref="CW7:CW13"/>
-    <mergeCell ref="CX15:CX22"/>
-    <mergeCell ref="CY15:CY22"/>
-    <mergeCell ref="CW15:CW22"/>
-    <mergeCell ref="CX7:CX13"/>
-    <mergeCell ref="CY7:CY13"/>
-    <mergeCell ref="CG15:CG22"/>
-    <mergeCell ref="BZ7:BZ14"/>
-    <mergeCell ref="CA7:CA14"/>
-    <mergeCell ref="CF7:CF14"/>
-    <mergeCell ref="CG7:CG14"/>
-    <mergeCell ref="CN7:CN14"/>
-    <mergeCell ref="CO7:CO14"/>
-    <mergeCell ref="CT7:CT14"/>
-    <mergeCell ref="CU7:CU14"/>
-    <mergeCell ref="CM7:CM13"/>
-    <mergeCell ref="CB7:CB13"/>
-    <mergeCell ref="CC7:CC13"/>
-    <mergeCell ref="CD7:CD13"/>
-    <mergeCell ref="CE7:CE13"/>
-    <mergeCell ref="CH7:CH13"/>
-    <mergeCell ref="CI7:CI13"/>
-    <mergeCell ref="CJ7:CJ13"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="F15:F16">
-    <cfRule type="expression" dxfId="35" priority="215">
+    <cfRule type="expression" dxfId="33" priority="207">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="206">
+    <cfRule type="expression" dxfId="32" priority="216">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F18">
-    <cfRule type="expression" dxfId="33" priority="216">
+    <cfRule type="expression" dxfId="31" priority="217">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="32" priority="213">
+    <cfRule type="expression" dxfId="30" priority="214">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F22">
-    <cfRule type="expression" dxfId="31" priority="178">
+    <cfRule type="expression" dxfId="29" priority="179">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:K14">
-    <cfRule type="expression" dxfId="30" priority="101">
+    <cfRule type="expression" dxfId="28" priority="102">
       <formula>$J7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:J22">
-    <cfRule type="expression" dxfId="29" priority="240">
+    <cfRule type="expression" dxfId="27" priority="241">
       <formula>$I15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7:R22 K15:K22">
-    <cfRule type="expression" dxfId="28" priority="94">
+    <cfRule type="expression" dxfId="26" priority="95">
       <formula>$P7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15:T16 T20">
-    <cfRule type="expression" dxfId="27" priority="25">
-      <formula>#REF!&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T15:T16">
-    <cfRule type="expression" dxfId="26" priority="27">
+    <cfRule type="expression" dxfId="25" priority="26">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17:T18">
-    <cfRule type="expression" dxfId="25" priority="28">
+    <cfRule type="expression" dxfId="24" priority="29">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19">
-    <cfRule type="expression" dxfId="24" priority="26">
+    <cfRule type="expression" dxfId="23" priority="27">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T21:T22">
-    <cfRule type="expression" dxfId="23" priority="24">
+    <cfRule type="expression" dxfId="22" priority="25">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U15:Y22">
-    <cfRule type="expression" dxfId="22" priority="21">
+    <cfRule type="expression" dxfId="21" priority="22">
       <formula>$X15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z7:Z22">
-    <cfRule type="expression" dxfId="21" priority="7">
+    <cfRule type="expression" dxfId="20" priority="8">
       <formula>$P7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15:AB21">
-    <cfRule type="expression" dxfId="20" priority="259">
+    <cfRule type="expression" dxfId="19" priority="260">
       <formula>$X16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15:AB22 AF15:AF22">
-    <cfRule type="expression" dxfId="19" priority="246">
+    <cfRule type="expression" dxfId="18" priority="247">
       <formula>$AD15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA22:AB22">
-    <cfRule type="expression" dxfId="18" priority="208">
+    <cfRule type="expression" dxfId="17" priority="209">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH7:AH14">
-    <cfRule type="expression" dxfId="17" priority="14">
+    <cfRule type="expression" dxfId="16" priority="15">
       <formula>$J7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH15:AH16">
-    <cfRule type="expression" dxfId="16" priority="10">
-      <formula>#REF!&lt;&gt;""</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="12">
+    <cfRule type="expression" dxfId="15" priority="11">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH17:AH18">
-    <cfRule type="expression" dxfId="14" priority="13">
+    <cfRule type="expression" dxfId="14" priority="14">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH19">
-    <cfRule type="expression" dxfId="13" priority="11">
+    <cfRule type="expression" dxfId="13" priority="12">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH20:AH22">
-    <cfRule type="expression" dxfId="12" priority="9">
+    <cfRule type="expression" dxfId="12" priority="10">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI7:AL7 AK8:AL14 AI8:AJ22 AK15:AK21">
-    <cfRule type="expression" dxfId="11" priority="15">
+    <cfRule type="expression" dxfId="11" priority="16">
       <formula>$AK7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL16:AM16 AK22 AL19:AM22 AM17:AM18 AM15">
-    <cfRule type="expression" dxfId="10" priority="248">
+  <conditionalFormatting sqref="AL15">
+    <cfRule type="expression" dxfId="10" priority="3">
+      <formula>$AR15&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL17:AL18">
+    <cfRule type="expression" dxfId="9" priority="2">
+      <formula>$AR17&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM15 AL16:AM16 AM17:AM18 AL19:AM22 AK22">
+    <cfRule type="expression" dxfId="8" priority="249">
       <formula>$AL15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN7:AT22">
-    <cfRule type="expression" dxfId="3" priority="91">
+    <cfRule type="expression" dxfId="7" priority="92">
       <formula>$AR7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AV7:BA22">
-    <cfRule type="expression" dxfId="9" priority="155">
+  <conditionalFormatting sqref="AV15:BA22 AV7:AX14">
+    <cfRule type="expression" dxfId="6" priority="156">
       <formula>$AZ7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BB7:BH22">
-    <cfRule type="expression" dxfId="8" priority="154">
+    <cfRule type="expression" dxfId="5" priority="155">
       <formula>$BF7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BJ7:BO22">
-    <cfRule type="expression" dxfId="7" priority="149">
+    <cfRule type="expression" dxfId="4" priority="150">
       <formula>$BN7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP7:BP21 BS7:BW21">
-    <cfRule type="expression" dxfId="6" priority="148">
+    <cfRule type="expression" dxfId="3" priority="149">
       <formula>$BT7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP22:BW22">
-    <cfRule type="expression" dxfId="5" priority="258">
+    <cfRule type="expression" dxfId="2" priority="259">
       <formula>$BT22&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ7:BR21">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="1" priority="5">
       <formula>$BN7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL18">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$AR18&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL15">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$AR15&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL17">
+  <conditionalFormatting sqref="AY7:BA14">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$AR17&lt;&gt;""</formula>
+      <formula>$BF7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>

--- a/スケジュール（2023-06）.xlsx
+++ b/スケジュール（2023-06）.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sidney\OneDrive\桌面\Gitplace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CDE19C8-2BFD-4431-97BA-E7022E65DD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFDC20A3-2E12-434E-A8F7-A2A956567BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12300" tabRatio="910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="910" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="体制図" sheetId="11" r:id="rId1"/>
@@ -26,19 +26,6 @@
     <sheet name="8_勤怠承認詳細" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -853,11 +840,29 @@
     </xf>
     <xf numFmtId="178" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -871,24 +876,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8"/>
@@ -896,7 +883,28 @@
     <cellStyle name="標準_2004.05.14_経費管理_機・一覧・" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="標準_システム管理" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="37">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="0" tint="-0.1498764000366222"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2850,20 +2858,20 @@
   <dimension ref="B3:DA24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="6" topLeftCell="S7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="6" topLeftCell="S10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AM9" sqref="AM9"/>
+      <selection pane="bottomRight" activeCell="AY15" sqref="AY15:AY21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
     <col min="2" max="2" width="4.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.83203125" style="2" customWidth="1"/>
-    <col min="4" max="5" width="18.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.58203125" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="7" max="7" width="8.6640625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="3" max="3" width="16.796875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="18.69921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.59765625" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="7" max="7" width="8.69921875" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="8" max="11" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="13" max="18" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
@@ -2872,354 +2880,354 @@
     <col min="21" max="25" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="26" max="26" width="13" style="8" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="27" max="29" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="30" max="30" width="7.58203125" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
+    <col min="30" max="30" width="7.59765625" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="31" max="32" width="6.5" style="1" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="33" max="33" width="1.58203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="1.59765625" style="1" customWidth="1" collapsed="1"/>
     <col min="34" max="34" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="35" max="39" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="40" max="40" width="13" style="2" customWidth="1" outlineLevel="1"/>
     <col min="41" max="46" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="47" max="47" width="1.58203125" style="1" customWidth="1"/>
+    <col min="47" max="47" width="1.59765625" style="1" customWidth="1"/>
     <col min="48" max="48" width="13" style="2" customWidth="1" outlineLevel="1"/>
     <col min="49" max="53" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="54" max="54" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="55" max="60" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="61" max="61" width="1.58203125" style="1" customWidth="1"/>
+    <col min="61" max="61" width="1.59765625" style="1" customWidth="1"/>
     <col min="62" max="62" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="63" max="67" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="68" max="68" width="13" style="8" customWidth="1" outlineLevel="1"/>
     <col min="69" max="75" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="76" max="76" width="1.58203125" style="1" customWidth="1"/>
-    <col min="77" max="77" width="6.58203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="76" max="76" width="1.59765625" style="1" customWidth="1"/>
+    <col min="77" max="77" width="6.59765625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="78" max="81" width="6.5" style="24" customWidth="1" outlineLevel="1"/>
     <col min="82" max="83" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="84" max="85" width="6.5" style="27" customWidth="1" outlineLevel="1"/>
     <col min="86" max="87" width="6.5" style="24" customWidth="1" outlineLevel="1"/>
     <col min="88" max="89" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="90" max="90" width="1.58203125" style="1" customWidth="1"/>
-    <col min="91" max="91" width="6.58203125" style="1" customWidth="1" outlineLevel="1"/>
+    <col min="90" max="90" width="1.59765625" style="1" customWidth="1"/>
+    <col min="91" max="91" width="6.59765625" style="1" customWidth="1" outlineLevel="1"/>
     <col min="92" max="93" width="6.5" style="27" customWidth="1" outlineLevel="1"/>
     <col min="94" max="95" width="6.5" style="24" customWidth="1" outlineLevel="1"/>
     <col min="96" max="97" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
     <col min="98" max="99" width="6.5" style="27" customWidth="1" outlineLevel="1"/>
     <col min="100" max="101" width="6.5" style="24" customWidth="1" outlineLevel="1"/>
     <col min="102" max="104" width="6.5" style="1" customWidth="1" outlineLevel="1"/>
-    <col min="105" max="105" width="1.58203125" style="1" customWidth="1"/>
+    <col min="105" max="105" width="1.59765625" style="1" customWidth="1"/>
     <col min="106" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:105" ht="23.5">
+    <row r="3" spans="2:105" ht="23.4">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:105" s="17" customFormat="1" ht="33" customHeight="1">
-      <c r="B4" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="65" t="s">
+      <c r="B4" s="68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="65" t="s">
+      <c r="D4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="65" t="s">
+      <c r="E4" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="65" t="s">
+      <c r="F4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65" t="s">
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="T4" s="65" t="s">
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="T4" s="68" t="s">
         <v>6</v>
       </c>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65" t="s">
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="65"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="65"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-      <c r="AH4" s="65" t="s">
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="68"/>
+      <c r="AE4" s="68"/>
+      <c r="AF4" s="68"/>
+      <c r="AH4" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="65"/>
-      <c r="AL4" s="65"/>
-      <c r="AM4" s="65"/>
-      <c r="AN4" s="65" t="s">
+      <c r="AI4" s="68"/>
+      <c r="AJ4" s="68"/>
+      <c r="AK4" s="68"/>
+      <c r="AL4" s="68"/>
+      <c r="AM4" s="68"/>
+      <c r="AN4" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="AO4" s="65"/>
-      <c r="AP4" s="65"/>
-      <c r="AQ4" s="65"/>
-      <c r="AR4" s="65"/>
-      <c r="AS4" s="65"/>
-      <c r="AT4" s="66"/>
+      <c r="AO4" s="68"/>
+      <c r="AP4" s="68"/>
+      <c r="AQ4" s="68"/>
+      <c r="AR4" s="68"/>
+      <c r="AS4" s="68"/>
+      <c r="AT4" s="72"/>
       <c r="AU4" s="43"/>
-      <c r="AV4" s="65" t="s">
+      <c r="AV4" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="AW4" s="65"/>
-      <c r="AX4" s="65"/>
-      <c r="AY4" s="65"/>
-      <c r="AZ4" s="65"/>
-      <c r="BA4" s="65"/>
-      <c r="BB4" s="65" t="s">
+      <c r="AW4" s="68"/>
+      <c r="AX4" s="68"/>
+      <c r="AY4" s="68"/>
+      <c r="AZ4" s="68"/>
+      <c r="BA4" s="68"/>
+      <c r="BB4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="BC4" s="65"/>
-      <c r="BD4" s="65"/>
-      <c r="BE4" s="65"/>
-      <c r="BF4" s="65"/>
-      <c r="BG4" s="65"/>
-      <c r="BH4" s="65"/>
+      <c r="BC4" s="68"/>
+      <c r="BD4" s="68"/>
+      <c r="BE4" s="68"/>
+      <c r="BF4" s="68"/>
+      <c r="BG4" s="68"/>
+      <c r="BH4" s="68"/>
       <c r="BI4" s="44"/>
-      <c r="BJ4" s="67" t="s">
+      <c r="BJ4" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="BK4" s="65"/>
-      <c r="BL4" s="65"/>
-      <c r="BM4" s="65"/>
-      <c r="BN4" s="65"/>
-      <c r="BO4" s="65"/>
-      <c r="BP4" s="65" t="s">
+      <c r="BK4" s="68"/>
+      <c r="BL4" s="68"/>
+      <c r="BM4" s="68"/>
+      <c r="BN4" s="68"/>
+      <c r="BO4" s="68"/>
+      <c r="BP4" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="BQ4" s="65"/>
-      <c r="BR4" s="65"/>
-      <c r="BS4" s="65"/>
-      <c r="BT4" s="65"/>
-      <c r="BU4" s="65"/>
-      <c r="BV4" s="65"/>
-      <c r="BW4" s="65"/>
+      <c r="BQ4" s="68"/>
+      <c r="BR4" s="68"/>
+      <c r="BS4" s="68"/>
+      <c r="BT4" s="68"/>
+      <c r="BU4" s="68"/>
+      <c r="BV4" s="68"/>
+      <c r="BW4" s="68"/>
       <c r="BX4" s="45"/>
-      <c r="BY4" s="65" t="s">
+      <c r="BY4" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="BZ4" s="65"/>
-      <c r="CA4" s="65"/>
-      <c r="CB4" s="65"/>
-      <c r="CC4" s="65"/>
-      <c r="CD4" s="65"/>
-      <c r="CE4" s="65" t="s">
+      <c r="BZ4" s="68"/>
+      <c r="CA4" s="68"/>
+      <c r="CB4" s="68"/>
+      <c r="CC4" s="68"/>
+      <c r="CD4" s="68"/>
+      <c r="CE4" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="CF4" s="65"/>
-      <c r="CG4" s="65"/>
-      <c r="CH4" s="65"/>
-      <c r="CI4" s="65"/>
-      <c r="CJ4" s="65"/>
-      <c r="CK4" s="66"/>
+      <c r="CF4" s="68"/>
+      <c r="CG4" s="68"/>
+      <c r="CH4" s="68"/>
+      <c r="CI4" s="68"/>
+      <c r="CJ4" s="68"/>
+      <c r="CK4" s="72"/>
       <c r="CL4" s="46"/>
-      <c r="CM4" s="67" t="s">
+      <c r="CM4" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="CN4" s="65"/>
-      <c r="CO4" s="65"/>
-      <c r="CP4" s="65"/>
-      <c r="CQ4" s="65"/>
-      <c r="CR4" s="65"/>
-      <c r="CS4" s="65" t="s">
+      <c r="CN4" s="68"/>
+      <c r="CO4" s="68"/>
+      <c r="CP4" s="68"/>
+      <c r="CQ4" s="68"/>
+      <c r="CR4" s="68"/>
+      <c r="CS4" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="CT4" s="65"/>
-      <c r="CU4" s="65"/>
-      <c r="CV4" s="65"/>
-      <c r="CW4" s="65"/>
-      <c r="CX4" s="65"/>
-      <c r="CY4" s="65"/>
-      <c r="CZ4" s="65"/>
+      <c r="CT4" s="68"/>
+      <c r="CU4" s="68"/>
+      <c r="CV4" s="68"/>
+      <c r="CW4" s="68"/>
+      <c r="CX4" s="68"/>
+      <c r="CY4" s="68"/>
+      <c r="CZ4" s="68"/>
       <c r="DA4" s="45"/>
     </row>
-    <row r="5" spans="2:105" ht="21.65" customHeight="1">
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="65" t="s">
+    <row r="5" spans="2:105" ht="21.6" customHeight="1">
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="68" t="s">
+      <c r="G5" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68" t="s">
+      <c r="H5" s="74"/>
+      <c r="I5" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="68"/>
-      <c r="K5" s="64" t="s">
+      <c r="J5" s="74"/>
+      <c r="K5" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="65" t="s">
+      <c r="L5" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="68" t="s">
+      <c r="M5" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="68"/>
-      <c r="O5" s="68" t="s">
+      <c r="N5" s="74"/>
+      <c r="O5" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="P5" s="68"/>
-      <c r="Q5" s="64" t="s">
+      <c r="P5" s="74"/>
+      <c r="Q5" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="R5" s="64" t="s">
+      <c r="R5" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="T5" s="65" t="s">
+      <c r="T5" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="U5" s="68" t="s">
+      <c r="U5" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="68"/>
-      <c r="W5" s="68" t="s">
+      <c r="V5" s="74"/>
+      <c r="W5" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="X5" s="68"/>
-      <c r="Y5" s="64" t="s">
+      <c r="X5" s="74"/>
+      <c r="Y5" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="65" t="s">
+      <c r="Z5" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="AA5" s="68" t="s">
+      <c r="AA5" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="AB5" s="68"/>
-      <c r="AC5" s="68" t="s">
+      <c r="AB5" s="74"/>
+      <c r="AC5" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="AD5" s="68"/>
-      <c r="AE5" s="64" t="s">
+      <c r="AD5" s="74"/>
+      <c r="AE5" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AF5" s="64" t="s">
+      <c r="AF5" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="AH5" s="65" t="s">
+      <c r="AH5" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="AI5" s="68" t="s">
+      <c r="AI5" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="AJ5" s="68"/>
-      <c r="AK5" s="68" t="s">
+      <c r="AJ5" s="74"/>
+      <c r="AK5" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="AL5" s="68"/>
-      <c r="AM5" s="64" t="s">
+      <c r="AL5" s="74"/>
+      <c r="AM5" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="AN5" s="65" t="s">
+      <c r="AN5" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="AO5" s="68" t="s">
+      <c r="AO5" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="AP5" s="68"/>
-      <c r="AQ5" s="68" t="s">
+      <c r="AP5" s="74"/>
+      <c r="AQ5" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="AR5" s="68"/>
-      <c r="AS5" s="64" t="s">
+      <c r="AR5" s="74"/>
+      <c r="AS5" s="67" t="s">
         <v>21</v>
       </c>
       <c r="AT5" s="71" t="s">
         <v>23</v>
       </c>
       <c r="AU5" s="47"/>
-      <c r="AV5" s="65" t="s">
+      <c r="AV5" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="AW5" s="68" t="s">
+      <c r="AW5" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="AX5" s="68"/>
-      <c r="AY5" s="68" t="s">
+      <c r="AX5" s="74"/>
+      <c r="AY5" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="AZ5" s="68"/>
-      <c r="BA5" s="64" t="s">
+      <c r="AZ5" s="74"/>
+      <c r="BA5" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="BB5" s="65" t="s">
+      <c r="BB5" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="BC5" s="68" t="s">
+      <c r="BC5" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="BD5" s="68"/>
-      <c r="BE5" s="68" t="s">
+      <c r="BD5" s="74"/>
+      <c r="BE5" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="BF5" s="68"/>
-      <c r="BG5" s="64" t="s">
+      <c r="BF5" s="74"/>
+      <c r="BG5" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="BH5" s="64" t="s">
+      <c r="BH5" s="67" t="s">
         <v>23</v>
       </c>
       <c r="BI5" s="48"/>
-      <c r="BJ5" s="67" t="s">
+      <c r="BJ5" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="BK5" s="68" t="s">
+      <c r="BK5" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="BL5" s="68"/>
-      <c r="BM5" s="68" t="s">
+      <c r="BL5" s="74"/>
+      <c r="BM5" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="BN5" s="68"/>
-      <c r="BO5" s="64" t="s">
+      <c r="BN5" s="74"/>
+      <c r="BO5" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="BP5" s="65" t="s">
+      <c r="BP5" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="BQ5" s="68" t="s">
+      <c r="BQ5" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="BR5" s="68"/>
-      <c r="BS5" s="68" t="s">
+      <c r="BR5" s="74"/>
+      <c r="BS5" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="BT5" s="68"/>
-      <c r="BU5" s="64" t="s">
+      <c r="BT5" s="74"/>
+      <c r="BU5" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="BV5" s="64" t="s">
+      <c r="BV5" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="BW5" s="64" t="s">
+      <c r="BW5" s="67" t="s">
         <v>24</v>
       </c>
       <c r="BX5" s="49"/>
-      <c r="BY5" s="65" t="s">
+      <c r="BY5" s="68" t="s">
         <v>18</v>
       </c>
       <c r="BZ5" s="70" t="s">
@@ -3230,69 +3238,69 @@
         <v>20</v>
       </c>
       <c r="CC5" s="70"/>
-      <c r="CD5" s="64" t="s">
+      <c r="CD5" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="CE5" s="65" t="s">
+      <c r="CE5" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="CF5" s="72" t="s">
+      <c r="CF5" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="CG5" s="72"/>
+      <c r="CG5" s="69"/>
       <c r="CH5" s="70" t="s">
         <v>20</v>
       </c>
       <c r="CI5" s="70"/>
-      <c r="CJ5" s="64" t="s">
+      <c r="CJ5" s="67" t="s">
         <v>21</v>
       </c>
       <c r="CK5" s="71" t="s">
         <v>23</v>
       </c>
       <c r="CL5" s="50"/>
-      <c r="CM5" s="67" t="s">
+      <c r="CM5" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="CN5" s="72" t="s">
+      <c r="CN5" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="CO5" s="72"/>
+      <c r="CO5" s="69"/>
       <c r="CP5" s="70" t="s">
         <v>20</v>
       </c>
       <c r="CQ5" s="70"/>
-      <c r="CR5" s="64" t="s">
+      <c r="CR5" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="CS5" s="65" t="s">
+      <c r="CS5" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="CT5" s="72" t="s">
+      <c r="CT5" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="CU5" s="72"/>
+      <c r="CU5" s="69"/>
       <c r="CV5" s="70" t="s">
         <v>20</v>
       </c>
       <c r="CW5" s="70"/>
-      <c r="CX5" s="64" t="s">
+      <c r="CX5" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="CY5" s="64" t="s">
+      <c r="CY5" s="67" t="s">
         <v>23</v>
       </c>
-      <c r="CZ5" s="64" t="s">
+      <c r="CZ5" s="67" t="s">
         <v>24</v>
       </c>
       <c r="DA5" s="49"/>
     </row>
-    <row r="6" spans="2:105" ht="14">
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="65"/>
+    <row r="6" spans="2:105" ht="14.4">
+      <c r="B6" s="75"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="68"/>
       <c r="G6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3305,8 +3313,8 @@
       <c r="J6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
       <c r="M6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3319,9 +3327,9 @@
       <c r="P6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="T6" s="65"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="T6" s="68"/>
       <c r="U6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3334,8 +3342,8 @@
       <c r="X6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="65"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68"/>
       <c r="AA6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3348,9 +3356,9 @@
       <c r="AD6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AE6" s="65"/>
-      <c r="AF6" s="65"/>
-      <c r="AH6" s="65"/>
+      <c r="AE6" s="68"/>
+      <c r="AF6" s="68"/>
+      <c r="AH6" s="68"/>
       <c r="AI6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3363,8 +3371,8 @@
       <c r="AL6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AM6" s="65"/>
-      <c r="AN6" s="65"/>
+      <c r="AM6" s="68"/>
+      <c r="AN6" s="68"/>
       <c r="AO6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3377,10 +3385,10 @@
       <c r="AR6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AS6" s="65"/>
-      <c r="AT6" s="66"/>
+      <c r="AS6" s="68"/>
+      <c r="AT6" s="72"/>
       <c r="AU6" s="47"/>
-      <c r="AV6" s="65"/>
+      <c r="AV6" s="68"/>
       <c r="AW6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3393,8 +3401,8 @@
       <c r="AZ6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BA6" s="65"/>
-      <c r="BB6" s="65"/>
+      <c r="BA6" s="68"/>
+      <c r="BB6" s="68"/>
       <c r="BC6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3407,10 +3415,10 @@
       <c r="BF6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BG6" s="65"/>
-      <c r="BH6" s="65"/>
+      <c r="BG6" s="68"/>
+      <c r="BH6" s="68"/>
       <c r="BI6" s="48"/>
-      <c r="BJ6" s="67"/>
+      <c r="BJ6" s="73"/>
       <c r="BK6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3423,8 +3431,8 @@
       <c r="BN6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BO6" s="65"/>
-      <c r="BP6" s="65"/>
+      <c r="BO6" s="68"/>
+      <c r="BP6" s="68"/>
       <c r="BQ6" s="4" t="s">
         <v>25</v>
       </c>
@@ -3437,11 +3445,11 @@
       <c r="BT6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BU6" s="65"/>
-      <c r="BV6" s="65"/>
-      <c r="BW6" s="65"/>
+      <c r="BU6" s="68"/>
+      <c r="BV6" s="68"/>
+      <c r="BW6" s="68"/>
       <c r="BX6" s="49"/>
-      <c r="BY6" s="65"/>
+      <c r="BY6" s="68"/>
       <c r="BZ6" s="25" t="s">
         <v>25</v>
       </c>
@@ -3454,8 +3462,8 @@
       <c r="CC6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="CD6" s="65"/>
-      <c r="CE6" s="65"/>
+      <c r="CD6" s="68"/>
+      <c r="CE6" s="68"/>
       <c r="CF6" s="28" t="s">
         <v>25</v>
       </c>
@@ -3468,10 +3476,10 @@
       <c r="CI6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="CJ6" s="65"/>
-      <c r="CK6" s="66"/>
+      <c r="CJ6" s="68"/>
+      <c r="CK6" s="72"/>
       <c r="CL6" s="50"/>
-      <c r="CM6" s="67"/>
+      <c r="CM6" s="73"/>
       <c r="CN6" s="28" t="s">
         <v>25</v>
       </c>
@@ -3484,8 +3492,8 @@
       <c r="CQ6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="CR6" s="65"/>
-      <c r="CS6" s="65"/>
+      <c r="CR6" s="68"/>
+      <c r="CS6" s="68"/>
       <c r="CT6" s="28" t="s">
         <v>25</v>
       </c>
@@ -3498,9 +3506,9 @@
       <c r="CW6" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="CX6" s="65"/>
-      <c r="CY6" s="65"/>
-      <c r="CZ6" s="65"/>
+      <c r="CX6" s="68"/>
+      <c r="CY6" s="68"/>
+      <c r="CZ6" s="68"/>
       <c r="DA6" s="49"/>
     </row>
     <row r="7" spans="2:105" ht="20.25" customHeight="1">
@@ -3676,50 +3684,50 @@
       <c r="BV7" s="10"/>
       <c r="BW7" s="10"/>
       <c r="BX7" s="49"/>
-      <c r="BY7" s="73"/>
-      <c r="BZ7" s="73">
+      <c r="BY7" s="64"/>
+      <c r="BZ7" s="64">
         <v>45104</v>
       </c>
-      <c r="CA7" s="73">
+      <c r="CA7" s="64">
         <v>45104</v>
       </c>
-      <c r="CB7" s="73"/>
-      <c r="CC7" s="73"/>
-      <c r="CD7" s="73"/>
-      <c r="CE7" s="73"/>
-      <c r="CF7" s="73">
+      <c r="CB7" s="64"/>
+      <c r="CC7" s="64"/>
+      <c r="CD7" s="64"/>
+      <c r="CE7" s="64"/>
+      <c r="CF7" s="64">
         <v>45104</v>
       </c>
-      <c r="CG7" s="73">
+      <c r="CG7" s="64">
         <v>45104</v>
       </c>
-      <c r="CH7" s="73"/>
-      <c r="CI7" s="73"/>
-      <c r="CJ7" s="73"/>
-      <c r="CK7" s="73"/>
+      <c r="CH7" s="64"/>
+      <c r="CI7" s="64"/>
+      <c r="CJ7" s="64"/>
+      <c r="CK7" s="64"/>
       <c r="CL7" s="48"/>
-      <c r="CM7" s="73"/>
-      <c r="CN7" s="73">
+      <c r="CM7" s="64"/>
+      <c r="CN7" s="64">
         <v>45105</v>
       </c>
-      <c r="CO7" s="73">
+      <c r="CO7" s="64">
         <v>45105</v>
       </c>
-      <c r="CP7" s="73"/>
-      <c r="CQ7" s="73"/>
-      <c r="CR7" s="73"/>
-      <c r="CS7" s="73"/>
-      <c r="CT7" s="73">
+      <c r="CP7" s="64"/>
+      <c r="CQ7" s="64"/>
+      <c r="CR7" s="64"/>
+      <c r="CS7" s="64"/>
+      <c r="CT7" s="64">
         <v>45105</v>
       </c>
-      <c r="CU7" s="73">
+      <c r="CU7" s="64">
         <v>45105</v>
       </c>
-      <c r="CV7" s="73"/>
-      <c r="CW7" s="73"/>
-      <c r="CX7" s="73"/>
-      <c r="CY7" s="73"/>
-      <c r="CZ7" s="73"/>
+      <c r="CV7" s="64"/>
+      <c r="CW7" s="64"/>
+      <c r="CX7" s="64"/>
+      <c r="CY7" s="64"/>
+      <c r="CZ7" s="64"/>
       <c r="DA7" s="49"/>
     </row>
     <row r="8" spans="2:105" ht="20.25" customHeight="1">
@@ -3893,34 +3901,34 @@
       <c r="BV8" s="10"/>
       <c r="BW8" s="10"/>
       <c r="BX8" s="49"/>
-      <c r="BY8" s="74"/>
-      <c r="BZ8" s="74"/>
-      <c r="CA8" s="74"/>
-      <c r="CB8" s="74"/>
-      <c r="CC8" s="74"/>
-      <c r="CD8" s="74"/>
-      <c r="CE8" s="74"/>
-      <c r="CF8" s="74"/>
-      <c r="CG8" s="74"/>
-      <c r="CH8" s="74"/>
-      <c r="CI8" s="74"/>
-      <c r="CJ8" s="74"/>
-      <c r="CK8" s="74"/>
+      <c r="BY8" s="65"/>
+      <c r="BZ8" s="65"/>
+      <c r="CA8" s="65"/>
+      <c r="CB8" s="65"/>
+      <c r="CC8" s="65"/>
+      <c r="CD8" s="65"/>
+      <c r="CE8" s="65"/>
+      <c r="CF8" s="65"/>
+      <c r="CG8" s="65"/>
+      <c r="CH8" s="65"/>
+      <c r="CI8" s="65"/>
+      <c r="CJ8" s="65"/>
+      <c r="CK8" s="65"/>
       <c r="CL8" s="48"/>
-      <c r="CM8" s="74"/>
-      <c r="CN8" s="74"/>
-      <c r="CO8" s="74"/>
-      <c r="CP8" s="74"/>
-      <c r="CQ8" s="74"/>
-      <c r="CR8" s="74"/>
-      <c r="CS8" s="74"/>
-      <c r="CT8" s="74"/>
-      <c r="CU8" s="74"/>
-      <c r="CV8" s="74"/>
-      <c r="CW8" s="74"/>
-      <c r="CX8" s="74"/>
-      <c r="CY8" s="74"/>
-      <c r="CZ8" s="74"/>
+      <c r="CM8" s="65"/>
+      <c r="CN8" s="65"/>
+      <c r="CO8" s="65"/>
+      <c r="CP8" s="65"/>
+      <c r="CQ8" s="65"/>
+      <c r="CR8" s="65"/>
+      <c r="CS8" s="65"/>
+      <c r="CT8" s="65"/>
+      <c r="CU8" s="65"/>
+      <c r="CV8" s="65"/>
+      <c r="CW8" s="65"/>
+      <c r="CX8" s="65"/>
+      <c r="CY8" s="65"/>
+      <c r="CZ8" s="65"/>
       <c r="DA8" s="49"/>
     </row>
     <row r="9" spans="2:105" ht="20.25" customHeight="1">
@@ -4092,34 +4100,34 @@
       <c r="BV9" s="10"/>
       <c r="BW9" s="10"/>
       <c r="BX9" s="47"/>
-      <c r="BY9" s="74"/>
-      <c r="BZ9" s="74"/>
-      <c r="CA9" s="74"/>
-      <c r="CB9" s="74"/>
-      <c r="CC9" s="74"/>
-      <c r="CD9" s="74"/>
-      <c r="CE9" s="74"/>
-      <c r="CF9" s="74"/>
-      <c r="CG9" s="74"/>
-      <c r="CH9" s="74"/>
-      <c r="CI9" s="74"/>
-      <c r="CJ9" s="74"/>
-      <c r="CK9" s="74"/>
+      <c r="BY9" s="65"/>
+      <c r="BZ9" s="65"/>
+      <c r="CA9" s="65"/>
+      <c r="CB9" s="65"/>
+      <c r="CC9" s="65"/>
+      <c r="CD9" s="65"/>
+      <c r="CE9" s="65"/>
+      <c r="CF9" s="65"/>
+      <c r="CG9" s="65"/>
+      <c r="CH9" s="65"/>
+      <c r="CI9" s="65"/>
+      <c r="CJ9" s="65"/>
+      <c r="CK9" s="65"/>
       <c r="CL9" s="48"/>
-      <c r="CM9" s="74"/>
-      <c r="CN9" s="74"/>
-      <c r="CO9" s="74"/>
-      <c r="CP9" s="74"/>
-      <c r="CQ9" s="74"/>
-      <c r="CR9" s="74"/>
-      <c r="CS9" s="74"/>
-      <c r="CT9" s="74"/>
-      <c r="CU9" s="74"/>
-      <c r="CV9" s="74"/>
-      <c r="CW9" s="74"/>
-      <c r="CX9" s="74"/>
-      <c r="CY9" s="74"/>
-      <c r="CZ9" s="74"/>
+      <c r="CM9" s="65"/>
+      <c r="CN9" s="65"/>
+      <c r="CO9" s="65"/>
+      <c r="CP9" s="65"/>
+      <c r="CQ9" s="65"/>
+      <c r="CR9" s="65"/>
+      <c r="CS9" s="65"/>
+      <c r="CT9" s="65"/>
+      <c r="CU9" s="65"/>
+      <c r="CV9" s="65"/>
+      <c r="CW9" s="65"/>
+      <c r="CX9" s="65"/>
+      <c r="CY9" s="65"/>
+      <c r="CZ9" s="65"/>
       <c r="DA9" s="49"/>
     </row>
     <row r="10" spans="2:105" ht="20.25" customHeight="1">
@@ -4293,34 +4301,34 @@
       <c r="BV10" s="10"/>
       <c r="BW10" s="10"/>
       <c r="BX10" s="47"/>
-      <c r="BY10" s="74"/>
-      <c r="BZ10" s="74"/>
-      <c r="CA10" s="74"/>
-      <c r="CB10" s="74"/>
-      <c r="CC10" s="74"/>
-      <c r="CD10" s="74"/>
-      <c r="CE10" s="74"/>
-      <c r="CF10" s="74"/>
-      <c r="CG10" s="74"/>
-      <c r="CH10" s="74"/>
-      <c r="CI10" s="74"/>
-      <c r="CJ10" s="74"/>
-      <c r="CK10" s="74"/>
+      <c r="BY10" s="65"/>
+      <c r="BZ10" s="65"/>
+      <c r="CA10" s="65"/>
+      <c r="CB10" s="65"/>
+      <c r="CC10" s="65"/>
+      <c r="CD10" s="65"/>
+      <c r="CE10" s="65"/>
+      <c r="CF10" s="65"/>
+      <c r="CG10" s="65"/>
+      <c r="CH10" s="65"/>
+      <c r="CI10" s="65"/>
+      <c r="CJ10" s="65"/>
+      <c r="CK10" s="65"/>
       <c r="CL10" s="48"/>
-      <c r="CM10" s="74"/>
-      <c r="CN10" s="74"/>
-      <c r="CO10" s="74"/>
-      <c r="CP10" s="74"/>
-      <c r="CQ10" s="74"/>
-      <c r="CR10" s="74"/>
-      <c r="CS10" s="74"/>
-      <c r="CT10" s="74"/>
-      <c r="CU10" s="74"/>
-      <c r="CV10" s="74"/>
-      <c r="CW10" s="74"/>
-      <c r="CX10" s="74"/>
-      <c r="CY10" s="74"/>
-      <c r="CZ10" s="74"/>
+      <c r="CM10" s="65"/>
+      <c r="CN10" s="65"/>
+      <c r="CO10" s="65"/>
+      <c r="CP10" s="65"/>
+      <c r="CQ10" s="65"/>
+      <c r="CR10" s="65"/>
+      <c r="CS10" s="65"/>
+      <c r="CT10" s="65"/>
+      <c r="CU10" s="65"/>
+      <c r="CV10" s="65"/>
+      <c r="CW10" s="65"/>
+      <c r="CX10" s="65"/>
+      <c r="CY10" s="65"/>
+      <c r="CZ10" s="65"/>
       <c r="DA10" s="49"/>
     </row>
     <row r="11" spans="2:105" ht="20.25" customHeight="1">
@@ -4492,34 +4500,34 @@
       <c r="BV11" s="10"/>
       <c r="BW11" s="10"/>
       <c r="BX11" s="47"/>
-      <c r="BY11" s="74"/>
-      <c r="BZ11" s="74"/>
-      <c r="CA11" s="74"/>
-      <c r="CB11" s="74"/>
-      <c r="CC11" s="74"/>
-      <c r="CD11" s="74"/>
-      <c r="CE11" s="74"/>
-      <c r="CF11" s="74"/>
-      <c r="CG11" s="74"/>
-      <c r="CH11" s="74"/>
-      <c r="CI11" s="74"/>
-      <c r="CJ11" s="74"/>
-      <c r="CK11" s="74"/>
+      <c r="BY11" s="65"/>
+      <c r="BZ11" s="65"/>
+      <c r="CA11" s="65"/>
+      <c r="CB11" s="65"/>
+      <c r="CC11" s="65"/>
+      <c r="CD11" s="65"/>
+      <c r="CE11" s="65"/>
+      <c r="CF11" s="65"/>
+      <c r="CG11" s="65"/>
+      <c r="CH11" s="65"/>
+      <c r="CI11" s="65"/>
+      <c r="CJ11" s="65"/>
+      <c r="CK11" s="65"/>
       <c r="CL11" s="48"/>
-      <c r="CM11" s="74"/>
-      <c r="CN11" s="74"/>
-      <c r="CO11" s="74"/>
-      <c r="CP11" s="74"/>
-      <c r="CQ11" s="74"/>
-      <c r="CR11" s="74"/>
-      <c r="CS11" s="74"/>
-      <c r="CT11" s="74"/>
-      <c r="CU11" s="74"/>
-      <c r="CV11" s="74"/>
-      <c r="CW11" s="74"/>
-      <c r="CX11" s="74"/>
-      <c r="CY11" s="74"/>
-      <c r="CZ11" s="74"/>
+      <c r="CM11" s="65"/>
+      <c r="CN11" s="65"/>
+      <c r="CO11" s="65"/>
+      <c r="CP11" s="65"/>
+      <c r="CQ11" s="65"/>
+      <c r="CR11" s="65"/>
+      <c r="CS11" s="65"/>
+      <c r="CT11" s="65"/>
+      <c r="CU11" s="65"/>
+      <c r="CV11" s="65"/>
+      <c r="CW11" s="65"/>
+      <c r="CX11" s="65"/>
+      <c r="CY11" s="65"/>
+      <c r="CZ11" s="65"/>
       <c r="DA11" s="49"/>
     </row>
     <row r="12" spans="2:105" ht="20.25" customHeight="1">
@@ -4693,34 +4701,34 @@
       <c r="BV12" s="10"/>
       <c r="BW12" s="10"/>
       <c r="BX12" s="47"/>
-      <c r="BY12" s="74"/>
-      <c r="BZ12" s="74"/>
-      <c r="CA12" s="74"/>
-      <c r="CB12" s="74"/>
-      <c r="CC12" s="74"/>
-      <c r="CD12" s="74"/>
-      <c r="CE12" s="74"/>
-      <c r="CF12" s="74"/>
-      <c r="CG12" s="74"/>
-      <c r="CH12" s="74"/>
-      <c r="CI12" s="74"/>
-      <c r="CJ12" s="74"/>
-      <c r="CK12" s="74"/>
+      <c r="BY12" s="65"/>
+      <c r="BZ12" s="65"/>
+      <c r="CA12" s="65"/>
+      <c r="CB12" s="65"/>
+      <c r="CC12" s="65"/>
+      <c r="CD12" s="65"/>
+      <c r="CE12" s="65"/>
+      <c r="CF12" s="65"/>
+      <c r="CG12" s="65"/>
+      <c r="CH12" s="65"/>
+      <c r="CI12" s="65"/>
+      <c r="CJ12" s="65"/>
+      <c r="CK12" s="65"/>
       <c r="CL12" s="48"/>
-      <c r="CM12" s="74"/>
-      <c r="CN12" s="74"/>
-      <c r="CO12" s="74"/>
-      <c r="CP12" s="74"/>
-      <c r="CQ12" s="74"/>
-      <c r="CR12" s="74"/>
-      <c r="CS12" s="74"/>
-      <c r="CT12" s="74"/>
-      <c r="CU12" s="74"/>
-      <c r="CV12" s="74"/>
-      <c r="CW12" s="74"/>
-      <c r="CX12" s="74"/>
-      <c r="CY12" s="74"/>
-      <c r="CZ12" s="74"/>
+      <c r="CM12" s="65"/>
+      <c r="CN12" s="65"/>
+      <c r="CO12" s="65"/>
+      <c r="CP12" s="65"/>
+      <c r="CQ12" s="65"/>
+      <c r="CR12" s="65"/>
+      <c r="CS12" s="65"/>
+      <c r="CT12" s="65"/>
+      <c r="CU12" s="65"/>
+      <c r="CV12" s="65"/>
+      <c r="CW12" s="65"/>
+      <c r="CX12" s="65"/>
+      <c r="CY12" s="65"/>
+      <c r="CZ12" s="65"/>
       <c r="DA12" s="49"/>
     </row>
     <row r="13" spans="2:105" ht="20.25" customHeight="1">
@@ -4894,34 +4902,34 @@
       <c r="BV13" s="10"/>
       <c r="BW13" s="10"/>
       <c r="BX13" s="47"/>
-      <c r="BY13" s="74"/>
-      <c r="BZ13" s="74"/>
-      <c r="CA13" s="74"/>
-      <c r="CB13" s="74"/>
-      <c r="CC13" s="74"/>
-      <c r="CD13" s="74"/>
-      <c r="CE13" s="74"/>
-      <c r="CF13" s="74"/>
-      <c r="CG13" s="74"/>
-      <c r="CH13" s="74"/>
-      <c r="CI13" s="74"/>
-      <c r="CJ13" s="74"/>
-      <c r="CK13" s="74"/>
+      <c r="BY13" s="65"/>
+      <c r="BZ13" s="65"/>
+      <c r="CA13" s="65"/>
+      <c r="CB13" s="65"/>
+      <c r="CC13" s="65"/>
+      <c r="CD13" s="65"/>
+      <c r="CE13" s="65"/>
+      <c r="CF13" s="65"/>
+      <c r="CG13" s="65"/>
+      <c r="CH13" s="65"/>
+      <c r="CI13" s="65"/>
+      <c r="CJ13" s="65"/>
+      <c r="CK13" s="65"/>
       <c r="CL13" s="48"/>
-      <c r="CM13" s="74"/>
-      <c r="CN13" s="74"/>
-      <c r="CO13" s="74"/>
-      <c r="CP13" s="74"/>
-      <c r="CQ13" s="74"/>
-      <c r="CR13" s="74"/>
-      <c r="CS13" s="74"/>
-      <c r="CT13" s="74"/>
-      <c r="CU13" s="74"/>
-      <c r="CV13" s="74"/>
-      <c r="CW13" s="74"/>
-      <c r="CX13" s="74"/>
-      <c r="CY13" s="74"/>
-      <c r="CZ13" s="74"/>
+      <c r="CM13" s="65"/>
+      <c r="CN13" s="65"/>
+      <c r="CO13" s="65"/>
+      <c r="CP13" s="65"/>
+      <c r="CQ13" s="65"/>
+      <c r="CR13" s="65"/>
+      <c r="CS13" s="65"/>
+      <c r="CT13" s="65"/>
+      <c r="CU13" s="65"/>
+      <c r="CV13" s="65"/>
+      <c r="CW13" s="65"/>
+      <c r="CX13" s="65"/>
+      <c r="CY13" s="65"/>
+      <c r="CZ13" s="65"/>
       <c r="DA13" s="49"/>
     </row>
     <row r="14" spans="2:105" ht="20.25" customHeight="1">
@@ -5096,28 +5104,28 @@
       <c r="BW14" s="10"/>
       <c r="BX14" s="47"/>
       <c r="BY14" s="54"/>
-      <c r="BZ14" s="75"/>
-      <c r="CA14" s="75"/>
+      <c r="BZ14" s="66"/>
+      <c r="CA14" s="66"/>
       <c r="CB14" s="54"/>
       <c r="CC14" s="54"/>
       <c r="CD14" s="54"/>
       <c r="CE14" s="54"/>
-      <c r="CF14" s="75"/>
-      <c r="CG14" s="75"/>
+      <c r="CF14" s="66"/>
+      <c r="CG14" s="66"/>
       <c r="CH14" s="54"/>
       <c r="CI14" s="54"/>
       <c r="CJ14" s="54"/>
       <c r="CK14" s="54"/>
       <c r="CL14" s="48"/>
       <c r="CM14" s="54"/>
-      <c r="CN14" s="75"/>
-      <c r="CO14" s="75"/>
+      <c r="CN14" s="66"/>
+      <c r="CO14" s="66"/>
       <c r="CP14" s="54"/>
       <c r="CQ14" s="54"/>
       <c r="CR14" s="54"/>
       <c r="CS14" s="54"/>
-      <c r="CT14" s="75"/>
-      <c r="CU14" s="75"/>
+      <c r="CT14" s="66"/>
+      <c r="CU14" s="66"/>
       <c r="CV14" s="54"/>
       <c r="CW14" s="54"/>
       <c r="CX14" s="54"/>
@@ -5254,9 +5262,13 @@
       <c r="AX15" s="41">
         <v>45097</v>
       </c>
-      <c r="AY15" s="52"/>
+      <c r="AY15" s="52">
+        <v>45098</v>
+      </c>
       <c r="AZ15" s="52"/>
-      <c r="BA15" s="7"/>
+      <c r="BA15" s="7">
+        <v>1</v>
+      </c>
       <c r="BB15" s="53"/>
       <c r="BC15" s="41">
         <v>45098</v>
@@ -5292,50 +5304,50 @@
       <c r="BV15" s="10"/>
       <c r="BW15" s="10"/>
       <c r="BX15" s="47"/>
-      <c r="BY15" s="73"/>
-      <c r="BZ15" s="73">
+      <c r="BY15" s="64"/>
+      <c r="BZ15" s="64">
         <v>45104</v>
       </c>
-      <c r="CA15" s="73">
+      <c r="CA15" s="64">
         <v>45104</v>
       </c>
-      <c r="CB15" s="73"/>
-      <c r="CC15" s="73"/>
-      <c r="CD15" s="73"/>
-      <c r="CE15" s="73"/>
-      <c r="CF15" s="73">
+      <c r="CB15" s="64"/>
+      <c r="CC15" s="64"/>
+      <c r="CD15" s="64"/>
+      <c r="CE15" s="64"/>
+      <c r="CF15" s="64">
         <v>45104</v>
       </c>
-      <c r="CG15" s="73">
+      <c r="CG15" s="64">
         <v>45104</v>
       </c>
-      <c r="CH15" s="73"/>
-      <c r="CI15" s="73"/>
-      <c r="CJ15" s="73"/>
-      <c r="CK15" s="73"/>
+      <c r="CH15" s="64"/>
+      <c r="CI15" s="64"/>
+      <c r="CJ15" s="64"/>
+      <c r="CK15" s="64"/>
       <c r="CL15" s="48"/>
-      <c r="CM15" s="73"/>
-      <c r="CN15" s="73">
+      <c r="CM15" s="64"/>
+      <c r="CN15" s="64">
         <v>45105</v>
       </c>
-      <c r="CO15" s="73">
+      <c r="CO15" s="64">
         <v>45105</v>
       </c>
-      <c r="CP15" s="73"/>
-      <c r="CQ15" s="73"/>
-      <c r="CR15" s="73"/>
-      <c r="CS15" s="73"/>
-      <c r="CT15" s="73">
+      <c r="CP15" s="64"/>
+      <c r="CQ15" s="64"/>
+      <c r="CR15" s="64"/>
+      <c r="CS15" s="64"/>
+      <c r="CT15" s="64">
         <v>45105</v>
       </c>
-      <c r="CU15" s="73">
+      <c r="CU15" s="64">
         <v>45105</v>
       </c>
-      <c r="CV15" s="73"/>
-      <c r="CW15" s="73"/>
-      <c r="CX15" s="73"/>
-      <c r="CY15" s="73"/>
-      <c r="CZ15" s="73"/>
+      <c r="CV15" s="64"/>
+      <c r="CW15" s="64"/>
+      <c r="CX15" s="64"/>
+      <c r="CY15" s="64"/>
+      <c r="CZ15" s="64"/>
       <c r="DA15" s="49"/>
     </row>
     <row r="16" spans="2:105" ht="20.25" customHeight="1">
@@ -5440,7 +5452,7 @@
       </c>
       <c r="AL16" s="52"/>
       <c r="AM16" s="7">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="AN16" s="53"/>
       <c r="AO16" s="41">
@@ -5465,9 +5477,13 @@
       <c r="AX16" s="41">
         <v>45097</v>
       </c>
-      <c r="AY16" s="52"/>
+      <c r="AY16" s="52">
+        <v>45098</v>
+      </c>
       <c r="AZ16" s="52"/>
-      <c r="BA16" s="7"/>
+      <c r="BA16" s="7">
+        <v>0.6</v>
+      </c>
       <c r="BB16" s="53"/>
       <c r="BC16" s="41">
         <v>45098</v>
@@ -5503,34 +5519,34 @@
       <c r="BV16" s="10"/>
       <c r="BW16" s="10"/>
       <c r="BX16" s="49"/>
-      <c r="BY16" s="74"/>
-      <c r="BZ16" s="74"/>
-      <c r="CA16" s="74"/>
-      <c r="CB16" s="74"/>
-      <c r="CC16" s="74"/>
-      <c r="CD16" s="74"/>
-      <c r="CE16" s="74"/>
-      <c r="CF16" s="74"/>
-      <c r="CG16" s="74"/>
-      <c r="CH16" s="74"/>
-      <c r="CI16" s="74"/>
-      <c r="CJ16" s="74"/>
-      <c r="CK16" s="74"/>
+      <c r="BY16" s="65"/>
+      <c r="BZ16" s="65"/>
+      <c r="CA16" s="65"/>
+      <c r="CB16" s="65"/>
+      <c r="CC16" s="65"/>
+      <c r="CD16" s="65"/>
+      <c r="CE16" s="65"/>
+      <c r="CF16" s="65"/>
+      <c r="CG16" s="65"/>
+      <c r="CH16" s="65"/>
+      <c r="CI16" s="65"/>
+      <c r="CJ16" s="65"/>
+      <c r="CK16" s="65"/>
       <c r="CL16" s="23"/>
-      <c r="CM16" s="74"/>
-      <c r="CN16" s="74"/>
-      <c r="CO16" s="74"/>
-      <c r="CP16" s="74"/>
-      <c r="CQ16" s="74"/>
-      <c r="CR16" s="74"/>
-      <c r="CS16" s="74"/>
-      <c r="CT16" s="74"/>
-      <c r="CU16" s="74"/>
-      <c r="CV16" s="74"/>
-      <c r="CW16" s="74"/>
-      <c r="CX16" s="74"/>
-      <c r="CY16" s="74"/>
-      <c r="CZ16" s="74"/>
+      <c r="CM16" s="65"/>
+      <c r="CN16" s="65"/>
+      <c r="CO16" s="65"/>
+      <c r="CP16" s="65"/>
+      <c r="CQ16" s="65"/>
+      <c r="CR16" s="65"/>
+      <c r="CS16" s="65"/>
+      <c r="CT16" s="65"/>
+      <c r="CU16" s="65"/>
+      <c r="CV16" s="65"/>
+      <c r="CW16" s="65"/>
+      <c r="CX16" s="65"/>
+      <c r="CY16" s="65"/>
+      <c r="CZ16" s="65"/>
       <c r="DA16" s="49"/>
     </row>
     <row r="17" spans="2:105" ht="20.25" customHeight="1">
@@ -5662,9 +5678,13 @@
       <c r="AX17" s="41">
         <v>45097</v>
       </c>
-      <c r="AY17" s="52"/>
+      <c r="AY17" s="52">
+        <v>45098</v>
+      </c>
       <c r="AZ17" s="52"/>
-      <c r="BA17" s="7"/>
+      <c r="BA17" s="7">
+        <v>0.9</v>
+      </c>
       <c r="BB17" s="53"/>
       <c r="BC17" s="41">
         <v>45098</v>
@@ -5700,34 +5720,34 @@
       <c r="BV17" s="10"/>
       <c r="BW17" s="10"/>
       <c r="BX17" s="49"/>
-      <c r="BY17" s="74"/>
-      <c r="BZ17" s="74"/>
-      <c r="CA17" s="74"/>
-      <c r="CB17" s="74"/>
-      <c r="CC17" s="74"/>
-      <c r="CD17" s="74"/>
-      <c r="CE17" s="74"/>
-      <c r="CF17" s="74"/>
-      <c r="CG17" s="74"/>
-      <c r="CH17" s="74"/>
-      <c r="CI17" s="74"/>
-      <c r="CJ17" s="74"/>
-      <c r="CK17" s="74"/>
+      <c r="BY17" s="65"/>
+      <c r="BZ17" s="65"/>
+      <c r="CA17" s="65"/>
+      <c r="CB17" s="65"/>
+      <c r="CC17" s="65"/>
+      <c r="CD17" s="65"/>
+      <c r="CE17" s="65"/>
+      <c r="CF17" s="65"/>
+      <c r="CG17" s="65"/>
+      <c r="CH17" s="65"/>
+      <c r="CI17" s="65"/>
+      <c r="CJ17" s="65"/>
+      <c r="CK17" s="65"/>
       <c r="CL17" s="23"/>
-      <c r="CM17" s="74"/>
-      <c r="CN17" s="74"/>
-      <c r="CO17" s="74"/>
-      <c r="CP17" s="74"/>
-      <c r="CQ17" s="74"/>
-      <c r="CR17" s="74"/>
-      <c r="CS17" s="74"/>
-      <c r="CT17" s="74"/>
-      <c r="CU17" s="74"/>
-      <c r="CV17" s="74"/>
-      <c r="CW17" s="74"/>
-      <c r="CX17" s="74"/>
-      <c r="CY17" s="74"/>
-      <c r="CZ17" s="74"/>
+      <c r="CM17" s="65"/>
+      <c r="CN17" s="65"/>
+      <c r="CO17" s="65"/>
+      <c r="CP17" s="65"/>
+      <c r="CQ17" s="65"/>
+      <c r="CR17" s="65"/>
+      <c r="CS17" s="65"/>
+      <c r="CT17" s="65"/>
+      <c r="CU17" s="65"/>
+      <c r="CV17" s="65"/>
+      <c r="CW17" s="65"/>
+      <c r="CX17" s="65"/>
+      <c r="CY17" s="65"/>
+      <c r="CZ17" s="65"/>
       <c r="DA17" s="49"/>
     </row>
     <row r="18" spans="2:105" ht="20.25" customHeight="1">
@@ -5834,7 +5854,7 @@
         <v>45098</v>
       </c>
       <c r="AM18" s="7">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AN18" s="53"/>
       <c r="AO18" s="41">
@@ -5861,9 +5881,13 @@
       <c r="AX18" s="41">
         <v>45097</v>
       </c>
-      <c r="AY18" s="52"/>
+      <c r="AY18" s="52">
+        <v>45098</v>
+      </c>
       <c r="AZ18" s="52"/>
-      <c r="BA18" s="7"/>
+      <c r="BA18" s="7">
+        <v>0.9</v>
+      </c>
       <c r="BB18" s="53"/>
       <c r="BC18" s="41">
         <v>45098</v>
@@ -5899,34 +5923,34 @@
       <c r="BV18" s="10"/>
       <c r="BW18" s="10"/>
       <c r="BX18" s="50"/>
-      <c r="BY18" s="74"/>
-      <c r="BZ18" s="74"/>
-      <c r="CA18" s="74"/>
-      <c r="CB18" s="74"/>
-      <c r="CC18" s="74"/>
-      <c r="CD18" s="74"/>
-      <c r="CE18" s="74"/>
-      <c r="CF18" s="74"/>
-      <c r="CG18" s="74"/>
-      <c r="CH18" s="74"/>
-      <c r="CI18" s="74"/>
-      <c r="CJ18" s="74"/>
-      <c r="CK18" s="74"/>
+      <c r="BY18" s="65"/>
+      <c r="BZ18" s="65"/>
+      <c r="CA18" s="65"/>
+      <c r="CB18" s="65"/>
+      <c r="CC18" s="65"/>
+      <c r="CD18" s="65"/>
+      <c r="CE18" s="65"/>
+      <c r="CF18" s="65"/>
+      <c r="CG18" s="65"/>
+      <c r="CH18" s="65"/>
+      <c r="CI18" s="65"/>
+      <c r="CJ18" s="65"/>
+      <c r="CK18" s="65"/>
       <c r="CL18" s="23"/>
-      <c r="CM18" s="74"/>
-      <c r="CN18" s="74"/>
-      <c r="CO18" s="74"/>
-      <c r="CP18" s="74"/>
-      <c r="CQ18" s="74"/>
-      <c r="CR18" s="74"/>
-      <c r="CS18" s="74"/>
-      <c r="CT18" s="74"/>
-      <c r="CU18" s="74"/>
-      <c r="CV18" s="74"/>
-      <c r="CW18" s="74"/>
-      <c r="CX18" s="74"/>
-      <c r="CY18" s="74"/>
-      <c r="CZ18" s="74"/>
+      <c r="CM18" s="65"/>
+      <c r="CN18" s="65"/>
+      <c r="CO18" s="65"/>
+      <c r="CP18" s="65"/>
+      <c r="CQ18" s="65"/>
+      <c r="CR18" s="65"/>
+      <c r="CS18" s="65"/>
+      <c r="CT18" s="65"/>
+      <c r="CU18" s="65"/>
+      <c r="CV18" s="65"/>
+      <c r="CW18" s="65"/>
+      <c r="CX18" s="65"/>
+      <c r="CY18" s="65"/>
+      <c r="CZ18" s="65"/>
       <c r="DA18" s="49"/>
     </row>
     <row r="19" spans="2:105" ht="20.25" customHeight="1">
@@ -6031,7 +6055,7 @@
       </c>
       <c r="AL19" s="52"/>
       <c r="AM19" s="7">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AN19" s="53"/>
       <c r="AO19" s="41">
@@ -6056,9 +6080,13 @@
       <c r="AX19" s="41">
         <v>45097</v>
       </c>
-      <c r="AY19" s="52"/>
+      <c r="AY19" s="52">
+        <v>45098</v>
+      </c>
       <c r="AZ19" s="52"/>
-      <c r="BA19" s="7"/>
+      <c r="BA19" s="7">
+        <v>0.8</v>
+      </c>
       <c r="BB19" s="53"/>
       <c r="BC19" s="41">
         <v>45098</v>
@@ -6094,34 +6122,34 @@
       <c r="BV19" s="10"/>
       <c r="BW19" s="10"/>
       <c r="BX19" s="50"/>
-      <c r="BY19" s="74"/>
-      <c r="BZ19" s="74"/>
-      <c r="CA19" s="74"/>
-      <c r="CB19" s="74"/>
-      <c r="CC19" s="74"/>
-      <c r="CD19" s="74"/>
-      <c r="CE19" s="74"/>
-      <c r="CF19" s="74"/>
-      <c r="CG19" s="74"/>
-      <c r="CH19" s="74"/>
-      <c r="CI19" s="74"/>
-      <c r="CJ19" s="74"/>
-      <c r="CK19" s="74"/>
+      <c r="BY19" s="65"/>
+      <c r="BZ19" s="65"/>
+      <c r="CA19" s="65"/>
+      <c r="CB19" s="65"/>
+      <c r="CC19" s="65"/>
+      <c r="CD19" s="65"/>
+      <c r="CE19" s="65"/>
+      <c r="CF19" s="65"/>
+      <c r="CG19" s="65"/>
+      <c r="CH19" s="65"/>
+      <c r="CI19" s="65"/>
+      <c r="CJ19" s="65"/>
+      <c r="CK19" s="65"/>
       <c r="CL19" s="23"/>
-      <c r="CM19" s="74"/>
-      <c r="CN19" s="74"/>
-      <c r="CO19" s="74"/>
-      <c r="CP19" s="74"/>
-      <c r="CQ19" s="74"/>
-      <c r="CR19" s="74"/>
-      <c r="CS19" s="74"/>
-      <c r="CT19" s="74"/>
-      <c r="CU19" s="74"/>
-      <c r="CV19" s="74"/>
-      <c r="CW19" s="74"/>
-      <c r="CX19" s="74"/>
-      <c r="CY19" s="74"/>
-      <c r="CZ19" s="74"/>
+      <c r="CM19" s="65"/>
+      <c r="CN19" s="65"/>
+      <c r="CO19" s="65"/>
+      <c r="CP19" s="65"/>
+      <c r="CQ19" s="65"/>
+      <c r="CR19" s="65"/>
+      <c r="CS19" s="65"/>
+      <c r="CT19" s="65"/>
+      <c r="CU19" s="65"/>
+      <c r="CV19" s="65"/>
+      <c r="CW19" s="65"/>
+      <c r="CX19" s="65"/>
+      <c r="CY19" s="65"/>
+      <c r="CZ19" s="65"/>
       <c r="DA19" s="49"/>
     </row>
     <row r="20" spans="2:105" ht="20.25" customHeight="1">
@@ -6226,7 +6254,7 @@
       </c>
       <c r="AL20" s="52"/>
       <c r="AM20" s="7">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="AN20" s="53"/>
       <c r="AO20" s="41">
@@ -6251,9 +6279,13 @@
       <c r="AX20" s="41">
         <v>45097</v>
       </c>
-      <c r="AY20" s="52"/>
+      <c r="AY20" s="52">
+        <v>45098</v>
+      </c>
       <c r="AZ20" s="52"/>
-      <c r="BA20" s="7"/>
+      <c r="BA20" s="7">
+        <v>1</v>
+      </c>
       <c r="BB20" s="53"/>
       <c r="BC20" s="41">
         <v>45098</v>
@@ -6289,34 +6321,34 @@
       <c r="BV20" s="10"/>
       <c r="BW20" s="10"/>
       <c r="BX20" s="50"/>
-      <c r="BY20" s="74"/>
-      <c r="BZ20" s="74"/>
-      <c r="CA20" s="74"/>
-      <c r="CB20" s="74"/>
-      <c r="CC20" s="74"/>
-      <c r="CD20" s="74"/>
-      <c r="CE20" s="74"/>
-      <c r="CF20" s="74"/>
-      <c r="CG20" s="74"/>
-      <c r="CH20" s="74"/>
-      <c r="CI20" s="74"/>
-      <c r="CJ20" s="74"/>
-      <c r="CK20" s="74"/>
+      <c r="BY20" s="65"/>
+      <c r="BZ20" s="65"/>
+      <c r="CA20" s="65"/>
+      <c r="CB20" s="65"/>
+      <c r="CC20" s="65"/>
+      <c r="CD20" s="65"/>
+      <c r="CE20" s="65"/>
+      <c r="CF20" s="65"/>
+      <c r="CG20" s="65"/>
+      <c r="CH20" s="65"/>
+      <c r="CI20" s="65"/>
+      <c r="CJ20" s="65"/>
+      <c r="CK20" s="65"/>
       <c r="CL20" s="23"/>
-      <c r="CM20" s="74"/>
-      <c r="CN20" s="74"/>
-      <c r="CO20" s="74"/>
-      <c r="CP20" s="74"/>
-      <c r="CQ20" s="74"/>
-      <c r="CR20" s="74"/>
-      <c r="CS20" s="74"/>
-      <c r="CT20" s="74"/>
-      <c r="CU20" s="74"/>
-      <c r="CV20" s="74"/>
-      <c r="CW20" s="74"/>
-      <c r="CX20" s="74"/>
-      <c r="CY20" s="74"/>
-      <c r="CZ20" s="74"/>
+      <c r="CM20" s="65"/>
+      <c r="CN20" s="65"/>
+      <c r="CO20" s="65"/>
+      <c r="CP20" s="65"/>
+      <c r="CQ20" s="65"/>
+      <c r="CR20" s="65"/>
+      <c r="CS20" s="65"/>
+      <c r="CT20" s="65"/>
+      <c r="CU20" s="65"/>
+      <c r="CV20" s="65"/>
+      <c r="CW20" s="65"/>
+      <c r="CX20" s="65"/>
+      <c r="CY20" s="65"/>
+      <c r="CZ20" s="65"/>
       <c r="DA20" s="49"/>
     </row>
     <row r="21" spans="2:105" ht="20.25" customHeight="1">
@@ -6421,7 +6453,7 @@
       </c>
       <c r="AL21" s="52"/>
       <c r="AM21" s="7">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AN21" s="53"/>
       <c r="AO21" s="41">
@@ -6446,9 +6478,13 @@
       <c r="AX21" s="41">
         <v>45097</v>
       </c>
-      <c r="AY21" s="52"/>
+      <c r="AY21" s="52">
+        <v>45098</v>
+      </c>
       <c r="AZ21" s="52"/>
-      <c r="BA21" s="7"/>
+      <c r="BA21" s="7">
+        <v>0.3</v>
+      </c>
       <c r="BB21" s="53"/>
       <c r="BC21" s="41">
         <v>45098</v>
@@ -6484,34 +6520,34 @@
       <c r="BV21" s="10"/>
       <c r="BW21" s="10"/>
       <c r="BX21" s="50"/>
-      <c r="BY21" s="74"/>
-      <c r="BZ21" s="74"/>
-      <c r="CA21" s="74"/>
-      <c r="CB21" s="74"/>
-      <c r="CC21" s="74"/>
-      <c r="CD21" s="74"/>
-      <c r="CE21" s="74"/>
-      <c r="CF21" s="74"/>
-      <c r="CG21" s="74"/>
-      <c r="CH21" s="74"/>
-      <c r="CI21" s="74"/>
-      <c r="CJ21" s="74"/>
-      <c r="CK21" s="74"/>
+      <c r="BY21" s="65"/>
+      <c r="BZ21" s="65"/>
+      <c r="CA21" s="65"/>
+      <c r="CB21" s="65"/>
+      <c r="CC21" s="65"/>
+      <c r="CD21" s="65"/>
+      <c r="CE21" s="65"/>
+      <c r="CF21" s="65"/>
+      <c r="CG21" s="65"/>
+      <c r="CH21" s="65"/>
+      <c r="CI21" s="65"/>
+      <c r="CJ21" s="65"/>
+      <c r="CK21" s="65"/>
       <c r="CL21" s="23"/>
-      <c r="CM21" s="74"/>
-      <c r="CN21" s="74"/>
-      <c r="CO21" s="74"/>
-      <c r="CP21" s="74"/>
-      <c r="CQ21" s="74"/>
-      <c r="CR21" s="74"/>
-      <c r="CS21" s="74"/>
-      <c r="CT21" s="74"/>
-      <c r="CU21" s="74"/>
-      <c r="CV21" s="74"/>
-      <c r="CW21" s="74"/>
-      <c r="CX21" s="74"/>
-      <c r="CY21" s="74"/>
-      <c r="CZ21" s="74"/>
+      <c r="CM21" s="65"/>
+      <c r="CN21" s="65"/>
+      <c r="CO21" s="65"/>
+      <c r="CP21" s="65"/>
+      <c r="CQ21" s="65"/>
+      <c r="CR21" s="65"/>
+      <c r="CS21" s="65"/>
+      <c r="CT21" s="65"/>
+      <c r="CU21" s="65"/>
+      <c r="CV21" s="65"/>
+      <c r="CW21" s="65"/>
+      <c r="CX21" s="65"/>
+      <c r="CY21" s="65"/>
+      <c r="CZ21" s="65"/>
       <c r="DA21" s="49"/>
     </row>
     <row r="22" spans="2:105" ht="20.25" customHeight="1">
@@ -6671,34 +6707,34 @@
       <c r="BV22" s="39"/>
       <c r="BW22" s="39"/>
       <c r="BX22" s="47"/>
-      <c r="BY22" s="75"/>
-      <c r="BZ22" s="75"/>
-      <c r="CA22" s="75"/>
-      <c r="CB22" s="75"/>
-      <c r="CC22" s="75"/>
-      <c r="CD22" s="75"/>
-      <c r="CE22" s="75"/>
-      <c r="CF22" s="75"/>
-      <c r="CG22" s="75"/>
-      <c r="CH22" s="75"/>
-      <c r="CI22" s="75"/>
-      <c r="CJ22" s="75"/>
-      <c r="CK22" s="75"/>
+      <c r="BY22" s="66"/>
+      <c r="BZ22" s="66"/>
+      <c r="CA22" s="66"/>
+      <c r="CB22" s="66"/>
+      <c r="CC22" s="66"/>
+      <c r="CD22" s="66"/>
+      <c r="CE22" s="66"/>
+      <c r="CF22" s="66"/>
+      <c r="CG22" s="66"/>
+      <c r="CH22" s="66"/>
+      <c r="CI22" s="66"/>
+      <c r="CJ22" s="66"/>
+      <c r="CK22" s="66"/>
       <c r="CL22" s="48"/>
-      <c r="CM22" s="75"/>
-      <c r="CN22" s="75"/>
-      <c r="CO22" s="75"/>
-      <c r="CP22" s="75"/>
-      <c r="CQ22" s="75"/>
-      <c r="CR22" s="75"/>
-      <c r="CS22" s="75"/>
-      <c r="CT22" s="75"/>
-      <c r="CU22" s="75"/>
-      <c r="CV22" s="75"/>
-      <c r="CW22" s="75"/>
-      <c r="CX22" s="75"/>
-      <c r="CY22" s="75"/>
-      <c r="CZ22" s="75"/>
+      <c r="CM22" s="66"/>
+      <c r="CN22" s="66"/>
+      <c r="CO22" s="66"/>
+      <c r="CP22" s="66"/>
+      <c r="CQ22" s="66"/>
+      <c r="CR22" s="66"/>
+      <c r="CS22" s="66"/>
+      <c r="CT22" s="66"/>
+      <c r="CU22" s="66"/>
+      <c r="CV22" s="66"/>
+      <c r="CW22" s="66"/>
+      <c r="CX22" s="66"/>
+      <c r="CY22" s="66"/>
+      <c r="CZ22" s="66"/>
       <c r="DA22" s="49"/>
     </row>
     <row r="23" spans="2:105" ht="20.25" customHeight="1">
@@ -6851,42 +6887,83 @@
     </row>
   </sheetData>
   <mergeCells count="137">
-    <mergeCell ref="BZ7:BZ14"/>
-    <mergeCell ref="CA7:CA14"/>
-    <mergeCell ref="CF7:CF14"/>
-    <mergeCell ref="CG7:CG14"/>
-    <mergeCell ref="CN7:CN14"/>
-    <mergeCell ref="CO7:CO14"/>
-    <mergeCell ref="CT7:CT14"/>
-    <mergeCell ref="CU7:CU14"/>
-    <mergeCell ref="CM7:CM13"/>
-    <mergeCell ref="CB7:CB13"/>
-    <mergeCell ref="CC7:CC13"/>
-    <mergeCell ref="CD7:CD13"/>
-    <mergeCell ref="CE7:CE13"/>
-    <mergeCell ref="CH7:CH13"/>
-    <mergeCell ref="CI7:CI13"/>
-    <mergeCell ref="CJ7:CJ13"/>
-    <mergeCell ref="CB15:CB22"/>
-    <mergeCell ref="CC15:CC22"/>
-    <mergeCell ref="CD15:CD22"/>
-    <mergeCell ref="CM15:CM22"/>
-    <mergeCell ref="CN15:CN22"/>
-    <mergeCell ref="CO15:CO22"/>
-    <mergeCell ref="CE15:CE22"/>
-    <mergeCell ref="CF15:CF22"/>
-    <mergeCell ref="CZ7:CZ13"/>
-    <mergeCell ref="CQ15:CQ22"/>
-    <mergeCell ref="CR15:CR22"/>
-    <mergeCell ref="CS15:CS22"/>
-    <mergeCell ref="CV7:CV13"/>
-    <mergeCell ref="CW7:CW13"/>
-    <mergeCell ref="CX15:CX22"/>
-    <mergeCell ref="CY15:CY22"/>
-    <mergeCell ref="CW15:CW22"/>
-    <mergeCell ref="CX7:CX13"/>
-    <mergeCell ref="CY7:CY13"/>
-    <mergeCell ref="CG15:CG22"/>
+    <mergeCell ref="Y5:Y6"/>
+    <mergeCell ref="BH5:BH6"/>
+    <mergeCell ref="CE4:CK4"/>
+    <mergeCell ref="CM4:CR4"/>
+    <mergeCell ref="CS4:CZ4"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="W5:X5"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AO5:AP5"/>
+    <mergeCell ref="AQ5:AR5"/>
+    <mergeCell ref="AW5:AX5"/>
+    <mergeCell ref="AY5:AZ5"/>
+    <mergeCell ref="BC5:BD5"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BK5:BL5"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="L4:R4"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="Q5:Q6"/>
+    <mergeCell ref="R5:R6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="CD5:CD6"/>
+    <mergeCell ref="AE5:AE6"/>
+    <mergeCell ref="AF5:AF6"/>
+    <mergeCell ref="AH5:AH6"/>
+    <mergeCell ref="BM5:BN5"/>
+    <mergeCell ref="BQ5:BR5"/>
+    <mergeCell ref="AM5:AM6"/>
+    <mergeCell ref="AN5:AN6"/>
+    <mergeCell ref="AS5:AS6"/>
+    <mergeCell ref="BZ5:CA5"/>
+    <mergeCell ref="BA5:BA6"/>
+    <mergeCell ref="BB5:BB6"/>
+    <mergeCell ref="BG5:BG6"/>
+    <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AV5:AV6"/>
+    <mergeCell ref="BJ5:BJ6"/>
+    <mergeCell ref="BO5:BO6"/>
+    <mergeCell ref="BP5:BP6"/>
+    <mergeCell ref="BU5:BU6"/>
+    <mergeCell ref="BV5:BV6"/>
+    <mergeCell ref="BW5:BW6"/>
+    <mergeCell ref="BY5:BY6"/>
+    <mergeCell ref="BS5:BT5"/>
+    <mergeCell ref="BP4:BW4"/>
+    <mergeCell ref="BY4:CD4"/>
+    <mergeCell ref="T4:Y4"/>
+    <mergeCell ref="Z4:AF4"/>
+    <mergeCell ref="AH4:AM4"/>
+    <mergeCell ref="AN4:AT4"/>
+    <mergeCell ref="AV4:BA4"/>
+    <mergeCell ref="BB4:BH4"/>
+    <mergeCell ref="BJ4:BO4"/>
+    <mergeCell ref="CN5:CO5"/>
+    <mergeCell ref="CP5:CQ5"/>
+    <mergeCell ref="CM5:CM6"/>
+    <mergeCell ref="CH5:CI5"/>
+    <mergeCell ref="CE5:CE6"/>
+    <mergeCell ref="CK7:CK13"/>
+    <mergeCell ref="CP7:CP13"/>
+    <mergeCell ref="CQ7:CQ13"/>
+    <mergeCell ref="CB5:CC5"/>
+    <mergeCell ref="CF5:CG5"/>
     <mergeCell ref="BY7:BY13"/>
     <mergeCell ref="CZ5:CZ6"/>
     <mergeCell ref="CX5:CX6"/>
@@ -6911,251 +6988,225 @@
     <mergeCell ref="CR5:CR6"/>
     <mergeCell ref="CJ5:CJ6"/>
     <mergeCell ref="CK5:CK6"/>
-    <mergeCell ref="CN5:CO5"/>
-    <mergeCell ref="CP5:CQ5"/>
-    <mergeCell ref="CM5:CM6"/>
-    <mergeCell ref="CH5:CI5"/>
-    <mergeCell ref="CE5:CE6"/>
-    <mergeCell ref="CK7:CK13"/>
-    <mergeCell ref="CP7:CP13"/>
-    <mergeCell ref="CQ7:CQ13"/>
-    <mergeCell ref="CB5:CC5"/>
-    <mergeCell ref="CF5:CG5"/>
-    <mergeCell ref="BP4:BW4"/>
-    <mergeCell ref="BY4:CD4"/>
-    <mergeCell ref="T4:Y4"/>
-    <mergeCell ref="Z4:AF4"/>
-    <mergeCell ref="AH4:AM4"/>
-    <mergeCell ref="AN4:AT4"/>
-    <mergeCell ref="AV4:BA4"/>
-    <mergeCell ref="BB4:BH4"/>
-    <mergeCell ref="BJ4:BO4"/>
-    <mergeCell ref="Z5:Z6"/>
-    <mergeCell ref="CD5:CD6"/>
-    <mergeCell ref="AE5:AE6"/>
-    <mergeCell ref="AF5:AF6"/>
-    <mergeCell ref="AH5:AH6"/>
-    <mergeCell ref="BM5:BN5"/>
-    <mergeCell ref="BQ5:BR5"/>
-    <mergeCell ref="AM5:AM6"/>
-    <mergeCell ref="AN5:AN6"/>
-    <mergeCell ref="AS5:AS6"/>
-    <mergeCell ref="BZ5:CA5"/>
-    <mergeCell ref="BA5:BA6"/>
-    <mergeCell ref="BB5:BB6"/>
-    <mergeCell ref="BG5:BG6"/>
-    <mergeCell ref="AT5:AT6"/>
-    <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="BJ5:BJ6"/>
-    <mergeCell ref="BO5:BO6"/>
-    <mergeCell ref="BP5:BP6"/>
-    <mergeCell ref="BU5:BU6"/>
-    <mergeCell ref="BV5:BV6"/>
-    <mergeCell ref="BW5:BW6"/>
-    <mergeCell ref="BY5:BY6"/>
-    <mergeCell ref="BS5:BT5"/>
-    <mergeCell ref="T5:T6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="Q5:Q6"/>
-    <mergeCell ref="R5:R6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="BH5:BH6"/>
-    <mergeCell ref="CE4:CK4"/>
-    <mergeCell ref="CM4:CR4"/>
-    <mergeCell ref="CS4:CZ4"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="W5:X5"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AO5:AP5"/>
-    <mergeCell ref="AQ5:AR5"/>
-    <mergeCell ref="AW5:AX5"/>
-    <mergeCell ref="AY5:AZ5"/>
-    <mergeCell ref="BC5:BD5"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BK5:BL5"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="L4:R4"/>
+    <mergeCell ref="CB15:CB22"/>
+    <mergeCell ref="CC15:CC22"/>
+    <mergeCell ref="CD15:CD22"/>
+    <mergeCell ref="CM15:CM22"/>
+    <mergeCell ref="CN15:CN22"/>
+    <mergeCell ref="CO15:CO22"/>
+    <mergeCell ref="CE15:CE22"/>
+    <mergeCell ref="CF15:CF22"/>
+    <mergeCell ref="CZ7:CZ13"/>
+    <mergeCell ref="CQ15:CQ22"/>
+    <mergeCell ref="CR15:CR22"/>
+    <mergeCell ref="CS15:CS22"/>
+    <mergeCell ref="CV7:CV13"/>
+    <mergeCell ref="CW7:CW13"/>
+    <mergeCell ref="CX15:CX22"/>
+    <mergeCell ref="CY15:CY22"/>
+    <mergeCell ref="CW15:CW22"/>
+    <mergeCell ref="CX7:CX13"/>
+    <mergeCell ref="CY7:CY13"/>
+    <mergeCell ref="CG15:CG22"/>
+    <mergeCell ref="BZ7:BZ14"/>
+    <mergeCell ref="CA7:CA14"/>
+    <mergeCell ref="CF7:CF14"/>
+    <mergeCell ref="CG7:CG14"/>
+    <mergeCell ref="CN7:CN14"/>
+    <mergeCell ref="CO7:CO14"/>
+    <mergeCell ref="CT7:CT14"/>
+    <mergeCell ref="CU7:CU14"/>
+    <mergeCell ref="CM7:CM13"/>
+    <mergeCell ref="CB7:CB13"/>
+    <mergeCell ref="CC7:CC13"/>
+    <mergeCell ref="CD7:CD13"/>
+    <mergeCell ref="CE7:CE13"/>
+    <mergeCell ref="CH7:CH13"/>
+    <mergeCell ref="CI7:CI13"/>
+    <mergeCell ref="CJ7:CJ13"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="F15:F16">
-    <cfRule type="expression" dxfId="33" priority="207">
+    <cfRule type="expression" dxfId="36" priority="210">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="32" priority="216">
+    <cfRule type="expression" dxfId="35" priority="219">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F18">
-    <cfRule type="expression" dxfId="31" priority="217">
+    <cfRule type="expression" dxfId="34" priority="220">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="expression" dxfId="30" priority="214">
+    <cfRule type="expression" dxfId="33" priority="217">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F22">
-    <cfRule type="expression" dxfId="29" priority="179">
+    <cfRule type="expression" dxfId="32" priority="182">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:K14">
-    <cfRule type="expression" dxfId="28" priority="102">
+    <cfRule type="expression" dxfId="31" priority="105">
       <formula>$J7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15:J22">
-    <cfRule type="expression" dxfId="27" priority="241">
+    <cfRule type="expression" dxfId="30" priority="244">
       <formula>$I15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L7:R22 K15:K22">
-    <cfRule type="expression" dxfId="26" priority="95">
+    <cfRule type="expression" dxfId="29" priority="98">
       <formula>$P7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T15:T16 T20">
-    <cfRule type="expression" dxfId="25" priority="26">
+    <cfRule type="expression" dxfId="28" priority="29">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17:T18">
-    <cfRule type="expression" dxfId="24" priority="29">
+    <cfRule type="expression" dxfId="27" priority="32">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T19">
-    <cfRule type="expression" dxfId="23" priority="27">
+    <cfRule type="expression" dxfId="26" priority="30">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T21:T22">
-    <cfRule type="expression" dxfId="22" priority="25">
+    <cfRule type="expression" dxfId="25" priority="28">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U15:Y22">
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="24" priority="25">
       <formula>$X15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z7:Z22">
-    <cfRule type="expression" dxfId="20" priority="8">
+    <cfRule type="expression" dxfId="23" priority="11">
       <formula>$P7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15:AB21">
-    <cfRule type="expression" dxfId="19" priority="260">
+    <cfRule type="expression" dxfId="22" priority="263">
       <formula>$X16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA15:AB22 AF15:AF22">
-    <cfRule type="expression" dxfId="18" priority="247">
+    <cfRule type="expression" dxfId="21" priority="250">
       <formula>$AD15&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA22:AB22">
-    <cfRule type="expression" dxfId="17" priority="209">
+    <cfRule type="expression" dxfId="20" priority="212">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH7:AH14">
-    <cfRule type="expression" dxfId="16" priority="15">
+    <cfRule type="expression" dxfId="19" priority="18">
       <formula>$J7&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH15:AH16">
-    <cfRule type="expression" dxfId="15" priority="11">
+    <cfRule type="expression" dxfId="18" priority="14">
       <formula>#REF!&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH17:AH18">
-    <cfRule type="expression" dxfId="14" priority="14">
+    <cfRule type="expression" dxfId="17" priority="17">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH19">
-    <cfRule type="expression" dxfId="13" priority="12">
+    <cfRule type="expression" dxfId="16" priority="15">
       <formula>$I18&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH20:AH22">
-    <cfRule type="expression" dxfId="12" priority=